--- a/slackbuilds/sb_migr.xlsx
+++ b/slackbuilds/sb_migr.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\projects.new\sh\cvstogit\slackbuilds\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FF60BA5-1500-4BDE-A772-ED167A27D01F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{643BC533-FDC2-4A6E-B428-06F5D8F7B14C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List" sheetId="1" r:id="rId1"/>
+    <sheet name="Revisions" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">List!$A$1:$G$311</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Revisions!$A$1:$F$311</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="623">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1880" uniqueCount="1255">
   <si>
     <t>Package</t>
   </si>
@@ -1905,6 +1907,1902 @@
   </si>
   <si>
     <t>firefox</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Repo</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>submodule</t>
+  </si>
+  <si>
+    <t>files</t>
+  </si>
+  <si>
+    <t>COPYING README</t>
+  </si>
+  <si>
+    <t>Message</t>
+  </si>
+  <si>
+    <t>Initial version</t>
+  </si>
+  <si>
+    <t>Branch</t>
+  </si>
+  <si>
+    <t>SLACK-10_2</t>
+  </si>
+  <si>
+    <t>2006-03-03 23:38:11</t>
+  </si>
+  <si>
+    <t>2006-03-04 11:12:00</t>
+  </si>
+  <si>
+    <t>2006-03-05 17:35:04</t>
+  </si>
+  <si>
+    <t>2006-03-10 22:16:00</t>
+  </si>
+  <si>
+    <t>2006-03-11 23:04:10</t>
+  </si>
+  <si>
+    <t>2006-03-24 22:46:33</t>
+  </si>
+  <si>
+    <t>2006-03-25 19:28:21</t>
+  </si>
+  <si>
+    <t>2006-05-28 00:38:53</t>
+  </si>
+  <si>
+    <t>2006-05-28 00:52:42</t>
+  </si>
+  <si>
+    <t>2006-07-20 21:49:12</t>
+  </si>
+  <si>
+    <t>2006-07-31 18:22:41</t>
+  </si>
+  <si>
+    <t>2006-07-31 18:35:36</t>
+  </si>
+  <si>
+    <t>2006-08-01 20:11:00</t>
+  </si>
+  <si>
+    <t>2006-08-03 14:23:48</t>
+  </si>
+  <si>
+    <t>2006-09-06 18:29:07</t>
+  </si>
+  <si>
+    <t>2006-09-10 20:19:24</t>
+  </si>
+  <si>
+    <t>2006-09-13 22:59:31</t>
+  </si>
+  <si>
+    <t>2006-09-27 21:40:48</t>
+  </si>
+  <si>
+    <t>2006-09-28 23:10:51</t>
+  </si>
+  <si>
+    <t>2006-10-22 14:09:19</t>
+  </si>
+  <si>
+    <t>2006-10-31 23:18:27</t>
+  </si>
+  <si>
+    <t>2006-11-02 22:21:49</t>
+  </si>
+  <si>
+    <t>2006-11-03 21:52:47</t>
+  </si>
+  <si>
+    <t>2006-11-05 16:42:26</t>
+  </si>
+  <si>
+    <t>2006-11-06 08:29:40</t>
+  </si>
+  <si>
+    <t>2006-12-03 13:40:44</t>
+  </si>
+  <si>
+    <t>2006-12-03 13:48:47</t>
+  </si>
+  <si>
+    <t>2006-12-03 20:02:54</t>
+  </si>
+  <si>
+    <t>2006-12-07 22:33:14</t>
+  </si>
+  <si>
+    <t>2006-12-12 00:03:24</t>
+  </si>
+  <si>
+    <t>2006-12-12 01:54:48</t>
+  </si>
+  <si>
+    <t>2007-01-03 00:01:00</t>
+  </si>
+  <si>
+    <t>2007-01-07 16:48:54</t>
+  </si>
+  <si>
+    <t>2007-01-23 01:09:37</t>
+  </si>
+  <si>
+    <t>2007-02-07 14:53:49</t>
+  </si>
+  <si>
+    <t>2007-02-12 09:17:19</t>
+  </si>
+  <si>
+    <t>2007-03-01 22:51:31</t>
+  </si>
+  <si>
+    <t>2007-03-18 06:12:04</t>
+  </si>
+  <si>
+    <t>2007-03-29 14:22:42</t>
+  </si>
+  <si>
+    <t>2007-07-09 21:15:10</t>
+  </si>
+  <si>
+    <t>2007-07-09 22:04:55</t>
+  </si>
+  <si>
+    <t>2007-07-09 23:46:33</t>
+  </si>
+  <si>
+    <t>2007-07-10 00:21:41</t>
+  </si>
+  <si>
+    <t>2007-07-11 23:33:49</t>
+  </si>
+  <si>
+    <t>2007-07-12 12:55:01</t>
+  </si>
+  <si>
+    <t>2007-07-12 15:14:29</t>
+  </si>
+  <si>
+    <t>2007-07-12 19:10:48</t>
+  </si>
+  <si>
+    <t>2007-07-12 19:50:37</t>
+  </si>
+  <si>
+    <t>2007-07-12 20:50:21</t>
+  </si>
+  <si>
+    <t>2007-07-12 21:09:11</t>
+  </si>
+  <si>
+    <t>2007-07-12 23:53:44</t>
+  </si>
+  <si>
+    <t>2007-07-15 22:50:18</t>
+  </si>
+  <si>
+    <t>2007-07-18 20:52:35</t>
+  </si>
+  <si>
+    <t>2007-07-31 08:12:06</t>
+  </si>
+  <si>
+    <t>2007-09-18 07:37:16</t>
+  </si>
+  <si>
+    <t>2007-09-18 22:47:09</t>
+  </si>
+  <si>
+    <t>2007-09-18 23:25:38</t>
+  </si>
+  <si>
+    <t>2007-09-22 14:29:24</t>
+  </si>
+  <si>
+    <t>2007-09-22 15:39:28</t>
+  </si>
+  <si>
+    <t>2007-09-22 20:58:28</t>
+  </si>
+  <si>
+    <t>2007-09-22 22:13:12</t>
+  </si>
+  <si>
+    <t>2007-09-22 22:16:00</t>
+  </si>
+  <si>
+    <t>2007-09-23 20:34:41</t>
+  </si>
+  <si>
+    <t>2007-09-23 20:53:34</t>
+  </si>
+  <si>
+    <t>2007-09-23 22:15:21</t>
+  </si>
+  <si>
+    <t>2007-09-24 21:03:44</t>
+  </si>
+  <si>
+    <t>2007-09-24 23:44:44</t>
+  </si>
+  <si>
+    <t>2007-09-25 21:58:28</t>
+  </si>
+  <si>
+    <t>2007-09-27 22:45:45</t>
+  </si>
+  <si>
+    <t>2007-09-27 23:16:55</t>
+  </si>
+  <si>
+    <t>2007-10-01 21:54:41</t>
+  </si>
+  <si>
+    <t>2007-10-01 21:58:54</t>
+  </si>
+  <si>
+    <t>2007-10-04 21:29:46</t>
+  </si>
+  <si>
+    <t>2007-11-13 22:24:35</t>
+  </si>
+  <si>
+    <t>2007-11-13 23:40:32</t>
+  </si>
+  <si>
+    <t>2007-11-15 20:18:04</t>
+  </si>
+  <si>
+    <t>2007-11-17 18:30:36</t>
+  </si>
+  <si>
+    <t>2007-11-17 21:04:37</t>
+  </si>
+  <si>
+    <t>2007-11-18 18:43:34</t>
+  </si>
+  <si>
+    <t>2007-11-18 19:44:23</t>
+  </si>
+  <si>
+    <t>2007-11-20 22:29:17</t>
+  </si>
+  <si>
+    <t>2007-11-30 10:12:39</t>
+  </si>
+  <si>
+    <t>2007-12-01 16:02:28</t>
+  </si>
+  <si>
+    <t>2007-12-01 16:42:24</t>
+  </si>
+  <si>
+    <t>2007-12-02 23:04:40</t>
+  </si>
+  <si>
+    <t>2007-12-02 23:31:12</t>
+  </si>
+  <si>
+    <t>2007-12-03 00:17:06</t>
+  </si>
+  <si>
+    <t>2007-12-03 00:41:07</t>
+  </si>
+  <si>
+    <t>2007-12-03 22:36:06</t>
+  </si>
+  <si>
+    <t>2007-12-04 23:57:24</t>
+  </si>
+  <si>
+    <t>2007-12-08 19:23:16</t>
+  </si>
+  <si>
+    <t>2007-12-08 20:36:51</t>
+  </si>
+  <si>
+    <t>2007-12-08 22:59:29</t>
+  </si>
+  <si>
+    <t>2007-12-09 11:57:10</t>
+  </si>
+  <si>
+    <t>2007-12-09 16:09:00</t>
+  </si>
+  <si>
+    <t>2008-01-04 23:55:37</t>
+  </si>
+  <si>
+    <t>2008-01-05 22:05:19</t>
+  </si>
+  <si>
+    <t>2008-01-20 18:25:12</t>
+  </si>
+  <si>
+    <t>2008-01-21 08:11:25</t>
+  </si>
+  <si>
+    <t>2008-10-18 19:42:21</t>
+  </si>
+  <si>
+    <t>2008-10-19 12:28:22</t>
+  </si>
+  <si>
+    <t>2008-10-23 23:02:37</t>
+  </si>
+  <si>
+    <t>2008-10-26 08:44:53</t>
+  </si>
+  <si>
+    <t>2008-11-02 13:12:37</t>
+  </si>
+  <si>
+    <t>2008-11-09 13:49:24</t>
+  </si>
+  <si>
+    <t>2008-11-09 16:16:09</t>
+  </si>
+  <si>
+    <t>2008-11-09 16:27:24</t>
+  </si>
+  <si>
+    <t>2008-11-09 19:23:59</t>
+  </si>
+  <si>
+    <t>2008-11-09 21:02:25</t>
+  </si>
+  <si>
+    <t>2008-11-10 08:54:14</t>
+  </si>
+  <si>
+    <t>2008-11-11 07:24:48</t>
+  </si>
+  <si>
+    <t>2008-11-11 08:08:43</t>
+  </si>
+  <si>
+    <t>2008-11-11 12:13:36</t>
+  </si>
+  <si>
+    <t>2008-11-11 12:49:51</t>
+  </si>
+  <si>
+    <t>2008-11-11 14:07:49</t>
+  </si>
+  <si>
+    <t>2008-11-13 17:50:32</t>
+  </si>
+  <si>
+    <t>2008-11-13 18:12:46</t>
+  </si>
+  <si>
+    <t>2008-11-13 20:43:03</t>
+  </si>
+  <si>
+    <t>2008-11-13 22:04:07</t>
+  </si>
+  <si>
+    <t>2008-11-13 22:24:11</t>
+  </si>
+  <si>
+    <t>2008-11-13 23:20:25</t>
+  </si>
+  <si>
+    <t>2008-11-13 23:53:00</t>
+  </si>
+  <si>
+    <t>2008-11-14 00:44:37</t>
+  </si>
+  <si>
+    <t>2008-11-14 14:55:35</t>
+  </si>
+  <si>
+    <t>2008-11-15 08:40:58</t>
+  </si>
+  <si>
+    <t>2008-11-15 11:05:17</t>
+  </si>
+  <si>
+    <t>2008-11-15 13:23:46</t>
+  </si>
+  <si>
+    <t>2008-11-15 15:07:19</t>
+  </si>
+  <si>
+    <t>2008-11-16 11:12:15</t>
+  </si>
+  <si>
+    <t>2008-11-16 15:06:59</t>
+  </si>
+  <si>
+    <t>2008-11-16 15:30:06</t>
+  </si>
+  <si>
+    <t>2008-11-16 16:19:32</t>
+  </si>
+  <si>
+    <t>2008-11-16 16:49:08</t>
+  </si>
+  <si>
+    <t>2008-11-16 17:56:54</t>
+  </si>
+  <si>
+    <t>2008-11-24 22:53:57</t>
+  </si>
+  <si>
+    <t>2008-11-30 15:58:58</t>
+  </si>
+  <si>
+    <t>2008-11-30 22:30:24</t>
+  </si>
+  <si>
+    <t>2009-02-22 19:59:59</t>
+  </si>
+  <si>
+    <t>2009-03-25 23:19:53</t>
+  </si>
+  <si>
+    <t>2009-04-27 22:47:56</t>
+  </si>
+  <si>
+    <t>2009-09-06 18:07:55</t>
+  </si>
+  <si>
+    <t>2009-10-17 19:08:36</t>
+  </si>
+  <si>
+    <t>2009-10-17 19:31:34</t>
+  </si>
+  <si>
+    <t>2009-10-18 14:03:50</t>
+  </si>
+  <si>
+    <t>2009-10-21 22:21:31</t>
+  </si>
+  <si>
+    <t>2009-10-22 01:34:55</t>
+  </si>
+  <si>
+    <t>2009-10-22 03:12:15</t>
+  </si>
+  <si>
+    <t>2009-10-22 11:51:09</t>
+  </si>
+  <si>
+    <t>2009-10-22 12:30:10</t>
+  </si>
+  <si>
+    <t>2009-10-22 18:03:08</t>
+  </si>
+  <si>
+    <t>2009-10-24 14:45:08</t>
+  </si>
+  <si>
+    <t>2009-10-25 07:25:05</t>
+  </si>
+  <si>
+    <t>2009-10-25 19:15:59</t>
+  </si>
+  <si>
+    <t>2009-11-16 11:15:56</t>
+  </si>
+  <si>
+    <t>2009-11-16 11:41:01</t>
+  </si>
+  <si>
+    <t>2009-12-05 11:41:28</t>
+  </si>
+  <si>
+    <t>2009-12-07 20:19:30</t>
+  </si>
+  <si>
+    <t>2010-01-05 20:23:10</t>
+  </si>
+  <si>
+    <t>2010-01-16 08:50:31</t>
+  </si>
+  <si>
+    <t>2010-01-17 01:25:22</t>
+  </si>
+  <si>
+    <t>2010-01-17 01:47:10</t>
+  </si>
+  <si>
+    <t>2010-03-20 13:12:17</t>
+  </si>
+  <si>
+    <t>2010-03-20 15:14:08</t>
+  </si>
+  <si>
+    <t>2010-08-01 22:24:02</t>
+  </si>
+  <si>
+    <t>2010-08-01 23:26:04</t>
+  </si>
+  <si>
+    <t>2010-08-14 12:21:01</t>
+  </si>
+  <si>
+    <t>2010-08-19 17:25:04</t>
+  </si>
+  <si>
+    <t>2010-08-26 21:35:04</t>
+  </si>
+  <si>
+    <t>2010-09-01 22:19:14</t>
+  </si>
+  <si>
+    <t>2010-09-02 22:42:37</t>
+  </si>
+  <si>
+    <t>2010-09-02 22:56:43</t>
+  </si>
+  <si>
+    <t>2010-09-02 23:12:31</t>
+  </si>
+  <si>
+    <t>2010-09-04 16:09:59</t>
+  </si>
+  <si>
+    <t>2010-09-04 21:33:28</t>
+  </si>
+  <si>
+    <t>2010-09-05 10:35:58</t>
+  </si>
+  <si>
+    <t>2010-09-05 19:22:46</t>
+  </si>
+  <si>
+    <t>2010-09-05 22:48:18</t>
+  </si>
+  <si>
+    <t>2010-09-05 23:29:14</t>
+  </si>
+  <si>
+    <t>2010-09-06 16:51:25</t>
+  </si>
+  <si>
+    <t>2010-09-06 17:20:48</t>
+  </si>
+  <si>
+    <t>2010-09-06 17:22:00</t>
+  </si>
+  <si>
+    <t>2010-09-11 23:09:50</t>
+  </si>
+  <si>
+    <t>2010-09-12 00:30:00</t>
+  </si>
+  <si>
+    <t>2010-09-12 17:59:20</t>
+  </si>
+  <si>
+    <t>2010-09-12 19:23:00</t>
+  </si>
+  <si>
+    <t>2010-10-02 16:48:00</t>
+  </si>
+  <si>
+    <t>2010-10-02 17:57:12</t>
+  </si>
+  <si>
+    <t>2010-10-03 18:16:51</t>
+  </si>
+  <si>
+    <t>2010-10-04 00:37:50</t>
+  </si>
+  <si>
+    <t>2010-10-04 01:12:02</t>
+  </si>
+  <si>
+    <t>2010-10-17 11:24:53</t>
+  </si>
+  <si>
+    <t>2010-10-17 12:18:09</t>
+  </si>
+  <si>
+    <t>2010-10-21 22:20:23</t>
+  </si>
+  <si>
+    <t>2010-10-23 11:04:31</t>
+  </si>
+  <si>
+    <t>2010-12-07 19:26:41</t>
+  </si>
+  <si>
+    <t>2010-12-26 17:07:41</t>
+  </si>
+  <si>
+    <t>2011-02-11 11:14:53</t>
+  </si>
+  <si>
+    <t>2011-02-13 10:46:54</t>
+  </si>
+  <si>
+    <t>2011-03-13 11:58:11</t>
+  </si>
+  <si>
+    <t>2011-03-13 12:44:58</t>
+  </si>
+  <si>
+    <t>2011-03-21 23:49:45</t>
+  </si>
+  <si>
+    <t>2011-03-22 00:54:22</t>
+  </si>
+  <si>
+    <t>2011-12-24 18:28:29</t>
+  </si>
+  <si>
+    <t>2012-01-22 19:18:12</t>
+  </si>
+  <si>
+    <t>2012-06-30 18:51:21</t>
+  </si>
+  <si>
+    <t>2012-09-15 10:58:21</t>
+  </si>
+  <si>
+    <t>2012-09-17 12:45:23</t>
+  </si>
+  <si>
+    <t>2012-09-17 14:18:30</t>
+  </si>
+  <si>
+    <t>2012-09-17 16:45:42</t>
+  </si>
+  <si>
+    <t>2012-09-22 10:16:27</t>
+  </si>
+  <si>
+    <t>2012-09-30 10:06:41</t>
+  </si>
+  <si>
+    <t>2012-12-24 13:24:28</t>
+  </si>
+  <si>
+    <t>2012-12-24 14:32:43</t>
+  </si>
+  <si>
+    <t>2013-02-16 14:03:05</t>
+  </si>
+  <si>
+    <t>2013-05-04 12:08:49</t>
+  </si>
+  <si>
+    <t>2013-05-04 12:35:16</t>
+  </si>
+  <si>
+    <t>2014-01-14 11:30:33</t>
+  </si>
+  <si>
+    <t>2014-02-16 14:12:12</t>
+  </si>
+  <si>
+    <t>2014-03-12 14:16:01</t>
+  </si>
+  <si>
+    <t>2014-03-29 17:48:31</t>
+  </si>
+  <si>
+    <t>2014-04-27 13:44:38</t>
+  </si>
+  <si>
+    <t>2014-04-27 14:09:22</t>
+  </si>
+  <si>
+    <t>2014-08-04 10:17:18</t>
+  </si>
+  <si>
+    <t>2014-08-17 20:10:15</t>
+  </si>
+  <si>
+    <t>2015-04-25 12:58:55</t>
+  </si>
+  <si>
+    <t>2015-04-25 13:12:08</t>
+  </si>
+  <si>
+    <t>2015-04-26 10:36:13</t>
+  </si>
+  <si>
+    <t>2015-04-26 14:26:18</t>
+  </si>
+  <si>
+    <t>2015-04-26 16:55:08</t>
+  </si>
+  <si>
+    <t>2015-04-29 21:13:20</t>
+  </si>
+  <si>
+    <t>2015-05-01 10:40:26</t>
+  </si>
+  <si>
+    <t>2015-05-01 17:50:19</t>
+  </si>
+  <si>
+    <t>2015-05-31 19:57:56</t>
+  </si>
+  <si>
+    <t>2015-09-22 15:07:00</t>
+  </si>
+  <si>
+    <t>2016-05-03 20:27:52</t>
+  </si>
+  <si>
+    <t>2016-07-18 21:12:22</t>
+  </si>
+  <si>
+    <t>2016-08-01 11:57:09</t>
+  </si>
+  <si>
+    <t>2016-08-01 15:07:11</t>
+  </si>
+  <si>
+    <t>2016-08-23 22:38:44</t>
+  </si>
+  <si>
+    <t>2016-08-25 20:06:27</t>
+  </si>
+  <si>
+    <t>2016-09-14 18:19:15</t>
+  </si>
+  <si>
+    <t>2016-09-14 20:58:43</t>
+  </si>
+  <si>
+    <t>2016-09-14 23:09:08</t>
+  </si>
+  <si>
+    <t>2016-09-15 19:42:52</t>
+  </si>
+  <si>
+    <t>2016-09-15 21:31:41</t>
+  </si>
+  <si>
+    <t>2016-09-16 12:38:28</t>
+  </si>
+  <si>
+    <t>2016-09-16 12:57:19</t>
+  </si>
+  <si>
+    <t>2016-09-16 14:46:16</t>
+  </si>
+  <si>
+    <t>2016-09-16 16:12:09</t>
+  </si>
+  <si>
+    <t>2016-09-18 15:32:31</t>
+  </si>
+  <si>
+    <t>2016-09-20 09:52:55</t>
+  </si>
+  <si>
+    <t>2016-09-20 16:22:17</t>
+  </si>
+  <si>
+    <t>2016-09-22 12:10:06</t>
+  </si>
+  <si>
+    <t>2016-09-22 14:20:10</t>
+  </si>
+  <si>
+    <t>2016-09-24 08:44:02</t>
+  </si>
+  <si>
+    <t>2016-09-24 09:30:34</t>
+  </si>
+  <si>
+    <t>2016-09-25 10:24:12</t>
+  </si>
+  <si>
+    <t>2016-09-25 12:43:40</t>
+  </si>
+  <si>
+    <t>2016-10-02 20:46:59</t>
+  </si>
+  <si>
+    <t>2016-10-02 21:26:20</t>
+  </si>
+  <si>
+    <t>2016-10-07 14:03:40</t>
+  </si>
+  <si>
+    <t>2016-10-08 17:08:04</t>
+  </si>
+  <si>
+    <t>2016-10-08 18:47:15</t>
+  </si>
+  <si>
+    <t>2016-10-09 17:48:12</t>
+  </si>
+  <si>
+    <t>2016-10-14 12:33:43</t>
+  </si>
+  <si>
+    <t>2016-10-25 18:22:21</t>
+  </si>
+  <si>
+    <t>2016-11-07 12:48:18</t>
+  </si>
+  <si>
+    <t>2016-11-20 13:59:08</t>
+  </si>
+  <si>
+    <t>2016-12-05 21:02:46</t>
+  </si>
+  <si>
+    <t>2016-12-09 23:13:49</t>
+  </si>
+  <si>
+    <t>2016-12-09 23:36:09</t>
+  </si>
+  <si>
+    <t>2016-12-09 23:46:23</t>
+  </si>
+  <si>
+    <t>2016-12-10 00:11:10</t>
+  </si>
+  <si>
+    <t>2016-12-10 01:12:08</t>
+  </si>
+  <si>
+    <t>2016-12-10 01:28:19</t>
+  </si>
+  <si>
+    <t>2016-12-10 01:44:27</t>
+  </si>
+  <si>
+    <t>2017-02-21 09:43:39</t>
+  </si>
+  <si>
+    <t>2017-02-25 21:13:43</t>
+  </si>
+  <si>
+    <t>2017-02-25 23:35:00</t>
+  </si>
+  <si>
+    <t>2017-02-27 14:45:20</t>
+  </si>
+  <si>
+    <t>2017-03-07 23:02:19</t>
+  </si>
+  <si>
+    <t>2017-03-08 00:11:43</t>
+  </si>
+  <si>
+    <t>2017-04-21 21:52:32</t>
+  </si>
+  <si>
+    <t>2017-04-22 13:01:23</t>
+  </si>
+  <si>
+    <t>2017-06-18 10:46:09</t>
+  </si>
+  <si>
+    <t>2017-06-18 11:42:06</t>
+  </si>
+  <si>
+    <t>2017-06-18 12:19:55</t>
+  </si>
+  <si>
+    <t>2017-10-12 15:21:04</t>
+  </si>
+  <si>
+    <t>2018-05-26 15:54:19</t>
+  </si>
+  <si>
+    <t>2018-08-01 14:20:33</t>
+  </si>
+  <si>
+    <t>2018-10-23 14:22:02</t>
+  </si>
+  <si>
+    <t>etc/slack-package.conf</t>
+  </si>
+  <si>
+    <t>Add config from LinuxPackages.net</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/net-snmp.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/hddtemp.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/mrtg.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/php.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/ffmpeg.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/divx4linux.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/faac.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/faad2.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/avifile.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/a52dec.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/transcode.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/mailsend.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/ddd.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/meld.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/motion.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/cvsgraph.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/mysql-connector-odbc.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/k3b-i18n.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/chmlib.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/xmlrpcpp.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/xchm.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/openoffice.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/base64.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/foo2zjs.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/firefox.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/thunderbird.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/qemu.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/libgksu.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/libgksuui.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/nut.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/mgeops-psp.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/mysql-gui-tools.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/lua.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/gocr.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/ocrad.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/valgrind.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/newt.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/lzo.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/partimage.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/skype.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/kdesvn.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/cbgoffice.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/kbgoffice.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/yasm.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/gbgoffice.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/ispell-bg.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/aspell-bg.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/opera.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/smw.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/sim.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/ktorrent.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/dosbox.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/rrdtool.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/k3b.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/highlight.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/pygobject.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/libdaemon.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/pycairo.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/pygtk.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/swig.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/xmltoman.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/graphviz.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/dbus.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/xmlto.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/dbus-glib.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/dbus-python.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/avahi.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/libsigcpp.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/unixodbc.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/foomatic-filters.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/kchmviewer.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/libsndfile.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/libsamplerate.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/libdc1394.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/libraw1394.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/lame.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/xvidcore.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/x264.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/libmpcdec.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/libdvdread.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/libmpeg2.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/libdv.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/libquicktime.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/libfame.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/libmpeg3.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/mjpegtools.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/amrnb.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/amrwb.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/normalize.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/ksudoku.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/gnugo.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/scons.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/icu4c.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/ppracer.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/pingus.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/boost.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/proftpd.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/fltk.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/libiec61883.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/libavc1394.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/ilmbase.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/openexr.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/kbarcode.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/fftw.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/barcode.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/cinelerra.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/glibmm.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/cairomm.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/gtkmm.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/libgnomecups.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/libgnomeprint.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/pcsc-lite.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/ccid.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/wxwidgets.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/gnuplot.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/libmspack.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/glitz.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/octave.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/lapack.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/speex.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/linux-pam.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/libdvdcss.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/libdvdplay.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/libdvdnav.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/fluidsynth.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/dirac.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/libggi.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/libgii.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/libfreebob.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/jack.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/portaudio.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/texi2html.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/lash.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/ladspa.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/libcaca.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/freeglut.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/imlib2.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/intltool.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/liboil.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/libasyncns.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/pulseaudio.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/libproxy.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/opencv.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/twolame.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/vcdimager.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/libdvbpsi.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/libkate.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/libass.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/zvbi.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/xosd.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/vlc.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/scrollkeeper.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/libshout.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/powerman.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/sunbird.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/swish-e.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/swaret.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/libgdiplus.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/mono.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/icecast.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/qhull.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/blas.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/qrupdate.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/gmp.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/glpk.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/ftgl.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/arpack.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/ocaml.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/libtool.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/libusb.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/libusb-compat.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/smart.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/cwp.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/id3lib.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/htop.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/openvpn.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/pkcs11-helper.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/graphicsmagick.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/sloccount.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/opensc.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/pcsc-tools.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/libmodman.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/openmpi.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/cython.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/mysql-workbench.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/pexpect.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/paramiko.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/pycrypto.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/mysql-connector-cpp.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/libffado.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/celt.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/opencore-amr.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/schroedinger.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/orc.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/libmodplug.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/libmatroska.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/libebml.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/libupnp.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/libva.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/libtiger.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/libvpx.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/leptonica.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/gsm.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/openjpeg.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/rtmpdump.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/libwebp.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/webpconv.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/valkyrie.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/libdvbcsa.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/cvs2svn.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/armagetronad.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/bzr.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/docutils.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/wdiff.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/libreoffice.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/libreoffice-langpack.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/libreoffice-helppack.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/fribidi.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/ctemplate.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/pcsc-omnikey.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/opus.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/libconfig.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/libdbus-cpp.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/libxmlpp.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/ncdu.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/numpy.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/opusfile.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/opus-tools.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/lzip.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/setuptools.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/pygments.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/fswebcam.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/freeipmi.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/gl2ps.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/recutils.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/libelf.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/ltrace.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/go.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/json-c.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/tinyxml.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/vsqlitepp.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/proj.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/geos.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/gdal.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/python-ecdsa.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/tinyxml2.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/sbc.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/speexdsp.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/openldap.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/freeradius-server.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/gtksourceview.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/libiscsi.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/libnfs.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/libbluray.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/v4l-utils.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/frei0r-plugins.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/flite.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/libilbc.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/libbs2b.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/libgme.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/libquvi-scripts.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/libquvi.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/soxr.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/x265.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/vid.stab.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/libssh2.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/freerdp.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/kvazaar.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/snappy.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/chromaprint.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/gtest.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/vamp-plugin-sdk.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/rubberband.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/hdf5.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/netcdf.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/openal.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/tesseract.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/tesseract-lang.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/libebur128.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/openoffice-langpack.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/elinks.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/jdk.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/libopenmpt.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/cppclean.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/cryptography.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/enum34.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/six.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/pyasn1.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/ipaddress.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/cffi.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/idna.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/mysql-router.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/mysql-connector-python.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/mysql-utilities.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/libgxps.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/protobuf.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/mysql-shell.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/mkvtoolnix.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/minidlna.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/asn1crypto.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/bcrypt.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/pynacl.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/cppcheck.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/extra-cmake-modules.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/iucode_tool.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/rapidjson.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/mysql.SlackBuild</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/mysql.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>2005-01-22 20:31:42 +0200</t>
+  </si>
+  <si>
+    <t>2005-01-22 20:48:22 +0200</t>
+  </si>
+  <si>
+    <t>2005-03-03 17:25:16 +0200</t>
+  </si>
+  <si>
+    <t>2005-03-11 23:01:00 +0200</t>
+  </si>
+  <si>
+    <t>2005-03-12 15:06:01 +0200</t>
+  </si>
+  <si>
+    <t>2005-03-14 20:58:42 +0200</t>
+  </si>
+  <si>
+    <t>2005-03-15 21:51:31 +0200</t>
+  </si>
+  <si>
+    <t>2005-03-15 22:28:37 +0200</t>
+  </si>
+  <si>
+    <t>2005-03-15 22:44:40 +0200</t>
+  </si>
+  <si>
+    <t>2005-03-16 19:56:03 +0200</t>
+  </si>
+  <si>
+    <t>2005-03-16 20:41:08 +0200</t>
+  </si>
+  <si>
+    <t>2005-03-16 21:17:00 +0200</t>
+  </si>
+  <si>
+    <t>2005-03-28 21:43:53 +0300</t>
+  </si>
+  <si>
+    <t>2005-05-14 13:17:08 +0300</t>
+  </si>
+  <si>
+    <t>2005-11-03 21:10:10 +0300</t>
+  </si>
+  <si>
+    <t>2006-01-25 21:35:17 +0200</t>
+  </si>
+  <si>
+    <t>2006-01-27 21:24:00 +0200</t>
+  </si>
+  <si>
+    <t>2006-02-10 21:37:45 +0200</t>
+  </si>
+  <si>
+    <t>2006-02-19 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t>SLACK-10_3</t>
   </si>
 </sst>
 </file>
@@ -1915,7 +3813,7 @@
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1950,6 +3848,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1993,7 +3897,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -2029,9 +3933,6 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2039,9 +3940,18 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Нормален" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2321,10 +4231,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H311"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A204" workbookViewId="0">
+    <sheetView topLeftCell="A192" workbookViewId="0">
       <pane ySplit="7776" topLeftCell="A310"/>
-      <selection activeCell="C216" sqref="C216"/>
-      <selection pane="bottomLeft" activeCell="B302" sqref="B302"/>
+      <selection activeCell="F196" sqref="F196"/>
+      <selection pane="bottomLeft" activeCell="B310" sqref="B310"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2336,7 +4246,7 @@
     <col min="5" max="5" width="7.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="59" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.44140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.33203125" style="24" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" style="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -2361,10 +4271,10 @@
       <c r="G1" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="23"/>
+      <c r="H1" s="22"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="19" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="3">
@@ -2387,7 +4297,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="19" t="s">
         <v>567</v>
       </c>
       <c r="B3" s="3">
@@ -2410,7 +4320,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="19" t="s">
         <v>569</v>
       </c>
       <c r="B4" s="3">
@@ -2433,7 +4343,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" s="19" t="s">
         <v>533</v>
       </c>
       <c r="B5" s="3">
@@ -2456,7 +4366,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" s="19" t="s">
         <v>253</v>
       </c>
       <c r="B6" s="3">
@@ -2479,7 +4389,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" s="19" t="s">
         <v>489</v>
       </c>
       <c r="B7" s="3">
@@ -2502,7 +4412,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="A8" s="19" t="s">
         <v>69</v>
       </c>
       <c r="B8" s="3">
@@ -2525,7 +4435,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="A9" s="19" t="s">
         <v>97</v>
       </c>
       <c r="B9" s="3">
@@ -2548,7 +4458,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="A10" s="19" t="s">
         <v>577</v>
       </c>
       <c r="B10" s="3">
@@ -2571,7 +4481,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="A11" s="19" t="s">
         <v>525</v>
       </c>
       <c r="B11" s="3">
@@ -2594,7 +4504,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="A12" s="19" t="s">
         <v>554</v>
       </c>
       <c r="B12" s="3">
@@ -2617,7 +4527,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="A13" s="19" t="s">
         <v>490</v>
       </c>
       <c r="B13" s="3">
@@ -2640,7 +4550,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="A14" s="19" t="s">
         <v>243</v>
       </c>
       <c r="B14" s="3">
@@ -2663,7 +4573,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="A15" s="19" t="s">
         <v>147</v>
       </c>
       <c r="B15" s="3">
@@ -2686,7 +4596,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="A16" s="19" t="s">
         <v>327</v>
       </c>
       <c r="B16" s="3">
@@ -2709,7 +4619,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="A17" s="19" t="s">
         <v>573</v>
       </c>
       <c r="B17" s="3">
@@ -2732,7 +4642,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="A18" s="19" t="s">
         <v>61</v>
       </c>
       <c r="B18" s="3">
@@ -2755,7 +4665,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="A19" s="19" t="s">
         <v>158</v>
       </c>
       <c r="B19" s="3">
@@ -2778,7 +4688,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="A20" s="19" t="s">
         <v>290</v>
       </c>
       <c r="B20" s="3">
@@ -2801,7 +4711,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="26" t="s">
         <v>464</v>
       </c>
       <c r="B21" s="3">
@@ -2824,7 +4734,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="A22" s="19" t="s">
         <v>8</v>
       </c>
       <c r="B22" s="3">
@@ -2847,7 +4757,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="A23" s="19" t="s">
         <v>432</v>
       </c>
       <c r="B23" s="3">
@@ -2870,7 +4780,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="21" t="s">
+      <c r="A24" s="26" t="s">
         <v>583</v>
       </c>
       <c r="B24" s="3">
@@ -2893,7 +4803,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="A25" s="19" t="s">
         <v>497</v>
       </c>
       <c r="B25" s="3">
@@ -2916,7 +4826,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+      <c r="A26" s="19" t="s">
         <v>459</v>
       </c>
       <c r="B26" s="3">
@@ -2939,7 +4849,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+      <c r="A27" s="19" t="s">
         <v>461</v>
       </c>
       <c r="B27" s="3">
@@ -2962,7 +4872,7 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+      <c r="A28" s="19" t="s">
         <v>343</v>
       </c>
       <c r="B28" s="3">
@@ -2985,7 +4895,7 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+      <c r="A29" s="19" t="s">
         <v>325</v>
       </c>
       <c r="B29" s="3">
@@ -3008,7 +4918,7 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+      <c r="A30" s="19" t="s">
         <v>9</v>
       </c>
       <c r="B30" s="3">
@@ -3031,7 +4941,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+      <c r="A31" s="19" t="s">
         <v>615</v>
       </c>
       <c r="B31" s="3">
@@ -3054,7 +4964,7 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+      <c r="A32" s="19" t="s">
         <v>276</v>
       </c>
       <c r="B32" s="3">
@@ -3077,7 +4987,7 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+      <c r="A33" s="19" t="s">
         <v>550</v>
       </c>
       <c r="B33" s="3">
@@ -3100,7 +5010,7 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+      <c r="A34" s="19" t="s">
         <v>551</v>
       </c>
       <c r="B34" s="3">
@@ -3123,7 +5033,7 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+      <c r="A35" s="19" t="s">
         <v>552</v>
       </c>
       <c r="B35" s="3">
@@ -3146,7 +5056,7 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+      <c r="A36" s="19" t="s">
         <v>161</v>
       </c>
       <c r="B36" s="3">
@@ -3169,7 +5079,7 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="21" t="s">
+      <c r="A37" s="26" t="s">
         <v>174</v>
       </c>
       <c r="B37" s="3">
@@ -3192,7 +5102,7 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="21" t="s">
+      <c r="A38" s="26" t="s">
         <v>555</v>
       </c>
       <c r="B38" s="3">
@@ -3215,7 +5125,7 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="21" t="s">
+      <c r="A39" s="26" t="s">
         <v>326</v>
       </c>
       <c r="B39" s="3">
@@ -3238,7 +5148,7 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+      <c r="A40" s="19" t="s">
         <v>122</v>
       </c>
       <c r="B40" s="3">
@@ -3261,7 +5171,7 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+      <c r="A41" s="19" t="s">
         <v>456</v>
       </c>
       <c r="B41" s="3">
@@ -3284,7 +5194,7 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+      <c r="A42" s="19" t="s">
         <v>299</v>
       </c>
       <c r="B42" s="3">
@@ -3307,7 +5217,7 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+      <c r="A43" s="19" t="s">
         <v>505</v>
       </c>
       <c r="B43" s="3">
@@ -3330,7 +5240,7 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
+      <c r="A44" s="19" t="s">
         <v>499</v>
       </c>
       <c r="B44" s="3">
@@ -3353,7 +5263,7 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
+      <c r="A45" s="19" t="s">
         <v>110</v>
       </c>
       <c r="B45" s="3">
@@ -3376,7 +5286,7 @@
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
+      <c r="A46" s="19" t="s">
         <v>111</v>
       </c>
       <c r="B46" s="3">
@@ -3399,7 +5309,7 @@
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
+      <c r="A47" s="19" t="s">
         <v>123</v>
       </c>
       <c r="B47" s="3">
@@ -3422,7 +5332,7 @@
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
+      <c r="A48" s="19" t="s">
         <v>150</v>
       </c>
       <c r="B48" s="3">
@@ -3445,7 +5355,7 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
+      <c r="A49" s="19" t="s">
         <v>622</v>
       </c>
       <c r="B49" s="3">
@@ -3468,7 +5378,7 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="21" t="s">
+      <c r="A50" s="26" t="s">
         <v>411</v>
       </c>
       <c r="B50" s="3">
@@ -3491,7 +5401,7 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
+      <c r="A51" s="19" t="s">
         <v>149</v>
       </c>
       <c r="B51" s="3">
@@ -3514,7 +5424,7 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="21" t="s">
+      <c r="A52" s="26" t="s">
         <v>189</v>
       </c>
       <c r="B52" s="3">
@@ -3537,7 +5447,7 @@
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="21" t="s">
+      <c r="A53" s="26" t="s">
         <v>541</v>
       </c>
       <c r="B53" s="3">
@@ -3560,7 +5470,7 @@
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="21" t="s">
+      <c r="A54" s="26" t="s">
         <v>553</v>
       </c>
       <c r="B54" s="3">
@@ -3583,7 +5493,7 @@
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" s="21" t="s">
+      <c r="A55" s="26" t="s">
         <v>190</v>
       </c>
       <c r="B55" s="3">
@@ -3606,7 +5516,7 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="21" t="s">
+      <c r="A56" s="26" t="s">
         <v>369</v>
       </c>
       <c r="B56" s="3">
@@ -3629,7 +5539,7 @@
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="21" t="s">
+      <c r="A57" s="26" t="s">
         <v>406</v>
       </c>
       <c r="B57" s="3">
@@ -3652,7 +5562,7 @@
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" s="21" t="s">
+      <c r="A58" s="26" t="s">
         <v>430</v>
       </c>
       <c r="B58" s="3">
@@ -3675,7 +5585,7 @@
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="21" t="s">
+      <c r="A59" s="26" t="s">
         <v>410</v>
       </c>
       <c r="B59" s="3">
@@ -3698,7 +5608,7 @@
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="21" t="s">
+      <c r="A60" s="26" t="s">
         <v>529</v>
       </c>
       <c r="B60" s="3">
@@ -3721,7 +5631,7 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="21" t="s">
+      <c r="A61" s="26" t="s">
         <v>368</v>
       </c>
       <c r="B61" s="3">
@@ -3744,7 +5654,7 @@
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="21" t="s">
+      <c r="A62" s="27" t="s">
         <v>249</v>
       </c>
       <c r="B62" s="3">
@@ -3767,7 +5677,7 @@
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
+      <c r="A63" s="18" t="s">
         <v>67</v>
       </c>
       <c r="B63" s="3">
@@ -3790,7 +5700,7 @@
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A64" s="21" t="s">
+      <c r="A64" s="26" t="s">
         <v>397</v>
       </c>
       <c r="B64" s="3">
@@ -3813,7 +5723,7 @@
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="21" t="s">
+      <c r="A65" s="26" t="s">
         <v>396</v>
       </c>
       <c r="B65" s="3">
@@ -3836,7 +5746,7 @@
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" s="21" t="s">
+      <c r="A66" s="26" t="s">
         <v>370</v>
       </c>
       <c r="B66" s="3">
@@ -3859,7 +5769,7 @@
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A67" s="21" t="s">
+      <c r="A67" s="26" t="s">
         <v>571</v>
       </c>
       <c r="B67" s="3">
@@ -3882,7 +5792,7 @@
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A68" s="21" t="s">
+      <c r="A68" s="26" t="s">
         <v>599</v>
       </c>
       <c r="B68" s="3">
@@ -3905,7 +5815,7 @@
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
+      <c r="A69" s="19" t="s">
         <v>246</v>
       </c>
       <c r="B69" s="3">
@@ -3928,7 +5838,7 @@
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
+      <c r="A70" s="19" t="s">
         <v>245</v>
       </c>
       <c r="B70" s="3">
@@ -3951,7 +5861,7 @@
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A71" s="21" t="s">
+      <c r="A71" s="26" t="s">
         <v>539</v>
       </c>
       <c r="B71" s="3">
@@ -3974,7 +5884,7 @@
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" s="21" t="s">
+      <c r="A72" s="26" t="s">
         <v>595</v>
       </c>
       <c r="B72" s="3">
@@ -3997,7 +5907,7 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
+      <c r="A73" s="19" t="s">
         <v>374</v>
       </c>
       <c r="B73" s="3">
@@ -4020,7 +5930,7 @@
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
+      <c r="A74" s="19" t="s">
         <v>36</v>
       </c>
       <c r="B74" s="3">
@@ -4043,7 +5953,7 @@
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
+      <c r="A75" s="19" t="s">
         <v>271</v>
       </c>
       <c r="B75" s="3">
@@ -4066,7 +5976,7 @@
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
+      <c r="A76" s="19" t="s">
         <v>88</v>
       </c>
       <c r="B76" s="3">
@@ -4089,7 +5999,7 @@
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
+      <c r="A77" s="19" t="s">
         <v>302</v>
       </c>
       <c r="B77" s="3">
@@ -4112,7 +6022,7 @@
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
+      <c r="A78" s="19" t="s">
         <v>431</v>
       </c>
       <c r="B78" s="3">
@@ -4135,7 +6045,7 @@
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
+      <c r="A79" s="19" t="s">
         <v>575</v>
       </c>
       <c r="B79" s="3">
@@ -4158,7 +6068,7 @@
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
+      <c r="A80" s="19" t="s">
         <v>523</v>
       </c>
       <c r="B80" s="3">
@@ -4181,7 +6091,7 @@
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
+      <c r="A81" s="19" t="s">
         <v>43</v>
       </c>
       <c r="B81" s="3">
@@ -4204,7 +6114,7 @@
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
+      <c r="A82" s="19" t="s">
         <v>435</v>
       </c>
       <c r="B82" s="3">
@@ -4227,7 +6137,7 @@
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
+      <c r="A83" s="19" t="s">
         <v>84</v>
       </c>
       <c r="B83" s="3">
@@ -4250,7 +6160,7 @@
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
+      <c r="A84" s="18" t="s">
         <v>265</v>
       </c>
       <c r="B84" s="3">
@@ -4273,7 +6183,7 @@
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
+      <c r="A85" s="18" t="s">
         <v>611</v>
       </c>
       <c r="B85" s="3">
@@ -4296,7 +6206,7 @@
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
+      <c r="A86" s="19" t="s">
         <v>145</v>
       </c>
       <c r="B86" s="3">
@@ -4314,12 +6224,12 @@
       <c r="F86" t="s">
         <v>146</v>
       </c>
-      <c r="G86" s="22">
+      <c r="G86" s="21">
         <v>43884</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
+      <c r="A87" s="19" t="s">
         <v>259</v>
       </c>
       <c r="B87" s="3">
@@ -4342,7 +6252,7 @@
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A88" s="21" t="s">
+      <c r="A88" s="26" t="s">
         <v>465</v>
       </c>
       <c r="B88" s="3">
@@ -4365,7 +6275,7 @@
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
+      <c r="A89" s="19" t="s">
         <v>162</v>
       </c>
       <c r="B89" s="3">
@@ -4388,7 +6298,7 @@
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A90" s="21" t="s">
+      <c r="A90" s="26" t="s">
         <v>191</v>
       </c>
       <c r="B90" s="3">
@@ -4411,7 +6321,7 @@
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A91" s="21" t="s">
+      <c r="A91" s="26" t="s">
         <v>605</v>
       </c>
       <c r="B91" s="3">
@@ -4434,7 +6344,7 @@
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A92" s="21" t="s">
+      <c r="A92" s="26" t="s">
         <v>463</v>
       </c>
       <c r="B92" s="3">
@@ -4457,7 +6367,7 @@
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
+      <c r="A93" s="19" t="s">
         <v>70</v>
       </c>
       <c r="B93" s="3">
@@ -4480,30 +6390,30 @@
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
+      <c r="A94" s="19" t="s">
         <v>501</v>
       </c>
-      <c r="B94" s="3">
+      <c r="B94" s="7">
         <v>43313.596909722219</v>
       </c>
-      <c r="C94">
+      <c r="C94" s="6">
         <v>7</v>
       </c>
-      <c r="D94">
-        <v>0</v>
-      </c>
-      <c r="E94">
+      <c r="D94" s="6">
+        <v>0</v>
+      </c>
+      <c r="E94" s="6">
         <v>4</v>
       </c>
-      <c r="F94" t="s">
+      <c r="F94" s="6" t="s">
         <v>502</v>
       </c>
-      <c r="G94" s="13">
+      <c r="G94" s="14">
         <v>43903</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A95" s="21" t="s">
+      <c r="A95" s="26" t="s">
         <v>185</v>
       </c>
       <c r="B95" s="3">
@@ -4526,7 +6436,7 @@
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A96" s="21" t="s">
+      <c r="A96" s="26" t="s">
         <v>457</v>
       </c>
       <c r="B96" s="3">
@@ -4549,7 +6459,7 @@
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A97" s="21" t="s">
+      <c r="A97" s="26" t="s">
         <v>385</v>
       </c>
       <c r="B97" s="3">
@@ -4572,7 +6482,7 @@
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
+      <c r="A98" s="19" t="s">
         <v>94</v>
       </c>
       <c r="B98" s="3">
@@ -4595,7 +6505,7 @@
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
+      <c r="A99" s="19" t="s">
         <v>95</v>
       </c>
       <c r="B99" s="3">
@@ -4618,7 +6528,7 @@
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A100" s="21" t="s">
+      <c r="A100" s="26" t="s">
         <v>527</v>
       </c>
       <c r="B100" s="3">
@@ -4641,7 +6551,7 @@
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
+      <c r="A101" s="19" t="s">
         <v>63</v>
       </c>
       <c r="B101" s="3">
@@ -4664,7 +6574,7 @@
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
+      <c r="A102" s="19" t="s">
         <v>124</v>
       </c>
       <c r="B102" s="3">
@@ -4687,7 +6597,7 @@
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
+      <c r="A103" s="19" t="s">
         <v>55</v>
       </c>
       <c r="B103" s="3">
@@ -4710,7 +6620,7 @@
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
+      <c r="A104" s="19" t="s">
         <v>580</v>
       </c>
       <c r="B104" s="3">
@@ -4733,7 +6643,7 @@
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
+      <c r="A105" s="19" t="s">
         <v>77</v>
       </c>
       <c r="B105" s="3">
@@ -4756,7 +6666,7 @@
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
+      <c r="A106" s="18" t="s">
         <v>427</v>
       </c>
       <c r="B106" s="3">
@@ -4779,7 +6689,7 @@
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A107" s="21" t="s">
+      <c r="A107" s="27" t="s">
         <v>188</v>
       </c>
       <c r="B107" s="3">
@@ -4802,7 +6712,7 @@
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
+      <c r="A108" s="19" t="s">
         <v>112</v>
       </c>
       <c r="B108" s="3">
@@ -4825,7 +6735,7 @@
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
+      <c r="A109" s="19" t="s">
         <v>251</v>
       </c>
       <c r="B109" s="3">
@@ -4848,7 +6758,7 @@
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A110" s="21" t="s">
+      <c r="A110" s="26" t="s">
         <v>187</v>
       </c>
       <c r="B110" s="3">
@@ -4871,7 +6781,7 @@
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A111" s="21" t="s">
+      <c r="A111" s="26" t="s">
         <v>345</v>
       </c>
       <c r="B111" s="3">
@@ -4889,12 +6799,12 @@
       <c r="F111" t="s">
         <v>352</v>
       </c>
-      <c r="G111" s="22">
+      <c r="G111" s="21">
         <v>43897</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A112" s="21" t="s">
+      <c r="A112" s="26" t="s">
         <v>213</v>
       </c>
       <c r="B112" s="3">
@@ -4917,7 +6827,7 @@
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A113" s="21" t="s">
+      <c r="A113" s="26" t="s">
         <v>205</v>
       </c>
       <c r="B113" s="3">
@@ -4940,7 +6850,7 @@
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A114" s="21" t="s">
+      <c r="A114" s="26" t="s">
         <v>140</v>
       </c>
       <c r="B114" s="3">
@@ -4963,7 +6873,7 @@
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A115" s="21" t="s">
+      <c r="A115" s="26" t="s">
         <v>409</v>
       </c>
       <c r="B115" s="3">
@@ -4986,7 +6896,7 @@
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A116" s="21" t="s">
+      <c r="A116" s="26" t="s">
         <v>413</v>
       </c>
       <c r="B116" s="3">
@@ -5009,7 +6919,7 @@
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A117" s="21" t="s">
+      <c r="A117" s="26" t="s">
         <v>192</v>
       </c>
       <c r="B117" s="3">
@@ -5032,7 +6942,7 @@
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A118" s="21" t="s">
+      <c r="A118" s="26" t="s">
         <v>347</v>
       </c>
       <c r="B118" s="3">
@@ -5055,7 +6965,7 @@
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A119" t="s">
+      <c r="A119" s="19" t="s">
         <v>86</v>
       </c>
       <c r="B119" s="3">
@@ -5078,7 +6988,7 @@
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A120" s="21" t="s">
+      <c r="A120" s="26" t="s">
         <v>348</v>
       </c>
       <c r="B120" s="3">
@@ -5101,7 +7011,7 @@
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A121" t="s">
+      <c r="A121" s="18" t="s">
         <v>109</v>
       </c>
       <c r="B121" s="3">
@@ -5124,7 +7034,7 @@
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A122" t="s">
+      <c r="A122" s="18" t="s">
         <v>131</v>
       </c>
       <c r="B122" s="3">
@@ -5147,7 +7057,7 @@
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A123" t="s">
+      <c r="A123" s="19" t="s">
         <v>324</v>
       </c>
       <c r="B123" s="3">
@@ -5170,7 +7080,7 @@
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A124" s="21" t="s">
+      <c r="A124" s="26" t="s">
         <v>211</v>
       </c>
       <c r="B124" s="3">
@@ -5193,7 +7103,7 @@
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A125" t="s">
+      <c r="A125" s="19" t="s">
         <v>172</v>
       </c>
       <c r="B125" s="3">
@@ -5216,7 +7126,7 @@
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A126" s="21" t="s">
+      <c r="A126" s="26" t="s">
         <v>173</v>
       </c>
       <c r="B126" s="3">
@@ -5239,7 +7149,7 @@
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A127" s="21" t="s">
+      <c r="A127" s="26" t="s">
         <v>601</v>
       </c>
       <c r="B127" s="3">
@@ -5262,7 +7172,7 @@
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A128" t="s">
+      <c r="A128" s="18" t="s">
         <v>129</v>
       </c>
       <c r="B128" s="3">
@@ -5285,7 +7195,7 @@
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A129" s="21" t="s">
+      <c r="A129" s="27" t="s">
         <v>294</v>
       </c>
       <c r="B129" s="3">
@@ -5308,7 +7218,7 @@
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A130" s="21" t="s">
+      <c r="A130" s="26" t="s">
         <v>439</v>
       </c>
       <c r="B130" s="3">
@@ -5331,7 +7241,7 @@
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A131" s="21" t="s">
+      <c r="A131" s="26" t="s">
         <v>372</v>
       </c>
       <c r="B131" s="3">
@@ -5354,7 +7264,7 @@
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A132" s="21" t="s">
+      <c r="A132" s="26" t="s">
         <v>578</v>
       </c>
       <c r="B132" s="3">
@@ -5377,7 +7287,7 @@
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A133" s="21" t="s">
+      <c r="A133" s="26" t="s">
         <v>289</v>
       </c>
       <c r="B133" s="3">
@@ -5400,7 +7310,7 @@
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A134" s="21" t="s">
+      <c r="A134" s="26" t="s">
         <v>183</v>
       </c>
       <c r="B134" s="3">
@@ -5423,7 +7333,7 @@
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A135" s="21" t="s">
+      <c r="A135" s="26" t="s">
         <v>235</v>
       </c>
       <c r="B135" s="3">
@@ -5446,7 +7356,7 @@
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A136" s="21" t="s">
+      <c r="A136" s="26" t="s">
         <v>176</v>
       </c>
       <c r="B136" s="3">
@@ -5469,7 +7379,7 @@
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A137" s="21" t="s">
+      <c r="A137" s="26" t="s">
         <v>175</v>
       </c>
       <c r="B137" s="3">
@@ -5492,7 +7402,7 @@
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A138" t="s">
+      <c r="A138" s="19" t="s">
         <v>57</v>
       </c>
       <c r="B138" s="3">
@@ -5510,12 +7420,12 @@
       <c r="F138" t="s">
         <v>58</v>
       </c>
-      <c r="G138" s="22">
+      <c r="G138" s="21">
         <v>43876</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A139" t="s">
+      <c r="A139" s="19" t="s">
         <v>59</v>
       </c>
       <c r="B139" s="3">
@@ -5533,12 +7443,12 @@
       <c r="F139" t="s">
         <v>60</v>
       </c>
-      <c r="G139" s="22">
+      <c r="G139" s="21">
         <v>43876</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A140" s="21" t="s">
+      <c r="A140" s="26" t="s">
         <v>414</v>
       </c>
       <c r="B140" s="3">
@@ -5556,12 +7466,12 @@
       <c r="F140" t="s">
         <v>424</v>
       </c>
-      <c r="G140" s="22">
+      <c r="G140" s="21">
         <v>43900</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A141" s="21" t="s">
+      <c r="A141" s="26" t="s">
         <v>584</v>
       </c>
       <c r="B141" s="3">
@@ -5579,12 +7489,12 @@
       <c r="F141" t="s">
         <v>593</v>
       </c>
-      <c r="G141" s="22">
+      <c r="G141" s="21">
         <v>43909</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A142" s="21" t="s">
+      <c r="A142" s="26" t="s">
         <v>585</v>
       </c>
       <c r="B142" s="3">
@@ -5602,12 +7512,12 @@
       <c r="F142" t="s">
         <v>594</v>
       </c>
-      <c r="G142" s="22">
+      <c r="G142" s="21">
         <v>43909</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A143" s="21" t="s">
+      <c r="A143" s="26" t="s">
         <v>469</v>
       </c>
       <c r="B143" s="3">
@@ -5625,12 +7535,12 @@
       <c r="F143" t="s">
         <v>484</v>
       </c>
-      <c r="G143" s="22">
+      <c r="G143" s="21">
         <v>43902</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A144" t="s">
+      <c r="A144" s="19" t="s">
         <v>139</v>
       </c>
       <c r="B144" s="3">
@@ -5653,7 +7563,7 @@
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A145" s="21" t="s">
+      <c r="A145" s="26" t="s">
         <v>412</v>
       </c>
       <c r="B145" s="3">
@@ -5671,12 +7581,12 @@
       <c r="F145" t="s">
         <v>422</v>
       </c>
-      <c r="G145" s="22">
+      <c r="G145" s="21">
         <v>43900</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A146" s="21" t="s">
+      <c r="A146" s="27" t="s">
         <v>407</v>
       </c>
       <c r="B146" s="3">
@@ -5699,7 +7609,7 @@
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A147" s="21" t="s">
+      <c r="A147" s="27" t="s">
         <v>212</v>
       </c>
       <c r="B147" s="3">
@@ -5722,7 +7632,7 @@
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A148" s="21" t="s">
+      <c r="A148" s="26" t="s">
         <v>295</v>
       </c>
       <c r="B148" s="3">
@@ -5745,7 +7655,7 @@
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A149" s="21" t="s">
+      <c r="A149" s="26" t="s">
         <v>274</v>
       </c>
       <c r="B149" s="3">
@@ -5768,7 +7678,7 @@
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A150" s="21" t="s">
+      <c r="A150" s="26" t="s">
         <v>296</v>
       </c>
       <c r="B150" s="3">
@@ -5791,7 +7701,7 @@
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A151" t="s">
+      <c r="A151" s="19" t="s">
         <v>127</v>
       </c>
       <c r="B151" s="3">
@@ -5814,7 +7724,7 @@
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A152" t="s">
+      <c r="A152" s="19" t="s">
         <v>169</v>
       </c>
       <c r="B152" s="3">
@@ -5832,12 +7742,12 @@
       <c r="F152" t="s">
         <v>177</v>
       </c>
-      <c r="G152" s="22">
+      <c r="G152" s="21">
         <v>43886</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A153" s="21" t="s">
+      <c r="A153" s="26" t="s">
         <v>556</v>
       </c>
       <c r="B153" s="3">
@@ -5855,12 +7765,12 @@
       <c r="F153" t="s">
         <v>566</v>
       </c>
-      <c r="G153" s="22">
+      <c r="G153" s="21">
         <v>43907</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A154" t="s">
+      <c r="A154" s="19" t="s">
         <v>163</v>
       </c>
       <c r="B154" s="3">
@@ -5883,7 +7793,7 @@
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A155" t="s">
+      <c r="A155" s="19" t="s">
         <v>408</v>
       </c>
       <c r="B155" s="3">
@@ -5906,7 +7816,7 @@
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A156" t="s">
+      <c r="A156" s="19" t="s">
         <v>603</v>
       </c>
       <c r="B156" s="3">
@@ -5929,7 +7839,7 @@
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A157" t="s">
+      <c r="A157" s="19" t="s">
         <v>458</v>
       </c>
       <c r="B157" s="3">
@@ -5952,7 +7862,7 @@
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A158" t="s">
+      <c r="A158" s="19" t="s">
         <v>207</v>
       </c>
       <c r="B158" s="3">
@@ -5975,7 +7885,7 @@
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A159" t="s">
+      <c r="A159" s="19" t="s">
         <v>133</v>
       </c>
       <c r="B159" s="3">
@@ -5998,7 +7908,7 @@
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A160" t="s">
+      <c r="A160" s="19" t="s">
         <v>513</v>
       </c>
       <c r="B160" s="3">
@@ -6021,7 +7931,7 @@
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A161" t="s">
+      <c r="A161" s="19" t="s">
         <v>514</v>
       </c>
       <c r="B161" s="3">
@@ -6044,7 +7954,7 @@
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A162" t="s">
+      <c r="A162" s="19" t="s">
         <v>108</v>
       </c>
       <c r="B162" s="3">
@@ -6067,7 +7977,7 @@
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A163" s="21" t="s">
+      <c r="A163" s="26" t="s">
         <v>337</v>
       </c>
       <c r="B163" s="3">
@@ -6090,7 +8000,7 @@
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A164" s="21" t="s">
+      <c r="A164" s="26" t="s">
         <v>340</v>
       </c>
       <c r="B164" s="3">
@@ -6108,12 +8018,12 @@
       <c r="F164" t="s">
         <v>342</v>
       </c>
-      <c r="G164" s="22">
+      <c r="G164" s="21">
         <v>43897</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A165" s="21" t="s">
+      <c r="A165" s="26" t="s">
         <v>339</v>
       </c>
       <c r="B165" s="3">
@@ -6131,12 +8041,12 @@
       <c r="F165" t="s">
         <v>341</v>
       </c>
-      <c r="G165" s="22">
+      <c r="G165" s="21">
         <v>43897</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A166" t="s">
+      <c r="A166" s="19" t="s">
         <v>106</v>
       </c>
       <c r="B166" s="3">
@@ -6159,7 +8069,7 @@
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A167" s="21" t="s">
+      <c r="A167" s="26" t="s">
         <v>217</v>
       </c>
       <c r="B167" s="3">
@@ -6182,7 +8092,7 @@
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A168" t="s">
+      <c r="A168" s="19" t="s">
         <v>98</v>
       </c>
       <c r="B168" s="3">
@@ -6205,7 +8115,7 @@
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A169" t="s">
+      <c r="A169" s="19" t="s">
         <v>107</v>
       </c>
       <c r="B169" s="3">
@@ -6228,7 +8138,7 @@
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A170" t="s">
+      <c r="A170" s="19" t="s">
         <v>511</v>
       </c>
       <c r="B170" s="3">
@@ -6251,7 +8161,7 @@
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A171" t="s">
+      <c r="A171" s="19" t="s">
         <v>300</v>
       </c>
       <c r="B171" s="3">
@@ -6274,7 +8184,7 @@
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A172" t="s">
+      <c r="A172" s="19" t="s">
         <v>256</v>
       </c>
       <c r="B172" s="3">
@@ -6297,7 +8207,7 @@
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A173" t="s">
+      <c r="A173" s="19" t="s">
         <v>297</v>
       </c>
       <c r="B173" s="3">
@@ -6320,7 +8230,7 @@
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A174" t="s">
+      <c r="A174" s="19" t="s">
         <v>257</v>
       </c>
       <c r="B174" s="3">
@@ -6343,7 +8253,7 @@
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A175" t="s">
+      <c r="A175" s="19" t="s">
         <v>258</v>
       </c>
       <c r="B175" s="3">
@@ -6366,7 +8276,7 @@
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A176" t="s">
+      <c r="A176" s="19" t="s">
         <v>298</v>
       </c>
       <c r="B176" s="3">
@@ -6389,7 +8299,7 @@
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A177" t="s">
+      <c r="A177" s="19" t="s">
         <v>301</v>
       </c>
       <c r="B177" s="3">
@@ -6412,7 +8322,7 @@
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A178" t="s">
+      <c r="A178" s="19" t="s">
         <v>323</v>
       </c>
       <c r="B178" s="3">
@@ -6435,7 +8345,7 @@
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A179" s="21" t="s">
+      <c r="A179" s="27" t="s">
         <v>349</v>
       </c>
       <c r="B179" s="3">
@@ -6458,7 +8368,7 @@
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A180" s="21" t="s">
+      <c r="A180" s="27" t="s">
         <v>171</v>
       </c>
       <c r="B180" s="3">
@@ -6481,7 +8391,7 @@
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A181" s="21" t="s">
+      <c r="A181" s="26" t="s">
         <v>373</v>
       </c>
       <c r="B181" s="3">
@@ -6504,7 +8414,7 @@
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A182" t="s">
+      <c r="A182" s="19" t="s">
         <v>12</v>
       </c>
       <c r="B182" s="3">
@@ -6527,7 +8437,7 @@
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A183" t="s">
+      <c r="A183" s="19" t="s">
         <v>365</v>
       </c>
       <c r="B183" s="3">
@@ -6550,7 +8460,7 @@
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A184" t="s">
+      <c r="A184" s="18" t="s">
         <v>49</v>
       </c>
       <c r="B184" s="3">
@@ -6573,7 +8483,7 @@
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A185" t="s">
+      <c r="A185" s="18" t="s">
         <v>14</v>
       </c>
       <c r="B185" s="3">
@@ -6596,7 +8506,7 @@
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A186" t="s">
+      <c r="A186" s="19" t="s">
         <v>85</v>
       </c>
       <c r="B186" s="3">
@@ -6619,7 +8529,7 @@
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A187" t="s">
+      <c r="A187" s="19" t="s">
         <v>537</v>
       </c>
       <c r="B187" s="3">
@@ -6640,12 +8550,12 @@
       <c r="G187" s="13">
         <v>43872</v>
       </c>
-      <c r="H187" s="24">
+      <c r="H187" s="23">
         <v>43904</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A188" t="s">
+      <c r="A188" s="19" t="s">
         <v>488</v>
       </c>
       <c r="B188" s="3">
@@ -6668,7 +8578,7 @@
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A189" t="s">
+      <c r="A189" s="19" t="s">
         <v>135</v>
       </c>
       <c r="B189" s="3">
@@ -6691,7 +8601,7 @@
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A190" t="s">
+      <c r="A190" s="19" t="s">
         <v>487</v>
       </c>
       <c r="B190" s="3">
@@ -6714,7 +8624,7 @@
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A191" t="s">
+      <c r="A191" s="19" t="s">
         <v>237</v>
       </c>
       <c r="B191" s="3">
@@ -6737,7 +8647,7 @@
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A192" t="s">
+      <c r="A192" s="19" t="s">
         <v>37</v>
       </c>
       <c r="B192" s="3">
@@ -6760,7 +8670,7 @@
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A193" t="s">
+      <c r="A193" s="19" t="s">
         <v>16</v>
       </c>
       <c r="B193" s="3">
@@ -6783,7 +8693,7 @@
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A194" t="s">
+      <c r="A194" s="19" t="s">
         <v>38</v>
       </c>
       <c r="B194" s="3">
@@ -6799,14 +8709,14 @@
         <v>147</v>
       </c>
       <c r="F194" t="s">
-        <v>17</v>
+        <v>1233</v>
       </c>
       <c r="G194" s="13">
         <v>43875</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A195" t="s">
+      <c r="A195" s="19" t="s">
         <v>288</v>
       </c>
       <c r="B195" s="3">
@@ -6829,7 +8739,7 @@
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A196" t="s">
+      <c r="A196" s="19" t="s">
         <v>82</v>
       </c>
       <c r="B196" s="3">
@@ -6852,7 +8762,7 @@
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A197" s="21" t="s">
+      <c r="A197" s="26" t="s">
         <v>467</v>
       </c>
       <c r="B197" s="3">
@@ -6875,7 +8785,7 @@
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A198" t="s">
+      <c r="A198" s="19" t="s">
         <v>18</v>
       </c>
       <c r="B198" s="3">
@@ -6898,7 +8808,7 @@
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A199" s="21" t="s">
+      <c r="A199" s="26" t="s">
         <v>466</v>
       </c>
       <c r="B199" s="3">
@@ -6921,7 +8831,7 @@
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A200" s="21" t="s">
+      <c r="A200" s="26" t="s">
         <v>486</v>
       </c>
       <c r="B200" s="3">
@@ -6944,7 +8854,7 @@
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A201" s="21" t="s">
+      <c r="A201" s="26" t="s">
         <v>468</v>
       </c>
       <c r="B201" s="3">
@@ -6967,7 +8877,7 @@
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A202" s="21" t="s">
+      <c r="A202" s="26" t="s">
         <v>277</v>
       </c>
       <c r="B202" s="3">
@@ -6990,7 +8900,7 @@
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A203" s="21" t="s">
+      <c r="A203" s="26" t="s">
         <v>357</v>
       </c>
       <c r="B203" s="3">
@@ -7013,7 +8923,7 @@
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A204" t="s">
+      <c r="A204" s="19" t="s">
         <v>20</v>
       </c>
       <c r="B204" s="3">
@@ -7036,7 +8946,7 @@
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A205" t="s">
+      <c r="A205" s="19" t="s">
         <v>436</v>
       </c>
       <c r="B205" s="3">
@@ -7059,7 +8969,7 @@
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A206" t="s">
+      <c r="A206" s="19" t="s">
         <v>47</v>
       </c>
       <c r="B206" s="3">
@@ -7082,7 +8992,7 @@
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A207" t="s">
+      <c r="A207" s="19" t="s">
         <v>579</v>
       </c>
       <c r="B207" s="3">
@@ -7105,7 +9015,7 @@
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A208" t="s">
+      <c r="A208" s="19" t="s">
         <v>358</v>
       </c>
       <c r="B208" s="3">
@@ -7128,7 +9038,7 @@
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A209" t="s">
+      <c r="A209" s="18" t="s">
         <v>22</v>
       </c>
       <c r="B209" s="3">
@@ -7151,7 +9061,7 @@
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A210" t="s">
+      <c r="A210" s="18" t="s">
         <v>239</v>
       </c>
       <c r="B210" s="3">
@@ -7174,7 +9084,7 @@
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A211" t="s">
+      <c r="A211" s="19" t="s">
         <v>34</v>
       </c>
       <c r="B211" s="3">
@@ -7197,7 +9107,7 @@
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A212" t="s">
+      <c r="A212" s="19" t="s">
         <v>167</v>
       </c>
       <c r="B212" s="3">
@@ -7220,7 +9130,7 @@
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A213" t="s">
+      <c r="A213" s="19" t="s">
         <v>437</v>
       </c>
       <c r="B213" s="3">
@@ -7243,7 +9153,7 @@
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A214" t="s">
+      <c r="A214" s="19" t="s">
         <v>291</v>
       </c>
       <c r="B214" s="3">
@@ -7266,7 +9176,7 @@
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A215" t="s">
+      <c r="A215" s="19" t="s">
         <v>208</v>
       </c>
       <c r="B215" s="3">
@@ -7289,7 +9199,7 @@
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A216" t="s">
+      <c r="A216" s="19" t="s">
         <v>151</v>
       </c>
       <c r="B216" s="3">
@@ -7312,7 +9222,7 @@
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A217" t="s">
+      <c r="A217" s="19" t="s">
         <v>321</v>
       </c>
       <c r="B217" s="3">
@@ -7335,7 +9245,7 @@
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A218" t="s">
+      <c r="A218" s="19" t="s">
         <v>405</v>
       </c>
       <c r="B218" s="3">
@@ -7358,7 +9268,7 @@
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A219" t="s">
+      <c r="A219" s="19" t="s">
         <v>275</v>
       </c>
       <c r="B219" s="3">
@@ -7381,7 +9291,7 @@
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A220" t="s">
+      <c r="A220" s="19" t="s">
         <v>24</v>
       </c>
       <c r="B220" s="3">
@@ -7399,12 +9309,12 @@
       <c r="F220" t="s">
         <v>25</v>
       </c>
-      <c r="G220" s="22">
+      <c r="G220" s="21">
         <v>43870</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A221" t="s">
+      <c r="A221" s="19" t="s">
         <v>455</v>
       </c>
       <c r="B221" s="3">
@@ -7422,12 +9332,12 @@
       <c r="F221" t="s">
         <v>470</v>
       </c>
-      <c r="G221" s="22">
+      <c r="G221" s="21">
         <v>43902</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A222" t="s">
+      <c r="A222" s="19" t="s">
         <v>272</v>
       </c>
       <c r="B222" s="3">
@@ -7450,7 +9360,7 @@
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A223" t="s">
+      <c r="A223" s="19" t="s">
         <v>269</v>
       </c>
       <c r="B223" s="3">
@@ -7473,7 +9383,7 @@
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A224" t="s">
+      <c r="A224" s="19" t="s">
         <v>96</v>
       </c>
       <c r="B224" s="3">
@@ -7496,7 +9406,7 @@
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A225" s="21" t="s">
+      <c r="A225" s="26" t="s">
         <v>346</v>
       </c>
       <c r="B225" s="3">
@@ -7519,7 +9429,7 @@
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A226" s="21" t="s">
+      <c r="A226" s="26" t="s">
         <v>360</v>
       </c>
       <c r="B226" s="3">
@@ -7542,7 +9452,7 @@
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A227" s="21" t="s">
+      <c r="A227" s="26" t="s">
         <v>359</v>
       </c>
       <c r="B227" s="3">
@@ -7565,7 +9475,7 @@
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A228" t="s">
+      <c r="A228" s="19" t="s">
         <v>292</v>
       </c>
       <c r="B228" s="3">
@@ -7588,7 +9498,7 @@
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A229" t="s">
+      <c r="A229" s="19" t="s">
         <v>286</v>
       </c>
       <c r="B229" s="3">
@@ -7611,7 +9521,7 @@
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A230" t="s">
+      <c r="A230" s="19" t="s">
         <v>51</v>
       </c>
       <c r="B230" s="3">
@@ -7634,7 +9544,7 @@
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A231" t="s">
+      <c r="A231" s="19" t="s">
         <v>156</v>
       </c>
       <c r="B231" s="3">
@@ -7657,7 +9567,7 @@
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A232" t="s">
+      <c r="A232" s="19" t="s">
         <v>350</v>
       </c>
       <c r="B232" s="3">
@@ -7680,7 +9590,7 @@
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A233" s="21" t="s">
+      <c r="A233" s="26" t="s">
         <v>273</v>
       </c>
       <c r="B233" s="3">
@@ -7703,7 +9613,7 @@
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A234" s="21" t="s">
+      <c r="A234" s="26" t="s">
         <v>285</v>
       </c>
       <c r="B234" s="3">
@@ -7726,7 +9636,7 @@
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A235" t="s">
+      <c r="A235" s="19" t="s">
         <v>26</v>
       </c>
       <c r="B235" s="3">
@@ -7749,7 +9659,7 @@
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A236" t="s">
+      <c r="A236" s="19" t="s">
         <v>531</v>
       </c>
       <c r="B236" s="3">
@@ -7772,7 +9682,7 @@
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A237" s="21" t="s">
+      <c r="A237" s="26" t="s">
         <v>267</v>
       </c>
       <c r="B237" s="3">
@@ -7795,7 +9705,7 @@
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A238" s="21" t="s">
+      <c r="A238" s="26" t="s">
         <v>184</v>
       </c>
       <c r="B238" s="3">
@@ -7818,7 +9728,7 @@
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A239" s="21" t="s">
+      <c r="A239" s="26" t="s">
         <v>233</v>
       </c>
       <c r="B239" s="3">
@@ -7841,7 +9751,7 @@
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A240" s="21" t="s">
+      <c r="A240" s="26" t="s">
         <v>581</v>
       </c>
       <c r="B240" s="3">
@@ -7864,7 +9774,7 @@
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A241" s="21" t="s">
+      <c r="A241" s="26" t="s">
         <v>582</v>
       </c>
       <c r="B241" s="3">
@@ -7887,7 +9797,7 @@
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A242" s="21" t="s">
+      <c r="A242" s="27" t="s">
         <v>395</v>
       </c>
       <c r="B242" s="3">
@@ -7910,7 +9820,7 @@
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A243" s="21" t="s">
+      <c r="A243" s="27" t="s">
         <v>485</v>
       </c>
       <c r="B243" s="3">
@@ -7933,7 +9843,7 @@
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A244" s="21" t="s">
+      <c r="A244" s="26" t="s">
         <v>206</v>
       </c>
       <c r="B244" s="3">
@@ -7956,7 +9866,7 @@
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A245" s="21" t="s">
+      <c r="A245" s="26" t="s">
         <v>462</v>
       </c>
       <c r="B245" s="3">
@@ -7979,7 +9889,7 @@
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A246" s="21" t="s">
+      <c r="A246" s="26" t="s">
         <v>543</v>
       </c>
       <c r="B246" s="3">
@@ -8002,7 +9912,7 @@
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A247" s="21" t="s">
+      <c r="A247" s="26" t="s">
         <v>287</v>
       </c>
       <c r="B247" s="3">
@@ -8025,7 +9935,7 @@
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A248" s="21" t="s">
+      <c r="A248" s="26" t="s">
         <v>367</v>
       </c>
       <c r="B248" s="3">
@@ -8048,7 +9958,7 @@
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A249" s="21" t="s">
+      <c r="A249" s="26" t="s">
         <v>542</v>
       </c>
       <c r="B249" s="3">
@@ -8071,7 +9981,7 @@
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A250" s="21" t="s">
+      <c r="A250" s="26" t="s">
         <v>547</v>
       </c>
       <c r="B250" s="3">
@@ -8094,7 +10004,7 @@
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A251" s="21" t="s">
+      <c r="A251" s="26" t="s">
         <v>507</v>
       </c>
       <c r="B251" s="3">
@@ -8117,7 +10027,7 @@
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A252" s="21" t="s">
+      <c r="A252" s="26" t="s">
         <v>393</v>
       </c>
       <c r="B252" s="3">
@@ -8140,7 +10050,7 @@
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A253" t="s">
+      <c r="A253" s="19" t="s">
         <v>28</v>
       </c>
       <c r="B253" s="3">
@@ -8163,7 +10073,7 @@
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A254" s="21" t="s">
+      <c r="A254" s="26" t="s">
         <v>241</v>
       </c>
       <c r="B254" s="3">
@@ -8186,7 +10096,7 @@
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A255" s="21" t="s">
+      <c r="A255" s="26" t="s">
         <v>255</v>
       </c>
       <c r="B255" s="3">
@@ -8209,30 +10119,30 @@
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A256" s="21" t="s">
+      <c r="A256" s="27" t="s">
         <v>503</v>
       </c>
-      <c r="B256" s="3">
+      <c r="B256" s="7">
         <v>43396.597939814812</v>
       </c>
-      <c r="C256">
+      <c r="C256" s="6">
         <v>4</v>
       </c>
-      <c r="D256">
-        <v>0</v>
-      </c>
-      <c r="E256">
+      <c r="D256" s="6">
+        <v>0</v>
+      </c>
+      <c r="E256" s="6">
         <v>4</v>
       </c>
-      <c r="F256" t="s">
+      <c r="F256" s="6" t="s">
         <v>504</v>
       </c>
-      <c r="G256" s="13">
+      <c r="G256" s="14">
         <v>43903</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A257" s="21" t="s">
+      <c r="A257" s="26" t="s">
         <v>371</v>
       </c>
       <c r="B257" s="3">
@@ -8255,7 +10165,7 @@
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A258" t="s">
+      <c r="A258" s="19" t="s">
         <v>79</v>
       </c>
       <c r="B258" s="3">
@@ -8278,7 +10188,7 @@
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A259" s="21" t="s">
+      <c r="A259" s="26" t="s">
         <v>322</v>
       </c>
       <c r="B259" s="3">
@@ -8301,7 +10211,7 @@
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A260" s="21" t="s">
+      <c r="A260" s="27" t="s">
         <v>434</v>
       </c>
       <c r="B260" s="3">
@@ -8324,7 +10234,7 @@
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A261" s="21" t="s">
+      <c r="A261" s="27" t="s">
         <v>401</v>
       </c>
       <c r="B261" s="3">
@@ -8347,7 +10257,7 @@
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A262" s="21" t="s">
+      <c r="A262" s="26" t="s">
         <v>293</v>
       </c>
       <c r="B262" s="3">
@@ -8370,7 +10280,7 @@
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A263" t="s">
+      <c r="A263" s="19" t="s">
         <v>143</v>
       </c>
       <c r="B263" s="3">
@@ -8393,7 +10303,7 @@
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A264" s="21" t="s">
+      <c r="A264" s="26" t="s">
         <v>216</v>
       </c>
       <c r="B264" s="3">
@@ -8416,7 +10326,7 @@
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A265" s="21" t="s">
+      <c r="A265" s="26" t="s">
         <v>366</v>
       </c>
       <c r="B265" s="3">
@@ -8439,7 +10349,7 @@
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A266" t="s">
+      <c r="A266" s="19" t="s">
         <v>75</v>
       </c>
       <c r="B266" s="3">
@@ -8462,7 +10372,7 @@
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A267" s="21" t="s">
+      <c r="A267" s="26" t="s">
         <v>460</v>
       </c>
       <c r="B267" s="3">
@@ -8485,7 +10395,7 @@
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A268" t="s">
+      <c r="A268" s="19" t="s">
         <v>53</v>
       </c>
       <c r="B268" s="3">
@@ -8508,7 +10418,7 @@
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A269" s="21" t="s">
+      <c r="A269" s="26" t="s">
         <v>617</v>
       </c>
       <c r="B269" s="3">
@@ -8531,7 +10441,7 @@
       </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A270" s="21" t="s">
+      <c r="A270" s="26" t="s">
         <v>613</v>
       </c>
       <c r="B270" s="3">
@@ -8554,7 +10464,7 @@
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A271" t="s">
+      <c r="A271" s="19" t="s">
         <v>73</v>
       </c>
       <c r="B271" s="3">
@@ -8577,7 +10487,7 @@
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A272" t="s">
+      <c r="A272" s="19" t="s">
         <v>428</v>
       </c>
       <c r="B272" s="3">
@@ -8600,7 +10510,7 @@
       </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A273" s="21" t="s">
+      <c r="A273" s="26" t="s">
         <v>426</v>
       </c>
       <c r="B273" s="3">
@@ -8623,7 +10533,7 @@
       </c>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A274" s="21" t="s">
+      <c r="A274" s="26" t="s">
         <v>170</v>
       </c>
       <c r="B274" s="3">
@@ -8646,7 +10556,7 @@
       </c>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A275" s="21" t="s">
+      <c r="A275" s="26" t="s">
         <v>403</v>
       </c>
       <c r="B275" s="3">
@@ -8669,7 +10579,7 @@
       </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A276" s="21" t="s">
+      <c r="A276" s="26" t="s">
         <v>607</v>
       </c>
       <c r="B276" s="3">
@@ -8692,7 +10602,7 @@
       </c>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A277" s="21" t="s">
+      <c r="A277" s="26" t="s">
         <v>535</v>
       </c>
       <c r="B277" s="3">
@@ -8715,7 +10625,7 @@
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A278" t="s">
+      <c r="A278" s="19" t="s">
         <v>87</v>
       </c>
       <c r="B278" s="3">
@@ -8738,7 +10648,7 @@
       </c>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A279" s="21" t="s">
+      <c r="A279" s="27" t="s">
         <v>609</v>
       </c>
       <c r="B279" s="3">
@@ -8761,7 +10671,7 @@
       </c>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A280" s="21" t="s">
+      <c r="A280" s="27" t="s">
         <v>438</v>
       </c>
       <c r="B280" s="3">
@@ -8784,7 +10694,7 @@
       </c>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A281" s="21" t="s">
+      <c r="A281" s="26" t="s">
         <v>509</v>
       </c>
       <c r="B281" s="3">
@@ -8807,7 +10717,7 @@
       </c>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A282" t="s">
+      <c r="A282" s="19" t="s">
         <v>186</v>
       </c>
       <c r="B282" s="3">
@@ -8830,76 +10740,76 @@
       </c>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A283" t="s">
+      <c r="A283" s="19" t="s">
+        <v>620</v>
+      </c>
+      <c r="B283" s="3">
+        <v>38865.035902777781</v>
+      </c>
+      <c r="C283">
+        <v>136</v>
+      </c>
+      <c r="D283">
+        <v>3</v>
+      </c>
+      <c r="E283">
+        <v>69</v>
+      </c>
+      <c r="F283" t="s">
+        <v>621</v>
+      </c>
+      <c r="G283" s="13">
+        <v>43921</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A284" s="19" t="s">
         <v>387</v>
       </c>
-      <c r="B283" s="3">
+      <c r="B284" s="3">
         <v>42119.540219907409</v>
       </c>
-      <c r="C283">
+      <c r="C284">
         <v>12</v>
       </c>
-      <c r="D283">
-        <v>0</v>
-      </c>
-      <c r="E283">
+      <c r="D284">
+        <v>0</v>
+      </c>
+      <c r="E284">
         <v>4</v>
       </c>
-      <c r="F283" t="s">
+      <c r="F284" t="s">
         <v>388</v>
-      </c>
-      <c r="G283" s="13">
-        <v>43898</v>
-      </c>
-    </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A284" t="s">
-        <v>389</v>
-      </c>
-      <c r="B284" s="3">
-        <v>42125.444050925929</v>
-      </c>
-      <c r="C284">
-        <v>8</v>
-      </c>
-      <c r="D284">
-        <v>0</v>
-      </c>
-      <c r="E284">
-        <v>5</v>
-      </c>
-      <c r="F284" t="s">
-        <v>390</v>
       </c>
       <c r="G284" s="13">
         <v>43898</v>
       </c>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A285" t="s">
-        <v>620</v>
+      <c r="A285" s="19" t="s">
+        <v>389</v>
       </c>
       <c r="B285" s="3">
-        <v>38865.035902777781</v>
+        <v>42125.444050925929</v>
       </c>
       <c r="C285">
-        <v>136</v>
+        <v>8</v>
       </c>
       <c r="D285">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E285">
-        <v>69</v>
+        <v>5</v>
       </c>
       <c r="F285" t="s">
-        <v>621</v>
+        <v>390</v>
       </c>
       <c r="G285" s="13">
-        <v>43921</v>
+        <v>43898</v>
       </c>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A286" s="6" t="s">
+      <c r="A286" s="18" t="s">
         <v>30</v>
       </c>
       <c r="B286" s="7">
@@ -8922,7 +10832,7 @@
       </c>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A287" s="6" t="s">
+      <c r="A287" s="18" t="s">
         <v>209</v>
       </c>
       <c r="B287" s="7">
@@ -9014,7 +10924,7 @@
       </c>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A291" s="21" t="s">
+      <c r="A291" s="26" t="s">
         <v>521</v>
       </c>
       <c r="B291" s="7">
@@ -9037,7 +10947,7 @@
       </c>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A292" s="21" t="s">
+      <c r="A292" s="26" t="s">
         <v>433</v>
       </c>
       <c r="B292" s="7">
@@ -9083,7 +10993,7 @@
       </c>
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A294" s="21" t="s">
+      <c r="A294" s="26" t="s">
         <v>429</v>
       </c>
       <c r="B294" s="7">
@@ -9106,7 +11016,7 @@
       </c>
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A295" s="21" t="s">
+      <c r="A295" s="26" t="s">
         <v>218</v>
       </c>
       <c r="B295" s="7">
@@ -9129,7 +11039,7 @@
       </c>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A296" s="21" t="s">
+      <c r="A296" s="26" t="s">
         <v>391</v>
       </c>
       <c r="B296" s="7">
@@ -9152,7 +11062,7 @@
       </c>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A297" s="21" t="s">
+      <c r="A297" s="26" t="s">
         <v>328</v>
       </c>
       <c r="B297" s="7">
@@ -9175,7 +11085,7 @@
       </c>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A298" s="21" t="s">
+      <c r="A298" s="26" t="s">
         <v>519</v>
       </c>
       <c r="B298" s="7">
@@ -9244,7 +11154,7 @@
       </c>
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A301" s="21" t="s">
+      <c r="A301" s="26" t="s">
         <v>425</v>
       </c>
       <c r="B301" s="7">
@@ -9267,7 +11177,7 @@
       </c>
     </row>
     <row r="302" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A302" s="6" t="s">
+      <c r="A302" s="18" t="s">
         <v>31</v>
       </c>
       <c r="B302" s="7">
@@ -9359,7 +11269,7 @@
       </c>
     </row>
     <row r="306" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A306" s="21" t="s">
+      <c r="A306" s="26" t="s">
         <v>215</v>
       </c>
       <c r="B306" s="7">
@@ -9405,7 +11315,7 @@
       </c>
     </row>
     <row r="308" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A308" s="6" t="s">
+      <c r="A308" s="18" t="s">
         <v>65</v>
       </c>
       <c r="B308" s="7">
@@ -9428,7 +11338,7 @@
       </c>
     </row>
     <row r="309" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A309" s="21" t="s">
+      <c r="A309" s="26" t="s">
         <v>214</v>
       </c>
       <c r="B309" s="9">
@@ -9449,7 +11359,7 @@
       <c r="G309" s="15">
         <v>43889</v>
       </c>
-      <c r="H309" s="25" t="s">
+      <c r="H309" s="24" t="s">
         <v>35</v>
       </c>
     </row>
@@ -9482,7 +11392,7 @@
         <f>MIN(G2:G309)</f>
         <v>43869</v>
       </c>
-      <c r="H310" s="26">
+      <c r="H310" s="25">
         <f>A310-F310</f>
         <v>0</v>
       </c>
@@ -9532,4 +11442,5027 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{495E7B31-8439-4BBC-8206-DAF1FFDAE945}">
+  <dimension ref="A1:F311"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.6640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="57.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="29" t="s">
+        <v>624</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>626</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>623</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>632</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>630</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="28" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B2" t="s">
+        <v>628</v>
+      </c>
+      <c r="C2" t="s">
+        <v>629</v>
+      </c>
+      <c r="E2" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>633</v>
+      </c>
+      <c r="E3" s="19"/>
+      <c r="F3" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>633</v>
+      </c>
+      <c r="E4" s="19"/>
+      <c r="F4" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>633</v>
+      </c>
+      <c r="E5" s="19"/>
+      <c r="F5" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>633</v>
+      </c>
+      <c r="E6" s="19"/>
+      <c r="F6" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>633</v>
+      </c>
+      <c r="E7" s="19"/>
+      <c r="F7" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>555</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>633</v>
+      </c>
+      <c r="E8" s="26"/>
+      <c r="F8" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>633</v>
+      </c>
+      <c r="E9" s="19"/>
+      <c r="F9" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>633</v>
+      </c>
+      <c r="E10" s="19"/>
+      <c r="F10" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>577</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>633</v>
+      </c>
+      <c r="E11" s="19"/>
+      <c r="F11" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>1254</v>
+      </c>
+      <c r="E12" s="19"/>
+      <c r="F12" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="6" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>925</v>
+      </c>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19" t="s">
+        <v>926</v>
+      </c>
+      <c r="F20" s="19"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>635</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>596</v>
+      </c>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="6" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="6" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>554</v>
+      </c>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>541</v>
+      </c>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>622</v>
+      </c>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>620</v>
+      </c>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>645</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>537</v>
+      </c>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C38" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C39" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
+        <v>653</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C40" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="6" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C42" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
+      <c r="F42" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C43" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19"/>
+      <c r="F43" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C44" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19"/>
+      <c r="F44" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
+        <v>658</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C45" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D45" s="19"/>
+      <c r="E45" s="19"/>
+      <c r="F45" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C46" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D46" s="19"/>
+      <c r="E46" s="19"/>
+      <c r="F46" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C47" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D47" s="19"/>
+      <c r="E47" s="19"/>
+      <c r="F47" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="3" t="s">
+        <v>661</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C48" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="D48" s="18"/>
+      <c r="E48" s="18"/>
+      <c r="F48" s="6" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C49" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D49" s="18"/>
+      <c r="E49" s="18"/>
+      <c r="F49" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C50" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="D50" s="19"/>
+      <c r="E50" s="19"/>
+      <c r="F50" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C51" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="D51" s="19"/>
+      <c r="E51" s="19"/>
+      <c r="F51" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C52" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="D52" s="19"/>
+      <c r="E52" s="19"/>
+      <c r="F52" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C53" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="D53" s="19"/>
+      <c r="E53" s="19"/>
+      <c r="F53" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C54" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="D54" s="19"/>
+      <c r="E54" s="19"/>
+      <c r="F54" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C55" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="D55" s="19"/>
+      <c r="E55" s="19"/>
+      <c r="F55" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C56" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="D56" s="19"/>
+      <c r="E56" s="19"/>
+      <c r="F56" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C57" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="D57" s="19"/>
+      <c r="E57" s="19"/>
+      <c r="F57" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C58" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="D58" s="19"/>
+      <c r="E58" s="19"/>
+      <c r="F58" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C59" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D59" s="19"/>
+      <c r="E59" s="19"/>
+      <c r="F59" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C60" s="26" t="s">
+        <v>542</v>
+      </c>
+      <c r="D60" s="26"/>
+      <c r="E60" s="26"/>
+      <c r="F60" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C61" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="D61" s="19"/>
+      <c r="E61" s="19"/>
+      <c r="F61" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C62" s="26" t="s">
+        <v>543</v>
+      </c>
+      <c r="D62" s="26"/>
+      <c r="E62" s="26"/>
+      <c r="F62" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="3" t="s">
+        <v>676</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C63" s="26" t="s">
+        <v>547</v>
+      </c>
+      <c r="D63" s="26"/>
+      <c r="E63" s="26"/>
+      <c r="F63" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C64" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="D64" s="19"/>
+      <c r="E64" s="19"/>
+      <c r="F64" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C65" s="18" t="s">
+        <v>548</v>
+      </c>
+      <c r="D65" s="18"/>
+      <c r="E65" s="18"/>
+      <c r="F65" s="6" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C66" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="D66" s="19"/>
+      <c r="E66" s="19"/>
+      <c r="F66" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C67" s="19" t="s">
+        <v>550</v>
+      </c>
+      <c r="D67" s="19"/>
+      <c r="E67" s="19"/>
+      <c r="F67" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" s="3" t="s">
+        <v>681</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C68" s="18" t="s">
+        <v>549</v>
+      </c>
+      <c r="D68" s="18"/>
+      <c r="E68" s="18"/>
+      <c r="F68" s="6" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C69" s="19" t="s">
+        <v>551</v>
+      </c>
+      <c r="D69" s="19"/>
+      <c r="E69" s="19"/>
+      <c r="F69" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C70" s="19" t="s">
+        <v>552</v>
+      </c>
+      <c r="D70" s="19"/>
+      <c r="E70" s="19"/>
+      <c r="F70" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" s="3" t="s">
+        <v>684</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C71" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D71" s="19"/>
+      <c r="E71" s="19"/>
+      <c r="F71" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" s="3" t="s">
+        <v>685</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C72" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="D72" s="19"/>
+      <c r="E72" s="19"/>
+      <c r="F72" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" s="3" t="s">
+        <v>686</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C73" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="D73" s="18"/>
+      <c r="E73" s="18"/>
+      <c r="F73" s="6" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" s="3" t="s">
+        <v>687</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C74" s="26" t="s">
+        <v>553</v>
+      </c>
+      <c r="D74" s="26"/>
+      <c r="E74" s="26"/>
+      <c r="F74" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" s="3" t="s">
+        <v>688</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C75" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="D75" s="19"/>
+      <c r="E75" s="19"/>
+      <c r="F75" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C76" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="D76" s="19"/>
+      <c r="E76" s="19"/>
+      <c r="F76" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77" s="3" t="s">
+        <v>690</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C77" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="D77" s="19"/>
+      <c r="E77" s="19"/>
+      <c r="F77" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" s="3" t="s">
+        <v>691</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C78" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="D78" s="18"/>
+      <c r="E78" s="18"/>
+      <c r="F78" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C79" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="D79" s="19"/>
+      <c r="E79" s="19"/>
+      <c r="F79" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80" s="3" t="s">
+        <v>693</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C80" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="D80" s="19"/>
+      <c r="E80" s="19"/>
+      <c r="F80" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81" s="3" t="s">
+        <v>694</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C81" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="D81" s="18"/>
+      <c r="E81" s="18"/>
+      <c r="F81" s="6" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C82" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="D82" s="18"/>
+      <c r="E82" s="18"/>
+      <c r="F82" s="6" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83" s="3" t="s">
+        <v>696</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C83" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="D83" s="19"/>
+      <c r="E83" s="19"/>
+      <c r="F83" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C84" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="D84" s="18"/>
+      <c r="E84" s="18"/>
+      <c r="F84" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85" s="3" t="s">
+        <v>698</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C85" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="D85" s="19"/>
+      <c r="E85" s="19"/>
+      <c r="F85" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86" s="3" t="s">
+        <v>699</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C86" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="D86" s="18"/>
+      <c r="E86" s="18"/>
+      <c r="F86" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C87" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="D87" s="19"/>
+      <c r="E87" s="19"/>
+      <c r="F87" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C88" s="26" t="s">
+        <v>578</v>
+      </c>
+      <c r="D88" s="26"/>
+      <c r="E88" s="26"/>
+      <c r="F88" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89" s="3" t="s">
+        <v>702</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C89" s="26" t="s">
+        <v>556</v>
+      </c>
+      <c r="D89" s="26"/>
+      <c r="E89" s="26"/>
+      <c r="F89" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C90" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="D90" s="19"/>
+      <c r="E90" s="19"/>
+      <c r="F90" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91" s="3" t="s">
+        <v>704</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C91" s="19" t="s">
+        <v>567</v>
+      </c>
+      <c r="D91" s="19"/>
+      <c r="E91" s="19"/>
+      <c r="F91" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C92" s="19" t="s">
+        <v>569</v>
+      </c>
+      <c r="D92" s="19"/>
+      <c r="E92" s="19"/>
+      <c r="F92" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C93" s="19" t="s">
+        <v>579</v>
+      </c>
+      <c r="D93" s="19"/>
+      <c r="E93" s="19"/>
+      <c r="F93" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C94" s="19" t="s">
+        <v>580</v>
+      </c>
+      <c r="D94" s="19"/>
+      <c r="E94" s="19"/>
+      <c r="F94" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C95" s="26" t="s">
+        <v>539</v>
+      </c>
+      <c r="D95" s="26"/>
+      <c r="E95" s="26"/>
+      <c r="F95" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96" s="3" t="s">
+        <v>709</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C96" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="D96" s="19"/>
+      <c r="E96" s="19"/>
+      <c r="F96" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A97" s="3" t="s">
+        <v>710</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C97" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="D97" s="19"/>
+      <c r="E97" s="19"/>
+      <c r="F97" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A98" s="3" t="s">
+        <v>711</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C98" s="26" t="s">
+        <v>581</v>
+      </c>
+      <c r="D98" s="26"/>
+      <c r="E98" s="26"/>
+      <c r="F98" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A99" s="3" t="s">
+        <v>712</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C99" s="19" t="s">
+        <v>531</v>
+      </c>
+      <c r="D99" s="19"/>
+      <c r="E99" s="19"/>
+      <c r="F99" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A100" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C100" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="D100" s="19"/>
+      <c r="E100" s="19"/>
+      <c r="F100" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A101" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C101" s="26" t="s">
+        <v>582</v>
+      </c>
+      <c r="D101" s="26"/>
+      <c r="E101" s="26"/>
+      <c r="F101" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A102" s="3" t="s">
+        <v>715</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C102" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="D102" s="19"/>
+      <c r="E102" s="19"/>
+      <c r="F102" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A103" s="3" t="s">
+        <v>716</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C103" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="D103" s="19"/>
+      <c r="E103" s="19"/>
+      <c r="F103" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A104" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C104" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="D104" s="26"/>
+      <c r="E104" s="26"/>
+      <c r="F104" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A105" s="3" t="s">
+        <v>718</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C105" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="D105" s="19"/>
+      <c r="E105" s="19"/>
+      <c r="F105" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A106" s="3" t="s">
+        <v>719</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C106" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="D106" s="19"/>
+      <c r="E106" s="19"/>
+      <c r="F106" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A107" s="3" t="s">
+        <v>720</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C107" s="26" t="s">
+        <v>527</v>
+      </c>
+      <c r="D107" s="26"/>
+      <c r="E107" s="26"/>
+      <c r="F107" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A108" s="3" t="s">
+        <v>721</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C108" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="D108" s="19"/>
+      <c r="E108" s="19"/>
+      <c r="F108" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A109" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C109" s="19" t="s">
+        <v>525</v>
+      </c>
+      <c r="D109" s="19"/>
+      <c r="E109" s="19"/>
+      <c r="F109" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A110" s="3" t="s">
+        <v>723</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C110" s="26" t="s">
+        <v>583</v>
+      </c>
+      <c r="D110" s="26"/>
+      <c r="E110" s="26"/>
+      <c r="F110" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A111" s="3" t="s">
+        <v>724</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C111" s="26" t="s">
+        <v>571</v>
+      </c>
+      <c r="D111" s="26"/>
+      <c r="E111" s="26"/>
+      <c r="F111" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A112" s="3" t="s">
+        <v>725</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C112" s="19" t="s">
+        <v>573</v>
+      </c>
+      <c r="D112" s="19"/>
+      <c r="E112" s="19"/>
+      <c r="F112" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A113" s="3" t="s">
+        <v>726</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C113" s="19" t="s">
+        <v>575</v>
+      </c>
+      <c r="D113" s="19"/>
+      <c r="E113" s="19"/>
+      <c r="F113" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A114" s="3" t="s">
+        <v>727</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C114" s="26" t="s">
+        <v>584</v>
+      </c>
+      <c r="D114" s="26"/>
+      <c r="E114" s="26"/>
+      <c r="F114" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A115" s="3" t="s">
+        <v>728</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C115" s="26" t="s">
+        <v>585</v>
+      </c>
+      <c r="D115" s="26"/>
+      <c r="E115" s="26"/>
+      <c r="F115" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A116" s="3" t="s">
+        <v>729</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C116" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="D116" s="19"/>
+      <c r="E116" s="19"/>
+      <c r="F116" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A117" s="3" t="s">
+        <v>730</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C117" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="D117" s="19"/>
+      <c r="E117" s="19"/>
+      <c r="F117" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A118" s="3" t="s">
+        <v>731</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C118" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="D118" s="18"/>
+      <c r="E118" s="18"/>
+      <c r="F118" s="6" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A119" s="3" t="s">
+        <v>732</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C119" s="26" t="s">
+        <v>595</v>
+      </c>
+      <c r="D119" s="26"/>
+      <c r="E119" s="26"/>
+      <c r="F119" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A120" s="3" t="s">
+        <v>733</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C120" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="D120" s="19"/>
+      <c r="E120" s="19"/>
+      <c r="F120" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A121" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C121" s="26" t="s">
+        <v>599</v>
+      </c>
+      <c r="D121" s="26"/>
+      <c r="E121" s="26"/>
+      <c r="F121" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A122" s="3" t="s">
+        <v>735</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C122" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="D122" s="19"/>
+      <c r="E122" s="19"/>
+      <c r="F122" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A123" s="3" t="s">
+        <v>736</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C123" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="D123" s="19"/>
+      <c r="E123" s="19"/>
+      <c r="F123" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A124" s="3" t="s">
+        <v>737</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C124" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="D124" s="26"/>
+      <c r="E124" s="26"/>
+      <c r="F124" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A125" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C125" s="27" t="s">
+        <v>171</v>
+      </c>
+      <c r="D125" s="27"/>
+      <c r="E125" s="27"/>
+      <c r="F125" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A126" s="3" t="s">
+        <v>739</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C126" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="D126" s="19"/>
+      <c r="E126" s="19"/>
+      <c r="F126" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A127" s="3" t="s">
+        <v>740</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C127" s="26" t="s">
+        <v>601</v>
+      </c>
+      <c r="D127" s="26"/>
+      <c r="E127" s="26"/>
+      <c r="F127" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A128" s="3" t="s">
+        <v>741</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C128" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="D128" s="26"/>
+      <c r="E128" s="26"/>
+      <c r="F128" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A129" s="3" t="s">
+        <v>742</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C129" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="D129" s="26"/>
+      <c r="E129" s="26"/>
+      <c r="F129" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A130" s="3" t="s">
+        <v>743</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C130" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="D130" s="26"/>
+      <c r="E130" s="26"/>
+      <c r="F130" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A131" s="3" t="s">
+        <v>744</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C131" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="D131" s="26"/>
+      <c r="E131" s="26"/>
+      <c r="F131" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A132" s="3" t="s">
+        <v>745</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C132" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="D132" s="26"/>
+      <c r="E132" s="26"/>
+      <c r="F132" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A133" s="3" t="s">
+        <v>746</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C133" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="D133" s="26"/>
+      <c r="E133" s="26"/>
+      <c r="F133" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A134" s="3" t="s">
+        <v>747</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C134" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="D134" s="26"/>
+      <c r="E134" s="26"/>
+      <c r="F134" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A135" s="3" t="s">
+        <v>748</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C135" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="D135" s="26"/>
+      <c r="E135" s="26"/>
+      <c r="F135" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A136" s="3" t="s">
+        <v>749</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C136" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="D136" s="19"/>
+      <c r="E136" s="19"/>
+      <c r="F136" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A137" s="3" t="s">
+        <v>750</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C137" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="D137" s="26"/>
+      <c r="E137" s="26"/>
+      <c r="F137" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A138" s="3" t="s">
+        <v>751</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C138" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="D138" s="27"/>
+      <c r="E138" s="27"/>
+      <c r="F138" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A139" s="3" t="s">
+        <v>752</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C139" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="D139" s="26"/>
+      <c r="E139" s="26"/>
+      <c r="F139" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A140" s="3" t="s">
+        <v>753</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C140" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="D140" s="26"/>
+      <c r="E140" s="26"/>
+      <c r="F140" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A141" s="3" t="s">
+        <v>754</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C141" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="D141" s="26"/>
+      <c r="E141" s="26"/>
+      <c r="F141" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A142" s="3" t="s">
+        <v>755</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C142" s="26" t="s">
+        <v>605</v>
+      </c>
+      <c r="D142" s="26"/>
+      <c r="E142" s="26"/>
+      <c r="F142" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A143" s="3" t="s">
+        <v>756</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C143" s="19" t="s">
+        <v>603</v>
+      </c>
+      <c r="D143" s="19"/>
+      <c r="E143" s="19"/>
+      <c r="F143" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A144" s="3" t="s">
+        <v>757</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C144" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="D144" s="26"/>
+      <c r="E144" s="26"/>
+      <c r="F144" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A145" s="3" t="s">
+        <v>758</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C145" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="D145" s="26"/>
+      <c r="E145" s="26"/>
+      <c r="F145" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A146" s="3" t="s">
+        <v>759</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C146" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="D146" s="19"/>
+      <c r="E146" s="19"/>
+      <c r="F146" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A147" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C147" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="D147" s="19"/>
+      <c r="E147" s="19"/>
+      <c r="F147" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A148" s="3" t="s">
+        <v>761</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C148" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="D148" s="18"/>
+      <c r="E148" s="18"/>
+      <c r="F148" s="6" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A149" s="3" t="s">
+        <v>762</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C149" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="D149" s="18"/>
+      <c r="E149" s="18"/>
+      <c r="F149" s="6" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A150" s="3" t="s">
+        <v>763</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C150" s="26" t="s">
+        <v>211</v>
+      </c>
+      <c r="D150" s="26"/>
+      <c r="E150" s="26"/>
+      <c r="F150" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A151" s="3" t="s">
+        <v>764</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C151" s="27" t="s">
+        <v>212</v>
+      </c>
+      <c r="D151" s="27"/>
+      <c r="E151" s="27"/>
+      <c r="F151" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A152" s="3" t="s">
+        <v>765</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C152" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="D152" s="26"/>
+      <c r="E152" s="26"/>
+      <c r="F152" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A153" s="3" t="s">
+        <v>766</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C153" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="D153" s="26"/>
+      <c r="E153" s="26"/>
+      <c r="F153" s="6" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A154" s="3" t="s">
+        <v>767</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C154" s="26" t="s">
+        <v>215</v>
+      </c>
+      <c r="D154" s="26"/>
+      <c r="E154" s="26"/>
+      <c r="F154" s="6" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A155" s="3" t="s">
+        <v>768</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C155" s="26" t="s">
+        <v>218</v>
+      </c>
+      <c r="D155" s="26"/>
+      <c r="E155" s="26"/>
+      <c r="F155" s="6" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A156" s="3" t="s">
+        <v>769</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C156" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="D156" s="26"/>
+      <c r="E156" s="26"/>
+      <c r="F156" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A157" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C157" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="D157" s="26"/>
+      <c r="E157" s="26"/>
+      <c r="F157" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A158" s="3" t="s">
+        <v>771</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C158" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="D158" s="26"/>
+      <c r="E158" s="26"/>
+      <c r="F158" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A159" s="3" t="s">
+        <v>772</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C159" s="26" t="s">
+        <v>607</v>
+      </c>
+      <c r="D159" s="26"/>
+      <c r="E159" s="26"/>
+      <c r="F159" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A160" s="3" t="s">
+        <v>773</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C160" s="27" t="s">
+        <v>609</v>
+      </c>
+      <c r="D160" s="27"/>
+      <c r="E160" s="27"/>
+      <c r="F160" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A161" s="3" t="s">
+        <v>774</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C161" s="26" t="s">
+        <v>535</v>
+      </c>
+      <c r="D161" s="26"/>
+      <c r="E161" s="26"/>
+      <c r="F161" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A162" s="3" t="s">
+        <v>775</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C162" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="D162" s="26"/>
+      <c r="E162" s="26"/>
+      <c r="F162" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A163" s="3" t="s">
+        <v>776</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C163" s="19" t="s">
+        <v>237</v>
+      </c>
+      <c r="D163" s="19"/>
+      <c r="E163" s="19"/>
+      <c r="F163" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A164" s="3" t="s">
+        <v>777</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C164" s="18" t="s">
+        <v>611</v>
+      </c>
+      <c r="D164" s="18"/>
+      <c r="E164" s="18"/>
+      <c r="F164" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A165" s="3" t="s">
+        <v>778</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C165" s="26" t="s">
+        <v>241</v>
+      </c>
+      <c r="D165" s="26"/>
+      <c r="E165" s="26"/>
+      <c r="F165" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A166" s="3" t="s">
+        <v>779</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C166" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="D166" s="19"/>
+      <c r="E166" s="19"/>
+      <c r="F166" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A167" s="3" t="s">
+        <v>780</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C167" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="D167" s="26"/>
+      <c r="E167" s="26"/>
+      <c r="F167" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A168" s="3" t="s">
+        <v>781</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C168" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="D168" s="19"/>
+      <c r="E168" s="19"/>
+      <c r="F168" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A169" s="3" t="s">
+        <v>782</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C169" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="D169" s="19"/>
+      <c r="E169" s="19"/>
+      <c r="F169" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A170" s="3" t="s">
+        <v>783</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C170" s="27" t="s">
+        <v>249</v>
+      </c>
+      <c r="D170" s="27"/>
+      <c r="E170" s="27"/>
+      <c r="F170" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A171" s="3" t="s">
+        <v>784</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C171" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="D171" s="19"/>
+      <c r="E171" s="19"/>
+      <c r="F171" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A172" s="3" t="s">
+        <v>785</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C172" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="D172" s="18"/>
+      <c r="E172" s="18"/>
+      <c r="F172" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A173" s="3" t="s">
+        <v>786</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C173" s="19" t="s">
+        <v>256</v>
+      </c>
+      <c r="D173" s="19"/>
+      <c r="E173" s="19"/>
+      <c r="F173" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A174" s="3" t="s">
+        <v>787</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C174" s="19" t="s">
+        <v>257</v>
+      </c>
+      <c r="D174" s="19"/>
+      <c r="E174" s="19"/>
+      <c r="F174" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A175" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C175" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="D175" s="19"/>
+      <c r="E175" s="19"/>
+      <c r="F175" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A176" s="3" t="s">
+        <v>789</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C176" s="26" t="s">
+        <v>613</v>
+      </c>
+      <c r="D176" s="26"/>
+      <c r="E176" s="26"/>
+      <c r="F176" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A177" s="3" t="s">
+        <v>790</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C177" s="19" t="s">
+        <v>615</v>
+      </c>
+      <c r="D177" s="19"/>
+      <c r="E177" s="19"/>
+      <c r="F177" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A178" s="3" t="s">
+        <v>791</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C178" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="D178" s="19"/>
+      <c r="E178" s="19"/>
+      <c r="F178" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A179" s="3" t="s">
+        <v>792</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C179" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="D179" s="18"/>
+      <c r="E179" s="18"/>
+      <c r="F179" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A180" s="3" t="s">
+        <v>793</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C180" s="19" t="s">
+        <v>269</v>
+      </c>
+      <c r="D180" s="19"/>
+      <c r="E180" s="19"/>
+      <c r="F180" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A181" s="3" t="s">
+        <v>794</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C181" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="D181" s="26"/>
+      <c r="E181" s="26"/>
+      <c r="F181" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A182" s="3" t="s">
+        <v>795</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C182" s="19" t="s">
+        <v>271</v>
+      </c>
+      <c r="D182" s="19"/>
+      <c r="E182" s="19"/>
+      <c r="F182" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A183" s="3" t="s">
+        <v>796</v>
+      </c>
+      <c r="B183" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C183" s="26" t="s">
+        <v>617</v>
+      </c>
+      <c r="D183" s="26"/>
+      <c r="E183" s="26"/>
+      <c r="F183" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A184" s="3" t="s">
+        <v>797</v>
+      </c>
+      <c r="B184" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C184" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="D184" s="19"/>
+      <c r="E184" s="19"/>
+      <c r="F184" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A185" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="B185" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C185" s="26" t="s">
+        <v>273</v>
+      </c>
+      <c r="D185" s="26"/>
+      <c r="E185" s="26"/>
+      <c r="F185" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A186" s="3" t="s">
+        <v>799</v>
+      </c>
+      <c r="B186" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C186" s="26" t="s">
+        <v>274</v>
+      </c>
+      <c r="D186" s="26"/>
+      <c r="E186" s="26"/>
+      <c r="F186" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A187" s="3" t="s">
+        <v>800</v>
+      </c>
+      <c r="B187" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C187" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="D187" s="19"/>
+      <c r="E187" s="19"/>
+      <c r="F187" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A188" s="3" t="s">
+        <v>801</v>
+      </c>
+      <c r="B188" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C188" s="19" t="s">
+        <v>276</v>
+      </c>
+      <c r="D188" s="19"/>
+      <c r="E188" s="19"/>
+      <c r="F188" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A189" s="3" t="s">
+        <v>802</v>
+      </c>
+      <c r="B189" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C189" s="26" t="s">
+        <v>277</v>
+      </c>
+      <c r="D189" s="26"/>
+      <c r="E189" s="26"/>
+      <c r="F189" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A190" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="B190" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C190" s="26" t="s">
+        <v>285</v>
+      </c>
+      <c r="D190" s="26"/>
+      <c r="E190" s="26"/>
+      <c r="F190" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A191" s="3" t="s">
+        <v>804</v>
+      </c>
+      <c r="B191" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C191" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="D191" s="19"/>
+      <c r="E191" s="19"/>
+      <c r="F191" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A192" s="3" t="s">
+        <v>805</v>
+      </c>
+      <c r="B192" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C192" s="26" t="s">
+        <v>287</v>
+      </c>
+      <c r="D192" s="26"/>
+      <c r="E192" s="26"/>
+      <c r="F192" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A193" s="3" t="s">
+        <v>806</v>
+      </c>
+      <c r="B193" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C193" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="D193" s="19"/>
+      <c r="E193" s="19"/>
+      <c r="F193" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A194" s="3" t="s">
+        <v>807</v>
+      </c>
+      <c r="B194" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C194" s="26" t="s">
+        <v>289</v>
+      </c>
+      <c r="D194" s="26"/>
+      <c r="E194" s="26"/>
+      <c r="F194" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A195" s="3" t="s">
+        <v>808</v>
+      </c>
+      <c r="B195" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C195" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="D195" s="19"/>
+      <c r="E195" s="19"/>
+      <c r="F195" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A196" s="3" t="s">
+        <v>809</v>
+      </c>
+      <c r="B196" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C196" s="19" t="s">
+        <v>291</v>
+      </c>
+      <c r="D196" s="19"/>
+      <c r="E196" s="19"/>
+      <c r="F196" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A197" s="3" t="s">
+        <v>810</v>
+      </c>
+      <c r="B197" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C197" s="26" t="s">
+        <v>293</v>
+      </c>
+      <c r="D197" s="26"/>
+      <c r="E197" s="26"/>
+      <c r="F197" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A198" s="3" t="s">
+        <v>811</v>
+      </c>
+      <c r="B198" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C198" s="19" t="s">
+        <v>292</v>
+      </c>
+      <c r="D198" s="19"/>
+      <c r="E198" s="19"/>
+      <c r="F198" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A199" s="3" t="s">
+        <v>812</v>
+      </c>
+      <c r="B199" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C199" s="26" t="s">
+        <v>296</v>
+      </c>
+      <c r="D199" s="26"/>
+      <c r="E199" s="26"/>
+      <c r="F199" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A200" s="3" t="s">
+        <v>813</v>
+      </c>
+      <c r="B200" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C200" s="26" t="s">
+        <v>295</v>
+      </c>
+      <c r="D200" s="26"/>
+      <c r="E200" s="26"/>
+      <c r="F200" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A201" s="3" t="s">
+        <v>814</v>
+      </c>
+      <c r="B201" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C201" s="27" t="s">
+        <v>294</v>
+      </c>
+      <c r="D201" s="27"/>
+      <c r="E201" s="27"/>
+      <c r="F201" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A202" s="3" t="s">
+        <v>815</v>
+      </c>
+      <c r="B202" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C202" s="19" t="s">
+        <v>297</v>
+      </c>
+      <c r="D202" s="19"/>
+      <c r="E202" s="19"/>
+      <c r="F202" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A203" s="3" t="s">
+        <v>816</v>
+      </c>
+      <c r="B203" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C203" s="19" t="s">
+        <v>298</v>
+      </c>
+      <c r="D203" s="19"/>
+      <c r="E203" s="19"/>
+      <c r="F203" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A204" s="3" t="s">
+        <v>817</v>
+      </c>
+      <c r="B204" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C204" s="19" t="s">
+        <v>299</v>
+      </c>
+      <c r="D204" s="19"/>
+      <c r="E204" s="19"/>
+      <c r="F204" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A205" s="3" t="s">
+        <v>818</v>
+      </c>
+      <c r="B205" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C205" s="19" t="s">
+        <v>300</v>
+      </c>
+      <c r="D205" s="19"/>
+      <c r="E205" s="19"/>
+      <c r="F205" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A206" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="B206" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C206" s="19" t="s">
+        <v>301</v>
+      </c>
+      <c r="D206" s="19"/>
+      <c r="E206" s="19"/>
+      <c r="F206" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A207" s="3" t="s">
+        <v>820</v>
+      </c>
+      <c r="B207" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C207" s="26" t="s">
+        <v>345</v>
+      </c>
+      <c r="D207" s="26"/>
+      <c r="E207" s="26"/>
+      <c r="F207" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A208" s="3" t="s">
+        <v>821</v>
+      </c>
+      <c r="B208" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C208" s="19" t="s">
+        <v>302</v>
+      </c>
+      <c r="D208" s="19"/>
+      <c r="E208" s="19"/>
+      <c r="F208" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A209" s="3" t="s">
+        <v>822</v>
+      </c>
+      <c r="B209" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C209" s="19" t="s">
+        <v>321</v>
+      </c>
+      <c r="D209" s="19"/>
+      <c r="E209" s="19"/>
+      <c r="F209" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A210" s="3" t="s">
+        <v>823</v>
+      </c>
+      <c r="B210" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C210" s="26" t="s">
+        <v>322</v>
+      </c>
+      <c r="D210" s="26"/>
+      <c r="E210" s="26"/>
+      <c r="F210" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A211" s="3" t="s">
+        <v>824</v>
+      </c>
+      <c r="B211" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C211" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="D211" s="19"/>
+      <c r="E211" s="19"/>
+      <c r="F211" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A212" s="3" t="s">
+        <v>825</v>
+      </c>
+      <c r="B212" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C212" s="26" t="s">
+        <v>519</v>
+      </c>
+      <c r="D212" s="26"/>
+      <c r="E212" s="26"/>
+      <c r="F212" s="6" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A213" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="B213" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C213" s="26" t="s">
+        <v>521</v>
+      </c>
+      <c r="D213" s="26"/>
+      <c r="E213" s="26"/>
+      <c r="F213" s="6" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A214" s="3" t="s">
+        <v>827</v>
+      </c>
+      <c r="B214" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C214" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="D214" s="19"/>
+      <c r="E214" s="19"/>
+      <c r="F214" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A215" s="3" t="s">
+        <v>828</v>
+      </c>
+      <c r="B215" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C215" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="D215" s="19"/>
+      <c r="E215" s="19"/>
+      <c r="F215" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A216" s="3" t="s">
+        <v>829</v>
+      </c>
+      <c r="B216" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C216" s="19" t="s">
+        <v>533</v>
+      </c>
+      <c r="D216" s="19"/>
+      <c r="E216" s="19"/>
+      <c r="F216" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A217" s="3" t="s">
+        <v>830</v>
+      </c>
+      <c r="B217" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C217" s="19" t="s">
+        <v>327</v>
+      </c>
+      <c r="D217" s="19"/>
+      <c r="E217" s="19"/>
+      <c r="F217" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A218" s="3" t="s">
+        <v>831</v>
+      </c>
+      <c r="B218" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C218" s="26" t="s">
+        <v>326</v>
+      </c>
+      <c r="D218" s="26"/>
+      <c r="E218" s="26"/>
+      <c r="F218" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A219" s="3" t="s">
+        <v>832</v>
+      </c>
+      <c r="B219" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C219" s="26" t="s">
+        <v>328</v>
+      </c>
+      <c r="D219" s="26"/>
+      <c r="E219" s="26"/>
+      <c r="F219" s="6" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A220" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="B220" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C220" s="26" t="s">
+        <v>337</v>
+      </c>
+      <c r="D220" s="26"/>
+      <c r="E220" s="26"/>
+      <c r="F220" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A221" s="3" t="s">
+        <v>834</v>
+      </c>
+      <c r="B221" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C221" s="26" t="s">
+        <v>339</v>
+      </c>
+      <c r="D221" s="26"/>
+      <c r="E221" s="26"/>
+      <c r="F221" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A222" s="3" t="s">
+        <v>835</v>
+      </c>
+      <c r="B222" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C222" s="26" t="s">
+        <v>340</v>
+      </c>
+      <c r="D222" s="26"/>
+      <c r="E222" s="26"/>
+      <c r="F222" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A223" s="3" t="s">
+        <v>836</v>
+      </c>
+      <c r="B223" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C223" s="26" t="s">
+        <v>529</v>
+      </c>
+      <c r="D223" s="26"/>
+      <c r="E223" s="26"/>
+      <c r="F223" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A224" s="3" t="s">
+        <v>837</v>
+      </c>
+      <c r="B224" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C224" s="19" t="s">
+        <v>343</v>
+      </c>
+      <c r="D224" s="19"/>
+      <c r="E224" s="19"/>
+      <c r="F224" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A225" s="3" t="s">
+        <v>838</v>
+      </c>
+      <c r="B225" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C225" s="19" t="s">
+        <v>350</v>
+      </c>
+      <c r="D225" s="19"/>
+      <c r="E225" s="19"/>
+      <c r="F225" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A226" s="3" t="s">
+        <v>839</v>
+      </c>
+      <c r="B226" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C226" s="26" t="s">
+        <v>346</v>
+      </c>
+      <c r="D226" s="26"/>
+      <c r="E226" s="26"/>
+      <c r="F226" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A227" s="3" t="s">
+        <v>840</v>
+      </c>
+      <c r="B227" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C227" s="26" t="s">
+        <v>347</v>
+      </c>
+      <c r="D227" s="26"/>
+      <c r="E227" s="26"/>
+      <c r="F227" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A228" s="3" t="s">
+        <v>841</v>
+      </c>
+      <c r="B228" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C228" s="26" t="s">
+        <v>348</v>
+      </c>
+      <c r="D228" s="26"/>
+      <c r="E228" s="26"/>
+      <c r="F228" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A229" s="3" t="s">
+        <v>842</v>
+      </c>
+      <c r="B229" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C229" s="27" t="s">
+        <v>349</v>
+      </c>
+      <c r="D229" s="27"/>
+      <c r="E229" s="27"/>
+      <c r="F229" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A230" s="3" t="s">
+        <v>843</v>
+      </c>
+      <c r="B230" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C230" s="26" t="s">
+        <v>357</v>
+      </c>
+      <c r="D230" s="26"/>
+      <c r="E230" s="26"/>
+      <c r="F230" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A231" s="3" t="s">
+        <v>844</v>
+      </c>
+      <c r="B231" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C231" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="D231" s="19"/>
+      <c r="E231" s="19"/>
+      <c r="F231" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A232" s="3" t="s">
+        <v>845</v>
+      </c>
+      <c r="B232" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C232" s="26" t="s">
+        <v>359</v>
+      </c>
+      <c r="D232" s="26"/>
+      <c r="E232" s="26"/>
+      <c r="F232" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A233" s="3" t="s">
+        <v>846</v>
+      </c>
+      <c r="B233" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C233" s="26" t="s">
+        <v>360</v>
+      </c>
+      <c r="D233" s="26"/>
+      <c r="E233" s="26"/>
+      <c r="F233" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A234" s="3" t="s">
+        <v>847</v>
+      </c>
+      <c r="B234" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C234" s="19" t="s">
+        <v>365</v>
+      </c>
+      <c r="D234" s="19"/>
+      <c r="E234" s="19"/>
+      <c r="F234" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A235" s="3" t="s">
+        <v>848</v>
+      </c>
+      <c r="B235" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C235" s="26" t="s">
+        <v>366</v>
+      </c>
+      <c r="D235" s="26"/>
+      <c r="E235" s="26"/>
+      <c r="F235" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A236" s="3" t="s">
+        <v>849</v>
+      </c>
+      <c r="B236" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C236" s="26" t="s">
+        <v>367</v>
+      </c>
+      <c r="D236" s="26"/>
+      <c r="E236" s="26"/>
+      <c r="F236" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A237" s="3" t="s">
+        <v>850</v>
+      </c>
+      <c r="B237" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C237" s="26" t="s">
+        <v>368</v>
+      </c>
+      <c r="D237" s="26"/>
+      <c r="E237" s="26"/>
+      <c r="F237" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A238" s="3" t="s">
+        <v>851</v>
+      </c>
+      <c r="B238" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C238" s="26" t="s">
+        <v>369</v>
+      </c>
+      <c r="D238" s="26"/>
+      <c r="E238" s="26"/>
+      <c r="F238" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A239" s="3" t="s">
+        <v>852</v>
+      </c>
+      <c r="B239" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C239" s="26" t="s">
+        <v>370</v>
+      </c>
+      <c r="D239" s="26"/>
+      <c r="E239" s="26"/>
+      <c r="F239" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A240" s="3" t="s">
+        <v>853</v>
+      </c>
+      <c r="B240" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C240" s="26" t="s">
+        <v>371</v>
+      </c>
+      <c r="D240" s="26"/>
+      <c r="E240" s="26"/>
+      <c r="F240" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A241" s="3" t="s">
+        <v>854</v>
+      </c>
+      <c r="B241" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C241" s="26" t="s">
+        <v>372</v>
+      </c>
+      <c r="D241" s="26"/>
+      <c r="E241" s="26"/>
+      <c r="F241" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A242" s="3" t="s">
+        <v>855</v>
+      </c>
+      <c r="B242" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C242" s="26" t="s">
+        <v>373</v>
+      </c>
+      <c r="D242" s="26"/>
+      <c r="E242" s="26"/>
+      <c r="F242" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A243" s="3" t="s">
+        <v>856</v>
+      </c>
+      <c r="B243" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C243" s="19" t="s">
+        <v>374</v>
+      </c>
+      <c r="D243" s="19"/>
+      <c r="E243" s="19"/>
+      <c r="F243" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A244" s="3" t="s">
+        <v>857</v>
+      </c>
+      <c r="B244" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C244" s="26" t="s">
+        <v>385</v>
+      </c>
+      <c r="D244" s="26"/>
+      <c r="E244" s="26"/>
+      <c r="F244" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A245" s="3" t="s">
+        <v>858</v>
+      </c>
+      <c r="B245" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C245" s="19" t="s">
+        <v>387</v>
+      </c>
+      <c r="D245" s="19"/>
+      <c r="E245" s="19"/>
+      <c r="F245" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A246" s="3" t="s">
+        <v>859</v>
+      </c>
+      <c r="B246" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C246" s="26" t="s">
+        <v>391</v>
+      </c>
+      <c r="D246" s="26"/>
+      <c r="E246" s="26"/>
+      <c r="F246" s="6" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A247" s="3" t="s">
+        <v>860</v>
+      </c>
+      <c r="B247" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C247" s="27" t="s">
+        <v>395</v>
+      </c>
+      <c r="D247" s="27"/>
+      <c r="E247" s="27"/>
+      <c r="F247" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A248" s="3" t="s">
+        <v>861</v>
+      </c>
+      <c r="B248" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C248" s="26" t="s">
+        <v>396</v>
+      </c>
+      <c r="D248" s="26"/>
+      <c r="E248" s="26"/>
+      <c r="F248" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A249" s="3" t="s">
+        <v>862</v>
+      </c>
+      <c r="B249" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C249" s="26" t="s">
+        <v>397</v>
+      </c>
+      <c r="D249" s="26"/>
+      <c r="E249" s="26"/>
+      <c r="F249" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A250" s="3" t="s">
+        <v>863</v>
+      </c>
+      <c r="B250" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C250" s="26" t="s">
+        <v>393</v>
+      </c>
+      <c r="D250" s="26"/>
+      <c r="E250" s="26"/>
+      <c r="F250" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A251" s="3" t="s">
+        <v>864</v>
+      </c>
+      <c r="B251" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C251" s="19" t="s">
+        <v>389</v>
+      </c>
+      <c r="D251" s="19"/>
+      <c r="E251" s="19"/>
+      <c r="F251" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A252" s="3" t="s">
+        <v>865</v>
+      </c>
+      <c r="B252" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C252" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="D252" s="27"/>
+      <c r="E252" s="27"/>
+      <c r="F252" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A253" s="3" t="s">
+        <v>866</v>
+      </c>
+      <c r="B253" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C253" s="26" t="s">
+        <v>403</v>
+      </c>
+      <c r="D253" s="26"/>
+      <c r="E253" s="26"/>
+      <c r="F253" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A254" s="3" t="s">
+        <v>867</v>
+      </c>
+      <c r="B254" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C254" s="19" t="s">
+        <v>405</v>
+      </c>
+      <c r="D254" s="19"/>
+      <c r="E254" s="19"/>
+      <c r="F254" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A255" s="3" t="s">
+        <v>868</v>
+      </c>
+      <c r="B255" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C255" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="D255" s="26"/>
+      <c r="E255" s="26"/>
+      <c r="F255" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A256" s="3" t="s">
+        <v>869</v>
+      </c>
+      <c r="B256" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C256" s="19" t="s">
+        <v>523</v>
+      </c>
+      <c r="D256" s="19"/>
+      <c r="E256" s="19"/>
+      <c r="F256" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A257" s="3" t="s">
+        <v>870</v>
+      </c>
+      <c r="B257" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C257" s="27" t="s">
+        <v>407</v>
+      </c>
+      <c r="D257" s="27"/>
+      <c r="E257" s="27"/>
+      <c r="F257" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A258" s="3" t="s">
+        <v>871</v>
+      </c>
+      <c r="B258" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C258" s="19" t="s">
+        <v>408</v>
+      </c>
+      <c r="D258" s="19"/>
+      <c r="E258" s="19"/>
+      <c r="F258" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A259" s="3" t="s">
+        <v>872</v>
+      </c>
+      <c r="B259" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C259" s="26" t="s">
+        <v>409</v>
+      </c>
+      <c r="D259" s="26"/>
+      <c r="E259" s="26"/>
+      <c r="F259" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A260" s="3" t="s">
+        <v>873</v>
+      </c>
+      <c r="B260" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C260" s="18" t="s">
+        <v>517</v>
+      </c>
+      <c r="D260" s="18"/>
+      <c r="E260" s="18"/>
+      <c r="F260" s="6" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A261" s="3" t="s">
+        <v>874</v>
+      </c>
+      <c r="B261" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C261" s="26" t="s">
+        <v>410</v>
+      </c>
+      <c r="D261" s="26"/>
+      <c r="E261" s="26"/>
+      <c r="F261" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A262" s="3" t="s">
+        <v>875</v>
+      </c>
+      <c r="B262" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C262" s="26" t="s">
+        <v>411</v>
+      </c>
+      <c r="D262" s="26"/>
+      <c r="E262" s="26"/>
+      <c r="F262" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A263" s="3" t="s">
+        <v>876</v>
+      </c>
+      <c r="B263" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C263" s="26" t="s">
+        <v>412</v>
+      </c>
+      <c r="D263" s="26"/>
+      <c r="E263" s="26"/>
+      <c r="F263" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A264" s="3" t="s">
+        <v>877</v>
+      </c>
+      <c r="B264" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C264" s="26" t="s">
+        <v>413</v>
+      </c>
+      <c r="D264" s="26"/>
+      <c r="E264" s="26"/>
+      <c r="F264" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A265" s="3" t="s">
+        <v>878</v>
+      </c>
+      <c r="B265" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C265" s="26" t="s">
+        <v>414</v>
+      </c>
+      <c r="D265" s="26"/>
+      <c r="E265" s="26"/>
+      <c r="F265" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A266" s="3" t="s">
+        <v>879</v>
+      </c>
+      <c r="B266" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C266" s="19" t="s">
+        <v>514</v>
+      </c>
+      <c r="D266" s="19"/>
+      <c r="E266" s="19"/>
+      <c r="F266" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A267" s="3" t="s">
+        <v>880</v>
+      </c>
+      <c r="B267" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C267" s="19" t="s">
+        <v>513</v>
+      </c>
+      <c r="D267" s="19"/>
+      <c r="E267" s="19"/>
+      <c r="F267" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A268" s="3" t="s">
+        <v>881</v>
+      </c>
+      <c r="B268" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C268" s="26" t="s">
+        <v>426</v>
+      </c>
+      <c r="D268" s="26"/>
+      <c r="E268" s="26"/>
+      <c r="F268" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A269" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="B269" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C269" s="26" t="s">
+        <v>425</v>
+      </c>
+      <c r="D269" s="26"/>
+      <c r="E269" s="26"/>
+      <c r="F269" s="6" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A270" s="3" t="s">
+        <v>883</v>
+      </c>
+      <c r="B270" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C270" s="26" t="s">
+        <v>429</v>
+      </c>
+      <c r="D270" s="26"/>
+      <c r="E270" s="26"/>
+      <c r="F270" s="6" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A271" s="3" t="s">
+        <v>884</v>
+      </c>
+      <c r="B271" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C271" s="19" t="s">
+        <v>511</v>
+      </c>
+      <c r="D271" s="19"/>
+      <c r="E271" s="19"/>
+      <c r="F271" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A272" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="B272" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C272" s="26" t="s">
+        <v>430</v>
+      </c>
+      <c r="D272" s="26"/>
+      <c r="E272" s="26"/>
+      <c r="F272" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A273" s="3" t="s">
+        <v>886</v>
+      </c>
+      <c r="B273" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C273" s="18" t="s">
+        <v>427</v>
+      </c>
+      <c r="D273" s="18"/>
+      <c r="E273" s="18"/>
+      <c r="F273" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A274" s="3" t="s">
+        <v>887</v>
+      </c>
+      <c r="B274" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C274" s="19" t="s">
+        <v>428</v>
+      </c>
+      <c r="D274" s="19"/>
+      <c r="E274" s="19"/>
+      <c r="F274" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A275" s="3" t="s">
+        <v>888</v>
+      </c>
+      <c r="B275" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C275" s="19" t="s">
+        <v>432</v>
+      </c>
+      <c r="D275" s="19"/>
+      <c r="E275" s="19"/>
+      <c r="F275" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A276" s="3" t="s">
+        <v>889</v>
+      </c>
+      <c r="B276" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C276" s="19" t="s">
+        <v>431</v>
+      </c>
+      <c r="D276" s="19"/>
+      <c r="E276" s="19"/>
+      <c r="F276" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A277" s="3" t="s">
+        <v>890</v>
+      </c>
+      <c r="B277" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C277" s="26" t="s">
+        <v>433</v>
+      </c>
+      <c r="D277" s="26"/>
+      <c r="E277" s="26"/>
+      <c r="F277" s="6" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A278" s="3" t="s">
+        <v>891</v>
+      </c>
+      <c r="B278" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C278" s="27" t="s">
+        <v>434</v>
+      </c>
+      <c r="D278" s="27"/>
+      <c r="E278" s="27"/>
+      <c r="F278" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A279" s="3" t="s">
+        <v>892</v>
+      </c>
+      <c r="B279" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C279" s="19" t="s">
+        <v>435</v>
+      </c>
+      <c r="D279" s="19"/>
+      <c r="E279" s="19"/>
+      <c r="F279" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A280" s="3" t="s">
+        <v>893</v>
+      </c>
+      <c r="B280" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C280" s="19" t="s">
+        <v>436</v>
+      </c>
+      <c r="D280" s="19"/>
+      <c r="E280" s="19"/>
+      <c r="F280" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A281" s="3" t="s">
+        <v>894</v>
+      </c>
+      <c r="B281" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C281" s="19" t="s">
+        <v>437</v>
+      </c>
+      <c r="D281" s="19"/>
+      <c r="E281" s="19"/>
+      <c r="F281" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A282" s="3" t="s">
+        <v>895</v>
+      </c>
+      <c r="B282" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C282" s="27" t="s">
+        <v>438</v>
+      </c>
+      <c r="D282" s="27"/>
+      <c r="E282" s="27"/>
+      <c r="F282" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A283" s="3" t="s">
+        <v>896</v>
+      </c>
+      <c r="B283" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C283" s="26" t="s">
+        <v>509</v>
+      </c>
+      <c r="D283" s="26"/>
+      <c r="E283" s="26"/>
+      <c r="F283" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A284" s="3" t="s">
+        <v>897</v>
+      </c>
+      <c r="B284" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C284" s="26" t="s">
+        <v>439</v>
+      </c>
+      <c r="D284" s="26"/>
+      <c r="E284" s="26"/>
+      <c r="F284" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A285" s="3" t="s">
+        <v>898</v>
+      </c>
+      <c r="B285" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C285" s="19" t="s">
+        <v>455</v>
+      </c>
+      <c r="D285" s="19"/>
+      <c r="E285" s="19"/>
+      <c r="F285" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A286" s="3" t="s">
+        <v>899</v>
+      </c>
+      <c r="B286" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C286" s="19" t="s">
+        <v>456</v>
+      </c>
+      <c r="D286" s="19"/>
+      <c r="E286" s="19"/>
+      <c r="F286" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A287" s="3" t="s">
+        <v>900</v>
+      </c>
+      <c r="B287" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C287" s="26" t="s">
+        <v>457</v>
+      </c>
+      <c r="D287" s="26"/>
+      <c r="E287" s="26"/>
+      <c r="F287" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A288" s="3" t="s">
+        <v>901</v>
+      </c>
+      <c r="B288" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C288" s="19" t="s">
+        <v>458</v>
+      </c>
+      <c r="D288" s="19"/>
+      <c r="E288" s="19"/>
+      <c r="F288" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A289" s="3" t="s">
+        <v>902</v>
+      </c>
+      <c r="B289" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C289" s="19" t="s">
+        <v>459</v>
+      </c>
+      <c r="D289" s="19"/>
+      <c r="E289" s="19"/>
+      <c r="F289" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A290" s="3" t="s">
+        <v>903</v>
+      </c>
+      <c r="B290" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C290" s="19" t="s">
+        <v>461</v>
+      </c>
+      <c r="D290" s="19"/>
+      <c r="E290" s="19"/>
+      <c r="F290" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A291" s="3" t="s">
+        <v>904</v>
+      </c>
+      <c r="B291" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C291" s="19" t="s">
+        <v>505</v>
+      </c>
+      <c r="D291" s="19"/>
+      <c r="E291" s="19"/>
+      <c r="F291" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A292" s="3" t="s">
+        <v>905</v>
+      </c>
+      <c r="B292" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C292" s="26" t="s">
+        <v>460</v>
+      </c>
+      <c r="D292" s="26"/>
+      <c r="E292" s="26"/>
+      <c r="F292" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A293" s="3" t="s">
+        <v>906</v>
+      </c>
+      <c r="B293" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C293" s="26" t="s">
+        <v>462</v>
+      </c>
+      <c r="D293" s="26"/>
+      <c r="E293" s="26"/>
+      <c r="F293" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A294" s="3" t="s">
+        <v>907</v>
+      </c>
+      <c r="B294" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C294" s="26" t="s">
+        <v>463</v>
+      </c>
+      <c r="D294" s="26"/>
+      <c r="E294" s="26"/>
+      <c r="F294" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A295" s="3" t="s">
+        <v>908</v>
+      </c>
+      <c r="B295" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C295" s="26" t="s">
+        <v>464</v>
+      </c>
+      <c r="D295" s="26"/>
+      <c r="E295" s="26"/>
+      <c r="F295" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A296" s="3" t="s">
+        <v>909</v>
+      </c>
+      <c r="B296" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C296" s="26" t="s">
+        <v>465</v>
+      </c>
+      <c r="D296" s="26"/>
+      <c r="E296" s="26"/>
+      <c r="F296" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A297" s="3" t="s">
+        <v>910</v>
+      </c>
+      <c r="B297" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C297" s="26" t="s">
+        <v>466</v>
+      </c>
+      <c r="D297" s="26"/>
+      <c r="E297" s="26"/>
+      <c r="F297" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A298" s="3" t="s">
+        <v>911</v>
+      </c>
+      <c r="B298" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C298" s="26" t="s">
+        <v>467</v>
+      </c>
+      <c r="D298" s="26"/>
+      <c r="E298" s="26"/>
+      <c r="F298" s="19" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A299" s="3" t="s">
+        <v>912</v>
+      </c>
+      <c r="B299" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C299" s="26" t="s">
+        <v>468</v>
+      </c>
+      <c r="D299" s="26"/>
+      <c r="E299" s="26"/>
+      <c r="F299" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A300" s="3" t="s">
+        <v>913</v>
+      </c>
+      <c r="B300" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C300" s="26" t="s">
+        <v>469</v>
+      </c>
+      <c r="D300" s="26"/>
+      <c r="E300" s="26"/>
+      <c r="F300" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A301" s="3" t="s">
+        <v>914</v>
+      </c>
+      <c r="B301" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C301" s="27" t="s">
+        <v>485</v>
+      </c>
+      <c r="D301" s="27"/>
+      <c r="E301" s="27"/>
+      <c r="F301" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A302" s="3" t="s">
+        <v>915</v>
+      </c>
+      <c r="B302" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C302" s="26" t="s">
+        <v>486</v>
+      </c>
+      <c r="D302" s="26"/>
+      <c r="E302" s="26"/>
+      <c r="F302" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A303" s="3" t="s">
+        <v>916</v>
+      </c>
+      <c r="B303" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C303" s="19" t="s">
+        <v>487</v>
+      </c>
+      <c r="D303" s="19"/>
+      <c r="E303" s="19"/>
+      <c r="F303" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A304" s="3" t="s">
+        <v>917</v>
+      </c>
+      <c r="B304" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C304" s="19" t="s">
+        <v>488</v>
+      </c>
+      <c r="D304" s="19"/>
+      <c r="E304" s="19"/>
+      <c r="F304" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A305" s="3" t="s">
+        <v>918</v>
+      </c>
+      <c r="B305" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C305" s="19" t="s">
+        <v>489</v>
+      </c>
+      <c r="D305" s="19"/>
+      <c r="E305" s="19"/>
+      <c r="F305" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A306" s="3" t="s">
+        <v>919</v>
+      </c>
+      <c r="B306" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C306" s="19" t="s">
+        <v>490</v>
+      </c>
+      <c r="D306" s="19"/>
+      <c r="E306" s="19"/>
+      <c r="F306" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A307" s="3" t="s">
+        <v>920</v>
+      </c>
+      <c r="B307" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C307" s="26" t="s">
+        <v>507</v>
+      </c>
+      <c r="D307" s="26"/>
+      <c r="E307" s="26"/>
+      <c r="F307" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A308" s="3" t="s">
+        <v>921</v>
+      </c>
+      <c r="B308" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C308" s="19" t="s">
+        <v>497</v>
+      </c>
+      <c r="D308" s="19"/>
+      <c r="E308" s="19"/>
+      <c r="F308" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A309" s="3" t="s">
+        <v>922</v>
+      </c>
+      <c r="B309" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C309" s="19" t="s">
+        <v>499</v>
+      </c>
+      <c r="D309" s="19"/>
+      <c r="E309" s="19"/>
+      <c r="F309" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A310" s="3" t="s">
+        <v>923</v>
+      </c>
+      <c r="B310" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C310" s="18" t="s">
+        <v>501</v>
+      </c>
+      <c r="D310" s="18"/>
+      <c r="E310" s="18"/>
+      <c r="F310" s="6" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A311" s="3" t="s">
+        <v>924</v>
+      </c>
+      <c r="B311" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C311" s="27" t="s">
+        <v>503</v>
+      </c>
+      <c r="D311" s="27"/>
+      <c r="E311" s="27"/>
+      <c r="F311" s="6" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/slackbuilds/sb_migr.xlsx
+++ b/slackbuilds/sb_migr.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\projects.new\sh\cvstogit\slackbuilds\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{643BC533-FDC2-4A6E-B428-06F5D8F7B14C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F42C6C1-2356-4A91-9C1D-16D0F6EE2B50}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1880" uniqueCount="1255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1880" uniqueCount="1254">
   <si>
     <t>Package</t>
   </si>
@@ -3800,9 +3800,6 @@
   </si>
   <si>
     <t>2006-02-19 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t>SLACK-10_3</t>
   </si>
 </sst>
 </file>
@@ -11449,7 +11446,7 @@
   <dimension ref="A1:F311"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11669,7 +11666,7 @@
         <v>6</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>1254</v>
+        <v>633</v>
       </c>
       <c r="E12" s="19"/>
       <c r="F12" t="s">

--- a/slackbuilds/sb_migr.xlsx
+++ b/slackbuilds/sb_migr.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\projects.new\sh\cvstogit\slackbuilds\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F42C6C1-2356-4A91-9C1D-16D0F6EE2B50}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A8BE7F3-45B4-441A-867E-CB303657A692}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1880" uniqueCount="1254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1887" uniqueCount="1254">
   <si>
     <t>Package</t>
   </si>
@@ -2818,9 +2818,6 @@
     <t>etc/slack-package.conf</t>
   </si>
   <si>
-    <t>Add config from LinuxPackages.net</t>
-  </si>
-  <si>
     <t>https://github.com/gdsotirov/net-snmp.SlackBuild.git</t>
   </si>
   <si>
@@ -3799,7 +3796,10 @@
     <t>2006-02-10 21:37:45 +0200</t>
   </si>
   <si>
-    <t>2006-02-19 00:00:00 +0200</t>
+    <t>2006-02-18 16:21:47 +0200</t>
+  </si>
+  <si>
+    <t>Add config from LinuxPackages.net with my changes</t>
   </si>
 </sst>
 </file>
@@ -8706,7 +8706,7 @@
         <v>147</v>
       </c>
       <c r="F194" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="G194" s="13">
         <v>43875</v>
@@ -11446,7 +11446,7 @@
   <dimension ref="A1:F311"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11455,7 +11455,7 @@
     <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="57.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -11481,7 +11481,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="28" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="B2" t="s">
         <v>628</v>
@@ -11495,7 +11495,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>627</v>
@@ -11508,12 +11508,12 @@
       </c>
       <c r="E3" s="19"/>
       <c r="F3" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>627</v>
@@ -11526,12 +11526,12 @@
       </c>
       <c r="E4" s="19"/>
       <c r="F4" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>627</v>
@@ -11544,12 +11544,12 @@
       </c>
       <c r="E5" s="19"/>
       <c r="F5" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>627</v>
@@ -11562,12 +11562,12 @@
       </c>
       <c r="E6" s="19"/>
       <c r="F6" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>627</v>
@@ -11580,12 +11580,12 @@
       </c>
       <c r="E7" s="19"/>
       <c r="F7" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>627</v>
@@ -11598,12 +11598,12 @@
       </c>
       <c r="E8" s="26"/>
       <c r="F8" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>627</v>
@@ -11616,12 +11616,12 @@
       </c>
       <c r="E9" s="19"/>
       <c r="F9" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>627</v>
@@ -11634,12 +11634,12 @@
       </c>
       <c r="E10" s="19"/>
       <c r="F10" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>627</v>
@@ -11652,12 +11652,12 @@
       </c>
       <c r="E11" s="19"/>
       <c r="F11" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>627</v>
@@ -11670,12 +11670,12 @@
       </c>
       <c r="E12" s="19"/>
       <c r="F12" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>627</v>
@@ -11683,15 +11683,17 @@
       <c r="C13" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="18"/>
+      <c r="D13" s="18" t="s">
+        <v>633</v>
+      </c>
       <c r="E13" s="18"/>
       <c r="F13" s="6" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>627</v>
@@ -11699,15 +11701,17 @@
       <c r="C14" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="18"/>
+      <c r="D14" s="18" t="s">
+        <v>633</v>
+      </c>
       <c r="E14" s="18"/>
       <c r="F14" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>627</v>
@@ -11715,15 +11719,17 @@
       <c r="C15" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="D15" s="19"/>
+      <c r="D15" s="18" t="s">
+        <v>633</v>
+      </c>
       <c r="E15" s="19"/>
       <c r="F15" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>627</v>
@@ -11731,15 +11737,17 @@
       <c r="C16" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="D16" s="19"/>
+      <c r="D16" s="18" t="s">
+        <v>633</v>
+      </c>
       <c r="E16" s="19"/>
       <c r="F16" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>627</v>
@@ -11747,15 +11755,17 @@
       <c r="C17" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="19"/>
+      <c r="D17" s="18" t="s">
+        <v>633</v>
+      </c>
       <c r="E17" s="19"/>
       <c r="F17" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>627</v>
@@ -11763,15 +11773,17 @@
       <c r="C18" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="19"/>
+      <c r="D18" s="18" t="s">
+        <v>633</v>
+      </c>
       <c r="E18" s="19"/>
       <c r="F18" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>627</v>
@@ -11779,15 +11791,17 @@
       <c r="C19" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="D19" s="19"/>
+      <c r="D19" s="18" t="s">
+        <v>633</v>
+      </c>
       <c r="E19" s="19"/>
       <c r="F19" s="19" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>628</v>
@@ -11797,7 +11811,7 @@
       </c>
       <c r="D20" s="19"/>
       <c r="E20" s="19" t="s">
-        <v>926</v>
+        <v>1253</v>
       </c>
       <c r="F20" s="19"/>
     </row>
@@ -11814,7 +11828,7 @@
       <c r="D21" s="19"/>
       <c r="E21" s="19"/>
       <c r="F21" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -11830,7 +11844,7 @@
       <c r="D22" s="19"/>
       <c r="E22" s="19"/>
       <c r="F22" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -11846,7 +11860,7 @@
       <c r="D23" s="18"/>
       <c r="E23" s="18"/>
       <c r="F23" s="6" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -11862,7 +11876,7 @@
       <c r="D24" s="18"/>
       <c r="E24" s="18"/>
       <c r="F24" s="6" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -11878,7 +11892,7 @@
       <c r="D25" s="19"/>
       <c r="E25" s="19"/>
       <c r="F25" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -11894,7 +11908,7 @@
       <c r="D26" s="19"/>
       <c r="E26" s="19"/>
       <c r="F26" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -11910,7 +11924,7 @@
       <c r="D27" s="26"/>
       <c r="E27" s="26"/>
       <c r="F27" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -11926,7 +11940,7 @@
       <c r="D28" s="19"/>
       <c r="E28" s="19"/>
       <c r="F28" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -11942,7 +11956,7 @@
       <c r="D29" s="19"/>
       <c r="E29" s="19"/>
       <c r="F29" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -11958,7 +11972,7 @@
       <c r="D30" s="19"/>
       <c r="E30" s="19"/>
       <c r="F30" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -11974,7 +11988,7 @@
       <c r="D31" s="19"/>
       <c r="E31" s="19"/>
       <c r="F31" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -11990,7 +12004,7 @@
       <c r="D32" s="19"/>
       <c r="E32" s="19"/>
       <c r="F32" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -12006,7 +12020,7 @@
       <c r="D33" s="18"/>
       <c r="E33" s="18"/>
       <c r="F33" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -12022,7 +12036,7 @@
       <c r="D34" s="19"/>
       <c r="E34" s="19"/>
       <c r="F34" s="19" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -12038,7 +12052,7 @@
       <c r="D35" s="19"/>
       <c r="E35" s="19"/>
       <c r="F35" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -12054,7 +12068,7 @@
       <c r="D36" s="19"/>
       <c r="E36" s="19"/>
       <c r="F36" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -12070,7 +12084,7 @@
       <c r="D37" s="19"/>
       <c r="E37" s="19"/>
       <c r="F37" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -12086,7 +12100,7 @@
       <c r="D38" s="19"/>
       <c r="E38" s="19"/>
       <c r="F38" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -12102,7 +12116,7 @@
       <c r="D39" s="19"/>
       <c r="E39" s="19"/>
       <c r="F39" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -12118,7 +12132,7 @@
       <c r="D40" s="18"/>
       <c r="E40" s="18"/>
       <c r="F40" s="6" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -12134,7 +12148,7 @@
       <c r="D41" s="19"/>
       <c r="E41" s="19"/>
       <c r="F41" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -12150,7 +12164,7 @@
       <c r="D42" s="18"/>
       <c r="E42" s="18"/>
       <c r="F42" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -12166,7 +12180,7 @@
       <c r="D43" s="19"/>
       <c r="E43" s="19"/>
       <c r="F43" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -12182,7 +12196,7 @@
       <c r="D44" s="19"/>
       <c r="E44" s="19"/>
       <c r="F44" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -12198,7 +12212,7 @@
       <c r="D45" s="19"/>
       <c r="E45" s="19"/>
       <c r="F45" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -12214,7 +12228,7 @@
       <c r="D46" s="19"/>
       <c r="E46" s="19"/>
       <c r="F46" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -12230,7 +12244,7 @@
       <c r="D47" s="19"/>
       <c r="E47" s="19"/>
       <c r="F47" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -12246,7 +12260,7 @@
       <c r="D48" s="18"/>
       <c r="E48" s="18"/>
       <c r="F48" s="6" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -12262,7 +12276,7 @@
       <c r="D49" s="18"/>
       <c r="E49" s="18"/>
       <c r="F49" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -12278,7 +12292,7 @@
       <c r="D50" s="19"/>
       <c r="E50" s="19"/>
       <c r="F50" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -12294,7 +12308,7 @@
       <c r="D51" s="19"/>
       <c r="E51" s="19"/>
       <c r="F51" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -12310,7 +12324,7 @@
       <c r="D52" s="19"/>
       <c r="E52" s="19"/>
       <c r="F52" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -12326,7 +12340,7 @@
       <c r="D53" s="19"/>
       <c r="E53" s="19"/>
       <c r="F53" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -12342,7 +12356,7 @@
       <c r="D54" s="19"/>
       <c r="E54" s="19"/>
       <c r="F54" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -12358,7 +12372,7 @@
       <c r="D55" s="19"/>
       <c r="E55" s="19"/>
       <c r="F55" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -12374,7 +12388,7 @@
       <c r="D56" s="19"/>
       <c r="E56" s="19"/>
       <c r="F56" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -12390,7 +12404,7 @@
       <c r="D57" s="19"/>
       <c r="E57" s="19"/>
       <c r="F57" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -12406,7 +12420,7 @@
       <c r="D58" s="19"/>
       <c r="E58" s="19"/>
       <c r="F58" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -12422,7 +12436,7 @@
       <c r="D59" s="19"/>
       <c r="E59" s="19"/>
       <c r="F59" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -12438,7 +12452,7 @@
       <c r="D60" s="26"/>
       <c r="E60" s="26"/>
       <c r="F60" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -12454,7 +12468,7 @@
       <c r="D61" s="19"/>
       <c r="E61" s="19"/>
       <c r="F61" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -12470,7 +12484,7 @@
       <c r="D62" s="26"/>
       <c r="E62" s="26"/>
       <c r="F62" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -12486,7 +12500,7 @@
       <c r="D63" s="26"/>
       <c r="E63" s="26"/>
       <c r="F63" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -12502,7 +12516,7 @@
       <c r="D64" s="19"/>
       <c r="E64" s="19"/>
       <c r="F64" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -12518,7 +12532,7 @@
       <c r="D65" s="18"/>
       <c r="E65" s="18"/>
       <c r="F65" s="6" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -12534,7 +12548,7 @@
       <c r="D66" s="19"/>
       <c r="E66" s="19"/>
       <c r="F66" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -12550,7 +12564,7 @@
       <c r="D67" s="19"/>
       <c r="E67" s="19"/>
       <c r="F67" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -12566,7 +12580,7 @@
       <c r="D68" s="18"/>
       <c r="E68" s="18"/>
       <c r="F68" s="6" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -12582,7 +12596,7 @@
       <c r="D69" s="19"/>
       <c r="E69" s="19"/>
       <c r="F69" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -12598,7 +12612,7 @@
       <c r="D70" s="19"/>
       <c r="E70" s="19"/>
       <c r="F70" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -12614,7 +12628,7 @@
       <c r="D71" s="19"/>
       <c r="E71" s="19"/>
       <c r="F71" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
@@ -12630,7 +12644,7 @@
       <c r="D72" s="19"/>
       <c r="E72" s="19"/>
       <c r="F72" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -12646,7 +12660,7 @@
       <c r="D73" s="18"/>
       <c r="E73" s="18"/>
       <c r="F73" s="6" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -12662,7 +12676,7 @@
       <c r="D74" s="26"/>
       <c r="E74" s="26"/>
       <c r="F74" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -12678,7 +12692,7 @@
       <c r="D75" s="19"/>
       <c r="E75" s="19"/>
       <c r="F75" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
@@ -12694,7 +12708,7 @@
       <c r="D76" s="19"/>
       <c r="E76" s="19"/>
       <c r="F76" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -12710,7 +12724,7 @@
       <c r="D77" s="19"/>
       <c r="E77" s="19"/>
       <c r="F77" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -12726,7 +12740,7 @@
       <c r="D78" s="18"/>
       <c r="E78" s="18"/>
       <c r="F78" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -12742,7 +12756,7 @@
       <c r="D79" s="19"/>
       <c r="E79" s="19"/>
       <c r="F79" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -12758,7 +12772,7 @@
       <c r="D80" s="19"/>
       <c r="E80" s="19"/>
       <c r="F80" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
@@ -12774,7 +12788,7 @@
       <c r="D81" s="18"/>
       <c r="E81" s="18"/>
       <c r="F81" s="6" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
@@ -12790,7 +12804,7 @@
       <c r="D82" s="18"/>
       <c r="E82" s="18"/>
       <c r="F82" s="6" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
@@ -12806,7 +12820,7 @@
       <c r="D83" s="19"/>
       <c r="E83" s="19"/>
       <c r="F83" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
@@ -12822,7 +12836,7 @@
       <c r="D84" s="18"/>
       <c r="E84" s="18"/>
       <c r="F84" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
@@ -12838,7 +12852,7 @@
       <c r="D85" s="19"/>
       <c r="E85" s="19"/>
       <c r="F85" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
@@ -12854,7 +12868,7 @@
       <c r="D86" s="18"/>
       <c r="E86" s="18"/>
       <c r="F86" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
@@ -12870,7 +12884,7 @@
       <c r="D87" s="19"/>
       <c r="E87" s="19"/>
       <c r="F87" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
@@ -12886,7 +12900,7 @@
       <c r="D88" s="26"/>
       <c r="E88" s="26"/>
       <c r="F88" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
@@ -12902,7 +12916,7 @@
       <c r="D89" s="26"/>
       <c r="E89" s="26"/>
       <c r="F89" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
@@ -12918,7 +12932,7 @@
       <c r="D90" s="19"/>
       <c r="E90" s="19"/>
       <c r="F90" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
@@ -12934,7 +12948,7 @@
       <c r="D91" s="19"/>
       <c r="E91" s="19"/>
       <c r="F91" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
@@ -12950,7 +12964,7 @@
       <c r="D92" s="19"/>
       <c r="E92" s="19"/>
       <c r="F92" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
@@ -12966,7 +12980,7 @@
       <c r="D93" s="19"/>
       <c r="E93" s="19"/>
       <c r="F93" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
@@ -12982,7 +12996,7 @@
       <c r="D94" s="19"/>
       <c r="E94" s="19"/>
       <c r="F94" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
@@ -12998,7 +13012,7 @@
       <c r="D95" s="26"/>
       <c r="E95" s="26"/>
       <c r="F95" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
@@ -13014,7 +13028,7 @@
       <c r="D96" s="19"/>
       <c r="E96" s="19"/>
       <c r="F96" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
@@ -13030,7 +13044,7 @@
       <c r="D97" s="19"/>
       <c r="E97" s="19"/>
       <c r="F97" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
@@ -13046,7 +13060,7 @@
       <c r="D98" s="26"/>
       <c r="E98" s="26"/>
       <c r="F98" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
@@ -13062,7 +13076,7 @@
       <c r="D99" s="19"/>
       <c r="E99" s="19"/>
       <c r="F99" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
@@ -13078,7 +13092,7 @@
       <c r="D100" s="19"/>
       <c r="E100" s="19"/>
       <c r="F100" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
@@ -13094,7 +13108,7 @@
       <c r="D101" s="26"/>
       <c r="E101" s="26"/>
       <c r="F101" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
@@ -13110,7 +13124,7 @@
       <c r="D102" s="19"/>
       <c r="E102" s="19"/>
       <c r="F102" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
@@ -13126,7 +13140,7 @@
       <c r="D103" s="19"/>
       <c r="E103" s="19"/>
       <c r="F103" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
@@ -13142,7 +13156,7 @@
       <c r="D104" s="26"/>
       <c r="E104" s="26"/>
       <c r="F104" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
@@ -13158,7 +13172,7 @@
       <c r="D105" s="19"/>
       <c r="E105" s="19"/>
       <c r="F105" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
@@ -13174,7 +13188,7 @@
       <c r="D106" s="19"/>
       <c r="E106" s="19"/>
       <c r="F106" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
@@ -13190,7 +13204,7 @@
       <c r="D107" s="26"/>
       <c r="E107" s="26"/>
       <c r="F107" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
@@ -13206,7 +13220,7 @@
       <c r="D108" s="19"/>
       <c r="E108" s="19"/>
       <c r="F108" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
@@ -13222,7 +13236,7 @@
       <c r="D109" s="19"/>
       <c r="E109" s="19"/>
       <c r="F109" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
@@ -13238,7 +13252,7 @@
       <c r="D110" s="26"/>
       <c r="E110" s="26"/>
       <c r="F110" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
@@ -13254,7 +13268,7 @@
       <c r="D111" s="26"/>
       <c r="E111" s="26"/>
       <c r="F111" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
@@ -13270,7 +13284,7 @@
       <c r="D112" s="19"/>
       <c r="E112" s="19"/>
       <c r="F112" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
@@ -13286,7 +13300,7 @@
       <c r="D113" s="19"/>
       <c r="E113" s="19"/>
       <c r="F113" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
@@ -13302,7 +13316,7 @@
       <c r="D114" s="26"/>
       <c r="E114" s="26"/>
       <c r="F114" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
@@ -13318,7 +13332,7 @@
       <c r="D115" s="26"/>
       <c r="E115" s="26"/>
       <c r="F115" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
@@ -13334,7 +13348,7 @@
       <c r="D116" s="19"/>
       <c r="E116" s="19"/>
       <c r="F116" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
@@ -13350,7 +13364,7 @@
       <c r="D117" s="19"/>
       <c r="E117" s="19"/>
       <c r="F117" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
@@ -13366,7 +13380,7 @@
       <c r="D118" s="18"/>
       <c r="E118" s="18"/>
       <c r="F118" s="6" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
@@ -13382,7 +13396,7 @@
       <c r="D119" s="26"/>
       <c r="E119" s="26"/>
       <c r="F119" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
@@ -13398,7 +13412,7 @@
       <c r="D120" s="19"/>
       <c r="E120" s="19"/>
       <c r="F120" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
@@ -13414,7 +13428,7 @@
       <c r="D121" s="26"/>
       <c r="E121" s="26"/>
       <c r="F121" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
@@ -13430,7 +13444,7 @@
       <c r="D122" s="19"/>
       <c r="E122" s="19"/>
       <c r="F122" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
@@ -13446,7 +13460,7 @@
       <c r="D123" s="19"/>
       <c r="E123" s="19"/>
       <c r="F123" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
@@ -13462,7 +13476,7 @@
       <c r="D124" s="26"/>
       <c r="E124" s="26"/>
       <c r="F124" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
@@ -13478,7 +13492,7 @@
       <c r="D125" s="27"/>
       <c r="E125" s="27"/>
       <c r="F125" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
@@ -13494,7 +13508,7 @@
       <c r="D126" s="19"/>
       <c r="E126" s="19"/>
       <c r="F126" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
@@ -13510,7 +13524,7 @@
       <c r="D127" s="26"/>
       <c r="E127" s="26"/>
       <c r="F127" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
@@ -13526,7 +13540,7 @@
       <c r="D128" s="26"/>
       <c r="E128" s="26"/>
       <c r="F128" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
@@ -13542,7 +13556,7 @@
       <c r="D129" s="26"/>
       <c r="E129" s="26"/>
       <c r="F129" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
@@ -13558,7 +13572,7 @@
       <c r="D130" s="26"/>
       <c r="E130" s="26"/>
       <c r="F130" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
@@ -13574,7 +13588,7 @@
       <c r="D131" s="26"/>
       <c r="E131" s="26"/>
       <c r="F131" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
@@ -13590,7 +13604,7 @@
       <c r="D132" s="26"/>
       <c r="E132" s="26"/>
       <c r="F132" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
@@ -13606,7 +13620,7 @@
       <c r="D133" s="26"/>
       <c r="E133" s="26"/>
       <c r="F133" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
@@ -13622,7 +13636,7 @@
       <c r="D134" s="26"/>
       <c r="E134" s="26"/>
       <c r="F134" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
@@ -13638,7 +13652,7 @@
       <c r="D135" s="26"/>
       <c r="E135" s="26"/>
       <c r="F135" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
@@ -13654,7 +13668,7 @@
       <c r="D136" s="19"/>
       <c r="E136" s="19"/>
       <c r="F136" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
@@ -13670,7 +13684,7 @@
       <c r="D137" s="26"/>
       <c r="E137" s="26"/>
       <c r="F137" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
@@ -13686,7 +13700,7 @@
       <c r="D138" s="27"/>
       <c r="E138" s="27"/>
       <c r="F138" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
@@ -13702,7 +13716,7 @@
       <c r="D139" s="26"/>
       <c r="E139" s="26"/>
       <c r="F139" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
@@ -13718,7 +13732,7 @@
       <c r="D140" s="26"/>
       <c r="E140" s="26"/>
       <c r="F140" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
@@ -13734,7 +13748,7 @@
       <c r="D141" s="26"/>
       <c r="E141" s="26"/>
       <c r="F141" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
@@ -13750,7 +13764,7 @@
       <c r="D142" s="26"/>
       <c r="E142" s="26"/>
       <c r="F142" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
@@ -13766,7 +13780,7 @@
       <c r="D143" s="19"/>
       <c r="E143" s="19"/>
       <c r="F143" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
@@ -13782,7 +13796,7 @@
       <c r="D144" s="26"/>
       <c r="E144" s="26"/>
       <c r="F144" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
@@ -13798,7 +13812,7 @@
       <c r="D145" s="26"/>
       <c r="E145" s="26"/>
       <c r="F145" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
@@ -13814,7 +13828,7 @@
       <c r="D146" s="19"/>
       <c r="E146" s="19"/>
       <c r="F146" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
@@ -13830,7 +13844,7 @@
       <c r="D147" s="19"/>
       <c r="E147" s="19"/>
       <c r="F147" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
@@ -13846,7 +13860,7 @@
       <c r="D148" s="18"/>
       <c r="E148" s="18"/>
       <c r="F148" s="6" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
@@ -13862,7 +13876,7 @@
       <c r="D149" s="18"/>
       <c r="E149" s="18"/>
       <c r="F149" s="6" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
@@ -13878,7 +13892,7 @@
       <c r="D150" s="26"/>
       <c r="E150" s="26"/>
       <c r="F150" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
@@ -13894,7 +13908,7 @@
       <c r="D151" s="27"/>
       <c r="E151" s="27"/>
       <c r="F151" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
@@ -13910,7 +13924,7 @@
       <c r="D152" s="26"/>
       <c r="E152" s="26"/>
       <c r="F152" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
@@ -13926,7 +13940,7 @@
       <c r="D153" s="26"/>
       <c r="E153" s="26"/>
       <c r="F153" s="6" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
@@ -13942,7 +13956,7 @@
       <c r="D154" s="26"/>
       <c r="E154" s="26"/>
       <c r="F154" s="6" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
@@ -13958,7 +13972,7 @@
       <c r="D155" s="26"/>
       <c r="E155" s="26"/>
       <c r="F155" s="6" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
@@ -13974,7 +13988,7 @@
       <c r="D156" s="26"/>
       <c r="E156" s="26"/>
       <c r="F156" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
@@ -13990,7 +14004,7 @@
       <c r="D157" s="26"/>
       <c r="E157" s="26"/>
       <c r="F157" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
@@ -14006,7 +14020,7 @@
       <c r="D158" s="26"/>
       <c r="E158" s="26"/>
       <c r="F158" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
@@ -14022,7 +14036,7 @@
       <c r="D159" s="26"/>
       <c r="E159" s="26"/>
       <c r="F159" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
@@ -14038,7 +14052,7 @@
       <c r="D160" s="27"/>
       <c r="E160" s="27"/>
       <c r="F160" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
@@ -14054,7 +14068,7 @@
       <c r="D161" s="26"/>
       <c r="E161" s="26"/>
       <c r="F161" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
@@ -14070,7 +14084,7 @@
       <c r="D162" s="26"/>
       <c r="E162" s="26"/>
       <c r="F162" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
@@ -14086,7 +14100,7 @@
       <c r="D163" s="19"/>
       <c r="E163" s="19"/>
       <c r="F163" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
@@ -14102,7 +14116,7 @@
       <c r="D164" s="18"/>
       <c r="E164" s="18"/>
       <c r="F164" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
@@ -14118,7 +14132,7 @@
       <c r="D165" s="26"/>
       <c r="E165" s="26"/>
       <c r="F165" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
@@ -14134,7 +14148,7 @@
       <c r="D166" s="19"/>
       <c r="E166" s="19"/>
       <c r="F166" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
@@ -14150,7 +14164,7 @@
       <c r="D167" s="26"/>
       <c r="E167" s="26"/>
       <c r="F167" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
@@ -14166,7 +14180,7 @@
       <c r="D168" s="19"/>
       <c r="E168" s="19"/>
       <c r="F168" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
@@ -14182,7 +14196,7 @@
       <c r="D169" s="19"/>
       <c r="E169" s="19"/>
       <c r="F169" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
@@ -14198,7 +14212,7 @@
       <c r="D170" s="27"/>
       <c r="E170" s="27"/>
       <c r="F170" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
@@ -14214,7 +14228,7 @@
       <c r="D171" s="19"/>
       <c r="E171" s="19"/>
       <c r="F171" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
@@ -14230,7 +14244,7 @@
       <c r="D172" s="18"/>
       <c r="E172" s="18"/>
       <c r="F172" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
@@ -14246,7 +14260,7 @@
       <c r="D173" s="19"/>
       <c r="E173" s="19"/>
       <c r="F173" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
@@ -14262,7 +14276,7 @@
       <c r="D174" s="19"/>
       <c r="E174" s="19"/>
       <c r="F174" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
@@ -14278,7 +14292,7 @@
       <c r="D175" s="19"/>
       <c r="E175" s="19"/>
       <c r="F175" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
@@ -14294,7 +14308,7 @@
       <c r="D176" s="26"/>
       <c r="E176" s="26"/>
       <c r="F176" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
@@ -14310,7 +14324,7 @@
       <c r="D177" s="19"/>
       <c r="E177" s="19"/>
       <c r="F177" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
@@ -14326,7 +14340,7 @@
       <c r="D178" s="19"/>
       <c r="E178" s="19"/>
       <c r="F178" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
@@ -14342,7 +14356,7 @@
       <c r="D179" s="18"/>
       <c r="E179" s="18"/>
       <c r="F179" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
@@ -14358,7 +14372,7 @@
       <c r="D180" s="19"/>
       <c r="E180" s="19"/>
       <c r="F180" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
@@ -14374,7 +14388,7 @@
       <c r="D181" s="26"/>
       <c r="E181" s="26"/>
       <c r="F181" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
@@ -14390,7 +14404,7 @@
       <c r="D182" s="19"/>
       <c r="E182" s="19"/>
       <c r="F182" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
@@ -14406,7 +14420,7 @@
       <c r="D183" s="26"/>
       <c r="E183" s="26"/>
       <c r="F183" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
@@ -14422,7 +14436,7 @@
       <c r="D184" s="19"/>
       <c r="E184" s="19"/>
       <c r="F184" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
@@ -14438,7 +14452,7 @@
       <c r="D185" s="26"/>
       <c r="E185" s="26"/>
       <c r="F185" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
@@ -14454,7 +14468,7 @@
       <c r="D186" s="26"/>
       <c r="E186" s="26"/>
       <c r="F186" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
@@ -14470,7 +14484,7 @@
       <c r="D187" s="19"/>
       <c r="E187" s="19"/>
       <c r="F187" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
@@ -14486,7 +14500,7 @@
       <c r="D188" s="19"/>
       <c r="E188" s="19"/>
       <c r="F188" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
@@ -14502,7 +14516,7 @@
       <c r="D189" s="26"/>
       <c r="E189" s="26"/>
       <c r="F189" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
@@ -14518,7 +14532,7 @@
       <c r="D190" s="26"/>
       <c r="E190" s="26"/>
       <c r="F190" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
@@ -14534,7 +14548,7 @@
       <c r="D191" s="19"/>
       <c r="E191" s="19"/>
       <c r="F191" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
@@ -14550,7 +14564,7 @@
       <c r="D192" s="26"/>
       <c r="E192" s="26"/>
       <c r="F192" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
@@ -14566,7 +14580,7 @@
       <c r="D193" s="19"/>
       <c r="E193" s="19"/>
       <c r="F193" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.3">
@@ -14582,7 +14596,7 @@
       <c r="D194" s="26"/>
       <c r="E194" s="26"/>
       <c r="F194" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.3">
@@ -14598,7 +14612,7 @@
       <c r="D195" s="19"/>
       <c r="E195" s="19"/>
       <c r="F195" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.3">
@@ -14614,7 +14628,7 @@
       <c r="D196" s="19"/>
       <c r="E196" s="19"/>
       <c r="F196" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.3">
@@ -14630,7 +14644,7 @@
       <c r="D197" s="26"/>
       <c r="E197" s="26"/>
       <c r="F197" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
@@ -14646,7 +14660,7 @@
       <c r="D198" s="19"/>
       <c r="E198" s="19"/>
       <c r="F198" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
@@ -14662,7 +14676,7 @@
       <c r="D199" s="26"/>
       <c r="E199" s="26"/>
       <c r="F199" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
@@ -14678,7 +14692,7 @@
       <c r="D200" s="26"/>
       <c r="E200" s="26"/>
       <c r="F200" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.3">
@@ -14694,7 +14708,7 @@
       <c r="D201" s="27"/>
       <c r="E201" s="27"/>
       <c r="F201" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.3">
@@ -14710,7 +14724,7 @@
       <c r="D202" s="19"/>
       <c r="E202" s="19"/>
       <c r="F202" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.3">
@@ -14726,7 +14740,7 @@
       <c r="D203" s="19"/>
       <c r="E203" s="19"/>
       <c r="F203" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.3">
@@ -14758,7 +14772,7 @@
       <c r="D205" s="19"/>
       <c r="E205" s="19"/>
       <c r="F205" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.3">
@@ -14774,7 +14788,7 @@
       <c r="D206" s="19"/>
       <c r="E206" s="19"/>
       <c r="F206" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.3">
@@ -14790,7 +14804,7 @@
       <c r="D207" s="26"/>
       <c r="E207" s="26"/>
       <c r="F207" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.3">
@@ -14806,7 +14820,7 @@
       <c r="D208" s="19"/>
       <c r="E208" s="19"/>
       <c r="F208" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.3">
@@ -14822,7 +14836,7 @@
       <c r="D209" s="19"/>
       <c r="E209" s="19"/>
       <c r="F209" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.3">
@@ -14838,7 +14852,7 @@
       <c r="D210" s="26"/>
       <c r="E210" s="26"/>
       <c r="F210" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.3">
@@ -14854,7 +14868,7 @@
       <c r="D211" s="19"/>
       <c r="E211" s="19"/>
       <c r="F211" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.3">
@@ -14870,7 +14884,7 @@
       <c r="D212" s="26"/>
       <c r="E212" s="26"/>
       <c r="F212" s="6" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.3">
@@ -14886,7 +14900,7 @@
       <c r="D213" s="26"/>
       <c r="E213" s="26"/>
       <c r="F213" s="6" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.3">
@@ -14902,7 +14916,7 @@
       <c r="D214" s="19"/>
       <c r="E214" s="19"/>
       <c r="F214" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.3">
@@ -14918,7 +14932,7 @@
       <c r="D215" s="19"/>
       <c r="E215" s="19"/>
       <c r="F215" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.3">
@@ -14934,7 +14948,7 @@
       <c r="D216" s="19"/>
       <c r="E216" s="19"/>
       <c r="F216" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.3">
@@ -14950,7 +14964,7 @@
       <c r="D217" s="19"/>
       <c r="E217" s="19"/>
       <c r="F217" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.3">
@@ -14966,7 +14980,7 @@
       <c r="D218" s="26"/>
       <c r="E218" s="26"/>
       <c r="F218" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.3">
@@ -14982,7 +14996,7 @@
       <c r="D219" s="26"/>
       <c r="E219" s="26"/>
       <c r="F219" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.3">
@@ -14998,7 +15012,7 @@
       <c r="D220" s="26"/>
       <c r="E220" s="26"/>
       <c r="F220" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.3">
@@ -15014,7 +15028,7 @@
       <c r="D221" s="26"/>
       <c r="E221" s="26"/>
       <c r="F221" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.3">
@@ -15030,7 +15044,7 @@
       <c r="D222" s="26"/>
       <c r="E222" s="26"/>
       <c r="F222" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.3">
@@ -15046,7 +15060,7 @@
       <c r="D223" s="26"/>
       <c r="E223" s="26"/>
       <c r="F223" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.3">
@@ -15062,7 +15076,7 @@
       <c r="D224" s="19"/>
       <c r="E224" s="19"/>
       <c r="F224" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.3">
@@ -15078,7 +15092,7 @@
       <c r="D225" s="19"/>
       <c r="E225" s="19"/>
       <c r="F225" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.3">
@@ -15094,7 +15108,7 @@
       <c r="D226" s="26"/>
       <c r="E226" s="26"/>
       <c r="F226" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.3">
@@ -15110,7 +15124,7 @@
       <c r="D227" s="26"/>
       <c r="E227" s="26"/>
       <c r="F227" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.3">
@@ -15126,7 +15140,7 @@
       <c r="D228" s="26"/>
       <c r="E228" s="26"/>
       <c r="F228" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.3">
@@ -15142,7 +15156,7 @@
       <c r="D229" s="27"/>
       <c r="E229" s="27"/>
       <c r="F229" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.3">
@@ -15158,7 +15172,7 @@
       <c r="D230" s="26"/>
       <c r="E230" s="26"/>
       <c r="F230" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.3">
@@ -15174,7 +15188,7 @@
       <c r="D231" s="19"/>
       <c r="E231" s="19"/>
       <c r="F231" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.3">
@@ -15190,7 +15204,7 @@
       <c r="D232" s="26"/>
       <c r="E232" s="26"/>
       <c r="F232" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.3">
@@ -15206,7 +15220,7 @@
       <c r="D233" s="26"/>
       <c r="E233" s="26"/>
       <c r="F233" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.3">
@@ -15222,7 +15236,7 @@
       <c r="D234" s="19"/>
       <c r="E234" s="19"/>
       <c r="F234" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.3">
@@ -15238,7 +15252,7 @@
       <c r="D235" s="26"/>
       <c r="E235" s="26"/>
       <c r="F235" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.3">
@@ -15254,7 +15268,7 @@
       <c r="D236" s="26"/>
       <c r="E236" s="26"/>
       <c r="F236" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.3">
@@ -15270,7 +15284,7 @@
       <c r="D237" s="26"/>
       <c r="E237" s="26"/>
       <c r="F237" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.3">
@@ -15286,7 +15300,7 @@
       <c r="D238" s="26"/>
       <c r="E238" s="26"/>
       <c r="F238" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.3">
@@ -15302,7 +15316,7 @@
       <c r="D239" s="26"/>
       <c r="E239" s="26"/>
       <c r="F239" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.3">
@@ -15318,7 +15332,7 @@
       <c r="D240" s="26"/>
       <c r="E240" s="26"/>
       <c r="F240" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.3">
@@ -15334,7 +15348,7 @@
       <c r="D241" s="26"/>
       <c r="E241" s="26"/>
       <c r="F241" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.3">
@@ -15350,7 +15364,7 @@
       <c r="D242" s="26"/>
       <c r="E242" s="26"/>
       <c r="F242" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.3">
@@ -15366,7 +15380,7 @@
       <c r="D243" s="19"/>
       <c r="E243" s="19"/>
       <c r="F243" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.3">
@@ -15382,7 +15396,7 @@
       <c r="D244" s="26"/>
       <c r="E244" s="26"/>
       <c r="F244" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.3">
@@ -15398,7 +15412,7 @@
       <c r="D245" s="19"/>
       <c r="E245" s="19"/>
       <c r="F245" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.3">
@@ -15414,7 +15428,7 @@
       <c r="D246" s="26"/>
       <c r="E246" s="26"/>
       <c r="F246" s="6" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.3">
@@ -15430,7 +15444,7 @@
       <c r="D247" s="27"/>
       <c r="E247" s="27"/>
       <c r="F247" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.3">
@@ -15446,7 +15460,7 @@
       <c r="D248" s="26"/>
       <c r="E248" s="26"/>
       <c r="F248" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.3">
@@ -15462,7 +15476,7 @@
       <c r="D249" s="26"/>
       <c r="E249" s="26"/>
       <c r="F249" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.3">
@@ -15478,7 +15492,7 @@
       <c r="D250" s="26"/>
       <c r="E250" s="26"/>
       <c r="F250" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.3">
@@ -15494,7 +15508,7 @@
       <c r="D251" s="19"/>
       <c r="E251" s="19"/>
       <c r="F251" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.3">
@@ -15510,7 +15524,7 @@
       <c r="D252" s="27"/>
       <c r="E252" s="27"/>
       <c r="F252" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.3">
@@ -15526,7 +15540,7 @@
       <c r="D253" s="26"/>
       <c r="E253" s="26"/>
       <c r="F253" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.3">
@@ -15542,7 +15556,7 @@
       <c r="D254" s="19"/>
       <c r="E254" s="19"/>
       <c r="F254" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.3">
@@ -15558,7 +15572,7 @@
       <c r="D255" s="26"/>
       <c r="E255" s="26"/>
       <c r="F255" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.3">
@@ -15574,7 +15588,7 @@
       <c r="D256" s="19"/>
       <c r="E256" s="19"/>
       <c r="F256" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.3">
@@ -15590,7 +15604,7 @@
       <c r="D257" s="27"/>
       <c r="E257" s="27"/>
       <c r="F257" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.3">
@@ -15606,7 +15620,7 @@
       <c r="D258" s="19"/>
       <c r="E258" s="19"/>
       <c r="F258" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.3">
@@ -15622,7 +15636,7 @@
       <c r="D259" s="26"/>
       <c r="E259" s="26"/>
       <c r="F259" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.3">
@@ -15638,7 +15652,7 @@
       <c r="D260" s="18"/>
       <c r="E260" s="18"/>
       <c r="F260" s="6" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.3">
@@ -15654,7 +15668,7 @@
       <c r="D261" s="26"/>
       <c r="E261" s="26"/>
       <c r="F261" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.3">
@@ -15670,7 +15684,7 @@
       <c r="D262" s="26"/>
       <c r="E262" s="26"/>
       <c r="F262" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.3">
@@ -15686,7 +15700,7 @@
       <c r="D263" s="26"/>
       <c r="E263" s="26"/>
       <c r="F263" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.3">
@@ -15702,7 +15716,7 @@
       <c r="D264" s="26"/>
       <c r="E264" s="26"/>
       <c r="F264" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.3">
@@ -15718,7 +15732,7 @@
       <c r="D265" s="26"/>
       <c r="E265" s="26"/>
       <c r="F265" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.3">
@@ -15734,7 +15748,7 @@
       <c r="D266" s="19"/>
       <c r="E266" s="19"/>
       <c r="F266" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.3">
@@ -15750,7 +15764,7 @@
       <c r="D267" s="19"/>
       <c r="E267" s="19"/>
       <c r="F267" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.3">
@@ -15766,7 +15780,7 @@
       <c r="D268" s="26"/>
       <c r="E268" s="26"/>
       <c r="F268" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.3">
@@ -15782,7 +15796,7 @@
       <c r="D269" s="26"/>
       <c r="E269" s="26"/>
       <c r="F269" s="6" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.3">
@@ -15798,7 +15812,7 @@
       <c r="D270" s="26"/>
       <c r="E270" s="26"/>
       <c r="F270" s="6" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.3">
@@ -15814,7 +15828,7 @@
       <c r="D271" s="19"/>
       <c r="E271" s="19"/>
       <c r="F271" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.3">
@@ -15830,7 +15844,7 @@
       <c r="D272" s="26"/>
       <c r="E272" s="26"/>
       <c r="F272" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.3">
@@ -15846,7 +15860,7 @@
       <c r="D273" s="18"/>
       <c r="E273" s="18"/>
       <c r="F273" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.3">
@@ -15862,7 +15876,7 @@
       <c r="D274" s="19"/>
       <c r="E274" s="19"/>
       <c r="F274" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.3">
@@ -15878,7 +15892,7 @@
       <c r="D275" s="19"/>
       <c r="E275" s="19"/>
       <c r="F275" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.3">
@@ -15894,7 +15908,7 @@
       <c r="D276" s="19"/>
       <c r="E276" s="19"/>
       <c r="F276" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.3">
@@ -15910,7 +15924,7 @@
       <c r="D277" s="26"/>
       <c r="E277" s="26"/>
       <c r="F277" s="6" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.3">
@@ -15926,7 +15940,7 @@
       <c r="D278" s="27"/>
       <c r="E278" s="27"/>
       <c r="F278" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.3">
@@ -15942,7 +15956,7 @@
       <c r="D279" s="19"/>
       <c r="E279" s="19"/>
       <c r="F279" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.3">
@@ -15958,7 +15972,7 @@
       <c r="D280" s="19"/>
       <c r="E280" s="19"/>
       <c r="F280" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.3">
@@ -15974,7 +15988,7 @@
       <c r="D281" s="19"/>
       <c r="E281" s="19"/>
       <c r="F281" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.3">
@@ -15990,7 +16004,7 @@
       <c r="D282" s="27"/>
       <c r="E282" s="27"/>
       <c r="F282" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.3">
@@ -16006,7 +16020,7 @@
       <c r="D283" s="26"/>
       <c r="E283" s="26"/>
       <c r="F283" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.3">
@@ -16022,7 +16036,7 @@
       <c r="D284" s="26"/>
       <c r="E284" s="26"/>
       <c r="F284" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.3">
@@ -16038,7 +16052,7 @@
       <c r="D285" s="19"/>
       <c r="E285" s="19"/>
       <c r="F285" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.3">
@@ -16054,7 +16068,7 @@
       <c r="D286" s="19"/>
       <c r="E286" s="19"/>
       <c r="F286" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.3">
@@ -16070,7 +16084,7 @@
       <c r="D287" s="26"/>
       <c r="E287" s="26"/>
       <c r="F287" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.3">
@@ -16086,7 +16100,7 @@
       <c r="D288" s="19"/>
       <c r="E288" s="19"/>
       <c r="F288" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.3">
@@ -16102,7 +16116,7 @@
       <c r="D289" s="19"/>
       <c r="E289" s="19"/>
       <c r="F289" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.3">
@@ -16118,7 +16132,7 @@
       <c r="D290" s="19"/>
       <c r="E290" s="19"/>
       <c r="F290" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.3">
@@ -16134,7 +16148,7 @@
       <c r="D291" s="19"/>
       <c r="E291" s="19"/>
       <c r="F291" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.3">
@@ -16150,7 +16164,7 @@
       <c r="D292" s="26"/>
       <c r="E292" s="26"/>
       <c r="F292" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.3">
@@ -16166,7 +16180,7 @@
       <c r="D293" s="26"/>
       <c r="E293" s="26"/>
       <c r="F293" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.3">
@@ -16182,7 +16196,7 @@
       <c r="D294" s="26"/>
       <c r="E294" s="26"/>
       <c r="F294" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.3">
@@ -16198,7 +16212,7 @@
       <c r="D295" s="26"/>
       <c r="E295" s="26"/>
       <c r="F295" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.3">
@@ -16214,7 +16228,7 @@
       <c r="D296" s="26"/>
       <c r="E296" s="26"/>
       <c r="F296" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.3">
@@ -16230,7 +16244,7 @@
       <c r="D297" s="26"/>
       <c r="E297" s="26"/>
       <c r="F297" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.3">
@@ -16246,7 +16260,7 @@
       <c r="D298" s="26"/>
       <c r="E298" s="26"/>
       <c r="F298" s="19" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.3">
@@ -16262,7 +16276,7 @@
       <c r="D299" s="26"/>
       <c r="E299" s="26"/>
       <c r="F299" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.3">
@@ -16278,7 +16292,7 @@
       <c r="D300" s="26"/>
       <c r="E300" s="26"/>
       <c r="F300" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.3">
@@ -16294,7 +16308,7 @@
       <c r="D301" s="27"/>
       <c r="E301" s="27"/>
       <c r="F301" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.3">
@@ -16310,7 +16324,7 @@
       <c r="D302" s="26"/>
       <c r="E302" s="26"/>
       <c r="F302" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.3">
@@ -16326,7 +16340,7 @@
       <c r="D303" s="19"/>
       <c r="E303" s="19"/>
       <c r="F303" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.3">
@@ -16342,7 +16356,7 @@
       <c r="D304" s="19"/>
       <c r="E304" s="19"/>
       <c r="F304" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.3">
@@ -16358,7 +16372,7 @@
       <c r="D305" s="19"/>
       <c r="E305" s="19"/>
       <c r="F305" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.3">
@@ -16374,7 +16388,7 @@
       <c r="D306" s="19"/>
       <c r="E306" s="19"/>
       <c r="F306" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.3">
@@ -16390,7 +16404,7 @@
       <c r="D307" s="26"/>
       <c r="E307" s="26"/>
       <c r="F307" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.3">
@@ -16406,7 +16420,7 @@
       <c r="D308" s="19"/>
       <c r="E308" s="19"/>
       <c r="F308" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.3">
@@ -16422,7 +16436,7 @@
       <c r="D309" s="19"/>
       <c r="E309" s="19"/>
       <c r="F309" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.3">
@@ -16438,7 +16452,7 @@
       <c r="D310" s="18"/>
       <c r="E310" s="18"/>
       <c r="F310" s="6" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.3">
@@ -16454,7 +16468,7 @@
       <c r="D311" s="27"/>
       <c r="E311" s="27"/>
       <c r="F311" s="6" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
   </sheetData>

--- a/slackbuilds/sb_migr.xlsx
+++ b/slackbuilds/sb_migr.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\projects.new\sh\cvstogit\slackbuilds\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A8BE7F3-45B4-441A-867E-CB303657A692}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{766D0000-F104-48DD-8078-A59B5852C9B6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">List!$A$1:$G$311</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Revisions!$A$1:$F$311</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Revisions!$A$1:$F$313</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1887" uniqueCount="1254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1917" uniqueCount="1265">
   <si>
     <t>Package</t>
   </si>
@@ -1942,63 +1942,6 @@
     <t>SLACK-10_2</t>
   </si>
   <si>
-    <t>2006-03-03 23:38:11</t>
-  </si>
-  <si>
-    <t>2006-03-04 11:12:00</t>
-  </si>
-  <si>
-    <t>2006-03-05 17:35:04</t>
-  </si>
-  <si>
-    <t>2006-03-10 22:16:00</t>
-  </si>
-  <si>
-    <t>2006-03-11 23:04:10</t>
-  </si>
-  <si>
-    <t>2006-03-24 22:46:33</t>
-  </si>
-  <si>
-    <t>2006-03-25 19:28:21</t>
-  </si>
-  <si>
-    <t>2006-05-28 00:38:53</t>
-  </si>
-  <si>
-    <t>2006-05-28 00:52:42</t>
-  </si>
-  <si>
-    <t>2006-07-20 21:49:12</t>
-  </si>
-  <si>
-    <t>2006-07-31 18:22:41</t>
-  </si>
-  <si>
-    <t>2006-07-31 18:35:36</t>
-  </si>
-  <si>
-    <t>2006-08-01 20:11:00</t>
-  </si>
-  <si>
-    <t>2006-08-03 14:23:48</t>
-  </si>
-  <si>
-    <t>2006-09-06 18:29:07</t>
-  </si>
-  <si>
-    <t>2006-09-10 20:19:24</t>
-  </si>
-  <si>
-    <t>2006-09-13 22:59:31</t>
-  </si>
-  <si>
-    <t>2006-09-27 21:40:48</t>
-  </si>
-  <si>
-    <t>2006-09-28 23:10:51</t>
-  </si>
-  <si>
     <t>2006-10-22 14:09:19</t>
   </si>
   <si>
@@ -3800,6 +3743,96 @@
   </si>
   <si>
     <t>Add config from LinuxPackages.net with my changes</t>
+  </si>
+  <si>
+    <t>2006-03-03 23:38:11 +0200</t>
+  </si>
+  <si>
+    <t>2006-03-04 11:12:00 +0200</t>
+  </si>
+  <si>
+    <t>2006-03-05 17:35:04 +0200</t>
+  </si>
+  <si>
+    <t>2006-03-10 22:16:00 +0200</t>
+  </si>
+  <si>
+    <t>2006-03-11 23:04:10 +0200</t>
+  </si>
+  <si>
+    <t>2006-03-24 22:46:33 +0200</t>
+  </si>
+  <si>
+    <t>2006-03-25 19:28:21 +0200</t>
+  </si>
+  <si>
+    <t>2006-05-28 00:38:53 +0300</t>
+  </si>
+  <si>
+    <t>openoffice.org</t>
+  </si>
+  <si>
+    <t>2006-05-28 00:52:42 +0300</t>
+  </si>
+  <si>
+    <t>2006-07-20 21:49:12 +0300</t>
+  </si>
+  <si>
+    <t>2006-07-31 18:22:41 +0300</t>
+  </si>
+  <si>
+    <t>2006-07-31 18:35:36 +0300</t>
+  </si>
+  <si>
+    <t>2006-08-01 20:11:00 +0300</t>
+  </si>
+  <si>
+    <t>2006-08-03 14:23:48 +0300</t>
+  </si>
+  <si>
+    <t>2006-09-06 18:29:07 +0300</t>
+  </si>
+  <si>
+    <t>2006-09-10 20:19:24 +0300</t>
+  </si>
+  <si>
+    <t>2006-09-13 22:59:31 +0300</t>
+  </si>
+  <si>
+    <t>2006-09-27 21:40:48 +0300</t>
+  </si>
+  <si>
+    <t>2006-09-28 23:10:51 +0300</t>
+  </si>
+  <si>
+    <t>mozilla-firefox</t>
+  </si>
+  <si>
+    <t>mozilla-thunderbird</t>
+  </si>
+  <si>
+    <t>mgeups-psp</t>
+  </si>
+  <si>
+    <t>2006-10-12 02:00:54 +0300</t>
+  </si>
+  <si>
+    <t>SLACK-11_0</t>
+  </si>
+  <si>
+    <t>sm_branch</t>
+  </si>
+  <si>
+    <t>etc/slack-package.conf.1</t>
+  </si>
+  <si>
+    <t>Update config for Slackware 11.0</t>
+  </si>
+  <si>
+    <t>2006-10-07 18:48:52 +0300</t>
+  </si>
+  <si>
+    <t>main</t>
   </si>
 </sst>
 </file>
@@ -3810,7 +3843,7 @@
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3855,13 +3888,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -3894,7 +3940,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -3946,6 +3992,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Нормален" xfId="0" builtinId="0"/>
@@ -8706,7 +8755,7 @@
         <v>147</v>
       </c>
       <c r="F194" t="s">
-        <v>1232</v>
+        <v>1213</v>
       </c>
       <c r="G194" s="13">
         <v>43875</v>
@@ -11443,17 +11492,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{495E7B31-8439-4BBC-8206-DAF1FFDAE945}">
-  <dimension ref="A1:F311"/>
+  <dimension ref="A1:F313"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23.6640625" style="28" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="44.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="57.88671875" bestFit="1" customWidth="1"/>
@@ -11481,7 +11530,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="28" t="s">
-        <v>1234</v>
+        <v>1215</v>
       </c>
       <c r="B2" t="s">
         <v>628</v>
@@ -11495,7 +11544,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>1235</v>
+        <v>1216</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>627</v>
@@ -11508,12 +11557,12 @@
       </c>
       <c r="E3" s="19"/>
       <c r="F3" t="s">
-        <v>926</v>
+        <v>907</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>1236</v>
+        <v>1217</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>627</v>
@@ -11526,12 +11575,12 @@
       </c>
       <c r="E4" s="19"/>
       <c r="F4" t="s">
-        <v>927</v>
+        <v>908</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>1237</v>
+        <v>1218</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>627</v>
@@ -11544,12 +11593,12 @@
       </c>
       <c r="E5" s="19"/>
       <c r="F5" t="s">
-        <v>1233</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>1238</v>
+        <v>1219</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>627</v>
@@ -11562,12 +11611,12 @@
       </c>
       <c r="E6" s="19"/>
       <c r="F6" t="s">
-        <v>929</v>
+        <v>910</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>1239</v>
+        <v>1220</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>627</v>
@@ -11580,12 +11629,12 @@
       </c>
       <c r="E7" s="19"/>
       <c r="F7" t="s">
-        <v>930</v>
+        <v>911</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>1240</v>
+        <v>1221</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>627</v>
@@ -11598,12 +11647,12 @@
       </c>
       <c r="E8" s="26"/>
       <c r="F8" t="s">
-        <v>931</v>
+        <v>912</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>1241</v>
+        <v>1222</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>627</v>
@@ -11616,12 +11665,12 @@
       </c>
       <c r="E9" s="19"/>
       <c r="F9" t="s">
-        <v>932</v>
+        <v>913</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>1242</v>
+        <v>1223</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>627</v>
@@ -11634,12 +11683,12 @@
       </c>
       <c r="E10" s="19"/>
       <c r="F10" t="s">
-        <v>933</v>
+        <v>914</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>1243</v>
+        <v>1224</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>627</v>
@@ -11652,12 +11701,12 @@
       </c>
       <c r="E11" s="19"/>
       <c r="F11" t="s">
-        <v>934</v>
+        <v>915</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>1244</v>
+        <v>1225</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>627</v>
@@ -11670,12 +11719,12 @@
       </c>
       <c r="E12" s="19"/>
       <c r="F12" t="s">
-        <v>935</v>
+        <v>916</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>1245</v>
+        <v>1226</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>627</v>
@@ -11688,12 +11737,12 @@
       </c>
       <c r="E13" s="18"/>
       <c r="F13" s="6" t="s">
-        <v>936</v>
+        <v>917</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>1246</v>
+        <v>1227</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>627</v>
@@ -11706,12 +11755,12 @@
       </c>
       <c r="E14" s="18"/>
       <c r="F14" t="s">
-        <v>937</v>
+        <v>918</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>1247</v>
+        <v>1228</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>627</v>
@@ -11724,12 +11773,12 @@
       </c>
       <c r="E15" s="19"/>
       <c r="F15" t="s">
-        <v>938</v>
+        <v>919</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>1248</v>
+        <v>1229</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>627</v>
@@ -11742,12 +11791,12 @@
       </c>
       <c r="E16" s="19"/>
       <c r="F16" t="s">
-        <v>939</v>
+        <v>920</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>1249</v>
+        <v>1230</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>627</v>
@@ -11760,12 +11809,12 @@
       </c>
       <c r="E17" s="19"/>
       <c r="F17" t="s">
-        <v>940</v>
+        <v>921</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>1250</v>
+        <v>1231</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>627</v>
@@ -11778,12 +11827,12 @@
       </c>
       <c r="E18" s="19"/>
       <c r="F18" t="s">
-        <v>941</v>
+        <v>922</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>1251</v>
+        <v>1232</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>627</v>
@@ -11796,28 +11845,30 @@
       </c>
       <c r="E19" s="19"/>
       <c r="F19" s="19" t="s">
-        <v>942</v>
+        <v>923</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>1252</v>
+        <v>1233</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>628</v>
       </c>
-      <c r="C20" s="19" t="s">
-        <v>925</v>
-      </c>
-      <c r="D20" s="19"/>
+      <c r="C20" s="32" t="s">
+        <v>906</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>1264</v>
+      </c>
       <c r="E20" s="19" t="s">
-        <v>1253</v>
+        <v>1234</v>
       </c>
       <c r="F20" s="19"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>634</v>
+        <v>1235</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>627</v>
@@ -11825,15 +11876,17 @@
       <c r="C21" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="D21" s="19"/>
+      <c r="D21" s="18" t="s">
+        <v>633</v>
+      </c>
       <c r="E21" s="19"/>
       <c r="F21" t="s">
-        <v>943</v>
+        <v>924</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>635</v>
+        <v>1236</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>627</v>
@@ -11841,15 +11894,17 @@
       <c r="C22" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="19"/>
+      <c r="D22" s="18" t="s">
+        <v>633</v>
+      </c>
       <c r="E22" s="19"/>
       <c r="F22" t="s">
-        <v>944</v>
+        <v>925</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>636</v>
+        <v>1237</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>627</v>
@@ -11857,15 +11912,17 @@
       <c r="C23" s="18" t="s">
         <v>596</v>
       </c>
-      <c r="D23" s="18"/>
+      <c r="D23" s="18" t="s">
+        <v>633</v>
+      </c>
       <c r="E23" s="18"/>
       <c r="F23" s="6" t="s">
-        <v>945</v>
+        <v>926</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>637</v>
+        <v>1238</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>627</v>
@@ -11873,31 +11930,35 @@
       <c r="C24" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="18"/>
+      <c r="D24" s="18" t="s">
+        <v>633</v>
+      </c>
       <c r="E24" s="18"/>
       <c r="F24" s="6" t="s">
-        <v>946</v>
+        <v>927</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>638</v>
+        <v>1239</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C25" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25" s="19"/>
+      <c r="C25" s="32" t="s">
+        <v>1243</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>633</v>
+      </c>
       <c r="E25" s="19"/>
       <c r="F25" t="s">
-        <v>947</v>
+        <v>928</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>639</v>
+        <v>1240</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>627</v>
@@ -11905,15 +11966,17 @@
       <c r="C26" s="19" t="s">
         <v>554</v>
       </c>
-      <c r="D26" s="19"/>
+      <c r="D26" s="18" t="s">
+        <v>633</v>
+      </c>
       <c r="E26" s="19"/>
       <c r="F26" t="s">
-        <v>948</v>
+        <v>929</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>640</v>
+        <v>1241</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>627</v>
@@ -11921,47 +11984,53 @@
       <c r="C27" s="26" t="s">
         <v>541</v>
       </c>
-      <c r="D27" s="26"/>
+      <c r="D27" s="18" t="s">
+        <v>633</v>
+      </c>
       <c r="E27" s="26"/>
       <c r="F27" t="s">
-        <v>949</v>
+        <v>930</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>641</v>
+        <v>1242</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C28" s="19" t="s">
-        <v>622</v>
-      </c>
-      <c r="D28" s="19"/>
+      <c r="C28" s="32" t="s">
+        <v>1255</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>633</v>
+      </c>
       <c r="E28" s="19"/>
       <c r="F28" t="s">
-        <v>950</v>
+        <v>931</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>642</v>
+        <v>1244</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C29" s="19" t="s">
-        <v>620</v>
-      </c>
-      <c r="D29" s="19"/>
+      <c r="C29" s="32" t="s">
+        <v>1256</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>633</v>
+      </c>
       <c r="E29" s="19"/>
       <c r="F29" t="s">
-        <v>951</v>
+        <v>932</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>643</v>
+        <v>1245</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>627</v>
@@ -11969,15 +12038,17 @@
       <c r="C30" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="D30" s="19"/>
+      <c r="D30" s="18" t="s">
+        <v>633</v>
+      </c>
       <c r="E30" s="19"/>
       <c r="F30" t="s">
-        <v>952</v>
+        <v>933</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>644</v>
+        <v>1246</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>627</v>
@@ -11985,15 +12056,17 @@
       <c r="C31" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="D31" s="19"/>
+      <c r="D31" s="18" t="s">
+        <v>633</v>
+      </c>
       <c r="E31" s="19"/>
       <c r="F31" t="s">
-        <v>953</v>
+        <v>934</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>645</v>
+        <v>1247</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>627</v>
@@ -12001,15 +12074,17 @@
       <c r="C32" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="D32" s="19"/>
+      <c r="D32" s="18" t="s">
+        <v>633</v>
+      </c>
       <c r="E32" s="19"/>
       <c r="F32" t="s">
-        <v>954</v>
+        <v>935</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>646</v>
+        <v>1248</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>627</v>
@@ -12017,31 +12092,35 @@
       <c r="C33" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D33" s="18"/>
+      <c r="D33" s="18" t="s">
+        <v>633</v>
+      </c>
       <c r="E33" s="18"/>
       <c r="F33" t="s">
-        <v>955</v>
+        <v>936</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>647</v>
+        <v>1249</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C34" s="19" t="s">
-        <v>537</v>
-      </c>
-      <c r="D34" s="19"/>
+      <c r="C34" s="32" t="s">
+        <v>1257</v>
+      </c>
+      <c r="D34" s="18" t="s">
+        <v>633</v>
+      </c>
       <c r="E34" s="19"/>
       <c r="F34" s="19" t="s">
-        <v>956</v>
+        <v>937</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>648</v>
+        <v>1250</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>627</v>
@@ -12049,15 +12128,17 @@
       <c r="C35" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D35" s="19"/>
+      <c r="D35" s="18" t="s">
+        <v>633</v>
+      </c>
       <c r="E35" s="19"/>
       <c r="F35" t="s">
-        <v>957</v>
+        <v>938</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>649</v>
+        <v>1251</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>627</v>
@@ -12065,15 +12146,17 @@
       <c r="C36" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D36" s="19"/>
+      <c r="D36" s="18" t="s">
+        <v>633</v>
+      </c>
       <c r="E36" s="19"/>
       <c r="F36" t="s">
-        <v>928</v>
+        <v>909</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>650</v>
+        <v>1252</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>627</v>
@@ -12081,15 +12164,17 @@
       <c r="C37" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D37" s="19"/>
+      <c r="D37" s="18" t="s">
+        <v>633</v>
+      </c>
       <c r="E37" s="19"/>
       <c r="F37" t="s">
-        <v>958</v>
+        <v>939</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>651</v>
+        <v>1253</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>627</v>
@@ -12097,15 +12182,17 @@
       <c r="C38" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D38" s="19"/>
+      <c r="D38" s="18" t="s">
+        <v>633</v>
+      </c>
       <c r="E38" s="19"/>
       <c r="F38" t="s">
-        <v>959</v>
+        <v>940</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>652</v>
+        <v>1254</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>627</v>
@@ -12113,4365 +12200,4403 @@
       <c r="C39" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="D39" s="19"/>
+      <c r="D39" s="18" t="s">
+        <v>633</v>
+      </c>
       <c r="E39" s="19"/>
       <c r="F39" t="s">
-        <v>960</v>
+        <v>941</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>653</v>
+        <v>1263</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>627</v>
-      </c>
-      <c r="C40" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="6" t="s">
-        <v>961</v>
+        <v>628</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>1261</v>
+      </c>
+      <c r="D40" s="18" t="s">
+        <v>1259</v>
+      </c>
+      <c r="E40" s="19" t="s">
+        <v>1262</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="3" t="s">
-        <v>654</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>627</v>
+      <c r="A41" s="33" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B41" s="33" t="s">
+        <v>1260</v>
       </c>
       <c r="C41" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="D41" s="19"/>
+        <v>18</v>
+      </c>
+      <c r="D41" s="18" t="s">
+        <v>1259</v>
+      </c>
       <c r="E41" s="19"/>
       <c r="F41" t="s">
-        <v>962</v>
+        <v>938</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="3" t="s">
-        <v>655</v>
+      <c r="A42" s="31" t="s">
+        <v>634</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D42" s="18"/>
       <c r="E42" s="18"/>
-      <c r="F42" t="s">
-        <v>963</v>
+      <c r="F42" s="6" t="s">
+        <v>942</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>656</v>
+        <v>635</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C43" s="19" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D43" s="19"/>
       <c r="E43" s="19"/>
       <c r="F43" t="s">
-        <v>964</v>
+        <v>943</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>657</v>
+        <v>636</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C44" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="D44" s="19"/>
-      <c r="E44" s="19"/>
+      <c r="C44" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
       <c r="F44" t="s">
-        <v>965</v>
+        <v>944</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>658</v>
+        <v>637</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C45" s="19" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D45" s="19"/>
       <c r="E45" s="19"/>
       <c r="F45" t="s">
-        <v>966</v>
+        <v>945</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>659</v>
+        <v>638</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C46" s="19" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D46" s="19"/>
       <c r="E46" s="19"/>
       <c r="F46" t="s">
-        <v>967</v>
+        <v>946</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>660</v>
+        <v>639</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C47" s="19" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D47" s="19"/>
       <c r="E47" s="19"/>
       <c r="F47" t="s">
-        <v>968</v>
+        <v>947</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>661</v>
+        <v>640</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C48" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="D48" s="18"/>
-      <c r="E48" s="18"/>
-      <c r="F48" s="6" t="s">
-        <v>969</v>
+      <c r="C48" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D48" s="19"/>
+      <c r="E48" s="19"/>
+      <c r="F48" t="s">
+        <v>948</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>662</v>
+        <v>641</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C49" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="D49" s="18"/>
-      <c r="E49" s="18"/>
+      <c r="C49" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D49" s="19"/>
+      <c r="E49" s="19"/>
       <c r="F49" t="s">
-        <v>970</v>
+        <v>949</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>663</v>
+        <v>642</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C50" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="D50" s="19"/>
-      <c r="E50" s="19"/>
-      <c r="F50" t="s">
-        <v>971</v>
+      <c r="C50" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="D50" s="18"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="6" t="s">
+        <v>950</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>664</v>
+        <v>643</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C51" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="D51" s="19"/>
-      <c r="E51" s="19"/>
+      <c r="C51" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D51" s="18"/>
+      <c r="E51" s="18"/>
       <c r="F51" t="s">
-        <v>972</v>
+        <v>951</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>665</v>
+        <v>644</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C52" s="19" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="D52" s="19"/>
       <c r="E52" s="19"/>
       <c r="F52" t="s">
-        <v>973</v>
+        <v>952</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>666</v>
+        <v>645</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C53" s="19" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D53" s="19"/>
       <c r="E53" s="19"/>
       <c r="F53" t="s">
-        <v>974</v>
+        <v>953</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
-        <v>667</v>
+        <v>646</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C54" s="19" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="D54" s="19"/>
       <c r="E54" s="19"/>
       <c r="F54" t="s">
-        <v>975</v>
+        <v>954</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
-        <v>668</v>
+        <v>647</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C55" s="19" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D55" s="19"/>
       <c r="E55" s="19"/>
       <c r="F55" t="s">
-        <v>976</v>
+        <v>955</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
-        <v>669</v>
+        <v>648</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C56" s="19" t="s">
-        <v>122</v>
+        <v>75</v>
       </c>
       <c r="D56" s="19"/>
       <c r="E56" s="19"/>
       <c r="F56" t="s">
-        <v>977</v>
+        <v>956</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
-        <v>670</v>
+        <v>649</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C57" s="19" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D57" s="19"/>
       <c r="E57" s="19"/>
       <c r="F57" t="s">
-        <v>978</v>
+        <v>957</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
-        <v>671</v>
+        <v>650</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C58" s="19" t="s">
-        <v>94</v>
+        <v>122</v>
       </c>
       <c r="D58" s="19"/>
       <c r="E58" s="19"/>
       <c r="F58" t="s">
-        <v>979</v>
+        <v>958</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
-        <v>672</v>
+        <v>651</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C59" s="19" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D59" s="19"/>
       <c r="E59" s="19"/>
       <c r="F59" t="s">
-        <v>980</v>
+        <v>959</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
-        <v>673</v>
+        <v>652</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C60" s="26" t="s">
-        <v>542</v>
-      </c>
-      <c r="D60" s="26"/>
-      <c r="E60" s="26"/>
+      <c r="C60" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="D60" s="19"/>
+      <c r="E60" s="19"/>
       <c r="F60" t="s">
-        <v>981</v>
+        <v>960</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
-        <v>674</v>
+        <v>653</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C61" s="19" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D61" s="19"/>
       <c r="E61" s="19"/>
       <c r="F61" t="s">
-        <v>982</v>
+        <v>961</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
-        <v>675</v>
+        <v>654</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C62" s="26" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D62" s="26"/>
       <c r="E62" s="26"/>
       <c r="F62" t="s">
-        <v>983</v>
+        <v>962</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
-        <v>676</v>
+        <v>655</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C63" s="26" t="s">
-        <v>547</v>
-      </c>
-      <c r="D63" s="26"/>
-      <c r="E63" s="26"/>
+      <c r="C63" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="D63" s="19"/>
+      <c r="E63" s="19"/>
       <c r="F63" t="s">
-        <v>984</v>
+        <v>963</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
-        <v>677</v>
+        <v>656</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C64" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="D64" s="19"/>
-      <c r="E64" s="19"/>
+      <c r="C64" s="26" t="s">
+        <v>543</v>
+      </c>
+      <c r="D64" s="26"/>
+      <c r="E64" s="26"/>
       <c r="F64" t="s">
-        <v>985</v>
+        <v>964</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
-        <v>678</v>
+        <v>657</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C65" s="18" t="s">
-        <v>548</v>
-      </c>
-      <c r="D65" s="18"/>
-      <c r="E65" s="18"/>
-      <c r="F65" s="6" t="s">
-        <v>986</v>
+      <c r="C65" s="26" t="s">
+        <v>547</v>
+      </c>
+      <c r="D65" s="26"/>
+      <c r="E65" s="26"/>
+      <c r="F65" t="s">
+        <v>965</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
-        <v>679</v>
+        <v>658</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C66" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D66" s="19"/>
       <c r="E66" s="19"/>
       <c r="F66" t="s">
-        <v>987</v>
+        <v>966</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
-        <v>680</v>
+        <v>659</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C67" s="19" t="s">
-        <v>550</v>
-      </c>
-      <c r="D67" s="19"/>
-      <c r="E67" s="19"/>
-      <c r="F67" t="s">
-        <v>988</v>
+      <c r="C67" s="18" t="s">
+        <v>548</v>
+      </c>
+      <c r="D67" s="18"/>
+      <c r="E67" s="18"/>
+      <c r="F67" s="6" t="s">
+        <v>967</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
-        <v>681</v>
+        <v>660</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C68" s="18" t="s">
-        <v>549</v>
-      </c>
-      <c r="D68" s="18"/>
-      <c r="E68" s="18"/>
-      <c r="F68" s="6" t="s">
-        <v>989</v>
+      <c r="C68" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="D68" s="19"/>
+      <c r="E68" s="19"/>
+      <c r="F68" t="s">
+        <v>968</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
-        <v>682</v>
+        <v>661</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C69" s="19" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D69" s="19"/>
       <c r="E69" s="19"/>
       <c r="F69" t="s">
-        <v>990</v>
+        <v>969</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
-        <v>683</v>
+        <v>662</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C70" s="19" t="s">
-        <v>552</v>
-      </c>
-      <c r="D70" s="19"/>
-      <c r="E70" s="19"/>
-      <c r="F70" t="s">
-        <v>991</v>
+      <c r="C70" s="18" t="s">
+        <v>549</v>
+      </c>
+      <c r="D70" s="18"/>
+      <c r="E70" s="18"/>
+      <c r="F70" s="6" t="s">
+        <v>970</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
-        <v>684</v>
+        <v>663</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C71" s="19" t="s">
-        <v>97</v>
+        <v>551</v>
       </c>
       <c r="D71" s="19"/>
       <c r="E71" s="19"/>
       <c r="F71" t="s">
-        <v>992</v>
+        <v>971</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
-        <v>685</v>
+        <v>664</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C72" s="19" t="s">
-        <v>98</v>
+        <v>552</v>
       </c>
       <c r="D72" s="19"/>
       <c r="E72" s="19"/>
       <c r="F72" t="s">
-        <v>993</v>
+        <v>972</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
-        <v>686</v>
+        <v>665</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C73" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="D73" s="18"/>
-      <c r="E73" s="18"/>
-      <c r="F73" s="6" t="s">
-        <v>994</v>
+      <c r="C73" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D73" s="19"/>
+      <c r="E73" s="19"/>
+      <c r="F73" t="s">
+        <v>973</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
-        <v>687</v>
+        <v>666</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C74" s="26" t="s">
-        <v>553</v>
-      </c>
-      <c r="D74" s="26"/>
-      <c r="E74" s="26"/>
+      <c r="C74" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="D74" s="19"/>
+      <c r="E74" s="19"/>
       <c r="F74" t="s">
-        <v>995</v>
+        <v>974</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
-        <v>688</v>
+        <v>667</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C75" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="D75" s="19"/>
-      <c r="E75" s="19"/>
-      <c r="F75" t="s">
-        <v>996</v>
+      <c r="C75" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="D75" s="18"/>
+      <c r="E75" s="18"/>
+      <c r="F75" s="6" t="s">
+        <v>975</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
-        <v>689</v>
+        <v>668</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C76" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="D76" s="19"/>
-      <c r="E76" s="19"/>
+      <c r="C76" s="26" t="s">
+        <v>553</v>
+      </c>
+      <c r="D76" s="26"/>
+      <c r="E76" s="26"/>
       <c r="F76" t="s">
-        <v>997</v>
+        <v>976</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
-        <v>690</v>
+        <v>669</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C77" s="19" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="D77" s="19"/>
       <c r="E77" s="19"/>
       <c r="F77" t="s">
-        <v>998</v>
+        <v>977</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
-        <v>691</v>
+        <v>670</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C78" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="D78" s="18"/>
-      <c r="E78" s="18"/>
+      <c r="C78" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="D78" s="19"/>
+      <c r="E78" s="19"/>
       <c r="F78" t="s">
-        <v>999</v>
+        <v>978</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
-        <v>692</v>
+        <v>671</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C79" s="19" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D79" s="19"/>
       <c r="E79" s="19"/>
       <c r="F79" t="s">
-        <v>1000</v>
+        <v>979</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
-        <v>693</v>
+        <v>672</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C80" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="D80" s="19"/>
-      <c r="E80" s="19"/>
+      <c r="C80" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="D80" s="18"/>
+      <c r="E80" s="18"/>
       <c r="F80" t="s">
-        <v>1001</v>
+        <v>980</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
-        <v>694</v>
+        <v>673</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C81" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="D81" s="18"/>
-      <c r="E81" s="18"/>
-      <c r="F81" s="6" t="s">
-        <v>1002</v>
+      <c r="C81" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="D81" s="19"/>
+      <c r="E81" s="19"/>
+      <c r="F81" t="s">
+        <v>981</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
-        <v>695</v>
+        <v>674</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C82" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="D82" s="18"/>
-      <c r="E82" s="18"/>
-      <c r="F82" s="6" t="s">
-        <v>1003</v>
+      <c r="C82" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="D82" s="19"/>
+      <c r="E82" s="19"/>
+      <c r="F82" t="s">
+        <v>982</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
-        <v>696</v>
+        <v>675</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C83" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="D83" s="19"/>
-      <c r="E83" s="19"/>
-      <c r="F83" t="s">
-        <v>1004</v>
+      <c r="C83" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="D83" s="18"/>
+      <c r="E83" s="18"/>
+      <c r="F83" s="6" t="s">
+        <v>983</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
-        <v>697</v>
+        <v>676</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C84" s="18" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="D84" s="18"/>
       <c r="E84" s="18"/>
-      <c r="F84" t="s">
-        <v>1005</v>
+      <c r="F84" s="6" t="s">
+        <v>984</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
-        <v>698</v>
+        <v>677</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C85" s="19" t="s">
-        <v>169</v>
+        <v>127</v>
       </c>
       <c r="D85" s="19"/>
       <c r="E85" s="19"/>
       <c r="F85" t="s">
-        <v>1006</v>
+        <v>985</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
-        <v>699</v>
+        <v>678</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C86" s="18" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D86" s="18"/>
       <c r="E86" s="18"/>
       <c r="F86" t="s">
-        <v>1007</v>
+        <v>986</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
-        <v>700</v>
+        <v>679</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C87" s="19" t="s">
-        <v>133</v>
+        <v>169</v>
       </c>
       <c r="D87" s="19"/>
       <c r="E87" s="19"/>
       <c r="F87" t="s">
-        <v>1008</v>
+        <v>987</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
-        <v>701</v>
+        <v>680</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C88" s="26" t="s">
-        <v>578</v>
-      </c>
-      <c r="D88" s="26"/>
-      <c r="E88" s="26"/>
+      <c r="C88" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="D88" s="18"/>
+      <c r="E88" s="18"/>
       <c r="F88" t="s">
-        <v>1009</v>
+        <v>988</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
-        <v>702</v>
+        <v>681</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C89" s="26" t="s">
-        <v>556</v>
-      </c>
-      <c r="D89" s="26"/>
-      <c r="E89" s="26"/>
+      <c r="C89" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="D89" s="19"/>
+      <c r="E89" s="19"/>
       <c r="F89" t="s">
-        <v>1010</v>
+        <v>989</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
-        <v>703</v>
+        <v>682</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C90" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="D90" s="19"/>
-      <c r="E90" s="19"/>
+      <c r="C90" s="26" t="s">
+        <v>578</v>
+      </c>
+      <c r="D90" s="26"/>
+      <c r="E90" s="26"/>
       <c r="F90" t="s">
-        <v>1011</v>
+        <v>990</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
-        <v>704</v>
+        <v>683</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C91" s="19" t="s">
-        <v>567</v>
-      </c>
-      <c r="D91" s="19"/>
-      <c r="E91" s="19"/>
+      <c r="C91" s="26" t="s">
+        <v>556</v>
+      </c>
+      <c r="D91" s="26"/>
+      <c r="E91" s="26"/>
       <c r="F91" t="s">
-        <v>1012</v>
+        <v>991</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
-        <v>705</v>
+        <v>684</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C92" s="19" t="s">
-        <v>569</v>
+        <v>135</v>
       </c>
       <c r="D92" s="19"/>
       <c r="E92" s="19"/>
       <c r="F92" t="s">
-        <v>1013</v>
+        <v>992</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
-        <v>706</v>
+        <v>685</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C93" s="19" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
       <c r="D93" s="19"/>
       <c r="E93" s="19"/>
       <c r="F93" t="s">
-        <v>1014</v>
+        <v>993</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
-        <v>707</v>
+        <v>686</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C94" s="19" t="s">
-        <v>580</v>
+        <v>569</v>
       </c>
       <c r="D94" s="19"/>
       <c r="E94" s="19"/>
       <c r="F94" t="s">
-        <v>1015</v>
+        <v>994</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
-        <v>708</v>
+        <v>687</v>
       </c>
       <c r="B95" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C95" s="26" t="s">
-        <v>539</v>
-      </c>
-      <c r="D95" s="26"/>
-      <c r="E95" s="26"/>
+      <c r="C95" s="19" t="s">
+        <v>579</v>
+      </c>
+      <c r="D95" s="19"/>
+      <c r="E95" s="19"/>
       <c r="F95" t="s">
-        <v>1016</v>
+        <v>995</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
-        <v>709</v>
+        <v>688</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C96" s="19" t="s">
-        <v>143</v>
+        <v>580</v>
       </c>
       <c r="D96" s="19"/>
       <c r="E96" s="19"/>
       <c r="F96" t="s">
-        <v>1017</v>
+        <v>996</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
-        <v>710</v>
+        <v>689</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C97" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="D97" s="19"/>
-      <c r="E97" s="19"/>
+      <c r="C97" s="26" t="s">
+        <v>539</v>
+      </c>
+      <c r="D97" s="26"/>
+      <c r="E97" s="26"/>
       <c r="F97" t="s">
-        <v>1018</v>
+        <v>997</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
-        <v>711</v>
+        <v>690</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C98" s="26" t="s">
-        <v>581</v>
-      </c>
-      <c r="D98" s="26"/>
-      <c r="E98" s="26"/>
+      <c r="C98" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="D98" s="19"/>
+      <c r="E98" s="19"/>
       <c r="F98" t="s">
-        <v>1019</v>
+        <v>998</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
-        <v>712</v>
+        <v>691</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C99" s="19" t="s">
-        <v>531</v>
+        <v>145</v>
       </c>
       <c r="D99" s="19"/>
       <c r="E99" s="19"/>
       <c r="F99" t="s">
-        <v>1020</v>
+        <v>999</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
-        <v>713</v>
+        <v>692</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C100" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="D100" s="19"/>
-      <c r="E100" s="19"/>
+      <c r="C100" s="26" t="s">
+        <v>581</v>
+      </c>
+      <c r="D100" s="26"/>
+      <c r="E100" s="26"/>
       <c r="F100" t="s">
-        <v>1021</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
-        <v>714</v>
+        <v>693</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C101" s="26" t="s">
-        <v>582</v>
-      </c>
-      <c r="D101" s="26"/>
-      <c r="E101" s="26"/>
+      <c r="C101" s="19" t="s">
+        <v>531</v>
+      </c>
+      <c r="D101" s="19"/>
+      <c r="E101" s="19"/>
       <c r="F101" t="s">
-        <v>1022</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
-        <v>715</v>
+        <v>694</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C102" s="19" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D102" s="19"/>
       <c r="E102" s="19"/>
       <c r="F102" t="s">
-        <v>1023</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
-        <v>716</v>
+        <v>695</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C103" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="D103" s="19"/>
-      <c r="E103" s="19"/>
+      <c r="C103" s="26" t="s">
+        <v>582</v>
+      </c>
+      <c r="D103" s="26"/>
+      <c r="E103" s="26"/>
       <c r="F103" t="s">
-        <v>1024</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
-        <v>717</v>
+        <v>696</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C104" s="26" t="s">
-        <v>140</v>
-      </c>
-      <c r="D104" s="26"/>
-      <c r="E104" s="26"/>
+      <c r="C104" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="D104" s="19"/>
+      <c r="E104" s="19"/>
       <c r="F104" t="s">
-        <v>1025</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
-        <v>718</v>
+        <v>697</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C105" s="19" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
       <c r="D105" s="19"/>
       <c r="E105" s="19"/>
       <c r="F105" t="s">
-        <v>1026</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
-        <v>719</v>
+        <v>698</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C106" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="D106" s="19"/>
-      <c r="E106" s="19"/>
+      <c r="C106" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="D106" s="26"/>
+      <c r="E106" s="26"/>
       <c r="F106" t="s">
-        <v>1027</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
-        <v>720</v>
+        <v>699</v>
       </c>
       <c r="B107" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C107" s="26" t="s">
-        <v>527</v>
-      </c>
-      <c r="D107" s="26"/>
-      <c r="E107" s="26"/>
+      <c r="C107" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="D107" s="19"/>
+      <c r="E107" s="19"/>
       <c r="F107" t="s">
-        <v>1028</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
-        <v>721</v>
+        <v>700</v>
       </c>
       <c r="B108" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C108" s="19" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D108" s="19"/>
       <c r="E108" s="19"/>
       <c r="F108" t="s">
-        <v>1029</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
-        <v>722</v>
+        <v>701</v>
       </c>
       <c r="B109" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C109" s="19" t="s">
-        <v>525</v>
-      </c>
-      <c r="D109" s="19"/>
-      <c r="E109" s="19"/>
+      <c r="C109" s="26" t="s">
+        <v>527</v>
+      </c>
+      <c r="D109" s="26"/>
+      <c r="E109" s="26"/>
       <c r="F109" t="s">
-        <v>1030</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="s">
-        <v>723</v>
+        <v>702</v>
       </c>
       <c r="B110" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C110" s="26" t="s">
-        <v>583</v>
-      </c>
-      <c r="D110" s="26"/>
-      <c r="E110" s="26"/>
+      <c r="C110" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="D110" s="19"/>
+      <c r="E110" s="19"/>
       <c r="F110" t="s">
-        <v>1031</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
-        <v>724</v>
+        <v>703</v>
       </c>
       <c r="B111" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C111" s="26" t="s">
-        <v>571</v>
-      </c>
-      <c r="D111" s="26"/>
-      <c r="E111" s="26"/>
+      <c r="C111" s="19" t="s">
+        <v>525</v>
+      </c>
+      <c r="D111" s="19"/>
+      <c r="E111" s="19"/>
       <c r="F111" t="s">
-        <v>1032</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="s">
-        <v>725</v>
+        <v>704</v>
       </c>
       <c r="B112" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C112" s="19" t="s">
-        <v>573</v>
-      </c>
-      <c r="D112" s="19"/>
-      <c r="E112" s="19"/>
+      <c r="C112" s="26" t="s">
+        <v>583</v>
+      </c>
+      <c r="D112" s="26"/>
+      <c r="E112" s="26"/>
       <c r="F112" t="s">
-        <v>1033</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
-        <v>726</v>
+        <v>705</v>
       </c>
       <c r="B113" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C113" s="19" t="s">
-        <v>575</v>
-      </c>
-      <c r="D113" s="19"/>
-      <c r="E113" s="19"/>
+      <c r="C113" s="26" t="s">
+        <v>571</v>
+      </c>
+      <c r="D113" s="26"/>
+      <c r="E113" s="26"/>
       <c r="F113" t="s">
-        <v>1034</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="s">
-        <v>727</v>
+        <v>706</v>
       </c>
       <c r="B114" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C114" s="26" t="s">
-        <v>584</v>
-      </c>
-      <c r="D114" s="26"/>
-      <c r="E114" s="26"/>
+      <c r="C114" s="19" t="s">
+        <v>573</v>
+      </c>
+      <c r="D114" s="19"/>
+      <c r="E114" s="19"/>
       <c r="F114" t="s">
-        <v>1035</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="s">
-        <v>728</v>
+        <v>707</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C115" s="26" t="s">
-        <v>585</v>
-      </c>
-      <c r="D115" s="26"/>
-      <c r="E115" s="26"/>
+      <c r="C115" s="19" t="s">
+        <v>575</v>
+      </c>
+      <c r="D115" s="19"/>
+      <c r="E115" s="19"/>
       <c r="F115" t="s">
-        <v>1036</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="3" t="s">
-        <v>729</v>
+        <v>708</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C116" s="19" t="s">
-        <v>156</v>
-      </c>
-      <c r="D116" s="19"/>
-      <c r="E116" s="19"/>
+      <c r="C116" s="26" t="s">
+        <v>584</v>
+      </c>
+      <c r="D116" s="26"/>
+      <c r="E116" s="26"/>
       <c r="F116" t="s">
-        <v>1037</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="3" t="s">
-        <v>730</v>
+        <v>709</v>
       </c>
       <c r="B117" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C117" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="D117" s="19"/>
-      <c r="E117" s="19"/>
+      <c r="C117" s="26" t="s">
+        <v>585</v>
+      </c>
+      <c r="D117" s="26"/>
+      <c r="E117" s="26"/>
       <c r="F117" t="s">
-        <v>1038</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="s">
-        <v>731</v>
+        <v>710</v>
       </c>
       <c r="B118" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C118" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="D118" s="18"/>
-      <c r="E118" s="18"/>
-      <c r="F118" s="6" t="s">
-        <v>1039</v>
+      <c r="C118" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="D118" s="19"/>
+      <c r="E118" s="19"/>
+      <c r="F118" t="s">
+        <v>1018</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="s">
-        <v>732</v>
+        <v>711</v>
       </c>
       <c r="B119" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C119" s="26" t="s">
-        <v>595</v>
-      </c>
-      <c r="D119" s="26"/>
-      <c r="E119" s="26"/>
+      <c r="C119" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="D119" s="19"/>
+      <c r="E119" s="19"/>
       <c r="F119" t="s">
-        <v>1040</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
-        <v>733</v>
+        <v>712</v>
       </c>
       <c r="B120" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C120" s="19" t="s">
-        <v>163</v>
-      </c>
-      <c r="D120" s="19"/>
-      <c r="E120" s="19"/>
-      <c r="F120" t="s">
-        <v>1041</v>
+      <c r="C120" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="D120" s="18"/>
+      <c r="E120" s="18"/>
+      <c r="F120" s="6" t="s">
+        <v>1020</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
-        <v>734</v>
+        <v>713</v>
       </c>
       <c r="B121" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C121" s="26" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="D121" s="26"/>
       <c r="E121" s="26"/>
       <c r="F121" t="s">
-        <v>1042</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
-        <v>735</v>
+        <v>714</v>
       </c>
       <c r="B122" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C122" s="19" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D122" s="19"/>
       <c r="E122" s="19"/>
       <c r="F122" t="s">
-        <v>1043</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
-        <v>736</v>
+        <v>715</v>
       </c>
       <c r="B123" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C123" s="19" t="s">
-        <v>251</v>
-      </c>
-      <c r="D123" s="19"/>
-      <c r="E123" s="19"/>
+      <c r="C123" s="26" t="s">
+        <v>599</v>
+      </c>
+      <c r="D123" s="26"/>
+      <c r="E123" s="26"/>
       <c r="F123" t="s">
-        <v>1044</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="3" t="s">
-        <v>737</v>
+        <v>716</v>
       </c>
       <c r="B124" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C124" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="D124" s="26"/>
-      <c r="E124" s="26"/>
+      <c r="C124" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="D124" s="19"/>
+      <c r="E124" s="19"/>
       <c r="F124" t="s">
-        <v>1045</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
-        <v>738</v>
+        <v>717</v>
       </c>
       <c r="B125" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C125" s="27" t="s">
-        <v>171</v>
-      </c>
-      <c r="D125" s="27"/>
-      <c r="E125" s="27"/>
+      <c r="C125" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="D125" s="19"/>
+      <c r="E125" s="19"/>
       <c r="F125" t="s">
-        <v>1046</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="s">
-        <v>739</v>
+        <v>718</v>
       </c>
       <c r="B126" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C126" s="19" t="s">
-        <v>172</v>
-      </c>
-      <c r="D126" s="19"/>
-      <c r="E126" s="19"/>
+      <c r="C126" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="D126" s="26"/>
+      <c r="E126" s="26"/>
       <c r="F126" t="s">
-        <v>1047</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="s">
-        <v>740</v>
+        <v>719</v>
       </c>
       <c r="B127" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C127" s="26" t="s">
-        <v>601</v>
-      </c>
-      <c r="D127" s="26"/>
-      <c r="E127" s="26"/>
+      <c r="C127" s="27" t="s">
+        <v>171</v>
+      </c>
+      <c r="D127" s="27"/>
+      <c r="E127" s="27"/>
       <c r="F127" t="s">
-        <v>1048</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="3" t="s">
-        <v>741</v>
+        <v>720</v>
       </c>
       <c r="B128" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C128" s="26" t="s">
-        <v>173</v>
-      </c>
-      <c r="D128" s="26"/>
-      <c r="E128" s="26"/>
+      <c r="C128" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="D128" s="19"/>
+      <c r="E128" s="19"/>
       <c r="F128" t="s">
-        <v>1049</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="3" t="s">
-        <v>742</v>
+        <v>721</v>
       </c>
       <c r="B129" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C129" s="26" t="s">
-        <v>189</v>
+        <v>601</v>
       </c>
       <c r="D129" s="26"/>
       <c r="E129" s="26"/>
       <c r="F129" t="s">
-        <v>1050</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="3" t="s">
-        <v>743</v>
+        <v>722</v>
       </c>
       <c r="B130" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C130" s="26" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D130" s="26"/>
       <c r="E130" s="26"/>
       <c r="F130" t="s">
-        <v>1051</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="3" t="s">
-        <v>744</v>
+        <v>723</v>
       </c>
       <c r="B131" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C131" s="26" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="D131" s="26"/>
       <c r="E131" s="26"/>
       <c r="F131" t="s">
-        <v>1052</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="3" t="s">
-        <v>745</v>
+        <v>724</v>
       </c>
       <c r="B132" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C132" s="26" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D132" s="26"/>
       <c r="E132" s="26"/>
       <c r="F132" t="s">
-        <v>1053</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="3" t="s">
-        <v>746</v>
+        <v>725</v>
       </c>
       <c r="B133" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C133" s="26" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="D133" s="26"/>
       <c r="E133" s="26"/>
       <c r="F133" t="s">
-        <v>1054</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="3" t="s">
-        <v>747</v>
+        <v>726</v>
       </c>
       <c r="B134" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C134" s="26" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="D134" s="26"/>
       <c r="E134" s="26"/>
       <c r="F134" t="s">
-        <v>1055</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="3" t="s">
-        <v>748</v>
+        <v>727</v>
       </c>
       <c r="B135" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C135" s="26" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D135" s="26"/>
       <c r="E135" s="26"/>
       <c r="F135" t="s">
-        <v>1056</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="3" t="s">
-        <v>749</v>
+        <v>728</v>
       </c>
       <c r="B136" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C136" s="19" t="s">
-        <v>186</v>
-      </c>
-      <c r="D136" s="19"/>
-      <c r="E136" s="19"/>
+      <c r="C136" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="D136" s="26"/>
+      <c r="E136" s="26"/>
       <c r="F136" t="s">
-        <v>1057</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="3" t="s">
-        <v>750</v>
+        <v>729</v>
       </c>
       <c r="B137" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C137" s="26" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D137" s="26"/>
       <c r="E137" s="26"/>
       <c r="F137" t="s">
-        <v>1058</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="3" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B138" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C138" s="27" t="s">
-        <v>188</v>
-      </c>
-      <c r="D138" s="27"/>
-      <c r="E138" s="27"/>
+      <c r="C138" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="D138" s="19"/>
+      <c r="E138" s="19"/>
       <c r="F138" t="s">
-        <v>1059</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="3" t="s">
-        <v>752</v>
+        <v>731</v>
       </c>
       <c r="B139" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C139" s="26" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="D139" s="26"/>
       <c r="E139" s="26"/>
       <c r="F139" t="s">
-        <v>1060</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="3" t="s">
-        <v>753</v>
+        <v>732</v>
       </c>
       <c r="B140" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C140" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="D140" s="26"/>
-      <c r="E140" s="26"/>
+      <c r="C140" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="D140" s="27"/>
+      <c r="E140" s="27"/>
       <c r="F140" t="s">
-        <v>1061</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="3" t="s">
-        <v>754</v>
+        <v>733</v>
       </c>
       <c r="B141" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C141" s="26" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D141" s="26"/>
       <c r="E141" s="26"/>
       <c r="F141" t="s">
-        <v>1062</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="3" t="s">
-        <v>755</v>
+        <v>734</v>
       </c>
       <c r="B142" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C142" s="26" t="s">
-        <v>605</v>
+        <v>190</v>
       </c>
       <c r="D142" s="26"/>
       <c r="E142" s="26"/>
       <c r="F142" t="s">
-        <v>1063</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="3" t="s">
-        <v>756</v>
+        <v>735</v>
       </c>
       <c r="B143" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C143" s="19" t="s">
-        <v>603</v>
-      </c>
-      <c r="D143" s="19"/>
-      <c r="E143" s="19"/>
+      <c r="C143" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="D143" s="26"/>
+      <c r="E143" s="26"/>
       <c r="F143" t="s">
-        <v>1064</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="3" t="s">
-        <v>757</v>
+        <v>736</v>
       </c>
       <c r="B144" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C144" s="26" t="s">
-        <v>205</v>
+        <v>605</v>
       </c>
       <c r="D144" s="26"/>
       <c r="E144" s="26"/>
       <c r="F144" t="s">
-        <v>1065</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="3" t="s">
-        <v>758</v>
+        <v>737</v>
       </c>
       <c r="B145" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C145" s="26" t="s">
-        <v>206</v>
-      </c>
-      <c r="D145" s="26"/>
-      <c r="E145" s="26"/>
+      <c r="C145" s="19" t="s">
+        <v>603</v>
+      </c>
+      <c r="D145" s="19"/>
+      <c r="E145" s="19"/>
       <c r="F145" t="s">
-        <v>1066</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="3" t="s">
-        <v>759</v>
+        <v>738</v>
       </c>
       <c r="B146" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C146" s="19" t="s">
-        <v>207</v>
-      </c>
-      <c r="D146" s="19"/>
-      <c r="E146" s="19"/>
+      <c r="C146" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="D146" s="26"/>
+      <c r="E146" s="26"/>
       <c r="F146" t="s">
-        <v>1067</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="3" t="s">
-        <v>760</v>
+        <v>739</v>
       </c>
       <c r="B147" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C147" s="19" t="s">
-        <v>208</v>
-      </c>
-      <c r="D147" s="19"/>
-      <c r="E147" s="19"/>
+      <c r="C147" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="D147" s="26"/>
+      <c r="E147" s="26"/>
       <c r="F147" t="s">
-        <v>1068</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" s="3" t="s">
-        <v>761</v>
+        <v>740</v>
       </c>
       <c r="B148" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C148" s="18" t="s">
-        <v>209</v>
-      </c>
-      <c r="D148" s="18"/>
-      <c r="E148" s="18"/>
-      <c r="F148" s="6" t="s">
-        <v>1069</v>
+      <c r="C148" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="D148" s="19"/>
+      <c r="E148" s="19"/>
+      <c r="F148" t="s">
+        <v>1048</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="3" t="s">
-        <v>762</v>
+        <v>741</v>
       </c>
       <c r="B149" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C149" s="18" t="s">
-        <v>210</v>
-      </c>
-      <c r="D149" s="18"/>
-      <c r="E149" s="18"/>
-      <c r="F149" s="6" t="s">
-        <v>1070</v>
+      <c r="C149" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="D149" s="19"/>
+      <c r="E149" s="19"/>
+      <c r="F149" t="s">
+        <v>1049</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" s="3" t="s">
-        <v>763</v>
+        <v>742</v>
       </c>
       <c r="B150" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C150" s="26" t="s">
-        <v>211</v>
-      </c>
-      <c r="D150" s="26"/>
-      <c r="E150" s="26"/>
-      <c r="F150" t="s">
-        <v>1071</v>
+      <c r="C150" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="D150" s="18"/>
+      <c r="E150" s="18"/>
+      <c r="F150" s="6" t="s">
+        <v>1050</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="3" t="s">
-        <v>764</v>
+        <v>743</v>
       </c>
       <c r="B151" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C151" s="27" t="s">
-        <v>212</v>
-      </c>
-      <c r="D151" s="27"/>
-      <c r="E151" s="27"/>
-      <c r="F151" t="s">
-        <v>1072</v>
+      <c r="C151" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="D151" s="18"/>
+      <c r="E151" s="18"/>
+      <c r="F151" s="6" t="s">
+        <v>1051</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="3" t="s">
-        <v>765</v>
+        <v>744</v>
       </c>
       <c r="B152" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C152" s="26" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D152" s="26"/>
       <c r="E152" s="26"/>
       <c r="F152" t="s">
-        <v>1073</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="3" t="s">
-        <v>766</v>
+        <v>745</v>
       </c>
       <c r="B153" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C153" s="26" t="s">
-        <v>214</v>
-      </c>
-      <c r="D153" s="26"/>
-      <c r="E153" s="26"/>
-      <c r="F153" s="6" t="s">
-        <v>1074</v>
+      <c r="C153" s="27" t="s">
+        <v>212</v>
+      </c>
+      <c r="D153" s="27"/>
+      <c r="E153" s="27"/>
+      <c r="F153" t="s">
+        <v>1053</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" s="3" t="s">
-        <v>767</v>
+        <v>746</v>
       </c>
       <c r="B154" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C154" s="26" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D154" s="26"/>
       <c r="E154" s="26"/>
-      <c r="F154" s="6" t="s">
-        <v>1075</v>
+      <c r="F154" t="s">
+        <v>1054</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" s="3" t="s">
-        <v>768</v>
+        <v>747</v>
       </c>
       <c r="B155" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C155" s="26" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D155" s="26"/>
       <c r="E155" s="26"/>
       <c r="F155" s="6" t="s">
-        <v>1076</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" s="3" t="s">
-        <v>769</v>
+        <v>748</v>
       </c>
       <c r="B156" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C156" s="26" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D156" s="26"/>
       <c r="E156" s="26"/>
-      <c r="F156" t="s">
-        <v>1077</v>
+      <c r="F156" s="6" t="s">
+        <v>1056</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" s="3" t="s">
-        <v>770</v>
+        <v>749</v>
       </c>
       <c r="B157" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C157" s="26" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D157" s="26"/>
       <c r="E157" s="26"/>
-      <c r="F157" t="s">
-        <v>1078</v>
+      <c r="F157" s="6" t="s">
+        <v>1057</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" s="3" t="s">
-        <v>771</v>
+        <v>750</v>
       </c>
       <c r="B158" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C158" s="26" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="D158" s="26"/>
       <c r="E158" s="26"/>
       <c r="F158" t="s">
-        <v>1079</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" s="3" t="s">
-        <v>772</v>
+        <v>751</v>
       </c>
       <c r="B159" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C159" s="26" t="s">
-        <v>607</v>
+        <v>217</v>
       </c>
       <c r="D159" s="26"/>
       <c r="E159" s="26"/>
       <c r="F159" t="s">
-        <v>1080</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" s="3" t="s">
-        <v>773</v>
+        <v>752</v>
       </c>
       <c r="B160" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C160" s="27" t="s">
-        <v>609</v>
-      </c>
-      <c r="D160" s="27"/>
-      <c r="E160" s="27"/>
+      <c r="C160" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="D160" s="26"/>
+      <c r="E160" s="26"/>
       <c r="F160" t="s">
-        <v>1081</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" s="3" t="s">
-        <v>774</v>
+        <v>753</v>
       </c>
       <c r="B161" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C161" s="26" t="s">
-        <v>535</v>
+        <v>607</v>
       </c>
       <c r="D161" s="26"/>
       <c r="E161" s="26"/>
       <c r="F161" t="s">
-        <v>1082</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" s="3" t="s">
-        <v>775</v>
+        <v>754</v>
       </c>
       <c r="B162" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C162" s="26" t="s">
-        <v>235</v>
-      </c>
-      <c r="D162" s="26"/>
-      <c r="E162" s="26"/>
+      <c r="C162" s="27" t="s">
+        <v>609</v>
+      </c>
+      <c r="D162" s="27"/>
+      <c r="E162" s="27"/>
       <c r="F162" t="s">
-        <v>1083</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" s="3" t="s">
-        <v>776</v>
+        <v>755</v>
       </c>
       <c r="B163" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C163" s="19" t="s">
-        <v>237</v>
-      </c>
-      <c r="D163" s="19"/>
-      <c r="E163" s="19"/>
+      <c r="C163" s="26" t="s">
+        <v>535</v>
+      </c>
+      <c r="D163" s="26"/>
+      <c r="E163" s="26"/>
       <c r="F163" t="s">
-        <v>1084</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" s="3" t="s">
-        <v>777</v>
+        <v>756</v>
       </c>
       <c r="B164" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C164" s="18" t="s">
-        <v>611</v>
-      </c>
-      <c r="D164" s="18"/>
-      <c r="E164" s="18"/>
+      <c r="C164" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="D164" s="26"/>
+      <c r="E164" s="26"/>
       <c r="F164" t="s">
-        <v>1085</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" s="3" t="s">
-        <v>778</v>
+        <v>757</v>
       </c>
       <c r="B165" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C165" s="26" t="s">
-        <v>241</v>
-      </c>
-      <c r="D165" s="26"/>
-      <c r="E165" s="26"/>
+      <c r="C165" s="19" t="s">
+        <v>237</v>
+      </c>
+      <c r="D165" s="19"/>
+      <c r="E165" s="19"/>
       <c r="F165" t="s">
-        <v>1086</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" s="3" t="s">
-        <v>779</v>
+        <v>758</v>
       </c>
       <c r="B166" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C166" s="19" t="s">
-        <v>243</v>
-      </c>
-      <c r="D166" s="19"/>
-      <c r="E166" s="19"/>
+      <c r="C166" s="18" t="s">
+        <v>611</v>
+      </c>
+      <c r="D166" s="18"/>
+      <c r="E166" s="18"/>
       <c r="F166" t="s">
-        <v>1087</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" s="3" t="s">
-        <v>780</v>
+        <v>759</v>
       </c>
       <c r="B167" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C167" s="26" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="D167" s="26"/>
       <c r="E167" s="26"/>
       <c r="F167" t="s">
-        <v>1088</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" s="3" t="s">
-        <v>781</v>
+        <v>760</v>
       </c>
       <c r="B168" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C168" s="19" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D168" s="19"/>
       <c r="E168" s="19"/>
       <c r="F168" t="s">
-        <v>1089</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" s="3" t="s">
-        <v>782</v>
+        <v>761</v>
       </c>
       <c r="B169" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C169" s="19" t="s">
-        <v>246</v>
-      </c>
-      <c r="D169" s="19"/>
-      <c r="E169" s="19"/>
+      <c r="C169" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="D169" s="26"/>
+      <c r="E169" s="26"/>
       <c r="F169" t="s">
-        <v>1090</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" s="3" t="s">
-        <v>783</v>
+        <v>762</v>
       </c>
       <c r="B170" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C170" s="27" t="s">
-        <v>249</v>
-      </c>
-      <c r="D170" s="27"/>
-      <c r="E170" s="27"/>
+      <c r="C170" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="D170" s="19"/>
+      <c r="E170" s="19"/>
       <c r="F170" t="s">
-        <v>1091</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" s="3" t="s">
-        <v>784</v>
+        <v>763</v>
       </c>
       <c r="B171" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C171" s="19" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="D171" s="19"/>
       <c r="E171" s="19"/>
       <c r="F171" t="s">
-        <v>1092</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" s="3" t="s">
-        <v>785</v>
+        <v>764</v>
       </c>
       <c r="B172" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C172" s="18" t="s">
-        <v>239</v>
-      </c>
-      <c r="D172" s="18"/>
-      <c r="E172" s="18"/>
+      <c r="C172" s="27" t="s">
+        <v>249</v>
+      </c>
+      <c r="D172" s="27"/>
+      <c r="E172" s="27"/>
       <c r="F172" t="s">
-        <v>1093</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" s="3" t="s">
-        <v>786</v>
+        <v>765</v>
       </c>
       <c r="B173" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C173" s="19" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D173" s="19"/>
       <c r="E173" s="19"/>
       <c r="F173" t="s">
-        <v>1094</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" s="3" t="s">
-        <v>787</v>
+        <v>766</v>
       </c>
       <c r="B174" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C174" s="19" t="s">
-        <v>257</v>
-      </c>
-      <c r="D174" s="19"/>
-      <c r="E174" s="19"/>
+      <c r="C174" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="D174" s="18"/>
+      <c r="E174" s="18"/>
       <c r="F174" t="s">
-        <v>1095</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" s="3" t="s">
-        <v>788</v>
+        <v>767</v>
       </c>
       <c r="B175" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C175" s="19" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D175" s="19"/>
       <c r="E175" s="19"/>
       <c r="F175" t="s">
-        <v>1096</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" s="3" t="s">
-        <v>789</v>
+        <v>768</v>
       </c>
       <c r="B176" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C176" s="26" t="s">
-        <v>613</v>
-      </c>
-      <c r="D176" s="26"/>
-      <c r="E176" s="26"/>
+      <c r="C176" s="19" t="s">
+        <v>257</v>
+      </c>
+      <c r="D176" s="19"/>
+      <c r="E176" s="19"/>
       <c r="F176" t="s">
-        <v>1097</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" s="3" t="s">
-        <v>790</v>
+        <v>769</v>
       </c>
       <c r="B177" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C177" s="19" t="s">
-        <v>615</v>
+        <v>258</v>
       </c>
       <c r="D177" s="19"/>
       <c r="E177" s="19"/>
       <c r="F177" t="s">
-        <v>1098</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" s="3" t="s">
-        <v>791</v>
+        <v>770</v>
       </c>
       <c r="B178" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C178" s="19" t="s">
-        <v>259</v>
-      </c>
-      <c r="D178" s="19"/>
-      <c r="E178" s="19"/>
+      <c r="C178" s="26" t="s">
+        <v>613</v>
+      </c>
+      <c r="D178" s="26"/>
+      <c r="E178" s="26"/>
       <c r="F178" t="s">
-        <v>1099</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" s="3" t="s">
-        <v>792</v>
+        <v>771</v>
       </c>
       <c r="B179" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C179" s="18" t="s">
-        <v>265</v>
-      </c>
-      <c r="D179" s="18"/>
-      <c r="E179" s="18"/>
+      <c r="C179" s="19" t="s">
+        <v>615</v>
+      </c>
+      <c r="D179" s="19"/>
+      <c r="E179" s="19"/>
       <c r="F179" t="s">
-        <v>1100</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" s="3" t="s">
-        <v>793</v>
+        <v>772</v>
       </c>
       <c r="B180" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C180" s="19" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="D180" s="19"/>
       <c r="E180" s="19"/>
       <c r="F180" t="s">
-        <v>1101</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" s="3" t="s">
-        <v>794</v>
+        <v>773</v>
       </c>
       <c r="B181" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C181" s="26" t="s">
-        <v>267</v>
-      </c>
-      <c r="D181" s="26"/>
-      <c r="E181" s="26"/>
+      <c r="C181" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="D181" s="18"/>
+      <c r="E181" s="18"/>
       <c r="F181" t="s">
-        <v>1102</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" s="3" t="s">
-        <v>795</v>
+        <v>774</v>
       </c>
       <c r="B182" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C182" s="19" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D182" s="19"/>
       <c r="E182" s="19"/>
       <c r="F182" t="s">
-        <v>1103</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" s="3" t="s">
-        <v>796</v>
+        <v>775</v>
       </c>
       <c r="B183" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C183" s="26" t="s">
-        <v>617</v>
+        <v>267</v>
       </c>
       <c r="D183" s="26"/>
       <c r="E183" s="26"/>
       <c r="F183" t="s">
-        <v>1104</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" s="3" t="s">
-        <v>797</v>
+        <v>776</v>
       </c>
       <c r="B184" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C184" s="19" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D184" s="19"/>
       <c r="E184" s="19"/>
       <c r="F184" t="s">
-        <v>1105</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" s="3" t="s">
-        <v>798</v>
+        <v>777</v>
       </c>
       <c r="B185" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C185" s="26" t="s">
-        <v>273</v>
+        <v>617</v>
       </c>
       <c r="D185" s="26"/>
       <c r="E185" s="26"/>
       <c r="F185" t="s">
-        <v>1106</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" s="3" t="s">
-        <v>799</v>
+        <v>778</v>
       </c>
       <c r="B186" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C186" s="26" t="s">
-        <v>274</v>
-      </c>
-      <c r="D186" s="26"/>
-      <c r="E186" s="26"/>
+      <c r="C186" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="D186" s="19"/>
+      <c r="E186" s="19"/>
       <c r="F186" t="s">
-        <v>1107</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" s="3" t="s">
-        <v>800</v>
+        <v>779</v>
       </c>
       <c r="B187" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C187" s="19" t="s">
-        <v>275</v>
-      </c>
-      <c r="D187" s="19"/>
-      <c r="E187" s="19"/>
+      <c r="C187" s="26" t="s">
+        <v>273</v>
+      </c>
+      <c r="D187" s="26"/>
+      <c r="E187" s="26"/>
       <c r="F187" t="s">
-        <v>1108</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" s="3" t="s">
-        <v>801</v>
+        <v>780</v>
       </c>
       <c r="B188" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C188" s="19" t="s">
-        <v>276</v>
-      </c>
-      <c r="D188" s="19"/>
-      <c r="E188" s="19"/>
+      <c r="C188" s="26" t="s">
+        <v>274</v>
+      </c>
+      <c r="D188" s="26"/>
+      <c r="E188" s="26"/>
       <c r="F188" t="s">
-        <v>1109</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" s="3" t="s">
-        <v>802</v>
+        <v>781</v>
       </c>
       <c r="B189" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C189" s="26" t="s">
-        <v>277</v>
-      </c>
-      <c r="D189" s="26"/>
-      <c r="E189" s="26"/>
+      <c r="C189" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="D189" s="19"/>
+      <c r="E189" s="19"/>
       <c r="F189" t="s">
-        <v>1110</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" s="3" t="s">
-        <v>803</v>
+        <v>782</v>
       </c>
       <c r="B190" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C190" s="26" t="s">
-        <v>285</v>
-      </c>
-      <c r="D190" s="26"/>
-      <c r="E190" s="26"/>
+      <c r="C190" s="19" t="s">
+        <v>276</v>
+      </c>
+      <c r="D190" s="19"/>
+      <c r="E190" s="19"/>
       <c r="F190" t="s">
-        <v>1111</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" s="3" t="s">
-        <v>804</v>
+        <v>783</v>
       </c>
       <c r="B191" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C191" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="D191" s="19"/>
-      <c r="E191" s="19"/>
+      <c r="C191" s="26" t="s">
+        <v>277</v>
+      </c>
+      <c r="D191" s="26"/>
+      <c r="E191" s="26"/>
       <c r="F191" t="s">
-        <v>1112</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" s="3" t="s">
-        <v>805</v>
+        <v>784</v>
       </c>
       <c r="B192" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C192" s="26" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D192" s="26"/>
       <c r="E192" s="26"/>
       <c r="F192" t="s">
-        <v>1113</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" s="3" t="s">
-        <v>806</v>
+        <v>785</v>
       </c>
       <c r="B193" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C193" s="19" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D193" s="19"/>
       <c r="E193" s="19"/>
       <c r="F193" t="s">
-        <v>1114</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" s="3" t="s">
-        <v>807</v>
+        <v>786</v>
       </c>
       <c r="B194" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C194" s="26" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D194" s="26"/>
       <c r="E194" s="26"/>
       <c r="F194" t="s">
-        <v>1115</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" s="3" t="s">
-        <v>808</v>
+        <v>787</v>
       </c>
       <c r="B195" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C195" s="19" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D195" s="19"/>
       <c r="E195" s="19"/>
       <c r="F195" t="s">
-        <v>1116</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" s="3" t="s">
-        <v>809</v>
+        <v>788</v>
       </c>
       <c r="B196" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C196" s="19" t="s">
-        <v>291</v>
-      </c>
-      <c r="D196" s="19"/>
-      <c r="E196" s="19"/>
+      <c r="C196" s="26" t="s">
+        <v>289</v>
+      </c>
+      <c r="D196" s="26"/>
+      <c r="E196" s="26"/>
       <c r="F196" t="s">
-        <v>1117</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" s="3" t="s">
-        <v>810</v>
+        <v>789</v>
       </c>
       <c r="B197" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C197" s="26" t="s">
-        <v>293</v>
-      </c>
-      <c r="D197" s="26"/>
-      <c r="E197" s="26"/>
+      <c r="C197" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="D197" s="19"/>
+      <c r="E197" s="19"/>
       <c r="F197" t="s">
-        <v>1118</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" s="3" t="s">
-        <v>811</v>
+        <v>790</v>
       </c>
       <c r="B198" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C198" s="19" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D198" s="19"/>
       <c r="E198" s="19"/>
       <c r="F198" t="s">
-        <v>1119</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" s="3" t="s">
-        <v>812</v>
+        <v>791</v>
       </c>
       <c r="B199" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C199" s="26" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D199" s="26"/>
       <c r="E199" s="26"/>
       <c r="F199" t="s">
-        <v>1120</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" s="3" t="s">
-        <v>813</v>
+        <v>792</v>
       </c>
       <c r="B200" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C200" s="26" t="s">
-        <v>295</v>
-      </c>
-      <c r="D200" s="26"/>
-      <c r="E200" s="26"/>
+      <c r="C200" s="19" t="s">
+        <v>292</v>
+      </c>
+      <c r="D200" s="19"/>
+      <c r="E200" s="19"/>
       <c r="F200" t="s">
-        <v>1121</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" s="3" t="s">
-        <v>814</v>
+        <v>793</v>
       </c>
       <c r="B201" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C201" s="27" t="s">
-        <v>294</v>
-      </c>
-      <c r="D201" s="27"/>
-      <c r="E201" s="27"/>
+      <c r="C201" s="26" t="s">
+        <v>296</v>
+      </c>
+      <c r="D201" s="26"/>
+      <c r="E201" s="26"/>
       <c r="F201" t="s">
-        <v>1122</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" s="3" t="s">
-        <v>815</v>
+        <v>794</v>
       </c>
       <c r="B202" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C202" s="19" t="s">
-        <v>297</v>
-      </c>
-      <c r="D202" s="19"/>
-      <c r="E202" s="19"/>
+      <c r="C202" s="26" t="s">
+        <v>295</v>
+      </c>
+      <c r="D202" s="26"/>
+      <c r="E202" s="26"/>
       <c r="F202" t="s">
-        <v>1123</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" s="3" t="s">
-        <v>816</v>
+        <v>795</v>
       </c>
       <c r="B203" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C203" s="19" t="s">
-        <v>298</v>
-      </c>
-      <c r="D203" s="19"/>
-      <c r="E203" s="19"/>
+      <c r="C203" s="27" t="s">
+        <v>294</v>
+      </c>
+      <c r="D203" s="27"/>
+      <c r="E203" s="27"/>
       <c r="F203" t="s">
-        <v>1124</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" s="3" t="s">
-        <v>817</v>
+        <v>796</v>
       </c>
       <c r="B204" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C204" s="19" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D204" s="19"/>
       <c r="E204" s="19"/>
       <c r="F204" t="s">
-        <v>317</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" s="3" t="s">
-        <v>818</v>
+        <v>797</v>
       </c>
       <c r="B205" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C205" s="19" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D205" s="19"/>
       <c r="E205" s="19"/>
       <c r="F205" t="s">
-        <v>1125</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" s="3" t="s">
-        <v>819</v>
+        <v>798</v>
       </c>
       <c r="B206" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C206" s="19" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D206" s="19"/>
       <c r="E206" s="19"/>
       <c r="F206" t="s">
-        <v>1126</v>
+        <v>317</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" s="3" t="s">
-        <v>820</v>
+        <v>799</v>
       </c>
       <c r="B207" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C207" s="26" t="s">
-        <v>345</v>
-      </c>
-      <c r="D207" s="26"/>
-      <c r="E207" s="26"/>
+      <c r="C207" s="19" t="s">
+        <v>300</v>
+      </c>
+      <c r="D207" s="19"/>
+      <c r="E207" s="19"/>
       <c r="F207" t="s">
-        <v>1127</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" s="3" t="s">
-        <v>821</v>
+        <v>800</v>
       </c>
       <c r="B208" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C208" s="19" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D208" s="19"/>
       <c r="E208" s="19"/>
       <c r="F208" t="s">
-        <v>1128</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" s="3" t="s">
-        <v>822</v>
+        <v>801</v>
       </c>
       <c r="B209" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C209" s="19" t="s">
-        <v>321</v>
-      </c>
-      <c r="D209" s="19"/>
-      <c r="E209" s="19"/>
+      <c r="C209" s="26" t="s">
+        <v>345</v>
+      </c>
+      <c r="D209" s="26"/>
+      <c r="E209" s="26"/>
       <c r="F209" t="s">
-        <v>1129</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" s="3" t="s">
-        <v>823</v>
+        <v>802</v>
       </c>
       <c r="B210" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C210" s="26" t="s">
-        <v>322</v>
-      </c>
-      <c r="D210" s="26"/>
-      <c r="E210" s="26"/>
+      <c r="C210" s="19" t="s">
+        <v>302</v>
+      </c>
+      <c r="D210" s="19"/>
+      <c r="E210" s="19"/>
       <c r="F210" t="s">
-        <v>1130</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" s="3" t="s">
-        <v>824</v>
+        <v>803</v>
       </c>
       <c r="B211" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C211" s="19" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D211" s="19"/>
       <c r="E211" s="19"/>
       <c r="F211" t="s">
-        <v>1131</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" s="3" t="s">
-        <v>825</v>
+        <v>804</v>
       </c>
       <c r="B212" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C212" s="26" t="s">
-        <v>519</v>
+        <v>322</v>
       </c>
       <c r="D212" s="26"/>
       <c r="E212" s="26"/>
-      <c r="F212" s="6" t="s">
-        <v>1132</v>
+      <c r="F212" t="s">
+        <v>1111</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" s="3" t="s">
-        <v>826</v>
+        <v>805</v>
       </c>
       <c r="B213" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C213" s="26" t="s">
-        <v>521</v>
-      </c>
-      <c r="D213" s="26"/>
-      <c r="E213" s="26"/>
-      <c r="F213" s="6" t="s">
-        <v>1133</v>
+      <c r="C213" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="D213" s="19"/>
+      <c r="E213" s="19"/>
+      <c r="F213" t="s">
+        <v>1112</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" s="3" t="s">
-        <v>827</v>
+        <v>806</v>
       </c>
       <c r="B214" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C214" s="19" t="s">
-        <v>324</v>
-      </c>
-      <c r="D214" s="19"/>
-      <c r="E214" s="19"/>
-      <c r="F214" t="s">
-        <v>1134</v>
+      <c r="C214" s="26" t="s">
+        <v>519</v>
+      </c>
+      <c r="D214" s="26"/>
+      <c r="E214" s="26"/>
+      <c r="F214" s="6" t="s">
+        <v>1113</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" s="3" t="s">
-        <v>828</v>
+        <v>807</v>
       </c>
       <c r="B215" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C215" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="D215" s="19"/>
-      <c r="E215" s="19"/>
-      <c r="F215" t="s">
-        <v>1135</v>
+      <c r="C215" s="26" t="s">
+        <v>521</v>
+      </c>
+      <c r="D215" s="26"/>
+      <c r="E215" s="26"/>
+      <c r="F215" s="6" t="s">
+        <v>1114</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" s="3" t="s">
-        <v>829</v>
+        <v>808</v>
       </c>
       <c r="B216" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C216" s="19" t="s">
-        <v>533</v>
+        <v>324</v>
       </c>
       <c r="D216" s="19"/>
       <c r="E216" s="19"/>
       <c r="F216" t="s">
-        <v>1136</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217" s="3" t="s">
-        <v>830</v>
+        <v>809</v>
       </c>
       <c r="B217" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C217" s="19" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D217" s="19"/>
       <c r="E217" s="19"/>
       <c r="F217" t="s">
-        <v>1137</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218" s="3" t="s">
-        <v>831</v>
+        <v>810</v>
       </c>
       <c r="B218" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C218" s="26" t="s">
-        <v>326</v>
-      </c>
-      <c r="D218" s="26"/>
-      <c r="E218" s="26"/>
+      <c r="C218" s="19" t="s">
+        <v>533</v>
+      </c>
+      <c r="D218" s="19"/>
+      <c r="E218" s="19"/>
       <c r="F218" t="s">
-        <v>1138</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219" s="3" t="s">
-        <v>832</v>
+        <v>811</v>
       </c>
       <c r="B219" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C219" s="26" t="s">
-        <v>328</v>
-      </c>
-      <c r="D219" s="26"/>
-      <c r="E219" s="26"/>
-      <c r="F219" s="6" t="s">
-        <v>1139</v>
+      <c r="C219" s="19" t="s">
+        <v>327</v>
+      </c>
+      <c r="D219" s="19"/>
+      <c r="E219" s="19"/>
+      <c r="F219" t="s">
+        <v>1118</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" s="3" t="s">
-        <v>833</v>
+        <v>812</v>
       </c>
       <c r="B220" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C220" s="26" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="D220" s="26"/>
       <c r="E220" s="26"/>
       <c r="F220" t="s">
-        <v>1140</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" s="3" t="s">
-        <v>834</v>
+        <v>813</v>
       </c>
       <c r="B221" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C221" s="26" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="D221" s="26"/>
       <c r="E221" s="26"/>
-      <c r="F221" t="s">
-        <v>1141</v>
+      <c r="F221" s="6" t="s">
+        <v>1120</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222" s="3" t="s">
-        <v>835</v>
+        <v>814</v>
       </c>
       <c r="B222" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C222" s="26" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D222" s="26"/>
       <c r="E222" s="26"/>
       <c r="F222" t="s">
-        <v>1142</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" s="3" t="s">
-        <v>836</v>
+        <v>815</v>
       </c>
       <c r="B223" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C223" s="26" t="s">
-        <v>529</v>
+        <v>339</v>
       </c>
       <c r="D223" s="26"/>
       <c r="E223" s="26"/>
       <c r="F223" t="s">
-        <v>1143</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224" s="3" t="s">
-        <v>837</v>
+        <v>816</v>
       </c>
       <c r="B224" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C224" s="19" t="s">
-        <v>343</v>
-      </c>
-      <c r="D224" s="19"/>
-      <c r="E224" s="19"/>
+      <c r="C224" s="26" t="s">
+        <v>340</v>
+      </c>
+      <c r="D224" s="26"/>
+      <c r="E224" s="26"/>
       <c r="F224" t="s">
-        <v>1144</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225" s="3" t="s">
-        <v>838</v>
+        <v>817</v>
       </c>
       <c r="B225" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C225" s="19" t="s">
-        <v>350</v>
-      </c>
-      <c r="D225" s="19"/>
-      <c r="E225" s="19"/>
+      <c r="C225" s="26" t="s">
+        <v>529</v>
+      </c>
+      <c r="D225" s="26"/>
+      <c r="E225" s="26"/>
       <c r="F225" t="s">
-        <v>1145</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226" s="3" t="s">
-        <v>839</v>
+        <v>818</v>
       </c>
       <c r="B226" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C226" s="26" t="s">
-        <v>346</v>
-      </c>
-      <c r="D226" s="26"/>
-      <c r="E226" s="26"/>
+      <c r="C226" s="19" t="s">
+        <v>343</v>
+      </c>
+      <c r="D226" s="19"/>
+      <c r="E226" s="19"/>
       <c r="F226" t="s">
-        <v>1146</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227" s="3" t="s">
-        <v>840</v>
+        <v>819</v>
       </c>
       <c r="B227" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C227" s="26" t="s">
-        <v>347</v>
-      </c>
-      <c r="D227" s="26"/>
-      <c r="E227" s="26"/>
+      <c r="C227" s="19" t="s">
+        <v>350</v>
+      </c>
+      <c r="D227" s="19"/>
+      <c r="E227" s="19"/>
       <c r="F227" t="s">
-        <v>1147</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228" s="3" t="s">
-        <v>841</v>
+        <v>820</v>
       </c>
       <c r="B228" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C228" s="26" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D228" s="26"/>
       <c r="E228" s="26"/>
       <c r="F228" t="s">
-        <v>1148</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229" s="3" t="s">
-        <v>842</v>
+        <v>821</v>
       </c>
       <c r="B229" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C229" s="27" t="s">
-        <v>349</v>
-      </c>
-      <c r="D229" s="27"/>
-      <c r="E229" s="27"/>
+      <c r="C229" s="26" t="s">
+        <v>347</v>
+      </c>
+      <c r="D229" s="26"/>
+      <c r="E229" s="26"/>
       <c r="F229" t="s">
-        <v>1149</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230" s="3" t="s">
-        <v>843</v>
+        <v>822</v>
       </c>
       <c r="B230" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C230" s="26" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="D230" s="26"/>
       <c r="E230" s="26"/>
       <c r="F230" t="s">
-        <v>1150</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A231" s="3" t="s">
-        <v>844</v>
+        <v>823</v>
       </c>
       <c r="B231" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C231" s="19" t="s">
-        <v>358</v>
-      </c>
-      <c r="D231" s="19"/>
-      <c r="E231" s="19"/>
+      <c r="C231" s="27" t="s">
+        <v>349</v>
+      </c>
+      <c r="D231" s="27"/>
+      <c r="E231" s="27"/>
       <c r="F231" t="s">
-        <v>1151</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232" s="3" t="s">
-        <v>845</v>
+        <v>824</v>
       </c>
       <c r="B232" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C232" s="26" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D232" s="26"/>
       <c r="E232" s="26"/>
       <c r="F232" t="s">
-        <v>1152</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233" s="3" t="s">
-        <v>846</v>
+        <v>825</v>
       </c>
       <c r="B233" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C233" s="26" t="s">
-        <v>360</v>
-      </c>
-      <c r="D233" s="26"/>
-      <c r="E233" s="26"/>
+      <c r="C233" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="D233" s="19"/>
+      <c r="E233" s="19"/>
       <c r="F233" t="s">
-        <v>1153</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234" s="3" t="s">
-        <v>847</v>
+        <v>826</v>
       </c>
       <c r="B234" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C234" s="19" t="s">
-        <v>365</v>
-      </c>
-      <c r="D234" s="19"/>
-      <c r="E234" s="19"/>
+      <c r="C234" s="26" t="s">
+        <v>359</v>
+      </c>
+      <c r="D234" s="26"/>
+      <c r="E234" s="26"/>
       <c r="F234" t="s">
-        <v>1154</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A235" s="3" t="s">
-        <v>848</v>
+        <v>827</v>
       </c>
       <c r="B235" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C235" s="26" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="D235" s="26"/>
       <c r="E235" s="26"/>
       <c r="F235" t="s">
-        <v>1155</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A236" s="3" t="s">
-        <v>849</v>
+        <v>828</v>
       </c>
       <c r="B236" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C236" s="26" t="s">
-        <v>367</v>
-      </c>
-      <c r="D236" s="26"/>
-      <c r="E236" s="26"/>
+      <c r="C236" s="19" t="s">
+        <v>365</v>
+      </c>
+      <c r="D236" s="19"/>
+      <c r="E236" s="19"/>
       <c r="F236" t="s">
-        <v>1156</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A237" s="3" t="s">
-        <v>850</v>
+        <v>829</v>
       </c>
       <c r="B237" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C237" s="26" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D237" s="26"/>
       <c r="E237" s="26"/>
       <c r="F237" t="s">
-        <v>1157</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238" s="3" t="s">
-        <v>851</v>
+        <v>830</v>
       </c>
       <c r="B238" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C238" s="26" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D238" s="26"/>
       <c r="E238" s="26"/>
       <c r="F238" t="s">
-        <v>1158</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239" s="3" t="s">
-        <v>852</v>
+        <v>831</v>
       </c>
       <c r="B239" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C239" s="26" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D239" s="26"/>
       <c r="E239" s="26"/>
       <c r="F239" t="s">
-        <v>1159</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A240" s="3" t="s">
-        <v>853</v>
+        <v>832</v>
       </c>
       <c r="B240" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C240" s="26" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D240" s="26"/>
       <c r="E240" s="26"/>
       <c r="F240" t="s">
-        <v>1160</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241" s="3" t="s">
-        <v>854</v>
+        <v>833</v>
       </c>
       <c r="B241" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C241" s="26" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D241" s="26"/>
       <c r="E241" s="26"/>
       <c r="F241" t="s">
-        <v>1161</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A242" s="3" t="s">
-        <v>855</v>
+        <v>834</v>
       </c>
       <c r="B242" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C242" s="26" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D242" s="26"/>
       <c r="E242" s="26"/>
       <c r="F242" t="s">
-        <v>1162</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A243" s="3" t="s">
-        <v>856</v>
+        <v>835</v>
       </c>
       <c r="B243" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C243" s="19" t="s">
-        <v>374</v>
-      </c>
-      <c r="D243" s="19"/>
-      <c r="E243" s="19"/>
+      <c r="C243" s="26" t="s">
+        <v>372</v>
+      </c>
+      <c r="D243" s="26"/>
+      <c r="E243" s="26"/>
       <c r="F243" t="s">
-        <v>1163</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A244" s="3" t="s">
-        <v>857</v>
+        <v>836</v>
       </c>
       <c r="B244" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C244" s="26" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="D244" s="26"/>
       <c r="E244" s="26"/>
       <c r="F244" t="s">
-        <v>1164</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245" s="3" t="s">
-        <v>858</v>
+        <v>837</v>
       </c>
       <c r="B245" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C245" s="19" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="D245" s="19"/>
       <c r="E245" s="19"/>
       <c r="F245" t="s">
-        <v>1165</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A246" s="3" t="s">
-        <v>859</v>
+        <v>838</v>
       </c>
       <c r="B246" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C246" s="26" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="D246" s="26"/>
       <c r="E246" s="26"/>
-      <c r="F246" s="6" t="s">
-        <v>1166</v>
+      <c r="F246" t="s">
+        <v>1145</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A247" s="3" t="s">
-        <v>860</v>
+        <v>839</v>
       </c>
       <c r="B247" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C247" s="27" t="s">
-        <v>395</v>
-      </c>
-      <c r="D247" s="27"/>
-      <c r="E247" s="27"/>
+      <c r="C247" s="19" t="s">
+        <v>387</v>
+      </c>
+      <c r="D247" s="19"/>
+      <c r="E247" s="19"/>
       <c r="F247" t="s">
-        <v>1167</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A248" s="3" t="s">
-        <v>861</v>
+        <v>840</v>
       </c>
       <c r="B248" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C248" s="26" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="D248" s="26"/>
       <c r="E248" s="26"/>
-      <c r="F248" t="s">
-        <v>1168</v>
+      <c r="F248" s="6" t="s">
+        <v>1147</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A249" s="3" t="s">
-        <v>862</v>
+        <v>841</v>
       </c>
       <c r="B249" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C249" s="26" t="s">
-        <v>397</v>
-      </c>
-      <c r="D249" s="26"/>
-      <c r="E249" s="26"/>
+      <c r="C249" s="27" t="s">
+        <v>395</v>
+      </c>
+      <c r="D249" s="27"/>
+      <c r="E249" s="27"/>
       <c r="F249" t="s">
-        <v>1169</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A250" s="3" t="s">
-        <v>863</v>
+        <v>842</v>
       </c>
       <c r="B250" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C250" s="26" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="D250" s="26"/>
       <c r="E250" s="26"/>
       <c r="F250" t="s">
-        <v>1170</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A251" s="3" t="s">
-        <v>864</v>
+        <v>843</v>
       </c>
       <c r="B251" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C251" s="19" t="s">
-        <v>389</v>
-      </c>
-      <c r="D251" s="19"/>
-      <c r="E251" s="19"/>
+      <c r="C251" s="26" t="s">
+        <v>397</v>
+      </c>
+      <c r="D251" s="26"/>
+      <c r="E251" s="26"/>
       <c r="F251" t="s">
-        <v>1171</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A252" s="3" t="s">
-        <v>865</v>
+        <v>844</v>
       </c>
       <c r="B252" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C252" s="27" t="s">
-        <v>401</v>
-      </c>
-      <c r="D252" s="27"/>
-      <c r="E252" s="27"/>
+      <c r="C252" s="26" t="s">
+        <v>393</v>
+      </c>
+      <c r="D252" s="26"/>
+      <c r="E252" s="26"/>
       <c r="F252" t="s">
-        <v>1172</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A253" s="3" t="s">
-        <v>866</v>
+        <v>845</v>
       </c>
       <c r="B253" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C253" s="26" t="s">
-        <v>403</v>
-      </c>
-      <c r="D253" s="26"/>
-      <c r="E253" s="26"/>
+      <c r="C253" s="19" t="s">
+        <v>389</v>
+      </c>
+      <c r="D253" s="19"/>
+      <c r="E253" s="19"/>
       <c r="F253" t="s">
-        <v>1173</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A254" s="3" t="s">
-        <v>867</v>
+        <v>846</v>
       </c>
       <c r="B254" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C254" s="19" t="s">
-        <v>405</v>
-      </c>
-      <c r="D254" s="19"/>
-      <c r="E254" s="19"/>
+      <c r="C254" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="D254" s="27"/>
+      <c r="E254" s="27"/>
       <c r="F254" t="s">
-        <v>1174</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A255" s="3" t="s">
-        <v>868</v>
+        <v>847</v>
       </c>
       <c r="B255" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C255" s="26" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D255" s="26"/>
       <c r="E255" s="26"/>
       <c r="F255" t="s">
-        <v>1175</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256" s="3" t="s">
-        <v>869</v>
+        <v>848</v>
       </c>
       <c r="B256" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C256" s="19" t="s">
-        <v>523</v>
+        <v>405</v>
       </c>
       <c r="D256" s="19"/>
       <c r="E256" s="19"/>
       <c r="F256" t="s">
-        <v>1176</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A257" s="3" t="s">
-        <v>870</v>
+        <v>849</v>
       </c>
       <c r="B257" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C257" s="27" t="s">
-        <v>407</v>
-      </c>
-      <c r="D257" s="27"/>
-      <c r="E257" s="27"/>
+      <c r="C257" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="D257" s="26"/>
+      <c r="E257" s="26"/>
       <c r="F257" t="s">
-        <v>1177</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A258" s="3" t="s">
-        <v>871</v>
+        <v>850</v>
       </c>
       <c r="B258" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C258" s="19" t="s">
-        <v>408</v>
+        <v>523</v>
       </c>
       <c r="D258" s="19"/>
       <c r="E258" s="19"/>
       <c r="F258" t="s">
-        <v>1178</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A259" s="3" t="s">
-        <v>872</v>
+        <v>851</v>
       </c>
       <c r="B259" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C259" s="26" t="s">
-        <v>409</v>
-      </c>
-      <c r="D259" s="26"/>
-      <c r="E259" s="26"/>
+      <c r="C259" s="27" t="s">
+        <v>407</v>
+      </c>
+      <c r="D259" s="27"/>
+      <c r="E259" s="27"/>
       <c r="F259" t="s">
-        <v>1179</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A260" s="3" t="s">
-        <v>873</v>
+        <v>852</v>
       </c>
       <c r="B260" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C260" s="18" t="s">
-        <v>517</v>
-      </c>
-      <c r="D260" s="18"/>
-      <c r="E260" s="18"/>
-      <c r="F260" s="6" t="s">
-        <v>1180</v>
+      <c r="C260" s="19" t="s">
+        <v>408</v>
+      </c>
+      <c r="D260" s="19"/>
+      <c r="E260" s="19"/>
+      <c r="F260" t="s">
+        <v>1159</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A261" s="3" t="s">
-        <v>874</v>
+        <v>853</v>
       </c>
       <c r="B261" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C261" s="26" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D261" s="26"/>
       <c r="E261" s="26"/>
       <c r="F261" t="s">
-        <v>1181</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A262" s="3" t="s">
-        <v>875</v>
+        <v>854</v>
       </c>
       <c r="B262" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C262" s="26" t="s">
-        <v>411</v>
-      </c>
-      <c r="D262" s="26"/>
-      <c r="E262" s="26"/>
-      <c r="F262" t="s">
-        <v>1182</v>
+      <c r="C262" s="18" t="s">
+        <v>517</v>
+      </c>
+      <c r="D262" s="18"/>
+      <c r="E262" s="18"/>
+      <c r="F262" s="6" t="s">
+        <v>1161</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A263" s="3" t="s">
-        <v>876</v>
+        <v>855</v>
       </c>
       <c r="B263" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C263" s="26" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D263" s="26"/>
       <c r="E263" s="26"/>
       <c r="F263" t="s">
-        <v>1183</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A264" s="3" t="s">
-        <v>877</v>
+        <v>856</v>
       </c>
       <c r="B264" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C264" s="26" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D264" s="26"/>
       <c r="E264" s="26"/>
       <c r="F264" t="s">
-        <v>1184</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A265" s="3" t="s">
-        <v>878</v>
+        <v>857</v>
       </c>
       <c r="B265" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C265" s="26" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D265" s="26"/>
       <c r="E265" s="26"/>
       <c r="F265" t="s">
-        <v>1185</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A266" s="3" t="s">
-        <v>879</v>
+        <v>858</v>
       </c>
       <c r="B266" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C266" s="19" t="s">
-        <v>514</v>
-      </c>
-      <c r="D266" s="19"/>
-      <c r="E266" s="19"/>
+      <c r="C266" s="26" t="s">
+        <v>413</v>
+      </c>
+      <c r="D266" s="26"/>
+      <c r="E266" s="26"/>
       <c r="F266" t="s">
-        <v>1186</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A267" s="3" t="s">
-        <v>880</v>
+        <v>859</v>
       </c>
       <c r="B267" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C267" s="19" t="s">
-        <v>513</v>
-      </c>
-      <c r="D267" s="19"/>
-      <c r="E267" s="19"/>
+      <c r="C267" s="26" t="s">
+        <v>414</v>
+      </c>
+      <c r="D267" s="26"/>
+      <c r="E267" s="26"/>
       <c r="F267" t="s">
-        <v>1187</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A268" s="3" t="s">
-        <v>881</v>
+        <v>860</v>
       </c>
       <c r="B268" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C268" s="26" t="s">
-        <v>426</v>
-      </c>
-      <c r="D268" s="26"/>
-      <c r="E268" s="26"/>
+      <c r="C268" s="19" t="s">
+        <v>514</v>
+      </c>
+      <c r="D268" s="19"/>
+      <c r="E268" s="19"/>
       <c r="F268" t="s">
-        <v>1188</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A269" s="3" t="s">
-        <v>882</v>
+        <v>861</v>
       </c>
       <c r="B269" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C269" s="26" t="s">
-        <v>425</v>
-      </c>
-      <c r="D269" s="26"/>
-      <c r="E269" s="26"/>
-      <c r="F269" s="6" t="s">
-        <v>1189</v>
+      <c r="C269" s="19" t="s">
+        <v>513</v>
+      </c>
+      <c r="D269" s="19"/>
+      <c r="E269" s="19"/>
+      <c r="F269" t="s">
+        <v>1168</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A270" s="3" t="s">
-        <v>883</v>
+        <v>862</v>
       </c>
       <c r="B270" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C270" s="26" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="D270" s="26"/>
       <c r="E270" s="26"/>
-      <c r="F270" s="6" t="s">
-        <v>1190</v>
+      <c r="F270" t="s">
+        <v>1169</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A271" s="3" t="s">
-        <v>884</v>
+        <v>863</v>
       </c>
       <c r="B271" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C271" s="19" t="s">
-        <v>511</v>
-      </c>
-      <c r="D271" s="19"/>
-      <c r="E271" s="19"/>
-      <c r="F271" t="s">
-        <v>1191</v>
+      <c r="C271" s="26" t="s">
+        <v>425</v>
+      </c>
+      <c r="D271" s="26"/>
+      <c r="E271" s="26"/>
+      <c r="F271" s="6" t="s">
+        <v>1170</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A272" s="3" t="s">
-        <v>885</v>
+        <v>864</v>
       </c>
       <c r="B272" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C272" s="26" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D272" s="26"/>
       <c r="E272" s="26"/>
-      <c r="F272" t="s">
-        <v>1192</v>
+      <c r="F272" s="6" t="s">
+        <v>1171</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A273" s="3" t="s">
-        <v>886</v>
+        <v>865</v>
       </c>
       <c r="B273" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C273" s="18" t="s">
-        <v>427</v>
-      </c>
-      <c r="D273" s="18"/>
-      <c r="E273" s="18"/>
+      <c r="C273" s="19" t="s">
+        <v>511</v>
+      </c>
+      <c r="D273" s="19"/>
+      <c r="E273" s="19"/>
       <c r="F273" t="s">
-        <v>1193</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A274" s="3" t="s">
-        <v>887</v>
+        <v>866</v>
       </c>
       <c r="B274" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C274" s="19" t="s">
-        <v>428</v>
-      </c>
-      <c r="D274" s="19"/>
-      <c r="E274" s="19"/>
+      <c r="C274" s="26" t="s">
+        <v>430</v>
+      </c>
+      <c r="D274" s="26"/>
+      <c r="E274" s="26"/>
       <c r="F274" t="s">
-        <v>1194</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A275" s="3" t="s">
-        <v>888</v>
+        <v>867</v>
       </c>
       <c r="B275" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C275" s="19" t="s">
-        <v>432</v>
-      </c>
-      <c r="D275" s="19"/>
-      <c r="E275" s="19"/>
+      <c r="C275" s="18" t="s">
+        <v>427</v>
+      </c>
+      <c r="D275" s="18"/>
+      <c r="E275" s="18"/>
       <c r="F275" t="s">
-        <v>1195</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A276" s="3" t="s">
-        <v>889</v>
+        <v>868</v>
       </c>
       <c r="B276" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C276" s="19" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="D276" s="19"/>
       <c r="E276" s="19"/>
       <c r="F276" t="s">
-        <v>1196</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A277" s="3" t="s">
-        <v>890</v>
+        <v>869</v>
       </c>
       <c r="B277" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C277" s="26" t="s">
-        <v>433</v>
-      </c>
-      <c r="D277" s="26"/>
-      <c r="E277" s="26"/>
-      <c r="F277" s="6" t="s">
-        <v>1197</v>
+      <c r="C277" s="19" t="s">
+        <v>432</v>
+      </c>
+      <c r="D277" s="19"/>
+      <c r="E277" s="19"/>
+      <c r="F277" t="s">
+        <v>1176</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A278" s="3" t="s">
-        <v>891</v>
+        <v>870</v>
       </c>
       <c r="B278" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C278" s="27" t="s">
-        <v>434</v>
-      </c>
-      <c r="D278" s="27"/>
-      <c r="E278" s="27"/>
+      <c r="C278" s="19" t="s">
+        <v>431</v>
+      </c>
+      <c r="D278" s="19"/>
+      <c r="E278" s="19"/>
       <c r="F278" t="s">
-        <v>1198</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A279" s="3" t="s">
-        <v>892</v>
+        <v>871</v>
       </c>
       <c r="B279" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C279" s="19" t="s">
-        <v>435</v>
-      </c>
-      <c r="D279" s="19"/>
-      <c r="E279" s="19"/>
-      <c r="F279" t="s">
-        <v>1199</v>
+      <c r="C279" s="26" t="s">
+        <v>433</v>
+      </c>
+      <c r="D279" s="26"/>
+      <c r="E279" s="26"/>
+      <c r="F279" s="6" t="s">
+        <v>1178</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A280" s="3" t="s">
-        <v>893</v>
+        <v>872</v>
       </c>
       <c r="B280" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C280" s="19" t="s">
-        <v>436</v>
-      </c>
-      <c r="D280" s="19"/>
-      <c r="E280" s="19"/>
+      <c r="C280" s="27" t="s">
+        <v>434</v>
+      </c>
+      <c r="D280" s="27"/>
+      <c r="E280" s="27"/>
       <c r="F280" t="s">
-        <v>1200</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A281" s="3" t="s">
-        <v>894</v>
+        <v>873</v>
       </c>
       <c r="B281" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C281" s="19" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D281" s="19"/>
       <c r="E281" s="19"/>
       <c r="F281" t="s">
-        <v>1201</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A282" s="3" t="s">
-        <v>895</v>
+        <v>874</v>
       </c>
       <c r="B282" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C282" s="27" t="s">
-        <v>438</v>
-      </c>
-      <c r="D282" s="27"/>
-      <c r="E282" s="27"/>
+      <c r="C282" s="19" t="s">
+        <v>436</v>
+      </c>
+      <c r="D282" s="19"/>
+      <c r="E282" s="19"/>
       <c r="F282" t="s">
-        <v>1202</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A283" s="3" t="s">
-        <v>896</v>
+        <v>875</v>
       </c>
       <c r="B283" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C283" s="26" t="s">
-        <v>509</v>
-      </c>
-      <c r="D283" s="26"/>
-      <c r="E283" s="26"/>
+      <c r="C283" s="19" t="s">
+        <v>437</v>
+      </c>
+      <c r="D283" s="19"/>
+      <c r="E283" s="19"/>
       <c r="F283" t="s">
-        <v>1203</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A284" s="3" t="s">
-        <v>897</v>
+        <v>876</v>
       </c>
       <c r="B284" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C284" s="26" t="s">
-        <v>439</v>
-      </c>
-      <c r="D284" s="26"/>
-      <c r="E284" s="26"/>
+      <c r="C284" s="27" t="s">
+        <v>438</v>
+      </c>
+      <c r="D284" s="27"/>
+      <c r="E284" s="27"/>
       <c r="F284" t="s">
-        <v>1204</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A285" s="3" t="s">
-        <v>898</v>
+        <v>877</v>
       </c>
       <c r="B285" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C285" s="19" t="s">
-        <v>455</v>
-      </c>
-      <c r="D285" s="19"/>
-      <c r="E285" s="19"/>
+      <c r="C285" s="26" t="s">
+        <v>509</v>
+      </c>
+      <c r="D285" s="26"/>
+      <c r="E285" s="26"/>
       <c r="F285" t="s">
-        <v>1205</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A286" s="3" t="s">
-        <v>899</v>
+        <v>878</v>
       </c>
       <c r="B286" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C286" s="19" t="s">
-        <v>456</v>
-      </c>
-      <c r="D286" s="19"/>
-      <c r="E286" s="19"/>
+      <c r="C286" s="26" t="s">
+        <v>439</v>
+      </c>
+      <c r="D286" s="26"/>
+      <c r="E286" s="26"/>
       <c r="F286" t="s">
-        <v>1206</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A287" s="3" t="s">
-        <v>900</v>
+        <v>879</v>
       </c>
       <c r="B287" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C287" s="26" t="s">
-        <v>457</v>
-      </c>
-      <c r="D287" s="26"/>
-      <c r="E287" s="26"/>
+      <c r="C287" s="19" t="s">
+        <v>455</v>
+      </c>
+      <c r="D287" s="19"/>
+      <c r="E287" s="19"/>
       <c r="F287" t="s">
-        <v>1207</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A288" s="3" t="s">
-        <v>901</v>
+        <v>880</v>
       </c>
       <c r="B288" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C288" s="19" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D288" s="19"/>
       <c r="E288" s="19"/>
       <c r="F288" t="s">
-        <v>1208</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A289" s="3" t="s">
-        <v>902</v>
+        <v>881</v>
       </c>
       <c r="B289" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C289" s="19" t="s">
-        <v>459</v>
-      </c>
-      <c r="D289" s="19"/>
-      <c r="E289" s="19"/>
+      <c r="C289" s="26" t="s">
+        <v>457</v>
+      </c>
+      <c r="D289" s="26"/>
+      <c r="E289" s="26"/>
       <c r="F289" t="s">
-        <v>1209</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A290" s="3" t="s">
-        <v>903</v>
+        <v>882</v>
       </c>
       <c r="B290" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C290" s="19" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="D290" s="19"/>
       <c r="E290" s="19"/>
       <c r="F290" t="s">
-        <v>1210</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A291" s="3" t="s">
-        <v>904</v>
+        <v>883</v>
       </c>
       <c r="B291" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C291" s="19" t="s">
-        <v>505</v>
+        <v>459</v>
       </c>
       <c r="D291" s="19"/>
       <c r="E291" s="19"/>
       <c r="F291" t="s">
-        <v>1211</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A292" s="3" t="s">
-        <v>905</v>
+        <v>884</v>
       </c>
       <c r="B292" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C292" s="26" t="s">
-        <v>460</v>
-      </c>
-      <c r="D292" s="26"/>
-      <c r="E292" s="26"/>
+      <c r="C292" s="19" t="s">
+        <v>461</v>
+      </c>
+      <c r="D292" s="19"/>
+      <c r="E292" s="19"/>
       <c r="F292" t="s">
-        <v>1212</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A293" s="3" t="s">
-        <v>906</v>
+        <v>885</v>
       </c>
       <c r="B293" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C293" s="26" t="s">
-        <v>462</v>
-      </c>
-      <c r="D293" s="26"/>
-      <c r="E293" s="26"/>
+      <c r="C293" s="19" t="s">
+        <v>505</v>
+      </c>
+      <c r="D293" s="19"/>
+      <c r="E293" s="19"/>
       <c r="F293" t="s">
-        <v>1213</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A294" s="3" t="s">
-        <v>907</v>
+        <v>886</v>
       </c>
       <c r="B294" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C294" s="26" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="D294" s="26"/>
       <c r="E294" s="26"/>
       <c r="F294" t="s">
-        <v>1214</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A295" s="3" t="s">
-        <v>908</v>
+        <v>887</v>
       </c>
       <c r="B295" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C295" s="26" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D295" s="26"/>
       <c r="E295" s="26"/>
       <c r="F295" t="s">
-        <v>1215</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A296" s="3" t="s">
-        <v>909</v>
+        <v>888</v>
       </c>
       <c r="B296" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C296" s="26" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D296" s="26"/>
       <c r="E296" s="26"/>
       <c r="F296" t="s">
-        <v>1216</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A297" s="3" t="s">
-        <v>910</v>
+        <v>889</v>
       </c>
       <c r="B297" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C297" s="26" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D297" s="26"/>
       <c r="E297" s="26"/>
       <c r="F297" t="s">
-        <v>1217</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A298" s="3" t="s">
-        <v>911</v>
+        <v>890</v>
       </c>
       <c r="B298" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C298" s="26" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D298" s="26"/>
       <c r="E298" s="26"/>
-      <c r="F298" s="19" t="s">
-        <v>1218</v>
+      <c r="F298" t="s">
+        <v>1197</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A299" s="3" t="s">
-        <v>912</v>
+        <v>891</v>
       </c>
       <c r="B299" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C299" s="26" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D299" s="26"/>
       <c r="E299" s="26"/>
       <c r="F299" t="s">
-        <v>1219</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A300" s="3" t="s">
-        <v>913</v>
+        <v>892</v>
       </c>
       <c r="B300" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C300" s="26" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D300" s="26"/>
       <c r="E300" s="26"/>
-      <c r="F300" t="s">
-        <v>1220</v>
+      <c r="F300" s="19" t="s">
+        <v>1199</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A301" s="3" t="s">
-        <v>914</v>
+        <v>893</v>
       </c>
       <c r="B301" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C301" s="27" t="s">
-        <v>485</v>
-      </c>
-      <c r="D301" s="27"/>
-      <c r="E301" s="27"/>
+      <c r="C301" s="26" t="s">
+        <v>468</v>
+      </c>
+      <c r="D301" s="26"/>
+      <c r="E301" s="26"/>
       <c r="F301" t="s">
-        <v>1221</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A302" s="3" t="s">
-        <v>915</v>
+        <v>894</v>
       </c>
       <c r="B302" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C302" s="26" t="s">
-        <v>486</v>
+        <v>469</v>
       </c>
       <c r="D302" s="26"/>
       <c r="E302" s="26"/>
       <c r="F302" t="s">
-        <v>1222</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A303" s="3" t="s">
-        <v>916</v>
+        <v>895</v>
       </c>
       <c r="B303" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C303" s="19" t="s">
-        <v>487</v>
-      </c>
-      <c r="D303" s="19"/>
-      <c r="E303" s="19"/>
+      <c r="C303" s="27" t="s">
+        <v>485</v>
+      </c>
+      <c r="D303" s="27"/>
+      <c r="E303" s="27"/>
       <c r="F303" t="s">
-        <v>1223</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A304" s="3" t="s">
-        <v>917</v>
+        <v>896</v>
       </c>
       <c r="B304" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C304" s="19" t="s">
-        <v>488</v>
-      </c>
-      <c r="D304" s="19"/>
-      <c r="E304" s="19"/>
+      <c r="C304" s="26" t="s">
+        <v>486</v>
+      </c>
+      <c r="D304" s="26"/>
+      <c r="E304" s="26"/>
       <c r="F304" t="s">
-        <v>1224</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A305" s="3" t="s">
-        <v>918</v>
+        <v>897</v>
       </c>
       <c r="B305" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C305" s="19" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D305" s="19"/>
       <c r="E305" s="19"/>
       <c r="F305" t="s">
-        <v>1225</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A306" s="3" t="s">
-        <v>919</v>
+        <v>898</v>
       </c>
       <c r="B306" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C306" s="19" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D306" s="19"/>
       <c r="E306" s="19"/>
       <c r="F306" t="s">
-        <v>1226</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A307" s="3" t="s">
-        <v>920</v>
+        <v>899</v>
       </c>
       <c r="B307" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C307" s="26" t="s">
-        <v>507</v>
-      </c>
-      <c r="D307" s="26"/>
-      <c r="E307" s="26"/>
+      <c r="C307" s="19" t="s">
+        <v>489</v>
+      </c>
+      <c r="D307" s="19"/>
+      <c r="E307" s="19"/>
       <c r="F307" t="s">
-        <v>1227</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A308" s="3" t="s">
-        <v>921</v>
+        <v>900</v>
       </c>
       <c r="B308" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C308" s="19" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="D308" s="19"/>
       <c r="E308" s="19"/>
       <c r="F308" t="s">
-        <v>1228</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A309" s="3" t="s">
-        <v>922</v>
+        <v>901</v>
       </c>
       <c r="B309" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C309" s="19" t="s">
-        <v>499</v>
-      </c>
-      <c r="D309" s="19"/>
-      <c r="E309" s="19"/>
+      <c r="C309" s="26" t="s">
+        <v>507</v>
+      </c>
+      <c r="D309" s="26"/>
+      <c r="E309" s="26"/>
       <c r="F309" t="s">
-        <v>1229</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A310" s="3" t="s">
-        <v>923</v>
+        <v>902</v>
       </c>
       <c r="B310" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C310" s="18" t="s">
-        <v>501</v>
-      </c>
-      <c r="D310" s="18"/>
-      <c r="E310" s="18"/>
-      <c r="F310" s="6" t="s">
-        <v>1230</v>
+      <c r="C310" s="19" t="s">
+        <v>497</v>
+      </c>
+      <c r="D310" s="19"/>
+      <c r="E310" s="19"/>
+      <c r="F310" t="s">
+        <v>1209</v>
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A311" s="3" t="s">
-        <v>924</v>
+        <v>903</v>
       </c>
       <c r="B311" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C311" s="27" t="s">
+      <c r="C311" s="19" t="s">
+        <v>499</v>
+      </c>
+      <c r="D311" s="19"/>
+      <c r="E311" s="19"/>
+      <c r="F311" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A312" s="3" t="s">
+        <v>904</v>
+      </c>
+      <c r="B312" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C312" s="18" t="s">
+        <v>501</v>
+      </c>
+      <c r="D312" s="18"/>
+      <c r="E312" s="18"/>
+      <c r="F312" s="6" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A313" s="3" t="s">
+        <v>905</v>
+      </c>
+      <c r="B313" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C313" s="27" t="s">
         <v>503</v>
       </c>
-      <c r="D311" s="27"/>
-      <c r="E311" s="27"/>
-      <c r="F311" s="6" t="s">
-        <v>1231</v>
+      <c r="D313" s="27"/>
+      <c r="E313" s="27"/>
+      <c r="F313" s="6" t="s">
+        <v>1212</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F313" xr:uid="{B8FBB380-25CE-48E1-8B68-143CBA8DEA45}"/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/slackbuilds/sb_migr.xlsx
+++ b/slackbuilds/sb_migr.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\projects.new\sh\cvstogit\slackbuilds\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{766D0000-F104-48DD-8078-A59B5852C9B6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24AECDCE-346C-4634-A9E4-C2089EEE888F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">List!$A$1:$G$311</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Revisions!$A$1:$F$313</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Revisions!$A$1:$F$316</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1917" uniqueCount="1265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1933" uniqueCount="1269">
   <si>
     <t>Package</t>
   </si>
@@ -1942,12 +1942,6 @@
     <t>SLACK-10_2</t>
   </si>
   <si>
-    <t>2006-10-22 14:09:19</t>
-  </si>
-  <si>
-    <t>2006-10-31 23:18:27</t>
-  </si>
-  <si>
     <t>2006-11-02 22:21:49</t>
   </si>
   <si>
@@ -3833,6 +3827,24 @@
   </si>
   <si>
     <t>main</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>2006-10-12 22:24:54 +0300</t>
+  </si>
+  <si>
+    <t>2006-10-16 22:07:13 +0300</t>
+  </si>
+  <si>
+    <t>2006-10-21 22:04:16 +0300</t>
+  </si>
+  <si>
+    <t>2006-10-22 14:09:19 +0300</t>
+  </si>
+  <si>
+    <t>2006-10-31 23:18:27 +0200</t>
   </si>
 </sst>
 </file>
@@ -3896,18 +3908,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -3940,7 +3946,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -3992,9 +3998,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Нормален" xfId="0" builtinId="0"/>
@@ -8755,7 +8762,7 @@
         <v>147</v>
       </c>
       <c r="F194" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="G194" s="13">
         <v>43875</v>
@@ -11492,10 +11499,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{495E7B31-8439-4BBC-8206-DAF1FFDAE945}">
-  <dimension ref="A1:F313"/>
+  <dimension ref="A1:F316"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11530,7 +11537,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="28" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="B2" t="s">
         <v>628</v>
@@ -11544,7 +11551,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>627</v>
@@ -11557,12 +11564,12 @@
       </c>
       <c r="E3" s="19"/>
       <c r="F3" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>627</v>
@@ -11575,12 +11582,12 @@
       </c>
       <c r="E4" s="19"/>
       <c r="F4" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>627</v>
@@ -11593,12 +11600,12 @@
       </c>
       <c r="E5" s="19"/>
       <c r="F5" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>627</v>
@@ -11611,12 +11618,12 @@
       </c>
       <c r="E6" s="19"/>
       <c r="F6" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>627</v>
@@ -11629,12 +11636,12 @@
       </c>
       <c r="E7" s="19"/>
       <c r="F7" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>627</v>
@@ -11647,12 +11654,12 @@
       </c>
       <c r="E8" s="26"/>
       <c r="F8" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>627</v>
@@ -11665,12 +11672,12 @@
       </c>
       <c r="E9" s="19"/>
       <c r="F9" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>627</v>
@@ -11683,12 +11690,12 @@
       </c>
       <c r="E10" s="19"/>
       <c r="F10" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>627</v>
@@ -11701,12 +11708,12 @@
       </c>
       <c r="E11" s="19"/>
       <c r="F11" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>627</v>
@@ -11719,12 +11726,12 @@
       </c>
       <c r="E12" s="19"/>
       <c r="F12" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>627</v>
@@ -11737,12 +11744,12 @@
       </c>
       <c r="E13" s="18"/>
       <c r="F13" s="6" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>627</v>
@@ -11755,12 +11762,12 @@
       </c>
       <c r="E14" s="18"/>
       <c r="F14" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>627</v>
@@ -11773,12 +11780,12 @@
       </c>
       <c r="E15" s="19"/>
       <c r="F15" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>627</v>
@@ -11791,12 +11798,12 @@
       </c>
       <c r="E16" s="19"/>
       <c r="F16" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>627</v>
@@ -11809,12 +11816,12 @@
       </c>
       <c r="E17" s="19"/>
       <c r="F17" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>627</v>
@@ -11827,12 +11834,12 @@
       </c>
       <c r="E18" s="19"/>
       <c r="F18" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>627</v>
@@ -11845,30 +11852,30 @@
       </c>
       <c r="E19" s="19"/>
       <c r="F19" s="19" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>628</v>
       </c>
-      <c r="C20" s="32" t="s">
-        <v>906</v>
+      <c r="C20" s="31" t="s">
+        <v>904</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="F20" s="19"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>627</v>
@@ -11881,12 +11888,12 @@
       </c>
       <c r="E21" s="19"/>
       <c r="F21" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>627</v>
@@ -11899,12 +11906,12 @@
       </c>
       <c r="E22" s="19"/>
       <c r="F22" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>627</v>
@@ -11917,12 +11924,12 @@
       </c>
       <c r="E23" s="18"/>
       <c r="F23" s="6" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>627</v>
@@ -11935,30 +11942,30 @@
       </c>
       <c r="E24" s="18"/>
       <c r="F24" s="6" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C25" s="32" t="s">
-        <v>1243</v>
+      <c r="C25" s="31" t="s">
+        <v>1241</v>
       </c>
       <c r="D25" s="18" t="s">
         <v>633</v>
       </c>
       <c r="E25" s="19"/>
       <c r="F25" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>627</v>
@@ -11971,12 +11978,12 @@
       </c>
       <c r="E26" s="19"/>
       <c r="F26" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>627</v>
@@ -11989,48 +11996,48 @@
       </c>
       <c r="E27" s="26"/>
       <c r="F27" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C28" s="32" t="s">
-        <v>1255</v>
+      <c r="C28" s="31" t="s">
+        <v>1253</v>
       </c>
       <c r="D28" s="18" t="s">
         <v>633</v>
       </c>
       <c r="E28" s="19"/>
       <c r="F28" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C29" s="32" t="s">
-        <v>1256</v>
+      <c r="C29" s="31" t="s">
+        <v>1254</v>
       </c>
       <c r="D29" s="18" t="s">
         <v>633</v>
       </c>
       <c r="E29" s="19"/>
       <c r="F29" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>627</v>
@@ -12043,12 +12050,12 @@
       </c>
       <c r="E30" s="19"/>
       <c r="F30" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>627</v>
@@ -12061,12 +12068,12 @@
       </c>
       <c r="E31" s="19"/>
       <c r="F31" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>627</v>
@@ -12079,12 +12086,12 @@
       </c>
       <c r="E32" s="19"/>
       <c r="F32" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>627</v>
@@ -12097,30 +12104,30 @@
       </c>
       <c r="E33" s="18"/>
       <c r="F33" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C34" s="32" t="s">
-        <v>1257</v>
+      <c r="C34" s="31" t="s">
+        <v>1255</v>
       </c>
       <c r="D34" s="18" t="s">
         <v>633</v>
       </c>
       <c r="E34" s="19"/>
       <c r="F34" s="19" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>627</v>
@@ -12133,12 +12140,12 @@
       </c>
       <c r="E35" s="19"/>
       <c r="F35" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>627</v>
@@ -12151,12 +12158,12 @@
       </c>
       <c r="E36" s="19"/>
       <c r="F36" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>627</v>
@@ -12169,12 +12176,12 @@
       </c>
       <c r="E37" s="19"/>
       <c r="F37" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>627</v>
@@ -12187,12 +12194,12 @@
       </c>
       <c r="E38" s="19"/>
       <c r="F38" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>627</v>
@@ -12205,4398 +12212,4454 @@
       </c>
       <c r="E39" s="19"/>
       <c r="F39" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>628</v>
       </c>
       <c r="C40" s="19" t="s">
-        <v>1261</v>
-      </c>
-      <c r="D40" s="18" t="s">
         <v>1259</v>
       </c>
+      <c r="D40" s="34" t="s">
+        <v>1257</v>
+      </c>
       <c r="E40" s="19" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="33" t="s">
+      <c r="A41" s="32" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B41" s="32" t="s">
         <v>1258</v>
-      </c>
-      <c r="B41" s="33" t="s">
-        <v>1260</v>
       </c>
       <c r="C41" s="19" t="s">
         <v>18</v>
       </c>
       <c r="D41" s="18" t="s">
-        <v>1259</v>
+        <v>1263</v>
       </c>
       <c r="E41" s="19"/>
       <c r="F41" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="31" t="s">
-        <v>634</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>627</v>
-      </c>
-      <c r="C42" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="D42" s="18"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="6" t="s">
-        <v>942</v>
+      <c r="A42" s="32" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B42" s="32" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C42" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D42" s="18" t="s">
+        <v>1263</v>
+      </c>
+      <c r="E42" s="19"/>
+      <c r="F42" t="s">
+        <v>1212</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="3" t="s">
-        <v>635</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>627</v>
+      <c r="A43" s="32" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B43" s="32" t="s">
+        <v>1258</v>
       </c>
       <c r="C43" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="D43" s="19"/>
+        <v>1241</v>
+      </c>
+      <c r="D43" s="18" t="s">
+        <v>1263</v>
+      </c>
       <c r="E43" s="19"/>
       <c r="F43" t="s">
-        <v>943</v>
+        <v>926</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="3" t="s">
-        <v>636</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>627</v>
-      </c>
-      <c r="C44" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18"/>
+      <c r="A44" s="32" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B44" s="32" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C44" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D44" s="18" t="s">
+        <v>1263</v>
+      </c>
+      <c r="E44" s="19"/>
       <c r="F44" t="s">
-        <v>944</v>
+        <v>906</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="3" t="s">
-        <v>637</v>
+      <c r="A45" s="33" t="s">
+        <v>1267</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C45" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="D45" s="19"/>
-      <c r="E45" s="19"/>
-      <c r="F45" t="s">
-        <v>945</v>
+      <c r="C45" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D45" s="18" t="s">
+        <v>1257</v>
+      </c>
+      <c r="E45" s="18"/>
+      <c r="F45" s="6" t="s">
+        <v>940</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>638</v>
+        <v>1268</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C46" s="19" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D46" s="19"/>
       <c r="E46" s="19"/>
       <c r="F46" t="s">
-        <v>946</v>
+        <v>941</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C47" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="D47" s="19"/>
-      <c r="E47" s="19"/>
+      <c r="C47" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D47" s="18"/>
+      <c r="E47" s="18"/>
       <c r="F47" t="s">
-        <v>947</v>
+        <v>942</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C48" s="19" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="D48" s="19"/>
       <c r="E48" s="19"/>
       <c r="F48" t="s">
-        <v>948</v>
+        <v>943</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C49" s="19" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="D49" s="19"/>
       <c r="E49" s="19"/>
       <c r="F49" t="s">
-        <v>949</v>
+        <v>944</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C50" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="D50" s="18"/>
-      <c r="E50" s="18"/>
-      <c r="F50" s="6" t="s">
-        <v>950</v>
+      <c r="C50" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D50" s="19"/>
+      <c r="E50" s="19"/>
+      <c r="F50" t="s">
+        <v>945</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C51" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="D51" s="18"/>
-      <c r="E51" s="18"/>
+      <c r="C51" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D51" s="19"/>
+      <c r="E51" s="19"/>
       <c r="F51" t="s">
-        <v>951</v>
+        <v>946</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C52" s="19" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D52" s="19"/>
       <c r="E52" s="19"/>
       <c r="F52" t="s">
-        <v>952</v>
+        <v>947</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C53" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="D53" s="19"/>
-      <c r="E53" s="19"/>
-      <c r="F53" t="s">
-        <v>953</v>
+      <c r="C53" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="D53" s="18"/>
+      <c r="E53" s="18"/>
+      <c r="F53" s="6" t="s">
+        <v>948</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C54" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="D54" s="19"/>
-      <c r="E54" s="19"/>
+      <c r="C54" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D54" s="18"/>
+      <c r="E54" s="18"/>
       <c r="F54" t="s">
-        <v>954</v>
+        <v>949</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C55" s="19" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D55" s="19"/>
       <c r="E55" s="19"/>
       <c r="F55" t="s">
-        <v>955</v>
+        <v>950</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C56" s="19" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D56" s="19"/>
       <c r="E56" s="19"/>
       <c r="F56" t="s">
-        <v>956</v>
+        <v>951</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C57" s="19" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="D57" s="19"/>
       <c r="E57" s="19"/>
       <c r="F57" t="s">
-        <v>957</v>
+        <v>952</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C58" s="19" t="s">
-        <v>122</v>
+        <v>73</v>
       </c>
       <c r="D58" s="19"/>
       <c r="E58" s="19"/>
       <c r="F58" t="s">
-        <v>958</v>
+        <v>953</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C59" s="19" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D59" s="19"/>
       <c r="E59" s="19"/>
       <c r="F59" t="s">
-        <v>959</v>
+        <v>954</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C60" s="19" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="D60" s="19"/>
       <c r="E60" s="19"/>
       <c r="F60" t="s">
-        <v>960</v>
+        <v>955</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C61" s="19" t="s">
-        <v>84</v>
+        <v>122</v>
       </c>
       <c r="D61" s="19"/>
       <c r="E61" s="19"/>
       <c r="F61" t="s">
-        <v>961</v>
+        <v>956</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C62" s="26" t="s">
-        <v>542</v>
-      </c>
-      <c r="D62" s="26"/>
-      <c r="E62" s="26"/>
+      <c r="C62" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="D62" s="19"/>
+      <c r="E62" s="19"/>
       <c r="F62" t="s">
-        <v>962</v>
+        <v>957</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C63" s="19" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="D63" s="19"/>
       <c r="E63" s="19"/>
       <c r="F63" t="s">
-        <v>963</v>
+        <v>958</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C64" s="26" t="s">
-        <v>543</v>
-      </c>
-      <c r="D64" s="26"/>
-      <c r="E64" s="26"/>
+      <c r="C64" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D64" s="19"/>
+      <c r="E64" s="19"/>
       <c r="F64" t="s">
-        <v>964</v>
+        <v>959</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C65" s="26" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="D65" s="26"/>
       <c r="E65" s="26"/>
       <c r="F65" t="s">
-        <v>965</v>
+        <v>960</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C66" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D66" s="19"/>
       <c r="E66" s="19"/>
       <c r="F66" t="s">
-        <v>966</v>
+        <v>961</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C67" s="18" t="s">
-        <v>548</v>
-      </c>
-      <c r="D67" s="18"/>
-      <c r="E67" s="18"/>
-      <c r="F67" s="6" t="s">
-        <v>967</v>
+      <c r="C67" s="26" t="s">
+        <v>543</v>
+      </c>
+      <c r="D67" s="26"/>
+      <c r="E67" s="26"/>
+      <c r="F67" t="s">
+        <v>962</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C68" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="D68" s="19"/>
-      <c r="E68" s="19"/>
+      <c r="C68" s="26" t="s">
+        <v>547</v>
+      </c>
+      <c r="D68" s="26"/>
+      <c r="E68" s="26"/>
       <c r="F68" t="s">
-        <v>968</v>
+        <v>963</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C69" s="19" t="s">
-        <v>550</v>
+        <v>87</v>
       </c>
       <c r="D69" s="19"/>
       <c r="E69" s="19"/>
       <c r="F69" t="s">
-        <v>969</v>
+        <v>964</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C70" s="18" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D70" s="18"/>
       <c r="E70" s="18"/>
       <c r="F70" s="6" t="s">
-        <v>970</v>
+        <v>965</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C71" s="19" t="s">
-        <v>551</v>
+        <v>88</v>
       </c>
       <c r="D71" s="19"/>
       <c r="E71" s="19"/>
       <c r="F71" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C72" s="19" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D72" s="19"/>
       <c r="E72" s="19"/>
       <c r="F72" t="s">
-        <v>972</v>
+        <v>967</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C73" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="D73" s="19"/>
-      <c r="E73" s="19"/>
-      <c r="F73" t="s">
-        <v>973</v>
+      <c r="C73" s="18" t="s">
+        <v>549</v>
+      </c>
+      <c r="D73" s="18"/>
+      <c r="E73" s="18"/>
+      <c r="F73" s="6" t="s">
+        <v>968</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C74" s="19" t="s">
-        <v>98</v>
+        <v>551</v>
       </c>
       <c r="D74" s="19"/>
       <c r="E74" s="19"/>
       <c r="F74" t="s">
-        <v>974</v>
+        <v>969</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C75" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="D75" s="18"/>
-      <c r="E75" s="18"/>
-      <c r="F75" s="6" t="s">
-        <v>975</v>
+      <c r="C75" s="19" t="s">
+        <v>552</v>
+      </c>
+      <c r="D75" s="19"/>
+      <c r="E75" s="19"/>
+      <c r="F75" t="s">
+        <v>970</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C76" s="26" t="s">
-        <v>553</v>
-      </c>
-      <c r="D76" s="26"/>
-      <c r="E76" s="26"/>
+      <c r="C76" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D76" s="19"/>
+      <c r="E76" s="19"/>
       <c r="F76" t="s">
-        <v>976</v>
+        <v>971</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C77" s="19" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="D77" s="19"/>
       <c r="E77" s="19"/>
       <c r="F77" t="s">
-        <v>977</v>
+        <v>972</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C78" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="D78" s="19"/>
-      <c r="E78" s="19"/>
-      <c r="F78" t="s">
-        <v>978</v>
+      <c r="C78" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="D78" s="18"/>
+      <c r="E78" s="18"/>
+      <c r="F78" s="6" t="s">
+        <v>973</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C79" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="D79" s="19"/>
-      <c r="E79" s="19"/>
+      <c r="C79" s="26" t="s">
+        <v>553</v>
+      </c>
+      <c r="D79" s="26"/>
+      <c r="E79" s="26"/>
       <c r="F79" t="s">
-        <v>979</v>
+        <v>974</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C80" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="D80" s="18"/>
-      <c r="E80" s="18"/>
+      <c r="C80" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="D80" s="19"/>
+      <c r="E80" s="19"/>
       <c r="F80" t="s">
-        <v>980</v>
+        <v>975</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C81" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D81" s="19"/>
       <c r="E81" s="19"/>
       <c r="F81" t="s">
-        <v>981</v>
+        <v>976</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C82" s="19" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D82" s="19"/>
       <c r="E82" s="19"/>
       <c r="F82" t="s">
-        <v>982</v>
+        <v>977</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C83" s="18" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
       <c r="D83" s="18"/>
       <c r="E83" s="18"/>
-      <c r="F83" s="6" t="s">
-        <v>983</v>
+      <c r="F83" t="s">
+        <v>978</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C84" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="D84" s="18"/>
-      <c r="E84" s="18"/>
-      <c r="F84" s="6" t="s">
-        <v>984</v>
+      <c r="C84" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="D84" s="19"/>
+      <c r="E84" s="19"/>
+      <c r="F84" t="s">
+        <v>979</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C85" s="19" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="D85" s="19"/>
       <c r="E85" s="19"/>
       <c r="F85" t="s">
-        <v>985</v>
+        <v>980</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C86" s="18" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="D86" s="18"/>
       <c r="E86" s="18"/>
-      <c r="F86" t="s">
-        <v>986</v>
+      <c r="F86" s="6" t="s">
+        <v>981</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C87" s="19" t="s">
-        <v>169</v>
-      </c>
-      <c r="D87" s="19"/>
-      <c r="E87" s="19"/>
-      <c r="F87" t="s">
-        <v>987</v>
+      <c r="C87" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="D87" s="18"/>
+      <c r="E87" s="18"/>
+      <c r="F87" s="6" t="s">
+        <v>982</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C88" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="D88" s="18"/>
-      <c r="E88" s="18"/>
+      <c r="C88" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="D88" s="19"/>
+      <c r="E88" s="19"/>
       <c r="F88" t="s">
-        <v>988</v>
+        <v>983</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C89" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="D89" s="19"/>
-      <c r="E89" s="19"/>
+      <c r="C89" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="D89" s="18"/>
+      <c r="E89" s="18"/>
       <c r="F89" t="s">
-        <v>989</v>
+        <v>984</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C90" s="26" t="s">
-        <v>578</v>
-      </c>
-      <c r="D90" s="26"/>
-      <c r="E90" s="26"/>
+      <c r="C90" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="D90" s="19"/>
+      <c r="E90" s="19"/>
       <c r="F90" t="s">
-        <v>990</v>
+        <v>985</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C91" s="26" t="s">
-        <v>556</v>
-      </c>
-      <c r="D91" s="26"/>
-      <c r="E91" s="26"/>
+      <c r="C91" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="D91" s="18"/>
+      <c r="E91" s="18"/>
       <c r="F91" t="s">
-        <v>991</v>
+        <v>986</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C92" s="19" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D92" s="19"/>
       <c r="E92" s="19"/>
       <c r="F92" t="s">
-        <v>992</v>
+        <v>987</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C93" s="19" t="s">
-        <v>567</v>
-      </c>
-      <c r="D93" s="19"/>
-      <c r="E93" s="19"/>
+      <c r="C93" s="26" t="s">
+        <v>578</v>
+      </c>
+      <c r="D93" s="26"/>
+      <c r="E93" s="26"/>
       <c r="F93" t="s">
-        <v>993</v>
+        <v>988</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C94" s="19" t="s">
-        <v>569</v>
-      </c>
-      <c r="D94" s="19"/>
-      <c r="E94" s="19"/>
+      <c r="C94" s="26" t="s">
+        <v>556</v>
+      </c>
+      <c r="D94" s="26"/>
+      <c r="E94" s="26"/>
       <c r="F94" t="s">
-        <v>994</v>
+        <v>989</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="B95" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C95" s="19" t="s">
-        <v>579</v>
+        <v>135</v>
       </c>
       <c r="D95" s="19"/>
       <c r="E95" s="19"/>
       <c r="F95" t="s">
-        <v>995</v>
+        <v>990</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C96" s="19" t="s">
-        <v>580</v>
+        <v>567</v>
       </c>
       <c r="D96" s="19"/>
       <c r="E96" s="19"/>
       <c r="F96" t="s">
-        <v>996</v>
+        <v>991</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C97" s="26" t="s">
-        <v>539</v>
-      </c>
-      <c r="D97" s="26"/>
-      <c r="E97" s="26"/>
+      <c r="C97" s="19" t="s">
+        <v>569</v>
+      </c>
+      <c r="D97" s="19"/>
+      <c r="E97" s="19"/>
       <c r="F97" t="s">
-        <v>997</v>
+        <v>992</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C98" s="19" t="s">
-        <v>143</v>
+        <v>579</v>
       </c>
       <c r="D98" s="19"/>
       <c r="E98" s="19"/>
       <c r="F98" t="s">
-        <v>998</v>
+        <v>993</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C99" s="19" t="s">
-        <v>145</v>
+        <v>580</v>
       </c>
       <c r="D99" s="19"/>
       <c r="E99" s="19"/>
       <c r="F99" t="s">
-        <v>999</v>
+        <v>994</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C100" s="26" t="s">
-        <v>581</v>
+        <v>539</v>
       </c>
       <c r="D100" s="26"/>
       <c r="E100" s="26"/>
       <c r="F100" t="s">
-        <v>1000</v>
+        <v>995</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C101" s="19" t="s">
-        <v>531</v>
+        <v>143</v>
       </c>
       <c r="D101" s="19"/>
       <c r="E101" s="19"/>
       <c r="F101" t="s">
-        <v>1001</v>
+        <v>996</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C102" s="19" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D102" s="19"/>
       <c r="E102" s="19"/>
       <c r="F102" t="s">
-        <v>1002</v>
+        <v>997</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C103" s="26" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D103" s="26"/>
       <c r="E103" s="26"/>
       <c r="F103" t="s">
-        <v>1003</v>
+        <v>998</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C104" s="19" t="s">
-        <v>149</v>
+        <v>531</v>
       </c>
       <c r="D104" s="19"/>
       <c r="E104" s="19"/>
       <c r="F104" t="s">
-        <v>1004</v>
+        <v>999</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C105" s="19" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="D105" s="19"/>
       <c r="E105" s="19"/>
       <c r="F105" t="s">
-        <v>1005</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C106" s="26" t="s">
-        <v>140</v>
+        <v>582</v>
       </c>
       <c r="D106" s="26"/>
       <c r="E106" s="26"/>
       <c r="F106" t="s">
-        <v>1006</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="B107" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C107" s="19" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="D107" s="19"/>
       <c r="E107" s="19"/>
       <c r="F107" t="s">
-        <v>1007</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="B108" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C108" s="19" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="D108" s="19"/>
       <c r="E108" s="19"/>
       <c r="F108" t="s">
-        <v>1008</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="B109" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C109" s="26" t="s">
-        <v>527</v>
+        <v>140</v>
       </c>
       <c r="D109" s="26"/>
       <c r="E109" s="26"/>
       <c r="F109" t="s">
-        <v>1009</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="B110" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C110" s="19" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="D110" s="19"/>
       <c r="E110" s="19"/>
       <c r="F110" t="s">
-        <v>1010</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="B111" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C111" s="19" t="s">
-        <v>525</v>
+        <v>151</v>
       </c>
       <c r="D111" s="19"/>
       <c r="E111" s="19"/>
       <c r="F111" t="s">
-        <v>1011</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="B112" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C112" s="26" t="s">
-        <v>583</v>
+        <v>527</v>
       </c>
       <c r="D112" s="26"/>
       <c r="E112" s="26"/>
       <c r="F112" t="s">
-        <v>1012</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="B113" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C113" s="26" t="s">
-        <v>571</v>
-      </c>
-      <c r="D113" s="26"/>
-      <c r="E113" s="26"/>
+      <c r="C113" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="D113" s="19"/>
+      <c r="E113" s="19"/>
       <c r="F113" t="s">
-        <v>1013</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="B114" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C114" s="19" t="s">
-        <v>573</v>
+        <v>525</v>
       </c>
       <c r="D114" s="19"/>
       <c r="E114" s="19"/>
       <c r="F114" t="s">
-        <v>1014</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C115" s="19" t="s">
-        <v>575</v>
-      </c>
-      <c r="D115" s="19"/>
-      <c r="E115" s="19"/>
+      <c r="C115" s="26" t="s">
+        <v>583</v>
+      </c>
+      <c r="D115" s="26"/>
+      <c r="E115" s="26"/>
       <c r="F115" t="s">
-        <v>1015</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="3" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C116" s="26" t="s">
-        <v>584</v>
+        <v>571</v>
       </c>
       <c r="D116" s="26"/>
       <c r="E116" s="26"/>
       <c r="F116" t="s">
-        <v>1016</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="3" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="B117" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C117" s="26" t="s">
-        <v>585</v>
-      </c>
-      <c r="D117" s="26"/>
-      <c r="E117" s="26"/>
+      <c r="C117" s="19" t="s">
+        <v>573</v>
+      </c>
+      <c r="D117" s="19"/>
+      <c r="E117" s="19"/>
       <c r="F117" t="s">
-        <v>1017</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="B118" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C118" s="19" t="s">
-        <v>156</v>
+        <v>575</v>
       </c>
       <c r="D118" s="19"/>
       <c r="E118" s="19"/>
       <c r="F118" t="s">
-        <v>1018</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="B119" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C119" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="D119" s="19"/>
-      <c r="E119" s="19"/>
+      <c r="C119" s="26" t="s">
+        <v>584</v>
+      </c>
+      <c r="D119" s="26"/>
+      <c r="E119" s="26"/>
       <c r="F119" t="s">
-        <v>1019</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="B120" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C120" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="D120" s="18"/>
-      <c r="E120" s="18"/>
-      <c r="F120" s="6" t="s">
-        <v>1020</v>
+      <c r="C120" s="26" t="s">
+        <v>585</v>
+      </c>
+      <c r="D120" s="26"/>
+      <c r="E120" s="26"/>
+      <c r="F120" t="s">
+        <v>1015</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="B121" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C121" s="26" t="s">
-        <v>595</v>
-      </c>
-      <c r="D121" s="26"/>
-      <c r="E121" s="26"/>
+      <c r="C121" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="D121" s="19"/>
+      <c r="E121" s="19"/>
       <c r="F121" t="s">
-        <v>1021</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="B122" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C122" s="19" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D122" s="19"/>
       <c r="E122" s="19"/>
       <c r="F122" t="s">
-        <v>1022</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="B123" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C123" s="26" t="s">
-        <v>599</v>
-      </c>
-      <c r="D123" s="26"/>
-      <c r="E123" s="26"/>
-      <c r="F123" t="s">
-        <v>1023</v>
+      <c r="C123" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="D123" s="18"/>
+      <c r="E123" s="18"/>
+      <c r="F123" s="6" t="s">
+        <v>1018</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="3" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="B124" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C124" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="D124" s="19"/>
-      <c r="E124" s="19"/>
+      <c r="C124" s="26" t="s">
+        <v>595</v>
+      </c>
+      <c r="D124" s="26"/>
+      <c r="E124" s="26"/>
       <c r="F124" t="s">
-        <v>1024</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="B125" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C125" s="19" t="s">
-        <v>251</v>
+        <v>163</v>
       </c>
       <c r="D125" s="19"/>
       <c r="E125" s="19"/>
       <c r="F125" t="s">
-        <v>1025</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="B126" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C126" s="26" t="s">
-        <v>170</v>
+        <v>599</v>
       </c>
       <c r="D126" s="26"/>
       <c r="E126" s="26"/>
       <c r="F126" t="s">
-        <v>1026</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="B127" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C127" s="27" t="s">
-        <v>171</v>
-      </c>
-      <c r="D127" s="27"/>
-      <c r="E127" s="27"/>
+      <c r="C127" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="D127" s="19"/>
+      <c r="E127" s="19"/>
       <c r="F127" t="s">
-        <v>1027</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="3" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="B128" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C128" s="19" t="s">
-        <v>172</v>
+        <v>251</v>
       </c>
       <c r="D128" s="19"/>
       <c r="E128" s="19"/>
       <c r="F128" t="s">
-        <v>1028</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="3" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="B129" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C129" s="26" t="s">
-        <v>601</v>
+        <v>170</v>
       </c>
       <c r="D129" s="26"/>
       <c r="E129" s="26"/>
       <c r="F129" t="s">
-        <v>1029</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="3" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="B130" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C130" s="26" t="s">
-        <v>173</v>
-      </c>
-      <c r="D130" s="26"/>
-      <c r="E130" s="26"/>
+      <c r="C130" s="27" t="s">
+        <v>171</v>
+      </c>
+      <c r="D130" s="27"/>
+      <c r="E130" s="27"/>
       <c r="F130" t="s">
-        <v>1030</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="3" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="B131" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C131" s="26" t="s">
-        <v>189</v>
-      </c>
-      <c r="D131" s="26"/>
-      <c r="E131" s="26"/>
+      <c r="C131" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="D131" s="19"/>
+      <c r="E131" s="19"/>
       <c r="F131" t="s">
-        <v>1031</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="3" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="B132" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C132" s="26" t="s">
-        <v>174</v>
+        <v>601</v>
       </c>
       <c r="D132" s="26"/>
       <c r="E132" s="26"/>
       <c r="F132" t="s">
-        <v>1032</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="3" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="B133" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C133" s="26" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D133" s="26"/>
       <c r="E133" s="26"/>
       <c r="F133" t="s">
-        <v>1033</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="3" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="B134" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C134" s="26" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="D134" s="26"/>
       <c r="E134" s="26"/>
       <c r="F134" t="s">
-        <v>1034</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="3" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="B135" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C135" s="26" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="D135" s="26"/>
       <c r="E135" s="26"/>
       <c r="F135" t="s">
-        <v>1035</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="3" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="B136" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C136" s="26" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="D136" s="26"/>
       <c r="E136" s="26"/>
       <c r="F136" t="s">
-        <v>1036</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="3" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="B137" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C137" s="26" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="D137" s="26"/>
       <c r="E137" s="26"/>
       <c r="F137" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="3" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="B138" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C138" s="19" t="s">
-        <v>186</v>
-      </c>
-      <c r="D138" s="19"/>
-      <c r="E138" s="19"/>
+      <c r="C138" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="D138" s="26"/>
+      <c r="E138" s="26"/>
       <c r="F138" t="s">
-        <v>1038</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="3" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="B139" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C139" s="26" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D139" s="26"/>
       <c r="E139" s="26"/>
       <c r="F139" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="3" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="B140" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C140" s="27" t="s">
-        <v>188</v>
-      </c>
-      <c r="D140" s="27"/>
-      <c r="E140" s="27"/>
+      <c r="C140" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="D140" s="26"/>
+      <c r="E140" s="26"/>
       <c r="F140" t="s">
-        <v>1040</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="3" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="B141" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C141" s="26" t="s">
-        <v>192</v>
-      </c>
-      <c r="D141" s="26"/>
-      <c r="E141" s="26"/>
+      <c r="C141" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="D141" s="19"/>
+      <c r="E141" s="19"/>
       <c r="F141" t="s">
-        <v>1041</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="3" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="B142" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C142" s="26" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D142" s="26"/>
       <c r="E142" s="26"/>
       <c r="F142" t="s">
-        <v>1042</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="3" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="B143" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C143" s="26" t="s">
-        <v>191</v>
-      </c>
-      <c r="D143" s="26"/>
-      <c r="E143" s="26"/>
+      <c r="C143" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="D143" s="27"/>
+      <c r="E143" s="27"/>
       <c r="F143" t="s">
-        <v>1043</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="3" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="B144" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C144" s="26" t="s">
-        <v>605</v>
+        <v>192</v>
       </c>
       <c r="D144" s="26"/>
       <c r="E144" s="26"/>
       <c r="F144" t="s">
-        <v>1044</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="3" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="B145" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C145" s="19" t="s">
-        <v>603</v>
-      </c>
-      <c r="D145" s="19"/>
-      <c r="E145" s="19"/>
+      <c r="C145" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="D145" s="26"/>
+      <c r="E145" s="26"/>
       <c r="F145" t="s">
-        <v>1045</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="3" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="B146" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C146" s="26" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="D146" s="26"/>
       <c r="E146" s="26"/>
       <c r="F146" t="s">
-        <v>1046</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="3" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="B147" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C147" s="26" t="s">
-        <v>206</v>
+        <v>605</v>
       </c>
       <c r="D147" s="26"/>
       <c r="E147" s="26"/>
       <c r="F147" t="s">
-        <v>1047</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" s="3" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="B148" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C148" s="19" t="s">
-        <v>207</v>
+        <v>603</v>
       </c>
       <c r="D148" s="19"/>
       <c r="E148" s="19"/>
       <c r="F148" t="s">
-        <v>1048</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="3" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="B149" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C149" s="19" t="s">
-        <v>208</v>
-      </c>
-      <c r="D149" s="19"/>
-      <c r="E149" s="19"/>
+      <c r="C149" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="D149" s="26"/>
+      <c r="E149" s="26"/>
       <c r="F149" t="s">
-        <v>1049</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" s="3" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="B150" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C150" s="18" t="s">
-        <v>209</v>
-      </c>
-      <c r="D150" s="18"/>
-      <c r="E150" s="18"/>
-      <c r="F150" s="6" t="s">
-        <v>1050</v>
+      <c r="C150" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="D150" s="26"/>
+      <c r="E150" s="26"/>
+      <c r="F150" t="s">
+        <v>1045</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="3" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="B151" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C151" s="18" t="s">
-        <v>210</v>
-      </c>
-      <c r="D151" s="18"/>
-      <c r="E151" s="18"/>
-      <c r="F151" s="6" t="s">
-        <v>1051</v>
+      <c r="C151" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="D151" s="19"/>
+      <c r="E151" s="19"/>
+      <c r="F151" t="s">
+        <v>1046</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="3" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="B152" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C152" s="26" t="s">
-        <v>211</v>
-      </c>
-      <c r="D152" s="26"/>
-      <c r="E152" s="26"/>
+      <c r="C152" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="D152" s="19"/>
+      <c r="E152" s="19"/>
       <c r="F152" t="s">
-        <v>1052</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="3" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="B153" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C153" s="27" t="s">
-        <v>212</v>
-      </c>
-      <c r="D153" s="27"/>
-      <c r="E153" s="27"/>
-      <c r="F153" t="s">
-        <v>1053</v>
+      <c r="C153" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="D153" s="18"/>
+      <c r="E153" s="18"/>
+      <c r="F153" s="6" t="s">
+        <v>1048</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" s="3" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="B154" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C154" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="D154" s="26"/>
-      <c r="E154" s="26"/>
-      <c r="F154" t="s">
-        <v>1054</v>
+      <c r="C154" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="D154" s="18"/>
+      <c r="E154" s="18"/>
+      <c r="F154" s="6" t="s">
+        <v>1049</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" s="3" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="B155" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C155" s="26" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D155" s="26"/>
       <c r="E155" s="26"/>
-      <c r="F155" s="6" t="s">
-        <v>1055</v>
+      <c r="F155" t="s">
+        <v>1050</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" s="3" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="B156" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C156" s="26" t="s">
-        <v>215</v>
-      </c>
-      <c r="D156" s="26"/>
-      <c r="E156" s="26"/>
-      <c r="F156" s="6" t="s">
-        <v>1056</v>
+      <c r="C156" s="27" t="s">
+        <v>212</v>
+      </c>
+      <c r="D156" s="27"/>
+      <c r="E156" s="27"/>
+      <c r="F156" t="s">
+        <v>1051</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" s="3" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="B157" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C157" s="26" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D157" s="26"/>
       <c r="E157" s="26"/>
-      <c r="F157" s="6" t="s">
-        <v>1057</v>
+      <c r="F157" t="s">
+        <v>1052</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" s="3" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="B158" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C158" s="26" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D158" s="26"/>
       <c r="E158" s="26"/>
-      <c r="F158" t="s">
-        <v>1058</v>
+      <c r="F158" s="6" t="s">
+        <v>1053</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" s="3" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="B159" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C159" s="26" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D159" s="26"/>
       <c r="E159" s="26"/>
-      <c r="F159" t="s">
-        <v>1059</v>
+      <c r="F159" s="6" t="s">
+        <v>1054</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" s="3" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="B160" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C160" s="26" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="D160" s="26"/>
       <c r="E160" s="26"/>
-      <c r="F160" t="s">
-        <v>1060</v>
+      <c r="F160" s="6" t="s">
+        <v>1055</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" s="3" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="B161" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C161" s="26" t="s">
-        <v>607</v>
+        <v>216</v>
       </c>
       <c r="D161" s="26"/>
       <c r="E161" s="26"/>
       <c r="F161" t="s">
-        <v>1061</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" s="3" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="B162" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C162" s="27" t="s">
-        <v>609</v>
-      </c>
-      <c r="D162" s="27"/>
-      <c r="E162" s="27"/>
+      <c r="C162" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="D162" s="26"/>
+      <c r="E162" s="26"/>
       <c r="F162" t="s">
-        <v>1062</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" s="3" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="B163" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C163" s="26" t="s">
-        <v>535</v>
+        <v>233</v>
       </c>
       <c r="D163" s="26"/>
       <c r="E163" s="26"/>
       <c r="F163" t="s">
-        <v>1063</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" s="3" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="B164" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C164" s="26" t="s">
-        <v>235</v>
+        <v>607</v>
       </c>
       <c r="D164" s="26"/>
       <c r="E164" s="26"/>
       <c r="F164" t="s">
-        <v>1064</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" s="3" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="B165" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C165" s="19" t="s">
-        <v>237</v>
-      </c>
-      <c r="D165" s="19"/>
-      <c r="E165" s="19"/>
+      <c r="C165" s="27" t="s">
+        <v>609</v>
+      </c>
+      <c r="D165" s="27"/>
+      <c r="E165" s="27"/>
       <c r="F165" t="s">
-        <v>1065</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" s="3" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="B166" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C166" s="18" t="s">
-        <v>611</v>
-      </c>
-      <c r="D166" s="18"/>
-      <c r="E166" s="18"/>
+      <c r="C166" s="26" t="s">
+        <v>535</v>
+      </c>
+      <c r="D166" s="26"/>
+      <c r="E166" s="26"/>
       <c r="F166" t="s">
-        <v>1066</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" s="3" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="B167" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C167" s="26" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="D167" s="26"/>
       <c r="E167" s="26"/>
       <c r="F167" t="s">
-        <v>1067</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" s="3" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="B168" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C168" s="19" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="D168" s="19"/>
       <c r="E168" s="19"/>
       <c r="F168" t="s">
-        <v>1068</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" s="3" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="B169" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C169" s="26" t="s">
-        <v>255</v>
-      </c>
-      <c r="D169" s="26"/>
-      <c r="E169" s="26"/>
+      <c r="C169" s="18" t="s">
+        <v>611</v>
+      </c>
+      <c r="D169" s="18"/>
+      <c r="E169" s="18"/>
       <c r="F169" t="s">
-        <v>1069</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" s="3" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="B170" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C170" s="19" t="s">
-        <v>245</v>
-      </c>
-      <c r="D170" s="19"/>
-      <c r="E170" s="19"/>
+      <c r="C170" s="26" t="s">
+        <v>241</v>
+      </c>
+      <c r="D170" s="26"/>
+      <c r="E170" s="26"/>
       <c r="F170" t="s">
-        <v>1070</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" s="3" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="B171" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C171" s="19" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D171" s="19"/>
       <c r="E171" s="19"/>
       <c r="F171" t="s">
-        <v>1071</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" s="3" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="B172" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C172" s="27" t="s">
-        <v>249</v>
-      </c>
-      <c r="D172" s="27"/>
-      <c r="E172" s="27"/>
+      <c r="C172" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="D172" s="26"/>
+      <c r="E172" s="26"/>
       <c r="F172" t="s">
-        <v>1072</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" s="3" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="B173" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C173" s="19" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="D173" s="19"/>
       <c r="E173" s="19"/>
       <c r="F173" t="s">
-        <v>1073</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" s="3" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="B174" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C174" s="18" t="s">
-        <v>239</v>
-      </c>
-      <c r="D174" s="18"/>
-      <c r="E174" s="18"/>
+      <c r="C174" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="D174" s="19"/>
+      <c r="E174" s="19"/>
       <c r="F174" t="s">
-        <v>1074</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" s="3" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="B175" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C175" s="19" t="s">
-        <v>256</v>
-      </c>
-      <c r="D175" s="19"/>
-      <c r="E175" s="19"/>
+      <c r="C175" s="27" t="s">
+        <v>249</v>
+      </c>
+      <c r="D175" s="27"/>
+      <c r="E175" s="27"/>
       <c r="F175" t="s">
-        <v>1075</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" s="3" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="B176" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C176" s="19" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D176" s="19"/>
       <c r="E176" s="19"/>
       <c r="F176" t="s">
-        <v>1076</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" s="3" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="B177" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C177" s="19" t="s">
-        <v>258</v>
-      </c>
-      <c r="D177" s="19"/>
-      <c r="E177" s="19"/>
+      <c r="C177" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="D177" s="18"/>
+      <c r="E177" s="18"/>
       <c r="F177" t="s">
-        <v>1077</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" s="3" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="B178" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C178" s="26" t="s">
-        <v>613</v>
-      </c>
-      <c r="D178" s="26"/>
-      <c r="E178" s="26"/>
+      <c r="C178" s="19" t="s">
+        <v>256</v>
+      </c>
+      <c r="D178" s="19"/>
+      <c r="E178" s="19"/>
       <c r="F178" t="s">
-        <v>1078</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" s="3" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="B179" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C179" s="19" t="s">
-        <v>615</v>
+        <v>257</v>
       </c>
       <c r="D179" s="19"/>
       <c r="E179" s="19"/>
       <c r="F179" t="s">
-        <v>1079</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" s="3" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="B180" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C180" s="19" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D180" s="19"/>
       <c r="E180" s="19"/>
       <c r="F180" t="s">
-        <v>1080</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" s="3" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="B181" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C181" s="18" t="s">
-        <v>265</v>
-      </c>
-      <c r="D181" s="18"/>
-      <c r="E181" s="18"/>
+      <c r="C181" s="26" t="s">
+        <v>613</v>
+      </c>
+      <c r="D181" s="26"/>
+      <c r="E181" s="26"/>
       <c r="F181" t="s">
-        <v>1081</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" s="3" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="B182" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C182" s="19" t="s">
-        <v>269</v>
+        <v>615</v>
       </c>
       <c r="D182" s="19"/>
       <c r="E182" s="19"/>
       <c r="F182" t="s">
-        <v>1082</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" s="3" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="B183" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C183" s="26" t="s">
-        <v>267</v>
-      </c>
-      <c r="D183" s="26"/>
-      <c r="E183" s="26"/>
+      <c r="C183" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="D183" s="19"/>
+      <c r="E183" s="19"/>
       <c r="F183" t="s">
-        <v>1083</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" s="3" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="B184" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C184" s="19" t="s">
-        <v>271</v>
-      </c>
-      <c r="D184" s="19"/>
-      <c r="E184" s="19"/>
+      <c r="C184" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="D184" s="18"/>
+      <c r="E184" s="18"/>
       <c r="F184" t="s">
-        <v>1084</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" s="3" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="B185" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C185" s="26" t="s">
-        <v>617</v>
-      </c>
-      <c r="D185" s="26"/>
-      <c r="E185" s="26"/>
+      <c r="C185" s="19" t="s">
+        <v>269</v>
+      </c>
+      <c r="D185" s="19"/>
+      <c r="E185" s="19"/>
       <c r="F185" t="s">
-        <v>1085</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" s="3" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="B186" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C186" s="19" t="s">
-        <v>272</v>
-      </c>
-      <c r="D186" s="19"/>
-      <c r="E186" s="19"/>
+      <c r="C186" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="D186" s="26"/>
+      <c r="E186" s="26"/>
       <c r="F186" t="s">
-        <v>1086</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" s="3" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="B187" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C187" s="26" t="s">
-        <v>273</v>
-      </c>
-      <c r="D187" s="26"/>
-      <c r="E187" s="26"/>
+      <c r="C187" s="19" t="s">
+        <v>271</v>
+      </c>
+      <c r="D187" s="19"/>
+      <c r="E187" s="19"/>
       <c r="F187" t="s">
-        <v>1087</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" s="3" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="B188" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C188" s="26" t="s">
-        <v>274</v>
+        <v>617</v>
       </c>
       <c r="D188" s="26"/>
       <c r="E188" s="26"/>
       <c r="F188" t="s">
-        <v>1088</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" s="3" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="B189" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C189" s="19" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D189" s="19"/>
       <c r="E189" s="19"/>
       <c r="F189" t="s">
-        <v>1089</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" s="3" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="B190" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C190" s="19" t="s">
-        <v>276</v>
-      </c>
-      <c r="D190" s="19"/>
-      <c r="E190" s="19"/>
+      <c r="C190" s="26" t="s">
+        <v>273</v>
+      </c>
+      <c r="D190" s="26"/>
+      <c r="E190" s="26"/>
       <c r="F190" t="s">
-        <v>1090</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" s="3" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="B191" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C191" s="26" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D191" s="26"/>
       <c r="E191" s="26"/>
       <c r="F191" t="s">
-        <v>1091</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" s="3" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="B192" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C192" s="26" t="s">
-        <v>285</v>
-      </c>
-      <c r="D192" s="26"/>
-      <c r="E192" s="26"/>
+      <c r="C192" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="D192" s="19"/>
+      <c r="E192" s="19"/>
       <c r="F192" t="s">
-        <v>1092</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" s="3" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="B193" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C193" s="19" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="D193" s="19"/>
       <c r="E193" s="19"/>
       <c r="F193" t="s">
-        <v>1093</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" s="3" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="B194" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C194" s="26" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="D194" s="26"/>
       <c r="E194" s="26"/>
       <c r="F194" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" s="3" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="B195" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C195" s="19" t="s">
-        <v>288</v>
-      </c>
-      <c r="D195" s="19"/>
-      <c r="E195" s="19"/>
+      <c r="C195" s="26" t="s">
+        <v>285</v>
+      </c>
+      <c r="D195" s="26"/>
+      <c r="E195" s="26"/>
       <c r="F195" t="s">
-        <v>1095</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" s="3" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="B196" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C196" s="26" t="s">
-        <v>289</v>
-      </c>
-      <c r="D196" s="26"/>
-      <c r="E196" s="26"/>
+      <c r="C196" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="D196" s="19"/>
+      <c r="E196" s="19"/>
       <c r="F196" t="s">
-        <v>1096</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" s="3" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="B197" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C197" s="19" t="s">
-        <v>290</v>
-      </c>
-      <c r="D197" s="19"/>
-      <c r="E197" s="19"/>
+      <c r="C197" s="26" t="s">
+        <v>287</v>
+      </c>
+      <c r="D197" s="26"/>
+      <c r="E197" s="26"/>
       <c r="F197" t="s">
-        <v>1097</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" s="3" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="B198" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C198" s="19" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D198" s="19"/>
       <c r="E198" s="19"/>
       <c r="F198" t="s">
-        <v>1098</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" s="3" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="B199" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C199" s="26" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="D199" s="26"/>
       <c r="E199" s="26"/>
       <c r="F199" t="s">
-        <v>1099</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" s="3" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="B200" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C200" s="19" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D200" s="19"/>
       <c r="E200" s="19"/>
       <c r="F200" t="s">
-        <v>1100</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" s="3" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="B201" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C201" s="26" t="s">
-        <v>296</v>
-      </c>
-      <c r="D201" s="26"/>
-      <c r="E201" s="26"/>
+      <c r="C201" s="19" t="s">
+        <v>291</v>
+      </c>
+      <c r="D201" s="19"/>
+      <c r="E201" s="19"/>
       <c r="F201" t="s">
-        <v>1101</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" s="3" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="B202" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C202" s="26" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D202" s="26"/>
       <c r="E202" s="26"/>
       <c r="F202" t="s">
-        <v>1102</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" s="3" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="B203" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C203" s="27" t="s">
-        <v>294</v>
-      </c>
-      <c r="D203" s="27"/>
-      <c r="E203" s="27"/>
+      <c r="C203" s="19" t="s">
+        <v>292</v>
+      </c>
+      <c r="D203" s="19"/>
+      <c r="E203" s="19"/>
       <c r="F203" t="s">
-        <v>1103</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" s="3" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="B204" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C204" s="19" t="s">
-        <v>297</v>
-      </c>
-      <c r="D204" s="19"/>
-      <c r="E204" s="19"/>
+      <c r="C204" s="26" t="s">
+        <v>296</v>
+      </c>
+      <c r="D204" s="26"/>
+      <c r="E204" s="26"/>
       <c r="F204" t="s">
-        <v>1104</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" s="3" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="B205" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C205" s="19" t="s">
-        <v>298</v>
-      </c>
-      <c r="D205" s="19"/>
-      <c r="E205" s="19"/>
+      <c r="C205" s="26" t="s">
+        <v>295</v>
+      </c>
+      <c r="D205" s="26"/>
+      <c r="E205" s="26"/>
       <c r="F205" t="s">
-        <v>1105</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" s="3" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="B206" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C206" s="19" t="s">
-        <v>299</v>
-      </c>
-      <c r="D206" s="19"/>
-      <c r="E206" s="19"/>
+      <c r="C206" s="27" t="s">
+        <v>294</v>
+      </c>
+      <c r="D206" s="27"/>
+      <c r="E206" s="27"/>
       <c r="F206" t="s">
-        <v>317</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" s="3" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="B207" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C207" s="19" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D207" s="19"/>
       <c r="E207" s="19"/>
       <c r="F207" t="s">
-        <v>1106</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" s="3" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="B208" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C208" s="19" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D208" s="19"/>
       <c r="E208" s="19"/>
       <c r="F208" t="s">
-        <v>1107</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" s="3" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="B209" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C209" s="26" t="s">
-        <v>345</v>
-      </c>
-      <c r="D209" s="26"/>
-      <c r="E209" s="26"/>
+      <c r="C209" s="19" t="s">
+        <v>299</v>
+      </c>
+      <c r="D209" s="19"/>
+      <c r="E209" s="19"/>
       <c r="F209" t="s">
-        <v>1108</v>
+        <v>317</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" s="3" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="B210" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C210" s="19" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D210" s="19"/>
       <c r="E210" s="19"/>
       <c r="F210" t="s">
-        <v>1109</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" s="3" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="B211" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C211" s="19" t="s">
-        <v>321</v>
+        <v>301</v>
       </c>
       <c r="D211" s="19"/>
       <c r="E211" s="19"/>
       <c r="F211" t="s">
-        <v>1110</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" s="3" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="B212" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C212" s="26" t="s">
-        <v>322</v>
+        <v>345</v>
       </c>
       <c r="D212" s="26"/>
       <c r="E212" s="26"/>
       <c r="F212" t="s">
-        <v>1111</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" s="3" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="B213" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C213" s="19" t="s">
-        <v>323</v>
+        <v>302</v>
       </c>
       <c r="D213" s="19"/>
       <c r="E213" s="19"/>
       <c r="F213" t="s">
-        <v>1112</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" s="3" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="B214" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C214" s="26" t="s">
-        <v>519</v>
-      </c>
-      <c r="D214" s="26"/>
-      <c r="E214" s="26"/>
-      <c r="F214" s="6" t="s">
-        <v>1113</v>
+      <c r="C214" s="19" t="s">
+        <v>321</v>
+      </c>
+      <c r="D214" s="19"/>
+      <c r="E214" s="19"/>
+      <c r="F214" t="s">
+        <v>1108</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" s="3" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="B215" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C215" s="26" t="s">
-        <v>521</v>
+        <v>322</v>
       </c>
       <c r="D215" s="26"/>
       <c r="E215" s="26"/>
-      <c r="F215" s="6" t="s">
-        <v>1114</v>
+      <c r="F215" t="s">
+        <v>1109</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" s="3" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="B216" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C216" s="19" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D216" s="19"/>
       <c r="E216" s="19"/>
       <c r="F216" t="s">
-        <v>1115</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217" s="3" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="B217" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C217" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="D217" s="19"/>
-      <c r="E217" s="19"/>
-      <c r="F217" t="s">
-        <v>1116</v>
+      <c r="C217" s="26" t="s">
+        <v>519</v>
+      </c>
+      <c r="D217" s="26"/>
+      <c r="E217" s="26"/>
+      <c r="F217" s="6" t="s">
+        <v>1111</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218" s="3" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="B218" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C218" s="19" t="s">
-        <v>533</v>
-      </c>
-      <c r="D218" s="19"/>
-      <c r="E218" s="19"/>
-      <c r="F218" t="s">
-        <v>1117</v>
+      <c r="C218" s="26" t="s">
+        <v>521</v>
+      </c>
+      <c r="D218" s="26"/>
+      <c r="E218" s="26"/>
+      <c r="F218" s="6" t="s">
+        <v>1112</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219" s="3" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="B219" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C219" s="19" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D219" s="19"/>
       <c r="E219" s="19"/>
       <c r="F219" t="s">
-        <v>1118</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" s="3" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="B220" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C220" s="26" t="s">
-        <v>326</v>
-      </c>
-      <c r="D220" s="26"/>
-      <c r="E220" s="26"/>
+      <c r="C220" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="D220" s="19"/>
+      <c r="E220" s="19"/>
       <c r="F220" t="s">
-        <v>1119</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" s="3" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
       <c r="B221" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C221" s="26" t="s">
-        <v>328</v>
-      </c>
-      <c r="D221" s="26"/>
-      <c r="E221" s="26"/>
-      <c r="F221" s="6" t="s">
-        <v>1120</v>
+      <c r="C221" s="19" t="s">
+        <v>533</v>
+      </c>
+      <c r="D221" s="19"/>
+      <c r="E221" s="19"/>
+      <c r="F221" t="s">
+        <v>1115</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222" s="3" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="B222" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C222" s="26" t="s">
-        <v>337</v>
-      </c>
-      <c r="D222" s="26"/>
-      <c r="E222" s="26"/>
+      <c r="C222" s="19" t="s">
+        <v>327</v>
+      </c>
+      <c r="D222" s="19"/>
+      <c r="E222" s="19"/>
       <c r="F222" t="s">
-        <v>1121</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" s="3" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="B223" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C223" s="26" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="D223" s="26"/>
       <c r="E223" s="26"/>
       <c r="F223" t="s">
-        <v>1122</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224" s="3" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="B224" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C224" s="26" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="D224" s="26"/>
       <c r="E224" s="26"/>
-      <c r="F224" t="s">
-        <v>1123</v>
+      <c r="F224" s="6" t="s">
+        <v>1118</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225" s="3" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="B225" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C225" s="26" t="s">
-        <v>529</v>
+        <v>337</v>
       </c>
       <c r="D225" s="26"/>
       <c r="E225" s="26"/>
       <c r="F225" t="s">
-        <v>1124</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226" s="3" t="s">
-        <v>818</v>
+        <v>813</v>
       </c>
       <c r="B226" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C226" s="19" t="s">
-        <v>343</v>
-      </c>
-      <c r="D226" s="19"/>
-      <c r="E226" s="19"/>
+      <c r="C226" s="26" t="s">
+        <v>339</v>
+      </c>
+      <c r="D226" s="26"/>
+      <c r="E226" s="26"/>
       <c r="F226" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227" s="3" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="B227" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C227" s="19" t="s">
-        <v>350</v>
-      </c>
-      <c r="D227" s="19"/>
-      <c r="E227" s="19"/>
+      <c r="C227" s="26" t="s">
+        <v>340</v>
+      </c>
+      <c r="D227" s="26"/>
+      <c r="E227" s="26"/>
       <c r="F227" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228" s="3" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="B228" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C228" s="26" t="s">
-        <v>346</v>
+        <v>529</v>
       </c>
       <c r="D228" s="26"/>
       <c r="E228" s="26"/>
       <c r="F228" t="s">
-        <v>1127</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229" s="3" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="B229" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C229" s="26" t="s">
-        <v>347</v>
-      </c>
-      <c r="D229" s="26"/>
-      <c r="E229" s="26"/>
+      <c r="C229" s="19" t="s">
+        <v>343</v>
+      </c>
+      <c r="D229" s="19"/>
+      <c r="E229" s="19"/>
       <c r="F229" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230" s="3" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
       <c r="B230" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C230" s="26" t="s">
-        <v>348</v>
-      </c>
-      <c r="D230" s="26"/>
-      <c r="E230" s="26"/>
+      <c r="C230" s="19" t="s">
+        <v>350</v>
+      </c>
+      <c r="D230" s="19"/>
+      <c r="E230" s="19"/>
       <c r="F230" t="s">
-        <v>1129</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A231" s="3" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="B231" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C231" s="27" t="s">
-        <v>349</v>
-      </c>
-      <c r="D231" s="27"/>
-      <c r="E231" s="27"/>
+      <c r="C231" s="26" t="s">
+        <v>346</v>
+      </c>
+      <c r="D231" s="26"/>
+      <c r="E231" s="26"/>
       <c r="F231" t="s">
-        <v>1130</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232" s="3" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
       <c r="B232" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C232" s="26" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="D232" s="26"/>
       <c r="E232" s="26"/>
       <c r="F232" t="s">
-        <v>1131</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233" s="3" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
       <c r="B233" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C233" s="19" t="s">
-        <v>358</v>
-      </c>
-      <c r="D233" s="19"/>
-      <c r="E233" s="19"/>
+      <c r="C233" s="26" t="s">
+        <v>348</v>
+      </c>
+      <c r="D233" s="26"/>
+      <c r="E233" s="26"/>
       <c r="F233" t="s">
-        <v>1132</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234" s="3" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="B234" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C234" s="26" t="s">
-        <v>359</v>
-      </c>
-      <c r="D234" s="26"/>
-      <c r="E234" s="26"/>
+      <c r="C234" s="27" t="s">
+        <v>349</v>
+      </c>
+      <c r="D234" s="27"/>
+      <c r="E234" s="27"/>
       <c r="F234" t="s">
-        <v>1133</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A235" s="3" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="B235" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C235" s="26" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D235" s="26"/>
       <c r="E235" s="26"/>
       <c r="F235" t="s">
-        <v>1134</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A236" s="3" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="B236" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C236" s="19" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="D236" s="19"/>
       <c r="E236" s="19"/>
       <c r="F236" t="s">
-        <v>1135</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A237" s="3" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
       <c r="B237" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C237" s="26" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="D237" s="26"/>
       <c r="E237" s="26"/>
       <c r="F237" t="s">
-        <v>1136</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238" s="3" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="B238" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C238" s="26" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="D238" s="26"/>
       <c r="E238" s="26"/>
       <c r="F238" t="s">
-        <v>1137</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239" s="3" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
       <c r="B239" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C239" s="26" t="s">
-        <v>368</v>
-      </c>
-      <c r="D239" s="26"/>
-      <c r="E239" s="26"/>
+      <c r="C239" s="19" t="s">
+        <v>365</v>
+      </c>
+      <c r="D239" s="19"/>
+      <c r="E239" s="19"/>
       <c r="F239" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A240" s="3" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
       <c r="B240" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C240" s="26" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D240" s="26"/>
       <c r="E240" s="26"/>
       <c r="F240" t="s">
-        <v>1139</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241" s="3" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
       <c r="B241" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C241" s="26" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D241" s="26"/>
       <c r="E241" s="26"/>
       <c r="F241" t="s">
-        <v>1140</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A242" s="3" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
       <c r="B242" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C242" s="26" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D242" s="26"/>
       <c r="E242" s="26"/>
       <c r="F242" t="s">
-        <v>1141</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A243" s="3" t="s">
-        <v>835</v>
+        <v>830</v>
       </c>
       <c r="B243" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C243" s="26" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="D243" s="26"/>
       <c r="E243" s="26"/>
       <c r="F243" t="s">
-        <v>1142</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A244" s="3" t="s">
-        <v>836</v>
+        <v>831</v>
       </c>
       <c r="B244" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C244" s="26" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D244" s="26"/>
       <c r="E244" s="26"/>
       <c r="F244" t="s">
-        <v>1143</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245" s="3" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="B245" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C245" s="19" t="s">
-        <v>374</v>
-      </c>
-      <c r="D245" s="19"/>
-      <c r="E245" s="19"/>
+      <c r="C245" s="26" t="s">
+        <v>371</v>
+      </c>
+      <c r="D245" s="26"/>
+      <c r="E245" s="26"/>
       <c r="F245" t="s">
-        <v>1144</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A246" s="3" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="B246" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C246" s="26" t="s">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="D246" s="26"/>
       <c r="E246" s="26"/>
       <c r="F246" t="s">
-        <v>1145</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A247" s="3" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="B247" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C247" s="19" t="s">
-        <v>387</v>
-      </c>
-      <c r="D247" s="19"/>
-      <c r="E247" s="19"/>
+      <c r="C247" s="26" t="s">
+        <v>373</v>
+      </c>
+      <c r="D247" s="26"/>
+      <c r="E247" s="26"/>
       <c r="F247" t="s">
-        <v>1146</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A248" s="3" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="B248" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C248" s="26" t="s">
-        <v>391</v>
-      </c>
-      <c r="D248" s="26"/>
-      <c r="E248" s="26"/>
-      <c r="F248" s="6" t="s">
-        <v>1147</v>
+      <c r="C248" s="19" t="s">
+        <v>374</v>
+      </c>
+      <c r="D248" s="19"/>
+      <c r="E248" s="19"/>
+      <c r="F248" t="s">
+        <v>1142</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A249" s="3" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="B249" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C249" s="27" t="s">
-        <v>395</v>
-      </c>
-      <c r="D249" s="27"/>
-      <c r="E249" s="27"/>
+      <c r="C249" s="26" t="s">
+        <v>385</v>
+      </c>
+      <c r="D249" s="26"/>
+      <c r="E249" s="26"/>
       <c r="F249" t="s">
-        <v>1148</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A250" s="3" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="B250" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C250" s="26" t="s">
-        <v>396</v>
-      </c>
-      <c r="D250" s="26"/>
-      <c r="E250" s="26"/>
+      <c r="C250" s="19" t="s">
+        <v>387</v>
+      </c>
+      <c r="D250" s="19"/>
+      <c r="E250" s="19"/>
       <c r="F250" t="s">
-        <v>1149</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A251" s="3" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
       <c r="B251" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C251" s="26" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="D251" s="26"/>
       <c r="E251" s="26"/>
-      <c r="F251" t="s">
-        <v>1150</v>
+      <c r="F251" s="6" t="s">
+        <v>1145</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A252" s="3" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
       <c r="B252" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C252" s="26" t="s">
-        <v>393</v>
-      </c>
-      <c r="D252" s="26"/>
-      <c r="E252" s="26"/>
+      <c r="C252" s="27" t="s">
+        <v>395</v>
+      </c>
+      <c r="D252" s="27"/>
+      <c r="E252" s="27"/>
       <c r="F252" t="s">
-        <v>1151</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A253" s="3" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
       <c r="B253" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C253" s="19" t="s">
-        <v>389</v>
-      </c>
-      <c r="D253" s="19"/>
-      <c r="E253" s="19"/>
+      <c r="C253" s="26" t="s">
+        <v>396</v>
+      </c>
+      <c r="D253" s="26"/>
+      <c r="E253" s="26"/>
       <c r="F253" t="s">
-        <v>1152</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A254" s="3" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="B254" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C254" s="27" t="s">
-        <v>401</v>
-      </c>
-      <c r="D254" s="27"/>
-      <c r="E254" s="27"/>
+      <c r="C254" s="26" t="s">
+        <v>397</v>
+      </c>
+      <c r="D254" s="26"/>
+      <c r="E254" s="26"/>
       <c r="F254" t="s">
-        <v>1153</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A255" s="3" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="B255" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C255" s="26" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="D255" s="26"/>
       <c r="E255" s="26"/>
       <c r="F255" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256" s="3" t="s">
-        <v>848</v>
+        <v>843</v>
       </c>
       <c r="B256" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C256" s="19" t="s">
-        <v>405</v>
+        <v>389</v>
       </c>
       <c r="D256" s="19"/>
       <c r="E256" s="19"/>
       <c r="F256" t="s">
-        <v>1155</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A257" s="3" t="s">
-        <v>849</v>
+        <v>844</v>
       </c>
       <c r="B257" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C257" s="26" t="s">
-        <v>406</v>
-      </c>
-      <c r="D257" s="26"/>
-      <c r="E257" s="26"/>
+      <c r="C257" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="D257" s="27"/>
+      <c r="E257" s="27"/>
       <c r="F257" t="s">
-        <v>1156</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A258" s="3" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="B258" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C258" s="19" t="s">
-        <v>523</v>
-      </c>
-      <c r="D258" s="19"/>
-      <c r="E258" s="19"/>
+      <c r="C258" s="26" t="s">
+        <v>403</v>
+      </c>
+      <c r="D258" s="26"/>
+      <c r="E258" s="26"/>
       <c r="F258" t="s">
-        <v>1157</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A259" s="3" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="B259" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C259" s="27" t="s">
-        <v>407</v>
-      </c>
-      <c r="D259" s="27"/>
-      <c r="E259" s="27"/>
+      <c r="C259" s="19" t="s">
+        <v>405</v>
+      </c>
+      <c r="D259" s="19"/>
+      <c r="E259" s="19"/>
       <c r="F259" t="s">
-        <v>1158</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A260" s="3" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="B260" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C260" s="19" t="s">
-        <v>408</v>
-      </c>
-      <c r="D260" s="19"/>
-      <c r="E260" s="19"/>
+      <c r="C260" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="D260" s="26"/>
+      <c r="E260" s="26"/>
       <c r="F260" t="s">
-        <v>1159</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A261" s="3" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="B261" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C261" s="26" t="s">
-        <v>409</v>
-      </c>
-      <c r="D261" s="26"/>
-      <c r="E261" s="26"/>
+      <c r="C261" s="19" t="s">
+        <v>523</v>
+      </c>
+      <c r="D261" s="19"/>
+      <c r="E261" s="19"/>
       <c r="F261" t="s">
-        <v>1160</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A262" s="3" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
       <c r="B262" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C262" s="18" t="s">
-        <v>517</v>
-      </c>
-      <c r="D262" s="18"/>
-      <c r="E262" s="18"/>
-      <c r="F262" s="6" t="s">
-        <v>1161</v>
+      <c r="C262" s="27" t="s">
+        <v>407</v>
+      </c>
+      <c r="D262" s="27"/>
+      <c r="E262" s="27"/>
+      <c r="F262" t="s">
+        <v>1156</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A263" s="3" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="B263" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C263" s="26" t="s">
-        <v>410</v>
-      </c>
-      <c r="D263" s="26"/>
-      <c r="E263" s="26"/>
+      <c r="C263" s="19" t="s">
+        <v>408</v>
+      </c>
+      <c r="D263" s="19"/>
+      <c r="E263" s="19"/>
       <c r="F263" t="s">
-        <v>1162</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A264" s="3" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="B264" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C264" s="26" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D264" s="26"/>
       <c r="E264" s="26"/>
       <c r="F264" t="s">
-        <v>1163</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A265" s="3" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
       <c r="B265" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C265" s="26" t="s">
-        <v>412</v>
-      </c>
-      <c r="D265" s="26"/>
-      <c r="E265" s="26"/>
-      <c r="F265" t="s">
-        <v>1164</v>
+      <c r="C265" s="18" t="s">
+        <v>517</v>
+      </c>
+      <c r="D265" s="18"/>
+      <c r="E265" s="18"/>
+      <c r="F265" s="6" t="s">
+        <v>1159</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A266" s="3" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="B266" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C266" s="26" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D266" s="26"/>
       <c r="E266" s="26"/>
       <c r="F266" t="s">
-        <v>1165</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A267" s="3" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
       <c r="B267" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C267" s="26" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D267" s="26"/>
       <c r="E267" s="26"/>
       <c r="F267" t="s">
-        <v>1166</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A268" s="3" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
       <c r="B268" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C268" s="19" t="s">
-        <v>514</v>
-      </c>
-      <c r="D268" s="19"/>
-      <c r="E268" s="19"/>
+      <c r="C268" s="26" t="s">
+        <v>412</v>
+      </c>
+      <c r="D268" s="26"/>
+      <c r="E268" s="26"/>
       <c r="F268" t="s">
-        <v>1167</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A269" s="3" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="B269" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C269" s="19" t="s">
-        <v>513</v>
-      </c>
-      <c r="D269" s="19"/>
-      <c r="E269" s="19"/>
+      <c r="C269" s="26" t="s">
+        <v>413</v>
+      </c>
+      <c r="D269" s="26"/>
+      <c r="E269" s="26"/>
       <c r="F269" t="s">
-        <v>1168</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A270" s="3" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="B270" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C270" s="26" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="D270" s="26"/>
       <c r="E270" s="26"/>
       <c r="F270" t="s">
-        <v>1169</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A271" s="3" t="s">
-        <v>863</v>
+        <v>858</v>
       </c>
       <c r="B271" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C271" s="26" t="s">
-        <v>425</v>
-      </c>
-      <c r="D271" s="26"/>
-      <c r="E271" s="26"/>
-      <c r="F271" s="6" t="s">
-        <v>1170</v>
+      <c r="C271" s="19" t="s">
+        <v>514</v>
+      </c>
+      <c r="D271" s="19"/>
+      <c r="E271" s="19"/>
+      <c r="F271" t="s">
+        <v>1165</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A272" s="3" t="s">
-        <v>864</v>
+        <v>859</v>
       </c>
       <c r="B272" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C272" s="26" t="s">
-        <v>429</v>
-      </c>
-      <c r="D272" s="26"/>
-      <c r="E272" s="26"/>
-      <c r="F272" s="6" t="s">
-        <v>1171</v>
+      <c r="C272" s="19" t="s">
+        <v>513</v>
+      </c>
+      <c r="D272" s="19"/>
+      <c r="E272" s="19"/>
+      <c r="F272" t="s">
+        <v>1166</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A273" s="3" t="s">
-        <v>865</v>
+        <v>860</v>
       </c>
       <c r="B273" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C273" s="19" t="s">
-        <v>511</v>
-      </c>
-      <c r="D273" s="19"/>
-      <c r="E273" s="19"/>
+      <c r="C273" s="26" t="s">
+        <v>426</v>
+      </c>
+      <c r="D273" s="26"/>
+      <c r="E273" s="26"/>
       <c r="F273" t="s">
-        <v>1172</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A274" s="3" t="s">
-        <v>866</v>
+        <v>861</v>
       </c>
       <c r="B274" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C274" s="26" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="D274" s="26"/>
       <c r="E274" s="26"/>
-      <c r="F274" t="s">
-        <v>1173</v>
+      <c r="F274" s="6" t="s">
+        <v>1168</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A275" s="3" t="s">
-        <v>867</v>
+        <v>862</v>
       </c>
       <c r="B275" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C275" s="18" t="s">
-        <v>427</v>
-      </c>
-      <c r="D275" s="18"/>
-      <c r="E275" s="18"/>
-      <c r="F275" t="s">
-        <v>1174</v>
+      <c r="C275" s="26" t="s">
+        <v>429</v>
+      </c>
+      <c r="D275" s="26"/>
+      <c r="E275" s="26"/>
+      <c r="F275" s="6" t="s">
+        <v>1169</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A276" s="3" t="s">
-        <v>868</v>
+        <v>863</v>
       </c>
       <c r="B276" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C276" s="19" t="s">
-        <v>428</v>
+        <v>511</v>
       </c>
       <c r="D276" s="19"/>
       <c r="E276" s="19"/>
       <c r="F276" t="s">
-        <v>1175</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A277" s="3" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
       <c r="B277" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C277" s="19" t="s">
-        <v>432</v>
-      </c>
-      <c r="D277" s="19"/>
-      <c r="E277" s="19"/>
+      <c r="C277" s="26" t="s">
+        <v>430</v>
+      </c>
+      <c r="D277" s="26"/>
+      <c r="E277" s="26"/>
       <c r="F277" t="s">
-        <v>1176</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A278" s="3" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
       <c r="B278" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C278" s="19" t="s">
-        <v>431</v>
-      </c>
-      <c r="D278" s="19"/>
-      <c r="E278" s="19"/>
+      <c r="C278" s="18" t="s">
+        <v>427</v>
+      </c>
+      <c r="D278" s="18"/>
+      <c r="E278" s="18"/>
       <c r="F278" t="s">
-        <v>1177</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A279" s="3" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
       <c r="B279" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C279" s="26" t="s">
-        <v>433</v>
-      </c>
-      <c r="D279" s="26"/>
-      <c r="E279" s="26"/>
-      <c r="F279" s="6" t="s">
-        <v>1178</v>
+      <c r="C279" s="19" t="s">
+        <v>428</v>
+      </c>
+      <c r="D279" s="19"/>
+      <c r="E279" s="19"/>
+      <c r="F279" t="s">
+        <v>1173</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A280" s="3" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
       <c r="B280" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C280" s="27" t="s">
-        <v>434</v>
-      </c>
-      <c r="D280" s="27"/>
-      <c r="E280" s="27"/>
+      <c r="C280" s="19" t="s">
+        <v>432</v>
+      </c>
+      <c r="D280" s="19"/>
+      <c r="E280" s="19"/>
       <c r="F280" t="s">
-        <v>1179</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A281" s="3" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
       <c r="B281" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C281" s="19" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="D281" s="19"/>
       <c r="E281" s="19"/>
       <c r="F281" t="s">
-        <v>1180</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A282" s="3" t="s">
-        <v>874</v>
+        <v>869</v>
       </c>
       <c r="B282" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C282" s="19" t="s">
-        <v>436</v>
-      </c>
-      <c r="D282" s="19"/>
-      <c r="E282" s="19"/>
-      <c r="F282" t="s">
-        <v>1181</v>
+      <c r="C282" s="26" t="s">
+        <v>433</v>
+      </c>
+      <c r="D282" s="26"/>
+      <c r="E282" s="26"/>
+      <c r="F282" s="6" t="s">
+        <v>1176</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A283" s="3" t="s">
-        <v>875</v>
+        <v>870</v>
       </c>
       <c r="B283" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C283" s="19" t="s">
-        <v>437</v>
-      </c>
-      <c r="D283" s="19"/>
-      <c r="E283" s="19"/>
+      <c r="C283" s="27" t="s">
+        <v>434</v>
+      </c>
+      <c r="D283" s="27"/>
+      <c r="E283" s="27"/>
       <c r="F283" t="s">
-        <v>1182</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A284" s="3" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
       <c r="B284" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C284" s="27" t="s">
-        <v>438</v>
-      </c>
-      <c r="D284" s="27"/>
-      <c r="E284" s="27"/>
+      <c r="C284" s="19" t="s">
+        <v>435</v>
+      </c>
+      <c r="D284" s="19"/>
+      <c r="E284" s="19"/>
       <c r="F284" t="s">
-        <v>1183</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A285" s="3" t="s">
-        <v>877</v>
+        <v>872</v>
       </c>
       <c r="B285" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C285" s="26" t="s">
-        <v>509</v>
-      </c>
-      <c r="D285" s="26"/>
-      <c r="E285" s="26"/>
+      <c r="C285" s="19" t="s">
+        <v>436</v>
+      </c>
+      <c r="D285" s="19"/>
+      <c r="E285" s="19"/>
       <c r="F285" t="s">
-        <v>1184</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A286" s="3" t="s">
-        <v>878</v>
+        <v>873</v>
       </c>
       <c r="B286" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C286" s="26" t="s">
-        <v>439</v>
-      </c>
-      <c r="D286" s="26"/>
-      <c r="E286" s="26"/>
+      <c r="C286" s="19" t="s">
+        <v>437</v>
+      </c>
+      <c r="D286" s="19"/>
+      <c r="E286" s="19"/>
       <c r="F286" t="s">
-        <v>1185</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A287" s="3" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
       <c r="B287" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C287" s="19" t="s">
-        <v>455</v>
-      </c>
-      <c r="D287" s="19"/>
-      <c r="E287" s="19"/>
+      <c r="C287" s="27" t="s">
+        <v>438</v>
+      </c>
+      <c r="D287" s="27"/>
+      <c r="E287" s="27"/>
       <c r="F287" t="s">
-        <v>1186</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A288" s="3" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
       <c r="B288" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C288" s="19" t="s">
-        <v>456</v>
-      </c>
-      <c r="D288" s="19"/>
-      <c r="E288" s="19"/>
+      <c r="C288" s="26" t="s">
+        <v>509</v>
+      </c>
+      <c r="D288" s="26"/>
+      <c r="E288" s="26"/>
       <c r="F288" t="s">
-        <v>1187</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A289" s="3" t="s">
-        <v>881</v>
+        <v>876</v>
       </c>
       <c r="B289" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C289" s="26" t="s">
-        <v>457</v>
+        <v>439</v>
       </c>
       <c r="D289" s="26"/>
       <c r="E289" s="26"/>
       <c r="F289" t="s">
-        <v>1188</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A290" s="3" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
       <c r="B290" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C290" s="19" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="D290" s="19"/>
       <c r="E290" s="19"/>
       <c r="F290" t="s">
-        <v>1189</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A291" s="3" t="s">
-        <v>883</v>
+        <v>878</v>
       </c>
       <c r="B291" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C291" s="19" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="D291" s="19"/>
       <c r="E291" s="19"/>
       <c r="F291" t="s">
-        <v>1190</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A292" s="3" t="s">
-        <v>884</v>
+        <v>879</v>
       </c>
       <c r="B292" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C292" s="19" t="s">
-        <v>461</v>
-      </c>
-      <c r="D292" s="19"/>
-      <c r="E292" s="19"/>
+      <c r="C292" s="26" t="s">
+        <v>457</v>
+      </c>
+      <c r="D292" s="26"/>
+      <c r="E292" s="26"/>
       <c r="F292" t="s">
-        <v>1191</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A293" s="3" t="s">
-        <v>885</v>
+        <v>880</v>
       </c>
       <c r="B293" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C293" s="19" t="s">
-        <v>505</v>
+        <v>458</v>
       </c>
       <c r="D293" s="19"/>
       <c r="E293" s="19"/>
       <c r="F293" t="s">
-        <v>1192</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A294" s="3" t="s">
-        <v>886</v>
+        <v>881</v>
       </c>
       <c r="B294" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C294" s="26" t="s">
-        <v>460</v>
-      </c>
-      <c r="D294" s="26"/>
-      <c r="E294" s="26"/>
+      <c r="C294" s="19" t="s">
+        <v>459</v>
+      </c>
+      <c r="D294" s="19"/>
+      <c r="E294" s="19"/>
       <c r="F294" t="s">
-        <v>1193</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A295" s="3" t="s">
-        <v>887</v>
+        <v>882</v>
       </c>
       <c r="B295" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C295" s="26" t="s">
-        <v>462</v>
-      </c>
-      <c r="D295" s="26"/>
-      <c r="E295" s="26"/>
+      <c r="C295" s="19" t="s">
+        <v>461</v>
+      </c>
+      <c r="D295" s="19"/>
+      <c r="E295" s="19"/>
       <c r="F295" t="s">
-        <v>1194</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A296" s="3" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
       <c r="B296" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C296" s="26" t="s">
-        <v>463</v>
-      </c>
-      <c r="D296" s="26"/>
-      <c r="E296" s="26"/>
+      <c r="C296" s="19" t="s">
+        <v>505</v>
+      </c>
+      <c r="D296" s="19"/>
+      <c r="E296" s="19"/>
       <c r="F296" t="s">
-        <v>1195</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A297" s="3" t="s">
-        <v>889</v>
+        <v>884</v>
       </c>
       <c r="B297" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C297" s="26" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="D297" s="26"/>
       <c r="E297" s="26"/>
       <c r="F297" t="s">
-        <v>1196</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A298" s="3" t="s">
-        <v>890</v>
+        <v>885</v>
       </c>
       <c r="B298" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C298" s="26" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D298" s="26"/>
       <c r="E298" s="26"/>
       <c r="F298" t="s">
-        <v>1197</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A299" s="3" t="s">
-        <v>891</v>
+        <v>886</v>
       </c>
       <c r="B299" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C299" s="26" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="D299" s="26"/>
       <c r="E299" s="26"/>
       <c r="F299" t="s">
-        <v>1198</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A300" s="3" t="s">
-        <v>892</v>
+        <v>887</v>
       </c>
       <c r="B300" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C300" s="26" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D300" s="26"/>
       <c r="E300" s="26"/>
-      <c r="F300" s="19" t="s">
-        <v>1199</v>
+      <c r="F300" t="s">
+        <v>1194</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A301" s="3" t="s">
-        <v>893</v>
+        <v>888</v>
       </c>
       <c r="B301" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C301" s="26" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D301" s="26"/>
       <c r="E301" s="26"/>
       <c r="F301" t="s">
-        <v>1200</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A302" s="3" t="s">
-        <v>894</v>
+        <v>889</v>
       </c>
       <c r="B302" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C302" s="26" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="D302" s="26"/>
       <c r="E302" s="26"/>
       <c r="F302" t="s">
-        <v>1201</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A303" s="3" t="s">
-        <v>895</v>
+        <v>890</v>
       </c>
       <c r="B303" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C303" s="27" t="s">
-        <v>485</v>
-      </c>
-      <c r="D303" s="27"/>
-      <c r="E303" s="27"/>
-      <c r="F303" t="s">
-        <v>1202</v>
+      <c r="C303" s="26" t="s">
+        <v>467</v>
+      </c>
+      <c r="D303" s="26"/>
+      <c r="E303" s="26"/>
+      <c r="F303" s="19" t="s">
+        <v>1197</v>
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A304" s="3" t="s">
-        <v>896</v>
+        <v>891</v>
       </c>
       <c r="B304" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C304" s="26" t="s">
-        <v>486</v>
+        <v>468</v>
       </c>
       <c r="D304" s="26"/>
       <c r="E304" s="26"/>
       <c r="F304" t="s">
-        <v>1203</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A305" s="3" t="s">
-        <v>897</v>
+        <v>892</v>
       </c>
       <c r="B305" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C305" s="19" t="s">
-        <v>487</v>
-      </c>
-      <c r="D305" s="19"/>
-      <c r="E305" s="19"/>
+      <c r="C305" s="26" t="s">
+        <v>469</v>
+      </c>
+      <c r="D305" s="26"/>
+      <c r="E305" s="26"/>
       <c r="F305" t="s">
-        <v>1204</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A306" s="3" t="s">
-        <v>898</v>
+        <v>893</v>
       </c>
       <c r="B306" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C306" s="19" t="s">
-        <v>488</v>
-      </c>
-      <c r="D306" s="19"/>
-      <c r="E306" s="19"/>
+      <c r="C306" s="27" t="s">
+        <v>485</v>
+      </c>
+      <c r="D306" s="27"/>
+      <c r="E306" s="27"/>
       <c r="F306" t="s">
-        <v>1205</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A307" s="3" t="s">
-        <v>899</v>
+        <v>894</v>
       </c>
       <c r="B307" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C307" s="19" t="s">
-        <v>489</v>
-      </c>
-      <c r="D307" s="19"/>
-      <c r="E307" s="19"/>
+      <c r="C307" s="26" t="s">
+        <v>486</v>
+      </c>
+      <c r="D307" s="26"/>
+      <c r="E307" s="26"/>
       <c r="F307" t="s">
-        <v>1206</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A308" s="3" t="s">
-        <v>900</v>
+        <v>895</v>
       </c>
       <c r="B308" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C308" s="19" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="D308" s="19"/>
       <c r="E308" s="19"/>
       <c r="F308" t="s">
-        <v>1207</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A309" s="3" t="s">
-        <v>901</v>
+        <v>896</v>
       </c>
       <c r="B309" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C309" s="26" t="s">
-        <v>507</v>
-      </c>
-      <c r="D309" s="26"/>
-      <c r="E309" s="26"/>
+      <c r="C309" s="19" t="s">
+        <v>488</v>
+      </c>
+      <c r="D309" s="19"/>
+      <c r="E309" s="19"/>
       <c r="F309" t="s">
-        <v>1208</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A310" s="3" t="s">
-        <v>902</v>
+        <v>897</v>
       </c>
       <c r="B310" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C310" s="19" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="D310" s="19"/>
       <c r="E310" s="19"/>
       <c r="F310" t="s">
-        <v>1209</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A311" s="3" t="s">
-        <v>903</v>
+        <v>898</v>
       </c>
       <c r="B311" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C311" s="19" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="D311" s="19"/>
       <c r="E311" s="19"/>
       <c r="F311" t="s">
-        <v>1210</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A312" s="3" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
       <c r="B312" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C312" s="18" t="s">
-        <v>501</v>
-      </c>
-      <c r="D312" s="18"/>
-      <c r="E312" s="18"/>
-      <c r="F312" s="6" t="s">
-        <v>1211</v>
+      <c r="C312" s="26" t="s">
+        <v>507</v>
+      </c>
+      <c r="D312" s="26"/>
+      <c r="E312" s="26"/>
+      <c r="F312" t="s">
+        <v>1206</v>
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A313" s="3" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="B313" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C313" s="27" t="s">
+      <c r="C313" s="19" t="s">
+        <v>497</v>
+      </c>
+      <c r="D313" s="19"/>
+      <c r="E313" s="19"/>
+      <c r="F313" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A314" s="3" t="s">
+        <v>901</v>
+      </c>
+      <c r="B314" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C314" s="19" t="s">
+        <v>499</v>
+      </c>
+      <c r="D314" s="19"/>
+      <c r="E314" s="19"/>
+      <c r="F314" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A315" s="3" t="s">
+        <v>902</v>
+      </c>
+      <c r="B315" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C315" s="18" t="s">
+        <v>501</v>
+      </c>
+      <c r="D315" s="18"/>
+      <c r="E315" s="18"/>
+      <c r="F315" s="6" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A316" s="3" t="s">
+        <v>903</v>
+      </c>
+      <c r="B316" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C316" s="27" t="s">
         <v>503</v>
       </c>
-      <c r="D313" s="27"/>
-      <c r="E313" s="27"/>
-      <c r="F313" s="6" t="s">
-        <v>1212</v>
+      <c r="D316" s="27"/>
+      <c r="E316" s="27"/>
+      <c r="F316" s="6" t="s">
+        <v>1210</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F313" xr:uid="{B8FBB380-25CE-48E1-8B68-143CBA8DEA45}"/>
+  <autoFilter ref="A1:F316" xr:uid="{B8FBB380-25CE-48E1-8B68-143CBA8DEA45}"/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/slackbuilds/sb_migr.xlsx
+++ b/slackbuilds/sb_migr.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\projects.new\sh\cvstogit\slackbuilds\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24AECDCE-346C-4634-A9E4-C2089EEE888F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADEA13A9-7753-48FF-9989-B4F9658994E8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">List!$A$1:$G$311</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Revisions!$A$1:$F$316</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Revisions!$A$1:$F$318</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1933" uniqueCount="1269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1938" uniqueCount="1272">
   <si>
     <t>Package</t>
   </si>
@@ -3845,6 +3845,15 @@
   </si>
   <si>
     <t>2006-10-31 23:18:27 +0200</t>
+  </si>
+  <si>
+    <t>branch</t>
+  </si>
+  <si>
+    <t>branch_sw</t>
+  </si>
+  <si>
+    <t>current</t>
   </si>
 </sst>
 </file>
@@ -3946,7 +3955,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -4001,7 +4010,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Нормален" xfId="0" builtinId="0"/>
@@ -11499,10 +11507,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{495E7B31-8439-4BBC-8206-DAF1FFDAE945}">
-  <dimension ref="A1:F316"/>
+  <dimension ref="A1:F318"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11545,6 +11553,9 @@
       <c r="C2" t="s">
         <v>629</v>
       </c>
+      <c r="D2" t="s">
+        <v>1262</v>
+      </c>
       <c r="E2" t="s">
         <v>631</v>
       </c>
@@ -11560,7 +11571,7 @@
         <v>20</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>633</v>
+        <v>1262</v>
       </c>
       <c r="E3" s="19"/>
       <c r="F3" t="s">
@@ -11578,7 +11589,7 @@
         <v>43</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>633</v>
+        <v>1262</v>
       </c>
       <c r="E4" s="19"/>
       <c r="F4" t="s">
@@ -11596,7 +11607,7 @@
         <v>38</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>633</v>
+        <v>1262</v>
       </c>
       <c r="E5" s="19"/>
       <c r="F5" t="s">
@@ -11614,7 +11625,7 @@
         <v>26</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>633</v>
+        <v>1262</v>
       </c>
       <c r="E6" s="19"/>
       <c r="F6" t="s">
@@ -11632,7 +11643,7 @@
         <v>123</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>633</v>
+        <v>1262</v>
       </c>
       <c r="E7" s="19"/>
       <c r="F7" t="s">
@@ -11649,8 +11660,8 @@
       <c r="C8" s="26" t="s">
         <v>555</v>
       </c>
-      <c r="D8" s="26" t="s">
-        <v>633</v>
+      <c r="D8" s="19" t="s">
+        <v>1262</v>
       </c>
       <c r="E8" s="26"/>
       <c r="F8" t="s">
@@ -11668,7 +11679,7 @@
         <v>110</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>633</v>
+        <v>1262</v>
       </c>
       <c r="E9" s="19"/>
       <c r="F9" t="s">
@@ -11686,7 +11697,7 @@
         <v>111</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>633</v>
+        <v>1262</v>
       </c>
       <c r="E10" s="19"/>
       <c r="F10" t="s">
@@ -11704,7 +11715,7 @@
         <v>577</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>633</v>
+        <v>1262</v>
       </c>
       <c r="E11" s="19"/>
       <c r="F11" t="s">
@@ -11722,7 +11733,7 @@
         <v>6</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>633</v>
+        <v>1262</v>
       </c>
       <c r="E12" s="19"/>
       <c r="F12" t="s">
@@ -11739,8 +11750,8 @@
       <c r="C13" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="18" t="s">
-        <v>633</v>
+      <c r="D13" s="19" t="s">
+        <v>1262</v>
       </c>
       <c r="E13" s="18"/>
       <c r="F13" s="6" t="s">
@@ -11757,8 +11768,8 @@
       <c r="C14" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="18" t="s">
-        <v>633</v>
+      <c r="D14" s="19" t="s">
+        <v>1262</v>
       </c>
       <c r="E14" s="18"/>
       <c r="F14" t="s">
@@ -11775,8 +11786,8 @@
       <c r="C15" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="D15" s="18" t="s">
-        <v>633</v>
+      <c r="D15" s="19" t="s">
+        <v>1262</v>
       </c>
       <c r="E15" s="19"/>
       <c r="F15" t="s">
@@ -11793,8 +11804,8 @@
       <c r="C16" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="D16" s="18" t="s">
-        <v>633</v>
+      <c r="D16" s="19" t="s">
+        <v>1262</v>
       </c>
       <c r="E16" s="19"/>
       <c r="F16" t="s">
@@ -11811,8 +11822,8 @@
       <c r="C17" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="18" t="s">
-        <v>633</v>
+      <c r="D17" s="19" t="s">
+        <v>1262</v>
       </c>
       <c r="E17" s="19"/>
       <c r="F17" t="s">
@@ -11829,8 +11840,8 @@
       <c r="C18" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="18" t="s">
-        <v>633</v>
+      <c r="D18" s="19" t="s">
+        <v>1262</v>
       </c>
       <c r="E18" s="19"/>
       <c r="F18" t="s">
@@ -11847,8 +11858,8 @@
       <c r="C19" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="D19" s="18" t="s">
-        <v>633</v>
+      <c r="D19" s="19" t="s">
+        <v>1262</v>
       </c>
       <c r="E19" s="19"/>
       <c r="F19" s="19" t="s">
@@ -11884,7 +11895,7 @@
         <v>95</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>633</v>
+        <v>1262</v>
       </c>
       <c r="E21" s="19"/>
       <c r="F21" t="s">
@@ -11902,7 +11913,7 @@
         <v>8</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>633</v>
+        <v>1262</v>
       </c>
       <c r="E22" s="19"/>
       <c r="F22" t="s">
@@ -11920,7 +11931,7 @@
         <v>596</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>633</v>
+        <v>1262</v>
       </c>
       <c r="E23" s="18"/>
       <c r="F23" s="6" t="s">
@@ -11938,7 +11949,7 @@
         <v>31</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>633</v>
+        <v>1262</v>
       </c>
       <c r="E24" s="18"/>
       <c r="F24" s="6" t="s">
@@ -11956,7 +11967,7 @@
         <v>1241</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>633</v>
+        <v>1262</v>
       </c>
       <c r="E25" s="19"/>
       <c r="F25" t="s">
@@ -11974,7 +11985,7 @@
         <v>554</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>633</v>
+        <v>1262</v>
       </c>
       <c r="E26" s="19"/>
       <c r="F26" t="s">
@@ -11992,7 +12003,7 @@
         <v>541</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>633</v>
+        <v>1262</v>
       </c>
       <c r="E27" s="26"/>
       <c r="F27" t="s">
@@ -12010,7 +12021,7 @@
         <v>1253</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>633</v>
+        <v>1262</v>
       </c>
       <c r="E28" s="19"/>
       <c r="F28" t="s">
@@ -12028,7 +12039,7 @@
         <v>1254</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>633</v>
+        <v>1262</v>
       </c>
       <c r="E29" s="19"/>
       <c r="F29" t="s">
@@ -12046,7 +12057,7 @@
         <v>28</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>633</v>
+        <v>1262</v>
       </c>
       <c r="E30" s="19"/>
       <c r="F30" t="s">
@@ -12064,7 +12075,7 @@
         <v>57</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>633</v>
+        <v>1262</v>
       </c>
       <c r="E31" s="19"/>
       <c r="F31" t="s">
@@ -12082,7 +12093,7 @@
         <v>59</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>633</v>
+        <v>1262</v>
       </c>
       <c r="E32" s="19"/>
       <c r="F32" t="s">
@@ -12100,7 +12111,7 @@
         <v>22</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>633</v>
+        <v>1262</v>
       </c>
       <c r="E33" s="18"/>
       <c r="F33" t="s">
@@ -12118,7 +12129,7 @@
         <v>1255</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>633</v>
+        <v>1262</v>
       </c>
       <c r="E34" s="19"/>
       <c r="F34" s="19" t="s">
@@ -12136,7 +12147,7 @@
         <v>18</v>
       </c>
       <c r="D35" s="18" t="s">
-        <v>633</v>
+        <v>1262</v>
       </c>
       <c r="E35" s="19"/>
       <c r="F35" t="s">
@@ -12154,7 +12165,7 @@
         <v>16</v>
       </c>
       <c r="D36" s="18" t="s">
-        <v>633</v>
+        <v>1262</v>
       </c>
       <c r="E36" s="19"/>
       <c r="F36" t="s">
@@ -12172,7 +12183,7 @@
         <v>12</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>633</v>
+        <v>1262</v>
       </c>
       <c r="E37" s="19"/>
       <c r="F37" t="s">
@@ -12190,7 +12201,7 @@
         <v>36</v>
       </c>
       <c r="D38" s="18" t="s">
-        <v>633</v>
+        <v>1262</v>
       </c>
       <c r="E38" s="19"/>
       <c r="F38" t="s">
@@ -12208,7 +12219,7 @@
         <v>34</v>
       </c>
       <c r="D39" s="18" t="s">
-        <v>633</v>
+        <v>1262</v>
       </c>
       <c r="E39" s="19"/>
       <c r="F39" t="s">
@@ -12216,4450 +12227,4472 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C40" s="19"/>
+      <c r="D40" s="18" t="s">
+        <v>633</v>
+      </c>
+      <c r="E40" s="19"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C41" s="19"/>
+      <c r="D41" s="18" t="s">
+        <v>1257</v>
+      </c>
+      <c r="E41" s="19"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
         <v>1261</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B42" s="3" t="s">
         <v>628</v>
       </c>
-      <c r="C40" s="19" t="s">
+      <c r="C42" s="19" t="s">
         <v>1259</v>
       </c>
-      <c r="D40" s="34" t="s">
-        <v>1257</v>
-      </c>
-      <c r="E40" s="19" t="s">
+      <c r="D42" s="18" t="s">
+        <v>1271</v>
+      </c>
+      <c r="E42" s="19" t="s">
         <v>1260</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="32" t="s">
-        <v>1256</v>
-      </c>
-      <c r="B41" s="32" t="s">
-        <v>1258</v>
-      </c>
-      <c r="C41" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="D41" s="18" t="s">
-        <v>1263</v>
-      </c>
-      <c r="E41" s="19"/>
-      <c r="F41" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="32" t="s">
-        <v>1264</v>
-      </c>
-      <c r="B42" s="32" t="s">
-        <v>1258</v>
-      </c>
-      <c r="C42" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="D42" s="18" t="s">
-        <v>1263</v>
-      </c>
-      <c r="E42" s="19"/>
-      <c r="F42" t="s">
-        <v>1212</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="32" t="s">
-        <v>1265</v>
+        <v>1256</v>
       </c>
       <c r="B43" s="32" t="s">
         <v>1258</v>
       </c>
       <c r="C43" s="19" t="s">
-        <v>1241</v>
+        <v>18</v>
       </c>
       <c r="D43" s="18" t="s">
         <v>1263</v>
       </c>
       <c r="E43" s="19"/>
       <c r="F43" t="s">
-        <v>926</v>
+        <v>936</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="32" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="B44" s="32" t="s">
         <v>1258</v>
       </c>
       <c r="C44" s="19" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D44" s="18" t="s">
         <v>1263</v>
       </c>
       <c r="E44" s="19"/>
       <c r="F44" t="s">
-        <v>906</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="33" t="s">
-        <v>1267</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>627</v>
-      </c>
-      <c r="C45" s="18" t="s">
-        <v>45</v>
+      <c r="A45" s="32" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B45" s="32" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C45" s="19" t="s">
+        <v>1241</v>
       </c>
       <c r="D45" s="18" t="s">
-        <v>1257</v>
-      </c>
-      <c r="E45" s="18"/>
-      <c r="F45" s="6" t="s">
-        <v>940</v>
+        <v>1263</v>
+      </c>
+      <c r="E45" s="19"/>
+      <c r="F45" t="s">
+        <v>926</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="3" t="s">
-        <v>1268</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>627</v>
+      <c r="A46" s="32" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B46" s="32" t="s">
+        <v>1258</v>
       </c>
       <c r="C46" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="D46" s="19"/>
+        <v>43</v>
+      </c>
+      <c r="D46" s="18" t="s">
+        <v>1263</v>
+      </c>
       <c r="E46" s="19"/>
       <c r="F46" t="s">
-        <v>941</v>
+        <v>906</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="3" t="s">
-        <v>634</v>
+      <c r="A47" s="33" t="s">
+        <v>1267</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C47" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="D47" s="18"/>
+        <v>45</v>
+      </c>
+      <c r="D47" s="18" t="s">
+        <v>1257</v>
+      </c>
       <c r="E47" s="18"/>
-      <c r="F47" t="s">
-        <v>942</v>
+      <c r="F47" s="6" t="s">
+        <v>940</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>635</v>
+        <v>1268</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C48" s="19" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D48" s="19"/>
       <c r="E48" s="19"/>
       <c r="F48" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C49" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="D49" s="19"/>
-      <c r="E49" s="19"/>
+      <c r="C49" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D49" s="18"/>
+      <c r="E49" s="18"/>
       <c r="F49" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C50" s="19" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D50" s="19"/>
       <c r="E50" s="19"/>
       <c r="F50" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C51" s="19" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D51" s="19"/>
       <c r="E51" s="19"/>
       <c r="F51" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C52" s="19" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D52" s="19"/>
       <c r="E52" s="19"/>
       <c r="F52" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C53" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="D53" s="18"/>
-      <c r="E53" s="18"/>
-      <c r="F53" s="6" t="s">
-        <v>948</v>
+      <c r="C53" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D53" s="19"/>
+      <c r="E53" s="19"/>
+      <c r="F53" t="s">
+        <v>946</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C54" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="D54" s="18"/>
-      <c r="E54" s="18"/>
+      <c r="C54" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D54" s="19"/>
+      <c r="E54" s="19"/>
       <c r="F54" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C55" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="D55" s="19"/>
-      <c r="E55" s="19"/>
-      <c r="F55" t="s">
-        <v>950</v>
+      <c r="C55" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="D55" s="18"/>
+      <c r="E55" s="18"/>
+      <c r="F55" s="6" t="s">
+        <v>948</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C56" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="D56" s="19"/>
-      <c r="E56" s="19"/>
+      <c r="C56" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D56" s="18"/>
+      <c r="E56" s="18"/>
       <c r="F56" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C57" s="19" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="D57" s="19"/>
       <c r="E57" s="19"/>
       <c r="F57" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C58" s="19" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D58" s="19"/>
       <c r="E58" s="19"/>
       <c r="F58" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C59" s="19" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="D59" s="19"/>
       <c r="E59" s="19"/>
       <c r="F59" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C60" s="19" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D60" s="19"/>
       <c r="E60" s="19"/>
       <c r="F60" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C61" s="19" t="s">
-        <v>122</v>
+        <v>75</v>
       </c>
       <c r="D61" s="19"/>
       <c r="E61" s="19"/>
       <c r="F61" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C62" s="19" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D62" s="19"/>
       <c r="E62" s="19"/>
       <c r="F62" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C63" s="19" t="s">
-        <v>94</v>
+        <v>122</v>
       </c>
       <c r="D63" s="19"/>
       <c r="E63" s="19"/>
       <c r="F63" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C64" s="19" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D64" s="19"/>
       <c r="E64" s="19"/>
       <c r="F64" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C65" s="26" t="s">
-        <v>542</v>
-      </c>
-      <c r="D65" s="26"/>
-      <c r="E65" s="26"/>
+      <c r="C65" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="D65" s="19"/>
+      <c r="E65" s="19"/>
       <c r="F65" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C66" s="19" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D66" s="19"/>
       <c r="E66" s="19"/>
       <c r="F66" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C67" s="26" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D67" s="26"/>
       <c r="E67" s="26"/>
       <c r="F67" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C68" s="26" t="s">
-        <v>547</v>
-      </c>
-      <c r="D68" s="26"/>
-      <c r="E68" s="26"/>
+      <c r="C68" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="D68" s="19"/>
+      <c r="E68" s="19"/>
       <c r="F68" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C69" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="D69" s="19"/>
-      <c r="E69" s="19"/>
+      <c r="C69" s="26" t="s">
+        <v>543</v>
+      </c>
+      <c r="D69" s="26"/>
+      <c r="E69" s="26"/>
       <c r="F69" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C70" s="18" t="s">
-        <v>548</v>
-      </c>
-      <c r="D70" s="18"/>
-      <c r="E70" s="18"/>
-      <c r="F70" s="6" t="s">
-        <v>965</v>
+      <c r="C70" s="26" t="s">
+        <v>547</v>
+      </c>
+      <c r="D70" s="26"/>
+      <c r="E70" s="26"/>
+      <c r="F70" t="s">
+        <v>963</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C71" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D71" s="19"/>
       <c r="E71" s="19"/>
       <c r="F71" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C72" s="19" t="s">
-        <v>550</v>
-      </c>
-      <c r="D72" s="19"/>
-      <c r="E72" s="19"/>
-      <c r="F72" t="s">
-        <v>967</v>
+      <c r="C72" s="18" t="s">
+        <v>548</v>
+      </c>
+      <c r="D72" s="18"/>
+      <c r="E72" s="18"/>
+      <c r="F72" s="6" t="s">
+        <v>965</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C73" s="18" t="s">
-        <v>549</v>
-      </c>
-      <c r="D73" s="18"/>
-      <c r="E73" s="18"/>
-      <c r="F73" s="6" t="s">
-        <v>968</v>
+      <c r="C73" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="D73" s="19"/>
+      <c r="E73" s="19"/>
+      <c r="F73" t="s">
+        <v>966</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C74" s="19" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D74" s="19"/>
       <c r="E74" s="19"/>
       <c r="F74" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C75" s="19" t="s">
-        <v>552</v>
-      </c>
-      <c r="D75" s="19"/>
-      <c r="E75" s="19"/>
-      <c r="F75" t="s">
-        <v>970</v>
+      <c r="C75" s="18" t="s">
+        <v>549</v>
+      </c>
+      <c r="D75" s="18"/>
+      <c r="E75" s="18"/>
+      <c r="F75" s="6" t="s">
+        <v>968</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C76" s="19" t="s">
-        <v>97</v>
+        <v>551</v>
       </c>
       <c r="D76" s="19"/>
       <c r="E76" s="19"/>
       <c r="F76" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C77" s="19" t="s">
-        <v>98</v>
+        <v>552</v>
       </c>
       <c r="D77" s="19"/>
       <c r="E77" s="19"/>
       <c r="F77" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C78" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="D78" s="18"/>
-      <c r="E78" s="18"/>
-      <c r="F78" s="6" t="s">
-        <v>973</v>
+      <c r="C78" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D78" s="19"/>
+      <c r="E78" s="19"/>
+      <c r="F78" t="s">
+        <v>971</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C79" s="26" t="s">
-        <v>553</v>
-      </c>
-      <c r="D79" s="26"/>
-      <c r="E79" s="26"/>
+      <c r="C79" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="D79" s="19"/>
+      <c r="E79" s="19"/>
       <c r="F79" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C80" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="D80" s="19"/>
-      <c r="E80" s="19"/>
-      <c r="F80" t="s">
-        <v>975</v>
+      <c r="C80" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="D80" s="18"/>
+      <c r="E80" s="18"/>
+      <c r="F80" s="6" t="s">
+        <v>973</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C81" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="D81" s="19"/>
-      <c r="E81" s="19"/>
+      <c r="C81" s="26" t="s">
+        <v>553</v>
+      </c>
+      <c r="D81" s="26"/>
+      <c r="E81" s="26"/>
       <c r="F81" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C82" s="19" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="D82" s="19"/>
       <c r="E82" s="19"/>
       <c r="F82" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C83" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="D83" s="18"/>
-      <c r="E83" s="18"/>
+      <c r="C83" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="D83" s="19"/>
+      <c r="E83" s="19"/>
       <c r="F83" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C84" s="19" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D84" s="19"/>
       <c r="E84" s="19"/>
       <c r="F84" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C85" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="D85" s="19"/>
-      <c r="E85" s="19"/>
+      <c r="C85" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="D85" s="18"/>
+      <c r="E85" s="18"/>
       <c r="F85" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C86" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="D86" s="18"/>
-      <c r="E86" s="18"/>
-      <c r="F86" s="6" t="s">
-        <v>981</v>
+      <c r="C86" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="D86" s="19"/>
+      <c r="E86" s="19"/>
+      <c r="F86" t="s">
+        <v>979</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C87" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="D87" s="18"/>
-      <c r="E87" s="18"/>
-      <c r="F87" s="6" t="s">
-        <v>982</v>
+      <c r="C87" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="D87" s="19"/>
+      <c r="E87" s="19"/>
+      <c r="F87" t="s">
+        <v>980</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C88" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="D88" s="19"/>
-      <c r="E88" s="19"/>
-      <c r="F88" t="s">
-        <v>983</v>
+      <c r="C88" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="D88" s="18"/>
+      <c r="E88" s="18"/>
+      <c r="F88" s="6" t="s">
+        <v>981</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C89" s="18" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="D89" s="18"/>
       <c r="E89" s="18"/>
-      <c r="F89" t="s">
-        <v>984</v>
+      <c r="F89" s="6" t="s">
+        <v>982</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C90" s="19" t="s">
-        <v>169</v>
+        <v>127</v>
       </c>
       <c r="D90" s="19"/>
       <c r="E90" s="19"/>
       <c r="F90" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C91" s="18" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D91" s="18"/>
       <c r="E91" s="18"/>
       <c r="F91" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C92" s="19" t="s">
-        <v>133</v>
+        <v>169</v>
       </c>
       <c r="D92" s="19"/>
       <c r="E92" s="19"/>
       <c r="F92" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C93" s="26" t="s">
-        <v>578</v>
-      </c>
-      <c r="D93" s="26"/>
-      <c r="E93" s="26"/>
+      <c r="C93" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="D93" s="18"/>
+      <c r="E93" s="18"/>
       <c r="F93" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C94" s="26" t="s">
-        <v>556</v>
-      </c>
-      <c r="D94" s="26"/>
-      <c r="E94" s="26"/>
+      <c r="C94" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="D94" s="19"/>
+      <c r="E94" s="19"/>
       <c r="F94" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B95" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C95" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="D95" s="19"/>
-      <c r="E95" s="19"/>
+      <c r="C95" s="26" t="s">
+        <v>578</v>
+      </c>
+      <c r="D95" s="26"/>
+      <c r="E95" s="26"/>
       <c r="F95" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C96" s="19" t="s">
-        <v>567</v>
-      </c>
-      <c r="D96" s="19"/>
-      <c r="E96" s="19"/>
+      <c r="C96" s="26" t="s">
+        <v>556</v>
+      </c>
+      <c r="D96" s="26"/>
+      <c r="E96" s="26"/>
       <c r="F96" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C97" s="19" t="s">
-        <v>569</v>
+        <v>135</v>
       </c>
       <c r="D97" s="19"/>
       <c r="E97" s="19"/>
       <c r="F97" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C98" s="19" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
       <c r="D98" s="19"/>
       <c r="E98" s="19"/>
       <c r="F98" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C99" s="19" t="s">
-        <v>580</v>
+        <v>569</v>
       </c>
       <c r="D99" s="19"/>
       <c r="E99" s="19"/>
       <c r="F99" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C100" s="26" t="s">
-        <v>539</v>
-      </c>
-      <c r="D100" s="26"/>
-      <c r="E100" s="26"/>
+      <c r="C100" s="19" t="s">
+        <v>579</v>
+      </c>
+      <c r="D100" s="19"/>
+      <c r="E100" s="19"/>
       <c r="F100" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C101" s="19" t="s">
-        <v>143</v>
+        <v>580</v>
       </c>
       <c r="D101" s="19"/>
       <c r="E101" s="19"/>
       <c r="F101" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C102" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="D102" s="19"/>
-      <c r="E102" s="19"/>
+      <c r="C102" s="26" t="s">
+        <v>539</v>
+      </c>
+      <c r="D102" s="26"/>
+      <c r="E102" s="26"/>
       <c r="F102" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C103" s="26" t="s">
-        <v>581</v>
-      </c>
-      <c r="D103" s="26"/>
-      <c r="E103" s="26"/>
+      <c r="C103" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="D103" s="19"/>
+      <c r="E103" s="19"/>
       <c r="F103" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C104" s="19" t="s">
-        <v>531</v>
+        <v>145</v>
       </c>
       <c r="D104" s="19"/>
       <c r="E104" s="19"/>
       <c r="F104" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C105" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="D105" s="19"/>
-      <c r="E105" s="19"/>
+      <c r="C105" s="26" t="s">
+        <v>581</v>
+      </c>
+      <c r="D105" s="26"/>
+      <c r="E105" s="26"/>
       <c r="F105" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C106" s="26" t="s">
-        <v>582</v>
-      </c>
-      <c r="D106" s="26"/>
-      <c r="E106" s="26"/>
+      <c r="C106" s="19" t="s">
+        <v>531</v>
+      </c>
+      <c r="D106" s="19"/>
+      <c r="E106" s="19"/>
       <c r="F106" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="B107" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C107" s="19" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D107" s="19"/>
       <c r="E107" s="19"/>
       <c r="F107" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="B108" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C108" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="D108" s="19"/>
-      <c r="E108" s="19"/>
+      <c r="C108" s="26" t="s">
+        <v>582</v>
+      </c>
+      <c r="D108" s="26"/>
+      <c r="E108" s="26"/>
       <c r="F108" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="B109" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C109" s="26" t="s">
-        <v>140</v>
-      </c>
-      <c r="D109" s="26"/>
-      <c r="E109" s="26"/>
+      <c r="C109" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="D109" s="19"/>
+      <c r="E109" s="19"/>
       <c r="F109" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="B110" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C110" s="19" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
       <c r="D110" s="19"/>
       <c r="E110" s="19"/>
       <c r="F110" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B111" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C111" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="D111" s="19"/>
-      <c r="E111" s="19"/>
+      <c r="C111" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="D111" s="26"/>
+      <c r="E111" s="26"/>
       <c r="F111" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="B112" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C112" s="26" t="s">
-        <v>527</v>
-      </c>
-      <c r="D112" s="26"/>
-      <c r="E112" s="26"/>
+      <c r="C112" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="D112" s="19"/>
+      <c r="E112" s="19"/>
       <c r="F112" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="B113" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C113" s="19" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D113" s="19"/>
       <c r="E113" s="19"/>
       <c r="F113" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="B114" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C114" s="19" t="s">
-        <v>525</v>
-      </c>
-      <c r="D114" s="19"/>
-      <c r="E114" s="19"/>
+      <c r="C114" s="26" t="s">
+        <v>527</v>
+      </c>
+      <c r="D114" s="26"/>
+      <c r="E114" s="26"/>
       <c r="F114" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C115" s="26" t="s">
-        <v>583</v>
-      </c>
-      <c r="D115" s="26"/>
-      <c r="E115" s="26"/>
+      <c r="C115" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="D115" s="19"/>
+      <c r="E115" s="19"/>
       <c r="F115" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="3" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C116" s="26" t="s">
-        <v>571</v>
-      </c>
-      <c r="D116" s="26"/>
-      <c r="E116" s="26"/>
+      <c r="C116" s="19" t="s">
+        <v>525</v>
+      </c>
+      <c r="D116" s="19"/>
+      <c r="E116" s="19"/>
       <c r="F116" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="3" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="B117" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C117" s="19" t="s">
-        <v>573</v>
-      </c>
-      <c r="D117" s="19"/>
-      <c r="E117" s="19"/>
+      <c r="C117" s="26" t="s">
+        <v>583</v>
+      </c>
+      <c r="D117" s="26"/>
+      <c r="E117" s="26"/>
       <c r="F117" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="B118" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C118" s="19" t="s">
-        <v>575</v>
-      </c>
-      <c r="D118" s="19"/>
-      <c r="E118" s="19"/>
+      <c r="C118" s="26" t="s">
+        <v>571</v>
+      </c>
+      <c r="D118" s="26"/>
+      <c r="E118" s="26"/>
       <c r="F118" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="B119" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C119" s="26" t="s">
-        <v>584</v>
-      </c>
-      <c r="D119" s="26"/>
-      <c r="E119" s="26"/>
+      <c r="C119" s="19" t="s">
+        <v>573</v>
+      </c>
+      <c r="D119" s="19"/>
+      <c r="E119" s="19"/>
       <c r="F119" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="B120" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C120" s="26" t="s">
-        <v>585</v>
-      </c>
-      <c r="D120" s="26"/>
-      <c r="E120" s="26"/>
+      <c r="C120" s="19" t="s">
+        <v>575</v>
+      </c>
+      <c r="D120" s="19"/>
+      <c r="E120" s="19"/>
       <c r="F120" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B121" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C121" s="19" t="s">
-        <v>156</v>
-      </c>
-      <c r="D121" s="19"/>
-      <c r="E121" s="19"/>
+      <c r="C121" s="26" t="s">
+        <v>584</v>
+      </c>
+      <c r="D121" s="26"/>
+      <c r="E121" s="26"/>
       <c r="F121" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B122" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C122" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="D122" s="19"/>
-      <c r="E122" s="19"/>
+      <c r="C122" s="26" t="s">
+        <v>585</v>
+      </c>
+      <c r="D122" s="26"/>
+      <c r="E122" s="26"/>
       <c r="F122" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B123" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C123" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="D123" s="18"/>
-      <c r="E123" s="18"/>
-      <c r="F123" s="6" t="s">
-        <v>1018</v>
+      <c r="C123" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="D123" s="19"/>
+      <c r="E123" s="19"/>
+      <c r="F123" t="s">
+        <v>1016</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="3" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="B124" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C124" s="26" t="s">
-        <v>595</v>
-      </c>
-      <c r="D124" s="26"/>
-      <c r="E124" s="26"/>
+      <c r="C124" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="D124" s="19"/>
+      <c r="E124" s="19"/>
       <c r="F124" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B125" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C125" s="19" t="s">
-        <v>163</v>
-      </c>
-      <c r="D125" s="19"/>
-      <c r="E125" s="19"/>
-      <c r="F125" t="s">
-        <v>1020</v>
+      <c r="C125" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="D125" s="18"/>
+      <c r="E125" s="18"/>
+      <c r="F125" s="6" t="s">
+        <v>1018</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="B126" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C126" s="26" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="D126" s="26"/>
       <c r="E126" s="26"/>
       <c r="F126" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B127" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C127" s="19" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D127" s="19"/>
       <c r="E127" s="19"/>
       <c r="F127" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="3" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B128" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C128" s="19" t="s">
-        <v>251</v>
-      </c>
-      <c r="D128" s="19"/>
-      <c r="E128" s="19"/>
+      <c r="C128" s="26" t="s">
+        <v>599</v>
+      </c>
+      <c r="D128" s="26"/>
+      <c r="E128" s="26"/>
       <c r="F128" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="3" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="B129" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C129" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="D129" s="26"/>
-      <c r="E129" s="26"/>
+      <c r="C129" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="D129" s="19"/>
+      <c r="E129" s="19"/>
       <c r="F129" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="3" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="B130" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C130" s="27" t="s">
-        <v>171</v>
-      </c>
-      <c r="D130" s="27"/>
-      <c r="E130" s="27"/>
+      <c r="C130" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="D130" s="19"/>
+      <c r="E130" s="19"/>
       <c r="F130" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="3" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="B131" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C131" s="19" t="s">
-        <v>172</v>
-      </c>
-      <c r="D131" s="19"/>
-      <c r="E131" s="19"/>
+      <c r="C131" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="D131" s="26"/>
+      <c r="E131" s="26"/>
       <c r="F131" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="3" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="B132" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C132" s="26" t="s">
-        <v>601</v>
-      </c>
-      <c r="D132" s="26"/>
-      <c r="E132" s="26"/>
+      <c r="C132" s="27" t="s">
+        <v>171</v>
+      </c>
+      <c r="D132" s="27"/>
+      <c r="E132" s="27"/>
       <c r="F132" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="3" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="B133" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C133" s="26" t="s">
-        <v>173</v>
-      </c>
-      <c r="D133" s="26"/>
-      <c r="E133" s="26"/>
+      <c r="C133" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="D133" s="19"/>
+      <c r="E133" s="19"/>
       <c r="F133" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="3" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="B134" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C134" s="26" t="s">
-        <v>189</v>
+        <v>601</v>
       </c>
       <c r="D134" s="26"/>
       <c r="E134" s="26"/>
       <c r="F134" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="3" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="B135" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C135" s="26" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D135" s="26"/>
       <c r="E135" s="26"/>
       <c r="F135" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="3" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="B136" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C136" s="26" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="D136" s="26"/>
       <c r="E136" s="26"/>
       <c r="F136" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="3" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="B137" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C137" s="26" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D137" s="26"/>
       <c r="E137" s="26"/>
       <c r="F137" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="3" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B138" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C138" s="26" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="D138" s="26"/>
       <c r="E138" s="26"/>
       <c r="F138" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="3" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="B139" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C139" s="26" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="D139" s="26"/>
       <c r="E139" s="26"/>
       <c r="F139" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="3" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="B140" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C140" s="26" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D140" s="26"/>
       <c r="E140" s="26"/>
       <c r="F140" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="3" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="B141" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C141" s="19" t="s">
-        <v>186</v>
-      </c>
-      <c r="D141" s="19"/>
-      <c r="E141" s="19"/>
+      <c r="C141" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="D141" s="26"/>
+      <c r="E141" s="26"/>
       <c r="F141" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="3" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="B142" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C142" s="26" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D142" s="26"/>
       <c r="E142" s="26"/>
       <c r="F142" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="3" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="B143" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C143" s="27" t="s">
-        <v>188</v>
-      </c>
-      <c r="D143" s="27"/>
-      <c r="E143" s="27"/>
+      <c r="C143" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="D143" s="19"/>
+      <c r="E143" s="19"/>
       <c r="F143" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="3" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="B144" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C144" s="26" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="D144" s="26"/>
       <c r="E144" s="26"/>
       <c r="F144" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="3" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="B145" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C145" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="D145" s="26"/>
-      <c r="E145" s="26"/>
+      <c r="C145" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="D145" s="27"/>
+      <c r="E145" s="27"/>
       <c r="F145" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="3" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B146" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C146" s="26" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D146" s="26"/>
       <c r="E146" s="26"/>
       <c r="F146" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="3" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="B147" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C147" s="26" t="s">
-        <v>605</v>
+        <v>190</v>
       </c>
       <c r="D147" s="26"/>
       <c r="E147" s="26"/>
       <c r="F147" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" s="3" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="B148" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C148" s="19" t="s">
-        <v>603</v>
-      </c>
-      <c r="D148" s="19"/>
-      <c r="E148" s="19"/>
+      <c r="C148" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="D148" s="26"/>
+      <c r="E148" s="26"/>
       <c r="F148" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="3" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="B149" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C149" s="26" t="s">
-        <v>205</v>
+        <v>605</v>
       </c>
       <c r="D149" s="26"/>
       <c r="E149" s="26"/>
       <c r="F149" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" s="3" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="B150" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C150" s="26" t="s">
-        <v>206</v>
-      </c>
-      <c r="D150" s="26"/>
-      <c r="E150" s="26"/>
+      <c r="C150" s="19" t="s">
+        <v>603</v>
+      </c>
+      <c r="D150" s="19"/>
+      <c r="E150" s="19"/>
       <c r="F150" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="3" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="B151" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C151" s="19" t="s">
-        <v>207</v>
-      </c>
-      <c r="D151" s="19"/>
-      <c r="E151" s="19"/>
+      <c r="C151" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="D151" s="26"/>
+      <c r="E151" s="26"/>
       <c r="F151" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="3" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="B152" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C152" s="19" t="s">
-        <v>208</v>
-      </c>
-      <c r="D152" s="19"/>
-      <c r="E152" s="19"/>
+      <c r="C152" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="D152" s="26"/>
+      <c r="E152" s="26"/>
       <c r="F152" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="3" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B153" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C153" s="18" t="s">
-        <v>209</v>
-      </c>
-      <c r="D153" s="18"/>
-      <c r="E153" s="18"/>
-      <c r="F153" s="6" t="s">
-        <v>1048</v>
+      <c r="C153" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="D153" s="19"/>
+      <c r="E153" s="19"/>
+      <c r="F153" t="s">
+        <v>1046</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" s="3" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="B154" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C154" s="18" t="s">
-        <v>210</v>
-      </c>
-      <c r="D154" s="18"/>
-      <c r="E154" s="18"/>
-      <c r="F154" s="6" t="s">
-        <v>1049</v>
+      <c r="C154" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="D154" s="19"/>
+      <c r="E154" s="19"/>
+      <c r="F154" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" s="3" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B155" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C155" s="26" t="s">
-        <v>211</v>
-      </c>
-      <c r="D155" s="26"/>
-      <c r="E155" s="26"/>
-      <c r="F155" t="s">
-        <v>1050</v>
+      <c r="C155" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="D155" s="18"/>
+      <c r="E155" s="18"/>
+      <c r="F155" s="6" t="s">
+        <v>1048</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" s="3" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="B156" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C156" s="27" t="s">
-        <v>212</v>
-      </c>
-      <c r="D156" s="27"/>
-      <c r="E156" s="27"/>
-      <c r="F156" t="s">
-        <v>1051</v>
+      <c r="C156" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="D156" s="18"/>
+      <c r="E156" s="18"/>
+      <c r="F156" s="6" t="s">
+        <v>1049</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" s="3" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="B157" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C157" s="26" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D157" s="26"/>
       <c r="E157" s="26"/>
       <c r="F157" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" s="3" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="B158" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C158" s="26" t="s">
-        <v>214</v>
-      </c>
-      <c r="D158" s="26"/>
-      <c r="E158" s="26"/>
-      <c r="F158" s="6" t="s">
-        <v>1053</v>
+      <c r="C158" s="27" t="s">
+        <v>212</v>
+      </c>
+      <c r="D158" s="27"/>
+      <c r="E158" s="27"/>
+      <c r="F158" t="s">
+        <v>1051</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" s="3" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="B159" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C159" s="26" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D159" s="26"/>
       <c r="E159" s="26"/>
-      <c r="F159" s="6" t="s">
-        <v>1054</v>
+      <c r="F159" t="s">
+        <v>1052</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" s="3" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="B160" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C160" s="26" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D160" s="26"/>
       <c r="E160" s="26"/>
       <c r="F160" s="6" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" s="3" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="B161" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C161" s="26" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D161" s="26"/>
       <c r="E161" s="26"/>
-      <c r="F161" t="s">
-        <v>1056</v>
+      <c r="F161" s="6" t="s">
+        <v>1054</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" s="3" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="B162" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C162" s="26" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D162" s="26"/>
       <c r="E162" s="26"/>
-      <c r="F162" t="s">
-        <v>1057</v>
+      <c r="F162" s="6" t="s">
+        <v>1055</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" s="3" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B163" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C163" s="26" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="D163" s="26"/>
       <c r="E163" s="26"/>
       <c r="F163" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" s="3" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="B164" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C164" s="26" t="s">
-        <v>607</v>
+        <v>217</v>
       </c>
       <c r="D164" s="26"/>
       <c r="E164" s="26"/>
       <c r="F164" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" s="3" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B165" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C165" s="27" t="s">
-        <v>609</v>
-      </c>
-      <c r="D165" s="27"/>
-      <c r="E165" s="27"/>
+      <c r="C165" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="D165" s="26"/>
+      <c r="E165" s="26"/>
       <c r="F165" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" s="3" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="B166" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C166" s="26" t="s">
-        <v>535</v>
+        <v>607</v>
       </c>
       <c r="D166" s="26"/>
       <c r="E166" s="26"/>
       <c r="F166" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" s="3" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="B167" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C167" s="26" t="s">
-        <v>235</v>
-      </c>
-      <c r="D167" s="26"/>
-      <c r="E167" s="26"/>
+      <c r="C167" s="27" t="s">
+        <v>609</v>
+      </c>
+      <c r="D167" s="27"/>
+      <c r="E167" s="27"/>
       <c r="F167" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" s="3" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="B168" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C168" s="19" t="s">
-        <v>237</v>
-      </c>
-      <c r="D168" s="19"/>
-      <c r="E168" s="19"/>
+      <c r="C168" s="26" t="s">
+        <v>535</v>
+      </c>
+      <c r="D168" s="26"/>
+      <c r="E168" s="26"/>
       <c r="F168" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" s="3" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="B169" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C169" s="18" t="s">
-        <v>611</v>
-      </c>
-      <c r="D169" s="18"/>
-      <c r="E169" s="18"/>
+      <c r="C169" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="D169" s="26"/>
+      <c r="E169" s="26"/>
       <c r="F169" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" s="3" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="B170" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C170" s="26" t="s">
-        <v>241</v>
-      </c>
-      <c r="D170" s="26"/>
-      <c r="E170" s="26"/>
+      <c r="C170" s="19" t="s">
+        <v>237</v>
+      </c>
+      <c r="D170" s="19"/>
+      <c r="E170" s="19"/>
       <c r="F170" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" s="3" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="B171" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C171" s="19" t="s">
-        <v>243</v>
-      </c>
-      <c r="D171" s="19"/>
-      <c r="E171" s="19"/>
+      <c r="C171" s="18" t="s">
+        <v>611</v>
+      </c>
+      <c r="D171" s="18"/>
+      <c r="E171" s="18"/>
       <c r="F171" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" s="3" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="B172" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C172" s="26" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="D172" s="26"/>
       <c r="E172" s="26"/>
       <c r="F172" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" s="3" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="B173" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C173" s="19" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D173" s="19"/>
       <c r="E173" s="19"/>
       <c r="F173" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" s="3" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B174" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C174" s="19" t="s">
-        <v>246</v>
-      </c>
-      <c r="D174" s="19"/>
-      <c r="E174" s="19"/>
+      <c r="C174" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="D174" s="26"/>
+      <c r="E174" s="26"/>
       <c r="F174" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" s="3" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="B175" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C175" s="27" t="s">
-        <v>249</v>
-      </c>
-      <c r="D175" s="27"/>
-      <c r="E175" s="27"/>
+      <c r="C175" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="D175" s="19"/>
+      <c r="E175" s="19"/>
       <c r="F175" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" s="3" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B176" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C176" s="19" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="D176" s="19"/>
       <c r="E176" s="19"/>
       <c r="F176" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" s="3" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="B177" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C177" s="18" t="s">
-        <v>239</v>
-      </c>
-      <c r="D177" s="18"/>
-      <c r="E177" s="18"/>
+      <c r="C177" s="27" t="s">
+        <v>249</v>
+      </c>
+      <c r="D177" s="27"/>
+      <c r="E177" s="27"/>
       <c r="F177" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" s="3" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="B178" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C178" s="19" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D178" s="19"/>
       <c r="E178" s="19"/>
       <c r="F178" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" s="3" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="B179" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C179" s="19" t="s">
-        <v>257</v>
-      </c>
-      <c r="D179" s="19"/>
-      <c r="E179" s="19"/>
+      <c r="C179" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="D179" s="18"/>
+      <c r="E179" s="18"/>
       <c r="F179" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" s="3" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="B180" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C180" s="19" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D180" s="19"/>
       <c r="E180" s="19"/>
       <c r="F180" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" s="3" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="B181" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C181" s="26" t="s">
-        <v>613</v>
-      </c>
-      <c r="D181" s="26"/>
-      <c r="E181" s="26"/>
+      <c r="C181" s="19" t="s">
+        <v>257</v>
+      </c>
+      <c r="D181" s="19"/>
+      <c r="E181" s="19"/>
       <c r="F181" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" s="3" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="B182" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C182" s="19" t="s">
-        <v>615</v>
+        <v>258</v>
       </c>
       <c r="D182" s="19"/>
       <c r="E182" s="19"/>
       <c r="F182" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" s="3" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="B183" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C183" s="19" t="s">
-        <v>259</v>
-      </c>
-      <c r="D183" s="19"/>
-      <c r="E183" s="19"/>
+      <c r="C183" s="26" t="s">
+        <v>613</v>
+      </c>
+      <c r="D183" s="26"/>
+      <c r="E183" s="26"/>
       <c r="F183" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" s="3" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="B184" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C184" s="18" t="s">
-        <v>265</v>
-      </c>
-      <c r="D184" s="18"/>
-      <c r="E184" s="18"/>
+      <c r="C184" s="19" t="s">
+        <v>615</v>
+      </c>
+      <c r="D184" s="19"/>
+      <c r="E184" s="19"/>
       <c r="F184" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" s="3" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="B185" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C185" s="19" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="D185" s="19"/>
       <c r="E185" s="19"/>
       <c r="F185" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" s="3" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="B186" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C186" s="26" t="s">
-        <v>267</v>
-      </c>
-      <c r="D186" s="26"/>
-      <c r="E186" s="26"/>
+      <c r="C186" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="D186" s="18"/>
+      <c r="E186" s="18"/>
       <c r="F186" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" s="3" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="B187" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C187" s="19" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D187" s="19"/>
       <c r="E187" s="19"/>
       <c r="F187" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" s="3" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="B188" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C188" s="26" t="s">
-        <v>617</v>
+        <v>267</v>
       </c>
       <c r="D188" s="26"/>
       <c r="E188" s="26"/>
       <c r="F188" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" s="3" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="B189" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C189" s="19" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D189" s="19"/>
       <c r="E189" s="19"/>
       <c r="F189" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" s="3" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="B190" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C190" s="26" t="s">
-        <v>273</v>
+        <v>617</v>
       </c>
       <c r="D190" s="26"/>
       <c r="E190" s="26"/>
       <c r="F190" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" s="3" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="B191" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C191" s="26" t="s">
-        <v>274</v>
-      </c>
-      <c r="D191" s="26"/>
-      <c r="E191" s="26"/>
+      <c r="C191" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="D191" s="19"/>
+      <c r="E191" s="19"/>
       <c r="F191" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" s="3" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="B192" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C192" s="19" t="s">
-        <v>275</v>
-      </c>
-      <c r="D192" s="19"/>
-      <c r="E192" s="19"/>
+      <c r="C192" s="26" t="s">
+        <v>273</v>
+      </c>
+      <c r="D192" s="26"/>
+      <c r="E192" s="26"/>
       <c r="F192" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" s="3" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="B193" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C193" s="19" t="s">
-        <v>276</v>
-      </c>
-      <c r="D193" s="19"/>
-      <c r="E193" s="19"/>
+      <c r="C193" s="26" t="s">
+        <v>274</v>
+      </c>
+      <c r="D193" s="26"/>
+      <c r="E193" s="26"/>
       <c r="F193" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" s="3" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="B194" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C194" s="26" t="s">
-        <v>277</v>
-      </c>
-      <c r="D194" s="26"/>
-      <c r="E194" s="26"/>
+      <c r="C194" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="D194" s="19"/>
+      <c r="E194" s="19"/>
       <c r="F194" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" s="3" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B195" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C195" s="26" t="s">
-        <v>285</v>
-      </c>
-      <c r="D195" s="26"/>
-      <c r="E195" s="26"/>
+      <c r="C195" s="19" t="s">
+        <v>276</v>
+      </c>
+      <c r="D195" s="19"/>
+      <c r="E195" s="19"/>
       <c r="F195" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" s="3" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="B196" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C196" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="D196" s="19"/>
-      <c r="E196" s="19"/>
+      <c r="C196" s="26" t="s">
+        <v>277</v>
+      </c>
+      <c r="D196" s="26"/>
+      <c r="E196" s="26"/>
       <c r="F196" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" s="3" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="B197" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C197" s="26" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D197" s="26"/>
       <c r="E197" s="26"/>
       <c r="F197" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" s="3" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="B198" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C198" s="19" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D198" s="19"/>
       <c r="E198" s="19"/>
       <c r="F198" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" s="3" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="B199" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C199" s="26" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D199" s="26"/>
       <c r="E199" s="26"/>
       <c r="F199" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" s="3" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="B200" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C200" s="19" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D200" s="19"/>
       <c r="E200" s="19"/>
       <c r="F200" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" s="3" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="B201" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C201" s="19" t="s">
-        <v>291</v>
-      </c>
-      <c r="D201" s="19"/>
-      <c r="E201" s="19"/>
+      <c r="C201" s="26" t="s">
+        <v>289</v>
+      </c>
+      <c r="D201" s="26"/>
+      <c r="E201" s="26"/>
       <c r="F201" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" s="3" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="B202" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C202" s="26" t="s">
-        <v>293</v>
-      </c>
-      <c r="D202" s="26"/>
-      <c r="E202" s="26"/>
+      <c r="C202" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="D202" s="19"/>
+      <c r="E202" s="19"/>
       <c r="F202" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" s="3" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="B203" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C203" s="19" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D203" s="19"/>
       <c r="E203" s="19"/>
       <c r="F203" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" s="3" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="B204" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C204" s="26" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D204" s="26"/>
       <c r="E204" s="26"/>
       <c r="F204" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" s="3" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="B205" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C205" s="26" t="s">
-        <v>295</v>
-      </c>
-      <c r="D205" s="26"/>
-      <c r="E205" s="26"/>
+      <c r="C205" s="19" t="s">
+        <v>292</v>
+      </c>
+      <c r="D205" s="19"/>
+      <c r="E205" s="19"/>
       <c r="F205" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" s="3" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="B206" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C206" s="27" t="s">
-        <v>294</v>
-      </c>
-      <c r="D206" s="27"/>
-      <c r="E206" s="27"/>
+      <c r="C206" s="26" t="s">
+        <v>296</v>
+      </c>
+      <c r="D206" s="26"/>
+      <c r="E206" s="26"/>
       <c r="F206" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" s="3" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="B207" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C207" s="19" t="s">
-        <v>297</v>
-      </c>
-      <c r="D207" s="19"/>
-      <c r="E207" s="19"/>
+      <c r="C207" s="26" t="s">
+        <v>295</v>
+      </c>
+      <c r="D207" s="26"/>
+      <c r="E207" s="26"/>
       <c r="F207" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" s="3" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="B208" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C208" s="19" t="s">
-        <v>298</v>
-      </c>
-      <c r="D208" s="19"/>
-      <c r="E208" s="19"/>
+      <c r="C208" s="27" t="s">
+        <v>294</v>
+      </c>
+      <c r="D208" s="27"/>
+      <c r="E208" s="27"/>
       <c r="F208" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" s="3" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="B209" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C209" s="19" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D209" s="19"/>
       <c r="E209" s="19"/>
       <c r="F209" t="s">
-        <v>317</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" s="3" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="B210" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C210" s="19" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D210" s="19"/>
       <c r="E210" s="19"/>
       <c r="F210" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" s="3" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B211" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C211" s="19" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D211" s="19"/>
       <c r="E211" s="19"/>
       <c r="F211" t="s">
-        <v>1105</v>
+        <v>317</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" s="3" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="B212" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C212" s="26" t="s">
-        <v>345</v>
-      </c>
-      <c r="D212" s="26"/>
-      <c r="E212" s="26"/>
+      <c r="C212" s="19" t="s">
+        <v>300</v>
+      </c>
+      <c r="D212" s="19"/>
+      <c r="E212" s="19"/>
       <c r="F212" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" s="3" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="B213" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C213" s="19" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D213" s="19"/>
       <c r="E213" s="19"/>
       <c r="F213" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" s="3" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="B214" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C214" s="19" t="s">
-        <v>321</v>
-      </c>
-      <c r="D214" s="19"/>
-      <c r="E214" s="19"/>
+      <c r="C214" s="26" t="s">
+        <v>345</v>
+      </c>
+      <c r="D214" s="26"/>
+      <c r="E214" s="26"/>
       <c r="F214" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" s="3" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="B215" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C215" s="26" t="s">
-        <v>322</v>
-      </c>
-      <c r="D215" s="26"/>
-      <c r="E215" s="26"/>
+      <c r="C215" s="19" t="s">
+        <v>302</v>
+      </c>
+      <c r="D215" s="19"/>
+      <c r="E215" s="19"/>
       <c r="F215" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" s="3" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="B216" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C216" s="19" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D216" s="19"/>
       <c r="E216" s="19"/>
       <c r="F216" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217" s="3" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="B217" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C217" s="26" t="s">
-        <v>519</v>
+        <v>322</v>
       </c>
       <c r="D217" s="26"/>
       <c r="E217" s="26"/>
-      <c r="F217" s="6" t="s">
-        <v>1111</v>
+      <c r="F217" t="s">
+        <v>1109</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218" s="3" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="B218" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C218" s="26" t="s">
-        <v>521</v>
-      </c>
-      <c r="D218" s="26"/>
-      <c r="E218" s="26"/>
-      <c r="F218" s="6" t="s">
-        <v>1112</v>
+      <c r="C218" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="D218" s="19"/>
+      <c r="E218" s="19"/>
+      <c r="F218" t="s">
+        <v>1110</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219" s="3" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="B219" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C219" s="19" t="s">
-        <v>324</v>
-      </c>
-      <c r="D219" s="19"/>
-      <c r="E219" s="19"/>
-      <c r="F219" t="s">
-        <v>1113</v>
+      <c r="C219" s="26" t="s">
+        <v>519</v>
+      </c>
+      <c r="D219" s="26"/>
+      <c r="E219" s="26"/>
+      <c r="F219" s="6" t="s">
+        <v>1111</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" s="3" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B220" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C220" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="D220" s="19"/>
-      <c r="E220" s="19"/>
-      <c r="F220" t="s">
-        <v>1114</v>
+      <c r="C220" s="26" t="s">
+        <v>521</v>
+      </c>
+      <c r="D220" s="26"/>
+      <c r="E220" s="26"/>
+      <c r="F220" s="6" t="s">
+        <v>1112</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" s="3" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="B221" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C221" s="19" t="s">
-        <v>533</v>
+        <v>324</v>
       </c>
       <c r="D221" s="19"/>
       <c r="E221" s="19"/>
       <c r="F221" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222" s="3" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="B222" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C222" s="19" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D222" s="19"/>
       <c r="E222" s="19"/>
       <c r="F222" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" s="3" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="B223" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C223" s="26" t="s">
-        <v>326</v>
-      </c>
-      <c r="D223" s="26"/>
-      <c r="E223" s="26"/>
+      <c r="C223" s="19" t="s">
+        <v>533</v>
+      </c>
+      <c r="D223" s="19"/>
+      <c r="E223" s="19"/>
       <c r="F223" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224" s="3" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="B224" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C224" s="26" t="s">
-        <v>328</v>
-      </c>
-      <c r="D224" s="26"/>
-      <c r="E224" s="26"/>
-      <c r="F224" s="6" t="s">
-        <v>1118</v>
+      <c r="C224" s="19" t="s">
+        <v>327</v>
+      </c>
+      <c r="D224" s="19"/>
+      <c r="E224" s="19"/>
+      <c r="F224" t="s">
+        <v>1116</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225" s="3" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="B225" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C225" s="26" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="D225" s="26"/>
       <c r="E225" s="26"/>
       <c r="F225" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226" s="3" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="B226" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C226" s="26" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="D226" s="26"/>
       <c r="E226" s="26"/>
-      <c r="F226" t="s">
-        <v>1120</v>
+      <c r="F226" s="6" t="s">
+        <v>1118</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227" s="3" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="B227" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C227" s="26" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D227" s="26"/>
       <c r="E227" s="26"/>
       <c r="F227" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228" s="3" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="B228" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C228" s="26" t="s">
-        <v>529</v>
+        <v>339</v>
       </c>
       <c r="D228" s="26"/>
       <c r="E228" s="26"/>
       <c r="F228" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229" s="3" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="B229" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C229" s="19" t="s">
-        <v>343</v>
-      </c>
-      <c r="D229" s="19"/>
-      <c r="E229" s="19"/>
+      <c r="C229" s="26" t="s">
+        <v>340</v>
+      </c>
+      <c r="D229" s="26"/>
+      <c r="E229" s="26"/>
       <c r="F229" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230" s="3" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="B230" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C230" s="19" t="s">
-        <v>350</v>
-      </c>
-      <c r="D230" s="19"/>
-      <c r="E230" s="19"/>
+      <c r="C230" s="26" t="s">
+        <v>529</v>
+      </c>
+      <c r="D230" s="26"/>
+      <c r="E230" s="26"/>
       <c r="F230" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A231" s="3" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="B231" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C231" s="26" t="s">
-        <v>346</v>
-      </c>
-      <c r="D231" s="26"/>
-      <c r="E231" s="26"/>
+      <c r="C231" s="19" t="s">
+        <v>343</v>
+      </c>
+      <c r="D231" s="19"/>
+      <c r="E231" s="19"/>
       <c r="F231" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232" s="3" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="B232" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C232" s="26" t="s">
-        <v>347</v>
-      </c>
-      <c r="D232" s="26"/>
-      <c r="E232" s="26"/>
+      <c r="C232" s="19" t="s">
+        <v>350</v>
+      </c>
+      <c r="D232" s="19"/>
+      <c r="E232" s="19"/>
       <c r="F232" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233" s="3" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="B233" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C233" s="26" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D233" s="26"/>
       <c r="E233" s="26"/>
       <c r="F233" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234" s="3" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="B234" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C234" s="27" t="s">
-        <v>349</v>
-      </c>
-      <c r="D234" s="27"/>
-      <c r="E234" s="27"/>
+      <c r="C234" s="26" t="s">
+        <v>347</v>
+      </c>
+      <c r="D234" s="26"/>
+      <c r="E234" s="26"/>
       <c r="F234" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A235" s="3" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="B235" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C235" s="26" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="D235" s="26"/>
       <c r="E235" s="26"/>
       <c r="F235" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A236" s="3" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="B236" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C236" s="19" t="s">
-        <v>358</v>
-      </c>
-      <c r="D236" s="19"/>
-      <c r="E236" s="19"/>
+      <c r="C236" s="27" t="s">
+        <v>349</v>
+      </c>
+      <c r="D236" s="27"/>
+      <c r="E236" s="27"/>
       <c r="F236" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A237" s="3" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="B237" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C237" s="26" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D237" s="26"/>
       <c r="E237" s="26"/>
       <c r="F237" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238" s="3" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="B238" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C238" s="26" t="s">
-        <v>360</v>
-      </c>
-      <c r="D238" s="26"/>
-      <c r="E238" s="26"/>
+      <c r="C238" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="D238" s="19"/>
+      <c r="E238" s="19"/>
       <c r="F238" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239" s="3" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="B239" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C239" s="19" t="s">
-        <v>365</v>
-      </c>
-      <c r="D239" s="19"/>
-      <c r="E239" s="19"/>
+      <c r="C239" s="26" t="s">
+        <v>359</v>
+      </c>
+      <c r="D239" s="26"/>
+      <c r="E239" s="26"/>
       <c r="F239" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A240" s="3" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="B240" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C240" s="26" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="D240" s="26"/>
       <c r="E240" s="26"/>
       <c r="F240" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241" s="3" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="B241" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C241" s="26" t="s">
-        <v>367</v>
-      </c>
-      <c r="D241" s="26"/>
-      <c r="E241" s="26"/>
+      <c r="C241" s="19" t="s">
+        <v>365</v>
+      </c>
+      <c r="D241" s="19"/>
+      <c r="E241" s="19"/>
       <c r="F241" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A242" s="3" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="B242" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C242" s="26" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D242" s="26"/>
       <c r="E242" s="26"/>
       <c r="F242" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A243" s="3" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="B243" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C243" s="26" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D243" s="26"/>
       <c r="E243" s="26"/>
       <c r="F243" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A244" s="3" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="B244" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C244" s="26" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D244" s="26"/>
       <c r="E244" s="26"/>
       <c r="F244" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245" s="3" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="B245" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C245" s="26" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D245" s="26"/>
       <c r="E245" s="26"/>
       <c r="F245" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A246" s="3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="B246" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C246" s="26" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D246" s="26"/>
       <c r="E246" s="26"/>
       <c r="F246" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A247" s="3" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="B247" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C247" s="26" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D247" s="26"/>
       <c r="E247" s="26"/>
       <c r="F247" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A248" s="3" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="B248" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C248" s="19" t="s">
-        <v>374</v>
-      </c>
-      <c r="D248" s="19"/>
-      <c r="E248" s="19"/>
+      <c r="C248" s="26" t="s">
+        <v>372</v>
+      </c>
+      <c r="D248" s="26"/>
+      <c r="E248" s="26"/>
       <c r="F248" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A249" s="3" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="B249" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C249" s="26" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="D249" s="26"/>
       <c r="E249" s="26"/>
       <c r="F249" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A250" s="3" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="B250" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C250" s="19" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="D250" s="19"/>
       <c r="E250" s="19"/>
       <c r="F250" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A251" s="3" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="B251" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C251" s="26" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="D251" s="26"/>
       <c r="E251" s="26"/>
-      <c r="F251" s="6" t="s">
-        <v>1145</v>
+      <c r="F251" t="s">
+        <v>1143</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A252" s="3" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="B252" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C252" s="27" t="s">
-        <v>395</v>
-      </c>
-      <c r="D252" s="27"/>
-      <c r="E252" s="27"/>
+      <c r="C252" s="19" t="s">
+        <v>387</v>
+      </c>
+      <c r="D252" s="19"/>
+      <c r="E252" s="19"/>
       <c r="F252" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A253" s="3" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="B253" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C253" s="26" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="D253" s="26"/>
       <c r="E253" s="26"/>
-      <c r="F253" t="s">
-        <v>1147</v>
+      <c r="F253" s="6" t="s">
+        <v>1145</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A254" s="3" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="B254" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C254" s="26" t="s">
-        <v>397</v>
-      </c>
-      <c r="D254" s="26"/>
-      <c r="E254" s="26"/>
+      <c r="C254" s="27" t="s">
+        <v>395</v>
+      </c>
+      <c r="D254" s="27"/>
+      <c r="E254" s="27"/>
       <c r="F254" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A255" s="3" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="B255" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C255" s="26" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="D255" s="26"/>
       <c r="E255" s="26"/>
       <c r="F255" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256" s="3" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="B256" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C256" s="19" t="s">
-        <v>389</v>
-      </c>
-      <c r="D256" s="19"/>
-      <c r="E256" s="19"/>
+      <c r="C256" s="26" t="s">
+        <v>397</v>
+      </c>
+      <c r="D256" s="26"/>
+      <c r="E256" s="26"/>
       <c r="F256" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A257" s="3" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="B257" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C257" s="27" t="s">
-        <v>401</v>
-      </c>
-      <c r="D257" s="27"/>
-      <c r="E257" s="27"/>
+      <c r="C257" s="26" t="s">
+        <v>393</v>
+      </c>
+      <c r="D257" s="26"/>
+      <c r="E257" s="26"/>
       <c r="F257" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A258" s="3" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="B258" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C258" s="26" t="s">
-        <v>403</v>
-      </c>
-      <c r="D258" s="26"/>
-      <c r="E258" s="26"/>
+      <c r="C258" s="19" t="s">
+        <v>389</v>
+      </c>
+      <c r="D258" s="19"/>
+      <c r="E258" s="19"/>
       <c r="F258" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A259" s="3" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="B259" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C259" s="19" t="s">
-        <v>405</v>
-      </c>
-      <c r="D259" s="19"/>
-      <c r="E259" s="19"/>
+      <c r="C259" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="D259" s="27"/>
+      <c r="E259" s="27"/>
       <c r="F259" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A260" s="3" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="B260" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C260" s="26" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D260" s="26"/>
       <c r="E260" s="26"/>
       <c r="F260" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A261" s="3" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="B261" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C261" s="19" t="s">
-        <v>523</v>
+        <v>405</v>
       </c>
       <c r="D261" s="19"/>
       <c r="E261" s="19"/>
       <c r="F261" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A262" s="3" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="B262" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C262" s="27" t="s">
-        <v>407</v>
-      </c>
-      <c r="D262" s="27"/>
-      <c r="E262" s="27"/>
+      <c r="C262" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="D262" s="26"/>
+      <c r="E262" s="26"/>
       <c r="F262" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A263" s="3" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="B263" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C263" s="19" t="s">
-        <v>408</v>
+        <v>523</v>
       </c>
       <c r="D263" s="19"/>
       <c r="E263" s="19"/>
       <c r="F263" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A264" s="3" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="B264" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C264" s="26" t="s">
-        <v>409</v>
-      </c>
-      <c r="D264" s="26"/>
-      <c r="E264" s="26"/>
+      <c r="C264" s="27" t="s">
+        <v>407</v>
+      </c>
+      <c r="D264" s="27"/>
+      <c r="E264" s="27"/>
       <c r="F264" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A265" s="3" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="B265" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C265" s="18" t="s">
-        <v>517</v>
-      </c>
-      <c r="D265" s="18"/>
-      <c r="E265" s="18"/>
-      <c r="F265" s="6" t="s">
-        <v>1159</v>
+      <c r="C265" s="19" t="s">
+        <v>408</v>
+      </c>
+      <c r="D265" s="19"/>
+      <c r="E265" s="19"/>
+      <c r="F265" t="s">
+        <v>1157</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A266" s="3" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="B266" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C266" s="26" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D266" s="26"/>
       <c r="E266" s="26"/>
       <c r="F266" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A267" s="3" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="B267" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C267" s="26" t="s">
-        <v>411</v>
-      </c>
-      <c r="D267" s="26"/>
-      <c r="E267" s="26"/>
-      <c r="F267" t="s">
-        <v>1161</v>
+      <c r="C267" s="18" t="s">
+        <v>517</v>
+      </c>
+      <c r="D267" s="18"/>
+      <c r="E267" s="18"/>
+      <c r="F267" s="6" t="s">
+        <v>1159</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A268" s="3" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="B268" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C268" s="26" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D268" s="26"/>
       <c r="E268" s="26"/>
       <c r="F268" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A269" s="3" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="B269" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C269" s="26" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D269" s="26"/>
       <c r="E269" s="26"/>
       <c r="F269" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A270" s="3" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="B270" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C270" s="26" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D270" s="26"/>
       <c r="E270" s="26"/>
       <c r="F270" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A271" s="3" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="B271" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C271" s="19" t="s">
-        <v>514</v>
-      </c>
-      <c r="D271" s="19"/>
-      <c r="E271" s="19"/>
+      <c r="C271" s="26" t="s">
+        <v>413</v>
+      </c>
+      <c r="D271" s="26"/>
+      <c r="E271" s="26"/>
       <c r="F271" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A272" s="3" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="B272" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C272" s="19" t="s">
-        <v>513</v>
-      </c>
-      <c r="D272" s="19"/>
-      <c r="E272" s="19"/>
+      <c r="C272" s="26" t="s">
+        <v>414</v>
+      </c>
+      <c r="D272" s="26"/>
+      <c r="E272" s="26"/>
       <c r="F272" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A273" s="3" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="B273" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C273" s="26" t="s">
-        <v>426</v>
-      </c>
-      <c r="D273" s="26"/>
-      <c r="E273" s="26"/>
+      <c r="C273" s="19" t="s">
+        <v>514</v>
+      </c>
+      <c r="D273" s="19"/>
+      <c r="E273" s="19"/>
       <c r="F273" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A274" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="B274" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C274" s="26" t="s">
-        <v>425</v>
-      </c>
-      <c r="D274" s="26"/>
-      <c r="E274" s="26"/>
-      <c r="F274" s="6" t="s">
-        <v>1168</v>
+      <c r="C274" s="19" t="s">
+        <v>513</v>
+      </c>
+      <c r="D274" s="19"/>
+      <c r="E274" s="19"/>
+      <c r="F274" t="s">
+        <v>1166</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A275" s="3" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="B275" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C275" s="26" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="D275" s="26"/>
       <c r="E275" s="26"/>
-      <c r="F275" s="6" t="s">
-        <v>1169</v>
+      <c r="F275" t="s">
+        <v>1167</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A276" s="3" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="B276" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C276" s="19" t="s">
-        <v>511</v>
-      </c>
-      <c r="D276" s="19"/>
-      <c r="E276" s="19"/>
-      <c r="F276" t="s">
-        <v>1170</v>
+      <c r="C276" s="26" t="s">
+        <v>425</v>
+      </c>
+      <c r="D276" s="26"/>
+      <c r="E276" s="26"/>
+      <c r="F276" s="6" t="s">
+        <v>1168</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A277" s="3" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="B277" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C277" s="26" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D277" s="26"/>
       <c r="E277" s="26"/>
-      <c r="F277" t="s">
-        <v>1171</v>
+      <c r="F277" s="6" t="s">
+        <v>1169</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A278" s="3" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="B278" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C278" s="18" t="s">
-        <v>427</v>
-      </c>
-      <c r="D278" s="18"/>
-      <c r="E278" s="18"/>
+      <c r="C278" s="19" t="s">
+        <v>511</v>
+      </c>
+      <c r="D278" s="19"/>
+      <c r="E278" s="19"/>
       <c r="F278" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A279" s="3" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="B279" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C279" s="19" t="s">
-        <v>428</v>
-      </c>
-      <c r="D279" s="19"/>
-      <c r="E279" s="19"/>
+      <c r="C279" s="26" t="s">
+        <v>430</v>
+      </c>
+      <c r="D279" s="26"/>
+      <c r="E279" s="26"/>
       <c r="F279" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A280" s="3" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="B280" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C280" s="19" t="s">
-        <v>432</v>
-      </c>
-      <c r="D280" s="19"/>
-      <c r="E280" s="19"/>
+      <c r="C280" s="18" t="s">
+        <v>427</v>
+      </c>
+      <c r="D280" s="18"/>
+      <c r="E280" s="18"/>
       <c r="F280" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A281" s="3" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="B281" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C281" s="19" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="D281" s="19"/>
       <c r="E281" s="19"/>
       <c r="F281" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A282" s="3" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="B282" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C282" s="26" t="s">
-        <v>433</v>
-      </c>
-      <c r="D282" s="26"/>
-      <c r="E282" s="26"/>
-      <c r="F282" s="6" t="s">
-        <v>1176</v>
+      <c r="C282" s="19" t="s">
+        <v>432</v>
+      </c>
+      <c r="D282" s="19"/>
+      <c r="E282" s="19"/>
+      <c r="F282" t="s">
+        <v>1174</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A283" s="3" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="B283" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C283" s="27" t="s">
-        <v>434</v>
-      </c>
-      <c r="D283" s="27"/>
-      <c r="E283" s="27"/>
+      <c r="C283" s="19" t="s">
+        <v>431</v>
+      </c>
+      <c r="D283" s="19"/>
+      <c r="E283" s="19"/>
       <c r="F283" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A284" s="3" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="B284" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C284" s="19" t="s">
-        <v>435</v>
-      </c>
-      <c r="D284" s="19"/>
-      <c r="E284" s="19"/>
-      <c r="F284" t="s">
-        <v>1178</v>
+      <c r="C284" s="26" t="s">
+        <v>433</v>
+      </c>
+      <c r="D284" s="26"/>
+      <c r="E284" s="26"/>
+      <c r="F284" s="6" t="s">
+        <v>1176</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A285" s="3" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B285" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C285" s="19" t="s">
-        <v>436</v>
-      </c>
-      <c r="D285" s="19"/>
-      <c r="E285" s="19"/>
+      <c r="C285" s="27" t="s">
+        <v>434</v>
+      </c>
+      <c r="D285" s="27"/>
+      <c r="E285" s="27"/>
       <c r="F285" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A286" s="3" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="B286" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C286" s="19" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D286" s="19"/>
       <c r="E286" s="19"/>
       <c r="F286" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A287" s="3" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="B287" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C287" s="27" t="s">
-        <v>438</v>
-      </c>
-      <c r="D287" s="27"/>
-      <c r="E287" s="27"/>
+      <c r="C287" s="19" t="s">
+        <v>436</v>
+      </c>
+      <c r="D287" s="19"/>
+      <c r="E287" s="19"/>
       <c r="F287" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A288" s="3" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="B288" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C288" s="26" t="s">
-        <v>509</v>
-      </c>
-      <c r="D288" s="26"/>
-      <c r="E288" s="26"/>
+      <c r="C288" s="19" t="s">
+        <v>437</v>
+      </c>
+      <c r="D288" s="19"/>
+      <c r="E288" s="19"/>
       <c r="F288" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A289" s="3" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="B289" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C289" s="26" t="s">
-        <v>439</v>
-      </c>
-      <c r="D289" s="26"/>
-      <c r="E289" s="26"/>
+      <c r="C289" s="27" t="s">
+        <v>438</v>
+      </c>
+      <c r="D289" s="27"/>
+      <c r="E289" s="27"/>
       <c r="F289" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A290" s="3" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="B290" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C290" s="19" t="s">
-        <v>455</v>
-      </c>
-      <c r="D290" s="19"/>
-      <c r="E290" s="19"/>
+      <c r="C290" s="26" t="s">
+        <v>509</v>
+      </c>
+      <c r="D290" s="26"/>
+      <c r="E290" s="26"/>
       <c r="F290" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A291" s="3" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="B291" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C291" s="19" t="s">
-        <v>456</v>
-      </c>
-      <c r="D291" s="19"/>
-      <c r="E291" s="19"/>
+      <c r="C291" s="26" t="s">
+        <v>439</v>
+      </c>
+      <c r="D291" s="26"/>
+      <c r="E291" s="26"/>
       <c r="F291" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A292" s="3" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="B292" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C292" s="26" t="s">
-        <v>457</v>
-      </c>
-      <c r="D292" s="26"/>
-      <c r="E292" s="26"/>
+      <c r="C292" s="19" t="s">
+        <v>455</v>
+      </c>
+      <c r="D292" s="19"/>
+      <c r="E292" s="19"/>
       <c r="F292" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A293" s="3" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="B293" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C293" s="19" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D293" s="19"/>
       <c r="E293" s="19"/>
       <c r="F293" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A294" s="3" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="B294" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C294" s="19" t="s">
-        <v>459</v>
-      </c>
-      <c r="D294" s="19"/>
-      <c r="E294" s="19"/>
+      <c r="C294" s="26" t="s">
+        <v>457</v>
+      </c>
+      <c r="D294" s="26"/>
+      <c r="E294" s="26"/>
       <c r="F294" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A295" s="3" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="B295" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C295" s="19" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="D295" s="19"/>
       <c r="E295" s="19"/>
       <c r="F295" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A296" s="3" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="B296" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C296" s="19" t="s">
-        <v>505</v>
+        <v>459</v>
       </c>
       <c r="D296" s="19"/>
       <c r="E296" s="19"/>
       <c r="F296" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A297" s="3" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="B297" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C297" s="26" t="s">
-        <v>460</v>
-      </c>
-      <c r="D297" s="26"/>
-      <c r="E297" s="26"/>
+      <c r="C297" s="19" t="s">
+        <v>461</v>
+      </c>
+      <c r="D297" s="19"/>
+      <c r="E297" s="19"/>
       <c r="F297" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A298" s="3" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="B298" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C298" s="26" t="s">
-        <v>462</v>
-      </c>
-      <c r="D298" s="26"/>
-      <c r="E298" s="26"/>
+      <c r="C298" s="19" t="s">
+        <v>505</v>
+      </c>
+      <c r="D298" s="19"/>
+      <c r="E298" s="19"/>
       <c r="F298" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A299" s="3" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="B299" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C299" s="26" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="D299" s="26"/>
       <c r="E299" s="26"/>
       <c r="F299" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A300" s="3" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="B300" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C300" s="26" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D300" s="26"/>
       <c r="E300" s="26"/>
       <c r="F300" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A301" s="3" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="B301" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C301" s="26" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D301" s="26"/>
       <c r="E301" s="26"/>
       <c r="F301" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A302" s="3" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="B302" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C302" s="26" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D302" s="26"/>
       <c r="E302" s="26"/>
       <c r="F302" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A303" s="3" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="B303" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C303" s="26" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D303" s="26"/>
       <c r="E303" s="26"/>
-      <c r="F303" s="19" t="s">
-        <v>1197</v>
+      <c r="F303" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A304" s="3" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B304" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C304" s="26" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D304" s="26"/>
       <c r="E304" s="26"/>
       <c r="F304" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A305" s="3" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="B305" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C305" s="26" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D305" s="26"/>
       <c r="E305" s="26"/>
-      <c r="F305" t="s">
-        <v>1199</v>
+      <c r="F305" s="19" t="s">
+        <v>1197</v>
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A306" s="3" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="B306" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C306" s="27" t="s">
-        <v>485</v>
-      </c>
-      <c r="D306" s="27"/>
-      <c r="E306" s="27"/>
+      <c r="C306" s="26" t="s">
+        <v>468</v>
+      </c>
+      <c r="D306" s="26"/>
+      <c r="E306" s="26"/>
       <c r="F306" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A307" s="3" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="B307" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C307" s="26" t="s">
-        <v>486</v>
+        <v>469</v>
       </c>
       <c r="D307" s="26"/>
       <c r="E307" s="26"/>
       <c r="F307" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A308" s="3" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="B308" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C308" s="19" t="s">
-        <v>487</v>
-      </c>
-      <c r="D308" s="19"/>
-      <c r="E308" s="19"/>
+      <c r="C308" s="27" t="s">
+        <v>485</v>
+      </c>
+      <c r="D308" s="27"/>
+      <c r="E308" s="27"/>
       <c r="F308" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A309" s="3" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="B309" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C309" s="19" t="s">
-        <v>488</v>
-      </c>
-      <c r="D309" s="19"/>
-      <c r="E309" s="19"/>
+      <c r="C309" s="26" t="s">
+        <v>486</v>
+      </c>
+      <c r="D309" s="26"/>
+      <c r="E309" s="26"/>
       <c r="F309" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A310" s="3" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="B310" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C310" s="19" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D310" s="19"/>
       <c r="E310" s="19"/>
       <c r="F310" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A311" s="3" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="B311" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C311" s="19" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D311" s="19"/>
       <c r="E311" s="19"/>
       <c r="F311" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A312" s="3" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="B312" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C312" s="26" t="s">
-        <v>507</v>
-      </c>
-      <c r="D312" s="26"/>
-      <c r="E312" s="26"/>
+      <c r="C312" s="19" t="s">
+        <v>489</v>
+      </c>
+      <c r="D312" s="19"/>
+      <c r="E312" s="19"/>
       <c r="F312" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A313" s="3" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="B313" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C313" s="19" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="D313" s="19"/>
       <c r="E313" s="19"/>
       <c r="F313" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A314" s="3" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="B314" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C314" s="19" t="s">
-        <v>499</v>
-      </c>
-      <c r="D314" s="19"/>
-      <c r="E314" s="19"/>
+      <c r="C314" s="26" t="s">
+        <v>507</v>
+      </c>
+      <c r="D314" s="26"/>
+      <c r="E314" s="26"/>
       <c r="F314" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A315" s="3" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="B315" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C315" s="18" t="s">
-        <v>501</v>
-      </c>
-      <c r="D315" s="18"/>
-      <c r="E315" s="18"/>
-      <c r="F315" s="6" t="s">
-        <v>1209</v>
+      <c r="C315" s="19" t="s">
+        <v>497</v>
+      </c>
+      <c r="D315" s="19"/>
+      <c r="E315" s="19"/>
+      <c r="F315" t="s">
+        <v>1207</v>
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A316" s="3" t="s">
+        <v>901</v>
+      </c>
+      <c r="B316" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C316" s="19" t="s">
+        <v>499</v>
+      </c>
+      <c r="D316" s="19"/>
+      <c r="E316" s="19"/>
+      <c r="F316" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A317" s="3" t="s">
+        <v>902</v>
+      </c>
+      <c r="B317" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C317" s="18" t="s">
+        <v>501</v>
+      </c>
+      <c r="D317" s="18"/>
+      <c r="E317" s="18"/>
+      <c r="F317" s="6" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A318" s="3" t="s">
         <v>903</v>
       </c>
-      <c r="B316" s="3" t="s">
-        <v>627</v>
-      </c>
-      <c r="C316" s="27" t="s">
+      <c r="B318" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C318" s="27" t="s">
         <v>503</v>
       </c>
-      <c r="D316" s="27"/>
-      <c r="E316" s="27"/>
-      <c r="F316" s="6" t="s">
+      <c r="D318" s="27"/>
+      <c r="E318" s="27"/>
+      <c r="F318" s="6" t="s">
         <v>1210</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F316" xr:uid="{B8FBB380-25CE-48E1-8B68-143CBA8DEA45}"/>
+  <autoFilter ref="A1:F318" xr:uid="{B8FBB380-25CE-48E1-8B68-143CBA8DEA45}"/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/slackbuilds/sb_migr.xlsx
+++ b/slackbuilds/sb_migr.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\projects.new\sh\cvstogit\slackbuilds\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADEA13A9-7753-48FF-9989-B4F9658994E8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5096954B-C4CA-417C-B09E-3D9B7FDF67CD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">List!$A$1:$G$311</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Revisions!$A$1:$F$318</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Revisions!$A$1:$F$319</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1938" uniqueCount="1272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1961" uniqueCount="1273">
   <si>
     <t>Package</t>
   </si>
@@ -1942,105 +1942,6 @@
     <t>SLACK-10_2</t>
   </si>
   <si>
-    <t>2006-11-02 22:21:49</t>
-  </si>
-  <si>
-    <t>2006-11-03 21:52:47</t>
-  </si>
-  <si>
-    <t>2006-11-05 16:42:26</t>
-  </si>
-  <si>
-    <t>2006-11-06 08:29:40</t>
-  </si>
-  <si>
-    <t>2006-12-03 13:40:44</t>
-  </si>
-  <si>
-    <t>2006-12-03 13:48:47</t>
-  </si>
-  <si>
-    <t>2006-12-03 20:02:54</t>
-  </si>
-  <si>
-    <t>2006-12-07 22:33:14</t>
-  </si>
-  <si>
-    <t>2006-12-12 00:03:24</t>
-  </si>
-  <si>
-    <t>2006-12-12 01:54:48</t>
-  </si>
-  <si>
-    <t>2007-01-03 00:01:00</t>
-  </si>
-  <si>
-    <t>2007-01-07 16:48:54</t>
-  </si>
-  <si>
-    <t>2007-01-23 01:09:37</t>
-  </si>
-  <si>
-    <t>2007-02-07 14:53:49</t>
-  </si>
-  <si>
-    <t>2007-02-12 09:17:19</t>
-  </si>
-  <si>
-    <t>2007-03-01 22:51:31</t>
-  </si>
-  <si>
-    <t>2007-03-18 06:12:04</t>
-  </si>
-  <si>
-    <t>2007-03-29 14:22:42</t>
-  </si>
-  <si>
-    <t>2007-07-09 21:15:10</t>
-  </si>
-  <si>
-    <t>2007-07-09 22:04:55</t>
-  </si>
-  <si>
-    <t>2007-07-09 23:46:33</t>
-  </si>
-  <si>
-    <t>2007-07-10 00:21:41</t>
-  </si>
-  <si>
-    <t>2007-07-11 23:33:49</t>
-  </si>
-  <si>
-    <t>2007-07-12 12:55:01</t>
-  </si>
-  <si>
-    <t>2007-07-12 15:14:29</t>
-  </si>
-  <si>
-    <t>2007-07-12 19:10:48</t>
-  </si>
-  <si>
-    <t>2007-07-12 19:50:37</t>
-  </si>
-  <si>
-    <t>2007-07-12 20:50:21</t>
-  </si>
-  <si>
-    <t>2007-07-12 21:09:11</t>
-  </si>
-  <si>
-    <t>2007-07-12 23:53:44</t>
-  </si>
-  <si>
-    <t>2007-07-15 22:50:18</t>
-  </si>
-  <si>
-    <t>2007-07-18 20:52:35</t>
-  </si>
-  <si>
-    <t>2007-07-31 08:12:06</t>
-  </si>
-  <si>
     <t>2007-09-18 07:37:16</t>
   </si>
   <si>
@@ -3817,9 +3718,6 @@
     <t>sm_branch</t>
   </si>
   <si>
-    <t>etc/slack-package.conf.1</t>
-  </si>
-  <si>
     <t>Update config for Slackware 11.0</t>
   </si>
   <si>
@@ -3854,6 +3752,111 @@
   </si>
   <si>
     <t>current</t>
+  </si>
+  <si>
+    <t>2006-11-02 22:21:49 +0200</t>
+  </si>
+  <si>
+    <t>2006-11-03 21:52:47 +0200</t>
+  </si>
+  <si>
+    <t>2006-11-05 16:42:26 +0200</t>
+  </si>
+  <si>
+    <t>2006-11-06 08:29:40 +0200</t>
+  </si>
+  <si>
+    <t>2006-12-03 13:40:44 +0200</t>
+  </si>
+  <si>
+    <t>2006-12-03 13:48:47 +0200</t>
+  </si>
+  <si>
+    <t>2006-12-03 20:02:54 +0200</t>
+  </si>
+  <si>
+    <t>2006-12-07 22:33:14 +0200</t>
+  </si>
+  <si>
+    <t>2006-12-12 00:03:24 +0200</t>
+  </si>
+  <si>
+    <t>2006-12-12 01:54:48 +0200</t>
+  </si>
+  <si>
+    <t>SLACK-12_0</t>
+  </si>
+  <si>
+    <t>2007-01-03 00:01:00 +0200</t>
+  </si>
+  <si>
+    <t>2007-01-07 16:48:54 +0200</t>
+  </si>
+  <si>
+    <t>2007-01-23 01:09:37 +0200</t>
+  </si>
+  <si>
+    <t>2007-02-07 14:53:49 +0200</t>
+  </si>
+  <si>
+    <t>2007-02-12 09:17:19 +0200</t>
+  </si>
+  <si>
+    <t>2007-03-01 22:51:31 +0200</t>
+  </si>
+  <si>
+    <t>2007-03-18 06:12:04 +0200</t>
+  </si>
+  <si>
+    <t>2007-03-29 14:22:42 +0300</t>
+  </si>
+  <si>
+    <t>2007-07-09 21:15:10 +0300</t>
+  </si>
+  <si>
+    <t>2007-07-09 22:04:55 +0300</t>
+  </si>
+  <si>
+    <t>2007-07-09 23:46:33 +0300</t>
+  </si>
+  <si>
+    <t>2007-07-10 00:21:41 +0300</t>
+  </si>
+  <si>
+    <t>2007-07-11 23:33:49 +0300</t>
+  </si>
+  <si>
+    <t>2007-07-12 12:55:01 +0300</t>
+  </si>
+  <si>
+    <t>2007-07-12 15:14:29 +0300</t>
+  </si>
+  <si>
+    <t>2007-07-12 19:10:48 +0300</t>
+  </si>
+  <si>
+    <t>2007-07-12 19:50:37 +0300</t>
+  </si>
+  <si>
+    <t>2007-07-12 20:50:21 +0300</t>
+  </si>
+  <si>
+    <t>2007-07-12 21:09:11 +0300</t>
+  </si>
+  <si>
+    <t>2007-07-12 23:53:44 +0300</t>
+  </si>
+  <si>
+    <t>2007-07-15 22:50:18 +0300</t>
+  </si>
+  <si>
+    <t>2007-07-18 20:52:35 +0300</t>
+  </si>
+  <si>
+    <t>2007-07-31 08:12:06 +0300</t>
+  </si>
+  <si>
+    <t>etc/slack-package.conf-1</t>
   </si>
 </sst>
 </file>
@@ -8770,7 +8773,7 @@
         <v>147</v>
       </c>
       <c r="F194" t="s">
-        <v>1211</v>
+        <v>1178</v>
       </c>
       <c r="G194" s="13">
         <v>43875</v>
@@ -11507,10 +11510,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{495E7B31-8439-4BBC-8206-DAF1FFDAE945}">
-  <dimension ref="A1:F318"/>
+  <dimension ref="A1:F319"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11545,7 +11548,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="28" t="s">
-        <v>1213</v>
+        <v>1180</v>
       </c>
       <c r="B2" t="s">
         <v>628</v>
@@ -11554,7 +11557,7 @@
         <v>629</v>
       </c>
       <c r="D2" t="s">
-        <v>1262</v>
+        <v>1228</v>
       </c>
       <c r="E2" t="s">
         <v>631</v>
@@ -11562,7 +11565,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>1214</v>
+        <v>1181</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>627</v>
@@ -11571,16 +11574,16 @@
         <v>20</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>1262</v>
+        <v>1228</v>
       </c>
       <c r="E3" s="19"/>
       <c r="F3" t="s">
-        <v>905</v>
+        <v>872</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>1215</v>
+        <v>1182</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>627</v>
@@ -11589,16 +11592,16 @@
         <v>43</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>1262</v>
+        <v>1228</v>
       </c>
       <c r="E4" s="19"/>
       <c r="F4" t="s">
-        <v>906</v>
+        <v>873</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>1216</v>
+        <v>1183</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>627</v>
@@ -11607,16 +11610,16 @@
         <v>38</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>1262</v>
+        <v>1228</v>
       </c>
       <c r="E5" s="19"/>
       <c r="F5" t="s">
-        <v>1212</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>1217</v>
+        <v>1184</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>627</v>
@@ -11625,16 +11628,16 @@
         <v>26</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>1262</v>
+        <v>1228</v>
       </c>
       <c r="E6" s="19"/>
       <c r="F6" t="s">
-        <v>908</v>
+        <v>875</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>1218</v>
+        <v>1185</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>627</v>
@@ -11643,16 +11646,16 @@
         <v>123</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>1262</v>
+        <v>1228</v>
       </c>
       <c r="E7" s="19"/>
       <c r="F7" t="s">
-        <v>909</v>
+        <v>876</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>1219</v>
+        <v>1186</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>627</v>
@@ -11661,16 +11664,16 @@
         <v>555</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>1262</v>
+        <v>1228</v>
       </c>
       <c r="E8" s="26"/>
       <c r="F8" t="s">
-        <v>910</v>
+        <v>877</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>1220</v>
+        <v>1187</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>627</v>
@@ -11679,16 +11682,16 @@
         <v>110</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>1262</v>
+        <v>1228</v>
       </c>
       <c r="E9" s="19"/>
       <c r="F9" t="s">
-        <v>911</v>
+        <v>878</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>1221</v>
+        <v>1188</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>627</v>
@@ -11697,16 +11700,16 @@
         <v>111</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>1262</v>
+        <v>1228</v>
       </c>
       <c r="E10" s="19"/>
       <c r="F10" t="s">
-        <v>912</v>
+        <v>879</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>1222</v>
+        <v>1189</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>627</v>
@@ -11715,16 +11718,16 @@
         <v>577</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>1262</v>
+        <v>1228</v>
       </c>
       <c r="E11" s="19"/>
       <c r="F11" t="s">
-        <v>913</v>
+        <v>880</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>1223</v>
+        <v>1190</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>627</v>
@@ -11733,16 +11736,16 @@
         <v>6</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>1262</v>
+        <v>1228</v>
       </c>
       <c r="E12" s="19"/>
       <c r="F12" t="s">
-        <v>914</v>
+        <v>881</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>1224</v>
+        <v>1191</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>627</v>
@@ -11751,16 +11754,16 @@
         <v>30</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>1262</v>
+        <v>1228</v>
       </c>
       <c r="E13" s="18"/>
       <c r="F13" s="6" t="s">
-        <v>915</v>
+        <v>882</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>1225</v>
+        <v>1192</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>627</v>
@@ -11769,16 +11772,16 @@
         <v>14</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>1262</v>
+        <v>1228</v>
       </c>
       <c r="E14" s="18"/>
       <c r="F14" t="s">
-        <v>916</v>
+        <v>883</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>1226</v>
+        <v>1193</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>627</v>
@@ -11787,16 +11790,16 @@
         <v>161</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>1262</v>
+        <v>1228</v>
       </c>
       <c r="E15" s="19"/>
       <c r="F15" t="s">
-        <v>917</v>
+        <v>884</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>1227</v>
+        <v>1194</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>627</v>
@@ -11805,16 +11808,16 @@
         <v>85</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>1262</v>
+        <v>1228</v>
       </c>
       <c r="E16" s="19"/>
       <c r="F16" t="s">
-        <v>918</v>
+        <v>885</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>1228</v>
+        <v>1195</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>627</v>
@@ -11823,16 +11826,16 @@
         <v>37</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>1262</v>
+        <v>1228</v>
       </c>
       <c r="E17" s="19"/>
       <c r="F17" t="s">
-        <v>919</v>
+        <v>886</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>1229</v>
+        <v>1196</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>627</v>
@@ -11841,16 +11844,16 @@
         <v>9</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>1262</v>
+        <v>1228</v>
       </c>
       <c r="E18" s="19"/>
       <c r="F18" t="s">
-        <v>920</v>
+        <v>887</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>1230</v>
+        <v>1197</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>627</v>
@@ -11859,34 +11862,34 @@
         <v>82</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>1262</v>
+        <v>1228</v>
       </c>
       <c r="E19" s="19"/>
       <c r="F19" s="19" t="s">
-        <v>921</v>
+        <v>888</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>1231</v>
+        <v>1198</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>628</v>
       </c>
       <c r="C20" s="31" t="s">
-        <v>904</v>
+        <v>871</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>1262</v>
+        <v>1228</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>1232</v>
+        <v>1199</v>
       </c>
       <c r="F20" s="19"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>1233</v>
+        <v>1200</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>627</v>
@@ -11895,16 +11898,16 @@
         <v>95</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>1262</v>
+        <v>1228</v>
       </c>
       <c r="E21" s="19"/>
       <c r="F21" t="s">
-        <v>922</v>
+        <v>889</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>1234</v>
+        <v>1201</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>627</v>
@@ -11913,16 +11916,16 @@
         <v>8</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>1262</v>
+        <v>1228</v>
       </c>
       <c r="E22" s="19"/>
       <c r="F22" t="s">
-        <v>923</v>
+        <v>890</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>1235</v>
+        <v>1202</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>627</v>
@@ -11931,16 +11934,16 @@
         <v>596</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>1262</v>
+        <v>1228</v>
       </c>
       <c r="E23" s="18"/>
       <c r="F23" s="6" t="s">
-        <v>924</v>
+        <v>891</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>1236</v>
+        <v>1203</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>627</v>
@@ -11949,34 +11952,34 @@
         <v>31</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>1262</v>
+        <v>1228</v>
       </c>
       <c r="E24" s="18"/>
       <c r="F24" s="6" t="s">
-        <v>925</v>
+        <v>892</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>1237</v>
+        <v>1204</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C25" s="31" t="s">
-        <v>1241</v>
+        <v>1208</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>1262</v>
+        <v>1228</v>
       </c>
       <c r="E25" s="19"/>
       <c r="F25" t="s">
-        <v>926</v>
+        <v>893</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>1238</v>
+        <v>1205</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>627</v>
@@ -11985,16 +11988,16 @@
         <v>554</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>1262</v>
+        <v>1228</v>
       </c>
       <c r="E26" s="19"/>
       <c r="F26" t="s">
-        <v>927</v>
+        <v>894</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>1239</v>
+        <v>1206</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>627</v>
@@ -12003,52 +12006,52 @@
         <v>541</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>1262</v>
+        <v>1228</v>
       </c>
       <c r="E27" s="26"/>
       <c r="F27" t="s">
-        <v>928</v>
+        <v>895</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>1240</v>
+        <v>1207</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C28" s="31" t="s">
-        <v>1253</v>
+        <v>1220</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>1262</v>
+        <v>1228</v>
       </c>
       <c r="E28" s="19"/>
       <c r="F28" t="s">
-        <v>929</v>
+        <v>896</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>1242</v>
+        <v>1209</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C29" s="31" t="s">
-        <v>1254</v>
+        <v>1221</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>1262</v>
+        <v>1228</v>
       </c>
       <c r="E29" s="19"/>
       <c r="F29" t="s">
-        <v>930</v>
+        <v>897</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>1243</v>
+        <v>1210</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>627</v>
@@ -12057,16 +12060,16 @@
         <v>28</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>1262</v>
+        <v>1228</v>
       </c>
       <c r="E30" s="19"/>
       <c r="F30" t="s">
-        <v>931</v>
+        <v>898</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>1244</v>
+        <v>1211</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>627</v>
@@ -12075,16 +12078,16 @@
         <v>57</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>1262</v>
+        <v>1228</v>
       </c>
       <c r="E31" s="19"/>
       <c r="F31" t="s">
-        <v>932</v>
+        <v>899</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>1245</v>
+        <v>1212</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>627</v>
@@ -12093,16 +12096,16 @@
         <v>59</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>1262</v>
+        <v>1228</v>
       </c>
       <c r="E32" s="19"/>
       <c r="F32" t="s">
-        <v>933</v>
+        <v>900</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>1246</v>
+        <v>1213</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>627</v>
@@ -12111,34 +12114,34 @@
         <v>22</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>1262</v>
+        <v>1228</v>
       </c>
       <c r="E33" s="18"/>
       <c r="F33" t="s">
-        <v>934</v>
+        <v>901</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>1247</v>
+        <v>1214</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C34" s="31" t="s">
-        <v>1255</v>
+        <v>1222</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>1262</v>
+        <v>1228</v>
       </c>
       <c r="E34" s="19"/>
       <c r="F34" s="19" t="s">
-        <v>935</v>
+        <v>902</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>1248</v>
+        <v>1215</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>627</v>
@@ -12147,16 +12150,16 @@
         <v>18</v>
       </c>
       <c r="D35" s="18" t="s">
-        <v>1262</v>
+        <v>1228</v>
       </c>
       <c r="E35" s="19"/>
       <c r="F35" t="s">
-        <v>936</v>
+        <v>903</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>1249</v>
+        <v>1216</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>627</v>
@@ -12165,16 +12168,16 @@
         <v>16</v>
       </c>
       <c r="D36" s="18" t="s">
-        <v>1262</v>
+        <v>1228</v>
       </c>
       <c r="E36" s="19"/>
       <c r="F36" t="s">
-        <v>907</v>
+        <v>874</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>1250</v>
+        <v>1217</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>627</v>
@@ -12183,16 +12186,16 @@
         <v>12</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>1262</v>
+        <v>1228</v>
       </c>
       <c r="E37" s="19"/>
       <c r="F37" t="s">
-        <v>937</v>
+        <v>904</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>1251</v>
+        <v>1218</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>627</v>
@@ -12201,16 +12204,16 @@
         <v>36</v>
       </c>
       <c r="D38" s="18" t="s">
-        <v>1262</v>
+        <v>1228</v>
       </c>
       <c r="E38" s="19"/>
       <c r="F38" t="s">
-        <v>938</v>
+        <v>905</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>1252</v>
+        <v>1219</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>627</v>
@@ -12219,17 +12222,17 @@
         <v>34</v>
       </c>
       <c r="D39" s="18" t="s">
-        <v>1262</v>
+        <v>1228</v>
       </c>
       <c r="E39" s="19"/>
       <c r="F39" t="s">
-        <v>939</v>
+        <v>906</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
-        <v>1269</v>
+        <v>1235</v>
       </c>
       <c r="C40" s="19"/>
       <c r="D40" s="18" t="s">
@@ -12240,106 +12243,106 @@
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
-        <v>1270</v>
+        <v>1236</v>
       </c>
       <c r="C41" s="19"/>
       <c r="D41" s="18" t="s">
-        <v>1257</v>
+        <v>1224</v>
       </c>
       <c r="E41" s="19"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>1261</v>
+        <v>1227</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>628</v>
       </c>
       <c r="C42" s="19" t="s">
-        <v>1259</v>
+        <v>1272</v>
       </c>
       <c r="D42" s="18" t="s">
-        <v>1271</v>
+        <v>1237</v>
       </c>
       <c r="E42" s="19" t="s">
-        <v>1260</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="32" t="s">
-        <v>1256</v>
+        <v>1223</v>
       </c>
       <c r="B43" s="32" t="s">
-        <v>1258</v>
+        <v>1225</v>
       </c>
       <c r="C43" s="19" t="s">
         <v>18</v>
       </c>
       <c r="D43" s="18" t="s">
-        <v>1263</v>
+        <v>1229</v>
       </c>
       <c r="E43" s="19"/>
       <c r="F43" t="s">
-        <v>936</v>
+        <v>903</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="32" t="s">
-        <v>1264</v>
+        <v>1230</v>
       </c>
       <c r="B44" s="32" t="s">
-        <v>1258</v>
+        <v>1225</v>
       </c>
       <c r="C44" s="19" t="s">
         <v>38</v>
       </c>
       <c r="D44" s="18" t="s">
-        <v>1263</v>
+        <v>1229</v>
       </c>
       <c r="E44" s="19"/>
       <c r="F44" t="s">
-        <v>1212</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="32" t="s">
-        <v>1265</v>
+        <v>1231</v>
       </c>
       <c r="B45" s="32" t="s">
-        <v>1258</v>
+        <v>1225</v>
       </c>
       <c r="C45" s="19" t="s">
-        <v>1241</v>
+        <v>1208</v>
       </c>
       <c r="D45" s="18" t="s">
-        <v>1263</v>
+        <v>1229</v>
       </c>
       <c r="E45" s="19"/>
       <c r="F45" t="s">
-        <v>926</v>
+        <v>893</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="32" t="s">
-        <v>1266</v>
+        <v>1232</v>
       </c>
       <c r="B46" s="32" t="s">
-        <v>1258</v>
+        <v>1225</v>
       </c>
       <c r="C46" s="19" t="s">
         <v>43</v>
       </c>
       <c r="D46" s="18" t="s">
-        <v>1263</v>
+        <v>1229</v>
       </c>
       <c r="E46" s="19"/>
       <c r="F46" t="s">
-        <v>906</v>
+        <v>873</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="33" t="s">
-        <v>1267</v>
+        <v>1233</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>627</v>
@@ -12348,16 +12351,16 @@
         <v>45</v>
       </c>
       <c r="D47" s="18" t="s">
-        <v>1257</v>
+        <v>1224</v>
       </c>
       <c r="E47" s="18"/>
       <c r="F47" s="6" t="s">
-        <v>940</v>
+        <v>907</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>1268</v>
+        <v>1234</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>627</v>
@@ -12365,15 +12368,17 @@
       <c r="C48" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="D48" s="19"/>
+      <c r="D48" s="18" t="s">
+        <v>1224</v>
+      </c>
       <c r="E48" s="19"/>
       <c r="F48" t="s">
-        <v>941</v>
+        <v>908</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>634</v>
+        <v>1238</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>627</v>
@@ -12381,15 +12386,17 @@
       <c r="C49" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="D49" s="18"/>
+      <c r="D49" s="18" t="s">
+        <v>1224</v>
+      </c>
       <c r="E49" s="18"/>
       <c r="F49" t="s">
-        <v>942</v>
+        <v>909</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>635</v>
+        <v>1239</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>627</v>
@@ -12397,15 +12404,17 @@
       <c r="C50" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="D50" s="19"/>
+      <c r="D50" s="18" t="s">
+        <v>1224</v>
+      </c>
       <c r="E50" s="19"/>
       <c r="F50" t="s">
-        <v>943</v>
+        <v>910</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>636</v>
+        <v>1240</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>627</v>
@@ -12413,15 +12422,17 @@
       <c r="C51" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="D51" s="19"/>
+      <c r="D51" s="18" t="s">
+        <v>1224</v>
+      </c>
       <c r="E51" s="19"/>
       <c r="F51" t="s">
-        <v>944</v>
+        <v>911</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>637</v>
+        <v>1241</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>627</v>
@@ -12429,15 +12440,17 @@
       <c r="C52" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="D52" s="19"/>
+      <c r="D52" s="18" t="s">
+        <v>1224</v>
+      </c>
       <c r="E52" s="19"/>
       <c r="F52" t="s">
-        <v>945</v>
+        <v>912</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>638</v>
+        <v>1242</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>627</v>
@@ -12445,15 +12458,17 @@
       <c r="C53" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="D53" s="19"/>
+      <c r="D53" s="18" t="s">
+        <v>1224</v>
+      </c>
       <c r="E53" s="19"/>
       <c r="F53" t="s">
-        <v>946</v>
+        <v>913</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
-        <v>639</v>
+        <v>1243</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>627</v>
@@ -12461,15 +12476,17 @@
       <c r="C54" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="D54" s="19"/>
+      <c r="D54" s="18" t="s">
+        <v>1224</v>
+      </c>
       <c r="E54" s="19"/>
       <c r="F54" t="s">
-        <v>947</v>
+        <v>914</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
-        <v>640</v>
+        <v>1244</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>627</v>
@@ -12477,15 +12494,17 @@
       <c r="C55" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="D55" s="18"/>
+      <c r="D55" s="18" t="s">
+        <v>1224</v>
+      </c>
       <c r="E55" s="18"/>
       <c r="F55" s="6" t="s">
-        <v>948</v>
+        <v>915</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
-        <v>641</v>
+        <v>1245</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>627</v>
@@ -12493,15 +12512,17 @@
       <c r="C56" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="D56" s="18"/>
+      <c r="D56" s="18" t="s">
+        <v>1224</v>
+      </c>
       <c r="E56" s="18"/>
       <c r="F56" t="s">
-        <v>949</v>
+        <v>916</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
-        <v>642</v>
+        <v>1246</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>627</v>
@@ -12509,15 +12530,17 @@
       <c r="C57" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="D57" s="19"/>
+      <c r="D57" s="18" t="s">
+        <v>1224</v>
+      </c>
       <c r="E57" s="19"/>
       <c r="F57" t="s">
-        <v>950</v>
+        <v>917</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
-        <v>643</v>
+        <v>1247</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>627</v>
@@ -12525,15 +12548,17 @@
       <c r="C58" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="D58" s="19"/>
+      <c r="D58" s="18" t="s">
+        <v>1224</v>
+      </c>
       <c r="E58" s="19"/>
       <c r="F58" t="s">
-        <v>951</v>
+        <v>918</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
-        <v>644</v>
+        <v>1249</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>627</v>
@@ -12541,15 +12566,17 @@
       <c r="C59" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="D59" s="19"/>
+      <c r="D59" s="18" t="s">
+        <v>1224</v>
+      </c>
       <c r="E59" s="19"/>
       <c r="F59" t="s">
-        <v>952</v>
+        <v>919</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
-        <v>645</v>
+        <v>1250</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>627</v>
@@ -12557,15 +12584,17 @@
       <c r="C60" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="D60" s="19"/>
+      <c r="D60" s="18" t="s">
+        <v>1224</v>
+      </c>
       <c r="E60" s="19"/>
       <c r="F60" t="s">
-        <v>953</v>
+        <v>920</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
-        <v>646</v>
+        <v>1251</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>627</v>
@@ -12573,15 +12602,17 @@
       <c r="C61" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="D61" s="19"/>
+      <c r="D61" s="18" t="s">
+        <v>1224</v>
+      </c>
       <c r="E61" s="19"/>
       <c r="F61" t="s">
-        <v>954</v>
+        <v>921</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
-        <v>647</v>
+        <v>1252</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>627</v>
@@ -12589,15 +12620,17 @@
       <c r="C62" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="D62" s="19"/>
+      <c r="D62" s="18" t="s">
+        <v>1224</v>
+      </c>
       <c r="E62" s="19"/>
       <c r="F62" t="s">
-        <v>955</v>
+        <v>922</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
-        <v>648</v>
+        <v>1253</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>627</v>
@@ -12605,15 +12638,17 @@
       <c r="C63" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="D63" s="19"/>
+      <c r="D63" s="18" t="s">
+        <v>1224</v>
+      </c>
       <c r="E63" s="19"/>
       <c r="F63" t="s">
-        <v>956</v>
+        <v>923</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
-        <v>649</v>
+        <v>1254</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>627</v>
@@ -12621,15 +12656,17 @@
       <c r="C64" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="D64" s="19"/>
+      <c r="D64" s="18" t="s">
+        <v>1224</v>
+      </c>
       <c r="E64" s="19"/>
       <c r="F64" t="s">
-        <v>957</v>
+        <v>924</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
-        <v>650</v>
+        <v>1255</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>627</v>
@@ -12637,15 +12674,17 @@
       <c r="C65" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="D65" s="19"/>
+      <c r="D65" s="18" t="s">
+        <v>1224</v>
+      </c>
       <c r="E65" s="19"/>
       <c r="F65" t="s">
-        <v>958</v>
+        <v>925</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
-        <v>651</v>
+        <v>1256</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>627</v>
@@ -12653,15 +12692,17 @@
       <c r="C66" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="D66" s="19"/>
+      <c r="D66" s="18" t="s">
+        <v>1224</v>
+      </c>
       <c r="E66" s="19"/>
       <c r="F66" t="s">
-        <v>959</v>
+        <v>926</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
-        <v>652</v>
+        <v>1257</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>627</v>
@@ -12669,4030 +12710,4045 @@
       <c r="C67" s="26" t="s">
         <v>542</v>
       </c>
-      <c r="D67" s="26"/>
+      <c r="D67" s="18" t="s">
+        <v>1224</v>
+      </c>
       <c r="E67" s="26"/>
       <c r="F67" t="s">
-        <v>960</v>
+        <v>927</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A68" s="3" t="s">
-        <v>653</v>
-      </c>
+      <c r="A68" s="3"/>
       <c r="B68" s="3" t="s">
-        <v>627</v>
-      </c>
-      <c r="C68" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="D68" s="19"/>
+        <v>1236</v>
+      </c>
+      <c r="C68" s="19"/>
+      <c r="D68" s="18" t="s">
+        <v>1248</v>
+      </c>
       <c r="E68" s="19"/>
-      <c r="F68" t="s">
-        <v>961</v>
-      </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
-        <v>654</v>
+        <v>1258</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C69" s="26" t="s">
-        <v>543</v>
-      </c>
-      <c r="D69" s="26"/>
-      <c r="E69" s="26"/>
+      <c r="C69" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="D69" s="18" t="s">
+        <v>1248</v>
+      </c>
+      <c r="E69" s="19"/>
       <c r="F69" t="s">
-        <v>962</v>
+        <v>928</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
-        <v>655</v>
+        <v>1259</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C70" s="26" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="D70" s="26"/>
       <c r="E70" s="26"/>
       <c r="F70" t="s">
-        <v>963</v>
+        <v>929</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
-        <v>656</v>
+        <v>1260</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C71" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="D71" s="19"/>
-      <c r="E71" s="19"/>
+      <c r="C71" s="26" t="s">
+        <v>547</v>
+      </c>
+      <c r="D71" s="26"/>
+      <c r="E71" s="26"/>
       <c r="F71" t="s">
-        <v>964</v>
+        <v>930</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
-        <v>657</v>
+        <v>1261</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C72" s="18" t="s">
-        <v>548</v>
-      </c>
-      <c r="D72" s="18"/>
-      <c r="E72" s="18"/>
-      <c r="F72" s="6" t="s">
-        <v>965</v>
+      <c r="C72" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="D72" s="19"/>
+      <c r="E72" s="19"/>
+      <c r="F72" t="s">
+        <v>931</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
-        <v>658</v>
+        <v>1262</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C73" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="D73" s="19"/>
-      <c r="E73" s="19"/>
-      <c r="F73" t="s">
-        <v>966</v>
+      <c r="C73" s="18" t="s">
+        <v>548</v>
+      </c>
+      <c r="D73" s="18"/>
+      <c r="E73" s="18"/>
+      <c r="F73" s="6" t="s">
+        <v>932</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
-        <v>659</v>
+        <v>1263</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C74" s="19" t="s">
-        <v>550</v>
+        <v>88</v>
       </c>
       <c r="D74" s="19"/>
       <c r="E74" s="19"/>
       <c r="F74" t="s">
-        <v>967</v>
+        <v>933</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
-        <v>660</v>
+        <v>1264</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C75" s="18" t="s">
-        <v>549</v>
-      </c>
-      <c r="D75" s="18"/>
-      <c r="E75" s="18"/>
-      <c r="F75" s="6" t="s">
-        <v>968</v>
+      <c r="C75" s="19" t="s">
+        <v>550</v>
+      </c>
+      <c r="D75" s="19"/>
+      <c r="E75" s="19"/>
+      <c r="F75" t="s">
+        <v>934</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
-        <v>661</v>
+        <v>1265</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C76" s="19" t="s">
-        <v>551</v>
-      </c>
-      <c r="D76" s="19"/>
-      <c r="E76" s="19"/>
-      <c r="F76" t="s">
-        <v>969</v>
+      <c r="C76" s="18" t="s">
+        <v>549</v>
+      </c>
+      <c r="D76" s="18"/>
+      <c r="E76" s="18"/>
+      <c r="F76" s="6" t="s">
+        <v>935</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
-        <v>662</v>
+        <v>1266</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C77" s="19" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D77" s="19"/>
       <c r="E77" s="19"/>
       <c r="F77" t="s">
-        <v>970</v>
+        <v>936</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
-        <v>663</v>
+        <v>1267</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C78" s="19" t="s">
-        <v>97</v>
+        <v>552</v>
       </c>
       <c r="D78" s="19"/>
       <c r="E78" s="19"/>
       <c r="F78" t="s">
-        <v>971</v>
+        <v>937</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
-        <v>664</v>
+        <v>1268</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C79" s="19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D79" s="19"/>
       <c r="E79" s="19"/>
       <c r="F79" t="s">
-        <v>972</v>
+        <v>938</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
-        <v>665</v>
+        <v>1269</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C80" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="D80" s="18"/>
-      <c r="E80" s="18"/>
-      <c r="F80" s="6" t="s">
-        <v>973</v>
+      <c r="C80" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="D80" s="19"/>
+      <c r="E80" s="19"/>
+      <c r="F80" t="s">
+        <v>939</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
-        <v>666</v>
+        <v>1270</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C81" s="26" t="s">
-        <v>553</v>
-      </c>
-      <c r="D81" s="26"/>
-      <c r="E81" s="26"/>
-      <c r="F81" t="s">
-        <v>974</v>
+      <c r="C81" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="D81" s="18"/>
+      <c r="E81" s="18"/>
+      <c r="F81" s="6" t="s">
+        <v>940</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
-        <v>667</v>
+        <v>1271</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C82" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="D82" s="19"/>
-      <c r="E82" s="19"/>
+      <c r="C82" s="26" t="s">
+        <v>553</v>
+      </c>
+      <c r="D82" s="26"/>
+      <c r="E82" s="26"/>
       <c r="F82" t="s">
-        <v>975</v>
+        <v>941</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
-        <v>668</v>
+        <v>634</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C83" s="19" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="D83" s="19"/>
       <c r="E83" s="19"/>
       <c r="F83" t="s">
-        <v>976</v>
+        <v>942</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
-        <v>669</v>
+        <v>635</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C84" s="19" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D84" s="19"/>
       <c r="E84" s="19"/>
       <c r="F84" t="s">
-        <v>977</v>
+        <v>943</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
-        <v>670</v>
+        <v>636</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C85" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="D85" s="18"/>
-      <c r="E85" s="18"/>
+      <c r="C85" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="D85" s="19"/>
+      <c r="E85" s="19"/>
       <c r="F85" t="s">
-        <v>978</v>
+        <v>944</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
-        <v>671</v>
+        <v>637</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C86" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="D86" s="19"/>
-      <c r="E86" s="19"/>
+      <c r="C86" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="D86" s="18"/>
+      <c r="E86" s="18"/>
       <c r="F86" t="s">
-        <v>979</v>
+        <v>945</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
-        <v>672</v>
+        <v>638</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C87" s="19" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D87" s="19"/>
       <c r="E87" s="19"/>
       <c r="F87" t="s">
-        <v>980</v>
+        <v>946</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
-        <v>673</v>
+        <v>639</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C88" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="D88" s="18"/>
-      <c r="E88" s="18"/>
-      <c r="F88" s="6" t="s">
-        <v>981</v>
+      <c r="C88" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="D88" s="19"/>
+      <c r="E88" s="19"/>
+      <c r="F88" t="s">
+        <v>947</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
-        <v>674</v>
+        <v>640</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C89" s="18" t="s">
-        <v>113</v>
+        <v>137</v>
       </c>
       <c r="D89" s="18"/>
       <c r="E89" s="18"/>
       <c r="F89" s="6" t="s">
-        <v>982</v>
+        <v>948</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
-        <v>675</v>
+        <v>641</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C90" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="D90" s="19"/>
-      <c r="E90" s="19"/>
-      <c r="F90" t="s">
-        <v>983</v>
+      <c r="C90" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="D90" s="18"/>
+      <c r="E90" s="18"/>
+      <c r="F90" s="6" t="s">
+        <v>949</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
-        <v>676</v>
+        <v>642</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C91" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="D91" s="18"/>
-      <c r="E91" s="18"/>
+      <c r="C91" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="D91" s="19"/>
+      <c r="E91" s="19"/>
       <c r="F91" t="s">
-        <v>984</v>
+        <v>950</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
-        <v>677</v>
+        <v>643</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C92" s="19" t="s">
-        <v>169</v>
-      </c>
-      <c r="D92" s="19"/>
-      <c r="E92" s="19"/>
+      <c r="C92" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="D92" s="18"/>
+      <c r="E92" s="18"/>
       <c r="F92" t="s">
-        <v>985</v>
+        <v>951</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
-        <v>678</v>
+        <v>644</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C93" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="D93" s="18"/>
-      <c r="E93" s="18"/>
+      <c r="C93" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="D93" s="19"/>
+      <c r="E93" s="19"/>
       <c r="F93" t="s">
-        <v>986</v>
+        <v>952</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
-        <v>679</v>
+        <v>645</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C94" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="D94" s="19"/>
-      <c r="E94" s="19"/>
+      <c r="C94" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="D94" s="18"/>
+      <c r="E94" s="18"/>
       <c r="F94" t="s">
-        <v>987</v>
+        <v>953</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
-        <v>680</v>
+        <v>646</v>
       </c>
       <c r="B95" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C95" s="26" t="s">
-        <v>578</v>
-      </c>
-      <c r="D95" s="26"/>
-      <c r="E95" s="26"/>
+      <c r="C95" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="D95" s="19"/>
+      <c r="E95" s="19"/>
       <c r="F95" t="s">
-        <v>988</v>
+        <v>954</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
-        <v>681</v>
+        <v>647</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C96" s="26" t="s">
-        <v>556</v>
+        <v>578</v>
       </c>
       <c r="D96" s="26"/>
       <c r="E96" s="26"/>
       <c r="F96" t="s">
-        <v>989</v>
+        <v>955</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
-        <v>682</v>
+        <v>648</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C97" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="D97" s="19"/>
-      <c r="E97" s="19"/>
+      <c r="C97" s="26" t="s">
+        <v>556</v>
+      </c>
+      <c r="D97" s="26"/>
+      <c r="E97" s="26"/>
       <c r="F97" t="s">
-        <v>990</v>
+        <v>956</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
-        <v>683</v>
+        <v>649</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C98" s="19" t="s">
-        <v>567</v>
+        <v>135</v>
       </c>
       <c r="D98" s="19"/>
       <c r="E98" s="19"/>
       <c r="F98" t="s">
-        <v>991</v>
+        <v>957</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
-        <v>684</v>
+        <v>650</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C99" s="19" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D99" s="19"/>
       <c r="E99" s="19"/>
       <c r="F99" t="s">
-        <v>992</v>
+        <v>958</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
-        <v>685</v>
+        <v>651</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C100" s="19" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
       <c r="D100" s="19"/>
       <c r="E100" s="19"/>
       <c r="F100" t="s">
-        <v>993</v>
+        <v>959</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
-        <v>686</v>
+        <v>652</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C101" s="19" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D101" s="19"/>
       <c r="E101" s="19"/>
       <c r="F101" t="s">
-        <v>994</v>
+        <v>960</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
-        <v>687</v>
+        <v>653</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C102" s="26" t="s">
-        <v>539</v>
-      </c>
-      <c r="D102" s="26"/>
-      <c r="E102" s="26"/>
+      <c r="C102" s="19" t="s">
+        <v>580</v>
+      </c>
+      <c r="D102" s="19"/>
+      <c r="E102" s="19"/>
       <c r="F102" t="s">
-        <v>995</v>
+        <v>961</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
-        <v>688</v>
+        <v>654</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C103" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="D103" s="19"/>
-      <c r="E103" s="19"/>
+      <c r="C103" s="26" t="s">
+        <v>539</v>
+      </c>
+      <c r="D103" s="26"/>
+      <c r="E103" s="26"/>
       <c r="F103" t="s">
-        <v>996</v>
+        <v>962</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
-        <v>689</v>
+        <v>655</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C104" s="19" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D104" s="19"/>
       <c r="E104" s="19"/>
       <c r="F104" t="s">
-        <v>997</v>
+        <v>963</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
-        <v>690</v>
+        <v>656</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C105" s="26" t="s">
-        <v>581</v>
-      </c>
-      <c r="D105" s="26"/>
-      <c r="E105" s="26"/>
+      <c r="C105" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="D105" s="19"/>
+      <c r="E105" s="19"/>
       <c r="F105" t="s">
-        <v>998</v>
+        <v>964</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
-        <v>691</v>
+        <v>657</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C106" s="19" t="s">
-        <v>531</v>
-      </c>
-      <c r="D106" s="19"/>
-      <c r="E106" s="19"/>
+      <c r="C106" s="26" t="s">
+        <v>581</v>
+      </c>
+      <c r="D106" s="26"/>
+      <c r="E106" s="26"/>
       <c r="F106" t="s">
-        <v>999</v>
+        <v>965</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
-        <v>692</v>
+        <v>658</v>
       </c>
       <c r="B107" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C107" s="19" t="s">
-        <v>147</v>
+        <v>531</v>
       </c>
       <c r="D107" s="19"/>
       <c r="E107" s="19"/>
       <c r="F107" t="s">
-        <v>1000</v>
+        <v>966</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
-        <v>693</v>
+        <v>659</v>
       </c>
       <c r="B108" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C108" s="26" t="s">
-        <v>582</v>
-      </c>
-      <c r="D108" s="26"/>
-      <c r="E108" s="26"/>
+      <c r="C108" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="D108" s="19"/>
+      <c r="E108" s="19"/>
       <c r="F108" t="s">
-        <v>1001</v>
+        <v>967</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
-        <v>694</v>
+        <v>660</v>
       </c>
       <c r="B109" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C109" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="D109" s="19"/>
-      <c r="E109" s="19"/>
+      <c r="C109" s="26" t="s">
+        <v>582</v>
+      </c>
+      <c r="D109" s="26"/>
+      <c r="E109" s="26"/>
       <c r="F109" t="s">
-        <v>1002</v>
+        <v>968</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="s">
-        <v>695</v>
+        <v>661</v>
       </c>
       <c r="B110" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C110" s="19" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="D110" s="19"/>
       <c r="E110" s="19"/>
       <c r="F110" t="s">
-        <v>1003</v>
+        <v>969</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
-        <v>696</v>
+        <v>662</v>
       </c>
       <c r="B111" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C111" s="26" t="s">
-        <v>140</v>
-      </c>
-      <c r="D111" s="26"/>
-      <c r="E111" s="26"/>
+      <c r="C111" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="D111" s="19"/>
+      <c r="E111" s="19"/>
       <c r="F111" t="s">
-        <v>1004</v>
+        <v>970</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="s">
-        <v>697</v>
+        <v>663</v>
       </c>
       <c r="B112" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C112" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="D112" s="19"/>
-      <c r="E112" s="19"/>
+      <c r="C112" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="D112" s="26"/>
+      <c r="E112" s="26"/>
       <c r="F112" t="s">
-        <v>1005</v>
+        <v>971</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
-        <v>698</v>
+        <v>664</v>
       </c>
       <c r="B113" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C113" s="19" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="D113" s="19"/>
       <c r="E113" s="19"/>
       <c r="F113" t="s">
-        <v>1006</v>
+        <v>972</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="s">
-        <v>699</v>
+        <v>665</v>
       </c>
       <c r="B114" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C114" s="26" t="s">
-        <v>527</v>
-      </c>
-      <c r="D114" s="26"/>
-      <c r="E114" s="26"/>
+      <c r="C114" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="D114" s="19"/>
+      <c r="E114" s="19"/>
       <c r="F114" t="s">
-        <v>1007</v>
+        <v>973</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="s">
-        <v>700</v>
+        <v>666</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C115" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="D115" s="19"/>
-      <c r="E115" s="19"/>
+      <c r="C115" s="26" t="s">
+        <v>527</v>
+      </c>
+      <c r="D115" s="26"/>
+      <c r="E115" s="26"/>
       <c r="F115" t="s">
-        <v>1008</v>
+        <v>974</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="3" t="s">
-        <v>701</v>
+        <v>667</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C116" s="19" t="s">
-        <v>525</v>
+        <v>150</v>
       </c>
       <c r="D116" s="19"/>
       <c r="E116" s="19"/>
       <c r="F116" t="s">
-        <v>1009</v>
+        <v>975</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="3" t="s">
-        <v>702</v>
+        <v>668</v>
       </c>
       <c r="B117" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C117" s="26" t="s">
-        <v>583</v>
-      </c>
-      <c r="D117" s="26"/>
-      <c r="E117" s="26"/>
+      <c r="C117" s="19" t="s">
+        <v>525</v>
+      </c>
+      <c r="D117" s="19"/>
+      <c r="E117" s="19"/>
       <c r="F117" t="s">
-        <v>1010</v>
+        <v>976</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="s">
-        <v>703</v>
+        <v>669</v>
       </c>
       <c r="B118" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C118" s="26" t="s">
-        <v>571</v>
+        <v>583</v>
       </c>
       <c r="D118" s="26"/>
       <c r="E118" s="26"/>
       <c r="F118" t="s">
-        <v>1011</v>
+        <v>977</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="s">
-        <v>704</v>
+        <v>670</v>
       </c>
       <c r="B119" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C119" s="19" t="s">
-        <v>573</v>
-      </c>
-      <c r="D119" s="19"/>
-      <c r="E119" s="19"/>
+      <c r="C119" s="26" t="s">
+        <v>571</v>
+      </c>
+      <c r="D119" s="26"/>
+      <c r="E119" s="26"/>
       <c r="F119" t="s">
-        <v>1012</v>
+        <v>978</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
-        <v>705</v>
+        <v>671</v>
       </c>
       <c r="B120" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C120" s="19" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="D120" s="19"/>
       <c r="E120" s="19"/>
       <c r="F120" t="s">
-        <v>1013</v>
+        <v>979</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
-        <v>706</v>
+        <v>672</v>
       </c>
       <c r="B121" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C121" s="26" t="s">
-        <v>584</v>
-      </c>
-      <c r="D121" s="26"/>
-      <c r="E121" s="26"/>
+      <c r="C121" s="19" t="s">
+        <v>575</v>
+      </c>
+      <c r="D121" s="19"/>
+      <c r="E121" s="19"/>
       <c r="F121" t="s">
-        <v>1014</v>
+        <v>980</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
-        <v>707</v>
+        <v>673</v>
       </c>
       <c r="B122" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C122" s="26" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D122" s="26"/>
       <c r="E122" s="26"/>
       <c r="F122" t="s">
-        <v>1015</v>
+        <v>981</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
-        <v>708</v>
+        <v>674</v>
       </c>
       <c r="B123" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C123" s="19" t="s">
-        <v>156</v>
-      </c>
-      <c r="D123" s="19"/>
-      <c r="E123" s="19"/>
+      <c r="C123" s="26" t="s">
+        <v>585</v>
+      </c>
+      <c r="D123" s="26"/>
+      <c r="E123" s="26"/>
       <c r="F123" t="s">
-        <v>1016</v>
+        <v>982</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="3" t="s">
-        <v>709</v>
+        <v>675</v>
       </c>
       <c r="B124" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C124" s="19" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D124" s="19"/>
       <c r="E124" s="19"/>
       <c r="F124" t="s">
-        <v>1017</v>
+        <v>983</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
-        <v>710</v>
+        <v>676</v>
       </c>
       <c r="B125" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C125" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="D125" s="18"/>
-      <c r="E125" s="18"/>
-      <c r="F125" s="6" t="s">
-        <v>1018</v>
+      <c r="C125" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="D125" s="19"/>
+      <c r="E125" s="19"/>
+      <c r="F125" t="s">
+        <v>984</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="s">
-        <v>711</v>
+        <v>677</v>
       </c>
       <c r="B126" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C126" s="26" t="s">
-        <v>595</v>
-      </c>
-      <c r="D126" s="26"/>
-      <c r="E126" s="26"/>
-      <c r="F126" t="s">
-        <v>1019</v>
+      <c r="C126" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="D126" s="18"/>
+      <c r="E126" s="18"/>
+      <c r="F126" s="6" t="s">
+        <v>985</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="s">
-        <v>712</v>
+        <v>678</v>
       </c>
       <c r="B127" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C127" s="19" t="s">
-        <v>163</v>
-      </c>
-      <c r="D127" s="19"/>
-      <c r="E127" s="19"/>
+      <c r="C127" s="26" t="s">
+        <v>595</v>
+      </c>
+      <c r="D127" s="26"/>
+      <c r="E127" s="26"/>
       <c r="F127" t="s">
-        <v>1020</v>
+        <v>986</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="3" t="s">
-        <v>713</v>
+        <v>679</v>
       </c>
       <c r="B128" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C128" s="26" t="s">
-        <v>599</v>
-      </c>
-      <c r="D128" s="26"/>
-      <c r="E128" s="26"/>
+      <c r="C128" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="D128" s="19"/>
+      <c r="E128" s="19"/>
       <c r="F128" t="s">
-        <v>1021</v>
+        <v>987</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="3" t="s">
-        <v>714</v>
+        <v>680</v>
       </c>
       <c r="B129" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C129" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="D129" s="19"/>
-      <c r="E129" s="19"/>
+      <c r="C129" s="26" t="s">
+        <v>599</v>
+      </c>
+      <c r="D129" s="26"/>
+      <c r="E129" s="26"/>
       <c r="F129" t="s">
-        <v>1022</v>
+        <v>988</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="3" t="s">
-        <v>715</v>
+        <v>681</v>
       </c>
       <c r="B130" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C130" s="19" t="s">
-        <v>251</v>
+        <v>167</v>
       </c>
       <c r="D130" s="19"/>
       <c r="E130" s="19"/>
       <c r="F130" t="s">
-        <v>1023</v>
+        <v>989</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="3" t="s">
-        <v>716</v>
+        <v>682</v>
       </c>
       <c r="B131" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C131" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="D131" s="26"/>
-      <c r="E131" s="26"/>
+      <c r="C131" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="D131" s="19"/>
+      <c r="E131" s="19"/>
       <c r="F131" t="s">
-        <v>1024</v>
+        <v>990</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="3" t="s">
-        <v>717</v>
+        <v>683</v>
       </c>
       <c r="B132" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C132" s="27" t="s">
-        <v>171</v>
-      </c>
-      <c r="D132" s="27"/>
-      <c r="E132" s="27"/>
+      <c r="C132" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="D132" s="26"/>
+      <c r="E132" s="26"/>
       <c r="F132" t="s">
-        <v>1025</v>
+        <v>991</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="3" t="s">
-        <v>718</v>
+        <v>684</v>
       </c>
       <c r="B133" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C133" s="19" t="s">
-        <v>172</v>
-      </c>
-      <c r="D133" s="19"/>
-      <c r="E133" s="19"/>
+      <c r="C133" s="27" t="s">
+        <v>171</v>
+      </c>
+      <c r="D133" s="27"/>
+      <c r="E133" s="27"/>
       <c r="F133" t="s">
-        <v>1026</v>
+        <v>992</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="3" t="s">
-        <v>719</v>
+        <v>685</v>
       </c>
       <c r="B134" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C134" s="26" t="s">
-        <v>601</v>
-      </c>
-      <c r="D134" s="26"/>
-      <c r="E134" s="26"/>
+      <c r="C134" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="D134" s="19"/>
+      <c r="E134" s="19"/>
       <c r="F134" t="s">
-        <v>1027</v>
+        <v>993</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="3" t="s">
-        <v>720</v>
+        <v>686</v>
       </c>
       <c r="B135" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C135" s="26" t="s">
-        <v>173</v>
+        <v>601</v>
       </c>
       <c r="D135" s="26"/>
       <c r="E135" s="26"/>
       <c r="F135" t="s">
-        <v>1028</v>
+        <v>994</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="3" t="s">
-        <v>721</v>
+        <v>687</v>
       </c>
       <c r="B136" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C136" s="26" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="D136" s="26"/>
       <c r="E136" s="26"/>
       <c r="F136" t="s">
-        <v>1029</v>
+        <v>995</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="3" t="s">
-        <v>722</v>
+        <v>688</v>
       </c>
       <c r="B137" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C137" s="26" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="D137" s="26"/>
       <c r="E137" s="26"/>
       <c r="F137" t="s">
-        <v>1030</v>
+        <v>996</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="3" t="s">
-        <v>723</v>
+        <v>689</v>
       </c>
       <c r="B138" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C138" s="26" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D138" s="26"/>
       <c r="E138" s="26"/>
       <c r="F138" t="s">
-        <v>1031</v>
+        <v>997</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="3" t="s">
-        <v>724</v>
+        <v>690</v>
       </c>
       <c r="B139" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C139" s="26" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D139" s="26"/>
       <c r="E139" s="26"/>
       <c r="F139" t="s">
-        <v>1032</v>
+        <v>998</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="3" t="s">
-        <v>725</v>
+        <v>691</v>
       </c>
       <c r="B140" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C140" s="26" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="D140" s="26"/>
       <c r="E140" s="26"/>
       <c r="F140" t="s">
-        <v>1033</v>
+        <v>999</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="3" t="s">
-        <v>726</v>
+        <v>692</v>
       </c>
       <c r="B141" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C141" s="26" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D141" s="26"/>
       <c r="E141" s="26"/>
       <c r="F141" t="s">
-        <v>1034</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="3" t="s">
-        <v>727</v>
+        <v>693</v>
       </c>
       <c r="B142" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C142" s="26" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D142" s="26"/>
       <c r="E142" s="26"/>
       <c r="F142" t="s">
-        <v>1035</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="3" t="s">
-        <v>728</v>
+        <v>694</v>
       </c>
       <c r="B143" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C143" s="19" t="s">
-        <v>186</v>
-      </c>
-      <c r="D143" s="19"/>
-      <c r="E143" s="19"/>
+      <c r="C143" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="D143" s="26"/>
+      <c r="E143" s="26"/>
       <c r="F143" t="s">
-        <v>1036</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="3" t="s">
-        <v>729</v>
+        <v>695</v>
       </c>
       <c r="B144" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C144" s="26" t="s">
-        <v>187</v>
-      </c>
-      <c r="D144" s="26"/>
-      <c r="E144" s="26"/>
+      <c r="C144" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="D144" s="19"/>
+      <c r="E144" s="19"/>
       <c r="F144" t="s">
-        <v>1037</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="3" t="s">
-        <v>730</v>
+        <v>696</v>
       </c>
       <c r="B145" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C145" s="27" t="s">
-        <v>188</v>
-      </c>
-      <c r="D145" s="27"/>
-      <c r="E145" s="27"/>
+      <c r="C145" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="D145" s="26"/>
+      <c r="E145" s="26"/>
       <c r="F145" t="s">
-        <v>1038</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="3" t="s">
-        <v>731</v>
+        <v>697</v>
       </c>
       <c r="B146" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C146" s="26" t="s">
-        <v>192</v>
-      </c>
-      <c r="D146" s="26"/>
-      <c r="E146" s="26"/>
+      <c r="C146" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="D146" s="27"/>
+      <c r="E146" s="27"/>
       <c r="F146" t="s">
-        <v>1039</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="3" t="s">
-        <v>732</v>
+        <v>698</v>
       </c>
       <c r="B147" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C147" s="26" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D147" s="26"/>
       <c r="E147" s="26"/>
       <c r="F147" t="s">
-        <v>1040</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" s="3" t="s">
-        <v>733</v>
+        <v>699</v>
       </c>
       <c r="B148" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C148" s="26" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D148" s="26"/>
       <c r="E148" s="26"/>
       <c r="F148" t="s">
-        <v>1041</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="3" t="s">
-        <v>734</v>
+        <v>700</v>
       </c>
       <c r="B149" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C149" s="26" t="s">
-        <v>605</v>
+        <v>191</v>
       </c>
       <c r="D149" s="26"/>
       <c r="E149" s="26"/>
       <c r="F149" t="s">
-        <v>1042</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" s="3" t="s">
-        <v>735</v>
+        <v>701</v>
       </c>
       <c r="B150" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C150" s="19" t="s">
-        <v>603</v>
-      </c>
-      <c r="D150" s="19"/>
-      <c r="E150" s="19"/>
+      <c r="C150" s="26" t="s">
+        <v>605</v>
+      </c>
+      <c r="D150" s="26"/>
+      <c r="E150" s="26"/>
       <c r="F150" t="s">
-        <v>1043</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="3" t="s">
-        <v>736</v>
+        <v>702</v>
       </c>
       <c r="B151" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C151" s="26" t="s">
-        <v>205</v>
-      </c>
-      <c r="D151" s="26"/>
-      <c r="E151" s="26"/>
+      <c r="C151" s="19" t="s">
+        <v>603</v>
+      </c>
+      <c r="D151" s="19"/>
+      <c r="E151" s="19"/>
       <c r="F151" t="s">
-        <v>1044</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="3" t="s">
-        <v>737</v>
+        <v>703</v>
       </c>
       <c r="B152" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C152" s="26" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D152" s="26"/>
       <c r="E152" s="26"/>
       <c r="F152" t="s">
-        <v>1045</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="3" t="s">
-        <v>738</v>
+        <v>704</v>
       </c>
       <c r="B153" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C153" s="19" t="s">
-        <v>207</v>
-      </c>
-      <c r="D153" s="19"/>
-      <c r="E153" s="19"/>
+      <c r="C153" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="D153" s="26"/>
+      <c r="E153" s="26"/>
       <c r="F153" t="s">
-        <v>1046</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" s="3" t="s">
-        <v>739</v>
+        <v>705</v>
       </c>
       <c r="B154" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C154" s="19" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D154" s="19"/>
       <c r="E154" s="19"/>
       <c r="F154" t="s">
-        <v>1047</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" s="3" t="s">
-        <v>740</v>
+        <v>706</v>
       </c>
       <c r="B155" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C155" s="18" t="s">
-        <v>209</v>
-      </c>
-      <c r="D155" s="18"/>
-      <c r="E155" s="18"/>
-      <c r="F155" s="6" t="s">
-        <v>1048</v>
+      <c r="C155" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="D155" s="19"/>
+      <c r="E155" s="19"/>
+      <c r="F155" t="s">
+        <v>1014</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" s="3" t="s">
-        <v>741</v>
+        <v>707</v>
       </c>
       <c r="B156" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C156" s="18" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D156" s="18"/>
       <c r="E156" s="18"/>
       <c r="F156" s="6" t="s">
-        <v>1049</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" s="3" t="s">
-        <v>742</v>
+        <v>708</v>
       </c>
       <c r="B157" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C157" s="26" t="s">
-        <v>211</v>
-      </c>
-      <c r="D157" s="26"/>
-      <c r="E157" s="26"/>
-      <c r="F157" t="s">
-        <v>1050</v>
+      <c r="C157" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="D157" s="18"/>
+      <c r="E157" s="18"/>
+      <c r="F157" s="6" t="s">
+        <v>1016</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" s="3" t="s">
-        <v>743</v>
+        <v>709</v>
       </c>
       <c r="B158" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C158" s="27" t="s">
-        <v>212</v>
-      </c>
-      <c r="D158" s="27"/>
-      <c r="E158" s="27"/>
+      <c r="C158" s="26" t="s">
+        <v>211</v>
+      </c>
+      <c r="D158" s="26"/>
+      <c r="E158" s="26"/>
       <c r="F158" t="s">
-        <v>1051</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" s="3" t="s">
-        <v>744</v>
+        <v>710</v>
       </c>
       <c r="B159" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C159" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="D159" s="26"/>
-      <c r="E159" s="26"/>
+      <c r="C159" s="27" t="s">
+        <v>212</v>
+      </c>
+      <c r="D159" s="27"/>
+      <c r="E159" s="27"/>
       <c r="F159" t="s">
-        <v>1052</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" s="3" t="s">
-        <v>745</v>
+        <v>711</v>
       </c>
       <c r="B160" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C160" s="26" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D160" s="26"/>
       <c r="E160" s="26"/>
-      <c r="F160" s="6" t="s">
-        <v>1053</v>
+      <c r="F160" t="s">
+        <v>1019</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" s="3" t="s">
-        <v>746</v>
+        <v>712</v>
       </c>
       <c r="B161" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C161" s="26" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D161" s="26"/>
       <c r="E161" s="26"/>
       <c r="F161" s="6" t="s">
-        <v>1054</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" s="3" t="s">
-        <v>747</v>
+        <v>713</v>
       </c>
       <c r="B162" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C162" s="26" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D162" s="26"/>
       <c r="E162" s="26"/>
       <c r="F162" s="6" t="s">
-        <v>1055</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" s="3" t="s">
-        <v>748</v>
+        <v>714</v>
       </c>
       <c r="B163" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C163" s="26" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D163" s="26"/>
       <c r="E163" s="26"/>
-      <c r="F163" t="s">
-        <v>1056</v>
+      <c r="F163" s="6" t="s">
+        <v>1022</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" s="3" t="s">
-        <v>749</v>
+        <v>715</v>
       </c>
       <c r="B164" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C164" s="26" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D164" s="26"/>
       <c r="E164" s="26"/>
       <c r="F164" t="s">
-        <v>1057</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" s="3" t="s">
-        <v>750</v>
+        <v>716</v>
       </c>
       <c r="B165" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C165" s="26" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="D165" s="26"/>
       <c r="E165" s="26"/>
       <c r="F165" t="s">
-        <v>1058</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" s="3" t="s">
-        <v>751</v>
+        <v>717</v>
       </c>
       <c r="B166" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C166" s="26" t="s">
-        <v>607</v>
+        <v>233</v>
       </c>
       <c r="D166" s="26"/>
       <c r="E166" s="26"/>
       <c r="F166" t="s">
-        <v>1059</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" s="3" t="s">
-        <v>752</v>
+        <v>718</v>
       </c>
       <c r="B167" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C167" s="27" t="s">
-        <v>609</v>
-      </c>
-      <c r="D167" s="27"/>
-      <c r="E167" s="27"/>
+      <c r="C167" s="26" t="s">
+        <v>607</v>
+      </c>
+      <c r="D167" s="26"/>
+      <c r="E167" s="26"/>
       <c r="F167" t="s">
-        <v>1060</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" s="3" t="s">
-        <v>753</v>
+        <v>719</v>
       </c>
       <c r="B168" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C168" s="26" t="s">
-        <v>535</v>
-      </c>
-      <c r="D168" s="26"/>
-      <c r="E168" s="26"/>
+      <c r="C168" s="27" t="s">
+        <v>609</v>
+      </c>
+      <c r="D168" s="27"/>
+      <c r="E168" s="27"/>
       <c r="F168" t="s">
-        <v>1061</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" s="3" t="s">
-        <v>754</v>
+        <v>720</v>
       </c>
       <c r="B169" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C169" s="26" t="s">
-        <v>235</v>
+        <v>535</v>
       </c>
       <c r="D169" s="26"/>
       <c r="E169" s="26"/>
       <c r="F169" t="s">
-        <v>1062</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" s="3" t="s">
-        <v>755</v>
+        <v>721</v>
       </c>
       <c r="B170" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C170" s="19" t="s">
-        <v>237</v>
-      </c>
-      <c r="D170" s="19"/>
-      <c r="E170" s="19"/>
+      <c r="C170" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="D170" s="26"/>
+      <c r="E170" s="26"/>
       <c r="F170" t="s">
-        <v>1063</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" s="3" t="s">
-        <v>756</v>
+        <v>722</v>
       </c>
       <c r="B171" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C171" s="18" t="s">
-        <v>611</v>
-      </c>
-      <c r="D171" s="18"/>
-      <c r="E171" s="18"/>
+      <c r="C171" s="19" t="s">
+        <v>237</v>
+      </c>
+      <c r="D171" s="19"/>
+      <c r="E171" s="19"/>
       <c r="F171" t="s">
-        <v>1064</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" s="3" t="s">
-        <v>757</v>
+        <v>723</v>
       </c>
       <c r="B172" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C172" s="26" t="s">
-        <v>241</v>
-      </c>
-      <c r="D172" s="26"/>
-      <c r="E172" s="26"/>
+      <c r="C172" s="18" t="s">
+        <v>611</v>
+      </c>
+      <c r="D172" s="18"/>
+      <c r="E172" s="18"/>
       <c r="F172" t="s">
-        <v>1065</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" s="3" t="s">
-        <v>758</v>
+        <v>724</v>
       </c>
       <c r="B173" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C173" s="19" t="s">
-        <v>243</v>
-      </c>
-      <c r="D173" s="19"/>
-      <c r="E173" s="19"/>
+      <c r="C173" s="26" t="s">
+        <v>241</v>
+      </c>
+      <c r="D173" s="26"/>
+      <c r="E173" s="26"/>
       <c r="F173" t="s">
-        <v>1066</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" s="3" t="s">
-        <v>759</v>
+        <v>725</v>
       </c>
       <c r="B174" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C174" s="26" t="s">
-        <v>255</v>
-      </c>
-      <c r="D174" s="26"/>
-      <c r="E174" s="26"/>
+      <c r="C174" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="D174" s="19"/>
+      <c r="E174" s="19"/>
       <c r="F174" t="s">
-        <v>1067</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" s="3" t="s">
-        <v>760</v>
+        <v>726</v>
       </c>
       <c r="B175" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C175" s="19" t="s">
-        <v>245</v>
-      </c>
-      <c r="D175" s="19"/>
-      <c r="E175" s="19"/>
+      <c r="C175" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="D175" s="26"/>
+      <c r="E175" s="26"/>
       <c r="F175" t="s">
-        <v>1068</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" s="3" t="s">
-        <v>761</v>
+        <v>727</v>
       </c>
       <c r="B176" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C176" s="19" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D176" s="19"/>
       <c r="E176" s="19"/>
       <c r="F176" t="s">
-        <v>1069</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" s="3" t="s">
-        <v>762</v>
+        <v>728</v>
       </c>
       <c r="B177" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C177" s="27" t="s">
-        <v>249</v>
-      </c>
-      <c r="D177" s="27"/>
-      <c r="E177" s="27"/>
+      <c r="C177" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="D177" s="19"/>
+      <c r="E177" s="19"/>
       <c r="F177" t="s">
-        <v>1070</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" s="3" t="s">
-        <v>763</v>
+        <v>729</v>
       </c>
       <c r="B178" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C178" s="19" t="s">
-        <v>253</v>
-      </c>
-      <c r="D178" s="19"/>
-      <c r="E178" s="19"/>
+      <c r="C178" s="27" t="s">
+        <v>249</v>
+      </c>
+      <c r="D178" s="27"/>
+      <c r="E178" s="27"/>
       <c r="F178" t="s">
-        <v>1071</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" s="3" t="s">
-        <v>764</v>
+        <v>730</v>
       </c>
       <c r="B179" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C179" s="18" t="s">
-        <v>239</v>
-      </c>
-      <c r="D179" s="18"/>
-      <c r="E179" s="18"/>
+      <c r="C179" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="D179" s="19"/>
+      <c r="E179" s="19"/>
       <c r="F179" t="s">
-        <v>1072</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" s="3" t="s">
-        <v>765</v>
+        <v>731</v>
       </c>
       <c r="B180" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C180" s="19" t="s">
-        <v>256</v>
-      </c>
-      <c r="D180" s="19"/>
-      <c r="E180" s="19"/>
+      <c r="C180" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="D180" s="18"/>
+      <c r="E180" s="18"/>
       <c r="F180" t="s">
-        <v>1073</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" s="3" t="s">
-        <v>766</v>
+        <v>732</v>
       </c>
       <c r="B181" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C181" s="19" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D181" s="19"/>
       <c r="E181" s="19"/>
       <c r="F181" t="s">
-        <v>1074</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" s="3" t="s">
-        <v>767</v>
+        <v>733</v>
       </c>
       <c r="B182" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C182" s="19" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D182" s="19"/>
       <c r="E182" s="19"/>
       <c r="F182" t="s">
-        <v>1075</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" s="3" t="s">
-        <v>768</v>
+        <v>734</v>
       </c>
       <c r="B183" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C183" s="26" t="s">
-        <v>613</v>
-      </c>
-      <c r="D183" s="26"/>
-      <c r="E183" s="26"/>
+      <c r="C183" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="D183" s="19"/>
+      <c r="E183" s="19"/>
       <c r="F183" t="s">
-        <v>1076</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" s="3" t="s">
-        <v>769</v>
+        <v>735</v>
       </c>
       <c r="B184" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C184" s="19" t="s">
-        <v>615</v>
-      </c>
-      <c r="D184" s="19"/>
-      <c r="E184" s="19"/>
+      <c r="C184" s="26" t="s">
+        <v>613</v>
+      </c>
+      <c r="D184" s="26"/>
+      <c r="E184" s="26"/>
       <c r="F184" t="s">
-        <v>1077</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" s="3" t="s">
-        <v>770</v>
+        <v>736</v>
       </c>
       <c r="B185" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C185" s="19" t="s">
-        <v>259</v>
+        <v>615</v>
       </c>
       <c r="D185" s="19"/>
       <c r="E185" s="19"/>
       <c r="F185" t="s">
-        <v>1078</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" s="3" t="s">
-        <v>771</v>
+        <v>737</v>
       </c>
       <c r="B186" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C186" s="18" t="s">
-        <v>265</v>
-      </c>
-      <c r="D186" s="18"/>
-      <c r="E186" s="18"/>
+      <c r="C186" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="D186" s="19"/>
+      <c r="E186" s="19"/>
       <c r="F186" t="s">
-        <v>1079</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" s="3" t="s">
-        <v>772</v>
+        <v>738</v>
       </c>
       <c r="B187" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C187" s="19" t="s">
-        <v>269</v>
-      </c>
-      <c r="D187" s="19"/>
-      <c r="E187" s="19"/>
+      <c r="C187" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="D187" s="18"/>
+      <c r="E187" s="18"/>
       <c r="F187" t="s">
-        <v>1080</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" s="3" t="s">
-        <v>773</v>
+        <v>739</v>
       </c>
       <c r="B188" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C188" s="26" t="s">
-        <v>267</v>
-      </c>
-      <c r="D188" s="26"/>
-      <c r="E188" s="26"/>
+      <c r="C188" s="19" t="s">
+        <v>269</v>
+      </c>
+      <c r="D188" s="19"/>
+      <c r="E188" s="19"/>
       <c r="F188" t="s">
-        <v>1081</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" s="3" t="s">
-        <v>774</v>
+        <v>740</v>
       </c>
       <c r="B189" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C189" s="19" t="s">
-        <v>271</v>
-      </c>
-      <c r="D189" s="19"/>
-      <c r="E189" s="19"/>
+      <c r="C189" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="D189" s="26"/>
+      <c r="E189" s="26"/>
       <c r="F189" t="s">
-        <v>1082</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" s="3" t="s">
-        <v>775</v>
+        <v>741</v>
       </c>
       <c r="B190" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C190" s="26" t="s">
-        <v>617</v>
-      </c>
-      <c r="D190" s="26"/>
-      <c r="E190" s="26"/>
+      <c r="C190" s="19" t="s">
+        <v>271</v>
+      </c>
+      <c r="D190" s="19"/>
+      <c r="E190" s="19"/>
       <c r="F190" t="s">
-        <v>1083</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" s="3" t="s">
-        <v>776</v>
+        <v>742</v>
       </c>
       <c r="B191" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C191" s="19" t="s">
-        <v>272</v>
-      </c>
-      <c r="D191" s="19"/>
-      <c r="E191" s="19"/>
+      <c r="C191" s="26" t="s">
+        <v>617</v>
+      </c>
+      <c r="D191" s="26"/>
+      <c r="E191" s="26"/>
       <c r="F191" t="s">
-        <v>1084</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" s="3" t="s">
-        <v>777</v>
+        <v>743</v>
       </c>
       <c r="B192" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C192" s="26" t="s">
-        <v>273</v>
-      </c>
-      <c r="D192" s="26"/>
-      <c r="E192" s="26"/>
+      <c r="C192" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="D192" s="19"/>
+      <c r="E192" s="19"/>
       <c r="F192" t="s">
-        <v>1085</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" s="3" t="s">
-        <v>778</v>
+        <v>744</v>
       </c>
       <c r="B193" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C193" s="26" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D193" s="26"/>
       <c r="E193" s="26"/>
       <c r="F193" t="s">
-        <v>1086</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" s="3" t="s">
-        <v>779</v>
+        <v>745</v>
       </c>
       <c r="B194" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C194" s="19" t="s">
-        <v>275</v>
-      </c>
-      <c r="D194" s="19"/>
-      <c r="E194" s="19"/>
+      <c r="C194" s="26" t="s">
+        <v>274</v>
+      </c>
+      <c r="D194" s="26"/>
+      <c r="E194" s="26"/>
       <c r="F194" t="s">
-        <v>1087</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" s="3" t="s">
-        <v>780</v>
+        <v>746</v>
       </c>
       <c r="B195" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C195" s="19" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D195" s="19"/>
       <c r="E195" s="19"/>
       <c r="F195" t="s">
-        <v>1088</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" s="3" t="s">
-        <v>781</v>
+        <v>747</v>
       </c>
       <c r="B196" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C196" s="26" t="s">
-        <v>277</v>
-      </c>
-      <c r="D196" s="26"/>
-      <c r="E196" s="26"/>
+      <c r="C196" s="19" t="s">
+        <v>276</v>
+      </c>
+      <c r="D196" s="19"/>
+      <c r="E196" s="19"/>
       <c r="F196" t="s">
-        <v>1089</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" s="3" t="s">
-        <v>782</v>
+        <v>748</v>
       </c>
       <c r="B197" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C197" s="26" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="D197" s="26"/>
       <c r="E197" s="26"/>
       <c r="F197" t="s">
-        <v>1090</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" s="3" t="s">
-        <v>783</v>
+        <v>749</v>
       </c>
       <c r="B198" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C198" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="D198" s="19"/>
-      <c r="E198" s="19"/>
+      <c r="C198" s="26" t="s">
+        <v>285</v>
+      </c>
+      <c r="D198" s="26"/>
+      <c r="E198" s="26"/>
       <c r="F198" t="s">
-        <v>1091</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" s="3" t="s">
-        <v>784</v>
+        <v>750</v>
       </c>
       <c r="B199" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C199" s="26" t="s">
-        <v>287</v>
-      </c>
-      <c r="D199" s="26"/>
-      <c r="E199" s="26"/>
+      <c r="C199" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="D199" s="19"/>
+      <c r="E199" s="19"/>
       <c r="F199" t="s">
-        <v>1092</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" s="3" t="s">
-        <v>785</v>
+        <v>751</v>
       </c>
       <c r="B200" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C200" s="19" t="s">
-        <v>288</v>
-      </c>
-      <c r="D200" s="19"/>
-      <c r="E200" s="19"/>
+      <c r="C200" s="26" t="s">
+        <v>287</v>
+      </c>
+      <c r="D200" s="26"/>
+      <c r="E200" s="26"/>
       <c r="F200" t="s">
-        <v>1093</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" s="3" t="s">
-        <v>786</v>
+        <v>752</v>
       </c>
       <c r="B201" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C201" s="26" t="s">
-        <v>289</v>
-      </c>
-      <c r="D201" s="26"/>
-      <c r="E201" s="26"/>
+      <c r="C201" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="D201" s="19"/>
+      <c r="E201" s="19"/>
       <c r="F201" t="s">
-        <v>1094</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" s="3" t="s">
-        <v>787</v>
+        <v>753</v>
       </c>
       <c r="B202" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C202" s="19" t="s">
-        <v>290</v>
-      </c>
-      <c r="D202" s="19"/>
-      <c r="E202" s="19"/>
+      <c r="C202" s="26" t="s">
+        <v>289</v>
+      </c>
+      <c r="D202" s="26"/>
+      <c r="E202" s="26"/>
       <c r="F202" t="s">
-        <v>1095</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" s="3" t="s">
-        <v>788</v>
+        <v>754</v>
       </c>
       <c r="B203" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C203" s="19" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D203" s="19"/>
       <c r="E203" s="19"/>
       <c r="F203" t="s">
-        <v>1096</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" s="3" t="s">
-        <v>789</v>
+        <v>755</v>
       </c>
       <c r="B204" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C204" s="26" t="s">
-        <v>293</v>
-      </c>
-      <c r="D204" s="26"/>
-      <c r="E204" s="26"/>
+      <c r="C204" s="19" t="s">
+        <v>291</v>
+      </c>
+      <c r="D204" s="19"/>
+      <c r="E204" s="19"/>
       <c r="F204" t="s">
-        <v>1097</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" s="3" t="s">
-        <v>790</v>
+        <v>756</v>
       </c>
       <c r="B205" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C205" s="19" t="s">
-        <v>292</v>
-      </c>
-      <c r="D205" s="19"/>
-      <c r="E205" s="19"/>
+      <c r="C205" s="26" t="s">
+        <v>293</v>
+      </c>
+      <c r="D205" s="26"/>
+      <c r="E205" s="26"/>
       <c r="F205" t="s">
-        <v>1098</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" s="3" t="s">
-        <v>791</v>
+        <v>757</v>
       </c>
       <c r="B206" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C206" s="26" t="s">
-        <v>296</v>
-      </c>
-      <c r="D206" s="26"/>
-      <c r="E206" s="26"/>
+      <c r="C206" s="19" t="s">
+        <v>292</v>
+      </c>
+      <c r="D206" s="19"/>
+      <c r="E206" s="19"/>
       <c r="F206" t="s">
-        <v>1099</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" s="3" t="s">
-        <v>792</v>
+        <v>758</v>
       </c>
       <c r="B207" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C207" s="26" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D207" s="26"/>
       <c r="E207" s="26"/>
       <c r="F207" t="s">
-        <v>1100</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" s="3" t="s">
-        <v>793</v>
+        <v>759</v>
       </c>
       <c r="B208" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C208" s="27" t="s">
-        <v>294</v>
-      </c>
-      <c r="D208" s="27"/>
-      <c r="E208" s="27"/>
+      <c r="C208" s="26" t="s">
+        <v>295</v>
+      </c>
+      <c r="D208" s="26"/>
+      <c r="E208" s="26"/>
       <c r="F208" t="s">
-        <v>1101</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" s="3" t="s">
-        <v>794</v>
+        <v>760</v>
       </c>
       <c r="B209" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C209" s="19" t="s">
-        <v>297</v>
-      </c>
-      <c r="D209" s="19"/>
-      <c r="E209" s="19"/>
+      <c r="C209" s="27" t="s">
+        <v>294</v>
+      </c>
+      <c r="D209" s="27"/>
+      <c r="E209" s="27"/>
       <c r="F209" t="s">
-        <v>1102</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" s="3" t="s">
-        <v>795</v>
+        <v>761</v>
       </c>
       <c r="B210" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C210" s="19" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D210" s="19"/>
       <c r="E210" s="19"/>
       <c r="F210" t="s">
-        <v>1103</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" s="3" t="s">
-        <v>796</v>
+        <v>762</v>
       </c>
       <c r="B211" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C211" s="19" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D211" s="19"/>
       <c r="E211" s="19"/>
       <c r="F211" t="s">
-        <v>317</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" s="3" t="s">
-        <v>797</v>
+        <v>763</v>
       </c>
       <c r="B212" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C212" s="19" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D212" s="19"/>
       <c r="E212" s="19"/>
       <c r="F212" t="s">
-        <v>1104</v>
+        <v>317</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" s="3" t="s">
-        <v>798</v>
+        <v>764</v>
       </c>
       <c r="B213" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C213" s="19" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D213" s="19"/>
       <c r="E213" s="19"/>
       <c r="F213" t="s">
-        <v>1105</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" s="3" t="s">
-        <v>799</v>
+        <v>765</v>
       </c>
       <c r="B214" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C214" s="26" t="s">
-        <v>345</v>
-      </c>
-      <c r="D214" s="26"/>
-      <c r="E214" s="26"/>
+      <c r="C214" s="19" t="s">
+        <v>301</v>
+      </c>
+      <c r="D214" s="19"/>
+      <c r="E214" s="19"/>
       <c r="F214" t="s">
-        <v>1106</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" s="3" t="s">
-        <v>800</v>
+        <v>766</v>
       </c>
       <c r="B215" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C215" s="19" t="s">
-        <v>302</v>
-      </c>
-      <c r="D215" s="19"/>
-      <c r="E215" s="19"/>
+      <c r="C215" s="26" t="s">
+        <v>345</v>
+      </c>
+      <c r="D215" s="26"/>
+      <c r="E215" s="26"/>
       <c r="F215" t="s">
-        <v>1107</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" s="3" t="s">
-        <v>801</v>
+        <v>767</v>
       </c>
       <c r="B216" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C216" s="19" t="s">
-        <v>321</v>
+        <v>302</v>
       </c>
       <c r="D216" s="19"/>
       <c r="E216" s="19"/>
       <c r="F216" t="s">
-        <v>1108</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217" s="3" t="s">
-        <v>802</v>
+        <v>768</v>
       </c>
       <c r="B217" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C217" s="26" t="s">
-        <v>322</v>
-      </c>
-      <c r="D217" s="26"/>
-      <c r="E217" s="26"/>
+      <c r="C217" s="19" t="s">
+        <v>321</v>
+      </c>
+      <c r="D217" s="19"/>
+      <c r="E217" s="19"/>
       <c r="F217" t="s">
-        <v>1109</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218" s="3" t="s">
-        <v>803</v>
+        <v>769</v>
       </c>
       <c r="B218" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C218" s="19" t="s">
-        <v>323</v>
-      </c>
-      <c r="D218" s="19"/>
-      <c r="E218" s="19"/>
+      <c r="C218" s="26" t="s">
+        <v>322</v>
+      </c>
+      <c r="D218" s="26"/>
+      <c r="E218" s="26"/>
       <c r="F218" t="s">
-        <v>1110</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219" s="3" t="s">
-        <v>804</v>
+        <v>770</v>
       </c>
       <c r="B219" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C219" s="26" t="s">
-        <v>519</v>
-      </c>
-      <c r="D219" s="26"/>
-      <c r="E219" s="26"/>
-      <c r="F219" s="6" t="s">
-        <v>1111</v>
+      <c r="C219" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="D219" s="19"/>
+      <c r="E219" s="19"/>
+      <c r="F219" t="s">
+        <v>1077</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" s="3" t="s">
-        <v>805</v>
+        <v>771</v>
       </c>
       <c r="B220" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C220" s="26" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D220" s="26"/>
       <c r="E220" s="26"/>
       <c r="F220" s="6" t="s">
-        <v>1112</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" s="3" t="s">
-        <v>806</v>
+        <v>772</v>
       </c>
       <c r="B221" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C221" s="19" t="s">
-        <v>324</v>
-      </c>
-      <c r="D221" s="19"/>
-      <c r="E221" s="19"/>
-      <c r="F221" t="s">
-        <v>1113</v>
+      <c r="C221" s="26" t="s">
+        <v>521</v>
+      </c>
+      <c r="D221" s="26"/>
+      <c r="E221" s="26"/>
+      <c r="F221" s="6" t="s">
+        <v>1079</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222" s="3" t="s">
-        <v>807</v>
+        <v>773</v>
       </c>
       <c r="B222" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C222" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D222" s="19"/>
       <c r="E222" s="19"/>
       <c r="F222" t="s">
-        <v>1114</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" s="3" t="s">
-        <v>808</v>
+        <v>774</v>
       </c>
       <c r="B223" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C223" s="19" t="s">
-        <v>533</v>
+        <v>325</v>
       </c>
       <c r="D223" s="19"/>
       <c r="E223" s="19"/>
       <c r="F223" t="s">
-        <v>1115</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224" s="3" t="s">
-        <v>809</v>
+        <v>775</v>
       </c>
       <c r="B224" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C224" s="19" t="s">
-        <v>327</v>
+        <v>533</v>
       </c>
       <c r="D224" s="19"/>
       <c r="E224" s="19"/>
       <c r="F224" t="s">
-        <v>1116</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225" s="3" t="s">
-        <v>810</v>
+        <v>776</v>
       </c>
       <c r="B225" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C225" s="26" t="s">
-        <v>326</v>
-      </c>
-      <c r="D225" s="26"/>
-      <c r="E225" s="26"/>
+      <c r="C225" s="19" t="s">
+        <v>327</v>
+      </c>
+      <c r="D225" s="19"/>
+      <c r="E225" s="19"/>
       <c r="F225" t="s">
-        <v>1117</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226" s="3" t="s">
-        <v>811</v>
+        <v>777</v>
       </c>
       <c r="B226" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C226" s="26" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D226" s="26"/>
       <c r="E226" s="26"/>
-      <c r="F226" s="6" t="s">
-        <v>1118</v>
+      <c r="F226" t="s">
+        <v>1084</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227" s="3" t="s">
-        <v>812</v>
+        <v>778</v>
       </c>
       <c r="B227" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C227" s="26" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="D227" s="26"/>
       <c r="E227" s="26"/>
-      <c r="F227" t="s">
-        <v>1119</v>
+      <c r="F227" s="6" t="s">
+        <v>1085</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228" s="3" t="s">
-        <v>813</v>
+        <v>779</v>
       </c>
       <c r="B228" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C228" s="26" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D228" s="26"/>
       <c r="E228" s="26"/>
       <c r="F228" t="s">
-        <v>1120</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229" s="3" t="s">
-        <v>814</v>
+        <v>780</v>
       </c>
       <c r="B229" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C229" s="26" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D229" s="26"/>
       <c r="E229" s="26"/>
       <c r="F229" t="s">
-        <v>1121</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230" s="3" t="s">
-        <v>815</v>
+        <v>781</v>
       </c>
       <c r="B230" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C230" s="26" t="s">
-        <v>529</v>
+        <v>340</v>
       </c>
       <c r="D230" s="26"/>
       <c r="E230" s="26"/>
       <c r="F230" t="s">
-        <v>1122</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A231" s="3" t="s">
-        <v>816</v>
+        <v>782</v>
       </c>
       <c r="B231" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C231" s="19" t="s">
-        <v>343</v>
-      </c>
-      <c r="D231" s="19"/>
-      <c r="E231" s="19"/>
+      <c r="C231" s="26" t="s">
+        <v>529</v>
+      </c>
+      <c r="D231" s="26"/>
+      <c r="E231" s="26"/>
       <c r="F231" t="s">
-        <v>1123</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232" s="3" t="s">
-        <v>817</v>
+        <v>783</v>
       </c>
       <c r="B232" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C232" s="19" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="D232" s="19"/>
       <c r="E232" s="19"/>
       <c r="F232" t="s">
-        <v>1124</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233" s="3" t="s">
-        <v>818</v>
+        <v>784</v>
       </c>
       <c r="B233" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C233" s="26" t="s">
-        <v>346</v>
-      </c>
-      <c r="D233" s="26"/>
-      <c r="E233" s="26"/>
+      <c r="C233" s="19" t="s">
+        <v>350</v>
+      </c>
+      <c r="D233" s="19"/>
+      <c r="E233" s="19"/>
       <c r="F233" t="s">
-        <v>1125</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234" s="3" t="s">
-        <v>819</v>
+        <v>785</v>
       </c>
       <c r="B234" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C234" s="26" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D234" s="26"/>
       <c r="E234" s="26"/>
       <c r="F234" t="s">
-        <v>1126</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A235" s="3" t="s">
-        <v>820</v>
+        <v>786</v>
       </c>
       <c r="B235" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C235" s="26" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D235" s="26"/>
       <c r="E235" s="26"/>
       <c r="F235" t="s">
-        <v>1127</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A236" s="3" t="s">
-        <v>821</v>
+        <v>787</v>
       </c>
       <c r="B236" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C236" s="27" t="s">
-        <v>349</v>
-      </c>
-      <c r="D236" s="27"/>
-      <c r="E236" s="27"/>
+      <c r="C236" s="26" t="s">
+        <v>348</v>
+      </c>
+      <c r="D236" s="26"/>
+      <c r="E236" s="26"/>
       <c r="F236" t="s">
-        <v>1128</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A237" s="3" t="s">
-        <v>822</v>
+        <v>788</v>
       </c>
       <c r="B237" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C237" s="26" t="s">
-        <v>357</v>
-      </c>
-      <c r="D237" s="26"/>
-      <c r="E237" s="26"/>
+      <c r="C237" s="27" t="s">
+        <v>349</v>
+      </c>
+      <c r="D237" s="27"/>
+      <c r="E237" s="27"/>
       <c r="F237" t="s">
-        <v>1129</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238" s="3" t="s">
-        <v>823</v>
+        <v>789</v>
       </c>
       <c r="B238" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C238" s="19" t="s">
-        <v>358</v>
-      </c>
-      <c r="D238" s="19"/>
-      <c r="E238" s="19"/>
+      <c r="C238" s="26" t="s">
+        <v>357</v>
+      </c>
+      <c r="D238" s="26"/>
+      <c r="E238" s="26"/>
       <c r="F238" t="s">
-        <v>1130</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239" s="3" t="s">
-        <v>824</v>
+        <v>790</v>
       </c>
       <c r="B239" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C239" s="26" t="s">
-        <v>359</v>
-      </c>
-      <c r="D239" s="26"/>
-      <c r="E239" s="26"/>
+      <c r="C239" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="D239" s="19"/>
+      <c r="E239" s="19"/>
       <c r="F239" t="s">
-        <v>1131</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A240" s="3" t="s">
-        <v>825</v>
+        <v>791</v>
       </c>
       <c r="B240" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C240" s="26" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D240" s="26"/>
       <c r="E240" s="26"/>
       <c r="F240" t="s">
-        <v>1132</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241" s="3" t="s">
-        <v>826</v>
+        <v>792</v>
       </c>
       <c r="B241" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C241" s="19" t="s">
-        <v>365</v>
-      </c>
-      <c r="D241" s="19"/>
-      <c r="E241" s="19"/>
+      <c r="C241" s="26" t="s">
+        <v>360</v>
+      </c>
+      <c r="D241" s="26"/>
+      <c r="E241" s="26"/>
       <c r="F241" t="s">
-        <v>1133</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A242" s="3" t="s">
-        <v>827</v>
+        <v>793</v>
       </c>
       <c r="B242" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C242" s="26" t="s">
-        <v>366</v>
-      </c>
-      <c r="D242" s="26"/>
-      <c r="E242" s="26"/>
+      <c r="C242" s="19" t="s">
+        <v>365</v>
+      </c>
+      <c r="D242" s="19"/>
+      <c r="E242" s="19"/>
       <c r="F242" t="s">
-        <v>1134</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A243" s="3" t="s">
-        <v>828</v>
+        <v>794</v>
       </c>
       <c r="B243" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C243" s="26" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D243" s="26"/>
       <c r="E243" s="26"/>
       <c r="F243" t="s">
-        <v>1135</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A244" s="3" t="s">
-        <v>829</v>
+        <v>795</v>
       </c>
       <c r="B244" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C244" s="26" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D244" s="26"/>
       <c r="E244" s="26"/>
       <c r="F244" t="s">
-        <v>1136</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245" s="3" t="s">
-        <v>830</v>
+        <v>796</v>
       </c>
       <c r="B245" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C245" s="26" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D245" s="26"/>
       <c r="E245" s="26"/>
       <c r="F245" t="s">
-        <v>1137</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A246" s="3" t="s">
-        <v>831</v>
+        <v>797</v>
       </c>
       <c r="B246" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C246" s="26" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D246" s="26"/>
       <c r="E246" s="26"/>
       <c r="F246" t="s">
-        <v>1138</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A247" s="3" t="s">
-        <v>832</v>
+        <v>798</v>
       </c>
       <c r="B247" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C247" s="26" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D247" s="26"/>
       <c r="E247" s="26"/>
       <c r="F247" t="s">
-        <v>1139</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A248" s="3" t="s">
-        <v>833</v>
+        <v>799</v>
       </c>
       <c r="B248" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C248" s="26" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D248" s="26"/>
       <c r="E248" s="26"/>
       <c r="F248" t="s">
-        <v>1140</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A249" s="3" t="s">
-        <v>834</v>
+        <v>800</v>
       </c>
       <c r="B249" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C249" s="26" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D249" s="26"/>
       <c r="E249" s="26"/>
       <c r="F249" t="s">
-        <v>1141</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A250" s="3" t="s">
-        <v>835</v>
+        <v>801</v>
       </c>
       <c r="B250" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C250" s="19" t="s">
-        <v>374</v>
-      </c>
-      <c r="D250" s="19"/>
-      <c r="E250" s="19"/>
+      <c r="C250" s="26" t="s">
+        <v>373</v>
+      </c>
+      <c r="D250" s="26"/>
+      <c r="E250" s="26"/>
       <c r="F250" t="s">
-        <v>1142</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A251" s="3" t="s">
-        <v>836</v>
+        <v>802</v>
       </c>
       <c r="B251" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C251" s="26" t="s">
-        <v>385</v>
-      </c>
-      <c r="D251" s="26"/>
-      <c r="E251" s="26"/>
+      <c r="C251" s="19" t="s">
+        <v>374</v>
+      </c>
+      <c r="D251" s="19"/>
+      <c r="E251" s="19"/>
       <c r="F251" t="s">
-        <v>1143</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A252" s="3" t="s">
-        <v>837</v>
+        <v>803</v>
       </c>
       <c r="B252" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C252" s="19" t="s">
-        <v>387</v>
-      </c>
-      <c r="D252" s="19"/>
-      <c r="E252" s="19"/>
+      <c r="C252" s="26" t="s">
+        <v>385</v>
+      </c>
+      <c r="D252" s="26"/>
+      <c r="E252" s="26"/>
       <c r="F252" t="s">
-        <v>1144</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A253" s="3" t="s">
-        <v>838</v>
+        <v>804</v>
       </c>
       <c r="B253" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C253" s="26" t="s">
-        <v>391</v>
-      </c>
-      <c r="D253" s="26"/>
-      <c r="E253" s="26"/>
-      <c r="F253" s="6" t="s">
-        <v>1145</v>
+      <c r="C253" s="19" t="s">
+        <v>387</v>
+      </c>
+      <c r="D253" s="19"/>
+      <c r="E253" s="19"/>
+      <c r="F253" t="s">
+        <v>1111</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A254" s="3" t="s">
-        <v>839</v>
+        <v>805</v>
       </c>
       <c r="B254" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C254" s="27" t="s">
-        <v>395</v>
-      </c>
-      <c r="D254" s="27"/>
-      <c r="E254" s="27"/>
-      <c r="F254" t="s">
-        <v>1146</v>
+      <c r="C254" s="26" t="s">
+        <v>391</v>
+      </c>
+      <c r="D254" s="26"/>
+      <c r="E254" s="26"/>
+      <c r="F254" s="6" t="s">
+        <v>1112</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A255" s="3" t="s">
-        <v>840</v>
+        <v>806</v>
       </c>
       <c r="B255" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C255" s="26" t="s">
-        <v>396</v>
-      </c>
-      <c r="D255" s="26"/>
-      <c r="E255" s="26"/>
+      <c r="C255" s="27" t="s">
+        <v>395</v>
+      </c>
+      <c r="D255" s="27"/>
+      <c r="E255" s="27"/>
       <c r="F255" t="s">
-        <v>1147</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256" s="3" t="s">
-        <v>841</v>
+        <v>807</v>
       </c>
       <c r="B256" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C256" s="26" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D256" s="26"/>
       <c r="E256" s="26"/>
       <c r="F256" t="s">
-        <v>1148</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A257" s="3" t="s">
-        <v>842</v>
+        <v>808</v>
       </c>
       <c r="B257" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C257" s="26" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="D257" s="26"/>
       <c r="E257" s="26"/>
       <c r="F257" t="s">
-        <v>1149</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A258" s="3" t="s">
-        <v>843</v>
+        <v>809</v>
       </c>
       <c r="B258" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C258" s="19" t="s">
-        <v>389</v>
-      </c>
-      <c r="D258" s="19"/>
-      <c r="E258" s="19"/>
+      <c r="C258" s="26" t="s">
+        <v>393</v>
+      </c>
+      <c r="D258" s="26"/>
+      <c r="E258" s="26"/>
       <c r="F258" t="s">
-        <v>1150</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A259" s="3" t="s">
-        <v>844</v>
+        <v>810</v>
       </c>
       <c r="B259" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C259" s="27" t="s">
-        <v>401</v>
-      </c>
-      <c r="D259" s="27"/>
-      <c r="E259" s="27"/>
+      <c r="C259" s="19" t="s">
+        <v>389</v>
+      </c>
+      <c r="D259" s="19"/>
+      <c r="E259" s="19"/>
       <c r="F259" t="s">
-        <v>1151</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A260" s="3" t="s">
-        <v>845</v>
+        <v>811</v>
       </c>
       <c r="B260" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C260" s="26" t="s">
-        <v>403</v>
-      </c>
-      <c r="D260" s="26"/>
-      <c r="E260" s="26"/>
+      <c r="C260" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="D260" s="27"/>
+      <c r="E260" s="27"/>
       <c r="F260" t="s">
-        <v>1152</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A261" s="3" t="s">
-        <v>846</v>
+        <v>812</v>
       </c>
       <c r="B261" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C261" s="19" t="s">
-        <v>405</v>
-      </c>
-      <c r="D261" s="19"/>
-      <c r="E261" s="19"/>
+      <c r="C261" s="26" t="s">
+        <v>403</v>
+      </c>
+      <c r="D261" s="26"/>
+      <c r="E261" s="26"/>
       <c r="F261" t="s">
-        <v>1153</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A262" s="3" t="s">
-        <v>847</v>
+        <v>813</v>
       </c>
       <c r="B262" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C262" s="26" t="s">
-        <v>406</v>
-      </c>
-      <c r="D262" s="26"/>
-      <c r="E262" s="26"/>
+      <c r="C262" s="19" t="s">
+        <v>405</v>
+      </c>
+      <c r="D262" s="19"/>
+      <c r="E262" s="19"/>
       <c r="F262" t="s">
-        <v>1154</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A263" s="3" t="s">
-        <v>848</v>
+        <v>814</v>
       </c>
       <c r="B263" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C263" s="19" t="s">
-        <v>523</v>
-      </c>
-      <c r="D263" s="19"/>
-      <c r="E263" s="19"/>
+      <c r="C263" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="D263" s="26"/>
+      <c r="E263" s="26"/>
       <c r="F263" t="s">
-        <v>1155</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A264" s="3" t="s">
-        <v>849</v>
+        <v>815</v>
       </c>
       <c r="B264" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C264" s="27" t="s">
-        <v>407</v>
-      </c>
-      <c r="D264" s="27"/>
-      <c r="E264" s="27"/>
+      <c r="C264" s="19" t="s">
+        <v>523</v>
+      </c>
+      <c r="D264" s="19"/>
+      <c r="E264" s="19"/>
       <c r="F264" t="s">
-        <v>1156</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A265" s="3" t="s">
-        <v>850</v>
+        <v>816</v>
       </c>
       <c r="B265" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C265" s="19" t="s">
-        <v>408</v>
-      </c>
-      <c r="D265" s="19"/>
-      <c r="E265" s="19"/>
+      <c r="C265" s="27" t="s">
+        <v>407</v>
+      </c>
+      <c r="D265" s="27"/>
+      <c r="E265" s="27"/>
       <c r="F265" t="s">
-        <v>1157</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A266" s="3" t="s">
-        <v>851</v>
+        <v>817</v>
       </c>
       <c r="B266" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C266" s="26" t="s">
-        <v>409</v>
-      </c>
-      <c r="D266" s="26"/>
-      <c r="E266" s="26"/>
+      <c r="C266" s="19" t="s">
+        <v>408</v>
+      </c>
+      <c r="D266" s="19"/>
+      <c r="E266" s="19"/>
       <c r="F266" t="s">
-        <v>1158</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A267" s="3" t="s">
-        <v>852</v>
+        <v>818</v>
       </c>
       <c r="B267" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C267" s="18" t="s">
-        <v>517</v>
-      </c>
-      <c r="D267" s="18"/>
-      <c r="E267" s="18"/>
-      <c r="F267" s="6" t="s">
-        <v>1159</v>
+      <c r="C267" s="26" t="s">
+        <v>409</v>
+      </c>
+      <c r="D267" s="26"/>
+      <c r="E267" s="26"/>
+      <c r="F267" t="s">
+        <v>1125</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A268" s="3" t="s">
-        <v>853</v>
+        <v>819</v>
       </c>
       <c r="B268" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C268" s="26" t="s">
-        <v>410</v>
-      </c>
-      <c r="D268" s="26"/>
-      <c r="E268" s="26"/>
-      <c r="F268" t="s">
-        <v>1160</v>
+      <c r="C268" s="18" t="s">
+        <v>517</v>
+      </c>
+      <c r="D268" s="18"/>
+      <c r="E268" s="18"/>
+      <c r="F268" s="6" t="s">
+        <v>1126</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A269" s="3" t="s">
-        <v>854</v>
+        <v>820</v>
       </c>
       <c r="B269" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C269" s="26" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D269" s="26"/>
       <c r="E269" s="26"/>
       <c r="F269" t="s">
-        <v>1161</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A270" s="3" t="s">
-        <v>855</v>
+        <v>821</v>
       </c>
       <c r="B270" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C270" s="26" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D270" s="26"/>
       <c r="E270" s="26"/>
       <c r="F270" t="s">
-        <v>1162</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A271" s="3" t="s">
-        <v>856</v>
+        <v>822</v>
       </c>
       <c r="B271" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C271" s="26" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D271" s="26"/>
       <c r="E271" s="26"/>
       <c r="F271" t="s">
-        <v>1163</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A272" s="3" t="s">
-        <v>857</v>
+        <v>823</v>
       </c>
       <c r="B272" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C272" s="26" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D272" s="26"/>
       <c r="E272" s="26"/>
       <c r="F272" t="s">
-        <v>1164</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A273" s="3" t="s">
-        <v>858</v>
+        <v>824</v>
       </c>
       <c r="B273" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C273" s="19" t="s">
-        <v>514</v>
-      </c>
-      <c r="D273" s="19"/>
-      <c r="E273" s="19"/>
+      <c r="C273" s="26" t="s">
+        <v>414</v>
+      </c>
+      <c r="D273" s="26"/>
+      <c r="E273" s="26"/>
       <c r="F273" t="s">
-        <v>1165</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A274" s="3" t="s">
-        <v>859</v>
+        <v>825</v>
       </c>
       <c r="B274" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C274" s="19" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D274" s="19"/>
       <c r="E274" s="19"/>
       <c r="F274" t="s">
-        <v>1166</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A275" s="3" t="s">
-        <v>860</v>
+        <v>826</v>
       </c>
       <c r="B275" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C275" s="26" t="s">
-        <v>426</v>
-      </c>
-      <c r="D275" s="26"/>
-      <c r="E275" s="26"/>
+      <c r="C275" s="19" t="s">
+        <v>513</v>
+      </c>
+      <c r="D275" s="19"/>
+      <c r="E275" s="19"/>
       <c r="F275" t="s">
-        <v>1167</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A276" s="3" t="s">
-        <v>861</v>
+        <v>827</v>
       </c>
       <c r="B276" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C276" s="26" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D276" s="26"/>
       <c r="E276" s="26"/>
-      <c r="F276" s="6" t="s">
-        <v>1168</v>
+      <c r="F276" t="s">
+        <v>1134</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A277" s="3" t="s">
-        <v>862</v>
+        <v>828</v>
       </c>
       <c r="B277" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C277" s="26" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="D277" s="26"/>
       <c r="E277" s="26"/>
       <c r="F277" s="6" t="s">
-        <v>1169</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A278" s="3" t="s">
-        <v>863</v>
+        <v>829</v>
       </c>
       <c r="B278" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C278" s="19" t="s">
-        <v>511</v>
-      </c>
-      <c r="D278" s="19"/>
-      <c r="E278" s="19"/>
-      <c r="F278" t="s">
-        <v>1170</v>
+      <c r="C278" s="26" t="s">
+        <v>429</v>
+      </c>
+      <c r="D278" s="26"/>
+      <c r="E278" s="26"/>
+      <c r="F278" s="6" t="s">
+        <v>1136</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A279" s="3" t="s">
-        <v>864</v>
+        <v>830</v>
       </c>
       <c r="B279" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C279" s="26" t="s">
-        <v>430</v>
-      </c>
-      <c r="D279" s="26"/>
-      <c r="E279" s="26"/>
+      <c r="C279" s="19" t="s">
+        <v>511</v>
+      </c>
+      <c r="D279" s="19"/>
+      <c r="E279" s="19"/>
       <c r="F279" t="s">
-        <v>1171</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A280" s="3" t="s">
-        <v>865</v>
+        <v>831</v>
       </c>
       <c r="B280" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C280" s="18" t="s">
-        <v>427</v>
-      </c>
-      <c r="D280" s="18"/>
-      <c r="E280" s="18"/>
+      <c r="C280" s="26" t="s">
+        <v>430</v>
+      </c>
+      <c r="D280" s="26"/>
+      <c r="E280" s="26"/>
       <c r="F280" t="s">
-        <v>1172</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A281" s="3" t="s">
-        <v>866</v>
+        <v>832</v>
       </c>
       <c r="B281" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C281" s="19" t="s">
-        <v>428</v>
-      </c>
-      <c r="D281" s="19"/>
-      <c r="E281" s="19"/>
+      <c r="C281" s="18" t="s">
+        <v>427</v>
+      </c>
+      <c r="D281" s="18"/>
+      <c r="E281" s="18"/>
       <c r="F281" t="s">
-        <v>1173</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A282" s="3" t="s">
-        <v>867</v>
+        <v>833</v>
       </c>
       <c r="B282" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C282" s="19" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="D282" s="19"/>
       <c r="E282" s="19"/>
       <c r="F282" t="s">
-        <v>1174</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A283" s="3" t="s">
-        <v>868</v>
+        <v>834</v>
       </c>
       <c r="B283" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C283" s="19" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D283" s="19"/>
       <c r="E283" s="19"/>
       <c r="F283" t="s">
-        <v>1175</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A284" s="3" t="s">
-        <v>869</v>
+        <v>835</v>
       </c>
       <c r="B284" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C284" s="26" t="s">
-        <v>433</v>
-      </c>
-      <c r="D284" s="26"/>
-      <c r="E284" s="26"/>
-      <c r="F284" s="6" t="s">
-        <v>1176</v>
+      <c r="C284" s="19" t="s">
+        <v>431</v>
+      </c>
+      <c r="D284" s="19"/>
+      <c r="E284" s="19"/>
+      <c r="F284" t="s">
+        <v>1142</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A285" s="3" t="s">
-        <v>870</v>
+        <v>836</v>
       </c>
       <c r="B285" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C285" s="27" t="s">
-        <v>434</v>
-      </c>
-      <c r="D285" s="27"/>
-      <c r="E285" s="27"/>
-      <c r="F285" t="s">
-        <v>1177</v>
+      <c r="C285" s="26" t="s">
+        <v>433</v>
+      </c>
+      <c r="D285" s="26"/>
+      <c r="E285" s="26"/>
+      <c r="F285" s="6" t="s">
+        <v>1143</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A286" s="3" t="s">
-        <v>871</v>
+        <v>837</v>
       </c>
       <c r="B286" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C286" s="19" t="s">
-        <v>435</v>
-      </c>
-      <c r="D286" s="19"/>
-      <c r="E286" s="19"/>
+      <c r="C286" s="27" t="s">
+        <v>434</v>
+      </c>
+      <c r="D286" s="27"/>
+      <c r="E286" s="27"/>
       <c r="F286" t="s">
-        <v>1178</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A287" s="3" t="s">
-        <v>872</v>
+        <v>838</v>
       </c>
       <c r="B287" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C287" s="19" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D287" s="19"/>
       <c r="E287" s="19"/>
       <c r="F287" t="s">
-        <v>1179</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A288" s="3" t="s">
-        <v>873</v>
+        <v>839</v>
       </c>
       <c r="B288" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C288" s="19" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D288" s="19"/>
       <c r="E288" s="19"/>
       <c r="F288" t="s">
-        <v>1180</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A289" s="3" t="s">
-        <v>874</v>
+        <v>840</v>
       </c>
       <c r="B289" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C289" s="27" t="s">
-        <v>438</v>
-      </c>
-      <c r="D289" s="27"/>
-      <c r="E289" s="27"/>
+      <c r="C289" s="19" t="s">
+        <v>437</v>
+      </c>
+      <c r="D289" s="19"/>
+      <c r="E289" s="19"/>
       <c r="F289" t="s">
-        <v>1181</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A290" s="3" t="s">
-        <v>875</v>
+        <v>841</v>
       </c>
       <c r="B290" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C290" s="26" t="s">
-        <v>509</v>
-      </c>
-      <c r="D290" s="26"/>
-      <c r="E290" s="26"/>
+      <c r="C290" s="27" t="s">
+        <v>438</v>
+      </c>
+      <c r="D290" s="27"/>
+      <c r="E290" s="27"/>
       <c r="F290" t="s">
-        <v>1182</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A291" s="3" t="s">
-        <v>876</v>
+        <v>842</v>
       </c>
       <c r="B291" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C291" s="26" t="s">
-        <v>439</v>
+        <v>509</v>
       </c>
       <c r="D291" s="26"/>
       <c r="E291" s="26"/>
       <c r="F291" t="s">
-        <v>1183</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A292" s="3" t="s">
-        <v>877</v>
+        <v>843</v>
       </c>
       <c r="B292" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C292" s="19" t="s">
-        <v>455</v>
-      </c>
-      <c r="D292" s="19"/>
-      <c r="E292" s="19"/>
+      <c r="C292" s="26" t="s">
+        <v>439</v>
+      </c>
+      <c r="D292" s="26"/>
+      <c r="E292" s="26"/>
       <c r="F292" t="s">
-        <v>1184</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A293" s="3" t="s">
-        <v>878</v>
+        <v>844</v>
       </c>
       <c r="B293" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C293" s="19" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D293" s="19"/>
       <c r="E293" s="19"/>
       <c r="F293" t="s">
-        <v>1185</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A294" s="3" t="s">
-        <v>879</v>
+        <v>845</v>
       </c>
       <c r="B294" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C294" s="26" t="s">
-        <v>457</v>
-      </c>
-      <c r="D294" s="26"/>
-      <c r="E294" s="26"/>
+      <c r="C294" s="19" t="s">
+        <v>456</v>
+      </c>
+      <c r="D294" s="19"/>
+      <c r="E294" s="19"/>
       <c r="F294" t="s">
-        <v>1186</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A295" s="3" t="s">
-        <v>880</v>
+        <v>846</v>
       </c>
       <c r="B295" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C295" s="19" t="s">
-        <v>458</v>
-      </c>
-      <c r="D295" s="19"/>
-      <c r="E295" s="19"/>
+      <c r="C295" s="26" t="s">
+        <v>457</v>
+      </c>
+      <c r="D295" s="26"/>
+      <c r="E295" s="26"/>
       <c r="F295" t="s">
-        <v>1187</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A296" s="3" t="s">
-        <v>881</v>
+        <v>847</v>
       </c>
       <c r="B296" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C296" s="19" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D296" s="19"/>
       <c r="E296" s="19"/>
       <c r="F296" t="s">
-        <v>1188</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A297" s="3" t="s">
-        <v>882</v>
+        <v>848</v>
       </c>
       <c r="B297" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C297" s="19" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D297" s="19"/>
       <c r="E297" s="19"/>
       <c r="F297" t="s">
-        <v>1189</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A298" s="3" t="s">
-        <v>883</v>
+        <v>849</v>
       </c>
       <c r="B298" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C298" s="19" t="s">
-        <v>505</v>
+        <v>461</v>
       </c>
       <c r="D298" s="19"/>
       <c r="E298" s="19"/>
       <c r="F298" t="s">
-        <v>1190</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A299" s="3" t="s">
-        <v>884</v>
+        <v>850</v>
       </c>
       <c r="B299" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C299" s="26" t="s">
-        <v>460</v>
-      </c>
-      <c r="D299" s="26"/>
-      <c r="E299" s="26"/>
+      <c r="C299" s="19" t="s">
+        <v>505</v>
+      </c>
+      <c r="D299" s="19"/>
+      <c r="E299" s="19"/>
       <c r="F299" t="s">
-        <v>1191</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A300" s="3" t="s">
-        <v>885</v>
+        <v>851</v>
       </c>
       <c r="B300" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C300" s="26" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D300" s="26"/>
       <c r="E300" s="26"/>
       <c r="F300" t="s">
-        <v>1192</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A301" s="3" t="s">
-        <v>886</v>
+        <v>852</v>
       </c>
       <c r="B301" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C301" s="26" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D301" s="26"/>
       <c r="E301" s="26"/>
       <c r="F301" t="s">
-        <v>1193</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A302" s="3" t="s">
-        <v>887</v>
+        <v>853</v>
       </c>
       <c r="B302" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C302" s="26" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D302" s="26"/>
       <c r="E302" s="26"/>
       <c r="F302" t="s">
-        <v>1194</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A303" s="3" t="s">
-        <v>888</v>
+        <v>854</v>
       </c>
       <c r="B303" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C303" s="26" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D303" s="26"/>
       <c r="E303" s="26"/>
       <c r="F303" t="s">
-        <v>1195</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A304" s="3" t="s">
-        <v>889</v>
+        <v>855</v>
       </c>
       <c r="B304" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C304" s="26" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D304" s="26"/>
       <c r="E304" s="26"/>
       <c r="F304" t="s">
-        <v>1196</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A305" s="3" t="s">
-        <v>890</v>
+        <v>856</v>
       </c>
       <c r="B305" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C305" s="26" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D305" s="26"/>
       <c r="E305" s="26"/>
-      <c r="F305" s="19" t="s">
-        <v>1197</v>
+      <c r="F305" t="s">
+        <v>1163</v>
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A306" s="3" t="s">
-        <v>891</v>
+        <v>857</v>
       </c>
       <c r="B306" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C306" s="26" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D306" s="26"/>
       <c r="E306" s="26"/>
-      <c r="F306" t="s">
-        <v>1198</v>
+      <c r="F306" s="19" t="s">
+        <v>1164</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A307" s="3" t="s">
-        <v>892</v>
+        <v>858</v>
       </c>
       <c r="B307" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C307" s="26" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D307" s="26"/>
       <c r="E307" s="26"/>
       <c r="F307" t="s">
-        <v>1199</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A308" s="3" t="s">
-        <v>893</v>
+        <v>859</v>
       </c>
       <c r="B308" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C308" s="27" t="s">
-        <v>485</v>
-      </c>
-      <c r="D308" s="27"/>
-      <c r="E308" s="27"/>
+      <c r="C308" s="26" t="s">
+        <v>469</v>
+      </c>
+      <c r="D308" s="26"/>
+      <c r="E308" s="26"/>
       <c r="F308" t="s">
-        <v>1200</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A309" s="3" t="s">
-        <v>894</v>
+        <v>860</v>
       </c>
       <c r="B309" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C309" s="26" t="s">
-        <v>486</v>
-      </c>
-      <c r="D309" s="26"/>
-      <c r="E309" s="26"/>
+      <c r="C309" s="27" t="s">
+        <v>485</v>
+      </c>
+      <c r="D309" s="27"/>
+      <c r="E309" s="27"/>
       <c r="F309" t="s">
-        <v>1201</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A310" s="3" t="s">
-        <v>895</v>
+        <v>861</v>
       </c>
       <c r="B310" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C310" s="19" t="s">
-        <v>487</v>
-      </c>
-      <c r="D310" s="19"/>
-      <c r="E310" s="19"/>
+      <c r="C310" s="26" t="s">
+        <v>486</v>
+      </c>
+      <c r="D310" s="26"/>
+      <c r="E310" s="26"/>
       <c r="F310" t="s">
-        <v>1202</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A311" s="3" t="s">
-        <v>896</v>
+        <v>862</v>
       </c>
       <c r="B311" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C311" s="19" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D311" s="19"/>
       <c r="E311" s="19"/>
       <c r="F311" t="s">
-        <v>1203</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A312" s="3" t="s">
-        <v>897</v>
+        <v>863</v>
       </c>
       <c r="B312" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C312" s="19" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D312" s="19"/>
       <c r="E312" s="19"/>
       <c r="F312" t="s">
-        <v>1204</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A313" s="3" t="s">
-        <v>898</v>
+        <v>864</v>
       </c>
       <c r="B313" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C313" s="19" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D313" s="19"/>
       <c r="E313" s="19"/>
       <c r="F313" t="s">
-        <v>1205</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A314" s="3" t="s">
-        <v>899</v>
+        <v>865</v>
       </c>
       <c r="B314" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C314" s="26" t="s">
-        <v>507</v>
-      </c>
-      <c r="D314" s="26"/>
-      <c r="E314" s="26"/>
+      <c r="C314" s="19" t="s">
+        <v>490</v>
+      </c>
+      <c r="D314" s="19"/>
+      <c r="E314" s="19"/>
       <c r="F314" t="s">
-        <v>1206</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A315" s="3" t="s">
-        <v>900</v>
+        <v>866</v>
       </c>
       <c r="B315" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C315" s="19" t="s">
-        <v>497</v>
-      </c>
-      <c r="D315" s="19"/>
-      <c r="E315" s="19"/>
+      <c r="C315" s="26" t="s">
+        <v>507</v>
+      </c>
+      <c r="D315" s="26"/>
+      <c r="E315" s="26"/>
       <c r="F315" t="s">
-        <v>1207</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A316" s="3" t="s">
-        <v>901</v>
+        <v>867</v>
       </c>
       <c r="B316" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C316" s="19" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D316" s="19"/>
       <c r="E316" s="19"/>
       <c r="F316" t="s">
-        <v>1208</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A317" s="3" t="s">
-        <v>902</v>
+        <v>868</v>
       </c>
       <c r="B317" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C317" s="18" t="s">
-        <v>501</v>
-      </c>
-      <c r="D317" s="18"/>
-      <c r="E317" s="18"/>
-      <c r="F317" s="6" t="s">
-        <v>1209</v>
+      <c r="C317" s="19" t="s">
+        <v>499</v>
+      </c>
+      <c r="D317" s="19"/>
+      <c r="E317" s="19"/>
+      <c r="F317" t="s">
+        <v>1175</v>
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A318" s="3" t="s">
-        <v>903</v>
+        <v>869</v>
       </c>
       <c r="B318" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C318" s="27" t="s">
+      <c r="C318" s="18" t="s">
+        <v>501</v>
+      </c>
+      <c r="D318" s="18"/>
+      <c r="E318" s="18"/>
+      <c r="F318" s="6" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A319" s="3" t="s">
+        <v>870</v>
+      </c>
+      <c r="B319" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C319" s="27" t="s">
         <v>503</v>
       </c>
-      <c r="D318" s="27"/>
-      <c r="E318" s="27"/>
-      <c r="F318" s="6" t="s">
-        <v>1210</v>
+      <c r="D319" s="27"/>
+      <c r="E319" s="27"/>
+      <c r="F319" s="6" t="s">
+        <v>1177</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F318" xr:uid="{B8FBB380-25CE-48E1-8B68-143CBA8DEA45}"/>
+  <autoFilter ref="A1:F319" xr:uid="{B8FBB380-25CE-48E1-8B68-143CBA8DEA45}"/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/slackbuilds/sb_migr.xlsx
+++ b/slackbuilds/sb_migr.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\projects.new\sh\cvstogit\slackbuilds\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F46627FD-9CD0-4A24-8C68-4A92020B78C7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14F11AF7-3056-4663-8547-47E3E3D0E3DF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">List!$A$1:$G$311</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Revisions!$A$1:$F$321</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Revisions!$A$1:$F$333</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1978" uniqueCount="1276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2065" uniqueCount="1301">
   <si>
     <t>Package</t>
   </si>
@@ -1942,141 +1942,6 @@
     <t>SLACK-10_2</t>
   </si>
   <si>
-    <t>2007-09-18 07:37:16</t>
-  </si>
-  <si>
-    <t>2007-09-18 22:47:09</t>
-  </si>
-  <si>
-    <t>2007-09-18 23:25:38</t>
-  </si>
-  <si>
-    <t>2007-09-22 14:29:24</t>
-  </si>
-  <si>
-    <t>2007-09-22 15:39:28</t>
-  </si>
-  <si>
-    <t>2007-09-22 20:58:28</t>
-  </si>
-  <si>
-    <t>2007-09-22 22:13:12</t>
-  </si>
-  <si>
-    <t>2007-09-22 22:16:00</t>
-  </si>
-  <si>
-    <t>2007-09-23 20:34:41</t>
-  </si>
-  <si>
-    <t>2007-09-23 20:53:34</t>
-  </si>
-  <si>
-    <t>2007-09-23 22:15:21</t>
-  </si>
-  <si>
-    <t>2007-09-24 21:03:44</t>
-  </si>
-  <si>
-    <t>2007-09-24 23:44:44</t>
-  </si>
-  <si>
-    <t>2007-09-25 21:58:28</t>
-  </si>
-  <si>
-    <t>2007-09-27 22:45:45</t>
-  </si>
-  <si>
-    <t>2007-09-27 23:16:55</t>
-  </si>
-  <si>
-    <t>2007-10-01 21:54:41</t>
-  </si>
-  <si>
-    <t>2007-10-01 21:58:54</t>
-  </si>
-  <si>
-    <t>2007-10-04 21:29:46</t>
-  </si>
-  <si>
-    <t>2007-11-13 22:24:35</t>
-  </si>
-  <si>
-    <t>2007-11-13 23:40:32</t>
-  </si>
-  <si>
-    <t>2007-11-15 20:18:04</t>
-  </si>
-  <si>
-    <t>2007-11-17 18:30:36</t>
-  </si>
-  <si>
-    <t>2007-11-17 21:04:37</t>
-  </si>
-  <si>
-    <t>2007-11-18 18:43:34</t>
-  </si>
-  <si>
-    <t>2007-11-18 19:44:23</t>
-  </si>
-  <si>
-    <t>2007-11-20 22:29:17</t>
-  </si>
-  <si>
-    <t>2007-11-30 10:12:39</t>
-  </si>
-  <si>
-    <t>2007-12-01 16:02:28</t>
-  </si>
-  <si>
-    <t>2007-12-01 16:42:24</t>
-  </si>
-  <si>
-    <t>2007-12-02 23:04:40</t>
-  </si>
-  <si>
-    <t>2007-12-02 23:31:12</t>
-  </si>
-  <si>
-    <t>2007-12-03 00:17:06</t>
-  </si>
-  <si>
-    <t>2007-12-03 00:41:07</t>
-  </si>
-  <si>
-    <t>2007-12-03 22:36:06</t>
-  </si>
-  <si>
-    <t>2007-12-04 23:57:24</t>
-  </si>
-  <si>
-    <t>2007-12-08 19:23:16</t>
-  </si>
-  <si>
-    <t>2007-12-08 20:36:51</t>
-  </si>
-  <si>
-    <t>2007-12-08 22:59:29</t>
-  </si>
-  <si>
-    <t>2007-12-09 11:57:10</t>
-  </si>
-  <si>
-    <t>2007-12-09 16:09:00</t>
-  </si>
-  <si>
-    <t>2008-01-04 23:55:37</t>
-  </si>
-  <si>
-    <t>2008-01-05 22:05:19</t>
-  </si>
-  <si>
-    <t>2008-01-20 18:25:12</t>
-  </si>
-  <si>
-    <t>2008-01-21 08:11:25</t>
-  </si>
-  <si>
     <t>2008-10-18 19:42:21</t>
   </si>
   <si>
@@ -3730,9 +3595,6 @@
     <t>.</t>
   </si>
   <si>
-    <t>2006-10-12 22:24:54 +0300</t>
-  </si>
-  <si>
     <t>2006-10-16 22:07:13 +0300</t>
   </si>
   <si>
@@ -3796,9 +3658,6 @@
     <t>2007-02-12 09:17:19 +0200</t>
   </si>
   <si>
-    <t>2007-03-01 22:51:31 +0200</t>
-  </si>
-  <si>
     <t>2007-03-18 06:12:04 +0200</t>
   </si>
   <si>
@@ -3817,9 +3676,6 @@
     <t>2007-07-10 00:21:41 +0300</t>
   </si>
   <si>
-    <t>2007-07-11 23:33:49 +0300</t>
-  </si>
-  <si>
     <t>2007-07-12 12:55:01 +0300</t>
   </si>
   <si>
@@ -3866,6 +3722,225 @@
   </si>
   <si>
     <t>SLACK-12_1</t>
+  </si>
+  <si>
+    <t>2007-09-18 07:37:16 +0300</t>
+  </si>
+  <si>
+    <t>2007-09-18 22:47:09 +0300</t>
+  </si>
+  <si>
+    <t>2007-09-18 23:25:38 +0300</t>
+  </si>
+  <si>
+    <t>2007-09-22 14:29:24 +0300</t>
+  </si>
+  <si>
+    <t>2007-09-22 15:39:28 +0300</t>
+  </si>
+  <si>
+    <t>2007-09-22 20:58:28 +0300</t>
+  </si>
+  <si>
+    <t>2007-09-22 22:16:00 +0300</t>
+  </si>
+  <si>
+    <t>2007-09-23 20:34:41 +0300</t>
+  </si>
+  <si>
+    <t>2007-09-23 20:53:34 +0300</t>
+  </si>
+  <si>
+    <t>2007-09-23 22:15:21 +0300</t>
+  </si>
+  <si>
+    <t>2007-09-24 21:03:44 +0300</t>
+  </si>
+  <si>
+    <t>2007-09-24 23:44:44 +0300</t>
+  </si>
+  <si>
+    <t>2007-09-25 21:58:28 +0300</t>
+  </si>
+  <si>
+    <t>2007-09-27 22:45:45 +0300</t>
+  </si>
+  <si>
+    <t>2007-09-27 23:16:55 +0300</t>
+  </si>
+  <si>
+    <t>2007-10-01 21:54:41 +0300</t>
+  </si>
+  <si>
+    <t>2007-10-01 21:58:54 +0300</t>
+  </si>
+  <si>
+    <t>2007-10-04 21:29:46 +0300</t>
+  </si>
+  <si>
+    <t>2007-11-13 22:24:35 +0200</t>
+  </si>
+  <si>
+    <t>2007-11-13 23:40:32 +0200</t>
+  </si>
+  <si>
+    <t>2007-11-15 20:18:04 +0200</t>
+  </si>
+  <si>
+    <t>2007-11-17 18:30:36 +0200</t>
+  </si>
+  <si>
+    <t>2007-11-17 21:04:37 +0200</t>
+  </si>
+  <si>
+    <t>2007-11-18 18:43:34 +0200</t>
+  </si>
+  <si>
+    <t>2007-11-20 22:29:17 +0200</t>
+  </si>
+  <si>
+    <t>2007-11-30 10:12:39 +0200</t>
+  </si>
+  <si>
+    <t>2007-12-01 16:02:28 +0200</t>
+  </si>
+  <si>
+    <t>2007-12-01 16:42:24 +0200</t>
+  </si>
+  <si>
+    <t>2007-12-02 23:04:40 +0200</t>
+  </si>
+  <si>
+    <t>2007-12-02 23:31:12 +0200</t>
+  </si>
+  <si>
+    <t>2007-12-03 00:17:06 +0200</t>
+  </si>
+  <si>
+    <t>2007-12-03 00:41:07 +0200</t>
+  </si>
+  <si>
+    <t>2007-12-03 22:36:06 +0200</t>
+  </si>
+  <si>
+    <t>2007-12-04 23:57:24 +0200</t>
+  </si>
+  <si>
+    <t>2007-12-08 19:23:16 +0200</t>
+  </si>
+  <si>
+    <t>2007-12-08 20:36:51 +0200</t>
+  </si>
+  <si>
+    <t>2007-12-08 22:59:29 +0200</t>
+  </si>
+  <si>
+    <t>2007-12-09 11:57:10 +0200</t>
+  </si>
+  <si>
+    <t>2007-12-09 16:09:00 +0200</t>
+  </si>
+  <si>
+    <t>2008-01-04 23:55:37 +0200</t>
+  </si>
+  <si>
+    <t>2008-01-05 22:05:19 +0200</t>
+  </si>
+  <si>
+    <t>2008-01-20 18:25:12 +0200</t>
+  </si>
+  <si>
+    <t>2008-01-21 08:11:25 +0200</t>
+  </si>
+  <si>
+    <t>SLACK-10_0</t>
+  </si>
+  <si>
+    <t>SLACK-10_1</t>
+  </si>
+  <si>
+    <t>2005-02-13 20:37:59 +0200</t>
+  </si>
+  <si>
+    <t>2005-03-15 22:13:05 +0200</t>
+  </si>
+  <si>
+    <t>2005-04-17 14:48:04 +0300</t>
+  </si>
+  <si>
+    <t>2005-10-28 19:59:11 +0200</t>
+  </si>
+  <si>
+    <t>2005-02-07 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t>SLACK-12_2</t>
+  </si>
+  <si>
+    <t>SLACK-13_0</t>
+  </si>
+  <si>
+    <t>SLACK-13_1</t>
+  </si>
+  <si>
+    <t>SLACK-13_37</t>
+  </si>
+  <si>
+    <t>SLACK-14_0</t>
+  </si>
+  <si>
+    <t>SLACK-14_1</t>
+  </si>
+  <si>
+    <t>SLACK-14_2</t>
+  </si>
+  <si>
+    <t>2006-05-28 18:02:09 +0300</t>
+  </si>
+  <si>
+    <t>2005-02-03 04:22:01 +0200</t>
+  </si>
+  <si>
+    <t>2005-09-13 22:24:53 +0300</t>
+  </si>
+  <si>
+    <t>2006-10-02 07:50:53 +0300</t>
+  </si>
+  <si>
+    <t>2007-07-02 06:30:42 +0300</t>
+  </si>
+  <si>
+    <t>2008-05-01 21:36:34 +0300</t>
+  </si>
+  <si>
+    <t>2008-12-09 08:00:23 +0200</t>
+  </si>
+  <si>
+    <t>2009-08-26 18:00:38 +0300</t>
+  </si>
+  <si>
+    <t>2010-05-19 11:58:23 +0300</t>
+  </si>
+  <si>
+    <t>2011-04-25 16:37:00 +0300</t>
+  </si>
+  <si>
+    <t>2012-09-26 04:10:42 +0300</t>
+  </si>
+  <si>
+    <t>2013-11-04 19:08:47 +0200</t>
+  </si>
+  <si>
+    <t>2016-06-30 23:26:57 +0300</t>
+  </si>
+  <si>
+    <t>2007-07-18 20:55:44 +0300</t>
+  </si>
+  <si>
+    <t>2007-07-31 11:36:22 +0300</t>
+  </si>
+  <si>
+    <t>2007-09-18 07:39:34 +0300</t>
   </si>
 </sst>
 </file>
@@ -3972,7 +4047,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -4026,10 +4101,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Нормален" xfId="0" builtinId="0"/>
@@ -8790,7 +8866,7 @@
         <v>147</v>
       </c>
       <c r="F194" t="s">
-        <v>1178</v>
+        <v>1133</v>
       </c>
       <c r="G194" s="13">
         <v>43875</v>
@@ -11527,10 +11603,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{495E7B31-8439-4BBC-8206-DAF1FFDAE945}">
-  <dimension ref="A1:F321"/>
+  <dimension ref="A1:F333"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="C79" sqref="C79"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="D134" sqref="D134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -11538,7 +11614,7 @@
     <col min="1" max="1" width="23.6640625" style="28" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="44.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="57.88671875" bestFit="1" customWidth="1"/>
   </cols>
@@ -11565,7 +11641,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="28" t="s">
-        <v>1180</v>
+        <v>1135</v>
       </c>
       <c r="B2" t="s">
         <v>628</v>
@@ -11574,15 +11650,15 @@
         <v>629</v>
       </c>
       <c r="D2" t="s">
-        <v>1228</v>
+        <v>1183</v>
       </c>
       <c r="E2" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="3" t="s">
-        <v>1181</v>
+      <c r="A3" s="28" t="s">
+        <v>1136</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>627</v>
@@ -11591,5229 +11667,5483 @@
         <v>20</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>1228</v>
+        <v>1183</v>
       </c>
       <c r="E3" s="19"/>
       <c r="F3" t="s">
-        <v>872</v>
+        <v>827</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="3" t="s">
-        <v>1182</v>
+      <c r="A4" s="28" t="s">
+        <v>1277</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>627</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>1228</v>
+        <v>1189</v>
+      </c>
+      <c r="C4" s="19"/>
+      <c r="D4" s="18" t="s">
+        <v>1271</v>
       </c>
       <c r="E4" s="19"/>
-      <c r="F4" t="s">
-        <v>873</v>
-      </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="3" t="s">
-        <v>1183</v>
+      <c r="A5" s="28" t="s">
+        <v>1286</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>627</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>1228</v>
+        <v>1226</v>
+      </c>
+      <c r="C5" s="19"/>
+      <c r="D5" s="18" t="s">
+        <v>1272</v>
       </c>
       <c r="E5" s="19"/>
-      <c r="F5" t="s">
-        <v>1179</v>
-      </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="3" t="s">
-        <v>1184</v>
+      <c r="A6" s="28" t="s">
+        <v>1273</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>1228</v>
+        <v>79</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>1272</v>
       </c>
       <c r="E6" s="19"/>
       <c r="F6" t="s">
-        <v>875</v>
+        <v>879</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="3" t="s">
-        <v>1185</v>
+      <c r="A7" s="28" t="s">
+        <v>1137</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>123</v>
+        <v>43</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>1228</v>
+        <v>1272</v>
       </c>
       <c r="E7" s="19"/>
       <c r="F7" t="s">
-        <v>876</v>
+        <v>828</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="3" t="s">
-        <v>1186</v>
+      <c r="A8" s="28" t="s">
+        <v>1138</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C8" s="26" t="s">
-        <v>555</v>
+      <c r="C8" s="19" t="s">
+        <v>38</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>1228</v>
-      </c>
-      <c r="E8" s="26"/>
+        <v>1272</v>
+      </c>
+      <c r="E8" s="19"/>
       <c r="F8" t="s">
-        <v>877</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="3" t="s">
-        <v>1187</v>
+      <c r="A9" s="28" t="s">
+        <v>1139</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>110</v>
+        <v>26</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>1228</v>
+        <v>1272</v>
       </c>
       <c r="E9" s="19"/>
       <c r="F9" t="s">
-        <v>878</v>
+        <v>830</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="3" t="s">
-        <v>1188</v>
+      <c r="A10" s="28" t="s">
+        <v>1140</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>1228</v>
+        <v>1272</v>
       </c>
       <c r="E10" s="19"/>
       <c r="F10" t="s">
-        <v>879</v>
+        <v>831</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="3" t="s">
-        <v>1189</v>
+      <c r="A11" s="28" t="s">
+        <v>1141</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="26" t="s">
+        <v>555</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>1272</v>
+      </c>
+      <c r="E11" s="26"/>
+      <c r="F11" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="28" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>1272</v>
+      </c>
+      <c r="E12" s="18"/>
+      <c r="F12" s="6" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="28" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>1272</v>
+      </c>
+      <c r="E13" s="19"/>
+      <c r="F13" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="28" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>1272</v>
+      </c>
+      <c r="E14" s="19"/>
+      <c r="F14" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="28" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C15" s="19" t="s">
         <v>577</v>
       </c>
-      <c r="D11" s="19" t="s">
-        <v>1228</v>
-      </c>
-      <c r="E11" s="19"/>
-      <c r="F11" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="3" t="s">
-        <v>1190</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>627</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>1228</v>
-      </c>
-      <c r="E12" s="19"/>
-      <c r="F12" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="3" t="s">
-        <v>1191</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>627</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>1228</v>
-      </c>
-      <c r="E13" s="18"/>
-      <c r="F13" s="6" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="3" t="s">
-        <v>1192</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>627</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>1228</v>
-      </c>
-      <c r="E14" s="18"/>
-      <c r="F14" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="3" t="s">
-        <v>1193</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>627</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>161</v>
-      </c>
       <c r="D15" s="19" t="s">
-        <v>1228</v>
+        <v>1272</v>
       </c>
       <c r="E15" s="19"/>
       <c r="F15" t="s">
-        <v>884</v>
+        <v>835</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="3" t="s">
-        <v>1194</v>
+      <c r="A16" s="28" t="s">
+        <v>1145</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>85</v>
+        <v>6</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>1228</v>
+        <v>1272</v>
       </c>
       <c r="E16" s="19"/>
       <c r="F16" t="s">
-        <v>885</v>
+        <v>836</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="3" t="s">
-        <v>1195</v>
+      <c r="A17" s="28" t="s">
+        <v>1146</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>1272</v>
+      </c>
+      <c r="E17" s="18"/>
+      <c r="F17" s="6" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="28" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>1272</v>
+      </c>
+      <c r="E18" s="18"/>
+      <c r="F18" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="28" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>1272</v>
+      </c>
+      <c r="E19" s="19"/>
+      <c r="F19" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="28" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>1272</v>
+      </c>
+      <c r="E20" s="19"/>
+      <c r="F20" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="28" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C21" s="19"/>
+      <c r="D21" s="18" t="s">
+        <v>633</v>
+      </c>
+      <c r="E21" s="19"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="28" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>1184</v>
+      </c>
+      <c r="E22" s="19"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="28" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>633</v>
+      </c>
+      <c r="E23" s="19"/>
+      <c r="F23" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="28" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C24" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="19" t="s">
-        <v>1228</v>
-      </c>
-      <c r="E17" s="19"/>
-      <c r="F17" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="3" t="s">
-        <v>1196</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>627</v>
-      </c>
-      <c r="C18" s="19" t="s">
+      <c r="D24" s="18" t="s">
+        <v>633</v>
+      </c>
+      <c r="E24" s="19"/>
+      <c r="F24" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="28" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C25" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="19" t="s">
-        <v>1228</v>
-      </c>
-      <c r="E18" s="19"/>
-      <c r="F18" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="3" t="s">
-        <v>1197</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>627</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>1228</v>
-      </c>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="3" t="s">
-        <v>1198</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>628</v>
-      </c>
-      <c r="C20" s="31" t="s">
-        <v>871</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>1228</v>
-      </c>
-      <c r="E20" s="19" t="s">
-        <v>1199</v>
-      </c>
-      <c r="F20" s="19"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="3" t="s">
-        <v>1200</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>627</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>1228</v>
-      </c>
-      <c r="E21" s="19"/>
-      <c r="F21" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="3" t="s">
-        <v>1201</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>627</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>1228</v>
-      </c>
-      <c r="E22" s="19"/>
-      <c r="F22" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="3" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>627</v>
-      </c>
-      <c r="C23" s="18" t="s">
-        <v>596</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>1228</v>
-      </c>
-      <c r="E23" s="18"/>
-      <c r="F23" s="6" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="3" t="s">
-        <v>1203</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>627</v>
-      </c>
-      <c r="C24" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>1228</v>
-      </c>
-      <c r="E24" s="18"/>
-      <c r="F24" s="6" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="3" t="s">
-        <v>1204</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>627</v>
-      </c>
-      <c r="C25" s="31" t="s">
-        <v>1208</v>
-      </c>
       <c r="D25" s="18" t="s">
-        <v>1228</v>
+        <v>633</v>
       </c>
       <c r="E25" s="19"/>
       <c r="F25" t="s">
-        <v>893</v>
+        <v>842</v>
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="3" t="s">
-        <v>1205</v>
+      <c r="A26" s="28" t="s">
+        <v>1152</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>554</v>
+        <v>82</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>1228</v>
+        <v>633</v>
       </c>
       <c r="E26" s="19"/>
-      <c r="F26" t="s">
-        <v>894</v>
+      <c r="F26" s="19" t="s">
+        <v>843</v>
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="3" t="s">
-        <v>1206</v>
+      <c r="A27" s="28" t="s">
+        <v>1153</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>627</v>
-      </c>
-      <c r="C27" s="26" t="s">
-        <v>541</v>
+        <v>628</v>
+      </c>
+      <c r="C27" s="31" t="s">
+        <v>826</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>1228</v>
-      </c>
-      <c r="E27" s="26"/>
-      <c r="F27" t="s">
-        <v>895</v>
-      </c>
+        <v>633</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>1154</v>
+      </c>
+      <c r="F27" s="19"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="3" t="s">
-        <v>1207</v>
+      <c r="A28" s="28" t="s">
+        <v>1155</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C28" s="31" t="s">
-        <v>1220</v>
+      <c r="C28" s="19" t="s">
+        <v>95</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>1228</v>
+        <v>633</v>
       </c>
       <c r="E28" s="19"/>
       <c r="F28" t="s">
-        <v>896</v>
+        <v>844</v>
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="3" t="s">
-        <v>1209</v>
+      <c r="A29" s="28" t="s">
+        <v>1156</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C29" s="31" t="s">
-        <v>1221</v>
+      <c r="C29" s="19" t="s">
+        <v>8</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>1228</v>
+        <v>633</v>
       </c>
       <c r="E29" s="19"/>
       <c r="F29" t="s">
-        <v>897</v>
+        <v>845</v>
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="3" t="s">
-        <v>1210</v>
+      <c r="A30" s="28" t="s">
+        <v>1157</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C30" s="19" t="s">
-        <v>28</v>
+      <c r="C30" s="18" t="s">
+        <v>596</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>1228</v>
-      </c>
-      <c r="E30" s="19"/>
-      <c r="F30" t="s">
-        <v>898</v>
+        <v>633</v>
+      </c>
+      <c r="E30" s="18"/>
+      <c r="F30" s="6" t="s">
+        <v>846</v>
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="3" t="s">
-        <v>1211</v>
+      <c r="A31" s="28" t="s">
+        <v>1158</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C31" s="19" t="s">
-        <v>57</v>
+      <c r="C31" s="18" t="s">
+        <v>31</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>1228</v>
-      </c>
-      <c r="E31" s="19"/>
-      <c r="F31" t="s">
-        <v>899</v>
+        <v>633</v>
+      </c>
+      <c r="E31" s="18"/>
+      <c r="F31" s="6" t="s">
+        <v>847</v>
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="3" t="s">
-        <v>1212</v>
+      <c r="A32" s="28" t="s">
+        <v>1159</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C32" s="19" t="s">
-        <v>59</v>
+      <c r="C32" s="31" t="s">
+        <v>1163</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>1228</v>
+        <v>633</v>
       </c>
       <c r="E32" s="19"/>
       <c r="F32" t="s">
-        <v>900</v>
+        <v>848</v>
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="3" t="s">
-        <v>1213</v>
+      <c r="A33" s="28" t="s">
+        <v>1160</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C33" s="18" t="s">
-        <v>22</v>
+      <c r="C33" s="19" t="s">
+        <v>554</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>1228</v>
-      </c>
-      <c r="E33" s="18"/>
+        <v>633</v>
+      </c>
+      <c r="E33" s="19"/>
       <c r="F33" t="s">
-        <v>901</v>
+        <v>849</v>
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="3" t="s">
-        <v>1214</v>
+      <c r="A34" s="28" t="s">
+        <v>1161</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C34" s="31" t="s">
-        <v>1222</v>
+      <c r="C34" s="26" t="s">
+        <v>541</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>1228</v>
-      </c>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19" t="s">
-        <v>902</v>
+        <v>633</v>
+      </c>
+      <c r="E34" s="26"/>
+      <c r="F34" t="s">
+        <v>850</v>
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="3" t="s">
-        <v>1215</v>
+      <c r="A35" s="28" t="s">
+        <v>1285</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>18</v>
+        <v>147</v>
       </c>
       <c r="D35" s="18" t="s">
-        <v>1228</v>
+        <v>633</v>
       </c>
       <c r="E35" s="19"/>
       <c r="F35" t="s">
-        <v>903</v>
+        <v>922</v>
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="3" t="s">
-        <v>1216</v>
+      <c r="A36" s="28" t="s">
+        <v>1162</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C36" s="19" t="s">
-        <v>16</v>
+      <c r="C36" s="31" t="s">
+        <v>1175</v>
       </c>
       <c r="D36" s="18" t="s">
-        <v>1228</v>
+        <v>633</v>
       </c>
       <c r="E36" s="19"/>
       <c r="F36" t="s">
-        <v>874</v>
+        <v>851</v>
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="3" t="s">
-        <v>1217</v>
+      <c r="A37" s="28" t="s">
+        <v>1164</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C37" s="19" t="s">
-        <v>12</v>
+      <c r="C37" s="31" t="s">
+        <v>1176</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>1228</v>
+        <v>633</v>
       </c>
       <c r="E37" s="19"/>
       <c r="F37" t="s">
-        <v>904</v>
+        <v>852</v>
       </c>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="3" t="s">
-        <v>1218</v>
+      <c r="A38" s="28" t="s">
+        <v>1165</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D38" s="18" t="s">
-        <v>1228</v>
+        <v>633</v>
       </c>
       <c r="E38" s="19"/>
       <c r="F38" t="s">
-        <v>905</v>
+        <v>853</v>
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="3" t="s">
-        <v>1219</v>
+      <c r="A39" s="28" t="s">
+        <v>1166</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C39" s="19" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="D39" s="18" t="s">
-        <v>1228</v>
+        <v>633</v>
       </c>
       <c r="E39" s="19"/>
       <c r="F39" t="s">
-        <v>906</v>
+        <v>854</v>
       </c>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="3"/>
+      <c r="A40" s="28" t="s">
+        <v>1167</v>
+      </c>
       <c r="B40" s="3" t="s">
-        <v>1235</v>
-      </c>
-      <c r="C40" s="19"/>
+        <v>627</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>59</v>
+      </c>
       <c r="D40" s="18" t="s">
         <v>633</v>
       </c>
       <c r="E40" s="19"/>
+      <c r="F40" t="s">
+        <v>855</v>
+      </c>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="3"/>
+      <c r="A41" s="28" t="s">
+        <v>1168</v>
+      </c>
       <c r="B41" s="3" t="s">
-        <v>1274</v>
-      </c>
-      <c r="C41" s="19"/>
+        <v>627</v>
+      </c>
+      <c r="C41" s="18" t="s">
+        <v>22</v>
+      </c>
       <c r="D41" s="18" t="s">
-        <v>1224</v>
-      </c>
-      <c r="E41" s="19"/>
+        <v>633</v>
+      </c>
+      <c r="E41" s="18"/>
+      <c r="F41" t="s">
+        <v>856</v>
+      </c>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="3" t="s">
-        <v>1227</v>
+      <c r="A42" s="28" t="s">
+        <v>1169</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>628</v>
-      </c>
-      <c r="C42" s="19" t="s">
-        <v>1270</v>
+        <v>627</v>
+      </c>
+      <c r="C42" s="31" t="s">
+        <v>1177</v>
       </c>
       <c r="D42" s="18" t="s">
-        <v>1224</v>
-      </c>
-      <c r="E42" s="19" t="s">
-        <v>1226</v>
+        <v>633</v>
+      </c>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19" t="s">
+        <v>857</v>
       </c>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="32" t="s">
-        <v>1223</v>
-      </c>
-      <c r="B43" s="32" t="s">
-        <v>1225</v>
+      <c r="A43" s="28" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>627</v>
       </c>
       <c r="C43" s="19" t="s">
         <v>18</v>
       </c>
       <c r="D43" s="18" t="s">
-        <v>1229</v>
+        <v>633</v>
       </c>
       <c r="E43" s="19"/>
       <c r="F43" t="s">
-        <v>903</v>
+        <v>858</v>
       </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="32" t="s">
-        <v>1230</v>
-      </c>
-      <c r="B44" s="32" t="s">
-        <v>1225</v>
+      <c r="A44" s="28" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>627</v>
       </c>
       <c r="C44" s="19" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="D44" s="18" t="s">
-        <v>1229</v>
+        <v>633</v>
       </c>
       <c r="E44" s="19"/>
       <c r="F44" t="s">
-        <v>1179</v>
+        <v>829</v>
       </c>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="32" t="s">
-        <v>1231</v>
-      </c>
-      <c r="B45" s="32" t="s">
-        <v>1225</v>
+      <c r="A45" s="28" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>627</v>
       </c>
       <c r="C45" s="19" t="s">
-        <v>1208</v>
+        <v>12</v>
       </c>
       <c r="D45" s="18" t="s">
-        <v>1229</v>
+        <v>633</v>
       </c>
       <c r="E45" s="19"/>
       <c r="F45" t="s">
-        <v>893</v>
+        <v>859</v>
       </c>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="32" t="s">
-        <v>1232</v>
-      </c>
-      <c r="B46" s="32" t="s">
-        <v>1225</v>
+      <c r="A46" s="28" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>627</v>
       </c>
       <c r="C46" s="19" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D46" s="18" t="s">
-        <v>1229</v>
+        <v>633</v>
       </c>
       <c r="E46" s="19"/>
       <c r="F46" t="s">
-        <v>873</v>
+        <v>860</v>
       </c>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="33" t="s">
-        <v>1233</v>
+      <c r="A47" s="28" t="s">
+        <v>1174</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C47" s="18" t="s">
+      <c r="C47" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D47" s="18" t="s">
+        <v>633</v>
+      </c>
+      <c r="E47" s="19"/>
+      <c r="F47" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="28" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C48" s="19"/>
+      <c r="D48" s="18" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E48" s="19"/>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="28" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="C49" s="19" t="s">
+        <v>1222</v>
+      </c>
+      <c r="D49" s="18" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E49" s="19" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="34" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B50" s="32" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C50" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D50" s="18" t="s">
+        <v>1184</v>
+      </c>
+      <c r="E50" s="19"/>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="34" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B51" s="32" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C51" s="19" t="s">
+        <v>1163</v>
+      </c>
+      <c r="D51" s="18" t="s">
+        <v>1184</v>
+      </c>
+      <c r="E51" s="19"/>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="34" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B52" s="32" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C52" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D52" s="18" t="s">
+        <v>1184</v>
+      </c>
+      <c r="E52" s="19"/>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="35" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C53" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="D47" s="18" t="s">
-        <v>1224</v>
-      </c>
-      <c r="E47" s="18"/>
-      <c r="F47" s="6" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="3" t="s">
-        <v>1234</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>627</v>
-      </c>
-      <c r="C48" s="19" t="s">
+      <c r="D53" s="18" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E53" s="18"/>
+      <c r="F53" s="6" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="28" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C54" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="D48" s="18" t="s">
-        <v>1224</v>
-      </c>
-      <c r="E48" s="19"/>
-      <c r="F48" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49" s="3" t="s">
-        <v>1236</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>627</v>
-      </c>
-      <c r="C49" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="D49" s="18" t="s">
-        <v>1224</v>
-      </c>
-      <c r="E49" s="18"/>
-      <c r="F49" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="3" t="s">
-        <v>1237</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>627</v>
-      </c>
-      <c r="C50" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="D50" s="18" t="s">
-        <v>1224</v>
-      </c>
-      <c r="E50" s="19"/>
-      <c r="F50" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="3" t="s">
-        <v>1238</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>627</v>
-      </c>
-      <c r="C51" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="D51" s="18" t="s">
-        <v>1224</v>
-      </c>
-      <c r="E51" s="19"/>
-      <c r="F51" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="3" t="s">
-        <v>1239</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>627</v>
-      </c>
-      <c r="C52" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="D52" s="18" t="s">
-        <v>1224</v>
-      </c>
-      <c r="E52" s="19"/>
-      <c r="F52" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53" s="3" t="s">
-        <v>1240</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>627</v>
-      </c>
-      <c r="C53" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="D53" s="18" t="s">
-        <v>1224</v>
-      </c>
-      <c r="E53" s="19"/>
-      <c r="F53" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54" s="3" t="s">
-        <v>1241</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>627</v>
-      </c>
-      <c r="C54" s="19" t="s">
-        <v>63</v>
-      </c>
       <c r="D54" s="18" t="s">
-        <v>1224</v>
+        <v>1179</v>
       </c>
       <c r="E54" s="19"/>
       <c r="F54" t="s">
-        <v>914</v>
+        <v>863</v>
       </c>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="3" t="s">
-        <v>1242</v>
+      <c r="A55" s="28" t="s">
+        <v>1190</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C55" s="18" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="D55" s="18" t="s">
-        <v>1224</v>
+        <v>1179</v>
       </c>
       <c r="E55" s="18"/>
-      <c r="F55" s="6" t="s">
-        <v>915</v>
+      <c r="F55" t="s">
+        <v>864</v>
       </c>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="3" t="s">
-        <v>1243</v>
+      <c r="A56" s="28" t="s">
+        <v>1191</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C56" s="18" t="s">
-        <v>67</v>
+      <c r="C56" s="19" t="s">
+        <v>51</v>
       </c>
       <c r="D56" s="18" t="s">
-        <v>1224</v>
-      </c>
-      <c r="E56" s="18"/>
+        <v>1179</v>
+      </c>
+      <c r="E56" s="19"/>
       <c r="F56" t="s">
-        <v>916</v>
+        <v>865</v>
       </c>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="3" t="s">
-        <v>1244</v>
+      <c r="A57" s="28" t="s">
+        <v>1192</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C57" s="19" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="D57" s="18" t="s">
-        <v>1224</v>
+        <v>1179</v>
       </c>
       <c r="E57" s="19"/>
       <c r="F57" t="s">
-        <v>917</v>
+        <v>866</v>
       </c>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="3" t="s">
-        <v>1245</v>
+      <c r="A58" s="28" t="s">
+        <v>1193</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C58" s="19" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="D58" s="18" t="s">
-        <v>1224</v>
+        <v>1179</v>
       </c>
       <c r="E58" s="19"/>
       <c r="F58" t="s">
-        <v>918</v>
+        <v>867</v>
       </c>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="3" t="s">
-        <v>1247</v>
+      <c r="A59" s="28" t="s">
+        <v>1194</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C59" s="19" t="s">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="D59" s="18" t="s">
-        <v>1224</v>
+        <v>1179</v>
       </c>
       <c r="E59" s="19"/>
       <c r="F59" t="s">
-        <v>919</v>
+        <v>868</v>
       </c>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="3" t="s">
-        <v>1248</v>
+      <c r="A60" s="28" t="s">
+        <v>1195</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C60" s="19" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="D60" s="18" t="s">
-        <v>1224</v>
+        <v>1179</v>
       </c>
       <c r="E60" s="19"/>
       <c r="F60" t="s">
-        <v>920</v>
+        <v>869</v>
       </c>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="3" t="s">
-        <v>1249</v>
+      <c r="A61" s="28" t="s">
+        <v>1196</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C61" s="19" t="s">
-        <v>75</v>
+      <c r="C61" s="18" t="s">
+        <v>65</v>
       </c>
       <c r="D61" s="18" t="s">
-        <v>1224</v>
-      </c>
-      <c r="E61" s="19"/>
-      <c r="F61" t="s">
-        <v>921</v>
+        <v>1179</v>
+      </c>
+      <c r="E61" s="18"/>
+      <c r="F61" s="6" t="s">
+        <v>870</v>
       </c>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="3" t="s">
-        <v>1250</v>
+      <c r="A62" s="28" t="s">
+        <v>1197</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C62" s="19" t="s">
-        <v>77</v>
+      <c r="C62" s="18" t="s">
+        <v>67</v>
       </c>
       <c r="D62" s="18" t="s">
-        <v>1224</v>
-      </c>
-      <c r="E62" s="19"/>
+        <v>1179</v>
+      </c>
+      <c r="E62" s="18"/>
       <c r="F62" t="s">
-        <v>922</v>
+        <v>871</v>
       </c>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="3" t="s">
-        <v>1251</v>
+      <c r="A63" s="28" t="s">
+        <v>1198</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C63" s="19" t="s">
-        <v>122</v>
+        <v>70</v>
       </c>
       <c r="D63" s="18" t="s">
-        <v>1224</v>
+        <v>1179</v>
       </c>
       <c r="E63" s="19"/>
       <c r="F63" t="s">
-        <v>923</v>
+        <v>872</v>
       </c>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="3" t="s">
-        <v>1252</v>
+      <c r="A64" s="28" t="s">
+        <v>1199</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C64" s="19" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="D64" s="18" t="s">
-        <v>1224</v>
+        <v>1179</v>
       </c>
       <c r="E64" s="19"/>
       <c r="F64" t="s">
-        <v>924</v>
+        <v>873</v>
       </c>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="3" t="s">
-        <v>1253</v>
+      <c r="A65" s="28" t="s">
+        <v>1201</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C65" s="19" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D65" s="18" t="s">
-        <v>1224</v>
+        <v>1179</v>
       </c>
       <c r="E65" s="19"/>
       <c r="F65" t="s">
-        <v>925</v>
+        <v>874</v>
       </c>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="3" t="s">
-        <v>1254</v>
+      <c r="A66" s="28" t="s">
+        <v>1202</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C66" s="19" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="D66" s="18" t="s">
-        <v>1224</v>
+        <v>1179</v>
       </c>
       <c r="E66" s="19"/>
       <c r="F66" t="s">
-        <v>926</v>
+        <v>875</v>
       </c>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="3" t="s">
-        <v>1255</v>
+      <c r="A67" s="28" t="s">
+        <v>1203</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C67" s="26" t="s">
-        <v>542</v>
+      <c r="C67" s="19" t="s">
+        <v>75</v>
       </c>
       <c r="D67" s="18" t="s">
-        <v>1224</v>
-      </c>
-      <c r="E67" s="26"/>
+        <v>1179</v>
+      </c>
+      <c r="E67" s="19"/>
       <c r="F67" t="s">
-        <v>927</v>
+        <v>876</v>
       </c>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="3"/>
+      <c r="A68" s="28" t="s">
+        <v>1204</v>
+      </c>
       <c r="B68" s="3" t="s">
-        <v>1274</v>
-      </c>
-      <c r="C68" s="19"/>
+        <v>627</v>
+      </c>
+      <c r="C68" s="19" t="s">
+        <v>77</v>
+      </c>
       <c r="D68" s="18" t="s">
-        <v>1246</v>
-      </c>
-      <c r="E68" s="34"/>
+        <v>1179</v>
+      </c>
+      <c r="E68" s="19"/>
+      <c r="F68" t="s">
+        <v>877</v>
+      </c>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="3" t="s">
-        <v>1272</v>
+      <c r="A69" s="28" t="s">
+        <v>1205</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C69" s="19" t="s">
-        <v>1271</v>
+        <v>122</v>
       </c>
       <c r="D69" s="18" t="s">
-        <v>1246</v>
-      </c>
-      <c r="E69" s="34" t="s">
-        <v>1273</v>
+        <v>1179</v>
+      </c>
+      <c r="E69" s="19"/>
+      <c r="F69" t="s">
+        <v>878</v>
       </c>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="3" t="s">
-        <v>1256</v>
+      <c r="A70" s="28" t="s">
+        <v>1206</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C70" s="19" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="D70" s="18" t="s">
-        <v>1246</v>
+        <v>1179</v>
       </c>
       <c r="E70" s="19"/>
       <c r="F70" t="s">
-        <v>928</v>
+        <v>880</v>
       </c>
     </row>
     <row r="71" spans="1:6">
-      <c r="A71" s="3" t="s">
-        <v>1257</v>
+      <c r="A71" s="28" t="s">
+        <v>1207</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C71" s="26" t="s">
-        <v>543</v>
+      <c r="C71" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="D71" s="18" t="s">
-        <v>1246</v>
-      </c>
-      <c r="E71" s="26"/>
+        <v>1179</v>
+      </c>
+      <c r="E71" s="19"/>
       <c r="F71" t="s">
-        <v>929</v>
+        <v>881</v>
       </c>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72" s="3" t="s">
-        <v>1258</v>
+      <c r="A72" s="28" t="s">
+        <v>1289</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>627</v>
-      </c>
-      <c r="C72" s="26" t="s">
-        <v>547</v>
-      </c>
+        <v>1226</v>
+      </c>
+      <c r="C72" s="19"/>
       <c r="D72" s="18" t="s">
-        <v>1246</v>
-      </c>
-      <c r="E72" s="26"/>
-      <c r="F72" t="s">
-        <v>930</v>
-      </c>
+        <v>1200</v>
+      </c>
+      <c r="E72" s="33"/>
     </row>
     <row r="73" spans="1:6">
-      <c r="A73" s="3" t="s">
-        <v>1259</v>
+      <c r="A73" s="28" t="s">
+        <v>1208</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C73" s="19" t="s">
-        <v>87</v>
+      <c r="C73" s="26" t="s">
+        <v>542</v>
       </c>
       <c r="D73" s="18" t="s">
-        <v>1246</v>
-      </c>
-      <c r="E73" s="19"/>
+        <v>1179</v>
+      </c>
+      <c r="E73" s="26"/>
       <c r="F73" t="s">
-        <v>931</v>
+        <v>882</v>
       </c>
     </row>
     <row r="74" spans="1:6">
-      <c r="A74" s="3" t="s">
-        <v>1260</v>
+      <c r="A74" s="28" t="s">
+        <v>1224</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>627</v>
-      </c>
-      <c r="C74" s="18" t="s">
-        <v>548</v>
+        <v>628</v>
+      </c>
+      <c r="C74" s="19" t="s">
+        <v>1223</v>
       </c>
       <c r="D74" s="18" t="s">
-        <v>1246</v>
-      </c>
-      <c r="E74" s="18"/>
-      <c r="F74" s="6" t="s">
-        <v>932</v>
+        <v>1200</v>
+      </c>
+      <c r="E74" s="33" t="s">
+        <v>1225</v>
       </c>
     </row>
     <row r="75" spans="1:6">
-      <c r="A75" s="3" t="s">
-        <v>1261</v>
+      <c r="A75" s="28" t="s">
+        <v>1209</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C75" s="19" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D75" s="18" t="s">
-        <v>1246</v>
+        <v>1200</v>
       </c>
       <c r="E75" s="19"/>
       <c r="F75" t="s">
-        <v>933</v>
+        <v>883</v>
       </c>
     </row>
     <row r="76" spans="1:6">
-      <c r="A76" s="3" t="s">
-        <v>1262</v>
+      <c r="A76" s="28" t="s">
+        <v>1210</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C76" s="19" t="s">
-        <v>550</v>
+      <c r="C76" s="26" t="s">
+        <v>543</v>
       </c>
       <c r="D76" s="18" t="s">
-        <v>1224</v>
-      </c>
-      <c r="E76" s="19"/>
+        <v>1200</v>
+      </c>
+      <c r="E76" s="26"/>
       <c r="F76" t="s">
-        <v>934</v>
+        <v>884</v>
       </c>
     </row>
     <row r="77" spans="1:6">
-      <c r="A77" s="3" t="s">
-        <v>1263</v>
+      <c r="A77" s="28" t="s">
+        <v>1211</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C77" s="18" t="s">
-        <v>549</v>
+      <c r="C77" s="26" t="s">
+        <v>547</v>
       </c>
       <c r="D77" s="18" t="s">
-        <v>1246</v>
-      </c>
-      <c r="E77" s="18"/>
-      <c r="F77" s="6" t="s">
-        <v>935</v>
+        <v>1200</v>
+      </c>
+      <c r="E77" s="26"/>
+      <c r="F77" t="s">
+        <v>885</v>
       </c>
     </row>
     <row r="78" spans="1:6">
-      <c r="A78" s="3" t="s">
-        <v>1264</v>
+      <c r="A78" s="28" t="s">
+        <v>1212</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C78" s="19" t="s">
-        <v>551</v>
+      <c r="C78" s="18" t="s">
+        <v>548</v>
       </c>
       <c r="D78" s="18" t="s">
-        <v>1246</v>
-      </c>
-      <c r="E78" s="19"/>
-      <c r="F78" t="s">
-        <v>936</v>
+        <v>1200</v>
+      </c>
+      <c r="E78" s="18"/>
+      <c r="F78" s="6" t="s">
+        <v>887</v>
       </c>
     </row>
     <row r="79" spans="1:6">
-      <c r="A79" s="3" t="s">
-        <v>1265</v>
+      <c r="A79" s="28" t="s">
+        <v>1213</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C79" s="19" t="s">
-        <v>552</v>
+        <v>88</v>
       </c>
       <c r="D79" s="18" t="s">
-        <v>1246</v>
+        <v>1200</v>
       </c>
       <c r="E79" s="19"/>
       <c r="F79" t="s">
-        <v>937</v>
+        <v>888</v>
       </c>
     </row>
     <row r="80" spans="1:6">
-      <c r="A80" s="3" t="s">
-        <v>1266</v>
+      <c r="A80" s="28" t="s">
+        <v>1214</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C80" s="19" t="s">
-        <v>97</v>
+        <v>550</v>
       </c>
       <c r="D80" s="18" t="s">
-        <v>1246</v>
+        <v>1179</v>
       </c>
       <c r="E80" s="19"/>
       <c r="F80" t="s">
-        <v>938</v>
+        <v>889</v>
       </c>
     </row>
     <row r="81" spans="1:6">
-      <c r="A81" s="3" t="s">
-        <v>1267</v>
+      <c r="A81" s="28" t="s">
+        <v>1215</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C81" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="D81" s="19"/>
-      <c r="E81" s="19"/>
-      <c r="F81" t="s">
-        <v>939</v>
+      <c r="C81" s="18" t="s">
+        <v>549</v>
+      </c>
+      <c r="D81" s="18" t="s">
+        <v>1200</v>
+      </c>
+      <c r="E81" s="18"/>
+      <c r="F81" s="6" t="s">
+        <v>890</v>
       </c>
     </row>
     <row r="82" spans="1:6">
-      <c r="A82" s="3" t="s">
-        <v>1268</v>
+      <c r="A82" s="28" t="s">
+        <v>1216</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C82" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="D82" s="18"/>
-      <c r="E82" s="18"/>
-      <c r="F82" s="6" t="s">
-        <v>940</v>
+      <c r="C82" s="19" t="s">
+        <v>551</v>
+      </c>
+      <c r="D82" s="18" t="s">
+        <v>1200</v>
+      </c>
+      <c r="E82" s="19"/>
+      <c r="F82" t="s">
+        <v>891</v>
       </c>
     </row>
     <row r="83" spans="1:6">
-      <c r="A83" s="3" t="s">
-        <v>1269</v>
+      <c r="A83" s="28" t="s">
+        <v>1217</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C83" s="26" t="s">
-        <v>553</v>
-      </c>
-      <c r="D83" s="26"/>
-      <c r="E83" s="26"/>
+      <c r="C83" s="19" t="s">
+        <v>552</v>
+      </c>
+      <c r="D83" s="18" t="s">
+        <v>1200</v>
+      </c>
+      <c r="E83" s="19"/>
       <c r="F83" t="s">
-        <v>941</v>
+        <v>892</v>
       </c>
     </row>
     <row r="84" spans="1:6">
-      <c r="A84" s="3" t="s">
-        <v>634</v>
+      <c r="A84" s="28" t="s">
+        <v>1218</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C84" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="D84" s="19"/>
+        <v>97</v>
+      </c>
+      <c r="D84" s="18" t="s">
+        <v>1200</v>
+      </c>
       <c r="E84" s="19"/>
       <c r="F84" t="s">
-        <v>942</v>
+        <v>893</v>
       </c>
     </row>
     <row r="85" spans="1:6">
-      <c r="A85" s="3" t="s">
-        <v>635</v>
+      <c r="A85" s="28" t="s">
+        <v>1219</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C85" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="D85" s="19"/>
+        <v>98</v>
+      </c>
+      <c r="D85" s="18" t="s">
+        <v>1200</v>
+      </c>
       <c r="E85" s="19"/>
       <c r="F85" t="s">
-        <v>943</v>
+        <v>894</v>
       </c>
     </row>
     <row r="86" spans="1:6">
-      <c r="A86" s="3" t="s">
-        <v>636</v>
+      <c r="A86" s="28" t="s">
+        <v>1220</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C86" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="D86" s="19"/>
-      <c r="E86" s="19"/>
-      <c r="F86" t="s">
-        <v>944</v>
+      <c r="C86" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="D86" s="18" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E86" s="18"/>
+      <c r="F86" s="6" t="s">
+        <v>895</v>
       </c>
     </row>
     <row r="87" spans="1:6">
-      <c r="A87" s="3" t="s">
-        <v>637</v>
+      <c r="A87" s="28" t="s">
+        <v>1298</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>627</v>
+        <v>1180</v>
       </c>
       <c r="C87" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="D87" s="18"/>
+        <v>104</v>
+      </c>
+      <c r="D87" s="18" t="s">
+        <v>1184</v>
+      </c>
       <c r="E87" s="18"/>
-      <c r="F87" t="s">
-        <v>945</v>
-      </c>
+      <c r="F87" s="6"/>
     </row>
     <row r="88" spans="1:6">
-      <c r="A88" s="3" t="s">
-        <v>638</v>
+      <c r="A88" s="28" t="s">
+        <v>1221</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C88" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="D88" s="19"/>
-      <c r="E88" s="19"/>
+      <c r="C88" s="26" t="s">
+        <v>553</v>
+      </c>
+      <c r="D88" s="26" t="s">
+        <v>633</v>
+      </c>
+      <c r="E88" s="26"/>
       <c r="F88" t="s">
-        <v>946</v>
+        <v>896</v>
       </c>
     </row>
     <row r="89" spans="1:6">
-      <c r="A89" s="3" t="s">
-        <v>639</v>
+      <c r="A89" s="28" t="s">
+        <v>1299</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>627</v>
-      </c>
-      <c r="C89" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="D89" s="19"/>
-      <c r="E89" s="19"/>
-      <c r="F89" t="s">
-        <v>947</v>
-      </c>
+        <v>1180</v>
+      </c>
+      <c r="C89" s="26" t="s">
+        <v>553</v>
+      </c>
+      <c r="D89" s="26" t="s">
+        <v>1184</v>
+      </c>
+      <c r="E89" s="26"/>
     </row>
     <row r="90" spans="1:6">
-      <c r="A90" s="3" t="s">
-        <v>640</v>
+      <c r="A90" s="28" t="s">
+        <v>1228</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C90" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="D90" s="18"/>
-      <c r="E90" s="18"/>
-      <c r="F90" s="6" t="s">
-        <v>948</v>
+      <c r="C90" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="D90" s="18" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E90" s="19"/>
+      <c r="F90" t="s">
+        <v>897</v>
       </c>
     </row>
     <row r="91" spans="1:6">
-      <c r="A91" s="3" t="s">
-        <v>641</v>
+      <c r="A91" s="28" t="s">
+        <v>1300</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>627</v>
-      </c>
-      <c r="C91" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="D91" s="18"/>
-      <c r="E91" s="18"/>
-      <c r="F91" s="6" t="s">
-        <v>949</v>
-      </c>
+        <v>1180</v>
+      </c>
+      <c r="C91" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="D91" s="18" t="s">
+        <v>1184</v>
+      </c>
+      <c r="E91" s="19"/>
     </row>
     <row r="92" spans="1:6">
-      <c r="A92" s="3" t="s">
-        <v>642</v>
+      <c r="A92" s="28" t="s">
+        <v>1229</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C92" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="D92" s="19"/>
+        <v>107</v>
+      </c>
+      <c r="D92" s="18" t="s">
+        <v>1200</v>
+      </c>
       <c r="E92" s="19"/>
       <c r="F92" t="s">
-        <v>950</v>
+        <v>898</v>
       </c>
     </row>
     <row r="93" spans="1:6">
-      <c r="A93" s="3" t="s">
-        <v>643</v>
+      <c r="A93" s="28" t="s">
+        <v>1230</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C93" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="D93" s="18"/>
-      <c r="E93" s="18"/>
+      <c r="C93" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="D93" s="18" t="s">
+        <v>1200</v>
+      </c>
+      <c r="E93" s="19"/>
       <c r="F93" t="s">
-        <v>951</v>
+        <v>899</v>
       </c>
     </row>
     <row r="94" spans="1:6">
-      <c r="A94" s="3" t="s">
-        <v>644</v>
+      <c r="A94" s="28" t="s">
+        <v>1231</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C94" s="19" t="s">
-        <v>169</v>
-      </c>
-      <c r="D94" s="19"/>
-      <c r="E94" s="19"/>
+      <c r="C94" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="D94" s="18" t="s">
+        <v>1200</v>
+      </c>
+      <c r="E94" s="18"/>
       <c r="F94" t="s">
-        <v>952</v>
+        <v>900</v>
       </c>
     </row>
     <row r="95" spans="1:6">
-      <c r="A95" s="3" t="s">
-        <v>645</v>
+      <c r="A95" s="28" t="s">
+        <v>1232</v>
       </c>
       <c r="B95" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C95" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="D95" s="18"/>
-      <c r="E95" s="18"/>
+      <c r="C95" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="D95" s="18" t="s">
+        <v>1200</v>
+      </c>
+      <c r="E95" s="19"/>
       <c r="F95" t="s">
-        <v>953</v>
+        <v>901</v>
       </c>
     </row>
     <row r="96" spans="1:6">
-      <c r="A96" s="3" t="s">
-        <v>646</v>
+      <c r="A96" s="28" t="s">
+        <v>1233</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C96" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="D96" s="19"/>
+        <v>112</v>
+      </c>
+      <c r="D96" s="18" t="s">
+        <v>1200</v>
+      </c>
       <c r="E96" s="19"/>
       <c r="F96" t="s">
-        <v>954</v>
+        <v>902</v>
       </c>
     </row>
     <row r="97" spans="1:6">
-      <c r="A97" s="3" t="s">
-        <v>647</v>
+      <c r="A97" s="28" t="s">
+        <v>1234</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C97" s="26" t="s">
-        <v>578</v>
-      </c>
-      <c r="D97" s="26"/>
-      <c r="E97" s="26"/>
-      <c r="F97" t="s">
-        <v>955</v>
+      <c r="C97" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="D97" s="18" t="s">
+        <v>1200</v>
+      </c>
+      <c r="E97" s="18"/>
+      <c r="F97" s="6" t="s">
+        <v>904</v>
       </c>
     </row>
     <row r="98" spans="1:6">
-      <c r="A98" s="3" t="s">
-        <v>648</v>
+      <c r="A98" s="28" t="s">
+        <v>1235</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C98" s="26" t="s">
-        <v>556</v>
-      </c>
-      <c r="D98" s="26"/>
-      <c r="E98" s="26"/>
+      <c r="C98" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="D98" s="18" t="s">
+        <v>1200</v>
+      </c>
+      <c r="E98" s="19"/>
       <c r="F98" t="s">
-        <v>956</v>
+        <v>905</v>
       </c>
     </row>
     <row r="99" spans="1:6">
-      <c r="A99" s="3" t="s">
-        <v>649</v>
+      <c r="A99" s="28" t="s">
+        <v>1236</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C99" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="D99" s="19"/>
-      <c r="E99" s="19"/>
+      <c r="C99" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="D99" s="18" t="s">
+        <v>1200</v>
+      </c>
+      <c r="E99" s="18"/>
       <c r="F99" t="s">
-        <v>957</v>
+        <v>906</v>
       </c>
     </row>
     <row r="100" spans="1:6">
-      <c r="A100" s="3" t="s">
-        <v>650</v>
+      <c r="A100" s="28" t="s">
+        <v>1237</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C100" s="19" t="s">
-        <v>567</v>
-      </c>
-      <c r="D100" s="19"/>
+        <v>169</v>
+      </c>
+      <c r="D100" s="18" t="s">
+        <v>1200</v>
+      </c>
       <c r="E100" s="19"/>
       <c r="F100" t="s">
-        <v>958</v>
+        <v>907</v>
       </c>
     </row>
     <row r="101" spans="1:6">
-      <c r="A101" s="3" t="s">
-        <v>651</v>
+      <c r="A101" s="28" t="s">
+        <v>1238</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C101" s="19" t="s">
-        <v>569</v>
-      </c>
-      <c r="D101" s="19"/>
-      <c r="E101" s="19"/>
+      <c r="C101" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="D101" s="18" t="s">
+        <v>1200</v>
+      </c>
+      <c r="E101" s="18"/>
       <c r="F101" t="s">
-        <v>959</v>
+        <v>908</v>
       </c>
     </row>
     <row r="102" spans="1:6">
-      <c r="A102" s="3" t="s">
-        <v>652</v>
+      <c r="A102" s="28" t="s">
+        <v>1239</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C102" s="19" t="s">
-        <v>579</v>
-      </c>
-      <c r="D102" s="19"/>
+        <v>133</v>
+      </c>
+      <c r="D102" s="18" t="s">
+        <v>1200</v>
+      </c>
       <c r="E102" s="19"/>
       <c r="F102" t="s">
-        <v>960</v>
+        <v>909</v>
       </c>
     </row>
     <row r="103" spans="1:6">
-      <c r="A103" s="3" t="s">
-        <v>653</v>
+      <c r="A103" s="28" t="s">
+        <v>1240</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C103" s="19" t="s">
-        <v>580</v>
-      </c>
-      <c r="D103" s="19"/>
-      <c r="E103" s="19"/>
+      <c r="C103" s="26" t="s">
+        <v>578</v>
+      </c>
+      <c r="D103" s="18" t="s">
+        <v>1200</v>
+      </c>
+      <c r="E103" s="26"/>
       <c r="F103" t="s">
-        <v>961</v>
+        <v>910</v>
       </c>
     </row>
     <row r="104" spans="1:6">
-      <c r="A104" s="3" t="s">
-        <v>654</v>
+      <c r="A104" s="28" t="s">
+        <v>1241</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C104" s="26" t="s">
-        <v>539</v>
-      </c>
-      <c r="D104" s="26"/>
+        <v>556</v>
+      </c>
+      <c r="D104" s="18" t="s">
+        <v>1200</v>
+      </c>
       <c r="E104" s="26"/>
       <c r="F104" t="s">
-        <v>962</v>
+        <v>911</v>
       </c>
     </row>
     <row r="105" spans="1:6">
-      <c r="A105" s="3" t="s">
-        <v>655</v>
+      <c r="A105" s="28" t="s">
+        <v>1242</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C105" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="D105" s="19"/>
+        <v>135</v>
+      </c>
+      <c r="D105" s="18" t="s">
+        <v>1200</v>
+      </c>
       <c r="E105" s="19"/>
       <c r="F105" t="s">
-        <v>963</v>
+        <v>912</v>
       </c>
     </row>
     <row r="106" spans="1:6">
-      <c r="A106" s="3" t="s">
-        <v>656</v>
+      <c r="A106" s="28" t="s">
+        <v>1243</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C106" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="D106" s="19"/>
+        <v>567</v>
+      </c>
+      <c r="D106" s="18" t="s">
+        <v>1200</v>
+      </c>
       <c r="E106" s="19"/>
       <c r="F106" t="s">
-        <v>964</v>
+        <v>913</v>
       </c>
     </row>
     <row r="107" spans="1:6">
-      <c r="A107" s="3" t="s">
-        <v>657</v>
+      <c r="A107" s="28" t="s">
+        <v>1244</v>
       </c>
       <c r="B107" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C107" s="26" t="s">
-        <v>581</v>
-      </c>
-      <c r="D107" s="26"/>
-      <c r="E107" s="26"/>
+      <c r="C107" s="19" t="s">
+        <v>569</v>
+      </c>
+      <c r="D107" s="18" t="s">
+        <v>1200</v>
+      </c>
+      <c r="E107" s="19"/>
       <c r="F107" t="s">
-        <v>965</v>
+        <v>914</v>
       </c>
     </row>
     <row r="108" spans="1:6">
-      <c r="A108" s="3" t="s">
-        <v>658</v>
+      <c r="A108" s="28" t="s">
+        <v>1245</v>
       </c>
       <c r="B108" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C108" s="19" t="s">
-        <v>531</v>
-      </c>
-      <c r="D108" s="19"/>
+        <v>579</v>
+      </c>
+      <c r="D108" s="18" t="s">
+        <v>1200</v>
+      </c>
       <c r="E108" s="19"/>
       <c r="F108" t="s">
-        <v>966</v>
+        <v>915</v>
       </c>
     </row>
     <row r="109" spans="1:6">
-      <c r="A109" s="3" t="s">
-        <v>659</v>
+      <c r="A109" s="28" t="s">
+        <v>1246</v>
       </c>
       <c r="B109" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C109" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="D109" s="19"/>
+        <v>580</v>
+      </c>
+      <c r="D109" s="18" t="s">
+        <v>1200</v>
+      </c>
       <c r="E109" s="19"/>
       <c r="F109" t="s">
-        <v>967</v>
+        <v>916</v>
       </c>
     </row>
     <row r="110" spans="1:6">
-      <c r="A110" s="3" t="s">
-        <v>660</v>
+      <c r="A110" s="28" t="s">
+        <v>1247</v>
       </c>
       <c r="B110" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C110" s="26" t="s">
-        <v>582</v>
-      </c>
-      <c r="D110" s="26"/>
+        <v>539</v>
+      </c>
+      <c r="D110" s="18" t="s">
+        <v>1200</v>
+      </c>
       <c r="E110" s="26"/>
       <c r="F110" t="s">
-        <v>968</v>
+        <v>917</v>
       </c>
     </row>
     <row r="111" spans="1:6">
-      <c r="A111" s="3" t="s">
-        <v>661</v>
+      <c r="A111" s="28" t="s">
+        <v>1248</v>
       </c>
       <c r="B111" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C111" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="D111" s="19"/>
+        <v>143</v>
+      </c>
+      <c r="D111" s="18" t="s">
+        <v>1200</v>
+      </c>
       <c r="E111" s="19"/>
       <c r="F111" t="s">
-        <v>969</v>
+        <v>918</v>
       </c>
     </row>
     <row r="112" spans="1:6">
-      <c r="A112" s="3" t="s">
-        <v>662</v>
+      <c r="A112" s="28" t="s">
+        <v>1249</v>
       </c>
       <c r="B112" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C112" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="D112" s="19"/>
+        <v>145</v>
+      </c>
+      <c r="D112" s="18" t="s">
+        <v>1200</v>
+      </c>
       <c r="E112" s="19"/>
       <c r="F112" t="s">
-        <v>970</v>
+        <v>919</v>
       </c>
     </row>
     <row r="113" spans="1:6">
-      <c r="A113" s="3" t="s">
-        <v>663</v>
+      <c r="A113" s="28" t="s">
+        <v>1250</v>
       </c>
       <c r="B113" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C113" s="26" t="s">
-        <v>140</v>
-      </c>
-      <c r="D113" s="26"/>
+        <v>581</v>
+      </c>
+      <c r="D113" s="18" t="s">
+        <v>1200</v>
+      </c>
       <c r="E113" s="26"/>
       <c r="F113" t="s">
-        <v>971</v>
+        <v>920</v>
       </c>
     </row>
     <row r="114" spans="1:6">
-      <c r="A114" s="3" t="s">
-        <v>664</v>
+      <c r="A114" s="28" t="s">
+        <v>1251</v>
       </c>
       <c r="B114" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C114" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="D114" s="19"/>
+        <v>531</v>
+      </c>
+      <c r="D114" s="18" t="s">
+        <v>1200</v>
+      </c>
       <c r="E114" s="19"/>
       <c r="F114" t="s">
-        <v>972</v>
+        <v>921</v>
       </c>
     </row>
     <row r="115" spans="1:6">
-      <c r="A115" s="3" t="s">
-        <v>665</v>
+      <c r="A115" s="28" t="s">
+        <v>1252</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C115" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="D115" s="19"/>
-      <c r="E115" s="19"/>
+      <c r="C115" s="26" t="s">
+        <v>582</v>
+      </c>
+      <c r="D115" s="18" t="s">
+        <v>1200</v>
+      </c>
+      <c r="E115" s="26"/>
       <c r="F115" t="s">
-        <v>973</v>
+        <v>923</v>
       </c>
     </row>
     <row r="116" spans="1:6">
-      <c r="A116" s="3" t="s">
-        <v>666</v>
+      <c r="A116" s="28" t="s">
+        <v>1253</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C116" s="26" t="s">
-        <v>527</v>
-      </c>
-      <c r="D116" s="26"/>
-      <c r="E116" s="26"/>
+      <c r="C116" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="D116" s="18" t="s">
+        <v>1200</v>
+      </c>
+      <c r="E116" s="19"/>
       <c r="F116" t="s">
-        <v>974</v>
+        <v>924</v>
       </c>
     </row>
     <row r="117" spans="1:6">
-      <c r="A117" s="3" t="s">
-        <v>667</v>
+      <c r="A117" s="28" t="s">
+        <v>1254</v>
       </c>
       <c r="B117" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C117" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="D117" s="19"/>
+        <v>139</v>
+      </c>
+      <c r="D117" s="18" t="s">
+        <v>1200</v>
+      </c>
       <c r="E117" s="19"/>
       <c r="F117" t="s">
-        <v>975</v>
+        <v>925</v>
       </c>
     </row>
     <row r="118" spans="1:6">
-      <c r="A118" s="3" t="s">
-        <v>668</v>
+      <c r="A118" s="28" t="s">
+        <v>1255</v>
       </c>
       <c r="B118" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C118" s="19" t="s">
-        <v>525</v>
-      </c>
-      <c r="D118" s="19"/>
-      <c r="E118" s="19"/>
+      <c r="C118" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="D118" s="18" t="s">
+        <v>1200</v>
+      </c>
+      <c r="E118" s="26"/>
       <c r="F118" t="s">
-        <v>976</v>
+        <v>926</v>
       </c>
     </row>
     <row r="119" spans="1:6">
-      <c r="A119" s="3" t="s">
-        <v>669</v>
+      <c r="A119" s="28" t="s">
+        <v>1256</v>
       </c>
       <c r="B119" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C119" s="26" t="s">
-        <v>583</v>
-      </c>
-      <c r="D119" s="26"/>
-      <c r="E119" s="26"/>
+      <c r="C119" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="D119" s="18" t="s">
+        <v>1200</v>
+      </c>
+      <c r="E119" s="19"/>
       <c r="F119" t="s">
-        <v>977</v>
+        <v>927</v>
       </c>
     </row>
     <row r="120" spans="1:6">
-      <c r="A120" s="3" t="s">
-        <v>670</v>
+      <c r="A120" s="28" t="s">
+        <v>1257</v>
       </c>
       <c r="B120" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C120" s="26" t="s">
-        <v>571</v>
-      </c>
-      <c r="D120" s="26"/>
-      <c r="E120" s="26"/>
+      <c r="C120" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="D120" s="18" t="s">
+        <v>1200</v>
+      </c>
+      <c r="E120" s="19"/>
       <c r="F120" t="s">
-        <v>978</v>
+        <v>928</v>
       </c>
     </row>
     <row r="121" spans="1:6">
-      <c r="A121" s="3" t="s">
-        <v>671</v>
+      <c r="A121" s="28" t="s">
+        <v>1258</v>
       </c>
       <c r="B121" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C121" s="19" t="s">
-        <v>573</v>
-      </c>
-      <c r="D121" s="19"/>
-      <c r="E121" s="19"/>
+      <c r="C121" s="26" t="s">
+        <v>527</v>
+      </c>
+      <c r="D121" s="18" t="s">
+        <v>1200</v>
+      </c>
+      <c r="E121" s="26"/>
       <c r="F121" t="s">
-        <v>979</v>
+        <v>929</v>
       </c>
     </row>
     <row r="122" spans="1:6">
-      <c r="A122" s="3" t="s">
-        <v>672</v>
+      <c r="A122" s="28" t="s">
+        <v>1259</v>
       </c>
       <c r="B122" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C122" s="19" t="s">
-        <v>575</v>
-      </c>
-      <c r="D122" s="19"/>
+        <v>150</v>
+      </c>
+      <c r="D122" s="18" t="s">
+        <v>1200</v>
+      </c>
       <c r="E122" s="19"/>
       <c r="F122" t="s">
-        <v>980</v>
+        <v>930</v>
       </c>
     </row>
     <row r="123" spans="1:6">
-      <c r="A123" s="3" t="s">
-        <v>673</v>
+      <c r="A123" s="28" t="s">
+        <v>1260</v>
       </c>
       <c r="B123" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C123" s="26" t="s">
-        <v>584</v>
-      </c>
-      <c r="D123" s="26"/>
-      <c r="E123" s="26"/>
+      <c r="C123" s="19" t="s">
+        <v>525</v>
+      </c>
+      <c r="D123" s="18" t="s">
+        <v>1200</v>
+      </c>
+      <c r="E123" s="19"/>
       <c r="F123" t="s">
-        <v>981</v>
+        <v>931</v>
       </c>
     </row>
     <row r="124" spans="1:6">
-      <c r="A124" s="3" t="s">
-        <v>674</v>
+      <c r="A124" s="28" t="s">
+        <v>1261</v>
       </c>
       <c r="B124" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C124" s="26" t="s">
-        <v>585</v>
-      </c>
-      <c r="D124" s="26"/>
+        <v>583</v>
+      </c>
+      <c r="D124" s="18" t="s">
+        <v>1200</v>
+      </c>
       <c r="E124" s="26"/>
       <c r="F124" t="s">
-        <v>982</v>
+        <v>932</v>
       </c>
     </row>
     <row r="125" spans="1:6">
-      <c r="A125" s="3" t="s">
-        <v>675</v>
+      <c r="A125" s="28" t="s">
+        <v>1262</v>
       </c>
       <c r="B125" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C125" s="19" t="s">
-        <v>156</v>
-      </c>
-      <c r="D125" s="19"/>
-      <c r="E125" s="19"/>
+      <c r="C125" s="26" t="s">
+        <v>571</v>
+      </c>
+      <c r="D125" s="18" t="s">
+        <v>1200</v>
+      </c>
+      <c r="E125" s="26"/>
       <c r="F125" t="s">
-        <v>983</v>
+        <v>933</v>
       </c>
     </row>
     <row r="126" spans="1:6">
-      <c r="A126" s="3" t="s">
-        <v>676</v>
+      <c r="A126" s="28" t="s">
+        <v>1263</v>
       </c>
       <c r="B126" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C126" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="D126" s="19"/>
+        <v>573</v>
+      </c>
+      <c r="D126" s="18" t="s">
+        <v>1200</v>
+      </c>
       <c r="E126" s="19"/>
       <c r="F126" t="s">
-        <v>984</v>
+        <v>934</v>
       </c>
     </row>
     <row r="127" spans="1:6">
-      <c r="A127" s="3" t="s">
-        <v>677</v>
+      <c r="A127" s="28" t="s">
+        <v>1264</v>
       </c>
       <c r="B127" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C127" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="D127" s="18"/>
-      <c r="E127" s="18"/>
-      <c r="F127" s="6" t="s">
-        <v>985</v>
+      <c r="C127" s="19" t="s">
+        <v>575</v>
+      </c>
+      <c r="D127" s="18" t="s">
+        <v>1200</v>
+      </c>
+      <c r="E127" s="19"/>
+      <c r="F127" t="s">
+        <v>935</v>
       </c>
     </row>
     <row r="128" spans="1:6">
-      <c r="A128" s="3" t="s">
-        <v>678</v>
+      <c r="A128" s="28" t="s">
+        <v>1265</v>
       </c>
       <c r="B128" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C128" s="26" t="s">
-        <v>595</v>
-      </c>
-      <c r="D128" s="26"/>
+        <v>584</v>
+      </c>
+      <c r="D128" s="18" t="s">
+        <v>1200</v>
+      </c>
       <c r="E128" s="26"/>
       <c r="F128" t="s">
-        <v>986</v>
+        <v>936</v>
       </c>
     </row>
     <row r="129" spans="1:6">
-      <c r="A129" s="3"/>
+      <c r="A129" s="28" t="s">
+        <v>1266</v>
+      </c>
       <c r="B129" s="3" t="s">
-        <v>1274</v>
-      </c>
-      <c r="C129" s="19"/>
+        <v>627</v>
+      </c>
+      <c r="C129" s="26" t="s">
+        <v>585</v>
+      </c>
       <c r="D129" s="18" t="s">
-        <v>1275</v>
+        <v>1200</v>
       </c>
       <c r="E129" s="26"/>
+      <c r="F129" t="s">
+        <v>937</v>
+      </c>
     </row>
     <row r="130" spans="1:6">
-      <c r="A130" s="3" t="s">
-        <v>679</v>
+      <c r="A130" s="28" t="s">
+        <v>1267</v>
       </c>
       <c r="B130" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C130" s="19" t="s">
-        <v>163</v>
-      </c>
-      <c r="D130" s="19"/>
+        <v>156</v>
+      </c>
+      <c r="D130" s="18" t="s">
+        <v>1200</v>
+      </c>
       <c r="E130" s="19"/>
       <c r="F130" t="s">
-        <v>987</v>
+        <v>938</v>
       </c>
     </row>
     <row r="131" spans="1:6">
-      <c r="A131" s="3" t="s">
-        <v>680</v>
+      <c r="A131" s="28" t="s">
+        <v>1268</v>
       </c>
       <c r="B131" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C131" s="26" t="s">
+      <c r="C131" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="D131" s="18" t="s">
+        <v>1200</v>
+      </c>
+      <c r="E131" s="19"/>
+      <c r="F131" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132" s="28" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C132" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="D132" s="18" t="s">
+        <v>1200</v>
+      </c>
+      <c r="E132" s="18"/>
+      <c r="F132" s="6" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133" s="28" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C133" s="26" t="s">
+        <v>595</v>
+      </c>
+      <c r="D133" s="18" t="s">
+        <v>1200</v>
+      </c>
+      <c r="E133" s="26"/>
+      <c r="F133" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134" s="28" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C134" s="19"/>
+      <c r="D134" s="18" t="s">
+        <v>1227</v>
+      </c>
+      <c r="E134" s="26"/>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135" s="28" t="s">
+        <v>634</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C135" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="D135" s="19"/>
+      <c r="E135" s="19"/>
+      <c r="F135" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136" s="28" t="s">
+        <v>635</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C136" s="26" t="s">
         <v>599</v>
       </c>
-      <c r="D131" s="26"/>
-      <c r="E131" s="26"/>
-      <c r="F131" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6">
-      <c r="A132" s="3" t="s">
-        <v>681</v>
-      </c>
-      <c r="B132" s="3" t="s">
-        <v>627</v>
-      </c>
-      <c r="C132" s="19" t="s">
+      <c r="D136" s="26"/>
+      <c r="E136" s="26"/>
+      <c r="F136" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137" s="28" t="s">
+        <v>636</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C137" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="D132" s="19"/>
-      <c r="E132" s="19"/>
-      <c r="F132" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6">
-      <c r="A133" s="3" t="s">
-        <v>682</v>
-      </c>
-      <c r="B133" s="3" t="s">
-        <v>627</v>
-      </c>
-      <c r="C133" s="19" t="s">
+      <c r="D137" s="19"/>
+      <c r="E137" s="19"/>
+      <c r="F137" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138" s="28" t="s">
+        <v>637</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C138" s="19" t="s">
         <v>251</v>
       </c>
-      <c r="D133" s="19"/>
-      <c r="E133" s="19"/>
-      <c r="F133" t="s">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6">
-      <c r="A134" s="3" t="s">
-        <v>683</v>
-      </c>
-      <c r="B134" s="3" t="s">
-        <v>627</v>
-      </c>
-      <c r="C134" s="26" t="s">
+      <c r="D138" s="19"/>
+      <c r="E138" s="19"/>
+      <c r="F138" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139" s="28" t="s">
+        <v>638</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C139" s="26" t="s">
         <v>170</v>
-      </c>
-      <c r="D134" s="26"/>
-      <c r="E134" s="26"/>
-      <c r="F134" t="s">
-        <v>991</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6">
-      <c r="A135" s="3" t="s">
-        <v>684</v>
-      </c>
-      <c r="B135" s="3" t="s">
-        <v>627</v>
-      </c>
-      <c r="C135" s="27" t="s">
-        <v>171</v>
-      </c>
-      <c r="D135" s="27"/>
-      <c r="E135" s="27"/>
-      <c r="F135" t="s">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6">
-      <c r="A136" s="3" t="s">
-        <v>685</v>
-      </c>
-      <c r="B136" s="3" t="s">
-        <v>627</v>
-      </c>
-      <c r="C136" s="19" t="s">
-        <v>172</v>
-      </c>
-      <c r="D136" s="19"/>
-      <c r="E136" s="19"/>
-      <c r="F136" t="s">
-        <v>993</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6">
-      <c r="A137" s="3" t="s">
-        <v>686</v>
-      </c>
-      <c r="B137" s="3" t="s">
-        <v>627</v>
-      </c>
-      <c r="C137" s="26" t="s">
-        <v>601</v>
-      </c>
-      <c r="D137" s="26"/>
-      <c r="E137" s="26"/>
-      <c r="F137" t="s">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6">
-      <c r="A138" s="3" t="s">
-        <v>687</v>
-      </c>
-      <c r="B138" s="3" t="s">
-        <v>627</v>
-      </c>
-      <c r="C138" s="26" t="s">
-        <v>173</v>
-      </c>
-      <c r="D138" s="26"/>
-      <c r="E138" s="26"/>
-      <c r="F138" t="s">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6">
-      <c r="A139" s="3" t="s">
-        <v>688</v>
-      </c>
-      <c r="B139" s="3" t="s">
-        <v>627</v>
-      </c>
-      <c r="C139" s="26" t="s">
-        <v>189</v>
       </c>
       <c r="D139" s="26"/>
       <c r="E139" s="26"/>
       <c r="F139" t="s">
-        <v>996</v>
+        <v>946</v>
       </c>
     </row>
     <row r="140" spans="1:6">
-      <c r="A140" s="3" t="s">
-        <v>689</v>
+      <c r="A140" s="28" t="s">
+        <v>639</v>
       </c>
       <c r="B140" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C140" s="26" t="s">
-        <v>174</v>
-      </c>
-      <c r="D140" s="26"/>
-      <c r="E140" s="26"/>
+      <c r="C140" s="27" t="s">
+        <v>171</v>
+      </c>
+      <c r="D140" s="27"/>
+      <c r="E140" s="27"/>
       <c r="F140" t="s">
-        <v>997</v>
+        <v>947</v>
       </c>
     </row>
     <row r="141" spans="1:6">
-      <c r="A141" s="3" t="s">
-        <v>690</v>
+      <c r="A141" s="28" t="s">
+        <v>640</v>
       </c>
       <c r="B141" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C141" s="26" t="s">
-        <v>176</v>
-      </c>
-      <c r="D141" s="26"/>
-      <c r="E141" s="26"/>
+      <c r="C141" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="D141" s="19"/>
+      <c r="E141" s="19"/>
       <c r="F141" t="s">
-        <v>998</v>
+        <v>948</v>
       </c>
     </row>
     <row r="142" spans="1:6">
-      <c r="A142" s="3" t="s">
-        <v>691</v>
+      <c r="A142" s="28" t="s">
+        <v>641</v>
       </c>
       <c r="B142" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C142" s="26" t="s">
-        <v>175</v>
+        <v>601</v>
       </c>
       <c r="D142" s="26"/>
       <c r="E142" s="26"/>
       <c r="F142" t="s">
-        <v>999</v>
+        <v>949</v>
       </c>
     </row>
     <row r="143" spans="1:6">
-      <c r="A143" s="3" t="s">
-        <v>692</v>
+      <c r="A143" s="28" t="s">
+        <v>642</v>
       </c>
       <c r="B143" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C143" s="26" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="D143" s="26"/>
       <c r="E143" s="26"/>
       <c r="F143" t="s">
-        <v>1000</v>
+        <v>950</v>
       </c>
     </row>
     <row r="144" spans="1:6">
-      <c r="A144" s="3" t="s">
-        <v>693</v>
+      <c r="A144" s="28" t="s">
+        <v>643</v>
       </c>
       <c r="B144" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C144" s="26" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D144" s="26"/>
       <c r="E144" s="26"/>
       <c r="F144" t="s">
-        <v>1001</v>
+        <v>951</v>
       </c>
     </row>
     <row r="145" spans="1:6">
-      <c r="A145" s="3" t="s">
-        <v>694</v>
+      <c r="A145" s="28" t="s">
+        <v>644</v>
       </c>
       <c r="B145" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C145" s="26" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="D145" s="26"/>
       <c r="E145" s="26"/>
       <c r="F145" t="s">
-        <v>1002</v>
+        <v>952</v>
       </c>
     </row>
     <row r="146" spans="1:6">
-      <c r="A146" s="3" t="s">
-        <v>695</v>
+      <c r="A146" s="28" t="s">
+        <v>645</v>
       </c>
       <c r="B146" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C146" s="19" t="s">
-        <v>186</v>
-      </c>
-      <c r="D146" s="19"/>
-      <c r="E146" s="19"/>
+      <c r="C146" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="D146" s="26"/>
+      <c r="E146" s="26"/>
       <c r="F146" t="s">
-        <v>1003</v>
+        <v>953</v>
       </c>
     </row>
     <row r="147" spans="1:6">
-      <c r="A147" s="3" t="s">
-        <v>696</v>
+      <c r="A147" s="28" t="s">
+        <v>646</v>
       </c>
       <c r="B147" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C147" s="26" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="D147" s="26"/>
       <c r="E147" s="26"/>
       <c r="F147" t="s">
-        <v>1004</v>
+        <v>954</v>
       </c>
     </row>
     <row r="148" spans="1:6">
-      <c r="A148" s="3" t="s">
-        <v>697</v>
+      <c r="A148" s="28" t="s">
+        <v>647</v>
       </c>
       <c r="B148" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C148" s="27" t="s">
-        <v>188</v>
-      </c>
-      <c r="D148" s="27"/>
-      <c r="E148" s="27"/>
+      <c r="C148" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="D148" s="26"/>
+      <c r="E148" s="26"/>
       <c r="F148" t="s">
-        <v>1005</v>
+        <v>955</v>
       </c>
     </row>
     <row r="149" spans="1:6">
-      <c r="A149" s="3" t="s">
-        <v>698</v>
+      <c r="A149" s="28" t="s">
+        <v>648</v>
       </c>
       <c r="B149" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C149" s="26" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="D149" s="26"/>
       <c r="E149" s="26"/>
       <c r="F149" t="s">
-        <v>1006</v>
+        <v>956</v>
       </c>
     </row>
     <row r="150" spans="1:6">
-      <c r="A150" s="3" t="s">
-        <v>699</v>
+      <c r="A150" s="28" t="s">
+        <v>649</v>
       </c>
       <c r="B150" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C150" s="26" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D150" s="26"/>
       <c r="E150" s="26"/>
       <c r="F150" t="s">
-        <v>1007</v>
+        <v>957</v>
       </c>
     </row>
     <row r="151" spans="1:6">
-      <c r="A151" s="3" t="s">
-        <v>700</v>
+      <c r="A151" s="28" t="s">
+        <v>650</v>
       </c>
       <c r="B151" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C151" s="26" t="s">
-        <v>191</v>
-      </c>
-      <c r="D151" s="26"/>
-      <c r="E151" s="26"/>
+      <c r="C151" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="D151" s="19"/>
+      <c r="E151" s="19"/>
       <c r="F151" t="s">
-        <v>1008</v>
+        <v>958</v>
       </c>
     </row>
     <row r="152" spans="1:6">
-      <c r="A152" s="3" t="s">
-        <v>701</v>
+      <c r="A152" s="28" t="s">
+        <v>651</v>
       </c>
       <c r="B152" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C152" s="26" t="s">
-        <v>605</v>
+        <v>187</v>
       </c>
       <c r="D152" s="26"/>
       <c r="E152" s="26"/>
       <c r="F152" t="s">
-        <v>1009</v>
+        <v>959</v>
       </c>
     </row>
     <row r="153" spans="1:6">
-      <c r="A153" s="3" t="s">
-        <v>702</v>
+      <c r="A153" s="28" t="s">
+        <v>652</v>
       </c>
       <c r="B153" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C153" s="19" t="s">
-        <v>603</v>
-      </c>
-      <c r="D153" s="19"/>
-      <c r="E153" s="19"/>
+      <c r="C153" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="D153" s="27"/>
+      <c r="E153" s="27"/>
       <c r="F153" t="s">
-        <v>1010</v>
+        <v>960</v>
       </c>
     </row>
     <row r="154" spans="1:6">
-      <c r="A154" s="3" t="s">
-        <v>703</v>
+      <c r="A154" s="28" t="s">
+        <v>653</v>
       </c>
       <c r="B154" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C154" s="26" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="D154" s="26"/>
       <c r="E154" s="26"/>
       <c r="F154" t="s">
-        <v>1011</v>
+        <v>961</v>
       </c>
     </row>
     <row r="155" spans="1:6">
-      <c r="A155" s="3" t="s">
-        <v>704</v>
+      <c r="A155" s="28" t="s">
+        <v>654</v>
       </c>
       <c r="B155" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C155" s="26" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="D155" s="26"/>
       <c r="E155" s="26"/>
       <c r="F155" t="s">
-        <v>1012</v>
+        <v>962</v>
       </c>
     </row>
     <row r="156" spans="1:6">
-      <c r="A156" s="3" t="s">
-        <v>705</v>
+      <c r="A156" s="28" t="s">
+        <v>655</v>
       </c>
       <c r="B156" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C156" s="19" t="s">
-        <v>207</v>
-      </c>
-      <c r="D156" s="19"/>
-      <c r="E156" s="19"/>
+      <c r="C156" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="D156" s="26"/>
+      <c r="E156" s="26"/>
       <c r="F156" t="s">
-        <v>1013</v>
+        <v>963</v>
       </c>
     </row>
     <row r="157" spans="1:6">
-      <c r="A157" s="3" t="s">
-        <v>706</v>
+      <c r="A157" s="28" t="s">
+        <v>656</v>
       </c>
       <c r="B157" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C157" s="19" t="s">
-        <v>208</v>
-      </c>
-      <c r="D157" s="19"/>
-      <c r="E157" s="19"/>
+      <c r="C157" s="26" t="s">
+        <v>605</v>
+      </c>
+      <c r="D157" s="26"/>
+      <c r="E157" s="26"/>
       <c r="F157" t="s">
-        <v>1014</v>
+        <v>964</v>
       </c>
     </row>
     <row r="158" spans="1:6">
-      <c r="A158" s="3" t="s">
-        <v>707</v>
+      <c r="A158" s="28" t="s">
+        <v>657</v>
       </c>
       <c r="B158" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C158" s="18" t="s">
-        <v>209</v>
-      </c>
-      <c r="D158" s="18"/>
-      <c r="E158" s="18"/>
-      <c r="F158" s="6" t="s">
-        <v>1015</v>
+      <c r="C158" s="19" t="s">
+        <v>603</v>
+      </c>
+      <c r="D158" s="19"/>
+      <c r="E158" s="19"/>
+      <c r="F158" t="s">
+        <v>965</v>
       </c>
     </row>
     <row r="159" spans="1:6">
-      <c r="A159" s="3" t="s">
-        <v>708</v>
+      <c r="A159" s="28" t="s">
+        <v>658</v>
       </c>
       <c r="B159" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C159" s="18" t="s">
-        <v>210</v>
-      </c>
-      <c r="D159" s="18"/>
-      <c r="E159" s="18"/>
-      <c r="F159" s="6" t="s">
-        <v>1016</v>
+      <c r="C159" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="D159" s="26"/>
+      <c r="E159" s="26"/>
+      <c r="F159" t="s">
+        <v>966</v>
       </c>
     </row>
     <row r="160" spans="1:6">
-      <c r="A160" s="3" t="s">
-        <v>709</v>
+      <c r="A160" s="28" t="s">
+        <v>659</v>
       </c>
       <c r="B160" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C160" s="26" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D160" s="26"/>
       <c r="E160" s="26"/>
       <c r="F160" t="s">
-        <v>1017</v>
+        <v>967</v>
       </c>
     </row>
     <row r="161" spans="1:6">
-      <c r="A161" s="3" t="s">
-        <v>710</v>
+      <c r="A161" s="28" t="s">
+        <v>660</v>
       </c>
       <c r="B161" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C161" s="27" t="s">
-        <v>212</v>
-      </c>
-      <c r="D161" s="27"/>
-      <c r="E161" s="27"/>
+      <c r="C161" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="D161" s="19"/>
+      <c r="E161" s="19"/>
       <c r="F161" t="s">
-        <v>1018</v>
+        <v>968</v>
       </c>
     </row>
     <row r="162" spans="1:6">
-      <c r="A162" s="3" t="s">
-        <v>711</v>
+      <c r="A162" s="28" t="s">
+        <v>661</v>
       </c>
       <c r="B162" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C162" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="D162" s="26"/>
-      <c r="E162" s="26"/>
+      <c r="C162" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="D162" s="19"/>
+      <c r="E162" s="19"/>
       <c r="F162" t="s">
-        <v>1019</v>
+        <v>969</v>
       </c>
     </row>
     <row r="163" spans="1:6">
-      <c r="A163" s="3" t="s">
-        <v>712</v>
+      <c r="A163" s="28" t="s">
+        <v>662</v>
       </c>
       <c r="B163" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C163" s="26" t="s">
-        <v>214</v>
-      </c>
-      <c r="D163" s="26"/>
-      <c r="E163" s="26"/>
+      <c r="C163" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="D163" s="18"/>
+      <c r="E163" s="18"/>
       <c r="F163" s="6" t="s">
-        <v>1020</v>
+        <v>970</v>
       </c>
     </row>
     <row r="164" spans="1:6">
-      <c r="A164" s="3" t="s">
-        <v>713</v>
+      <c r="A164" s="28" t="s">
+        <v>663</v>
       </c>
       <c r="B164" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C164" s="26" t="s">
-        <v>215</v>
-      </c>
-      <c r="D164" s="26"/>
-      <c r="E164" s="26"/>
+      <c r="C164" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="D164" s="18"/>
+      <c r="E164" s="18"/>
       <c r="F164" s="6" t="s">
-        <v>1021</v>
+        <v>971</v>
       </c>
     </row>
     <row r="165" spans="1:6">
-      <c r="A165" s="3" t="s">
-        <v>714</v>
+      <c r="A165" s="28" t="s">
+        <v>664</v>
       </c>
       <c r="B165" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C165" s="26" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="D165" s="26"/>
       <c r="E165" s="26"/>
-      <c r="F165" s="6" t="s">
-        <v>1022</v>
+      <c r="F165" t="s">
+        <v>972</v>
       </c>
     </row>
     <row r="166" spans="1:6">
-      <c r="A166" s="3" t="s">
-        <v>715</v>
+      <c r="A166" s="28" t="s">
+        <v>665</v>
       </c>
       <c r="B166" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C166" s="26" t="s">
-        <v>216</v>
-      </c>
-      <c r="D166" s="26"/>
-      <c r="E166" s="26"/>
+      <c r="C166" s="27" t="s">
+        <v>212</v>
+      </c>
+      <c r="D166" s="27"/>
+      <c r="E166" s="27"/>
       <c r="F166" t="s">
-        <v>1023</v>
+        <v>973</v>
       </c>
     </row>
     <row r="167" spans="1:6">
-      <c r="A167" s="3" t="s">
-        <v>716</v>
+      <c r="A167" s="28" t="s">
+        <v>666</v>
       </c>
       <c r="B167" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C167" s="26" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D167" s="26"/>
       <c r="E167" s="26"/>
       <c r="F167" t="s">
-        <v>1024</v>
+        <v>974</v>
       </c>
     </row>
     <row r="168" spans="1:6">
-      <c r="A168" s="3" t="s">
-        <v>717</v>
+      <c r="A168" s="28" t="s">
+        <v>667</v>
       </c>
       <c r="B168" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C168" s="26" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
       <c r="D168" s="26"/>
       <c r="E168" s="26"/>
-      <c r="F168" t="s">
-        <v>1025</v>
+      <c r="F168" s="6" t="s">
+        <v>975</v>
       </c>
     </row>
     <row r="169" spans="1:6">
-      <c r="A169" s="3" t="s">
-        <v>718</v>
+      <c r="A169" s="28" t="s">
+        <v>668</v>
       </c>
       <c r="B169" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C169" s="26" t="s">
-        <v>607</v>
+        <v>215</v>
       </c>
       <c r="D169" s="26"/>
       <c r="E169" s="26"/>
-      <c r="F169" t="s">
-        <v>1026</v>
+      <c r="F169" s="6" t="s">
+        <v>976</v>
       </c>
     </row>
     <row r="170" spans="1:6">
-      <c r="A170" s="3" t="s">
-        <v>719</v>
+      <c r="A170" s="28" t="s">
+        <v>669</v>
       </c>
       <c r="B170" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C170" s="27" t="s">
-        <v>609</v>
-      </c>
-      <c r="D170" s="27"/>
-      <c r="E170" s="27"/>
-      <c r="F170" t="s">
-        <v>1027</v>
+      <c r="C170" s="26" t="s">
+        <v>218</v>
+      </c>
+      <c r="D170" s="26"/>
+      <c r="E170" s="26"/>
+      <c r="F170" s="6" t="s">
+        <v>977</v>
       </c>
     </row>
     <row r="171" spans="1:6">
-      <c r="A171" s="3" t="s">
-        <v>720</v>
+      <c r="A171" s="28" t="s">
+        <v>670</v>
       </c>
       <c r="B171" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C171" s="26" t="s">
-        <v>535</v>
+        <v>216</v>
       </c>
       <c r="D171" s="26"/>
       <c r="E171" s="26"/>
       <c r="F171" t="s">
-        <v>1028</v>
+        <v>978</v>
       </c>
     </row>
     <row r="172" spans="1:6">
-      <c r="A172" s="3" t="s">
-        <v>721</v>
+      <c r="A172" s="28" t="s">
+        <v>671</v>
       </c>
       <c r="B172" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C172" s="26" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
       <c r="D172" s="26"/>
       <c r="E172" s="26"/>
       <c r="F172" t="s">
-        <v>1029</v>
+        <v>979</v>
       </c>
     </row>
     <row r="173" spans="1:6">
-      <c r="A173" s="3" t="s">
-        <v>722</v>
+      <c r="A173" s="28" t="s">
+        <v>1291</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>627</v>
-      </c>
-      <c r="C173" s="19" t="s">
-        <v>237</v>
-      </c>
-      <c r="D173" s="19"/>
-      <c r="E173" s="19"/>
-      <c r="F173" t="s">
-        <v>1030</v>
-      </c>
+        <v>1226</v>
+      </c>
+      <c r="D173" s="26" t="s">
+        <v>1278</v>
+      </c>
+      <c r="E173" s="26"/>
     </row>
     <row r="174" spans="1:6">
-      <c r="A174" s="3" t="s">
-        <v>723</v>
+      <c r="A174" s="28" t="s">
+        <v>672</v>
       </c>
       <c r="B174" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C174" s="18" t="s">
-        <v>611</v>
-      </c>
-      <c r="D174" s="18"/>
-      <c r="E174" s="18"/>
+      <c r="C174" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="D174" s="26"/>
+      <c r="E174" s="26"/>
       <c r="F174" t="s">
-        <v>1031</v>
+        <v>980</v>
       </c>
     </row>
     <row r="175" spans="1:6">
-      <c r="A175" s="3" t="s">
-        <v>724</v>
+      <c r="A175" s="28" t="s">
+        <v>673</v>
       </c>
       <c r="B175" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C175" s="26" t="s">
-        <v>241</v>
+        <v>607</v>
       </c>
       <c r="D175" s="26"/>
       <c r="E175" s="26"/>
       <c r="F175" t="s">
-        <v>1032</v>
+        <v>981</v>
       </c>
     </row>
     <row r="176" spans="1:6">
-      <c r="A176" s="3" t="s">
-        <v>725</v>
+      <c r="A176" s="28" t="s">
+        <v>674</v>
       </c>
       <c r="B176" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C176" s="19" t="s">
+      <c r="C176" s="27" t="s">
+        <v>609</v>
+      </c>
+      <c r="D176" s="27"/>
+      <c r="E176" s="27"/>
+      <c r="F176" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
+      <c r="A177" s="28" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C177" s="27"/>
+      <c r="D177" s="27" t="s">
+        <v>1279</v>
+      </c>
+      <c r="E177" s="27"/>
+    </row>
+    <row r="178" spans="1:6">
+      <c r="A178" s="28" t="s">
+        <v>675</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C178" s="26" t="s">
+        <v>535</v>
+      </c>
+      <c r="D178" s="26"/>
+      <c r="E178" s="26"/>
+      <c r="F178" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
+      <c r="A179" s="28" t="s">
+        <v>676</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C179" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="D179" s="26"/>
+      <c r="E179" s="26"/>
+      <c r="F179" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6">
+      <c r="A180" s="28" t="s">
+        <v>677</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C180" s="19" t="s">
+        <v>237</v>
+      </c>
+      <c r="D180" s="19"/>
+      <c r="E180" s="19"/>
+      <c r="F180" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6">
+      <c r="A181" s="28" t="s">
+        <v>678</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C181" s="18" t="s">
+        <v>611</v>
+      </c>
+      <c r="D181" s="18"/>
+      <c r="E181" s="18"/>
+      <c r="F181" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6">
+      <c r="A182" s="28" t="s">
+        <v>679</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C182" s="26" t="s">
+        <v>241</v>
+      </c>
+      <c r="D182" s="26"/>
+      <c r="E182" s="26"/>
+      <c r="F182" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6">
+      <c r="A183" s="28" t="s">
+        <v>680</v>
+      </c>
+      <c r="B183" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C183" s="19" t="s">
         <v>243</v>
-      </c>
-      <c r="D176" s="19"/>
-      <c r="E176" s="19"/>
-      <c r="F176" t="s">
-        <v>1033</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6">
-      <c r="A177" s="3" t="s">
-        <v>726</v>
-      </c>
-      <c r="B177" s="3" t="s">
-        <v>627</v>
-      </c>
-      <c r="C177" s="26" t="s">
-        <v>255</v>
-      </c>
-      <c r="D177" s="26"/>
-      <c r="E177" s="26"/>
-      <c r="F177" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6">
-      <c r="A178" s="3" t="s">
-        <v>727</v>
-      </c>
-      <c r="B178" s="3" t="s">
-        <v>627</v>
-      </c>
-      <c r="C178" s="19" t="s">
-        <v>245</v>
-      </c>
-      <c r="D178" s="19"/>
-      <c r="E178" s="19"/>
-      <c r="F178" t="s">
-        <v>1035</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6">
-      <c r="A179" s="3" t="s">
-        <v>728</v>
-      </c>
-      <c r="B179" s="3" t="s">
-        <v>627</v>
-      </c>
-      <c r="C179" s="19" t="s">
-        <v>246</v>
-      </c>
-      <c r="D179" s="19"/>
-      <c r="E179" s="19"/>
-      <c r="F179" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6">
-      <c r="A180" s="3" t="s">
-        <v>729</v>
-      </c>
-      <c r="B180" s="3" t="s">
-        <v>627</v>
-      </c>
-      <c r="C180" s="27" t="s">
-        <v>249</v>
-      </c>
-      <c r="D180" s="27"/>
-      <c r="E180" s="27"/>
-      <c r="F180" t="s">
-        <v>1037</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6">
-      <c r="A181" s="3" t="s">
-        <v>730</v>
-      </c>
-      <c r="B181" s="3" t="s">
-        <v>627</v>
-      </c>
-      <c r="C181" s="19" t="s">
-        <v>253</v>
-      </c>
-      <c r="D181" s="19"/>
-      <c r="E181" s="19"/>
-      <c r="F181" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6">
-      <c r="A182" s="3" t="s">
-        <v>731</v>
-      </c>
-      <c r="B182" s="3" t="s">
-        <v>627</v>
-      </c>
-      <c r="C182" s="18" t="s">
-        <v>239</v>
-      </c>
-      <c r="D182" s="18"/>
-      <c r="E182" s="18"/>
-      <c r="F182" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6">
-      <c r="A183" s="3" t="s">
-        <v>732</v>
-      </c>
-      <c r="B183" s="3" t="s">
-        <v>627</v>
-      </c>
-      <c r="C183" s="19" t="s">
-        <v>256</v>
       </c>
       <c r="D183" s="19"/>
       <c r="E183" s="19"/>
       <c r="F183" t="s">
-        <v>1040</v>
+        <v>988</v>
       </c>
     </row>
     <row r="184" spans="1:6">
-      <c r="A184" s="3" t="s">
-        <v>733</v>
+      <c r="A184" s="28" t="s">
+        <v>681</v>
       </c>
       <c r="B184" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C184" s="19" t="s">
-        <v>257</v>
-      </c>
-      <c r="D184" s="19"/>
-      <c r="E184" s="19"/>
+      <c r="C184" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="D184" s="26"/>
+      <c r="E184" s="26"/>
       <c r="F184" t="s">
-        <v>1041</v>
+        <v>989</v>
       </c>
     </row>
     <row r="185" spans="1:6">
-      <c r="A185" s="3" t="s">
-        <v>734</v>
+      <c r="A185" s="28" t="s">
+        <v>682</v>
       </c>
       <c r="B185" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C185" s="19" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="D185" s="19"/>
       <c r="E185" s="19"/>
       <c r="F185" t="s">
-        <v>1042</v>
+        <v>990</v>
       </c>
     </row>
     <row r="186" spans="1:6">
-      <c r="A186" s="3" t="s">
-        <v>735</v>
+      <c r="A186" s="28" t="s">
+        <v>683</v>
       </c>
       <c r="B186" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C186" s="26" t="s">
-        <v>613</v>
-      </c>
-      <c r="D186" s="26"/>
-      <c r="E186" s="26"/>
+      <c r="C186" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="D186" s="19"/>
+      <c r="E186" s="19"/>
       <c r="F186" t="s">
-        <v>1043</v>
+        <v>991</v>
       </c>
     </row>
     <row r="187" spans="1:6">
-      <c r="A187" s="3" t="s">
-        <v>736</v>
+      <c r="A187" s="28" t="s">
+        <v>684</v>
       </c>
       <c r="B187" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C187" s="19" t="s">
-        <v>615</v>
-      </c>
-      <c r="D187" s="19"/>
-      <c r="E187" s="19"/>
+      <c r="C187" s="27" t="s">
+        <v>249</v>
+      </c>
+      <c r="D187" s="27"/>
+      <c r="E187" s="27"/>
       <c r="F187" t="s">
-        <v>1044</v>
+        <v>992</v>
       </c>
     </row>
     <row r="188" spans="1:6">
-      <c r="A188" s="3" t="s">
-        <v>737</v>
+      <c r="A188" s="28" t="s">
+        <v>685</v>
       </c>
       <c r="B188" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C188" s="19" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="D188" s="19"/>
       <c r="E188" s="19"/>
       <c r="F188" t="s">
-        <v>1045</v>
+        <v>993</v>
       </c>
     </row>
     <row r="189" spans="1:6">
-      <c r="A189" s="3" t="s">
-        <v>738</v>
+      <c r="A189" s="28" t="s">
+        <v>686</v>
       </c>
       <c r="B189" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C189" s="18" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
       <c r="D189" s="18"/>
       <c r="E189" s="18"/>
       <c r="F189" t="s">
-        <v>1046</v>
+        <v>994</v>
       </c>
     </row>
     <row r="190" spans="1:6">
-      <c r="A190" s="3" t="s">
-        <v>739</v>
+      <c r="A190" s="28" t="s">
+        <v>687</v>
       </c>
       <c r="B190" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C190" s="19" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="D190" s="19"/>
       <c r="E190" s="19"/>
       <c r="F190" t="s">
-        <v>1047</v>
+        <v>995</v>
       </c>
     </row>
     <row r="191" spans="1:6">
-      <c r="A191" s="3" t="s">
-        <v>740</v>
+      <c r="A191" s="28" t="s">
+        <v>688</v>
       </c>
       <c r="B191" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C191" s="26" t="s">
-        <v>267</v>
-      </c>
-      <c r="D191" s="26"/>
-      <c r="E191" s="26"/>
+      <c r="C191" s="19" t="s">
+        <v>257</v>
+      </c>
+      <c r="D191" s="19"/>
+      <c r="E191" s="19"/>
       <c r="F191" t="s">
-        <v>1048</v>
+        <v>996</v>
       </c>
     </row>
     <row r="192" spans="1:6">
-      <c r="A192" s="3" t="s">
-        <v>741</v>
+      <c r="A192" s="28" t="s">
+        <v>689</v>
       </c>
       <c r="B192" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C192" s="19" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="D192" s="19"/>
       <c r="E192" s="19"/>
       <c r="F192" t="s">
-        <v>1049</v>
+        <v>997</v>
       </c>
     </row>
     <row r="193" spans="1:6">
-      <c r="A193" s="3" t="s">
-        <v>742</v>
+      <c r="A193" s="28" t="s">
+        <v>690</v>
       </c>
       <c r="B193" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C193" s="26" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="D193" s="26"/>
       <c r="E193" s="26"/>
       <c r="F193" t="s">
-        <v>1050</v>
+        <v>998</v>
       </c>
     </row>
     <row r="194" spans="1:6">
-      <c r="A194" s="3" t="s">
-        <v>743</v>
+      <c r="A194" s="28" t="s">
+        <v>691</v>
       </c>
       <c r="B194" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C194" s="19" t="s">
-        <v>272</v>
+        <v>615</v>
       </c>
       <c r="D194" s="19"/>
       <c r="E194" s="19"/>
       <c r="F194" t="s">
-        <v>1051</v>
+        <v>999</v>
       </c>
     </row>
     <row r="195" spans="1:6">
-      <c r="A195" s="3" t="s">
-        <v>744</v>
+      <c r="A195" s="28" t="s">
+        <v>692</v>
       </c>
       <c r="B195" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C195" s="26" t="s">
-        <v>273</v>
-      </c>
-      <c r="D195" s="26"/>
-      <c r="E195" s="26"/>
+      <c r="C195" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="D195" s="19"/>
+      <c r="E195" s="19"/>
       <c r="F195" t="s">
-        <v>1052</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="196" spans="1:6">
-      <c r="A196" s="3" t="s">
-        <v>745</v>
+      <c r="A196" s="28" t="s">
+        <v>693</v>
       </c>
       <c r="B196" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C196" s="26" t="s">
-        <v>274</v>
-      </c>
-      <c r="D196" s="26"/>
-      <c r="E196" s="26"/>
+      <c r="C196" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="D196" s="18"/>
+      <c r="E196" s="18"/>
       <c r="F196" t="s">
-        <v>1053</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="197" spans="1:6">
-      <c r="A197" s="3" t="s">
-        <v>746</v>
+      <c r="A197" s="28" t="s">
+        <v>694</v>
       </c>
       <c r="B197" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C197" s="19" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="D197" s="19"/>
       <c r="E197" s="19"/>
       <c r="F197" t="s">
-        <v>1054</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="198" spans="1:6">
-      <c r="A198" s="3" t="s">
-        <v>747</v>
+      <c r="A198" s="28" t="s">
+        <v>695</v>
       </c>
       <c r="B198" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C198" s="19" t="s">
-        <v>276</v>
-      </c>
-      <c r="D198" s="19"/>
-      <c r="E198" s="19"/>
+      <c r="C198" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="D198" s="26"/>
+      <c r="E198" s="26"/>
       <c r="F198" t="s">
-        <v>1055</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="199" spans="1:6">
-      <c r="A199" s="3" t="s">
-        <v>748</v>
+      <c r="A199" s="28" t="s">
+        <v>696</v>
       </c>
       <c r="B199" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C199" s="26" t="s">
-        <v>277</v>
-      </c>
-      <c r="D199" s="26"/>
-      <c r="E199" s="26"/>
+      <c r="C199" s="19" t="s">
+        <v>271</v>
+      </c>
+      <c r="D199" s="19"/>
+      <c r="E199" s="19"/>
       <c r="F199" t="s">
-        <v>1056</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="200" spans="1:6">
-      <c r="A200" s="3" t="s">
-        <v>749</v>
+      <c r="A200" s="28" t="s">
+        <v>697</v>
       </c>
       <c r="B200" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C200" s="26" t="s">
-        <v>285</v>
+        <v>617</v>
       </c>
       <c r="D200" s="26"/>
       <c r="E200" s="26"/>
       <c r="F200" t="s">
-        <v>1057</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="201" spans="1:6">
-      <c r="A201" s="3" t="s">
-        <v>750</v>
+      <c r="A201" s="28" t="s">
+        <v>1293</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>627</v>
-      </c>
-      <c r="C201" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="D201" s="19"/>
-      <c r="E201" s="19"/>
-      <c r="F201" t="s">
-        <v>1058</v>
-      </c>
+        <v>1226</v>
+      </c>
+      <c r="C201" s="26"/>
+      <c r="D201" s="26" t="s">
+        <v>1280</v>
+      </c>
+      <c r="E201" s="26"/>
     </row>
     <row r="202" spans="1:6">
-      <c r="A202" s="3" t="s">
-        <v>751</v>
+      <c r="A202" s="28" t="s">
+        <v>698</v>
       </c>
       <c r="B202" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C202" s="26" t="s">
-        <v>287</v>
-      </c>
-      <c r="D202" s="26"/>
-      <c r="E202" s="26"/>
+      <c r="C202" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="D202" s="19"/>
+      <c r="E202" s="19"/>
       <c r="F202" t="s">
-        <v>1059</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="203" spans="1:6">
-      <c r="A203" s="3" t="s">
-        <v>752</v>
+      <c r="A203" s="28" t="s">
+        <v>699</v>
       </c>
       <c r="B203" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C203" s="19" t="s">
-        <v>288</v>
-      </c>
-      <c r="D203" s="19"/>
-      <c r="E203" s="19"/>
+      <c r="C203" s="26" t="s">
+        <v>273</v>
+      </c>
+      <c r="D203" s="26"/>
+      <c r="E203" s="26"/>
       <c r="F203" t="s">
-        <v>1060</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="204" spans="1:6">
-      <c r="A204" s="3" t="s">
-        <v>753</v>
+      <c r="A204" s="28" t="s">
+        <v>700</v>
       </c>
       <c r="B204" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C204" s="26" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="D204" s="26"/>
       <c r="E204" s="26"/>
       <c r="F204" t="s">
-        <v>1061</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="205" spans="1:6">
-      <c r="A205" s="3" t="s">
-        <v>754</v>
+      <c r="A205" s="28" t="s">
+        <v>701</v>
       </c>
       <c r="B205" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C205" s="19" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="D205" s="19"/>
       <c r="E205" s="19"/>
       <c r="F205" t="s">
-        <v>1062</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="206" spans="1:6">
-      <c r="A206" s="3" t="s">
-        <v>755</v>
+      <c r="A206" s="28" t="s">
+        <v>702</v>
       </c>
       <c r="B206" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C206" s="19" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="D206" s="19"/>
       <c r="E206" s="19"/>
       <c r="F206" t="s">
-        <v>1063</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="207" spans="1:6">
-      <c r="A207" s="3" t="s">
-        <v>756</v>
+      <c r="A207" s="28" t="s">
+        <v>703</v>
       </c>
       <c r="B207" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C207" s="26" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="D207" s="26"/>
       <c r="E207" s="26"/>
       <c r="F207" t="s">
-        <v>1064</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="208" spans="1:6">
-      <c r="A208" s="3" t="s">
-        <v>757</v>
+      <c r="A208" s="28" t="s">
+        <v>704</v>
       </c>
       <c r="B208" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C208" s="19" t="s">
-        <v>292</v>
-      </c>
-      <c r="D208" s="19"/>
-      <c r="E208" s="19"/>
+      <c r="C208" s="26" t="s">
+        <v>285</v>
+      </c>
+      <c r="D208" s="26"/>
+      <c r="E208" s="26"/>
       <c r="F208" t="s">
-        <v>1065</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="209" spans="1:6">
-      <c r="A209" s="3" t="s">
-        <v>758</v>
+      <c r="A209" s="28" t="s">
+        <v>705</v>
       </c>
       <c r="B209" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C209" s="26" t="s">
-        <v>296</v>
-      </c>
-      <c r="D209" s="26"/>
-      <c r="E209" s="26"/>
+      <c r="C209" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="D209" s="19"/>
+      <c r="E209" s="19"/>
       <c r="F209" t="s">
-        <v>1066</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="210" spans="1:6">
-      <c r="A210" s="3" t="s">
-        <v>759</v>
+      <c r="A210" s="28" t="s">
+        <v>706</v>
       </c>
       <c r="B210" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C210" s="26" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="D210" s="26"/>
       <c r="E210" s="26"/>
       <c r="F210" t="s">
-        <v>1067</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="211" spans="1:6">
-      <c r="A211" s="3" t="s">
-        <v>760</v>
+      <c r="A211" s="28" t="s">
+        <v>707</v>
       </c>
       <c r="B211" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C211" s="27" t="s">
-        <v>294</v>
-      </c>
-      <c r="D211" s="27"/>
-      <c r="E211" s="27"/>
+      <c r="C211" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="D211" s="19"/>
+      <c r="E211" s="19"/>
       <c r="F211" t="s">
-        <v>1068</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="212" spans="1:6">
-      <c r="A212" s="3" t="s">
-        <v>761</v>
+      <c r="A212" s="28" t="s">
+        <v>708</v>
       </c>
       <c r="B212" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C212" s="19" t="s">
-        <v>297</v>
-      </c>
-      <c r="D212" s="19"/>
-      <c r="E212" s="19"/>
+      <c r="C212" s="26" t="s">
+        <v>289</v>
+      </c>
+      <c r="D212" s="26"/>
+      <c r="E212" s="26"/>
       <c r="F212" t="s">
-        <v>1069</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="213" spans="1:6">
-      <c r="A213" s="3" t="s">
-        <v>762</v>
+      <c r="A213" s="28" t="s">
+        <v>709</v>
       </c>
       <c r="B213" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C213" s="19" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="D213" s="19"/>
       <c r="E213" s="19"/>
       <c r="F213" t="s">
-        <v>1070</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="214" spans="1:6">
-      <c r="A214" s="3" t="s">
-        <v>763</v>
+      <c r="A214" s="28" t="s">
+        <v>710</v>
       </c>
       <c r="B214" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C214" s="19" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="D214" s="19"/>
       <c r="E214" s="19"/>
       <c r="F214" t="s">
-        <v>317</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="215" spans="1:6">
-      <c r="A215" s="3" t="s">
-        <v>764</v>
+      <c r="A215" s="28" t="s">
+        <v>711</v>
       </c>
       <c r="B215" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C215" s="19" t="s">
-        <v>300</v>
-      </c>
-      <c r="D215" s="19"/>
-      <c r="E215" s="19"/>
+      <c r="C215" s="26" t="s">
+        <v>293</v>
+      </c>
+      <c r="D215" s="26"/>
+      <c r="E215" s="26"/>
       <c r="F215" t="s">
-        <v>1071</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="216" spans="1:6">
-      <c r="A216" s="3" t="s">
-        <v>765</v>
+      <c r="A216" s="28" t="s">
+        <v>712</v>
       </c>
       <c r="B216" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C216" s="19" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="D216" s="19"/>
       <c r="E216" s="19"/>
       <c r="F216" t="s">
-        <v>1072</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="217" spans="1:6">
-      <c r="A217" s="3" t="s">
-        <v>766</v>
+      <c r="A217" s="28" t="s">
+        <v>713</v>
       </c>
       <c r="B217" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C217" s="26" t="s">
-        <v>345</v>
+        <v>296</v>
       </c>
       <c r="D217" s="26"/>
       <c r="E217" s="26"/>
       <c r="F217" t="s">
-        <v>1073</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="218" spans="1:6">
-      <c r="A218" s="3" t="s">
-        <v>767</v>
+      <c r="A218" s="28" t="s">
+        <v>714</v>
       </c>
       <c r="B218" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C218" s="19" t="s">
-        <v>302</v>
-      </c>
-      <c r="D218" s="19"/>
-      <c r="E218" s="19"/>
+      <c r="C218" s="26" t="s">
+        <v>295</v>
+      </c>
+      <c r="D218" s="26"/>
+      <c r="E218" s="26"/>
       <c r="F218" t="s">
-        <v>1074</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="219" spans="1:6">
-      <c r="A219" s="3" t="s">
-        <v>768</v>
+      <c r="A219" s="28" t="s">
+        <v>715</v>
       </c>
       <c r="B219" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C219" s="19" t="s">
-        <v>321</v>
-      </c>
-      <c r="D219" s="19"/>
-      <c r="E219" s="19"/>
+      <c r="C219" s="27" t="s">
+        <v>294</v>
+      </c>
+      <c r="D219" s="27"/>
+      <c r="E219" s="27"/>
       <c r="F219" t="s">
-        <v>1075</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="220" spans="1:6">
-      <c r="A220" s="3" t="s">
-        <v>769</v>
+      <c r="A220" s="28" t="s">
+        <v>716</v>
       </c>
       <c r="B220" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C220" s="26" t="s">
-        <v>322</v>
-      </c>
-      <c r="D220" s="26"/>
-      <c r="E220" s="26"/>
+      <c r="C220" s="19" t="s">
+        <v>297</v>
+      </c>
+      <c r="D220" s="19"/>
+      <c r="E220" s="19"/>
       <c r="F220" t="s">
-        <v>1076</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="221" spans="1:6">
-      <c r="A221" s="3" t="s">
-        <v>770</v>
+      <c r="A221" s="28" t="s">
+        <v>717</v>
       </c>
       <c r="B221" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C221" s="19" t="s">
-        <v>323</v>
+        <v>298</v>
       </c>
       <c r="D221" s="19"/>
       <c r="E221" s="19"/>
       <c r="F221" t="s">
-        <v>1077</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="222" spans="1:6">
-      <c r="A222" s="3" t="s">
-        <v>771</v>
+      <c r="A222" s="28" t="s">
+        <v>718</v>
       </c>
       <c r="B222" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C222" s="26" t="s">
-        <v>519</v>
-      </c>
-      <c r="D222" s="26"/>
-      <c r="E222" s="26"/>
-      <c r="F222" s="6" t="s">
-        <v>1078</v>
+      <c r="C222" s="19" t="s">
+        <v>299</v>
+      </c>
+      <c r="D222" s="19"/>
+      <c r="E222" s="19"/>
+      <c r="F222" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="223" spans="1:6">
-      <c r="A223" s="3" t="s">
-        <v>772</v>
+      <c r="A223" s="28" t="s">
+        <v>719</v>
       </c>
       <c r="B223" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C223" s="26" t="s">
-        <v>521</v>
-      </c>
-      <c r="D223" s="26"/>
-      <c r="E223" s="26"/>
-      <c r="F223" s="6" t="s">
-        <v>1079</v>
+      <c r="C223" s="19" t="s">
+        <v>300</v>
+      </c>
+      <c r="D223" s="19"/>
+      <c r="E223" s="19"/>
+      <c r="F223" t="s">
+        <v>1026</v>
       </c>
     </row>
     <row r="224" spans="1:6">
-      <c r="A224" s="3" t="s">
-        <v>773</v>
+      <c r="A224" s="28" t="s">
+        <v>720</v>
       </c>
       <c r="B224" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C224" s="19" t="s">
-        <v>324</v>
+        <v>301</v>
       </c>
       <c r="D224" s="19"/>
       <c r="E224" s="19"/>
       <c r="F224" t="s">
-        <v>1080</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="225" spans="1:6">
-      <c r="A225" s="3" t="s">
-        <v>774</v>
+      <c r="A225" s="28" t="s">
+        <v>721</v>
       </c>
       <c r="B225" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C225" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="D225" s="19"/>
-      <c r="E225" s="19"/>
+      <c r="C225" s="26" t="s">
+        <v>345</v>
+      </c>
+      <c r="D225" s="26"/>
+      <c r="E225" s="26"/>
       <c r="F225" t="s">
-        <v>1081</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="226" spans="1:6">
-      <c r="A226" s="3" t="s">
-        <v>775</v>
+      <c r="A226" s="28" t="s">
+        <v>722</v>
       </c>
       <c r="B226" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C226" s="19" t="s">
-        <v>533</v>
+        <v>302</v>
       </c>
       <c r="D226" s="19"/>
       <c r="E226" s="19"/>
       <c r="F226" t="s">
-        <v>1082</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="227" spans="1:6">
-      <c r="A227" s="3" t="s">
-        <v>776</v>
+      <c r="A227" s="28" t="s">
+        <v>723</v>
       </c>
       <c r="B227" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C227" s="19" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="D227" s="19"/>
       <c r="E227" s="19"/>
       <c r="F227" t="s">
-        <v>1083</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="228" spans="1:6">
-      <c r="A228" s="3" t="s">
-        <v>777</v>
+      <c r="A228" s="28" t="s">
+        <v>724</v>
       </c>
       <c r="B228" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C228" s="26" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="D228" s="26"/>
       <c r="E228" s="26"/>
       <c r="F228" t="s">
-        <v>1084</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="229" spans="1:6">
-      <c r="A229" s="3" t="s">
-        <v>778</v>
+      <c r="A229" s="28" t="s">
+        <v>725</v>
       </c>
       <c r="B229" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C229" s="26" t="s">
-        <v>328</v>
-      </c>
-      <c r="D229" s="26"/>
-      <c r="E229" s="26"/>
-      <c r="F229" s="6" t="s">
-        <v>1085</v>
+      <c r="C229" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="D229" s="19"/>
+      <c r="E229" s="19"/>
+      <c r="F229" t="s">
+        <v>1032</v>
       </c>
     </row>
     <row r="230" spans="1:6">
-      <c r="A230" s="3" t="s">
-        <v>779</v>
+      <c r="A230" s="28" t="s">
+        <v>726</v>
       </c>
       <c r="B230" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C230" s="26" t="s">
-        <v>337</v>
+        <v>519</v>
       </c>
       <c r="D230" s="26"/>
       <c r="E230" s="26"/>
-      <c r="F230" t="s">
-        <v>1086</v>
+      <c r="F230" s="6" t="s">
+        <v>1033</v>
       </c>
     </row>
     <row r="231" spans="1:6">
-      <c r="A231" s="3" t="s">
-        <v>780</v>
+      <c r="A231" s="28" t="s">
+        <v>727</v>
       </c>
       <c r="B231" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C231" s="26" t="s">
-        <v>339</v>
+        <v>521</v>
       </c>
       <c r="D231" s="26"/>
       <c r="E231" s="26"/>
-      <c r="F231" t="s">
-        <v>1087</v>
+      <c r="F231" s="6" t="s">
+        <v>1034</v>
       </c>
     </row>
     <row r="232" spans="1:6">
-      <c r="A232" s="3" t="s">
-        <v>781</v>
+      <c r="A232" s="28" t="s">
+        <v>728</v>
       </c>
       <c r="B232" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C232" s="26" t="s">
-        <v>340</v>
-      </c>
-      <c r="D232" s="26"/>
-      <c r="E232" s="26"/>
+      <c r="C232" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="D232" s="19"/>
+      <c r="E232" s="19"/>
       <c r="F232" t="s">
-        <v>1088</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="233" spans="1:6">
-      <c r="A233" s="3" t="s">
-        <v>782</v>
+      <c r="A233" s="28" t="s">
+        <v>729</v>
       </c>
       <c r="B233" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C233" s="26" t="s">
-        <v>529</v>
-      </c>
-      <c r="D233" s="26"/>
-      <c r="E233" s="26"/>
+      <c r="C233" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="D233" s="19"/>
+      <c r="E233" s="19"/>
       <c r="F233" t="s">
-        <v>1089</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="234" spans="1:6">
-      <c r="A234" s="3" t="s">
-        <v>783</v>
+      <c r="A234" s="28" t="s">
+        <v>730</v>
       </c>
       <c r="B234" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C234" s="19" t="s">
-        <v>343</v>
+        <v>533</v>
       </c>
       <c r="D234" s="19"/>
       <c r="E234" s="19"/>
       <c r="F234" t="s">
-        <v>1090</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="235" spans="1:6">
-      <c r="A235" s="3" t="s">
-        <v>784</v>
+      <c r="A235" s="28" t="s">
+        <v>731</v>
       </c>
       <c r="B235" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C235" s="19" t="s">
-        <v>350</v>
+        <v>327</v>
       </c>
       <c r="D235" s="19"/>
       <c r="E235" s="19"/>
       <c r="F235" t="s">
-        <v>1091</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="236" spans="1:6">
-      <c r="A236" s="3" t="s">
-        <v>785</v>
+      <c r="A236" s="28" t="s">
+        <v>732</v>
       </c>
       <c r="B236" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C236" s="26" t="s">
-        <v>346</v>
+        <v>326</v>
       </c>
       <c r="D236" s="26"/>
       <c r="E236" s="26"/>
       <c r="F236" t="s">
-        <v>1092</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="237" spans="1:6">
-      <c r="A237" s="3" t="s">
-        <v>786</v>
+      <c r="A237" s="28" t="s">
+        <v>733</v>
       </c>
       <c r="B237" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C237" s="26" t="s">
-        <v>347</v>
+        <v>328</v>
       </c>
       <c r="D237" s="26"/>
       <c r="E237" s="26"/>
-      <c r="F237" t="s">
-        <v>1093</v>
+      <c r="F237" s="6" t="s">
+        <v>1040</v>
       </c>
     </row>
     <row r="238" spans="1:6">
-      <c r="A238" s="3" t="s">
-        <v>787</v>
+      <c r="A238" s="28" t="s">
+        <v>734</v>
       </c>
       <c r="B238" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C238" s="26" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="D238" s="26"/>
       <c r="E238" s="26"/>
       <c r="F238" t="s">
-        <v>1094</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="239" spans="1:6">
-      <c r="A239" s="3" t="s">
-        <v>788</v>
+      <c r="A239" s="28" t="s">
+        <v>735</v>
       </c>
       <c r="B239" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C239" s="27" t="s">
-        <v>349</v>
-      </c>
-      <c r="D239" s="27"/>
-      <c r="E239" s="27"/>
+      <c r="C239" s="26" t="s">
+        <v>339</v>
+      </c>
+      <c r="D239" s="26"/>
+      <c r="E239" s="26"/>
       <c r="F239" t="s">
-        <v>1095</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="240" spans="1:6">
-      <c r="A240" s="3" t="s">
-        <v>789</v>
+      <c r="A240" s="28" t="s">
+        <v>736</v>
       </c>
       <c r="B240" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C240" s="26" t="s">
-        <v>357</v>
+        <v>340</v>
       </c>
       <c r="D240" s="26"/>
       <c r="E240" s="26"/>
       <c r="F240" t="s">
-        <v>1096</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="241" spans="1:6">
-      <c r="A241" s="3" t="s">
-        <v>790</v>
+      <c r="A241" s="28" t="s">
+        <v>1294</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>627</v>
-      </c>
-      <c r="C241" s="19" t="s">
-        <v>358</v>
-      </c>
-      <c r="D241" s="19"/>
-      <c r="E241" s="19"/>
-      <c r="F241" t="s">
-        <v>1097</v>
-      </c>
+        <v>1226</v>
+      </c>
+      <c r="C241" s="26"/>
+      <c r="D241" s="26" t="s">
+        <v>1281</v>
+      </c>
+      <c r="E241" s="26"/>
     </row>
     <row r="242" spans="1:6">
-      <c r="A242" s="3" t="s">
-        <v>791</v>
+      <c r="A242" s="28" t="s">
+        <v>737</v>
       </c>
       <c r="B242" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C242" s="26" t="s">
-        <v>359</v>
+        <v>529</v>
       </c>
       <c r="D242" s="26"/>
       <c r="E242" s="26"/>
       <c r="F242" t="s">
-        <v>1098</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="243" spans="1:6">
-      <c r="A243" s="3" t="s">
-        <v>792</v>
+      <c r="A243" s="28" t="s">
+        <v>738</v>
       </c>
       <c r="B243" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C243" s="26" t="s">
-        <v>360</v>
-      </c>
-      <c r="D243" s="26"/>
-      <c r="E243" s="26"/>
+      <c r="C243" s="19" t="s">
+        <v>343</v>
+      </c>
+      <c r="D243" s="19"/>
+      <c r="E243" s="19"/>
       <c r="F243" t="s">
-        <v>1099</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="244" spans="1:6">
-      <c r="A244" s="3" t="s">
-        <v>793</v>
+      <c r="A244" s="28" t="s">
+        <v>739</v>
       </c>
       <c r="B244" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C244" s="19" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="D244" s="19"/>
       <c r="E244" s="19"/>
       <c r="F244" t="s">
-        <v>1100</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="245" spans="1:6">
-      <c r="A245" s="3" t="s">
-        <v>794</v>
+      <c r="A245" s="28" t="s">
+        <v>740</v>
       </c>
       <c r="B245" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C245" s="26" t="s">
-        <v>366</v>
+        <v>346</v>
       </c>
       <c r="D245" s="26"/>
       <c r="E245" s="26"/>
       <c r="F245" t="s">
-        <v>1101</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="246" spans="1:6">
-      <c r="A246" s="3" t="s">
-        <v>795</v>
+      <c r="A246" s="28" t="s">
+        <v>741</v>
       </c>
       <c r="B246" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C246" s="26" t="s">
-        <v>367</v>
+        <v>347</v>
       </c>
       <c r="D246" s="26"/>
       <c r="E246" s="26"/>
       <c r="F246" t="s">
-        <v>1102</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="247" spans="1:6">
-      <c r="A247" s="3" t="s">
-        <v>796</v>
+      <c r="A247" s="28" t="s">
+        <v>742</v>
       </c>
       <c r="B247" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C247" s="26" t="s">
-        <v>368</v>
+        <v>348</v>
       </c>
       <c r="D247" s="26"/>
       <c r="E247" s="26"/>
       <c r="F247" t="s">
-        <v>1103</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="248" spans="1:6">
-      <c r="A248" s="3" t="s">
-        <v>797</v>
+      <c r="A248" s="28" t="s">
+        <v>743</v>
       </c>
       <c r="B248" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C248" s="26" t="s">
-        <v>369</v>
-      </c>
-      <c r="D248" s="26"/>
-      <c r="E248" s="26"/>
+      <c r="C248" s="27" t="s">
+        <v>349</v>
+      </c>
+      <c r="D248" s="27"/>
+      <c r="E248" s="27"/>
       <c r="F248" t="s">
-        <v>1104</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="249" spans="1:6">
-      <c r="A249" s="3" t="s">
-        <v>798</v>
+      <c r="A249" s="28" t="s">
+        <v>744</v>
       </c>
       <c r="B249" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C249" s="26" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="D249" s="26"/>
       <c r="E249" s="26"/>
       <c r="F249" t="s">
-        <v>1105</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="250" spans="1:6">
-      <c r="A250" s="3" t="s">
-        <v>799</v>
+      <c r="A250" s="28" t="s">
+        <v>1295</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>627</v>
-      </c>
-      <c r="C250" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="D250" s="26"/>
+        <v>1226</v>
+      </c>
+      <c r="C250" s="26"/>
+      <c r="D250" s="26" t="s">
+        <v>1282</v>
+      </c>
       <c r="E250" s="26"/>
-      <c r="F250" t="s">
-        <v>1106</v>
-      </c>
     </row>
     <row r="251" spans="1:6">
-      <c r="A251" s="3" t="s">
-        <v>800</v>
+      <c r="A251" s="28" t="s">
+        <v>745</v>
       </c>
       <c r="B251" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C251" s="26" t="s">
-        <v>372</v>
-      </c>
-      <c r="D251" s="26"/>
-      <c r="E251" s="26"/>
+      <c r="C251" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="D251" s="19"/>
+      <c r="E251" s="19"/>
       <c r="F251" t="s">
-        <v>1107</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="252" spans="1:6">
-      <c r="A252" s="3" t="s">
-        <v>801</v>
+      <c r="A252" s="28" t="s">
+        <v>746</v>
       </c>
       <c r="B252" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C252" s="26" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="D252" s="26"/>
       <c r="E252" s="26"/>
       <c r="F252" t="s">
-        <v>1108</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="253" spans="1:6">
-      <c r="A253" s="3" t="s">
-        <v>802</v>
+      <c r="A253" s="28" t="s">
+        <v>747</v>
       </c>
       <c r="B253" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C253" s="19" t="s">
-        <v>374</v>
-      </c>
-      <c r="D253" s="19"/>
-      <c r="E253" s="19"/>
+      <c r="C253" s="26" t="s">
+        <v>360</v>
+      </c>
+      <c r="D253" s="26"/>
+      <c r="E253" s="26"/>
       <c r="F253" t="s">
-        <v>1109</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="254" spans="1:6">
-      <c r="A254" s="3" t="s">
-        <v>803</v>
+      <c r="A254" s="28" t="s">
+        <v>748</v>
       </c>
       <c r="B254" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C254" s="26" t="s">
-        <v>385</v>
-      </c>
-      <c r="D254" s="26"/>
-      <c r="E254" s="26"/>
+      <c r="C254" s="19" t="s">
+        <v>365</v>
+      </c>
+      <c r="D254" s="19"/>
+      <c r="E254" s="19"/>
       <c r="F254" t="s">
-        <v>1110</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="255" spans="1:6">
-      <c r="A255" s="3" t="s">
-        <v>804</v>
+      <c r="A255" s="28" t="s">
+        <v>749</v>
       </c>
       <c r="B255" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C255" s="19" t="s">
-        <v>387</v>
-      </c>
-      <c r="D255" s="19"/>
-      <c r="E255" s="19"/>
+      <c r="C255" s="26" t="s">
+        <v>366</v>
+      </c>
+      <c r="D255" s="26"/>
+      <c r="E255" s="26"/>
       <c r="F255" t="s">
-        <v>1111</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="256" spans="1:6">
-      <c r="A256" s="3" t="s">
-        <v>805</v>
+      <c r="A256" s="28" t="s">
+        <v>750</v>
       </c>
       <c r="B256" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C256" s="26" t="s">
-        <v>391</v>
+        <v>367</v>
       </c>
       <c r="D256" s="26"/>
       <c r="E256" s="26"/>
-      <c r="F256" s="6" t="s">
-        <v>1112</v>
+      <c r="F256" t="s">
+        <v>1057</v>
       </c>
     </row>
     <row r="257" spans="1:6">
-      <c r="A257" s="3" t="s">
-        <v>806</v>
+      <c r="A257" s="28" t="s">
+        <v>1296</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>627</v>
-      </c>
-      <c r="C257" s="27" t="s">
-        <v>395</v>
-      </c>
-      <c r="D257" s="27"/>
-      <c r="E257" s="27"/>
-      <c r="F257" t="s">
-        <v>1113</v>
-      </c>
+        <v>1226</v>
+      </c>
+      <c r="C257" s="26"/>
+      <c r="D257" s="26" t="s">
+        <v>1283</v>
+      </c>
+      <c r="E257" s="26"/>
     </row>
     <row r="258" spans="1:6">
-      <c r="A258" s="3" t="s">
-        <v>807</v>
+      <c r="A258" s="28" t="s">
+        <v>751</v>
       </c>
       <c r="B258" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C258" s="26" t="s">
-        <v>396</v>
+        <v>368</v>
       </c>
       <c r="D258" s="26"/>
       <c r="E258" s="26"/>
       <c r="F258" t="s">
-        <v>1114</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="259" spans="1:6">
-      <c r="A259" s="3" t="s">
-        <v>808</v>
+      <c r="A259" s="28" t="s">
+        <v>752</v>
       </c>
       <c r="B259" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C259" s="26" t="s">
-        <v>397</v>
+        <v>369</v>
       </c>
       <c r="D259" s="26"/>
       <c r="E259" s="26"/>
       <c r="F259" t="s">
-        <v>1115</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="260" spans="1:6">
-      <c r="A260" s="3" t="s">
-        <v>809</v>
+      <c r="A260" s="28" t="s">
+        <v>753</v>
       </c>
       <c r="B260" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C260" s="26" t="s">
-        <v>393</v>
+        <v>370</v>
       </c>
       <c r="D260" s="26"/>
       <c r="E260" s="26"/>
       <c r="F260" t="s">
-        <v>1116</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="261" spans="1:6">
-      <c r="A261" s="3" t="s">
-        <v>810</v>
+      <c r="A261" s="28" t="s">
+        <v>754</v>
       </c>
       <c r="B261" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C261" s="19" t="s">
-        <v>389</v>
-      </c>
-      <c r="D261" s="19"/>
-      <c r="E261" s="19"/>
+      <c r="C261" s="26" t="s">
+        <v>371</v>
+      </c>
+      <c r="D261" s="26"/>
+      <c r="E261" s="26"/>
       <c r="F261" t="s">
-        <v>1117</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="262" spans="1:6">
-      <c r="A262" s="3" t="s">
-        <v>811</v>
+      <c r="A262" s="28" t="s">
+        <v>755</v>
       </c>
       <c r="B262" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C262" s="27" t="s">
-        <v>401</v>
-      </c>
-      <c r="D262" s="27"/>
-      <c r="E262" s="27"/>
+      <c r="C262" s="26" t="s">
+        <v>372</v>
+      </c>
+      <c r="D262" s="26"/>
+      <c r="E262" s="26"/>
       <c r="F262" t="s">
-        <v>1118</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="263" spans="1:6">
-      <c r="A263" s="3" t="s">
-        <v>812</v>
+      <c r="A263" s="28" t="s">
+        <v>756</v>
       </c>
       <c r="B263" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C263" s="26" t="s">
-        <v>403</v>
+        <v>373</v>
       </c>
       <c r="D263" s="26"/>
       <c r="E263" s="26"/>
       <c r="F263" t="s">
-        <v>1119</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="264" spans="1:6">
-      <c r="A264" s="3" t="s">
-        <v>813</v>
+      <c r="A264" s="28" t="s">
+        <v>757</v>
       </c>
       <c r="B264" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C264" s="19" t="s">
-        <v>405</v>
+        <v>374</v>
       </c>
       <c r="D264" s="19"/>
       <c r="E264" s="19"/>
       <c r="F264" t="s">
-        <v>1120</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="265" spans="1:6">
-      <c r="A265" s="3" t="s">
-        <v>814</v>
+      <c r="A265" s="28" t="s">
+        <v>758</v>
       </c>
       <c r="B265" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C265" s="26" t="s">
-        <v>406</v>
+        <v>385</v>
       </c>
       <c r="D265" s="26"/>
       <c r="E265" s="26"/>
       <c r="F265" t="s">
-        <v>1121</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="266" spans="1:6">
-      <c r="A266" s="3" t="s">
-        <v>815</v>
+      <c r="A266" s="28" t="s">
+        <v>759</v>
       </c>
       <c r="B266" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C266" s="19" t="s">
-        <v>523</v>
+        <v>387</v>
       </c>
       <c r="D266" s="19"/>
       <c r="E266" s="19"/>
       <c r="F266" t="s">
-        <v>1122</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="267" spans="1:6">
-      <c r="A267" s="3" t="s">
-        <v>816</v>
+      <c r="A267" s="28" t="s">
+        <v>760</v>
       </c>
       <c r="B267" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C267" s="27" t="s">
-        <v>407</v>
-      </c>
-      <c r="D267" s="27"/>
-      <c r="E267" s="27"/>
-      <c r="F267" t="s">
-        <v>1123</v>
+      <c r="C267" s="26" t="s">
+        <v>391</v>
+      </c>
+      <c r="D267" s="26"/>
+      <c r="E267" s="26"/>
+      <c r="F267" s="6" t="s">
+        <v>1067</v>
       </c>
     </row>
     <row r="268" spans="1:6">
-      <c r="A268" s="3" t="s">
-        <v>817</v>
+      <c r="A268" s="28" t="s">
+        <v>761</v>
       </c>
       <c r="B268" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C268" s="19" t="s">
-        <v>408</v>
-      </c>
-      <c r="D268" s="19"/>
-      <c r="E268" s="19"/>
+      <c r="C268" s="27" t="s">
+        <v>395</v>
+      </c>
+      <c r="D268" s="27"/>
+      <c r="E268" s="27"/>
       <c r="F268" t="s">
-        <v>1124</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="269" spans="1:6">
-      <c r="A269" s="3" t="s">
-        <v>818</v>
+      <c r="A269" s="28" t="s">
+        <v>762</v>
       </c>
       <c r="B269" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C269" s="26" t="s">
-        <v>409</v>
+        <v>396</v>
       </c>
       <c r="D269" s="26"/>
       <c r="E269" s="26"/>
       <c r="F269" t="s">
-        <v>1125</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="270" spans="1:6">
-      <c r="A270" s="3" t="s">
-        <v>819</v>
+      <c r="A270" s="28" t="s">
+        <v>763</v>
       </c>
       <c r="B270" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C270" s="18" t="s">
-        <v>517</v>
-      </c>
-      <c r="D270" s="18"/>
-      <c r="E270" s="18"/>
-      <c r="F270" s="6" t="s">
-        <v>1126</v>
+      <c r="C270" s="26" t="s">
+        <v>397</v>
+      </c>
+      <c r="D270" s="26"/>
+      <c r="E270" s="26"/>
+      <c r="F270" t="s">
+        <v>1070</v>
       </c>
     </row>
     <row r="271" spans="1:6">
-      <c r="A271" s="3" t="s">
-        <v>820</v>
+      <c r="A271" s="28" t="s">
+        <v>764</v>
       </c>
       <c r="B271" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C271" s="26" t="s">
-        <v>410</v>
+        <v>393</v>
       </c>
       <c r="D271" s="26"/>
       <c r="E271" s="26"/>
       <c r="F271" t="s">
-        <v>1127</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="272" spans="1:6">
-      <c r="A272" s="3" t="s">
-        <v>821</v>
+      <c r="A272" s="28" t="s">
+        <v>765</v>
       </c>
       <c r="B272" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C272" s="26" t="s">
-        <v>411</v>
-      </c>
-      <c r="D272" s="26"/>
-      <c r="E272" s="26"/>
+      <c r="C272" s="19" t="s">
+        <v>389</v>
+      </c>
+      <c r="D272" s="19"/>
+      <c r="E272" s="19"/>
       <c r="F272" t="s">
-        <v>1128</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="273" spans="1:6">
-      <c r="A273" s="3" t="s">
-        <v>822</v>
+      <c r="A273" s="28" t="s">
+        <v>766</v>
       </c>
       <c r="B273" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C273" s="26" t="s">
-        <v>412</v>
-      </c>
-      <c r="D273" s="26"/>
-      <c r="E273" s="26"/>
+      <c r="C273" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="D273" s="27"/>
+      <c r="E273" s="27"/>
       <c r="F273" t="s">
-        <v>1129</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="274" spans="1:6">
-      <c r="A274" s="3" t="s">
-        <v>823</v>
+      <c r="A274" s="28" t="s">
+        <v>767</v>
       </c>
       <c r="B274" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C274" s="26" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="D274" s="26"/>
       <c r="E274" s="26"/>
       <c r="F274" t="s">
-        <v>1130</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="275" spans="1:6">
-      <c r="A275" s="3" t="s">
-        <v>824</v>
+      <c r="A275" s="28" t="s">
+        <v>768</v>
       </c>
       <c r="B275" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C275" s="26" t="s">
+      <c r="C275" s="19" t="s">
+        <v>405</v>
+      </c>
+      <c r="D275" s="19"/>
+      <c r="E275" s="19"/>
+      <c r="F275" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6">
+      <c r="A276" s="28" t="s">
+        <v>769</v>
+      </c>
+      <c r="B276" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C276" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="D276" s="26"/>
+      <c r="E276" s="26"/>
+      <c r="F276" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6">
+      <c r="A277" s="28" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B277" s="3" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C277" s="26"/>
+      <c r="D277" s="26" t="s">
+        <v>1284</v>
+      </c>
+      <c r="E277" s="26"/>
+    </row>
+    <row r="278" spans="1:6">
+      <c r="A278" s="28" t="s">
+        <v>770</v>
+      </c>
+      <c r="B278" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C278" s="19" t="s">
+        <v>523</v>
+      </c>
+      <c r="D278" s="19"/>
+      <c r="E278" s="19"/>
+      <c r="F278" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6">
+      <c r="A279" s="28" t="s">
+        <v>771</v>
+      </c>
+      <c r="B279" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C279" s="27" t="s">
+        <v>407</v>
+      </c>
+      <c r="D279" s="27"/>
+      <c r="E279" s="27"/>
+      <c r="F279" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6">
+      <c r="A280" s="28" t="s">
+        <v>772</v>
+      </c>
+      <c r="B280" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C280" s="19" t="s">
+        <v>408</v>
+      </c>
+      <c r="D280" s="19"/>
+      <c r="E280" s="19"/>
+      <c r="F280" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6">
+      <c r="A281" s="28" t="s">
+        <v>773</v>
+      </c>
+      <c r="B281" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C281" s="26" t="s">
+        <v>409</v>
+      </c>
+      <c r="D281" s="26"/>
+      <c r="E281" s="26"/>
+      <c r="F281" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6">
+      <c r="A282" s="28" t="s">
+        <v>774</v>
+      </c>
+      <c r="B282" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C282" s="18" t="s">
+        <v>517</v>
+      </c>
+      <c r="D282" s="18"/>
+      <c r="E282" s="18"/>
+      <c r="F282" s="6" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6">
+      <c r="A283" s="28" t="s">
+        <v>775</v>
+      </c>
+      <c r="B283" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C283" s="26" t="s">
+        <v>410</v>
+      </c>
+      <c r="D283" s="26"/>
+      <c r="E283" s="26"/>
+      <c r="F283" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6">
+      <c r="A284" s="28" t="s">
+        <v>776</v>
+      </c>
+      <c r="B284" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C284" s="26" t="s">
+        <v>411</v>
+      </c>
+      <c r="D284" s="26"/>
+      <c r="E284" s="26"/>
+      <c r="F284" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6">
+      <c r="A285" s="28" t="s">
+        <v>777</v>
+      </c>
+      <c r="B285" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C285" s="26" t="s">
+        <v>412</v>
+      </c>
+      <c r="D285" s="26"/>
+      <c r="E285" s="26"/>
+      <c r="F285" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6">
+      <c r="A286" s="28" t="s">
+        <v>778</v>
+      </c>
+      <c r="B286" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C286" s="26" t="s">
+        <v>413</v>
+      </c>
+      <c r="D286" s="26"/>
+      <c r="E286" s="26"/>
+      <c r="F286" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6">
+      <c r="A287" s="28" t="s">
+        <v>779</v>
+      </c>
+      <c r="B287" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C287" s="26" t="s">
         <v>414</v>
-      </c>
-      <c r="D275" s="26"/>
-      <c r="E275" s="26"/>
-      <c r="F275" t="s">
-        <v>1131</v>
-      </c>
-    </row>
-    <row r="276" spans="1:6">
-      <c r="A276" s="3" t="s">
-        <v>825</v>
-      </c>
-      <c r="B276" s="3" t="s">
-        <v>627</v>
-      </c>
-      <c r="C276" s="19" t="s">
-        <v>514</v>
-      </c>
-      <c r="D276" s="19"/>
-      <c r="E276" s="19"/>
-      <c r="F276" t="s">
-        <v>1132</v>
-      </c>
-    </row>
-    <row r="277" spans="1:6">
-      <c r="A277" s="3" t="s">
-        <v>826</v>
-      </c>
-      <c r="B277" s="3" t="s">
-        <v>627</v>
-      </c>
-      <c r="C277" s="19" t="s">
-        <v>513</v>
-      </c>
-      <c r="D277" s="19"/>
-      <c r="E277" s="19"/>
-      <c r="F277" t="s">
-        <v>1133</v>
-      </c>
-    </row>
-    <row r="278" spans="1:6">
-      <c r="A278" s="3" t="s">
-        <v>827</v>
-      </c>
-      <c r="B278" s="3" t="s">
-        <v>627</v>
-      </c>
-      <c r="C278" s="26" t="s">
-        <v>426</v>
-      </c>
-      <c r="D278" s="26"/>
-      <c r="E278" s="26"/>
-      <c r="F278" t="s">
-        <v>1134</v>
-      </c>
-    </row>
-    <row r="279" spans="1:6">
-      <c r="A279" s="3" t="s">
-        <v>828</v>
-      </c>
-      <c r="B279" s="3" t="s">
-        <v>627</v>
-      </c>
-      <c r="C279" s="26" t="s">
-        <v>425</v>
-      </c>
-      <c r="D279" s="26"/>
-      <c r="E279" s="26"/>
-      <c r="F279" s="6" t="s">
-        <v>1135</v>
-      </c>
-    </row>
-    <row r="280" spans="1:6">
-      <c r="A280" s="3" t="s">
-        <v>829</v>
-      </c>
-      <c r="B280" s="3" t="s">
-        <v>627</v>
-      </c>
-      <c r="C280" s="26" t="s">
-        <v>429</v>
-      </c>
-      <c r="D280" s="26"/>
-      <c r="E280" s="26"/>
-      <c r="F280" s="6" t="s">
-        <v>1136</v>
-      </c>
-    </row>
-    <row r="281" spans="1:6">
-      <c r="A281" s="3" t="s">
-        <v>830</v>
-      </c>
-      <c r="B281" s="3" t="s">
-        <v>627</v>
-      </c>
-      <c r="C281" s="19" t="s">
-        <v>511</v>
-      </c>
-      <c r="D281" s="19"/>
-      <c r="E281" s="19"/>
-      <c r="F281" t="s">
-        <v>1137</v>
-      </c>
-    </row>
-    <row r="282" spans="1:6">
-      <c r="A282" s="3" t="s">
-        <v>831</v>
-      </c>
-      <c r="B282" s="3" t="s">
-        <v>627</v>
-      </c>
-      <c r="C282" s="26" t="s">
-        <v>430</v>
-      </c>
-      <c r="D282" s="26"/>
-      <c r="E282" s="26"/>
-      <c r="F282" t="s">
-        <v>1138</v>
-      </c>
-    </row>
-    <row r="283" spans="1:6">
-      <c r="A283" s="3" t="s">
-        <v>832</v>
-      </c>
-      <c r="B283" s="3" t="s">
-        <v>627</v>
-      </c>
-      <c r="C283" s="18" t="s">
-        <v>427</v>
-      </c>
-      <c r="D283" s="18"/>
-      <c r="E283" s="18"/>
-      <c r="F283" t="s">
-        <v>1139</v>
-      </c>
-    </row>
-    <row r="284" spans="1:6">
-      <c r="A284" s="3" t="s">
-        <v>833</v>
-      </c>
-      <c r="B284" s="3" t="s">
-        <v>627</v>
-      </c>
-      <c r="C284" s="19" t="s">
-        <v>428</v>
-      </c>
-      <c r="D284" s="19"/>
-      <c r="E284" s="19"/>
-      <c r="F284" t="s">
-        <v>1140</v>
-      </c>
-    </row>
-    <row r="285" spans="1:6">
-      <c r="A285" s="3" t="s">
-        <v>834</v>
-      </c>
-      <c r="B285" s="3" t="s">
-        <v>627</v>
-      </c>
-      <c r="C285" s="19" t="s">
-        <v>432</v>
-      </c>
-      <c r="D285" s="19"/>
-      <c r="E285" s="19"/>
-      <c r="F285" t="s">
-        <v>1141</v>
-      </c>
-    </row>
-    <row r="286" spans="1:6">
-      <c r="A286" s="3" t="s">
-        <v>835</v>
-      </c>
-      <c r="B286" s="3" t="s">
-        <v>627</v>
-      </c>
-      <c r="C286" s="19" t="s">
-        <v>431</v>
-      </c>
-      <c r="D286" s="19"/>
-      <c r="E286" s="19"/>
-      <c r="F286" t="s">
-        <v>1142</v>
-      </c>
-    </row>
-    <row r="287" spans="1:6">
-      <c r="A287" s="3" t="s">
-        <v>836</v>
-      </c>
-      <c r="B287" s="3" t="s">
-        <v>627</v>
-      </c>
-      <c r="C287" s="26" t="s">
-        <v>433</v>
       </c>
       <c r="D287" s="26"/>
       <c r="E287" s="26"/>
-      <c r="F287" s="6" t="s">
-        <v>1143</v>
+      <c r="F287" t="s">
+        <v>1086</v>
       </c>
     </row>
     <row r="288" spans="1:6">
-      <c r="A288" s="3" t="s">
-        <v>837</v>
+      <c r="A288" s="28" t="s">
+        <v>780</v>
       </c>
       <c r="B288" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C288" s="27" t="s">
-        <v>434</v>
-      </c>
-      <c r="D288" s="27"/>
-      <c r="E288" s="27"/>
+      <c r="C288" s="19" t="s">
+        <v>514</v>
+      </c>
+      <c r="D288" s="19"/>
+      <c r="E288" s="19"/>
       <c r="F288" t="s">
-        <v>1144</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="289" spans="1:6">
-      <c r="A289" s="3" t="s">
-        <v>838</v>
+      <c r="A289" s="28" t="s">
+        <v>781</v>
       </c>
       <c r="B289" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C289" s="19" t="s">
-        <v>435</v>
+        <v>513</v>
       </c>
       <c r="D289" s="19"/>
       <c r="E289" s="19"/>
       <c r="F289" t="s">
-        <v>1145</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="290" spans="1:6">
-      <c r="A290" s="3" t="s">
-        <v>839</v>
+      <c r="A290" s="28" t="s">
+        <v>782</v>
       </c>
       <c r="B290" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C290" s="19" t="s">
-        <v>436</v>
-      </c>
-      <c r="D290" s="19"/>
-      <c r="E290" s="19"/>
+      <c r="C290" s="26" t="s">
+        <v>426</v>
+      </c>
+      <c r="D290" s="26"/>
+      <c r="E290" s="26"/>
       <c r="F290" t="s">
-        <v>1146</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="291" spans="1:6">
-      <c r="A291" s="3" t="s">
-        <v>840</v>
+      <c r="A291" s="28" t="s">
+        <v>783</v>
       </c>
       <c r="B291" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C291" s="19" t="s">
-        <v>437</v>
-      </c>
-      <c r="D291" s="19"/>
-      <c r="E291" s="19"/>
-      <c r="F291" t="s">
-        <v>1147</v>
+      <c r="C291" s="26" t="s">
+        <v>425</v>
+      </c>
+      <c r="D291" s="26"/>
+      <c r="E291" s="26"/>
+      <c r="F291" s="6" t="s">
+        <v>1090</v>
       </c>
     </row>
     <row r="292" spans="1:6">
-      <c r="A292" s="3" t="s">
-        <v>841</v>
+      <c r="A292" s="28" t="s">
+        <v>784</v>
       </c>
       <c r="B292" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C292" s="27" t="s">
-        <v>438</v>
-      </c>
-      <c r="D292" s="27"/>
-      <c r="E292" s="27"/>
-      <c r="F292" t="s">
-        <v>1148</v>
+      <c r="C292" s="26" t="s">
+        <v>429</v>
+      </c>
+      <c r="D292" s="26"/>
+      <c r="E292" s="26"/>
+      <c r="F292" s="6" t="s">
+        <v>1091</v>
       </c>
     </row>
     <row r="293" spans="1:6">
-      <c r="A293" s="3" t="s">
-        <v>842</v>
+      <c r="A293" s="28" t="s">
+        <v>785</v>
       </c>
       <c r="B293" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C293" s="26" t="s">
-        <v>509</v>
-      </c>
-      <c r="D293" s="26"/>
-      <c r="E293" s="26"/>
+      <c r="C293" s="19" t="s">
+        <v>511</v>
+      </c>
+      <c r="D293" s="19"/>
+      <c r="E293" s="19"/>
       <c r="F293" t="s">
-        <v>1149</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="294" spans="1:6">
-      <c r="A294" s="3" t="s">
-        <v>843</v>
+      <c r="A294" s="28" t="s">
+        <v>786</v>
       </c>
       <c r="B294" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C294" s="26" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="D294" s="26"/>
       <c r="E294" s="26"/>
       <c r="F294" t="s">
-        <v>1150</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="295" spans="1:6">
-      <c r="A295" s="3" t="s">
-        <v>844</v>
+      <c r="A295" s="28" t="s">
+        <v>787</v>
       </c>
       <c r="B295" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C295" s="19" t="s">
-        <v>455</v>
-      </c>
-      <c r="D295" s="19"/>
-      <c r="E295" s="19"/>
+      <c r="C295" s="18" t="s">
+        <v>427</v>
+      </c>
+      <c r="D295" s="18"/>
+      <c r="E295" s="18"/>
       <c r="F295" t="s">
-        <v>1151</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="296" spans="1:6">
-      <c r="A296" s="3" t="s">
-        <v>845</v>
+      <c r="A296" s="28" t="s">
+        <v>788</v>
       </c>
       <c r="B296" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C296" s="19" t="s">
-        <v>456</v>
+        <v>428</v>
       </c>
       <c r="D296" s="19"/>
       <c r="E296" s="19"/>
       <c r="F296" t="s">
-        <v>1152</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="297" spans="1:6">
-      <c r="A297" s="3" t="s">
-        <v>846</v>
+      <c r="A297" s="28" t="s">
+        <v>789</v>
       </c>
       <c r="B297" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C297" s="26" t="s">
-        <v>457</v>
-      </c>
-      <c r="D297" s="26"/>
-      <c r="E297" s="26"/>
+      <c r="C297" s="19" t="s">
+        <v>432</v>
+      </c>
+      <c r="D297" s="19"/>
+      <c r="E297" s="19"/>
       <c r="F297" t="s">
-        <v>1153</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="298" spans="1:6">
-      <c r="A298" s="3" t="s">
-        <v>847</v>
+      <c r="A298" s="28" t="s">
+        <v>790</v>
       </c>
       <c r="B298" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C298" s="19" t="s">
-        <v>458</v>
+        <v>431</v>
       </c>
       <c r="D298" s="19"/>
       <c r="E298" s="19"/>
       <c r="F298" t="s">
-        <v>1154</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="299" spans="1:6">
-      <c r="A299" s="3" t="s">
-        <v>848</v>
+      <c r="A299" s="28" t="s">
+        <v>791</v>
       </c>
       <c r="B299" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C299" s="19" t="s">
-        <v>459</v>
-      </c>
-      <c r="D299" s="19"/>
-      <c r="E299" s="19"/>
-      <c r="F299" t="s">
-        <v>1155</v>
+      <c r="C299" s="26" t="s">
+        <v>433</v>
+      </c>
+      <c r="D299" s="26"/>
+      <c r="E299" s="26"/>
+      <c r="F299" s="6" t="s">
+        <v>1098</v>
       </c>
     </row>
     <row r="300" spans="1:6">
-      <c r="A300" s="3" t="s">
-        <v>849</v>
+      <c r="A300" s="28" t="s">
+        <v>792</v>
       </c>
       <c r="B300" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C300" s="19" t="s">
-        <v>461</v>
-      </c>
-      <c r="D300" s="19"/>
-      <c r="E300" s="19"/>
+      <c r="C300" s="27" t="s">
+        <v>434</v>
+      </c>
+      <c r="D300" s="27"/>
+      <c r="E300" s="27"/>
       <c r="F300" t="s">
-        <v>1156</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="301" spans="1:6">
-      <c r="A301" s="3" t="s">
-        <v>850</v>
+      <c r="A301" s="28" t="s">
+        <v>793</v>
       </c>
       <c r="B301" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C301" s="19" t="s">
-        <v>505</v>
+        <v>435</v>
       </c>
       <c r="D301" s="19"/>
       <c r="E301" s="19"/>
       <c r="F301" t="s">
-        <v>1157</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="302" spans="1:6">
-      <c r="A302" s="3" t="s">
-        <v>851</v>
+      <c r="A302" s="28" t="s">
+        <v>794</v>
       </c>
       <c r="B302" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C302" s="26" t="s">
-        <v>460</v>
-      </c>
-      <c r="D302" s="26"/>
-      <c r="E302" s="26"/>
+      <c r="C302" s="19" t="s">
+        <v>436</v>
+      </c>
+      <c r="D302" s="19"/>
+      <c r="E302" s="19"/>
       <c r="F302" t="s">
-        <v>1158</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="303" spans="1:6">
-      <c r="A303" s="3" t="s">
-        <v>852</v>
+      <c r="A303" s="28" t="s">
+        <v>795</v>
       </c>
       <c r="B303" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C303" s="26" t="s">
-        <v>462</v>
-      </c>
-      <c r="D303" s="26"/>
-      <c r="E303" s="26"/>
+      <c r="C303" s="19" t="s">
+        <v>437</v>
+      </c>
+      <c r="D303" s="19"/>
+      <c r="E303" s="19"/>
       <c r="F303" t="s">
-        <v>1159</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="304" spans="1:6">
-      <c r="A304" s="3" t="s">
-        <v>853</v>
+      <c r="A304" s="28" t="s">
+        <v>796</v>
       </c>
       <c r="B304" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C304" s="26" t="s">
-        <v>463</v>
-      </c>
-      <c r="D304" s="26"/>
-      <c r="E304" s="26"/>
+      <c r="C304" s="27" t="s">
+        <v>438</v>
+      </c>
+      <c r="D304" s="27"/>
+      <c r="E304" s="27"/>
       <c r="F304" t="s">
-        <v>1160</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="305" spans="1:6">
-      <c r="A305" s="3" t="s">
-        <v>854</v>
+      <c r="A305" s="28" t="s">
+        <v>797</v>
       </c>
       <c r="B305" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C305" s="26" t="s">
-        <v>464</v>
+        <v>509</v>
       </c>
       <c r="D305" s="26"/>
       <c r="E305" s="26"/>
       <c r="F305" t="s">
-        <v>1161</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="306" spans="1:6">
-      <c r="A306" s="3" t="s">
-        <v>855</v>
+      <c r="A306" s="28" t="s">
+        <v>798</v>
       </c>
       <c r="B306" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C306" s="26" t="s">
-        <v>465</v>
+        <v>439</v>
       </c>
       <c r="D306" s="26"/>
       <c r="E306" s="26"/>
       <c r="F306" t="s">
-        <v>1162</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="307" spans="1:6">
-      <c r="A307" s="3" t="s">
-        <v>856</v>
+      <c r="A307" s="28" t="s">
+        <v>799</v>
       </c>
       <c r="B307" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C307" s="26" t="s">
-        <v>466</v>
-      </c>
-      <c r="D307" s="26"/>
-      <c r="E307" s="26"/>
+      <c r="C307" s="19" t="s">
+        <v>455</v>
+      </c>
+      <c r="D307" s="19"/>
+      <c r="E307" s="19"/>
       <c r="F307" t="s">
-        <v>1163</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="308" spans="1:6">
-      <c r="A308" s="3" t="s">
-        <v>857</v>
+      <c r="A308" s="28" t="s">
+        <v>800</v>
       </c>
       <c r="B308" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C308" s="26" t="s">
-        <v>467</v>
-      </c>
-      <c r="D308" s="26"/>
-      <c r="E308" s="26"/>
-      <c r="F308" s="19" t="s">
-        <v>1164</v>
+      <c r="C308" s="19" t="s">
+        <v>456</v>
+      </c>
+      <c r="D308" s="19"/>
+      <c r="E308" s="19"/>
+      <c r="F308" t="s">
+        <v>1107</v>
       </c>
     </row>
     <row r="309" spans="1:6">
-      <c r="A309" s="3" t="s">
-        <v>858</v>
+      <c r="A309" s="28" t="s">
+        <v>801</v>
       </c>
       <c r="B309" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C309" s="26" t="s">
-        <v>468</v>
+        <v>457</v>
       </c>
       <c r="D309" s="26"/>
       <c r="E309" s="26"/>
       <c r="F309" t="s">
-        <v>1165</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="310" spans="1:6">
-      <c r="A310" s="3" t="s">
-        <v>859</v>
+      <c r="A310" s="28" t="s">
+        <v>802</v>
       </c>
       <c r="B310" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C310" s="26" t="s">
-        <v>469</v>
-      </c>
-      <c r="D310" s="26"/>
-      <c r="E310" s="26"/>
+      <c r="C310" s="19" t="s">
+        <v>458</v>
+      </c>
+      <c r="D310" s="19"/>
+      <c r="E310" s="19"/>
       <c r="F310" t="s">
-        <v>1166</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="311" spans="1:6">
-      <c r="A311" s="3" t="s">
-        <v>860</v>
+      <c r="A311" s="28" t="s">
+        <v>803</v>
       </c>
       <c r="B311" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C311" s="27" t="s">
-        <v>485</v>
-      </c>
-      <c r="D311" s="27"/>
-      <c r="E311" s="27"/>
+      <c r="C311" s="19" t="s">
+        <v>459</v>
+      </c>
+      <c r="D311" s="19"/>
+      <c r="E311" s="19"/>
       <c r="F311" t="s">
-        <v>1167</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="312" spans="1:6">
-      <c r="A312" s="3" t="s">
-        <v>861</v>
+      <c r="A312" s="28" t="s">
+        <v>804</v>
       </c>
       <c r="B312" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C312" s="26" t="s">
-        <v>486</v>
-      </c>
-      <c r="D312" s="26"/>
-      <c r="E312" s="26"/>
+      <c r="C312" s="19" t="s">
+        <v>461</v>
+      </c>
+      <c r="D312" s="19"/>
+      <c r="E312" s="19"/>
       <c r="F312" t="s">
-        <v>1168</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="313" spans="1:6">
-      <c r="A313" s="3" t="s">
-        <v>862</v>
+      <c r="A313" s="28" t="s">
+        <v>805</v>
       </c>
       <c r="B313" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C313" s="19" t="s">
-        <v>487</v>
+        <v>505</v>
       </c>
       <c r="D313" s="19"/>
       <c r="E313" s="19"/>
       <c r="F313" t="s">
-        <v>1169</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="314" spans="1:6">
-      <c r="A314" s="3" t="s">
-        <v>863</v>
+      <c r="A314" s="28" t="s">
+        <v>806</v>
       </c>
       <c r="B314" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C314" s="19" t="s">
-        <v>488</v>
-      </c>
-      <c r="D314" s="19"/>
-      <c r="E314" s="19"/>
+      <c r="C314" s="26" t="s">
+        <v>460</v>
+      </c>
+      <c r="D314" s="26"/>
+      <c r="E314" s="26"/>
       <c r="F314" t="s">
-        <v>1170</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="315" spans="1:6">
-      <c r="A315" s="3" t="s">
-        <v>864</v>
+      <c r="A315" s="28" t="s">
+        <v>807</v>
       </c>
       <c r="B315" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C315" s="19" t="s">
-        <v>489</v>
-      </c>
-      <c r="D315" s="19"/>
-      <c r="E315" s="19"/>
+      <c r="C315" s="26" t="s">
+        <v>462</v>
+      </c>
+      <c r="D315" s="26"/>
+      <c r="E315" s="26"/>
       <c r="F315" t="s">
-        <v>1171</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="316" spans="1:6">
-      <c r="A316" s="3" t="s">
-        <v>865</v>
+      <c r="A316" s="28" t="s">
+        <v>808</v>
       </c>
       <c r="B316" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C316" s="19" t="s">
-        <v>490</v>
-      </c>
-      <c r="D316" s="19"/>
-      <c r="E316" s="19"/>
+      <c r="C316" s="26" t="s">
+        <v>463</v>
+      </c>
+      <c r="D316" s="26"/>
+      <c r="E316" s="26"/>
       <c r="F316" t="s">
-        <v>1172</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="317" spans="1:6">
-      <c r="A317" s="3" t="s">
-        <v>866</v>
+      <c r="A317" s="28" t="s">
+        <v>809</v>
       </c>
       <c r="B317" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C317" s="26" t="s">
-        <v>507</v>
+        <v>464</v>
       </c>
       <c r="D317" s="26"/>
       <c r="E317" s="26"/>
       <c r="F317" t="s">
-        <v>1173</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="318" spans="1:6">
-      <c r="A318" s="3" t="s">
-        <v>867</v>
+      <c r="A318" s="28" t="s">
+        <v>810</v>
       </c>
       <c r="B318" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C318" s="19" t="s">
+      <c r="C318" s="26" t="s">
+        <v>465</v>
+      </c>
+      <c r="D318" s="26"/>
+      <c r="E318" s="26"/>
+      <c r="F318" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6">
+      <c r="A319" s="28" t="s">
+        <v>811</v>
+      </c>
+      <c r="B319" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C319" s="26" t="s">
+        <v>466</v>
+      </c>
+      <c r="D319" s="26"/>
+      <c r="E319" s="26"/>
+      <c r="F319" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6">
+      <c r="A320" s="28" t="s">
+        <v>812</v>
+      </c>
+      <c r="B320" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C320" s="26" t="s">
+        <v>467</v>
+      </c>
+      <c r="D320" s="26"/>
+      <c r="E320" s="26"/>
+      <c r="F320" s="19" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6">
+      <c r="A321" s="28" t="s">
+        <v>813</v>
+      </c>
+      <c r="B321" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C321" s="26" t="s">
+        <v>468</v>
+      </c>
+      <c r="D321" s="26"/>
+      <c r="E321" s="26"/>
+      <c r="F321" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6">
+      <c r="A322" s="28" t="s">
+        <v>814</v>
+      </c>
+      <c r="B322" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C322" s="26" t="s">
+        <v>469</v>
+      </c>
+      <c r="D322" s="26"/>
+      <c r="E322" s="26"/>
+      <c r="F322" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6">
+      <c r="A323" s="28" t="s">
+        <v>815</v>
+      </c>
+      <c r="B323" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C323" s="27" t="s">
+        <v>485</v>
+      </c>
+      <c r="D323" s="27"/>
+      <c r="E323" s="27"/>
+      <c r="F323" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6">
+      <c r="A324" s="28" t="s">
+        <v>816</v>
+      </c>
+      <c r="B324" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C324" s="26" t="s">
+        <v>486</v>
+      </c>
+      <c r="D324" s="26"/>
+      <c r="E324" s="26"/>
+      <c r="F324" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6">
+      <c r="A325" s="28" t="s">
+        <v>817</v>
+      </c>
+      <c r="B325" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C325" s="19" t="s">
+        <v>487</v>
+      </c>
+      <c r="D325" s="19"/>
+      <c r="E325" s="19"/>
+      <c r="F325" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6">
+      <c r="A326" s="28" t="s">
+        <v>818</v>
+      </c>
+      <c r="B326" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C326" s="19" t="s">
+        <v>488</v>
+      </c>
+      <c r="D326" s="19"/>
+      <c r="E326" s="19"/>
+      <c r="F326" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6">
+      <c r="A327" s="28" t="s">
+        <v>819</v>
+      </c>
+      <c r="B327" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C327" s="19" t="s">
+        <v>489</v>
+      </c>
+      <c r="D327" s="19"/>
+      <c r="E327" s="19"/>
+      <c r="F327" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6">
+      <c r="A328" s="28" t="s">
+        <v>820</v>
+      </c>
+      <c r="B328" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C328" s="19" t="s">
+        <v>490</v>
+      </c>
+      <c r="D328" s="19"/>
+      <c r="E328" s="19"/>
+      <c r="F328" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6">
+      <c r="A329" s="28" t="s">
+        <v>821</v>
+      </c>
+      <c r="B329" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C329" s="26" t="s">
+        <v>507</v>
+      </c>
+      <c r="D329" s="26"/>
+      <c r="E329" s="26"/>
+      <c r="F329" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6">
+      <c r="A330" s="28" t="s">
+        <v>822</v>
+      </c>
+      <c r="B330" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C330" s="19" t="s">
         <v>497</v>
       </c>
-      <c r="D318" s="19"/>
-      <c r="E318" s="19"/>
-      <c r="F318" t="s">
-        <v>1174</v>
-      </c>
-    </row>
-    <row r="319" spans="1:6">
-      <c r="A319" s="3" t="s">
-        <v>868</v>
-      </c>
-      <c r="B319" s="3" t="s">
-        <v>627</v>
-      </c>
-      <c r="C319" s="19" t="s">
+      <c r="D330" s="19"/>
+      <c r="E330" s="19"/>
+      <c r="F330" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6">
+      <c r="A331" s="28" t="s">
+        <v>823</v>
+      </c>
+      <c r="B331" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C331" s="19" t="s">
         <v>499</v>
       </c>
-      <c r="D319" s="19"/>
-      <c r="E319" s="19"/>
-      <c r="F319" t="s">
-        <v>1175</v>
-      </c>
-    </row>
-    <row r="320" spans="1:6">
-      <c r="A320" s="3" t="s">
-        <v>869</v>
-      </c>
-      <c r="B320" s="3" t="s">
-        <v>627</v>
-      </c>
-      <c r="C320" s="18" t="s">
+      <c r="D331" s="19"/>
+      <c r="E331" s="19"/>
+      <c r="F331" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6">
+      <c r="A332" s="28" t="s">
+        <v>824</v>
+      </c>
+      <c r="B332" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C332" s="18" t="s">
         <v>501</v>
       </c>
-      <c r="D320" s="18"/>
-      <c r="E320" s="18"/>
-      <c r="F320" s="6" t="s">
-        <v>1176</v>
-      </c>
-    </row>
-    <row r="321" spans="1:6">
-      <c r="A321" s="3" t="s">
-        <v>870</v>
-      </c>
-      <c r="B321" s="3" t="s">
-        <v>627</v>
-      </c>
-      <c r="C321" s="27" t="s">
+      <c r="D332" s="18"/>
+      <c r="E332" s="18"/>
+      <c r="F332" s="6" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6">
+      <c r="A333" s="28" t="s">
+        <v>825</v>
+      </c>
+      <c r="B333" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C333" s="27" t="s">
         <v>503</v>
       </c>
-      <c r="D321" s="27"/>
-      <c r="E321" s="27"/>
-      <c r="F321" s="6" t="s">
-        <v>1177</v>
+      <c r="D333" s="27"/>
+      <c r="E333" s="27"/>
+      <c r="F333" s="6" t="s">
+        <v>1132</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F321" xr:uid="{B8FBB380-25CE-48E1-8B68-143CBA8DEA45}"/>
+  <autoFilter ref="A1:F333" xr:uid="{B8FBB380-25CE-48E1-8B68-143CBA8DEA45}"/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/slackbuilds/sb_migr.xlsx
+++ b/slackbuilds/sb_migr.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\projects.new\sh\cvstogit\slackbuilds\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14F11AF7-3056-4663-8547-47E3E3D0E3DF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E96C29D7-D61D-4D63-A080-59B409B97014}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2065" uniqueCount="1301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2106" uniqueCount="1301">
   <si>
     <t>Package</t>
   </si>
@@ -1942,129 +1942,6 @@
     <t>SLACK-10_2</t>
   </si>
   <si>
-    <t>2008-10-18 19:42:21</t>
-  </si>
-  <si>
-    <t>2008-10-19 12:28:22</t>
-  </si>
-  <si>
-    <t>2008-10-23 23:02:37</t>
-  </si>
-  <si>
-    <t>2008-10-26 08:44:53</t>
-  </si>
-  <si>
-    <t>2008-11-02 13:12:37</t>
-  </si>
-  <si>
-    <t>2008-11-09 13:49:24</t>
-  </si>
-  <si>
-    <t>2008-11-09 16:16:09</t>
-  </si>
-  <si>
-    <t>2008-11-09 16:27:24</t>
-  </si>
-  <si>
-    <t>2008-11-09 19:23:59</t>
-  </si>
-  <si>
-    <t>2008-11-09 21:02:25</t>
-  </si>
-  <si>
-    <t>2008-11-10 08:54:14</t>
-  </si>
-  <si>
-    <t>2008-11-11 07:24:48</t>
-  </si>
-  <si>
-    <t>2008-11-11 08:08:43</t>
-  </si>
-  <si>
-    <t>2008-11-11 12:13:36</t>
-  </si>
-  <si>
-    <t>2008-11-11 12:49:51</t>
-  </si>
-  <si>
-    <t>2008-11-11 14:07:49</t>
-  </si>
-  <si>
-    <t>2008-11-13 17:50:32</t>
-  </si>
-  <si>
-    <t>2008-11-13 18:12:46</t>
-  </si>
-  <si>
-    <t>2008-11-13 20:43:03</t>
-  </si>
-  <si>
-    <t>2008-11-13 22:04:07</t>
-  </si>
-  <si>
-    <t>2008-11-13 22:24:11</t>
-  </si>
-  <si>
-    <t>2008-11-13 23:20:25</t>
-  </si>
-  <si>
-    <t>2008-11-13 23:53:00</t>
-  </si>
-  <si>
-    <t>2008-11-14 00:44:37</t>
-  </si>
-  <si>
-    <t>2008-11-14 14:55:35</t>
-  </si>
-  <si>
-    <t>2008-11-15 08:40:58</t>
-  </si>
-  <si>
-    <t>2008-11-15 11:05:17</t>
-  </si>
-  <si>
-    <t>2008-11-15 13:23:46</t>
-  </si>
-  <si>
-    <t>2008-11-15 15:07:19</t>
-  </si>
-  <si>
-    <t>2008-11-16 11:12:15</t>
-  </si>
-  <si>
-    <t>2008-11-16 15:06:59</t>
-  </si>
-  <si>
-    <t>2008-11-16 15:30:06</t>
-  </si>
-  <si>
-    <t>2008-11-16 16:19:32</t>
-  </si>
-  <si>
-    <t>2008-11-16 16:49:08</t>
-  </si>
-  <si>
-    <t>2008-11-16 17:56:54</t>
-  </si>
-  <si>
-    <t>2008-11-24 22:53:57</t>
-  </si>
-  <si>
-    <t>2008-11-30 15:58:58</t>
-  </si>
-  <si>
-    <t>2008-11-30 22:30:24</t>
-  </si>
-  <si>
-    <t>2009-02-22 19:59:59</t>
-  </si>
-  <si>
-    <t>2009-03-25 23:19:53</t>
-  </si>
-  <si>
-    <t>2009-04-27 22:47:56</t>
-  </si>
-  <si>
     <t>2009-09-06 18:07:55</t>
   </si>
   <si>
@@ -3941,6 +3818,129 @@
   </si>
   <si>
     <t>2007-09-18 07:39:34 +0300</t>
+  </si>
+  <si>
+    <t>2008-10-26 08:44:53 +0200</t>
+  </si>
+  <si>
+    <t>2008-11-02 13:12:37 +0200</t>
+  </si>
+  <si>
+    <t>2008-11-09 13:49:24 +0200</t>
+  </si>
+  <si>
+    <t>2008-11-09 16:16:09 +0200</t>
+  </si>
+  <si>
+    <t>2008-11-09 16:27:24 +0200</t>
+  </si>
+  <si>
+    <t>2008-11-09 19:23:59 +0200</t>
+  </si>
+  <si>
+    <t>2008-11-09 21:02:25 +0200</t>
+  </si>
+  <si>
+    <t>2008-11-10 08:54:14 +0200</t>
+  </si>
+  <si>
+    <t>2008-11-11 07:24:48 +0200</t>
+  </si>
+  <si>
+    <t>2008-11-11 08:08:43 +0200</t>
+  </si>
+  <si>
+    <t>2008-11-11 12:13:36 +0200</t>
+  </si>
+  <si>
+    <t>2008-11-11 12:49:51 +0200</t>
+  </si>
+  <si>
+    <t>2008-11-11 14:07:49 +0200</t>
+  </si>
+  <si>
+    <t>2008-11-13 17:50:32 +0200</t>
+  </si>
+  <si>
+    <t>2008-11-13 18:12:46 +0200</t>
+  </si>
+  <si>
+    <t>2008-11-13 20:43:03 +0200</t>
+  </si>
+  <si>
+    <t>2008-11-13 22:04:07 +0200</t>
+  </si>
+  <si>
+    <t>2008-11-13 22:24:11 +0200</t>
+  </si>
+  <si>
+    <t>2008-11-13 23:20:25 +0200</t>
+  </si>
+  <si>
+    <t>2008-11-13 23:53:00 +0200</t>
+  </si>
+  <si>
+    <t>2008-11-14 00:44:37 +0200</t>
+  </si>
+  <si>
+    <t>2008-11-14 14:55:35 +0200</t>
+  </si>
+  <si>
+    <t>2008-11-15 08:40:58 +0200</t>
+  </si>
+  <si>
+    <t>2008-11-15 11:05:17 +0200</t>
+  </si>
+  <si>
+    <t>2008-11-15 13:23:46 +0200</t>
+  </si>
+  <si>
+    <t>2008-11-15 15:07:19 +0200</t>
+  </si>
+  <si>
+    <t>2008-11-16 11:12:15 +0200</t>
+  </si>
+  <si>
+    <t>2008-11-16 15:06:59 +0200</t>
+  </si>
+  <si>
+    <t>2008-11-16 15:30:06 +0200</t>
+  </si>
+  <si>
+    <t>2008-11-16 16:19:32 +0200</t>
+  </si>
+  <si>
+    <t>2008-11-16 16:49:08 +0200</t>
+  </si>
+  <si>
+    <t>2008-11-16 17:56:54 +0200</t>
+  </si>
+  <si>
+    <t>2008-11-24 22:53:57 +0200</t>
+  </si>
+  <si>
+    <t>2008-11-30 15:58:58 +0200</t>
+  </si>
+  <si>
+    <t>2008-11-30 22:30:24 +0200</t>
+  </si>
+  <si>
+    <t>2008-10-18 19:42:21 +0300</t>
+  </si>
+  <si>
+    <t>2008-10-19 12:28:22 +0300</t>
+  </si>
+  <si>
+    <t>2008-10-23 23:02:37 +0300</t>
+  </si>
+  <si>
+    <t>2009-02-22 19:59:59 +0200</t>
+  </si>
+  <si>
+    <t>2009-04-27 22:47:56 +0300</t>
+  </si>
+  <si>
+    <t>2009-03-25 23:19:53 +0200</t>
   </si>
 </sst>
 </file>
@@ -8866,7 +8866,7 @@
         <v>147</v>
       </c>
       <c r="F194" t="s">
-        <v>1133</v>
+        <v>1092</v>
       </c>
       <c r="G194" s="13">
         <v>43875</v>
@@ -11605,13 +11605,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{495E7B31-8439-4BBC-8206-DAF1FFDAE945}">
   <dimension ref="A1:F333"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="D134" sqref="D134"/>
+    <sheetView tabSelected="1" topLeftCell="A163" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D177" sqref="D177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.5546875" style="28" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
@@ -11641,7 +11641,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="28" t="s">
-        <v>1135</v>
+        <v>1094</v>
       </c>
       <c r="B2" t="s">
         <v>628</v>
@@ -11650,7 +11650,7 @@
         <v>629</v>
       </c>
       <c r="D2" t="s">
-        <v>1183</v>
+        <v>1142</v>
       </c>
       <c r="E2" t="s">
         <v>631</v>
@@ -11658,7 +11658,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="28" t="s">
-        <v>1136</v>
+        <v>1095</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>627</v>
@@ -11667,42 +11667,42 @@
         <v>20</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>1183</v>
+        <v>1142</v>
       </c>
       <c r="E3" s="19"/>
       <c r="F3" t="s">
-        <v>827</v>
+        <v>786</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="28" t="s">
-        <v>1277</v>
+        <v>1236</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1189</v>
+        <v>1148</v>
       </c>
       <c r="C4" s="19"/>
       <c r="D4" s="18" t="s">
-        <v>1271</v>
+        <v>1230</v>
       </c>
       <c r="E4" s="19"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="28" t="s">
-        <v>1286</v>
+        <v>1245</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>1226</v>
+        <v>1185</v>
       </c>
       <c r="C5" s="19"/>
       <c r="D5" s="18" t="s">
-        <v>1272</v>
+        <v>1231</v>
       </c>
       <c r="E5" s="19"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="28" t="s">
-        <v>1273</v>
+        <v>1232</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>627</v>
@@ -11711,16 +11711,16 @@
         <v>79</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>1272</v>
+        <v>1231</v>
       </c>
       <c r="E6" s="19"/>
       <c r="F6" t="s">
-        <v>879</v>
+        <v>838</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="28" t="s">
-        <v>1137</v>
+        <v>1096</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>627</v>
@@ -11729,16 +11729,16 @@
         <v>43</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>1272</v>
+        <v>1231</v>
       </c>
       <c r="E7" s="19"/>
       <c r="F7" t="s">
-        <v>828</v>
+        <v>787</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="28" t="s">
-        <v>1138</v>
+        <v>1097</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>627</v>
@@ -11747,16 +11747,16 @@
         <v>38</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>1272</v>
+        <v>1231</v>
       </c>
       <c r="E8" s="19"/>
       <c r="F8" t="s">
-        <v>1134</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="28" t="s">
-        <v>1139</v>
+        <v>1098</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>627</v>
@@ -11765,16 +11765,16 @@
         <v>26</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>1272</v>
+        <v>1231</v>
       </c>
       <c r="E9" s="19"/>
       <c r="F9" t="s">
-        <v>830</v>
+        <v>789</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="28" t="s">
-        <v>1140</v>
+        <v>1099</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>627</v>
@@ -11783,16 +11783,16 @@
         <v>123</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>1272</v>
+        <v>1231</v>
       </c>
       <c r="E10" s="19"/>
       <c r="F10" t="s">
-        <v>831</v>
+        <v>790</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="28" t="s">
-        <v>1141</v>
+        <v>1100</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>627</v>
@@ -11801,16 +11801,16 @@
         <v>555</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>1272</v>
+        <v>1231</v>
       </c>
       <c r="E11" s="26"/>
       <c r="F11" t="s">
-        <v>832</v>
+        <v>791</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="28" t="s">
-        <v>1274</v>
+        <v>1233</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>627</v>
@@ -11819,16 +11819,16 @@
         <v>137</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>1272</v>
+        <v>1231</v>
       </c>
       <c r="E12" s="18"/>
       <c r="F12" s="6" t="s">
-        <v>903</v>
+        <v>862</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="28" t="s">
-        <v>1142</v>
+        <v>1101</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>627</v>
@@ -11837,16 +11837,16 @@
         <v>110</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>1272</v>
+        <v>1231</v>
       </c>
       <c r="E13" s="19"/>
       <c r="F13" t="s">
-        <v>833</v>
+        <v>792</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="28" t="s">
-        <v>1143</v>
+        <v>1102</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>627</v>
@@ -11855,16 +11855,16 @@
         <v>111</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>1272</v>
+        <v>1231</v>
       </c>
       <c r="E14" s="19"/>
       <c r="F14" t="s">
-        <v>834</v>
+        <v>793</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="28" t="s">
-        <v>1144</v>
+        <v>1103</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>627</v>
@@ -11873,16 +11873,16 @@
         <v>577</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>1272</v>
+        <v>1231</v>
       </c>
       <c r="E15" s="19"/>
       <c r="F15" t="s">
-        <v>835</v>
+        <v>794</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="28" t="s">
-        <v>1145</v>
+        <v>1104</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>627</v>
@@ -11891,16 +11891,16 @@
         <v>6</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>1272</v>
+        <v>1231</v>
       </c>
       <c r="E16" s="19"/>
       <c r="F16" t="s">
-        <v>836</v>
+        <v>795</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="28" t="s">
-        <v>1146</v>
+        <v>1105</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>627</v>
@@ -11909,16 +11909,16 @@
         <v>30</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>1272</v>
+        <v>1231</v>
       </c>
       <c r="E17" s="18"/>
       <c r="F17" s="6" t="s">
-        <v>837</v>
+        <v>796</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="28" t="s">
-        <v>1147</v>
+        <v>1106</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>627</v>
@@ -11927,16 +11927,16 @@
         <v>14</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>1272</v>
+        <v>1231</v>
       </c>
       <c r="E18" s="18"/>
       <c r="F18" t="s">
-        <v>838</v>
+        <v>797</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="28" t="s">
-        <v>1275</v>
+        <v>1234</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>627</v>
@@ -11945,16 +11945,16 @@
         <v>87</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>1272</v>
+        <v>1231</v>
       </c>
       <c r="E19" s="19"/>
       <c r="F19" t="s">
-        <v>886</v>
+        <v>845</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="28" t="s">
-        <v>1148</v>
+        <v>1107</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>627</v>
@@ -11963,19 +11963,19 @@
         <v>161</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>1272</v>
+        <v>1231</v>
       </c>
       <c r="E20" s="19"/>
       <c r="F20" t="s">
-        <v>839</v>
+        <v>798</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="28" t="s">
-        <v>1287</v>
+        <v>1246</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>1226</v>
+        <v>1185</v>
       </c>
       <c r="C21" s="19"/>
       <c r="D21" s="18" t="s">
@@ -11985,22 +11985,22 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="28" t="s">
-        <v>1276</v>
+        <v>1235</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>1180</v>
+        <v>1139</v>
       </c>
       <c r="C22" s="19" t="s">
         <v>38</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>1184</v>
+        <v>1143</v>
       </c>
       <c r="E22" s="19"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="28" t="s">
-        <v>1149</v>
+        <v>1108</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>627</v>
@@ -12013,12 +12013,12 @@
       </c>
       <c r="E23" s="19"/>
       <c r="F23" t="s">
-        <v>840</v>
+        <v>799</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="28" t="s">
-        <v>1150</v>
+        <v>1109</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>627</v>
@@ -12031,12 +12031,12 @@
       </c>
       <c r="E24" s="19"/>
       <c r="F24" t="s">
-        <v>841</v>
+        <v>800</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="28" t="s">
-        <v>1151</v>
+        <v>1110</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>627</v>
@@ -12049,12 +12049,12 @@
       </c>
       <c r="E25" s="19"/>
       <c r="F25" t="s">
-        <v>842</v>
+        <v>801</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="28" t="s">
-        <v>1152</v>
+        <v>1111</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>627</v>
@@ -12067,30 +12067,30 @@
       </c>
       <c r="E26" s="19"/>
       <c r="F26" s="19" t="s">
-        <v>843</v>
+        <v>802</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="28" t="s">
-        <v>1153</v>
+        <v>1112</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>628</v>
       </c>
       <c r="C27" s="31" t="s">
-        <v>826</v>
+        <v>785</v>
       </c>
       <c r="D27" s="18" t="s">
         <v>633</v>
       </c>
       <c r="E27" s="19" t="s">
-        <v>1154</v>
+        <v>1113</v>
       </c>
       <c r="F27" s="19"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="28" t="s">
-        <v>1155</v>
+        <v>1114</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>627</v>
@@ -12103,12 +12103,12 @@
       </c>
       <c r="E28" s="19"/>
       <c r="F28" t="s">
-        <v>844</v>
+        <v>803</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="28" t="s">
-        <v>1156</v>
+        <v>1115</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>627</v>
@@ -12121,12 +12121,12 @@
       </c>
       <c r="E29" s="19"/>
       <c r="F29" t="s">
-        <v>845</v>
+        <v>804</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="28" t="s">
-        <v>1157</v>
+        <v>1116</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>627</v>
@@ -12139,12 +12139,12 @@
       </c>
       <c r="E30" s="18"/>
       <c r="F30" s="6" t="s">
-        <v>846</v>
+        <v>805</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="28" t="s">
-        <v>1158</v>
+        <v>1117</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>627</v>
@@ -12157,30 +12157,30 @@
       </c>
       <c r="E31" s="18"/>
       <c r="F31" s="6" t="s">
-        <v>847</v>
+        <v>806</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="28" t="s">
-        <v>1159</v>
+        <v>1118</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C32" s="31" t="s">
-        <v>1163</v>
+        <v>1122</v>
       </c>
       <c r="D32" s="18" t="s">
         <v>633</v>
       </c>
       <c r="E32" s="19"/>
       <c r="F32" t="s">
-        <v>848</v>
+        <v>807</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="28" t="s">
-        <v>1160</v>
+        <v>1119</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>627</v>
@@ -12193,12 +12193,12 @@
       </c>
       <c r="E33" s="19"/>
       <c r="F33" t="s">
-        <v>849</v>
+        <v>808</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="28" t="s">
-        <v>1161</v>
+        <v>1120</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>627</v>
@@ -12211,12 +12211,12 @@
       </c>
       <c r="E34" s="26"/>
       <c r="F34" t="s">
-        <v>850</v>
+        <v>809</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="28" t="s">
-        <v>1285</v>
+        <v>1244</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>627</v>
@@ -12229,48 +12229,48 @@
       </c>
       <c r="E35" s="19"/>
       <c r="F35" t="s">
-        <v>922</v>
+        <v>881</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="28" t="s">
-        <v>1162</v>
+        <v>1121</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C36" s="31" t="s">
-        <v>1175</v>
+        <v>1134</v>
       </c>
       <c r="D36" s="18" t="s">
         <v>633</v>
       </c>
       <c r="E36" s="19"/>
       <c r="F36" t="s">
-        <v>851</v>
+        <v>810</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="28" t="s">
-        <v>1164</v>
+        <v>1123</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C37" s="31" t="s">
-        <v>1176</v>
+        <v>1135</v>
       </c>
       <c r="D37" s="18" t="s">
         <v>633</v>
       </c>
       <c r="E37" s="19"/>
       <c r="F37" t="s">
-        <v>852</v>
+        <v>811</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="28" t="s">
-        <v>1165</v>
+        <v>1124</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>627</v>
@@ -12283,12 +12283,12 @@
       </c>
       <c r="E38" s="19"/>
       <c r="F38" t="s">
-        <v>853</v>
+        <v>812</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="28" t="s">
-        <v>1166</v>
+        <v>1125</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>627</v>
@@ -12301,12 +12301,12 @@
       </c>
       <c r="E39" s="19"/>
       <c r="F39" t="s">
-        <v>854</v>
+        <v>813</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="28" t="s">
-        <v>1167</v>
+        <v>1126</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>627</v>
@@ -12319,12 +12319,12 @@
       </c>
       <c r="E40" s="19"/>
       <c r="F40" t="s">
-        <v>855</v>
+        <v>814</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="28" t="s">
-        <v>1168</v>
+        <v>1127</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>627</v>
@@ -12337,30 +12337,30 @@
       </c>
       <c r="E41" s="18"/>
       <c r="F41" t="s">
-        <v>856</v>
+        <v>815</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="28" t="s">
-        <v>1169</v>
+        <v>1128</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C42" s="31" t="s">
-        <v>1177</v>
+        <v>1136</v>
       </c>
       <c r="D42" s="18" t="s">
         <v>633</v>
       </c>
       <c r="E42" s="19"/>
       <c r="F42" s="19" t="s">
-        <v>857</v>
+        <v>816</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="28" t="s">
-        <v>1170</v>
+        <v>1129</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>627</v>
@@ -12373,12 +12373,12 @@
       </c>
       <c r="E43" s="19"/>
       <c r="F43" t="s">
-        <v>858</v>
+        <v>817</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="28" t="s">
-        <v>1171</v>
+        <v>1130</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>627</v>
@@ -12391,12 +12391,12 @@
       </c>
       <c r="E44" s="19"/>
       <c r="F44" t="s">
-        <v>829</v>
+        <v>788</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="28" t="s">
-        <v>1172</v>
+        <v>1131</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>627</v>
@@ -12409,12 +12409,12 @@
       </c>
       <c r="E45" s="19"/>
       <c r="F45" t="s">
-        <v>859</v>
+        <v>818</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="28" t="s">
-        <v>1173</v>
+        <v>1132</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>627</v>
@@ -12427,12 +12427,12 @@
       </c>
       <c r="E46" s="19"/>
       <c r="F46" t="s">
-        <v>860</v>
+        <v>819</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="28" t="s">
-        <v>1174</v>
+        <v>1133</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>627</v>
@@ -12445,87 +12445,87 @@
       </c>
       <c r="E47" s="19"/>
       <c r="F47" t="s">
-        <v>861</v>
+        <v>820</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="28" t="s">
-        <v>1288</v>
+        <v>1247</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>1226</v>
+        <v>1185</v>
       </c>
       <c r="C48" s="19"/>
       <c r="D48" s="18" t="s">
-        <v>1179</v>
+        <v>1138</v>
       </c>
       <c r="E48" s="19"/>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="28" t="s">
-        <v>1182</v>
+        <v>1141</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>628</v>
       </c>
       <c r="C49" s="19" t="s">
-        <v>1222</v>
+        <v>1181</v>
       </c>
       <c r="D49" s="18" t="s">
-        <v>1179</v>
+        <v>1138</v>
       </c>
       <c r="E49" s="19" t="s">
-        <v>1181</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="34" t="s">
-        <v>1178</v>
+        <v>1137</v>
       </c>
       <c r="B50" s="32" t="s">
-        <v>1180</v>
+        <v>1139</v>
       </c>
       <c r="C50" s="19" t="s">
         <v>18</v>
       </c>
       <c r="D50" s="18" t="s">
-        <v>1184</v>
+        <v>1143</v>
       </c>
       <c r="E50" s="19"/>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="34" t="s">
-        <v>1185</v>
+        <v>1144</v>
       </c>
       <c r="B51" s="32" t="s">
-        <v>1180</v>
+        <v>1139</v>
       </c>
       <c r="C51" s="19" t="s">
-        <v>1163</v>
+        <v>1122</v>
       </c>
       <c r="D51" s="18" t="s">
-        <v>1184</v>
+        <v>1143</v>
       </c>
       <c r="E51" s="19"/>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="34" t="s">
-        <v>1186</v>
+        <v>1145</v>
       </c>
       <c r="B52" s="32" t="s">
-        <v>1180</v>
+        <v>1139</v>
       </c>
       <c r="C52" s="19" t="s">
         <v>43</v>
       </c>
       <c r="D52" s="18" t="s">
-        <v>1184</v>
+        <v>1143</v>
       </c>
       <c r="E52" s="19"/>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="35" t="s">
-        <v>1187</v>
+        <v>1146</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>627</v>
@@ -12534,16 +12534,16 @@
         <v>45</v>
       </c>
       <c r="D53" s="18" t="s">
-        <v>1179</v>
+        <v>1138</v>
       </c>
       <c r="E53" s="18"/>
       <c r="F53" s="6" t="s">
-        <v>862</v>
+        <v>821</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="28" t="s">
-        <v>1188</v>
+        <v>1147</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>627</v>
@@ -12552,16 +12552,16 @@
         <v>47</v>
       </c>
       <c r="D54" s="18" t="s">
-        <v>1179</v>
+        <v>1138</v>
       </c>
       <c r="E54" s="19"/>
       <c r="F54" t="s">
-        <v>863</v>
+        <v>822</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="28" t="s">
-        <v>1190</v>
+        <v>1149</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>627</v>
@@ -12570,16 +12570,16 @@
         <v>49</v>
       </c>
       <c r="D55" s="18" t="s">
-        <v>1179</v>
+        <v>1138</v>
       </c>
       <c r="E55" s="18"/>
       <c r="F55" t="s">
-        <v>864</v>
+        <v>823</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="28" t="s">
-        <v>1191</v>
+        <v>1150</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>627</v>
@@ -12588,16 +12588,16 @@
         <v>51</v>
       </c>
       <c r="D56" s="18" t="s">
-        <v>1179</v>
+        <v>1138</v>
       </c>
       <c r="E56" s="19"/>
       <c r="F56" t="s">
-        <v>865</v>
+        <v>824</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="28" t="s">
-        <v>1192</v>
+        <v>1151</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>627</v>
@@ -12606,16 +12606,16 @@
         <v>53</v>
       </c>
       <c r="D57" s="18" t="s">
-        <v>1179</v>
+        <v>1138</v>
       </c>
       <c r="E57" s="19"/>
       <c r="F57" t="s">
-        <v>866</v>
+        <v>825</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="28" t="s">
-        <v>1193</v>
+        <v>1152</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>627</v>
@@ -12624,16 +12624,16 @@
         <v>55</v>
       </c>
       <c r="D58" s="18" t="s">
-        <v>1179</v>
+        <v>1138</v>
       </c>
       <c r="E58" s="19"/>
       <c r="F58" t="s">
-        <v>867</v>
+        <v>826</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="28" t="s">
-        <v>1194</v>
+        <v>1153</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>627</v>
@@ -12642,16 +12642,16 @@
         <v>61</v>
       </c>
       <c r="D59" s="18" t="s">
-        <v>1179</v>
+        <v>1138</v>
       </c>
       <c r="E59" s="19"/>
       <c r="F59" t="s">
-        <v>868</v>
+        <v>827</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="28" t="s">
-        <v>1195</v>
+        <v>1154</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>627</v>
@@ -12660,16 +12660,16 @@
         <v>63</v>
       </c>
       <c r="D60" s="18" t="s">
-        <v>1179</v>
+        <v>1138</v>
       </c>
       <c r="E60" s="19"/>
       <c r="F60" t="s">
-        <v>869</v>
+        <v>828</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="28" t="s">
-        <v>1196</v>
+        <v>1155</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>627</v>
@@ -12678,16 +12678,16 @@
         <v>65</v>
       </c>
       <c r="D61" s="18" t="s">
-        <v>1179</v>
+        <v>1138</v>
       </c>
       <c r="E61" s="18"/>
       <c r="F61" s="6" t="s">
-        <v>870</v>
+        <v>829</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="28" t="s">
-        <v>1197</v>
+        <v>1156</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>627</v>
@@ -12696,16 +12696,16 @@
         <v>67</v>
       </c>
       <c r="D62" s="18" t="s">
-        <v>1179</v>
+        <v>1138</v>
       </c>
       <c r="E62" s="18"/>
       <c r="F62" t="s">
-        <v>871</v>
+        <v>830</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="28" t="s">
-        <v>1198</v>
+        <v>1157</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>627</v>
@@ -12714,16 +12714,16 @@
         <v>70</v>
       </c>
       <c r="D63" s="18" t="s">
-        <v>1179</v>
+        <v>1138</v>
       </c>
       <c r="E63" s="19"/>
       <c r="F63" t="s">
-        <v>872</v>
+        <v>831</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="28" t="s">
-        <v>1199</v>
+        <v>1158</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>627</v>
@@ -12732,16 +12732,16 @@
         <v>69</v>
       </c>
       <c r="D64" s="18" t="s">
-        <v>1179</v>
+        <v>1138</v>
       </c>
       <c r="E64" s="19"/>
       <c r="F64" t="s">
-        <v>873</v>
+        <v>832</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="28" t="s">
-        <v>1201</v>
+        <v>1160</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>627</v>
@@ -12750,16 +12750,16 @@
         <v>96</v>
       </c>
       <c r="D65" s="18" t="s">
-        <v>1179</v>
+        <v>1138</v>
       </c>
       <c r="E65" s="19"/>
       <c r="F65" t="s">
-        <v>874</v>
+        <v>833</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="28" t="s">
-        <v>1202</v>
+        <v>1161</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>627</v>
@@ -12768,16 +12768,16 @@
         <v>73</v>
       </c>
       <c r="D66" s="18" t="s">
-        <v>1179</v>
+        <v>1138</v>
       </c>
       <c r="E66" s="19"/>
       <c r="F66" t="s">
-        <v>875</v>
+        <v>834</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="28" t="s">
-        <v>1203</v>
+        <v>1162</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>627</v>
@@ -12786,16 +12786,16 @@
         <v>75</v>
       </c>
       <c r="D67" s="18" t="s">
-        <v>1179</v>
+        <v>1138</v>
       </c>
       <c r="E67" s="19"/>
       <c r="F67" t="s">
-        <v>876</v>
+        <v>835</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="28" t="s">
-        <v>1204</v>
+        <v>1163</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>627</v>
@@ -12804,16 +12804,16 @@
         <v>77</v>
       </c>
       <c r="D68" s="18" t="s">
-        <v>1179</v>
+        <v>1138</v>
       </c>
       <c r="E68" s="19"/>
       <c r="F68" t="s">
-        <v>877</v>
+        <v>836</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="28" t="s">
-        <v>1205</v>
+        <v>1164</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>627</v>
@@ -12822,16 +12822,16 @@
         <v>122</v>
       </c>
       <c r="D69" s="18" t="s">
-        <v>1179</v>
+        <v>1138</v>
       </c>
       <c r="E69" s="19"/>
       <c r="F69" t="s">
-        <v>878</v>
+        <v>837</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="28" t="s">
-        <v>1206</v>
+        <v>1165</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>627</v>
@@ -12840,16 +12840,16 @@
         <v>94</v>
       </c>
       <c r="D70" s="18" t="s">
-        <v>1179</v>
+        <v>1138</v>
       </c>
       <c r="E70" s="19"/>
       <c r="F70" t="s">
-        <v>880</v>
+        <v>839</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="28" t="s">
-        <v>1207</v>
+        <v>1166</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>627</v>
@@ -12858,29 +12858,29 @@
         <v>84</v>
       </c>
       <c r="D71" s="18" t="s">
-        <v>1179</v>
+        <v>1138</v>
       </c>
       <c r="E71" s="19"/>
       <c r="F71" t="s">
-        <v>881</v>
+        <v>840</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="28" t="s">
-        <v>1289</v>
+        <v>1248</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>1226</v>
+        <v>1185</v>
       </c>
       <c r="C72" s="19"/>
       <c r="D72" s="18" t="s">
-        <v>1200</v>
+        <v>1159</v>
       </c>
       <c r="E72" s="33"/>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="28" t="s">
-        <v>1208</v>
+        <v>1167</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>627</v>
@@ -12889,33 +12889,33 @@
         <v>542</v>
       </c>
       <c r="D73" s="18" t="s">
-        <v>1179</v>
+        <v>1138</v>
       </c>
       <c r="E73" s="26"/>
       <c r="F73" t="s">
-        <v>882</v>
+        <v>841</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="28" t="s">
-        <v>1224</v>
+        <v>1183</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>628</v>
       </c>
       <c r="C74" s="19" t="s">
-        <v>1223</v>
+        <v>1182</v>
       </c>
       <c r="D74" s="18" t="s">
-        <v>1200</v>
+        <v>1159</v>
       </c>
       <c r="E74" s="33" t="s">
-        <v>1225</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="28" t="s">
-        <v>1209</v>
+        <v>1168</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>627</v>
@@ -12924,16 +12924,16 @@
         <v>86</v>
       </c>
       <c r="D75" s="18" t="s">
-        <v>1200</v>
+        <v>1159</v>
       </c>
       <c r="E75" s="19"/>
       <c r="F75" t="s">
-        <v>883</v>
+        <v>842</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="28" t="s">
-        <v>1210</v>
+        <v>1169</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>627</v>
@@ -12942,16 +12942,16 @@
         <v>543</v>
       </c>
       <c r="D76" s="18" t="s">
-        <v>1200</v>
+        <v>1159</v>
       </c>
       <c r="E76" s="26"/>
       <c r="F76" t="s">
-        <v>884</v>
+        <v>843</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="28" t="s">
-        <v>1211</v>
+        <v>1170</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>627</v>
@@ -12960,16 +12960,16 @@
         <v>547</v>
       </c>
       <c r="D77" s="18" t="s">
-        <v>1200</v>
+        <v>1159</v>
       </c>
       <c r="E77" s="26"/>
       <c r="F77" t="s">
-        <v>885</v>
+        <v>844</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="28" t="s">
-        <v>1212</v>
+        <v>1171</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>627</v>
@@ -12978,16 +12978,16 @@
         <v>548</v>
       </c>
       <c r="D78" s="18" t="s">
-        <v>1200</v>
+        <v>1159</v>
       </c>
       <c r="E78" s="18"/>
       <c r="F78" s="6" t="s">
-        <v>887</v>
+        <v>846</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="28" t="s">
-        <v>1213</v>
+        <v>1172</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>627</v>
@@ -12996,16 +12996,16 @@
         <v>88</v>
       </c>
       <c r="D79" s="18" t="s">
-        <v>1200</v>
+        <v>1159</v>
       </c>
       <c r="E79" s="19"/>
       <c r="F79" t="s">
-        <v>888</v>
+        <v>847</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="28" t="s">
-        <v>1214</v>
+        <v>1173</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>627</v>
@@ -13014,16 +13014,16 @@
         <v>550</v>
       </c>
       <c r="D80" s="18" t="s">
-        <v>1179</v>
+        <v>1138</v>
       </c>
       <c r="E80" s="19"/>
       <c r="F80" t="s">
-        <v>889</v>
+        <v>848</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="28" t="s">
-        <v>1215</v>
+        <v>1174</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>627</v>
@@ -13032,16 +13032,16 @@
         <v>549</v>
       </c>
       <c r="D81" s="18" t="s">
-        <v>1200</v>
+        <v>1159</v>
       </c>
       <c r="E81" s="18"/>
       <c r="F81" s="6" t="s">
-        <v>890</v>
+        <v>849</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="28" t="s">
-        <v>1216</v>
+        <v>1175</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>627</v>
@@ -13050,16 +13050,16 @@
         <v>551</v>
       </c>
       <c r="D82" s="18" t="s">
-        <v>1200</v>
+        <v>1159</v>
       </c>
       <c r="E82" s="19"/>
       <c r="F82" t="s">
-        <v>891</v>
+        <v>850</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="28" t="s">
-        <v>1217</v>
+        <v>1176</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>627</v>
@@ -13068,16 +13068,16 @@
         <v>552</v>
       </c>
       <c r="D83" s="18" t="s">
-        <v>1200</v>
+        <v>1159</v>
       </c>
       <c r="E83" s="19"/>
       <c r="F83" t="s">
-        <v>892</v>
+        <v>851</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="28" t="s">
-        <v>1218</v>
+        <v>1177</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>627</v>
@@ -13086,16 +13086,16 @@
         <v>97</v>
       </c>
       <c r="D84" s="18" t="s">
-        <v>1200</v>
+        <v>1159</v>
       </c>
       <c r="E84" s="19"/>
       <c r="F84" t="s">
-        <v>893</v>
+        <v>852</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="28" t="s">
-        <v>1219</v>
+        <v>1178</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>627</v>
@@ -13104,16 +13104,16 @@
         <v>98</v>
       </c>
       <c r="D85" s="18" t="s">
-        <v>1200</v>
+        <v>1159</v>
       </c>
       <c r="E85" s="19"/>
       <c r="F85" t="s">
-        <v>894</v>
+        <v>853</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="28" t="s">
-        <v>1220</v>
+        <v>1179</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>627</v>
@@ -13122,32 +13122,32 @@
         <v>104</v>
       </c>
       <c r="D86" s="18" t="s">
-        <v>1179</v>
+        <v>1138</v>
       </c>
       <c r="E86" s="18"/>
       <c r="F86" s="6" t="s">
-        <v>895</v>
+        <v>854</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="28" t="s">
-        <v>1298</v>
+        <v>1257</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>1180</v>
+        <v>1139</v>
       </c>
       <c r="C87" s="18" t="s">
         <v>104</v>
       </c>
       <c r="D87" s="18" t="s">
-        <v>1184</v>
+        <v>1143</v>
       </c>
       <c r="E87" s="18"/>
       <c r="F87" s="6"/>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="28" t="s">
-        <v>1221</v>
+        <v>1180</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>627</v>
@@ -13160,27 +13160,27 @@
       </c>
       <c r="E88" s="26"/>
       <c r="F88" t="s">
-        <v>896</v>
+        <v>855</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="28" t="s">
-        <v>1299</v>
+        <v>1258</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>1180</v>
+        <v>1139</v>
       </c>
       <c r="C89" s="26" t="s">
         <v>553</v>
       </c>
       <c r="D89" s="26" t="s">
-        <v>1184</v>
+        <v>1143</v>
       </c>
       <c r="E89" s="26"/>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="28" t="s">
-        <v>1228</v>
+        <v>1187</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>627</v>
@@ -13189,31 +13189,31 @@
         <v>124</v>
       </c>
       <c r="D90" s="18" t="s">
-        <v>1179</v>
+        <v>1138</v>
       </c>
       <c r="E90" s="19"/>
       <c r="F90" t="s">
-        <v>897</v>
+        <v>856</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="28" t="s">
-        <v>1300</v>
+        <v>1259</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>1180</v>
+        <v>1139</v>
       </c>
       <c r="C91" s="19" t="s">
         <v>124</v>
       </c>
       <c r="D91" s="18" t="s">
-        <v>1184</v>
+        <v>1143</v>
       </c>
       <c r="E91" s="19"/>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="28" t="s">
-        <v>1229</v>
+        <v>1188</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>627</v>
@@ -13222,16 +13222,16 @@
         <v>107</v>
       </c>
       <c r="D92" s="18" t="s">
-        <v>1200</v>
+        <v>1159</v>
       </c>
       <c r="E92" s="19"/>
       <c r="F92" t="s">
-        <v>898</v>
+        <v>857</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="28" t="s">
-        <v>1230</v>
+        <v>1189</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>627</v>
@@ -13240,16 +13240,16 @@
         <v>106</v>
       </c>
       <c r="D93" s="18" t="s">
-        <v>1200</v>
+        <v>1159</v>
       </c>
       <c r="E93" s="19"/>
       <c r="F93" t="s">
-        <v>899</v>
+        <v>858</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="28" t="s">
-        <v>1231</v>
+        <v>1190</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>627</v>
@@ -13258,16 +13258,16 @@
         <v>109</v>
       </c>
       <c r="D94" s="18" t="s">
-        <v>1200</v>
+        <v>1159</v>
       </c>
       <c r="E94" s="18"/>
       <c r="F94" t="s">
-        <v>900</v>
+        <v>859</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="28" t="s">
-        <v>1232</v>
+        <v>1191</v>
       </c>
       <c r="B95" s="3" t="s">
         <v>627</v>
@@ -13276,16 +13276,16 @@
         <v>108</v>
       </c>
       <c r="D95" s="18" t="s">
-        <v>1200</v>
+        <v>1159</v>
       </c>
       <c r="E95" s="19"/>
       <c r="F95" t="s">
-        <v>901</v>
+        <v>860</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="28" t="s">
-        <v>1233</v>
+        <v>1192</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>627</v>
@@ -13294,16 +13294,16 @@
         <v>112</v>
       </c>
       <c r="D96" s="18" t="s">
-        <v>1200</v>
+        <v>1159</v>
       </c>
       <c r="E96" s="19"/>
       <c r="F96" t="s">
-        <v>902</v>
+        <v>861</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="28" t="s">
-        <v>1234</v>
+        <v>1193</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>627</v>
@@ -13312,16 +13312,16 @@
         <v>113</v>
       </c>
       <c r="D97" s="18" t="s">
-        <v>1200</v>
+        <v>1159</v>
       </c>
       <c r="E97" s="18"/>
       <c r="F97" s="6" t="s">
-        <v>904</v>
+        <v>863</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="28" t="s">
-        <v>1235</v>
+        <v>1194</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>627</v>
@@ -13330,16 +13330,16 @@
         <v>127</v>
       </c>
       <c r="D98" s="18" t="s">
-        <v>1200</v>
+        <v>1159</v>
       </c>
       <c r="E98" s="19"/>
       <c r="F98" t="s">
-        <v>905</v>
+        <v>864</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="28" t="s">
-        <v>1236</v>
+        <v>1195</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>627</v>
@@ -13348,16 +13348,16 @@
         <v>129</v>
       </c>
       <c r="D99" s="18" t="s">
-        <v>1200</v>
+        <v>1159</v>
       </c>
       <c r="E99" s="18"/>
       <c r="F99" t="s">
-        <v>906</v>
+        <v>865</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="28" t="s">
-        <v>1237</v>
+        <v>1196</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>627</v>
@@ -13366,16 +13366,16 @@
         <v>169</v>
       </c>
       <c r="D100" s="18" t="s">
-        <v>1200</v>
+        <v>1159</v>
       </c>
       <c r="E100" s="19"/>
       <c r="F100" t="s">
-        <v>907</v>
+        <v>866</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="28" t="s">
-        <v>1238</v>
+        <v>1197</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>627</v>
@@ -13384,16 +13384,16 @@
         <v>131</v>
       </c>
       <c r="D101" s="18" t="s">
-        <v>1200</v>
+        <v>1159</v>
       </c>
       <c r="E101" s="18"/>
       <c r="F101" t="s">
-        <v>908</v>
+        <v>867</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="28" t="s">
-        <v>1239</v>
+        <v>1198</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>627</v>
@@ -13402,16 +13402,16 @@
         <v>133</v>
       </c>
       <c r="D102" s="18" t="s">
-        <v>1200</v>
+        <v>1159</v>
       </c>
       <c r="E102" s="19"/>
       <c r="F102" t="s">
-        <v>909</v>
+        <v>868</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="28" t="s">
-        <v>1240</v>
+        <v>1199</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>627</v>
@@ -13420,16 +13420,16 @@
         <v>578</v>
       </c>
       <c r="D103" s="18" t="s">
-        <v>1200</v>
+        <v>1159</v>
       </c>
       <c r="E103" s="26"/>
       <c r="F103" t="s">
-        <v>910</v>
+        <v>869</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="28" t="s">
-        <v>1241</v>
+        <v>1200</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>627</v>
@@ -13438,16 +13438,16 @@
         <v>556</v>
       </c>
       <c r="D104" s="18" t="s">
-        <v>1200</v>
+        <v>1159</v>
       </c>
       <c r="E104" s="26"/>
       <c r="F104" t="s">
-        <v>911</v>
+        <v>870</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="28" t="s">
-        <v>1242</v>
+        <v>1201</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>627</v>
@@ -13456,16 +13456,16 @@
         <v>135</v>
       </c>
       <c r="D105" s="18" t="s">
-        <v>1200</v>
+        <v>1159</v>
       </c>
       <c r="E105" s="19"/>
       <c r="F105" t="s">
-        <v>912</v>
+        <v>871</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="28" t="s">
-        <v>1243</v>
+        <v>1202</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>627</v>
@@ -13474,16 +13474,16 @@
         <v>567</v>
       </c>
       <c r="D106" s="18" t="s">
-        <v>1200</v>
+        <v>1159</v>
       </c>
       <c r="E106" s="19"/>
       <c r="F106" t="s">
-        <v>913</v>
+        <v>872</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="28" t="s">
-        <v>1244</v>
+        <v>1203</v>
       </c>
       <c r="B107" s="3" t="s">
         <v>627</v>
@@ -13492,16 +13492,16 @@
         <v>569</v>
       </c>
       <c r="D107" s="18" t="s">
-        <v>1200</v>
+        <v>1159</v>
       </c>
       <c r="E107" s="19"/>
       <c r="F107" t="s">
-        <v>914</v>
+        <v>873</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="28" t="s">
-        <v>1245</v>
+        <v>1204</v>
       </c>
       <c r="B108" s="3" t="s">
         <v>627</v>
@@ -13510,16 +13510,16 @@
         <v>579</v>
       </c>
       <c r="D108" s="18" t="s">
-        <v>1200</v>
+        <v>1159</v>
       </c>
       <c r="E108" s="19"/>
       <c r="F108" t="s">
-        <v>915</v>
+        <v>874</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="28" t="s">
-        <v>1246</v>
+        <v>1205</v>
       </c>
       <c r="B109" s="3" t="s">
         <v>627</v>
@@ -13528,16 +13528,16 @@
         <v>580</v>
       </c>
       <c r="D109" s="18" t="s">
-        <v>1200</v>
+        <v>1159</v>
       </c>
       <c r="E109" s="19"/>
       <c r="F109" t="s">
-        <v>916</v>
+        <v>875</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="28" t="s">
-        <v>1247</v>
+        <v>1206</v>
       </c>
       <c r="B110" s="3" t="s">
         <v>627</v>
@@ -13546,16 +13546,16 @@
         <v>539</v>
       </c>
       <c r="D110" s="18" t="s">
-        <v>1200</v>
+        <v>1159</v>
       </c>
       <c r="E110" s="26"/>
       <c r="F110" t="s">
-        <v>917</v>
+        <v>876</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="28" t="s">
-        <v>1248</v>
+        <v>1207</v>
       </c>
       <c r="B111" s="3" t="s">
         <v>627</v>
@@ -13564,16 +13564,16 @@
         <v>143</v>
       </c>
       <c r="D111" s="18" t="s">
-        <v>1200</v>
+        <v>1159</v>
       </c>
       <c r="E111" s="19"/>
       <c r="F111" t="s">
-        <v>918</v>
+        <v>877</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="28" t="s">
-        <v>1249</v>
+        <v>1208</v>
       </c>
       <c r="B112" s="3" t="s">
         <v>627</v>
@@ -13582,16 +13582,16 @@
         <v>145</v>
       </c>
       <c r="D112" s="18" t="s">
-        <v>1200</v>
+        <v>1159</v>
       </c>
       <c r="E112" s="19"/>
       <c r="F112" t="s">
-        <v>919</v>
+        <v>878</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="28" t="s">
-        <v>1250</v>
+        <v>1209</v>
       </c>
       <c r="B113" s="3" t="s">
         <v>627</v>
@@ -13600,16 +13600,16 @@
         <v>581</v>
       </c>
       <c r="D113" s="18" t="s">
-        <v>1200</v>
+        <v>1159</v>
       </c>
       <c r="E113" s="26"/>
       <c r="F113" t="s">
-        <v>920</v>
+        <v>879</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="28" t="s">
-        <v>1251</v>
+        <v>1210</v>
       </c>
       <c r="B114" s="3" t="s">
         <v>627</v>
@@ -13618,16 +13618,16 @@
         <v>531</v>
       </c>
       <c r="D114" s="18" t="s">
-        <v>1200</v>
+        <v>1159</v>
       </c>
       <c r="E114" s="19"/>
       <c r="F114" t="s">
-        <v>921</v>
+        <v>880</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="28" t="s">
-        <v>1252</v>
+        <v>1211</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>627</v>
@@ -13636,16 +13636,16 @@
         <v>582</v>
       </c>
       <c r="D115" s="18" t="s">
-        <v>1200</v>
+        <v>1159</v>
       </c>
       <c r="E115" s="26"/>
       <c r="F115" t="s">
-        <v>923</v>
+        <v>882</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="28" t="s">
-        <v>1253</v>
+        <v>1212</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>627</v>
@@ -13654,16 +13654,16 @@
         <v>149</v>
       </c>
       <c r="D116" s="18" t="s">
-        <v>1200</v>
+        <v>1159</v>
       </c>
       <c r="E116" s="19"/>
       <c r="F116" t="s">
-        <v>924</v>
+        <v>883</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="28" t="s">
-        <v>1254</v>
+        <v>1213</v>
       </c>
       <c r="B117" s="3" t="s">
         <v>627</v>
@@ -13672,16 +13672,16 @@
         <v>139</v>
       </c>
       <c r="D117" s="18" t="s">
-        <v>1200</v>
+        <v>1159</v>
       </c>
       <c r="E117" s="19"/>
       <c r="F117" t="s">
-        <v>925</v>
+        <v>884</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118" s="28" t="s">
-        <v>1255</v>
+        <v>1214</v>
       </c>
       <c r="B118" s="3" t="s">
         <v>627</v>
@@ -13690,16 +13690,16 @@
         <v>140</v>
       </c>
       <c r="D118" s="18" t="s">
-        <v>1200</v>
+        <v>1159</v>
       </c>
       <c r="E118" s="26"/>
       <c r="F118" t="s">
-        <v>926</v>
+        <v>885</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119" s="28" t="s">
-        <v>1256</v>
+        <v>1215</v>
       </c>
       <c r="B119" s="3" t="s">
         <v>627</v>
@@ -13708,16 +13708,16 @@
         <v>162</v>
       </c>
       <c r="D119" s="18" t="s">
-        <v>1200</v>
+        <v>1159</v>
       </c>
       <c r="E119" s="19"/>
       <c r="F119" t="s">
-        <v>927</v>
+        <v>886</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120" s="28" t="s">
-        <v>1257</v>
+        <v>1216</v>
       </c>
       <c r="B120" s="3" t="s">
         <v>627</v>
@@ -13726,16 +13726,16 @@
         <v>151</v>
       </c>
       <c r="D120" s="18" t="s">
-        <v>1200</v>
+        <v>1159</v>
       </c>
       <c r="E120" s="19"/>
       <c r="F120" t="s">
-        <v>928</v>
+        <v>887</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="28" t="s">
-        <v>1258</v>
+        <v>1217</v>
       </c>
       <c r="B121" s="3" t="s">
         <v>627</v>
@@ -13744,16 +13744,16 @@
         <v>527</v>
       </c>
       <c r="D121" s="18" t="s">
-        <v>1200</v>
+        <v>1159</v>
       </c>
       <c r="E121" s="26"/>
       <c r="F121" t="s">
-        <v>929</v>
+        <v>888</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="28" t="s">
-        <v>1259</v>
+        <v>1218</v>
       </c>
       <c r="B122" s="3" t="s">
         <v>627</v>
@@ -13762,16 +13762,16 @@
         <v>150</v>
       </c>
       <c r="D122" s="18" t="s">
-        <v>1200</v>
+        <v>1159</v>
       </c>
       <c r="E122" s="19"/>
       <c r="F122" t="s">
-        <v>930</v>
+        <v>889</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="28" t="s">
-        <v>1260</v>
+        <v>1219</v>
       </c>
       <c r="B123" s="3" t="s">
         <v>627</v>
@@ -13780,16 +13780,16 @@
         <v>525</v>
       </c>
       <c r="D123" s="18" t="s">
-        <v>1200</v>
+        <v>1159</v>
       </c>
       <c r="E123" s="19"/>
       <c r="F123" t="s">
-        <v>931</v>
+        <v>890</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="28" t="s">
-        <v>1261</v>
+        <v>1220</v>
       </c>
       <c r="B124" s="3" t="s">
         <v>627</v>
@@ -13798,16 +13798,16 @@
         <v>583</v>
       </c>
       <c r="D124" s="18" t="s">
-        <v>1200</v>
+        <v>1159</v>
       </c>
       <c r="E124" s="26"/>
       <c r="F124" t="s">
-        <v>932</v>
+        <v>891</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="28" t="s">
-        <v>1262</v>
+        <v>1221</v>
       </c>
       <c r="B125" s="3" t="s">
         <v>627</v>
@@ -13816,16 +13816,16 @@
         <v>571</v>
       </c>
       <c r="D125" s="18" t="s">
-        <v>1200</v>
+        <v>1159</v>
       </c>
       <c r="E125" s="26"/>
       <c r="F125" t="s">
-        <v>933</v>
+        <v>892</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="28" t="s">
-        <v>1263</v>
+        <v>1222</v>
       </c>
       <c r="B126" s="3" t="s">
         <v>627</v>
@@ -13834,16 +13834,16 @@
         <v>573</v>
       </c>
       <c r="D126" s="18" t="s">
-        <v>1200</v>
+        <v>1159</v>
       </c>
       <c r="E126" s="19"/>
       <c r="F126" t="s">
-        <v>934</v>
+        <v>893</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="28" t="s">
-        <v>1264</v>
+        <v>1223</v>
       </c>
       <c r="B127" s="3" t="s">
         <v>627</v>
@@ -13852,16 +13852,16 @@
         <v>575</v>
       </c>
       <c r="D127" s="18" t="s">
-        <v>1200</v>
+        <v>1159</v>
       </c>
       <c r="E127" s="19"/>
       <c r="F127" t="s">
-        <v>935</v>
+        <v>894</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128" s="28" t="s">
-        <v>1265</v>
+        <v>1224</v>
       </c>
       <c r="B128" s="3" t="s">
         <v>627</v>
@@ -13870,16 +13870,16 @@
         <v>584</v>
       </c>
       <c r="D128" s="18" t="s">
-        <v>1200</v>
+        <v>1159</v>
       </c>
       <c r="E128" s="26"/>
       <c r="F128" t="s">
-        <v>936</v>
+        <v>895</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129" s="28" t="s">
-        <v>1266</v>
+        <v>1225</v>
       </c>
       <c r="B129" s="3" t="s">
         <v>627</v>
@@ -13888,16 +13888,16 @@
         <v>585</v>
       </c>
       <c r="D129" s="18" t="s">
-        <v>1200</v>
+        <v>1159</v>
       </c>
       <c r="E129" s="26"/>
       <c r="F129" t="s">
-        <v>937</v>
+        <v>896</v>
       </c>
     </row>
     <row r="130" spans="1:6">
       <c r="A130" s="28" t="s">
-        <v>1267</v>
+        <v>1226</v>
       </c>
       <c r="B130" s="3" t="s">
         <v>627</v>
@@ -13906,16 +13906,16 @@
         <v>156</v>
       </c>
       <c r="D130" s="18" t="s">
-        <v>1200</v>
+        <v>1159</v>
       </c>
       <c r="E130" s="19"/>
       <c r="F130" t="s">
-        <v>938</v>
+        <v>897</v>
       </c>
     </row>
     <row r="131" spans="1:6">
       <c r="A131" s="28" t="s">
-        <v>1268</v>
+        <v>1227</v>
       </c>
       <c r="B131" s="3" t="s">
         <v>627</v>
@@ -13924,16 +13924,16 @@
         <v>158</v>
       </c>
       <c r="D131" s="18" t="s">
-        <v>1200</v>
+        <v>1159</v>
       </c>
       <c r="E131" s="19"/>
       <c r="F131" t="s">
-        <v>939</v>
+        <v>898</v>
       </c>
     </row>
     <row r="132" spans="1:6">
       <c r="A132" s="28" t="s">
-        <v>1269</v>
+        <v>1228</v>
       </c>
       <c r="B132" s="3" t="s">
         <v>627</v>
@@ -13942,16 +13942,16 @@
         <v>160</v>
       </c>
       <c r="D132" s="18" t="s">
-        <v>1200</v>
+        <v>1159</v>
       </c>
       <c r="E132" s="18"/>
       <c r="F132" s="6" t="s">
-        <v>940</v>
+        <v>899</v>
       </c>
     </row>
     <row r="133" spans="1:6">
       <c r="A133" s="28" t="s">
-        <v>1270</v>
+        <v>1229</v>
       </c>
       <c r="B133" s="3" t="s">
         <v>627</v>
@@ -13960,29 +13960,29 @@
         <v>595</v>
       </c>
       <c r="D133" s="18" t="s">
-        <v>1200</v>
+        <v>1159</v>
       </c>
       <c r="E133" s="26"/>
       <c r="F133" t="s">
-        <v>941</v>
+        <v>900</v>
       </c>
     </row>
     <row r="134" spans="1:6">
       <c r="A134" s="28" t="s">
-        <v>1290</v>
+        <v>1249</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>1226</v>
+        <v>1185</v>
       </c>
       <c r="C134" s="19"/>
       <c r="D134" s="18" t="s">
-        <v>1227</v>
+        <v>1186</v>
       </c>
       <c r="E134" s="26"/>
     </row>
     <row r="135" spans="1:6">
       <c r="A135" s="28" t="s">
-        <v>634</v>
+        <v>1295</v>
       </c>
       <c r="B135" s="3" t="s">
         <v>627</v>
@@ -13990,15 +13990,17 @@
       <c r="C135" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="D135" s="19"/>
+      <c r="D135" s="18" t="s">
+        <v>1186</v>
+      </c>
       <c r="E135" s="19"/>
       <c r="F135" t="s">
-        <v>942</v>
+        <v>901</v>
       </c>
     </row>
     <row r="136" spans="1:6">
       <c r="A136" s="28" t="s">
-        <v>635</v>
+        <v>1296</v>
       </c>
       <c r="B136" s="3" t="s">
         <v>627</v>
@@ -14006,15 +14008,17 @@
       <c r="C136" s="26" t="s">
         <v>599</v>
       </c>
-      <c r="D136" s="26"/>
+      <c r="D136" s="18" t="s">
+        <v>1186</v>
+      </c>
       <c r="E136" s="26"/>
       <c r="F136" t="s">
-        <v>943</v>
+        <v>902</v>
       </c>
     </row>
     <row r="137" spans="1:6">
       <c r="A137" s="28" t="s">
-        <v>636</v>
+        <v>1297</v>
       </c>
       <c r="B137" s="3" t="s">
         <v>627</v>
@@ -14022,15 +14026,17 @@
       <c r="C137" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="D137" s="19"/>
+      <c r="D137" s="18" t="s">
+        <v>1186</v>
+      </c>
       <c r="E137" s="19"/>
       <c r="F137" t="s">
-        <v>944</v>
+        <v>903</v>
       </c>
     </row>
     <row r="138" spans="1:6">
       <c r="A138" s="28" t="s">
-        <v>637</v>
+        <v>1260</v>
       </c>
       <c r="B138" s="3" t="s">
         <v>627</v>
@@ -14038,15 +14044,17 @@
       <c r="C138" s="19" t="s">
         <v>251</v>
       </c>
-      <c r="D138" s="19"/>
+      <c r="D138" s="18" t="s">
+        <v>1186</v>
+      </c>
       <c r="E138" s="19"/>
       <c r="F138" t="s">
-        <v>945</v>
+        <v>904</v>
       </c>
     </row>
     <row r="139" spans="1:6">
       <c r="A139" s="28" t="s">
-        <v>638</v>
+        <v>1261</v>
       </c>
       <c r="B139" s="3" t="s">
         <v>627</v>
@@ -14054,15 +14062,17 @@
       <c r="C139" s="26" t="s">
         <v>170</v>
       </c>
-      <c r="D139" s="26"/>
+      <c r="D139" s="18" t="s">
+        <v>1186</v>
+      </c>
       <c r="E139" s="26"/>
       <c r="F139" t="s">
-        <v>946</v>
+        <v>905</v>
       </c>
     </row>
     <row r="140" spans="1:6">
       <c r="A140" s="28" t="s">
-        <v>639</v>
+        <v>1262</v>
       </c>
       <c r="B140" s="3" t="s">
         <v>627</v>
@@ -14070,15 +14080,17 @@
       <c r="C140" s="27" t="s">
         <v>171</v>
       </c>
-      <c r="D140" s="27"/>
+      <c r="D140" s="18" t="s">
+        <v>1186</v>
+      </c>
       <c r="E140" s="27"/>
       <c r="F140" t="s">
-        <v>947</v>
+        <v>906</v>
       </c>
     </row>
     <row r="141" spans="1:6">
       <c r="A141" s="28" t="s">
-        <v>640</v>
+        <v>1263</v>
       </c>
       <c r="B141" s="3" t="s">
         <v>627</v>
@@ -14086,15 +14098,17 @@
       <c r="C141" s="19" t="s">
         <v>172</v>
       </c>
-      <c r="D141" s="19"/>
+      <c r="D141" s="18" t="s">
+        <v>1186</v>
+      </c>
       <c r="E141" s="19"/>
       <c r="F141" t="s">
-        <v>948</v>
+        <v>907</v>
       </c>
     </row>
     <row r="142" spans="1:6">
       <c r="A142" s="28" t="s">
-        <v>641</v>
+        <v>1264</v>
       </c>
       <c r="B142" s="3" t="s">
         <v>627</v>
@@ -14102,15 +14116,17 @@
       <c r="C142" s="26" t="s">
         <v>601</v>
       </c>
-      <c r="D142" s="26"/>
+      <c r="D142" s="18" t="s">
+        <v>1186</v>
+      </c>
       <c r="E142" s="26"/>
       <c r="F142" t="s">
-        <v>949</v>
+        <v>908</v>
       </c>
     </row>
     <row r="143" spans="1:6">
       <c r="A143" s="28" t="s">
-        <v>642</v>
+        <v>1265</v>
       </c>
       <c r="B143" s="3" t="s">
         <v>627</v>
@@ -14118,15 +14134,17 @@
       <c r="C143" s="26" t="s">
         <v>173</v>
       </c>
-      <c r="D143" s="26"/>
+      <c r="D143" s="18" t="s">
+        <v>1186</v>
+      </c>
       <c r="E143" s="26"/>
       <c r="F143" t="s">
-        <v>950</v>
+        <v>909</v>
       </c>
     </row>
     <row r="144" spans="1:6">
       <c r="A144" s="28" t="s">
-        <v>643</v>
+        <v>1266</v>
       </c>
       <c r="B144" s="3" t="s">
         <v>627</v>
@@ -14134,15 +14152,17 @@
       <c r="C144" s="26" t="s">
         <v>189</v>
       </c>
-      <c r="D144" s="26"/>
+      <c r="D144" s="18" t="s">
+        <v>1186</v>
+      </c>
       <c r="E144" s="26"/>
       <c r="F144" t="s">
-        <v>951</v>
+        <v>910</v>
       </c>
     </row>
     <row r="145" spans="1:6">
       <c r="A145" s="28" t="s">
-        <v>644</v>
+        <v>1267</v>
       </c>
       <c r="B145" s="3" t="s">
         <v>627</v>
@@ -14150,15 +14170,17 @@
       <c r="C145" s="26" t="s">
         <v>174</v>
       </c>
-      <c r="D145" s="26"/>
+      <c r="D145" s="18" t="s">
+        <v>1186</v>
+      </c>
       <c r="E145" s="26"/>
       <c r="F145" t="s">
-        <v>952</v>
+        <v>911</v>
       </c>
     </row>
     <row r="146" spans="1:6">
       <c r="A146" s="28" t="s">
-        <v>645</v>
+        <v>1268</v>
       </c>
       <c r="B146" s="3" t="s">
         <v>627</v>
@@ -14166,15 +14188,17 @@
       <c r="C146" s="26" t="s">
         <v>176</v>
       </c>
-      <c r="D146" s="26"/>
+      <c r="D146" s="18" t="s">
+        <v>1186</v>
+      </c>
       <c r="E146" s="26"/>
       <c r="F146" t="s">
-        <v>953</v>
+        <v>912</v>
       </c>
     </row>
     <row r="147" spans="1:6">
       <c r="A147" s="28" t="s">
-        <v>646</v>
+        <v>1269</v>
       </c>
       <c r="B147" s="3" t="s">
         <v>627</v>
@@ -14182,15 +14206,17 @@
       <c r="C147" s="26" t="s">
         <v>175</v>
       </c>
-      <c r="D147" s="26"/>
+      <c r="D147" s="18" t="s">
+        <v>1186</v>
+      </c>
       <c r="E147" s="26"/>
       <c r="F147" t="s">
-        <v>954</v>
+        <v>913</v>
       </c>
     </row>
     <row r="148" spans="1:6">
       <c r="A148" s="28" t="s">
-        <v>647</v>
+        <v>1270</v>
       </c>
       <c r="B148" s="3" t="s">
         <v>627</v>
@@ -14198,15 +14224,17 @@
       <c r="C148" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="D148" s="26"/>
+      <c r="D148" s="18" t="s">
+        <v>1186</v>
+      </c>
       <c r="E148" s="26"/>
       <c r="F148" t="s">
-        <v>955</v>
+        <v>914</v>
       </c>
     </row>
     <row r="149" spans="1:6">
       <c r="A149" s="28" t="s">
-        <v>648</v>
+        <v>1271</v>
       </c>
       <c r="B149" s="3" t="s">
         <v>627</v>
@@ -14214,15 +14242,17 @@
       <c r="C149" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="D149" s="26"/>
+      <c r="D149" s="18" t="s">
+        <v>1186</v>
+      </c>
       <c r="E149" s="26"/>
       <c r="F149" t="s">
-        <v>956</v>
+        <v>915</v>
       </c>
     </row>
     <row r="150" spans="1:6">
       <c r="A150" s="28" t="s">
-        <v>649</v>
+        <v>1272</v>
       </c>
       <c r="B150" s="3" t="s">
         <v>627</v>
@@ -14230,15 +14260,17 @@
       <c r="C150" s="26" t="s">
         <v>184</v>
       </c>
-      <c r="D150" s="26"/>
+      <c r="D150" s="18" t="s">
+        <v>1186</v>
+      </c>
       <c r="E150" s="26"/>
       <c r="F150" t="s">
-        <v>957</v>
+        <v>916</v>
       </c>
     </row>
     <row r="151" spans="1:6">
       <c r="A151" s="28" t="s">
-        <v>650</v>
+        <v>1273</v>
       </c>
       <c r="B151" s="3" t="s">
         <v>627</v>
@@ -14246,15 +14278,17 @@
       <c r="C151" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="D151" s="19"/>
+      <c r="D151" s="18" t="s">
+        <v>1186</v>
+      </c>
       <c r="E151" s="19"/>
       <c r="F151" t="s">
-        <v>958</v>
+        <v>917</v>
       </c>
     </row>
     <row r="152" spans="1:6">
       <c r="A152" s="28" t="s">
-        <v>651</v>
+        <v>1274</v>
       </c>
       <c r="B152" s="3" t="s">
         <v>627</v>
@@ -14262,15 +14296,17 @@
       <c r="C152" s="26" t="s">
         <v>187</v>
       </c>
-      <c r="D152" s="26"/>
+      <c r="D152" s="18" t="s">
+        <v>1186</v>
+      </c>
       <c r="E152" s="26"/>
       <c r="F152" t="s">
-        <v>959</v>
+        <v>918</v>
       </c>
     </row>
     <row r="153" spans="1:6">
       <c r="A153" s="28" t="s">
-        <v>652</v>
+        <v>1275</v>
       </c>
       <c r="B153" s="3" t="s">
         <v>627</v>
@@ -14278,15 +14314,17 @@
       <c r="C153" s="27" t="s">
         <v>188</v>
       </c>
-      <c r="D153" s="27"/>
+      <c r="D153" s="18" t="s">
+        <v>1186</v>
+      </c>
       <c r="E153" s="27"/>
       <c r="F153" t="s">
-        <v>960</v>
+        <v>919</v>
       </c>
     </row>
     <row r="154" spans="1:6">
       <c r="A154" s="28" t="s">
-        <v>653</v>
+        <v>1276</v>
       </c>
       <c r="B154" s="3" t="s">
         <v>627</v>
@@ -14294,15 +14332,17 @@
       <c r="C154" s="26" t="s">
         <v>192</v>
       </c>
-      <c r="D154" s="26"/>
+      <c r="D154" s="18" t="s">
+        <v>1186</v>
+      </c>
       <c r="E154" s="26"/>
       <c r="F154" t="s">
-        <v>961</v>
+        <v>920</v>
       </c>
     </row>
     <row r="155" spans="1:6">
       <c r="A155" s="28" t="s">
-        <v>654</v>
+        <v>1277</v>
       </c>
       <c r="B155" s="3" t="s">
         <v>627</v>
@@ -14310,15 +14350,17 @@
       <c r="C155" s="26" t="s">
         <v>190</v>
       </c>
-      <c r="D155" s="26"/>
+      <c r="D155" s="18" t="s">
+        <v>1186</v>
+      </c>
       <c r="E155" s="26"/>
       <c r="F155" t="s">
-        <v>962</v>
+        <v>921</v>
       </c>
     </row>
     <row r="156" spans="1:6">
       <c r="A156" s="28" t="s">
-        <v>655</v>
+        <v>1278</v>
       </c>
       <c r="B156" s="3" t="s">
         <v>627</v>
@@ -14326,15 +14368,17 @@
       <c r="C156" s="26" t="s">
         <v>191</v>
       </c>
-      <c r="D156" s="26"/>
+      <c r="D156" s="18" t="s">
+        <v>1186</v>
+      </c>
       <c r="E156" s="26"/>
       <c r="F156" t="s">
-        <v>963</v>
+        <v>922</v>
       </c>
     </row>
     <row r="157" spans="1:6">
       <c r="A157" s="28" t="s">
-        <v>656</v>
+        <v>1279</v>
       </c>
       <c r="B157" s="3" t="s">
         <v>627</v>
@@ -14342,15 +14386,17 @@
       <c r="C157" s="26" t="s">
         <v>605</v>
       </c>
-      <c r="D157" s="26"/>
+      <c r="D157" s="18" t="s">
+        <v>1186</v>
+      </c>
       <c r="E157" s="26"/>
       <c r="F157" t="s">
-        <v>964</v>
+        <v>923</v>
       </c>
     </row>
     <row r="158" spans="1:6">
       <c r="A158" s="28" t="s">
-        <v>657</v>
+        <v>1280</v>
       </c>
       <c r="B158" s="3" t="s">
         <v>627</v>
@@ -14358,15 +14404,17 @@
       <c r="C158" s="19" t="s">
         <v>603</v>
       </c>
-      <c r="D158" s="19"/>
+      <c r="D158" s="18" t="s">
+        <v>1186</v>
+      </c>
       <c r="E158" s="19"/>
       <c r="F158" t="s">
-        <v>965</v>
+        <v>924</v>
       </c>
     </row>
     <row r="159" spans="1:6">
       <c r="A159" s="28" t="s">
-        <v>658</v>
+        <v>1281</v>
       </c>
       <c r="B159" s="3" t="s">
         <v>627</v>
@@ -14374,15 +14422,17 @@
       <c r="C159" s="26" t="s">
         <v>205</v>
       </c>
-      <c r="D159" s="26"/>
+      <c r="D159" s="18" t="s">
+        <v>1186</v>
+      </c>
       <c r="E159" s="26"/>
       <c r="F159" t="s">
-        <v>966</v>
+        <v>925</v>
       </c>
     </row>
     <row r="160" spans="1:6">
       <c r="A160" s="28" t="s">
-        <v>659</v>
+        <v>1282</v>
       </c>
       <c r="B160" s="3" t="s">
         <v>627</v>
@@ -14390,15 +14440,17 @@
       <c r="C160" s="26" t="s">
         <v>206</v>
       </c>
-      <c r="D160" s="26"/>
+      <c r="D160" s="18" t="s">
+        <v>1186</v>
+      </c>
       <c r="E160" s="26"/>
       <c r="F160" t="s">
-        <v>967</v>
+        <v>926</v>
       </c>
     </row>
     <row r="161" spans="1:6">
       <c r="A161" s="28" t="s">
-        <v>660</v>
+        <v>1283</v>
       </c>
       <c r="B161" s="3" t="s">
         <v>627</v>
@@ -14406,15 +14458,17 @@
       <c r="C161" s="19" t="s">
         <v>207</v>
       </c>
-      <c r="D161" s="19"/>
+      <c r="D161" s="18" t="s">
+        <v>1186</v>
+      </c>
       <c r="E161" s="19"/>
       <c r="F161" t="s">
-        <v>968</v>
+        <v>927</v>
       </c>
     </row>
     <row r="162" spans="1:6">
       <c r="A162" s="28" t="s">
-        <v>661</v>
+        <v>1284</v>
       </c>
       <c r="B162" s="3" t="s">
         <v>627</v>
@@ -14422,15 +14476,17 @@
       <c r="C162" s="19" t="s">
         <v>208</v>
       </c>
-      <c r="D162" s="19"/>
+      <c r="D162" s="18" t="s">
+        <v>1186</v>
+      </c>
       <c r="E162" s="19"/>
       <c r="F162" t="s">
-        <v>969</v>
+        <v>928</v>
       </c>
     </row>
     <row r="163" spans="1:6">
       <c r="A163" s="28" t="s">
-        <v>662</v>
+        <v>1285</v>
       </c>
       <c r="B163" s="3" t="s">
         <v>627</v>
@@ -14438,15 +14494,17 @@
       <c r="C163" s="18" t="s">
         <v>209</v>
       </c>
-      <c r="D163" s="18"/>
+      <c r="D163" s="18" t="s">
+        <v>1186</v>
+      </c>
       <c r="E163" s="18"/>
       <c r="F163" s="6" t="s">
-        <v>970</v>
+        <v>929</v>
       </c>
     </row>
     <row r="164" spans="1:6">
       <c r="A164" s="28" t="s">
-        <v>663</v>
+        <v>1286</v>
       </c>
       <c r="B164" s="3" t="s">
         <v>627</v>
@@ -14454,15 +14512,17 @@
       <c r="C164" s="18" t="s">
         <v>210</v>
       </c>
-      <c r="D164" s="18"/>
+      <c r="D164" s="18" t="s">
+        <v>1186</v>
+      </c>
       <c r="E164" s="18"/>
       <c r="F164" s="6" t="s">
-        <v>971</v>
+        <v>930</v>
       </c>
     </row>
     <row r="165" spans="1:6">
       <c r="A165" s="28" t="s">
-        <v>664</v>
+        <v>1287</v>
       </c>
       <c r="B165" s="3" t="s">
         <v>627</v>
@@ -14470,15 +14530,17 @@
       <c r="C165" s="26" t="s">
         <v>211</v>
       </c>
-      <c r="D165" s="26"/>
+      <c r="D165" s="18" t="s">
+        <v>1186</v>
+      </c>
       <c r="E165" s="26"/>
       <c r="F165" t="s">
-        <v>972</v>
+        <v>931</v>
       </c>
     </row>
     <row r="166" spans="1:6">
       <c r="A166" s="28" t="s">
-        <v>665</v>
+        <v>1288</v>
       </c>
       <c r="B166" s="3" t="s">
         <v>627</v>
@@ -14486,15 +14548,17 @@
       <c r="C166" s="27" t="s">
         <v>212</v>
       </c>
-      <c r="D166" s="27"/>
+      <c r="D166" s="18" t="s">
+        <v>1186</v>
+      </c>
       <c r="E166" s="27"/>
       <c r="F166" t="s">
-        <v>973</v>
+        <v>932</v>
       </c>
     </row>
     <row r="167" spans="1:6">
       <c r="A167" s="28" t="s">
-        <v>666</v>
+        <v>1289</v>
       </c>
       <c r="B167" s="3" t="s">
         <v>627</v>
@@ -14502,15 +14566,17 @@
       <c r="C167" s="26" t="s">
         <v>213</v>
       </c>
-      <c r="D167" s="26"/>
+      <c r="D167" s="18" t="s">
+        <v>1186</v>
+      </c>
       <c r="E167" s="26"/>
       <c r="F167" t="s">
-        <v>974</v>
+        <v>933</v>
       </c>
     </row>
     <row r="168" spans="1:6">
       <c r="A168" s="28" t="s">
-        <v>667</v>
+        <v>1290</v>
       </c>
       <c r="B168" s="3" t="s">
         <v>627</v>
@@ -14518,15 +14584,17 @@
       <c r="C168" s="26" t="s">
         <v>214</v>
       </c>
-      <c r="D168" s="26"/>
+      <c r="D168" s="18" t="s">
+        <v>1186</v>
+      </c>
       <c r="E168" s="26"/>
       <c r="F168" s="6" t="s">
-        <v>975</v>
+        <v>934</v>
       </c>
     </row>
     <row r="169" spans="1:6">
       <c r="A169" s="28" t="s">
-        <v>668</v>
+        <v>1291</v>
       </c>
       <c r="B169" s="3" t="s">
         <v>627</v>
@@ -14534,15 +14602,17 @@
       <c r="C169" s="26" t="s">
         <v>215</v>
       </c>
-      <c r="D169" s="26"/>
+      <c r="D169" s="18" t="s">
+        <v>1186</v>
+      </c>
       <c r="E169" s="26"/>
       <c r="F169" s="6" t="s">
-        <v>976</v>
+        <v>935</v>
       </c>
     </row>
     <row r="170" spans="1:6">
       <c r="A170" s="28" t="s">
-        <v>669</v>
+        <v>1292</v>
       </c>
       <c r="B170" s="3" t="s">
         <v>627</v>
@@ -14550,15 +14620,17 @@
       <c r="C170" s="26" t="s">
         <v>218</v>
       </c>
-      <c r="D170" s="26"/>
+      <c r="D170" s="18" t="s">
+        <v>1186</v>
+      </c>
       <c r="E170" s="26"/>
       <c r="F170" s="6" t="s">
-        <v>977</v>
+        <v>936</v>
       </c>
     </row>
     <row r="171" spans="1:6">
       <c r="A171" s="28" t="s">
-        <v>670</v>
+        <v>1293</v>
       </c>
       <c r="B171" s="3" t="s">
         <v>627</v>
@@ -14566,15 +14638,17 @@
       <c r="C171" s="26" t="s">
         <v>216</v>
       </c>
-      <c r="D171" s="26"/>
+      <c r="D171" s="18" t="s">
+        <v>1186</v>
+      </c>
       <c r="E171" s="26"/>
       <c r="F171" t="s">
-        <v>978</v>
+        <v>937</v>
       </c>
     </row>
     <row r="172" spans="1:6">
       <c r="A172" s="28" t="s">
-        <v>671</v>
+        <v>1294</v>
       </c>
       <c r="B172" s="3" t="s">
         <v>627</v>
@@ -14582,27 +14656,29 @@
       <c r="C172" s="26" t="s">
         <v>217</v>
       </c>
-      <c r="D172" s="26"/>
+      <c r="D172" s="18" t="s">
+        <v>1186</v>
+      </c>
       <c r="E172" s="26"/>
       <c r="F172" t="s">
-        <v>979</v>
+        <v>938</v>
       </c>
     </row>
     <row r="173" spans="1:6">
       <c r="A173" s="28" t="s">
-        <v>1291</v>
+        <v>1250</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>1226</v>
+        <v>1185</v>
       </c>
       <c r="D173" s="26" t="s">
-        <v>1278</v>
+        <v>1237</v>
       </c>
       <c r="E173" s="26"/>
     </row>
     <row r="174" spans="1:6">
       <c r="A174" s="28" t="s">
-        <v>672</v>
+        <v>1298</v>
       </c>
       <c r="B174" s="3" t="s">
         <v>627</v>
@@ -14610,15 +14686,17 @@
       <c r="C174" s="26" t="s">
         <v>233</v>
       </c>
-      <c r="D174" s="26"/>
+      <c r="D174" s="26" t="s">
+        <v>1237</v>
+      </c>
       <c r="E174" s="26"/>
       <c r="F174" t="s">
-        <v>980</v>
+        <v>939</v>
       </c>
     </row>
     <row r="175" spans="1:6">
       <c r="A175" s="28" t="s">
-        <v>673</v>
+        <v>1300</v>
       </c>
       <c r="B175" s="3" t="s">
         <v>627</v>
@@ -14626,15 +14704,17 @@
       <c r="C175" s="26" t="s">
         <v>607</v>
       </c>
-      <c r="D175" s="26"/>
+      <c r="D175" s="26" t="s">
+        <v>1237</v>
+      </c>
       <c r="E175" s="26"/>
       <c r="F175" t="s">
-        <v>981</v>
+        <v>940</v>
       </c>
     </row>
     <row r="176" spans="1:6">
       <c r="A176" s="28" t="s">
-        <v>674</v>
+        <v>1299</v>
       </c>
       <c r="B176" s="3" t="s">
         <v>627</v>
@@ -14642,28 +14722,30 @@
       <c r="C176" s="27" t="s">
         <v>609</v>
       </c>
-      <c r="D176" s="27"/>
+      <c r="D176" s="26" t="s">
+        <v>1237</v>
+      </c>
       <c r="E176" s="27"/>
       <c r="F176" t="s">
-        <v>982</v>
+        <v>941</v>
       </c>
     </row>
     <row r="177" spans="1:6">
       <c r="A177" s="28" t="s">
-        <v>1292</v>
+        <v>1251</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>1226</v>
+        <v>1185</v>
       </c>
       <c r="C177" s="27"/>
       <c r="D177" s="27" t="s">
-        <v>1279</v>
+        <v>1238</v>
       </c>
       <c r="E177" s="27"/>
     </row>
     <row r="178" spans="1:6">
       <c r="A178" s="28" t="s">
-        <v>675</v>
+        <v>634</v>
       </c>
       <c r="B178" s="3" t="s">
         <v>627</v>
@@ -14674,12 +14756,12 @@
       <c r="D178" s="26"/>
       <c r="E178" s="26"/>
       <c r="F178" t="s">
-        <v>983</v>
+        <v>942</v>
       </c>
     </row>
     <row r="179" spans="1:6">
       <c r="A179" s="28" t="s">
-        <v>676</v>
+        <v>635</v>
       </c>
       <c r="B179" s="3" t="s">
         <v>627</v>
@@ -14690,12 +14772,12 @@
       <c r="D179" s="26"/>
       <c r="E179" s="26"/>
       <c r="F179" t="s">
-        <v>984</v>
+        <v>943</v>
       </c>
     </row>
     <row r="180" spans="1:6">
       <c r="A180" s="28" t="s">
-        <v>677</v>
+        <v>636</v>
       </c>
       <c r="B180" s="3" t="s">
         <v>627</v>
@@ -14706,12 +14788,12 @@
       <c r="D180" s="19"/>
       <c r="E180" s="19"/>
       <c r="F180" t="s">
-        <v>985</v>
+        <v>944</v>
       </c>
     </row>
     <row r="181" spans="1:6">
       <c r="A181" s="28" t="s">
-        <v>678</v>
+        <v>637</v>
       </c>
       <c r="B181" s="3" t="s">
         <v>627</v>
@@ -14722,12 +14804,12 @@
       <c r="D181" s="18"/>
       <c r="E181" s="18"/>
       <c r="F181" t="s">
-        <v>986</v>
+        <v>945</v>
       </c>
     </row>
     <row r="182" spans="1:6">
       <c r="A182" s="28" t="s">
-        <v>679</v>
+        <v>638</v>
       </c>
       <c r="B182" s="3" t="s">
         <v>627</v>
@@ -14738,12 +14820,12 @@
       <c r="D182" s="26"/>
       <c r="E182" s="26"/>
       <c r="F182" t="s">
-        <v>987</v>
+        <v>946</v>
       </c>
     </row>
     <row r="183" spans="1:6">
       <c r="A183" s="28" t="s">
-        <v>680</v>
+        <v>639</v>
       </c>
       <c r="B183" s="3" t="s">
         <v>627</v>
@@ -14754,12 +14836,12 @@
       <c r="D183" s="19"/>
       <c r="E183" s="19"/>
       <c r="F183" t="s">
-        <v>988</v>
+        <v>947</v>
       </c>
     </row>
     <row r="184" spans="1:6">
       <c r="A184" s="28" t="s">
-        <v>681</v>
+        <v>640</v>
       </c>
       <c r="B184" s="3" t="s">
         <v>627</v>
@@ -14770,12 +14852,12 @@
       <c r="D184" s="26"/>
       <c r="E184" s="26"/>
       <c r="F184" t="s">
-        <v>989</v>
+        <v>948</v>
       </c>
     </row>
     <row r="185" spans="1:6">
       <c r="A185" s="28" t="s">
-        <v>682</v>
+        <v>641</v>
       </c>
       <c r="B185" s="3" t="s">
         <v>627</v>
@@ -14786,12 +14868,12 @@
       <c r="D185" s="19"/>
       <c r="E185" s="19"/>
       <c r="F185" t="s">
-        <v>990</v>
+        <v>949</v>
       </c>
     </row>
     <row r="186" spans="1:6">
       <c r="A186" s="28" t="s">
-        <v>683</v>
+        <v>642</v>
       </c>
       <c r="B186" s="3" t="s">
         <v>627</v>
@@ -14802,12 +14884,12 @@
       <c r="D186" s="19"/>
       <c r="E186" s="19"/>
       <c r="F186" t="s">
-        <v>991</v>
+        <v>950</v>
       </c>
     </row>
     <row r="187" spans="1:6">
       <c r="A187" s="28" t="s">
-        <v>684</v>
+        <v>643</v>
       </c>
       <c r="B187" s="3" t="s">
         <v>627</v>
@@ -14818,12 +14900,12 @@
       <c r="D187" s="27"/>
       <c r="E187" s="27"/>
       <c r="F187" t="s">
-        <v>992</v>
+        <v>951</v>
       </c>
     </row>
     <row r="188" spans="1:6">
       <c r="A188" s="28" t="s">
-        <v>685</v>
+        <v>644</v>
       </c>
       <c r="B188" s="3" t="s">
         <v>627</v>
@@ -14834,12 +14916,12 @@
       <c r="D188" s="19"/>
       <c r="E188" s="19"/>
       <c r="F188" t="s">
-        <v>993</v>
+        <v>952</v>
       </c>
     </row>
     <row r="189" spans="1:6">
       <c r="A189" s="28" t="s">
-        <v>686</v>
+        <v>645</v>
       </c>
       <c r="B189" s="3" t="s">
         <v>627</v>
@@ -14850,12 +14932,12 @@
       <c r="D189" s="18"/>
       <c r="E189" s="18"/>
       <c r="F189" t="s">
-        <v>994</v>
+        <v>953</v>
       </c>
     </row>
     <row r="190" spans="1:6">
       <c r="A190" s="28" t="s">
-        <v>687</v>
+        <v>646</v>
       </c>
       <c r="B190" s="3" t="s">
         <v>627</v>
@@ -14866,12 +14948,12 @@
       <c r="D190" s="19"/>
       <c r="E190" s="19"/>
       <c r="F190" t="s">
-        <v>995</v>
+        <v>954</v>
       </c>
     </row>
     <row r="191" spans="1:6">
       <c r="A191" s="28" t="s">
-        <v>688</v>
+        <v>647</v>
       </c>
       <c r="B191" s="3" t="s">
         <v>627</v>
@@ -14882,12 +14964,12 @@
       <c r="D191" s="19"/>
       <c r="E191" s="19"/>
       <c r="F191" t="s">
-        <v>996</v>
+        <v>955</v>
       </c>
     </row>
     <row r="192" spans="1:6">
       <c r="A192" s="28" t="s">
-        <v>689</v>
+        <v>648</v>
       </c>
       <c r="B192" s="3" t="s">
         <v>627</v>
@@ -14898,12 +14980,12 @@
       <c r="D192" s="19"/>
       <c r="E192" s="19"/>
       <c r="F192" t="s">
-        <v>997</v>
+        <v>956</v>
       </c>
     </row>
     <row r="193" spans="1:6">
       <c r="A193" s="28" t="s">
-        <v>690</v>
+        <v>649</v>
       </c>
       <c r="B193" s="3" t="s">
         <v>627</v>
@@ -14914,12 +14996,12 @@
       <c r="D193" s="26"/>
       <c r="E193" s="26"/>
       <c r="F193" t="s">
-        <v>998</v>
+        <v>957</v>
       </c>
     </row>
     <row r="194" spans="1:6">
       <c r="A194" s="28" t="s">
-        <v>691</v>
+        <v>650</v>
       </c>
       <c r="B194" s="3" t="s">
         <v>627</v>
@@ -14930,12 +15012,12 @@
       <c r="D194" s="19"/>
       <c r="E194" s="19"/>
       <c r="F194" t="s">
-        <v>999</v>
+        <v>958</v>
       </c>
     </row>
     <row r="195" spans="1:6">
       <c r="A195" s="28" t="s">
-        <v>692</v>
+        <v>651</v>
       </c>
       <c r="B195" s="3" t="s">
         <v>627</v>
@@ -14946,12 +15028,12 @@
       <c r="D195" s="19"/>
       <c r="E195" s="19"/>
       <c r="F195" t="s">
-        <v>1000</v>
+        <v>959</v>
       </c>
     </row>
     <row r="196" spans="1:6">
       <c r="A196" s="28" t="s">
-        <v>693</v>
+        <v>652</v>
       </c>
       <c r="B196" s="3" t="s">
         <v>627</v>
@@ -14962,12 +15044,12 @@
       <c r="D196" s="18"/>
       <c r="E196" s="18"/>
       <c r="F196" t="s">
-        <v>1001</v>
+        <v>960</v>
       </c>
     </row>
     <row r="197" spans="1:6">
       <c r="A197" s="28" t="s">
-        <v>694</v>
+        <v>653</v>
       </c>
       <c r="B197" s="3" t="s">
         <v>627</v>
@@ -14978,12 +15060,12 @@
       <c r="D197" s="19"/>
       <c r="E197" s="19"/>
       <c r="F197" t="s">
-        <v>1002</v>
+        <v>961</v>
       </c>
     </row>
     <row r="198" spans="1:6">
       <c r="A198" s="28" t="s">
-        <v>695</v>
+        <v>654</v>
       </c>
       <c r="B198" s="3" t="s">
         <v>627</v>
@@ -14994,12 +15076,12 @@
       <c r="D198" s="26"/>
       <c r="E198" s="26"/>
       <c r="F198" t="s">
-        <v>1003</v>
+        <v>962</v>
       </c>
     </row>
     <row r="199" spans="1:6">
       <c r="A199" s="28" t="s">
-        <v>696</v>
+        <v>655</v>
       </c>
       <c r="B199" s="3" t="s">
         <v>627</v>
@@ -15010,12 +15092,12 @@
       <c r="D199" s="19"/>
       <c r="E199" s="19"/>
       <c r="F199" t="s">
-        <v>1004</v>
+        <v>963</v>
       </c>
     </row>
     <row r="200" spans="1:6">
       <c r="A200" s="28" t="s">
-        <v>697</v>
+        <v>656</v>
       </c>
       <c r="B200" s="3" t="s">
         <v>627</v>
@@ -15026,25 +15108,25 @@
       <c r="D200" s="26"/>
       <c r="E200" s="26"/>
       <c r="F200" t="s">
-        <v>1005</v>
+        <v>964</v>
       </c>
     </row>
     <row r="201" spans="1:6">
       <c r="A201" s="28" t="s">
-        <v>1293</v>
+        <v>1252</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>1226</v>
+        <v>1185</v>
       </c>
       <c r="C201" s="26"/>
       <c r="D201" s="26" t="s">
-        <v>1280</v>
+        <v>1239</v>
       </c>
       <c r="E201" s="26"/>
     </row>
     <row r="202" spans="1:6">
       <c r="A202" s="28" t="s">
-        <v>698</v>
+        <v>657</v>
       </c>
       <c r="B202" s="3" t="s">
         <v>627</v>
@@ -15055,12 +15137,12 @@
       <c r="D202" s="19"/>
       <c r="E202" s="19"/>
       <c r="F202" t="s">
-        <v>1006</v>
+        <v>965</v>
       </c>
     </row>
     <row r="203" spans="1:6">
       <c r="A203" s="28" t="s">
-        <v>699</v>
+        <v>658</v>
       </c>
       <c r="B203" s="3" t="s">
         <v>627</v>
@@ -15071,12 +15153,12 @@
       <c r="D203" s="26"/>
       <c r="E203" s="26"/>
       <c r="F203" t="s">
-        <v>1007</v>
+        <v>966</v>
       </c>
     </row>
     <row r="204" spans="1:6">
       <c r="A204" s="28" t="s">
-        <v>700</v>
+        <v>659</v>
       </c>
       <c r="B204" s="3" t="s">
         <v>627</v>
@@ -15087,12 +15169,12 @@
       <c r="D204" s="26"/>
       <c r="E204" s="26"/>
       <c r="F204" t="s">
-        <v>1008</v>
+        <v>967</v>
       </c>
     </row>
     <row r="205" spans="1:6">
       <c r="A205" s="28" t="s">
-        <v>701</v>
+        <v>660</v>
       </c>
       <c r="B205" s="3" t="s">
         <v>627</v>
@@ -15103,12 +15185,12 @@
       <c r="D205" s="19"/>
       <c r="E205" s="19"/>
       <c r="F205" t="s">
-        <v>1009</v>
+        <v>968</v>
       </c>
     </row>
     <row r="206" spans="1:6">
       <c r="A206" s="28" t="s">
-        <v>702</v>
+        <v>661</v>
       </c>
       <c r="B206" s="3" t="s">
         <v>627</v>
@@ -15119,12 +15201,12 @@
       <c r="D206" s="19"/>
       <c r="E206" s="19"/>
       <c r="F206" t="s">
-        <v>1010</v>
+        <v>969</v>
       </c>
     </row>
     <row r="207" spans="1:6">
       <c r="A207" s="28" t="s">
-        <v>703</v>
+        <v>662</v>
       </c>
       <c r="B207" s="3" t="s">
         <v>627</v>
@@ -15135,12 +15217,12 @@
       <c r="D207" s="26"/>
       <c r="E207" s="26"/>
       <c r="F207" t="s">
-        <v>1011</v>
+        <v>970</v>
       </c>
     </row>
     <row r="208" spans="1:6">
       <c r="A208" s="28" t="s">
-        <v>704</v>
+        <v>663</v>
       </c>
       <c r="B208" s="3" t="s">
         <v>627</v>
@@ -15151,12 +15233,12 @@
       <c r="D208" s="26"/>
       <c r="E208" s="26"/>
       <c r="F208" t="s">
-        <v>1012</v>
+        <v>971</v>
       </c>
     </row>
     <row r="209" spans="1:6">
       <c r="A209" s="28" t="s">
-        <v>705</v>
+        <v>664</v>
       </c>
       <c r="B209" s="3" t="s">
         <v>627</v>
@@ -15167,12 +15249,12 @@
       <c r="D209" s="19"/>
       <c r="E209" s="19"/>
       <c r="F209" t="s">
-        <v>1013</v>
+        <v>972</v>
       </c>
     </row>
     <row r="210" spans="1:6">
       <c r="A210" s="28" t="s">
-        <v>706</v>
+        <v>665</v>
       </c>
       <c r="B210" s="3" t="s">
         <v>627</v>
@@ -15183,12 +15265,12 @@
       <c r="D210" s="26"/>
       <c r="E210" s="26"/>
       <c r="F210" t="s">
-        <v>1014</v>
+        <v>973</v>
       </c>
     </row>
     <row r="211" spans="1:6">
       <c r="A211" s="28" t="s">
-        <v>707</v>
+        <v>666</v>
       </c>
       <c r="B211" s="3" t="s">
         <v>627</v>
@@ -15199,12 +15281,12 @@
       <c r="D211" s="19"/>
       <c r="E211" s="19"/>
       <c r="F211" t="s">
-        <v>1015</v>
+        <v>974</v>
       </c>
     </row>
     <row r="212" spans="1:6">
       <c r="A212" s="28" t="s">
-        <v>708</v>
+        <v>667</v>
       </c>
       <c r="B212" s="3" t="s">
         <v>627</v>
@@ -15215,12 +15297,12 @@
       <c r="D212" s="26"/>
       <c r="E212" s="26"/>
       <c r="F212" t="s">
-        <v>1016</v>
+        <v>975</v>
       </c>
     </row>
     <row r="213" spans="1:6">
       <c r="A213" s="28" t="s">
-        <v>709</v>
+        <v>668</v>
       </c>
       <c r="B213" s="3" t="s">
         <v>627</v>
@@ -15231,12 +15313,12 @@
       <c r="D213" s="19"/>
       <c r="E213" s="19"/>
       <c r="F213" t="s">
-        <v>1017</v>
+        <v>976</v>
       </c>
     </row>
     <row r="214" spans="1:6">
       <c r="A214" s="28" t="s">
-        <v>710</v>
+        <v>669</v>
       </c>
       <c r="B214" s="3" t="s">
         <v>627</v>
@@ -15247,12 +15329,12 @@
       <c r="D214" s="19"/>
       <c r="E214" s="19"/>
       <c r="F214" t="s">
-        <v>1018</v>
+        <v>977</v>
       </c>
     </row>
     <row r="215" spans="1:6">
       <c r="A215" s="28" t="s">
-        <v>711</v>
+        <v>670</v>
       </c>
       <c r="B215" s="3" t="s">
         <v>627</v>
@@ -15263,12 +15345,12 @@
       <c r="D215" s="26"/>
       <c r="E215" s="26"/>
       <c r="F215" t="s">
-        <v>1019</v>
+        <v>978</v>
       </c>
     </row>
     <row r="216" spans="1:6">
       <c r="A216" s="28" t="s">
-        <v>712</v>
+        <v>671</v>
       </c>
       <c r="B216" s="3" t="s">
         <v>627</v>
@@ -15279,12 +15361,12 @@
       <c r="D216" s="19"/>
       <c r="E216" s="19"/>
       <c r="F216" t="s">
-        <v>1020</v>
+        <v>979</v>
       </c>
     </row>
     <row r="217" spans="1:6">
       <c r="A217" s="28" t="s">
-        <v>713</v>
+        <v>672</v>
       </c>
       <c r="B217" s="3" t="s">
         <v>627</v>
@@ -15295,12 +15377,12 @@
       <c r="D217" s="26"/>
       <c r="E217" s="26"/>
       <c r="F217" t="s">
-        <v>1021</v>
+        <v>980</v>
       </c>
     </row>
     <row r="218" spans="1:6">
       <c r="A218" s="28" t="s">
-        <v>714</v>
+        <v>673</v>
       </c>
       <c r="B218" s="3" t="s">
         <v>627</v>
@@ -15311,12 +15393,12 @@
       <c r="D218" s="26"/>
       <c r="E218" s="26"/>
       <c r="F218" t="s">
-        <v>1022</v>
+        <v>981</v>
       </c>
     </row>
     <row r="219" spans="1:6">
       <c r="A219" s="28" t="s">
-        <v>715</v>
+        <v>674</v>
       </c>
       <c r="B219" s="3" t="s">
         <v>627</v>
@@ -15327,12 +15409,12 @@
       <c r="D219" s="27"/>
       <c r="E219" s="27"/>
       <c r="F219" t="s">
-        <v>1023</v>
+        <v>982</v>
       </c>
     </row>
     <row r="220" spans="1:6">
       <c r="A220" s="28" t="s">
-        <v>716</v>
+        <v>675</v>
       </c>
       <c r="B220" s="3" t="s">
         <v>627</v>
@@ -15343,12 +15425,12 @@
       <c r="D220" s="19"/>
       <c r="E220" s="19"/>
       <c r="F220" t="s">
-        <v>1024</v>
+        <v>983</v>
       </c>
     </row>
     <row r="221" spans="1:6">
       <c r="A221" s="28" t="s">
-        <v>717</v>
+        <v>676</v>
       </c>
       <c r="B221" s="3" t="s">
         <v>627</v>
@@ -15359,12 +15441,12 @@
       <c r="D221" s="19"/>
       <c r="E221" s="19"/>
       <c r="F221" t="s">
-        <v>1025</v>
+        <v>984</v>
       </c>
     </row>
     <row r="222" spans="1:6">
       <c r="A222" s="28" t="s">
-        <v>718</v>
+        <v>677</v>
       </c>
       <c r="B222" s="3" t="s">
         <v>627</v>
@@ -15380,7 +15462,7 @@
     </row>
     <row r="223" spans="1:6">
       <c r="A223" s="28" t="s">
-        <v>719</v>
+        <v>678</v>
       </c>
       <c r="B223" s="3" t="s">
         <v>627</v>
@@ -15391,12 +15473,12 @@
       <c r="D223" s="19"/>
       <c r="E223" s="19"/>
       <c r="F223" t="s">
-        <v>1026</v>
+        <v>985</v>
       </c>
     </row>
     <row r="224" spans="1:6">
       <c r="A224" s="28" t="s">
-        <v>720</v>
+        <v>679</v>
       </c>
       <c r="B224" s="3" t="s">
         <v>627</v>
@@ -15407,12 +15489,12 @@
       <c r="D224" s="19"/>
       <c r="E224" s="19"/>
       <c r="F224" t="s">
-        <v>1027</v>
+        <v>986</v>
       </c>
     </row>
     <row r="225" spans="1:6">
       <c r="A225" s="28" t="s">
-        <v>721</v>
+        <v>680</v>
       </c>
       <c r="B225" s="3" t="s">
         <v>627</v>
@@ -15423,12 +15505,12 @@
       <c r="D225" s="26"/>
       <c r="E225" s="26"/>
       <c r="F225" t="s">
-        <v>1028</v>
+        <v>987</v>
       </c>
     </row>
     <row r="226" spans="1:6">
       <c r="A226" s="28" t="s">
-        <v>722</v>
+        <v>681</v>
       </c>
       <c r="B226" s="3" t="s">
         <v>627</v>
@@ -15439,12 +15521,12 @@
       <c r="D226" s="19"/>
       <c r="E226" s="19"/>
       <c r="F226" t="s">
-        <v>1029</v>
+        <v>988</v>
       </c>
     </row>
     <row r="227" spans="1:6">
       <c r="A227" s="28" t="s">
-        <v>723</v>
+        <v>682</v>
       </c>
       <c r="B227" s="3" t="s">
         <v>627</v>
@@ -15455,12 +15537,12 @@
       <c r="D227" s="19"/>
       <c r="E227" s="19"/>
       <c r="F227" t="s">
-        <v>1030</v>
+        <v>989</v>
       </c>
     </row>
     <row r="228" spans="1:6">
       <c r="A228" s="28" t="s">
-        <v>724</v>
+        <v>683</v>
       </c>
       <c r="B228" s="3" t="s">
         <v>627</v>
@@ -15471,12 +15553,12 @@
       <c r="D228" s="26"/>
       <c r="E228" s="26"/>
       <c r="F228" t="s">
-        <v>1031</v>
+        <v>990</v>
       </c>
     </row>
     <row r="229" spans="1:6">
       <c r="A229" s="28" t="s">
-        <v>725</v>
+        <v>684</v>
       </c>
       <c r="B229" s="3" t="s">
         <v>627</v>
@@ -15487,12 +15569,12 @@
       <c r="D229" s="19"/>
       <c r="E229" s="19"/>
       <c r="F229" t="s">
-        <v>1032</v>
+        <v>991</v>
       </c>
     </row>
     <row r="230" spans="1:6">
       <c r="A230" s="28" t="s">
-        <v>726</v>
+        <v>685</v>
       </c>
       <c r="B230" s="3" t="s">
         <v>627</v>
@@ -15503,12 +15585,12 @@
       <c r="D230" s="26"/>
       <c r="E230" s="26"/>
       <c r="F230" s="6" t="s">
-        <v>1033</v>
+        <v>992</v>
       </c>
     </row>
     <row r="231" spans="1:6">
       <c r="A231" s="28" t="s">
-        <v>727</v>
+        <v>686</v>
       </c>
       <c r="B231" s="3" t="s">
         <v>627</v>
@@ -15519,12 +15601,12 @@
       <c r="D231" s="26"/>
       <c r="E231" s="26"/>
       <c r="F231" s="6" t="s">
-        <v>1034</v>
+        <v>993</v>
       </c>
     </row>
     <row r="232" spans="1:6">
       <c r="A232" s="28" t="s">
-        <v>728</v>
+        <v>687</v>
       </c>
       <c r="B232" s="3" t="s">
         <v>627</v>
@@ -15535,12 +15617,12 @@
       <c r="D232" s="19"/>
       <c r="E232" s="19"/>
       <c r="F232" t="s">
-        <v>1035</v>
+        <v>994</v>
       </c>
     </row>
     <row r="233" spans="1:6">
       <c r="A233" s="28" t="s">
-        <v>729</v>
+        <v>688</v>
       </c>
       <c r="B233" s="3" t="s">
         <v>627</v>
@@ -15551,12 +15633,12 @@
       <c r="D233" s="19"/>
       <c r="E233" s="19"/>
       <c r="F233" t="s">
-        <v>1036</v>
+        <v>995</v>
       </c>
     </row>
     <row r="234" spans="1:6">
       <c r="A234" s="28" t="s">
-        <v>730</v>
+        <v>689</v>
       </c>
       <c r="B234" s="3" t="s">
         <v>627</v>
@@ -15567,12 +15649,12 @@
       <c r="D234" s="19"/>
       <c r="E234" s="19"/>
       <c r="F234" t="s">
-        <v>1037</v>
+        <v>996</v>
       </c>
     </row>
     <row r="235" spans="1:6">
       <c r="A235" s="28" t="s">
-        <v>731</v>
+        <v>690</v>
       </c>
       <c r="B235" s="3" t="s">
         <v>627</v>
@@ -15583,12 +15665,12 @@
       <c r="D235" s="19"/>
       <c r="E235" s="19"/>
       <c r="F235" t="s">
-        <v>1038</v>
+        <v>997</v>
       </c>
     </row>
     <row r="236" spans="1:6">
       <c r="A236" s="28" t="s">
-        <v>732</v>
+        <v>691</v>
       </c>
       <c r="B236" s="3" t="s">
         <v>627</v>
@@ -15599,12 +15681,12 @@
       <c r="D236" s="26"/>
       <c r="E236" s="26"/>
       <c r="F236" t="s">
-        <v>1039</v>
+        <v>998</v>
       </c>
     </row>
     <row r="237" spans="1:6">
       <c r="A237" s="28" t="s">
-        <v>733</v>
+        <v>692</v>
       </c>
       <c r="B237" s="3" t="s">
         <v>627</v>
@@ -15615,12 +15697,12 @@
       <c r="D237" s="26"/>
       <c r="E237" s="26"/>
       <c r="F237" s="6" t="s">
-        <v>1040</v>
+        <v>999</v>
       </c>
     </row>
     <row r="238" spans="1:6">
       <c r="A238" s="28" t="s">
-        <v>734</v>
+        <v>693</v>
       </c>
       <c r="B238" s="3" t="s">
         <v>627</v>
@@ -15631,12 +15713,12 @@
       <c r="D238" s="26"/>
       <c r="E238" s="26"/>
       <c r="F238" t="s">
-        <v>1041</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="239" spans="1:6">
       <c r="A239" s="28" t="s">
-        <v>735</v>
+        <v>694</v>
       </c>
       <c r="B239" s="3" t="s">
         <v>627</v>
@@ -15647,12 +15729,12 @@
       <c r="D239" s="26"/>
       <c r="E239" s="26"/>
       <c r="F239" t="s">
-        <v>1042</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="240" spans="1:6">
       <c r="A240" s="28" t="s">
-        <v>736</v>
+        <v>695</v>
       </c>
       <c r="B240" s="3" t="s">
         <v>627</v>
@@ -15663,25 +15745,25 @@
       <c r="D240" s="26"/>
       <c r="E240" s="26"/>
       <c r="F240" t="s">
-        <v>1043</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="241" spans="1:6">
       <c r="A241" s="28" t="s">
-        <v>1294</v>
+        <v>1253</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>1226</v>
+        <v>1185</v>
       </c>
       <c r="C241" s="26"/>
       <c r="D241" s="26" t="s">
-        <v>1281</v>
+        <v>1240</v>
       </c>
       <c r="E241" s="26"/>
     </row>
     <row r="242" spans="1:6">
       <c r="A242" s="28" t="s">
-        <v>737</v>
+        <v>696</v>
       </c>
       <c r="B242" s="3" t="s">
         <v>627</v>
@@ -15692,12 +15774,12 @@
       <c r="D242" s="26"/>
       <c r="E242" s="26"/>
       <c r="F242" t="s">
-        <v>1044</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="243" spans="1:6">
       <c r="A243" s="28" t="s">
-        <v>738</v>
+        <v>697</v>
       </c>
       <c r="B243" s="3" t="s">
         <v>627</v>
@@ -15708,12 +15790,12 @@
       <c r="D243" s="19"/>
       <c r="E243" s="19"/>
       <c r="F243" t="s">
-        <v>1045</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="244" spans="1:6">
       <c r="A244" s="28" t="s">
-        <v>739</v>
+        <v>698</v>
       </c>
       <c r="B244" s="3" t="s">
         <v>627</v>
@@ -15724,12 +15806,12 @@
       <c r="D244" s="19"/>
       <c r="E244" s="19"/>
       <c r="F244" t="s">
-        <v>1046</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="245" spans="1:6">
       <c r="A245" s="28" t="s">
-        <v>740</v>
+        <v>699</v>
       </c>
       <c r="B245" s="3" t="s">
         <v>627</v>
@@ -15740,12 +15822,12 @@
       <c r="D245" s="26"/>
       <c r="E245" s="26"/>
       <c r="F245" t="s">
-        <v>1047</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="246" spans="1:6">
       <c r="A246" s="28" t="s">
-        <v>741</v>
+        <v>700</v>
       </c>
       <c r="B246" s="3" t="s">
         <v>627</v>
@@ -15756,12 +15838,12 @@
       <c r="D246" s="26"/>
       <c r="E246" s="26"/>
       <c r="F246" t="s">
-        <v>1048</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="247" spans="1:6">
       <c r="A247" s="28" t="s">
-        <v>742</v>
+        <v>701</v>
       </c>
       <c r="B247" s="3" t="s">
         <v>627</v>
@@ -15772,12 +15854,12 @@
       <c r="D247" s="26"/>
       <c r="E247" s="26"/>
       <c r="F247" t="s">
-        <v>1049</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="248" spans="1:6">
       <c r="A248" s="28" t="s">
-        <v>743</v>
+        <v>702</v>
       </c>
       <c r="B248" s="3" t="s">
         <v>627</v>
@@ -15788,12 +15870,12 @@
       <c r="D248" s="27"/>
       <c r="E248" s="27"/>
       <c r="F248" t="s">
-        <v>1050</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="249" spans="1:6">
       <c r="A249" s="28" t="s">
-        <v>744</v>
+        <v>703</v>
       </c>
       <c r="B249" s="3" t="s">
         <v>627</v>
@@ -15804,25 +15886,25 @@
       <c r="D249" s="26"/>
       <c r="E249" s="26"/>
       <c r="F249" t="s">
-        <v>1051</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="250" spans="1:6">
       <c r="A250" s="28" t="s">
-        <v>1295</v>
+        <v>1254</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>1226</v>
+        <v>1185</v>
       </c>
       <c r="C250" s="26"/>
       <c r="D250" s="26" t="s">
-        <v>1282</v>
+        <v>1241</v>
       </c>
       <c r="E250" s="26"/>
     </row>
     <row r="251" spans="1:6">
       <c r="A251" s="28" t="s">
-        <v>745</v>
+        <v>704</v>
       </c>
       <c r="B251" s="3" t="s">
         <v>627</v>
@@ -15833,12 +15915,12 @@
       <c r="D251" s="19"/>
       <c r="E251" s="19"/>
       <c r="F251" t="s">
-        <v>1052</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="252" spans="1:6">
       <c r="A252" s="28" t="s">
-        <v>746</v>
+        <v>705</v>
       </c>
       <c r="B252" s="3" t="s">
         <v>627</v>
@@ -15849,12 +15931,12 @@
       <c r="D252" s="26"/>
       <c r="E252" s="26"/>
       <c r="F252" t="s">
-        <v>1053</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="253" spans="1:6">
       <c r="A253" s="28" t="s">
-        <v>747</v>
+        <v>706</v>
       </c>
       <c r="B253" s="3" t="s">
         <v>627</v>
@@ -15865,12 +15947,12 @@
       <c r="D253" s="26"/>
       <c r="E253" s="26"/>
       <c r="F253" t="s">
-        <v>1054</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="254" spans="1:6">
       <c r="A254" s="28" t="s">
-        <v>748</v>
+        <v>707</v>
       </c>
       <c r="B254" s="3" t="s">
         <v>627</v>
@@ -15881,12 +15963,12 @@
       <c r="D254" s="19"/>
       <c r="E254" s="19"/>
       <c r="F254" t="s">
-        <v>1055</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="255" spans="1:6">
       <c r="A255" s="28" t="s">
-        <v>749</v>
+        <v>708</v>
       </c>
       <c r="B255" s="3" t="s">
         <v>627</v>
@@ -15897,12 +15979,12 @@
       <c r="D255" s="26"/>
       <c r="E255" s="26"/>
       <c r="F255" t="s">
-        <v>1056</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="256" spans="1:6">
       <c r="A256" s="28" t="s">
-        <v>750</v>
+        <v>709</v>
       </c>
       <c r="B256" s="3" t="s">
         <v>627</v>
@@ -15913,25 +15995,25 @@
       <c r="D256" s="26"/>
       <c r="E256" s="26"/>
       <c r="F256" t="s">
-        <v>1057</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="257" spans="1:6">
       <c r="A257" s="28" t="s">
-        <v>1296</v>
+        <v>1255</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>1226</v>
+        <v>1185</v>
       </c>
       <c r="C257" s="26"/>
       <c r="D257" s="26" t="s">
-        <v>1283</v>
+        <v>1242</v>
       </c>
       <c r="E257" s="26"/>
     </row>
     <row r="258" spans="1:6">
       <c r="A258" s="28" t="s">
-        <v>751</v>
+        <v>710</v>
       </c>
       <c r="B258" s="3" t="s">
         <v>627</v>
@@ -15942,12 +16024,12 @@
       <c r="D258" s="26"/>
       <c r="E258" s="26"/>
       <c r="F258" t="s">
-        <v>1058</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="259" spans="1:6">
       <c r="A259" s="28" t="s">
-        <v>752</v>
+        <v>711</v>
       </c>
       <c r="B259" s="3" t="s">
         <v>627</v>
@@ -15958,12 +16040,12 @@
       <c r="D259" s="26"/>
       <c r="E259" s="26"/>
       <c r="F259" t="s">
-        <v>1059</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="260" spans="1:6">
       <c r="A260" s="28" t="s">
-        <v>753</v>
+        <v>712</v>
       </c>
       <c r="B260" s="3" t="s">
         <v>627</v>
@@ -15974,12 +16056,12 @@
       <c r="D260" s="26"/>
       <c r="E260" s="26"/>
       <c r="F260" t="s">
-        <v>1060</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="261" spans="1:6">
       <c r="A261" s="28" t="s">
-        <v>754</v>
+        <v>713</v>
       </c>
       <c r="B261" s="3" t="s">
         <v>627</v>
@@ -15990,12 +16072,12 @@
       <c r="D261" s="26"/>
       <c r="E261" s="26"/>
       <c r="F261" t="s">
-        <v>1061</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="262" spans="1:6">
       <c r="A262" s="28" t="s">
-        <v>755</v>
+        <v>714</v>
       </c>
       <c r="B262" s="3" t="s">
         <v>627</v>
@@ -16006,12 +16088,12 @@
       <c r="D262" s="26"/>
       <c r="E262" s="26"/>
       <c r="F262" t="s">
-        <v>1062</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="263" spans="1:6">
       <c r="A263" s="28" t="s">
-        <v>756</v>
+        <v>715</v>
       </c>
       <c r="B263" s="3" t="s">
         <v>627</v>
@@ -16022,12 +16104,12 @@
       <c r="D263" s="26"/>
       <c r="E263" s="26"/>
       <c r="F263" t="s">
-        <v>1063</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="264" spans="1:6">
       <c r="A264" s="28" t="s">
-        <v>757</v>
+        <v>716</v>
       </c>
       <c r="B264" s="3" t="s">
         <v>627</v>
@@ -16038,12 +16120,12 @@
       <c r="D264" s="19"/>
       <c r="E264" s="19"/>
       <c r="F264" t="s">
-        <v>1064</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="265" spans="1:6">
       <c r="A265" s="28" t="s">
-        <v>758</v>
+        <v>717</v>
       </c>
       <c r="B265" s="3" t="s">
         <v>627</v>
@@ -16054,12 +16136,12 @@
       <c r="D265" s="26"/>
       <c r="E265" s="26"/>
       <c r="F265" t="s">
-        <v>1065</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="266" spans="1:6">
       <c r="A266" s="28" t="s">
-        <v>759</v>
+        <v>718</v>
       </c>
       <c r="B266" s="3" t="s">
         <v>627</v>
@@ -16070,12 +16152,12 @@
       <c r="D266" s="19"/>
       <c r="E266" s="19"/>
       <c r="F266" t="s">
-        <v>1066</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="267" spans="1:6">
       <c r="A267" s="28" t="s">
-        <v>760</v>
+        <v>719</v>
       </c>
       <c r="B267" s="3" t="s">
         <v>627</v>
@@ -16086,12 +16168,12 @@
       <c r="D267" s="26"/>
       <c r="E267" s="26"/>
       <c r="F267" s="6" t="s">
-        <v>1067</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="268" spans="1:6">
       <c r="A268" s="28" t="s">
-        <v>761</v>
+        <v>720</v>
       </c>
       <c r="B268" s="3" t="s">
         <v>627</v>
@@ -16102,12 +16184,12 @@
       <c r="D268" s="27"/>
       <c r="E268" s="27"/>
       <c r="F268" t="s">
-        <v>1068</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="269" spans="1:6">
       <c r="A269" s="28" t="s">
-        <v>762</v>
+        <v>721</v>
       </c>
       <c r="B269" s="3" t="s">
         <v>627</v>
@@ -16118,12 +16200,12 @@
       <c r="D269" s="26"/>
       <c r="E269" s="26"/>
       <c r="F269" t="s">
-        <v>1069</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="270" spans="1:6">
       <c r="A270" s="28" t="s">
-        <v>763</v>
+        <v>722</v>
       </c>
       <c r="B270" s="3" t="s">
         <v>627</v>
@@ -16134,12 +16216,12 @@
       <c r="D270" s="26"/>
       <c r="E270" s="26"/>
       <c r="F270" t="s">
-        <v>1070</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="271" spans="1:6">
       <c r="A271" s="28" t="s">
-        <v>764</v>
+        <v>723</v>
       </c>
       <c r="B271" s="3" t="s">
         <v>627</v>
@@ -16150,12 +16232,12 @@
       <c r="D271" s="26"/>
       <c r="E271" s="26"/>
       <c r="F271" t="s">
-        <v>1071</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="272" spans="1:6">
       <c r="A272" s="28" t="s">
-        <v>765</v>
+        <v>724</v>
       </c>
       <c r="B272" s="3" t="s">
         <v>627</v>
@@ -16166,12 +16248,12 @@
       <c r="D272" s="19"/>
       <c r="E272" s="19"/>
       <c r="F272" t="s">
-        <v>1072</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="273" spans="1:6">
       <c r="A273" s="28" t="s">
-        <v>766</v>
+        <v>725</v>
       </c>
       <c r="B273" s="3" t="s">
         <v>627</v>
@@ -16182,12 +16264,12 @@
       <c r="D273" s="27"/>
       <c r="E273" s="27"/>
       <c r="F273" t="s">
-        <v>1073</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="274" spans="1:6">
       <c r="A274" s="28" t="s">
-        <v>767</v>
+        <v>726</v>
       </c>
       <c r="B274" s="3" t="s">
         <v>627</v>
@@ -16198,12 +16280,12 @@
       <c r="D274" s="26"/>
       <c r="E274" s="26"/>
       <c r="F274" t="s">
-        <v>1074</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="275" spans="1:6">
       <c r="A275" s="28" t="s">
-        <v>768</v>
+        <v>727</v>
       </c>
       <c r="B275" s="3" t="s">
         <v>627</v>
@@ -16214,12 +16296,12 @@
       <c r="D275" s="19"/>
       <c r="E275" s="19"/>
       <c r="F275" t="s">
-        <v>1075</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="276" spans="1:6">
       <c r="A276" s="28" t="s">
-        <v>769</v>
+        <v>728</v>
       </c>
       <c r="B276" s="3" t="s">
         <v>627</v>
@@ -16230,25 +16312,25 @@
       <c r="D276" s="26"/>
       <c r="E276" s="26"/>
       <c r="F276" t="s">
-        <v>1076</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="277" spans="1:6">
       <c r="A277" s="28" t="s">
-        <v>1297</v>
+        <v>1256</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>1226</v>
+        <v>1185</v>
       </c>
       <c r="C277" s="26"/>
       <c r="D277" s="26" t="s">
-        <v>1284</v>
+        <v>1243</v>
       </c>
       <c r="E277" s="26"/>
     </row>
     <row r="278" spans="1:6">
       <c r="A278" s="28" t="s">
-        <v>770</v>
+        <v>729</v>
       </c>
       <c r="B278" s="3" t="s">
         <v>627</v>
@@ -16259,12 +16341,12 @@
       <c r="D278" s="19"/>
       <c r="E278" s="19"/>
       <c r="F278" t="s">
-        <v>1077</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="279" spans="1:6">
       <c r="A279" s="28" t="s">
-        <v>771</v>
+        <v>730</v>
       </c>
       <c r="B279" s="3" t="s">
         <v>627</v>
@@ -16275,12 +16357,12 @@
       <c r="D279" s="27"/>
       <c r="E279" s="27"/>
       <c r="F279" t="s">
-        <v>1078</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="280" spans="1:6">
       <c r="A280" s="28" t="s">
-        <v>772</v>
+        <v>731</v>
       </c>
       <c r="B280" s="3" t="s">
         <v>627</v>
@@ -16291,12 +16373,12 @@
       <c r="D280" s="19"/>
       <c r="E280" s="19"/>
       <c r="F280" t="s">
-        <v>1079</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="281" spans="1:6">
       <c r="A281" s="28" t="s">
-        <v>773</v>
+        <v>732</v>
       </c>
       <c r="B281" s="3" t="s">
         <v>627</v>
@@ -16307,12 +16389,12 @@
       <c r="D281" s="26"/>
       <c r="E281" s="26"/>
       <c r="F281" t="s">
-        <v>1080</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="282" spans="1:6">
       <c r="A282" s="28" t="s">
-        <v>774</v>
+        <v>733</v>
       </c>
       <c r="B282" s="3" t="s">
         <v>627</v>
@@ -16323,12 +16405,12 @@
       <c r="D282" s="18"/>
       <c r="E282" s="18"/>
       <c r="F282" s="6" t="s">
-        <v>1081</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="283" spans="1:6">
       <c r="A283" s="28" t="s">
-        <v>775</v>
+        <v>734</v>
       </c>
       <c r="B283" s="3" t="s">
         <v>627</v>
@@ -16339,12 +16421,12 @@
       <c r="D283" s="26"/>
       <c r="E283" s="26"/>
       <c r="F283" t="s">
-        <v>1082</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="284" spans="1:6">
       <c r="A284" s="28" t="s">
-        <v>776</v>
+        <v>735</v>
       </c>
       <c r="B284" s="3" t="s">
         <v>627</v>
@@ -16355,12 +16437,12 @@
       <c r="D284" s="26"/>
       <c r="E284" s="26"/>
       <c r="F284" t="s">
-        <v>1083</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="285" spans="1:6">
       <c r="A285" s="28" t="s">
-        <v>777</v>
+        <v>736</v>
       </c>
       <c r="B285" s="3" t="s">
         <v>627</v>
@@ -16371,12 +16453,12 @@
       <c r="D285" s="26"/>
       <c r="E285" s="26"/>
       <c r="F285" t="s">
-        <v>1084</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="286" spans="1:6">
       <c r="A286" s="28" t="s">
-        <v>778</v>
+        <v>737</v>
       </c>
       <c r="B286" s="3" t="s">
         <v>627</v>
@@ -16387,12 +16469,12 @@
       <c r="D286" s="26"/>
       <c r="E286" s="26"/>
       <c r="F286" t="s">
-        <v>1085</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="287" spans="1:6">
       <c r="A287" s="28" t="s">
-        <v>779</v>
+        <v>738</v>
       </c>
       <c r="B287" s="3" t="s">
         <v>627</v>
@@ -16403,12 +16485,12 @@
       <c r="D287" s="26"/>
       <c r="E287" s="26"/>
       <c r="F287" t="s">
-        <v>1086</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="288" spans="1:6">
       <c r="A288" s="28" t="s">
-        <v>780</v>
+        <v>739</v>
       </c>
       <c r="B288" s="3" t="s">
         <v>627</v>
@@ -16419,12 +16501,12 @@
       <c r="D288" s="19"/>
       <c r="E288" s="19"/>
       <c r="F288" t="s">
-        <v>1087</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="289" spans="1:6">
       <c r="A289" s="28" t="s">
-        <v>781</v>
+        <v>740</v>
       </c>
       <c r="B289" s="3" t="s">
         <v>627</v>
@@ -16435,12 +16517,12 @@
       <c r="D289" s="19"/>
       <c r="E289" s="19"/>
       <c r="F289" t="s">
-        <v>1088</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="290" spans="1:6">
       <c r="A290" s="28" t="s">
-        <v>782</v>
+        <v>741</v>
       </c>
       <c r="B290" s="3" t="s">
         <v>627</v>
@@ -16451,12 +16533,12 @@
       <c r="D290" s="26"/>
       <c r="E290" s="26"/>
       <c r="F290" t="s">
-        <v>1089</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="291" spans="1:6">
       <c r="A291" s="28" t="s">
-        <v>783</v>
+        <v>742</v>
       </c>
       <c r="B291" s="3" t="s">
         <v>627</v>
@@ -16467,12 +16549,12 @@
       <c r="D291" s="26"/>
       <c r="E291" s="26"/>
       <c r="F291" s="6" t="s">
-        <v>1090</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="292" spans="1:6">
       <c r="A292" s="28" t="s">
-        <v>784</v>
+        <v>743</v>
       </c>
       <c r="B292" s="3" t="s">
         <v>627</v>
@@ -16483,12 +16565,12 @@
       <c r="D292" s="26"/>
       <c r="E292" s="26"/>
       <c r="F292" s="6" t="s">
-        <v>1091</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="293" spans="1:6">
       <c r="A293" s="28" t="s">
-        <v>785</v>
+        <v>744</v>
       </c>
       <c r="B293" s="3" t="s">
         <v>627</v>
@@ -16499,12 +16581,12 @@
       <c r="D293" s="19"/>
       <c r="E293" s="19"/>
       <c r="F293" t="s">
-        <v>1092</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="294" spans="1:6">
       <c r="A294" s="28" t="s">
-        <v>786</v>
+        <v>745</v>
       </c>
       <c r="B294" s="3" t="s">
         <v>627</v>
@@ -16515,12 +16597,12 @@
       <c r="D294" s="26"/>
       <c r="E294" s="26"/>
       <c r="F294" t="s">
-        <v>1093</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="295" spans="1:6">
       <c r="A295" s="28" t="s">
-        <v>787</v>
+        <v>746</v>
       </c>
       <c r="B295" s="3" t="s">
         <v>627</v>
@@ -16531,12 +16613,12 @@
       <c r="D295" s="18"/>
       <c r="E295" s="18"/>
       <c r="F295" t="s">
-        <v>1094</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="296" spans="1:6">
       <c r="A296" s="28" t="s">
-        <v>788</v>
+        <v>747</v>
       </c>
       <c r="B296" s="3" t="s">
         <v>627</v>
@@ -16547,12 +16629,12 @@
       <c r="D296" s="19"/>
       <c r="E296" s="19"/>
       <c r="F296" t="s">
-        <v>1095</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="297" spans="1:6">
       <c r="A297" s="28" t="s">
-        <v>789</v>
+        <v>748</v>
       </c>
       <c r="B297" s="3" t="s">
         <v>627</v>
@@ -16563,12 +16645,12 @@
       <c r="D297" s="19"/>
       <c r="E297" s="19"/>
       <c r="F297" t="s">
-        <v>1096</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="298" spans="1:6">
       <c r="A298" s="28" t="s">
-        <v>790</v>
+        <v>749</v>
       </c>
       <c r="B298" s="3" t="s">
         <v>627</v>
@@ -16579,12 +16661,12 @@
       <c r="D298" s="19"/>
       <c r="E298" s="19"/>
       <c r="F298" t="s">
-        <v>1097</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="299" spans="1:6">
       <c r="A299" s="28" t="s">
-        <v>791</v>
+        <v>750</v>
       </c>
       <c r="B299" s="3" t="s">
         <v>627</v>
@@ -16595,12 +16677,12 @@
       <c r="D299" s="26"/>
       <c r="E299" s="26"/>
       <c r="F299" s="6" t="s">
-        <v>1098</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="300" spans="1:6">
       <c r="A300" s="28" t="s">
-        <v>792</v>
+        <v>751</v>
       </c>
       <c r="B300" s="3" t="s">
         <v>627</v>
@@ -16611,12 +16693,12 @@
       <c r="D300" s="27"/>
       <c r="E300" s="27"/>
       <c r="F300" t="s">
-        <v>1099</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="301" spans="1:6">
       <c r="A301" s="28" t="s">
-        <v>793</v>
+        <v>752</v>
       </c>
       <c r="B301" s="3" t="s">
         <v>627</v>
@@ -16627,12 +16709,12 @@
       <c r="D301" s="19"/>
       <c r="E301" s="19"/>
       <c r="F301" t="s">
-        <v>1100</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="302" spans="1:6">
       <c r="A302" s="28" t="s">
-        <v>794</v>
+        <v>753</v>
       </c>
       <c r="B302" s="3" t="s">
         <v>627</v>
@@ -16643,12 +16725,12 @@
       <c r="D302" s="19"/>
       <c r="E302" s="19"/>
       <c r="F302" t="s">
-        <v>1101</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="303" spans="1:6">
       <c r="A303" s="28" t="s">
-        <v>795</v>
+        <v>754</v>
       </c>
       <c r="B303" s="3" t="s">
         <v>627</v>
@@ -16659,12 +16741,12 @@
       <c r="D303" s="19"/>
       <c r="E303" s="19"/>
       <c r="F303" t="s">
-        <v>1102</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="304" spans="1:6">
       <c r="A304" s="28" t="s">
-        <v>796</v>
+        <v>755</v>
       </c>
       <c r="B304" s="3" t="s">
         <v>627</v>
@@ -16675,12 +16757,12 @@
       <c r="D304" s="27"/>
       <c r="E304" s="27"/>
       <c r="F304" t="s">
-        <v>1103</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="305" spans="1:6">
       <c r="A305" s="28" t="s">
-        <v>797</v>
+        <v>756</v>
       </c>
       <c r="B305" s="3" t="s">
         <v>627</v>
@@ -16691,12 +16773,12 @@
       <c r="D305" s="26"/>
       <c r="E305" s="26"/>
       <c r="F305" t="s">
-        <v>1104</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="306" spans="1:6">
       <c r="A306" s="28" t="s">
-        <v>798</v>
+        <v>757</v>
       </c>
       <c r="B306" s="3" t="s">
         <v>627</v>
@@ -16707,12 +16789,12 @@
       <c r="D306" s="26"/>
       <c r="E306" s="26"/>
       <c r="F306" t="s">
-        <v>1105</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="307" spans="1:6">
       <c r="A307" s="28" t="s">
-        <v>799</v>
+        <v>758</v>
       </c>
       <c r="B307" s="3" t="s">
         <v>627</v>
@@ -16723,12 +16805,12 @@
       <c r="D307" s="19"/>
       <c r="E307" s="19"/>
       <c r="F307" t="s">
-        <v>1106</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="308" spans="1:6">
       <c r="A308" s="28" t="s">
-        <v>800</v>
+        <v>759</v>
       </c>
       <c r="B308" s="3" t="s">
         <v>627</v>
@@ -16739,12 +16821,12 @@
       <c r="D308" s="19"/>
       <c r="E308" s="19"/>
       <c r="F308" t="s">
-        <v>1107</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="309" spans="1:6">
       <c r="A309" s="28" t="s">
-        <v>801</v>
+        <v>760</v>
       </c>
       <c r="B309" s="3" t="s">
         <v>627</v>
@@ -16755,12 +16837,12 @@
       <c r="D309" s="26"/>
       <c r="E309" s="26"/>
       <c r="F309" t="s">
-        <v>1108</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="310" spans="1:6">
       <c r="A310" s="28" t="s">
-        <v>802</v>
+        <v>761</v>
       </c>
       <c r="B310" s="3" t="s">
         <v>627</v>
@@ -16771,12 +16853,12 @@
       <c r="D310" s="19"/>
       <c r="E310" s="19"/>
       <c r="F310" t="s">
-        <v>1109</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="311" spans="1:6">
       <c r="A311" s="28" t="s">
-        <v>803</v>
+        <v>762</v>
       </c>
       <c r="B311" s="3" t="s">
         <v>627</v>
@@ -16787,12 +16869,12 @@
       <c r="D311" s="19"/>
       <c r="E311" s="19"/>
       <c r="F311" t="s">
-        <v>1110</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="312" spans="1:6">
       <c r="A312" s="28" t="s">
-        <v>804</v>
+        <v>763</v>
       </c>
       <c r="B312" s="3" t="s">
         <v>627</v>
@@ -16803,12 +16885,12 @@
       <c r="D312" s="19"/>
       <c r="E312" s="19"/>
       <c r="F312" t="s">
-        <v>1111</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="313" spans="1:6">
       <c r="A313" s="28" t="s">
-        <v>805</v>
+        <v>764</v>
       </c>
       <c r="B313" s="3" t="s">
         <v>627</v>
@@ -16819,12 +16901,12 @@
       <c r="D313" s="19"/>
       <c r="E313" s="19"/>
       <c r="F313" t="s">
-        <v>1112</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="314" spans="1:6">
       <c r="A314" s="28" t="s">
-        <v>806</v>
+        <v>765</v>
       </c>
       <c r="B314" s="3" t="s">
         <v>627</v>
@@ -16835,12 +16917,12 @@
       <c r="D314" s="26"/>
       <c r="E314" s="26"/>
       <c r="F314" t="s">
-        <v>1113</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="315" spans="1:6">
       <c r="A315" s="28" t="s">
-        <v>807</v>
+        <v>766</v>
       </c>
       <c r="B315" s="3" t="s">
         <v>627</v>
@@ -16851,12 +16933,12 @@
       <c r="D315" s="26"/>
       <c r="E315" s="26"/>
       <c r="F315" t="s">
-        <v>1114</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="316" spans="1:6">
       <c r="A316" s="28" t="s">
-        <v>808</v>
+        <v>767</v>
       </c>
       <c r="B316" s="3" t="s">
         <v>627</v>
@@ -16867,12 +16949,12 @@
       <c r="D316" s="26"/>
       <c r="E316" s="26"/>
       <c r="F316" t="s">
-        <v>1115</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="317" spans="1:6">
       <c r="A317" s="28" t="s">
-        <v>809</v>
+        <v>768</v>
       </c>
       <c r="B317" s="3" t="s">
         <v>627</v>
@@ -16883,12 +16965,12 @@
       <c r="D317" s="26"/>
       <c r="E317" s="26"/>
       <c r="F317" t="s">
-        <v>1116</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="318" spans="1:6">
       <c r="A318" s="28" t="s">
-        <v>810</v>
+        <v>769</v>
       </c>
       <c r="B318" s="3" t="s">
         <v>627</v>
@@ -16899,12 +16981,12 @@
       <c r="D318" s="26"/>
       <c r="E318" s="26"/>
       <c r="F318" t="s">
-        <v>1117</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="319" spans="1:6">
       <c r="A319" s="28" t="s">
-        <v>811</v>
+        <v>770</v>
       </c>
       <c r="B319" s="3" t="s">
         <v>627</v>
@@ -16915,12 +16997,12 @@
       <c r="D319" s="26"/>
       <c r="E319" s="26"/>
       <c r="F319" t="s">
-        <v>1118</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="320" spans="1:6">
       <c r="A320" s="28" t="s">
-        <v>812</v>
+        <v>771</v>
       </c>
       <c r="B320" s="3" t="s">
         <v>627</v>
@@ -16931,12 +17013,12 @@
       <c r="D320" s="26"/>
       <c r="E320" s="26"/>
       <c r="F320" s="19" t="s">
-        <v>1119</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="321" spans="1:6">
       <c r="A321" s="28" t="s">
-        <v>813</v>
+        <v>772</v>
       </c>
       <c r="B321" s="3" t="s">
         <v>627</v>
@@ -16947,12 +17029,12 @@
       <c r="D321" s="26"/>
       <c r="E321" s="26"/>
       <c r="F321" t="s">
-        <v>1120</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="322" spans="1:6">
       <c r="A322" s="28" t="s">
-        <v>814</v>
+        <v>773</v>
       </c>
       <c r="B322" s="3" t="s">
         <v>627</v>
@@ -16963,12 +17045,12 @@
       <c r="D322" s="26"/>
       <c r="E322" s="26"/>
       <c r="F322" t="s">
-        <v>1121</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="323" spans="1:6">
       <c r="A323" s="28" t="s">
-        <v>815</v>
+        <v>774</v>
       </c>
       <c r="B323" s="3" t="s">
         <v>627</v>
@@ -16979,12 +17061,12 @@
       <c r="D323" s="27"/>
       <c r="E323" s="27"/>
       <c r="F323" t="s">
-        <v>1122</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="324" spans="1:6">
       <c r="A324" s="28" t="s">
-        <v>816</v>
+        <v>775</v>
       </c>
       <c r="B324" s="3" t="s">
         <v>627</v>
@@ -16995,12 +17077,12 @@
       <c r="D324" s="26"/>
       <c r="E324" s="26"/>
       <c r="F324" t="s">
-        <v>1123</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="325" spans="1:6">
       <c r="A325" s="28" t="s">
-        <v>817</v>
+        <v>776</v>
       </c>
       <c r="B325" s="3" t="s">
         <v>627</v>
@@ -17011,12 +17093,12 @@
       <c r="D325" s="19"/>
       <c r="E325" s="19"/>
       <c r="F325" t="s">
-        <v>1124</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="326" spans="1:6">
       <c r="A326" s="28" t="s">
-        <v>818</v>
+        <v>777</v>
       </c>
       <c r="B326" s="3" t="s">
         <v>627</v>
@@ -17027,12 +17109,12 @@
       <c r="D326" s="19"/>
       <c r="E326" s="19"/>
       <c r="F326" t="s">
-        <v>1125</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="327" spans="1:6">
       <c r="A327" s="28" t="s">
-        <v>819</v>
+        <v>778</v>
       </c>
       <c r="B327" s="3" t="s">
         <v>627</v>
@@ -17043,12 +17125,12 @@
       <c r="D327" s="19"/>
       <c r="E327" s="19"/>
       <c r="F327" t="s">
-        <v>1126</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="328" spans="1:6">
       <c r="A328" s="28" t="s">
-        <v>820</v>
+        <v>779</v>
       </c>
       <c r="B328" s="3" t="s">
         <v>627</v>
@@ -17059,12 +17141,12 @@
       <c r="D328" s="19"/>
       <c r="E328" s="19"/>
       <c r="F328" t="s">
-        <v>1127</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="329" spans="1:6">
       <c r="A329" s="28" t="s">
-        <v>821</v>
+        <v>780</v>
       </c>
       <c r="B329" s="3" t="s">
         <v>627</v>
@@ -17075,12 +17157,12 @@
       <c r="D329" s="26"/>
       <c r="E329" s="26"/>
       <c r="F329" t="s">
-        <v>1128</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="330" spans="1:6">
       <c r="A330" s="28" t="s">
-        <v>822</v>
+        <v>781</v>
       </c>
       <c r="B330" s="3" t="s">
         <v>627</v>
@@ -17091,12 +17173,12 @@
       <c r="D330" s="19"/>
       <c r="E330" s="19"/>
       <c r="F330" t="s">
-        <v>1129</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="331" spans="1:6">
       <c r="A331" s="28" t="s">
-        <v>823</v>
+        <v>782</v>
       </c>
       <c r="B331" s="3" t="s">
         <v>627</v>
@@ -17107,12 +17189,12 @@
       <c r="D331" s="19"/>
       <c r="E331" s="19"/>
       <c r="F331" t="s">
-        <v>1130</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="332" spans="1:6">
       <c r="A332" s="28" t="s">
-        <v>824</v>
+        <v>783</v>
       </c>
       <c r="B332" s="3" t="s">
         <v>627</v>
@@ -17123,12 +17205,12 @@
       <c r="D332" s="18"/>
       <c r="E332" s="18"/>
       <c r="F332" s="6" t="s">
-        <v>1131</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="333" spans="1:6">
       <c r="A333" s="28" t="s">
-        <v>825</v>
+        <v>784</v>
       </c>
       <c r="B333" s="3" t="s">
         <v>627</v>
@@ -17139,7 +17221,7 @@
       <c r="D333" s="27"/>
       <c r="E333" s="27"/>
       <c r="F333" s="6" t="s">
-        <v>1132</v>
+        <v>1091</v>
       </c>
     </row>
   </sheetData>

--- a/slackbuilds/sb_migr.xlsx
+++ b/slackbuilds/sb_migr.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\projects.new\sh\cvstogit\slackbuilds\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E96C29D7-D61D-4D63-A080-59B409B97014}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AEEC55F-D1AB-463E-A819-5AE15860CD2F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">List!$A$1:$G$311</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Revisions!$A$1:$F$333</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Revisions!$A$1:$F$334</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2106" uniqueCount="1301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2133" uniqueCount="1302">
   <si>
     <t>Package</t>
   </si>
@@ -1942,75 +1942,6 @@
     <t>SLACK-10_2</t>
   </si>
   <si>
-    <t>2009-09-06 18:07:55</t>
-  </si>
-  <si>
-    <t>2009-10-17 19:08:36</t>
-  </si>
-  <si>
-    <t>2009-10-17 19:31:34</t>
-  </si>
-  <si>
-    <t>2009-10-18 14:03:50</t>
-  </si>
-  <si>
-    <t>2009-10-21 22:21:31</t>
-  </si>
-  <si>
-    <t>2009-10-22 01:34:55</t>
-  </si>
-  <si>
-    <t>2009-10-22 03:12:15</t>
-  </si>
-  <si>
-    <t>2009-10-22 11:51:09</t>
-  </si>
-  <si>
-    <t>2009-10-22 12:30:10</t>
-  </si>
-  <si>
-    <t>2009-10-22 18:03:08</t>
-  </si>
-  <si>
-    <t>2009-10-24 14:45:08</t>
-  </si>
-  <si>
-    <t>2009-10-25 07:25:05</t>
-  </si>
-  <si>
-    <t>2009-10-25 19:15:59</t>
-  </si>
-  <si>
-    <t>2009-11-16 11:15:56</t>
-  </si>
-  <si>
-    <t>2009-11-16 11:41:01</t>
-  </si>
-  <si>
-    <t>2009-12-05 11:41:28</t>
-  </si>
-  <si>
-    <t>2009-12-07 20:19:30</t>
-  </si>
-  <si>
-    <t>2010-01-05 20:23:10</t>
-  </si>
-  <si>
-    <t>2010-01-16 08:50:31</t>
-  </si>
-  <si>
-    <t>2010-01-17 01:25:22</t>
-  </si>
-  <si>
-    <t>2010-01-17 01:47:10</t>
-  </si>
-  <si>
-    <t>2010-03-20 13:12:17</t>
-  </si>
-  <si>
-    <t>2010-03-20 15:14:08</t>
-  </si>
-  <si>
     <t>2010-08-01 22:24:02</t>
   </si>
   <si>
@@ -3941,6 +3872,78 @@
   </si>
   <si>
     <t>2009-03-25 23:19:53 +0200</t>
+  </si>
+  <si>
+    <t>2009-09-06 18:07:55 +0300</t>
+  </si>
+  <si>
+    <t>2009-10-17 19:08:36 +0300</t>
+  </si>
+  <si>
+    <t>2009-10-17 19:31:34 +0300</t>
+  </si>
+  <si>
+    <t>2009-10-18 14:03:50 +0300</t>
+  </si>
+  <si>
+    <t>2009-10-21 22:21:31 +0300</t>
+  </si>
+  <si>
+    <t>2009-10-22 01:34:55 +0300</t>
+  </si>
+  <si>
+    <t>2009-10-22 03:12:15 +0300</t>
+  </si>
+  <si>
+    <t>2009-10-22 11:51:09 +0300</t>
+  </si>
+  <si>
+    <t>2009-10-22 12:30:10 +0300</t>
+  </si>
+  <si>
+    <t>2009-10-22 18:03:08 +0300</t>
+  </si>
+  <si>
+    <t>2009-10-24 14:45:08 +0300</t>
+  </si>
+  <si>
+    <t>2009-10-25 07:25:05 +0300</t>
+  </si>
+  <si>
+    <t>2009-10-25 19:15:59 +0200</t>
+  </si>
+  <si>
+    <t>2009-11-16 11:15:56 +0200</t>
+  </si>
+  <si>
+    <t>2009-11-16 11:41:01 +0200</t>
+  </si>
+  <si>
+    <t>2009-12-05 11:41:28 +0200</t>
+  </si>
+  <si>
+    <t>2009-12-07 20:19:30 +0200</t>
+  </si>
+  <si>
+    <t>2010-01-05 20:23:10 +0200</t>
+  </si>
+  <si>
+    <t>2010-01-16 08:50:31 +0200</t>
+  </si>
+  <si>
+    <t>2010-01-17 01:25:22 +0200</t>
+  </si>
+  <si>
+    <t>2010-01-17 01:47:10 +0200</t>
+  </si>
+  <si>
+    <t>2010-03-20 13:12:17 +0200</t>
+  </si>
+  <si>
+    <t>2010-03-20 15:14:08 +0200</t>
+  </si>
+  <si>
+    <t>2010-01-16 09:06:09 +0200</t>
   </si>
 </sst>
 </file>
@@ -8866,7 +8869,7 @@
         <v>147</v>
       </c>
       <c r="F194" t="s">
-        <v>1092</v>
+        <v>1069</v>
       </c>
       <c r="G194" s="13">
         <v>43875</v>
@@ -11603,10 +11606,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{495E7B31-8439-4BBC-8206-DAF1FFDAE945}">
-  <dimension ref="A1:F333"/>
+  <dimension ref="A1:F334"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D177" sqref="D177"/>
+    <sheetView tabSelected="1" topLeftCell="A197" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D203" sqref="D203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -11641,7 +11644,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="28" t="s">
-        <v>1094</v>
+        <v>1071</v>
       </c>
       <c r="B2" t="s">
         <v>628</v>
@@ -11650,7 +11653,7 @@
         <v>629</v>
       </c>
       <c r="D2" t="s">
-        <v>1142</v>
+        <v>1119</v>
       </c>
       <c r="E2" t="s">
         <v>631</v>
@@ -11658,7 +11661,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="28" t="s">
-        <v>1095</v>
+        <v>1072</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>627</v>
@@ -11667,42 +11670,42 @@
         <v>20</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>1142</v>
+        <v>1119</v>
       </c>
       <c r="E3" s="19"/>
       <c r="F3" t="s">
-        <v>786</v>
+        <v>763</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="28" t="s">
-        <v>1236</v>
+        <v>1213</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1148</v>
+        <v>1125</v>
       </c>
       <c r="C4" s="19"/>
       <c r="D4" s="18" t="s">
-        <v>1230</v>
+        <v>1207</v>
       </c>
       <c r="E4" s="19"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="28" t="s">
-        <v>1245</v>
+        <v>1222</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>1185</v>
+        <v>1162</v>
       </c>
       <c r="C5" s="19"/>
       <c r="D5" s="18" t="s">
-        <v>1231</v>
+        <v>1208</v>
       </c>
       <c r="E5" s="19"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="28" t="s">
-        <v>1232</v>
+        <v>1209</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>627</v>
@@ -11711,16 +11714,16 @@
         <v>79</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>1231</v>
+        <v>1208</v>
       </c>
       <c r="E6" s="19"/>
       <c r="F6" t="s">
-        <v>838</v>
+        <v>815</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="28" t="s">
-        <v>1096</v>
+        <v>1073</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>627</v>
@@ -11729,16 +11732,16 @@
         <v>43</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>1231</v>
+        <v>1208</v>
       </c>
       <c r="E7" s="19"/>
       <c r="F7" t="s">
-        <v>787</v>
+        <v>764</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="28" t="s">
-        <v>1097</v>
+        <v>1074</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>627</v>
@@ -11747,16 +11750,16 @@
         <v>38</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>1231</v>
+        <v>1208</v>
       </c>
       <c r="E8" s="19"/>
       <c r="F8" t="s">
-        <v>1093</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="28" t="s">
-        <v>1098</v>
+        <v>1075</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>627</v>
@@ -11765,16 +11768,16 @@
         <v>26</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>1231</v>
+        <v>1208</v>
       </c>
       <c r="E9" s="19"/>
       <c r="F9" t="s">
-        <v>789</v>
+        <v>766</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="28" t="s">
-        <v>1099</v>
+        <v>1076</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>627</v>
@@ -11783,16 +11786,16 @@
         <v>123</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>1231</v>
+        <v>1208</v>
       </c>
       <c r="E10" s="19"/>
       <c r="F10" t="s">
-        <v>790</v>
+        <v>767</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="28" t="s">
-        <v>1100</v>
+        <v>1077</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>627</v>
@@ -11801,16 +11804,16 @@
         <v>555</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>1231</v>
+        <v>1208</v>
       </c>
       <c r="E11" s="26"/>
       <c r="F11" t="s">
-        <v>791</v>
+        <v>768</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="28" t="s">
-        <v>1233</v>
+        <v>1210</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>627</v>
@@ -11819,16 +11822,16 @@
         <v>137</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>1231</v>
+        <v>1208</v>
       </c>
       <c r="E12" s="18"/>
       <c r="F12" s="6" t="s">
-        <v>862</v>
+        <v>839</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="28" t="s">
-        <v>1101</v>
+        <v>1078</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>627</v>
@@ -11837,16 +11840,16 @@
         <v>110</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>1231</v>
+        <v>1208</v>
       </c>
       <c r="E13" s="19"/>
       <c r="F13" t="s">
-        <v>792</v>
+        <v>769</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="28" t="s">
-        <v>1102</v>
+        <v>1079</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>627</v>
@@ -11855,16 +11858,16 @@
         <v>111</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>1231</v>
+        <v>1208</v>
       </c>
       <c r="E14" s="19"/>
       <c r="F14" t="s">
-        <v>793</v>
+        <v>770</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="28" t="s">
-        <v>1103</v>
+        <v>1080</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>627</v>
@@ -11873,16 +11876,16 @@
         <v>577</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>1231</v>
+        <v>1208</v>
       </c>
       <c r="E15" s="19"/>
       <c r="F15" t="s">
-        <v>794</v>
+        <v>771</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="28" t="s">
-        <v>1104</v>
+        <v>1081</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>627</v>
@@ -11891,16 +11894,16 @@
         <v>6</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>1231</v>
+        <v>1208</v>
       </c>
       <c r="E16" s="19"/>
       <c r="F16" t="s">
-        <v>795</v>
+        <v>772</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="28" t="s">
-        <v>1105</v>
+        <v>1082</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>627</v>
@@ -11909,16 +11912,16 @@
         <v>30</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>1231</v>
+        <v>1208</v>
       </c>
       <c r="E17" s="18"/>
       <c r="F17" s="6" t="s">
-        <v>796</v>
+        <v>773</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="28" t="s">
-        <v>1106</v>
+        <v>1083</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>627</v>
@@ -11927,16 +11930,16 @@
         <v>14</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>1231</v>
+        <v>1208</v>
       </c>
       <c r="E18" s="18"/>
       <c r="F18" t="s">
-        <v>797</v>
+        <v>774</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="28" t="s">
-        <v>1234</v>
+        <v>1211</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>627</v>
@@ -11945,16 +11948,16 @@
         <v>87</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>1231</v>
+        <v>1208</v>
       </c>
       <c r="E19" s="19"/>
       <c r="F19" t="s">
-        <v>845</v>
+        <v>822</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="28" t="s">
-        <v>1107</v>
+        <v>1084</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>627</v>
@@ -11963,19 +11966,19 @@
         <v>161</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>1231</v>
+        <v>1208</v>
       </c>
       <c r="E20" s="19"/>
       <c r="F20" t="s">
-        <v>798</v>
+        <v>775</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="28" t="s">
-        <v>1246</v>
+        <v>1223</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>1185</v>
+        <v>1162</v>
       </c>
       <c r="C21" s="19"/>
       <c r="D21" s="18" t="s">
@@ -11985,22 +11988,22 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="28" t="s">
-        <v>1235</v>
+        <v>1212</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>1139</v>
+        <v>1116</v>
       </c>
       <c r="C22" s="19" t="s">
         <v>38</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>1143</v>
+        <v>1120</v>
       </c>
       <c r="E22" s="19"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="28" t="s">
-        <v>1108</v>
+        <v>1085</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>627</v>
@@ -12013,12 +12016,12 @@
       </c>
       <c r="E23" s="19"/>
       <c r="F23" t="s">
-        <v>799</v>
+        <v>776</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="28" t="s">
-        <v>1109</v>
+        <v>1086</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>627</v>
@@ -12031,12 +12034,12 @@
       </c>
       <c r="E24" s="19"/>
       <c r="F24" t="s">
-        <v>800</v>
+        <v>777</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="28" t="s">
-        <v>1110</v>
+        <v>1087</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>627</v>
@@ -12049,12 +12052,12 @@
       </c>
       <c r="E25" s="19"/>
       <c r="F25" t="s">
-        <v>801</v>
+        <v>778</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="28" t="s">
-        <v>1111</v>
+        <v>1088</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>627</v>
@@ -12067,30 +12070,30 @@
       </c>
       <c r="E26" s="19"/>
       <c r="F26" s="19" t="s">
-        <v>802</v>
+        <v>779</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="28" t="s">
-        <v>1112</v>
+        <v>1089</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>628</v>
       </c>
       <c r="C27" s="31" t="s">
-        <v>785</v>
+        <v>762</v>
       </c>
       <c r="D27" s="18" t="s">
         <v>633</v>
       </c>
       <c r="E27" s="19" t="s">
-        <v>1113</v>
+        <v>1090</v>
       </c>
       <c r="F27" s="19"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="28" t="s">
-        <v>1114</v>
+        <v>1091</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>627</v>
@@ -12103,12 +12106,12 @@
       </c>
       <c r="E28" s="19"/>
       <c r="F28" t="s">
-        <v>803</v>
+        <v>780</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="28" t="s">
-        <v>1115</v>
+        <v>1092</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>627</v>
@@ -12121,12 +12124,12 @@
       </c>
       <c r="E29" s="19"/>
       <c r="F29" t="s">
-        <v>804</v>
+        <v>781</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="28" t="s">
-        <v>1116</v>
+        <v>1093</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>627</v>
@@ -12139,12 +12142,12 @@
       </c>
       <c r="E30" s="18"/>
       <c r="F30" s="6" t="s">
-        <v>805</v>
+        <v>782</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="28" t="s">
-        <v>1117</v>
+        <v>1094</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>627</v>
@@ -12157,30 +12160,30 @@
       </c>
       <c r="E31" s="18"/>
       <c r="F31" s="6" t="s">
-        <v>806</v>
+        <v>783</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="28" t="s">
-        <v>1118</v>
+        <v>1095</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C32" s="31" t="s">
-        <v>1122</v>
+        <v>1099</v>
       </c>
       <c r="D32" s="18" t="s">
         <v>633</v>
       </c>
       <c r="E32" s="19"/>
       <c r="F32" t="s">
-        <v>807</v>
+        <v>784</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="28" t="s">
-        <v>1119</v>
+        <v>1096</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>627</v>
@@ -12193,12 +12196,12 @@
       </c>
       <c r="E33" s="19"/>
       <c r="F33" t="s">
-        <v>808</v>
+        <v>785</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="28" t="s">
-        <v>1120</v>
+        <v>1097</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>627</v>
@@ -12211,12 +12214,12 @@
       </c>
       <c r="E34" s="26"/>
       <c r="F34" t="s">
-        <v>809</v>
+        <v>786</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="28" t="s">
-        <v>1244</v>
+        <v>1221</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>627</v>
@@ -12229,48 +12232,48 @@
       </c>
       <c r="E35" s="19"/>
       <c r="F35" t="s">
-        <v>881</v>
+        <v>858</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="28" t="s">
-        <v>1121</v>
+        <v>1098</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C36" s="31" t="s">
-        <v>1134</v>
+        <v>1111</v>
       </c>
       <c r="D36" s="18" t="s">
         <v>633</v>
       </c>
       <c r="E36" s="19"/>
       <c r="F36" t="s">
-        <v>810</v>
+        <v>787</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="28" t="s">
-        <v>1123</v>
+        <v>1100</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C37" s="31" t="s">
-        <v>1135</v>
+        <v>1112</v>
       </c>
       <c r="D37" s="18" t="s">
         <v>633</v>
       </c>
       <c r="E37" s="19"/>
       <c r="F37" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="28" t="s">
-        <v>1124</v>
+        <v>1101</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>627</v>
@@ -12283,12 +12286,12 @@
       </c>
       <c r="E38" s="19"/>
       <c r="F38" t="s">
-        <v>812</v>
+        <v>789</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="28" t="s">
-        <v>1125</v>
+        <v>1102</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>627</v>
@@ -12301,12 +12304,12 @@
       </c>
       <c r="E39" s="19"/>
       <c r="F39" t="s">
-        <v>813</v>
+        <v>790</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="28" t="s">
-        <v>1126</v>
+        <v>1103</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>627</v>
@@ -12319,12 +12322,12 @@
       </c>
       <c r="E40" s="19"/>
       <c r="F40" t="s">
-        <v>814</v>
+        <v>791</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="28" t="s">
-        <v>1127</v>
+        <v>1104</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>627</v>
@@ -12337,30 +12340,30 @@
       </c>
       <c r="E41" s="18"/>
       <c r="F41" t="s">
-        <v>815</v>
+        <v>792</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="28" t="s">
-        <v>1128</v>
+        <v>1105</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C42" s="31" t="s">
-        <v>1136</v>
+        <v>1113</v>
       </c>
       <c r="D42" s="18" t="s">
         <v>633</v>
       </c>
       <c r="E42" s="19"/>
       <c r="F42" s="19" t="s">
-        <v>816</v>
+        <v>793</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="28" t="s">
-        <v>1129</v>
+        <v>1106</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>627</v>
@@ -12373,12 +12376,12 @@
       </c>
       <c r="E43" s="19"/>
       <c r="F43" t="s">
-        <v>817</v>
+        <v>794</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="28" t="s">
-        <v>1130</v>
+        <v>1107</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>627</v>
@@ -12391,12 +12394,12 @@
       </c>
       <c r="E44" s="19"/>
       <c r="F44" t="s">
-        <v>788</v>
+        <v>765</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="28" t="s">
-        <v>1131</v>
+        <v>1108</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>627</v>
@@ -12409,12 +12412,12 @@
       </c>
       <c r="E45" s="19"/>
       <c r="F45" t="s">
-        <v>818</v>
+        <v>795</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="28" t="s">
-        <v>1132</v>
+        <v>1109</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>627</v>
@@ -12427,12 +12430,12 @@
       </c>
       <c r="E46" s="19"/>
       <c r="F46" t="s">
-        <v>819</v>
+        <v>796</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="28" t="s">
-        <v>1133</v>
+        <v>1110</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>627</v>
@@ -12445,87 +12448,87 @@
       </c>
       <c r="E47" s="19"/>
       <c r="F47" t="s">
-        <v>820</v>
+        <v>797</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="28" t="s">
-        <v>1247</v>
+        <v>1224</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>1185</v>
+        <v>1162</v>
       </c>
       <c r="C48" s="19"/>
       <c r="D48" s="18" t="s">
-        <v>1138</v>
+        <v>1115</v>
       </c>
       <c r="E48" s="19"/>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="28" t="s">
-        <v>1141</v>
+        <v>1118</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>628</v>
       </c>
       <c r="C49" s="19" t="s">
-        <v>1181</v>
+        <v>1158</v>
       </c>
       <c r="D49" s="18" t="s">
-        <v>1138</v>
+        <v>1115</v>
       </c>
       <c r="E49" s="19" t="s">
-        <v>1140</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="34" t="s">
-        <v>1137</v>
+        <v>1114</v>
       </c>
       <c r="B50" s="32" t="s">
-        <v>1139</v>
+        <v>1116</v>
       </c>
       <c r="C50" s="19" t="s">
         <v>18</v>
       </c>
       <c r="D50" s="18" t="s">
-        <v>1143</v>
+        <v>1120</v>
       </c>
       <c r="E50" s="19"/>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="34" t="s">
-        <v>1144</v>
+        <v>1121</v>
       </c>
       <c r="B51" s="32" t="s">
-        <v>1139</v>
+        <v>1116</v>
       </c>
       <c r="C51" s="19" t="s">
-        <v>1122</v>
+        <v>1099</v>
       </c>
       <c r="D51" s="18" t="s">
-        <v>1143</v>
+        <v>1120</v>
       </c>
       <c r="E51" s="19"/>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="34" t="s">
-        <v>1145</v>
+        <v>1122</v>
       </c>
       <c r="B52" s="32" t="s">
-        <v>1139</v>
+        <v>1116</v>
       </c>
       <c r="C52" s="19" t="s">
         <v>43</v>
       </c>
       <c r="D52" s="18" t="s">
-        <v>1143</v>
+        <v>1120</v>
       </c>
       <c r="E52" s="19"/>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="35" t="s">
-        <v>1146</v>
+        <v>1123</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>627</v>
@@ -12534,16 +12537,16 @@
         <v>45</v>
       </c>
       <c r="D53" s="18" t="s">
-        <v>1138</v>
+        <v>1115</v>
       </c>
       <c r="E53" s="18"/>
       <c r="F53" s="6" t="s">
-        <v>821</v>
+        <v>798</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="28" t="s">
-        <v>1147</v>
+        <v>1124</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>627</v>
@@ -12552,16 +12555,16 @@
         <v>47</v>
       </c>
       <c r="D54" s="18" t="s">
-        <v>1138</v>
+        <v>1115</v>
       </c>
       <c r="E54" s="19"/>
       <c r="F54" t="s">
-        <v>822</v>
+        <v>799</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="28" t="s">
-        <v>1149</v>
+        <v>1126</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>627</v>
@@ -12570,16 +12573,16 @@
         <v>49</v>
       </c>
       <c r="D55" s="18" t="s">
-        <v>1138</v>
+        <v>1115</v>
       </c>
       <c r="E55" s="18"/>
       <c r="F55" t="s">
-        <v>823</v>
+        <v>800</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="28" t="s">
-        <v>1150</v>
+        <v>1127</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>627</v>
@@ -12588,16 +12591,16 @@
         <v>51</v>
       </c>
       <c r="D56" s="18" t="s">
-        <v>1138</v>
+        <v>1115</v>
       </c>
       <c r="E56" s="19"/>
       <c r="F56" t="s">
-        <v>824</v>
+        <v>801</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="28" t="s">
-        <v>1151</v>
+        <v>1128</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>627</v>
@@ -12606,16 +12609,16 @@
         <v>53</v>
       </c>
       <c r="D57" s="18" t="s">
-        <v>1138</v>
+        <v>1115</v>
       </c>
       <c r="E57" s="19"/>
       <c r="F57" t="s">
-        <v>825</v>
+        <v>802</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="28" t="s">
-        <v>1152</v>
+        <v>1129</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>627</v>
@@ -12624,16 +12627,16 @@
         <v>55</v>
       </c>
       <c r="D58" s="18" t="s">
-        <v>1138</v>
+        <v>1115</v>
       </c>
       <c r="E58" s="19"/>
       <c r="F58" t="s">
-        <v>826</v>
+        <v>803</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="28" t="s">
-        <v>1153</v>
+        <v>1130</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>627</v>
@@ -12642,16 +12645,16 @@
         <v>61</v>
       </c>
       <c r="D59" s="18" t="s">
-        <v>1138</v>
+        <v>1115</v>
       </c>
       <c r="E59" s="19"/>
       <c r="F59" t="s">
-        <v>827</v>
+        <v>804</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="28" t="s">
-        <v>1154</v>
+        <v>1131</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>627</v>
@@ -12660,16 +12663,16 @@
         <v>63</v>
       </c>
       <c r="D60" s="18" t="s">
-        <v>1138</v>
+        <v>1115</v>
       </c>
       <c r="E60" s="19"/>
       <c r="F60" t="s">
-        <v>828</v>
+        <v>805</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="28" t="s">
-        <v>1155</v>
+        <v>1132</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>627</v>
@@ -12678,16 +12681,16 @@
         <v>65</v>
       </c>
       <c r="D61" s="18" t="s">
-        <v>1138</v>
+        <v>1115</v>
       </c>
       <c r="E61" s="18"/>
       <c r="F61" s="6" t="s">
-        <v>829</v>
+        <v>806</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="28" t="s">
-        <v>1156</v>
+        <v>1133</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>627</v>
@@ -12696,16 +12699,16 @@
         <v>67</v>
       </c>
       <c r="D62" s="18" t="s">
-        <v>1138</v>
+        <v>1115</v>
       </c>
       <c r="E62" s="18"/>
       <c r="F62" t="s">
-        <v>830</v>
+        <v>807</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="28" t="s">
-        <v>1157</v>
+        <v>1134</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>627</v>
@@ -12714,16 +12717,16 @@
         <v>70</v>
       </c>
       <c r="D63" s="18" t="s">
-        <v>1138</v>
+        <v>1115</v>
       </c>
       <c r="E63" s="19"/>
       <c r="F63" t="s">
-        <v>831</v>
+        <v>808</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="28" t="s">
-        <v>1158</v>
+        <v>1135</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>627</v>
@@ -12732,16 +12735,16 @@
         <v>69</v>
       </c>
       <c r="D64" s="18" t="s">
-        <v>1138</v>
+        <v>1115</v>
       </c>
       <c r="E64" s="19"/>
       <c r="F64" t="s">
-        <v>832</v>
+        <v>809</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="28" t="s">
-        <v>1160</v>
+        <v>1137</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>627</v>
@@ -12750,16 +12753,16 @@
         <v>96</v>
       </c>
       <c r="D65" s="18" t="s">
-        <v>1138</v>
+        <v>1115</v>
       </c>
       <c r="E65" s="19"/>
       <c r="F65" t="s">
-        <v>833</v>
+        <v>810</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="28" t="s">
-        <v>1161</v>
+        <v>1138</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>627</v>
@@ -12768,16 +12771,16 @@
         <v>73</v>
       </c>
       <c r="D66" s="18" t="s">
-        <v>1138</v>
+        <v>1115</v>
       </c>
       <c r="E66" s="19"/>
       <c r="F66" t="s">
-        <v>834</v>
+        <v>811</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="28" t="s">
-        <v>1162</v>
+        <v>1139</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>627</v>
@@ -12786,16 +12789,16 @@
         <v>75</v>
       </c>
       <c r="D67" s="18" t="s">
-        <v>1138</v>
+        <v>1115</v>
       </c>
       <c r="E67" s="19"/>
       <c r="F67" t="s">
-        <v>835</v>
+        <v>812</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="28" t="s">
-        <v>1163</v>
+        <v>1140</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>627</v>
@@ -12804,16 +12807,16 @@
         <v>77</v>
       </c>
       <c r="D68" s="18" t="s">
-        <v>1138</v>
+        <v>1115</v>
       </c>
       <c r="E68" s="19"/>
       <c r="F68" t="s">
-        <v>836</v>
+        <v>813</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="28" t="s">
-        <v>1164</v>
+        <v>1141</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>627</v>
@@ -12822,16 +12825,16 @@
         <v>122</v>
       </c>
       <c r="D69" s="18" t="s">
-        <v>1138</v>
+        <v>1115</v>
       </c>
       <c r="E69" s="19"/>
       <c r="F69" t="s">
-        <v>837</v>
+        <v>814</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="28" t="s">
-        <v>1165</v>
+        <v>1142</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>627</v>
@@ -12840,16 +12843,16 @@
         <v>94</v>
       </c>
       <c r="D70" s="18" t="s">
-        <v>1138</v>
+        <v>1115</v>
       </c>
       <c r="E70" s="19"/>
       <c r="F70" t="s">
-        <v>839</v>
+        <v>816</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="28" t="s">
-        <v>1166</v>
+        <v>1143</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>627</v>
@@ -12858,29 +12861,29 @@
         <v>84</v>
       </c>
       <c r="D71" s="18" t="s">
-        <v>1138</v>
+        <v>1115</v>
       </c>
       <c r="E71" s="19"/>
       <c r="F71" t="s">
-        <v>840</v>
+        <v>817</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="28" t="s">
-        <v>1248</v>
+        <v>1225</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>1185</v>
+        <v>1162</v>
       </c>
       <c r="C72" s="19"/>
       <c r="D72" s="18" t="s">
-        <v>1159</v>
+        <v>1136</v>
       </c>
       <c r="E72" s="33"/>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="28" t="s">
-        <v>1167</v>
+        <v>1144</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>627</v>
@@ -12889,33 +12892,33 @@
         <v>542</v>
       </c>
       <c r="D73" s="18" t="s">
-        <v>1138</v>
+        <v>1115</v>
       </c>
       <c r="E73" s="26"/>
       <c r="F73" t="s">
-        <v>841</v>
+        <v>818</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="28" t="s">
-        <v>1183</v>
+        <v>1160</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>628</v>
       </c>
       <c r="C74" s="19" t="s">
-        <v>1182</v>
+        <v>1159</v>
       </c>
       <c r="D74" s="18" t="s">
-        <v>1159</v>
+        <v>1136</v>
       </c>
       <c r="E74" s="33" t="s">
-        <v>1184</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="28" t="s">
-        <v>1168</v>
+        <v>1145</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>627</v>
@@ -12924,16 +12927,16 @@
         <v>86</v>
       </c>
       <c r="D75" s="18" t="s">
-        <v>1159</v>
+        <v>1136</v>
       </c>
       <c r="E75" s="19"/>
       <c r="F75" t="s">
-        <v>842</v>
+        <v>819</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="28" t="s">
-        <v>1169</v>
+        <v>1146</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>627</v>
@@ -12942,16 +12945,16 @@
         <v>543</v>
       </c>
       <c r="D76" s="18" t="s">
-        <v>1159</v>
+        <v>1136</v>
       </c>
       <c r="E76" s="26"/>
       <c r="F76" t="s">
-        <v>843</v>
+        <v>820</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="28" t="s">
-        <v>1170</v>
+        <v>1147</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>627</v>
@@ -12960,16 +12963,16 @@
         <v>547</v>
       </c>
       <c r="D77" s="18" t="s">
-        <v>1159</v>
+        <v>1136</v>
       </c>
       <c r="E77" s="26"/>
       <c r="F77" t="s">
-        <v>844</v>
+        <v>821</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="28" t="s">
-        <v>1171</v>
+        <v>1148</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>627</v>
@@ -12978,16 +12981,16 @@
         <v>548</v>
       </c>
       <c r="D78" s="18" t="s">
-        <v>1159</v>
+        <v>1136</v>
       </c>
       <c r="E78" s="18"/>
       <c r="F78" s="6" t="s">
-        <v>846</v>
+        <v>823</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="28" t="s">
-        <v>1172</v>
+        <v>1149</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>627</v>
@@ -12996,16 +12999,16 @@
         <v>88</v>
       </c>
       <c r="D79" s="18" t="s">
-        <v>1159</v>
+        <v>1136</v>
       </c>
       <c r="E79" s="19"/>
       <c r="F79" t="s">
-        <v>847</v>
+        <v>824</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="28" t="s">
-        <v>1173</v>
+        <v>1150</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>627</v>
@@ -13014,16 +13017,16 @@
         <v>550</v>
       </c>
       <c r="D80" s="18" t="s">
-        <v>1138</v>
+        <v>1115</v>
       </c>
       <c r="E80" s="19"/>
       <c r="F80" t="s">
-        <v>848</v>
+        <v>825</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="28" t="s">
-        <v>1174</v>
+        <v>1151</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>627</v>
@@ -13032,16 +13035,16 @@
         <v>549</v>
       </c>
       <c r="D81" s="18" t="s">
-        <v>1159</v>
+        <v>1136</v>
       </c>
       <c r="E81" s="18"/>
       <c r="F81" s="6" t="s">
-        <v>849</v>
+        <v>826</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="28" t="s">
-        <v>1175</v>
+        <v>1152</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>627</v>
@@ -13050,16 +13053,16 @@
         <v>551</v>
       </c>
       <c r="D82" s="18" t="s">
-        <v>1159</v>
+        <v>1136</v>
       </c>
       <c r="E82" s="19"/>
       <c r="F82" t="s">
-        <v>850</v>
+        <v>827</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="28" t="s">
-        <v>1176</v>
+        <v>1153</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>627</v>
@@ -13068,16 +13071,16 @@
         <v>552</v>
       </c>
       <c r="D83" s="18" t="s">
-        <v>1159</v>
+        <v>1136</v>
       </c>
       <c r="E83" s="19"/>
       <c r="F83" t="s">
-        <v>851</v>
+        <v>828</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="28" t="s">
-        <v>1177</v>
+        <v>1154</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>627</v>
@@ -13086,16 +13089,16 @@
         <v>97</v>
       </c>
       <c r="D84" s="18" t="s">
-        <v>1159</v>
+        <v>1136</v>
       </c>
       <c r="E84" s="19"/>
       <c r="F84" t="s">
-        <v>852</v>
+        <v>829</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="28" t="s">
-        <v>1178</v>
+        <v>1155</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>627</v>
@@ -13104,16 +13107,16 @@
         <v>98</v>
       </c>
       <c r="D85" s="18" t="s">
-        <v>1159</v>
+        <v>1136</v>
       </c>
       <c r="E85" s="19"/>
       <c r="F85" t="s">
-        <v>853</v>
+        <v>830</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="28" t="s">
-        <v>1179</v>
+        <v>1156</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>627</v>
@@ -13122,32 +13125,32 @@
         <v>104</v>
       </c>
       <c r="D86" s="18" t="s">
-        <v>1138</v>
+        <v>1115</v>
       </c>
       <c r="E86" s="18"/>
       <c r="F86" s="6" t="s">
-        <v>854</v>
+        <v>831</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="28" t="s">
-        <v>1257</v>
+        <v>1234</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>1139</v>
+        <v>1116</v>
       </c>
       <c r="C87" s="18" t="s">
         <v>104</v>
       </c>
       <c r="D87" s="18" t="s">
-        <v>1143</v>
+        <v>1120</v>
       </c>
       <c r="E87" s="18"/>
       <c r="F87" s="6"/>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="28" t="s">
-        <v>1180</v>
+        <v>1157</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>627</v>
@@ -13160,27 +13163,27 @@
       </c>
       <c r="E88" s="26"/>
       <c r="F88" t="s">
-        <v>855</v>
+        <v>832</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="28" t="s">
-        <v>1258</v>
+        <v>1235</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>1139</v>
+        <v>1116</v>
       </c>
       <c r="C89" s="26" t="s">
         <v>553</v>
       </c>
       <c r="D89" s="26" t="s">
-        <v>1143</v>
+        <v>1120</v>
       </c>
       <c r="E89" s="26"/>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="28" t="s">
-        <v>1187</v>
+        <v>1164</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>627</v>
@@ -13189,31 +13192,31 @@
         <v>124</v>
       </c>
       <c r="D90" s="18" t="s">
-        <v>1138</v>
+        <v>1115</v>
       </c>
       <c r="E90" s="19"/>
       <c r="F90" t="s">
-        <v>856</v>
+        <v>833</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="28" t="s">
-        <v>1259</v>
+        <v>1236</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>1139</v>
+        <v>1116</v>
       </c>
       <c r="C91" s="19" t="s">
         <v>124</v>
       </c>
       <c r="D91" s="18" t="s">
-        <v>1143</v>
+        <v>1120</v>
       </c>
       <c r="E91" s="19"/>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="28" t="s">
-        <v>1188</v>
+        <v>1165</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>627</v>
@@ -13222,16 +13225,16 @@
         <v>107</v>
       </c>
       <c r="D92" s="18" t="s">
-        <v>1159</v>
+        <v>1136</v>
       </c>
       <c r="E92" s="19"/>
       <c r="F92" t="s">
-        <v>857</v>
+        <v>834</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="28" t="s">
-        <v>1189</v>
+        <v>1166</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>627</v>
@@ -13240,16 +13243,16 @@
         <v>106</v>
       </c>
       <c r="D93" s="18" t="s">
-        <v>1159</v>
+        <v>1136</v>
       </c>
       <c r="E93" s="19"/>
       <c r="F93" t="s">
-        <v>858</v>
+        <v>835</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="28" t="s">
-        <v>1190</v>
+        <v>1167</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>627</v>
@@ -13258,16 +13261,16 @@
         <v>109</v>
       </c>
       <c r="D94" s="18" t="s">
-        <v>1159</v>
+        <v>1136</v>
       </c>
       <c r="E94" s="18"/>
       <c r="F94" t="s">
-        <v>859</v>
+        <v>836</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="28" t="s">
-        <v>1191</v>
+        <v>1168</v>
       </c>
       <c r="B95" s="3" t="s">
         <v>627</v>
@@ -13276,16 +13279,16 @@
         <v>108</v>
       </c>
       <c r="D95" s="18" t="s">
-        <v>1159</v>
+        <v>1136</v>
       </c>
       <c r="E95" s="19"/>
       <c r="F95" t="s">
-        <v>860</v>
+        <v>837</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="28" t="s">
-        <v>1192</v>
+        <v>1169</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>627</v>
@@ -13294,16 +13297,16 @@
         <v>112</v>
       </c>
       <c r="D96" s="18" t="s">
-        <v>1159</v>
+        <v>1136</v>
       </c>
       <c r="E96" s="19"/>
       <c r="F96" t="s">
-        <v>861</v>
+        <v>838</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="28" t="s">
-        <v>1193</v>
+        <v>1170</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>627</v>
@@ -13312,16 +13315,16 @@
         <v>113</v>
       </c>
       <c r="D97" s="18" t="s">
-        <v>1159</v>
+        <v>1136</v>
       </c>
       <c r="E97" s="18"/>
       <c r="F97" s="6" t="s">
-        <v>863</v>
+        <v>840</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="28" t="s">
-        <v>1194</v>
+        <v>1171</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>627</v>
@@ -13330,16 +13333,16 @@
         <v>127</v>
       </c>
       <c r="D98" s="18" t="s">
-        <v>1159</v>
+        <v>1136</v>
       </c>
       <c r="E98" s="19"/>
       <c r="F98" t="s">
-        <v>864</v>
+        <v>841</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="28" t="s">
-        <v>1195</v>
+        <v>1172</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>627</v>
@@ -13348,16 +13351,16 @@
         <v>129</v>
       </c>
       <c r="D99" s="18" t="s">
-        <v>1159</v>
+        <v>1136</v>
       </c>
       <c r="E99" s="18"/>
       <c r="F99" t="s">
-        <v>865</v>
+        <v>842</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="28" t="s">
-        <v>1196</v>
+        <v>1173</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>627</v>
@@ -13366,16 +13369,16 @@
         <v>169</v>
       </c>
       <c r="D100" s="18" t="s">
-        <v>1159</v>
+        <v>1136</v>
       </c>
       <c r="E100" s="19"/>
       <c r="F100" t="s">
-        <v>866</v>
+        <v>843</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="28" t="s">
-        <v>1197</v>
+        <v>1174</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>627</v>
@@ -13384,16 +13387,16 @@
         <v>131</v>
       </c>
       <c r="D101" s="18" t="s">
-        <v>1159</v>
+        <v>1136</v>
       </c>
       <c r="E101" s="18"/>
       <c r="F101" t="s">
-        <v>867</v>
+        <v>844</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="28" t="s">
-        <v>1198</v>
+        <v>1175</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>627</v>
@@ -13402,16 +13405,16 @@
         <v>133</v>
       </c>
       <c r="D102" s="18" t="s">
-        <v>1159</v>
+        <v>1136</v>
       </c>
       <c r="E102" s="19"/>
       <c r="F102" t="s">
-        <v>868</v>
+        <v>845</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="28" t="s">
-        <v>1199</v>
+        <v>1176</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>627</v>
@@ -13420,16 +13423,16 @@
         <v>578</v>
       </c>
       <c r="D103" s="18" t="s">
-        <v>1159</v>
+        <v>1136</v>
       </c>
       <c r="E103" s="26"/>
       <c r="F103" t="s">
-        <v>869</v>
+        <v>846</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="28" t="s">
-        <v>1200</v>
+        <v>1177</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>627</v>
@@ -13438,16 +13441,16 @@
         <v>556</v>
       </c>
       <c r="D104" s="18" t="s">
-        <v>1159</v>
+        <v>1136</v>
       </c>
       <c r="E104" s="26"/>
       <c r="F104" t="s">
-        <v>870</v>
+        <v>847</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="28" t="s">
-        <v>1201</v>
+        <v>1178</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>627</v>
@@ -13456,16 +13459,16 @@
         <v>135</v>
       </c>
       <c r="D105" s="18" t="s">
-        <v>1159</v>
+        <v>1136</v>
       </c>
       <c r="E105" s="19"/>
       <c r="F105" t="s">
-        <v>871</v>
+        <v>848</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="28" t="s">
-        <v>1202</v>
+        <v>1179</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>627</v>
@@ -13474,16 +13477,16 @@
         <v>567</v>
       </c>
       <c r="D106" s="18" t="s">
-        <v>1159</v>
+        <v>1136</v>
       </c>
       <c r="E106" s="19"/>
       <c r="F106" t="s">
-        <v>872</v>
+        <v>849</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="28" t="s">
-        <v>1203</v>
+        <v>1180</v>
       </c>
       <c r="B107" s="3" t="s">
         <v>627</v>
@@ -13492,16 +13495,16 @@
         <v>569</v>
       </c>
       <c r="D107" s="18" t="s">
-        <v>1159</v>
+        <v>1136</v>
       </c>
       <c r="E107" s="19"/>
       <c r="F107" t="s">
-        <v>873</v>
+        <v>850</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="28" t="s">
-        <v>1204</v>
+        <v>1181</v>
       </c>
       <c r="B108" s="3" t="s">
         <v>627</v>
@@ -13510,16 +13513,16 @@
         <v>579</v>
       </c>
       <c r="D108" s="18" t="s">
-        <v>1159</v>
+        <v>1136</v>
       </c>
       <c r="E108" s="19"/>
       <c r="F108" t="s">
-        <v>874</v>
+        <v>851</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="28" t="s">
-        <v>1205</v>
+        <v>1182</v>
       </c>
       <c r="B109" s="3" t="s">
         <v>627</v>
@@ -13528,16 +13531,16 @@
         <v>580</v>
       </c>
       <c r="D109" s="18" t="s">
-        <v>1159</v>
+        <v>1136</v>
       </c>
       <c r="E109" s="19"/>
       <c r="F109" t="s">
-        <v>875</v>
+        <v>852</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="28" t="s">
-        <v>1206</v>
+        <v>1183</v>
       </c>
       <c r="B110" s="3" t="s">
         <v>627</v>
@@ -13546,16 +13549,16 @@
         <v>539</v>
       </c>
       <c r="D110" s="18" t="s">
-        <v>1159</v>
+        <v>1136</v>
       </c>
       <c r="E110" s="26"/>
       <c r="F110" t="s">
-        <v>876</v>
+        <v>853</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="28" t="s">
-        <v>1207</v>
+        <v>1184</v>
       </c>
       <c r="B111" s="3" t="s">
         <v>627</v>
@@ -13564,16 +13567,16 @@
         <v>143</v>
       </c>
       <c r="D111" s="18" t="s">
-        <v>1159</v>
+        <v>1136</v>
       </c>
       <c r="E111" s="19"/>
       <c r="F111" t="s">
-        <v>877</v>
+        <v>854</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="28" t="s">
-        <v>1208</v>
+        <v>1185</v>
       </c>
       <c r="B112" s="3" t="s">
         <v>627</v>
@@ -13582,16 +13585,16 @@
         <v>145</v>
       </c>
       <c r="D112" s="18" t="s">
-        <v>1159</v>
+        <v>1136</v>
       </c>
       <c r="E112" s="19"/>
       <c r="F112" t="s">
-        <v>878</v>
+        <v>855</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="28" t="s">
-        <v>1209</v>
+        <v>1186</v>
       </c>
       <c r="B113" s="3" t="s">
         <v>627</v>
@@ -13600,16 +13603,16 @@
         <v>581</v>
       </c>
       <c r="D113" s="18" t="s">
-        <v>1159</v>
+        <v>1136</v>
       </c>
       <c r="E113" s="26"/>
       <c r="F113" t="s">
-        <v>879</v>
+        <v>856</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="28" t="s">
-        <v>1210</v>
+        <v>1187</v>
       </c>
       <c r="B114" s="3" t="s">
         <v>627</v>
@@ -13618,16 +13621,16 @@
         <v>531</v>
       </c>
       <c r="D114" s="18" t="s">
-        <v>1159</v>
+        <v>1136</v>
       </c>
       <c r="E114" s="19"/>
       <c r="F114" t="s">
-        <v>880</v>
+        <v>857</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="28" t="s">
-        <v>1211</v>
+        <v>1188</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>627</v>
@@ -13636,16 +13639,16 @@
         <v>582</v>
       </c>
       <c r="D115" s="18" t="s">
-        <v>1159</v>
+        <v>1136</v>
       </c>
       <c r="E115" s="26"/>
       <c r="F115" t="s">
-        <v>882</v>
+        <v>859</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="28" t="s">
-        <v>1212</v>
+        <v>1189</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>627</v>
@@ -13654,16 +13657,16 @@
         <v>149</v>
       </c>
       <c r="D116" s="18" t="s">
-        <v>1159</v>
+        <v>1136</v>
       </c>
       <c r="E116" s="19"/>
       <c r="F116" t="s">
-        <v>883</v>
+        <v>860</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="28" t="s">
-        <v>1213</v>
+        <v>1190</v>
       </c>
       <c r="B117" s="3" t="s">
         <v>627</v>
@@ -13672,16 +13675,16 @@
         <v>139</v>
       </c>
       <c r="D117" s="18" t="s">
-        <v>1159</v>
+        <v>1136</v>
       </c>
       <c r="E117" s="19"/>
       <c r="F117" t="s">
-        <v>884</v>
+        <v>861</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118" s="28" t="s">
-        <v>1214</v>
+        <v>1191</v>
       </c>
       <c r="B118" s="3" t="s">
         <v>627</v>
@@ -13690,16 +13693,16 @@
         <v>140</v>
       </c>
       <c r="D118" s="18" t="s">
-        <v>1159</v>
+        <v>1136</v>
       </c>
       <c r="E118" s="26"/>
       <c r="F118" t="s">
-        <v>885</v>
+        <v>862</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119" s="28" t="s">
-        <v>1215</v>
+        <v>1192</v>
       </c>
       <c r="B119" s="3" t="s">
         <v>627</v>
@@ -13708,16 +13711,16 @@
         <v>162</v>
       </c>
       <c r="D119" s="18" t="s">
-        <v>1159</v>
+        <v>1136</v>
       </c>
       <c r="E119" s="19"/>
       <c r="F119" t="s">
-        <v>886</v>
+        <v>863</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120" s="28" t="s">
-        <v>1216</v>
+        <v>1193</v>
       </c>
       <c r="B120" s="3" t="s">
         <v>627</v>
@@ -13726,16 +13729,16 @@
         <v>151</v>
       </c>
       <c r="D120" s="18" t="s">
-        <v>1159</v>
+        <v>1136</v>
       </c>
       <c r="E120" s="19"/>
       <c r="F120" t="s">
-        <v>887</v>
+        <v>864</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="28" t="s">
-        <v>1217</v>
+        <v>1194</v>
       </c>
       <c r="B121" s="3" t="s">
         <v>627</v>
@@ -13744,16 +13747,16 @@
         <v>527</v>
       </c>
       <c r="D121" s="18" t="s">
-        <v>1159</v>
+        <v>1136</v>
       </c>
       <c r="E121" s="26"/>
       <c r="F121" t="s">
-        <v>888</v>
+        <v>865</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="28" t="s">
-        <v>1218</v>
+        <v>1195</v>
       </c>
       <c r="B122" s="3" t="s">
         <v>627</v>
@@ -13762,16 +13765,16 @@
         <v>150</v>
       </c>
       <c r="D122" s="18" t="s">
-        <v>1159</v>
+        <v>1136</v>
       </c>
       <c r="E122" s="19"/>
       <c r="F122" t="s">
-        <v>889</v>
+        <v>866</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="28" t="s">
-        <v>1219</v>
+        <v>1196</v>
       </c>
       <c r="B123" s="3" t="s">
         <v>627</v>
@@ -13780,16 +13783,16 @@
         <v>525</v>
       </c>
       <c r="D123" s="18" t="s">
-        <v>1159</v>
+        <v>1136</v>
       </c>
       <c r="E123" s="19"/>
       <c r="F123" t="s">
-        <v>890</v>
+        <v>867</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="28" t="s">
-        <v>1220</v>
+        <v>1197</v>
       </c>
       <c r="B124" s="3" t="s">
         <v>627</v>
@@ -13798,16 +13801,16 @@
         <v>583</v>
       </c>
       <c r="D124" s="18" t="s">
-        <v>1159</v>
+        <v>1136</v>
       </c>
       <c r="E124" s="26"/>
       <c r="F124" t="s">
-        <v>891</v>
+        <v>868</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="28" t="s">
-        <v>1221</v>
+        <v>1198</v>
       </c>
       <c r="B125" s="3" t="s">
         <v>627</v>
@@ -13816,16 +13819,16 @@
         <v>571</v>
       </c>
       <c r="D125" s="18" t="s">
-        <v>1159</v>
+        <v>1136</v>
       </c>
       <c r="E125" s="26"/>
       <c r="F125" t="s">
-        <v>892</v>
+        <v>869</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="28" t="s">
-        <v>1222</v>
+        <v>1199</v>
       </c>
       <c r="B126" s="3" t="s">
         <v>627</v>
@@ -13834,16 +13837,16 @@
         <v>573</v>
       </c>
       <c r="D126" s="18" t="s">
-        <v>1159</v>
+        <v>1136</v>
       </c>
       <c r="E126" s="19"/>
       <c r="F126" t="s">
-        <v>893</v>
+        <v>870</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="28" t="s">
-        <v>1223</v>
+        <v>1200</v>
       </c>
       <c r="B127" s="3" t="s">
         <v>627</v>
@@ -13852,16 +13855,16 @@
         <v>575</v>
       </c>
       <c r="D127" s="18" t="s">
-        <v>1159</v>
+        <v>1136</v>
       </c>
       <c r="E127" s="19"/>
       <c r="F127" t="s">
-        <v>894</v>
+        <v>871</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128" s="28" t="s">
-        <v>1224</v>
+        <v>1201</v>
       </c>
       <c r="B128" s="3" t="s">
         <v>627</v>
@@ -13870,16 +13873,16 @@
         <v>584</v>
       </c>
       <c r="D128" s="18" t="s">
-        <v>1159</v>
+        <v>1136</v>
       </c>
       <c r="E128" s="26"/>
       <c r="F128" t="s">
-        <v>895</v>
+        <v>872</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129" s="28" t="s">
-        <v>1225</v>
+        <v>1202</v>
       </c>
       <c r="B129" s="3" t="s">
         <v>627</v>
@@ -13888,16 +13891,16 @@
         <v>585</v>
       </c>
       <c r="D129" s="18" t="s">
-        <v>1159</v>
+        <v>1136</v>
       </c>
       <c r="E129" s="26"/>
       <c r="F129" t="s">
-        <v>896</v>
+        <v>873</v>
       </c>
     </row>
     <row r="130" spans="1:6">
       <c r="A130" s="28" t="s">
-        <v>1226</v>
+        <v>1203</v>
       </c>
       <c r="B130" s="3" t="s">
         <v>627</v>
@@ -13906,16 +13909,16 @@
         <v>156</v>
       </c>
       <c r="D130" s="18" t="s">
-        <v>1159</v>
+        <v>1136</v>
       </c>
       <c r="E130" s="19"/>
       <c r="F130" t="s">
-        <v>897</v>
+        <v>874</v>
       </c>
     </row>
     <row r="131" spans="1:6">
       <c r="A131" s="28" t="s">
-        <v>1227</v>
+        <v>1204</v>
       </c>
       <c r="B131" s="3" t="s">
         <v>627</v>
@@ -13924,16 +13927,16 @@
         <v>158</v>
       </c>
       <c r="D131" s="18" t="s">
-        <v>1159</v>
+        <v>1136</v>
       </c>
       <c r="E131" s="19"/>
       <c r="F131" t="s">
-        <v>898</v>
+        <v>875</v>
       </c>
     </row>
     <row r="132" spans="1:6">
       <c r="A132" s="28" t="s">
-        <v>1228</v>
+        <v>1205</v>
       </c>
       <c r="B132" s="3" t="s">
         <v>627</v>
@@ -13942,16 +13945,16 @@
         <v>160</v>
       </c>
       <c r="D132" s="18" t="s">
-        <v>1159</v>
+        <v>1136</v>
       </c>
       <c r="E132" s="18"/>
       <c r="F132" s="6" t="s">
-        <v>899</v>
+        <v>876</v>
       </c>
     </row>
     <row r="133" spans="1:6">
       <c r="A133" s="28" t="s">
-        <v>1229</v>
+        <v>1206</v>
       </c>
       <c r="B133" s="3" t="s">
         <v>627</v>
@@ -13960,29 +13963,29 @@
         <v>595</v>
       </c>
       <c r="D133" s="18" t="s">
-        <v>1159</v>
+        <v>1136</v>
       </c>
       <c r="E133" s="26"/>
       <c r="F133" t="s">
-        <v>900</v>
+        <v>877</v>
       </c>
     </row>
     <row r="134" spans="1:6">
       <c r="A134" s="28" t="s">
-        <v>1249</v>
+        <v>1226</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>1185</v>
+        <v>1162</v>
       </c>
       <c r="C134" s="19"/>
       <c r="D134" s="18" t="s">
-        <v>1186</v>
+        <v>1163</v>
       </c>
       <c r="E134" s="26"/>
     </row>
     <row r="135" spans="1:6">
       <c r="A135" s="28" t="s">
-        <v>1295</v>
+        <v>1272</v>
       </c>
       <c r="B135" s="3" t="s">
         <v>627</v>
@@ -13991,16 +13994,16 @@
         <v>163</v>
       </c>
       <c r="D135" s="18" t="s">
-        <v>1186</v>
+        <v>1163</v>
       </c>
       <c r="E135" s="19"/>
       <c r="F135" t="s">
-        <v>901</v>
+        <v>878</v>
       </c>
     </row>
     <row r="136" spans="1:6">
       <c r="A136" s="28" t="s">
-        <v>1296</v>
+        <v>1273</v>
       </c>
       <c r="B136" s="3" t="s">
         <v>627</v>
@@ -14009,16 +14012,16 @@
         <v>599</v>
       </c>
       <c r="D136" s="18" t="s">
-        <v>1186</v>
+        <v>1163</v>
       </c>
       <c r="E136" s="26"/>
       <c r="F136" t="s">
-        <v>902</v>
+        <v>879</v>
       </c>
     </row>
     <row r="137" spans="1:6">
       <c r="A137" s="28" t="s">
-        <v>1297</v>
+        <v>1274</v>
       </c>
       <c r="B137" s="3" t="s">
         <v>627</v>
@@ -14027,16 +14030,16 @@
         <v>167</v>
       </c>
       <c r="D137" s="18" t="s">
-        <v>1186</v>
+        <v>1163</v>
       </c>
       <c r="E137" s="19"/>
       <c r="F137" t="s">
-        <v>903</v>
+        <v>880</v>
       </c>
     </row>
     <row r="138" spans="1:6">
       <c r="A138" s="28" t="s">
-        <v>1260</v>
+        <v>1237</v>
       </c>
       <c r="B138" s="3" t="s">
         <v>627</v>
@@ -14045,16 +14048,16 @@
         <v>251</v>
       </c>
       <c r="D138" s="18" t="s">
-        <v>1186</v>
+        <v>1163</v>
       </c>
       <c r="E138" s="19"/>
       <c r="F138" t="s">
-        <v>904</v>
+        <v>881</v>
       </c>
     </row>
     <row r="139" spans="1:6">
       <c r="A139" s="28" t="s">
-        <v>1261</v>
+        <v>1238</v>
       </c>
       <c r="B139" s="3" t="s">
         <v>627</v>
@@ -14063,16 +14066,16 @@
         <v>170</v>
       </c>
       <c r="D139" s="18" t="s">
-        <v>1186</v>
+        <v>1163</v>
       </c>
       <c r="E139" s="26"/>
       <c r="F139" t="s">
-        <v>905</v>
+        <v>882</v>
       </c>
     </row>
     <row r="140" spans="1:6">
       <c r="A140" s="28" t="s">
-        <v>1262</v>
+        <v>1239</v>
       </c>
       <c r="B140" s="3" t="s">
         <v>627</v>
@@ -14081,16 +14084,16 @@
         <v>171</v>
       </c>
       <c r="D140" s="18" t="s">
-        <v>1186</v>
+        <v>1163</v>
       </c>
       <c r="E140" s="27"/>
       <c r="F140" t="s">
-        <v>906</v>
+        <v>883</v>
       </c>
     </row>
     <row r="141" spans="1:6">
       <c r="A141" s="28" t="s">
-        <v>1263</v>
+        <v>1240</v>
       </c>
       <c r="B141" s="3" t="s">
         <v>627</v>
@@ -14099,16 +14102,16 @@
         <v>172</v>
       </c>
       <c r="D141" s="18" t="s">
-        <v>1186</v>
+        <v>1163</v>
       </c>
       <c r="E141" s="19"/>
       <c r="F141" t="s">
-        <v>907</v>
+        <v>884</v>
       </c>
     </row>
     <row r="142" spans="1:6">
       <c r="A142" s="28" t="s">
-        <v>1264</v>
+        <v>1241</v>
       </c>
       <c r="B142" s="3" t="s">
         <v>627</v>
@@ -14117,16 +14120,16 @@
         <v>601</v>
       </c>
       <c r="D142" s="18" t="s">
-        <v>1186</v>
+        <v>1163</v>
       </c>
       <c r="E142" s="26"/>
       <c r="F142" t="s">
-        <v>908</v>
+        <v>885</v>
       </c>
     </row>
     <row r="143" spans="1:6">
       <c r="A143" s="28" t="s">
-        <v>1265</v>
+        <v>1242</v>
       </c>
       <c r="B143" s="3" t="s">
         <v>627</v>
@@ -14135,16 +14138,16 @@
         <v>173</v>
       </c>
       <c r="D143" s="18" t="s">
-        <v>1186</v>
+        <v>1163</v>
       </c>
       <c r="E143" s="26"/>
       <c r="F143" t="s">
-        <v>909</v>
+        <v>886</v>
       </c>
     </row>
     <row r="144" spans="1:6">
       <c r="A144" s="28" t="s">
-        <v>1266</v>
+        <v>1243</v>
       </c>
       <c r="B144" s="3" t="s">
         <v>627</v>
@@ -14153,16 +14156,16 @@
         <v>189</v>
       </c>
       <c r="D144" s="18" t="s">
-        <v>1186</v>
+        <v>1163</v>
       </c>
       <c r="E144" s="26"/>
       <c r="F144" t="s">
-        <v>910</v>
+        <v>887</v>
       </c>
     </row>
     <row r="145" spans="1:6">
       <c r="A145" s="28" t="s">
-        <v>1267</v>
+        <v>1244</v>
       </c>
       <c r="B145" s="3" t="s">
         <v>627</v>
@@ -14171,16 +14174,16 @@
         <v>174</v>
       </c>
       <c r="D145" s="18" t="s">
-        <v>1186</v>
+        <v>1163</v>
       </c>
       <c r="E145" s="26"/>
       <c r="F145" t="s">
-        <v>911</v>
+        <v>888</v>
       </c>
     </row>
     <row r="146" spans="1:6">
       <c r="A146" s="28" t="s">
-        <v>1268</v>
+        <v>1245</v>
       </c>
       <c r="B146" s="3" t="s">
         <v>627</v>
@@ -14189,16 +14192,16 @@
         <v>176</v>
       </c>
       <c r="D146" s="18" t="s">
-        <v>1186</v>
+        <v>1163</v>
       </c>
       <c r="E146" s="26"/>
       <c r="F146" t="s">
-        <v>912</v>
+        <v>889</v>
       </c>
     </row>
     <row r="147" spans="1:6">
       <c r="A147" s="28" t="s">
-        <v>1269</v>
+        <v>1246</v>
       </c>
       <c r="B147" s="3" t="s">
         <v>627</v>
@@ -14207,16 +14210,16 @@
         <v>175</v>
       </c>
       <c r="D147" s="18" t="s">
-        <v>1186</v>
+        <v>1163</v>
       </c>
       <c r="E147" s="26"/>
       <c r="F147" t="s">
-        <v>913</v>
+        <v>890</v>
       </c>
     </row>
     <row r="148" spans="1:6">
       <c r="A148" s="28" t="s">
-        <v>1270</v>
+        <v>1247</v>
       </c>
       <c r="B148" s="3" t="s">
         <v>627</v>
@@ -14225,16 +14228,16 @@
         <v>183</v>
       </c>
       <c r="D148" s="18" t="s">
-        <v>1186</v>
+        <v>1163</v>
       </c>
       <c r="E148" s="26"/>
       <c r="F148" t="s">
-        <v>914</v>
+        <v>891</v>
       </c>
     </row>
     <row r="149" spans="1:6">
       <c r="A149" s="28" t="s">
-        <v>1271</v>
+        <v>1248</v>
       </c>
       <c r="B149" s="3" t="s">
         <v>627</v>
@@ -14243,16 +14246,16 @@
         <v>185</v>
       </c>
       <c r="D149" s="18" t="s">
-        <v>1186</v>
+        <v>1163</v>
       </c>
       <c r="E149" s="26"/>
       <c r="F149" t="s">
-        <v>915</v>
+        <v>892</v>
       </c>
     </row>
     <row r="150" spans="1:6">
       <c r="A150" s="28" t="s">
-        <v>1272</v>
+        <v>1249</v>
       </c>
       <c r="B150" s="3" t="s">
         <v>627</v>
@@ -14261,16 +14264,16 @@
         <v>184</v>
       </c>
       <c r="D150" s="18" t="s">
-        <v>1186</v>
+        <v>1163</v>
       </c>
       <c r="E150" s="26"/>
       <c r="F150" t="s">
-        <v>916</v>
+        <v>893</v>
       </c>
     </row>
     <row r="151" spans="1:6">
       <c r="A151" s="28" t="s">
-        <v>1273</v>
+        <v>1250</v>
       </c>
       <c r="B151" s="3" t="s">
         <v>627</v>
@@ -14279,16 +14282,16 @@
         <v>186</v>
       </c>
       <c r="D151" s="18" t="s">
-        <v>1186</v>
+        <v>1163</v>
       </c>
       <c r="E151" s="19"/>
       <c r="F151" t="s">
-        <v>917</v>
+        <v>894</v>
       </c>
     </row>
     <row r="152" spans="1:6">
       <c r="A152" s="28" t="s">
-        <v>1274</v>
+        <v>1251</v>
       </c>
       <c r="B152" s="3" t="s">
         <v>627</v>
@@ -14297,16 +14300,16 @@
         <v>187</v>
       </c>
       <c r="D152" s="18" t="s">
-        <v>1186</v>
+        <v>1163</v>
       </c>
       <c r="E152" s="26"/>
       <c r="F152" t="s">
-        <v>918</v>
+        <v>895</v>
       </c>
     </row>
     <row r="153" spans="1:6">
       <c r="A153" s="28" t="s">
-        <v>1275</v>
+        <v>1252</v>
       </c>
       <c r="B153" s="3" t="s">
         <v>627</v>
@@ -14315,16 +14318,16 @@
         <v>188</v>
       </c>
       <c r="D153" s="18" t="s">
-        <v>1186</v>
+        <v>1163</v>
       </c>
       <c r="E153" s="27"/>
       <c r="F153" t="s">
-        <v>919</v>
+        <v>896</v>
       </c>
     </row>
     <row r="154" spans="1:6">
       <c r="A154" s="28" t="s">
-        <v>1276</v>
+        <v>1253</v>
       </c>
       <c r="B154" s="3" t="s">
         <v>627</v>
@@ -14333,16 +14336,16 @@
         <v>192</v>
       </c>
       <c r="D154" s="18" t="s">
-        <v>1186</v>
+        <v>1163</v>
       </c>
       <c r="E154" s="26"/>
       <c r="F154" t="s">
-        <v>920</v>
+        <v>897</v>
       </c>
     </row>
     <row r="155" spans="1:6">
       <c r="A155" s="28" t="s">
-        <v>1277</v>
+        <v>1254</v>
       </c>
       <c r="B155" s="3" t="s">
         <v>627</v>
@@ -14351,16 +14354,16 @@
         <v>190</v>
       </c>
       <c r="D155" s="18" t="s">
-        <v>1186</v>
+        <v>1163</v>
       </c>
       <c r="E155" s="26"/>
       <c r="F155" t="s">
-        <v>921</v>
+        <v>898</v>
       </c>
     </row>
     <row r="156" spans="1:6">
       <c r="A156" s="28" t="s">
-        <v>1278</v>
+        <v>1255</v>
       </c>
       <c r="B156" s="3" t="s">
         <v>627</v>
@@ -14369,16 +14372,16 @@
         <v>191</v>
       </c>
       <c r="D156" s="18" t="s">
-        <v>1186</v>
+        <v>1163</v>
       </c>
       <c r="E156" s="26"/>
       <c r="F156" t="s">
-        <v>922</v>
+        <v>899</v>
       </c>
     </row>
     <row r="157" spans="1:6">
       <c r="A157" s="28" t="s">
-        <v>1279</v>
+        <v>1256</v>
       </c>
       <c r="B157" s="3" t="s">
         <v>627</v>
@@ -14387,16 +14390,16 @@
         <v>605</v>
       </c>
       <c r="D157" s="18" t="s">
-        <v>1186</v>
+        <v>1163</v>
       </c>
       <c r="E157" s="26"/>
       <c r="F157" t="s">
-        <v>923</v>
+        <v>900</v>
       </c>
     </row>
     <row r="158" spans="1:6">
       <c r="A158" s="28" t="s">
-        <v>1280</v>
+        <v>1257</v>
       </c>
       <c r="B158" s="3" t="s">
         <v>627</v>
@@ -14405,16 +14408,16 @@
         <v>603</v>
       </c>
       <c r="D158" s="18" t="s">
-        <v>1186</v>
+        <v>1163</v>
       </c>
       <c r="E158" s="19"/>
       <c r="F158" t="s">
-        <v>924</v>
+        <v>901</v>
       </c>
     </row>
     <row r="159" spans="1:6">
       <c r="A159" s="28" t="s">
-        <v>1281</v>
+        <v>1258</v>
       </c>
       <c r="B159" s="3" t="s">
         <v>627</v>
@@ -14423,16 +14426,16 @@
         <v>205</v>
       </c>
       <c r="D159" s="18" t="s">
-        <v>1186</v>
+        <v>1163</v>
       </c>
       <c r="E159" s="26"/>
       <c r="F159" t="s">
-        <v>925</v>
+        <v>902</v>
       </c>
     </row>
     <row r="160" spans="1:6">
       <c r="A160" s="28" t="s">
-        <v>1282</v>
+        <v>1259</v>
       </c>
       <c r="B160" s="3" t="s">
         <v>627</v>
@@ -14441,16 +14444,16 @@
         <v>206</v>
       </c>
       <c r="D160" s="18" t="s">
-        <v>1186</v>
+        <v>1163</v>
       </c>
       <c r="E160" s="26"/>
       <c r="F160" t="s">
-        <v>926</v>
+        <v>903</v>
       </c>
     </row>
     <row r="161" spans="1:6">
       <c r="A161" s="28" t="s">
-        <v>1283</v>
+        <v>1260</v>
       </c>
       <c r="B161" s="3" t="s">
         <v>627</v>
@@ -14459,16 +14462,16 @@
         <v>207</v>
       </c>
       <c r="D161" s="18" t="s">
-        <v>1186</v>
+        <v>1163</v>
       </c>
       <c r="E161" s="19"/>
       <c r="F161" t="s">
-        <v>927</v>
+        <v>904</v>
       </c>
     </row>
     <row r="162" spans="1:6">
       <c r="A162" s="28" t="s">
-        <v>1284</v>
+        <v>1261</v>
       </c>
       <c r="B162" s="3" t="s">
         <v>627</v>
@@ -14477,16 +14480,16 @@
         <v>208</v>
       </c>
       <c r="D162" s="18" t="s">
-        <v>1186</v>
+        <v>1163</v>
       </c>
       <c r="E162" s="19"/>
       <c r="F162" t="s">
-        <v>928</v>
+        <v>905</v>
       </c>
     </row>
     <row r="163" spans="1:6">
       <c r="A163" s="28" t="s">
-        <v>1285</v>
+        <v>1262</v>
       </c>
       <c r="B163" s="3" t="s">
         <v>627</v>
@@ -14495,16 +14498,16 @@
         <v>209</v>
       </c>
       <c r="D163" s="18" t="s">
-        <v>1186</v>
+        <v>1163</v>
       </c>
       <c r="E163" s="18"/>
       <c r="F163" s="6" t="s">
-        <v>929</v>
+        <v>906</v>
       </c>
     </row>
     <row r="164" spans="1:6">
       <c r="A164" s="28" t="s">
-        <v>1286</v>
+        <v>1263</v>
       </c>
       <c r="B164" s="3" t="s">
         <v>627</v>
@@ -14513,16 +14516,16 @@
         <v>210</v>
       </c>
       <c r="D164" s="18" t="s">
-        <v>1186</v>
+        <v>1163</v>
       </c>
       <c r="E164" s="18"/>
       <c r="F164" s="6" t="s">
-        <v>930</v>
+        <v>907</v>
       </c>
     </row>
     <row r="165" spans="1:6">
       <c r="A165" s="28" t="s">
-        <v>1287</v>
+        <v>1264</v>
       </c>
       <c r="B165" s="3" t="s">
         <v>627</v>
@@ -14531,16 +14534,16 @@
         <v>211</v>
       </c>
       <c r="D165" s="18" t="s">
-        <v>1186</v>
+        <v>1163</v>
       </c>
       <c r="E165" s="26"/>
       <c r="F165" t="s">
-        <v>931</v>
+        <v>908</v>
       </c>
     </row>
     <row r="166" spans="1:6">
       <c r="A166" s="28" t="s">
-        <v>1288</v>
+        <v>1265</v>
       </c>
       <c r="B166" s="3" t="s">
         <v>627</v>
@@ -14549,16 +14552,16 @@
         <v>212</v>
       </c>
       <c r="D166" s="18" t="s">
-        <v>1186</v>
+        <v>1163</v>
       </c>
       <c r="E166" s="27"/>
       <c r="F166" t="s">
-        <v>932</v>
+        <v>909</v>
       </c>
     </row>
     <row r="167" spans="1:6">
       <c r="A167" s="28" t="s">
-        <v>1289</v>
+        <v>1266</v>
       </c>
       <c r="B167" s="3" t="s">
         <v>627</v>
@@ -14567,16 +14570,16 @@
         <v>213</v>
       </c>
       <c r="D167" s="18" t="s">
-        <v>1186</v>
+        <v>1163</v>
       </c>
       <c r="E167" s="26"/>
       <c r="F167" t="s">
-        <v>933</v>
+        <v>910</v>
       </c>
     </row>
     <row r="168" spans="1:6">
       <c r="A168" s="28" t="s">
-        <v>1290</v>
+        <v>1267</v>
       </c>
       <c r="B168" s="3" t="s">
         <v>627</v>
@@ -14585,16 +14588,16 @@
         <v>214</v>
       </c>
       <c r="D168" s="18" t="s">
-        <v>1186</v>
+        <v>1163</v>
       </c>
       <c r="E168" s="26"/>
       <c r="F168" s="6" t="s">
-        <v>934</v>
+        <v>911</v>
       </c>
     </row>
     <row r="169" spans="1:6">
       <c r="A169" s="28" t="s">
-        <v>1291</v>
+        <v>1268</v>
       </c>
       <c r="B169" s="3" t="s">
         <v>627</v>
@@ -14603,16 +14606,16 @@
         <v>215</v>
       </c>
       <c r="D169" s="18" t="s">
-        <v>1186</v>
+        <v>1163</v>
       </c>
       <c r="E169" s="26"/>
       <c r="F169" s="6" t="s">
-        <v>935</v>
+        <v>912</v>
       </c>
     </row>
     <row r="170" spans="1:6">
       <c r="A170" s="28" t="s">
-        <v>1292</v>
+        <v>1269</v>
       </c>
       <c r="B170" s="3" t="s">
         <v>627</v>
@@ -14621,16 +14624,16 @@
         <v>218</v>
       </c>
       <c r="D170" s="18" t="s">
-        <v>1186</v>
+        <v>1163</v>
       </c>
       <c r="E170" s="26"/>
       <c r="F170" s="6" t="s">
-        <v>936</v>
+        <v>913</v>
       </c>
     </row>
     <row r="171" spans="1:6">
       <c r="A171" s="28" t="s">
-        <v>1293</v>
+        <v>1270</v>
       </c>
       <c r="B171" s="3" t="s">
         <v>627</v>
@@ -14639,16 +14642,16 @@
         <v>216</v>
       </c>
       <c r="D171" s="18" t="s">
-        <v>1186</v>
+        <v>1163</v>
       </c>
       <c r="E171" s="26"/>
       <c r="F171" t="s">
-        <v>937</v>
+        <v>914</v>
       </c>
     </row>
     <row r="172" spans="1:6">
       <c r="A172" s="28" t="s">
-        <v>1294</v>
+        <v>1271</v>
       </c>
       <c r="B172" s="3" t="s">
         <v>627</v>
@@ -14657,28 +14660,28 @@
         <v>217</v>
       </c>
       <c r="D172" s="18" t="s">
-        <v>1186</v>
+        <v>1163</v>
       </c>
       <c r="E172" s="26"/>
       <c r="F172" t="s">
-        <v>938</v>
+        <v>915</v>
       </c>
     </row>
     <row r="173" spans="1:6">
       <c r="A173" s="28" t="s">
-        <v>1250</v>
+        <v>1227</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>1185</v>
+        <v>1162</v>
       </c>
       <c r="D173" s="26" t="s">
-        <v>1237</v>
+        <v>1214</v>
       </c>
       <c r="E173" s="26"/>
     </row>
     <row r="174" spans="1:6">
       <c r="A174" s="28" t="s">
-        <v>1298</v>
+        <v>1275</v>
       </c>
       <c r="B174" s="3" t="s">
         <v>627</v>
@@ -14687,16 +14690,16 @@
         <v>233</v>
       </c>
       <c r="D174" s="26" t="s">
-        <v>1237</v>
+        <v>1214</v>
       </c>
       <c r="E174" s="26"/>
       <c r="F174" t="s">
-        <v>939</v>
+        <v>916</v>
       </c>
     </row>
     <row r="175" spans="1:6">
       <c r="A175" s="28" t="s">
-        <v>1300</v>
+        <v>1277</v>
       </c>
       <c r="B175" s="3" t="s">
         <v>627</v>
@@ -14705,16 +14708,16 @@
         <v>607</v>
       </c>
       <c r="D175" s="26" t="s">
-        <v>1237</v>
+        <v>1214</v>
       </c>
       <c r="E175" s="26"/>
       <c r="F175" t="s">
-        <v>940</v>
+        <v>917</v>
       </c>
     </row>
     <row r="176" spans="1:6">
       <c r="A176" s="28" t="s">
-        <v>1299</v>
+        <v>1276</v>
       </c>
       <c r="B176" s="3" t="s">
         <v>627</v>
@@ -14723,29 +14726,29 @@
         <v>609</v>
       </c>
       <c r="D176" s="26" t="s">
-        <v>1237</v>
+        <v>1214</v>
       </c>
       <c r="E176" s="27"/>
       <c r="F176" t="s">
-        <v>941</v>
+        <v>918</v>
       </c>
     </row>
     <row r="177" spans="1:6">
       <c r="A177" s="28" t="s">
-        <v>1251</v>
+        <v>1228</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>1185</v>
+        <v>1162</v>
       </c>
       <c r="C177" s="27"/>
       <c r="D177" s="27" t="s">
-        <v>1238</v>
+        <v>1215</v>
       </c>
       <c r="E177" s="27"/>
     </row>
     <row r="178" spans="1:6">
       <c r="A178" s="28" t="s">
-        <v>634</v>
+        <v>1278</v>
       </c>
       <c r="B178" s="3" t="s">
         <v>627</v>
@@ -14753,15 +14756,17 @@
       <c r="C178" s="26" t="s">
         <v>535</v>
       </c>
-      <c r="D178" s="26"/>
+      <c r="D178" s="27" t="s">
+        <v>1215</v>
+      </c>
       <c r="E178" s="26"/>
       <c r="F178" t="s">
-        <v>942</v>
+        <v>919</v>
       </c>
     </row>
     <row r="179" spans="1:6">
       <c r="A179" s="28" t="s">
-        <v>635</v>
+        <v>1279</v>
       </c>
       <c r="B179" s="3" t="s">
         <v>627</v>
@@ -14769,15 +14774,17 @@
       <c r="C179" s="26" t="s">
         <v>235</v>
       </c>
-      <c r="D179" s="26"/>
+      <c r="D179" s="27" t="s">
+        <v>1215</v>
+      </c>
       <c r="E179" s="26"/>
       <c r="F179" t="s">
-        <v>943</v>
+        <v>920</v>
       </c>
     </row>
     <row r="180" spans="1:6">
       <c r="A180" s="28" t="s">
-        <v>636</v>
+        <v>1280</v>
       </c>
       <c r="B180" s="3" t="s">
         <v>627</v>
@@ -14785,15 +14792,17 @@
       <c r="C180" s="19" t="s">
         <v>237</v>
       </c>
-      <c r="D180" s="19"/>
+      <c r="D180" s="27" t="s">
+        <v>1215</v>
+      </c>
       <c r="E180" s="19"/>
       <c r="F180" t="s">
-        <v>944</v>
+        <v>921</v>
       </c>
     </row>
     <row r="181" spans="1:6">
       <c r="A181" s="28" t="s">
-        <v>637</v>
+        <v>1281</v>
       </c>
       <c r="B181" s="3" t="s">
         <v>627</v>
@@ -14801,15 +14810,17 @@
       <c r="C181" s="18" t="s">
         <v>611</v>
       </c>
-      <c r="D181" s="18"/>
+      <c r="D181" s="27" t="s">
+        <v>1215</v>
+      </c>
       <c r="E181" s="18"/>
       <c r="F181" t="s">
-        <v>945</v>
+        <v>922</v>
       </c>
     </row>
     <row r="182" spans="1:6">
       <c r="A182" s="28" t="s">
-        <v>638</v>
+        <v>1282</v>
       </c>
       <c r="B182" s="3" t="s">
         <v>627</v>
@@ -14817,15 +14828,17 @@
       <c r="C182" s="26" t="s">
         <v>241</v>
       </c>
-      <c r="D182" s="26"/>
+      <c r="D182" s="27" t="s">
+        <v>1215</v>
+      </c>
       <c r="E182" s="26"/>
       <c r="F182" t="s">
-        <v>946</v>
+        <v>923</v>
       </c>
     </row>
     <row r="183" spans="1:6">
       <c r="A183" s="28" t="s">
-        <v>639</v>
+        <v>1283</v>
       </c>
       <c r="B183" s="3" t="s">
         <v>627</v>
@@ -14833,15 +14846,17 @@
       <c r="C183" s="19" t="s">
         <v>243</v>
       </c>
-      <c r="D183" s="19"/>
+      <c r="D183" s="27" t="s">
+        <v>1215</v>
+      </c>
       <c r="E183" s="19"/>
       <c r="F183" t="s">
-        <v>947</v>
+        <v>924</v>
       </c>
     </row>
     <row r="184" spans="1:6">
       <c r="A184" s="28" t="s">
-        <v>640</v>
+        <v>1284</v>
       </c>
       <c r="B184" s="3" t="s">
         <v>627</v>
@@ -14849,15 +14864,17 @@
       <c r="C184" s="26" t="s">
         <v>255</v>
       </c>
-      <c r="D184" s="26"/>
+      <c r="D184" s="27" t="s">
+        <v>1215</v>
+      </c>
       <c r="E184" s="26"/>
       <c r="F184" t="s">
-        <v>948</v>
+        <v>925</v>
       </c>
     </row>
     <row r="185" spans="1:6">
       <c r="A185" s="28" t="s">
-        <v>641</v>
+        <v>1285</v>
       </c>
       <c r="B185" s="3" t="s">
         <v>627</v>
@@ -14865,15 +14882,17 @@
       <c r="C185" s="19" t="s">
         <v>245</v>
       </c>
-      <c r="D185" s="19"/>
+      <c r="D185" s="27" t="s">
+        <v>1215</v>
+      </c>
       <c r="E185" s="19"/>
       <c r="F185" t="s">
-        <v>949</v>
+        <v>926</v>
       </c>
     </row>
     <row r="186" spans="1:6">
       <c r="A186" s="28" t="s">
-        <v>642</v>
+        <v>1286</v>
       </c>
       <c r="B186" s="3" t="s">
         <v>627</v>
@@ -14881,15 +14900,17 @@
       <c r="C186" s="19" t="s">
         <v>246</v>
       </c>
-      <c r="D186" s="19"/>
+      <c r="D186" s="27" t="s">
+        <v>1215</v>
+      </c>
       <c r="E186" s="19"/>
       <c r="F186" t="s">
-        <v>950</v>
+        <v>927</v>
       </c>
     </row>
     <row r="187" spans="1:6">
       <c r="A187" s="28" t="s">
-        <v>643</v>
+        <v>1287</v>
       </c>
       <c r="B187" s="3" t="s">
         <v>627</v>
@@ -14897,15 +14918,17 @@
       <c r="C187" s="27" t="s">
         <v>249</v>
       </c>
-      <c r="D187" s="27"/>
+      <c r="D187" s="27" t="s">
+        <v>1215</v>
+      </c>
       <c r="E187" s="27"/>
       <c r="F187" t="s">
-        <v>951</v>
+        <v>928</v>
       </c>
     </row>
     <row r="188" spans="1:6">
       <c r="A188" s="28" t="s">
-        <v>644</v>
+        <v>1288</v>
       </c>
       <c r="B188" s="3" t="s">
         <v>627</v>
@@ -14913,15 +14936,17 @@
       <c r="C188" s="19" t="s">
         <v>253</v>
       </c>
-      <c r="D188" s="19"/>
+      <c r="D188" s="27" t="s">
+        <v>1215</v>
+      </c>
       <c r="E188" s="19"/>
       <c r="F188" t="s">
-        <v>952</v>
+        <v>929</v>
       </c>
     </row>
     <row r="189" spans="1:6">
       <c r="A189" s="28" t="s">
-        <v>645</v>
+        <v>1289</v>
       </c>
       <c r="B189" s="3" t="s">
         <v>627</v>
@@ -14929,15 +14954,17 @@
       <c r="C189" s="18" t="s">
         <v>239</v>
       </c>
-      <c r="D189" s="18"/>
+      <c r="D189" s="27" t="s">
+        <v>1215</v>
+      </c>
       <c r="E189" s="18"/>
       <c r="F189" t="s">
-        <v>953</v>
+        <v>930</v>
       </c>
     </row>
     <row r="190" spans="1:6">
       <c r="A190" s="28" t="s">
-        <v>646</v>
+        <v>1290</v>
       </c>
       <c r="B190" s="3" t="s">
         <v>627</v>
@@ -14945,15 +14972,17 @@
       <c r="C190" s="19" t="s">
         <v>256</v>
       </c>
-      <c r="D190" s="19"/>
+      <c r="D190" s="27" t="s">
+        <v>1215</v>
+      </c>
       <c r="E190" s="19"/>
       <c r="F190" t="s">
-        <v>954</v>
+        <v>931</v>
       </c>
     </row>
     <row r="191" spans="1:6">
       <c r="A191" s="28" t="s">
-        <v>647</v>
+        <v>1291</v>
       </c>
       <c r="B191" s="3" t="s">
         <v>627</v>
@@ -14961,15 +14990,17 @@
       <c r="C191" s="19" t="s">
         <v>257</v>
       </c>
-      <c r="D191" s="19"/>
+      <c r="D191" s="27" t="s">
+        <v>1215</v>
+      </c>
       <c r="E191" s="19"/>
       <c r="F191" t="s">
-        <v>955</v>
+        <v>932</v>
       </c>
     </row>
     <row r="192" spans="1:6">
       <c r="A192" s="28" t="s">
-        <v>648</v>
+        <v>1292</v>
       </c>
       <c r="B192" s="3" t="s">
         <v>627</v>
@@ -14977,15 +15008,17 @@
       <c r="C192" s="19" t="s">
         <v>258</v>
       </c>
-      <c r="D192" s="19"/>
+      <c r="D192" s="27" t="s">
+        <v>1215</v>
+      </c>
       <c r="E192" s="19"/>
       <c r="F192" t="s">
-        <v>956</v>
+        <v>933</v>
       </c>
     </row>
     <row r="193" spans="1:6">
       <c r="A193" s="28" t="s">
-        <v>649</v>
+        <v>1293</v>
       </c>
       <c r="B193" s="3" t="s">
         <v>627</v>
@@ -14993,15 +15026,17 @@
       <c r="C193" s="26" t="s">
         <v>613</v>
       </c>
-      <c r="D193" s="26"/>
+      <c r="D193" s="27" t="s">
+        <v>1215</v>
+      </c>
       <c r="E193" s="26"/>
       <c r="F193" t="s">
-        <v>957</v>
+        <v>934</v>
       </c>
     </row>
     <row r="194" spans="1:6">
       <c r="A194" s="28" t="s">
-        <v>650</v>
+        <v>1294</v>
       </c>
       <c r="B194" s="3" t="s">
         <v>627</v>
@@ -15009,15 +15044,17 @@
       <c r="C194" s="19" t="s">
         <v>615</v>
       </c>
-      <c r="D194" s="19"/>
+      <c r="D194" s="27" t="s">
+        <v>1215</v>
+      </c>
       <c r="E194" s="19"/>
       <c r="F194" t="s">
-        <v>958</v>
+        <v>935</v>
       </c>
     </row>
     <row r="195" spans="1:6">
       <c r="A195" s="28" t="s">
-        <v>651</v>
+        <v>1295</v>
       </c>
       <c r="B195" s="3" t="s">
         <v>627</v>
@@ -15025,15 +15062,17 @@
       <c r="C195" s="19" t="s">
         <v>259</v>
       </c>
-      <c r="D195" s="19"/>
+      <c r="D195" s="27" t="s">
+        <v>1215</v>
+      </c>
       <c r="E195" s="19"/>
       <c r="F195" t="s">
-        <v>959</v>
+        <v>936</v>
       </c>
     </row>
     <row r="196" spans="1:6">
       <c r="A196" s="28" t="s">
-        <v>652</v>
+        <v>1296</v>
       </c>
       <c r="B196" s="3" t="s">
         <v>627</v>
@@ -15041,2191 +15080,2216 @@
       <c r="C196" s="18" t="s">
         <v>265</v>
       </c>
-      <c r="D196" s="18"/>
+      <c r="D196" s="27" t="s">
+        <v>1214</v>
+      </c>
       <c r="E196" s="18"/>
       <c r="F196" t="s">
-        <v>960</v>
+        <v>937</v>
       </c>
     </row>
     <row r="197" spans="1:6">
       <c r="A197" s="28" t="s">
-        <v>653</v>
+        <v>1301</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>627</v>
-      </c>
-      <c r="C197" s="19" t="s">
-        <v>269</v>
-      </c>
-      <c r="D197" s="19"/>
-      <c r="E197" s="19"/>
-      <c r="F197" t="s">
-        <v>961</v>
-      </c>
+        <v>1116</v>
+      </c>
+      <c r="C197" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="D197" s="27" t="s">
+        <v>1120</v>
+      </c>
+      <c r="E197" s="18"/>
     </row>
     <row r="198" spans="1:6">
       <c r="A198" s="28" t="s">
-        <v>654</v>
+        <v>1297</v>
       </c>
       <c r="B198" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C198" s="26" t="s">
-        <v>267</v>
-      </c>
-      <c r="D198" s="26"/>
-      <c r="E198" s="26"/>
+      <c r="C198" s="19" t="s">
+        <v>269</v>
+      </c>
+      <c r="D198" s="27" t="s">
+        <v>1215</v>
+      </c>
+      <c r="E198" s="19"/>
       <c r="F198" t="s">
-        <v>962</v>
+        <v>938</v>
       </c>
     </row>
     <row r="199" spans="1:6">
       <c r="A199" s="28" t="s">
-        <v>655</v>
+        <v>1298</v>
       </c>
       <c r="B199" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C199" s="19" t="s">
-        <v>271</v>
-      </c>
-      <c r="D199" s="19"/>
-      <c r="E199" s="19"/>
+      <c r="C199" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="D199" s="27" t="s">
+        <v>1215</v>
+      </c>
+      <c r="E199" s="26"/>
       <c r="F199" t="s">
-        <v>963</v>
+        <v>939</v>
       </c>
     </row>
     <row r="200" spans="1:6">
       <c r="A200" s="28" t="s">
-        <v>656</v>
+        <v>1299</v>
       </c>
       <c r="B200" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C200" s="26" t="s">
-        <v>617</v>
-      </c>
-      <c r="D200" s="26"/>
-      <c r="E200" s="26"/>
+      <c r="C200" s="19" t="s">
+        <v>271</v>
+      </c>
+      <c r="D200" s="27" t="s">
+        <v>1215</v>
+      </c>
+      <c r="E200" s="19"/>
       <c r="F200" t="s">
-        <v>964</v>
+        <v>940</v>
       </c>
     </row>
     <row r="201" spans="1:6">
       <c r="A201" s="28" t="s">
-        <v>1252</v>
+        <v>1300</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>1185</v>
-      </c>
-      <c r="C201" s="26"/>
-      <c r="D201" s="26" t="s">
-        <v>1239</v>
+        <v>627</v>
+      </c>
+      <c r="C201" s="26" t="s">
+        <v>617</v>
+      </c>
+      <c r="D201" s="27" t="s">
+        <v>1215</v>
       </c>
       <c r="E201" s="26"/>
+      <c r="F201" t="s">
+        <v>941</v>
+      </c>
     </row>
     <row r="202" spans="1:6">
       <c r="A202" s="28" t="s">
-        <v>657</v>
+        <v>1229</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>627</v>
-      </c>
-      <c r="C202" s="19" t="s">
-        <v>272</v>
-      </c>
-      <c r="D202" s="19"/>
-      <c r="E202" s="19"/>
-      <c r="F202" t="s">
-        <v>965</v>
-      </c>
+        <v>1162</v>
+      </c>
+      <c r="C202" s="26"/>
+      <c r="D202" s="26" t="s">
+        <v>1216</v>
+      </c>
+      <c r="E202" s="26"/>
     </row>
     <row r="203" spans="1:6">
       <c r="A203" s="28" t="s">
-        <v>658</v>
+        <v>634</v>
       </c>
       <c r="B203" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C203" s="26" t="s">
-        <v>273</v>
-      </c>
-      <c r="D203" s="26"/>
-      <c r="E203" s="26"/>
+      <c r="C203" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="D203" s="19"/>
+      <c r="E203" s="19"/>
       <c r="F203" t="s">
-        <v>966</v>
+        <v>942</v>
       </c>
     </row>
     <row r="204" spans="1:6">
       <c r="A204" s="28" t="s">
-        <v>659</v>
+        <v>635</v>
       </c>
       <c r="B204" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C204" s="26" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D204" s="26"/>
       <c r="E204" s="26"/>
       <c r="F204" t="s">
-        <v>967</v>
+        <v>943</v>
       </c>
     </row>
     <row r="205" spans="1:6">
       <c r="A205" s="28" t="s">
-        <v>660</v>
+        <v>636</v>
       </c>
       <c r="B205" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C205" s="19" t="s">
-        <v>275</v>
-      </c>
-      <c r="D205" s="19"/>
-      <c r="E205" s="19"/>
+      <c r="C205" s="26" t="s">
+        <v>274</v>
+      </c>
+      <c r="D205" s="26"/>
+      <c r="E205" s="26"/>
       <c r="F205" t="s">
-        <v>968</v>
+        <v>944</v>
       </c>
     </row>
     <row r="206" spans="1:6">
       <c r="A206" s="28" t="s">
-        <v>661</v>
+        <v>637</v>
       </c>
       <c r="B206" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C206" s="19" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D206" s="19"/>
       <c r="E206" s="19"/>
       <c r="F206" t="s">
-        <v>969</v>
+        <v>945</v>
       </c>
     </row>
     <row r="207" spans="1:6">
       <c r="A207" s="28" t="s">
-        <v>662</v>
+        <v>638</v>
       </c>
       <c r="B207" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C207" s="26" t="s">
-        <v>277</v>
-      </c>
-      <c r="D207" s="26"/>
-      <c r="E207" s="26"/>
+      <c r="C207" s="19" t="s">
+        <v>276</v>
+      </c>
+      <c r="D207" s="19"/>
+      <c r="E207" s="19"/>
       <c r="F207" t="s">
-        <v>970</v>
+        <v>946</v>
       </c>
     </row>
     <row r="208" spans="1:6">
       <c r="A208" s="28" t="s">
-        <v>663</v>
+        <v>639</v>
       </c>
       <c r="B208" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C208" s="26" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="D208" s="26"/>
       <c r="E208" s="26"/>
       <c r="F208" t="s">
-        <v>971</v>
+        <v>947</v>
       </c>
     </row>
     <row r="209" spans="1:6">
       <c r="A209" s="28" t="s">
-        <v>664</v>
+        <v>640</v>
       </c>
       <c r="B209" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C209" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="D209" s="19"/>
-      <c r="E209" s="19"/>
+      <c r="C209" s="26" t="s">
+        <v>285</v>
+      </c>
+      <c r="D209" s="26"/>
+      <c r="E209" s="26"/>
       <c r="F209" t="s">
-        <v>972</v>
+        <v>948</v>
       </c>
     </row>
     <row r="210" spans="1:6">
       <c r="A210" s="28" t="s">
-        <v>665</v>
+        <v>641</v>
       </c>
       <c r="B210" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C210" s="26" t="s">
-        <v>287</v>
-      </c>
-      <c r="D210" s="26"/>
-      <c r="E210" s="26"/>
+      <c r="C210" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="D210" s="19"/>
+      <c r="E210" s="19"/>
       <c r="F210" t="s">
-        <v>973</v>
+        <v>949</v>
       </c>
     </row>
     <row r="211" spans="1:6">
       <c r="A211" s="28" t="s">
-        <v>666</v>
+        <v>642</v>
       </c>
       <c r="B211" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C211" s="19" t="s">
-        <v>288</v>
-      </c>
-      <c r="D211" s="19"/>
-      <c r="E211" s="19"/>
+      <c r="C211" s="26" t="s">
+        <v>287</v>
+      </c>
+      <c r="D211" s="26"/>
+      <c r="E211" s="26"/>
       <c r="F211" t="s">
-        <v>974</v>
+        <v>950</v>
       </c>
     </row>
     <row r="212" spans="1:6">
       <c r="A212" s="28" t="s">
-        <v>667</v>
+        <v>643</v>
       </c>
       <c r="B212" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C212" s="26" t="s">
-        <v>289</v>
-      </c>
-      <c r="D212" s="26"/>
-      <c r="E212" s="26"/>
+      <c r="C212" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="D212" s="19"/>
+      <c r="E212" s="19"/>
       <c r="F212" t="s">
-        <v>975</v>
+        <v>951</v>
       </c>
     </row>
     <row r="213" spans="1:6">
       <c r="A213" s="28" t="s">
-        <v>668</v>
+        <v>644</v>
       </c>
       <c r="B213" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C213" s="19" t="s">
-        <v>290</v>
-      </c>
-      <c r="D213" s="19"/>
-      <c r="E213" s="19"/>
+      <c r="C213" s="26" t="s">
+        <v>289</v>
+      </c>
+      <c r="D213" s="26"/>
+      <c r="E213" s="26"/>
       <c r="F213" t="s">
-        <v>976</v>
+        <v>952</v>
       </c>
     </row>
     <row r="214" spans="1:6">
       <c r="A214" s="28" t="s">
-        <v>669</v>
+        <v>645</v>
       </c>
       <c r="B214" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C214" s="19" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D214" s="19"/>
       <c r="E214" s="19"/>
       <c r="F214" t="s">
-        <v>977</v>
+        <v>953</v>
       </c>
     </row>
     <row r="215" spans="1:6">
       <c r="A215" s="28" t="s">
-        <v>670</v>
+        <v>646</v>
       </c>
       <c r="B215" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C215" s="26" t="s">
-        <v>293</v>
-      </c>
-      <c r="D215" s="26"/>
-      <c r="E215" s="26"/>
+      <c r="C215" s="19" t="s">
+        <v>291</v>
+      </c>
+      <c r="D215" s="19"/>
+      <c r="E215" s="19"/>
       <c r="F215" t="s">
-        <v>978</v>
+        <v>954</v>
       </c>
     </row>
     <row r="216" spans="1:6">
       <c r="A216" s="28" t="s">
-        <v>671</v>
+        <v>647</v>
       </c>
       <c r="B216" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C216" s="19" t="s">
-        <v>292</v>
-      </c>
-      <c r="D216" s="19"/>
-      <c r="E216" s="19"/>
+      <c r="C216" s="26" t="s">
+        <v>293</v>
+      </c>
+      <c r="D216" s="26"/>
+      <c r="E216" s="26"/>
       <c r="F216" t="s">
-        <v>979</v>
+        <v>955</v>
       </c>
     </row>
     <row r="217" spans="1:6">
       <c r="A217" s="28" t="s">
-        <v>672</v>
+        <v>648</v>
       </c>
       <c r="B217" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C217" s="26" t="s">
-        <v>296</v>
-      </c>
-      <c r="D217" s="26"/>
-      <c r="E217" s="26"/>
+      <c r="C217" s="19" t="s">
+        <v>292</v>
+      </c>
+      <c r="D217" s="19"/>
+      <c r="E217" s="19"/>
       <c r="F217" t="s">
-        <v>980</v>
+        <v>956</v>
       </c>
     </row>
     <row r="218" spans="1:6">
       <c r="A218" s="28" t="s">
-        <v>673</v>
+        <v>649</v>
       </c>
       <c r="B218" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C218" s="26" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D218" s="26"/>
       <c r="E218" s="26"/>
       <c r="F218" t="s">
-        <v>981</v>
+        <v>957</v>
       </c>
     </row>
     <row r="219" spans="1:6">
       <c r="A219" s="28" t="s">
-        <v>674</v>
+        <v>650</v>
       </c>
       <c r="B219" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C219" s="27" t="s">
-        <v>294</v>
-      </c>
-      <c r="D219" s="27"/>
-      <c r="E219" s="27"/>
+      <c r="C219" s="26" t="s">
+        <v>295</v>
+      </c>
+      <c r="D219" s="26"/>
+      <c r="E219" s="26"/>
       <c r="F219" t="s">
-        <v>982</v>
+        <v>958</v>
       </c>
     </row>
     <row r="220" spans="1:6">
       <c r="A220" s="28" t="s">
-        <v>675</v>
+        <v>651</v>
       </c>
       <c r="B220" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C220" s="19" t="s">
-        <v>297</v>
-      </c>
-      <c r="D220" s="19"/>
-      <c r="E220" s="19"/>
+      <c r="C220" s="27" t="s">
+        <v>294</v>
+      </c>
+      <c r="D220" s="27"/>
+      <c r="E220" s="27"/>
       <c r="F220" t="s">
-        <v>983</v>
+        <v>959</v>
       </c>
     </row>
     <row r="221" spans="1:6">
       <c r="A221" s="28" t="s">
-        <v>676</v>
+        <v>652</v>
       </c>
       <c r="B221" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C221" s="19" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D221" s="19"/>
       <c r="E221" s="19"/>
       <c r="F221" t="s">
-        <v>984</v>
+        <v>960</v>
       </c>
     </row>
     <row r="222" spans="1:6">
       <c r="A222" s="28" t="s">
-        <v>677</v>
+        <v>653</v>
       </c>
       <c r="B222" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C222" s="19" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D222" s="19"/>
       <c r="E222" s="19"/>
       <c r="F222" t="s">
-        <v>317</v>
+        <v>961</v>
       </c>
     </row>
     <row r="223" spans="1:6">
       <c r="A223" s="28" t="s">
-        <v>678</v>
+        <v>654</v>
       </c>
       <c r="B223" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C223" s="19" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D223" s="19"/>
       <c r="E223" s="19"/>
       <c r="F223" t="s">
-        <v>985</v>
+        <v>317</v>
       </c>
     </row>
     <row r="224" spans="1:6">
       <c r="A224" s="28" t="s">
-        <v>679</v>
+        <v>655</v>
       </c>
       <c r="B224" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C224" s="19" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D224" s="19"/>
       <c r="E224" s="19"/>
       <c r="F224" t="s">
-        <v>986</v>
+        <v>962</v>
       </c>
     </row>
     <row r="225" spans="1:6">
       <c r="A225" s="28" t="s">
-        <v>680</v>
+        <v>656</v>
       </c>
       <c r="B225" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C225" s="26" t="s">
-        <v>345</v>
-      </c>
-      <c r="D225" s="26"/>
-      <c r="E225" s="26"/>
+      <c r="C225" s="19" t="s">
+        <v>301</v>
+      </c>
+      <c r="D225" s="19"/>
+      <c r="E225" s="19"/>
       <c r="F225" t="s">
-        <v>987</v>
+        <v>963</v>
       </c>
     </row>
     <row r="226" spans="1:6">
       <c r="A226" s="28" t="s">
-        <v>681</v>
+        <v>657</v>
       </c>
       <c r="B226" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C226" s="19" t="s">
-        <v>302</v>
-      </c>
-      <c r="D226" s="19"/>
-      <c r="E226" s="19"/>
+      <c r="C226" s="26" t="s">
+        <v>345</v>
+      </c>
+      <c r="D226" s="26"/>
+      <c r="E226" s="26"/>
       <c r="F226" t="s">
-        <v>988</v>
+        <v>964</v>
       </c>
     </row>
     <row r="227" spans="1:6">
       <c r="A227" s="28" t="s">
-        <v>682</v>
+        <v>658</v>
       </c>
       <c r="B227" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C227" s="19" t="s">
-        <v>321</v>
+        <v>302</v>
       </c>
       <c r="D227" s="19"/>
       <c r="E227" s="19"/>
       <c r="F227" t="s">
-        <v>989</v>
+        <v>965</v>
       </c>
     </row>
     <row r="228" spans="1:6">
       <c r="A228" s="28" t="s">
-        <v>683</v>
+        <v>659</v>
       </c>
       <c r="B228" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C228" s="26" t="s">
-        <v>322</v>
-      </c>
-      <c r="D228" s="26"/>
-      <c r="E228" s="26"/>
+      <c r="C228" s="19" t="s">
+        <v>321</v>
+      </c>
+      <c r="D228" s="19"/>
+      <c r="E228" s="19"/>
       <c r="F228" t="s">
-        <v>990</v>
+        <v>966</v>
       </c>
     </row>
     <row r="229" spans="1:6">
       <c r="A229" s="28" t="s">
-        <v>684</v>
+        <v>660</v>
       </c>
       <c r="B229" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C229" s="19" t="s">
-        <v>323</v>
-      </c>
-      <c r="D229" s="19"/>
-      <c r="E229" s="19"/>
+      <c r="C229" s="26" t="s">
+        <v>322</v>
+      </c>
+      <c r="D229" s="26"/>
+      <c r="E229" s="26"/>
       <c r="F229" t="s">
-        <v>991</v>
+        <v>967</v>
       </c>
     </row>
     <row r="230" spans="1:6">
       <c r="A230" s="28" t="s">
-        <v>685</v>
+        <v>661</v>
       </c>
       <c r="B230" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C230" s="26" t="s">
-        <v>519</v>
-      </c>
-      <c r="D230" s="26"/>
-      <c r="E230" s="26"/>
-      <c r="F230" s="6" t="s">
-        <v>992</v>
+      <c r="C230" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="D230" s="19"/>
+      <c r="E230" s="19"/>
+      <c r="F230" t="s">
+        <v>968</v>
       </c>
     </row>
     <row r="231" spans="1:6">
       <c r="A231" s="28" t="s">
-        <v>686</v>
+        <v>662</v>
       </c>
       <c r="B231" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C231" s="26" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D231" s="26"/>
       <c r="E231" s="26"/>
       <c r="F231" s="6" t="s">
-        <v>993</v>
+        <v>969</v>
       </c>
     </row>
     <row r="232" spans="1:6">
       <c r="A232" s="28" t="s">
-        <v>687</v>
+        <v>663</v>
       </c>
       <c r="B232" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C232" s="19" t="s">
-        <v>324</v>
-      </c>
-      <c r="D232" s="19"/>
-      <c r="E232" s="19"/>
-      <c r="F232" t="s">
-        <v>994</v>
+      <c r="C232" s="26" t="s">
+        <v>521</v>
+      </c>
+      <c r="D232" s="26"/>
+      <c r="E232" s="26"/>
+      <c r="F232" s="6" t="s">
+        <v>970</v>
       </c>
     </row>
     <row r="233" spans="1:6">
       <c r="A233" s="28" t="s">
-        <v>688</v>
+        <v>664</v>
       </c>
       <c r="B233" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C233" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D233" s="19"/>
       <c r="E233" s="19"/>
       <c r="F233" t="s">
-        <v>995</v>
+        <v>971</v>
       </c>
     </row>
     <row r="234" spans="1:6">
       <c r="A234" s="28" t="s">
-        <v>689</v>
+        <v>665</v>
       </c>
       <c r="B234" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C234" s="19" t="s">
-        <v>533</v>
+        <v>325</v>
       </c>
       <c r="D234" s="19"/>
       <c r="E234" s="19"/>
       <c r="F234" t="s">
-        <v>996</v>
+        <v>972</v>
       </c>
     </row>
     <row r="235" spans="1:6">
       <c r="A235" s="28" t="s">
-        <v>690</v>
+        <v>666</v>
       </c>
       <c r="B235" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C235" s="19" t="s">
-        <v>327</v>
+        <v>533</v>
       </c>
       <c r="D235" s="19"/>
       <c r="E235" s="19"/>
       <c r="F235" t="s">
-        <v>997</v>
+        <v>973</v>
       </c>
     </row>
     <row r="236" spans="1:6">
       <c r="A236" s="28" t="s">
-        <v>691</v>
+        <v>667</v>
       </c>
       <c r="B236" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C236" s="26" t="s">
-        <v>326</v>
-      </c>
-      <c r="D236" s="26"/>
-      <c r="E236" s="26"/>
+      <c r="C236" s="19" t="s">
+        <v>327</v>
+      </c>
+      <c r="D236" s="19"/>
+      <c r="E236" s="19"/>
       <c r="F236" t="s">
-        <v>998</v>
+        <v>974</v>
       </c>
     </row>
     <row r="237" spans="1:6">
       <c r="A237" s="28" t="s">
-        <v>692</v>
+        <v>668</v>
       </c>
       <c r="B237" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C237" s="26" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D237" s="26"/>
       <c r="E237" s="26"/>
-      <c r="F237" s="6" t="s">
-        <v>999</v>
+      <c r="F237" t="s">
+        <v>975</v>
       </c>
     </row>
     <row r="238" spans="1:6">
       <c r="A238" s="28" t="s">
-        <v>693</v>
+        <v>669</v>
       </c>
       <c r="B238" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C238" s="26" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="D238" s="26"/>
       <c r="E238" s="26"/>
-      <c r="F238" t="s">
-        <v>1000</v>
+      <c r="F238" s="6" t="s">
+        <v>976</v>
       </c>
     </row>
     <row r="239" spans="1:6">
       <c r="A239" s="28" t="s">
-        <v>694</v>
+        <v>670</v>
       </c>
       <c r="B239" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C239" s="26" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D239" s="26"/>
       <c r="E239" s="26"/>
       <c r="F239" t="s">
-        <v>1001</v>
+        <v>977</v>
       </c>
     </row>
     <row r="240" spans="1:6">
       <c r="A240" s="28" t="s">
-        <v>695</v>
+        <v>671</v>
       </c>
       <c r="B240" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C240" s="26" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D240" s="26"/>
       <c r="E240" s="26"/>
       <c r="F240" t="s">
-        <v>1002</v>
+        <v>978</v>
       </c>
     </row>
     <row r="241" spans="1:6">
       <c r="A241" s="28" t="s">
-        <v>1253</v>
+        <v>672</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>1185</v>
-      </c>
-      <c r="C241" s="26"/>
-      <c r="D241" s="26" t="s">
-        <v>1240</v>
-      </c>
+        <v>627</v>
+      </c>
+      <c r="C241" s="26" t="s">
+        <v>340</v>
+      </c>
+      <c r="D241" s="26"/>
       <c r="E241" s="26"/>
+      <c r="F241" t="s">
+        <v>979</v>
+      </c>
     </row>
     <row r="242" spans="1:6">
       <c r="A242" s="28" t="s">
-        <v>696</v>
+        <v>1230</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>627</v>
-      </c>
-      <c r="C242" s="26" t="s">
-        <v>529</v>
-      </c>
-      <c r="D242" s="26"/>
+        <v>1162</v>
+      </c>
+      <c r="C242" s="26"/>
+      <c r="D242" s="26" t="s">
+        <v>1217</v>
+      </c>
       <c r="E242" s="26"/>
-      <c r="F242" t="s">
-        <v>1003</v>
-      </c>
     </row>
     <row r="243" spans="1:6">
       <c r="A243" s="28" t="s">
-        <v>697</v>
+        <v>673</v>
       </c>
       <c r="B243" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C243" s="19" t="s">
-        <v>343</v>
-      </c>
-      <c r="D243" s="19"/>
-      <c r="E243" s="19"/>
+      <c r="C243" s="26" t="s">
+        <v>529</v>
+      </c>
+      <c r="D243" s="26"/>
+      <c r="E243" s="26"/>
       <c r="F243" t="s">
-        <v>1004</v>
+        <v>980</v>
       </c>
     </row>
     <row r="244" spans="1:6">
       <c r="A244" s="28" t="s">
-        <v>698</v>
+        <v>674</v>
       </c>
       <c r="B244" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C244" s="19" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="D244" s="19"/>
       <c r="E244" s="19"/>
       <c r="F244" t="s">
-        <v>1005</v>
+        <v>981</v>
       </c>
     </row>
     <row r="245" spans="1:6">
       <c r="A245" s="28" t="s">
-        <v>699</v>
+        <v>675</v>
       </c>
       <c r="B245" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C245" s="26" t="s">
-        <v>346</v>
-      </c>
-      <c r="D245" s="26"/>
-      <c r="E245" s="26"/>
+      <c r="C245" s="19" t="s">
+        <v>350</v>
+      </c>
+      <c r="D245" s="19"/>
+      <c r="E245" s="19"/>
       <c r="F245" t="s">
-        <v>1006</v>
+        <v>982</v>
       </c>
     </row>
     <row r="246" spans="1:6">
       <c r="A246" s="28" t="s">
-        <v>700</v>
+        <v>676</v>
       </c>
       <c r="B246" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C246" s="26" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D246" s="26"/>
       <c r="E246" s="26"/>
       <c r="F246" t="s">
-        <v>1007</v>
+        <v>983</v>
       </c>
     </row>
     <row r="247" spans="1:6">
       <c r="A247" s="28" t="s">
-        <v>701</v>
+        <v>677</v>
       </c>
       <c r="B247" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C247" s="26" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D247" s="26"/>
       <c r="E247" s="26"/>
       <c r="F247" t="s">
-        <v>1008</v>
+        <v>984</v>
       </c>
     </row>
     <row r="248" spans="1:6">
       <c r="A248" s="28" t="s">
-        <v>702</v>
+        <v>678</v>
       </c>
       <c r="B248" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C248" s="27" t="s">
-        <v>349</v>
-      </c>
-      <c r="D248" s="27"/>
-      <c r="E248" s="27"/>
+      <c r="C248" s="26" t="s">
+        <v>348</v>
+      </c>
+      <c r="D248" s="26"/>
+      <c r="E248" s="26"/>
       <c r="F248" t="s">
-        <v>1009</v>
+        <v>985</v>
       </c>
     </row>
     <row r="249" spans="1:6">
       <c r="A249" s="28" t="s">
-        <v>703</v>
+        <v>679</v>
       </c>
       <c r="B249" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C249" s="26" t="s">
-        <v>357</v>
-      </c>
-      <c r="D249" s="26"/>
-      <c r="E249" s="26"/>
+      <c r="C249" s="27" t="s">
+        <v>349</v>
+      </c>
+      <c r="D249" s="27"/>
+      <c r="E249" s="27"/>
       <c r="F249" t="s">
-        <v>1010</v>
+        <v>986</v>
       </c>
     </row>
     <row r="250" spans="1:6">
       <c r="A250" s="28" t="s">
-        <v>1254</v>
+        <v>680</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>1185</v>
-      </c>
-      <c r="C250" s="26"/>
-      <c r="D250" s="26" t="s">
-        <v>1241</v>
-      </c>
+        <v>627</v>
+      </c>
+      <c r="C250" s="26" t="s">
+        <v>357</v>
+      </c>
+      <c r="D250" s="26"/>
       <c r="E250" s="26"/>
+      <c r="F250" t="s">
+        <v>987</v>
+      </c>
     </row>
     <row r="251" spans="1:6">
       <c r="A251" s="28" t="s">
-        <v>704</v>
+        <v>1231</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>627</v>
-      </c>
-      <c r="C251" s="19" t="s">
-        <v>358</v>
-      </c>
-      <c r="D251" s="19"/>
-      <c r="E251" s="19"/>
-      <c r="F251" t="s">
-        <v>1011</v>
-      </c>
+        <v>1162</v>
+      </c>
+      <c r="C251" s="26"/>
+      <c r="D251" s="26" t="s">
+        <v>1218</v>
+      </c>
+      <c r="E251" s="26"/>
     </row>
     <row r="252" spans="1:6">
       <c r="A252" s="28" t="s">
-        <v>705</v>
+        <v>681</v>
       </c>
       <c r="B252" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C252" s="26" t="s">
-        <v>359</v>
-      </c>
-      <c r="D252" s="26"/>
-      <c r="E252" s="26"/>
+      <c r="C252" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="D252" s="19"/>
+      <c r="E252" s="19"/>
       <c r="F252" t="s">
-        <v>1012</v>
+        <v>988</v>
       </c>
     </row>
     <row r="253" spans="1:6">
       <c r="A253" s="28" t="s">
-        <v>706</v>
+        <v>682</v>
       </c>
       <c r="B253" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C253" s="26" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D253" s="26"/>
       <c r="E253" s="26"/>
       <c r="F253" t="s">
-        <v>1013</v>
+        <v>989</v>
       </c>
     </row>
     <row r="254" spans="1:6">
       <c r="A254" s="28" t="s">
-        <v>707</v>
+        <v>683</v>
       </c>
       <c r="B254" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C254" s="19" t="s">
-        <v>365</v>
-      </c>
-      <c r="D254" s="19"/>
-      <c r="E254" s="19"/>
+      <c r="C254" s="26" t="s">
+        <v>360</v>
+      </c>
+      <c r="D254" s="26"/>
+      <c r="E254" s="26"/>
       <c r="F254" t="s">
-        <v>1014</v>
+        <v>990</v>
       </c>
     </row>
     <row r="255" spans="1:6">
       <c r="A255" s="28" t="s">
-        <v>708</v>
+        <v>684</v>
       </c>
       <c r="B255" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C255" s="26" t="s">
-        <v>366</v>
-      </c>
-      <c r="D255" s="26"/>
-      <c r="E255" s="26"/>
+      <c r="C255" s="19" t="s">
+        <v>365</v>
+      </c>
+      <c r="D255" s="19"/>
+      <c r="E255" s="19"/>
       <c r="F255" t="s">
-        <v>1015</v>
+        <v>991</v>
       </c>
     </row>
     <row r="256" spans="1:6">
       <c r="A256" s="28" t="s">
-        <v>709</v>
+        <v>685</v>
       </c>
       <c r="B256" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C256" s="26" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D256" s="26"/>
       <c r="E256" s="26"/>
       <c r="F256" t="s">
-        <v>1016</v>
+        <v>992</v>
       </c>
     </row>
     <row r="257" spans="1:6">
       <c r="A257" s="28" t="s">
-        <v>1255</v>
+        <v>686</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>1185</v>
-      </c>
-      <c r="C257" s="26"/>
-      <c r="D257" s="26" t="s">
-        <v>1242</v>
-      </c>
+        <v>627</v>
+      </c>
+      <c r="C257" s="26" t="s">
+        <v>367</v>
+      </c>
+      <c r="D257" s="26"/>
       <c r="E257" s="26"/>
+      <c r="F257" t="s">
+        <v>993</v>
+      </c>
     </row>
     <row r="258" spans="1:6">
       <c r="A258" s="28" t="s">
-        <v>710</v>
+        <v>1232</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>627</v>
-      </c>
-      <c r="C258" s="26" t="s">
-        <v>368</v>
-      </c>
-      <c r="D258" s="26"/>
+        <v>1162</v>
+      </c>
+      <c r="C258" s="26"/>
+      <c r="D258" s="26" t="s">
+        <v>1219</v>
+      </c>
       <c r="E258" s="26"/>
-      <c r="F258" t="s">
-        <v>1017</v>
-      </c>
     </row>
     <row r="259" spans="1:6">
       <c r="A259" s="28" t="s">
-        <v>711</v>
+        <v>687</v>
       </c>
       <c r="B259" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C259" s="26" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D259" s="26"/>
       <c r="E259" s="26"/>
       <c r="F259" t="s">
-        <v>1018</v>
+        <v>994</v>
       </c>
     </row>
     <row r="260" spans="1:6">
       <c r="A260" s="28" t="s">
-        <v>712</v>
+        <v>688</v>
       </c>
       <c r="B260" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C260" s="26" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D260" s="26"/>
       <c r="E260" s="26"/>
       <c r="F260" t="s">
-        <v>1019</v>
+        <v>995</v>
       </c>
     </row>
     <row r="261" spans="1:6">
       <c r="A261" s="28" t="s">
-        <v>713</v>
+        <v>689</v>
       </c>
       <c r="B261" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C261" s="26" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D261" s="26"/>
       <c r="E261" s="26"/>
       <c r="F261" t="s">
-        <v>1020</v>
+        <v>996</v>
       </c>
     </row>
     <row r="262" spans="1:6">
       <c r="A262" s="28" t="s">
-        <v>714</v>
+        <v>690</v>
       </c>
       <c r="B262" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C262" s="26" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D262" s="26"/>
       <c r="E262" s="26"/>
       <c r="F262" t="s">
-        <v>1021</v>
+        <v>997</v>
       </c>
     </row>
     <row r="263" spans="1:6">
       <c r="A263" s="28" t="s">
-        <v>715</v>
+        <v>691</v>
       </c>
       <c r="B263" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C263" s="26" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D263" s="26"/>
       <c r="E263" s="26"/>
       <c r="F263" t="s">
-        <v>1022</v>
+        <v>998</v>
       </c>
     </row>
     <row r="264" spans="1:6">
       <c r="A264" s="28" t="s">
-        <v>716</v>
+        <v>692</v>
       </c>
       <c r="B264" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C264" s="19" t="s">
-        <v>374</v>
-      </c>
-      <c r="D264" s="19"/>
-      <c r="E264" s="19"/>
+      <c r="C264" s="26" t="s">
+        <v>373</v>
+      </c>
+      <c r="D264" s="26"/>
+      <c r="E264" s="26"/>
       <c r="F264" t="s">
-        <v>1023</v>
+        <v>999</v>
       </c>
     </row>
     <row r="265" spans="1:6">
       <c r="A265" s="28" t="s">
-        <v>717</v>
+        <v>693</v>
       </c>
       <c r="B265" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C265" s="26" t="s">
-        <v>385</v>
-      </c>
-      <c r="D265" s="26"/>
-      <c r="E265" s="26"/>
+      <c r="C265" s="19" t="s">
+        <v>374</v>
+      </c>
+      <c r="D265" s="19"/>
+      <c r="E265" s="19"/>
       <c r="F265" t="s">
-        <v>1024</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="266" spans="1:6">
       <c r="A266" s="28" t="s">
-        <v>718</v>
+        <v>694</v>
       </c>
       <c r="B266" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C266" s="19" t="s">
-        <v>387</v>
-      </c>
-      <c r="D266" s="19"/>
-      <c r="E266" s="19"/>
+      <c r="C266" s="26" t="s">
+        <v>385</v>
+      </c>
+      <c r="D266" s="26"/>
+      <c r="E266" s="26"/>
       <c r="F266" t="s">
-        <v>1025</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="267" spans="1:6">
       <c r="A267" s="28" t="s">
-        <v>719</v>
+        <v>695</v>
       </c>
       <c r="B267" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C267" s="26" t="s">
-        <v>391</v>
-      </c>
-      <c r="D267" s="26"/>
-      <c r="E267" s="26"/>
-      <c r="F267" s="6" t="s">
-        <v>1026</v>
+      <c r="C267" s="19" t="s">
+        <v>387</v>
+      </c>
+      <c r="D267" s="19"/>
+      <c r="E267" s="19"/>
+      <c r="F267" t="s">
+        <v>1002</v>
       </c>
     </row>
     <row r="268" spans="1:6">
       <c r="A268" s="28" t="s">
-        <v>720</v>
+        <v>696</v>
       </c>
       <c r="B268" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C268" s="27" t="s">
-        <v>395</v>
-      </c>
-      <c r="D268" s="27"/>
-      <c r="E268" s="27"/>
-      <c r="F268" t="s">
-        <v>1027</v>
+      <c r="C268" s="26" t="s">
+        <v>391</v>
+      </c>
+      <c r="D268" s="26"/>
+      <c r="E268" s="26"/>
+      <c r="F268" s="6" t="s">
+        <v>1003</v>
       </c>
     </row>
     <row r="269" spans="1:6">
       <c r="A269" s="28" t="s">
-        <v>721</v>
+        <v>697</v>
       </c>
       <c r="B269" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C269" s="26" t="s">
-        <v>396</v>
-      </c>
-      <c r="D269" s="26"/>
-      <c r="E269" s="26"/>
+      <c r="C269" s="27" t="s">
+        <v>395</v>
+      </c>
+      <c r="D269" s="27"/>
+      <c r="E269" s="27"/>
       <c r="F269" t="s">
-        <v>1028</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="270" spans="1:6">
       <c r="A270" s="28" t="s">
-        <v>722</v>
+        <v>698</v>
       </c>
       <c r="B270" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C270" s="26" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D270" s="26"/>
       <c r="E270" s="26"/>
       <c r="F270" t="s">
-        <v>1029</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="271" spans="1:6">
       <c r="A271" s="28" t="s">
-        <v>723</v>
+        <v>699</v>
       </c>
       <c r="B271" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C271" s="26" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="D271" s="26"/>
       <c r="E271" s="26"/>
       <c r="F271" t="s">
-        <v>1030</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="272" spans="1:6">
       <c r="A272" s="28" t="s">
-        <v>724</v>
+        <v>700</v>
       </c>
       <c r="B272" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C272" s="19" t="s">
-        <v>389</v>
-      </c>
-      <c r="D272" s="19"/>
-      <c r="E272" s="19"/>
+      <c r="C272" s="26" t="s">
+        <v>393</v>
+      </c>
+      <c r="D272" s="26"/>
+      <c r="E272" s="26"/>
       <c r="F272" t="s">
-        <v>1031</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="273" spans="1:6">
       <c r="A273" s="28" t="s">
-        <v>725</v>
+        <v>701</v>
       </c>
       <c r="B273" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C273" s="27" t="s">
-        <v>401</v>
-      </c>
-      <c r="D273" s="27"/>
-      <c r="E273" s="27"/>
+      <c r="C273" s="19" t="s">
+        <v>389</v>
+      </c>
+      <c r="D273" s="19"/>
+      <c r="E273" s="19"/>
       <c r="F273" t="s">
-        <v>1032</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="274" spans="1:6">
       <c r="A274" s="28" t="s">
-        <v>726</v>
+        <v>702</v>
       </c>
       <c r="B274" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C274" s="26" t="s">
-        <v>403</v>
-      </c>
-      <c r="D274" s="26"/>
-      <c r="E274" s="26"/>
+      <c r="C274" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="D274" s="27"/>
+      <c r="E274" s="27"/>
       <c r="F274" t="s">
-        <v>1033</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="275" spans="1:6">
       <c r="A275" s="28" t="s">
-        <v>727</v>
+        <v>703</v>
       </c>
       <c r="B275" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C275" s="19" t="s">
-        <v>405</v>
-      </c>
-      <c r="D275" s="19"/>
-      <c r="E275" s="19"/>
+      <c r="C275" s="26" t="s">
+        <v>403</v>
+      </c>
+      <c r="D275" s="26"/>
+      <c r="E275" s="26"/>
       <c r="F275" t="s">
-        <v>1034</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="276" spans="1:6">
       <c r="A276" s="28" t="s">
-        <v>728</v>
+        <v>704</v>
       </c>
       <c r="B276" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C276" s="26" t="s">
-        <v>406</v>
-      </c>
-      <c r="D276" s="26"/>
-      <c r="E276" s="26"/>
+      <c r="C276" s="19" t="s">
+        <v>405</v>
+      </c>
+      <c r="D276" s="19"/>
+      <c r="E276" s="19"/>
       <c r="F276" t="s">
-        <v>1035</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="277" spans="1:6">
       <c r="A277" s="28" t="s">
-        <v>1256</v>
+        <v>705</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>1185</v>
-      </c>
-      <c r="C277" s="26"/>
-      <c r="D277" s="26" t="s">
-        <v>1243</v>
-      </c>
+        <v>627</v>
+      </c>
+      <c r="C277" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="D277" s="26"/>
       <c r="E277" s="26"/>
+      <c r="F277" t="s">
+        <v>1012</v>
+      </c>
     </row>
     <row r="278" spans="1:6">
       <c r="A278" s="28" t="s">
-        <v>729</v>
+        <v>1233</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>627</v>
-      </c>
-      <c r="C278" s="19" t="s">
-        <v>523</v>
-      </c>
-      <c r="D278" s="19"/>
-      <c r="E278" s="19"/>
-      <c r="F278" t="s">
-        <v>1036</v>
-      </c>
+        <v>1162</v>
+      </c>
+      <c r="C278" s="26"/>
+      <c r="D278" s="26" t="s">
+        <v>1220</v>
+      </c>
+      <c r="E278" s="26"/>
     </row>
     <row r="279" spans="1:6">
       <c r="A279" s="28" t="s">
-        <v>730</v>
+        <v>706</v>
       </c>
       <c r="B279" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C279" s="27" t="s">
-        <v>407</v>
-      </c>
-      <c r="D279" s="27"/>
-      <c r="E279" s="27"/>
+      <c r="C279" s="19" t="s">
+        <v>523</v>
+      </c>
+      <c r="D279" s="19"/>
+      <c r="E279" s="19"/>
       <c r="F279" t="s">
-        <v>1037</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="280" spans="1:6">
       <c r="A280" s="28" t="s">
-        <v>731</v>
+        <v>707</v>
       </c>
       <c r="B280" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C280" s="19" t="s">
-        <v>408</v>
-      </c>
-      <c r="D280" s="19"/>
-      <c r="E280" s="19"/>
+      <c r="C280" s="27" t="s">
+        <v>407</v>
+      </c>
+      <c r="D280" s="27"/>
+      <c r="E280" s="27"/>
       <c r="F280" t="s">
-        <v>1038</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="281" spans="1:6">
       <c r="A281" s="28" t="s">
-        <v>732</v>
+        <v>708</v>
       </c>
       <c r="B281" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C281" s="26" t="s">
-        <v>409</v>
-      </c>
-      <c r="D281" s="26"/>
-      <c r="E281" s="26"/>
+      <c r="C281" s="19" t="s">
+        <v>408</v>
+      </c>
+      <c r="D281" s="19"/>
+      <c r="E281" s="19"/>
       <c r="F281" t="s">
-        <v>1039</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="282" spans="1:6">
       <c r="A282" s="28" t="s">
-        <v>733</v>
+        <v>709</v>
       </c>
       <c r="B282" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C282" s="18" t="s">
-        <v>517</v>
-      </c>
-      <c r="D282" s="18"/>
-      <c r="E282" s="18"/>
-      <c r="F282" s="6" t="s">
-        <v>1040</v>
+      <c r="C282" s="26" t="s">
+        <v>409</v>
+      </c>
+      <c r="D282" s="26"/>
+      <c r="E282" s="26"/>
+      <c r="F282" t="s">
+        <v>1016</v>
       </c>
     </row>
     <row r="283" spans="1:6">
       <c r="A283" s="28" t="s">
-        <v>734</v>
+        <v>710</v>
       </c>
       <c r="B283" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C283" s="26" t="s">
-        <v>410</v>
-      </c>
-      <c r="D283" s="26"/>
-      <c r="E283" s="26"/>
-      <c r="F283" t="s">
-        <v>1041</v>
+      <c r="C283" s="18" t="s">
+        <v>517</v>
+      </c>
+      <c r="D283" s="18"/>
+      <c r="E283" s="18"/>
+      <c r="F283" s="6" t="s">
+        <v>1017</v>
       </c>
     </row>
     <row r="284" spans="1:6">
       <c r="A284" s="28" t="s">
-        <v>735</v>
+        <v>711</v>
       </c>
       <c r="B284" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C284" s="26" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D284" s="26"/>
       <c r="E284" s="26"/>
       <c r="F284" t="s">
-        <v>1042</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="285" spans="1:6">
       <c r="A285" s="28" t="s">
-        <v>736</v>
+        <v>712</v>
       </c>
       <c r="B285" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C285" s="26" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D285" s="26"/>
       <c r="E285" s="26"/>
       <c r="F285" t="s">
-        <v>1043</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="286" spans="1:6">
       <c r="A286" s="28" t="s">
-        <v>737</v>
+        <v>713</v>
       </c>
       <c r="B286" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C286" s="26" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D286" s="26"/>
       <c r="E286" s="26"/>
       <c r="F286" t="s">
-        <v>1044</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="287" spans="1:6">
       <c r="A287" s="28" t="s">
-        <v>738</v>
+        <v>714</v>
       </c>
       <c r="B287" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C287" s="26" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D287" s="26"/>
       <c r="E287" s="26"/>
       <c r="F287" t="s">
-        <v>1045</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="288" spans="1:6">
       <c r="A288" s="28" t="s">
-        <v>739</v>
+        <v>715</v>
       </c>
       <c r="B288" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C288" s="19" t="s">
-        <v>514</v>
-      </c>
-      <c r="D288" s="19"/>
-      <c r="E288" s="19"/>
+      <c r="C288" s="26" t="s">
+        <v>414</v>
+      </c>
+      <c r="D288" s="26"/>
+      <c r="E288" s="26"/>
       <c r="F288" t="s">
-        <v>1046</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="289" spans="1:6">
       <c r="A289" s="28" t="s">
-        <v>740</v>
+        <v>716</v>
       </c>
       <c r="B289" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C289" s="19" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D289" s="19"/>
       <c r="E289" s="19"/>
       <c r="F289" t="s">
-        <v>1047</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="290" spans="1:6">
       <c r="A290" s="28" t="s">
-        <v>741</v>
+        <v>717</v>
       </c>
       <c r="B290" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C290" s="26" t="s">
-        <v>426</v>
-      </c>
-      <c r="D290" s="26"/>
-      <c r="E290" s="26"/>
+      <c r="C290" s="19" t="s">
+        <v>513</v>
+      </c>
+      <c r="D290" s="19"/>
+      <c r="E290" s="19"/>
       <c r="F290" t="s">
-        <v>1048</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="291" spans="1:6">
       <c r="A291" s="28" t="s">
-        <v>742</v>
+        <v>718</v>
       </c>
       <c r="B291" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C291" s="26" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D291" s="26"/>
       <c r="E291" s="26"/>
-      <c r="F291" s="6" t="s">
-        <v>1049</v>
+      <c r="F291" t="s">
+        <v>1025</v>
       </c>
     </row>
     <row r="292" spans="1:6">
       <c r="A292" s="28" t="s">
-        <v>743</v>
+        <v>719</v>
       </c>
       <c r="B292" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C292" s="26" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="D292" s="26"/>
       <c r="E292" s="26"/>
       <c r="F292" s="6" t="s">
-        <v>1050</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="293" spans="1:6">
       <c r="A293" s="28" t="s">
-        <v>744</v>
+        <v>720</v>
       </c>
       <c r="B293" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C293" s="19" t="s">
-        <v>511</v>
-      </c>
-      <c r="D293" s="19"/>
-      <c r="E293" s="19"/>
-      <c r="F293" t="s">
-        <v>1051</v>
+      <c r="C293" s="26" t="s">
+        <v>429</v>
+      </c>
+      <c r="D293" s="26"/>
+      <c r="E293" s="26"/>
+      <c r="F293" s="6" t="s">
+        <v>1027</v>
       </c>
     </row>
     <row r="294" spans="1:6">
       <c r="A294" s="28" t="s">
-        <v>745</v>
+        <v>721</v>
       </c>
       <c r="B294" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C294" s="26" t="s">
-        <v>430</v>
-      </c>
-      <c r="D294" s="26"/>
-      <c r="E294" s="26"/>
+      <c r="C294" s="19" t="s">
+        <v>511</v>
+      </c>
+      <c r="D294" s="19"/>
+      <c r="E294" s="19"/>
       <c r="F294" t="s">
-        <v>1052</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="295" spans="1:6">
       <c r="A295" s="28" t="s">
-        <v>746</v>
+        <v>722</v>
       </c>
       <c r="B295" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C295" s="18" t="s">
-        <v>427</v>
-      </c>
-      <c r="D295" s="18"/>
-      <c r="E295" s="18"/>
+      <c r="C295" s="26" t="s">
+        <v>430</v>
+      </c>
+      <c r="D295" s="26"/>
+      <c r="E295" s="26"/>
       <c r="F295" t="s">
-        <v>1053</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="296" spans="1:6">
       <c r="A296" s="28" t="s">
-        <v>747</v>
+        <v>723</v>
       </c>
       <c r="B296" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C296" s="19" t="s">
-        <v>428</v>
-      </c>
-      <c r="D296" s="19"/>
-      <c r="E296" s="19"/>
+      <c r="C296" s="18" t="s">
+        <v>427</v>
+      </c>
+      <c r="D296" s="18"/>
+      <c r="E296" s="18"/>
       <c r="F296" t="s">
-        <v>1054</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="297" spans="1:6">
       <c r="A297" s="28" t="s">
-        <v>748</v>
+        <v>724</v>
       </c>
       <c r="B297" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C297" s="19" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="D297" s="19"/>
       <c r="E297" s="19"/>
       <c r="F297" t="s">
-        <v>1055</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="298" spans="1:6">
       <c r="A298" s="28" t="s">
-        <v>749</v>
+        <v>725</v>
       </c>
       <c r="B298" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C298" s="19" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D298" s="19"/>
       <c r="E298" s="19"/>
       <c r="F298" t="s">
-        <v>1056</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="299" spans="1:6">
       <c r="A299" s="28" t="s">
-        <v>750</v>
+        <v>726</v>
       </c>
       <c r="B299" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C299" s="26" t="s">
-        <v>433</v>
-      </c>
-      <c r="D299" s="26"/>
-      <c r="E299" s="26"/>
-      <c r="F299" s="6" t="s">
-        <v>1057</v>
+      <c r="C299" s="19" t="s">
+        <v>431</v>
+      </c>
+      <c r="D299" s="19"/>
+      <c r="E299" s="19"/>
+      <c r="F299" t="s">
+        <v>1033</v>
       </c>
     </row>
     <row r="300" spans="1:6">
       <c r="A300" s="28" t="s">
-        <v>751</v>
+        <v>727</v>
       </c>
       <c r="B300" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C300" s="27" t="s">
-        <v>434</v>
-      </c>
-      <c r="D300" s="27"/>
-      <c r="E300" s="27"/>
-      <c r="F300" t="s">
-        <v>1058</v>
+      <c r="C300" s="26" t="s">
+        <v>433</v>
+      </c>
+      <c r="D300" s="26"/>
+      <c r="E300" s="26"/>
+      <c r="F300" s="6" t="s">
+        <v>1034</v>
       </c>
     </row>
     <row r="301" spans="1:6">
       <c r="A301" s="28" t="s">
-        <v>752</v>
+        <v>728</v>
       </c>
       <c r="B301" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C301" s="19" t="s">
-        <v>435</v>
-      </c>
-      <c r="D301" s="19"/>
-      <c r="E301" s="19"/>
+      <c r="C301" s="27" t="s">
+        <v>434</v>
+      </c>
+      <c r="D301" s="27"/>
+      <c r="E301" s="27"/>
       <c r="F301" t="s">
-        <v>1059</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="302" spans="1:6">
       <c r="A302" s="28" t="s">
-        <v>753</v>
+        <v>729</v>
       </c>
       <c r="B302" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C302" s="19" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D302" s="19"/>
       <c r="E302" s="19"/>
       <c r="F302" t="s">
-        <v>1060</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="303" spans="1:6">
       <c r="A303" s="28" t="s">
-        <v>754</v>
+        <v>730</v>
       </c>
       <c r="B303" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C303" s="19" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D303" s="19"/>
       <c r="E303" s="19"/>
       <c r="F303" t="s">
-        <v>1061</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="304" spans="1:6">
       <c r="A304" s="28" t="s">
-        <v>755</v>
+        <v>731</v>
       </c>
       <c r="B304" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C304" s="27" t="s">
-        <v>438</v>
-      </c>
-      <c r="D304" s="27"/>
-      <c r="E304" s="27"/>
+      <c r="C304" s="19" t="s">
+        <v>437</v>
+      </c>
+      <c r="D304" s="19"/>
+      <c r="E304" s="19"/>
       <c r="F304" t="s">
-        <v>1062</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="305" spans="1:6">
       <c r="A305" s="28" t="s">
-        <v>756</v>
+        <v>732</v>
       </c>
       <c r="B305" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C305" s="26" t="s">
-        <v>509</v>
-      </c>
-      <c r="D305" s="26"/>
-      <c r="E305" s="26"/>
+      <c r="C305" s="27" t="s">
+        <v>438</v>
+      </c>
+      <c r="D305" s="27"/>
+      <c r="E305" s="27"/>
       <c r="F305" t="s">
-        <v>1063</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="306" spans="1:6">
       <c r="A306" s="28" t="s">
-        <v>757</v>
+        <v>733</v>
       </c>
       <c r="B306" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C306" s="26" t="s">
-        <v>439</v>
+        <v>509</v>
       </c>
       <c r="D306" s="26"/>
       <c r="E306" s="26"/>
       <c r="F306" t="s">
-        <v>1064</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="307" spans="1:6">
       <c r="A307" s="28" t="s">
-        <v>758</v>
+        <v>734</v>
       </c>
       <c r="B307" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C307" s="19" t="s">
-        <v>455</v>
-      </c>
-      <c r="D307" s="19"/>
-      <c r="E307" s="19"/>
+      <c r="C307" s="26" t="s">
+        <v>439</v>
+      </c>
+      <c r="D307" s="26"/>
+      <c r="E307" s="26"/>
       <c r="F307" t="s">
-        <v>1065</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="308" spans="1:6">
       <c r="A308" s="28" t="s">
-        <v>759</v>
+        <v>735</v>
       </c>
       <c r="B308" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C308" s="19" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D308" s="19"/>
       <c r="E308" s="19"/>
       <c r="F308" t="s">
-        <v>1066</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="309" spans="1:6">
       <c r="A309" s="28" t="s">
-        <v>760</v>
+        <v>736</v>
       </c>
       <c r="B309" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C309" s="26" t="s">
-        <v>457</v>
-      </c>
-      <c r="D309" s="26"/>
-      <c r="E309" s="26"/>
+      <c r="C309" s="19" t="s">
+        <v>456</v>
+      </c>
+      <c r="D309" s="19"/>
+      <c r="E309" s="19"/>
       <c r="F309" t="s">
-        <v>1067</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="310" spans="1:6">
       <c r="A310" s="28" t="s">
-        <v>761</v>
+        <v>737</v>
       </c>
       <c r="B310" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C310" s="19" t="s">
-        <v>458</v>
-      </c>
-      <c r="D310" s="19"/>
-      <c r="E310" s="19"/>
+      <c r="C310" s="26" t="s">
+        <v>457</v>
+      </c>
+      <c r="D310" s="26"/>
+      <c r="E310" s="26"/>
       <c r="F310" t="s">
-        <v>1068</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="311" spans="1:6">
       <c r="A311" s="28" t="s">
-        <v>762</v>
+        <v>738</v>
       </c>
       <c r="B311" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C311" s="19" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D311" s="19"/>
       <c r="E311" s="19"/>
       <c r="F311" t="s">
-        <v>1069</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="312" spans="1:6">
       <c r="A312" s="28" t="s">
-        <v>763</v>
+        <v>739</v>
       </c>
       <c r="B312" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C312" s="19" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D312" s="19"/>
       <c r="E312" s="19"/>
       <c r="F312" t="s">
-        <v>1070</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="313" spans="1:6">
       <c r="A313" s="28" t="s">
-        <v>764</v>
+        <v>740</v>
       </c>
       <c r="B313" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C313" s="19" t="s">
-        <v>505</v>
+        <v>461</v>
       </c>
       <c r="D313" s="19"/>
       <c r="E313" s="19"/>
       <c r="F313" t="s">
-        <v>1071</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="314" spans="1:6">
       <c r="A314" s="28" t="s">
-        <v>765</v>
+        <v>741</v>
       </c>
       <c r="B314" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C314" s="26" t="s">
-        <v>460</v>
-      </c>
-      <c r="D314" s="26"/>
-      <c r="E314" s="26"/>
+      <c r="C314" s="19" t="s">
+        <v>505</v>
+      </c>
+      <c r="D314" s="19"/>
+      <c r="E314" s="19"/>
       <c r="F314" t="s">
-        <v>1072</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="315" spans="1:6">
       <c r="A315" s="28" t="s">
-        <v>766</v>
+        <v>742</v>
       </c>
       <c r="B315" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C315" s="26" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D315" s="26"/>
       <c r="E315" s="26"/>
       <c r="F315" t="s">
-        <v>1073</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="316" spans="1:6">
       <c r="A316" s="28" t="s">
-        <v>767</v>
+        <v>743</v>
       </c>
       <c r="B316" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C316" s="26" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D316" s="26"/>
       <c r="E316" s="26"/>
       <c r="F316" t="s">
-        <v>1074</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="317" spans="1:6">
       <c r="A317" s="28" t="s">
-        <v>768</v>
+        <v>744</v>
       </c>
       <c r="B317" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C317" s="26" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D317" s="26"/>
       <c r="E317" s="26"/>
       <c r="F317" t="s">
-        <v>1075</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="318" spans="1:6">
       <c r="A318" s="28" t="s">
-        <v>769</v>
+        <v>745</v>
       </c>
       <c r="B318" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C318" s="26" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D318" s="26"/>
       <c r="E318" s="26"/>
       <c r="F318" t="s">
-        <v>1076</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="319" spans="1:6">
       <c r="A319" s="28" t="s">
-        <v>770</v>
+        <v>746</v>
       </c>
       <c r="B319" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C319" s="26" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D319" s="26"/>
       <c r="E319" s="26"/>
       <c r="F319" t="s">
-        <v>1077</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="320" spans="1:6">
       <c r="A320" s="28" t="s">
-        <v>771</v>
+        <v>747</v>
       </c>
       <c r="B320" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C320" s="26" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D320" s="26"/>
       <c r="E320" s="26"/>
-      <c r="F320" s="19" t="s">
-        <v>1078</v>
+      <c r="F320" t="s">
+        <v>1054</v>
       </c>
     </row>
     <row r="321" spans="1:6">
       <c r="A321" s="28" t="s">
-        <v>772</v>
+        <v>748</v>
       </c>
       <c r="B321" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C321" s="26" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D321" s="26"/>
       <c r="E321" s="26"/>
-      <c r="F321" t="s">
-        <v>1079</v>
+      <c r="F321" s="19" t="s">
+        <v>1055</v>
       </c>
     </row>
     <row r="322" spans="1:6">
       <c r="A322" s="28" t="s">
-        <v>773</v>
+        <v>749</v>
       </c>
       <c r="B322" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C322" s="26" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D322" s="26"/>
       <c r="E322" s="26"/>
       <c r="F322" t="s">
-        <v>1080</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="323" spans="1:6">
       <c r="A323" s="28" t="s">
-        <v>774</v>
+        <v>750</v>
       </c>
       <c r="B323" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C323" s="27" t="s">
-        <v>485</v>
-      </c>
-      <c r="D323" s="27"/>
-      <c r="E323" s="27"/>
+      <c r="C323" s="26" t="s">
+        <v>469</v>
+      </c>
+      <c r="D323" s="26"/>
+      <c r="E323" s="26"/>
       <c r="F323" t="s">
-        <v>1081</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="324" spans="1:6">
       <c r="A324" s="28" t="s">
-        <v>775</v>
+        <v>751</v>
       </c>
       <c r="B324" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C324" s="26" t="s">
-        <v>486</v>
-      </c>
-      <c r="D324" s="26"/>
-      <c r="E324" s="26"/>
+      <c r="C324" s="27" t="s">
+        <v>485</v>
+      </c>
+      <c r="D324" s="27"/>
+      <c r="E324" s="27"/>
       <c r="F324" t="s">
-        <v>1082</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="325" spans="1:6">
       <c r="A325" s="28" t="s">
-        <v>776</v>
+        <v>752</v>
       </c>
       <c r="B325" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C325" s="19" t="s">
-        <v>487</v>
-      </c>
-      <c r="D325" s="19"/>
-      <c r="E325" s="19"/>
+      <c r="C325" s="26" t="s">
+        <v>486</v>
+      </c>
+      <c r="D325" s="26"/>
+      <c r="E325" s="26"/>
       <c r="F325" t="s">
-        <v>1083</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="326" spans="1:6">
       <c r="A326" s="28" t="s">
-        <v>777</v>
+        <v>753</v>
       </c>
       <c r="B326" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C326" s="19" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D326" s="19"/>
       <c r="E326" s="19"/>
       <c r="F326" t="s">
-        <v>1084</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="327" spans="1:6">
       <c r="A327" s="28" t="s">
-        <v>778</v>
+        <v>754</v>
       </c>
       <c r="B327" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C327" s="19" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D327" s="19"/>
       <c r="E327" s="19"/>
       <c r="F327" t="s">
-        <v>1085</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="328" spans="1:6">
       <c r="A328" s="28" t="s">
-        <v>779</v>
+        <v>755</v>
       </c>
       <c r="B328" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C328" s="19" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D328" s="19"/>
       <c r="E328" s="19"/>
       <c r="F328" t="s">
-        <v>1086</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="329" spans="1:6">
       <c r="A329" s="28" t="s">
-        <v>780</v>
+        <v>756</v>
       </c>
       <c r="B329" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C329" s="26" t="s">
-        <v>507</v>
-      </c>
-      <c r="D329" s="26"/>
-      <c r="E329" s="26"/>
+      <c r="C329" s="19" t="s">
+        <v>490</v>
+      </c>
+      <c r="D329" s="19"/>
+      <c r="E329" s="19"/>
       <c r="F329" t="s">
-        <v>1087</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="330" spans="1:6">
       <c r="A330" s="28" t="s">
-        <v>781</v>
+        <v>757</v>
       </c>
       <c r="B330" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C330" s="19" t="s">
-        <v>497</v>
-      </c>
-      <c r="D330" s="19"/>
-      <c r="E330" s="19"/>
+      <c r="C330" s="26" t="s">
+        <v>507</v>
+      </c>
+      <c r="D330" s="26"/>
+      <c r="E330" s="26"/>
       <c r="F330" t="s">
-        <v>1088</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="331" spans="1:6">
       <c r="A331" s="28" t="s">
-        <v>782</v>
+        <v>758</v>
       </c>
       <c r="B331" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C331" s="19" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D331" s="19"/>
       <c r="E331" s="19"/>
       <c r="F331" t="s">
-        <v>1089</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="332" spans="1:6">
       <c r="A332" s="28" t="s">
-        <v>783</v>
+        <v>759</v>
       </c>
       <c r="B332" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C332" s="18" t="s">
-        <v>501</v>
-      </c>
-      <c r="D332" s="18"/>
-      <c r="E332" s="18"/>
-      <c r="F332" s="6" t="s">
-        <v>1090</v>
+      <c r="C332" s="19" t="s">
+        <v>499</v>
+      </c>
+      <c r="D332" s="19"/>
+      <c r="E332" s="19"/>
+      <c r="F332" t="s">
+        <v>1066</v>
       </c>
     </row>
     <row r="333" spans="1:6">
       <c r="A333" s="28" t="s">
-        <v>784</v>
+        <v>760</v>
       </c>
       <c r="B333" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C333" s="27" t="s">
+      <c r="C333" s="18" t="s">
+        <v>501</v>
+      </c>
+      <c r="D333" s="18"/>
+      <c r="E333" s="18"/>
+      <c r="F333" s="6" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6">
+      <c r="A334" s="28" t="s">
+        <v>761</v>
+      </c>
+      <c r="B334" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C334" s="27" t="s">
         <v>503</v>
       </c>
-      <c r="D333" s="27"/>
-      <c r="E333" s="27"/>
-      <c r="F333" s="6" t="s">
-        <v>1091</v>
+      <c r="D334" s="27"/>
+      <c r="E334" s="27"/>
+      <c r="F334" s="6" t="s">
+        <v>1068</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F333" xr:uid="{B8FBB380-25CE-48E1-8B68-143CBA8DEA45}"/>
+  <autoFilter ref="A1:F334" xr:uid="{B8FBB380-25CE-48E1-8B68-143CBA8DEA45}"/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/slackbuilds/sb_migr.xlsx
+++ b/slackbuilds/sb_migr.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\projects.new\sh\cvstogit\slackbuilds\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5274F325-E73B-4E1B-B097-58CD92164521}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCD87D5F-6A2A-4C92-B37F-D156F586AA5F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2172" uniqueCount="1302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2180" uniqueCount="1302">
   <si>
     <t>Package</t>
   </si>
@@ -1939,30 +1939,6 @@
     <t>SLACK-10_2</t>
   </si>
   <si>
-    <t>2011-12-24 18:28:29</t>
-  </si>
-  <si>
-    <t>2012-01-22 19:18:12</t>
-  </si>
-  <si>
-    <t>2012-06-30 18:51:21</t>
-  </si>
-  <si>
-    <t>2012-09-15 10:58:21</t>
-  </si>
-  <si>
-    <t>2012-09-17 12:45:23</t>
-  </si>
-  <si>
-    <t>2012-09-17 14:18:30</t>
-  </si>
-  <si>
-    <t>2012-09-17 16:45:42</t>
-  </si>
-  <si>
-    <t>2012-09-22 10:16:27</t>
-  </si>
-  <si>
     <t>2012-09-30 10:06:41</t>
   </si>
   <si>
@@ -3944,6 +3920,30 @@
   </si>
   <si>
     <t>https://github.com/gdsotirov/enca.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>2011-12-24 18:28:29 +0200</t>
+  </si>
+  <si>
+    <t>2012-01-22 19:18:12 +0200</t>
+  </si>
+  <si>
+    <t>2012-06-30 18:51:21 +0300</t>
+  </si>
+  <si>
+    <t>2012-09-15 10:58:21 +0300</t>
+  </si>
+  <si>
+    <t>2012-09-17 12:45:23 +0300</t>
+  </si>
+  <si>
+    <t>2012-09-17 14:18:30 +0300</t>
+  </si>
+  <si>
+    <t>2012-09-17 16:45:42 +0300</t>
+  </si>
+  <si>
+    <t>2012-09-22 10:16:27 +0300</t>
   </si>
 </sst>
 </file>
@@ -5370,7 +5370,7 @@
         <v>9</v>
       </c>
       <c r="F42" t="s">
-        <v>1301</v>
+        <v>1293</v>
       </c>
       <c r="G42" s="13">
         <v>43895</v>
@@ -8869,7 +8869,7 @@
         <v>147</v>
       </c>
       <c r="F194" t="s">
-        <v>1029</v>
+        <v>1021</v>
       </c>
       <c r="G194" s="13">
         <v>43875</v>
@@ -11608,8 +11608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{495E7B31-8439-4BBC-8206-DAF1FFDAE945}">
   <dimension ref="A1:F334"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A231" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C242" sqref="C242"/>
+    <sheetView tabSelected="1" topLeftCell="A233" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D251" sqref="D251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -11644,7 +11644,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="28" t="s">
-        <v>1031</v>
+        <v>1023</v>
       </c>
       <c r="B2" t="s">
         <v>627</v>
@@ -11653,7 +11653,7 @@
         <v>628</v>
       </c>
       <c r="D2" t="s">
-        <v>1079</v>
+        <v>1071</v>
       </c>
       <c r="E2" t="s">
         <v>630</v>
@@ -11661,7 +11661,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="28" t="s">
-        <v>1032</v>
+        <v>1024</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>626</v>
@@ -11670,42 +11670,42 @@
         <v>20</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>1079</v>
+        <v>1071</v>
       </c>
       <c r="E3" s="19"/>
       <c r="F3" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="28" t="s">
-        <v>1173</v>
+        <v>1165</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1085</v>
+        <v>1077</v>
       </c>
       <c r="C4" s="19"/>
       <c r="D4" s="18" t="s">
-        <v>1167</v>
+        <v>1159</v>
       </c>
       <c r="E4" s="19"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="28" t="s">
-        <v>1182</v>
+        <v>1174</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>1122</v>
+        <v>1114</v>
       </c>
       <c r="C5" s="19"/>
       <c r="D5" s="18" t="s">
-        <v>1168</v>
+        <v>1160</v>
       </c>
       <c r="E5" s="19"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="28" t="s">
-        <v>1169</v>
+        <v>1161</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>626</v>
@@ -11714,16 +11714,16 @@
         <v>79</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>1168</v>
+        <v>1160</v>
       </c>
       <c r="E6" s="19"/>
       <c r="F6" t="s">
-        <v>775</v>
+        <v>767</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="28" t="s">
-        <v>1033</v>
+        <v>1025</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>626</v>
@@ -11732,16 +11732,16 @@
         <v>43</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>1168</v>
+        <v>1160</v>
       </c>
       <c r="E7" s="19"/>
       <c r="F7" t="s">
-        <v>724</v>
+        <v>716</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="28" t="s">
-        <v>1034</v>
+        <v>1026</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>626</v>
@@ -11750,16 +11750,16 @@
         <v>38</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>1168</v>
+        <v>1160</v>
       </c>
       <c r="E8" s="19"/>
       <c r="F8" t="s">
-        <v>1030</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="28" t="s">
-        <v>1035</v>
+        <v>1027</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>626</v>
@@ -11768,16 +11768,16 @@
         <v>26</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>1168</v>
+        <v>1160</v>
       </c>
       <c r="E9" s="19"/>
       <c r="F9" t="s">
-        <v>726</v>
+        <v>718</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="28" t="s">
-        <v>1036</v>
+        <v>1028</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>626</v>
@@ -11786,16 +11786,16 @@
         <v>123</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>1168</v>
+        <v>1160</v>
       </c>
       <c r="E10" s="19"/>
       <c r="F10" t="s">
-        <v>727</v>
+        <v>719</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="28" t="s">
-        <v>1037</v>
+        <v>1029</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>626</v>
@@ -11804,16 +11804,16 @@
         <v>554</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>1168</v>
+        <v>1160</v>
       </c>
       <c r="E11" s="26"/>
       <c r="F11" t="s">
-        <v>728</v>
+        <v>720</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="28" t="s">
-        <v>1170</v>
+        <v>1162</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>626</v>
@@ -11822,16 +11822,16 @@
         <v>137</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>1168</v>
+        <v>1160</v>
       </c>
       <c r="E12" s="18"/>
       <c r="F12" s="6" t="s">
-        <v>799</v>
+        <v>791</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="28" t="s">
-        <v>1038</v>
+        <v>1030</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>626</v>
@@ -11840,16 +11840,16 @@
         <v>110</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>1168</v>
+        <v>1160</v>
       </c>
       <c r="E13" s="19"/>
       <c r="F13" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="28" t="s">
-        <v>1039</v>
+        <v>1031</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>626</v>
@@ -11858,16 +11858,16 @@
         <v>111</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>1168</v>
+        <v>1160</v>
       </c>
       <c r="E14" s="19"/>
       <c r="F14" t="s">
-        <v>730</v>
+        <v>722</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="28" t="s">
-        <v>1040</v>
+        <v>1032</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>626</v>
@@ -11876,16 +11876,16 @@
         <v>576</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>1168</v>
+        <v>1160</v>
       </c>
       <c r="E15" s="19"/>
       <c r="F15" t="s">
-        <v>731</v>
+        <v>723</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="28" t="s">
-        <v>1041</v>
+        <v>1033</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>626</v>
@@ -11894,16 +11894,16 @@
         <v>6</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>1168</v>
+        <v>1160</v>
       </c>
       <c r="E16" s="19"/>
       <c r="F16" t="s">
-        <v>732</v>
+        <v>724</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="28" t="s">
-        <v>1042</v>
+        <v>1034</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>626</v>
@@ -11912,16 +11912,16 @@
         <v>30</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>1168</v>
+        <v>1160</v>
       </c>
       <c r="E17" s="18"/>
       <c r="F17" s="6" t="s">
-        <v>733</v>
+        <v>725</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="28" t="s">
-        <v>1043</v>
+        <v>1035</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>626</v>
@@ -11930,16 +11930,16 @@
         <v>14</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>1168</v>
+        <v>1160</v>
       </c>
       <c r="E18" s="18"/>
       <c r="F18" t="s">
-        <v>734</v>
+        <v>726</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="28" t="s">
-        <v>1171</v>
+        <v>1163</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>626</v>
@@ -11948,16 +11948,16 @@
         <v>87</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>1168</v>
+        <v>1160</v>
       </c>
       <c r="E19" s="19"/>
       <c r="F19" t="s">
-        <v>782</v>
+        <v>774</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="28" t="s">
-        <v>1044</v>
+        <v>1036</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>626</v>
@@ -11966,19 +11966,19 @@
         <v>161</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>1168</v>
+        <v>1160</v>
       </c>
       <c r="E20" s="19"/>
       <c r="F20" t="s">
-        <v>735</v>
+        <v>727</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="28" t="s">
-        <v>1183</v>
+        <v>1175</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>1122</v>
+        <v>1114</v>
       </c>
       <c r="C21" s="19"/>
       <c r="D21" s="18" t="s">
@@ -11988,22 +11988,22 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="28" t="s">
-        <v>1172</v>
+        <v>1164</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>1076</v>
+        <v>1068</v>
       </c>
       <c r="C22" s="19" t="s">
         <v>38</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>1080</v>
+        <v>1072</v>
       </c>
       <c r="E22" s="19"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="28" t="s">
-        <v>1045</v>
+        <v>1037</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>626</v>
@@ -12016,12 +12016,12 @@
       </c>
       <c r="E23" s="19"/>
       <c r="F23" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="28" t="s">
-        <v>1046</v>
+        <v>1038</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>626</v>
@@ -12034,12 +12034,12 @@
       </c>
       <c r="E24" s="19"/>
       <c r="F24" t="s">
-        <v>737</v>
+        <v>729</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="28" t="s">
-        <v>1047</v>
+        <v>1039</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>626</v>
@@ -12052,12 +12052,12 @@
       </c>
       <c r="E25" s="19"/>
       <c r="F25" t="s">
-        <v>738</v>
+        <v>730</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="28" t="s">
-        <v>1048</v>
+        <v>1040</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>626</v>
@@ -12070,30 +12070,30 @@
       </c>
       <c r="E26" s="19"/>
       <c r="F26" s="19" t="s">
-        <v>739</v>
+        <v>731</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="28" t="s">
-        <v>1049</v>
+        <v>1041</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C27" s="31" t="s">
-        <v>722</v>
+        <v>714</v>
       </c>
       <c r="D27" s="18" t="s">
         <v>632</v>
       </c>
       <c r="E27" s="19" t="s">
-        <v>1050</v>
+        <v>1042</v>
       </c>
       <c r="F27" s="19"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="28" t="s">
-        <v>1051</v>
+        <v>1043</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>626</v>
@@ -12106,12 +12106,12 @@
       </c>
       <c r="E28" s="19"/>
       <c r="F28" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="28" t="s">
-        <v>1052</v>
+        <v>1044</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>626</v>
@@ -12124,12 +12124,12 @@
       </c>
       <c r="E29" s="19"/>
       <c r="F29" t="s">
-        <v>741</v>
+        <v>733</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="28" t="s">
-        <v>1053</v>
+        <v>1045</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>626</v>
@@ -12142,12 +12142,12 @@
       </c>
       <c r="E30" s="18"/>
       <c r="F30" s="6" t="s">
-        <v>742</v>
+        <v>734</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="28" t="s">
-        <v>1054</v>
+        <v>1046</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>626</v>
@@ -12160,30 +12160,30 @@
       </c>
       <c r="E31" s="18"/>
       <c r="F31" s="6" t="s">
-        <v>743</v>
+        <v>735</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="28" t="s">
-        <v>1055</v>
+        <v>1047</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>626</v>
       </c>
       <c r="C32" s="31" t="s">
-        <v>1059</v>
+        <v>1051</v>
       </c>
       <c r="D32" s="18" t="s">
         <v>632</v>
       </c>
       <c r="E32" s="19"/>
       <c r="F32" t="s">
-        <v>744</v>
+        <v>736</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="28" t="s">
-        <v>1056</v>
+        <v>1048</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>626</v>
@@ -12196,12 +12196,12 @@
       </c>
       <c r="E33" s="19"/>
       <c r="F33" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="28" t="s">
-        <v>1057</v>
+        <v>1049</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>626</v>
@@ -12214,12 +12214,12 @@
       </c>
       <c r="E34" s="26"/>
       <c r="F34" t="s">
-        <v>746</v>
+        <v>738</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="28" t="s">
-        <v>1181</v>
+        <v>1173</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>626</v>
@@ -12232,48 +12232,48 @@
       </c>
       <c r="E35" s="19"/>
       <c r="F35" t="s">
-        <v>818</v>
+        <v>810</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="28" t="s">
-        <v>1058</v>
+        <v>1050</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>626</v>
       </c>
       <c r="C36" s="31" t="s">
-        <v>1071</v>
+        <v>1063</v>
       </c>
       <c r="D36" s="18" t="s">
         <v>632</v>
       </c>
       <c r="E36" s="19"/>
       <c r="F36" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="28" t="s">
-        <v>1060</v>
+        <v>1052</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>626</v>
       </c>
       <c r="C37" s="31" t="s">
-        <v>1072</v>
+        <v>1064</v>
       </c>
       <c r="D37" s="18" t="s">
         <v>632</v>
       </c>
       <c r="E37" s="19"/>
       <c r="F37" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="28" t="s">
-        <v>1061</v>
+        <v>1053</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>626</v>
@@ -12286,12 +12286,12 @@
       </c>
       <c r="E38" s="19"/>
       <c r="F38" t="s">
-        <v>749</v>
+        <v>741</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="28" t="s">
-        <v>1062</v>
+        <v>1054</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>626</v>
@@ -12304,12 +12304,12 @@
       </c>
       <c r="E39" s="19"/>
       <c r="F39" t="s">
-        <v>750</v>
+        <v>742</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="28" t="s">
-        <v>1063</v>
+        <v>1055</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>626</v>
@@ -12322,12 +12322,12 @@
       </c>
       <c r="E40" s="19"/>
       <c r="F40" t="s">
-        <v>751</v>
+        <v>743</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="28" t="s">
-        <v>1064</v>
+        <v>1056</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>626</v>
@@ -12340,30 +12340,30 @@
       </c>
       <c r="E41" s="18"/>
       <c r="F41" t="s">
-        <v>752</v>
+        <v>744</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="28" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="C42" s="31" t="s">
         <v>1065</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>626</v>
-      </c>
-      <c r="C42" s="31" t="s">
-        <v>1073</v>
       </c>
       <c r="D42" s="18" t="s">
         <v>632</v>
       </c>
       <c r="E42" s="19"/>
       <c r="F42" s="19" t="s">
-        <v>753</v>
+        <v>745</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="28" t="s">
-        <v>1066</v>
+        <v>1058</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>626</v>
@@ -12376,12 +12376,12 @@
       </c>
       <c r="E43" s="19"/>
       <c r="F43" t="s">
-        <v>754</v>
+        <v>746</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="28" t="s">
-        <v>1067</v>
+        <v>1059</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>626</v>
@@ -12394,12 +12394,12 @@
       </c>
       <c r="E44" s="19"/>
       <c r="F44" t="s">
-        <v>725</v>
+        <v>717</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="28" t="s">
-        <v>1068</v>
+        <v>1060</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>626</v>
@@ -12412,12 +12412,12 @@
       </c>
       <c r="E45" s="19"/>
       <c r="F45" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="28" t="s">
-        <v>1069</v>
+        <v>1061</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>626</v>
@@ -12430,12 +12430,12 @@
       </c>
       <c r="E46" s="19"/>
       <c r="F46" t="s">
-        <v>756</v>
+        <v>748</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="28" t="s">
-        <v>1070</v>
+        <v>1062</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>626</v>
@@ -12448,87 +12448,87 @@
       </c>
       <c r="E47" s="19"/>
       <c r="F47" t="s">
-        <v>757</v>
+        <v>749</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="28" t="s">
-        <v>1184</v>
+        <v>1176</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>1122</v>
+        <v>1114</v>
       </c>
       <c r="C48" s="19"/>
       <c r="D48" s="18" t="s">
-        <v>1075</v>
+        <v>1067</v>
       </c>
       <c r="E48" s="19"/>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="28" t="s">
-        <v>1078</v>
+        <v>1070</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C49" s="19" t="s">
-        <v>1118</v>
+        <v>1110</v>
       </c>
       <c r="D49" s="18" t="s">
-        <v>1075</v>
+        <v>1067</v>
       </c>
       <c r="E49" s="19" t="s">
-        <v>1077</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="34" t="s">
-        <v>1074</v>
+        <v>1066</v>
       </c>
       <c r="B50" s="32" t="s">
-        <v>1076</v>
+        <v>1068</v>
       </c>
       <c r="C50" s="19" t="s">
         <v>18</v>
       </c>
       <c r="D50" s="18" t="s">
-        <v>1080</v>
+        <v>1072</v>
       </c>
       <c r="E50" s="19"/>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="34" t="s">
-        <v>1081</v>
+        <v>1073</v>
       </c>
       <c r="B51" s="32" t="s">
-        <v>1076</v>
+        <v>1068</v>
       </c>
       <c r="C51" s="19" t="s">
-        <v>1059</v>
+        <v>1051</v>
       </c>
       <c r="D51" s="18" t="s">
-        <v>1080</v>
+        <v>1072</v>
       </c>
       <c r="E51" s="19"/>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="34" t="s">
-        <v>1082</v>
+        <v>1074</v>
       </c>
       <c r="B52" s="32" t="s">
-        <v>1076</v>
+        <v>1068</v>
       </c>
       <c r="C52" s="19" t="s">
         <v>43</v>
       </c>
       <c r="D52" s="18" t="s">
-        <v>1080</v>
+        <v>1072</v>
       </c>
       <c r="E52" s="19"/>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="35" t="s">
-        <v>1083</v>
+        <v>1075</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>626</v>
@@ -12537,16 +12537,16 @@
         <v>45</v>
       </c>
       <c r="D53" s="18" t="s">
-        <v>1075</v>
+        <v>1067</v>
       </c>
       <c r="E53" s="18"/>
       <c r="F53" s="6" t="s">
-        <v>758</v>
+        <v>750</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="28" t="s">
-        <v>1084</v>
+        <v>1076</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>626</v>
@@ -12555,16 +12555,16 @@
         <v>47</v>
       </c>
       <c r="D54" s="18" t="s">
-        <v>1075</v>
+        <v>1067</v>
       </c>
       <c r="E54" s="19"/>
       <c r="F54" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="28" t="s">
-        <v>1086</v>
+        <v>1078</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>626</v>
@@ -12573,16 +12573,16 @@
         <v>49</v>
       </c>
       <c r="D55" s="18" t="s">
-        <v>1075</v>
+        <v>1067</v>
       </c>
       <c r="E55" s="18"/>
       <c r="F55" t="s">
-        <v>760</v>
+        <v>752</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="28" t="s">
-        <v>1087</v>
+        <v>1079</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>626</v>
@@ -12591,16 +12591,16 @@
         <v>51</v>
       </c>
       <c r="D56" s="18" t="s">
-        <v>1075</v>
+        <v>1067</v>
       </c>
       <c r="E56" s="19"/>
       <c r="F56" t="s">
-        <v>761</v>
+        <v>753</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="28" t="s">
-        <v>1088</v>
+        <v>1080</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>626</v>
@@ -12609,16 +12609,16 @@
         <v>53</v>
       </c>
       <c r="D57" s="18" t="s">
-        <v>1075</v>
+        <v>1067</v>
       </c>
       <c r="E57" s="19"/>
       <c r="F57" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="28" t="s">
-        <v>1089</v>
+        <v>1081</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>626</v>
@@ -12627,16 +12627,16 @@
         <v>55</v>
       </c>
       <c r="D58" s="18" t="s">
-        <v>1075</v>
+        <v>1067</v>
       </c>
       <c r="E58" s="19"/>
       <c r="F58" t="s">
-        <v>763</v>
+        <v>755</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="28" t="s">
-        <v>1090</v>
+        <v>1082</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>626</v>
@@ -12645,16 +12645,16 @@
         <v>61</v>
       </c>
       <c r="D59" s="18" t="s">
-        <v>1075</v>
+        <v>1067</v>
       </c>
       <c r="E59" s="19"/>
       <c r="F59" t="s">
-        <v>764</v>
+        <v>756</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="28" t="s">
-        <v>1091</v>
+        <v>1083</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>626</v>
@@ -12663,16 +12663,16 @@
         <v>63</v>
       </c>
       <c r="D60" s="18" t="s">
-        <v>1075</v>
+        <v>1067</v>
       </c>
       <c r="E60" s="19"/>
       <c r="F60" t="s">
-        <v>765</v>
+        <v>757</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="28" t="s">
-        <v>1092</v>
+        <v>1084</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>626</v>
@@ -12681,16 +12681,16 @@
         <v>65</v>
       </c>
       <c r="D61" s="18" t="s">
-        <v>1075</v>
+        <v>1067</v>
       </c>
       <c r="E61" s="18"/>
       <c r="F61" s="6" t="s">
-        <v>766</v>
+        <v>758</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="28" t="s">
-        <v>1093</v>
+        <v>1085</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>626</v>
@@ -12699,16 +12699,16 @@
         <v>67</v>
       </c>
       <c r="D62" s="18" t="s">
-        <v>1075</v>
+        <v>1067</v>
       </c>
       <c r="E62" s="18"/>
       <c r="F62" t="s">
-        <v>767</v>
+        <v>759</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="28" t="s">
-        <v>1094</v>
+        <v>1086</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>626</v>
@@ -12717,16 +12717,16 @@
         <v>70</v>
       </c>
       <c r="D63" s="18" t="s">
-        <v>1075</v>
+        <v>1067</v>
       </c>
       <c r="E63" s="19"/>
       <c r="F63" t="s">
-        <v>768</v>
+        <v>760</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="28" t="s">
-        <v>1095</v>
+        <v>1087</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>626</v>
@@ -12735,16 +12735,16 @@
         <v>69</v>
       </c>
       <c r="D64" s="18" t="s">
-        <v>1075</v>
+        <v>1067</v>
       </c>
       <c r="E64" s="19"/>
       <c r="F64" t="s">
-        <v>769</v>
+        <v>761</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="28" t="s">
-        <v>1097</v>
+        <v>1089</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>626</v>
@@ -12753,16 +12753,16 @@
         <v>96</v>
       </c>
       <c r="D65" s="18" t="s">
-        <v>1075</v>
+        <v>1067</v>
       </c>
       <c r="E65" s="19"/>
       <c r="F65" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="28" t="s">
-        <v>1098</v>
+        <v>1090</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>626</v>
@@ -12771,16 +12771,16 @@
         <v>73</v>
       </c>
       <c r="D66" s="18" t="s">
-        <v>1075</v>
+        <v>1067</v>
       </c>
       <c r="E66" s="19"/>
       <c r="F66" t="s">
-        <v>771</v>
+        <v>763</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="28" t="s">
-        <v>1099</v>
+        <v>1091</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>626</v>
@@ -12789,16 +12789,16 @@
         <v>75</v>
       </c>
       <c r="D67" s="18" t="s">
-        <v>1075</v>
+        <v>1067</v>
       </c>
       <c r="E67" s="19"/>
       <c r="F67" t="s">
-        <v>772</v>
+        <v>764</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="28" t="s">
-        <v>1100</v>
+        <v>1092</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>626</v>
@@ -12807,16 +12807,16 @@
         <v>77</v>
       </c>
       <c r="D68" s="18" t="s">
-        <v>1075</v>
+        <v>1067</v>
       </c>
       <c r="E68" s="19"/>
       <c r="F68" t="s">
-        <v>773</v>
+        <v>765</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="28" t="s">
-        <v>1101</v>
+        <v>1093</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>626</v>
@@ -12825,16 +12825,16 @@
         <v>122</v>
       </c>
       <c r="D69" s="18" t="s">
-        <v>1075</v>
+        <v>1067</v>
       </c>
       <c r="E69" s="19"/>
       <c r="F69" t="s">
-        <v>774</v>
+        <v>766</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="28" t="s">
-        <v>1102</v>
+        <v>1094</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>626</v>
@@ -12843,16 +12843,16 @@
         <v>94</v>
       </c>
       <c r="D70" s="18" t="s">
-        <v>1075</v>
+        <v>1067</v>
       </c>
       <c r="E70" s="19"/>
       <c r="F70" t="s">
-        <v>776</v>
+        <v>768</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="28" t="s">
-        <v>1103</v>
+        <v>1095</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>626</v>
@@ -12861,29 +12861,29 @@
         <v>84</v>
       </c>
       <c r="D71" s="18" t="s">
-        <v>1075</v>
+        <v>1067</v>
       </c>
       <c r="E71" s="19"/>
       <c r="F71" t="s">
-        <v>777</v>
+        <v>769</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="28" t="s">
-        <v>1185</v>
+        <v>1177</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>1122</v>
+        <v>1114</v>
       </c>
       <c r="C72" s="19"/>
       <c r="D72" s="18" t="s">
-        <v>1096</v>
+        <v>1088</v>
       </c>
       <c r="E72" s="33"/>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="28" t="s">
-        <v>1104</v>
+        <v>1096</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>626</v>
@@ -12892,33 +12892,33 @@
         <v>541</v>
       </c>
       <c r="D73" s="18" t="s">
-        <v>1075</v>
+        <v>1067</v>
       </c>
       <c r="E73" s="26"/>
       <c r="F73" t="s">
-        <v>778</v>
+        <v>770</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="28" t="s">
-        <v>1120</v>
+        <v>1112</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C74" s="19" t="s">
-        <v>1119</v>
+        <v>1111</v>
       </c>
       <c r="D74" s="18" t="s">
-        <v>1096</v>
+        <v>1088</v>
       </c>
       <c r="E74" s="33" t="s">
-        <v>1121</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="28" t="s">
-        <v>1105</v>
+        <v>1097</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>626</v>
@@ -12927,16 +12927,16 @@
         <v>86</v>
       </c>
       <c r="D75" s="18" t="s">
-        <v>1096</v>
+        <v>1088</v>
       </c>
       <c r="E75" s="19"/>
       <c r="F75" t="s">
-        <v>779</v>
+        <v>771</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="28" t="s">
-        <v>1106</v>
+        <v>1098</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>626</v>
@@ -12945,16 +12945,16 @@
         <v>542</v>
       </c>
       <c r="D76" s="18" t="s">
-        <v>1096</v>
+        <v>1088</v>
       </c>
       <c r="E76" s="26"/>
       <c r="F76" t="s">
-        <v>780</v>
+        <v>772</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="28" t="s">
-        <v>1107</v>
+        <v>1099</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>626</v>
@@ -12963,16 +12963,16 @@
         <v>546</v>
       </c>
       <c r="D77" s="18" t="s">
-        <v>1096</v>
+        <v>1088</v>
       </c>
       <c r="E77" s="26"/>
       <c r="F77" t="s">
-        <v>781</v>
+        <v>773</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="28" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>626</v>
@@ -12981,16 +12981,16 @@
         <v>547</v>
       </c>
       <c r="D78" s="18" t="s">
-        <v>1096</v>
+        <v>1088</v>
       </c>
       <c r="E78" s="18"/>
       <c r="F78" s="6" t="s">
-        <v>783</v>
+        <v>775</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="28" t="s">
-        <v>1109</v>
+        <v>1101</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>626</v>
@@ -12999,16 +12999,16 @@
         <v>88</v>
       </c>
       <c r="D79" s="18" t="s">
-        <v>1096</v>
+        <v>1088</v>
       </c>
       <c r="E79" s="19"/>
       <c r="F79" t="s">
-        <v>784</v>
+        <v>776</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="28" t="s">
-        <v>1110</v>
+        <v>1102</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>626</v>
@@ -13017,16 +13017,16 @@
         <v>549</v>
       </c>
       <c r="D80" s="18" t="s">
-        <v>1075</v>
+        <v>1067</v>
       </c>
       <c r="E80" s="19"/>
       <c r="F80" t="s">
-        <v>785</v>
+        <v>777</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="28" t="s">
-        <v>1111</v>
+        <v>1103</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>626</v>
@@ -13035,16 +13035,16 @@
         <v>548</v>
       </c>
       <c r="D81" s="18" t="s">
-        <v>1096</v>
+        <v>1088</v>
       </c>
       <c r="E81" s="18"/>
       <c r="F81" s="6" t="s">
-        <v>786</v>
+        <v>778</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="28" t="s">
-        <v>1112</v>
+        <v>1104</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>626</v>
@@ -13053,16 +13053,16 @@
         <v>550</v>
       </c>
       <c r="D82" s="18" t="s">
-        <v>1096</v>
+        <v>1088</v>
       </c>
       <c r="E82" s="19"/>
       <c r="F82" t="s">
-        <v>787</v>
+        <v>779</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="28" t="s">
-        <v>1113</v>
+        <v>1105</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>626</v>
@@ -13071,16 +13071,16 @@
         <v>551</v>
       </c>
       <c r="D83" s="18" t="s">
-        <v>1096</v>
+        <v>1088</v>
       </c>
       <c r="E83" s="19"/>
       <c r="F83" t="s">
-        <v>788</v>
+        <v>780</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="28" t="s">
-        <v>1114</v>
+        <v>1106</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>626</v>
@@ -13089,16 +13089,16 @@
         <v>97</v>
       </c>
       <c r="D84" s="18" t="s">
-        <v>1096</v>
+        <v>1088</v>
       </c>
       <c r="E84" s="19"/>
       <c r="F84" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="28" t="s">
-        <v>1115</v>
+        <v>1107</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>626</v>
@@ -13107,16 +13107,16 @@
         <v>98</v>
       </c>
       <c r="D85" s="18" t="s">
-        <v>1096</v>
+        <v>1088</v>
       </c>
       <c r="E85" s="19"/>
       <c r="F85" t="s">
-        <v>790</v>
+        <v>782</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="28" t="s">
-        <v>1116</v>
+        <v>1108</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>626</v>
@@ -13125,32 +13125,32 @@
         <v>104</v>
       </c>
       <c r="D86" s="18" t="s">
-        <v>1075</v>
+        <v>1067</v>
       </c>
       <c r="E86" s="18"/>
       <c r="F86" s="6" t="s">
-        <v>791</v>
+        <v>783</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="28" t="s">
-        <v>1194</v>
+        <v>1186</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>1076</v>
+        <v>1068</v>
       </c>
       <c r="C87" s="18" t="s">
         <v>104</v>
       </c>
       <c r="D87" s="18" t="s">
-        <v>1080</v>
+        <v>1072</v>
       </c>
       <c r="E87" s="18"/>
       <c r="F87" s="6"/>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="28" t="s">
-        <v>1117</v>
+        <v>1109</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>626</v>
@@ -13163,27 +13163,27 @@
       </c>
       <c r="E88" s="26"/>
       <c r="F88" t="s">
-        <v>792</v>
+        <v>784</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="28" t="s">
-        <v>1195</v>
+        <v>1187</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>1076</v>
+        <v>1068</v>
       </c>
       <c r="C89" s="26" t="s">
         <v>552</v>
       </c>
       <c r="D89" s="26" t="s">
-        <v>1080</v>
+        <v>1072</v>
       </c>
       <c r="E89" s="26"/>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="28" t="s">
-        <v>1124</v>
+        <v>1116</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>626</v>
@@ -13192,31 +13192,31 @@
         <v>124</v>
       </c>
       <c r="D90" s="18" t="s">
-        <v>1075</v>
+        <v>1067</v>
       </c>
       <c r="E90" s="19"/>
       <c r="F90" t="s">
-        <v>793</v>
+        <v>785</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="28" t="s">
-        <v>1196</v>
+        <v>1188</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>1076</v>
+        <v>1068</v>
       </c>
       <c r="C91" s="19" t="s">
         <v>124</v>
       </c>
       <c r="D91" s="18" t="s">
-        <v>1080</v>
+        <v>1072</v>
       </c>
       <c r="E91" s="19"/>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="28" t="s">
-        <v>1125</v>
+        <v>1117</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>626</v>
@@ -13225,16 +13225,16 @@
         <v>107</v>
       </c>
       <c r="D92" s="18" t="s">
-        <v>1096</v>
+        <v>1088</v>
       </c>
       <c r="E92" s="19"/>
       <c r="F92" t="s">
-        <v>794</v>
+        <v>786</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="28" t="s">
-        <v>1126</v>
+        <v>1118</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>626</v>
@@ -13243,16 +13243,16 @@
         <v>106</v>
       </c>
       <c r="D93" s="18" t="s">
-        <v>1096</v>
+        <v>1088</v>
       </c>
       <c r="E93" s="19"/>
       <c r="F93" t="s">
-        <v>795</v>
+        <v>787</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="28" t="s">
-        <v>1127</v>
+        <v>1119</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>626</v>
@@ -13261,16 +13261,16 @@
         <v>109</v>
       </c>
       <c r="D94" s="18" t="s">
-        <v>1096</v>
+        <v>1088</v>
       </c>
       <c r="E94" s="18"/>
       <c r="F94" t="s">
-        <v>796</v>
+        <v>788</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="28" t="s">
-        <v>1128</v>
+        <v>1120</v>
       </c>
       <c r="B95" s="3" t="s">
         <v>626</v>
@@ -13279,16 +13279,16 @@
         <v>108</v>
       </c>
       <c r="D95" s="18" t="s">
-        <v>1096</v>
+        <v>1088</v>
       </c>
       <c r="E95" s="19"/>
       <c r="F95" t="s">
-        <v>797</v>
+        <v>789</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="28" t="s">
-        <v>1129</v>
+        <v>1121</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>626</v>
@@ -13297,16 +13297,16 @@
         <v>112</v>
       </c>
       <c r="D96" s="18" t="s">
-        <v>1096</v>
+        <v>1088</v>
       </c>
       <c r="E96" s="19"/>
       <c r="F96" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="28" t="s">
-        <v>1130</v>
+        <v>1122</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>626</v>
@@ -13315,16 +13315,16 @@
         <v>113</v>
       </c>
       <c r="D97" s="18" t="s">
-        <v>1096</v>
+        <v>1088</v>
       </c>
       <c r="E97" s="18"/>
       <c r="F97" s="6" t="s">
-        <v>800</v>
+        <v>792</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="28" t="s">
-        <v>1131</v>
+        <v>1123</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>626</v>
@@ -13333,16 +13333,16 @@
         <v>127</v>
       </c>
       <c r="D98" s="18" t="s">
-        <v>1096</v>
+        <v>1088</v>
       </c>
       <c r="E98" s="19"/>
       <c r="F98" t="s">
-        <v>801</v>
+        <v>793</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="28" t="s">
-        <v>1132</v>
+        <v>1124</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>626</v>
@@ -13351,16 +13351,16 @@
         <v>129</v>
       </c>
       <c r="D99" s="18" t="s">
-        <v>1096</v>
+        <v>1088</v>
       </c>
       <c r="E99" s="18"/>
       <c r="F99" t="s">
-        <v>802</v>
+        <v>794</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="28" t="s">
-        <v>1133</v>
+        <v>1125</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>626</v>
@@ -13369,16 +13369,16 @@
         <v>169</v>
       </c>
       <c r="D100" s="18" t="s">
-        <v>1096</v>
+        <v>1088</v>
       </c>
       <c r="E100" s="19"/>
       <c r="F100" t="s">
-        <v>803</v>
+        <v>795</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="28" t="s">
-        <v>1134</v>
+        <v>1126</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>626</v>
@@ -13387,16 +13387,16 @@
         <v>131</v>
       </c>
       <c r="D101" s="18" t="s">
-        <v>1096</v>
+        <v>1088</v>
       </c>
       <c r="E101" s="18"/>
       <c r="F101" t="s">
-        <v>804</v>
+        <v>796</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="28" t="s">
-        <v>1135</v>
+        <v>1127</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>626</v>
@@ -13405,16 +13405,16 @@
         <v>133</v>
       </c>
       <c r="D102" s="18" t="s">
-        <v>1096</v>
+        <v>1088</v>
       </c>
       <c r="E102" s="19"/>
       <c r="F102" t="s">
-        <v>805</v>
+        <v>797</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="28" t="s">
-        <v>1136</v>
+        <v>1128</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>626</v>
@@ -13423,16 +13423,16 @@
         <v>577</v>
       </c>
       <c r="D103" s="18" t="s">
-        <v>1096</v>
+        <v>1088</v>
       </c>
       <c r="E103" s="26"/>
       <c r="F103" t="s">
-        <v>806</v>
+        <v>798</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="28" t="s">
-        <v>1137</v>
+        <v>1129</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>626</v>
@@ -13441,16 +13441,16 @@
         <v>555</v>
       </c>
       <c r="D104" s="18" t="s">
-        <v>1096</v>
+        <v>1088</v>
       </c>
       <c r="E104" s="26"/>
       <c r="F104" t="s">
-        <v>807</v>
+        <v>799</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="28" t="s">
-        <v>1138</v>
+        <v>1130</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>626</v>
@@ -13459,16 +13459,16 @@
         <v>135</v>
       </c>
       <c r="D105" s="18" t="s">
-        <v>1096</v>
+        <v>1088</v>
       </c>
       <c r="E105" s="19"/>
       <c r="F105" t="s">
-        <v>808</v>
+        <v>800</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="28" t="s">
-        <v>1139</v>
+        <v>1131</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>626</v>
@@ -13477,16 +13477,16 @@
         <v>566</v>
       </c>
       <c r="D106" s="18" t="s">
-        <v>1096</v>
+        <v>1088</v>
       </c>
       <c r="E106" s="19"/>
       <c r="F106" t="s">
-        <v>809</v>
+        <v>801</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="28" t="s">
-        <v>1140</v>
+        <v>1132</v>
       </c>
       <c r="B107" s="3" t="s">
         <v>626</v>
@@ -13495,16 +13495,16 @@
         <v>568</v>
       </c>
       <c r="D107" s="18" t="s">
-        <v>1096</v>
+        <v>1088</v>
       </c>
       <c r="E107" s="19"/>
       <c r="F107" t="s">
-        <v>810</v>
+        <v>802</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="28" t="s">
-        <v>1141</v>
+        <v>1133</v>
       </c>
       <c r="B108" s="3" t="s">
         <v>626</v>
@@ -13513,16 +13513,16 @@
         <v>578</v>
       </c>
       <c r="D108" s="18" t="s">
-        <v>1096</v>
+        <v>1088</v>
       </c>
       <c r="E108" s="19"/>
       <c r="F108" t="s">
-        <v>811</v>
+        <v>803</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="28" t="s">
-        <v>1142</v>
+        <v>1134</v>
       </c>
       <c r="B109" s="3" t="s">
         <v>626</v>
@@ -13531,16 +13531,16 @@
         <v>579</v>
       </c>
       <c r="D109" s="18" t="s">
-        <v>1096</v>
+        <v>1088</v>
       </c>
       <c r="E109" s="19"/>
       <c r="F109" t="s">
-        <v>812</v>
+        <v>804</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="28" t="s">
-        <v>1143</v>
+        <v>1135</v>
       </c>
       <c r="B110" s="3" t="s">
         <v>626</v>
@@ -13549,16 +13549,16 @@
         <v>538</v>
       </c>
       <c r="D110" s="18" t="s">
-        <v>1096</v>
+        <v>1088</v>
       </c>
       <c r="E110" s="26"/>
       <c r="F110" t="s">
-        <v>813</v>
+        <v>805</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="28" t="s">
-        <v>1144</v>
+        <v>1136</v>
       </c>
       <c r="B111" s="3" t="s">
         <v>626</v>
@@ -13567,16 +13567,16 @@
         <v>143</v>
       </c>
       <c r="D111" s="18" t="s">
-        <v>1096</v>
+        <v>1088</v>
       </c>
       <c r="E111" s="19"/>
       <c r="F111" t="s">
-        <v>814</v>
+        <v>806</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="28" t="s">
-        <v>1145</v>
+        <v>1137</v>
       </c>
       <c r="B112" s="3" t="s">
         <v>626</v>
@@ -13585,16 +13585,16 @@
         <v>145</v>
       </c>
       <c r="D112" s="18" t="s">
-        <v>1096</v>
+        <v>1088</v>
       </c>
       <c r="E112" s="19"/>
       <c r="F112" t="s">
-        <v>815</v>
+        <v>807</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="28" t="s">
-        <v>1146</v>
+        <v>1138</v>
       </c>
       <c r="B113" s="3" t="s">
         <v>626</v>
@@ -13603,16 +13603,16 @@
         <v>580</v>
       </c>
       <c r="D113" s="18" t="s">
-        <v>1096</v>
+        <v>1088</v>
       </c>
       <c r="E113" s="26"/>
       <c r="F113" t="s">
-        <v>816</v>
+        <v>808</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="28" t="s">
-        <v>1147</v>
+        <v>1139</v>
       </c>
       <c r="B114" s="3" t="s">
         <v>626</v>
@@ -13621,16 +13621,16 @@
         <v>530</v>
       </c>
       <c r="D114" s="18" t="s">
-        <v>1096</v>
+        <v>1088</v>
       </c>
       <c r="E114" s="19"/>
       <c r="F114" t="s">
-        <v>817</v>
+        <v>809</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="28" t="s">
-        <v>1148</v>
+        <v>1140</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>626</v>
@@ -13639,16 +13639,16 @@
         <v>581</v>
       </c>
       <c r="D115" s="18" t="s">
-        <v>1096</v>
+        <v>1088</v>
       </c>
       <c r="E115" s="26"/>
       <c r="F115" t="s">
-        <v>819</v>
+        <v>811</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="28" t="s">
-        <v>1149</v>
+        <v>1141</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>626</v>
@@ -13657,16 +13657,16 @@
         <v>149</v>
       </c>
       <c r="D116" s="18" t="s">
-        <v>1096</v>
+        <v>1088</v>
       </c>
       <c r="E116" s="19"/>
       <c r="F116" t="s">
-        <v>820</v>
+        <v>812</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="28" t="s">
-        <v>1150</v>
+        <v>1142</v>
       </c>
       <c r="B117" s="3" t="s">
         <v>626</v>
@@ -13675,16 +13675,16 @@
         <v>139</v>
       </c>
       <c r="D117" s="18" t="s">
-        <v>1096</v>
+        <v>1088</v>
       </c>
       <c r="E117" s="19"/>
       <c r="F117" t="s">
-        <v>821</v>
+        <v>813</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118" s="28" t="s">
-        <v>1151</v>
+        <v>1143</v>
       </c>
       <c r="B118" s="3" t="s">
         <v>626</v>
@@ -13693,16 +13693,16 @@
         <v>140</v>
       </c>
       <c r="D118" s="18" t="s">
-        <v>1096</v>
+        <v>1088</v>
       </c>
       <c r="E118" s="26"/>
       <c r="F118" t="s">
-        <v>822</v>
+        <v>814</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119" s="28" t="s">
-        <v>1152</v>
+        <v>1144</v>
       </c>
       <c r="B119" s="3" t="s">
         <v>626</v>
@@ -13711,16 +13711,16 @@
         <v>162</v>
       </c>
       <c r="D119" s="18" t="s">
-        <v>1096</v>
+        <v>1088</v>
       </c>
       <c r="E119" s="19"/>
       <c r="F119" t="s">
-        <v>823</v>
+        <v>815</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120" s="28" t="s">
-        <v>1153</v>
+        <v>1145</v>
       </c>
       <c r="B120" s="3" t="s">
         <v>626</v>
@@ -13729,16 +13729,16 @@
         <v>151</v>
       </c>
       <c r="D120" s="18" t="s">
-        <v>1096</v>
+        <v>1088</v>
       </c>
       <c r="E120" s="19"/>
       <c r="F120" t="s">
-        <v>824</v>
+        <v>816</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="28" t="s">
-        <v>1154</v>
+        <v>1146</v>
       </c>
       <c r="B121" s="3" t="s">
         <v>626</v>
@@ -13747,16 +13747,16 @@
         <v>526</v>
       </c>
       <c r="D121" s="18" t="s">
-        <v>1096</v>
+        <v>1088</v>
       </c>
       <c r="E121" s="26"/>
       <c r="F121" t="s">
-        <v>825</v>
+        <v>817</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="28" t="s">
-        <v>1155</v>
+        <v>1147</v>
       </c>
       <c r="B122" s="3" t="s">
         <v>626</v>
@@ -13765,16 +13765,16 @@
         <v>150</v>
       </c>
       <c r="D122" s="18" t="s">
-        <v>1096</v>
+        <v>1088</v>
       </c>
       <c r="E122" s="19"/>
       <c r="F122" t="s">
-        <v>826</v>
+        <v>818</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="28" t="s">
-        <v>1156</v>
+        <v>1148</v>
       </c>
       <c r="B123" s="3" t="s">
         <v>626</v>
@@ -13783,16 +13783,16 @@
         <v>524</v>
       </c>
       <c r="D123" s="18" t="s">
-        <v>1096</v>
+        <v>1088</v>
       </c>
       <c r="E123" s="19"/>
       <c r="F123" t="s">
-        <v>827</v>
+        <v>819</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="28" t="s">
-        <v>1157</v>
+        <v>1149</v>
       </c>
       <c r="B124" s="3" t="s">
         <v>626</v>
@@ -13801,16 +13801,16 @@
         <v>582</v>
       </c>
       <c r="D124" s="18" t="s">
-        <v>1096</v>
+        <v>1088</v>
       </c>
       <c r="E124" s="26"/>
       <c r="F124" t="s">
-        <v>828</v>
+        <v>820</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="28" t="s">
-        <v>1158</v>
+        <v>1150</v>
       </c>
       <c r="B125" s="3" t="s">
         <v>626</v>
@@ -13819,16 +13819,16 @@
         <v>570</v>
       </c>
       <c r="D125" s="18" t="s">
-        <v>1096</v>
+        <v>1088</v>
       </c>
       <c r="E125" s="26"/>
       <c r="F125" t="s">
-        <v>829</v>
+        <v>821</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="28" t="s">
-        <v>1159</v>
+        <v>1151</v>
       </c>
       <c r="B126" s="3" t="s">
         <v>626</v>
@@ -13837,16 +13837,16 @@
         <v>572</v>
       </c>
       <c r="D126" s="18" t="s">
-        <v>1096</v>
+        <v>1088</v>
       </c>
       <c r="E126" s="19"/>
       <c r="F126" t="s">
-        <v>830</v>
+        <v>822</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="28" t="s">
-        <v>1160</v>
+        <v>1152</v>
       </c>
       <c r="B127" s="3" t="s">
         <v>626</v>
@@ -13855,16 +13855,16 @@
         <v>574</v>
       </c>
       <c r="D127" s="18" t="s">
-        <v>1096</v>
+        <v>1088</v>
       </c>
       <c r="E127" s="19"/>
       <c r="F127" t="s">
-        <v>831</v>
+        <v>823</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128" s="28" t="s">
-        <v>1161</v>
+        <v>1153</v>
       </c>
       <c r="B128" s="3" t="s">
         <v>626</v>
@@ -13873,16 +13873,16 @@
         <v>583</v>
       </c>
       <c r="D128" s="18" t="s">
-        <v>1096</v>
+        <v>1088</v>
       </c>
       <c r="E128" s="26"/>
       <c r="F128" t="s">
-        <v>832</v>
+        <v>824</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129" s="28" t="s">
-        <v>1162</v>
+        <v>1154</v>
       </c>
       <c r="B129" s="3" t="s">
         <v>626</v>
@@ -13891,16 +13891,16 @@
         <v>584</v>
       </c>
       <c r="D129" s="18" t="s">
-        <v>1096</v>
+        <v>1088</v>
       </c>
       <c r="E129" s="26"/>
       <c r="F129" t="s">
-        <v>833</v>
+        <v>825</v>
       </c>
     </row>
     <row r="130" spans="1:6">
       <c r="A130" s="28" t="s">
-        <v>1163</v>
+        <v>1155</v>
       </c>
       <c r="B130" s="3" t="s">
         <v>626</v>
@@ -13909,16 +13909,16 @@
         <v>156</v>
       </c>
       <c r="D130" s="18" t="s">
-        <v>1096</v>
+        <v>1088</v>
       </c>
       <c r="E130" s="19"/>
       <c r="F130" t="s">
-        <v>834</v>
+        <v>826</v>
       </c>
     </row>
     <row r="131" spans="1:6">
       <c r="A131" s="28" t="s">
-        <v>1164</v>
+        <v>1156</v>
       </c>
       <c r="B131" s="3" t="s">
         <v>626</v>
@@ -13927,16 +13927,16 @@
         <v>158</v>
       </c>
       <c r="D131" s="18" t="s">
-        <v>1096</v>
+        <v>1088</v>
       </c>
       <c r="E131" s="19"/>
       <c r="F131" t="s">
-        <v>835</v>
+        <v>827</v>
       </c>
     </row>
     <row r="132" spans="1:6">
       <c r="A132" s="28" t="s">
-        <v>1165</v>
+        <v>1157</v>
       </c>
       <c r="B132" s="3" t="s">
         <v>626</v>
@@ -13945,16 +13945,16 @@
         <v>160</v>
       </c>
       <c r="D132" s="18" t="s">
-        <v>1096</v>
+        <v>1088</v>
       </c>
       <c r="E132" s="18"/>
       <c r="F132" s="6" t="s">
-        <v>836</v>
+        <v>828</v>
       </c>
     </row>
     <row r="133" spans="1:6">
       <c r="A133" s="28" t="s">
-        <v>1166</v>
+        <v>1158</v>
       </c>
       <c r="B133" s="3" t="s">
         <v>626</v>
@@ -13963,29 +13963,29 @@
         <v>594</v>
       </c>
       <c r="D133" s="18" t="s">
-        <v>1096</v>
+        <v>1088</v>
       </c>
       <c r="E133" s="26"/>
       <c r="F133" t="s">
-        <v>837</v>
+        <v>829</v>
       </c>
     </row>
     <row r="134" spans="1:6">
       <c r="A134" s="28" t="s">
-        <v>1186</v>
+        <v>1178</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>1122</v>
+        <v>1114</v>
       </c>
       <c r="C134" s="19"/>
       <c r="D134" s="18" t="s">
-        <v>1123</v>
+        <v>1115</v>
       </c>
       <c r="E134" s="26"/>
     </row>
     <row r="135" spans="1:6">
       <c r="A135" s="28" t="s">
-        <v>1232</v>
+        <v>1224</v>
       </c>
       <c r="B135" s="3" t="s">
         <v>626</v>
@@ -13994,16 +13994,16 @@
         <v>163</v>
       </c>
       <c r="D135" s="18" t="s">
-        <v>1123</v>
+        <v>1115</v>
       </c>
       <c r="E135" s="19"/>
       <c r="F135" t="s">
-        <v>838</v>
+        <v>830</v>
       </c>
     </row>
     <row r="136" spans="1:6">
       <c r="A136" s="28" t="s">
-        <v>1233</v>
+        <v>1225</v>
       </c>
       <c r="B136" s="3" t="s">
         <v>626</v>
@@ -14012,16 +14012,16 @@
         <v>598</v>
       </c>
       <c r="D136" s="18" t="s">
-        <v>1123</v>
+        <v>1115</v>
       </c>
       <c r="E136" s="26"/>
       <c r="F136" t="s">
-        <v>839</v>
+        <v>831</v>
       </c>
     </row>
     <row r="137" spans="1:6">
       <c r="A137" s="28" t="s">
-        <v>1234</v>
+        <v>1226</v>
       </c>
       <c r="B137" s="3" t="s">
         <v>626</v>
@@ -14030,16 +14030,16 @@
         <v>167</v>
       </c>
       <c r="D137" s="18" t="s">
-        <v>1123</v>
+        <v>1115</v>
       </c>
       <c r="E137" s="19"/>
       <c r="F137" t="s">
-        <v>840</v>
+        <v>832</v>
       </c>
     </row>
     <row r="138" spans="1:6">
       <c r="A138" s="28" t="s">
-        <v>1197</v>
+        <v>1189</v>
       </c>
       <c r="B138" s="3" t="s">
         <v>626</v>
@@ -14048,16 +14048,16 @@
         <v>251</v>
       </c>
       <c r="D138" s="18" t="s">
-        <v>1123</v>
+        <v>1115</v>
       </c>
       <c r="E138" s="19"/>
       <c r="F138" t="s">
-        <v>841</v>
+        <v>833</v>
       </c>
     </row>
     <row r="139" spans="1:6">
       <c r="A139" s="28" t="s">
-        <v>1198</v>
+        <v>1190</v>
       </c>
       <c r="B139" s="3" t="s">
         <v>626</v>
@@ -14066,16 +14066,16 @@
         <v>170</v>
       </c>
       <c r="D139" s="18" t="s">
-        <v>1123</v>
+        <v>1115</v>
       </c>
       <c r="E139" s="26"/>
       <c r="F139" t="s">
-        <v>842</v>
+        <v>834</v>
       </c>
     </row>
     <row r="140" spans="1:6">
       <c r="A140" s="28" t="s">
-        <v>1199</v>
+        <v>1191</v>
       </c>
       <c r="B140" s="3" t="s">
         <v>626</v>
@@ -14084,16 +14084,16 @@
         <v>171</v>
       </c>
       <c r="D140" s="18" t="s">
-        <v>1123</v>
+        <v>1115</v>
       </c>
       <c r="E140" s="27"/>
       <c r="F140" t="s">
-        <v>843</v>
+        <v>835</v>
       </c>
     </row>
     <row r="141" spans="1:6">
       <c r="A141" s="28" t="s">
-        <v>1200</v>
+        <v>1192</v>
       </c>
       <c r="B141" s="3" t="s">
         <v>626</v>
@@ -14102,16 +14102,16 @@
         <v>172</v>
       </c>
       <c r="D141" s="18" t="s">
-        <v>1123</v>
+        <v>1115</v>
       </c>
       <c r="E141" s="19"/>
       <c r="F141" t="s">
-        <v>844</v>
+        <v>836</v>
       </c>
     </row>
     <row r="142" spans="1:6">
       <c r="A142" s="28" t="s">
-        <v>1201</v>
+        <v>1193</v>
       </c>
       <c r="B142" s="3" t="s">
         <v>626</v>
@@ -14120,16 +14120,16 @@
         <v>600</v>
       </c>
       <c r="D142" s="18" t="s">
-        <v>1123</v>
+        <v>1115</v>
       </c>
       <c r="E142" s="26"/>
       <c r="F142" t="s">
-        <v>845</v>
+        <v>837</v>
       </c>
     </row>
     <row r="143" spans="1:6">
       <c r="A143" s="28" t="s">
-        <v>1202</v>
+        <v>1194</v>
       </c>
       <c r="B143" s="3" t="s">
         <v>626</v>
@@ -14138,16 +14138,16 @@
         <v>173</v>
       </c>
       <c r="D143" s="18" t="s">
-        <v>1123</v>
+        <v>1115</v>
       </c>
       <c r="E143" s="26"/>
       <c r="F143" t="s">
-        <v>846</v>
+        <v>838</v>
       </c>
     </row>
     <row r="144" spans="1:6">
       <c r="A144" s="28" t="s">
-        <v>1203</v>
+        <v>1195</v>
       </c>
       <c r="B144" s="3" t="s">
         <v>626</v>
@@ -14156,16 +14156,16 @@
         <v>189</v>
       </c>
       <c r="D144" s="18" t="s">
-        <v>1123</v>
+        <v>1115</v>
       </c>
       <c r="E144" s="26"/>
       <c r="F144" t="s">
-        <v>847</v>
+        <v>839</v>
       </c>
     </row>
     <row r="145" spans="1:6">
       <c r="A145" s="28" t="s">
-        <v>1204</v>
+        <v>1196</v>
       </c>
       <c r="B145" s="3" t="s">
         <v>626</v>
@@ -14174,16 +14174,16 @@
         <v>174</v>
       </c>
       <c r="D145" s="18" t="s">
-        <v>1123</v>
+        <v>1115</v>
       </c>
       <c r="E145" s="26"/>
       <c r="F145" t="s">
-        <v>848</v>
+        <v>840</v>
       </c>
     </row>
     <row r="146" spans="1:6">
       <c r="A146" s="28" t="s">
-        <v>1205</v>
+        <v>1197</v>
       </c>
       <c r="B146" s="3" t="s">
         <v>626</v>
@@ -14192,16 +14192,16 @@
         <v>176</v>
       </c>
       <c r="D146" s="18" t="s">
-        <v>1123</v>
+        <v>1115</v>
       </c>
       <c r="E146" s="26"/>
       <c r="F146" t="s">
-        <v>849</v>
+        <v>841</v>
       </c>
     </row>
     <row r="147" spans="1:6">
       <c r="A147" s="28" t="s">
-        <v>1206</v>
+        <v>1198</v>
       </c>
       <c r="B147" s="3" t="s">
         <v>626</v>
@@ -14210,16 +14210,16 @@
         <v>175</v>
       </c>
       <c r="D147" s="18" t="s">
-        <v>1123</v>
+        <v>1115</v>
       </c>
       <c r="E147" s="26"/>
       <c r="F147" t="s">
-        <v>850</v>
+        <v>842</v>
       </c>
     </row>
     <row r="148" spans="1:6">
       <c r="A148" s="28" t="s">
-        <v>1207</v>
+        <v>1199</v>
       </c>
       <c r="B148" s="3" t="s">
         <v>626</v>
@@ -14228,16 +14228,16 @@
         <v>183</v>
       </c>
       <c r="D148" s="18" t="s">
-        <v>1123</v>
+        <v>1115</v>
       </c>
       <c r="E148" s="26"/>
       <c r="F148" t="s">
-        <v>851</v>
+        <v>843</v>
       </c>
     </row>
     <row r="149" spans="1:6">
       <c r="A149" s="28" t="s">
-        <v>1208</v>
+        <v>1200</v>
       </c>
       <c r="B149" s="3" t="s">
         <v>626</v>
@@ -14246,16 +14246,16 @@
         <v>185</v>
       </c>
       <c r="D149" s="18" t="s">
-        <v>1123</v>
+        <v>1115</v>
       </c>
       <c r="E149" s="26"/>
       <c r="F149" t="s">
-        <v>852</v>
+        <v>844</v>
       </c>
     </row>
     <row r="150" spans="1:6">
       <c r="A150" s="28" t="s">
-        <v>1209</v>
+        <v>1201</v>
       </c>
       <c r="B150" s="3" t="s">
         <v>626</v>
@@ -14264,16 +14264,16 @@
         <v>184</v>
       </c>
       <c r="D150" s="18" t="s">
-        <v>1123</v>
+        <v>1115</v>
       </c>
       <c r="E150" s="26"/>
       <c r="F150" t="s">
-        <v>853</v>
+        <v>845</v>
       </c>
     </row>
     <row r="151" spans="1:6">
       <c r="A151" s="28" t="s">
-        <v>1210</v>
+        <v>1202</v>
       </c>
       <c r="B151" s="3" t="s">
         <v>626</v>
@@ -14282,16 +14282,16 @@
         <v>186</v>
       </c>
       <c r="D151" s="18" t="s">
-        <v>1123</v>
+        <v>1115</v>
       </c>
       <c r="E151" s="19"/>
       <c r="F151" t="s">
-        <v>854</v>
+        <v>846</v>
       </c>
     </row>
     <row r="152" spans="1:6">
       <c r="A152" s="28" t="s">
-        <v>1211</v>
+        <v>1203</v>
       </c>
       <c r="B152" s="3" t="s">
         <v>626</v>
@@ -14300,16 +14300,16 @@
         <v>187</v>
       </c>
       <c r="D152" s="18" t="s">
-        <v>1123</v>
+        <v>1115</v>
       </c>
       <c r="E152" s="26"/>
       <c r="F152" t="s">
-        <v>855</v>
+        <v>847</v>
       </c>
     </row>
     <row r="153" spans="1:6">
       <c r="A153" s="28" t="s">
-        <v>1212</v>
+        <v>1204</v>
       </c>
       <c r="B153" s="3" t="s">
         <v>626</v>
@@ -14318,16 +14318,16 @@
         <v>188</v>
       </c>
       <c r="D153" s="18" t="s">
-        <v>1123</v>
+        <v>1115</v>
       </c>
       <c r="E153" s="27"/>
       <c r="F153" t="s">
-        <v>856</v>
+        <v>848</v>
       </c>
     </row>
     <row r="154" spans="1:6">
       <c r="A154" s="28" t="s">
-        <v>1213</v>
+        <v>1205</v>
       </c>
       <c r="B154" s="3" t="s">
         <v>626</v>
@@ -14336,16 +14336,16 @@
         <v>192</v>
       </c>
       <c r="D154" s="18" t="s">
-        <v>1123</v>
+        <v>1115</v>
       </c>
       <c r="E154" s="26"/>
       <c r="F154" t="s">
-        <v>857</v>
+        <v>849</v>
       </c>
     </row>
     <row r="155" spans="1:6">
       <c r="A155" s="28" t="s">
-        <v>1214</v>
+        <v>1206</v>
       </c>
       <c r="B155" s="3" t="s">
         <v>626</v>
@@ -14354,16 +14354,16 @@
         <v>190</v>
       </c>
       <c r="D155" s="18" t="s">
-        <v>1123</v>
+        <v>1115</v>
       </c>
       <c r="E155" s="26"/>
       <c r="F155" t="s">
-        <v>858</v>
+        <v>850</v>
       </c>
     </row>
     <row r="156" spans="1:6">
       <c r="A156" s="28" t="s">
-        <v>1215</v>
+        <v>1207</v>
       </c>
       <c r="B156" s="3" t="s">
         <v>626</v>
@@ -14372,16 +14372,16 @@
         <v>191</v>
       </c>
       <c r="D156" s="18" t="s">
-        <v>1123</v>
+        <v>1115</v>
       </c>
       <c r="E156" s="26"/>
       <c r="F156" t="s">
-        <v>859</v>
+        <v>851</v>
       </c>
     </row>
     <row r="157" spans="1:6">
       <c r="A157" s="28" t="s">
-        <v>1216</v>
+        <v>1208</v>
       </c>
       <c r="B157" s="3" t="s">
         <v>626</v>
@@ -14390,16 +14390,16 @@
         <v>604</v>
       </c>
       <c r="D157" s="18" t="s">
-        <v>1123</v>
+        <v>1115</v>
       </c>
       <c r="E157" s="26"/>
       <c r="F157" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
     </row>
     <row r="158" spans="1:6">
       <c r="A158" s="28" t="s">
-        <v>1217</v>
+        <v>1209</v>
       </c>
       <c r="B158" s="3" t="s">
         <v>626</v>
@@ -14408,16 +14408,16 @@
         <v>602</v>
       </c>
       <c r="D158" s="18" t="s">
-        <v>1123</v>
+        <v>1115</v>
       </c>
       <c r="E158" s="19"/>
       <c r="F158" t="s">
-        <v>861</v>
+        <v>853</v>
       </c>
     </row>
     <row r="159" spans="1:6">
       <c r="A159" s="28" t="s">
-        <v>1218</v>
+        <v>1210</v>
       </c>
       <c r="B159" s="3" t="s">
         <v>626</v>
@@ -14426,16 +14426,16 @@
         <v>205</v>
       </c>
       <c r="D159" s="18" t="s">
-        <v>1123</v>
+        <v>1115</v>
       </c>
       <c r="E159" s="26"/>
       <c r="F159" t="s">
-        <v>862</v>
+        <v>854</v>
       </c>
     </row>
     <row r="160" spans="1:6">
       <c r="A160" s="28" t="s">
-        <v>1219</v>
+        <v>1211</v>
       </c>
       <c r="B160" s="3" t="s">
         <v>626</v>
@@ -14444,16 +14444,16 @@
         <v>206</v>
       </c>
       <c r="D160" s="18" t="s">
-        <v>1123</v>
+        <v>1115</v>
       </c>
       <c r="E160" s="26"/>
       <c r="F160" t="s">
-        <v>863</v>
+        <v>855</v>
       </c>
     </row>
     <row r="161" spans="1:6">
       <c r="A161" s="28" t="s">
-        <v>1220</v>
+        <v>1212</v>
       </c>
       <c r="B161" s="3" t="s">
         <v>626</v>
@@ -14462,16 +14462,16 @@
         <v>207</v>
       </c>
       <c r="D161" s="18" t="s">
-        <v>1123</v>
+        <v>1115</v>
       </c>
       <c r="E161" s="19"/>
       <c r="F161" t="s">
-        <v>864</v>
+        <v>856</v>
       </c>
     </row>
     <row r="162" spans="1:6">
       <c r="A162" s="28" t="s">
-        <v>1221</v>
+        <v>1213</v>
       </c>
       <c r="B162" s="3" t="s">
         <v>626</v>
@@ -14480,16 +14480,16 @@
         <v>208</v>
       </c>
       <c r="D162" s="18" t="s">
-        <v>1123</v>
+        <v>1115</v>
       </c>
       <c r="E162" s="19"/>
       <c r="F162" t="s">
-        <v>865</v>
+        <v>857</v>
       </c>
     </row>
     <row r="163" spans="1:6">
       <c r="A163" s="28" t="s">
-        <v>1222</v>
+        <v>1214</v>
       </c>
       <c r="B163" s="3" t="s">
         <v>626</v>
@@ -14498,16 +14498,16 @@
         <v>209</v>
       </c>
       <c r="D163" s="18" t="s">
-        <v>1123</v>
+        <v>1115</v>
       </c>
       <c r="E163" s="18"/>
       <c r="F163" s="6" t="s">
-        <v>866</v>
+        <v>858</v>
       </c>
     </row>
     <row r="164" spans="1:6">
       <c r="A164" s="28" t="s">
-        <v>1223</v>
+        <v>1215</v>
       </c>
       <c r="B164" s="3" t="s">
         <v>626</v>
@@ -14516,16 +14516,16 @@
         <v>210</v>
       </c>
       <c r="D164" s="18" t="s">
-        <v>1123</v>
+        <v>1115</v>
       </c>
       <c r="E164" s="18"/>
       <c r="F164" s="6" t="s">
-        <v>867</v>
+        <v>859</v>
       </c>
     </row>
     <row r="165" spans="1:6">
       <c r="A165" s="28" t="s">
-        <v>1224</v>
+        <v>1216</v>
       </c>
       <c r="B165" s="3" t="s">
         <v>626</v>
@@ -14534,16 +14534,16 @@
         <v>211</v>
       </c>
       <c r="D165" s="18" t="s">
-        <v>1123</v>
+        <v>1115</v>
       </c>
       <c r="E165" s="26"/>
       <c r="F165" t="s">
-        <v>868</v>
+        <v>860</v>
       </c>
     </row>
     <row r="166" spans="1:6">
       <c r="A166" s="28" t="s">
-        <v>1225</v>
+        <v>1217</v>
       </c>
       <c r="B166" s="3" t="s">
         <v>626</v>
@@ -14552,16 +14552,16 @@
         <v>212</v>
       </c>
       <c r="D166" s="18" t="s">
-        <v>1123</v>
+        <v>1115</v>
       </c>
       <c r="E166" s="27"/>
       <c r="F166" t="s">
-        <v>869</v>
+        <v>861</v>
       </c>
     </row>
     <row r="167" spans="1:6">
       <c r="A167" s="28" t="s">
-        <v>1226</v>
+        <v>1218</v>
       </c>
       <c r="B167" s="3" t="s">
         <v>626</v>
@@ -14570,16 +14570,16 @@
         <v>213</v>
       </c>
       <c r="D167" s="18" t="s">
-        <v>1123</v>
+        <v>1115</v>
       </c>
       <c r="E167" s="26"/>
       <c r="F167" t="s">
-        <v>870</v>
+        <v>862</v>
       </c>
     </row>
     <row r="168" spans="1:6">
       <c r="A168" s="28" t="s">
-        <v>1227</v>
+        <v>1219</v>
       </c>
       <c r="B168" s="3" t="s">
         <v>626</v>
@@ -14588,16 +14588,16 @@
         <v>214</v>
       </c>
       <c r="D168" s="18" t="s">
-        <v>1123</v>
+        <v>1115</v>
       </c>
       <c r="E168" s="26"/>
       <c r="F168" s="6" t="s">
-        <v>871</v>
+        <v>863</v>
       </c>
     </row>
     <row r="169" spans="1:6">
       <c r="A169" s="28" t="s">
-        <v>1228</v>
+        <v>1220</v>
       </c>
       <c r="B169" s="3" t="s">
         <v>626</v>
@@ -14606,16 +14606,16 @@
         <v>215</v>
       </c>
       <c r="D169" s="18" t="s">
-        <v>1123</v>
+        <v>1115</v>
       </c>
       <c r="E169" s="26"/>
       <c r="F169" s="6" t="s">
-        <v>872</v>
+        <v>864</v>
       </c>
     </row>
     <row r="170" spans="1:6">
       <c r="A170" s="28" t="s">
-        <v>1229</v>
+        <v>1221</v>
       </c>
       <c r="B170" s="3" t="s">
         <v>626</v>
@@ -14624,16 +14624,16 @@
         <v>218</v>
       </c>
       <c r="D170" s="18" t="s">
-        <v>1123</v>
+        <v>1115</v>
       </c>
       <c r="E170" s="26"/>
       <c r="F170" s="6" t="s">
-        <v>873</v>
+        <v>865</v>
       </c>
     </row>
     <row r="171" spans="1:6">
       <c r="A171" s="28" t="s">
-        <v>1230</v>
+        <v>1222</v>
       </c>
       <c r="B171" s="3" t="s">
         <v>626</v>
@@ -14642,16 +14642,16 @@
         <v>216</v>
       </c>
       <c r="D171" s="18" t="s">
-        <v>1123</v>
+        <v>1115</v>
       </c>
       <c r="E171" s="26"/>
       <c r="F171" t="s">
-        <v>874</v>
+        <v>866</v>
       </c>
     </row>
     <row r="172" spans="1:6">
       <c r="A172" s="28" t="s">
-        <v>1231</v>
+        <v>1223</v>
       </c>
       <c r="B172" s="3" t="s">
         <v>626</v>
@@ -14660,28 +14660,28 @@
         <v>217</v>
       </c>
       <c r="D172" s="18" t="s">
-        <v>1123</v>
+        <v>1115</v>
       </c>
       <c r="E172" s="26"/>
       <c r="F172" t="s">
-        <v>875</v>
+        <v>867</v>
       </c>
     </row>
     <row r="173" spans="1:6">
       <c r="A173" s="28" t="s">
-        <v>1187</v>
+        <v>1179</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>1122</v>
+        <v>1114</v>
       </c>
       <c r="D173" s="26" t="s">
-        <v>1174</v>
+        <v>1166</v>
       </c>
       <c r="E173" s="26"/>
     </row>
     <row r="174" spans="1:6">
       <c r="A174" s="28" t="s">
-        <v>1235</v>
+        <v>1227</v>
       </c>
       <c r="B174" s="3" t="s">
         <v>626</v>
@@ -14690,16 +14690,16 @@
         <v>233</v>
       </c>
       <c r="D174" s="26" t="s">
-        <v>1174</v>
+        <v>1166</v>
       </c>
       <c r="E174" s="26"/>
       <c r="F174" t="s">
-        <v>876</v>
+        <v>868</v>
       </c>
     </row>
     <row r="175" spans="1:6">
       <c r="A175" s="28" t="s">
-        <v>1237</v>
+        <v>1229</v>
       </c>
       <c r="B175" s="3" t="s">
         <v>626</v>
@@ -14708,16 +14708,16 @@
         <v>606</v>
       </c>
       <c r="D175" s="26" t="s">
-        <v>1174</v>
+        <v>1166</v>
       </c>
       <c r="E175" s="26"/>
       <c r="F175" t="s">
-        <v>877</v>
+        <v>869</v>
       </c>
     </row>
     <row r="176" spans="1:6">
       <c r="A176" s="28" t="s">
-        <v>1236</v>
+        <v>1228</v>
       </c>
       <c r="B176" s="3" t="s">
         <v>626</v>
@@ -14726,29 +14726,29 @@
         <v>608</v>
       </c>
       <c r="D176" s="26" t="s">
-        <v>1174</v>
+        <v>1166</v>
       </c>
       <c r="E176" s="27"/>
       <c r="F176" t="s">
-        <v>878</v>
+        <v>870</v>
       </c>
     </row>
     <row r="177" spans="1:6">
       <c r="A177" s="28" t="s">
-        <v>1188</v>
+        <v>1180</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>1122</v>
+        <v>1114</v>
       </c>
       <c r="C177" s="27"/>
       <c r="D177" s="27" t="s">
-        <v>1175</v>
+        <v>1167</v>
       </c>
       <c r="E177" s="27"/>
     </row>
     <row r="178" spans="1:6">
       <c r="A178" s="28" t="s">
-        <v>1238</v>
+        <v>1230</v>
       </c>
       <c r="B178" s="3" t="s">
         <v>626</v>
@@ -14757,16 +14757,16 @@
         <v>534</v>
       </c>
       <c r="D178" s="27" t="s">
-        <v>1175</v>
+        <v>1167</v>
       </c>
       <c r="E178" s="26"/>
       <c r="F178" t="s">
-        <v>879</v>
+        <v>871</v>
       </c>
     </row>
     <row r="179" spans="1:6">
       <c r="A179" s="28" t="s">
-        <v>1239</v>
+        <v>1231</v>
       </c>
       <c r="B179" s="3" t="s">
         <v>626</v>
@@ -14775,16 +14775,16 @@
         <v>235</v>
       </c>
       <c r="D179" s="27" t="s">
-        <v>1175</v>
+        <v>1167</v>
       </c>
       <c r="E179" s="26"/>
       <c r="F179" t="s">
-        <v>880</v>
+        <v>872</v>
       </c>
     </row>
     <row r="180" spans="1:6">
       <c r="A180" s="28" t="s">
-        <v>1240</v>
+        <v>1232</v>
       </c>
       <c r="B180" s="3" t="s">
         <v>626</v>
@@ -14793,16 +14793,16 @@
         <v>237</v>
       </c>
       <c r="D180" s="27" t="s">
-        <v>1175</v>
+        <v>1167</v>
       </c>
       <c r="E180" s="19"/>
       <c r="F180" t="s">
-        <v>881</v>
+        <v>873</v>
       </c>
     </row>
     <row r="181" spans="1:6">
       <c r="A181" s="28" t="s">
-        <v>1241</v>
+        <v>1233</v>
       </c>
       <c r="B181" s="3" t="s">
         <v>626</v>
@@ -14811,16 +14811,16 @@
         <v>610</v>
       </c>
       <c r="D181" s="27" t="s">
-        <v>1175</v>
+        <v>1167</v>
       </c>
       <c r="E181" s="18"/>
       <c r="F181" t="s">
-        <v>882</v>
+        <v>874</v>
       </c>
     </row>
     <row r="182" spans="1:6">
       <c r="A182" s="28" t="s">
-        <v>1242</v>
+        <v>1234</v>
       </c>
       <c r="B182" s="3" t="s">
         <v>626</v>
@@ -14829,16 +14829,16 @@
         <v>241</v>
       </c>
       <c r="D182" s="27" t="s">
-        <v>1175</v>
+        <v>1167</v>
       </c>
       <c r="E182" s="26"/>
       <c r="F182" t="s">
-        <v>883</v>
+        <v>875</v>
       </c>
     </row>
     <row r="183" spans="1:6">
       <c r="A183" s="28" t="s">
-        <v>1243</v>
+        <v>1235</v>
       </c>
       <c r="B183" s="3" t="s">
         <v>626</v>
@@ -14847,16 +14847,16 @@
         <v>243</v>
       </c>
       <c r="D183" s="27" t="s">
-        <v>1175</v>
+        <v>1167</v>
       </c>
       <c r="E183" s="19"/>
       <c r="F183" t="s">
-        <v>884</v>
+        <v>876</v>
       </c>
     </row>
     <row r="184" spans="1:6">
       <c r="A184" s="28" t="s">
-        <v>1244</v>
+        <v>1236</v>
       </c>
       <c r="B184" s="3" t="s">
         <v>626</v>
@@ -14865,16 +14865,16 @@
         <v>255</v>
       </c>
       <c r="D184" s="27" t="s">
-        <v>1175</v>
+        <v>1167</v>
       </c>
       <c r="E184" s="26"/>
       <c r="F184" t="s">
-        <v>885</v>
+        <v>877</v>
       </c>
     </row>
     <row r="185" spans="1:6">
       <c r="A185" s="28" t="s">
-        <v>1245</v>
+        <v>1237</v>
       </c>
       <c r="B185" s="3" t="s">
         <v>626</v>
@@ -14883,16 +14883,16 @@
         <v>245</v>
       </c>
       <c r="D185" s="27" t="s">
-        <v>1175</v>
+        <v>1167</v>
       </c>
       <c r="E185" s="19"/>
       <c r="F185" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="186" spans="1:6">
       <c r="A186" s="28" t="s">
-        <v>1246</v>
+        <v>1238</v>
       </c>
       <c r="B186" s="3" t="s">
         <v>626</v>
@@ -14901,16 +14901,16 @@
         <v>246</v>
       </c>
       <c r="D186" s="27" t="s">
-        <v>1175</v>
+        <v>1167</v>
       </c>
       <c r="E186" s="19"/>
       <c r="F186" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
     </row>
     <row r="187" spans="1:6">
       <c r="A187" s="28" t="s">
-        <v>1247</v>
+        <v>1239</v>
       </c>
       <c r="B187" s="3" t="s">
         <v>626</v>
@@ -14919,16 +14919,16 @@
         <v>249</v>
       </c>
       <c r="D187" s="27" t="s">
-        <v>1175</v>
+        <v>1167</v>
       </c>
       <c r="E187" s="27"/>
       <c r="F187" t="s">
-        <v>888</v>
+        <v>880</v>
       </c>
     </row>
     <row r="188" spans="1:6">
       <c r="A188" s="28" t="s">
-        <v>1248</v>
+        <v>1240</v>
       </c>
       <c r="B188" s="3" t="s">
         <v>626</v>
@@ -14937,16 +14937,16 @@
         <v>253</v>
       </c>
       <c r="D188" s="27" t="s">
-        <v>1175</v>
+        <v>1167</v>
       </c>
       <c r="E188" s="19"/>
       <c r="F188" t="s">
-        <v>889</v>
+        <v>881</v>
       </c>
     </row>
     <row r="189" spans="1:6">
       <c r="A189" s="28" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
       <c r="B189" s="3" t="s">
         <v>626</v>
@@ -14955,16 +14955,16 @@
         <v>239</v>
       </c>
       <c r="D189" s="27" t="s">
-        <v>1175</v>
+        <v>1167</v>
       </c>
       <c r="E189" s="18"/>
       <c r="F189" t="s">
-        <v>890</v>
+        <v>882</v>
       </c>
     </row>
     <row r="190" spans="1:6">
       <c r="A190" s="28" t="s">
-        <v>1250</v>
+        <v>1242</v>
       </c>
       <c r="B190" s="3" t="s">
         <v>626</v>
@@ -14973,16 +14973,16 @@
         <v>256</v>
       </c>
       <c r="D190" s="27" t="s">
-        <v>1175</v>
+        <v>1167</v>
       </c>
       <c r="E190" s="19"/>
       <c r="F190" t="s">
-        <v>891</v>
+        <v>883</v>
       </c>
     </row>
     <row r="191" spans="1:6">
       <c r="A191" s="28" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
       <c r="B191" s="3" t="s">
         <v>626</v>
@@ -14991,16 +14991,16 @@
         <v>257</v>
       </c>
       <c r="D191" s="27" t="s">
-        <v>1175</v>
+        <v>1167</v>
       </c>
       <c r="E191" s="19"/>
       <c r="F191" t="s">
-        <v>892</v>
+        <v>884</v>
       </c>
     </row>
     <row r="192" spans="1:6">
       <c r="A192" s="28" t="s">
-        <v>1252</v>
+        <v>1244</v>
       </c>
       <c r="B192" s="3" t="s">
         <v>626</v>
@@ -15009,16 +15009,16 @@
         <v>258</v>
       </c>
       <c r="D192" s="27" t="s">
-        <v>1175</v>
+        <v>1167</v>
       </c>
       <c r="E192" s="19"/>
       <c r="F192" t="s">
-        <v>893</v>
+        <v>885</v>
       </c>
     </row>
     <row r="193" spans="1:6">
       <c r="A193" s="28" t="s">
-        <v>1253</v>
+        <v>1245</v>
       </c>
       <c r="B193" s="3" t="s">
         <v>626</v>
@@ -15027,16 +15027,16 @@
         <v>612</v>
       </c>
       <c r="D193" s="27" t="s">
-        <v>1175</v>
+        <v>1167</v>
       </c>
       <c r="E193" s="26"/>
       <c r="F193" t="s">
-        <v>894</v>
+        <v>886</v>
       </c>
     </row>
     <row r="194" spans="1:6">
       <c r="A194" s="28" t="s">
-        <v>1254</v>
+        <v>1246</v>
       </c>
       <c r="B194" s="3" t="s">
         <v>626</v>
@@ -15045,16 +15045,16 @@
         <v>614</v>
       </c>
       <c r="D194" s="27" t="s">
-        <v>1175</v>
+        <v>1167</v>
       </c>
       <c r="E194" s="19"/>
       <c r="F194" t="s">
-        <v>895</v>
+        <v>887</v>
       </c>
     </row>
     <row r="195" spans="1:6">
       <c r="A195" s="28" t="s">
-        <v>1255</v>
+        <v>1247</v>
       </c>
       <c r="B195" s="3" t="s">
         <v>626</v>
@@ -15063,16 +15063,16 @@
         <v>259</v>
       </c>
       <c r="D195" s="27" t="s">
-        <v>1175</v>
+        <v>1167</v>
       </c>
       <c r="E195" s="19"/>
       <c r="F195" t="s">
-        <v>896</v>
+        <v>888</v>
       </c>
     </row>
     <row r="196" spans="1:6">
       <c r="A196" s="28" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
       <c r="B196" s="3" t="s">
         <v>626</v>
@@ -15081,31 +15081,31 @@
         <v>265</v>
       </c>
       <c r="D196" s="27" t="s">
-        <v>1174</v>
+        <v>1166</v>
       </c>
       <c r="E196" s="18"/>
       <c r="F196" t="s">
-        <v>897</v>
+        <v>889</v>
       </c>
     </row>
     <row r="197" spans="1:6">
       <c r="A197" s="28" t="s">
-        <v>1261</v>
+        <v>1253</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>1076</v>
+        <v>1068</v>
       </c>
       <c r="C197" s="18" t="s">
         <v>265</v>
       </c>
       <c r="D197" s="27" t="s">
-        <v>1080</v>
+        <v>1072</v>
       </c>
       <c r="E197" s="18"/>
     </row>
     <row r="198" spans="1:6">
       <c r="A198" s="28" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
       <c r="B198" s="3" t="s">
         <v>626</v>
@@ -15114,16 +15114,16 @@
         <v>269</v>
       </c>
       <c r="D198" s="27" t="s">
-        <v>1175</v>
+        <v>1167</v>
       </c>
       <c r="E198" s="19"/>
       <c r="F198" t="s">
-        <v>898</v>
+        <v>890</v>
       </c>
     </row>
     <row r="199" spans="1:6">
       <c r="A199" s="28" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
       <c r="B199" s="3" t="s">
         <v>626</v>
@@ -15132,16 +15132,16 @@
         <v>267</v>
       </c>
       <c r="D199" s="27" t="s">
-        <v>1175</v>
+        <v>1167</v>
       </c>
       <c r="E199" s="26"/>
       <c r="F199" t="s">
-        <v>899</v>
+        <v>891</v>
       </c>
     </row>
     <row r="200" spans="1:6">
       <c r="A200" s="28" t="s">
-        <v>1259</v>
+        <v>1251</v>
       </c>
       <c r="B200" s="3" t="s">
         <v>626</v>
@@ -15150,16 +15150,16 @@
         <v>271</v>
       </c>
       <c r="D200" s="27" t="s">
-        <v>1175</v>
+        <v>1167</v>
       </c>
       <c r="E200" s="19"/>
       <c r="F200" t="s">
-        <v>900</v>
+        <v>892</v>
       </c>
     </row>
     <row r="201" spans="1:6">
       <c r="A201" s="28" t="s">
-        <v>1260</v>
+        <v>1252</v>
       </c>
       <c r="B201" s="3" t="s">
         <v>626</v>
@@ -15168,29 +15168,29 @@
         <v>616</v>
       </c>
       <c r="D201" s="27" t="s">
-        <v>1175</v>
+        <v>1167</v>
       </c>
       <c r="E201" s="26"/>
       <c r="F201" t="s">
-        <v>901</v>
+        <v>893</v>
       </c>
     </row>
     <row r="202" spans="1:6">
       <c r="A202" s="28" t="s">
-        <v>1189</v>
+        <v>1181</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>1122</v>
+        <v>1114</v>
       </c>
       <c r="C202" s="26"/>
       <c r="D202" s="26" t="s">
-        <v>1176</v>
+        <v>1168</v>
       </c>
       <c r="E202" s="26"/>
     </row>
     <row r="203" spans="1:6">
       <c r="A203" s="28" t="s">
-        <v>1262</v>
+        <v>1254</v>
       </c>
       <c r="B203" s="3" t="s">
         <v>626</v>
@@ -15199,16 +15199,16 @@
         <v>272</v>
       </c>
       <c r="D203" s="26" t="s">
-        <v>1176</v>
+        <v>1168</v>
       </c>
       <c r="E203" s="19"/>
       <c r="F203" t="s">
-        <v>902</v>
+        <v>894</v>
       </c>
     </row>
     <row r="204" spans="1:6">
       <c r="A204" s="28" t="s">
-        <v>1263</v>
+        <v>1255</v>
       </c>
       <c r="B204" s="3" t="s">
         <v>626</v>
@@ -15217,16 +15217,16 @@
         <v>273</v>
       </c>
       <c r="D204" s="26" t="s">
-        <v>1176</v>
+        <v>1168</v>
       </c>
       <c r="E204" s="26"/>
       <c r="F204" t="s">
-        <v>903</v>
+        <v>895</v>
       </c>
     </row>
     <row r="205" spans="1:6">
       <c r="A205" s="28" t="s">
-        <v>1264</v>
+        <v>1256</v>
       </c>
       <c r="B205" s="3" t="s">
         <v>626</v>
@@ -15235,16 +15235,16 @@
         <v>274</v>
       </c>
       <c r="D205" s="26" t="s">
-        <v>1176</v>
+        <v>1168</v>
       </c>
       <c r="E205" s="26"/>
       <c r="F205" t="s">
-        <v>904</v>
+        <v>896</v>
       </c>
     </row>
     <row r="206" spans="1:6">
       <c r="A206" s="28" t="s">
-        <v>1265</v>
+        <v>1257</v>
       </c>
       <c r="B206" s="3" t="s">
         <v>626</v>
@@ -15253,16 +15253,16 @@
         <v>275</v>
       </c>
       <c r="D206" s="26" t="s">
-        <v>1176</v>
+        <v>1168</v>
       </c>
       <c r="E206" s="19"/>
       <c r="F206" t="s">
-        <v>905</v>
+        <v>897</v>
       </c>
     </row>
     <row r="207" spans="1:6">
       <c r="A207" s="28" t="s">
-        <v>1266</v>
+        <v>1258</v>
       </c>
       <c r="B207" s="3" t="s">
         <v>626</v>
@@ -15271,16 +15271,16 @@
         <v>276</v>
       </c>
       <c r="D207" s="26" t="s">
-        <v>1176</v>
+        <v>1168</v>
       </c>
       <c r="E207" s="19"/>
       <c r="F207" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
     </row>
     <row r="208" spans="1:6">
       <c r="A208" s="28" t="s">
-        <v>1267</v>
+        <v>1259</v>
       </c>
       <c r="B208" s="3" t="s">
         <v>626</v>
@@ -15289,16 +15289,16 @@
         <v>277</v>
       </c>
       <c r="D208" s="26" t="s">
-        <v>1176</v>
+        <v>1168</v>
       </c>
       <c r="E208" s="26"/>
       <c r="F208" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
     </row>
     <row r="209" spans="1:6">
       <c r="A209" s="28" t="s">
-        <v>1268</v>
+        <v>1260</v>
       </c>
       <c r="B209" s="3" t="s">
         <v>626</v>
@@ -15307,16 +15307,16 @@
         <v>285</v>
       </c>
       <c r="D209" s="26" t="s">
-        <v>1176</v>
+        <v>1168</v>
       </c>
       <c r="E209" s="26"/>
       <c r="F209" t="s">
-        <v>908</v>
+        <v>900</v>
       </c>
     </row>
     <row r="210" spans="1:6">
       <c r="A210" s="28" t="s">
-        <v>1269</v>
+        <v>1261</v>
       </c>
       <c r="B210" s="3" t="s">
         <v>626</v>
@@ -15325,16 +15325,16 @@
         <v>286</v>
       </c>
       <c r="D210" s="26" t="s">
-        <v>1176</v>
+        <v>1168</v>
       </c>
       <c r="E210" s="19"/>
       <c r="F210" t="s">
-        <v>909</v>
+        <v>901</v>
       </c>
     </row>
     <row r="211" spans="1:6">
       <c r="A211" s="28" t="s">
-        <v>1270</v>
+        <v>1262</v>
       </c>
       <c r="B211" s="3" t="s">
         <v>626</v>
@@ -15343,16 +15343,16 @@
         <v>287</v>
       </c>
       <c r="D211" s="26" t="s">
-        <v>1176</v>
+        <v>1168</v>
       </c>
       <c r="E211" s="26"/>
       <c r="F211" t="s">
-        <v>910</v>
+        <v>902</v>
       </c>
     </row>
     <row r="212" spans="1:6">
       <c r="A212" s="28" t="s">
-        <v>1271</v>
+        <v>1263</v>
       </c>
       <c r="B212" s="3" t="s">
         <v>626</v>
@@ -15361,16 +15361,16 @@
         <v>288</v>
       </c>
       <c r="D212" s="26" t="s">
-        <v>1176</v>
+        <v>1168</v>
       </c>
       <c r="E212" s="19"/>
       <c r="F212" t="s">
-        <v>911</v>
+        <v>903</v>
       </c>
     </row>
     <row r="213" spans="1:6">
       <c r="A213" s="28" t="s">
-        <v>1272</v>
+        <v>1264</v>
       </c>
       <c r="B213" s="3" t="s">
         <v>626</v>
@@ -15379,16 +15379,16 @@
         <v>289</v>
       </c>
       <c r="D213" s="26" t="s">
-        <v>1176</v>
+        <v>1168</v>
       </c>
       <c r="E213" s="26"/>
       <c r="F213" t="s">
-        <v>912</v>
+        <v>904</v>
       </c>
     </row>
     <row r="214" spans="1:6">
       <c r="A214" s="28" t="s">
-        <v>1273</v>
+        <v>1265</v>
       </c>
       <c r="B214" s="3" t="s">
         <v>626</v>
@@ -15397,16 +15397,16 @@
         <v>290</v>
       </c>
       <c r="D214" s="26" t="s">
-        <v>1176</v>
+        <v>1168</v>
       </c>
       <c r="E214" s="19"/>
       <c r="F214" t="s">
-        <v>913</v>
+        <v>905</v>
       </c>
     </row>
     <row r="215" spans="1:6">
       <c r="A215" s="28" t="s">
-        <v>1274</v>
+        <v>1266</v>
       </c>
       <c r="B215" s="3" t="s">
         <v>626</v>
@@ -15415,16 +15415,16 @@
         <v>291</v>
       </c>
       <c r="D215" s="26" t="s">
-        <v>1175</v>
+        <v>1167</v>
       </c>
       <c r="E215" s="19"/>
       <c r="F215" t="s">
-        <v>914</v>
+        <v>906</v>
       </c>
     </row>
     <row r="216" spans="1:6">
       <c r="A216" s="28" t="s">
-        <v>1275</v>
+        <v>1267</v>
       </c>
       <c r="B216" s="3" t="s">
         <v>626</v>
@@ -15433,16 +15433,16 @@
         <v>293</v>
       </c>
       <c r="D216" s="26" t="s">
-        <v>1175</v>
+        <v>1167</v>
       </c>
       <c r="E216" s="26"/>
       <c r="F216" t="s">
-        <v>915</v>
+        <v>907</v>
       </c>
     </row>
     <row r="217" spans="1:6">
       <c r="A217" s="28" t="s">
-        <v>1276</v>
+        <v>1268</v>
       </c>
       <c r="B217" s="3" t="s">
         <v>626</v>
@@ -15451,16 +15451,16 @@
         <v>292</v>
       </c>
       <c r="D217" s="26" t="s">
-        <v>1176</v>
+        <v>1168</v>
       </c>
       <c r="E217" s="19"/>
       <c r="F217" t="s">
-        <v>916</v>
+        <v>908</v>
       </c>
     </row>
     <row r="218" spans="1:6">
       <c r="A218" s="28" t="s">
-        <v>1277</v>
+        <v>1269</v>
       </c>
       <c r="B218" s="3" t="s">
         <v>626</v>
@@ -15469,16 +15469,16 @@
         <v>296</v>
       </c>
       <c r="D218" s="26" t="s">
-        <v>1176</v>
+        <v>1168</v>
       </c>
       <c r="E218" s="26"/>
       <c r="F218" t="s">
-        <v>917</v>
+        <v>909</v>
       </c>
     </row>
     <row r="219" spans="1:6">
       <c r="A219" s="28" t="s">
-        <v>1278</v>
+        <v>1270</v>
       </c>
       <c r="B219" s="3" t="s">
         <v>626</v>
@@ -15487,16 +15487,16 @@
         <v>295</v>
       </c>
       <c r="D219" s="26" t="s">
-        <v>1176</v>
+        <v>1168</v>
       </c>
       <c r="E219" s="26"/>
       <c r="F219" t="s">
-        <v>918</v>
+        <v>910</v>
       </c>
     </row>
     <row r="220" spans="1:6">
       <c r="A220" s="28" t="s">
-        <v>1279</v>
+        <v>1271</v>
       </c>
       <c r="B220" s="3" t="s">
         <v>626</v>
@@ -15505,16 +15505,16 @@
         <v>294</v>
       </c>
       <c r="D220" s="26" t="s">
-        <v>1176</v>
+        <v>1168</v>
       </c>
       <c r="E220" s="27"/>
       <c r="F220" t="s">
-        <v>919</v>
+        <v>911</v>
       </c>
     </row>
     <row r="221" spans="1:6">
       <c r="A221" s="28" t="s">
-        <v>1280</v>
+        <v>1272</v>
       </c>
       <c r="B221" s="3" t="s">
         <v>626</v>
@@ -15523,16 +15523,16 @@
         <v>297</v>
       </c>
       <c r="D221" s="26" t="s">
-        <v>1176</v>
+        <v>1168</v>
       </c>
       <c r="E221" s="19"/>
       <c r="F221" t="s">
-        <v>920</v>
+        <v>912</v>
       </c>
     </row>
     <row r="222" spans="1:6">
       <c r="A222" s="28" t="s">
-        <v>1281</v>
+        <v>1273</v>
       </c>
       <c r="B222" s="3" t="s">
         <v>626</v>
@@ -15541,16 +15541,16 @@
         <v>298</v>
       </c>
       <c r="D222" s="26" t="s">
-        <v>1176</v>
+        <v>1168</v>
       </c>
       <c r="E222" s="19"/>
       <c r="F222" t="s">
-        <v>921</v>
+        <v>913</v>
       </c>
     </row>
     <row r="223" spans="1:6">
       <c r="A223" s="28" t="s">
-        <v>1282</v>
+        <v>1274</v>
       </c>
       <c r="B223" s="3" t="s">
         <v>626</v>
@@ -15559,16 +15559,16 @@
         <v>299</v>
       </c>
       <c r="D223" s="26" t="s">
-        <v>1176</v>
+        <v>1168</v>
       </c>
       <c r="E223" s="19"/>
       <c r="F223" t="s">
-        <v>1301</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="224" spans="1:6">
       <c r="A224" s="28" t="s">
-        <v>1283</v>
+        <v>1275</v>
       </c>
       <c r="B224" s="3" t="s">
         <v>626</v>
@@ -15577,16 +15577,16 @@
         <v>300</v>
       </c>
       <c r="D224" s="26" t="s">
-        <v>1176</v>
+        <v>1168</v>
       </c>
       <c r="E224" s="19"/>
       <c r="F224" t="s">
-        <v>922</v>
+        <v>914</v>
       </c>
     </row>
     <row r="225" spans="1:6">
       <c r="A225" s="28" t="s">
-        <v>1284</v>
+        <v>1276</v>
       </c>
       <c r="B225" s="3" t="s">
         <v>626</v>
@@ -15595,16 +15595,16 @@
         <v>301</v>
       </c>
       <c r="D225" s="26" t="s">
-        <v>1175</v>
+        <v>1167</v>
       </c>
       <c r="E225" s="19"/>
       <c r="F225" t="s">
-        <v>923</v>
+        <v>915</v>
       </c>
     </row>
     <row r="226" spans="1:6">
       <c r="A226" s="28" t="s">
-        <v>1285</v>
+        <v>1277</v>
       </c>
       <c r="B226" s="3" t="s">
         <v>626</v>
@@ -15613,16 +15613,16 @@
         <v>344</v>
       </c>
       <c r="D226" s="26" t="s">
-        <v>1176</v>
+        <v>1168</v>
       </c>
       <c r="E226" s="26"/>
       <c r="F226" t="s">
-        <v>924</v>
+        <v>916</v>
       </c>
     </row>
     <row r="227" spans="1:6">
       <c r="A227" s="28" t="s">
-        <v>1286</v>
+        <v>1278</v>
       </c>
       <c r="B227" s="3" t="s">
         <v>626</v>
@@ -15631,16 +15631,16 @@
         <v>302</v>
       </c>
       <c r="D227" s="26" t="s">
-        <v>1175</v>
+        <v>1167</v>
       </c>
       <c r="E227" s="19"/>
       <c r="F227" t="s">
-        <v>925</v>
+        <v>917</v>
       </c>
     </row>
     <row r="228" spans="1:6">
       <c r="A228" s="28" t="s">
-        <v>1287</v>
+        <v>1279</v>
       </c>
       <c r="B228" s="3" t="s">
         <v>626</v>
@@ -15649,16 +15649,16 @@
         <v>320</v>
       </c>
       <c r="D228" s="26" t="s">
-        <v>1175</v>
+        <v>1167</v>
       </c>
       <c r="E228" s="19"/>
       <c r="F228" t="s">
-        <v>926</v>
+        <v>918</v>
       </c>
     </row>
     <row r="229" spans="1:6">
       <c r="A229" s="28" t="s">
-        <v>1288</v>
+        <v>1280</v>
       </c>
       <c r="B229" s="3" t="s">
         <v>626</v>
@@ -15667,16 +15667,16 @@
         <v>321</v>
       </c>
       <c r="D229" s="26" t="s">
-        <v>1175</v>
+        <v>1167</v>
       </c>
       <c r="E229" s="26"/>
       <c r="F229" t="s">
-        <v>927</v>
+        <v>919</v>
       </c>
     </row>
     <row r="230" spans="1:6">
       <c r="A230" s="28" t="s">
-        <v>1289</v>
+        <v>1281</v>
       </c>
       <c r="B230" s="3" t="s">
         <v>626</v>
@@ -15685,16 +15685,16 @@
         <v>322</v>
       </c>
       <c r="D230" s="26" t="s">
-        <v>1176</v>
+        <v>1168</v>
       </c>
       <c r="E230" s="19"/>
       <c r="F230" t="s">
-        <v>928</v>
+        <v>920</v>
       </c>
     </row>
     <row r="231" spans="1:6">
       <c r="A231" s="28" t="s">
-        <v>1290</v>
+        <v>1282</v>
       </c>
       <c r="B231" s="3" t="s">
         <v>626</v>
@@ -15703,16 +15703,16 @@
         <v>518</v>
       </c>
       <c r="D231" s="26" t="s">
-        <v>1176</v>
+        <v>1168</v>
       </c>
       <c r="E231" s="26"/>
       <c r="F231" s="6" t="s">
-        <v>929</v>
+        <v>921</v>
       </c>
     </row>
     <row r="232" spans="1:6">
       <c r="A232" s="28" t="s">
-        <v>1291</v>
+        <v>1283</v>
       </c>
       <c r="B232" s="3" t="s">
         <v>626</v>
@@ -15721,16 +15721,16 @@
         <v>520</v>
       </c>
       <c r="D232" s="26" t="s">
-        <v>1176</v>
+        <v>1168</v>
       </c>
       <c r="E232" s="26"/>
       <c r="F232" s="6" t="s">
-        <v>930</v>
+        <v>922</v>
       </c>
     </row>
     <row r="233" spans="1:6">
       <c r="A233" s="28" t="s">
-        <v>1292</v>
+        <v>1284</v>
       </c>
       <c r="B233" s="3" t="s">
         <v>626</v>
@@ -15739,16 +15739,16 @@
         <v>323</v>
       </c>
       <c r="D233" s="26" t="s">
-        <v>1176</v>
+        <v>1168</v>
       </c>
       <c r="E233" s="19"/>
       <c r="F233" t="s">
-        <v>931</v>
+        <v>923</v>
       </c>
     </row>
     <row r="234" spans="1:6">
       <c r="A234" s="28" t="s">
-        <v>1293</v>
+        <v>1285</v>
       </c>
       <c r="B234" s="3" t="s">
         <v>626</v>
@@ -15757,16 +15757,16 @@
         <v>324</v>
       </c>
       <c r="D234" s="26" t="s">
-        <v>1175</v>
+        <v>1167</v>
       </c>
       <c r="E234" s="19"/>
       <c r="F234" t="s">
-        <v>932</v>
+        <v>924</v>
       </c>
     </row>
     <row r="235" spans="1:6">
       <c r="A235" s="28" t="s">
-        <v>1294</v>
+        <v>1286</v>
       </c>
       <c r="B235" s="3" t="s">
         <v>626</v>
@@ -15775,16 +15775,16 @@
         <v>532</v>
       </c>
       <c r="D235" s="26" t="s">
-        <v>1175</v>
+        <v>1167</v>
       </c>
       <c r="E235" s="19"/>
       <c r="F235" t="s">
-        <v>933</v>
+        <v>925</v>
       </c>
     </row>
     <row r="236" spans="1:6">
       <c r="A236" s="28" t="s">
-        <v>1295</v>
+        <v>1287</v>
       </c>
       <c r="B236" s="3" t="s">
         <v>626</v>
@@ -15793,16 +15793,16 @@
         <v>326</v>
       </c>
       <c r="D236" s="26" t="s">
-        <v>1176</v>
+        <v>1168</v>
       </c>
       <c r="E236" s="19"/>
       <c r="F236" t="s">
-        <v>934</v>
+        <v>926</v>
       </c>
     </row>
     <row r="237" spans="1:6">
       <c r="A237" s="28" t="s">
-        <v>1296</v>
+        <v>1288</v>
       </c>
       <c r="B237" s="3" t="s">
         <v>626</v>
@@ -15811,16 +15811,16 @@
         <v>325</v>
       </c>
       <c r="D237" s="26" t="s">
-        <v>1176</v>
+        <v>1168</v>
       </c>
       <c r="E237" s="26"/>
       <c r="F237" t="s">
-        <v>935</v>
+        <v>927</v>
       </c>
     </row>
     <row r="238" spans="1:6">
       <c r="A238" s="28" t="s">
-        <v>1297</v>
+        <v>1289</v>
       </c>
       <c r="B238" s="3" t="s">
         <v>626</v>
@@ -15829,16 +15829,16 @@
         <v>327</v>
       </c>
       <c r="D238" s="26" t="s">
-        <v>1176</v>
+        <v>1168</v>
       </c>
       <c r="E238" s="26"/>
       <c r="F238" s="6" t="s">
-        <v>936</v>
+        <v>928</v>
       </c>
     </row>
     <row r="239" spans="1:6">
       <c r="A239" s="28" t="s">
-        <v>1298</v>
+        <v>1290</v>
       </c>
       <c r="B239" s="3" t="s">
         <v>626</v>
@@ -15847,16 +15847,16 @@
         <v>336</v>
       </c>
       <c r="D239" s="26" t="s">
-        <v>1176</v>
+        <v>1168</v>
       </c>
       <c r="E239" s="26"/>
       <c r="F239" t="s">
-        <v>937</v>
+        <v>929</v>
       </c>
     </row>
     <row r="240" spans="1:6">
       <c r="A240" s="28" t="s">
-        <v>1299</v>
+        <v>1291</v>
       </c>
       <c r="B240" s="3" t="s">
         <v>626</v>
@@ -15865,16 +15865,16 @@
         <v>338</v>
       </c>
       <c r="D240" s="26" t="s">
-        <v>1176</v>
+        <v>1168</v>
       </c>
       <c r="E240" s="26"/>
       <c r="F240" t="s">
-        <v>938</v>
+        <v>930</v>
       </c>
     </row>
     <row r="241" spans="1:6">
       <c r="A241" s="28" t="s">
-        <v>1300</v>
+        <v>1292</v>
       </c>
       <c r="B241" s="3" t="s">
         <v>626</v>
@@ -15883,29 +15883,29 @@
         <v>339</v>
       </c>
       <c r="D241" s="26" t="s">
-        <v>1176</v>
+        <v>1168</v>
       </c>
       <c r="E241" s="26"/>
       <c r="F241" t="s">
-        <v>939</v>
+        <v>931</v>
       </c>
     </row>
     <row r="242" spans="1:6">
       <c r="A242" s="28" t="s">
-        <v>1190</v>
+        <v>1182</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>1122</v>
+        <v>1114</v>
       </c>
       <c r="C242" s="26"/>
       <c r="D242" s="26" t="s">
-        <v>1177</v>
+        <v>1169</v>
       </c>
       <c r="E242" s="26"/>
     </row>
     <row r="243" spans="1:6">
       <c r="A243" s="28" t="s">
-        <v>633</v>
+        <v>1294</v>
       </c>
       <c r="B243" s="3" t="s">
         <v>626</v>
@@ -15913,15 +15913,17 @@
       <c r="C243" s="26" t="s">
         <v>528</v>
       </c>
-      <c r="D243" s="26"/>
+      <c r="D243" s="26" t="s">
+        <v>1169</v>
+      </c>
       <c r="E243" s="26"/>
       <c r="F243" t="s">
-        <v>940</v>
+        <v>932</v>
       </c>
     </row>
     <row r="244" spans="1:6">
       <c r="A244" s="28" t="s">
-        <v>634</v>
+        <v>1295</v>
       </c>
       <c r="B244" s="3" t="s">
         <v>626</v>
@@ -15929,15 +15931,17 @@
       <c r="C244" s="19" t="s">
         <v>342</v>
       </c>
-      <c r="D244" s="19"/>
+      <c r="D244" s="26" t="s">
+        <v>1168</v>
+      </c>
       <c r="E244" s="19"/>
       <c r="F244" t="s">
-        <v>941</v>
+        <v>933</v>
       </c>
     </row>
     <row r="245" spans="1:6">
       <c r="A245" s="28" t="s">
-        <v>635</v>
+        <v>1296</v>
       </c>
       <c r="B245" s="3" t="s">
         <v>626</v>
@@ -15945,15 +15949,17 @@
       <c r="C245" s="19" t="s">
         <v>349</v>
       </c>
-      <c r="D245" s="19"/>
+      <c r="D245" s="26" t="s">
+        <v>1169</v>
+      </c>
       <c r="E245" s="19"/>
       <c r="F245" t="s">
-        <v>942</v>
+        <v>934</v>
       </c>
     </row>
     <row r="246" spans="1:6">
       <c r="A246" s="28" t="s">
-        <v>636</v>
+        <v>1297</v>
       </c>
       <c r="B246" s="3" t="s">
         <v>626</v>
@@ -15961,15 +15967,17 @@
       <c r="C246" s="26" t="s">
         <v>345</v>
       </c>
-      <c r="D246" s="26"/>
+      <c r="D246" s="26" t="s">
+        <v>1169</v>
+      </c>
       <c r="E246" s="26"/>
       <c r="F246" t="s">
-        <v>943</v>
+        <v>935</v>
       </c>
     </row>
     <row r="247" spans="1:6">
       <c r="A247" s="28" t="s">
-        <v>637</v>
+        <v>1298</v>
       </c>
       <c r="B247" s="3" t="s">
         <v>626</v>
@@ -15977,15 +15985,17 @@
       <c r="C247" s="26" t="s">
         <v>346</v>
       </c>
-      <c r="D247" s="26"/>
+      <c r="D247" s="26" t="s">
+        <v>1169</v>
+      </c>
       <c r="E247" s="26"/>
       <c r="F247" t="s">
-        <v>944</v>
+        <v>936</v>
       </c>
     </row>
     <row r="248" spans="1:6">
       <c r="A248" s="28" t="s">
-        <v>638</v>
+        <v>1299</v>
       </c>
       <c r="B248" s="3" t="s">
         <v>626</v>
@@ -15993,15 +16003,17 @@
       <c r="C248" s="26" t="s">
         <v>347</v>
       </c>
-      <c r="D248" s="26"/>
+      <c r="D248" s="26" t="s">
+        <v>1169</v>
+      </c>
       <c r="E248" s="26"/>
       <c r="F248" t="s">
-        <v>945</v>
+        <v>937</v>
       </c>
     </row>
     <row r="249" spans="1:6">
       <c r="A249" s="28" t="s">
-        <v>639</v>
+        <v>1300</v>
       </c>
       <c r="B249" s="3" t="s">
         <v>626</v>
@@ -16009,15 +16021,17 @@
       <c r="C249" s="27" t="s">
         <v>348</v>
       </c>
-      <c r="D249" s="27"/>
+      <c r="D249" s="26" t="s">
+        <v>1169</v>
+      </c>
       <c r="E249" s="27"/>
       <c r="F249" t="s">
-        <v>946</v>
+        <v>938</v>
       </c>
     </row>
     <row r="250" spans="1:6">
       <c r="A250" s="28" t="s">
-        <v>640</v>
+        <v>1301</v>
       </c>
       <c r="B250" s="3" t="s">
         <v>626</v>
@@ -16025,28 +16039,30 @@
       <c r="C250" s="26" t="s">
         <v>356</v>
       </c>
-      <c r="D250" s="26"/>
+      <c r="D250" s="26" t="s">
+        <v>1169</v>
+      </c>
       <c r="E250" s="26"/>
       <c r="F250" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
     </row>
     <row r="251" spans="1:6">
       <c r="A251" s="28" t="s">
-        <v>1191</v>
+        <v>1183</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>1122</v>
+        <v>1114</v>
       </c>
       <c r="C251" s="26"/>
       <c r="D251" s="26" t="s">
-        <v>1178</v>
+        <v>1170</v>
       </c>
       <c r="E251" s="26"/>
     </row>
     <row r="252" spans="1:6">
       <c r="A252" s="28" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="B252" s="3" t="s">
         <v>626</v>
@@ -16057,12 +16073,12 @@
       <c r="D252" s="19"/>
       <c r="E252" s="19"/>
       <c r="F252" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
     </row>
     <row r="253" spans="1:6">
       <c r="A253" s="28" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="B253" s="3" t="s">
         <v>626</v>
@@ -16073,12 +16089,12 @@
       <c r="D253" s="26"/>
       <c r="E253" s="26"/>
       <c r="F253" t="s">
-        <v>949</v>
+        <v>941</v>
       </c>
     </row>
     <row r="254" spans="1:6">
       <c r="A254" s="28" t="s">
-        <v>643</v>
+        <v>635</v>
       </c>
       <c r="B254" s="3" t="s">
         <v>626</v>
@@ -16089,12 +16105,12 @@
       <c r="D254" s="26"/>
       <c r="E254" s="26"/>
       <c r="F254" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
     </row>
     <row r="255" spans="1:6">
       <c r="A255" s="28" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="B255" s="3" t="s">
         <v>626</v>
@@ -16105,12 +16121,12 @@
       <c r="D255" s="19"/>
       <c r="E255" s="19"/>
       <c r="F255" t="s">
-        <v>951</v>
+        <v>943</v>
       </c>
     </row>
     <row r="256" spans="1:6">
       <c r="A256" s="28" t="s">
-        <v>645</v>
+        <v>637</v>
       </c>
       <c r="B256" s="3" t="s">
         <v>626</v>
@@ -16121,12 +16137,12 @@
       <c r="D256" s="26"/>
       <c r="E256" s="26"/>
       <c r="F256" t="s">
-        <v>952</v>
+        <v>944</v>
       </c>
     </row>
     <row r="257" spans="1:6">
       <c r="A257" s="28" t="s">
-        <v>646</v>
+        <v>638</v>
       </c>
       <c r="B257" s="3" t="s">
         <v>626</v>
@@ -16137,25 +16153,25 @@
       <c r="D257" s="26"/>
       <c r="E257" s="26"/>
       <c r="F257" t="s">
-        <v>953</v>
+        <v>945</v>
       </c>
     </row>
     <row r="258" spans="1:6">
       <c r="A258" s="28" t="s">
-        <v>1192</v>
+        <v>1184</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>1122</v>
+        <v>1114</v>
       </c>
       <c r="C258" s="26"/>
       <c r="D258" s="26" t="s">
-        <v>1179</v>
+        <v>1171</v>
       </c>
       <c r="E258" s="26"/>
     </row>
     <row r="259" spans="1:6">
       <c r="A259" s="28" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="B259" s="3" t="s">
         <v>626</v>
@@ -16166,12 +16182,12 @@
       <c r="D259" s="26"/>
       <c r="E259" s="26"/>
       <c r="F259" t="s">
-        <v>954</v>
+        <v>946</v>
       </c>
     </row>
     <row r="260" spans="1:6">
       <c r="A260" s="28" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="B260" s="3" t="s">
         <v>626</v>
@@ -16182,12 +16198,12 @@
       <c r="D260" s="26"/>
       <c r="E260" s="26"/>
       <c r="F260" t="s">
-        <v>955</v>
+        <v>947</v>
       </c>
     </row>
     <row r="261" spans="1:6">
       <c r="A261" s="28" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="B261" s="3" t="s">
         <v>626</v>
@@ -16198,12 +16214,12 @@
       <c r="D261" s="26"/>
       <c r="E261" s="26"/>
       <c r="F261" t="s">
-        <v>956</v>
+        <v>948</v>
       </c>
     </row>
     <row r="262" spans="1:6">
       <c r="A262" s="28" t="s">
-        <v>650</v>
+        <v>642</v>
       </c>
       <c r="B262" s="3" t="s">
         <v>626</v>
@@ -16214,12 +16230,12 @@
       <c r="D262" s="26"/>
       <c r="E262" s="26"/>
       <c r="F262" t="s">
-        <v>957</v>
+        <v>949</v>
       </c>
     </row>
     <row r="263" spans="1:6">
       <c r="A263" s="28" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
       <c r="B263" s="3" t="s">
         <v>626</v>
@@ -16230,12 +16246,12 @@
       <c r="D263" s="26"/>
       <c r="E263" s="26"/>
       <c r="F263" t="s">
-        <v>958</v>
+        <v>950</v>
       </c>
     </row>
     <row r="264" spans="1:6">
       <c r="A264" s="28" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
       <c r="B264" s="3" t="s">
         <v>626</v>
@@ -16246,12 +16262,12 @@
       <c r="D264" s="26"/>
       <c r="E264" s="26"/>
       <c r="F264" t="s">
-        <v>959</v>
+        <v>951</v>
       </c>
     </row>
     <row r="265" spans="1:6">
       <c r="A265" s="28" t="s">
-        <v>653</v>
+        <v>645</v>
       </c>
       <c r="B265" s="3" t="s">
         <v>626</v>
@@ -16262,12 +16278,12 @@
       <c r="D265" s="19"/>
       <c r="E265" s="19"/>
       <c r="F265" t="s">
-        <v>960</v>
+        <v>952</v>
       </c>
     </row>
     <row r="266" spans="1:6">
       <c r="A266" s="28" t="s">
-        <v>654</v>
+        <v>646</v>
       </c>
       <c r="B266" s="3" t="s">
         <v>626</v>
@@ -16278,12 +16294,12 @@
       <c r="D266" s="26"/>
       <c r="E266" s="26"/>
       <c r="F266" t="s">
-        <v>961</v>
+        <v>953</v>
       </c>
     </row>
     <row r="267" spans="1:6">
       <c r="A267" s="28" t="s">
-        <v>655</v>
+        <v>647</v>
       </c>
       <c r="B267" s="3" t="s">
         <v>626</v>
@@ -16294,12 +16310,12 @@
       <c r="D267" s="19"/>
       <c r="E267" s="19"/>
       <c r="F267" t="s">
-        <v>962</v>
+        <v>954</v>
       </c>
     </row>
     <row r="268" spans="1:6">
       <c r="A268" s="28" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
       <c r="B268" s="3" t="s">
         <v>626</v>
@@ -16310,12 +16326,12 @@
       <c r="D268" s="26"/>
       <c r="E268" s="26"/>
       <c r="F268" s="6" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
     </row>
     <row r="269" spans="1:6">
       <c r="A269" s="28" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
       <c r="B269" s="3" t="s">
         <v>626</v>
@@ -16326,12 +16342,12 @@
       <c r="D269" s="27"/>
       <c r="E269" s="27"/>
       <c r="F269" t="s">
-        <v>964</v>
+        <v>956</v>
       </c>
     </row>
     <row r="270" spans="1:6">
       <c r="A270" s="28" t="s">
-        <v>658</v>
+        <v>650</v>
       </c>
       <c r="B270" s="3" t="s">
         <v>626</v>
@@ -16342,12 +16358,12 @@
       <c r="D270" s="26"/>
       <c r="E270" s="26"/>
       <c r="F270" t="s">
-        <v>965</v>
+        <v>957</v>
       </c>
     </row>
     <row r="271" spans="1:6">
       <c r="A271" s="28" t="s">
-        <v>659</v>
+        <v>651</v>
       </c>
       <c r="B271" s="3" t="s">
         <v>626</v>
@@ -16358,12 +16374,12 @@
       <c r="D271" s="26"/>
       <c r="E271" s="26"/>
       <c r="F271" t="s">
-        <v>966</v>
+        <v>958</v>
       </c>
     </row>
     <row r="272" spans="1:6">
       <c r="A272" s="28" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
       <c r="B272" s="3" t="s">
         <v>626</v>
@@ -16374,12 +16390,12 @@
       <c r="D272" s="26"/>
       <c r="E272" s="26"/>
       <c r="F272" t="s">
-        <v>967</v>
+        <v>959</v>
       </c>
     </row>
     <row r="273" spans="1:6">
       <c r="A273" s="28" t="s">
-        <v>661</v>
+        <v>653</v>
       </c>
       <c r="B273" s="3" t="s">
         <v>626</v>
@@ -16390,12 +16406,12 @@
       <c r="D273" s="19"/>
       <c r="E273" s="19"/>
       <c r="F273" t="s">
-        <v>968</v>
+        <v>960</v>
       </c>
     </row>
     <row r="274" spans="1:6">
       <c r="A274" s="28" t="s">
-        <v>662</v>
+        <v>654</v>
       </c>
       <c r="B274" s="3" t="s">
         <v>626</v>
@@ -16406,12 +16422,12 @@
       <c r="D274" s="27"/>
       <c r="E274" s="27"/>
       <c r="F274" t="s">
-        <v>969</v>
+        <v>961</v>
       </c>
     </row>
     <row r="275" spans="1:6">
       <c r="A275" s="28" t="s">
-        <v>663</v>
+        <v>655</v>
       </c>
       <c r="B275" s="3" t="s">
         <v>626</v>
@@ -16422,12 +16438,12 @@
       <c r="D275" s="26"/>
       <c r="E275" s="26"/>
       <c r="F275" t="s">
-        <v>970</v>
+        <v>962</v>
       </c>
     </row>
     <row r="276" spans="1:6">
       <c r="A276" s="28" t="s">
-        <v>664</v>
+        <v>656</v>
       </c>
       <c r="B276" s="3" t="s">
         <v>626</v>
@@ -16438,12 +16454,12 @@
       <c r="D276" s="19"/>
       <c r="E276" s="19"/>
       <c r="F276" t="s">
-        <v>971</v>
+        <v>963</v>
       </c>
     </row>
     <row r="277" spans="1:6">
       <c r="A277" s="28" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
       <c r="B277" s="3" t="s">
         <v>626</v>
@@ -16454,25 +16470,25 @@
       <c r="D277" s="26"/>
       <c r="E277" s="26"/>
       <c r="F277" t="s">
-        <v>972</v>
+        <v>964</v>
       </c>
     </row>
     <row r="278" spans="1:6">
       <c r="A278" s="28" t="s">
-        <v>1193</v>
+        <v>1185</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>1122</v>
+        <v>1114</v>
       </c>
       <c r="C278" s="26"/>
       <c r="D278" s="26" t="s">
-        <v>1180</v>
+        <v>1172</v>
       </c>
       <c r="E278" s="26"/>
     </row>
     <row r="279" spans="1:6">
       <c r="A279" s="28" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
       <c r="B279" s="3" t="s">
         <v>626</v>
@@ -16483,12 +16499,12 @@
       <c r="D279" s="19"/>
       <c r="E279" s="19"/>
       <c r="F279" t="s">
-        <v>973</v>
+        <v>965</v>
       </c>
     </row>
     <row r="280" spans="1:6">
       <c r="A280" s="28" t="s">
-        <v>667</v>
+        <v>659</v>
       </c>
       <c r="B280" s="3" t="s">
         <v>626</v>
@@ -16499,12 +16515,12 @@
       <c r="D280" s="27"/>
       <c r="E280" s="27"/>
       <c r="F280" t="s">
-        <v>974</v>
+        <v>966</v>
       </c>
     </row>
     <row r="281" spans="1:6">
       <c r="A281" s="28" t="s">
-        <v>668</v>
+        <v>660</v>
       </c>
       <c r="B281" s="3" t="s">
         <v>626</v>
@@ -16515,12 +16531,12 @@
       <c r="D281" s="19"/>
       <c r="E281" s="19"/>
       <c r="F281" t="s">
-        <v>975</v>
+        <v>967</v>
       </c>
     </row>
     <row r="282" spans="1:6">
       <c r="A282" s="28" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="B282" s="3" t="s">
         <v>626</v>
@@ -16531,12 +16547,12 @@
       <c r="D282" s="26"/>
       <c r="E282" s="26"/>
       <c r="F282" t="s">
-        <v>976</v>
+        <v>968</v>
       </c>
     </row>
     <row r="283" spans="1:6">
       <c r="A283" s="28" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="B283" s="3" t="s">
         <v>626</v>
@@ -16547,12 +16563,12 @@
       <c r="D283" s="18"/>
       <c r="E283" s="18"/>
       <c r="F283" s="6" t="s">
-        <v>977</v>
+        <v>969</v>
       </c>
     </row>
     <row r="284" spans="1:6">
       <c r="A284" s="28" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="B284" s="3" t="s">
         <v>626</v>
@@ -16563,12 +16579,12 @@
       <c r="D284" s="26"/>
       <c r="E284" s="26"/>
       <c r="F284" t="s">
-        <v>978</v>
+        <v>970</v>
       </c>
     </row>
     <row r="285" spans="1:6">
       <c r="A285" s="28" t="s">
-        <v>672</v>
+        <v>664</v>
       </c>
       <c r="B285" s="3" t="s">
         <v>626</v>
@@ -16579,12 +16595,12 @@
       <c r="D285" s="26"/>
       <c r="E285" s="26"/>
       <c r="F285" t="s">
-        <v>979</v>
+        <v>971</v>
       </c>
     </row>
     <row r="286" spans="1:6">
       <c r="A286" s="28" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
       <c r="B286" s="3" t="s">
         <v>626</v>
@@ -16595,12 +16611,12 @@
       <c r="D286" s="26"/>
       <c r="E286" s="26"/>
       <c r="F286" t="s">
-        <v>980</v>
+        <v>972</v>
       </c>
     </row>
     <row r="287" spans="1:6">
       <c r="A287" s="28" t="s">
-        <v>674</v>
+        <v>666</v>
       </c>
       <c r="B287" s="3" t="s">
         <v>626</v>
@@ -16611,12 +16627,12 @@
       <c r="D287" s="26"/>
       <c r="E287" s="26"/>
       <c r="F287" t="s">
-        <v>981</v>
+        <v>973</v>
       </c>
     </row>
     <row r="288" spans="1:6">
       <c r="A288" s="28" t="s">
-        <v>675</v>
+        <v>667</v>
       </c>
       <c r="B288" s="3" t="s">
         <v>626</v>
@@ -16627,12 +16643,12 @@
       <c r="D288" s="26"/>
       <c r="E288" s="26"/>
       <c r="F288" t="s">
-        <v>982</v>
+        <v>974</v>
       </c>
     </row>
     <row r="289" spans="1:6">
       <c r="A289" s="28" t="s">
-        <v>676</v>
+        <v>668</v>
       </c>
       <c r="B289" s="3" t="s">
         <v>626</v>
@@ -16643,12 +16659,12 @@
       <c r="D289" s="19"/>
       <c r="E289" s="19"/>
       <c r="F289" t="s">
-        <v>983</v>
+        <v>975</v>
       </c>
     </row>
     <row r="290" spans="1:6">
       <c r="A290" s="28" t="s">
-        <v>677</v>
+        <v>669</v>
       </c>
       <c r="B290" s="3" t="s">
         <v>626</v>
@@ -16659,12 +16675,12 @@
       <c r="D290" s="19"/>
       <c r="E290" s="19"/>
       <c r="F290" t="s">
-        <v>984</v>
+        <v>976</v>
       </c>
     </row>
     <row r="291" spans="1:6">
       <c r="A291" s="28" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
       <c r="B291" s="3" t="s">
         <v>626</v>
@@ -16675,12 +16691,12 @@
       <c r="D291" s="26"/>
       <c r="E291" s="26"/>
       <c r="F291" t="s">
-        <v>985</v>
+        <v>977</v>
       </c>
     </row>
     <row r="292" spans="1:6">
       <c r="A292" s="28" t="s">
-        <v>679</v>
+        <v>671</v>
       </c>
       <c r="B292" s="3" t="s">
         <v>626</v>
@@ -16691,12 +16707,12 @@
       <c r="D292" s="26"/>
       <c r="E292" s="26"/>
       <c r="F292" s="6" t="s">
-        <v>986</v>
+        <v>978</v>
       </c>
     </row>
     <row r="293" spans="1:6">
       <c r="A293" s="28" t="s">
-        <v>680</v>
+        <v>672</v>
       </c>
       <c r="B293" s="3" t="s">
         <v>626</v>
@@ -16707,12 +16723,12 @@
       <c r="D293" s="26"/>
       <c r="E293" s="26"/>
       <c r="F293" s="6" t="s">
-        <v>987</v>
+        <v>979</v>
       </c>
     </row>
     <row r="294" spans="1:6">
       <c r="A294" s="28" t="s">
-        <v>681</v>
+        <v>673</v>
       </c>
       <c r="B294" s="3" t="s">
         <v>626</v>
@@ -16723,12 +16739,12 @@
       <c r="D294" s="19"/>
       <c r="E294" s="19"/>
       <c r="F294" t="s">
-        <v>988</v>
+        <v>980</v>
       </c>
     </row>
     <row r="295" spans="1:6">
       <c r="A295" s="28" t="s">
-        <v>682</v>
+        <v>674</v>
       </c>
       <c r="B295" s="3" t="s">
         <v>626</v>
@@ -16739,12 +16755,12 @@
       <c r="D295" s="26"/>
       <c r="E295" s="26"/>
       <c r="F295" t="s">
-        <v>989</v>
+        <v>981</v>
       </c>
     </row>
     <row r="296" spans="1:6">
       <c r="A296" s="28" t="s">
-        <v>683</v>
+        <v>675</v>
       </c>
       <c r="B296" s="3" t="s">
         <v>626</v>
@@ -16755,12 +16771,12 @@
       <c r="D296" s="18"/>
       <c r="E296" s="18"/>
       <c r="F296" t="s">
-        <v>990</v>
+        <v>982</v>
       </c>
     </row>
     <row r="297" spans="1:6">
       <c r="A297" s="28" t="s">
-        <v>684</v>
+        <v>676</v>
       </c>
       <c r="B297" s="3" t="s">
         <v>626</v>
@@ -16771,12 +16787,12 @@
       <c r="D297" s="19"/>
       <c r="E297" s="19"/>
       <c r="F297" t="s">
-        <v>991</v>
+        <v>983</v>
       </c>
     </row>
     <row r="298" spans="1:6">
       <c r="A298" s="28" t="s">
-        <v>685</v>
+        <v>677</v>
       </c>
       <c r="B298" s="3" t="s">
         <v>626</v>
@@ -16787,12 +16803,12 @@
       <c r="D298" s="19"/>
       <c r="E298" s="19"/>
       <c r="F298" t="s">
-        <v>992</v>
+        <v>984</v>
       </c>
     </row>
     <row r="299" spans="1:6">
       <c r="A299" s="28" t="s">
-        <v>686</v>
+        <v>678</v>
       </c>
       <c r="B299" s="3" t="s">
         <v>626</v>
@@ -16803,12 +16819,12 @@
       <c r="D299" s="19"/>
       <c r="E299" s="19"/>
       <c r="F299" t="s">
-        <v>993</v>
+        <v>985</v>
       </c>
     </row>
     <row r="300" spans="1:6">
       <c r="A300" s="28" t="s">
-        <v>687</v>
+        <v>679</v>
       </c>
       <c r="B300" s="3" t="s">
         <v>626</v>
@@ -16819,12 +16835,12 @@
       <c r="D300" s="26"/>
       <c r="E300" s="26"/>
       <c r="F300" s="6" t="s">
-        <v>994</v>
+        <v>986</v>
       </c>
     </row>
     <row r="301" spans="1:6">
       <c r="A301" s="28" t="s">
-        <v>688</v>
+        <v>680</v>
       </c>
       <c r="B301" s="3" t="s">
         <v>626</v>
@@ -16835,12 +16851,12 @@
       <c r="D301" s="27"/>
       <c r="E301" s="27"/>
       <c r="F301" t="s">
-        <v>995</v>
+        <v>987</v>
       </c>
     </row>
     <row r="302" spans="1:6">
       <c r="A302" s="28" t="s">
-        <v>689</v>
+        <v>681</v>
       </c>
       <c r="B302" s="3" t="s">
         <v>626</v>
@@ -16851,12 +16867,12 @@
       <c r="D302" s="19"/>
       <c r="E302" s="19"/>
       <c r="F302" t="s">
-        <v>996</v>
+        <v>988</v>
       </c>
     </row>
     <row r="303" spans="1:6">
       <c r="A303" s="28" t="s">
-        <v>690</v>
+        <v>682</v>
       </c>
       <c r="B303" s="3" t="s">
         <v>626</v>
@@ -16867,12 +16883,12 @@
       <c r="D303" s="19"/>
       <c r="E303" s="19"/>
       <c r="F303" t="s">
-        <v>997</v>
+        <v>989</v>
       </c>
     </row>
     <row r="304" spans="1:6">
       <c r="A304" s="28" t="s">
-        <v>691</v>
+        <v>683</v>
       </c>
       <c r="B304" s="3" t="s">
         <v>626</v>
@@ -16883,12 +16899,12 @@
       <c r="D304" s="19"/>
       <c r="E304" s="19"/>
       <c r="F304" t="s">
-        <v>998</v>
+        <v>990</v>
       </c>
     </row>
     <row r="305" spans="1:6">
       <c r="A305" s="28" t="s">
-        <v>692</v>
+        <v>684</v>
       </c>
       <c r="B305" s="3" t="s">
         <v>626</v>
@@ -16899,12 +16915,12 @@
       <c r="D305" s="27"/>
       <c r="E305" s="27"/>
       <c r="F305" t="s">
-        <v>999</v>
+        <v>991</v>
       </c>
     </row>
     <row r="306" spans="1:6">
       <c r="A306" s="28" t="s">
-        <v>693</v>
+        <v>685</v>
       </c>
       <c r="B306" s="3" t="s">
         <v>626</v>
@@ -16915,12 +16931,12 @@
       <c r="D306" s="26"/>
       <c r="E306" s="26"/>
       <c r="F306" t="s">
-        <v>1000</v>
+        <v>992</v>
       </c>
     </row>
     <row r="307" spans="1:6">
       <c r="A307" s="28" t="s">
-        <v>694</v>
+        <v>686</v>
       </c>
       <c r="B307" s="3" t="s">
         <v>626</v>
@@ -16931,12 +16947,12 @@
       <c r="D307" s="26"/>
       <c r="E307" s="26"/>
       <c r="F307" t="s">
-        <v>1001</v>
+        <v>993</v>
       </c>
     </row>
     <row r="308" spans="1:6">
       <c r="A308" s="28" t="s">
-        <v>695</v>
+        <v>687</v>
       </c>
       <c r="B308" s="3" t="s">
         <v>626</v>
@@ -16947,12 +16963,12 @@
       <c r="D308" s="19"/>
       <c r="E308" s="19"/>
       <c r="F308" t="s">
-        <v>1002</v>
+        <v>994</v>
       </c>
     </row>
     <row r="309" spans="1:6">
       <c r="A309" s="28" t="s">
-        <v>696</v>
+        <v>688</v>
       </c>
       <c r="B309" s="3" t="s">
         <v>626</v>
@@ -16963,12 +16979,12 @@
       <c r="D309" s="19"/>
       <c r="E309" s="19"/>
       <c r="F309" t="s">
-        <v>1003</v>
+        <v>995</v>
       </c>
     </row>
     <row r="310" spans="1:6">
       <c r="A310" s="28" t="s">
-        <v>697</v>
+        <v>689</v>
       </c>
       <c r="B310" s="3" t="s">
         <v>626</v>
@@ -16979,12 +16995,12 @@
       <c r="D310" s="26"/>
       <c r="E310" s="26"/>
       <c r="F310" t="s">
-        <v>1004</v>
+        <v>996</v>
       </c>
     </row>
     <row r="311" spans="1:6">
       <c r="A311" s="28" t="s">
-        <v>698</v>
+        <v>690</v>
       </c>
       <c r="B311" s="3" t="s">
         <v>626</v>
@@ -16995,12 +17011,12 @@
       <c r="D311" s="19"/>
       <c r="E311" s="19"/>
       <c r="F311" t="s">
-        <v>1005</v>
+        <v>997</v>
       </c>
     </row>
     <row r="312" spans="1:6">
       <c r="A312" s="28" t="s">
-        <v>699</v>
+        <v>691</v>
       </c>
       <c r="B312" s="3" t="s">
         <v>626</v>
@@ -17011,12 +17027,12 @@
       <c r="D312" s="19"/>
       <c r="E312" s="19"/>
       <c r="F312" t="s">
-        <v>1006</v>
+        <v>998</v>
       </c>
     </row>
     <row r="313" spans="1:6">
       <c r="A313" s="28" t="s">
-        <v>700</v>
+        <v>692</v>
       </c>
       <c r="B313" s="3" t="s">
         <v>626</v>
@@ -17027,12 +17043,12 @@
       <c r="D313" s="19"/>
       <c r="E313" s="19"/>
       <c r="F313" t="s">
-        <v>1007</v>
+        <v>999</v>
       </c>
     </row>
     <row r="314" spans="1:6">
       <c r="A314" s="28" t="s">
-        <v>701</v>
+        <v>693</v>
       </c>
       <c r="B314" s="3" t="s">
         <v>626</v>
@@ -17043,12 +17059,12 @@
       <c r="D314" s="19"/>
       <c r="E314" s="19"/>
       <c r="F314" t="s">
-        <v>1008</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="315" spans="1:6">
       <c r="A315" s="28" t="s">
-        <v>702</v>
+        <v>694</v>
       </c>
       <c r="B315" s="3" t="s">
         <v>626</v>
@@ -17059,12 +17075,12 @@
       <c r="D315" s="26"/>
       <c r="E315" s="26"/>
       <c r="F315" t="s">
-        <v>1009</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="316" spans="1:6">
       <c r="A316" s="28" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
       <c r="B316" s="3" t="s">
         <v>626</v>
@@ -17075,12 +17091,12 @@
       <c r="D316" s="26"/>
       <c r="E316" s="26"/>
       <c r="F316" t="s">
-        <v>1010</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="317" spans="1:6">
       <c r="A317" s="28" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="B317" s="3" t="s">
         <v>626</v>
@@ -17091,12 +17107,12 @@
       <c r="D317" s="26"/>
       <c r="E317" s="26"/>
       <c r="F317" t="s">
-        <v>1011</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="318" spans="1:6">
       <c r="A318" s="28" t="s">
-        <v>705</v>
+        <v>697</v>
       </c>
       <c r="B318" s="3" t="s">
         <v>626</v>
@@ -17107,12 +17123,12 @@
       <c r="D318" s="26"/>
       <c r="E318" s="26"/>
       <c r="F318" t="s">
-        <v>1012</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="319" spans="1:6">
       <c r="A319" s="28" t="s">
-        <v>706</v>
+        <v>698</v>
       </c>
       <c r="B319" s="3" t="s">
         <v>626</v>
@@ -17123,12 +17139,12 @@
       <c r="D319" s="26"/>
       <c r="E319" s="26"/>
       <c r="F319" t="s">
-        <v>1013</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="320" spans="1:6">
       <c r="A320" s="28" t="s">
-        <v>707</v>
+        <v>699</v>
       </c>
       <c r="B320" s="3" t="s">
         <v>626</v>
@@ -17139,12 +17155,12 @@
       <c r="D320" s="26"/>
       <c r="E320" s="26"/>
       <c r="F320" t="s">
-        <v>1014</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="321" spans="1:6">
       <c r="A321" s="28" t="s">
-        <v>708</v>
+        <v>700</v>
       </c>
       <c r="B321" s="3" t="s">
         <v>626</v>
@@ -17155,12 +17171,12 @@
       <c r="D321" s="26"/>
       <c r="E321" s="26"/>
       <c r="F321" s="19" t="s">
-        <v>1015</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="322" spans="1:6">
       <c r="A322" s="28" t="s">
-        <v>709</v>
+        <v>701</v>
       </c>
       <c r="B322" s="3" t="s">
         <v>626</v>
@@ -17171,12 +17187,12 @@
       <c r="D322" s="26"/>
       <c r="E322" s="26"/>
       <c r="F322" t="s">
-        <v>1016</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="323" spans="1:6">
       <c r="A323" s="28" t="s">
-        <v>710</v>
+        <v>702</v>
       </c>
       <c r="B323" s="3" t="s">
         <v>626</v>
@@ -17187,12 +17203,12 @@
       <c r="D323" s="26"/>
       <c r="E323" s="26"/>
       <c r="F323" t="s">
-        <v>1017</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="324" spans="1:6">
       <c r="A324" s="28" t="s">
-        <v>711</v>
+        <v>703</v>
       </c>
       <c r="B324" s="3" t="s">
         <v>626</v>
@@ -17203,12 +17219,12 @@
       <c r="D324" s="27"/>
       <c r="E324" s="27"/>
       <c r="F324" t="s">
-        <v>1018</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="325" spans="1:6">
       <c r="A325" s="28" t="s">
-        <v>712</v>
+        <v>704</v>
       </c>
       <c r="B325" s="3" t="s">
         <v>626</v>
@@ -17219,12 +17235,12 @@
       <c r="D325" s="26"/>
       <c r="E325" s="26"/>
       <c r="F325" t="s">
-        <v>1019</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="326" spans="1:6">
       <c r="A326" s="28" t="s">
-        <v>713</v>
+        <v>705</v>
       </c>
       <c r="B326" s="3" t="s">
         <v>626</v>
@@ -17235,12 +17251,12 @@
       <c r="D326" s="19"/>
       <c r="E326" s="19"/>
       <c r="F326" t="s">
-        <v>1020</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="327" spans="1:6">
       <c r="A327" s="28" t="s">
-        <v>714</v>
+        <v>706</v>
       </c>
       <c r="B327" s="3" t="s">
         <v>626</v>
@@ -17251,12 +17267,12 @@
       <c r="D327" s="19"/>
       <c r="E327" s="19"/>
       <c r="F327" t="s">
-        <v>1021</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="328" spans="1:6">
       <c r="A328" s="28" t="s">
-        <v>715</v>
+        <v>707</v>
       </c>
       <c r="B328" s="3" t="s">
         <v>626</v>
@@ -17267,12 +17283,12 @@
       <c r="D328" s="19"/>
       <c r="E328" s="19"/>
       <c r="F328" t="s">
-        <v>1022</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="329" spans="1:6">
       <c r="A329" s="28" t="s">
-        <v>716</v>
+        <v>708</v>
       </c>
       <c r="B329" s="3" t="s">
         <v>626</v>
@@ -17283,12 +17299,12 @@
       <c r="D329" s="19"/>
       <c r="E329" s="19"/>
       <c r="F329" t="s">
-        <v>1023</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="330" spans="1:6">
       <c r="A330" s="28" t="s">
-        <v>717</v>
+        <v>709</v>
       </c>
       <c r="B330" s="3" t="s">
         <v>626</v>
@@ -17299,12 +17315,12 @@
       <c r="D330" s="26"/>
       <c r="E330" s="26"/>
       <c r="F330" t="s">
-        <v>1024</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="331" spans="1:6">
       <c r="A331" s="28" t="s">
-        <v>718</v>
+        <v>710</v>
       </c>
       <c r="B331" s="3" t="s">
         <v>626</v>
@@ -17315,12 +17331,12 @@
       <c r="D331" s="19"/>
       <c r="E331" s="19"/>
       <c r="F331" t="s">
-        <v>1025</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="332" spans="1:6">
       <c r="A332" s="28" t="s">
-        <v>719</v>
+        <v>711</v>
       </c>
       <c r="B332" s="3" t="s">
         <v>626</v>
@@ -17331,12 +17347,12 @@
       <c r="D332" s="19"/>
       <c r="E332" s="19"/>
       <c r="F332" t="s">
-        <v>1026</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="333" spans="1:6">
       <c r="A333" s="28" t="s">
-        <v>720</v>
+        <v>712</v>
       </c>
       <c r="B333" s="3" t="s">
         <v>626</v>
@@ -17347,12 +17363,12 @@
       <c r="D333" s="18"/>
       <c r="E333" s="18"/>
       <c r="F333" s="6" t="s">
-        <v>1027</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="334" spans="1:6">
       <c r="A334" s="28" t="s">
-        <v>721</v>
+        <v>713</v>
       </c>
       <c r="B334" s="3" t="s">
         <v>626</v>
@@ -17363,7 +17379,7 @@
       <c r="D334" s="27"/>
       <c r="E334" s="27"/>
       <c r="F334" s="6" t="s">
-        <v>1028</v>
+        <v>1020</v>
       </c>
     </row>
   </sheetData>

--- a/slackbuilds/sb_migr.xlsx
+++ b/slackbuilds/sb_migr.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\projects.new\sh\cvstogit\slackbuilds\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCD87D5F-6A2A-4C92-B37F-D156F586AA5F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E26D271E-109F-470B-A2AD-56525683ECE0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2180" uniqueCount="1302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2205" uniqueCount="1302">
   <si>
     <t>Package</t>
   </si>
@@ -1939,81 +1939,6 @@
     <t>SLACK-10_2</t>
   </si>
   <si>
-    <t>2012-09-30 10:06:41</t>
-  </si>
-  <si>
-    <t>2012-12-24 13:24:28</t>
-  </si>
-  <si>
-    <t>2012-12-24 14:32:43</t>
-  </si>
-  <si>
-    <t>2013-02-16 14:03:05</t>
-  </si>
-  <si>
-    <t>2013-05-04 12:08:49</t>
-  </si>
-  <si>
-    <t>2013-05-04 12:35:16</t>
-  </si>
-  <si>
-    <t>2014-01-14 11:30:33</t>
-  </si>
-  <si>
-    <t>2014-02-16 14:12:12</t>
-  </si>
-  <si>
-    <t>2014-03-12 14:16:01</t>
-  </si>
-  <si>
-    <t>2014-03-29 17:48:31</t>
-  </si>
-  <si>
-    <t>2014-04-27 13:44:38</t>
-  </si>
-  <si>
-    <t>2014-04-27 14:09:22</t>
-  </si>
-  <si>
-    <t>2014-08-04 10:17:18</t>
-  </si>
-  <si>
-    <t>2014-08-17 20:10:15</t>
-  </si>
-  <si>
-    <t>2015-04-25 12:58:55</t>
-  </si>
-  <si>
-    <t>2015-04-25 13:12:08</t>
-  </si>
-  <si>
-    <t>2015-04-26 10:36:13</t>
-  </si>
-  <si>
-    <t>2015-04-26 14:26:18</t>
-  </si>
-  <si>
-    <t>2015-04-26 16:55:08</t>
-  </si>
-  <si>
-    <t>2015-04-29 21:13:20</t>
-  </si>
-  <si>
-    <t>2015-05-01 10:40:26</t>
-  </si>
-  <si>
-    <t>2015-05-01 17:50:19</t>
-  </si>
-  <si>
-    <t>2015-05-31 19:57:56</t>
-  </si>
-  <si>
-    <t>2015-09-22 15:07:00</t>
-  </si>
-  <si>
-    <t>2016-05-03 20:27:52</t>
-  </si>
-  <si>
     <t>2016-07-18 21:12:22</t>
   </si>
   <si>
@@ -3944,6 +3869,81 @@
   </si>
   <si>
     <t>2012-09-22 10:16:27 +0300</t>
+  </si>
+  <si>
+    <t>2012-09-30 10:06:41 +0300</t>
+  </si>
+  <si>
+    <t>2012-12-24 13:24:28 +0200</t>
+  </si>
+  <si>
+    <t>2012-12-24 14:32:43 +0200</t>
+  </si>
+  <si>
+    <t>2013-02-16 14:03:05 +0200</t>
+  </si>
+  <si>
+    <t>2013-05-04 12:08:49 +0300</t>
+  </si>
+  <si>
+    <t>2013-05-04 12:35:16 +0300</t>
+  </si>
+  <si>
+    <t>2014-01-14 11:30:33 +0200</t>
+  </si>
+  <si>
+    <t>2014-02-16 14:12:12 +0200</t>
+  </si>
+  <si>
+    <t>2014-03-12 14:16:01 +0200</t>
+  </si>
+  <si>
+    <t>2014-03-29 17:48:31 +0200</t>
+  </si>
+  <si>
+    <t>2014-04-27 13:44:38 +0300</t>
+  </si>
+  <si>
+    <t>2014-04-27 14:09:22 +0300</t>
+  </si>
+  <si>
+    <t>2014-08-04 10:17:18 +0300</t>
+  </si>
+  <si>
+    <t>2014-08-17 20:10:15 +0300</t>
+  </si>
+  <si>
+    <t>2015-04-25 12:58:55 +0300</t>
+  </si>
+  <si>
+    <t>2015-04-25 13:12:08 +0300</t>
+  </si>
+  <si>
+    <t>2015-04-26 10:36:13 +0300</t>
+  </si>
+  <si>
+    <t>2015-04-26 14:26:18 +0300</t>
+  </si>
+  <si>
+    <t>2015-04-26 16:55:08 +0300</t>
+  </si>
+  <si>
+    <t>2015-04-29 21:13:20 +0300</t>
+  </si>
+  <si>
+    <t>2015-05-01 10:40:26 +0300</t>
+  </si>
+  <si>
+    <t>2015-05-01 17:50:19 +0300</t>
+  </si>
+  <si>
+    <t>2015-05-31 19:57:56 +0300</t>
+  </si>
+  <si>
+    <t>2015-09-22 15:07:00 +0300</t>
+  </si>
+  <si>
+    <t>2016-05-03 20:27:52 +0300</t>
   </si>
 </sst>
 </file>
@@ -5370,7 +5370,7 @@
         <v>9</v>
       </c>
       <c r="F42" t="s">
-        <v>1293</v>
+        <v>1268</v>
       </c>
       <c r="G42" s="13">
         <v>43895</v>
@@ -8869,7 +8869,7 @@
         <v>147</v>
       </c>
       <c r="F194" t="s">
-        <v>1021</v>
+        <v>996</v>
       </c>
       <c r="G194" s="13">
         <v>43875</v>
@@ -11608,8 +11608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{495E7B31-8439-4BBC-8206-DAF1FFDAE945}">
   <dimension ref="A1:F334"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A233" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D251" sqref="D251"/>
+    <sheetView tabSelected="1" topLeftCell="A254" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D278" sqref="D278"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -11644,7 +11644,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="28" t="s">
-        <v>1023</v>
+        <v>998</v>
       </c>
       <c r="B2" t="s">
         <v>627</v>
@@ -11653,7 +11653,7 @@
         <v>628</v>
       </c>
       <c r="D2" t="s">
-        <v>1071</v>
+        <v>1046</v>
       </c>
       <c r="E2" t="s">
         <v>630</v>
@@ -11661,7 +11661,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="28" t="s">
-        <v>1024</v>
+        <v>999</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>626</v>
@@ -11670,42 +11670,42 @@
         <v>20</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>1071</v>
+        <v>1046</v>
       </c>
       <c r="E3" s="19"/>
       <c r="F3" t="s">
-        <v>715</v>
+        <v>690</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="28" t="s">
-        <v>1165</v>
+        <v>1140</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1077</v>
+        <v>1052</v>
       </c>
       <c r="C4" s="19"/>
       <c r="D4" s="18" t="s">
-        <v>1159</v>
+        <v>1134</v>
       </c>
       <c r="E4" s="19"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="28" t="s">
-        <v>1174</v>
+        <v>1149</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>1114</v>
+        <v>1089</v>
       </c>
       <c r="C5" s="19"/>
       <c r="D5" s="18" t="s">
-        <v>1160</v>
+        <v>1135</v>
       </c>
       <c r="E5" s="19"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="28" t="s">
-        <v>1161</v>
+        <v>1136</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>626</v>
@@ -11714,16 +11714,16 @@
         <v>79</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>1160</v>
+        <v>1135</v>
       </c>
       <c r="E6" s="19"/>
       <c r="F6" t="s">
-        <v>767</v>
+        <v>742</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="28" t="s">
-        <v>1025</v>
+        <v>1000</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>626</v>
@@ -11732,16 +11732,16 @@
         <v>43</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>1160</v>
+        <v>1135</v>
       </c>
       <c r="E7" s="19"/>
       <c r="F7" t="s">
-        <v>716</v>
+        <v>691</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="28" t="s">
-        <v>1026</v>
+        <v>1001</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>626</v>
@@ -11750,16 +11750,16 @@
         <v>38</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>1160</v>
+        <v>1135</v>
       </c>
       <c r="E8" s="19"/>
       <c r="F8" t="s">
-        <v>1022</v>
+        <v>997</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="28" t="s">
-        <v>1027</v>
+        <v>1002</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>626</v>
@@ -11768,16 +11768,16 @@
         <v>26</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>1160</v>
+        <v>1135</v>
       </c>
       <c r="E9" s="19"/>
       <c r="F9" t="s">
-        <v>718</v>
+        <v>693</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="28" t="s">
-        <v>1028</v>
+        <v>1003</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>626</v>
@@ -11786,16 +11786,16 @@
         <v>123</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>1160</v>
+        <v>1135</v>
       </c>
       <c r="E10" s="19"/>
       <c r="F10" t="s">
-        <v>719</v>
+        <v>694</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="28" t="s">
-        <v>1029</v>
+        <v>1004</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>626</v>
@@ -11804,16 +11804,16 @@
         <v>554</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>1160</v>
+        <v>1135</v>
       </c>
       <c r="E11" s="26"/>
       <c r="F11" t="s">
-        <v>720</v>
+        <v>695</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="28" t="s">
-        <v>1162</v>
+        <v>1137</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>626</v>
@@ -11822,16 +11822,16 @@
         <v>137</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>1160</v>
+        <v>1135</v>
       </c>
       <c r="E12" s="18"/>
       <c r="F12" s="6" t="s">
-        <v>791</v>
+        <v>766</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="28" t="s">
-        <v>1030</v>
+        <v>1005</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>626</v>
@@ -11840,16 +11840,16 @@
         <v>110</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>1160</v>
+        <v>1135</v>
       </c>
       <c r="E13" s="19"/>
       <c r="F13" t="s">
-        <v>721</v>
+        <v>696</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="28" t="s">
-        <v>1031</v>
+        <v>1006</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>626</v>
@@ -11858,16 +11858,16 @@
         <v>111</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>1160</v>
+        <v>1135</v>
       </c>
       <c r="E14" s="19"/>
       <c r="F14" t="s">
-        <v>722</v>
+        <v>697</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="28" t="s">
-        <v>1032</v>
+        <v>1007</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>626</v>
@@ -11876,16 +11876,16 @@
         <v>576</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>1160</v>
+        <v>1135</v>
       </c>
       <c r="E15" s="19"/>
       <c r="F15" t="s">
-        <v>723</v>
+        <v>698</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="28" t="s">
-        <v>1033</v>
+        <v>1008</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>626</v>
@@ -11894,16 +11894,16 @@
         <v>6</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>1160</v>
+        <v>1135</v>
       </c>
       <c r="E16" s="19"/>
       <c r="F16" t="s">
-        <v>724</v>
+        <v>699</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="28" t="s">
-        <v>1034</v>
+        <v>1009</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>626</v>
@@ -11912,16 +11912,16 @@
         <v>30</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>1160</v>
+        <v>1135</v>
       </c>
       <c r="E17" s="18"/>
       <c r="F17" s="6" t="s">
-        <v>725</v>
+        <v>700</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="28" t="s">
-        <v>1035</v>
+        <v>1010</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>626</v>
@@ -11930,16 +11930,16 @@
         <v>14</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>1160</v>
+        <v>1135</v>
       </c>
       <c r="E18" s="18"/>
       <c r="F18" t="s">
-        <v>726</v>
+        <v>701</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="28" t="s">
-        <v>1163</v>
+        <v>1138</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>626</v>
@@ -11948,16 +11948,16 @@
         <v>87</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>1160</v>
+        <v>1135</v>
       </c>
       <c r="E19" s="19"/>
       <c r="F19" t="s">
-        <v>774</v>
+        <v>749</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="28" t="s">
-        <v>1036</v>
+        <v>1011</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>626</v>
@@ -11966,19 +11966,19 @@
         <v>161</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>1160</v>
+        <v>1135</v>
       </c>
       <c r="E20" s="19"/>
       <c r="F20" t="s">
-        <v>727</v>
+        <v>702</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="28" t="s">
-        <v>1175</v>
+        <v>1150</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>1114</v>
+        <v>1089</v>
       </c>
       <c r="C21" s="19"/>
       <c r="D21" s="18" t="s">
@@ -11988,22 +11988,22 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="28" t="s">
-        <v>1164</v>
+        <v>1139</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>1068</v>
+        <v>1043</v>
       </c>
       <c r="C22" s="19" t="s">
         <v>38</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>1072</v>
+        <v>1047</v>
       </c>
       <c r="E22" s="19"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="28" t="s">
-        <v>1037</v>
+        <v>1012</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>626</v>
@@ -12016,12 +12016,12 @@
       </c>
       <c r="E23" s="19"/>
       <c r="F23" t="s">
-        <v>728</v>
+        <v>703</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="28" t="s">
-        <v>1038</v>
+        <v>1013</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>626</v>
@@ -12034,12 +12034,12 @@
       </c>
       <c r="E24" s="19"/>
       <c r="F24" t="s">
-        <v>729</v>
+        <v>704</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="28" t="s">
-        <v>1039</v>
+        <v>1014</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>626</v>
@@ -12052,12 +12052,12 @@
       </c>
       <c r="E25" s="19"/>
       <c r="F25" t="s">
-        <v>730</v>
+        <v>705</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="28" t="s">
-        <v>1040</v>
+        <v>1015</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>626</v>
@@ -12070,30 +12070,30 @@
       </c>
       <c r="E26" s="19"/>
       <c r="F26" s="19" t="s">
-        <v>731</v>
+        <v>706</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="28" t="s">
-        <v>1041</v>
+        <v>1016</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C27" s="31" t="s">
-        <v>714</v>
+        <v>689</v>
       </c>
       <c r="D27" s="18" t="s">
         <v>632</v>
       </c>
       <c r="E27" s="19" t="s">
-        <v>1042</v>
+        <v>1017</v>
       </c>
       <c r="F27" s="19"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="28" t="s">
-        <v>1043</v>
+        <v>1018</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>626</v>
@@ -12106,12 +12106,12 @@
       </c>
       <c r="E28" s="19"/>
       <c r="F28" t="s">
-        <v>732</v>
+        <v>707</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="28" t="s">
-        <v>1044</v>
+        <v>1019</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>626</v>
@@ -12124,12 +12124,12 @@
       </c>
       <c r="E29" s="19"/>
       <c r="F29" t="s">
-        <v>733</v>
+        <v>708</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="28" t="s">
-        <v>1045</v>
+        <v>1020</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>626</v>
@@ -12142,12 +12142,12 @@
       </c>
       <c r="E30" s="18"/>
       <c r="F30" s="6" t="s">
-        <v>734</v>
+        <v>709</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="28" t="s">
-        <v>1046</v>
+        <v>1021</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>626</v>
@@ -12160,30 +12160,30 @@
       </c>
       <c r="E31" s="18"/>
       <c r="F31" s="6" t="s">
-        <v>735</v>
+        <v>710</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="28" t="s">
-        <v>1047</v>
+        <v>1022</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>626</v>
       </c>
       <c r="C32" s="31" t="s">
-        <v>1051</v>
+        <v>1026</v>
       </c>
       <c r="D32" s="18" t="s">
         <v>632</v>
       </c>
       <c r="E32" s="19"/>
       <c r="F32" t="s">
-        <v>736</v>
+        <v>711</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="28" t="s">
-        <v>1048</v>
+        <v>1023</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>626</v>
@@ -12196,12 +12196,12 @@
       </c>
       <c r="E33" s="19"/>
       <c r="F33" t="s">
-        <v>737</v>
+        <v>712</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="28" t="s">
-        <v>1049</v>
+        <v>1024</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>626</v>
@@ -12214,12 +12214,12 @@
       </c>
       <c r="E34" s="26"/>
       <c r="F34" t="s">
-        <v>738</v>
+        <v>713</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="28" t="s">
-        <v>1173</v>
+        <v>1148</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>626</v>
@@ -12232,48 +12232,48 @@
       </c>
       <c r="E35" s="19"/>
       <c r="F35" t="s">
-        <v>810</v>
+        <v>785</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="28" t="s">
-        <v>1050</v>
+        <v>1025</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>626</v>
       </c>
       <c r="C36" s="31" t="s">
-        <v>1063</v>
+        <v>1038</v>
       </c>
       <c r="D36" s="18" t="s">
         <v>632</v>
       </c>
       <c r="E36" s="19"/>
       <c r="F36" t="s">
-        <v>739</v>
+        <v>714</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="28" t="s">
-        <v>1052</v>
+        <v>1027</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>626</v>
       </c>
       <c r="C37" s="31" t="s">
-        <v>1064</v>
+        <v>1039</v>
       </c>
       <c r="D37" s="18" t="s">
         <v>632</v>
       </c>
       <c r="E37" s="19"/>
       <c r="F37" t="s">
-        <v>740</v>
+        <v>715</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="28" t="s">
-        <v>1053</v>
+        <v>1028</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>626</v>
@@ -12286,12 +12286,12 @@
       </c>
       <c r="E38" s="19"/>
       <c r="F38" t="s">
-        <v>741</v>
+        <v>716</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="28" t="s">
-        <v>1054</v>
+        <v>1029</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>626</v>
@@ -12304,12 +12304,12 @@
       </c>
       <c r="E39" s="19"/>
       <c r="F39" t="s">
-        <v>742</v>
+        <v>717</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="28" t="s">
-        <v>1055</v>
+        <v>1030</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>626</v>
@@ -12322,12 +12322,12 @@
       </c>
       <c r="E40" s="19"/>
       <c r="F40" t="s">
-        <v>743</v>
+        <v>718</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="28" t="s">
-        <v>1056</v>
+        <v>1031</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>626</v>
@@ -12340,30 +12340,30 @@
       </c>
       <c r="E41" s="18"/>
       <c r="F41" t="s">
-        <v>744</v>
+        <v>719</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="28" t="s">
-        <v>1057</v>
+        <v>1032</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>626</v>
       </c>
       <c r="C42" s="31" t="s">
-        <v>1065</v>
+        <v>1040</v>
       </c>
       <c r="D42" s="18" t="s">
         <v>632</v>
       </c>
       <c r="E42" s="19"/>
       <c r="F42" s="19" t="s">
-        <v>745</v>
+        <v>720</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="28" t="s">
-        <v>1058</v>
+        <v>1033</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>626</v>
@@ -12376,12 +12376,12 @@
       </c>
       <c r="E43" s="19"/>
       <c r="F43" t="s">
-        <v>746</v>
+        <v>721</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="28" t="s">
-        <v>1059</v>
+        <v>1034</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>626</v>
@@ -12394,12 +12394,12 @@
       </c>
       <c r="E44" s="19"/>
       <c r="F44" t="s">
-        <v>717</v>
+        <v>692</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="28" t="s">
-        <v>1060</v>
+        <v>1035</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>626</v>
@@ -12412,12 +12412,12 @@
       </c>
       <c r="E45" s="19"/>
       <c r="F45" t="s">
-        <v>747</v>
+        <v>722</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="28" t="s">
-        <v>1061</v>
+        <v>1036</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>626</v>
@@ -12430,12 +12430,12 @@
       </c>
       <c r="E46" s="19"/>
       <c r="F46" t="s">
-        <v>748</v>
+        <v>723</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="28" t="s">
-        <v>1062</v>
+        <v>1037</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>626</v>
@@ -12448,87 +12448,87 @@
       </c>
       <c r="E47" s="19"/>
       <c r="F47" t="s">
-        <v>749</v>
+        <v>724</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="28" t="s">
-        <v>1176</v>
+        <v>1151</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>1114</v>
+        <v>1089</v>
       </c>
       <c r="C48" s="19"/>
       <c r="D48" s="18" t="s">
-        <v>1067</v>
+        <v>1042</v>
       </c>
       <c r="E48" s="19"/>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="28" t="s">
-        <v>1070</v>
+        <v>1045</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C49" s="19" t="s">
-        <v>1110</v>
+        <v>1085</v>
       </c>
       <c r="D49" s="18" t="s">
-        <v>1067</v>
+        <v>1042</v>
       </c>
       <c r="E49" s="19" t="s">
-        <v>1069</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="34" t="s">
-        <v>1066</v>
+        <v>1041</v>
       </c>
       <c r="B50" s="32" t="s">
-        <v>1068</v>
+        <v>1043</v>
       </c>
       <c r="C50" s="19" t="s">
         <v>18</v>
       </c>
       <c r="D50" s="18" t="s">
-        <v>1072</v>
+        <v>1047</v>
       </c>
       <c r="E50" s="19"/>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="34" t="s">
-        <v>1073</v>
+        <v>1048</v>
       </c>
       <c r="B51" s="32" t="s">
-        <v>1068</v>
+        <v>1043</v>
       </c>
       <c r="C51" s="19" t="s">
-        <v>1051</v>
+        <v>1026</v>
       </c>
       <c r="D51" s="18" t="s">
-        <v>1072</v>
+        <v>1047</v>
       </c>
       <c r="E51" s="19"/>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="34" t="s">
-        <v>1074</v>
+        <v>1049</v>
       </c>
       <c r="B52" s="32" t="s">
-        <v>1068</v>
+        <v>1043</v>
       </c>
       <c r="C52" s="19" t="s">
         <v>43</v>
       </c>
       <c r="D52" s="18" t="s">
-        <v>1072</v>
+        <v>1047</v>
       </c>
       <c r="E52" s="19"/>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="35" t="s">
-        <v>1075</v>
+        <v>1050</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>626</v>
@@ -12537,16 +12537,16 @@
         <v>45</v>
       </c>
       <c r="D53" s="18" t="s">
-        <v>1067</v>
+        <v>1042</v>
       </c>
       <c r="E53" s="18"/>
       <c r="F53" s="6" t="s">
-        <v>750</v>
+        <v>725</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="28" t="s">
-        <v>1076</v>
+        <v>1051</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>626</v>
@@ -12555,16 +12555,16 @@
         <v>47</v>
       </c>
       <c r="D54" s="18" t="s">
-        <v>1067</v>
+        <v>1042</v>
       </c>
       <c r="E54" s="19"/>
       <c r="F54" t="s">
-        <v>751</v>
+        <v>726</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="28" t="s">
-        <v>1078</v>
+        <v>1053</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>626</v>
@@ -12573,16 +12573,16 @@
         <v>49</v>
       </c>
       <c r="D55" s="18" t="s">
-        <v>1067</v>
+        <v>1042</v>
       </c>
       <c r="E55" s="18"/>
       <c r="F55" t="s">
-        <v>752</v>
+        <v>727</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="28" t="s">
-        <v>1079</v>
+        <v>1054</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>626</v>
@@ -12591,16 +12591,16 @@
         <v>51</v>
       </c>
       <c r="D56" s="18" t="s">
-        <v>1067</v>
+        <v>1042</v>
       </c>
       <c r="E56" s="19"/>
       <c r="F56" t="s">
-        <v>753</v>
+        <v>728</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="28" t="s">
-        <v>1080</v>
+        <v>1055</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>626</v>
@@ -12609,16 +12609,16 @@
         <v>53</v>
       </c>
       <c r="D57" s="18" t="s">
-        <v>1067</v>
+        <v>1042</v>
       </c>
       <c r="E57" s="19"/>
       <c r="F57" t="s">
-        <v>754</v>
+        <v>729</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="28" t="s">
-        <v>1081</v>
+        <v>1056</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>626</v>
@@ -12627,16 +12627,16 @@
         <v>55</v>
       </c>
       <c r="D58" s="18" t="s">
-        <v>1067</v>
+        <v>1042</v>
       </c>
       <c r="E58" s="19"/>
       <c r="F58" t="s">
-        <v>755</v>
+        <v>730</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="28" t="s">
-        <v>1082</v>
+        <v>1057</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>626</v>
@@ -12645,16 +12645,16 @@
         <v>61</v>
       </c>
       <c r="D59" s="18" t="s">
-        <v>1067</v>
+        <v>1042</v>
       </c>
       <c r="E59" s="19"/>
       <c r="F59" t="s">
-        <v>756</v>
+        <v>731</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="28" t="s">
-        <v>1083</v>
+        <v>1058</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>626</v>
@@ -12663,16 +12663,16 @@
         <v>63</v>
       </c>
       <c r="D60" s="18" t="s">
-        <v>1067</v>
+        <v>1042</v>
       </c>
       <c r="E60" s="19"/>
       <c r="F60" t="s">
-        <v>757</v>
+        <v>732</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="28" t="s">
-        <v>1084</v>
+        <v>1059</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>626</v>
@@ -12681,16 +12681,16 @@
         <v>65</v>
       </c>
       <c r="D61" s="18" t="s">
-        <v>1067</v>
+        <v>1042</v>
       </c>
       <c r="E61" s="18"/>
       <c r="F61" s="6" t="s">
-        <v>758</v>
+        <v>733</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="28" t="s">
-        <v>1085</v>
+        <v>1060</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>626</v>
@@ -12699,16 +12699,16 @@
         <v>67</v>
       </c>
       <c r="D62" s="18" t="s">
-        <v>1067</v>
+        <v>1042</v>
       </c>
       <c r="E62" s="18"/>
       <c r="F62" t="s">
-        <v>759</v>
+        <v>734</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="28" t="s">
-        <v>1086</v>
+        <v>1061</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>626</v>
@@ -12717,16 +12717,16 @@
         <v>70</v>
       </c>
       <c r="D63" s="18" t="s">
-        <v>1067</v>
+        <v>1042</v>
       </c>
       <c r="E63" s="19"/>
       <c r="F63" t="s">
-        <v>760</v>
+        <v>735</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="28" t="s">
-        <v>1087</v>
+        <v>1062</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>626</v>
@@ -12735,16 +12735,16 @@
         <v>69</v>
       </c>
       <c r="D64" s="18" t="s">
-        <v>1067</v>
+        <v>1042</v>
       </c>
       <c r="E64" s="19"/>
       <c r="F64" t="s">
-        <v>761</v>
+        <v>736</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="28" t="s">
-        <v>1089</v>
+        <v>1064</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>626</v>
@@ -12753,16 +12753,16 @@
         <v>96</v>
       </c>
       <c r="D65" s="18" t="s">
-        <v>1067</v>
+        <v>1042</v>
       </c>
       <c r="E65" s="19"/>
       <c r="F65" t="s">
-        <v>762</v>
+        <v>737</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="28" t="s">
-        <v>1090</v>
+        <v>1065</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>626</v>
@@ -12771,16 +12771,16 @@
         <v>73</v>
       </c>
       <c r="D66" s="18" t="s">
-        <v>1067</v>
+        <v>1042</v>
       </c>
       <c r="E66" s="19"/>
       <c r="F66" t="s">
-        <v>763</v>
+        <v>738</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="28" t="s">
-        <v>1091</v>
+        <v>1066</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>626</v>
@@ -12789,16 +12789,16 @@
         <v>75</v>
       </c>
       <c r="D67" s="18" t="s">
-        <v>1067</v>
+        <v>1042</v>
       </c>
       <c r="E67" s="19"/>
       <c r="F67" t="s">
-        <v>764</v>
+        <v>739</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="28" t="s">
-        <v>1092</v>
+        <v>1067</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>626</v>
@@ -12807,16 +12807,16 @@
         <v>77</v>
       </c>
       <c r="D68" s="18" t="s">
-        <v>1067</v>
+        <v>1042</v>
       </c>
       <c r="E68" s="19"/>
       <c r="F68" t="s">
-        <v>765</v>
+        <v>740</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="28" t="s">
-        <v>1093</v>
+        <v>1068</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>626</v>
@@ -12825,16 +12825,16 @@
         <v>122</v>
       </c>
       <c r="D69" s="18" t="s">
-        <v>1067</v>
+        <v>1042</v>
       </c>
       <c r="E69" s="19"/>
       <c r="F69" t="s">
-        <v>766</v>
+        <v>741</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="28" t="s">
-        <v>1094</v>
+        <v>1069</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>626</v>
@@ -12843,16 +12843,16 @@
         <v>94</v>
       </c>
       <c r="D70" s="18" t="s">
-        <v>1067</v>
+        <v>1042</v>
       </c>
       <c r="E70" s="19"/>
       <c r="F70" t="s">
-        <v>768</v>
+        <v>743</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="28" t="s">
-        <v>1095</v>
+        <v>1070</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>626</v>
@@ -12861,29 +12861,29 @@
         <v>84</v>
       </c>
       <c r="D71" s="18" t="s">
-        <v>1067</v>
+        <v>1042</v>
       </c>
       <c r="E71" s="19"/>
       <c r="F71" t="s">
-        <v>769</v>
+        <v>744</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="28" t="s">
-        <v>1177</v>
+        <v>1152</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>1114</v>
+        <v>1089</v>
       </c>
       <c r="C72" s="19"/>
       <c r="D72" s="18" t="s">
-        <v>1088</v>
+        <v>1063</v>
       </c>
       <c r="E72" s="33"/>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="28" t="s">
-        <v>1096</v>
+        <v>1071</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>626</v>
@@ -12892,33 +12892,33 @@
         <v>541</v>
       </c>
       <c r="D73" s="18" t="s">
-        <v>1067</v>
+        <v>1042</v>
       </c>
       <c r="E73" s="26"/>
       <c r="F73" t="s">
-        <v>770</v>
+        <v>745</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="28" t="s">
-        <v>1112</v>
+        <v>1087</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C74" s="19" t="s">
-        <v>1111</v>
+        <v>1086</v>
       </c>
       <c r="D74" s="18" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E74" s="33" t="s">
         <v>1088</v>
-      </c>
-      <c r="E74" s="33" t="s">
-        <v>1113</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="28" t="s">
-        <v>1097</v>
+        <v>1072</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>626</v>
@@ -12927,16 +12927,16 @@
         <v>86</v>
       </c>
       <c r="D75" s="18" t="s">
-        <v>1088</v>
+        <v>1063</v>
       </c>
       <c r="E75" s="19"/>
       <c r="F75" t="s">
-        <v>771</v>
+        <v>746</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="28" t="s">
-        <v>1098</v>
+        <v>1073</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>626</v>
@@ -12945,16 +12945,16 @@
         <v>542</v>
       </c>
       <c r="D76" s="18" t="s">
-        <v>1088</v>
+        <v>1063</v>
       </c>
       <c r="E76" s="26"/>
       <c r="F76" t="s">
-        <v>772</v>
+        <v>747</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="28" t="s">
-        <v>1099</v>
+        <v>1074</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>626</v>
@@ -12963,16 +12963,16 @@
         <v>546</v>
       </c>
       <c r="D77" s="18" t="s">
-        <v>1088</v>
+        <v>1063</v>
       </c>
       <c r="E77" s="26"/>
       <c r="F77" t="s">
-        <v>773</v>
+        <v>748</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="28" t="s">
-        <v>1100</v>
+        <v>1075</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>626</v>
@@ -12981,16 +12981,16 @@
         <v>547</v>
       </c>
       <c r="D78" s="18" t="s">
-        <v>1088</v>
+        <v>1063</v>
       </c>
       <c r="E78" s="18"/>
       <c r="F78" s="6" t="s">
-        <v>775</v>
+        <v>750</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="28" t="s">
-        <v>1101</v>
+        <v>1076</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>626</v>
@@ -12999,16 +12999,16 @@
         <v>88</v>
       </c>
       <c r="D79" s="18" t="s">
-        <v>1088</v>
+        <v>1063</v>
       </c>
       <c r="E79" s="19"/>
       <c r="F79" t="s">
-        <v>776</v>
+        <v>751</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="28" t="s">
-        <v>1102</v>
+        <v>1077</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>626</v>
@@ -13017,16 +13017,16 @@
         <v>549</v>
       </c>
       <c r="D80" s="18" t="s">
-        <v>1067</v>
+        <v>1042</v>
       </c>
       <c r="E80" s="19"/>
       <c r="F80" t="s">
-        <v>777</v>
+        <v>752</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="28" t="s">
-        <v>1103</v>
+        <v>1078</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>626</v>
@@ -13035,16 +13035,16 @@
         <v>548</v>
       </c>
       <c r="D81" s="18" t="s">
-        <v>1088</v>
+        <v>1063</v>
       </c>
       <c r="E81" s="18"/>
       <c r="F81" s="6" t="s">
-        <v>778</v>
+        <v>753</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="28" t="s">
-        <v>1104</v>
+        <v>1079</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>626</v>
@@ -13053,16 +13053,16 @@
         <v>550</v>
       </c>
       <c r="D82" s="18" t="s">
-        <v>1088</v>
+        <v>1063</v>
       </c>
       <c r="E82" s="19"/>
       <c r="F82" t="s">
-        <v>779</v>
+        <v>754</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="28" t="s">
-        <v>1105</v>
+        <v>1080</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>626</v>
@@ -13071,16 +13071,16 @@
         <v>551</v>
       </c>
       <c r="D83" s="18" t="s">
-        <v>1088</v>
+        <v>1063</v>
       </c>
       <c r="E83" s="19"/>
       <c r="F83" t="s">
-        <v>780</v>
+        <v>755</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="28" t="s">
-        <v>1106</v>
+        <v>1081</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>626</v>
@@ -13089,16 +13089,16 @@
         <v>97</v>
       </c>
       <c r="D84" s="18" t="s">
-        <v>1088</v>
+        <v>1063</v>
       </c>
       <c r="E84" s="19"/>
       <c r="F84" t="s">
-        <v>781</v>
+        <v>756</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="28" t="s">
-        <v>1107</v>
+        <v>1082</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>626</v>
@@ -13107,16 +13107,16 @@
         <v>98</v>
       </c>
       <c r="D85" s="18" t="s">
-        <v>1088</v>
+        <v>1063</v>
       </c>
       <c r="E85" s="19"/>
       <c r="F85" t="s">
-        <v>782</v>
+        <v>757</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="28" t="s">
-        <v>1108</v>
+        <v>1083</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>626</v>
@@ -13125,32 +13125,32 @@
         <v>104</v>
       </c>
       <c r="D86" s="18" t="s">
-        <v>1067</v>
+        <v>1042</v>
       </c>
       <c r="E86" s="18"/>
       <c r="F86" s="6" t="s">
-        <v>783</v>
+        <v>758</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="28" t="s">
-        <v>1186</v>
+        <v>1161</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>1068</v>
+        <v>1043</v>
       </c>
       <c r="C87" s="18" t="s">
         <v>104</v>
       </c>
       <c r="D87" s="18" t="s">
-        <v>1072</v>
+        <v>1047</v>
       </c>
       <c r="E87" s="18"/>
       <c r="F87" s="6"/>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="28" t="s">
-        <v>1109</v>
+        <v>1084</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>626</v>
@@ -13163,27 +13163,27 @@
       </c>
       <c r="E88" s="26"/>
       <c r="F88" t="s">
-        <v>784</v>
+        <v>759</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="28" t="s">
-        <v>1187</v>
+        <v>1162</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>1068</v>
+        <v>1043</v>
       </c>
       <c r="C89" s="26" t="s">
         <v>552</v>
       </c>
       <c r="D89" s="26" t="s">
-        <v>1072</v>
+        <v>1047</v>
       </c>
       <c r="E89" s="26"/>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="28" t="s">
-        <v>1116</v>
+        <v>1091</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>626</v>
@@ -13192,31 +13192,31 @@
         <v>124</v>
       </c>
       <c r="D90" s="18" t="s">
-        <v>1067</v>
+        <v>1042</v>
       </c>
       <c r="E90" s="19"/>
       <c r="F90" t="s">
-        <v>785</v>
+        <v>760</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="28" t="s">
-        <v>1188</v>
+        <v>1163</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>1068</v>
+        <v>1043</v>
       </c>
       <c r="C91" s="19" t="s">
         <v>124</v>
       </c>
       <c r="D91" s="18" t="s">
-        <v>1072</v>
+        <v>1047</v>
       </c>
       <c r="E91" s="19"/>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="28" t="s">
-        <v>1117</v>
+        <v>1092</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>626</v>
@@ -13225,16 +13225,16 @@
         <v>107</v>
       </c>
       <c r="D92" s="18" t="s">
-        <v>1088</v>
+        <v>1063</v>
       </c>
       <c r="E92" s="19"/>
       <c r="F92" t="s">
-        <v>786</v>
+        <v>761</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="28" t="s">
-        <v>1118</v>
+        <v>1093</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>626</v>
@@ -13243,16 +13243,16 @@
         <v>106</v>
       </c>
       <c r="D93" s="18" t="s">
-        <v>1088</v>
+        <v>1063</v>
       </c>
       <c r="E93" s="19"/>
       <c r="F93" t="s">
-        <v>787</v>
+        <v>762</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="28" t="s">
-        <v>1119</v>
+        <v>1094</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>626</v>
@@ -13261,16 +13261,16 @@
         <v>109</v>
       </c>
       <c r="D94" s="18" t="s">
-        <v>1088</v>
+        <v>1063</v>
       </c>
       <c r="E94" s="18"/>
       <c r="F94" t="s">
-        <v>788</v>
+        <v>763</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="28" t="s">
-        <v>1120</v>
+        <v>1095</v>
       </c>
       <c r="B95" s="3" t="s">
         <v>626</v>
@@ -13279,16 +13279,16 @@
         <v>108</v>
       </c>
       <c r="D95" s="18" t="s">
-        <v>1088</v>
+        <v>1063</v>
       </c>
       <c r="E95" s="19"/>
       <c r="F95" t="s">
-        <v>789</v>
+        <v>764</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="28" t="s">
-        <v>1121</v>
+        <v>1096</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>626</v>
@@ -13297,16 +13297,16 @@
         <v>112</v>
       </c>
       <c r="D96" s="18" t="s">
-        <v>1088</v>
+        <v>1063</v>
       </c>
       <c r="E96" s="19"/>
       <c r="F96" t="s">
-        <v>790</v>
+        <v>765</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="28" t="s">
-        <v>1122</v>
+        <v>1097</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>626</v>
@@ -13315,16 +13315,16 @@
         <v>113</v>
       </c>
       <c r="D97" s="18" t="s">
-        <v>1088</v>
+        <v>1063</v>
       </c>
       <c r="E97" s="18"/>
       <c r="F97" s="6" t="s">
-        <v>792</v>
+        <v>767</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="28" t="s">
-        <v>1123</v>
+        <v>1098</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>626</v>
@@ -13333,16 +13333,16 @@
         <v>127</v>
       </c>
       <c r="D98" s="18" t="s">
-        <v>1088</v>
+        <v>1063</v>
       </c>
       <c r="E98" s="19"/>
       <c r="F98" t="s">
-        <v>793</v>
+        <v>768</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="28" t="s">
-        <v>1124</v>
+        <v>1099</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>626</v>
@@ -13351,16 +13351,16 @@
         <v>129</v>
       </c>
       <c r="D99" s="18" t="s">
-        <v>1088</v>
+        <v>1063</v>
       </c>
       <c r="E99" s="18"/>
       <c r="F99" t="s">
-        <v>794</v>
+        <v>769</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="28" t="s">
-        <v>1125</v>
+        <v>1100</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>626</v>
@@ -13369,16 +13369,16 @@
         <v>169</v>
       </c>
       <c r="D100" s="18" t="s">
-        <v>1088</v>
+        <v>1063</v>
       </c>
       <c r="E100" s="19"/>
       <c r="F100" t="s">
-        <v>795</v>
+        <v>770</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="28" t="s">
-        <v>1126</v>
+        <v>1101</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>626</v>
@@ -13387,16 +13387,16 @@
         <v>131</v>
       </c>
       <c r="D101" s="18" t="s">
-        <v>1088</v>
+        <v>1063</v>
       </c>
       <c r="E101" s="18"/>
       <c r="F101" t="s">
-        <v>796</v>
+        <v>771</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="28" t="s">
-        <v>1127</v>
+        <v>1102</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>626</v>
@@ -13405,16 +13405,16 @@
         <v>133</v>
       </c>
       <c r="D102" s="18" t="s">
-        <v>1088</v>
+        <v>1063</v>
       </c>
       <c r="E102" s="19"/>
       <c r="F102" t="s">
-        <v>797</v>
+        <v>772</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="28" t="s">
-        <v>1128</v>
+        <v>1103</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>626</v>
@@ -13423,16 +13423,16 @@
         <v>577</v>
       </c>
       <c r="D103" s="18" t="s">
-        <v>1088</v>
+        <v>1063</v>
       </c>
       <c r="E103" s="26"/>
       <c r="F103" t="s">
-        <v>798</v>
+        <v>773</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="28" t="s">
-        <v>1129</v>
+        <v>1104</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>626</v>
@@ -13441,16 +13441,16 @@
         <v>555</v>
       </c>
       <c r="D104" s="18" t="s">
-        <v>1088</v>
+        <v>1063</v>
       </c>
       <c r="E104" s="26"/>
       <c r="F104" t="s">
-        <v>799</v>
+        <v>774</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="28" t="s">
-        <v>1130</v>
+        <v>1105</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>626</v>
@@ -13459,16 +13459,16 @@
         <v>135</v>
       </c>
       <c r="D105" s="18" t="s">
-        <v>1088</v>
+        <v>1063</v>
       </c>
       <c r="E105" s="19"/>
       <c r="F105" t="s">
-        <v>800</v>
+        <v>775</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="28" t="s">
-        <v>1131</v>
+        <v>1106</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>626</v>
@@ -13477,16 +13477,16 @@
         <v>566</v>
       </c>
       <c r="D106" s="18" t="s">
-        <v>1088</v>
+        <v>1063</v>
       </c>
       <c r="E106" s="19"/>
       <c r="F106" t="s">
-        <v>801</v>
+        <v>776</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="28" t="s">
-        <v>1132</v>
+        <v>1107</v>
       </c>
       <c r="B107" s="3" t="s">
         <v>626</v>
@@ -13495,16 +13495,16 @@
         <v>568</v>
       </c>
       <c r="D107" s="18" t="s">
-        <v>1088</v>
+        <v>1063</v>
       </c>
       <c r="E107" s="19"/>
       <c r="F107" t="s">
-        <v>802</v>
+        <v>777</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="28" t="s">
-        <v>1133</v>
+        <v>1108</v>
       </c>
       <c r="B108" s="3" t="s">
         <v>626</v>
@@ -13513,16 +13513,16 @@
         <v>578</v>
       </c>
       <c r="D108" s="18" t="s">
-        <v>1088</v>
+        <v>1063</v>
       </c>
       <c r="E108" s="19"/>
       <c r="F108" t="s">
-        <v>803</v>
+        <v>778</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="28" t="s">
-        <v>1134</v>
+        <v>1109</v>
       </c>
       <c r="B109" s="3" t="s">
         <v>626</v>
@@ -13531,16 +13531,16 @@
         <v>579</v>
       </c>
       <c r="D109" s="18" t="s">
-        <v>1088</v>
+        <v>1063</v>
       </c>
       <c r="E109" s="19"/>
       <c r="F109" t="s">
-        <v>804</v>
+        <v>779</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="28" t="s">
-        <v>1135</v>
+        <v>1110</v>
       </c>
       <c r="B110" s="3" t="s">
         <v>626</v>
@@ -13549,16 +13549,16 @@
         <v>538</v>
       </c>
       <c r="D110" s="18" t="s">
-        <v>1088</v>
+        <v>1063</v>
       </c>
       <c r="E110" s="26"/>
       <c r="F110" t="s">
-        <v>805</v>
+        <v>780</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="28" t="s">
-        <v>1136</v>
+        <v>1111</v>
       </c>
       <c r="B111" s="3" t="s">
         <v>626</v>
@@ -13567,16 +13567,16 @@
         <v>143</v>
       </c>
       <c r="D111" s="18" t="s">
-        <v>1088</v>
+        <v>1063</v>
       </c>
       <c r="E111" s="19"/>
       <c r="F111" t="s">
-        <v>806</v>
+        <v>781</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="28" t="s">
-        <v>1137</v>
+        <v>1112</v>
       </c>
       <c r="B112" s="3" t="s">
         <v>626</v>
@@ -13585,16 +13585,16 @@
         <v>145</v>
       </c>
       <c r="D112" s="18" t="s">
-        <v>1088</v>
+        <v>1063</v>
       </c>
       <c r="E112" s="19"/>
       <c r="F112" t="s">
-        <v>807</v>
+        <v>782</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="28" t="s">
-        <v>1138</v>
+        <v>1113</v>
       </c>
       <c r="B113" s="3" t="s">
         <v>626</v>
@@ -13603,16 +13603,16 @@
         <v>580</v>
       </c>
       <c r="D113" s="18" t="s">
-        <v>1088</v>
+        <v>1063</v>
       </c>
       <c r="E113" s="26"/>
       <c r="F113" t="s">
-        <v>808</v>
+        <v>783</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="28" t="s">
-        <v>1139</v>
+        <v>1114</v>
       </c>
       <c r="B114" s="3" t="s">
         <v>626</v>
@@ -13621,16 +13621,16 @@
         <v>530</v>
       </c>
       <c r="D114" s="18" t="s">
-        <v>1088</v>
+        <v>1063</v>
       </c>
       <c r="E114" s="19"/>
       <c r="F114" t="s">
-        <v>809</v>
+        <v>784</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="28" t="s">
-        <v>1140</v>
+        <v>1115</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>626</v>
@@ -13639,16 +13639,16 @@
         <v>581</v>
       </c>
       <c r="D115" s="18" t="s">
-        <v>1088</v>
+        <v>1063</v>
       </c>
       <c r="E115" s="26"/>
       <c r="F115" t="s">
-        <v>811</v>
+        <v>786</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="28" t="s">
-        <v>1141</v>
+        <v>1116</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>626</v>
@@ -13657,16 +13657,16 @@
         <v>149</v>
       </c>
       <c r="D116" s="18" t="s">
-        <v>1088</v>
+        <v>1063</v>
       </c>
       <c r="E116" s="19"/>
       <c r="F116" t="s">
-        <v>812</v>
+        <v>787</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="28" t="s">
-        <v>1142</v>
+        <v>1117</v>
       </c>
       <c r="B117" s="3" t="s">
         <v>626</v>
@@ -13675,16 +13675,16 @@
         <v>139</v>
       </c>
       <c r="D117" s="18" t="s">
-        <v>1088</v>
+        <v>1063</v>
       </c>
       <c r="E117" s="19"/>
       <c r="F117" t="s">
-        <v>813</v>
+        <v>788</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118" s="28" t="s">
-        <v>1143</v>
+        <v>1118</v>
       </c>
       <c r="B118" s="3" t="s">
         <v>626</v>
@@ -13693,16 +13693,16 @@
         <v>140</v>
       </c>
       <c r="D118" s="18" t="s">
-        <v>1088</v>
+        <v>1063</v>
       </c>
       <c r="E118" s="26"/>
       <c r="F118" t="s">
-        <v>814</v>
+        <v>789</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119" s="28" t="s">
-        <v>1144</v>
+        <v>1119</v>
       </c>
       <c r="B119" s="3" t="s">
         <v>626</v>
@@ -13711,16 +13711,16 @@
         <v>162</v>
       </c>
       <c r="D119" s="18" t="s">
-        <v>1088</v>
+        <v>1063</v>
       </c>
       <c r="E119" s="19"/>
       <c r="F119" t="s">
-        <v>815</v>
+        <v>790</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120" s="28" t="s">
-        <v>1145</v>
+        <v>1120</v>
       </c>
       <c r="B120" s="3" t="s">
         <v>626</v>
@@ -13729,16 +13729,16 @@
         <v>151</v>
       </c>
       <c r="D120" s="18" t="s">
-        <v>1088</v>
+        <v>1063</v>
       </c>
       <c r="E120" s="19"/>
       <c r="F120" t="s">
-        <v>816</v>
+        <v>791</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="28" t="s">
-        <v>1146</v>
+        <v>1121</v>
       </c>
       <c r="B121" s="3" t="s">
         <v>626</v>
@@ -13747,16 +13747,16 @@
         <v>526</v>
       </c>
       <c r="D121" s="18" t="s">
-        <v>1088</v>
+        <v>1063</v>
       </c>
       <c r="E121" s="26"/>
       <c r="F121" t="s">
-        <v>817</v>
+        <v>792</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="28" t="s">
-        <v>1147</v>
+        <v>1122</v>
       </c>
       <c r="B122" s="3" t="s">
         <v>626</v>
@@ -13765,16 +13765,16 @@
         <v>150</v>
       </c>
       <c r="D122" s="18" t="s">
-        <v>1088</v>
+        <v>1063</v>
       </c>
       <c r="E122" s="19"/>
       <c r="F122" t="s">
-        <v>818</v>
+        <v>793</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="28" t="s">
-        <v>1148</v>
+        <v>1123</v>
       </c>
       <c r="B123" s="3" t="s">
         <v>626</v>
@@ -13783,16 +13783,16 @@
         <v>524</v>
       </c>
       <c r="D123" s="18" t="s">
-        <v>1088</v>
+        <v>1063</v>
       </c>
       <c r="E123" s="19"/>
       <c r="F123" t="s">
-        <v>819</v>
+        <v>794</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="28" t="s">
-        <v>1149</v>
+        <v>1124</v>
       </c>
       <c r="B124" s="3" t="s">
         <v>626</v>
@@ -13801,16 +13801,16 @@
         <v>582</v>
       </c>
       <c r="D124" s="18" t="s">
-        <v>1088</v>
+        <v>1063</v>
       </c>
       <c r="E124" s="26"/>
       <c r="F124" t="s">
-        <v>820</v>
+        <v>795</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="28" t="s">
-        <v>1150</v>
+        <v>1125</v>
       </c>
       <c r="B125" s="3" t="s">
         <v>626</v>
@@ -13819,16 +13819,16 @@
         <v>570</v>
       </c>
       <c r="D125" s="18" t="s">
-        <v>1088</v>
+        <v>1063</v>
       </c>
       <c r="E125" s="26"/>
       <c r="F125" t="s">
-        <v>821</v>
+        <v>796</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="28" t="s">
-        <v>1151</v>
+        <v>1126</v>
       </c>
       <c r="B126" s="3" t="s">
         <v>626</v>
@@ -13837,16 +13837,16 @@
         <v>572</v>
       </c>
       <c r="D126" s="18" t="s">
-        <v>1088</v>
+        <v>1063</v>
       </c>
       <c r="E126" s="19"/>
       <c r="F126" t="s">
-        <v>822</v>
+        <v>797</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="28" t="s">
-        <v>1152</v>
+        <v>1127</v>
       </c>
       <c r="B127" s="3" t="s">
         <v>626</v>
@@ -13855,16 +13855,16 @@
         <v>574</v>
       </c>
       <c r="D127" s="18" t="s">
-        <v>1088</v>
+        <v>1063</v>
       </c>
       <c r="E127" s="19"/>
       <c r="F127" t="s">
-        <v>823</v>
+        <v>798</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128" s="28" t="s">
-        <v>1153</v>
+        <v>1128</v>
       </c>
       <c r="B128" s="3" t="s">
         <v>626</v>
@@ -13873,16 +13873,16 @@
         <v>583</v>
       </c>
       <c r="D128" s="18" t="s">
-        <v>1088</v>
+        <v>1063</v>
       </c>
       <c r="E128" s="26"/>
       <c r="F128" t="s">
-        <v>824</v>
+        <v>799</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129" s="28" t="s">
-        <v>1154</v>
+        <v>1129</v>
       </c>
       <c r="B129" s="3" t="s">
         <v>626</v>
@@ -13891,16 +13891,16 @@
         <v>584</v>
       </c>
       <c r="D129" s="18" t="s">
-        <v>1088</v>
+        <v>1063</v>
       </c>
       <c r="E129" s="26"/>
       <c r="F129" t="s">
-        <v>825</v>
+        <v>800</v>
       </c>
     </row>
     <row r="130" spans="1:6">
       <c r="A130" s="28" t="s">
-        <v>1155</v>
+        <v>1130</v>
       </c>
       <c r="B130" s="3" t="s">
         <v>626</v>
@@ -13909,16 +13909,16 @@
         <v>156</v>
       </c>
       <c r="D130" s="18" t="s">
-        <v>1088</v>
+        <v>1063</v>
       </c>
       <c r="E130" s="19"/>
       <c r="F130" t="s">
-        <v>826</v>
+        <v>801</v>
       </c>
     </row>
     <row r="131" spans="1:6">
       <c r="A131" s="28" t="s">
-        <v>1156</v>
+        <v>1131</v>
       </c>
       <c r="B131" s="3" t="s">
         <v>626</v>
@@ -13927,16 +13927,16 @@
         <v>158</v>
       </c>
       <c r="D131" s="18" t="s">
-        <v>1088</v>
+        <v>1063</v>
       </c>
       <c r="E131" s="19"/>
       <c r="F131" t="s">
-        <v>827</v>
+        <v>802</v>
       </c>
     </row>
     <row r="132" spans="1:6">
       <c r="A132" s="28" t="s">
-        <v>1157</v>
+        <v>1132</v>
       </c>
       <c r="B132" s="3" t="s">
         <v>626</v>
@@ -13945,16 +13945,16 @@
         <v>160</v>
       </c>
       <c r="D132" s="18" t="s">
-        <v>1088</v>
+        <v>1063</v>
       </c>
       <c r="E132" s="18"/>
       <c r="F132" s="6" t="s">
-        <v>828</v>
+        <v>803</v>
       </c>
     </row>
     <row r="133" spans="1:6">
       <c r="A133" s="28" t="s">
-        <v>1158</v>
+        <v>1133</v>
       </c>
       <c r="B133" s="3" t="s">
         <v>626</v>
@@ -13963,29 +13963,29 @@
         <v>594</v>
       </c>
       <c r="D133" s="18" t="s">
-        <v>1088</v>
+        <v>1063</v>
       </c>
       <c r="E133" s="26"/>
       <c r="F133" t="s">
-        <v>829</v>
+        <v>804</v>
       </c>
     </row>
     <row r="134" spans="1:6">
       <c r="A134" s="28" t="s">
-        <v>1178</v>
+        <v>1153</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>1114</v>
+        <v>1089</v>
       </c>
       <c r="C134" s="19"/>
       <c r="D134" s="18" t="s">
-        <v>1115</v>
+        <v>1090</v>
       </c>
       <c r="E134" s="26"/>
     </row>
     <row r="135" spans="1:6">
       <c r="A135" s="28" t="s">
-        <v>1224</v>
+        <v>1199</v>
       </c>
       <c r="B135" s="3" t="s">
         <v>626</v>
@@ -13994,16 +13994,16 @@
         <v>163</v>
       </c>
       <c r="D135" s="18" t="s">
-        <v>1115</v>
+        <v>1090</v>
       </c>
       <c r="E135" s="19"/>
       <c r="F135" t="s">
-        <v>830</v>
+        <v>805</v>
       </c>
     </row>
     <row r="136" spans="1:6">
       <c r="A136" s="28" t="s">
-        <v>1225</v>
+        <v>1200</v>
       </c>
       <c r="B136" s="3" t="s">
         <v>626</v>
@@ -14012,16 +14012,16 @@
         <v>598</v>
       </c>
       <c r="D136" s="18" t="s">
-        <v>1115</v>
+        <v>1090</v>
       </c>
       <c r="E136" s="26"/>
       <c r="F136" t="s">
-        <v>831</v>
+        <v>806</v>
       </c>
     </row>
     <row r="137" spans="1:6">
       <c r="A137" s="28" t="s">
-        <v>1226</v>
+        <v>1201</v>
       </c>
       <c r="B137" s="3" t="s">
         <v>626</v>
@@ -14030,16 +14030,16 @@
         <v>167</v>
       </c>
       <c r="D137" s="18" t="s">
-        <v>1115</v>
+        <v>1090</v>
       </c>
       <c r="E137" s="19"/>
       <c r="F137" t="s">
-        <v>832</v>
+        <v>807</v>
       </c>
     </row>
     <row r="138" spans="1:6">
       <c r="A138" s="28" t="s">
-        <v>1189</v>
+        <v>1164</v>
       </c>
       <c r="B138" s="3" t="s">
         <v>626</v>
@@ -14048,16 +14048,16 @@
         <v>251</v>
       </c>
       <c r="D138" s="18" t="s">
-        <v>1115</v>
+        <v>1090</v>
       </c>
       <c r="E138" s="19"/>
       <c r="F138" t="s">
-        <v>833</v>
+        <v>808</v>
       </c>
     </row>
     <row r="139" spans="1:6">
       <c r="A139" s="28" t="s">
-        <v>1190</v>
+        <v>1165</v>
       </c>
       <c r="B139" s="3" t="s">
         <v>626</v>
@@ -14066,16 +14066,16 @@
         <v>170</v>
       </c>
       <c r="D139" s="18" t="s">
-        <v>1115</v>
+        <v>1090</v>
       </c>
       <c r="E139" s="26"/>
       <c r="F139" t="s">
-        <v>834</v>
+        <v>809</v>
       </c>
     </row>
     <row r="140" spans="1:6">
       <c r="A140" s="28" t="s">
-        <v>1191</v>
+        <v>1166</v>
       </c>
       <c r="B140" s="3" t="s">
         <v>626</v>
@@ -14084,16 +14084,16 @@
         <v>171</v>
       </c>
       <c r="D140" s="18" t="s">
-        <v>1115</v>
+        <v>1090</v>
       </c>
       <c r="E140" s="27"/>
       <c r="F140" t="s">
-        <v>835</v>
+        <v>810</v>
       </c>
     </row>
     <row r="141" spans="1:6">
       <c r="A141" s="28" t="s">
-        <v>1192</v>
+        <v>1167</v>
       </c>
       <c r="B141" s="3" t="s">
         <v>626</v>
@@ -14102,16 +14102,16 @@
         <v>172</v>
       </c>
       <c r="D141" s="18" t="s">
-        <v>1115</v>
+        <v>1090</v>
       </c>
       <c r="E141" s="19"/>
       <c r="F141" t="s">
-        <v>836</v>
+        <v>811</v>
       </c>
     </row>
     <row r="142" spans="1:6">
       <c r="A142" s="28" t="s">
-        <v>1193</v>
+        <v>1168</v>
       </c>
       <c r="B142" s="3" t="s">
         <v>626</v>
@@ -14120,16 +14120,16 @@
         <v>600</v>
       </c>
       <c r="D142" s="18" t="s">
-        <v>1115</v>
+        <v>1090</v>
       </c>
       <c r="E142" s="26"/>
       <c r="F142" t="s">
-        <v>837</v>
+        <v>812</v>
       </c>
     </row>
     <row r="143" spans="1:6">
       <c r="A143" s="28" t="s">
-        <v>1194</v>
+        <v>1169</v>
       </c>
       <c r="B143" s="3" t="s">
         <v>626</v>
@@ -14138,16 +14138,16 @@
         <v>173</v>
       </c>
       <c r="D143" s="18" t="s">
-        <v>1115</v>
+        <v>1090</v>
       </c>
       <c r="E143" s="26"/>
       <c r="F143" t="s">
-        <v>838</v>
+        <v>813</v>
       </c>
     </row>
     <row r="144" spans="1:6">
       <c r="A144" s="28" t="s">
-        <v>1195</v>
+        <v>1170</v>
       </c>
       <c r="B144" s="3" t="s">
         <v>626</v>
@@ -14156,16 +14156,16 @@
         <v>189</v>
       </c>
       <c r="D144" s="18" t="s">
-        <v>1115</v>
+        <v>1090</v>
       </c>
       <c r="E144" s="26"/>
       <c r="F144" t="s">
-        <v>839</v>
+        <v>814</v>
       </c>
     </row>
     <row r="145" spans="1:6">
       <c r="A145" s="28" t="s">
-        <v>1196</v>
+        <v>1171</v>
       </c>
       <c r="B145" s="3" t="s">
         <v>626</v>
@@ -14174,16 +14174,16 @@
         <v>174</v>
       </c>
       <c r="D145" s="18" t="s">
-        <v>1115</v>
+        <v>1090</v>
       </c>
       <c r="E145" s="26"/>
       <c r="F145" t="s">
-        <v>840</v>
+        <v>815</v>
       </c>
     </row>
     <row r="146" spans="1:6">
       <c r="A146" s="28" t="s">
-        <v>1197</v>
+        <v>1172</v>
       </c>
       <c r="B146" s="3" t="s">
         <v>626</v>
@@ -14192,16 +14192,16 @@
         <v>176</v>
       </c>
       <c r="D146" s="18" t="s">
-        <v>1115</v>
+        <v>1090</v>
       </c>
       <c r="E146" s="26"/>
       <c r="F146" t="s">
-        <v>841</v>
+        <v>816</v>
       </c>
     </row>
     <row r="147" spans="1:6">
       <c r="A147" s="28" t="s">
-        <v>1198</v>
+        <v>1173</v>
       </c>
       <c r="B147" s="3" t="s">
         <v>626</v>
@@ -14210,16 +14210,16 @@
         <v>175</v>
       </c>
       <c r="D147" s="18" t="s">
-        <v>1115</v>
+        <v>1090</v>
       </c>
       <c r="E147" s="26"/>
       <c r="F147" t="s">
-        <v>842</v>
+        <v>817</v>
       </c>
     </row>
     <row r="148" spans="1:6">
       <c r="A148" s="28" t="s">
-        <v>1199</v>
+        <v>1174</v>
       </c>
       <c r="B148" s="3" t="s">
         <v>626</v>
@@ -14228,16 +14228,16 @@
         <v>183</v>
       </c>
       <c r="D148" s="18" t="s">
-        <v>1115</v>
+        <v>1090</v>
       </c>
       <c r="E148" s="26"/>
       <c r="F148" t="s">
-        <v>843</v>
+        <v>818</v>
       </c>
     </row>
     <row r="149" spans="1:6">
       <c r="A149" s="28" t="s">
-        <v>1200</v>
+        <v>1175</v>
       </c>
       <c r="B149" s="3" t="s">
         <v>626</v>
@@ -14246,16 +14246,16 @@
         <v>185</v>
       </c>
       <c r="D149" s="18" t="s">
-        <v>1115</v>
+        <v>1090</v>
       </c>
       <c r="E149" s="26"/>
       <c r="F149" t="s">
-        <v>844</v>
+        <v>819</v>
       </c>
     </row>
     <row r="150" spans="1:6">
       <c r="A150" s="28" t="s">
-        <v>1201</v>
+        <v>1176</v>
       </c>
       <c r="B150" s="3" t="s">
         <v>626</v>
@@ -14264,16 +14264,16 @@
         <v>184</v>
       </c>
       <c r="D150" s="18" t="s">
-        <v>1115</v>
+        <v>1090</v>
       </c>
       <c r="E150" s="26"/>
       <c r="F150" t="s">
-        <v>845</v>
+        <v>820</v>
       </c>
     </row>
     <row r="151" spans="1:6">
       <c r="A151" s="28" t="s">
-        <v>1202</v>
+        <v>1177</v>
       </c>
       <c r="B151" s="3" t="s">
         <v>626</v>
@@ -14282,16 +14282,16 @@
         <v>186</v>
       </c>
       <c r="D151" s="18" t="s">
-        <v>1115</v>
+        <v>1090</v>
       </c>
       <c r="E151" s="19"/>
       <c r="F151" t="s">
-        <v>846</v>
+        <v>821</v>
       </c>
     </row>
     <row r="152" spans="1:6">
       <c r="A152" s="28" t="s">
-        <v>1203</v>
+        <v>1178</v>
       </c>
       <c r="B152" s="3" t="s">
         <v>626</v>
@@ -14300,16 +14300,16 @@
         <v>187</v>
       </c>
       <c r="D152" s="18" t="s">
-        <v>1115</v>
+        <v>1090</v>
       </c>
       <c r="E152" s="26"/>
       <c r="F152" t="s">
-        <v>847</v>
+        <v>822</v>
       </c>
     </row>
     <row r="153" spans="1:6">
       <c r="A153" s="28" t="s">
-        <v>1204</v>
+        <v>1179</v>
       </c>
       <c r="B153" s="3" t="s">
         <v>626</v>
@@ -14318,16 +14318,16 @@
         <v>188</v>
       </c>
       <c r="D153" s="18" t="s">
-        <v>1115</v>
+        <v>1090</v>
       </c>
       <c r="E153" s="27"/>
       <c r="F153" t="s">
-        <v>848</v>
+        <v>823</v>
       </c>
     </row>
     <row r="154" spans="1:6">
       <c r="A154" s="28" t="s">
-        <v>1205</v>
+        <v>1180</v>
       </c>
       <c r="B154" s="3" t="s">
         <v>626</v>
@@ -14336,16 +14336,16 @@
         <v>192</v>
       </c>
       <c r="D154" s="18" t="s">
-        <v>1115</v>
+        <v>1090</v>
       </c>
       <c r="E154" s="26"/>
       <c r="F154" t="s">
-        <v>849</v>
+        <v>824</v>
       </c>
     </row>
     <row r="155" spans="1:6">
       <c r="A155" s="28" t="s">
-        <v>1206</v>
+        <v>1181</v>
       </c>
       <c r="B155" s="3" t="s">
         <v>626</v>
@@ -14354,16 +14354,16 @@
         <v>190</v>
       </c>
       <c r="D155" s="18" t="s">
-        <v>1115</v>
+        <v>1090</v>
       </c>
       <c r="E155" s="26"/>
       <c r="F155" t="s">
-        <v>850</v>
+        <v>825</v>
       </c>
     </row>
     <row r="156" spans="1:6">
       <c r="A156" s="28" t="s">
-        <v>1207</v>
+        <v>1182</v>
       </c>
       <c r="B156" s="3" t="s">
         <v>626</v>
@@ -14372,16 +14372,16 @@
         <v>191</v>
       </c>
       <c r="D156" s="18" t="s">
-        <v>1115</v>
+        <v>1090</v>
       </c>
       <c r="E156" s="26"/>
       <c r="F156" t="s">
-        <v>851</v>
+        <v>826</v>
       </c>
     </row>
     <row r="157" spans="1:6">
       <c r="A157" s="28" t="s">
-        <v>1208</v>
+        <v>1183</v>
       </c>
       <c r="B157" s="3" t="s">
         <v>626</v>
@@ -14390,16 +14390,16 @@
         <v>604</v>
       </c>
       <c r="D157" s="18" t="s">
-        <v>1115</v>
+        <v>1090</v>
       </c>
       <c r="E157" s="26"/>
       <c r="F157" t="s">
-        <v>852</v>
+        <v>827</v>
       </c>
     </row>
     <row r="158" spans="1:6">
       <c r="A158" s="28" t="s">
-        <v>1209</v>
+        <v>1184</v>
       </c>
       <c r="B158" s="3" t="s">
         <v>626</v>
@@ -14408,16 +14408,16 @@
         <v>602</v>
       </c>
       <c r="D158" s="18" t="s">
-        <v>1115</v>
+        <v>1090</v>
       </c>
       <c r="E158" s="19"/>
       <c r="F158" t="s">
-        <v>853</v>
+        <v>828</v>
       </c>
     </row>
     <row r="159" spans="1:6">
       <c r="A159" s="28" t="s">
-        <v>1210</v>
+        <v>1185</v>
       </c>
       <c r="B159" s="3" t="s">
         <v>626</v>
@@ -14426,16 +14426,16 @@
         <v>205</v>
       </c>
       <c r="D159" s="18" t="s">
-        <v>1115</v>
+        <v>1090</v>
       </c>
       <c r="E159" s="26"/>
       <c r="F159" t="s">
-        <v>854</v>
+        <v>829</v>
       </c>
     </row>
     <row r="160" spans="1:6">
       <c r="A160" s="28" t="s">
-        <v>1211</v>
+        <v>1186</v>
       </c>
       <c r="B160" s="3" t="s">
         <v>626</v>
@@ -14444,16 +14444,16 @@
         <v>206</v>
       </c>
       <c r="D160" s="18" t="s">
-        <v>1115</v>
+        <v>1090</v>
       </c>
       <c r="E160" s="26"/>
       <c r="F160" t="s">
-        <v>855</v>
+        <v>830</v>
       </c>
     </row>
     <row r="161" spans="1:6">
       <c r="A161" s="28" t="s">
-        <v>1212</v>
+        <v>1187</v>
       </c>
       <c r="B161" s="3" t="s">
         <v>626</v>
@@ -14462,16 +14462,16 @@
         <v>207</v>
       </c>
       <c r="D161" s="18" t="s">
-        <v>1115</v>
+        <v>1090</v>
       </c>
       <c r="E161" s="19"/>
       <c r="F161" t="s">
-        <v>856</v>
+        <v>831</v>
       </c>
     </row>
     <row r="162" spans="1:6">
       <c r="A162" s="28" t="s">
-        <v>1213</v>
+        <v>1188</v>
       </c>
       <c r="B162" s="3" t="s">
         <v>626</v>
@@ -14480,16 +14480,16 @@
         <v>208</v>
       </c>
       <c r="D162" s="18" t="s">
-        <v>1115</v>
+        <v>1090</v>
       </c>
       <c r="E162" s="19"/>
       <c r="F162" t="s">
-        <v>857</v>
+        <v>832</v>
       </c>
     </row>
     <row r="163" spans="1:6">
       <c r="A163" s="28" t="s">
-        <v>1214</v>
+        <v>1189</v>
       </c>
       <c r="B163" s="3" t="s">
         <v>626</v>
@@ -14498,16 +14498,16 @@
         <v>209</v>
       </c>
       <c r="D163" s="18" t="s">
-        <v>1115</v>
+        <v>1090</v>
       </c>
       <c r="E163" s="18"/>
       <c r="F163" s="6" t="s">
-        <v>858</v>
+        <v>833</v>
       </c>
     </row>
     <row r="164" spans="1:6">
       <c r="A164" s="28" t="s">
-        <v>1215</v>
+        <v>1190</v>
       </c>
       <c r="B164" s="3" t="s">
         <v>626</v>
@@ -14516,16 +14516,16 @@
         <v>210</v>
       </c>
       <c r="D164" s="18" t="s">
-        <v>1115</v>
+        <v>1090</v>
       </c>
       <c r="E164" s="18"/>
       <c r="F164" s="6" t="s">
-        <v>859</v>
+        <v>834</v>
       </c>
     </row>
     <row r="165" spans="1:6">
       <c r="A165" s="28" t="s">
-        <v>1216</v>
+        <v>1191</v>
       </c>
       <c r="B165" s="3" t="s">
         <v>626</v>
@@ -14534,16 +14534,16 @@
         <v>211</v>
       </c>
       <c r="D165" s="18" t="s">
-        <v>1115</v>
+        <v>1090</v>
       </c>
       <c r="E165" s="26"/>
       <c r="F165" t="s">
-        <v>860</v>
+        <v>835</v>
       </c>
     </row>
     <row r="166" spans="1:6">
       <c r="A166" s="28" t="s">
-        <v>1217</v>
+        <v>1192</v>
       </c>
       <c r="B166" s="3" t="s">
         <v>626</v>
@@ -14552,16 +14552,16 @@
         <v>212</v>
       </c>
       <c r="D166" s="18" t="s">
-        <v>1115</v>
+        <v>1090</v>
       </c>
       <c r="E166" s="27"/>
       <c r="F166" t="s">
-        <v>861</v>
+        <v>836</v>
       </c>
     </row>
     <row r="167" spans="1:6">
       <c r="A167" s="28" t="s">
-        <v>1218</v>
+        <v>1193</v>
       </c>
       <c r="B167" s="3" t="s">
         <v>626</v>
@@ -14570,16 +14570,16 @@
         <v>213</v>
       </c>
       <c r="D167" s="18" t="s">
-        <v>1115</v>
+        <v>1090</v>
       </c>
       <c r="E167" s="26"/>
       <c r="F167" t="s">
-        <v>862</v>
+        <v>837</v>
       </c>
     </row>
     <row r="168" spans="1:6">
       <c r="A168" s="28" t="s">
-        <v>1219</v>
+        <v>1194</v>
       </c>
       <c r="B168" s="3" t="s">
         <v>626</v>
@@ -14588,16 +14588,16 @@
         <v>214</v>
       </c>
       <c r="D168" s="18" t="s">
-        <v>1115</v>
+        <v>1090</v>
       </c>
       <c r="E168" s="26"/>
       <c r="F168" s="6" t="s">
-        <v>863</v>
+        <v>838</v>
       </c>
     </row>
     <row r="169" spans="1:6">
       <c r="A169" s="28" t="s">
-        <v>1220</v>
+        <v>1195</v>
       </c>
       <c r="B169" s="3" t="s">
         <v>626</v>
@@ -14606,16 +14606,16 @@
         <v>215</v>
       </c>
       <c r="D169" s="18" t="s">
-        <v>1115</v>
+        <v>1090</v>
       </c>
       <c r="E169" s="26"/>
       <c r="F169" s="6" t="s">
-        <v>864</v>
+        <v>839</v>
       </c>
     </row>
     <row r="170" spans="1:6">
       <c r="A170" s="28" t="s">
-        <v>1221</v>
+        <v>1196</v>
       </c>
       <c r="B170" s="3" t="s">
         <v>626</v>
@@ -14624,16 +14624,16 @@
         <v>218</v>
       </c>
       <c r="D170" s="18" t="s">
-        <v>1115</v>
+        <v>1090</v>
       </c>
       <c r="E170" s="26"/>
       <c r="F170" s="6" t="s">
-        <v>865</v>
+        <v>840</v>
       </c>
     </row>
     <row r="171" spans="1:6">
       <c r="A171" s="28" t="s">
-        <v>1222</v>
+        <v>1197</v>
       </c>
       <c r="B171" s="3" t="s">
         <v>626</v>
@@ -14642,16 +14642,16 @@
         <v>216</v>
       </c>
       <c r="D171" s="18" t="s">
-        <v>1115</v>
+        <v>1090</v>
       </c>
       <c r="E171" s="26"/>
       <c r="F171" t="s">
-        <v>866</v>
+        <v>841</v>
       </c>
     </row>
     <row r="172" spans="1:6">
       <c r="A172" s="28" t="s">
-        <v>1223</v>
+        <v>1198</v>
       </c>
       <c r="B172" s="3" t="s">
         <v>626</v>
@@ -14660,28 +14660,28 @@
         <v>217</v>
       </c>
       <c r="D172" s="18" t="s">
-        <v>1115</v>
+        <v>1090</v>
       </c>
       <c r="E172" s="26"/>
       <c r="F172" t="s">
-        <v>867</v>
+        <v>842</v>
       </c>
     </row>
     <row r="173" spans="1:6">
       <c r="A173" s="28" t="s">
-        <v>1179</v>
+        <v>1154</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>1114</v>
+        <v>1089</v>
       </c>
       <c r="D173" s="26" t="s">
-        <v>1166</v>
+        <v>1141</v>
       </c>
       <c r="E173" s="26"/>
     </row>
     <row r="174" spans="1:6">
       <c r="A174" s="28" t="s">
-        <v>1227</v>
+        <v>1202</v>
       </c>
       <c r="B174" s="3" t="s">
         <v>626</v>
@@ -14690,16 +14690,16 @@
         <v>233</v>
       </c>
       <c r="D174" s="26" t="s">
-        <v>1166</v>
+        <v>1141</v>
       </c>
       <c r="E174" s="26"/>
       <c r="F174" t="s">
-        <v>868</v>
+        <v>843</v>
       </c>
     </row>
     <row r="175" spans="1:6">
       <c r="A175" s="28" t="s">
-        <v>1229</v>
+        <v>1204</v>
       </c>
       <c r="B175" s="3" t="s">
         <v>626</v>
@@ -14708,16 +14708,16 @@
         <v>606</v>
       </c>
       <c r="D175" s="26" t="s">
-        <v>1166</v>
+        <v>1141</v>
       </c>
       <c r="E175" s="26"/>
       <c r="F175" t="s">
-        <v>869</v>
+        <v>844</v>
       </c>
     </row>
     <row r="176" spans="1:6">
       <c r="A176" s="28" t="s">
-        <v>1228</v>
+        <v>1203</v>
       </c>
       <c r="B176" s="3" t="s">
         <v>626</v>
@@ -14726,29 +14726,29 @@
         <v>608</v>
       </c>
       <c r="D176" s="26" t="s">
-        <v>1166</v>
+        <v>1141</v>
       </c>
       <c r="E176" s="27"/>
       <c r="F176" t="s">
-        <v>870</v>
+        <v>845</v>
       </c>
     </row>
     <row r="177" spans="1:6">
       <c r="A177" s="28" t="s">
-        <v>1180</v>
+        <v>1155</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>1114</v>
+        <v>1089</v>
       </c>
       <c r="C177" s="27"/>
       <c r="D177" s="27" t="s">
-        <v>1167</v>
+        <v>1142</v>
       </c>
       <c r="E177" s="27"/>
     </row>
     <row r="178" spans="1:6">
       <c r="A178" s="28" t="s">
-        <v>1230</v>
+        <v>1205</v>
       </c>
       <c r="B178" s="3" t="s">
         <v>626</v>
@@ -14757,16 +14757,16 @@
         <v>534</v>
       </c>
       <c r="D178" s="27" t="s">
-        <v>1167</v>
+        <v>1142</v>
       </c>
       <c r="E178" s="26"/>
       <c r="F178" t="s">
-        <v>871</v>
+        <v>846</v>
       </c>
     </row>
     <row r="179" spans="1:6">
       <c r="A179" s="28" t="s">
-        <v>1231</v>
+        <v>1206</v>
       </c>
       <c r="B179" s="3" t="s">
         <v>626</v>
@@ -14775,16 +14775,16 @@
         <v>235</v>
       </c>
       <c r="D179" s="27" t="s">
-        <v>1167</v>
+        <v>1142</v>
       </c>
       <c r="E179" s="26"/>
       <c r="F179" t="s">
-        <v>872</v>
+        <v>847</v>
       </c>
     </row>
     <row r="180" spans="1:6">
       <c r="A180" s="28" t="s">
-        <v>1232</v>
+        <v>1207</v>
       </c>
       <c r="B180" s="3" t="s">
         <v>626</v>
@@ -14793,16 +14793,16 @@
         <v>237</v>
       </c>
       <c r="D180" s="27" t="s">
-        <v>1167</v>
+        <v>1142</v>
       </c>
       <c r="E180" s="19"/>
       <c r="F180" t="s">
-        <v>873</v>
+        <v>848</v>
       </c>
     </row>
     <row r="181" spans="1:6">
       <c r="A181" s="28" t="s">
-        <v>1233</v>
+        <v>1208</v>
       </c>
       <c r="B181" s="3" t="s">
         <v>626</v>
@@ -14811,16 +14811,16 @@
         <v>610</v>
       </c>
       <c r="D181" s="27" t="s">
-        <v>1167</v>
+        <v>1142</v>
       </c>
       <c r="E181" s="18"/>
       <c r="F181" t="s">
-        <v>874</v>
+        <v>849</v>
       </c>
     </row>
     <row r="182" spans="1:6">
       <c r="A182" s="28" t="s">
-        <v>1234</v>
+        <v>1209</v>
       </c>
       <c r="B182" s="3" t="s">
         <v>626</v>
@@ -14829,16 +14829,16 @@
         <v>241</v>
       </c>
       <c r="D182" s="27" t="s">
-        <v>1167</v>
+        <v>1142</v>
       </c>
       <c r="E182" s="26"/>
       <c r="F182" t="s">
-        <v>875</v>
+        <v>850</v>
       </c>
     </row>
     <row r="183" spans="1:6">
       <c r="A183" s="28" t="s">
-        <v>1235</v>
+        <v>1210</v>
       </c>
       <c r="B183" s="3" t="s">
         <v>626</v>
@@ -14847,16 +14847,16 @@
         <v>243</v>
       </c>
       <c r="D183" s="27" t="s">
-        <v>1167</v>
+        <v>1142</v>
       </c>
       <c r="E183" s="19"/>
       <c r="F183" t="s">
-        <v>876</v>
+        <v>851</v>
       </c>
     </row>
     <row r="184" spans="1:6">
       <c r="A184" s="28" t="s">
-        <v>1236</v>
+        <v>1211</v>
       </c>
       <c r="B184" s="3" t="s">
         <v>626</v>
@@ -14865,16 +14865,16 @@
         <v>255</v>
       </c>
       <c r="D184" s="27" t="s">
-        <v>1167</v>
+        <v>1142</v>
       </c>
       <c r="E184" s="26"/>
       <c r="F184" t="s">
-        <v>877</v>
+        <v>852</v>
       </c>
     </row>
     <row r="185" spans="1:6">
       <c r="A185" s="28" t="s">
-        <v>1237</v>
+        <v>1212</v>
       </c>
       <c r="B185" s="3" t="s">
         <v>626</v>
@@ -14883,16 +14883,16 @@
         <v>245</v>
       </c>
       <c r="D185" s="27" t="s">
-        <v>1167</v>
+        <v>1142</v>
       </c>
       <c r="E185" s="19"/>
       <c r="F185" t="s">
-        <v>878</v>
+        <v>853</v>
       </c>
     </row>
     <row r="186" spans="1:6">
       <c r="A186" s="28" t="s">
-        <v>1238</v>
+        <v>1213</v>
       </c>
       <c r="B186" s="3" t="s">
         <v>626</v>
@@ -14901,16 +14901,16 @@
         <v>246</v>
       </c>
       <c r="D186" s="27" t="s">
-        <v>1167</v>
+        <v>1142</v>
       </c>
       <c r="E186" s="19"/>
       <c r="F186" t="s">
-        <v>879</v>
+        <v>854</v>
       </c>
     </row>
     <row r="187" spans="1:6">
       <c r="A187" s="28" t="s">
-        <v>1239</v>
+        <v>1214</v>
       </c>
       <c r="B187" s="3" t="s">
         <v>626</v>
@@ -14919,16 +14919,16 @@
         <v>249</v>
       </c>
       <c r="D187" s="27" t="s">
-        <v>1167</v>
+        <v>1142</v>
       </c>
       <c r="E187" s="27"/>
       <c r="F187" t="s">
-        <v>880</v>
+        <v>855</v>
       </c>
     </row>
     <row r="188" spans="1:6">
       <c r="A188" s="28" t="s">
-        <v>1240</v>
+        <v>1215</v>
       </c>
       <c r="B188" s="3" t="s">
         <v>626</v>
@@ -14937,16 +14937,16 @@
         <v>253</v>
       </c>
       <c r="D188" s="27" t="s">
-        <v>1167</v>
+        <v>1142</v>
       </c>
       <c r="E188" s="19"/>
       <c r="F188" t="s">
-        <v>881</v>
+        <v>856</v>
       </c>
     </row>
     <row r="189" spans="1:6">
       <c r="A189" s="28" t="s">
-        <v>1241</v>
+        <v>1216</v>
       </c>
       <c r="B189" s="3" t="s">
         <v>626</v>
@@ -14955,16 +14955,16 @@
         <v>239</v>
       </c>
       <c r="D189" s="27" t="s">
-        <v>1167</v>
+        <v>1142</v>
       </c>
       <c r="E189" s="18"/>
       <c r="F189" t="s">
-        <v>882</v>
+        <v>857</v>
       </c>
     </row>
     <row r="190" spans="1:6">
       <c r="A190" s="28" t="s">
-        <v>1242</v>
+        <v>1217</v>
       </c>
       <c r="B190" s="3" t="s">
         <v>626</v>
@@ -14973,16 +14973,16 @@
         <v>256</v>
       </c>
       <c r="D190" s="27" t="s">
-        <v>1167</v>
+        <v>1142</v>
       </c>
       <c r="E190" s="19"/>
       <c r="F190" t="s">
-        <v>883</v>
+        <v>858</v>
       </c>
     </row>
     <row r="191" spans="1:6">
       <c r="A191" s="28" t="s">
-        <v>1243</v>
+        <v>1218</v>
       </c>
       <c r="B191" s="3" t="s">
         <v>626</v>
@@ -14991,16 +14991,16 @@
         <v>257</v>
       </c>
       <c r="D191" s="27" t="s">
-        <v>1167</v>
+        <v>1142</v>
       </c>
       <c r="E191" s="19"/>
       <c r="F191" t="s">
-        <v>884</v>
+        <v>859</v>
       </c>
     </row>
     <row r="192" spans="1:6">
       <c r="A192" s="28" t="s">
-        <v>1244</v>
+        <v>1219</v>
       </c>
       <c r="B192" s="3" t="s">
         <v>626</v>
@@ -15009,16 +15009,16 @@
         <v>258</v>
       </c>
       <c r="D192" s="27" t="s">
-        <v>1167</v>
+        <v>1142</v>
       </c>
       <c r="E192" s="19"/>
       <c r="F192" t="s">
-        <v>885</v>
+        <v>860</v>
       </c>
     </row>
     <row r="193" spans="1:6">
       <c r="A193" s="28" t="s">
-        <v>1245</v>
+        <v>1220</v>
       </c>
       <c r="B193" s="3" t="s">
         <v>626</v>
@@ -15027,16 +15027,16 @@
         <v>612</v>
       </c>
       <c r="D193" s="27" t="s">
-        <v>1167</v>
+        <v>1142</v>
       </c>
       <c r="E193" s="26"/>
       <c r="F193" t="s">
-        <v>886</v>
+        <v>861</v>
       </c>
     </row>
     <row r="194" spans="1:6">
       <c r="A194" s="28" t="s">
-        <v>1246</v>
+        <v>1221</v>
       </c>
       <c r="B194" s="3" t="s">
         <v>626</v>
@@ -15045,16 +15045,16 @@
         <v>614</v>
       </c>
       <c r="D194" s="27" t="s">
-        <v>1167</v>
+        <v>1142</v>
       </c>
       <c r="E194" s="19"/>
       <c r="F194" t="s">
-        <v>887</v>
+        <v>862</v>
       </c>
     </row>
     <row r="195" spans="1:6">
       <c r="A195" s="28" t="s">
-        <v>1247</v>
+        <v>1222</v>
       </c>
       <c r="B195" s="3" t="s">
         <v>626</v>
@@ -15063,16 +15063,16 @@
         <v>259</v>
       </c>
       <c r="D195" s="27" t="s">
-        <v>1167</v>
+        <v>1142</v>
       </c>
       <c r="E195" s="19"/>
       <c r="F195" t="s">
-        <v>888</v>
+        <v>863</v>
       </c>
     </row>
     <row r="196" spans="1:6">
       <c r="A196" s="28" t="s">
-        <v>1248</v>
+        <v>1223</v>
       </c>
       <c r="B196" s="3" t="s">
         <v>626</v>
@@ -15081,31 +15081,31 @@
         <v>265</v>
       </c>
       <c r="D196" s="27" t="s">
-        <v>1166</v>
+        <v>1141</v>
       </c>
       <c r="E196" s="18"/>
       <c r="F196" t="s">
-        <v>889</v>
+        <v>864</v>
       </c>
     </row>
     <row r="197" spans="1:6">
       <c r="A197" s="28" t="s">
-        <v>1253</v>
+        <v>1228</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>1068</v>
+        <v>1043</v>
       </c>
       <c r="C197" s="18" t="s">
         <v>265</v>
       </c>
       <c r="D197" s="27" t="s">
-        <v>1072</v>
+        <v>1047</v>
       </c>
       <c r="E197" s="18"/>
     </row>
     <row r="198" spans="1:6">
       <c r="A198" s="28" t="s">
-        <v>1249</v>
+        <v>1224</v>
       </c>
       <c r="B198" s="3" t="s">
         <v>626</v>
@@ -15114,16 +15114,16 @@
         <v>269</v>
       </c>
       <c r="D198" s="27" t="s">
-        <v>1167</v>
+        <v>1142</v>
       </c>
       <c r="E198" s="19"/>
       <c r="F198" t="s">
-        <v>890</v>
+        <v>865</v>
       </c>
     </row>
     <row r="199" spans="1:6">
       <c r="A199" s="28" t="s">
-        <v>1250</v>
+        <v>1225</v>
       </c>
       <c r="B199" s="3" t="s">
         <v>626</v>
@@ -15132,16 +15132,16 @@
         <v>267</v>
       </c>
       <c r="D199" s="27" t="s">
-        <v>1167</v>
+        <v>1142</v>
       </c>
       <c r="E199" s="26"/>
       <c r="F199" t="s">
-        <v>891</v>
+        <v>866</v>
       </c>
     </row>
     <row r="200" spans="1:6">
       <c r="A200" s="28" t="s">
-        <v>1251</v>
+        <v>1226</v>
       </c>
       <c r="B200" s="3" t="s">
         <v>626</v>
@@ -15150,16 +15150,16 @@
         <v>271</v>
       </c>
       <c r="D200" s="27" t="s">
-        <v>1167</v>
+        <v>1142</v>
       </c>
       <c r="E200" s="19"/>
       <c r="F200" t="s">
-        <v>892</v>
+        <v>867</v>
       </c>
     </row>
     <row r="201" spans="1:6">
       <c r="A201" s="28" t="s">
-        <v>1252</v>
+        <v>1227</v>
       </c>
       <c r="B201" s="3" t="s">
         <v>626</v>
@@ -15168,29 +15168,29 @@
         <v>616</v>
       </c>
       <c r="D201" s="27" t="s">
-        <v>1167</v>
+        <v>1142</v>
       </c>
       <c r="E201" s="26"/>
       <c r="F201" t="s">
-        <v>893</v>
+        <v>868</v>
       </c>
     </row>
     <row r="202" spans="1:6">
       <c r="A202" s="28" t="s">
-        <v>1181</v>
+        <v>1156</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>1114</v>
+        <v>1089</v>
       </c>
       <c r="C202" s="26"/>
       <c r="D202" s="26" t="s">
-        <v>1168</v>
+        <v>1143</v>
       </c>
       <c r="E202" s="26"/>
     </row>
     <row r="203" spans="1:6">
       <c r="A203" s="28" t="s">
-        <v>1254</v>
+        <v>1229</v>
       </c>
       <c r="B203" s="3" t="s">
         <v>626</v>
@@ -15199,16 +15199,16 @@
         <v>272</v>
       </c>
       <c r="D203" s="26" t="s">
-        <v>1168</v>
+        <v>1143</v>
       </c>
       <c r="E203" s="19"/>
       <c r="F203" t="s">
-        <v>894</v>
+        <v>869</v>
       </c>
     </row>
     <row r="204" spans="1:6">
       <c r="A204" s="28" t="s">
-        <v>1255</v>
+        <v>1230</v>
       </c>
       <c r="B204" s="3" t="s">
         <v>626</v>
@@ -15217,16 +15217,16 @@
         <v>273</v>
       </c>
       <c r="D204" s="26" t="s">
-        <v>1168</v>
+        <v>1143</v>
       </c>
       <c r="E204" s="26"/>
       <c r="F204" t="s">
-        <v>895</v>
+        <v>870</v>
       </c>
     </row>
     <row r="205" spans="1:6">
       <c r="A205" s="28" t="s">
-        <v>1256</v>
+        <v>1231</v>
       </c>
       <c r="B205" s="3" t="s">
         <v>626</v>
@@ -15235,16 +15235,16 @@
         <v>274</v>
       </c>
       <c r="D205" s="26" t="s">
-        <v>1168</v>
+        <v>1143</v>
       </c>
       <c r="E205" s="26"/>
       <c r="F205" t="s">
-        <v>896</v>
+        <v>871</v>
       </c>
     </row>
     <row r="206" spans="1:6">
       <c r="A206" s="28" t="s">
-        <v>1257</v>
+        <v>1232</v>
       </c>
       <c r="B206" s="3" t="s">
         <v>626</v>
@@ -15253,16 +15253,16 @@
         <v>275</v>
       </c>
       <c r="D206" s="26" t="s">
-        <v>1168</v>
+        <v>1143</v>
       </c>
       <c r="E206" s="19"/>
       <c r="F206" t="s">
-        <v>897</v>
+        <v>872</v>
       </c>
     </row>
     <row r="207" spans="1:6">
       <c r="A207" s="28" t="s">
-        <v>1258</v>
+        <v>1233</v>
       </c>
       <c r="B207" s="3" t="s">
         <v>626</v>
@@ -15271,16 +15271,16 @@
         <v>276</v>
       </c>
       <c r="D207" s="26" t="s">
-        <v>1168</v>
+        <v>1143</v>
       </c>
       <c r="E207" s="19"/>
       <c r="F207" t="s">
-        <v>898</v>
+        <v>873</v>
       </c>
     </row>
     <row r="208" spans="1:6">
       <c r="A208" s="28" t="s">
-        <v>1259</v>
+        <v>1234</v>
       </c>
       <c r="B208" s="3" t="s">
         <v>626</v>
@@ -15289,16 +15289,16 @@
         <v>277</v>
       </c>
       <c r="D208" s="26" t="s">
-        <v>1168</v>
+        <v>1143</v>
       </c>
       <c r="E208" s="26"/>
       <c r="F208" t="s">
-        <v>899</v>
+        <v>874</v>
       </c>
     </row>
     <row r="209" spans="1:6">
       <c r="A209" s="28" t="s">
-        <v>1260</v>
+        <v>1235</v>
       </c>
       <c r="B209" s="3" t="s">
         <v>626</v>
@@ -15307,16 +15307,16 @@
         <v>285</v>
       </c>
       <c r="D209" s="26" t="s">
-        <v>1168</v>
+        <v>1143</v>
       </c>
       <c r="E209" s="26"/>
       <c r="F209" t="s">
-        <v>900</v>
+        <v>875</v>
       </c>
     </row>
     <row r="210" spans="1:6">
       <c r="A210" s="28" t="s">
-        <v>1261</v>
+        <v>1236</v>
       </c>
       <c r="B210" s="3" t="s">
         <v>626</v>
@@ -15325,16 +15325,16 @@
         <v>286</v>
       </c>
       <c r="D210" s="26" t="s">
-        <v>1168</v>
+        <v>1143</v>
       </c>
       <c r="E210" s="19"/>
       <c r="F210" t="s">
-        <v>901</v>
+        <v>876</v>
       </c>
     </row>
     <row r="211" spans="1:6">
       <c r="A211" s="28" t="s">
-        <v>1262</v>
+        <v>1237</v>
       </c>
       <c r="B211" s="3" t="s">
         <v>626</v>
@@ -15343,16 +15343,16 @@
         <v>287</v>
       </c>
       <c r="D211" s="26" t="s">
-        <v>1168</v>
+        <v>1143</v>
       </c>
       <c r="E211" s="26"/>
       <c r="F211" t="s">
-        <v>902</v>
+        <v>877</v>
       </c>
     </row>
     <row r="212" spans="1:6">
       <c r="A212" s="28" t="s">
-        <v>1263</v>
+        <v>1238</v>
       </c>
       <c r="B212" s="3" t="s">
         <v>626</v>
@@ -15361,16 +15361,16 @@
         <v>288</v>
       </c>
       <c r="D212" s="26" t="s">
-        <v>1168</v>
+        <v>1143</v>
       </c>
       <c r="E212" s="19"/>
       <c r="F212" t="s">
-        <v>903</v>
+        <v>878</v>
       </c>
     </row>
     <row r="213" spans="1:6">
       <c r="A213" s="28" t="s">
-        <v>1264</v>
+        <v>1239</v>
       </c>
       <c r="B213" s="3" t="s">
         <v>626</v>
@@ -15379,16 +15379,16 @@
         <v>289</v>
       </c>
       <c r="D213" s="26" t="s">
-        <v>1168</v>
+        <v>1143</v>
       </c>
       <c r="E213" s="26"/>
       <c r="F213" t="s">
-        <v>904</v>
+        <v>879</v>
       </c>
     </row>
     <row r="214" spans="1:6">
       <c r="A214" s="28" t="s">
-        <v>1265</v>
+        <v>1240</v>
       </c>
       <c r="B214" s="3" t="s">
         <v>626</v>
@@ -15397,16 +15397,16 @@
         <v>290</v>
       </c>
       <c r="D214" s="26" t="s">
-        <v>1168</v>
+        <v>1143</v>
       </c>
       <c r="E214" s="19"/>
       <c r="F214" t="s">
-        <v>905</v>
+        <v>880</v>
       </c>
     </row>
     <row r="215" spans="1:6">
       <c r="A215" s="28" t="s">
-        <v>1266</v>
+        <v>1241</v>
       </c>
       <c r="B215" s="3" t="s">
         <v>626</v>
@@ -15415,16 +15415,16 @@
         <v>291</v>
       </c>
       <c r="D215" s="26" t="s">
-        <v>1167</v>
+        <v>1142</v>
       </c>
       <c r="E215" s="19"/>
       <c r="F215" t="s">
-        <v>906</v>
+        <v>881</v>
       </c>
     </row>
     <row r="216" spans="1:6">
       <c r="A216" s="28" t="s">
-        <v>1267</v>
+        <v>1242</v>
       </c>
       <c r="B216" s="3" t="s">
         <v>626</v>
@@ -15433,16 +15433,16 @@
         <v>293</v>
       </c>
       <c r="D216" s="26" t="s">
-        <v>1167</v>
+        <v>1142</v>
       </c>
       <c r="E216" s="26"/>
       <c r="F216" t="s">
-        <v>907</v>
+        <v>882</v>
       </c>
     </row>
     <row r="217" spans="1:6">
       <c r="A217" s="28" t="s">
-        <v>1268</v>
+        <v>1243</v>
       </c>
       <c r="B217" s="3" t="s">
         <v>626</v>
@@ -15451,16 +15451,16 @@
         <v>292</v>
       </c>
       <c r="D217" s="26" t="s">
-        <v>1168</v>
+        <v>1143</v>
       </c>
       <c r="E217" s="19"/>
       <c r="F217" t="s">
-        <v>908</v>
+        <v>883</v>
       </c>
     </row>
     <row r="218" spans="1:6">
       <c r="A218" s="28" t="s">
-        <v>1269</v>
+        <v>1244</v>
       </c>
       <c r="B218" s="3" t="s">
         <v>626</v>
@@ -15469,16 +15469,16 @@
         <v>296</v>
       </c>
       <c r="D218" s="26" t="s">
-        <v>1168</v>
+        <v>1143</v>
       </c>
       <c r="E218" s="26"/>
       <c r="F218" t="s">
-        <v>909</v>
+        <v>884</v>
       </c>
     </row>
     <row r="219" spans="1:6">
       <c r="A219" s="28" t="s">
-        <v>1270</v>
+        <v>1245</v>
       </c>
       <c r="B219" s="3" t="s">
         <v>626</v>
@@ -15487,16 +15487,16 @@
         <v>295</v>
       </c>
       <c r="D219" s="26" t="s">
-        <v>1168</v>
+        <v>1143</v>
       </c>
       <c r="E219" s="26"/>
       <c r="F219" t="s">
-        <v>910</v>
+        <v>885</v>
       </c>
     </row>
     <row r="220" spans="1:6">
       <c r="A220" s="28" t="s">
-        <v>1271</v>
+        <v>1246</v>
       </c>
       <c r="B220" s="3" t="s">
         <v>626</v>
@@ -15505,16 +15505,16 @@
         <v>294</v>
       </c>
       <c r="D220" s="26" t="s">
-        <v>1168</v>
+        <v>1143</v>
       </c>
       <c r="E220" s="27"/>
       <c r="F220" t="s">
-        <v>911</v>
+        <v>886</v>
       </c>
     </row>
     <row r="221" spans="1:6">
       <c r="A221" s="28" t="s">
-        <v>1272</v>
+        <v>1247</v>
       </c>
       <c r="B221" s="3" t="s">
         <v>626</v>
@@ -15523,16 +15523,16 @@
         <v>297</v>
       </c>
       <c r="D221" s="26" t="s">
-        <v>1168</v>
+        <v>1143</v>
       </c>
       <c r="E221" s="19"/>
       <c r="F221" t="s">
-        <v>912</v>
+        <v>887</v>
       </c>
     </row>
     <row r="222" spans="1:6">
       <c r="A222" s="28" t="s">
-        <v>1273</v>
+        <v>1248</v>
       </c>
       <c r="B222" s="3" t="s">
         <v>626</v>
@@ -15541,16 +15541,16 @@
         <v>298</v>
       </c>
       <c r="D222" s="26" t="s">
-        <v>1168</v>
+        <v>1143</v>
       </c>
       <c r="E222" s="19"/>
       <c r="F222" t="s">
-        <v>913</v>
+        <v>888</v>
       </c>
     </row>
     <row r="223" spans="1:6">
       <c r="A223" s="28" t="s">
-        <v>1274</v>
+        <v>1249</v>
       </c>
       <c r="B223" s="3" t="s">
         <v>626</v>
@@ -15559,16 +15559,16 @@
         <v>299</v>
       </c>
       <c r="D223" s="26" t="s">
-        <v>1168</v>
+        <v>1143</v>
       </c>
       <c r="E223" s="19"/>
       <c r="F223" t="s">
-        <v>1293</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="224" spans="1:6">
       <c r="A224" s="28" t="s">
-        <v>1275</v>
+        <v>1250</v>
       </c>
       <c r="B224" s="3" t="s">
         <v>626</v>
@@ -15577,16 +15577,16 @@
         <v>300</v>
       </c>
       <c r="D224" s="26" t="s">
-        <v>1168</v>
+        <v>1143</v>
       </c>
       <c r="E224" s="19"/>
       <c r="F224" t="s">
-        <v>914</v>
+        <v>889</v>
       </c>
     </row>
     <row r="225" spans="1:6">
       <c r="A225" s="28" t="s">
-        <v>1276</v>
+        <v>1251</v>
       </c>
       <c r="B225" s="3" t="s">
         <v>626</v>
@@ -15595,16 +15595,16 @@
         <v>301</v>
       </c>
       <c r="D225" s="26" t="s">
-        <v>1167</v>
+        <v>1142</v>
       </c>
       <c r="E225" s="19"/>
       <c r="F225" t="s">
-        <v>915</v>
+        <v>890</v>
       </c>
     </row>
     <row r="226" spans="1:6">
       <c r="A226" s="28" t="s">
-        <v>1277</v>
+        <v>1252</v>
       </c>
       <c r="B226" s="3" t="s">
         <v>626</v>
@@ -15613,16 +15613,16 @@
         <v>344</v>
       </c>
       <c r="D226" s="26" t="s">
-        <v>1168</v>
+        <v>1143</v>
       </c>
       <c r="E226" s="26"/>
       <c r="F226" t="s">
-        <v>916</v>
+        <v>891</v>
       </c>
     </row>
     <row r="227" spans="1:6">
       <c r="A227" s="28" t="s">
-        <v>1278</v>
+        <v>1253</v>
       </c>
       <c r="B227" s="3" t="s">
         <v>626</v>
@@ -15631,16 +15631,16 @@
         <v>302</v>
       </c>
       <c r="D227" s="26" t="s">
-        <v>1167</v>
+        <v>1142</v>
       </c>
       <c r="E227" s="19"/>
       <c r="F227" t="s">
-        <v>917</v>
+        <v>892</v>
       </c>
     </row>
     <row r="228" spans="1:6">
       <c r="A228" s="28" t="s">
-        <v>1279</v>
+        <v>1254</v>
       </c>
       <c r="B228" s="3" t="s">
         <v>626</v>
@@ -15649,16 +15649,16 @@
         <v>320</v>
       </c>
       <c r="D228" s="26" t="s">
-        <v>1167</v>
+        <v>1142</v>
       </c>
       <c r="E228" s="19"/>
       <c r="F228" t="s">
-        <v>918</v>
+        <v>893</v>
       </c>
     </row>
     <row r="229" spans="1:6">
       <c r="A229" s="28" t="s">
-        <v>1280</v>
+        <v>1255</v>
       </c>
       <c r="B229" s="3" t="s">
         <v>626</v>
@@ -15667,16 +15667,16 @@
         <v>321</v>
       </c>
       <c r="D229" s="26" t="s">
-        <v>1167</v>
+        <v>1142</v>
       </c>
       <c r="E229" s="26"/>
       <c r="F229" t="s">
-        <v>919</v>
+        <v>894</v>
       </c>
     </row>
     <row r="230" spans="1:6">
       <c r="A230" s="28" t="s">
-        <v>1281</v>
+        <v>1256</v>
       </c>
       <c r="B230" s="3" t="s">
         <v>626</v>
@@ -15685,16 +15685,16 @@
         <v>322</v>
       </c>
       <c r="D230" s="26" t="s">
-        <v>1168</v>
+        <v>1143</v>
       </c>
       <c r="E230" s="19"/>
       <c r="F230" t="s">
-        <v>920</v>
+        <v>895</v>
       </c>
     </row>
     <row r="231" spans="1:6">
       <c r="A231" s="28" t="s">
-        <v>1282</v>
+        <v>1257</v>
       </c>
       <c r="B231" s="3" t="s">
         <v>626</v>
@@ -15703,16 +15703,16 @@
         <v>518</v>
       </c>
       <c r="D231" s="26" t="s">
-        <v>1168</v>
+        <v>1143</v>
       </c>
       <c r="E231" s="26"/>
       <c r="F231" s="6" t="s">
-        <v>921</v>
+        <v>896</v>
       </c>
     </row>
     <row r="232" spans="1:6">
       <c r="A232" s="28" t="s">
-        <v>1283</v>
+        <v>1258</v>
       </c>
       <c r="B232" s="3" t="s">
         <v>626</v>
@@ -15721,16 +15721,16 @@
         <v>520</v>
       </c>
       <c r="D232" s="26" t="s">
-        <v>1168</v>
+        <v>1143</v>
       </c>
       <c r="E232" s="26"/>
       <c r="F232" s="6" t="s">
-        <v>922</v>
+        <v>897</v>
       </c>
     </row>
     <row r="233" spans="1:6">
       <c r="A233" s="28" t="s">
-        <v>1284</v>
+        <v>1259</v>
       </c>
       <c r="B233" s="3" t="s">
         <v>626</v>
@@ -15739,16 +15739,16 @@
         <v>323</v>
       </c>
       <c r="D233" s="26" t="s">
-        <v>1168</v>
+        <v>1143</v>
       </c>
       <c r="E233" s="19"/>
       <c r="F233" t="s">
-        <v>923</v>
+        <v>898</v>
       </c>
     </row>
     <row r="234" spans="1:6">
       <c r="A234" s="28" t="s">
-        <v>1285</v>
+        <v>1260</v>
       </c>
       <c r="B234" s="3" t="s">
         <v>626</v>
@@ -15757,16 +15757,16 @@
         <v>324</v>
       </c>
       <c r="D234" s="26" t="s">
-        <v>1167</v>
+        <v>1142</v>
       </c>
       <c r="E234" s="19"/>
       <c r="F234" t="s">
-        <v>924</v>
+        <v>899</v>
       </c>
     </row>
     <row r="235" spans="1:6">
       <c r="A235" s="28" t="s">
-        <v>1286</v>
+        <v>1261</v>
       </c>
       <c r="B235" s="3" t="s">
         <v>626</v>
@@ -15775,16 +15775,16 @@
         <v>532</v>
       </c>
       <c r="D235" s="26" t="s">
-        <v>1167</v>
+        <v>1142</v>
       </c>
       <c r="E235" s="19"/>
       <c r="F235" t="s">
-        <v>925</v>
+        <v>900</v>
       </c>
     </row>
     <row r="236" spans="1:6">
       <c r="A236" s="28" t="s">
-        <v>1287</v>
+        <v>1262</v>
       </c>
       <c r="B236" s="3" t="s">
         <v>626</v>
@@ -15793,16 +15793,16 @@
         <v>326</v>
       </c>
       <c r="D236" s="26" t="s">
-        <v>1168</v>
+        <v>1143</v>
       </c>
       <c r="E236" s="19"/>
       <c r="F236" t="s">
-        <v>926</v>
+        <v>901</v>
       </c>
     </row>
     <row r="237" spans="1:6">
       <c r="A237" s="28" t="s">
-        <v>1288</v>
+        <v>1263</v>
       </c>
       <c r="B237" s="3" t="s">
         <v>626</v>
@@ -15811,16 +15811,16 @@
         <v>325</v>
       </c>
       <c r="D237" s="26" t="s">
-        <v>1168</v>
+        <v>1143</v>
       </c>
       <c r="E237" s="26"/>
       <c r="F237" t="s">
-        <v>927</v>
+        <v>902</v>
       </c>
     </row>
     <row r="238" spans="1:6">
       <c r="A238" s="28" t="s">
-        <v>1289</v>
+        <v>1264</v>
       </c>
       <c r="B238" s="3" t="s">
         <v>626</v>
@@ -15829,16 +15829,16 @@
         <v>327</v>
       </c>
       <c r="D238" s="26" t="s">
-        <v>1168</v>
+        <v>1143</v>
       </c>
       <c r="E238" s="26"/>
       <c r="F238" s="6" t="s">
-        <v>928</v>
+        <v>903</v>
       </c>
     </row>
     <row r="239" spans="1:6">
       <c r="A239" s="28" t="s">
-        <v>1290</v>
+        <v>1265</v>
       </c>
       <c r="B239" s="3" t="s">
         <v>626</v>
@@ -15847,16 +15847,16 @@
         <v>336</v>
       </c>
       <c r="D239" s="26" t="s">
-        <v>1168</v>
+        <v>1143</v>
       </c>
       <c r="E239" s="26"/>
       <c r="F239" t="s">
-        <v>929</v>
+        <v>904</v>
       </c>
     </row>
     <row r="240" spans="1:6">
       <c r="A240" s="28" t="s">
-        <v>1291</v>
+        <v>1266</v>
       </c>
       <c r="B240" s="3" t="s">
         <v>626</v>
@@ -15865,16 +15865,16 @@
         <v>338</v>
       </c>
       <c r="D240" s="26" t="s">
-        <v>1168</v>
+        <v>1143</v>
       </c>
       <c r="E240" s="26"/>
       <c r="F240" t="s">
-        <v>930</v>
+        <v>905</v>
       </c>
     </row>
     <row r="241" spans="1:6">
       <c r="A241" s="28" t="s">
-        <v>1292</v>
+        <v>1267</v>
       </c>
       <c r="B241" s="3" t="s">
         <v>626</v>
@@ -15883,29 +15883,29 @@
         <v>339</v>
       </c>
       <c r="D241" s="26" t="s">
-        <v>1168</v>
+        <v>1143</v>
       </c>
       <c r="E241" s="26"/>
       <c r="F241" t="s">
-        <v>931</v>
+        <v>906</v>
       </c>
     </row>
     <row r="242" spans="1:6">
       <c r="A242" s="28" t="s">
-        <v>1182</v>
+        <v>1157</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>1114</v>
+        <v>1089</v>
       </c>
       <c r="C242" s="26"/>
       <c r="D242" s="26" t="s">
-        <v>1169</v>
+        <v>1144</v>
       </c>
       <c r="E242" s="26"/>
     </row>
     <row r="243" spans="1:6">
       <c r="A243" s="28" t="s">
-        <v>1294</v>
+        <v>1269</v>
       </c>
       <c r="B243" s="3" t="s">
         <v>626</v>
@@ -15914,16 +15914,16 @@
         <v>528</v>
       </c>
       <c r="D243" s="26" t="s">
-        <v>1169</v>
+        <v>1144</v>
       </c>
       <c r="E243" s="26"/>
       <c r="F243" t="s">
-        <v>932</v>
+        <v>907</v>
       </c>
     </row>
     <row r="244" spans="1:6">
       <c r="A244" s="28" t="s">
-        <v>1295</v>
+        <v>1270</v>
       </c>
       <c r="B244" s="3" t="s">
         <v>626</v>
@@ -15932,16 +15932,16 @@
         <v>342</v>
       </c>
       <c r="D244" s="26" t="s">
-        <v>1168</v>
+        <v>1143</v>
       </c>
       <c r="E244" s="19"/>
       <c r="F244" t="s">
-        <v>933</v>
+        <v>908</v>
       </c>
     </row>
     <row r="245" spans="1:6">
       <c r="A245" s="28" t="s">
-        <v>1296</v>
+        <v>1271</v>
       </c>
       <c r="B245" s="3" t="s">
         <v>626</v>
@@ -15950,16 +15950,16 @@
         <v>349</v>
       </c>
       <c r="D245" s="26" t="s">
-        <v>1169</v>
+        <v>1144</v>
       </c>
       <c r="E245" s="19"/>
       <c r="F245" t="s">
-        <v>934</v>
+        <v>909</v>
       </c>
     </row>
     <row r="246" spans="1:6">
       <c r="A246" s="28" t="s">
-        <v>1297</v>
+        <v>1272</v>
       </c>
       <c r="B246" s="3" t="s">
         <v>626</v>
@@ -15968,16 +15968,16 @@
         <v>345</v>
       </c>
       <c r="D246" s="26" t="s">
-        <v>1169</v>
+        <v>1144</v>
       </c>
       <c r="E246" s="26"/>
       <c r="F246" t="s">
-        <v>935</v>
+        <v>910</v>
       </c>
     </row>
     <row r="247" spans="1:6">
       <c r="A247" s="28" t="s">
-        <v>1298</v>
+        <v>1273</v>
       </c>
       <c r="B247" s="3" t="s">
         <v>626</v>
@@ -15986,16 +15986,16 @@
         <v>346</v>
       </c>
       <c r="D247" s="26" t="s">
-        <v>1169</v>
+        <v>1144</v>
       </c>
       <c r="E247" s="26"/>
       <c r="F247" t="s">
-        <v>936</v>
+        <v>911</v>
       </c>
     </row>
     <row r="248" spans="1:6">
       <c r="A248" s="28" t="s">
-        <v>1299</v>
+        <v>1274</v>
       </c>
       <c r="B248" s="3" t="s">
         <v>626</v>
@@ -16004,16 +16004,16 @@
         <v>347</v>
       </c>
       <c r="D248" s="26" t="s">
-        <v>1169</v>
+        <v>1144</v>
       </c>
       <c r="E248" s="26"/>
       <c r="F248" t="s">
-        <v>937</v>
+        <v>912</v>
       </c>
     </row>
     <row r="249" spans="1:6">
       <c r="A249" s="28" t="s">
-        <v>1300</v>
+        <v>1275</v>
       </c>
       <c r="B249" s="3" t="s">
         <v>626</v>
@@ -16022,16 +16022,16 @@
         <v>348</v>
       </c>
       <c r="D249" s="26" t="s">
-        <v>1169</v>
+        <v>1144</v>
       </c>
       <c r="E249" s="27"/>
       <c r="F249" t="s">
-        <v>938</v>
+        <v>913</v>
       </c>
     </row>
     <row r="250" spans="1:6">
       <c r="A250" s="28" t="s">
-        <v>1301</v>
+        <v>1276</v>
       </c>
       <c r="B250" s="3" t="s">
         <v>626</v>
@@ -16040,29 +16040,29 @@
         <v>356</v>
       </c>
       <c r="D250" s="26" t="s">
-        <v>1169</v>
+        <v>1144</v>
       </c>
       <c r="E250" s="26"/>
       <c r="F250" t="s">
-        <v>939</v>
+        <v>914</v>
       </c>
     </row>
     <row r="251" spans="1:6">
       <c r="A251" s="28" t="s">
-        <v>1183</v>
+        <v>1158</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>1114</v>
+        <v>1089</v>
       </c>
       <c r="C251" s="26"/>
       <c r="D251" s="26" t="s">
-        <v>1170</v>
+        <v>1145</v>
       </c>
       <c r="E251" s="26"/>
     </row>
     <row r="252" spans="1:6">
       <c r="A252" s="28" t="s">
-        <v>633</v>
+        <v>1277</v>
       </c>
       <c r="B252" s="3" t="s">
         <v>626</v>
@@ -16070,15 +16070,17 @@
       <c r="C252" s="19" t="s">
         <v>357</v>
       </c>
-      <c r="D252" s="19"/>
+      <c r="D252" s="26" t="s">
+        <v>1144</v>
+      </c>
       <c r="E252" s="19"/>
       <c r="F252" t="s">
-        <v>940</v>
+        <v>915</v>
       </c>
     </row>
     <row r="253" spans="1:6">
       <c r="A253" s="28" t="s">
-        <v>634</v>
+        <v>1278</v>
       </c>
       <c r="B253" s="3" t="s">
         <v>626</v>
@@ -16086,15 +16088,17 @@
       <c r="C253" s="26" t="s">
         <v>358</v>
       </c>
-      <c r="D253" s="26"/>
+      <c r="D253" s="26" t="s">
+        <v>1145</v>
+      </c>
       <c r="E253" s="26"/>
       <c r="F253" t="s">
-        <v>941</v>
+        <v>916</v>
       </c>
     </row>
     <row r="254" spans="1:6">
       <c r="A254" s="28" t="s">
-        <v>635</v>
+        <v>1279</v>
       </c>
       <c r="B254" s="3" t="s">
         <v>626</v>
@@ -16102,15 +16106,17 @@
       <c r="C254" s="26" t="s">
         <v>359</v>
       </c>
-      <c r="D254" s="26"/>
+      <c r="D254" s="26" t="s">
+        <v>1145</v>
+      </c>
       <c r="E254" s="26"/>
       <c r="F254" t="s">
-        <v>942</v>
+        <v>917</v>
       </c>
     </row>
     <row r="255" spans="1:6">
       <c r="A255" s="28" t="s">
-        <v>636</v>
+        <v>1280</v>
       </c>
       <c r="B255" s="3" t="s">
         <v>626</v>
@@ -16118,15 +16124,17 @@
       <c r="C255" s="19" t="s">
         <v>364</v>
       </c>
-      <c r="D255" s="19"/>
+      <c r="D255" s="26" t="s">
+        <v>1145</v>
+      </c>
       <c r="E255" s="19"/>
       <c r="F255" t="s">
-        <v>943</v>
+        <v>918</v>
       </c>
     </row>
     <row r="256" spans="1:6">
       <c r="A256" s="28" t="s">
-        <v>637</v>
+        <v>1281</v>
       </c>
       <c r="B256" s="3" t="s">
         <v>626</v>
@@ -16134,15 +16142,17 @@
       <c r="C256" s="26" t="s">
         <v>365</v>
       </c>
-      <c r="D256" s="26"/>
+      <c r="D256" s="26" t="s">
+        <v>1145</v>
+      </c>
       <c r="E256" s="26"/>
       <c r="F256" t="s">
-        <v>944</v>
+        <v>919</v>
       </c>
     </row>
     <row r="257" spans="1:6">
       <c r="A257" s="28" t="s">
-        <v>638</v>
+        <v>1282</v>
       </c>
       <c r="B257" s="3" t="s">
         <v>626</v>
@@ -16150,28 +16160,30 @@
       <c r="C257" s="26" t="s">
         <v>366</v>
       </c>
-      <c r="D257" s="26"/>
+      <c r="D257" s="26" t="s">
+        <v>1145</v>
+      </c>
       <c r="E257" s="26"/>
       <c r="F257" t="s">
-        <v>945</v>
+        <v>920</v>
       </c>
     </row>
     <row r="258" spans="1:6">
       <c r="A258" s="28" t="s">
-        <v>1184</v>
+        <v>1159</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>1114</v>
+        <v>1089</v>
       </c>
       <c r="C258" s="26"/>
       <c r="D258" s="26" t="s">
-        <v>1171</v>
+        <v>1146</v>
       </c>
       <c r="E258" s="26"/>
     </row>
     <row r="259" spans="1:6">
       <c r="A259" s="28" t="s">
-        <v>639</v>
+        <v>1283</v>
       </c>
       <c r="B259" s="3" t="s">
         <v>626</v>
@@ -16179,15 +16191,17 @@
       <c r="C259" s="26" t="s">
         <v>367</v>
       </c>
-      <c r="D259" s="26"/>
+      <c r="D259" s="26" t="s">
+        <v>1146</v>
+      </c>
       <c r="E259" s="26"/>
       <c r="F259" t="s">
-        <v>946</v>
+        <v>921</v>
       </c>
     </row>
     <row r="260" spans="1:6">
       <c r="A260" s="28" t="s">
-        <v>640</v>
+        <v>1284</v>
       </c>
       <c r="B260" s="3" t="s">
         <v>626</v>
@@ -16195,15 +16209,17 @@
       <c r="C260" s="26" t="s">
         <v>368</v>
       </c>
-      <c r="D260" s="26"/>
+      <c r="D260" s="26" t="s">
+        <v>1143</v>
+      </c>
       <c r="E260" s="26"/>
       <c r="F260" t="s">
-        <v>947</v>
+        <v>922</v>
       </c>
     </row>
     <row r="261" spans="1:6">
       <c r="A261" s="28" t="s">
-        <v>641</v>
+        <v>1285</v>
       </c>
       <c r="B261" s="3" t="s">
         <v>626</v>
@@ -16211,15 +16227,17 @@
       <c r="C261" s="26" t="s">
         <v>369</v>
       </c>
-      <c r="D261" s="26"/>
+      <c r="D261" s="26" t="s">
+        <v>1146</v>
+      </c>
       <c r="E261" s="26"/>
       <c r="F261" t="s">
-        <v>948</v>
+        <v>923</v>
       </c>
     </row>
     <row r="262" spans="1:6">
       <c r="A262" s="28" t="s">
-        <v>642</v>
+        <v>1286</v>
       </c>
       <c r="B262" s="3" t="s">
         <v>626</v>
@@ -16227,15 +16245,17 @@
       <c r="C262" s="26" t="s">
         <v>370</v>
       </c>
-      <c r="D262" s="26"/>
+      <c r="D262" s="26" t="s">
+        <v>1143</v>
+      </c>
       <c r="E262" s="26"/>
       <c r="F262" t="s">
-        <v>949</v>
+        <v>924</v>
       </c>
     </row>
     <row r="263" spans="1:6">
       <c r="A263" s="28" t="s">
-        <v>643</v>
+        <v>1287</v>
       </c>
       <c r="B263" s="3" t="s">
         <v>626</v>
@@ -16243,15 +16263,17 @@
       <c r="C263" s="26" t="s">
         <v>371</v>
       </c>
-      <c r="D263" s="26"/>
+      <c r="D263" s="26" t="s">
+        <v>1142</v>
+      </c>
       <c r="E263" s="26"/>
       <c r="F263" t="s">
-        <v>950</v>
+        <v>925</v>
       </c>
     </row>
     <row r="264" spans="1:6">
       <c r="A264" s="28" t="s">
-        <v>644</v>
+        <v>1288</v>
       </c>
       <c r="B264" s="3" t="s">
         <v>626</v>
@@ -16259,15 +16281,17 @@
       <c r="C264" s="26" t="s">
         <v>372</v>
       </c>
-      <c r="D264" s="26"/>
+      <c r="D264" s="26" t="s">
+        <v>1142</v>
+      </c>
       <c r="E264" s="26"/>
       <c r="F264" t="s">
-        <v>951</v>
+        <v>926</v>
       </c>
     </row>
     <row r="265" spans="1:6">
       <c r="A265" s="28" t="s">
-        <v>645</v>
+        <v>1289</v>
       </c>
       <c r="B265" s="3" t="s">
         <v>626</v>
@@ -16275,15 +16299,17 @@
       <c r="C265" s="19" t="s">
         <v>373</v>
       </c>
-      <c r="D265" s="19"/>
+      <c r="D265" s="26" t="s">
+        <v>1144</v>
+      </c>
       <c r="E265" s="19"/>
       <c r="F265" t="s">
-        <v>952</v>
+        <v>927</v>
       </c>
     </row>
     <row r="266" spans="1:6">
       <c r="A266" s="28" t="s">
-        <v>646</v>
+        <v>1290</v>
       </c>
       <c r="B266" s="3" t="s">
         <v>626</v>
@@ -16291,15 +16317,17 @@
       <c r="C266" s="26" t="s">
         <v>384</v>
       </c>
-      <c r="D266" s="26"/>
+      <c r="D266" s="26" t="s">
+        <v>1143</v>
+      </c>
       <c r="E266" s="26"/>
       <c r="F266" t="s">
-        <v>953</v>
+        <v>928</v>
       </c>
     </row>
     <row r="267" spans="1:6">
       <c r="A267" s="28" t="s">
-        <v>647</v>
+        <v>1291</v>
       </c>
       <c r="B267" s="3" t="s">
         <v>626</v>
@@ -16307,15 +16335,17 @@
       <c r="C267" s="19" t="s">
         <v>386</v>
       </c>
-      <c r="D267" s="19"/>
+      <c r="D267" s="26" t="s">
+        <v>1145</v>
+      </c>
       <c r="E267" s="19"/>
       <c r="F267" t="s">
-        <v>954</v>
+        <v>929</v>
       </c>
     </row>
     <row r="268" spans="1:6">
       <c r="A268" s="28" t="s">
-        <v>648</v>
+        <v>1292</v>
       </c>
       <c r="B268" s="3" t="s">
         <v>626</v>
@@ -16323,15 +16353,17 @@
       <c r="C268" s="26" t="s">
         <v>390</v>
       </c>
-      <c r="D268" s="26"/>
+      <c r="D268" s="26" t="s">
+        <v>1145</v>
+      </c>
       <c r="E268" s="26"/>
       <c r="F268" s="6" t="s">
-        <v>955</v>
+        <v>930</v>
       </c>
     </row>
     <row r="269" spans="1:6">
       <c r="A269" s="28" t="s">
-        <v>649</v>
+        <v>1293</v>
       </c>
       <c r="B269" s="3" t="s">
         <v>626</v>
@@ -16339,15 +16371,17 @@
       <c r="C269" s="27" t="s">
         <v>394</v>
       </c>
-      <c r="D269" s="27"/>
+      <c r="D269" s="26" t="s">
+        <v>1145</v>
+      </c>
       <c r="E269" s="27"/>
       <c r="F269" t="s">
-        <v>956</v>
+        <v>931</v>
       </c>
     </row>
     <row r="270" spans="1:6">
       <c r="A270" s="28" t="s">
-        <v>650</v>
+        <v>1294</v>
       </c>
       <c r="B270" s="3" t="s">
         <v>626</v>
@@ -16355,15 +16389,17 @@
       <c r="C270" s="26" t="s">
         <v>395</v>
       </c>
-      <c r="D270" s="26"/>
+      <c r="D270" s="26" t="s">
+        <v>1145</v>
+      </c>
       <c r="E270" s="26"/>
       <c r="F270" t="s">
-        <v>957</v>
+        <v>932</v>
       </c>
     </row>
     <row r="271" spans="1:6">
       <c r="A271" s="28" t="s">
-        <v>651</v>
+        <v>1295</v>
       </c>
       <c r="B271" s="3" t="s">
         <v>626</v>
@@ -16371,15 +16407,17 @@
       <c r="C271" s="26" t="s">
         <v>396</v>
       </c>
-      <c r="D271" s="26"/>
+      <c r="D271" s="26" t="s">
+        <v>1145</v>
+      </c>
       <c r="E271" s="26"/>
       <c r="F271" t="s">
-        <v>958</v>
+        <v>933</v>
       </c>
     </row>
     <row r="272" spans="1:6">
       <c r="A272" s="28" t="s">
-        <v>652</v>
+        <v>1296</v>
       </c>
       <c r="B272" s="3" t="s">
         <v>626</v>
@@ -16387,15 +16425,17 @@
       <c r="C272" s="26" t="s">
         <v>392</v>
       </c>
-      <c r="D272" s="26"/>
+      <c r="D272" s="26" t="s">
+        <v>1145</v>
+      </c>
       <c r="E272" s="26"/>
       <c r="F272" t="s">
-        <v>959</v>
+        <v>934</v>
       </c>
     </row>
     <row r="273" spans="1:6">
       <c r="A273" s="28" t="s">
-        <v>653</v>
+        <v>1297</v>
       </c>
       <c r="B273" s="3" t="s">
         <v>626</v>
@@ -16403,15 +16443,17 @@
       <c r="C273" s="19" t="s">
         <v>388</v>
       </c>
-      <c r="D273" s="19"/>
+      <c r="D273" s="26" t="s">
+        <v>1146</v>
+      </c>
       <c r="E273" s="19"/>
       <c r="F273" t="s">
-        <v>960</v>
+        <v>935</v>
       </c>
     </row>
     <row r="274" spans="1:6">
       <c r="A274" s="28" t="s">
-        <v>654</v>
+        <v>1298</v>
       </c>
       <c r="B274" s="3" t="s">
         <v>626</v>
@@ -16419,15 +16461,17 @@
       <c r="C274" s="27" t="s">
         <v>400</v>
       </c>
-      <c r="D274" s="27"/>
+      <c r="D274" s="26" t="s">
+        <v>1145</v>
+      </c>
       <c r="E274" s="27"/>
       <c r="F274" t="s">
-        <v>961</v>
+        <v>936</v>
       </c>
     </row>
     <row r="275" spans="1:6">
       <c r="A275" s="28" t="s">
-        <v>655</v>
+        <v>1299</v>
       </c>
       <c r="B275" s="3" t="s">
         <v>626</v>
@@ -16435,15 +16479,17 @@
       <c r="C275" s="26" t="s">
         <v>402</v>
       </c>
-      <c r="D275" s="26"/>
+      <c r="D275" s="26" t="s">
+        <v>1146</v>
+      </c>
       <c r="E275" s="26"/>
       <c r="F275" t="s">
-        <v>962</v>
+        <v>937</v>
       </c>
     </row>
     <row r="276" spans="1:6">
       <c r="A276" s="28" t="s">
-        <v>656</v>
+        <v>1300</v>
       </c>
       <c r="B276" s="3" t="s">
         <v>626</v>
@@ -16451,15 +16497,17 @@
       <c r="C276" s="19" t="s">
         <v>404</v>
       </c>
-      <c r="D276" s="19"/>
+      <c r="D276" s="26" t="s">
+        <v>1146</v>
+      </c>
       <c r="E276" s="19"/>
       <c r="F276" t="s">
-        <v>963</v>
+        <v>938</v>
       </c>
     </row>
     <row r="277" spans="1:6">
       <c r="A277" s="28" t="s">
-        <v>657</v>
+        <v>1301</v>
       </c>
       <c r="B277" s="3" t="s">
         <v>626</v>
@@ -16467,28 +16515,30 @@
       <c r="C277" s="26" t="s">
         <v>405</v>
       </c>
-      <c r="D277" s="26"/>
+      <c r="D277" s="26" t="s">
+        <v>1142</v>
+      </c>
       <c r="E277" s="26"/>
       <c r="F277" t="s">
-        <v>964</v>
+        <v>939</v>
       </c>
     </row>
     <row r="278" spans="1:6">
       <c r="A278" s="28" t="s">
-        <v>1185</v>
+        <v>1160</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>1114</v>
+        <v>1089</v>
       </c>
       <c r="C278" s="26"/>
       <c r="D278" s="26" t="s">
-        <v>1172</v>
+        <v>1147</v>
       </c>
       <c r="E278" s="26"/>
     </row>
     <row r="279" spans="1:6">
       <c r="A279" s="28" t="s">
-        <v>658</v>
+        <v>633</v>
       </c>
       <c r="B279" s="3" t="s">
         <v>626</v>
@@ -16499,12 +16549,12 @@
       <c r="D279" s="19"/>
       <c r="E279" s="19"/>
       <c r="F279" t="s">
-        <v>965</v>
+        <v>940</v>
       </c>
     </row>
     <row r="280" spans="1:6">
       <c r="A280" s="28" t="s">
-        <v>659</v>
+        <v>634</v>
       </c>
       <c r="B280" s="3" t="s">
         <v>626</v>
@@ -16515,12 +16565,12 @@
       <c r="D280" s="27"/>
       <c r="E280" s="27"/>
       <c r="F280" t="s">
-        <v>966</v>
+        <v>941</v>
       </c>
     </row>
     <row r="281" spans="1:6">
       <c r="A281" s="28" t="s">
-        <v>660</v>
+        <v>635</v>
       </c>
       <c r="B281" s="3" t="s">
         <v>626</v>
@@ -16531,12 +16581,12 @@
       <c r="D281" s="19"/>
       <c r="E281" s="19"/>
       <c r="F281" t="s">
-        <v>967</v>
+        <v>942</v>
       </c>
     </row>
     <row r="282" spans="1:6">
       <c r="A282" s="28" t="s">
-        <v>661</v>
+        <v>636</v>
       </c>
       <c r="B282" s="3" t="s">
         <v>626</v>
@@ -16547,12 +16597,12 @@
       <c r="D282" s="26"/>
       <c r="E282" s="26"/>
       <c r="F282" t="s">
-        <v>968</v>
+        <v>943</v>
       </c>
     </row>
     <row r="283" spans="1:6">
       <c r="A283" s="28" t="s">
-        <v>662</v>
+        <v>637</v>
       </c>
       <c r="B283" s="3" t="s">
         <v>626</v>
@@ -16563,12 +16613,12 @@
       <c r="D283" s="18"/>
       <c r="E283" s="18"/>
       <c r="F283" s="6" t="s">
-        <v>969</v>
+        <v>944</v>
       </c>
     </row>
     <row r="284" spans="1:6">
       <c r="A284" s="28" t="s">
-        <v>663</v>
+        <v>638</v>
       </c>
       <c r="B284" s="3" t="s">
         <v>626</v>
@@ -16579,12 +16629,12 @@
       <c r="D284" s="26"/>
       <c r="E284" s="26"/>
       <c r="F284" t="s">
-        <v>970</v>
+        <v>945</v>
       </c>
     </row>
     <row r="285" spans="1:6">
       <c r="A285" s="28" t="s">
-        <v>664</v>
+        <v>639</v>
       </c>
       <c r="B285" s="3" t="s">
         <v>626</v>
@@ -16595,12 +16645,12 @@
       <c r="D285" s="26"/>
       <c r="E285" s="26"/>
       <c r="F285" t="s">
-        <v>971</v>
+        <v>946</v>
       </c>
     </row>
     <row r="286" spans="1:6">
       <c r="A286" s="28" t="s">
-        <v>665</v>
+        <v>640</v>
       </c>
       <c r="B286" s="3" t="s">
         <v>626</v>
@@ -16611,12 +16661,12 @@
       <c r="D286" s="26"/>
       <c r="E286" s="26"/>
       <c r="F286" t="s">
-        <v>972</v>
+        <v>947</v>
       </c>
     </row>
     <row r="287" spans="1:6">
       <c r="A287" s="28" t="s">
-        <v>666</v>
+        <v>641</v>
       </c>
       <c r="B287" s="3" t="s">
         <v>626</v>
@@ -16627,12 +16677,12 @@
       <c r="D287" s="26"/>
       <c r="E287" s="26"/>
       <c r="F287" t="s">
-        <v>973</v>
+        <v>948</v>
       </c>
     </row>
     <row r="288" spans="1:6">
       <c r="A288" s="28" t="s">
-        <v>667</v>
+        <v>642</v>
       </c>
       <c r="B288" s="3" t="s">
         <v>626</v>
@@ -16643,12 +16693,12 @@
       <c r="D288" s="26"/>
       <c r="E288" s="26"/>
       <c r="F288" t="s">
-        <v>974</v>
+        <v>949</v>
       </c>
     </row>
     <row r="289" spans="1:6">
       <c r="A289" s="28" t="s">
-        <v>668</v>
+        <v>643</v>
       </c>
       <c r="B289" s="3" t="s">
         <v>626</v>
@@ -16659,12 +16709,12 @@
       <c r="D289" s="19"/>
       <c r="E289" s="19"/>
       <c r="F289" t="s">
-        <v>975</v>
+        <v>950</v>
       </c>
     </row>
     <row r="290" spans="1:6">
       <c r="A290" s="28" t="s">
-        <v>669</v>
+        <v>644</v>
       </c>
       <c r="B290" s="3" t="s">
         <v>626</v>
@@ -16675,12 +16725,12 @@
       <c r="D290" s="19"/>
       <c r="E290" s="19"/>
       <c r="F290" t="s">
-        <v>976</v>
+        <v>951</v>
       </c>
     </row>
     <row r="291" spans="1:6">
       <c r="A291" s="28" t="s">
-        <v>670</v>
+        <v>645</v>
       </c>
       <c r="B291" s="3" t="s">
         <v>626</v>
@@ -16691,12 +16741,12 @@
       <c r="D291" s="26"/>
       <c r="E291" s="26"/>
       <c r="F291" t="s">
-        <v>977</v>
+        <v>952</v>
       </c>
     </row>
     <row r="292" spans="1:6">
       <c r="A292" s="28" t="s">
-        <v>671</v>
+        <v>646</v>
       </c>
       <c r="B292" s="3" t="s">
         <v>626</v>
@@ -16707,12 +16757,12 @@
       <c r="D292" s="26"/>
       <c r="E292" s="26"/>
       <c r="F292" s="6" t="s">
-        <v>978</v>
+        <v>953</v>
       </c>
     </row>
     <row r="293" spans="1:6">
       <c r="A293" s="28" t="s">
-        <v>672</v>
+        <v>647</v>
       </c>
       <c r="B293" s="3" t="s">
         <v>626</v>
@@ -16723,12 +16773,12 @@
       <c r="D293" s="26"/>
       <c r="E293" s="26"/>
       <c r="F293" s="6" t="s">
-        <v>979</v>
+        <v>954</v>
       </c>
     </row>
     <row r="294" spans="1:6">
       <c r="A294" s="28" t="s">
-        <v>673</v>
+        <v>648</v>
       </c>
       <c r="B294" s="3" t="s">
         <v>626</v>
@@ -16739,12 +16789,12 @@
       <c r="D294" s="19"/>
       <c r="E294" s="19"/>
       <c r="F294" t="s">
-        <v>980</v>
+        <v>955</v>
       </c>
     </row>
     <row r="295" spans="1:6">
       <c r="A295" s="28" t="s">
-        <v>674</v>
+        <v>649</v>
       </c>
       <c r="B295" s="3" t="s">
         <v>626</v>
@@ -16755,12 +16805,12 @@
       <c r="D295" s="26"/>
       <c r="E295" s="26"/>
       <c r="F295" t="s">
-        <v>981</v>
+        <v>956</v>
       </c>
     </row>
     <row r="296" spans="1:6">
       <c r="A296" s="28" t="s">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="B296" s="3" t="s">
         <v>626</v>
@@ -16771,12 +16821,12 @@
       <c r="D296" s="18"/>
       <c r="E296" s="18"/>
       <c r="F296" t="s">
-        <v>982</v>
+        <v>957</v>
       </c>
     </row>
     <row r="297" spans="1:6">
       <c r="A297" s="28" t="s">
-        <v>676</v>
+        <v>651</v>
       </c>
       <c r="B297" s="3" t="s">
         <v>626</v>
@@ -16787,12 +16837,12 @@
       <c r="D297" s="19"/>
       <c r="E297" s="19"/>
       <c r="F297" t="s">
-        <v>983</v>
+        <v>958</v>
       </c>
     </row>
     <row r="298" spans="1:6">
       <c r="A298" s="28" t="s">
-        <v>677</v>
+        <v>652</v>
       </c>
       <c r="B298" s="3" t="s">
         <v>626</v>
@@ -16803,12 +16853,12 @@
       <c r="D298" s="19"/>
       <c r="E298" s="19"/>
       <c r="F298" t="s">
-        <v>984</v>
+        <v>959</v>
       </c>
     </row>
     <row r="299" spans="1:6">
       <c r="A299" s="28" t="s">
-        <v>678</v>
+        <v>653</v>
       </c>
       <c r="B299" s="3" t="s">
         <v>626</v>
@@ -16819,12 +16869,12 @@
       <c r="D299" s="19"/>
       <c r="E299" s="19"/>
       <c r="F299" t="s">
-        <v>985</v>
+        <v>960</v>
       </c>
     </row>
     <row r="300" spans="1:6">
       <c r="A300" s="28" t="s">
-        <v>679</v>
+        <v>654</v>
       </c>
       <c r="B300" s="3" t="s">
         <v>626</v>
@@ -16835,12 +16885,12 @@
       <c r="D300" s="26"/>
       <c r="E300" s="26"/>
       <c r="F300" s="6" t="s">
-        <v>986</v>
+        <v>961</v>
       </c>
     </row>
     <row r="301" spans="1:6">
       <c r="A301" s="28" t="s">
-        <v>680</v>
+        <v>655</v>
       </c>
       <c r="B301" s="3" t="s">
         <v>626</v>
@@ -16851,12 +16901,12 @@
       <c r="D301" s="27"/>
       <c r="E301" s="27"/>
       <c r="F301" t="s">
-        <v>987</v>
+        <v>962</v>
       </c>
     </row>
     <row r="302" spans="1:6">
       <c r="A302" s="28" t="s">
-        <v>681</v>
+        <v>656</v>
       </c>
       <c r="B302" s="3" t="s">
         <v>626</v>
@@ -16867,12 +16917,12 @@
       <c r="D302" s="19"/>
       <c r="E302" s="19"/>
       <c r="F302" t="s">
-        <v>988</v>
+        <v>963</v>
       </c>
     </row>
     <row r="303" spans="1:6">
       <c r="A303" s="28" t="s">
-        <v>682</v>
+        <v>657</v>
       </c>
       <c r="B303" s="3" t="s">
         <v>626</v>
@@ -16883,12 +16933,12 @@
       <c r="D303" s="19"/>
       <c r="E303" s="19"/>
       <c r="F303" t="s">
-        <v>989</v>
+        <v>964</v>
       </c>
     </row>
     <row r="304" spans="1:6">
       <c r="A304" s="28" t="s">
-        <v>683</v>
+        <v>658</v>
       </c>
       <c r="B304" s="3" t="s">
         <v>626</v>
@@ -16899,12 +16949,12 @@
       <c r="D304" s="19"/>
       <c r="E304" s="19"/>
       <c r="F304" t="s">
-        <v>990</v>
+        <v>965</v>
       </c>
     </row>
     <row r="305" spans="1:6">
       <c r="A305" s="28" t="s">
-        <v>684</v>
+        <v>659</v>
       </c>
       <c r="B305" s="3" t="s">
         <v>626</v>
@@ -16915,12 +16965,12 @@
       <c r="D305" s="27"/>
       <c r="E305" s="27"/>
       <c r="F305" t="s">
-        <v>991</v>
+        <v>966</v>
       </c>
     </row>
     <row r="306" spans="1:6">
       <c r="A306" s="28" t="s">
-        <v>685</v>
+        <v>660</v>
       </c>
       <c r="B306" s="3" t="s">
         <v>626</v>
@@ -16931,12 +16981,12 @@
       <c r="D306" s="26"/>
       <c r="E306" s="26"/>
       <c r="F306" t="s">
-        <v>992</v>
+        <v>967</v>
       </c>
     </row>
     <row r="307" spans="1:6">
       <c r="A307" s="28" t="s">
-        <v>686</v>
+        <v>661</v>
       </c>
       <c r="B307" s="3" t="s">
         <v>626</v>
@@ -16947,12 +16997,12 @@
       <c r="D307" s="26"/>
       <c r="E307" s="26"/>
       <c r="F307" t="s">
-        <v>993</v>
+        <v>968</v>
       </c>
     </row>
     <row r="308" spans="1:6">
       <c r="A308" s="28" t="s">
-        <v>687</v>
+        <v>662</v>
       </c>
       <c r="B308" s="3" t="s">
         <v>626</v>
@@ -16963,12 +17013,12 @@
       <c r="D308" s="19"/>
       <c r="E308" s="19"/>
       <c r="F308" t="s">
-        <v>994</v>
+        <v>969</v>
       </c>
     </row>
     <row r="309" spans="1:6">
       <c r="A309" s="28" t="s">
-        <v>688</v>
+        <v>663</v>
       </c>
       <c r="B309" s="3" t="s">
         <v>626</v>
@@ -16979,12 +17029,12 @@
       <c r="D309" s="19"/>
       <c r="E309" s="19"/>
       <c r="F309" t="s">
-        <v>995</v>
+        <v>970</v>
       </c>
     </row>
     <row r="310" spans="1:6">
       <c r="A310" s="28" t="s">
-        <v>689</v>
+        <v>664</v>
       </c>
       <c r="B310" s="3" t="s">
         <v>626</v>
@@ -16995,12 +17045,12 @@
       <c r="D310" s="26"/>
       <c r="E310" s="26"/>
       <c r="F310" t="s">
-        <v>996</v>
+        <v>971</v>
       </c>
     </row>
     <row r="311" spans="1:6">
       <c r="A311" s="28" t="s">
-        <v>690</v>
+        <v>665</v>
       </c>
       <c r="B311" s="3" t="s">
         <v>626</v>
@@ -17011,12 +17061,12 @@
       <c r="D311" s="19"/>
       <c r="E311" s="19"/>
       <c r="F311" t="s">
-        <v>997</v>
+        <v>972</v>
       </c>
     </row>
     <row r="312" spans="1:6">
       <c r="A312" s="28" t="s">
-        <v>691</v>
+        <v>666</v>
       </c>
       <c r="B312" s="3" t="s">
         <v>626</v>
@@ -17027,12 +17077,12 @@
       <c r="D312" s="19"/>
       <c r="E312" s="19"/>
       <c r="F312" t="s">
-        <v>998</v>
+        <v>973</v>
       </c>
     </row>
     <row r="313" spans="1:6">
       <c r="A313" s="28" t="s">
-        <v>692</v>
+        <v>667</v>
       </c>
       <c r="B313" s="3" t="s">
         <v>626</v>
@@ -17043,12 +17093,12 @@
       <c r="D313" s="19"/>
       <c r="E313" s="19"/>
       <c r="F313" t="s">
-        <v>999</v>
+        <v>974</v>
       </c>
     </row>
     <row r="314" spans="1:6">
       <c r="A314" s="28" t="s">
-        <v>693</v>
+        <v>668</v>
       </c>
       <c r="B314" s="3" t="s">
         <v>626</v>
@@ -17059,12 +17109,12 @@
       <c r="D314" s="19"/>
       <c r="E314" s="19"/>
       <c r="F314" t="s">
-        <v>1000</v>
+        <v>975</v>
       </c>
     </row>
     <row r="315" spans="1:6">
       <c r="A315" s="28" t="s">
-        <v>694</v>
+        <v>669</v>
       </c>
       <c r="B315" s="3" t="s">
         <v>626</v>
@@ -17075,12 +17125,12 @@
       <c r="D315" s="26"/>
       <c r="E315" s="26"/>
       <c r="F315" t="s">
-        <v>1001</v>
+        <v>976</v>
       </c>
     </row>
     <row r="316" spans="1:6">
       <c r="A316" s="28" t="s">
-        <v>695</v>
+        <v>670</v>
       </c>
       <c r="B316" s="3" t="s">
         <v>626</v>
@@ -17091,12 +17141,12 @@
       <c r="D316" s="26"/>
       <c r="E316" s="26"/>
       <c r="F316" t="s">
-        <v>1002</v>
+        <v>977</v>
       </c>
     </row>
     <row r="317" spans="1:6">
       <c r="A317" s="28" t="s">
-        <v>696</v>
+        <v>671</v>
       </c>
       <c r="B317" s="3" t="s">
         <v>626</v>
@@ -17107,12 +17157,12 @@
       <c r="D317" s="26"/>
       <c r="E317" s="26"/>
       <c r="F317" t="s">
-        <v>1003</v>
+        <v>978</v>
       </c>
     </row>
     <row r="318" spans="1:6">
       <c r="A318" s="28" t="s">
-        <v>697</v>
+        <v>672</v>
       </c>
       <c r="B318" s="3" t="s">
         <v>626</v>
@@ -17123,12 +17173,12 @@
       <c r="D318" s="26"/>
       <c r="E318" s="26"/>
       <c r="F318" t="s">
-        <v>1004</v>
+        <v>979</v>
       </c>
     </row>
     <row r="319" spans="1:6">
       <c r="A319" s="28" t="s">
-        <v>698</v>
+        <v>673</v>
       </c>
       <c r="B319" s="3" t="s">
         <v>626</v>
@@ -17139,12 +17189,12 @@
       <c r="D319" s="26"/>
       <c r="E319" s="26"/>
       <c r="F319" t="s">
-        <v>1005</v>
+        <v>980</v>
       </c>
     </row>
     <row r="320" spans="1:6">
       <c r="A320" s="28" t="s">
-        <v>699</v>
+        <v>674</v>
       </c>
       <c r="B320" s="3" t="s">
         <v>626</v>
@@ -17155,12 +17205,12 @@
       <c r="D320" s="26"/>
       <c r="E320" s="26"/>
       <c r="F320" t="s">
-        <v>1006</v>
+        <v>981</v>
       </c>
     </row>
     <row r="321" spans="1:6">
       <c r="A321" s="28" t="s">
-        <v>700</v>
+        <v>675</v>
       </c>
       <c r="B321" s="3" t="s">
         <v>626</v>
@@ -17171,12 +17221,12 @@
       <c r="D321" s="26"/>
       <c r="E321" s="26"/>
       <c r="F321" s="19" t="s">
-        <v>1007</v>
+        <v>982</v>
       </c>
     </row>
     <row r="322" spans="1:6">
       <c r="A322" s="28" t="s">
-        <v>701</v>
+        <v>676</v>
       </c>
       <c r="B322" s="3" t="s">
         <v>626</v>
@@ -17187,12 +17237,12 @@
       <c r="D322" s="26"/>
       <c r="E322" s="26"/>
       <c r="F322" t="s">
-        <v>1008</v>
+        <v>983</v>
       </c>
     </row>
     <row r="323" spans="1:6">
       <c r="A323" s="28" t="s">
-        <v>702</v>
+        <v>677</v>
       </c>
       <c r="B323" s="3" t="s">
         <v>626</v>
@@ -17203,12 +17253,12 @@
       <c r="D323" s="26"/>
       <c r="E323" s="26"/>
       <c r="F323" t="s">
-        <v>1009</v>
+        <v>984</v>
       </c>
     </row>
     <row r="324" spans="1:6">
       <c r="A324" s="28" t="s">
-        <v>703</v>
+        <v>678</v>
       </c>
       <c r="B324" s="3" t="s">
         <v>626</v>
@@ -17219,12 +17269,12 @@
       <c r="D324" s="27"/>
       <c r="E324" s="27"/>
       <c r="F324" t="s">
-        <v>1010</v>
+        <v>985</v>
       </c>
     </row>
     <row r="325" spans="1:6">
       <c r="A325" s="28" t="s">
-        <v>704</v>
+        <v>679</v>
       </c>
       <c r="B325" s="3" t="s">
         <v>626</v>
@@ -17235,12 +17285,12 @@
       <c r="D325" s="26"/>
       <c r="E325" s="26"/>
       <c r="F325" t="s">
-        <v>1011</v>
+        <v>986</v>
       </c>
     </row>
     <row r="326" spans="1:6">
       <c r="A326" s="28" t="s">
-        <v>705</v>
+        <v>680</v>
       </c>
       <c r="B326" s="3" t="s">
         <v>626</v>
@@ -17251,12 +17301,12 @@
       <c r="D326" s="19"/>
       <c r="E326" s="19"/>
       <c r="F326" t="s">
-        <v>1012</v>
+        <v>987</v>
       </c>
     </row>
     <row r="327" spans="1:6">
       <c r="A327" s="28" t="s">
-        <v>706</v>
+        <v>681</v>
       </c>
       <c r="B327" s="3" t="s">
         <v>626</v>
@@ -17267,12 +17317,12 @@
       <c r="D327" s="19"/>
       <c r="E327" s="19"/>
       <c r="F327" t="s">
-        <v>1013</v>
+        <v>988</v>
       </c>
     </row>
     <row r="328" spans="1:6">
       <c r="A328" s="28" t="s">
-        <v>707</v>
+        <v>682</v>
       </c>
       <c r="B328" s="3" t="s">
         <v>626</v>
@@ -17283,12 +17333,12 @@
       <c r="D328" s="19"/>
       <c r="E328" s="19"/>
       <c r="F328" t="s">
-        <v>1014</v>
+        <v>989</v>
       </c>
     </row>
     <row r="329" spans="1:6">
       <c r="A329" s="28" t="s">
-        <v>708</v>
+        <v>683</v>
       </c>
       <c r="B329" s="3" t="s">
         <v>626</v>
@@ -17299,12 +17349,12 @@
       <c r="D329" s="19"/>
       <c r="E329" s="19"/>
       <c r="F329" t="s">
-        <v>1015</v>
+        <v>990</v>
       </c>
     </row>
     <row r="330" spans="1:6">
       <c r="A330" s="28" t="s">
-        <v>709</v>
+        <v>684</v>
       </c>
       <c r="B330" s="3" t="s">
         <v>626</v>
@@ -17315,12 +17365,12 @@
       <c r="D330" s="26"/>
       <c r="E330" s="26"/>
       <c r="F330" t="s">
-        <v>1016</v>
+        <v>991</v>
       </c>
     </row>
     <row r="331" spans="1:6">
       <c r="A331" s="28" t="s">
-        <v>710</v>
+        <v>685</v>
       </c>
       <c r="B331" s="3" t="s">
         <v>626</v>
@@ -17331,12 +17381,12 @@
       <c r="D331" s="19"/>
       <c r="E331" s="19"/>
       <c r="F331" t="s">
-        <v>1017</v>
+        <v>992</v>
       </c>
     </row>
     <row r="332" spans="1:6">
       <c r="A332" s="28" t="s">
-        <v>711</v>
+        <v>686</v>
       </c>
       <c r="B332" s="3" t="s">
         <v>626</v>
@@ -17347,12 +17397,12 @@
       <c r="D332" s="19"/>
       <c r="E332" s="19"/>
       <c r="F332" t="s">
-        <v>1018</v>
+        <v>993</v>
       </c>
     </row>
     <row r="333" spans="1:6">
       <c r="A333" s="28" t="s">
-        <v>712</v>
+        <v>687</v>
       </c>
       <c r="B333" s="3" t="s">
         <v>626</v>
@@ -17363,12 +17413,12 @@
       <c r="D333" s="18"/>
       <c r="E333" s="18"/>
       <c r="F333" s="6" t="s">
-        <v>1019</v>
+        <v>994</v>
       </c>
     </row>
     <row r="334" spans="1:6">
       <c r="A334" s="28" t="s">
-        <v>713</v>
+        <v>688</v>
       </c>
       <c r="B334" s="3" t="s">
         <v>626</v>
@@ -17379,7 +17429,7 @@
       <c r="D334" s="27"/>
       <c r="E334" s="27"/>
       <c r="F334" s="6" t="s">
-        <v>1020</v>
+        <v>995</v>
       </c>
     </row>
   </sheetData>

--- a/slackbuilds/sb_migr.xlsx
+++ b/slackbuilds/sb_migr.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\projects.new\sh\cvstogit\slackbuilds\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E26D271E-109F-470B-A2AD-56525683ECE0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30061DBD-77FA-43A6-9EFF-D1BDD437EFB3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2205" uniqueCount="1302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2261" uniqueCount="1302">
   <si>
     <t>Package</t>
   </si>
@@ -1939,174 +1939,6 @@
     <t>SLACK-10_2</t>
   </si>
   <si>
-    <t>2016-07-18 21:12:22</t>
-  </si>
-  <si>
-    <t>2016-08-01 11:57:09</t>
-  </si>
-  <si>
-    <t>2016-08-01 15:07:11</t>
-  </si>
-  <si>
-    <t>2016-08-23 22:38:44</t>
-  </si>
-  <si>
-    <t>2016-08-25 20:06:27</t>
-  </si>
-  <si>
-    <t>2016-09-14 18:19:15</t>
-  </si>
-  <si>
-    <t>2016-09-14 20:58:43</t>
-  </si>
-  <si>
-    <t>2016-09-14 23:09:08</t>
-  </si>
-  <si>
-    <t>2016-09-15 19:42:52</t>
-  </si>
-  <si>
-    <t>2016-09-15 21:31:41</t>
-  </si>
-  <si>
-    <t>2016-09-16 12:38:28</t>
-  </si>
-  <si>
-    <t>2016-09-16 12:57:19</t>
-  </si>
-  <si>
-    <t>2016-09-16 14:46:16</t>
-  </si>
-  <si>
-    <t>2016-09-16 16:12:09</t>
-  </si>
-  <si>
-    <t>2016-09-18 15:32:31</t>
-  </si>
-  <si>
-    <t>2016-09-20 09:52:55</t>
-  </si>
-  <si>
-    <t>2016-09-20 16:22:17</t>
-  </si>
-  <si>
-    <t>2016-09-22 12:10:06</t>
-  </si>
-  <si>
-    <t>2016-09-22 14:20:10</t>
-  </si>
-  <si>
-    <t>2016-09-24 08:44:02</t>
-  </si>
-  <si>
-    <t>2016-09-24 09:30:34</t>
-  </si>
-  <si>
-    <t>2016-09-25 10:24:12</t>
-  </si>
-  <si>
-    <t>2016-09-25 12:43:40</t>
-  </si>
-  <si>
-    <t>2016-10-02 20:46:59</t>
-  </si>
-  <si>
-    <t>2016-10-02 21:26:20</t>
-  </si>
-  <si>
-    <t>2016-10-07 14:03:40</t>
-  </si>
-  <si>
-    <t>2016-10-08 17:08:04</t>
-  </si>
-  <si>
-    <t>2016-10-08 18:47:15</t>
-  </si>
-  <si>
-    <t>2016-10-09 17:48:12</t>
-  </si>
-  <si>
-    <t>2016-10-14 12:33:43</t>
-  </si>
-  <si>
-    <t>2016-10-25 18:22:21</t>
-  </si>
-  <si>
-    <t>2016-11-07 12:48:18</t>
-  </si>
-  <si>
-    <t>2016-11-20 13:59:08</t>
-  </si>
-  <si>
-    <t>2016-12-05 21:02:46</t>
-  </si>
-  <si>
-    <t>2016-12-09 23:13:49</t>
-  </si>
-  <si>
-    <t>2016-12-09 23:36:09</t>
-  </si>
-  <si>
-    <t>2016-12-09 23:46:23</t>
-  </si>
-  <si>
-    <t>2016-12-10 00:11:10</t>
-  </si>
-  <si>
-    <t>2016-12-10 01:12:08</t>
-  </si>
-  <si>
-    <t>2016-12-10 01:28:19</t>
-  </si>
-  <si>
-    <t>2016-12-10 01:44:27</t>
-  </si>
-  <si>
-    <t>2017-02-21 09:43:39</t>
-  </si>
-  <si>
-    <t>2017-02-25 21:13:43</t>
-  </si>
-  <si>
-    <t>2017-02-25 23:35:00</t>
-  </si>
-  <si>
-    <t>2017-02-27 14:45:20</t>
-  </si>
-  <si>
-    <t>2017-03-07 23:02:19</t>
-  </si>
-  <si>
-    <t>2017-03-08 00:11:43</t>
-  </si>
-  <si>
-    <t>2017-04-21 21:52:32</t>
-  </si>
-  <si>
-    <t>2017-04-22 13:01:23</t>
-  </si>
-  <si>
-    <t>2017-06-18 10:46:09</t>
-  </si>
-  <si>
-    <t>2017-06-18 11:42:06</t>
-  </si>
-  <si>
-    <t>2017-06-18 12:19:55</t>
-  </si>
-  <si>
-    <t>2017-10-12 15:21:04</t>
-  </si>
-  <si>
-    <t>2018-05-26 15:54:19</t>
-  </si>
-  <si>
-    <t>2018-08-01 14:20:33</t>
-  </si>
-  <si>
-    <t>2018-10-23 14:22:02</t>
-  </si>
-  <si>
     <t>etc/slack-package.conf</t>
   </si>
   <si>
@@ -3944,6 +3776,174 @@
   </si>
   <si>
     <t>2016-05-03 20:27:52 +0300</t>
+  </si>
+  <si>
+    <t>2016-07-18 21:12:22 +0300</t>
+  </si>
+  <si>
+    <t>2016-08-01 11:57:09 +0300</t>
+  </si>
+  <si>
+    <t>2016-08-01 15:07:11 +0300</t>
+  </si>
+  <si>
+    <t>2016-08-23 22:38:44 +0300</t>
+  </si>
+  <si>
+    <t>2016-08-25 20:06:27 +0300</t>
+  </si>
+  <si>
+    <t>2016-09-14 18:19:15 +0300</t>
+  </si>
+  <si>
+    <t>2016-09-14 20:58:43 +0300</t>
+  </si>
+  <si>
+    <t>2016-09-14 23:09:08 +0300</t>
+  </si>
+  <si>
+    <t>2016-09-15 19:42:52 +0300</t>
+  </si>
+  <si>
+    <t>2016-09-15 21:31:41 +0300</t>
+  </si>
+  <si>
+    <t>2016-09-16 12:38:28 +0300</t>
+  </si>
+  <si>
+    <t>2016-09-16 12:57:19 +0300</t>
+  </si>
+  <si>
+    <t>2016-09-16 14:46:16 +0300</t>
+  </si>
+  <si>
+    <t>2016-09-16 16:12:09 +0300</t>
+  </si>
+  <si>
+    <t>2016-09-18 15:32:31 +0300</t>
+  </si>
+  <si>
+    <t>2016-09-20 09:52:55 +0300</t>
+  </si>
+  <si>
+    <t>2016-09-20 16:22:17 +0300</t>
+  </si>
+  <si>
+    <t>2016-09-22 12:10:06 +0300</t>
+  </si>
+  <si>
+    <t>2016-09-22 14:20:10 +0300</t>
+  </si>
+  <si>
+    <t>2016-09-24 08:44:02 +0300</t>
+  </si>
+  <si>
+    <t>2016-09-24 09:30:34 +0300</t>
+  </si>
+  <si>
+    <t>2016-09-25 10:24:12 +0300</t>
+  </si>
+  <si>
+    <t>2016-09-25 12:43:40 +0300</t>
+  </si>
+  <si>
+    <t>2016-10-02 20:46:59 +0300</t>
+  </si>
+  <si>
+    <t>2016-10-02 21:26:20 +0300</t>
+  </si>
+  <si>
+    <t>2016-10-07 14:03:40 +0300</t>
+  </si>
+  <si>
+    <t>2016-10-08 17:08:04 +0300</t>
+  </si>
+  <si>
+    <t>2016-10-08 18:47:15 +0300</t>
+  </si>
+  <si>
+    <t>2016-10-09 17:48:12 +0300</t>
+  </si>
+  <si>
+    <t>2016-10-14 12:33:43 +0300</t>
+  </si>
+  <si>
+    <t>2016-10-25 18:22:21 +0300</t>
+  </si>
+  <si>
+    <t>2016-11-07 12:48:18 +0200</t>
+  </si>
+  <si>
+    <t>2016-11-20 13:59:08 +0200</t>
+  </si>
+  <si>
+    <t>2016-12-05 21:02:46 +0200</t>
+  </si>
+  <si>
+    <t>2016-12-09 23:13:49 +0200</t>
+  </si>
+  <si>
+    <t>2016-12-09 23:36:09 +0200</t>
+  </si>
+  <si>
+    <t>2016-12-09 23:46:23 +0200</t>
+  </si>
+  <si>
+    <t>2016-12-10 00:11:10 +0200</t>
+  </si>
+  <si>
+    <t>2016-12-10 01:12:08 +0200</t>
+  </si>
+  <si>
+    <t>2016-12-10 01:28:19 +0200</t>
+  </si>
+  <si>
+    <t>2016-12-10 01:44:27 +0200</t>
+  </si>
+  <si>
+    <t>2017-02-21 09:43:39 +0200</t>
+  </si>
+  <si>
+    <t>2017-02-25 21:13:43 +0200</t>
+  </si>
+  <si>
+    <t>2017-02-25 23:35:00 +0200</t>
+  </si>
+  <si>
+    <t>2017-02-27 14:45:20 +0200</t>
+  </si>
+  <si>
+    <t>2017-03-07 23:02:19 +0200</t>
+  </si>
+  <si>
+    <t>2017-03-08 00:11:43 +0200</t>
+  </si>
+  <si>
+    <t>2017-04-21 21:52:32 +0300</t>
+  </si>
+  <si>
+    <t>2017-04-22 13:01:23 +0300</t>
+  </si>
+  <si>
+    <t>2017-06-18 10:46:09 +0300</t>
+  </si>
+  <si>
+    <t>2017-06-18 11:42:06 +0300</t>
+  </si>
+  <si>
+    <t>2017-06-18 12:19:55 +0300</t>
+  </si>
+  <si>
+    <t>2017-10-12 15:21:04 +0300</t>
+  </si>
+  <si>
+    <t>2018-05-26 15:54:19 +0300</t>
+  </si>
+  <si>
+    <t>2018-08-01 14:20:33 +0300</t>
+  </si>
+  <si>
+    <t>2018-10-23 14:22:02 +0300</t>
   </si>
 </sst>
 </file>
@@ -5370,7 +5370,7 @@
         <v>9</v>
       </c>
       <c r="F42" t="s">
-        <v>1268</v>
+        <v>1212</v>
       </c>
       <c r="G42" s="13">
         <v>43895</v>
@@ -8869,7 +8869,7 @@
         <v>147</v>
       </c>
       <c r="F194" t="s">
-        <v>996</v>
+        <v>940</v>
       </c>
       <c r="G194" s="13">
         <v>43875</v>
@@ -11608,8 +11608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{495E7B31-8439-4BBC-8206-DAF1FFDAE945}">
   <dimension ref="A1:F334"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A254" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D278" sqref="D278"/>
+    <sheetView tabSelected="1" topLeftCell="A318" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D334" sqref="D334"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -11644,7 +11644,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="28" t="s">
-        <v>998</v>
+        <v>942</v>
       </c>
       <c r="B2" t="s">
         <v>627</v>
@@ -11653,7 +11653,7 @@
         <v>628</v>
       </c>
       <c r="D2" t="s">
-        <v>1046</v>
+        <v>990</v>
       </c>
       <c r="E2" t="s">
         <v>630</v>
@@ -11661,7 +11661,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="28" t="s">
-        <v>999</v>
+        <v>943</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>626</v>
@@ -11670,42 +11670,42 @@
         <v>20</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>1046</v>
+        <v>990</v>
       </c>
       <c r="E3" s="19"/>
       <c r="F3" t="s">
-        <v>690</v>
+        <v>634</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="28" t="s">
-        <v>1140</v>
+        <v>1084</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1052</v>
+        <v>996</v>
       </c>
       <c r="C4" s="19"/>
       <c r="D4" s="18" t="s">
-        <v>1134</v>
+        <v>1078</v>
       </c>
       <c r="E4" s="19"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="28" t="s">
-        <v>1149</v>
+        <v>1093</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>1089</v>
+        <v>1033</v>
       </c>
       <c r="C5" s="19"/>
       <c r="D5" s="18" t="s">
-        <v>1135</v>
+        <v>1079</v>
       </c>
       <c r="E5" s="19"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="28" t="s">
-        <v>1136</v>
+        <v>1080</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>626</v>
@@ -11714,16 +11714,16 @@
         <v>79</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>1135</v>
+        <v>1079</v>
       </c>
       <c r="E6" s="19"/>
       <c r="F6" t="s">
-        <v>742</v>
+        <v>686</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="28" t="s">
-        <v>1000</v>
+        <v>944</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>626</v>
@@ -11732,16 +11732,16 @@
         <v>43</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>1135</v>
+        <v>1079</v>
       </c>
       <c r="E7" s="19"/>
       <c r="F7" t="s">
-        <v>691</v>
+        <v>635</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="28" t="s">
-        <v>1001</v>
+        <v>945</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>626</v>
@@ -11750,16 +11750,16 @@
         <v>38</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>1135</v>
+        <v>1079</v>
       </c>
       <c r="E8" s="19"/>
       <c r="F8" t="s">
-        <v>997</v>
+        <v>941</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="28" t="s">
-        <v>1002</v>
+        <v>946</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>626</v>
@@ -11768,16 +11768,16 @@
         <v>26</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>1135</v>
+        <v>1079</v>
       </c>
       <c r="E9" s="19"/>
       <c r="F9" t="s">
-        <v>693</v>
+        <v>637</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="28" t="s">
-        <v>1003</v>
+        <v>947</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>626</v>
@@ -11786,16 +11786,16 @@
         <v>123</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>1135</v>
+        <v>1079</v>
       </c>
       <c r="E10" s="19"/>
       <c r="F10" t="s">
-        <v>694</v>
+        <v>638</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="28" t="s">
-        <v>1004</v>
+        <v>948</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>626</v>
@@ -11804,16 +11804,16 @@
         <v>554</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>1135</v>
+        <v>1079</v>
       </c>
       <c r="E11" s="26"/>
       <c r="F11" t="s">
-        <v>695</v>
+        <v>639</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="28" t="s">
-        <v>1137</v>
+        <v>1081</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>626</v>
@@ -11822,16 +11822,16 @@
         <v>137</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>1135</v>
+        <v>1079</v>
       </c>
       <c r="E12" s="18"/>
       <c r="F12" s="6" t="s">
-        <v>766</v>
+        <v>710</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="28" t="s">
-        <v>1005</v>
+        <v>949</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>626</v>
@@ -11840,16 +11840,16 @@
         <v>110</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>1135</v>
+        <v>1079</v>
       </c>
       <c r="E13" s="19"/>
       <c r="F13" t="s">
-        <v>696</v>
+        <v>640</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="28" t="s">
-        <v>1006</v>
+        <v>950</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>626</v>
@@ -11858,16 +11858,16 @@
         <v>111</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>1135</v>
+        <v>1079</v>
       </c>
       <c r="E14" s="19"/>
       <c r="F14" t="s">
-        <v>697</v>
+        <v>641</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="28" t="s">
-        <v>1007</v>
+        <v>951</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>626</v>
@@ -11876,16 +11876,16 @@
         <v>576</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>1135</v>
+        <v>1079</v>
       </c>
       <c r="E15" s="19"/>
       <c r="F15" t="s">
-        <v>698</v>
+        <v>642</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="28" t="s">
-        <v>1008</v>
+        <v>952</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>626</v>
@@ -11894,16 +11894,16 @@
         <v>6</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>1135</v>
+        <v>1079</v>
       </c>
       <c r="E16" s="19"/>
       <c r="F16" t="s">
-        <v>699</v>
+        <v>643</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="28" t="s">
-        <v>1009</v>
+        <v>953</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>626</v>
@@ -11912,16 +11912,16 @@
         <v>30</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>1135</v>
+        <v>1079</v>
       </c>
       <c r="E17" s="18"/>
       <c r="F17" s="6" t="s">
-        <v>700</v>
+        <v>644</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="28" t="s">
-        <v>1010</v>
+        <v>954</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>626</v>
@@ -11930,16 +11930,16 @@
         <v>14</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>1135</v>
+        <v>1079</v>
       </c>
       <c r="E18" s="18"/>
       <c r="F18" t="s">
-        <v>701</v>
+        <v>645</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="28" t="s">
-        <v>1138</v>
+        <v>1082</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>626</v>
@@ -11948,16 +11948,16 @@
         <v>87</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>1135</v>
+        <v>1079</v>
       </c>
       <c r="E19" s="19"/>
       <c r="F19" t="s">
-        <v>749</v>
+        <v>693</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="28" t="s">
-        <v>1011</v>
+        <v>955</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>626</v>
@@ -11966,19 +11966,19 @@
         <v>161</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>1135</v>
+        <v>1079</v>
       </c>
       <c r="E20" s="19"/>
       <c r="F20" t="s">
-        <v>702</v>
+        <v>646</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="28" t="s">
-        <v>1150</v>
+        <v>1094</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>1089</v>
+        <v>1033</v>
       </c>
       <c r="C21" s="19"/>
       <c r="D21" s="18" t="s">
@@ -11988,22 +11988,22 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="28" t="s">
-        <v>1139</v>
+        <v>1083</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>1043</v>
+        <v>987</v>
       </c>
       <c r="C22" s="19" t="s">
         <v>38</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>1047</v>
+        <v>991</v>
       </c>
       <c r="E22" s="19"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="28" t="s">
-        <v>1012</v>
+        <v>956</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>626</v>
@@ -12016,12 +12016,12 @@
       </c>
       <c r="E23" s="19"/>
       <c r="F23" t="s">
-        <v>703</v>
+        <v>647</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="28" t="s">
-        <v>1013</v>
+        <v>957</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>626</v>
@@ -12034,12 +12034,12 @@
       </c>
       <c r="E24" s="19"/>
       <c r="F24" t="s">
-        <v>704</v>
+        <v>648</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="28" t="s">
-        <v>1014</v>
+        <v>958</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>626</v>
@@ -12052,12 +12052,12 @@
       </c>
       <c r="E25" s="19"/>
       <c r="F25" t="s">
-        <v>705</v>
+        <v>649</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="28" t="s">
-        <v>1015</v>
+        <v>959</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>626</v>
@@ -12070,30 +12070,30 @@
       </c>
       <c r="E26" s="19"/>
       <c r="F26" s="19" t="s">
-        <v>706</v>
+        <v>650</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="28" t="s">
-        <v>1016</v>
+        <v>960</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C27" s="31" t="s">
-        <v>689</v>
+        <v>633</v>
       </c>
       <c r="D27" s="18" t="s">
         <v>632</v>
       </c>
       <c r="E27" s="19" t="s">
-        <v>1017</v>
+        <v>961</v>
       </c>
       <c r="F27" s="19"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="28" t="s">
-        <v>1018</v>
+        <v>962</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>626</v>
@@ -12106,12 +12106,12 @@
       </c>
       <c r="E28" s="19"/>
       <c r="F28" t="s">
-        <v>707</v>
+        <v>651</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="28" t="s">
-        <v>1019</v>
+        <v>963</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>626</v>
@@ -12124,12 +12124,12 @@
       </c>
       <c r="E29" s="19"/>
       <c r="F29" t="s">
-        <v>708</v>
+        <v>652</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="28" t="s">
-        <v>1020</v>
+        <v>964</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>626</v>
@@ -12142,12 +12142,12 @@
       </c>
       <c r="E30" s="18"/>
       <c r="F30" s="6" t="s">
-        <v>709</v>
+        <v>653</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="28" t="s">
-        <v>1021</v>
+        <v>965</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>626</v>
@@ -12160,30 +12160,30 @@
       </c>
       <c r="E31" s="18"/>
       <c r="F31" s="6" t="s">
-        <v>710</v>
+        <v>654</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="28" t="s">
-        <v>1022</v>
+        <v>966</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>626</v>
       </c>
       <c r="C32" s="31" t="s">
-        <v>1026</v>
+        <v>970</v>
       </c>
       <c r="D32" s="18" t="s">
         <v>632</v>
       </c>
       <c r="E32" s="19"/>
       <c r="F32" t="s">
-        <v>711</v>
+        <v>655</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="28" t="s">
-        <v>1023</v>
+        <v>967</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>626</v>
@@ -12196,12 +12196,12 @@
       </c>
       <c r="E33" s="19"/>
       <c r="F33" t="s">
-        <v>712</v>
+        <v>656</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="28" t="s">
-        <v>1024</v>
+        <v>968</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>626</v>
@@ -12214,12 +12214,12 @@
       </c>
       <c r="E34" s="26"/>
       <c r="F34" t="s">
-        <v>713</v>
+        <v>657</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="28" t="s">
-        <v>1148</v>
+        <v>1092</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>626</v>
@@ -12232,48 +12232,48 @@
       </c>
       <c r="E35" s="19"/>
       <c r="F35" t="s">
-        <v>785</v>
+        <v>729</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="28" t="s">
-        <v>1025</v>
+        <v>969</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>626</v>
       </c>
       <c r="C36" s="31" t="s">
-        <v>1038</v>
+        <v>982</v>
       </c>
       <c r="D36" s="18" t="s">
         <v>632</v>
       </c>
       <c r="E36" s="19"/>
       <c r="F36" t="s">
-        <v>714</v>
+        <v>658</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="28" t="s">
-        <v>1027</v>
+        <v>971</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>626</v>
       </c>
       <c r="C37" s="31" t="s">
-        <v>1039</v>
+        <v>983</v>
       </c>
       <c r="D37" s="18" t="s">
         <v>632</v>
       </c>
       <c r="E37" s="19"/>
       <c r="F37" t="s">
-        <v>715</v>
+        <v>659</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="28" t="s">
-        <v>1028</v>
+        <v>972</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>626</v>
@@ -12286,12 +12286,12 @@
       </c>
       <c r="E38" s="19"/>
       <c r="F38" t="s">
-        <v>716</v>
+        <v>660</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="28" t="s">
-        <v>1029</v>
+        <v>973</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>626</v>
@@ -12304,12 +12304,12 @@
       </c>
       <c r="E39" s="19"/>
       <c r="F39" t="s">
-        <v>717</v>
+        <v>661</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="28" t="s">
-        <v>1030</v>
+        <v>974</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>626</v>
@@ -12322,12 +12322,12 @@
       </c>
       <c r="E40" s="19"/>
       <c r="F40" t="s">
-        <v>718</v>
+        <v>662</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="28" t="s">
-        <v>1031</v>
+        <v>975</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>626</v>
@@ -12340,30 +12340,30 @@
       </c>
       <c r="E41" s="18"/>
       <c r="F41" t="s">
-        <v>719</v>
+        <v>663</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="28" t="s">
-        <v>1032</v>
+        <v>976</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>626</v>
       </c>
       <c r="C42" s="31" t="s">
-        <v>1040</v>
+        <v>984</v>
       </c>
       <c r="D42" s="18" t="s">
         <v>632</v>
       </c>
       <c r="E42" s="19"/>
       <c r="F42" s="19" t="s">
-        <v>720</v>
+        <v>664</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="28" t="s">
-        <v>1033</v>
+        <v>977</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>626</v>
@@ -12376,12 +12376,12 @@
       </c>
       <c r="E43" s="19"/>
       <c r="F43" t="s">
-        <v>721</v>
+        <v>665</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="28" t="s">
-        <v>1034</v>
+        <v>978</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>626</v>
@@ -12394,12 +12394,12 @@
       </c>
       <c r="E44" s="19"/>
       <c r="F44" t="s">
-        <v>692</v>
+        <v>636</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="28" t="s">
-        <v>1035</v>
+        <v>979</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>626</v>
@@ -12412,12 +12412,12 @@
       </c>
       <c r="E45" s="19"/>
       <c r="F45" t="s">
-        <v>722</v>
+        <v>666</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="28" t="s">
-        <v>1036</v>
+        <v>980</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>626</v>
@@ -12430,12 +12430,12 @@
       </c>
       <c r="E46" s="19"/>
       <c r="F46" t="s">
-        <v>723</v>
+        <v>667</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="28" t="s">
-        <v>1037</v>
+        <v>981</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>626</v>
@@ -12448,87 +12448,87 @@
       </c>
       <c r="E47" s="19"/>
       <c r="F47" t="s">
-        <v>724</v>
+        <v>668</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="28" t="s">
-        <v>1151</v>
+        <v>1095</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>1089</v>
+        <v>1033</v>
       </c>
       <c r="C48" s="19"/>
       <c r="D48" s="18" t="s">
-        <v>1042</v>
+        <v>986</v>
       </c>
       <c r="E48" s="19"/>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="28" t="s">
-        <v>1045</v>
+        <v>989</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C49" s="19" t="s">
-        <v>1085</v>
+        <v>1029</v>
       </c>
       <c r="D49" s="18" t="s">
-        <v>1042</v>
+        <v>986</v>
       </c>
       <c r="E49" s="19" t="s">
-        <v>1044</v>
+        <v>988</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="34" t="s">
-        <v>1041</v>
+        <v>985</v>
       </c>
       <c r="B50" s="32" t="s">
-        <v>1043</v>
+        <v>987</v>
       </c>
       <c r="C50" s="19" t="s">
         <v>18</v>
       </c>
       <c r="D50" s="18" t="s">
-        <v>1047</v>
+        <v>991</v>
       </c>
       <c r="E50" s="19"/>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="34" t="s">
-        <v>1048</v>
+        <v>992</v>
       </c>
       <c r="B51" s="32" t="s">
-        <v>1043</v>
+        <v>987</v>
       </c>
       <c r="C51" s="19" t="s">
-        <v>1026</v>
+        <v>970</v>
       </c>
       <c r="D51" s="18" t="s">
-        <v>1047</v>
+        <v>991</v>
       </c>
       <c r="E51" s="19"/>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="34" t="s">
-        <v>1049</v>
+        <v>993</v>
       </c>
       <c r="B52" s="32" t="s">
-        <v>1043</v>
+        <v>987</v>
       </c>
       <c r="C52" s="19" t="s">
         <v>43</v>
       </c>
       <c r="D52" s="18" t="s">
-        <v>1047</v>
+        <v>991</v>
       </c>
       <c r="E52" s="19"/>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="35" t="s">
-        <v>1050</v>
+        <v>994</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>626</v>
@@ -12537,16 +12537,16 @@
         <v>45</v>
       </c>
       <c r="D53" s="18" t="s">
-        <v>1042</v>
+        <v>986</v>
       </c>
       <c r="E53" s="18"/>
       <c r="F53" s="6" t="s">
-        <v>725</v>
+        <v>669</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="28" t="s">
-        <v>1051</v>
+        <v>995</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>626</v>
@@ -12555,16 +12555,16 @@
         <v>47</v>
       </c>
       <c r="D54" s="18" t="s">
-        <v>1042</v>
+        <v>986</v>
       </c>
       <c r="E54" s="19"/>
       <c r="F54" t="s">
-        <v>726</v>
+        <v>670</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="28" t="s">
-        <v>1053</v>
+        <v>997</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>626</v>
@@ -12573,16 +12573,16 @@
         <v>49</v>
       </c>
       <c r="D55" s="18" t="s">
-        <v>1042</v>
+        <v>986</v>
       </c>
       <c r="E55" s="18"/>
       <c r="F55" t="s">
-        <v>727</v>
+        <v>671</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="28" t="s">
-        <v>1054</v>
+        <v>998</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>626</v>
@@ -12591,16 +12591,16 @@
         <v>51</v>
       </c>
       <c r="D56" s="18" t="s">
-        <v>1042</v>
+        <v>986</v>
       </c>
       <c r="E56" s="19"/>
       <c r="F56" t="s">
-        <v>728</v>
+        <v>672</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="28" t="s">
-        <v>1055</v>
+        <v>999</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>626</v>
@@ -12609,16 +12609,16 @@
         <v>53</v>
       </c>
       <c r="D57" s="18" t="s">
-        <v>1042</v>
+        <v>986</v>
       </c>
       <c r="E57" s="19"/>
       <c r="F57" t="s">
-        <v>729</v>
+        <v>673</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="28" t="s">
-        <v>1056</v>
+        <v>1000</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>626</v>
@@ -12627,16 +12627,16 @@
         <v>55</v>
       </c>
       <c r="D58" s="18" t="s">
-        <v>1042</v>
+        <v>986</v>
       </c>
       <c r="E58" s="19"/>
       <c r="F58" t="s">
-        <v>730</v>
+        <v>674</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="28" t="s">
-        <v>1057</v>
+        <v>1001</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>626</v>
@@ -12645,16 +12645,16 @@
         <v>61</v>
       </c>
       <c r="D59" s="18" t="s">
-        <v>1042</v>
+        <v>986</v>
       </c>
       <c r="E59" s="19"/>
       <c r="F59" t="s">
-        <v>731</v>
+        <v>675</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="28" t="s">
-        <v>1058</v>
+        <v>1002</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>626</v>
@@ -12663,16 +12663,16 @@
         <v>63</v>
       </c>
       <c r="D60" s="18" t="s">
-        <v>1042</v>
+        <v>986</v>
       </c>
       <c r="E60" s="19"/>
       <c r="F60" t="s">
-        <v>732</v>
+        <v>676</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="28" t="s">
-        <v>1059</v>
+        <v>1003</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>626</v>
@@ -12681,16 +12681,16 @@
         <v>65</v>
       </c>
       <c r="D61" s="18" t="s">
-        <v>1042</v>
+        <v>986</v>
       </c>
       <c r="E61" s="18"/>
       <c r="F61" s="6" t="s">
-        <v>733</v>
+        <v>677</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="28" t="s">
-        <v>1060</v>
+        <v>1004</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>626</v>
@@ -12699,16 +12699,16 @@
         <v>67</v>
       </c>
       <c r="D62" s="18" t="s">
-        <v>1042</v>
+        <v>986</v>
       </c>
       <c r="E62" s="18"/>
       <c r="F62" t="s">
-        <v>734</v>
+        <v>678</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="28" t="s">
-        <v>1061</v>
+        <v>1005</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>626</v>
@@ -12717,16 +12717,16 @@
         <v>70</v>
       </c>
       <c r="D63" s="18" t="s">
-        <v>1042</v>
+        <v>986</v>
       </c>
       <c r="E63" s="19"/>
       <c r="F63" t="s">
-        <v>735</v>
+        <v>679</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="28" t="s">
-        <v>1062</v>
+        <v>1006</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>626</v>
@@ -12735,16 +12735,16 @@
         <v>69</v>
       </c>
       <c r="D64" s="18" t="s">
-        <v>1042</v>
+        <v>986</v>
       </c>
       <c r="E64" s="19"/>
       <c r="F64" t="s">
-        <v>736</v>
+        <v>680</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="28" t="s">
-        <v>1064</v>
+        <v>1008</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>626</v>
@@ -12753,16 +12753,16 @@
         <v>96</v>
       </c>
       <c r="D65" s="18" t="s">
-        <v>1042</v>
+        <v>986</v>
       </c>
       <c r="E65" s="19"/>
       <c r="F65" t="s">
-        <v>737</v>
+        <v>681</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="28" t="s">
-        <v>1065</v>
+        <v>1009</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>626</v>
@@ -12771,16 +12771,16 @@
         <v>73</v>
       </c>
       <c r="D66" s="18" t="s">
-        <v>1042</v>
+        <v>986</v>
       </c>
       <c r="E66" s="19"/>
       <c r="F66" t="s">
-        <v>738</v>
+        <v>682</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="28" t="s">
-        <v>1066</v>
+        <v>1010</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>626</v>
@@ -12789,16 +12789,16 @@
         <v>75</v>
       </c>
       <c r="D67" s="18" t="s">
-        <v>1042</v>
+        <v>986</v>
       </c>
       <c r="E67" s="19"/>
       <c r="F67" t="s">
-        <v>739</v>
+        <v>683</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="28" t="s">
-        <v>1067</v>
+        <v>1011</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>626</v>
@@ -12807,16 +12807,16 @@
         <v>77</v>
       </c>
       <c r="D68" s="18" t="s">
-        <v>1042</v>
+        <v>986</v>
       </c>
       <c r="E68" s="19"/>
       <c r="F68" t="s">
-        <v>740</v>
+        <v>684</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="28" t="s">
-        <v>1068</v>
+        <v>1012</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>626</v>
@@ -12825,16 +12825,16 @@
         <v>122</v>
       </c>
       <c r="D69" s="18" t="s">
-        <v>1042</v>
+        <v>986</v>
       </c>
       <c r="E69" s="19"/>
       <c r="F69" t="s">
-        <v>741</v>
+        <v>685</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="28" t="s">
-        <v>1069</v>
+        <v>1013</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>626</v>
@@ -12843,16 +12843,16 @@
         <v>94</v>
       </c>
       <c r="D70" s="18" t="s">
-        <v>1042</v>
+        <v>986</v>
       </c>
       <c r="E70" s="19"/>
       <c r="F70" t="s">
-        <v>743</v>
+        <v>687</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="28" t="s">
-        <v>1070</v>
+        <v>1014</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>626</v>
@@ -12861,29 +12861,29 @@
         <v>84</v>
       </c>
       <c r="D71" s="18" t="s">
-        <v>1042</v>
+        <v>986</v>
       </c>
       <c r="E71" s="19"/>
       <c r="F71" t="s">
-        <v>744</v>
+        <v>688</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="28" t="s">
-        <v>1152</v>
+        <v>1096</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>1089</v>
+        <v>1033</v>
       </c>
       <c r="C72" s="19"/>
       <c r="D72" s="18" t="s">
-        <v>1063</v>
+        <v>1007</v>
       </c>
       <c r="E72" s="33"/>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="28" t="s">
-        <v>1071</v>
+        <v>1015</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>626</v>
@@ -12892,33 +12892,33 @@
         <v>541</v>
       </c>
       <c r="D73" s="18" t="s">
-        <v>1042</v>
+        <v>986</v>
       </c>
       <c r="E73" s="26"/>
       <c r="F73" t="s">
-        <v>745</v>
+        <v>689</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="28" t="s">
-        <v>1087</v>
+        <v>1031</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C74" s="19" t="s">
-        <v>1086</v>
+        <v>1030</v>
       </c>
       <c r="D74" s="18" t="s">
-        <v>1063</v>
+        <v>1007</v>
       </c>
       <c r="E74" s="33" t="s">
-        <v>1088</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="28" t="s">
-        <v>1072</v>
+        <v>1016</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>626</v>
@@ -12927,16 +12927,16 @@
         <v>86</v>
       </c>
       <c r="D75" s="18" t="s">
-        <v>1063</v>
+        <v>1007</v>
       </c>
       <c r="E75" s="19"/>
       <c r="F75" t="s">
-        <v>746</v>
+        <v>690</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="28" t="s">
-        <v>1073</v>
+        <v>1017</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>626</v>
@@ -12945,16 +12945,16 @@
         <v>542</v>
       </c>
       <c r="D76" s="18" t="s">
-        <v>1063</v>
+        <v>1007</v>
       </c>
       <c r="E76" s="26"/>
       <c r="F76" t="s">
-        <v>747</v>
+        <v>691</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="28" t="s">
-        <v>1074</v>
+        <v>1018</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>626</v>
@@ -12963,16 +12963,16 @@
         <v>546</v>
       </c>
       <c r="D77" s="18" t="s">
-        <v>1063</v>
+        <v>1007</v>
       </c>
       <c r="E77" s="26"/>
       <c r="F77" t="s">
-        <v>748</v>
+        <v>692</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="28" t="s">
-        <v>1075</v>
+        <v>1019</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>626</v>
@@ -12981,16 +12981,16 @@
         <v>547</v>
       </c>
       <c r="D78" s="18" t="s">
-        <v>1063</v>
+        <v>1007</v>
       </c>
       <c r="E78" s="18"/>
       <c r="F78" s="6" t="s">
-        <v>750</v>
+        <v>694</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="28" t="s">
-        <v>1076</v>
+        <v>1020</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>626</v>
@@ -12999,16 +12999,16 @@
         <v>88</v>
       </c>
       <c r="D79" s="18" t="s">
-        <v>1063</v>
+        <v>1007</v>
       </c>
       <c r="E79" s="19"/>
       <c r="F79" t="s">
-        <v>751</v>
+        <v>695</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="28" t="s">
-        <v>1077</v>
+        <v>1021</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>626</v>
@@ -13017,16 +13017,16 @@
         <v>549</v>
       </c>
       <c r="D80" s="18" t="s">
-        <v>1042</v>
+        <v>986</v>
       </c>
       <c r="E80" s="19"/>
       <c r="F80" t="s">
-        <v>752</v>
+        <v>696</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="28" t="s">
-        <v>1078</v>
+        <v>1022</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>626</v>
@@ -13035,16 +13035,16 @@
         <v>548</v>
       </c>
       <c r="D81" s="18" t="s">
-        <v>1063</v>
+        <v>1007</v>
       </c>
       <c r="E81" s="18"/>
       <c r="F81" s="6" t="s">
-        <v>753</v>
+        <v>697</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="28" t="s">
-        <v>1079</v>
+        <v>1023</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>626</v>
@@ -13053,16 +13053,16 @@
         <v>550</v>
       </c>
       <c r="D82" s="18" t="s">
-        <v>1063</v>
+        <v>1007</v>
       </c>
       <c r="E82" s="19"/>
       <c r="F82" t="s">
-        <v>754</v>
+        <v>698</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="28" t="s">
-        <v>1080</v>
+        <v>1024</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>626</v>
@@ -13071,16 +13071,16 @@
         <v>551</v>
       </c>
       <c r="D83" s="18" t="s">
-        <v>1063</v>
+        <v>1007</v>
       </c>
       <c r="E83" s="19"/>
       <c r="F83" t="s">
-        <v>755</v>
+        <v>699</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="28" t="s">
-        <v>1081</v>
+        <v>1025</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>626</v>
@@ -13089,16 +13089,16 @@
         <v>97</v>
       </c>
       <c r="D84" s="18" t="s">
-        <v>1063</v>
+        <v>1007</v>
       </c>
       <c r="E84" s="19"/>
       <c r="F84" t="s">
-        <v>756</v>
+        <v>700</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="28" t="s">
-        <v>1082</v>
+        <v>1026</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>626</v>
@@ -13107,16 +13107,16 @@
         <v>98</v>
       </c>
       <c r="D85" s="18" t="s">
-        <v>1063</v>
+        <v>1007</v>
       </c>
       <c r="E85" s="19"/>
       <c r="F85" t="s">
-        <v>757</v>
+        <v>701</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="28" t="s">
-        <v>1083</v>
+        <v>1027</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>626</v>
@@ -13125,32 +13125,32 @@
         <v>104</v>
       </c>
       <c r="D86" s="18" t="s">
-        <v>1042</v>
+        <v>986</v>
       </c>
       <c r="E86" s="18"/>
       <c r="F86" s="6" t="s">
-        <v>758</v>
+        <v>702</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="28" t="s">
-        <v>1161</v>
+        <v>1105</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>1043</v>
+        <v>987</v>
       </c>
       <c r="C87" s="18" t="s">
         <v>104</v>
       </c>
       <c r="D87" s="18" t="s">
-        <v>1047</v>
+        <v>991</v>
       </c>
       <c r="E87" s="18"/>
       <c r="F87" s="6"/>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="28" t="s">
-        <v>1084</v>
+        <v>1028</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>626</v>
@@ -13163,27 +13163,27 @@
       </c>
       <c r="E88" s="26"/>
       <c r="F88" t="s">
-        <v>759</v>
+        <v>703</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="28" t="s">
-        <v>1162</v>
+        <v>1106</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>1043</v>
+        <v>987</v>
       </c>
       <c r="C89" s="26" t="s">
         <v>552</v>
       </c>
       <c r="D89" s="26" t="s">
-        <v>1047</v>
+        <v>991</v>
       </c>
       <c r="E89" s="26"/>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="28" t="s">
-        <v>1091</v>
+        <v>1035</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>626</v>
@@ -13192,31 +13192,31 @@
         <v>124</v>
       </c>
       <c r="D90" s="18" t="s">
-        <v>1042</v>
+        <v>986</v>
       </c>
       <c r="E90" s="19"/>
       <c r="F90" t="s">
-        <v>760</v>
+        <v>704</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="28" t="s">
-        <v>1163</v>
+        <v>1107</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>1043</v>
+        <v>987</v>
       </c>
       <c r="C91" s="19" t="s">
         <v>124</v>
       </c>
       <c r="D91" s="18" t="s">
-        <v>1047</v>
+        <v>991</v>
       </c>
       <c r="E91" s="19"/>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="28" t="s">
-        <v>1092</v>
+        <v>1036</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>626</v>
@@ -13225,16 +13225,16 @@
         <v>107</v>
       </c>
       <c r="D92" s="18" t="s">
-        <v>1063</v>
+        <v>1007</v>
       </c>
       <c r="E92" s="19"/>
       <c r="F92" t="s">
-        <v>761</v>
+        <v>705</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="28" t="s">
-        <v>1093</v>
+        <v>1037</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>626</v>
@@ -13243,16 +13243,16 @@
         <v>106</v>
       </c>
       <c r="D93" s="18" t="s">
-        <v>1063</v>
+        <v>1007</v>
       </c>
       <c r="E93" s="19"/>
       <c r="F93" t="s">
-        <v>762</v>
+        <v>706</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="28" t="s">
-        <v>1094</v>
+        <v>1038</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>626</v>
@@ -13261,16 +13261,16 @@
         <v>109</v>
       </c>
       <c r="D94" s="18" t="s">
-        <v>1063</v>
+        <v>1007</v>
       </c>
       <c r="E94" s="18"/>
       <c r="F94" t="s">
-        <v>763</v>
+        <v>707</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="28" t="s">
-        <v>1095</v>
+        <v>1039</v>
       </c>
       <c r="B95" s="3" t="s">
         <v>626</v>
@@ -13279,16 +13279,16 @@
         <v>108</v>
       </c>
       <c r="D95" s="18" t="s">
-        <v>1063</v>
+        <v>1007</v>
       </c>
       <c r="E95" s="19"/>
       <c r="F95" t="s">
-        <v>764</v>
+        <v>708</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="28" t="s">
-        <v>1096</v>
+        <v>1040</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>626</v>
@@ -13297,16 +13297,16 @@
         <v>112</v>
       </c>
       <c r="D96" s="18" t="s">
-        <v>1063</v>
+        <v>1007</v>
       </c>
       <c r="E96" s="19"/>
       <c r="F96" t="s">
-        <v>765</v>
+        <v>709</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="28" t="s">
-        <v>1097</v>
+        <v>1041</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>626</v>
@@ -13315,16 +13315,16 @@
         <v>113</v>
       </c>
       <c r="D97" s="18" t="s">
-        <v>1063</v>
+        <v>1007</v>
       </c>
       <c r="E97" s="18"/>
       <c r="F97" s="6" t="s">
-        <v>767</v>
+        <v>711</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="28" t="s">
-        <v>1098</v>
+        <v>1042</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>626</v>
@@ -13333,16 +13333,16 @@
         <v>127</v>
       </c>
       <c r="D98" s="18" t="s">
-        <v>1063</v>
+        <v>1007</v>
       </c>
       <c r="E98" s="19"/>
       <c r="F98" t="s">
-        <v>768</v>
+        <v>712</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="28" t="s">
-        <v>1099</v>
+        <v>1043</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>626</v>
@@ -13351,16 +13351,16 @@
         <v>129</v>
       </c>
       <c r="D99" s="18" t="s">
-        <v>1063</v>
+        <v>1007</v>
       </c>
       <c r="E99" s="18"/>
       <c r="F99" t="s">
-        <v>769</v>
+        <v>713</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="28" t="s">
-        <v>1100</v>
+        <v>1044</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>626</v>
@@ -13369,16 +13369,16 @@
         <v>169</v>
       </c>
       <c r="D100" s="18" t="s">
-        <v>1063</v>
+        <v>1007</v>
       </c>
       <c r="E100" s="19"/>
       <c r="F100" t="s">
-        <v>770</v>
+        <v>714</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="28" t="s">
-        <v>1101</v>
+        <v>1045</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>626</v>
@@ -13387,16 +13387,16 @@
         <v>131</v>
       </c>
       <c r="D101" s="18" t="s">
-        <v>1063</v>
+        <v>1007</v>
       </c>
       <c r="E101" s="18"/>
       <c r="F101" t="s">
-        <v>771</v>
+        <v>715</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="28" t="s">
-        <v>1102</v>
+        <v>1046</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>626</v>
@@ -13405,16 +13405,16 @@
         <v>133</v>
       </c>
       <c r="D102" s="18" t="s">
-        <v>1063</v>
+        <v>1007</v>
       </c>
       <c r="E102" s="19"/>
       <c r="F102" t="s">
-        <v>772</v>
+        <v>716</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="28" t="s">
-        <v>1103</v>
+        <v>1047</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>626</v>
@@ -13423,16 +13423,16 @@
         <v>577</v>
       </c>
       <c r="D103" s="18" t="s">
-        <v>1063</v>
+        <v>1007</v>
       </c>
       <c r="E103" s="26"/>
       <c r="F103" t="s">
-        <v>773</v>
+        <v>717</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="28" t="s">
-        <v>1104</v>
+        <v>1048</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>626</v>
@@ -13441,16 +13441,16 @@
         <v>555</v>
       </c>
       <c r="D104" s="18" t="s">
-        <v>1063</v>
+        <v>1007</v>
       </c>
       <c r="E104" s="26"/>
       <c r="F104" t="s">
-        <v>774</v>
+        <v>718</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="28" t="s">
-        <v>1105</v>
+        <v>1049</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>626</v>
@@ -13459,16 +13459,16 @@
         <v>135</v>
       </c>
       <c r="D105" s="18" t="s">
-        <v>1063</v>
+        <v>1007</v>
       </c>
       <c r="E105" s="19"/>
       <c r="F105" t="s">
-        <v>775</v>
+        <v>719</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="28" t="s">
-        <v>1106</v>
+        <v>1050</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>626</v>
@@ -13477,16 +13477,16 @@
         <v>566</v>
       </c>
       <c r="D106" s="18" t="s">
-        <v>1063</v>
+        <v>1007</v>
       </c>
       <c r="E106" s="19"/>
       <c r="F106" t="s">
-        <v>776</v>
+        <v>720</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="28" t="s">
-        <v>1107</v>
+        <v>1051</v>
       </c>
       <c r="B107" s="3" t="s">
         <v>626</v>
@@ -13495,16 +13495,16 @@
         <v>568</v>
       </c>
       <c r="D107" s="18" t="s">
-        <v>1063</v>
+        <v>1007</v>
       </c>
       <c r="E107" s="19"/>
       <c r="F107" t="s">
-        <v>777</v>
+        <v>721</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="28" t="s">
-        <v>1108</v>
+        <v>1052</v>
       </c>
       <c r="B108" s="3" t="s">
         <v>626</v>
@@ -13513,16 +13513,16 @@
         <v>578</v>
       </c>
       <c r="D108" s="18" t="s">
-        <v>1063</v>
+        <v>1007</v>
       </c>
       <c r="E108" s="19"/>
       <c r="F108" t="s">
-        <v>778</v>
+        <v>722</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="28" t="s">
-        <v>1109</v>
+        <v>1053</v>
       </c>
       <c r="B109" s="3" t="s">
         <v>626</v>
@@ -13531,16 +13531,16 @@
         <v>579</v>
       </c>
       <c r="D109" s="18" t="s">
-        <v>1063</v>
+        <v>1007</v>
       </c>
       <c r="E109" s="19"/>
       <c r="F109" t="s">
-        <v>779</v>
+        <v>723</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="28" t="s">
-        <v>1110</v>
+        <v>1054</v>
       </c>
       <c r="B110" s="3" t="s">
         <v>626</v>
@@ -13549,16 +13549,16 @@
         <v>538</v>
       </c>
       <c r="D110" s="18" t="s">
-        <v>1063</v>
+        <v>1007</v>
       </c>
       <c r="E110" s="26"/>
       <c r="F110" t="s">
-        <v>780</v>
+        <v>724</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="28" t="s">
-        <v>1111</v>
+        <v>1055</v>
       </c>
       <c r="B111" s="3" t="s">
         <v>626</v>
@@ -13567,16 +13567,16 @@
         <v>143</v>
       </c>
       <c r="D111" s="18" t="s">
-        <v>1063</v>
+        <v>1007</v>
       </c>
       <c r="E111" s="19"/>
       <c r="F111" t="s">
-        <v>781</v>
+        <v>725</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="28" t="s">
-        <v>1112</v>
+        <v>1056</v>
       </c>
       <c r="B112" s="3" t="s">
         <v>626</v>
@@ -13585,16 +13585,16 @@
         <v>145</v>
       </c>
       <c r="D112" s="18" t="s">
-        <v>1063</v>
+        <v>1007</v>
       </c>
       <c r="E112" s="19"/>
       <c r="F112" t="s">
-        <v>782</v>
+        <v>726</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="28" t="s">
-        <v>1113</v>
+        <v>1057</v>
       </c>
       <c r="B113" s="3" t="s">
         <v>626</v>
@@ -13603,16 +13603,16 @@
         <v>580</v>
       </c>
       <c r="D113" s="18" t="s">
-        <v>1063</v>
+        <v>1007</v>
       </c>
       <c r="E113" s="26"/>
       <c r="F113" t="s">
-        <v>783</v>
+        <v>727</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="28" t="s">
-        <v>1114</v>
+        <v>1058</v>
       </c>
       <c r="B114" s="3" t="s">
         <v>626</v>
@@ -13621,16 +13621,16 @@
         <v>530</v>
       </c>
       <c r="D114" s="18" t="s">
-        <v>1063</v>
+        <v>1007</v>
       </c>
       <c r="E114" s="19"/>
       <c r="F114" t="s">
-        <v>784</v>
+        <v>728</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="28" t="s">
-        <v>1115</v>
+        <v>1059</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>626</v>
@@ -13639,16 +13639,16 @@
         <v>581</v>
       </c>
       <c r="D115" s="18" t="s">
-        <v>1063</v>
+        <v>1007</v>
       </c>
       <c r="E115" s="26"/>
       <c r="F115" t="s">
-        <v>786</v>
+        <v>730</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="28" t="s">
-        <v>1116</v>
+        <v>1060</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>626</v>
@@ -13657,16 +13657,16 @@
         <v>149</v>
       </c>
       <c r="D116" s="18" t="s">
-        <v>1063</v>
+        <v>1007</v>
       </c>
       <c r="E116" s="19"/>
       <c r="F116" t="s">
-        <v>787</v>
+        <v>731</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="28" t="s">
-        <v>1117</v>
+        <v>1061</v>
       </c>
       <c r="B117" s="3" t="s">
         <v>626</v>
@@ -13675,16 +13675,16 @@
         <v>139</v>
       </c>
       <c r="D117" s="18" t="s">
-        <v>1063</v>
+        <v>1007</v>
       </c>
       <c r="E117" s="19"/>
       <c r="F117" t="s">
-        <v>788</v>
+        <v>732</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118" s="28" t="s">
-        <v>1118</v>
+        <v>1062</v>
       </c>
       <c r="B118" s="3" t="s">
         <v>626</v>
@@ -13693,16 +13693,16 @@
         <v>140</v>
       </c>
       <c r="D118" s="18" t="s">
-        <v>1063</v>
+        <v>1007</v>
       </c>
       <c r="E118" s="26"/>
       <c r="F118" t="s">
-        <v>789</v>
+        <v>733</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119" s="28" t="s">
-        <v>1119</v>
+        <v>1063</v>
       </c>
       <c r="B119" s="3" t="s">
         <v>626</v>
@@ -13711,16 +13711,16 @@
         <v>162</v>
       </c>
       <c r="D119" s="18" t="s">
-        <v>1063</v>
+        <v>1007</v>
       </c>
       <c r="E119" s="19"/>
       <c r="F119" t="s">
-        <v>790</v>
+        <v>734</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120" s="28" t="s">
-        <v>1120</v>
+        <v>1064</v>
       </c>
       <c r="B120" s="3" t="s">
         <v>626</v>
@@ -13729,16 +13729,16 @@
         <v>151</v>
       </c>
       <c r="D120" s="18" t="s">
-        <v>1063</v>
+        <v>1007</v>
       </c>
       <c r="E120" s="19"/>
       <c r="F120" t="s">
-        <v>791</v>
+        <v>735</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="28" t="s">
-        <v>1121</v>
+        <v>1065</v>
       </c>
       <c r="B121" s="3" t="s">
         <v>626</v>
@@ -13747,16 +13747,16 @@
         <v>526</v>
       </c>
       <c r="D121" s="18" t="s">
-        <v>1063</v>
+        <v>1007</v>
       </c>
       <c r="E121" s="26"/>
       <c r="F121" t="s">
-        <v>792</v>
+        <v>736</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="28" t="s">
-        <v>1122</v>
+        <v>1066</v>
       </c>
       <c r="B122" s="3" t="s">
         <v>626</v>
@@ -13765,16 +13765,16 @@
         <v>150</v>
       </c>
       <c r="D122" s="18" t="s">
-        <v>1063</v>
+        <v>1007</v>
       </c>
       <c r="E122" s="19"/>
       <c r="F122" t="s">
-        <v>793</v>
+        <v>737</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="28" t="s">
-        <v>1123</v>
+        <v>1067</v>
       </c>
       <c r="B123" s="3" t="s">
         <v>626</v>
@@ -13783,16 +13783,16 @@
         <v>524</v>
       </c>
       <c r="D123" s="18" t="s">
-        <v>1063</v>
+        <v>1007</v>
       </c>
       <c r="E123" s="19"/>
       <c r="F123" t="s">
-        <v>794</v>
+        <v>738</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="28" t="s">
-        <v>1124</v>
+        <v>1068</v>
       </c>
       <c r="B124" s="3" t="s">
         <v>626</v>
@@ -13801,16 +13801,16 @@
         <v>582</v>
       </c>
       <c r="D124" s="18" t="s">
-        <v>1063</v>
+        <v>1007</v>
       </c>
       <c r="E124" s="26"/>
       <c r="F124" t="s">
-        <v>795</v>
+        <v>739</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="28" t="s">
-        <v>1125</v>
+        <v>1069</v>
       </c>
       <c r="B125" s="3" t="s">
         <v>626</v>
@@ -13819,16 +13819,16 @@
         <v>570</v>
       </c>
       <c r="D125" s="18" t="s">
-        <v>1063</v>
+        <v>1007</v>
       </c>
       <c r="E125" s="26"/>
       <c r="F125" t="s">
-        <v>796</v>
+        <v>740</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="28" t="s">
-        <v>1126</v>
+        <v>1070</v>
       </c>
       <c r="B126" s="3" t="s">
         <v>626</v>
@@ -13837,16 +13837,16 @@
         <v>572</v>
       </c>
       <c r="D126" s="18" t="s">
-        <v>1063</v>
+        <v>1007</v>
       </c>
       <c r="E126" s="19"/>
       <c r="F126" t="s">
-        <v>797</v>
+        <v>741</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="28" t="s">
-        <v>1127</v>
+        <v>1071</v>
       </c>
       <c r="B127" s="3" t="s">
         <v>626</v>
@@ -13855,16 +13855,16 @@
         <v>574</v>
       </c>
       <c r="D127" s="18" t="s">
-        <v>1063</v>
+        <v>1007</v>
       </c>
       <c r="E127" s="19"/>
       <c r="F127" t="s">
-        <v>798</v>
+        <v>742</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128" s="28" t="s">
-        <v>1128</v>
+        <v>1072</v>
       </c>
       <c r="B128" s="3" t="s">
         <v>626</v>
@@ -13873,16 +13873,16 @@
         <v>583</v>
       </c>
       <c r="D128" s="18" t="s">
-        <v>1063</v>
+        <v>1007</v>
       </c>
       <c r="E128" s="26"/>
       <c r="F128" t="s">
-        <v>799</v>
+        <v>743</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129" s="28" t="s">
-        <v>1129</v>
+        <v>1073</v>
       </c>
       <c r="B129" s="3" t="s">
         <v>626</v>
@@ -13891,16 +13891,16 @@
         <v>584</v>
       </c>
       <c r="D129" s="18" t="s">
-        <v>1063</v>
+        <v>1007</v>
       </c>
       <c r="E129" s="26"/>
       <c r="F129" t="s">
-        <v>800</v>
+        <v>744</v>
       </c>
     </row>
     <row r="130" spans="1:6">
       <c r="A130" s="28" t="s">
-        <v>1130</v>
+        <v>1074</v>
       </c>
       <c r="B130" s="3" t="s">
         <v>626</v>
@@ -13909,16 +13909,16 @@
         <v>156</v>
       </c>
       <c r="D130" s="18" t="s">
-        <v>1063</v>
+        <v>1007</v>
       </c>
       <c r="E130" s="19"/>
       <c r="F130" t="s">
-        <v>801</v>
+        <v>745</v>
       </c>
     </row>
     <row r="131" spans="1:6">
       <c r="A131" s="28" t="s">
-        <v>1131</v>
+        <v>1075</v>
       </c>
       <c r="B131" s="3" t="s">
         <v>626</v>
@@ -13927,16 +13927,16 @@
         <v>158</v>
       </c>
       <c r="D131" s="18" t="s">
-        <v>1063</v>
+        <v>1007</v>
       </c>
       <c r="E131" s="19"/>
       <c r="F131" t="s">
-        <v>802</v>
+        <v>746</v>
       </c>
     </row>
     <row r="132" spans="1:6">
       <c r="A132" s="28" t="s">
-        <v>1132</v>
+        <v>1076</v>
       </c>
       <c r="B132" s="3" t="s">
         <v>626</v>
@@ -13945,16 +13945,16 @@
         <v>160</v>
       </c>
       <c r="D132" s="18" t="s">
-        <v>1063</v>
+        <v>1007</v>
       </c>
       <c r="E132" s="18"/>
       <c r="F132" s="6" t="s">
-        <v>803</v>
+        <v>747</v>
       </c>
     </row>
     <row r="133" spans="1:6">
       <c r="A133" s="28" t="s">
-        <v>1133</v>
+        <v>1077</v>
       </c>
       <c r="B133" s="3" t="s">
         <v>626</v>
@@ -13963,29 +13963,29 @@
         <v>594</v>
       </c>
       <c r="D133" s="18" t="s">
-        <v>1063</v>
+        <v>1007</v>
       </c>
       <c r="E133" s="26"/>
       <c r="F133" t="s">
-        <v>804</v>
+        <v>748</v>
       </c>
     </row>
     <row r="134" spans="1:6">
       <c r="A134" s="28" t="s">
-        <v>1153</v>
+        <v>1097</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>1089</v>
+        <v>1033</v>
       </c>
       <c r="C134" s="19"/>
       <c r="D134" s="18" t="s">
-        <v>1090</v>
+        <v>1034</v>
       </c>
       <c r="E134" s="26"/>
     </row>
     <row r="135" spans="1:6">
       <c r="A135" s="28" t="s">
-        <v>1199</v>
+        <v>1143</v>
       </c>
       <c r="B135" s="3" t="s">
         <v>626</v>
@@ -13994,16 +13994,16 @@
         <v>163</v>
       </c>
       <c r="D135" s="18" t="s">
-        <v>1090</v>
+        <v>1034</v>
       </c>
       <c r="E135" s="19"/>
       <c r="F135" t="s">
-        <v>805</v>
+        <v>749</v>
       </c>
     </row>
     <row r="136" spans="1:6">
       <c r="A136" s="28" t="s">
-        <v>1200</v>
+        <v>1144</v>
       </c>
       <c r="B136" s="3" t="s">
         <v>626</v>
@@ -14012,16 +14012,16 @@
         <v>598</v>
       </c>
       <c r="D136" s="18" t="s">
-        <v>1090</v>
+        <v>1034</v>
       </c>
       <c r="E136" s="26"/>
       <c r="F136" t="s">
-        <v>806</v>
+        <v>750</v>
       </c>
     </row>
     <row r="137" spans="1:6">
       <c r="A137" s="28" t="s">
-        <v>1201</v>
+        <v>1145</v>
       </c>
       <c r="B137" s="3" t="s">
         <v>626</v>
@@ -14030,16 +14030,16 @@
         <v>167</v>
       </c>
       <c r="D137" s="18" t="s">
-        <v>1090</v>
+        <v>1034</v>
       </c>
       <c r="E137" s="19"/>
       <c r="F137" t="s">
-        <v>807</v>
+        <v>751</v>
       </c>
     </row>
     <row r="138" spans="1:6">
       <c r="A138" s="28" t="s">
-        <v>1164</v>
+        <v>1108</v>
       </c>
       <c r="B138" s="3" t="s">
         <v>626</v>
@@ -14048,16 +14048,16 @@
         <v>251</v>
       </c>
       <c r="D138" s="18" t="s">
-        <v>1090</v>
+        <v>1034</v>
       </c>
       <c r="E138" s="19"/>
       <c r="F138" t="s">
-        <v>808</v>
+        <v>752</v>
       </c>
     </row>
     <row r="139" spans="1:6">
       <c r="A139" s="28" t="s">
-        <v>1165</v>
+        <v>1109</v>
       </c>
       <c r="B139" s="3" t="s">
         <v>626</v>
@@ -14066,16 +14066,16 @@
         <v>170</v>
       </c>
       <c r="D139" s="18" t="s">
-        <v>1090</v>
+        <v>1034</v>
       </c>
       <c r="E139" s="26"/>
       <c r="F139" t="s">
-        <v>809</v>
+        <v>753</v>
       </c>
     </row>
     <row r="140" spans="1:6">
       <c r="A140" s="28" t="s">
-        <v>1166</v>
+        <v>1110</v>
       </c>
       <c r="B140" s="3" t="s">
         <v>626</v>
@@ -14084,16 +14084,16 @@
         <v>171</v>
       </c>
       <c r="D140" s="18" t="s">
-        <v>1090</v>
+        <v>1034</v>
       </c>
       <c r="E140" s="27"/>
       <c r="F140" t="s">
-        <v>810</v>
+        <v>754</v>
       </c>
     </row>
     <row r="141" spans="1:6">
       <c r="A141" s="28" t="s">
-        <v>1167</v>
+        <v>1111</v>
       </c>
       <c r="B141" s="3" t="s">
         <v>626</v>
@@ -14102,16 +14102,16 @@
         <v>172</v>
       </c>
       <c r="D141" s="18" t="s">
-        <v>1090</v>
+        <v>1034</v>
       </c>
       <c r="E141" s="19"/>
       <c r="F141" t="s">
-        <v>811</v>
+        <v>755</v>
       </c>
     </row>
     <row r="142" spans="1:6">
       <c r="A142" s="28" t="s">
-        <v>1168</v>
+        <v>1112</v>
       </c>
       <c r="B142" s="3" t="s">
         <v>626</v>
@@ -14120,16 +14120,16 @@
         <v>600</v>
       </c>
       <c r="D142" s="18" t="s">
-        <v>1090</v>
+        <v>1034</v>
       </c>
       <c r="E142" s="26"/>
       <c r="F142" t="s">
-        <v>812</v>
+        <v>756</v>
       </c>
     </row>
     <row r="143" spans="1:6">
       <c r="A143" s="28" t="s">
-        <v>1169</v>
+        <v>1113</v>
       </c>
       <c r="B143" s="3" t="s">
         <v>626</v>
@@ -14138,16 +14138,16 @@
         <v>173</v>
       </c>
       <c r="D143" s="18" t="s">
-        <v>1090</v>
+        <v>1034</v>
       </c>
       <c r="E143" s="26"/>
       <c r="F143" t="s">
-        <v>813</v>
+        <v>757</v>
       </c>
     </row>
     <row r="144" spans="1:6">
       <c r="A144" s="28" t="s">
-        <v>1170</v>
+        <v>1114</v>
       </c>
       <c r="B144" s="3" t="s">
         <v>626</v>
@@ -14156,16 +14156,16 @@
         <v>189</v>
       </c>
       <c r="D144" s="18" t="s">
-        <v>1090</v>
+        <v>1034</v>
       </c>
       <c r="E144" s="26"/>
       <c r="F144" t="s">
-        <v>814</v>
+        <v>758</v>
       </c>
     </row>
     <row r="145" spans="1:6">
       <c r="A145" s="28" t="s">
-        <v>1171</v>
+        <v>1115</v>
       </c>
       <c r="B145" s="3" t="s">
         <v>626</v>
@@ -14174,16 +14174,16 @@
         <v>174</v>
       </c>
       <c r="D145" s="18" t="s">
-        <v>1090</v>
+        <v>1034</v>
       </c>
       <c r="E145" s="26"/>
       <c r="F145" t="s">
-        <v>815</v>
+        <v>759</v>
       </c>
     </row>
     <row r="146" spans="1:6">
       <c r="A146" s="28" t="s">
-        <v>1172</v>
+        <v>1116</v>
       </c>
       <c r="B146" s="3" t="s">
         <v>626</v>
@@ -14192,16 +14192,16 @@
         <v>176</v>
       </c>
       <c r="D146" s="18" t="s">
-        <v>1090</v>
+        <v>1034</v>
       </c>
       <c r="E146" s="26"/>
       <c r="F146" t="s">
-        <v>816</v>
+        <v>760</v>
       </c>
     </row>
     <row r="147" spans="1:6">
       <c r="A147" s="28" t="s">
-        <v>1173</v>
+        <v>1117</v>
       </c>
       <c r="B147" s="3" t="s">
         <v>626</v>
@@ -14210,16 +14210,16 @@
         <v>175</v>
       </c>
       <c r="D147" s="18" t="s">
-        <v>1090</v>
+        <v>1034</v>
       </c>
       <c r="E147" s="26"/>
       <c r="F147" t="s">
-        <v>817</v>
+        <v>761</v>
       </c>
     </row>
     <row r="148" spans="1:6">
       <c r="A148" s="28" t="s">
-        <v>1174</v>
+        <v>1118</v>
       </c>
       <c r="B148" s="3" t="s">
         <v>626</v>
@@ -14228,16 +14228,16 @@
         <v>183</v>
       </c>
       <c r="D148" s="18" t="s">
-        <v>1090</v>
+        <v>1034</v>
       </c>
       <c r="E148" s="26"/>
       <c r="F148" t="s">
-        <v>818</v>
+        <v>762</v>
       </c>
     </row>
     <row r="149" spans="1:6">
       <c r="A149" s="28" t="s">
-        <v>1175</v>
+        <v>1119</v>
       </c>
       <c r="B149" s="3" t="s">
         <v>626</v>
@@ -14246,16 +14246,16 @@
         <v>185</v>
       </c>
       <c r="D149" s="18" t="s">
-        <v>1090</v>
+        <v>1034</v>
       </c>
       <c r="E149" s="26"/>
       <c r="F149" t="s">
-        <v>819</v>
+        <v>763</v>
       </c>
     </row>
     <row r="150" spans="1:6">
       <c r="A150" s="28" t="s">
-        <v>1176</v>
+        <v>1120</v>
       </c>
       <c r="B150" s="3" t="s">
         <v>626</v>
@@ -14264,16 +14264,16 @@
         <v>184</v>
       </c>
       <c r="D150" s="18" t="s">
-        <v>1090</v>
+        <v>1034</v>
       </c>
       <c r="E150" s="26"/>
       <c r="F150" t="s">
-        <v>820</v>
+        <v>764</v>
       </c>
     </row>
     <row r="151" spans="1:6">
       <c r="A151" s="28" t="s">
-        <v>1177</v>
+        <v>1121</v>
       </c>
       <c r="B151" s="3" t="s">
         <v>626</v>
@@ -14282,16 +14282,16 @@
         <v>186</v>
       </c>
       <c r="D151" s="18" t="s">
-        <v>1090</v>
+        <v>1034</v>
       </c>
       <c r="E151" s="19"/>
       <c r="F151" t="s">
-        <v>821</v>
+        <v>765</v>
       </c>
     </row>
     <row r="152" spans="1:6">
       <c r="A152" s="28" t="s">
-        <v>1178</v>
+        <v>1122</v>
       </c>
       <c r="B152" s="3" t="s">
         <v>626</v>
@@ -14300,16 +14300,16 @@
         <v>187</v>
       </c>
       <c r="D152" s="18" t="s">
-        <v>1090</v>
+        <v>1034</v>
       </c>
       <c r="E152" s="26"/>
       <c r="F152" t="s">
-        <v>822</v>
+        <v>766</v>
       </c>
     </row>
     <row r="153" spans="1:6">
       <c r="A153" s="28" t="s">
-        <v>1179</v>
+        <v>1123</v>
       </c>
       <c r="B153" s="3" t="s">
         <v>626</v>
@@ -14318,16 +14318,16 @@
         <v>188</v>
       </c>
       <c r="D153" s="18" t="s">
-        <v>1090</v>
+        <v>1034</v>
       </c>
       <c r="E153" s="27"/>
       <c r="F153" t="s">
-        <v>823</v>
+        <v>767</v>
       </c>
     </row>
     <row r="154" spans="1:6">
       <c r="A154" s="28" t="s">
-        <v>1180</v>
+        <v>1124</v>
       </c>
       <c r="B154" s="3" t="s">
         <v>626</v>
@@ -14336,16 +14336,16 @@
         <v>192</v>
       </c>
       <c r="D154" s="18" t="s">
-        <v>1090</v>
+        <v>1034</v>
       </c>
       <c r="E154" s="26"/>
       <c r="F154" t="s">
-        <v>824</v>
+        <v>768</v>
       </c>
     </row>
     <row r="155" spans="1:6">
       <c r="A155" s="28" t="s">
-        <v>1181</v>
+        <v>1125</v>
       </c>
       <c r="B155" s="3" t="s">
         <v>626</v>
@@ -14354,16 +14354,16 @@
         <v>190</v>
       </c>
       <c r="D155" s="18" t="s">
-        <v>1090</v>
+        <v>1034</v>
       </c>
       <c r="E155" s="26"/>
       <c r="F155" t="s">
-        <v>825</v>
+        <v>769</v>
       </c>
     </row>
     <row r="156" spans="1:6">
       <c r="A156" s="28" t="s">
-        <v>1182</v>
+        <v>1126</v>
       </c>
       <c r="B156" s="3" t="s">
         <v>626</v>
@@ -14372,16 +14372,16 @@
         <v>191</v>
       </c>
       <c r="D156" s="18" t="s">
-        <v>1090</v>
+        <v>1034</v>
       </c>
       <c r="E156" s="26"/>
       <c r="F156" t="s">
-        <v>826</v>
+        <v>770</v>
       </c>
     </row>
     <row r="157" spans="1:6">
       <c r="A157" s="28" t="s">
-        <v>1183</v>
+        <v>1127</v>
       </c>
       <c r="B157" s="3" t="s">
         <v>626</v>
@@ -14390,16 +14390,16 @@
         <v>604</v>
       </c>
       <c r="D157" s="18" t="s">
-        <v>1090</v>
+        <v>1034</v>
       </c>
       <c r="E157" s="26"/>
       <c r="F157" t="s">
-        <v>827</v>
+        <v>771</v>
       </c>
     </row>
     <row r="158" spans="1:6">
       <c r="A158" s="28" t="s">
-        <v>1184</v>
+        <v>1128</v>
       </c>
       <c r="B158" s="3" t="s">
         <v>626</v>
@@ -14408,16 +14408,16 @@
         <v>602</v>
       </c>
       <c r="D158" s="18" t="s">
-        <v>1090</v>
+        <v>1034</v>
       </c>
       <c r="E158" s="19"/>
       <c r="F158" t="s">
-        <v>828</v>
+        <v>772</v>
       </c>
     </row>
     <row r="159" spans="1:6">
       <c r="A159" s="28" t="s">
-        <v>1185</v>
+        <v>1129</v>
       </c>
       <c r="B159" s="3" t="s">
         <v>626</v>
@@ -14426,16 +14426,16 @@
         <v>205</v>
       </c>
       <c r="D159" s="18" t="s">
-        <v>1090</v>
+        <v>1034</v>
       </c>
       <c r="E159" s="26"/>
       <c r="F159" t="s">
-        <v>829</v>
+        <v>773</v>
       </c>
     </row>
     <row r="160" spans="1:6">
       <c r="A160" s="28" t="s">
-        <v>1186</v>
+        <v>1130</v>
       </c>
       <c r="B160" s="3" t="s">
         <v>626</v>
@@ -14444,16 +14444,16 @@
         <v>206</v>
       </c>
       <c r="D160" s="18" t="s">
-        <v>1090</v>
+        <v>1034</v>
       </c>
       <c r="E160" s="26"/>
       <c r="F160" t="s">
-        <v>830</v>
+        <v>774</v>
       </c>
     </row>
     <row r="161" spans="1:6">
       <c r="A161" s="28" t="s">
-        <v>1187</v>
+        <v>1131</v>
       </c>
       <c r="B161" s="3" t="s">
         <v>626</v>
@@ -14462,16 +14462,16 @@
         <v>207</v>
       </c>
       <c r="D161" s="18" t="s">
-        <v>1090</v>
+        <v>1034</v>
       </c>
       <c r="E161" s="19"/>
       <c r="F161" t="s">
-        <v>831</v>
+        <v>775</v>
       </c>
     </row>
     <row r="162" spans="1:6">
       <c r="A162" s="28" t="s">
-        <v>1188</v>
+        <v>1132</v>
       </c>
       <c r="B162" s="3" t="s">
         <v>626</v>
@@ -14480,16 +14480,16 @@
         <v>208</v>
       </c>
       <c r="D162" s="18" t="s">
-        <v>1090</v>
+        <v>1034</v>
       </c>
       <c r="E162" s="19"/>
       <c r="F162" t="s">
-        <v>832</v>
+        <v>776</v>
       </c>
     </row>
     <row r="163" spans="1:6">
       <c r="A163" s="28" t="s">
-        <v>1189</v>
+        <v>1133</v>
       </c>
       <c r="B163" s="3" t="s">
         <v>626</v>
@@ -14498,16 +14498,16 @@
         <v>209</v>
       </c>
       <c r="D163" s="18" t="s">
-        <v>1090</v>
+        <v>1034</v>
       </c>
       <c r="E163" s="18"/>
       <c r="F163" s="6" t="s">
-        <v>833</v>
+        <v>777</v>
       </c>
     </row>
     <row r="164" spans="1:6">
       <c r="A164" s="28" t="s">
-        <v>1190</v>
+        <v>1134</v>
       </c>
       <c r="B164" s="3" t="s">
         <v>626</v>
@@ -14516,16 +14516,16 @@
         <v>210</v>
       </c>
       <c r="D164" s="18" t="s">
-        <v>1090</v>
+        <v>1034</v>
       </c>
       <c r="E164" s="18"/>
       <c r="F164" s="6" t="s">
-        <v>834</v>
+        <v>778</v>
       </c>
     </row>
     <row r="165" spans="1:6">
       <c r="A165" s="28" t="s">
-        <v>1191</v>
+        <v>1135</v>
       </c>
       <c r="B165" s="3" t="s">
         <v>626</v>
@@ -14534,16 +14534,16 @@
         <v>211</v>
       </c>
       <c r="D165" s="18" t="s">
-        <v>1090</v>
+        <v>1034</v>
       </c>
       <c r="E165" s="26"/>
       <c r="F165" t="s">
-        <v>835</v>
+        <v>779</v>
       </c>
     </row>
     <row r="166" spans="1:6">
       <c r="A166" s="28" t="s">
-        <v>1192</v>
+        <v>1136</v>
       </c>
       <c r="B166" s="3" t="s">
         <v>626</v>
@@ -14552,16 +14552,16 @@
         <v>212</v>
       </c>
       <c r="D166" s="18" t="s">
-        <v>1090</v>
+        <v>1034</v>
       </c>
       <c r="E166" s="27"/>
       <c r="F166" t="s">
-        <v>836</v>
+        <v>780</v>
       </c>
     </row>
     <row r="167" spans="1:6">
       <c r="A167" s="28" t="s">
-        <v>1193</v>
+        <v>1137</v>
       </c>
       <c r="B167" s="3" t="s">
         <v>626</v>
@@ -14570,16 +14570,16 @@
         <v>213</v>
       </c>
       <c r="D167" s="18" t="s">
-        <v>1090</v>
+        <v>1034</v>
       </c>
       <c r="E167" s="26"/>
       <c r="F167" t="s">
-        <v>837</v>
+        <v>781</v>
       </c>
     </row>
     <row r="168" spans="1:6">
       <c r="A168" s="28" t="s">
-        <v>1194</v>
+        <v>1138</v>
       </c>
       <c r="B168" s="3" t="s">
         <v>626</v>
@@ -14588,16 +14588,16 @@
         <v>214</v>
       </c>
       <c r="D168" s="18" t="s">
-        <v>1090</v>
+        <v>1034</v>
       </c>
       <c r="E168" s="26"/>
       <c r="F168" s="6" t="s">
-        <v>838</v>
+        <v>782</v>
       </c>
     </row>
     <row r="169" spans="1:6">
       <c r="A169" s="28" t="s">
-        <v>1195</v>
+        <v>1139</v>
       </c>
       <c r="B169" s="3" t="s">
         <v>626</v>
@@ -14606,16 +14606,16 @@
         <v>215</v>
       </c>
       <c r="D169" s="18" t="s">
-        <v>1090</v>
+        <v>1034</v>
       </c>
       <c r="E169" s="26"/>
       <c r="F169" s="6" t="s">
-        <v>839</v>
+        <v>783</v>
       </c>
     </row>
     <row r="170" spans="1:6">
       <c r="A170" s="28" t="s">
-        <v>1196</v>
+        <v>1140</v>
       </c>
       <c r="B170" s="3" t="s">
         <v>626</v>
@@ -14624,16 +14624,16 @@
         <v>218</v>
       </c>
       <c r="D170" s="18" t="s">
-        <v>1090</v>
+        <v>1034</v>
       </c>
       <c r="E170" s="26"/>
       <c r="F170" s="6" t="s">
-        <v>840</v>
+        <v>784</v>
       </c>
     </row>
     <row r="171" spans="1:6">
       <c r="A171" s="28" t="s">
-        <v>1197</v>
+        <v>1141</v>
       </c>
       <c r="B171" s="3" t="s">
         <v>626</v>
@@ -14642,16 +14642,16 @@
         <v>216</v>
       </c>
       <c r="D171" s="18" t="s">
-        <v>1090</v>
+        <v>1034</v>
       </c>
       <c r="E171" s="26"/>
       <c r="F171" t="s">
-        <v>841</v>
+        <v>785</v>
       </c>
     </row>
     <row r="172" spans="1:6">
       <c r="A172" s="28" t="s">
-        <v>1198</v>
+        <v>1142</v>
       </c>
       <c r="B172" s="3" t="s">
         <v>626</v>
@@ -14660,28 +14660,28 @@
         <v>217</v>
       </c>
       <c r="D172" s="18" t="s">
-        <v>1090</v>
+        <v>1034</v>
       </c>
       <c r="E172" s="26"/>
       <c r="F172" t="s">
-        <v>842</v>
+        <v>786</v>
       </c>
     </row>
     <row r="173" spans="1:6">
       <c r="A173" s="28" t="s">
-        <v>1154</v>
+        <v>1098</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>1089</v>
+        <v>1033</v>
       </c>
       <c r="D173" s="26" t="s">
-        <v>1141</v>
+        <v>1085</v>
       </c>
       <c r="E173" s="26"/>
     </row>
     <row r="174" spans="1:6">
       <c r="A174" s="28" t="s">
-        <v>1202</v>
+        <v>1146</v>
       </c>
       <c r="B174" s="3" t="s">
         <v>626</v>
@@ -14690,16 +14690,16 @@
         <v>233</v>
       </c>
       <c r="D174" s="26" t="s">
-        <v>1141</v>
+        <v>1085</v>
       </c>
       <c r="E174" s="26"/>
       <c r="F174" t="s">
-        <v>843</v>
+        <v>787</v>
       </c>
     </row>
     <row r="175" spans="1:6">
       <c r="A175" s="28" t="s">
-        <v>1204</v>
+        <v>1148</v>
       </c>
       <c r="B175" s="3" t="s">
         <v>626</v>
@@ -14708,16 +14708,16 @@
         <v>606</v>
       </c>
       <c r="D175" s="26" t="s">
-        <v>1141</v>
+        <v>1085</v>
       </c>
       <c r="E175" s="26"/>
       <c r="F175" t="s">
-        <v>844</v>
+        <v>788</v>
       </c>
     </row>
     <row r="176" spans="1:6">
       <c r="A176" s="28" t="s">
-        <v>1203</v>
+        <v>1147</v>
       </c>
       <c r="B176" s="3" t="s">
         <v>626</v>
@@ -14726,29 +14726,29 @@
         <v>608</v>
       </c>
       <c r="D176" s="26" t="s">
-        <v>1141</v>
+        <v>1085</v>
       </c>
       <c r="E176" s="27"/>
       <c r="F176" t="s">
-        <v>845</v>
+        <v>789</v>
       </c>
     </row>
     <row r="177" spans="1:6">
       <c r="A177" s="28" t="s">
-        <v>1155</v>
+        <v>1099</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>1089</v>
+        <v>1033</v>
       </c>
       <c r="C177" s="27"/>
       <c r="D177" s="27" t="s">
-        <v>1142</v>
+        <v>1086</v>
       </c>
       <c r="E177" s="27"/>
     </row>
     <row r="178" spans="1:6">
       <c r="A178" s="28" t="s">
-        <v>1205</v>
+        <v>1149</v>
       </c>
       <c r="B178" s="3" t="s">
         <v>626</v>
@@ -14757,16 +14757,16 @@
         <v>534</v>
       </c>
       <c r="D178" s="27" t="s">
-        <v>1142</v>
+        <v>1086</v>
       </c>
       <c r="E178" s="26"/>
       <c r="F178" t="s">
-        <v>846</v>
+        <v>790</v>
       </c>
     </row>
     <row r="179" spans="1:6">
       <c r="A179" s="28" t="s">
-        <v>1206</v>
+        <v>1150</v>
       </c>
       <c r="B179" s="3" t="s">
         <v>626</v>
@@ -14775,16 +14775,16 @@
         <v>235</v>
       </c>
       <c r="D179" s="27" t="s">
-        <v>1142</v>
+        <v>1086</v>
       </c>
       <c r="E179" s="26"/>
       <c r="F179" t="s">
-        <v>847</v>
+        <v>791</v>
       </c>
     </row>
     <row r="180" spans="1:6">
       <c r="A180" s="28" t="s">
-        <v>1207</v>
+        <v>1151</v>
       </c>
       <c r="B180" s="3" t="s">
         <v>626</v>
@@ -14793,16 +14793,16 @@
         <v>237</v>
       </c>
       <c r="D180" s="27" t="s">
-        <v>1142</v>
+        <v>1086</v>
       </c>
       <c r="E180" s="19"/>
       <c r="F180" t="s">
-        <v>848</v>
+        <v>792</v>
       </c>
     </row>
     <row r="181" spans="1:6">
       <c r="A181" s="28" t="s">
-        <v>1208</v>
+        <v>1152</v>
       </c>
       <c r="B181" s="3" t="s">
         <v>626</v>
@@ -14811,16 +14811,16 @@
         <v>610</v>
       </c>
       <c r="D181" s="27" t="s">
-        <v>1142</v>
+        <v>1086</v>
       </c>
       <c r="E181" s="18"/>
       <c r="F181" t="s">
-        <v>849</v>
+        <v>793</v>
       </c>
     </row>
     <row r="182" spans="1:6">
       <c r="A182" s="28" t="s">
-        <v>1209</v>
+        <v>1153</v>
       </c>
       <c r="B182" s="3" t="s">
         <v>626</v>
@@ -14829,16 +14829,16 @@
         <v>241</v>
       </c>
       <c r="D182" s="27" t="s">
-        <v>1142</v>
+        <v>1086</v>
       </c>
       <c r="E182" s="26"/>
       <c r="F182" t="s">
-        <v>850</v>
+        <v>794</v>
       </c>
     </row>
     <row r="183" spans="1:6">
       <c r="A183" s="28" t="s">
-        <v>1210</v>
+        <v>1154</v>
       </c>
       <c r="B183" s="3" t="s">
         <v>626</v>
@@ -14847,16 +14847,16 @@
         <v>243</v>
       </c>
       <c r="D183" s="27" t="s">
-        <v>1142</v>
+        <v>1086</v>
       </c>
       <c r="E183" s="19"/>
       <c r="F183" t="s">
-        <v>851</v>
+        <v>795</v>
       </c>
     </row>
     <row r="184" spans="1:6">
       <c r="A184" s="28" t="s">
-        <v>1211</v>
+        <v>1155</v>
       </c>
       <c r="B184" s="3" t="s">
         <v>626</v>
@@ -14865,16 +14865,16 @@
         <v>255</v>
       </c>
       <c r="D184" s="27" t="s">
-        <v>1142</v>
+        <v>1086</v>
       </c>
       <c r="E184" s="26"/>
       <c r="F184" t="s">
-        <v>852</v>
+        <v>796</v>
       </c>
     </row>
     <row r="185" spans="1:6">
       <c r="A185" s="28" t="s">
-        <v>1212</v>
+        <v>1156</v>
       </c>
       <c r="B185" s="3" t="s">
         <v>626</v>
@@ -14883,16 +14883,16 @@
         <v>245</v>
       </c>
       <c r="D185" s="27" t="s">
-        <v>1142</v>
+        <v>1086</v>
       </c>
       <c r="E185" s="19"/>
       <c r="F185" t="s">
-        <v>853</v>
+        <v>797</v>
       </c>
     </row>
     <row r="186" spans="1:6">
       <c r="A186" s="28" t="s">
-        <v>1213</v>
+        <v>1157</v>
       </c>
       <c r="B186" s="3" t="s">
         <v>626</v>
@@ -14901,16 +14901,16 @@
         <v>246</v>
       </c>
       <c r="D186" s="27" t="s">
-        <v>1142</v>
+        <v>1086</v>
       </c>
       <c r="E186" s="19"/>
       <c r="F186" t="s">
-        <v>854</v>
+        <v>798</v>
       </c>
     </row>
     <row r="187" spans="1:6">
       <c r="A187" s="28" t="s">
-        <v>1214</v>
+        <v>1158</v>
       </c>
       <c r="B187" s="3" t="s">
         <v>626</v>
@@ -14919,16 +14919,16 @@
         <v>249</v>
       </c>
       <c r="D187" s="27" t="s">
-        <v>1142</v>
+        <v>1086</v>
       </c>
       <c r="E187" s="27"/>
       <c r="F187" t="s">
-        <v>855</v>
+        <v>799</v>
       </c>
     </row>
     <row r="188" spans="1:6">
       <c r="A188" s="28" t="s">
-        <v>1215</v>
+        <v>1159</v>
       </c>
       <c r="B188" s="3" t="s">
         <v>626</v>
@@ -14937,16 +14937,16 @@
         <v>253</v>
       </c>
       <c r="D188" s="27" t="s">
-        <v>1142</v>
+        <v>1086</v>
       </c>
       <c r="E188" s="19"/>
       <c r="F188" t="s">
-        <v>856</v>
+        <v>800</v>
       </c>
     </row>
     <row r="189" spans="1:6">
       <c r="A189" s="28" t="s">
-        <v>1216</v>
+        <v>1160</v>
       </c>
       <c r="B189" s="3" t="s">
         <v>626</v>
@@ -14955,16 +14955,16 @@
         <v>239</v>
       </c>
       <c r="D189" s="27" t="s">
-        <v>1142</v>
+        <v>1086</v>
       </c>
       <c r="E189" s="18"/>
       <c r="F189" t="s">
-        <v>857</v>
+        <v>801</v>
       </c>
     </row>
     <row r="190" spans="1:6">
       <c r="A190" s="28" t="s">
-        <v>1217</v>
+        <v>1161</v>
       </c>
       <c r="B190" s="3" t="s">
         <v>626</v>
@@ -14973,16 +14973,16 @@
         <v>256</v>
       </c>
       <c r="D190" s="27" t="s">
-        <v>1142</v>
+        <v>1086</v>
       </c>
       <c r="E190" s="19"/>
       <c r="F190" t="s">
-        <v>858</v>
+        <v>802</v>
       </c>
     </row>
     <row r="191" spans="1:6">
       <c r="A191" s="28" t="s">
-        <v>1218</v>
+        <v>1162</v>
       </c>
       <c r="B191" s="3" t="s">
         <v>626</v>
@@ -14991,16 +14991,16 @@
         <v>257</v>
       </c>
       <c r="D191" s="27" t="s">
-        <v>1142</v>
+        <v>1086</v>
       </c>
       <c r="E191" s="19"/>
       <c r="F191" t="s">
-        <v>859</v>
+        <v>803</v>
       </c>
     </row>
     <row r="192" spans="1:6">
       <c r="A192" s="28" t="s">
-        <v>1219</v>
+        <v>1163</v>
       </c>
       <c r="B192" s="3" t="s">
         <v>626</v>
@@ -15009,16 +15009,16 @@
         <v>258</v>
       </c>
       <c r="D192" s="27" t="s">
-        <v>1142</v>
+        <v>1086</v>
       </c>
       <c r="E192" s="19"/>
       <c r="F192" t="s">
-        <v>860</v>
+        <v>804</v>
       </c>
     </row>
     <row r="193" spans="1:6">
       <c r="A193" s="28" t="s">
-        <v>1220</v>
+        <v>1164</v>
       </c>
       <c r="B193" s="3" t="s">
         <v>626</v>
@@ -15027,16 +15027,16 @@
         <v>612</v>
       </c>
       <c r="D193" s="27" t="s">
-        <v>1142</v>
+        <v>1086</v>
       </c>
       <c r="E193" s="26"/>
       <c r="F193" t="s">
-        <v>861</v>
+        <v>805</v>
       </c>
     </row>
     <row r="194" spans="1:6">
       <c r="A194" s="28" t="s">
-        <v>1221</v>
+        <v>1165</v>
       </c>
       <c r="B194" s="3" t="s">
         <v>626</v>
@@ -15045,16 +15045,16 @@
         <v>614</v>
       </c>
       <c r="D194" s="27" t="s">
-        <v>1142</v>
+        <v>1086</v>
       </c>
       <c r="E194" s="19"/>
       <c r="F194" t="s">
-        <v>862</v>
+        <v>806</v>
       </c>
     </row>
     <row r="195" spans="1:6">
       <c r="A195" s="28" t="s">
-        <v>1222</v>
+        <v>1166</v>
       </c>
       <c r="B195" s="3" t="s">
         <v>626</v>
@@ -15063,16 +15063,16 @@
         <v>259</v>
       </c>
       <c r="D195" s="27" t="s">
-        <v>1142</v>
+        <v>1086</v>
       </c>
       <c r="E195" s="19"/>
       <c r="F195" t="s">
-        <v>863</v>
+        <v>807</v>
       </c>
     </row>
     <row r="196" spans="1:6">
       <c r="A196" s="28" t="s">
-        <v>1223</v>
+        <v>1167</v>
       </c>
       <c r="B196" s="3" t="s">
         <v>626</v>
@@ -15081,31 +15081,31 @@
         <v>265</v>
       </c>
       <c r="D196" s="27" t="s">
-        <v>1141</v>
+        <v>1085</v>
       </c>
       <c r="E196" s="18"/>
       <c r="F196" t="s">
-        <v>864</v>
+        <v>808</v>
       </c>
     </row>
     <row r="197" spans="1:6">
       <c r="A197" s="28" t="s">
-        <v>1228</v>
+        <v>1172</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>1043</v>
+        <v>987</v>
       </c>
       <c r="C197" s="18" t="s">
         <v>265</v>
       </c>
       <c r="D197" s="27" t="s">
-        <v>1047</v>
+        <v>991</v>
       </c>
       <c r="E197" s="18"/>
     </row>
     <row r="198" spans="1:6">
       <c r="A198" s="28" t="s">
-        <v>1224</v>
+        <v>1168</v>
       </c>
       <c r="B198" s="3" t="s">
         <v>626</v>
@@ -15114,16 +15114,16 @@
         <v>269</v>
       </c>
       <c r="D198" s="27" t="s">
-        <v>1142</v>
+        <v>1086</v>
       </c>
       <c r="E198" s="19"/>
       <c r="F198" t="s">
-        <v>865</v>
+        <v>809</v>
       </c>
     </row>
     <row r="199" spans="1:6">
       <c r="A199" s="28" t="s">
-        <v>1225</v>
+        <v>1169</v>
       </c>
       <c r="B199" s="3" t="s">
         <v>626</v>
@@ -15132,16 +15132,16 @@
         <v>267</v>
       </c>
       <c r="D199" s="27" t="s">
-        <v>1142</v>
+        <v>1086</v>
       </c>
       <c r="E199" s="26"/>
       <c r="F199" t="s">
-        <v>866</v>
+        <v>810</v>
       </c>
     </row>
     <row r="200" spans="1:6">
       <c r="A200" s="28" t="s">
-        <v>1226</v>
+        <v>1170</v>
       </c>
       <c r="B200" s="3" t="s">
         <v>626</v>
@@ -15150,16 +15150,16 @@
         <v>271</v>
       </c>
       <c r="D200" s="27" t="s">
-        <v>1142</v>
+        <v>1086</v>
       </c>
       <c r="E200" s="19"/>
       <c r="F200" t="s">
-        <v>867</v>
+        <v>811</v>
       </c>
     </row>
     <row r="201" spans="1:6">
       <c r="A201" s="28" t="s">
-        <v>1227</v>
+        <v>1171</v>
       </c>
       <c r="B201" s="3" t="s">
         <v>626</v>
@@ -15168,29 +15168,29 @@
         <v>616</v>
       </c>
       <c r="D201" s="27" t="s">
-        <v>1142</v>
+        <v>1086</v>
       </c>
       <c r="E201" s="26"/>
       <c r="F201" t="s">
-        <v>868</v>
+        <v>812</v>
       </c>
     </row>
     <row r="202" spans="1:6">
       <c r="A202" s="28" t="s">
-        <v>1156</v>
+        <v>1100</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>1089</v>
+        <v>1033</v>
       </c>
       <c r="C202" s="26"/>
       <c r="D202" s="26" t="s">
-        <v>1143</v>
+        <v>1087</v>
       </c>
       <c r="E202" s="26"/>
     </row>
     <row r="203" spans="1:6">
       <c r="A203" s="28" t="s">
-        <v>1229</v>
+        <v>1173</v>
       </c>
       <c r="B203" s="3" t="s">
         <v>626</v>
@@ -15199,16 +15199,16 @@
         <v>272</v>
       </c>
       <c r="D203" s="26" t="s">
-        <v>1143</v>
+        <v>1087</v>
       </c>
       <c r="E203" s="19"/>
       <c r="F203" t="s">
-        <v>869</v>
+        <v>813</v>
       </c>
     </row>
     <row r="204" spans="1:6">
       <c r="A204" s="28" t="s">
-        <v>1230</v>
+        <v>1174</v>
       </c>
       <c r="B204" s="3" t="s">
         <v>626</v>
@@ -15217,16 +15217,16 @@
         <v>273</v>
       </c>
       <c r="D204" s="26" t="s">
-        <v>1143</v>
+        <v>1087</v>
       </c>
       <c r="E204" s="26"/>
       <c r="F204" t="s">
-        <v>870</v>
+        <v>814</v>
       </c>
     </row>
     <row r="205" spans="1:6">
       <c r="A205" s="28" t="s">
-        <v>1231</v>
+        <v>1175</v>
       </c>
       <c r="B205" s="3" t="s">
         <v>626</v>
@@ -15235,16 +15235,16 @@
         <v>274</v>
       </c>
       <c r="D205" s="26" t="s">
-        <v>1143</v>
+        <v>1087</v>
       </c>
       <c r="E205" s="26"/>
       <c r="F205" t="s">
-        <v>871</v>
+        <v>815</v>
       </c>
     </row>
     <row r="206" spans="1:6">
       <c r="A206" s="28" t="s">
-        <v>1232</v>
+        <v>1176</v>
       </c>
       <c r="B206" s="3" t="s">
         <v>626</v>
@@ -15253,16 +15253,16 @@
         <v>275</v>
       </c>
       <c r="D206" s="26" t="s">
-        <v>1143</v>
+        <v>1087</v>
       </c>
       <c r="E206" s="19"/>
       <c r="F206" t="s">
-        <v>872</v>
+        <v>816</v>
       </c>
     </row>
     <row r="207" spans="1:6">
       <c r="A207" s="28" t="s">
-        <v>1233</v>
+        <v>1177</v>
       </c>
       <c r="B207" s="3" t="s">
         <v>626</v>
@@ -15271,16 +15271,16 @@
         <v>276</v>
       </c>
       <c r="D207" s="26" t="s">
-        <v>1143</v>
+        <v>1087</v>
       </c>
       <c r="E207" s="19"/>
       <c r="F207" t="s">
-        <v>873</v>
+        <v>817</v>
       </c>
     </row>
     <row r="208" spans="1:6">
       <c r="A208" s="28" t="s">
-        <v>1234</v>
+        <v>1178</v>
       </c>
       <c r="B208" s="3" t="s">
         <v>626</v>
@@ -15289,16 +15289,16 @@
         <v>277</v>
       </c>
       <c r="D208" s="26" t="s">
-        <v>1143</v>
+        <v>1087</v>
       </c>
       <c r="E208" s="26"/>
       <c r="F208" t="s">
-        <v>874</v>
+        <v>818</v>
       </c>
     </row>
     <row r="209" spans="1:6">
       <c r="A209" s="28" t="s">
-        <v>1235</v>
+        <v>1179</v>
       </c>
       <c r="B209" s="3" t="s">
         <v>626</v>
@@ -15307,16 +15307,16 @@
         <v>285</v>
       </c>
       <c r="D209" s="26" t="s">
-        <v>1143</v>
+        <v>1087</v>
       </c>
       <c r="E209" s="26"/>
       <c r="F209" t="s">
-        <v>875</v>
+        <v>819</v>
       </c>
     </row>
     <row r="210" spans="1:6">
       <c r="A210" s="28" t="s">
-        <v>1236</v>
+        <v>1180</v>
       </c>
       <c r="B210" s="3" t="s">
         <v>626</v>
@@ -15325,16 +15325,16 @@
         <v>286</v>
       </c>
       <c r="D210" s="26" t="s">
-        <v>1143</v>
+        <v>1087</v>
       </c>
       <c r="E210" s="19"/>
       <c r="F210" t="s">
-        <v>876</v>
+        <v>820</v>
       </c>
     </row>
     <row r="211" spans="1:6">
       <c r="A211" s="28" t="s">
-        <v>1237</v>
+        <v>1181</v>
       </c>
       <c r="B211" s="3" t="s">
         <v>626</v>
@@ -15343,16 +15343,16 @@
         <v>287</v>
       </c>
       <c r="D211" s="26" t="s">
-        <v>1143</v>
+        <v>1087</v>
       </c>
       <c r="E211" s="26"/>
       <c r="F211" t="s">
-        <v>877</v>
+        <v>821</v>
       </c>
     </row>
     <row r="212" spans="1:6">
       <c r="A212" s="28" t="s">
-        <v>1238</v>
+        <v>1182</v>
       </c>
       <c r="B212" s="3" t="s">
         <v>626</v>
@@ -15361,16 +15361,16 @@
         <v>288</v>
       </c>
       <c r="D212" s="26" t="s">
-        <v>1143</v>
+        <v>1087</v>
       </c>
       <c r="E212" s="19"/>
       <c r="F212" t="s">
-        <v>878</v>
+        <v>822</v>
       </c>
     </row>
     <row r="213" spans="1:6">
       <c r="A213" s="28" t="s">
-        <v>1239</v>
+        <v>1183</v>
       </c>
       <c r="B213" s="3" t="s">
         <v>626</v>
@@ -15379,16 +15379,16 @@
         <v>289</v>
       </c>
       <c r="D213" s="26" t="s">
-        <v>1143</v>
+        <v>1087</v>
       </c>
       <c r="E213" s="26"/>
       <c r="F213" t="s">
-        <v>879</v>
+        <v>823</v>
       </c>
     </row>
     <row r="214" spans="1:6">
       <c r="A214" s="28" t="s">
-        <v>1240</v>
+        <v>1184</v>
       </c>
       <c r="B214" s="3" t="s">
         <v>626</v>
@@ -15397,16 +15397,16 @@
         <v>290</v>
       </c>
       <c r="D214" s="26" t="s">
-        <v>1143</v>
+        <v>1087</v>
       </c>
       <c r="E214" s="19"/>
       <c r="F214" t="s">
-        <v>880</v>
+        <v>824</v>
       </c>
     </row>
     <row r="215" spans="1:6">
       <c r="A215" s="28" t="s">
-        <v>1241</v>
+        <v>1185</v>
       </c>
       <c r="B215" s="3" t="s">
         <v>626</v>
@@ -15415,16 +15415,16 @@
         <v>291</v>
       </c>
       <c r="D215" s="26" t="s">
-        <v>1142</v>
+        <v>1086</v>
       </c>
       <c r="E215" s="19"/>
       <c r="F215" t="s">
-        <v>881</v>
+        <v>825</v>
       </c>
     </row>
     <row r="216" spans="1:6">
       <c r="A216" s="28" t="s">
-        <v>1242</v>
+        <v>1186</v>
       </c>
       <c r="B216" s="3" t="s">
         <v>626</v>
@@ -15433,16 +15433,16 @@
         <v>293</v>
       </c>
       <c r="D216" s="26" t="s">
-        <v>1142</v>
+        <v>1086</v>
       </c>
       <c r="E216" s="26"/>
       <c r="F216" t="s">
-        <v>882</v>
+        <v>826</v>
       </c>
     </row>
     <row r="217" spans="1:6">
       <c r="A217" s="28" t="s">
-        <v>1243</v>
+        <v>1187</v>
       </c>
       <c r="B217" s="3" t="s">
         <v>626</v>
@@ -15451,16 +15451,16 @@
         <v>292</v>
       </c>
       <c r="D217" s="26" t="s">
-        <v>1143</v>
+        <v>1087</v>
       </c>
       <c r="E217" s="19"/>
       <c r="F217" t="s">
-        <v>883</v>
+        <v>827</v>
       </c>
     </row>
     <row r="218" spans="1:6">
       <c r="A218" s="28" t="s">
-        <v>1244</v>
+        <v>1188</v>
       </c>
       <c r="B218" s="3" t="s">
         <v>626</v>
@@ -15469,16 +15469,16 @@
         <v>296</v>
       </c>
       <c r="D218" s="26" t="s">
-        <v>1143</v>
+        <v>1087</v>
       </c>
       <c r="E218" s="26"/>
       <c r="F218" t="s">
-        <v>884</v>
+        <v>828</v>
       </c>
     </row>
     <row r="219" spans="1:6">
       <c r="A219" s="28" t="s">
-        <v>1245</v>
+        <v>1189</v>
       </c>
       <c r="B219" s="3" t="s">
         <v>626</v>
@@ -15487,16 +15487,16 @@
         <v>295</v>
       </c>
       <c r="D219" s="26" t="s">
-        <v>1143</v>
+        <v>1087</v>
       </c>
       <c r="E219" s="26"/>
       <c r="F219" t="s">
-        <v>885</v>
+        <v>829</v>
       </c>
     </row>
     <row r="220" spans="1:6">
       <c r="A220" s="28" t="s">
-        <v>1246</v>
+        <v>1190</v>
       </c>
       <c r="B220" s="3" t="s">
         <v>626</v>
@@ -15505,16 +15505,16 @@
         <v>294</v>
       </c>
       <c r="D220" s="26" t="s">
-        <v>1143</v>
+        <v>1087</v>
       </c>
       <c r="E220" s="27"/>
       <c r="F220" t="s">
-        <v>886</v>
+        <v>830</v>
       </c>
     </row>
     <row r="221" spans="1:6">
       <c r="A221" s="28" t="s">
-        <v>1247</v>
+        <v>1191</v>
       </c>
       <c r="B221" s="3" t="s">
         <v>626</v>
@@ -15523,16 +15523,16 @@
         <v>297</v>
       </c>
       <c r="D221" s="26" t="s">
-        <v>1143</v>
+        <v>1087</v>
       </c>
       <c r="E221" s="19"/>
       <c r="F221" t="s">
-        <v>887</v>
+        <v>831</v>
       </c>
     </row>
     <row r="222" spans="1:6">
       <c r="A222" s="28" t="s">
-        <v>1248</v>
+        <v>1192</v>
       </c>
       <c r="B222" s="3" t="s">
         <v>626</v>
@@ -15541,16 +15541,16 @@
         <v>298</v>
       </c>
       <c r="D222" s="26" t="s">
-        <v>1143</v>
+        <v>1087</v>
       </c>
       <c r="E222" s="19"/>
       <c r="F222" t="s">
-        <v>888</v>
+        <v>832</v>
       </c>
     </row>
     <row r="223" spans="1:6">
       <c r="A223" s="28" t="s">
-        <v>1249</v>
+        <v>1193</v>
       </c>
       <c r="B223" s="3" t="s">
         <v>626</v>
@@ -15559,16 +15559,16 @@
         <v>299</v>
       </c>
       <c r="D223" s="26" t="s">
-        <v>1143</v>
+        <v>1087</v>
       </c>
       <c r="E223" s="19"/>
       <c r="F223" t="s">
-        <v>1268</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="224" spans="1:6">
       <c r="A224" s="28" t="s">
-        <v>1250</v>
+        <v>1194</v>
       </c>
       <c r="B224" s="3" t="s">
         <v>626</v>
@@ -15577,16 +15577,16 @@
         <v>300</v>
       </c>
       <c r="D224" s="26" t="s">
-        <v>1143</v>
+        <v>1087</v>
       </c>
       <c r="E224" s="19"/>
       <c r="F224" t="s">
-        <v>889</v>
+        <v>833</v>
       </c>
     </row>
     <row r="225" spans="1:6">
       <c r="A225" s="28" t="s">
-        <v>1251</v>
+        <v>1195</v>
       </c>
       <c r="B225" s="3" t="s">
         <v>626</v>
@@ -15595,16 +15595,16 @@
         <v>301</v>
       </c>
       <c r="D225" s="26" t="s">
-        <v>1142</v>
+        <v>1086</v>
       </c>
       <c r="E225" s="19"/>
       <c r="F225" t="s">
-        <v>890</v>
+        <v>834</v>
       </c>
     </row>
     <row r="226" spans="1:6">
       <c r="A226" s="28" t="s">
-        <v>1252</v>
+        <v>1196</v>
       </c>
       <c r="B226" s="3" t="s">
         <v>626</v>
@@ -15613,16 +15613,16 @@
         <v>344</v>
       </c>
       <c r="D226" s="26" t="s">
-        <v>1143</v>
+        <v>1087</v>
       </c>
       <c r="E226" s="26"/>
       <c r="F226" t="s">
-        <v>891</v>
+        <v>835</v>
       </c>
     </row>
     <row r="227" spans="1:6">
       <c r="A227" s="28" t="s">
-        <v>1253</v>
+        <v>1197</v>
       </c>
       <c r="B227" s="3" t="s">
         <v>626</v>
@@ -15631,16 +15631,16 @@
         <v>302</v>
       </c>
       <c r="D227" s="26" t="s">
-        <v>1142</v>
+        <v>1086</v>
       </c>
       <c r="E227" s="19"/>
       <c r="F227" t="s">
-        <v>892</v>
+        <v>836</v>
       </c>
     </row>
     <row r="228" spans="1:6">
       <c r="A228" s="28" t="s">
-        <v>1254</v>
+        <v>1198</v>
       </c>
       <c r="B228" s="3" t="s">
         <v>626</v>
@@ -15649,16 +15649,16 @@
         <v>320</v>
       </c>
       <c r="D228" s="26" t="s">
-        <v>1142</v>
+        <v>1086</v>
       </c>
       <c r="E228" s="19"/>
       <c r="F228" t="s">
-        <v>893</v>
+        <v>837</v>
       </c>
     </row>
     <row r="229" spans="1:6">
       <c r="A229" s="28" t="s">
-        <v>1255</v>
+        <v>1199</v>
       </c>
       <c r="B229" s="3" t="s">
         <v>626</v>
@@ -15667,16 +15667,16 @@
         <v>321</v>
       </c>
       <c r="D229" s="26" t="s">
-        <v>1142</v>
+        <v>1086</v>
       </c>
       <c r="E229" s="26"/>
       <c r="F229" t="s">
-        <v>894</v>
+        <v>838</v>
       </c>
     </row>
     <row r="230" spans="1:6">
       <c r="A230" s="28" t="s">
-        <v>1256</v>
+        <v>1200</v>
       </c>
       <c r="B230" s="3" t="s">
         <v>626</v>
@@ -15685,16 +15685,16 @@
         <v>322</v>
       </c>
       <c r="D230" s="26" t="s">
-        <v>1143</v>
+        <v>1087</v>
       </c>
       <c r="E230" s="19"/>
       <c r="F230" t="s">
-        <v>895</v>
+        <v>839</v>
       </c>
     </row>
     <row r="231" spans="1:6">
       <c r="A231" s="28" t="s">
-        <v>1257</v>
+        <v>1201</v>
       </c>
       <c r="B231" s="3" t="s">
         <v>626</v>
@@ -15703,16 +15703,16 @@
         <v>518</v>
       </c>
       <c r="D231" s="26" t="s">
-        <v>1143</v>
+        <v>1087</v>
       </c>
       <c r="E231" s="26"/>
       <c r="F231" s="6" t="s">
-        <v>896</v>
+        <v>840</v>
       </c>
     </row>
     <row r="232" spans="1:6">
       <c r="A232" s="28" t="s">
-        <v>1258</v>
+        <v>1202</v>
       </c>
       <c r="B232" s="3" t="s">
         <v>626</v>
@@ -15721,16 +15721,16 @@
         <v>520</v>
       </c>
       <c r="D232" s="26" t="s">
-        <v>1143</v>
+        <v>1087</v>
       </c>
       <c r="E232" s="26"/>
       <c r="F232" s="6" t="s">
-        <v>897</v>
+        <v>841</v>
       </c>
     </row>
     <row r="233" spans="1:6">
       <c r="A233" s="28" t="s">
-        <v>1259</v>
+        <v>1203</v>
       </c>
       <c r="B233" s="3" t="s">
         <v>626</v>
@@ -15739,16 +15739,16 @@
         <v>323</v>
       </c>
       <c r="D233" s="26" t="s">
-        <v>1143</v>
+        <v>1087</v>
       </c>
       <c r="E233" s="19"/>
       <c r="F233" t="s">
-        <v>898</v>
+        <v>842</v>
       </c>
     </row>
     <row r="234" spans="1:6">
       <c r="A234" s="28" t="s">
-        <v>1260</v>
+        <v>1204</v>
       </c>
       <c r="B234" s="3" t="s">
         <v>626</v>
@@ -15757,16 +15757,16 @@
         <v>324</v>
       </c>
       <c r="D234" s="26" t="s">
-        <v>1142</v>
+        <v>1086</v>
       </c>
       <c r="E234" s="19"/>
       <c r="F234" t="s">
-        <v>899</v>
+        <v>843</v>
       </c>
     </row>
     <row r="235" spans="1:6">
       <c r="A235" s="28" t="s">
-        <v>1261</v>
+        <v>1205</v>
       </c>
       <c r="B235" s="3" t="s">
         <v>626</v>
@@ -15775,16 +15775,16 @@
         <v>532</v>
       </c>
       <c r="D235" s="26" t="s">
-        <v>1142</v>
+        <v>1086</v>
       </c>
       <c r="E235" s="19"/>
       <c r="F235" t="s">
-        <v>900</v>
+        <v>844</v>
       </c>
     </row>
     <row r="236" spans="1:6">
       <c r="A236" s="28" t="s">
-        <v>1262</v>
+        <v>1206</v>
       </c>
       <c r="B236" s="3" t="s">
         <v>626</v>
@@ -15793,16 +15793,16 @@
         <v>326</v>
       </c>
       <c r="D236" s="26" t="s">
-        <v>1143</v>
+        <v>1087</v>
       </c>
       <c r="E236" s="19"/>
       <c r="F236" t="s">
-        <v>901</v>
+        <v>845</v>
       </c>
     </row>
     <row r="237" spans="1:6">
       <c r="A237" s="28" t="s">
-        <v>1263</v>
+        <v>1207</v>
       </c>
       <c r="B237" s="3" t="s">
         <v>626</v>
@@ -15811,16 +15811,16 @@
         <v>325</v>
       </c>
       <c r="D237" s="26" t="s">
-        <v>1143</v>
+        <v>1087</v>
       </c>
       <c r="E237" s="26"/>
       <c r="F237" t="s">
-        <v>902</v>
+        <v>846</v>
       </c>
     </row>
     <row r="238" spans="1:6">
       <c r="A238" s="28" t="s">
-        <v>1264</v>
+        <v>1208</v>
       </c>
       <c r="B238" s="3" t="s">
         <v>626</v>
@@ -15829,16 +15829,16 @@
         <v>327</v>
       </c>
       <c r="D238" s="26" t="s">
-        <v>1143</v>
+        <v>1087</v>
       </c>
       <c r="E238" s="26"/>
       <c r="F238" s="6" t="s">
-        <v>903</v>
+        <v>847</v>
       </c>
     </row>
     <row r="239" spans="1:6">
       <c r="A239" s="28" t="s">
-        <v>1265</v>
+        <v>1209</v>
       </c>
       <c r="B239" s="3" t="s">
         <v>626</v>
@@ -15847,16 +15847,16 @@
         <v>336</v>
       </c>
       <c r="D239" s="26" t="s">
-        <v>1143</v>
+        <v>1087</v>
       </c>
       <c r="E239" s="26"/>
       <c r="F239" t="s">
-        <v>904</v>
+        <v>848</v>
       </c>
     </row>
     <row r="240" spans="1:6">
       <c r="A240" s="28" t="s">
-        <v>1266</v>
+        <v>1210</v>
       </c>
       <c r="B240" s="3" t="s">
         <v>626</v>
@@ -15865,16 +15865,16 @@
         <v>338</v>
       </c>
       <c r="D240" s="26" t="s">
-        <v>1143</v>
+        <v>1087</v>
       </c>
       <c r="E240" s="26"/>
       <c r="F240" t="s">
-        <v>905</v>
+        <v>849</v>
       </c>
     </row>
     <row r="241" spans="1:6">
       <c r="A241" s="28" t="s">
-        <v>1267</v>
+        <v>1211</v>
       </c>
       <c r="B241" s="3" t="s">
         <v>626</v>
@@ -15883,29 +15883,29 @@
         <v>339</v>
       </c>
       <c r="D241" s="26" t="s">
-        <v>1143</v>
+        <v>1087</v>
       </c>
       <c r="E241" s="26"/>
       <c r="F241" t="s">
-        <v>906</v>
+        <v>850</v>
       </c>
     </row>
     <row r="242" spans="1:6">
       <c r="A242" s="28" t="s">
-        <v>1157</v>
+        <v>1101</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>1089</v>
+        <v>1033</v>
       </c>
       <c r="C242" s="26"/>
       <c r="D242" s="26" t="s">
-        <v>1144</v>
+        <v>1088</v>
       </c>
       <c r="E242" s="26"/>
     </row>
     <row r="243" spans="1:6">
       <c r="A243" s="28" t="s">
-        <v>1269</v>
+        <v>1213</v>
       </c>
       <c r="B243" s="3" t="s">
         <v>626</v>
@@ -15914,16 +15914,16 @@
         <v>528</v>
       </c>
       <c r="D243" s="26" t="s">
-        <v>1144</v>
+        <v>1088</v>
       </c>
       <c r="E243" s="26"/>
       <c r="F243" t="s">
-        <v>907</v>
+        <v>851</v>
       </c>
     </row>
     <row r="244" spans="1:6">
       <c r="A244" s="28" t="s">
-        <v>1270</v>
+        <v>1214</v>
       </c>
       <c r="B244" s="3" t="s">
         <v>626</v>
@@ -15932,16 +15932,16 @@
         <v>342</v>
       </c>
       <c r="D244" s="26" t="s">
-        <v>1143</v>
+        <v>1087</v>
       </c>
       <c r="E244" s="19"/>
       <c r="F244" t="s">
-        <v>908</v>
+        <v>852</v>
       </c>
     </row>
     <row r="245" spans="1:6">
       <c r="A245" s="28" t="s">
-        <v>1271</v>
+        <v>1215</v>
       </c>
       <c r="B245" s="3" t="s">
         <v>626</v>
@@ -15950,16 +15950,16 @@
         <v>349</v>
       </c>
       <c r="D245" s="26" t="s">
-        <v>1144</v>
+        <v>1088</v>
       </c>
       <c r="E245" s="19"/>
       <c r="F245" t="s">
-        <v>909</v>
+        <v>853</v>
       </c>
     </row>
     <row r="246" spans="1:6">
       <c r="A246" s="28" t="s">
-        <v>1272</v>
+        <v>1216</v>
       </c>
       <c r="B246" s="3" t="s">
         <v>626</v>
@@ -15968,16 +15968,16 @@
         <v>345</v>
       </c>
       <c r="D246" s="26" t="s">
-        <v>1144</v>
+        <v>1088</v>
       </c>
       <c r="E246" s="26"/>
       <c r="F246" t="s">
-        <v>910</v>
+        <v>854</v>
       </c>
     </row>
     <row r="247" spans="1:6">
       <c r="A247" s="28" t="s">
-        <v>1273</v>
+        <v>1217</v>
       </c>
       <c r="B247" s="3" t="s">
         <v>626</v>
@@ -15986,16 +15986,16 @@
         <v>346</v>
       </c>
       <c r="D247" s="26" t="s">
-        <v>1144</v>
+        <v>1088</v>
       </c>
       <c r="E247" s="26"/>
       <c r="F247" t="s">
-        <v>911</v>
+        <v>855</v>
       </c>
     </row>
     <row r="248" spans="1:6">
       <c r="A248" s="28" t="s">
-        <v>1274</v>
+        <v>1218</v>
       </c>
       <c r="B248" s="3" t="s">
         <v>626</v>
@@ -16004,16 +16004,16 @@
         <v>347</v>
       </c>
       <c r="D248" s="26" t="s">
-        <v>1144</v>
+        <v>1088</v>
       </c>
       <c r="E248" s="26"/>
       <c r="F248" t="s">
-        <v>912</v>
+        <v>856</v>
       </c>
     </row>
     <row r="249" spans="1:6">
       <c r="A249" s="28" t="s">
-        <v>1275</v>
+        <v>1219</v>
       </c>
       <c r="B249" s="3" t="s">
         <v>626</v>
@@ -16022,16 +16022,16 @@
         <v>348</v>
       </c>
       <c r="D249" s="26" t="s">
-        <v>1144</v>
+        <v>1088</v>
       </c>
       <c r="E249" s="27"/>
       <c r="F249" t="s">
-        <v>913</v>
+        <v>857</v>
       </c>
     </row>
     <row r="250" spans="1:6">
       <c r="A250" s="28" t="s">
-        <v>1276</v>
+        <v>1220</v>
       </c>
       <c r="B250" s="3" t="s">
         <v>626</v>
@@ -16040,29 +16040,29 @@
         <v>356</v>
       </c>
       <c r="D250" s="26" t="s">
-        <v>1144</v>
+        <v>1088</v>
       </c>
       <c r="E250" s="26"/>
       <c r="F250" t="s">
-        <v>914</v>
+        <v>858</v>
       </c>
     </row>
     <row r="251" spans="1:6">
       <c r="A251" s="28" t="s">
-        <v>1158</v>
+        <v>1102</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>1089</v>
+        <v>1033</v>
       </c>
       <c r="C251" s="26"/>
       <c r="D251" s="26" t="s">
-        <v>1145</v>
+        <v>1089</v>
       </c>
       <c r="E251" s="26"/>
     </row>
     <row r="252" spans="1:6">
       <c r="A252" s="28" t="s">
-        <v>1277</v>
+        <v>1221</v>
       </c>
       <c r="B252" s="3" t="s">
         <v>626</v>
@@ -16071,16 +16071,16 @@
         <v>357</v>
       </c>
       <c r="D252" s="26" t="s">
-        <v>1144</v>
+        <v>1088</v>
       </c>
       <c r="E252" s="19"/>
       <c r="F252" t="s">
-        <v>915</v>
+        <v>859</v>
       </c>
     </row>
     <row r="253" spans="1:6">
       <c r="A253" s="28" t="s">
-        <v>1278</v>
+        <v>1222</v>
       </c>
       <c r="B253" s="3" t="s">
         <v>626</v>
@@ -16089,16 +16089,16 @@
         <v>358</v>
       </c>
       <c r="D253" s="26" t="s">
-        <v>1145</v>
+        <v>1089</v>
       </c>
       <c r="E253" s="26"/>
       <c r="F253" t="s">
-        <v>916</v>
+        <v>860</v>
       </c>
     </row>
     <row r="254" spans="1:6">
       <c r="A254" s="28" t="s">
-        <v>1279</v>
+        <v>1223</v>
       </c>
       <c r="B254" s="3" t="s">
         <v>626</v>
@@ -16107,16 +16107,16 @@
         <v>359</v>
       </c>
       <c r="D254" s="26" t="s">
-        <v>1145</v>
+        <v>1089</v>
       </c>
       <c r="E254" s="26"/>
       <c r="F254" t="s">
-        <v>917</v>
+        <v>861</v>
       </c>
     </row>
     <row r="255" spans="1:6">
       <c r="A255" s="28" t="s">
-        <v>1280</v>
+        <v>1224</v>
       </c>
       <c r="B255" s="3" t="s">
         <v>626</v>
@@ -16125,16 +16125,16 @@
         <v>364</v>
       </c>
       <c r="D255" s="26" t="s">
-        <v>1145</v>
+        <v>1089</v>
       </c>
       <c r="E255" s="19"/>
       <c r="F255" t="s">
-        <v>918</v>
+        <v>862</v>
       </c>
     </row>
     <row r="256" spans="1:6">
       <c r="A256" s="28" t="s">
-        <v>1281</v>
+        <v>1225</v>
       </c>
       <c r="B256" s="3" t="s">
         <v>626</v>
@@ -16143,16 +16143,16 @@
         <v>365</v>
       </c>
       <c r="D256" s="26" t="s">
-        <v>1145</v>
+        <v>1089</v>
       </c>
       <c r="E256" s="26"/>
       <c r="F256" t="s">
-        <v>919</v>
+        <v>863</v>
       </c>
     </row>
     <row r="257" spans="1:6">
       <c r="A257" s="28" t="s">
-        <v>1282</v>
+        <v>1226</v>
       </c>
       <c r="B257" s="3" t="s">
         <v>626</v>
@@ -16161,29 +16161,29 @@
         <v>366</v>
       </c>
       <c r="D257" s="26" t="s">
-        <v>1145</v>
+        <v>1089</v>
       </c>
       <c r="E257" s="26"/>
       <c r="F257" t="s">
-        <v>920</v>
+        <v>864</v>
       </c>
     </row>
     <row r="258" spans="1:6">
       <c r="A258" s="28" t="s">
-        <v>1159</v>
+        <v>1103</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>1089</v>
+        <v>1033</v>
       </c>
       <c r="C258" s="26"/>
       <c r="D258" s="26" t="s">
-        <v>1146</v>
+        <v>1090</v>
       </c>
       <c r="E258" s="26"/>
     </row>
     <row r="259" spans="1:6">
       <c r="A259" s="28" t="s">
-        <v>1283</v>
+        <v>1227</v>
       </c>
       <c r="B259" s="3" t="s">
         <v>626</v>
@@ -16192,16 +16192,16 @@
         <v>367</v>
       </c>
       <c r="D259" s="26" t="s">
-        <v>1146</v>
+        <v>1090</v>
       </c>
       <c r="E259" s="26"/>
       <c r="F259" t="s">
-        <v>921</v>
+        <v>865</v>
       </c>
     </row>
     <row r="260" spans="1:6">
       <c r="A260" s="28" t="s">
-        <v>1284</v>
+        <v>1228</v>
       </c>
       <c r="B260" s="3" t="s">
         <v>626</v>
@@ -16210,16 +16210,16 @@
         <v>368</v>
       </c>
       <c r="D260" s="26" t="s">
-        <v>1143</v>
+        <v>1087</v>
       </c>
       <c r="E260" s="26"/>
       <c r="F260" t="s">
-        <v>922</v>
+        <v>866</v>
       </c>
     </row>
     <row r="261" spans="1:6">
       <c r="A261" s="28" t="s">
-        <v>1285</v>
+        <v>1229</v>
       </c>
       <c r="B261" s="3" t="s">
         <v>626</v>
@@ -16228,16 +16228,16 @@
         <v>369</v>
       </c>
       <c r="D261" s="26" t="s">
-        <v>1146</v>
+        <v>1090</v>
       </c>
       <c r="E261" s="26"/>
       <c r="F261" t="s">
-        <v>923</v>
+        <v>867</v>
       </c>
     </row>
     <row r="262" spans="1:6">
       <c r="A262" s="28" t="s">
-        <v>1286</v>
+        <v>1230</v>
       </c>
       <c r="B262" s="3" t="s">
         <v>626</v>
@@ -16246,16 +16246,16 @@
         <v>370</v>
       </c>
       <c r="D262" s="26" t="s">
-        <v>1143</v>
+        <v>1087</v>
       </c>
       <c r="E262" s="26"/>
       <c r="F262" t="s">
-        <v>924</v>
+        <v>868</v>
       </c>
     </row>
     <row r="263" spans="1:6">
       <c r="A263" s="28" t="s">
-        <v>1287</v>
+        <v>1231</v>
       </c>
       <c r="B263" s="3" t="s">
         <v>626</v>
@@ -16264,16 +16264,16 @@
         <v>371</v>
       </c>
       <c r="D263" s="26" t="s">
-        <v>1142</v>
+        <v>1086</v>
       </c>
       <c r="E263" s="26"/>
       <c r="F263" t="s">
-        <v>925</v>
+        <v>869</v>
       </c>
     </row>
     <row r="264" spans="1:6">
       <c r="A264" s="28" t="s">
-        <v>1288</v>
+        <v>1232</v>
       </c>
       <c r="B264" s="3" t="s">
         <v>626</v>
@@ -16282,16 +16282,16 @@
         <v>372</v>
       </c>
       <c r="D264" s="26" t="s">
-        <v>1142</v>
+        <v>1086</v>
       </c>
       <c r="E264" s="26"/>
       <c r="F264" t="s">
-        <v>926</v>
+        <v>870</v>
       </c>
     </row>
     <row r="265" spans="1:6">
       <c r="A265" s="28" t="s">
-        <v>1289</v>
+        <v>1233</v>
       </c>
       <c r="B265" s="3" t="s">
         <v>626</v>
@@ -16300,16 +16300,16 @@
         <v>373</v>
       </c>
       <c r="D265" s="26" t="s">
-        <v>1144</v>
+        <v>1088</v>
       </c>
       <c r="E265" s="19"/>
       <c r="F265" t="s">
-        <v>927</v>
+        <v>871</v>
       </c>
     </row>
     <row r="266" spans="1:6">
       <c r="A266" s="28" t="s">
-        <v>1290</v>
+        <v>1234</v>
       </c>
       <c r="B266" s="3" t="s">
         <v>626</v>
@@ -16318,16 +16318,16 @@
         <v>384</v>
       </c>
       <c r="D266" s="26" t="s">
-        <v>1143</v>
+        <v>1087</v>
       </c>
       <c r="E266" s="26"/>
       <c r="F266" t="s">
-        <v>928</v>
+        <v>872</v>
       </c>
     </row>
     <row r="267" spans="1:6">
       <c r="A267" s="28" t="s">
-        <v>1291</v>
+        <v>1235</v>
       </c>
       <c r="B267" s="3" t="s">
         <v>626</v>
@@ -16336,16 +16336,16 @@
         <v>386</v>
       </c>
       <c r="D267" s="26" t="s">
-        <v>1145</v>
+        <v>1089</v>
       </c>
       <c r="E267" s="19"/>
       <c r="F267" t="s">
-        <v>929</v>
+        <v>873</v>
       </c>
     </row>
     <row r="268" spans="1:6">
       <c r="A268" s="28" t="s">
-        <v>1292</v>
+        <v>1236</v>
       </c>
       <c r="B268" s="3" t="s">
         <v>626</v>
@@ -16354,16 +16354,16 @@
         <v>390</v>
       </c>
       <c r="D268" s="26" t="s">
-        <v>1145</v>
+        <v>1089</v>
       </c>
       <c r="E268" s="26"/>
       <c r="F268" s="6" t="s">
-        <v>930</v>
+        <v>874</v>
       </c>
     </row>
     <row r="269" spans="1:6">
       <c r="A269" s="28" t="s">
-        <v>1293</v>
+        <v>1237</v>
       </c>
       <c r="B269" s="3" t="s">
         <v>626</v>
@@ -16372,16 +16372,16 @@
         <v>394</v>
       </c>
       <c r="D269" s="26" t="s">
-        <v>1145</v>
+        <v>1089</v>
       </c>
       <c r="E269" s="27"/>
       <c r="F269" t="s">
-        <v>931</v>
+        <v>875</v>
       </c>
     </row>
     <row r="270" spans="1:6">
       <c r="A270" s="28" t="s">
-        <v>1294</v>
+        <v>1238</v>
       </c>
       <c r="B270" s="3" t="s">
         <v>626</v>
@@ -16390,16 +16390,16 @@
         <v>395</v>
       </c>
       <c r="D270" s="26" t="s">
-        <v>1145</v>
+        <v>1089</v>
       </c>
       <c r="E270" s="26"/>
       <c r="F270" t="s">
-        <v>932</v>
+        <v>876</v>
       </c>
     </row>
     <row r="271" spans="1:6">
       <c r="A271" s="28" t="s">
-        <v>1295</v>
+        <v>1239</v>
       </c>
       <c r="B271" s="3" t="s">
         <v>626</v>
@@ -16408,16 +16408,16 @@
         <v>396</v>
       </c>
       <c r="D271" s="26" t="s">
-        <v>1145</v>
+        <v>1089</v>
       </c>
       <c r="E271" s="26"/>
       <c r="F271" t="s">
-        <v>933</v>
+        <v>877</v>
       </c>
     </row>
     <row r="272" spans="1:6">
       <c r="A272" s="28" t="s">
-        <v>1296</v>
+        <v>1240</v>
       </c>
       <c r="B272" s="3" t="s">
         <v>626</v>
@@ -16426,16 +16426,16 @@
         <v>392</v>
       </c>
       <c r="D272" s="26" t="s">
-        <v>1145</v>
+        <v>1089</v>
       </c>
       <c r="E272" s="26"/>
       <c r="F272" t="s">
-        <v>934</v>
+        <v>878</v>
       </c>
     </row>
     <row r="273" spans="1:6">
       <c r="A273" s="28" t="s">
-        <v>1297</v>
+        <v>1241</v>
       </c>
       <c r="B273" s="3" t="s">
         <v>626</v>
@@ -16444,16 +16444,16 @@
         <v>388</v>
       </c>
       <c r="D273" s="26" t="s">
-        <v>1146</v>
+        <v>1090</v>
       </c>
       <c r="E273" s="19"/>
       <c r="F273" t="s">
-        <v>935</v>
+        <v>879</v>
       </c>
     </row>
     <row r="274" spans="1:6">
       <c r="A274" s="28" t="s">
-        <v>1298</v>
+        <v>1242</v>
       </c>
       <c r="B274" s="3" t="s">
         <v>626</v>
@@ -16462,16 +16462,16 @@
         <v>400</v>
       </c>
       <c r="D274" s="26" t="s">
-        <v>1145</v>
+        <v>1089</v>
       </c>
       <c r="E274" s="27"/>
       <c r="F274" t="s">
-        <v>936</v>
+        <v>880</v>
       </c>
     </row>
     <row r="275" spans="1:6">
       <c r="A275" s="28" t="s">
-        <v>1299</v>
+        <v>1243</v>
       </c>
       <c r="B275" s="3" t="s">
         <v>626</v>
@@ -16480,16 +16480,16 @@
         <v>402</v>
       </c>
       <c r="D275" s="26" t="s">
-        <v>1146</v>
+        <v>1090</v>
       </c>
       <c r="E275" s="26"/>
       <c r="F275" t="s">
-        <v>937</v>
+        <v>881</v>
       </c>
     </row>
     <row r="276" spans="1:6">
       <c r="A276" s="28" t="s">
-        <v>1300</v>
+        <v>1244</v>
       </c>
       <c r="B276" s="3" t="s">
         <v>626</v>
@@ -16498,16 +16498,16 @@
         <v>404</v>
       </c>
       <c r="D276" s="26" t="s">
-        <v>1146</v>
+        <v>1090</v>
       </c>
       <c r="E276" s="19"/>
       <c r="F276" t="s">
-        <v>938</v>
+        <v>882</v>
       </c>
     </row>
     <row r="277" spans="1:6">
       <c r="A277" s="28" t="s">
-        <v>1301</v>
+        <v>1245</v>
       </c>
       <c r="B277" s="3" t="s">
         <v>626</v>
@@ -16516,29 +16516,29 @@
         <v>405</v>
       </c>
       <c r="D277" s="26" t="s">
-        <v>1142</v>
+        <v>1086</v>
       </c>
       <c r="E277" s="26"/>
       <c r="F277" t="s">
-        <v>939</v>
+        <v>883</v>
       </c>
     </row>
     <row r="278" spans="1:6">
       <c r="A278" s="28" t="s">
-        <v>1160</v>
+        <v>1104</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>1089</v>
+        <v>1033</v>
       </c>
       <c r="C278" s="26"/>
       <c r="D278" s="26" t="s">
-        <v>1147</v>
+        <v>1091</v>
       </c>
       <c r="E278" s="26"/>
     </row>
     <row r="279" spans="1:6">
       <c r="A279" s="28" t="s">
-        <v>633</v>
+        <v>1246</v>
       </c>
       <c r="B279" s="3" t="s">
         <v>626</v>
@@ -16546,15 +16546,17 @@
       <c r="C279" s="19" t="s">
         <v>522</v>
       </c>
-      <c r="D279" s="19"/>
+      <c r="D279" s="26" t="s">
+        <v>1091</v>
+      </c>
       <c r="E279" s="19"/>
       <c r="F279" t="s">
-        <v>940</v>
+        <v>884</v>
       </c>
     </row>
     <row r="280" spans="1:6">
       <c r="A280" s="28" t="s">
-        <v>634</v>
+        <v>1247</v>
       </c>
       <c r="B280" s="3" t="s">
         <v>626</v>
@@ -16562,15 +16564,17 @@
       <c r="C280" s="27" t="s">
         <v>406</v>
       </c>
-      <c r="D280" s="27"/>
+      <c r="D280" s="26" t="s">
+        <v>1089</v>
+      </c>
       <c r="E280" s="27"/>
       <c r="F280" t="s">
-        <v>941</v>
+        <v>885</v>
       </c>
     </row>
     <row r="281" spans="1:6">
       <c r="A281" s="28" t="s">
-        <v>635</v>
+        <v>1248</v>
       </c>
       <c r="B281" s="3" t="s">
         <v>626</v>
@@ -16578,15 +16582,17 @@
       <c r="C281" s="19" t="s">
         <v>407</v>
       </c>
-      <c r="D281" s="19"/>
+      <c r="D281" s="26" t="s">
+        <v>1088</v>
+      </c>
       <c r="E281" s="19"/>
       <c r="F281" t="s">
-        <v>942</v>
+        <v>886</v>
       </c>
     </row>
     <row r="282" spans="1:6">
       <c r="A282" s="28" t="s">
-        <v>636</v>
+        <v>1249</v>
       </c>
       <c r="B282" s="3" t="s">
         <v>626</v>
@@ -16594,15 +16600,17 @@
       <c r="C282" s="26" t="s">
         <v>408</v>
       </c>
-      <c r="D282" s="26"/>
+      <c r="D282" s="26" t="s">
+        <v>1088</v>
+      </c>
       <c r="E282" s="26"/>
       <c r="F282" t="s">
-        <v>943</v>
+        <v>887</v>
       </c>
     </row>
     <row r="283" spans="1:6">
       <c r="A283" s="28" t="s">
-        <v>637</v>
+        <v>1250</v>
       </c>
       <c r="B283" s="3" t="s">
         <v>626</v>
@@ -16610,15 +16618,17 @@
       <c r="C283" s="18" t="s">
         <v>516</v>
       </c>
-      <c r="D283" s="18"/>
+      <c r="D283" s="26" t="s">
+        <v>1086</v>
+      </c>
       <c r="E283" s="18"/>
       <c r="F283" s="6" t="s">
-        <v>944</v>
+        <v>888</v>
       </c>
     </row>
     <row r="284" spans="1:6">
       <c r="A284" s="28" t="s">
-        <v>638</v>
+        <v>1251</v>
       </c>
       <c r="B284" s="3" t="s">
         <v>626</v>
@@ -16626,15 +16636,17 @@
       <c r="C284" s="26" t="s">
         <v>409</v>
       </c>
-      <c r="D284" s="26"/>
+      <c r="D284" s="26" t="s">
+        <v>1088</v>
+      </c>
       <c r="E284" s="26"/>
       <c r="F284" t="s">
-        <v>945</v>
+        <v>889</v>
       </c>
     </row>
     <row r="285" spans="1:6">
       <c r="A285" s="28" t="s">
-        <v>639</v>
+        <v>1252</v>
       </c>
       <c r="B285" s="3" t="s">
         <v>626</v>
@@ -16642,15 +16654,17 @@
       <c r="C285" s="26" t="s">
         <v>410</v>
       </c>
-      <c r="D285" s="26"/>
+      <c r="D285" s="26" t="s">
+        <v>1089</v>
+      </c>
       <c r="E285" s="26"/>
       <c r="F285" t="s">
-        <v>946</v>
+        <v>890</v>
       </c>
     </row>
     <row r="286" spans="1:6">
       <c r="A286" s="28" t="s">
-        <v>640</v>
+        <v>1253</v>
       </c>
       <c r="B286" s="3" t="s">
         <v>626</v>
@@ -16658,15 +16672,17 @@
       <c r="C286" s="26" t="s">
         <v>411</v>
       </c>
-      <c r="D286" s="26"/>
+      <c r="D286" s="26" t="s">
+        <v>1089</v>
+      </c>
       <c r="E286" s="26"/>
       <c r="F286" t="s">
-        <v>947</v>
+        <v>891</v>
       </c>
     </row>
     <row r="287" spans="1:6">
       <c r="A287" s="28" t="s">
-        <v>641</v>
+        <v>1254</v>
       </c>
       <c r="B287" s="3" t="s">
         <v>626</v>
@@ -16674,15 +16690,17 @@
       <c r="C287" s="26" t="s">
         <v>412</v>
       </c>
-      <c r="D287" s="26"/>
+      <c r="D287" s="26" t="s">
+        <v>1090</v>
+      </c>
       <c r="E287" s="26"/>
       <c r="F287" t="s">
-        <v>948</v>
+        <v>892</v>
       </c>
     </row>
     <row r="288" spans="1:6">
       <c r="A288" s="28" t="s">
-        <v>642</v>
+        <v>1255</v>
       </c>
       <c r="B288" s="3" t="s">
         <v>626</v>
@@ -16690,15 +16708,17 @@
       <c r="C288" s="26" t="s">
         <v>413</v>
       </c>
-      <c r="D288" s="26"/>
+      <c r="D288" s="26" t="s">
+        <v>1089</v>
+      </c>
       <c r="E288" s="26"/>
       <c r="F288" t="s">
-        <v>949</v>
+        <v>893</v>
       </c>
     </row>
     <row r="289" spans="1:6">
       <c r="A289" s="28" t="s">
-        <v>643</v>
+        <v>1256</v>
       </c>
       <c r="B289" s="3" t="s">
         <v>626</v>
@@ -16706,15 +16726,17 @@
       <c r="C289" s="19" t="s">
         <v>513</v>
       </c>
-      <c r="D289" s="19"/>
+      <c r="D289" s="26" t="s">
+        <v>1090</v>
+      </c>
       <c r="E289" s="19"/>
       <c r="F289" t="s">
-        <v>950</v>
+        <v>894</v>
       </c>
     </row>
     <row r="290" spans="1:6">
       <c r="A290" s="28" t="s">
-        <v>644</v>
+        <v>1257</v>
       </c>
       <c r="B290" s="3" t="s">
         <v>626</v>
@@ -16722,15 +16744,17 @@
       <c r="C290" s="19" t="s">
         <v>512</v>
       </c>
-      <c r="D290" s="19"/>
+      <c r="D290" s="26" t="s">
+        <v>1090</v>
+      </c>
       <c r="E290" s="19"/>
       <c r="F290" t="s">
-        <v>951</v>
+        <v>895</v>
       </c>
     </row>
     <row r="291" spans="1:6">
       <c r="A291" s="28" t="s">
-        <v>645</v>
+        <v>1258</v>
       </c>
       <c r="B291" s="3" t="s">
         <v>626</v>
@@ -16738,15 +16762,17 @@
       <c r="C291" s="26" t="s">
         <v>425</v>
       </c>
-      <c r="D291" s="26"/>
+      <c r="D291" s="26" t="s">
+        <v>1090</v>
+      </c>
       <c r="E291" s="26"/>
       <c r="F291" t="s">
-        <v>952</v>
+        <v>896</v>
       </c>
     </row>
     <row r="292" spans="1:6">
       <c r="A292" s="28" t="s">
-        <v>646</v>
+        <v>1259</v>
       </c>
       <c r="B292" s="3" t="s">
         <v>626</v>
@@ -16754,15 +16780,17 @@
       <c r="C292" s="26" t="s">
         <v>424</v>
       </c>
-      <c r="D292" s="26"/>
+      <c r="D292" s="26" t="s">
+        <v>1090</v>
+      </c>
       <c r="E292" s="26"/>
       <c r="F292" s="6" t="s">
-        <v>953</v>
+        <v>897</v>
       </c>
     </row>
     <row r="293" spans="1:6">
       <c r="A293" s="28" t="s">
-        <v>647</v>
+        <v>1260</v>
       </c>
       <c r="B293" s="3" t="s">
         <v>626</v>
@@ -16770,15 +16798,17 @@
       <c r="C293" s="26" t="s">
         <v>428</v>
       </c>
-      <c r="D293" s="26"/>
+      <c r="D293" s="26" t="s">
+        <v>1090</v>
+      </c>
       <c r="E293" s="26"/>
       <c r="F293" s="6" t="s">
-        <v>954</v>
+        <v>898</v>
       </c>
     </row>
     <row r="294" spans="1:6">
       <c r="A294" s="28" t="s">
-        <v>648</v>
+        <v>1261</v>
       </c>
       <c r="B294" s="3" t="s">
         <v>626</v>
@@ -16786,15 +16816,17 @@
       <c r="C294" s="19" t="s">
         <v>510</v>
       </c>
-      <c r="D294" s="19"/>
+      <c r="D294" s="26" t="s">
+        <v>1090</v>
+      </c>
       <c r="E294" s="19"/>
       <c r="F294" t="s">
-        <v>955</v>
+        <v>899</v>
       </c>
     </row>
     <row r="295" spans="1:6">
       <c r="A295" s="28" t="s">
-        <v>649</v>
+        <v>1262</v>
       </c>
       <c r="B295" s="3" t="s">
         <v>626</v>
@@ -16802,15 +16834,17 @@
       <c r="C295" s="26" t="s">
         <v>429</v>
       </c>
-      <c r="D295" s="26"/>
+      <c r="D295" s="26" t="s">
+        <v>1089</v>
+      </c>
       <c r="E295" s="26"/>
       <c r="F295" t="s">
-        <v>956</v>
+        <v>900</v>
       </c>
     </row>
     <row r="296" spans="1:6">
       <c r="A296" s="28" t="s">
-        <v>650</v>
+        <v>1263</v>
       </c>
       <c r="B296" s="3" t="s">
         <v>626</v>
@@ -16818,15 +16852,17 @@
       <c r="C296" s="18" t="s">
         <v>426</v>
       </c>
-      <c r="D296" s="18"/>
+      <c r="D296" s="26" t="s">
+        <v>1090</v>
+      </c>
       <c r="E296" s="18"/>
       <c r="F296" t="s">
-        <v>957</v>
+        <v>901</v>
       </c>
     </row>
     <row r="297" spans="1:6">
       <c r="A297" s="28" t="s">
-        <v>651</v>
+        <v>1264</v>
       </c>
       <c r="B297" s="3" t="s">
         <v>626</v>
@@ -16834,15 +16870,17 @@
       <c r="C297" s="19" t="s">
         <v>427</v>
       </c>
-      <c r="D297" s="19"/>
+      <c r="D297" s="26" t="s">
+        <v>1089</v>
+      </c>
       <c r="E297" s="19"/>
       <c r="F297" t="s">
-        <v>958</v>
+        <v>902</v>
       </c>
     </row>
     <row r="298" spans="1:6">
       <c r="A298" s="28" t="s">
-        <v>652</v>
+        <v>1265</v>
       </c>
       <c r="B298" s="3" t="s">
         <v>626</v>
@@ -16850,15 +16888,17 @@
       <c r="C298" s="19" t="s">
         <v>431</v>
       </c>
-      <c r="D298" s="19"/>
+      <c r="D298" s="26" t="s">
+        <v>1089</v>
+      </c>
       <c r="E298" s="19"/>
       <c r="F298" t="s">
-        <v>959</v>
+        <v>903</v>
       </c>
     </row>
     <row r="299" spans="1:6">
       <c r="A299" s="28" t="s">
-        <v>653</v>
+        <v>1266</v>
       </c>
       <c r="B299" s="3" t="s">
         <v>626</v>
@@ -16866,15 +16906,17 @@
       <c r="C299" s="19" t="s">
         <v>430</v>
       </c>
-      <c r="D299" s="19"/>
+      <c r="D299" s="26" t="s">
+        <v>1089</v>
+      </c>
       <c r="E299" s="19"/>
       <c r="F299" t="s">
-        <v>960</v>
+        <v>904</v>
       </c>
     </row>
     <row r="300" spans="1:6">
       <c r="A300" s="28" t="s">
-        <v>654</v>
+        <v>1267</v>
       </c>
       <c r="B300" s="3" t="s">
         <v>626</v>
@@ -16882,15 +16924,17 @@
       <c r="C300" s="26" t="s">
         <v>432</v>
       </c>
-      <c r="D300" s="26"/>
+      <c r="D300" s="26" t="s">
+        <v>1089</v>
+      </c>
       <c r="E300" s="26"/>
       <c r="F300" s="6" t="s">
-        <v>961</v>
+        <v>905</v>
       </c>
     </row>
     <row r="301" spans="1:6">
       <c r="A301" s="28" t="s">
-        <v>655</v>
+        <v>1268</v>
       </c>
       <c r="B301" s="3" t="s">
         <v>626</v>
@@ -16898,15 +16942,17 @@
       <c r="C301" s="27" t="s">
         <v>433</v>
       </c>
-      <c r="D301" s="27"/>
+      <c r="D301" s="26" t="s">
+        <v>1089</v>
+      </c>
       <c r="E301" s="27"/>
       <c r="F301" t="s">
-        <v>962</v>
+        <v>906</v>
       </c>
     </row>
     <row r="302" spans="1:6">
       <c r="A302" s="28" t="s">
-        <v>656</v>
+        <v>1269</v>
       </c>
       <c r="B302" s="3" t="s">
         <v>626</v>
@@ -16914,15 +16960,17 @@
       <c r="C302" s="19" t="s">
         <v>434</v>
       </c>
-      <c r="D302" s="19"/>
+      <c r="D302" s="26" t="s">
+        <v>1089</v>
+      </c>
       <c r="E302" s="19"/>
       <c r="F302" t="s">
-        <v>963</v>
+        <v>907</v>
       </c>
     </row>
     <row r="303" spans="1:6">
       <c r="A303" s="28" t="s">
-        <v>657</v>
+        <v>1270</v>
       </c>
       <c r="B303" s="3" t="s">
         <v>626</v>
@@ -16930,15 +16978,17 @@
       <c r="C303" s="19" t="s">
         <v>435</v>
       </c>
-      <c r="D303" s="19"/>
+      <c r="D303" s="26" t="s">
+        <v>1089</v>
+      </c>
       <c r="E303" s="19"/>
       <c r="F303" t="s">
-        <v>964</v>
+        <v>908</v>
       </c>
     </row>
     <row r="304" spans="1:6">
       <c r="A304" s="28" t="s">
-        <v>658</v>
+        <v>1271</v>
       </c>
       <c r="B304" s="3" t="s">
         <v>626</v>
@@ -16946,15 +16996,17 @@
       <c r="C304" s="19" t="s">
         <v>436</v>
       </c>
-      <c r="D304" s="19"/>
+      <c r="D304" s="26" t="s">
+        <v>1088</v>
+      </c>
       <c r="E304" s="19"/>
       <c r="F304" t="s">
-        <v>965</v>
+        <v>909</v>
       </c>
     </row>
     <row r="305" spans="1:6">
       <c r="A305" s="28" t="s">
-        <v>659</v>
+        <v>1272</v>
       </c>
       <c r="B305" s="3" t="s">
         <v>626</v>
@@ -16962,15 +17014,17 @@
       <c r="C305" s="27" t="s">
         <v>437</v>
       </c>
-      <c r="D305" s="27"/>
+      <c r="D305" s="26" t="s">
+        <v>1089</v>
+      </c>
       <c r="E305" s="27"/>
       <c r="F305" t="s">
-        <v>966</v>
+        <v>910</v>
       </c>
     </row>
     <row r="306" spans="1:6">
       <c r="A306" s="28" t="s">
-        <v>660</v>
+        <v>1273</v>
       </c>
       <c r="B306" s="3" t="s">
         <v>626</v>
@@ -16978,15 +17032,17 @@
       <c r="C306" s="26" t="s">
         <v>508</v>
       </c>
-      <c r="D306" s="26"/>
+      <c r="D306" s="26" t="s">
+        <v>1089</v>
+      </c>
       <c r="E306" s="26"/>
       <c r="F306" t="s">
-        <v>967</v>
+        <v>911</v>
       </c>
     </row>
     <row r="307" spans="1:6">
       <c r="A307" s="28" t="s">
-        <v>661</v>
+        <v>1274</v>
       </c>
       <c r="B307" s="3" t="s">
         <v>626</v>
@@ -16994,15 +17050,17 @@
       <c r="C307" s="26" t="s">
         <v>438</v>
       </c>
-      <c r="D307" s="26"/>
+      <c r="D307" s="26" t="s">
+        <v>1090</v>
+      </c>
       <c r="E307" s="26"/>
       <c r="F307" t="s">
-        <v>968</v>
+        <v>912</v>
       </c>
     </row>
     <row r="308" spans="1:6">
       <c r="A308" s="28" t="s">
-        <v>662</v>
+        <v>1275</v>
       </c>
       <c r="B308" s="3" t="s">
         <v>626</v>
@@ -17010,15 +17068,17 @@
       <c r="C308" s="19" t="s">
         <v>454</v>
       </c>
-      <c r="D308" s="19"/>
+      <c r="D308" s="26" t="s">
+        <v>1090</v>
+      </c>
       <c r="E308" s="19"/>
       <c r="F308" t="s">
-        <v>969</v>
+        <v>913</v>
       </c>
     </row>
     <row r="309" spans="1:6">
       <c r="A309" s="28" t="s">
-        <v>663</v>
+        <v>1276</v>
       </c>
       <c r="B309" s="3" t="s">
         <v>626</v>
@@ -17026,15 +17086,17 @@
       <c r="C309" s="19" t="s">
         <v>455</v>
       </c>
-      <c r="D309" s="19"/>
+      <c r="D309" s="26" t="s">
+        <v>1089</v>
+      </c>
       <c r="E309" s="19"/>
       <c r="F309" t="s">
-        <v>970</v>
+        <v>914</v>
       </c>
     </row>
     <row r="310" spans="1:6">
       <c r="A310" s="28" t="s">
-        <v>664</v>
+        <v>1277</v>
       </c>
       <c r="B310" s="3" t="s">
         <v>626</v>
@@ -17042,15 +17104,17 @@
       <c r="C310" s="26" t="s">
         <v>456</v>
       </c>
-      <c r="D310" s="26"/>
+      <c r="D310" s="26" t="s">
+        <v>1088</v>
+      </c>
       <c r="E310" s="26"/>
       <c r="F310" t="s">
-        <v>971</v>
+        <v>915</v>
       </c>
     </row>
     <row r="311" spans="1:6">
       <c r="A311" s="28" t="s">
-        <v>665</v>
+        <v>1278</v>
       </c>
       <c r="B311" s="3" t="s">
         <v>626</v>
@@ -17058,15 +17122,17 @@
       <c r="C311" s="19" t="s">
         <v>457</v>
       </c>
-      <c r="D311" s="19"/>
+      <c r="D311" s="26" t="s">
+        <v>1091</v>
+      </c>
       <c r="E311" s="19"/>
       <c r="F311" t="s">
-        <v>972</v>
+        <v>916</v>
       </c>
     </row>
     <row r="312" spans="1:6">
       <c r="A312" s="28" t="s">
-        <v>666</v>
+        <v>1279</v>
       </c>
       <c r="B312" s="3" t="s">
         <v>626</v>
@@ -17074,15 +17140,17 @@
       <c r="C312" s="19" t="s">
         <v>458</v>
       </c>
-      <c r="D312" s="19"/>
+      <c r="D312" s="26" t="s">
+        <v>1090</v>
+      </c>
       <c r="E312" s="19"/>
       <c r="F312" t="s">
-        <v>973</v>
+        <v>917</v>
       </c>
     </row>
     <row r="313" spans="1:6">
       <c r="A313" s="28" t="s">
-        <v>667</v>
+        <v>1280</v>
       </c>
       <c r="B313" s="3" t="s">
         <v>626</v>
@@ -17090,15 +17158,17 @@
       <c r="C313" s="19" t="s">
         <v>460</v>
       </c>
-      <c r="D313" s="19"/>
+      <c r="D313" s="26" t="s">
+        <v>1091</v>
+      </c>
       <c r="E313" s="19"/>
       <c r="F313" t="s">
-        <v>974</v>
+        <v>918</v>
       </c>
     </row>
     <row r="314" spans="1:6">
       <c r="A314" s="28" t="s">
-        <v>668</v>
+        <v>1281</v>
       </c>
       <c r="B314" s="3" t="s">
         <v>626</v>
@@ -17106,15 +17176,17 @@
       <c r="C314" s="19" t="s">
         <v>504</v>
       </c>
-      <c r="D314" s="19"/>
+      <c r="D314" s="26" t="s">
+        <v>1091</v>
+      </c>
       <c r="E314" s="19"/>
       <c r="F314" t="s">
-        <v>975</v>
+        <v>919</v>
       </c>
     </row>
     <row r="315" spans="1:6">
       <c r="A315" s="28" t="s">
-        <v>669</v>
+        <v>1282</v>
       </c>
       <c r="B315" s="3" t="s">
         <v>626</v>
@@ -17122,15 +17194,17 @@
       <c r="C315" s="26" t="s">
         <v>459</v>
       </c>
-      <c r="D315" s="26"/>
+      <c r="D315" s="26" t="s">
+        <v>1091</v>
+      </c>
       <c r="E315" s="26"/>
       <c r="F315" t="s">
-        <v>976</v>
+        <v>920</v>
       </c>
     </row>
     <row r="316" spans="1:6">
       <c r="A316" s="28" t="s">
-        <v>670</v>
+        <v>1283</v>
       </c>
       <c r="B316" s="3" t="s">
         <v>626</v>
@@ -17138,15 +17212,17 @@
       <c r="C316" s="26" t="s">
         <v>461</v>
       </c>
-      <c r="D316" s="26"/>
+      <c r="D316" s="26" t="s">
+        <v>1091</v>
+      </c>
       <c r="E316" s="26"/>
       <c r="F316" t="s">
-        <v>977</v>
+        <v>921</v>
       </c>
     </row>
     <row r="317" spans="1:6">
       <c r="A317" s="28" t="s">
-        <v>671</v>
+        <v>1284</v>
       </c>
       <c r="B317" s="3" t="s">
         <v>626</v>
@@ -17154,15 +17230,17 @@
       <c r="C317" s="26" t="s">
         <v>462</v>
       </c>
-      <c r="D317" s="26"/>
+      <c r="D317" s="26" t="s">
+        <v>1091</v>
+      </c>
       <c r="E317" s="26"/>
       <c r="F317" t="s">
-        <v>978</v>
+        <v>922</v>
       </c>
     </row>
     <row r="318" spans="1:6">
       <c r="A318" s="28" t="s">
-        <v>672</v>
+        <v>1285</v>
       </c>
       <c r="B318" s="3" t="s">
         <v>626</v>
@@ -17170,15 +17248,17 @@
       <c r="C318" s="26" t="s">
         <v>463</v>
       </c>
-      <c r="D318" s="26"/>
+      <c r="D318" s="26" t="s">
+        <v>1091</v>
+      </c>
       <c r="E318" s="26"/>
       <c r="F318" t="s">
-        <v>979</v>
+        <v>923</v>
       </c>
     </row>
     <row r="319" spans="1:6">
       <c r="A319" s="28" t="s">
-        <v>673</v>
+        <v>1286</v>
       </c>
       <c r="B319" s="3" t="s">
         <v>626</v>
@@ -17186,15 +17266,17 @@
       <c r="C319" s="26" t="s">
         <v>464</v>
       </c>
-      <c r="D319" s="26"/>
+      <c r="D319" s="26" t="s">
+        <v>1091</v>
+      </c>
       <c r="E319" s="26"/>
       <c r="F319" t="s">
-        <v>980</v>
+        <v>924</v>
       </c>
     </row>
     <row r="320" spans="1:6">
       <c r="A320" s="28" t="s">
-        <v>674</v>
+        <v>1287</v>
       </c>
       <c r="B320" s="3" t="s">
         <v>626</v>
@@ -17202,15 +17284,17 @@
       <c r="C320" s="26" t="s">
         <v>465</v>
       </c>
-      <c r="D320" s="26"/>
+      <c r="D320" s="26" t="s">
+        <v>1090</v>
+      </c>
       <c r="E320" s="26"/>
       <c r="F320" t="s">
-        <v>981</v>
+        <v>925</v>
       </c>
     </row>
     <row r="321" spans="1:6">
       <c r="A321" s="28" t="s">
-        <v>675</v>
+        <v>1288</v>
       </c>
       <c r="B321" s="3" t="s">
         <v>626</v>
@@ -17218,15 +17302,17 @@
       <c r="C321" s="26" t="s">
         <v>466</v>
       </c>
-      <c r="D321" s="26"/>
+      <c r="D321" s="26" t="s">
+        <v>1087</v>
+      </c>
       <c r="E321" s="26"/>
       <c r="F321" s="19" t="s">
-        <v>982</v>
+        <v>926</v>
       </c>
     </row>
     <row r="322" spans="1:6">
       <c r="A322" s="28" t="s">
-        <v>676</v>
+        <v>1289</v>
       </c>
       <c r="B322" s="3" t="s">
         <v>626</v>
@@ -17234,15 +17320,17 @@
       <c r="C322" s="26" t="s">
         <v>467</v>
       </c>
-      <c r="D322" s="26"/>
+      <c r="D322" s="26" t="s">
+        <v>1087</v>
+      </c>
       <c r="E322" s="26"/>
       <c r="F322" t="s">
-        <v>983</v>
+        <v>927</v>
       </c>
     </row>
     <row r="323" spans="1:6">
       <c r="A323" s="28" t="s">
-        <v>677</v>
+        <v>1290</v>
       </c>
       <c r="B323" s="3" t="s">
         <v>626</v>
@@ -17250,15 +17338,17 @@
       <c r="C323" s="26" t="s">
         <v>468</v>
       </c>
-      <c r="D323" s="26"/>
+      <c r="D323" s="26" t="s">
+        <v>1088</v>
+      </c>
       <c r="E323" s="26"/>
       <c r="F323" t="s">
-        <v>984</v>
+        <v>928</v>
       </c>
     </row>
     <row r="324" spans="1:6">
       <c r="A324" s="28" t="s">
-        <v>678</v>
+        <v>1291</v>
       </c>
       <c r="B324" s="3" t="s">
         <v>626</v>
@@ -17266,15 +17356,17 @@
       <c r="C324" s="27" t="s">
         <v>484</v>
       </c>
-      <c r="D324" s="27"/>
+      <c r="D324" s="26" t="s">
+        <v>1089</v>
+      </c>
       <c r="E324" s="27"/>
       <c r="F324" t="s">
-        <v>985</v>
+        <v>929</v>
       </c>
     </row>
     <row r="325" spans="1:6">
       <c r="A325" s="28" t="s">
-        <v>679</v>
+        <v>1292</v>
       </c>
       <c r="B325" s="3" t="s">
         <v>626</v>
@@ -17282,15 +17374,17 @@
       <c r="C325" s="26" t="s">
         <v>485</v>
       </c>
-      <c r="D325" s="26"/>
+      <c r="D325" s="26" t="s">
+        <v>1091</v>
+      </c>
       <c r="E325" s="26"/>
       <c r="F325" t="s">
-        <v>986</v>
+        <v>930</v>
       </c>
     </row>
     <row r="326" spans="1:6">
       <c r="A326" s="28" t="s">
-        <v>680</v>
+        <v>1293</v>
       </c>
       <c r="B326" s="3" t="s">
         <v>626</v>
@@ -17298,15 +17392,17 @@
       <c r="C326" s="19" t="s">
         <v>486</v>
       </c>
-      <c r="D326" s="19"/>
+      <c r="D326" s="26" t="s">
+        <v>1087</v>
+      </c>
       <c r="E326" s="19"/>
       <c r="F326" t="s">
-        <v>987</v>
+        <v>931</v>
       </c>
     </row>
     <row r="327" spans="1:6">
       <c r="A327" s="28" t="s">
-        <v>681</v>
+        <v>1294</v>
       </c>
       <c r="B327" s="3" t="s">
         <v>626</v>
@@ -17314,15 +17410,17 @@
       <c r="C327" s="19" t="s">
         <v>487</v>
       </c>
-      <c r="D327" s="19"/>
+      <c r="D327" s="26" t="s">
+        <v>1087</v>
+      </c>
       <c r="E327" s="19"/>
       <c r="F327" t="s">
-        <v>988</v>
+        <v>932</v>
       </c>
     </row>
     <row r="328" spans="1:6">
       <c r="A328" s="28" t="s">
-        <v>682</v>
+        <v>1295</v>
       </c>
       <c r="B328" s="3" t="s">
         <v>626</v>
@@ -17330,15 +17428,17 @@
       <c r="C328" s="19" t="s">
         <v>488</v>
       </c>
-      <c r="D328" s="19"/>
+      <c r="D328" s="26" t="s">
+        <v>1091</v>
+      </c>
       <c r="E328" s="19"/>
       <c r="F328" t="s">
-        <v>989</v>
+        <v>933</v>
       </c>
     </row>
     <row r="329" spans="1:6">
       <c r="A329" s="28" t="s">
-        <v>683</v>
+        <v>1296</v>
       </c>
       <c r="B329" s="3" t="s">
         <v>626</v>
@@ -17346,15 +17446,17 @@
       <c r="C329" s="19" t="s">
         <v>489</v>
       </c>
-      <c r="D329" s="19"/>
+      <c r="D329" s="26" t="s">
+        <v>1091</v>
+      </c>
       <c r="E329" s="19"/>
       <c r="F329" t="s">
-        <v>990</v>
+        <v>934</v>
       </c>
     </row>
     <row r="330" spans="1:6">
       <c r="A330" s="28" t="s">
-        <v>684</v>
+        <v>1297</v>
       </c>
       <c r="B330" s="3" t="s">
         <v>626</v>
@@ -17362,15 +17464,17 @@
       <c r="C330" s="26" t="s">
         <v>506</v>
       </c>
-      <c r="D330" s="26"/>
+      <c r="D330" s="26" t="s">
+        <v>1091</v>
+      </c>
       <c r="E330" s="26"/>
       <c r="F330" t="s">
-        <v>991</v>
+        <v>935</v>
       </c>
     </row>
     <row r="331" spans="1:6">
       <c r="A331" s="28" t="s">
-        <v>685</v>
+        <v>1298</v>
       </c>
       <c r="B331" s="3" t="s">
         <v>626</v>
@@ -17378,15 +17482,17 @@
       <c r="C331" s="19" t="s">
         <v>496</v>
       </c>
-      <c r="D331" s="19"/>
+      <c r="D331" s="26" t="s">
+        <v>1086</v>
+      </c>
       <c r="E331" s="19"/>
       <c r="F331" t="s">
-        <v>992</v>
+        <v>936</v>
       </c>
     </row>
     <row r="332" spans="1:6">
       <c r="A332" s="28" t="s">
-        <v>686</v>
+        <v>1299</v>
       </c>
       <c r="B332" s="3" t="s">
         <v>626</v>
@@ -17394,15 +17500,17 @@
       <c r="C332" s="19" t="s">
         <v>498</v>
       </c>
-      <c r="D332" s="19"/>
+      <c r="D332" s="26" t="s">
+        <v>1091</v>
+      </c>
       <c r="E332" s="19"/>
       <c r="F332" t="s">
-        <v>993</v>
+        <v>937</v>
       </c>
     </row>
     <row r="333" spans="1:6">
       <c r="A333" s="28" t="s">
-        <v>687</v>
+        <v>1300</v>
       </c>
       <c r="B333" s="3" t="s">
         <v>626</v>
@@ -17410,15 +17518,17 @@
       <c r="C333" s="18" t="s">
         <v>500</v>
       </c>
-      <c r="D333" s="18"/>
+      <c r="D333" s="26" t="s">
+        <v>1090</v>
+      </c>
       <c r="E333" s="18"/>
       <c r="F333" s="6" t="s">
-        <v>994</v>
+        <v>938</v>
       </c>
     </row>
     <row r="334" spans="1:6">
       <c r="A334" s="28" t="s">
-        <v>688</v>
+        <v>1301</v>
       </c>
       <c r="B334" s="3" t="s">
         <v>626</v>
@@ -17426,10 +17536,12 @@
       <c r="C334" s="27" t="s">
         <v>502</v>
       </c>
-      <c r="D334" s="27"/>
+      <c r="D334" s="26" t="s">
+        <v>1090</v>
+      </c>
       <c r="E334" s="27"/>
       <c r="F334" s="6" t="s">
-        <v>995</v>
+        <v>939</v>
       </c>
     </row>
   </sheetData>

--- a/slackbuilds/sb_migr.xlsx
+++ b/slackbuilds/sb_migr.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\projects.new\sh\cvstogit\slackbuilds\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30061DBD-77FA-43A6-9EFF-D1BDD437EFB3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A684C72C-B0F2-4672-AB9D-638FC34FAD61}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2261" uniqueCount="1302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2291" uniqueCount="1320">
   <si>
     <t>Package</t>
   </si>
@@ -3944,6 +3944,60 @@
   </si>
   <si>
     <t>2018-10-23 14:22:02 +0300</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/open-vm-tools.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>open-vm-tools</t>
+  </si>
+  <si>
+    <t>numactl</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/numactl.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>2020-04-19 11:29:54 +0300</t>
+  </si>
+  <si>
+    <t>2020-05-24 10:04:20 +0300</t>
+  </si>
+  <si>
+    <t>2020-06-01 18:31:11 +0300</t>
+  </si>
+  <si>
+    <t>xrdp</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/xrdp.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>2020-04-25 10:35:22 +0300</t>
+  </si>
+  <si>
+    <t>xorgxrdp</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/xorgxrdp.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>ipcalc</t>
+  </si>
+  <si>
+    <t>2020-08-11 18:45:29 +0300</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/ipcalc.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>2020-08-11 18:18:05 +0300</t>
+  </si>
+  <si>
+    <t>libmaxminddb</t>
+  </si>
+  <si>
+    <t>https://github.com/gdsotirov/libmaxminddb.SlackBuild.git</t>
   </si>
 </sst>
 </file>
@@ -11606,10 +11660,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{495E7B31-8439-4BBC-8206-DAF1FFDAE945}">
-  <dimension ref="A1:F334"/>
+  <dimension ref="A1:F340"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A318" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D334" sqref="D334"/>
+    <sheetView tabSelected="1" topLeftCell="A317" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B340" sqref="B340"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -16498,7 +16552,7 @@
         <v>404</v>
       </c>
       <c r="D276" s="26" t="s">
-        <v>1090</v>
+        <v>986</v>
       </c>
       <c r="E276" s="19"/>
       <c r="F276" t="s">
@@ -17542,6 +17596,110 @@
       <c r="E334" s="27"/>
       <c r="F334" s="6" t="s">
         <v>939</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6">
+      <c r="A335" s="28" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B335" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="C335" s="27" t="s">
+        <v>1309</v>
+      </c>
+      <c r="D335" s="26" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E335" s="27"/>
+      <c r="F335" s="6" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6">
+      <c r="A336" s="28" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B336" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="C336" s="27" t="s">
+        <v>1312</v>
+      </c>
+      <c r="D336" s="26" t="s">
+        <v>1091</v>
+      </c>
+      <c r="E336" s="27"/>
+      <c r="F336" s="6" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6">
+      <c r="A337" s="28" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B337" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="C337" s="18" t="s">
+        <v>1303</v>
+      </c>
+      <c r="D337" s="26" t="s">
+        <v>1089</v>
+      </c>
+      <c r="F337" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6">
+      <c r="A338" s="28" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B338" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="C338" s="18" t="s">
+        <v>1304</v>
+      </c>
+      <c r="D338" s="26" t="s">
+        <v>990</v>
+      </c>
+      <c r="F338" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6">
+      <c r="A339" s="28" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B339" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="C339" s="27" t="s">
+        <v>1318</v>
+      </c>
+      <c r="D339" s="26" t="s">
+        <v>1090</v>
+      </c>
+      <c r="F339" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6">
+      <c r="A340" s="28" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B340" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="C340" s="27" t="s">
+        <v>1314</v>
+      </c>
+      <c r="D340" s="26" t="s">
+        <v>1090</v>
+      </c>
+      <c r="F340" t="s">
+        <v>1316</v>
       </c>
     </row>
   </sheetData>

--- a/slackbuilds/sb_migr.xlsx
+++ b/slackbuilds/sb_migr.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\projects.new\sh\cvstogit\slackbuilds\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A684C72C-B0F2-4672-AB9D-638FC34FAD61}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01154386-1C11-4E08-895F-187122684BA4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">List!$A$1:$G$311</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Revisions!$A$1:$F$334</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Revisions!$A$1:$F$345</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2291" uniqueCount="1320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2316" uniqueCount="1336">
   <si>
     <t>Package</t>
   </si>
@@ -3998,6 +3998,54 @@
   </si>
   <si>
     <t>https://github.com/gdsotirov/libmaxminddb.SlackBuild.git</t>
+  </si>
+  <si>
+    <t>2009-01-17 08:43:23 +0200</t>
+  </si>
+  <si>
+    <t>2009-09-06 18:05:37 +0300</t>
+  </si>
+  <si>
+    <t>2011-02-24 22:12:48 +0200</t>
+  </si>
+  <si>
+    <t>Remove comented permission lines</t>
+  </si>
+  <si>
+    <t>Update for Slackware 13, man and info pages, source permissions</t>
+  </si>
+  <si>
+    <t>Optimise even more by default</t>
+  </si>
+  <si>
+    <t>2011-05-01 18:35:59 +0300</t>
+  </si>
+  <si>
+    <t>Touch for Slackware 13.37</t>
+  </si>
+  <si>
+    <t>slack-package.conf-3</t>
+  </si>
+  <si>
+    <t>slack-package.conf-4</t>
+  </si>
+  <si>
+    <t>slack-package.conf-5</t>
+  </si>
+  <si>
+    <t>slack-package.conf-6</t>
+  </si>
+  <si>
+    <t>2007-07-09 22:01:27 +0300</t>
+  </si>
+  <si>
+    <t>move</t>
+  </si>
+  <si>
+    <t>Move config to root directory</t>
+  </si>
+  <si>
+    <t>etc/slack-package.conf:slack-package.conf</t>
   </si>
 </sst>
 </file>
@@ -11660,17 +11708,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{495E7B31-8439-4BBC-8206-DAF1FFDAE945}">
-  <dimension ref="A1:F340"/>
+  <dimension ref="A1:F345"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A317" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B340" sqref="B340"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="24.5546875" style="28" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="44.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="57.88671875" bestFit="1" customWidth="1"/>
@@ -12972,4738 +13020,4823 @@
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="28" t="s">
-        <v>1016</v>
+        <v>1332</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>626</v>
+        <v>1333</v>
       </c>
       <c r="C75" s="19" t="s">
-        <v>86</v>
+        <v>1335</v>
       </c>
       <c r="D75" s="18" t="s">
         <v>1007</v>
       </c>
-      <c r="E75" s="19"/>
-      <c r="F75" t="s">
-        <v>690</v>
+      <c r="E75" s="33" t="s">
+        <v>1334</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="28" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="C76" s="26" t="s">
-        <v>542</v>
+      <c r="C76" s="19" t="s">
+        <v>86</v>
       </c>
       <c r="D76" s="18" t="s">
         <v>1007</v>
       </c>
-      <c r="E76" s="26"/>
+      <c r="E76" s="19"/>
       <c r="F76" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="28" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>626</v>
       </c>
       <c r="C77" s="26" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="D77" s="18" t="s">
         <v>1007</v>
       </c>
       <c r="E77" s="26"/>
       <c r="F77" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="28" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="C78" s="18" t="s">
-        <v>547</v>
+      <c r="C78" s="26" t="s">
+        <v>546</v>
       </c>
       <c r="D78" s="18" t="s">
         <v>1007</v>
       </c>
-      <c r="E78" s="18"/>
-      <c r="F78" s="6" t="s">
-        <v>694</v>
+      <c r="E78" s="26"/>
+      <c r="F78" t="s">
+        <v>692</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="28" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="C79" s="19" t="s">
-        <v>88</v>
+      <c r="C79" s="18" t="s">
+        <v>547</v>
       </c>
       <c r="D79" s="18" t="s">
         <v>1007</v>
       </c>
-      <c r="E79" s="19"/>
-      <c r="F79" t="s">
-        <v>695</v>
+      <c r="E79" s="18"/>
+      <c r="F79" s="6" t="s">
+        <v>694</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="28" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>626</v>
       </c>
       <c r="C80" s="19" t="s">
-        <v>549</v>
+        <v>88</v>
       </c>
       <c r="D80" s="18" t="s">
-        <v>986</v>
+        <v>1007</v>
       </c>
       <c r="E80" s="19"/>
       <c r="F80" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="28" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="C81" s="18" t="s">
-        <v>548</v>
+      <c r="C81" s="19" t="s">
+        <v>549</v>
       </c>
       <c r="D81" s="18" t="s">
-        <v>1007</v>
-      </c>
-      <c r="E81" s="18"/>
-      <c r="F81" s="6" t="s">
-        <v>697</v>
+        <v>986</v>
+      </c>
+      <c r="E81" s="19"/>
+      <c r="F81" t="s">
+        <v>696</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="28" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="C82" s="19" t="s">
-        <v>550</v>
+      <c r="C82" s="18" t="s">
+        <v>548</v>
       </c>
       <c r="D82" s="18" t="s">
         <v>1007</v>
       </c>
-      <c r="E82" s="19"/>
-      <c r="F82" t="s">
-        <v>698</v>
+      <c r="E82" s="18"/>
+      <c r="F82" s="6" t="s">
+        <v>697</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="28" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>626</v>
       </c>
       <c r="C83" s="19" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D83" s="18" t="s">
         <v>1007</v>
       </c>
       <c r="E83" s="19"/>
       <c r="F83" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="28" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>626</v>
       </c>
       <c r="C84" s="19" t="s">
-        <v>97</v>
+        <v>551</v>
       </c>
       <c r="D84" s="18" t="s">
         <v>1007</v>
       </c>
       <c r="E84" s="19"/>
       <c r="F84" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="28" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>626</v>
       </c>
       <c r="C85" s="19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D85" s="18" t="s">
         <v>1007</v>
       </c>
       <c r="E85" s="19"/>
       <c r="F85" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="28" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="C86" s="18" t="s">
-        <v>104</v>
+      <c r="C86" s="19" t="s">
+        <v>98</v>
       </c>
       <c r="D86" s="18" t="s">
-        <v>986</v>
-      </c>
-      <c r="E86" s="18"/>
-      <c r="F86" s="6" t="s">
-        <v>702</v>
+        <v>1007</v>
+      </c>
+      <c r="E86" s="19"/>
+      <c r="F86" t="s">
+        <v>701</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="28" t="s">
-        <v>1105</v>
+        <v>1027</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>987</v>
+        <v>626</v>
       </c>
       <c r="C87" s="18" t="s">
         <v>104</v>
       </c>
       <c r="D87" s="18" t="s">
-        <v>991</v>
+        <v>986</v>
       </c>
       <c r="E87" s="18"/>
-      <c r="F87" s="6"/>
+      <c r="F87" s="6" t="s">
+        <v>702</v>
+      </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="28" t="s">
-        <v>1028</v>
+        <v>1105</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>626</v>
-      </c>
-      <c r="C88" s="26" t="s">
-        <v>552</v>
-      </c>
-      <c r="D88" s="26" t="s">
-        <v>632</v>
-      </c>
-      <c r="E88" s="26"/>
-      <c r="F88" t="s">
-        <v>703</v>
-      </c>
+        <v>987</v>
+      </c>
+      <c r="C88" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="D88" s="18" t="s">
+        <v>991</v>
+      </c>
+      <c r="E88" s="18"/>
+      <c r="F88" s="6"/>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="28" t="s">
-        <v>1106</v>
+        <v>1028</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>987</v>
+        <v>626</v>
       </c>
       <c r="C89" s="26" t="s">
         <v>552</v>
       </c>
       <c r="D89" s="26" t="s">
-        <v>991</v>
+        <v>632</v>
       </c>
       <c r="E89" s="26"/>
+      <c r="F89" t="s">
+        <v>703</v>
+      </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="28" t="s">
-        <v>1035</v>
+        <v>1106</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>626</v>
-      </c>
-      <c r="C90" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="D90" s="18" t="s">
-        <v>986</v>
-      </c>
-      <c r="E90" s="19"/>
-      <c r="F90" t="s">
-        <v>704</v>
-      </c>
+        <v>987</v>
+      </c>
+      <c r="C90" s="26" t="s">
+        <v>552</v>
+      </c>
+      <c r="D90" s="26" t="s">
+        <v>991</v>
+      </c>
+      <c r="E90" s="26"/>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="28" t="s">
-        <v>1107</v>
+        <v>1035</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>987</v>
+        <v>626</v>
       </c>
       <c r="C91" s="19" t="s">
         <v>124</v>
       </c>
       <c r="D91" s="18" t="s">
-        <v>991</v>
+        <v>986</v>
       </c>
       <c r="E91" s="19"/>
+      <c r="F91" t="s">
+        <v>704</v>
+      </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="28" t="s">
-        <v>1036</v>
+        <v>1107</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>626</v>
+        <v>987</v>
       </c>
       <c r="C92" s="19" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="D92" s="18" t="s">
-        <v>1007</v>
+        <v>991</v>
       </c>
       <c r="E92" s="19"/>
-      <c r="F92" t="s">
-        <v>705</v>
-      </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="28" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>626</v>
       </c>
       <c r="C93" s="19" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D93" s="18" t="s">
         <v>1007</v>
       </c>
       <c r="E93" s="19"/>
       <c r="F93" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="28" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="C94" s="18" t="s">
-        <v>109</v>
+      <c r="C94" s="19" t="s">
+        <v>106</v>
       </c>
       <c r="D94" s="18" t="s">
         <v>1007</v>
       </c>
-      <c r="E94" s="18"/>
+      <c r="E94" s="19"/>
       <c r="F94" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="28" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="B95" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="C95" s="19" t="s">
-        <v>108</v>
+      <c r="C95" s="18" t="s">
+        <v>109</v>
       </c>
       <c r="D95" s="18" t="s">
         <v>1007</v>
       </c>
-      <c r="E95" s="19"/>
+      <c r="E95" s="18"/>
       <c r="F95" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="28" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>626</v>
       </c>
       <c r="C96" s="19" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D96" s="18" t="s">
         <v>1007</v>
       </c>
       <c r="E96" s="19"/>
       <c r="F96" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="28" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="C97" s="18" t="s">
-        <v>113</v>
+      <c r="C97" s="19" t="s">
+        <v>112</v>
       </c>
       <c r="D97" s="18" t="s">
         <v>1007</v>
       </c>
-      <c r="E97" s="18"/>
-      <c r="F97" s="6" t="s">
-        <v>711</v>
+      <c r="E97" s="19"/>
+      <c r="F97" t="s">
+        <v>709</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="28" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="C98" s="19" t="s">
-        <v>127</v>
+      <c r="C98" s="18" t="s">
+        <v>113</v>
       </c>
       <c r="D98" s="18" t="s">
         <v>1007</v>
       </c>
-      <c r="E98" s="19"/>
-      <c r="F98" t="s">
-        <v>712</v>
+      <c r="E98" s="18"/>
+      <c r="F98" s="6" t="s">
+        <v>711</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="28" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="C99" s="18" t="s">
-        <v>129</v>
+      <c r="C99" s="19" t="s">
+        <v>127</v>
       </c>
       <c r="D99" s="18" t="s">
         <v>1007</v>
       </c>
-      <c r="E99" s="18"/>
+      <c r="E99" s="19"/>
       <c r="F99" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="28" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="C100" s="19" t="s">
-        <v>169</v>
+      <c r="C100" s="18" t="s">
+        <v>129</v>
       </c>
       <c r="D100" s="18" t="s">
         <v>1007</v>
       </c>
-      <c r="E100" s="19"/>
+      <c r="E100" s="18"/>
       <c r="F100" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="28" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="C101" s="18" t="s">
-        <v>131</v>
+      <c r="C101" s="19" t="s">
+        <v>169</v>
       </c>
       <c r="D101" s="18" t="s">
         <v>1007</v>
       </c>
-      <c r="E101" s="18"/>
+      <c r="E101" s="19"/>
       <c r="F101" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="28" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="C102" s="19" t="s">
-        <v>133</v>
+      <c r="C102" s="18" t="s">
+        <v>131</v>
       </c>
       <c r="D102" s="18" t="s">
         <v>1007</v>
       </c>
-      <c r="E102" s="19"/>
+      <c r="E102" s="18"/>
       <c r="F102" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="28" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="C103" s="26" t="s">
-        <v>577</v>
+      <c r="C103" s="19" t="s">
+        <v>133</v>
       </c>
       <c r="D103" s="18" t="s">
         <v>1007</v>
       </c>
-      <c r="E103" s="26"/>
+      <c r="E103" s="19"/>
       <c r="F103" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="28" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>626</v>
       </c>
       <c r="C104" s="26" t="s">
-        <v>555</v>
+        <v>577</v>
       </c>
       <c r="D104" s="18" t="s">
         <v>1007</v>
       </c>
       <c r="E104" s="26"/>
       <c r="F104" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="28" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="C105" s="19" t="s">
-        <v>135</v>
+      <c r="C105" s="26" t="s">
+        <v>555</v>
       </c>
       <c r="D105" s="18" t="s">
         <v>1007</v>
       </c>
-      <c r="E105" s="19"/>
+      <c r="E105" s="26"/>
       <c r="F105" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="28" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>626</v>
       </c>
       <c r="C106" s="19" t="s">
-        <v>566</v>
+        <v>135</v>
       </c>
       <c r="D106" s="18" t="s">
         <v>1007</v>
       </c>
       <c r="E106" s="19"/>
       <c r="F106" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="28" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="B107" s="3" t="s">
         <v>626</v>
       </c>
       <c r="C107" s="19" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D107" s="18" t="s">
         <v>1007</v>
       </c>
       <c r="E107" s="19"/>
       <c r="F107" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="28" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="B108" s="3" t="s">
         <v>626</v>
       </c>
       <c r="C108" s="19" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="D108" s="18" t="s">
         <v>1007</v>
       </c>
       <c r="E108" s="19"/>
       <c r="F108" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="28" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="B109" s="3" t="s">
         <v>626</v>
       </c>
       <c r="C109" s="19" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D109" s="18" t="s">
         <v>1007</v>
       </c>
       <c r="E109" s="19"/>
       <c r="F109" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="28" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="B110" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="C110" s="26" t="s">
-        <v>538</v>
+      <c r="C110" s="19" t="s">
+        <v>579</v>
       </c>
       <c r="D110" s="18" t="s">
         <v>1007</v>
       </c>
-      <c r="E110" s="26"/>
+      <c r="E110" s="19"/>
       <c r="F110" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="28" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="B111" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="C111" s="19" t="s">
-        <v>143</v>
+      <c r="C111" s="26" t="s">
+        <v>538</v>
       </c>
       <c r="D111" s="18" t="s">
         <v>1007</v>
       </c>
-      <c r="E111" s="19"/>
+      <c r="E111" s="26"/>
       <c r="F111" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="28" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="B112" s="3" t="s">
         <v>626</v>
       </c>
       <c r="C112" s="19" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D112" s="18" t="s">
         <v>1007</v>
       </c>
       <c r="E112" s="19"/>
       <c r="F112" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="28" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="B113" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="C113" s="26" t="s">
-        <v>580</v>
+      <c r="C113" s="19" t="s">
+        <v>145</v>
       </c>
       <c r="D113" s="18" t="s">
         <v>1007</v>
       </c>
-      <c r="E113" s="26"/>
+      <c r="E113" s="19"/>
       <c r="F113" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="28" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="B114" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="C114" s="19" t="s">
-        <v>530</v>
+      <c r="C114" s="26" t="s">
+        <v>580</v>
       </c>
       <c r="D114" s="18" t="s">
         <v>1007</v>
       </c>
-      <c r="E114" s="19"/>
+      <c r="E114" s="26"/>
       <c r="F114" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="28" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="C115" s="26" t="s">
-        <v>581</v>
+      <c r="C115" s="19" t="s">
+        <v>530</v>
       </c>
       <c r="D115" s="18" t="s">
         <v>1007</v>
       </c>
-      <c r="E115" s="26"/>
+      <c r="E115" s="19"/>
       <c r="F115" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="28" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="C116" s="19" t="s">
-        <v>149</v>
+      <c r="C116" s="26" t="s">
+        <v>581</v>
       </c>
       <c r="D116" s="18" t="s">
         <v>1007</v>
       </c>
-      <c r="E116" s="19"/>
+      <c r="E116" s="26"/>
       <c r="F116" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="28" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="B117" s="3" t="s">
         <v>626</v>
       </c>
       <c r="C117" s="19" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="D117" s="18" t="s">
         <v>1007</v>
       </c>
       <c r="E117" s="19"/>
       <c r="F117" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118" s="28" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="B118" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="C118" s="26" t="s">
-        <v>140</v>
+      <c r="C118" s="19" t="s">
+        <v>139</v>
       </c>
       <c r="D118" s="18" t="s">
         <v>1007</v>
       </c>
-      <c r="E118" s="26"/>
+      <c r="E118" s="19"/>
       <c r="F118" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119" s="28" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="B119" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="C119" s="19" t="s">
-        <v>162</v>
+      <c r="C119" s="26" t="s">
+        <v>140</v>
       </c>
       <c r="D119" s="18" t="s">
         <v>1007</v>
       </c>
-      <c r="E119" s="19"/>
+      <c r="E119" s="26"/>
       <c r="F119" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120" s="28" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="B120" s="3" t="s">
         <v>626</v>
       </c>
       <c r="C120" s="19" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="D120" s="18" t="s">
         <v>1007</v>
       </c>
       <c r="E120" s="19"/>
       <c r="F120" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="28" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B121" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="C121" s="26" t="s">
-        <v>526</v>
+      <c r="C121" s="19" t="s">
+        <v>151</v>
       </c>
       <c r="D121" s="18" t="s">
         <v>1007</v>
       </c>
-      <c r="E121" s="26"/>
+      <c r="E121" s="19"/>
       <c r="F121" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="28" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="B122" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="C122" s="19" t="s">
-        <v>150</v>
+      <c r="C122" s="26" t="s">
+        <v>526</v>
       </c>
       <c r="D122" s="18" t="s">
         <v>1007</v>
       </c>
-      <c r="E122" s="19"/>
+      <c r="E122" s="26"/>
       <c r="F122" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="28" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="B123" s="3" t="s">
         <v>626</v>
       </c>
       <c r="C123" s="19" t="s">
-        <v>524</v>
+        <v>150</v>
       </c>
       <c r="D123" s="18" t="s">
         <v>1007</v>
       </c>
       <c r="E123" s="19"/>
       <c r="F123" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="28" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B124" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="C124" s="26" t="s">
-        <v>582</v>
+      <c r="C124" s="19" t="s">
+        <v>524</v>
       </c>
       <c r="D124" s="18" t="s">
         <v>1007</v>
       </c>
-      <c r="E124" s="26"/>
+      <c r="E124" s="19"/>
       <c r="F124" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="28" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B125" s="3" t="s">
         <v>626</v>
       </c>
       <c r="C125" s="26" t="s">
-        <v>570</v>
+        <v>582</v>
       </c>
       <c r="D125" s="18" t="s">
         <v>1007</v>
       </c>
       <c r="E125" s="26"/>
       <c r="F125" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="28" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B126" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="C126" s="19" t="s">
-        <v>572</v>
+      <c r="C126" s="26" t="s">
+        <v>570</v>
       </c>
       <c r="D126" s="18" t="s">
         <v>1007</v>
       </c>
-      <c r="E126" s="19"/>
+      <c r="E126" s="26"/>
       <c r="F126" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="28" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="B127" s="3" t="s">
         <v>626</v>
       </c>
       <c r="C127" s="19" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D127" s="18" t="s">
         <v>1007</v>
       </c>
       <c r="E127" s="19"/>
       <c r="F127" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128" s="28" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="B128" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="C128" s="26" t="s">
-        <v>583</v>
+      <c r="C128" s="19" t="s">
+        <v>574</v>
       </c>
       <c r="D128" s="18" t="s">
         <v>1007</v>
       </c>
-      <c r="E128" s="26"/>
+      <c r="E128" s="19"/>
       <c r="F128" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129" s="28" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="B129" s="3" t="s">
         <v>626</v>
       </c>
       <c r="C129" s="26" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D129" s="18" t="s">
         <v>1007</v>
       </c>
       <c r="E129" s="26"/>
       <c r="F129" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="130" spans="1:6">
       <c r="A130" s="28" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="B130" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="C130" s="19" t="s">
-        <v>156</v>
+      <c r="C130" s="26" t="s">
+        <v>584</v>
       </c>
       <c r="D130" s="18" t="s">
         <v>1007</v>
       </c>
-      <c r="E130" s="19"/>
+      <c r="E130" s="26"/>
       <c r="F130" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="131" spans="1:6">
       <c r="A131" s="28" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="B131" s="3" t="s">
         <v>626</v>
       </c>
       <c r="C131" s="19" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D131" s="18" t="s">
         <v>1007</v>
       </c>
       <c r="E131" s="19"/>
       <c r="F131" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="132" spans="1:6">
       <c r="A132" s="28" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B132" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="C132" s="18" t="s">
-        <v>160</v>
+      <c r="C132" s="19" t="s">
+        <v>158</v>
       </c>
       <c r="D132" s="18" t="s">
         <v>1007</v>
       </c>
-      <c r="E132" s="18"/>
-      <c r="F132" s="6" t="s">
-        <v>747</v>
+      <c r="E132" s="19"/>
+      <c r="F132" t="s">
+        <v>746</v>
       </c>
     </row>
     <row r="133" spans="1:6">
       <c r="A133" s="28" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="B133" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="C133" s="26" t="s">
-        <v>594</v>
+      <c r="C133" s="18" t="s">
+        <v>160</v>
       </c>
       <c r="D133" s="18" t="s">
         <v>1007</v>
       </c>
-      <c r="E133" s="26"/>
-      <c r="F133" t="s">
-        <v>748</v>
+      <c r="E133" s="18"/>
+      <c r="F133" s="6" t="s">
+        <v>747</v>
       </c>
     </row>
     <row r="134" spans="1:6">
       <c r="A134" s="28" t="s">
-        <v>1097</v>
+        <v>1077</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>1033</v>
-      </c>
-      <c r="C134" s="19"/>
+        <v>626</v>
+      </c>
+      <c r="C134" s="26" t="s">
+        <v>594</v>
+      </c>
       <c r="D134" s="18" t="s">
-        <v>1034</v>
+        <v>1007</v>
       </c>
       <c r="E134" s="26"/>
+      <c r="F134" t="s">
+        <v>748</v>
+      </c>
     </row>
     <row r="135" spans="1:6">
       <c r="A135" s="28" t="s">
-        <v>1143</v>
+        <v>1097</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>626</v>
-      </c>
-      <c r="C135" s="19" t="s">
-        <v>163</v>
-      </c>
+        <v>1033</v>
+      </c>
+      <c r="C135" s="19"/>
       <c r="D135" s="18" t="s">
         <v>1034</v>
       </c>
-      <c r="E135" s="19"/>
-      <c r="F135" t="s">
-        <v>749</v>
-      </c>
+      <c r="E135" s="26"/>
     </row>
     <row r="136" spans="1:6">
       <c r="A136" s="28" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="B136" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="C136" s="26" t="s">
-        <v>598</v>
+      <c r="C136" s="19" t="s">
+        <v>163</v>
       </c>
       <c r="D136" s="18" t="s">
         <v>1034</v>
       </c>
-      <c r="E136" s="26"/>
+      <c r="E136" s="19"/>
       <c r="F136" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="137" spans="1:6">
       <c r="A137" s="28" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="B137" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="C137" s="19" t="s">
-        <v>167</v>
+      <c r="C137" s="26" t="s">
+        <v>598</v>
       </c>
       <c r="D137" s="18" t="s">
         <v>1034</v>
       </c>
-      <c r="E137" s="19"/>
+      <c r="E137" s="26"/>
       <c r="F137" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="138" spans="1:6">
       <c r="A138" s="28" t="s">
-        <v>1108</v>
+        <v>1145</v>
       </c>
       <c r="B138" s="3" t="s">
         <v>626</v>
       </c>
       <c r="C138" s="19" t="s">
-        <v>251</v>
+        <v>167</v>
       </c>
       <c r="D138" s="18" t="s">
         <v>1034</v>
       </c>
       <c r="E138" s="19"/>
       <c r="F138" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="139" spans="1:6">
       <c r="A139" s="28" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="B139" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="C139" s="26" t="s">
-        <v>170</v>
+      <c r="C139" s="19" t="s">
+        <v>251</v>
       </c>
       <c r="D139" s="18" t="s">
         <v>1034</v>
       </c>
-      <c r="E139" s="26"/>
+      <c r="E139" s="19"/>
       <c r="F139" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="140" spans="1:6">
       <c r="A140" s="28" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="B140" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="C140" s="27" t="s">
-        <v>171</v>
+      <c r="C140" s="26" t="s">
+        <v>170</v>
       </c>
       <c r="D140" s="18" t="s">
         <v>1034</v>
       </c>
-      <c r="E140" s="27"/>
+      <c r="E140" s="26"/>
       <c r="F140" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="141" spans="1:6">
       <c r="A141" s="28" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="B141" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="C141" s="19" t="s">
-        <v>172</v>
+      <c r="C141" s="27" t="s">
+        <v>171</v>
       </c>
       <c r="D141" s="18" t="s">
         <v>1034</v>
       </c>
-      <c r="E141" s="19"/>
+      <c r="E141" s="27"/>
       <c r="F141" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="142" spans="1:6">
       <c r="A142" s="28" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="B142" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="C142" s="26" t="s">
-        <v>600</v>
+      <c r="C142" s="19" t="s">
+        <v>172</v>
       </c>
       <c r="D142" s="18" t="s">
         <v>1034</v>
       </c>
-      <c r="E142" s="26"/>
+      <c r="E142" s="19"/>
       <c r="F142" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="143" spans="1:6">
       <c r="A143" s="28" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="B143" s="3" t="s">
         <v>626</v>
       </c>
       <c r="C143" s="26" t="s">
-        <v>173</v>
+        <v>600</v>
       </c>
       <c r="D143" s="18" t="s">
         <v>1034</v>
       </c>
       <c r="E143" s="26"/>
       <c r="F143" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="144" spans="1:6">
       <c r="A144" s="28" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="B144" s="3" t="s">
         <v>626</v>
       </c>
       <c r="C144" s="26" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="D144" s="18" t="s">
         <v>1034</v>
       </c>
       <c r="E144" s="26"/>
       <c r="F144" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="145" spans="1:6">
       <c r="A145" s="28" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="B145" s="3" t="s">
         <v>626</v>
       </c>
       <c r="C145" s="26" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="D145" s="18" t="s">
         <v>1034</v>
       </c>
       <c r="E145" s="26"/>
       <c r="F145" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="146" spans="1:6">
       <c r="A146" s="28" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="B146" s="3" t="s">
         <v>626</v>
       </c>
       <c r="C146" s="26" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D146" s="18" t="s">
         <v>1034</v>
       </c>
       <c r="E146" s="26"/>
       <c r="F146" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="147" spans="1:6">
       <c r="A147" s="28" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="B147" s="3" t="s">
         <v>626</v>
       </c>
       <c r="C147" s="26" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D147" s="18" t="s">
         <v>1034</v>
       </c>
       <c r="E147" s="26"/>
       <c r="F147" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="148" spans="1:6">
       <c r="A148" s="28" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="B148" s="3" t="s">
         <v>626</v>
       </c>
       <c r="C148" s="26" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="D148" s="18" t="s">
         <v>1034</v>
       </c>
       <c r="E148" s="26"/>
       <c r="F148" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="149" spans="1:6">
       <c r="A149" s="28" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="B149" s="3" t="s">
         <v>626</v>
       </c>
       <c r="C149" s="26" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D149" s="18" t="s">
         <v>1034</v>
       </c>
       <c r="E149" s="26"/>
       <c r="F149" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="150" spans="1:6">
       <c r="A150" s="28" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="B150" s="3" t="s">
         <v>626</v>
       </c>
       <c r="C150" s="26" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D150" s="18" t="s">
         <v>1034</v>
       </c>
       <c r="E150" s="26"/>
       <c r="F150" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="151" spans="1:6">
       <c r="A151" s="28" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="B151" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="C151" s="19" t="s">
-        <v>186</v>
+      <c r="C151" s="26" t="s">
+        <v>184</v>
       </c>
       <c r="D151" s="18" t="s">
         <v>1034</v>
       </c>
-      <c r="E151" s="19"/>
+      <c r="E151" s="26"/>
       <c r="F151" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="152" spans="1:6">
       <c r="A152" s="28" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="B152" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="C152" s="26" t="s">
-        <v>187</v>
+      <c r="C152" s="19" t="s">
+        <v>186</v>
       </c>
       <c r="D152" s="18" t="s">
         <v>1034</v>
       </c>
-      <c r="E152" s="26"/>
+      <c r="E152" s="19"/>
       <c r="F152" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="153" spans="1:6">
       <c r="A153" s="28" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="B153" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="C153" s="27" t="s">
-        <v>188</v>
+      <c r="C153" s="26" t="s">
+        <v>187</v>
       </c>
       <c r="D153" s="18" t="s">
         <v>1034</v>
       </c>
-      <c r="E153" s="27"/>
+      <c r="E153" s="26"/>
       <c r="F153" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="154" spans="1:6">
       <c r="A154" s="28" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="B154" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="C154" s="26" t="s">
-        <v>192</v>
+      <c r="C154" s="27" t="s">
+        <v>188</v>
       </c>
       <c r="D154" s="18" t="s">
         <v>1034</v>
       </c>
-      <c r="E154" s="26"/>
+      <c r="E154" s="27"/>
       <c r="F154" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="155" spans="1:6">
       <c r="A155" s="28" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="B155" s="3" t="s">
         <v>626</v>
       </c>
       <c r="C155" s="26" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D155" s="18" t="s">
         <v>1034</v>
       </c>
       <c r="E155" s="26"/>
       <c r="F155" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="156" spans="1:6">
       <c r="A156" s="28" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="B156" s="3" t="s">
         <v>626</v>
       </c>
       <c r="C156" s="26" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D156" s="18" t="s">
         <v>1034</v>
       </c>
       <c r="E156" s="26"/>
       <c r="F156" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="157" spans="1:6">
       <c r="A157" s="28" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="B157" s="3" t="s">
         <v>626</v>
       </c>
       <c r="C157" s="26" t="s">
-        <v>604</v>
+        <v>191</v>
       </c>
       <c r="D157" s="18" t="s">
         <v>1034</v>
       </c>
       <c r="E157" s="26"/>
       <c r="F157" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="158" spans="1:6">
       <c r="A158" s="28" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="B158" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="C158" s="19" t="s">
-        <v>602</v>
+      <c r="C158" s="26" t="s">
+        <v>604</v>
       </c>
       <c r="D158" s="18" t="s">
         <v>1034</v>
       </c>
-      <c r="E158" s="19"/>
+      <c r="E158" s="26"/>
       <c r="F158" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="159" spans="1:6">
       <c r="A159" s="28" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="B159" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="C159" s="26" t="s">
-        <v>205</v>
+      <c r="C159" s="19" t="s">
+        <v>602</v>
       </c>
       <c r="D159" s="18" t="s">
         <v>1034</v>
       </c>
-      <c r="E159" s="26"/>
+      <c r="E159" s="19"/>
       <c r="F159" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="160" spans="1:6">
       <c r="A160" s="28" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="B160" s="3" t="s">
         <v>626</v>
       </c>
       <c r="C160" s="26" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D160" s="18" t="s">
         <v>1034</v>
       </c>
       <c r="E160" s="26"/>
       <c r="F160" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="161" spans="1:6">
       <c r="A161" s="28" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="B161" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="C161" s="19" t="s">
-        <v>207</v>
+      <c r="C161" s="26" t="s">
+        <v>206</v>
       </c>
       <c r="D161" s="18" t="s">
         <v>1034</v>
       </c>
-      <c r="E161" s="19"/>
+      <c r="E161" s="26"/>
       <c r="F161" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="162" spans="1:6">
       <c r="A162" s="28" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="B162" s="3" t="s">
         <v>626</v>
       </c>
       <c r="C162" s="19" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D162" s="18" t="s">
         <v>1034</v>
       </c>
       <c r="E162" s="19"/>
       <c r="F162" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="163" spans="1:6">
       <c r="A163" s="28" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="B163" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="C163" s="18" t="s">
-        <v>209</v>
+      <c r="C163" s="19" t="s">
+        <v>208</v>
       </c>
       <c r="D163" s="18" t="s">
         <v>1034</v>
       </c>
-      <c r="E163" s="18"/>
-      <c r="F163" s="6" t="s">
-        <v>777</v>
+      <c r="E163" s="19"/>
+      <c r="F163" t="s">
+        <v>776</v>
       </c>
     </row>
     <row r="164" spans="1:6">
       <c r="A164" s="28" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="B164" s="3" t="s">
         <v>626</v>
       </c>
       <c r="C164" s="18" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D164" s="18" t="s">
         <v>1034</v>
       </c>
       <c r="E164" s="18"/>
       <c r="F164" s="6" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="165" spans="1:6">
       <c r="A165" s="28" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="B165" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="C165" s="26" t="s">
-        <v>211</v>
+      <c r="C165" s="18" t="s">
+        <v>210</v>
       </c>
       <c r="D165" s="18" t="s">
         <v>1034</v>
       </c>
-      <c r="E165" s="26"/>
-      <c r="F165" t="s">
-        <v>779</v>
+      <c r="E165" s="18"/>
+      <c r="F165" s="6" t="s">
+        <v>778</v>
       </c>
     </row>
     <row r="166" spans="1:6">
       <c r="A166" s="28" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="B166" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="C166" s="27" t="s">
-        <v>212</v>
+      <c r="C166" s="26" t="s">
+        <v>211</v>
       </c>
       <c r="D166" s="18" t="s">
         <v>1034</v>
       </c>
-      <c r="E166" s="27"/>
+      <c r="E166" s="26"/>
       <c r="F166" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="167" spans="1:6">
       <c r="A167" s="28" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="B167" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="C167" s="26" t="s">
-        <v>213</v>
+      <c r="C167" s="27" t="s">
+        <v>212</v>
       </c>
       <c r="D167" s="18" t="s">
         <v>1034</v>
       </c>
-      <c r="E167" s="26"/>
+      <c r="E167" s="27"/>
       <c r="F167" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="168" spans="1:6">
       <c r="A168" s="28" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="B168" s="3" t="s">
         <v>626</v>
       </c>
       <c r="C168" s="26" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D168" s="18" t="s">
         <v>1034</v>
       </c>
       <c r="E168" s="26"/>
-      <c r="F168" s="6" t="s">
-        <v>782</v>
+      <c r="F168" t="s">
+        <v>781</v>
       </c>
     </row>
     <row r="169" spans="1:6">
       <c r="A169" s="28" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B169" s="3" t="s">
         <v>626</v>
       </c>
       <c r="C169" s="26" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D169" s="18" t="s">
         <v>1034</v>
       </c>
       <c r="E169" s="26"/>
       <c r="F169" s="6" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="170" spans="1:6">
       <c r="A170" s="28" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="B170" s="3" t="s">
         <v>626</v>
       </c>
       <c r="C170" s="26" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D170" s="18" t="s">
         <v>1034</v>
       </c>
       <c r="E170" s="26"/>
       <c r="F170" s="6" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="171" spans="1:6">
       <c r="A171" s="28" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="B171" s="3" t="s">
         <v>626</v>
       </c>
       <c r="C171" s="26" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D171" s="18" t="s">
         <v>1034</v>
       </c>
       <c r="E171" s="26"/>
-      <c r="F171" t="s">
-        <v>785</v>
+      <c r="F171" s="6" t="s">
+        <v>784</v>
       </c>
     </row>
     <row r="172" spans="1:6">
       <c r="A172" s="28" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="B172" s="3" t="s">
         <v>626</v>
       </c>
       <c r="C172" s="26" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D172" s="18" t="s">
         <v>1034</v>
       </c>
       <c r="E172" s="26"/>
       <c r="F172" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="173" spans="1:6">
       <c r="A173" s="28" t="s">
-        <v>1098</v>
+        <v>1142</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>1033</v>
-      </c>
-      <c r="D173" s="26" t="s">
-        <v>1085</v>
+        <v>626</v>
+      </c>
+      <c r="C173" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="D173" s="18" t="s">
+        <v>1034</v>
       </c>
       <c r="E173" s="26"/>
+      <c r="F173" t="s">
+        <v>786</v>
+      </c>
     </row>
     <row r="174" spans="1:6">
       <c r="A174" s="28" t="s">
-        <v>1146</v>
+        <v>1098</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>626</v>
-      </c>
-      <c r="C174" s="26" t="s">
-        <v>233</v>
+        <v>1033</v>
       </c>
       <c r="D174" s="26" t="s">
         <v>1085</v>
       </c>
       <c r="E174" s="26"/>
-      <c r="F174" t="s">
-        <v>787</v>
-      </c>
     </row>
     <row r="175" spans="1:6">
       <c r="A175" s="28" t="s">
-        <v>1148</v>
+        <v>1320</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>626</v>
-      </c>
-      <c r="C175" s="26" t="s">
-        <v>606</v>
+        <v>627</v>
+      </c>
+      <c r="C175" s="19" t="s">
+        <v>1328</v>
       </c>
       <c r="D175" s="26" t="s">
         <v>1085</v>
       </c>
-      <c r="E175" s="26"/>
-      <c r="F175" t="s">
-        <v>788</v>
+      <c r="E175" s="33" t="s">
+        <v>1323</v>
       </c>
     </row>
     <row r="176" spans="1:6">
       <c r="A176" s="28" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B176" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="C176" s="27" t="s">
-        <v>608</v>
+      <c r="C176" s="26" t="s">
+        <v>233</v>
       </c>
       <c r="D176" s="26" t="s">
         <v>1085</v>
       </c>
-      <c r="E176" s="27"/>
+      <c r="E176" s="26"/>
       <c r="F176" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="177" spans="1:6">
       <c r="A177" s="28" t="s">
-        <v>1099</v>
+        <v>1148</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>1033</v>
-      </c>
-      <c r="C177" s="27"/>
-      <c r="D177" s="27" t="s">
-        <v>1086</v>
-      </c>
-      <c r="E177" s="27"/>
+        <v>626</v>
+      </c>
+      <c r="C177" s="26" t="s">
+        <v>606</v>
+      </c>
+      <c r="D177" s="26" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E177" s="26"/>
+      <c r="F177" t="s">
+        <v>788</v>
+      </c>
     </row>
     <row r="178" spans="1:6">
       <c r="A178" s="28" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="B178" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="C178" s="26" t="s">
-        <v>534</v>
-      </c>
-      <c r="D178" s="27" t="s">
-        <v>1086</v>
-      </c>
-      <c r="E178" s="26"/>
+      <c r="C178" s="27" t="s">
+        <v>608</v>
+      </c>
+      <c r="D178" s="26" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E178" s="27"/>
       <c r="F178" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="179" spans="1:6">
       <c r="A179" s="28" t="s">
-        <v>1150</v>
+        <v>1099</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>626</v>
-      </c>
-      <c r="C179" s="26" t="s">
-        <v>235</v>
-      </c>
+        <v>1033</v>
+      </c>
+      <c r="C179" s="27"/>
       <c r="D179" s="27" t="s">
         <v>1086</v>
       </c>
-      <c r="E179" s="26"/>
-      <c r="F179" t="s">
-        <v>791</v>
-      </c>
+      <c r="E179" s="27"/>
     </row>
     <row r="180" spans="1:6">
       <c r="A180" s="28" t="s">
-        <v>1151</v>
+        <v>1321</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="C180" s="19" t="s">
-        <v>237</v>
+        <v>1329</v>
       </c>
       <c r="D180" s="27" t="s">
         <v>1086</v>
       </c>
-      <c r="E180" s="19"/>
-      <c r="F180" t="s">
-        <v>792</v>
+      <c r="E180" s="33" t="s">
+        <v>1324</v>
       </c>
     </row>
     <row r="181" spans="1:6">
       <c r="A181" s="28" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
       <c r="B181" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="C181" s="18" t="s">
-        <v>610</v>
+      <c r="C181" s="26" t="s">
+        <v>534</v>
       </c>
       <c r="D181" s="27" t="s">
         <v>1086</v>
       </c>
-      <c r="E181" s="18"/>
+      <c r="E181" s="26"/>
       <c r="F181" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
     </row>
     <row r="182" spans="1:6">
       <c r="A182" s="28" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
       <c r="B182" s="3" t="s">
         <v>626</v>
       </c>
       <c r="C182" s="26" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="D182" s="27" t="s">
         <v>1086</v>
       </c>
       <c r="E182" s="26"/>
       <c r="F182" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
     </row>
     <row r="183" spans="1:6">
       <c r="A183" s="28" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
       <c r="B183" s="3" t="s">
         <v>626</v>
       </c>
       <c r="C183" s="19" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="D183" s="27" t="s">
         <v>1086</v>
       </c>
       <c r="E183" s="19"/>
       <c r="F183" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
     </row>
     <row r="184" spans="1:6">
       <c r="A184" s="28" t="s">
-        <v>1155</v>
+        <v>1152</v>
       </c>
       <c r="B184" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="C184" s="26" t="s">
-        <v>255</v>
+      <c r="C184" s="18" t="s">
+        <v>610</v>
       </c>
       <c r="D184" s="27" t="s">
         <v>1086</v>
       </c>
-      <c r="E184" s="26"/>
+      <c r="E184" s="18"/>
       <c r="F184" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
     </row>
     <row r="185" spans="1:6">
       <c r="A185" s="28" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="B185" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="C185" s="19" t="s">
-        <v>245</v>
+      <c r="C185" s="26" t="s">
+        <v>241</v>
       </c>
       <c r="D185" s="27" t="s">
         <v>1086</v>
       </c>
-      <c r="E185" s="19"/>
+      <c r="E185" s="26"/>
       <c r="F185" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
     </row>
     <row r="186" spans="1:6">
       <c r="A186" s="28" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
       <c r="B186" s="3" t="s">
         <v>626</v>
       </c>
       <c r="C186" s="19" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D186" s="27" t="s">
         <v>1086</v>
       </c>
       <c r="E186" s="19"/>
       <c r="F186" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
     </row>
     <row r="187" spans="1:6">
       <c r="A187" s="28" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
       <c r="B187" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="C187" s="27" t="s">
-        <v>249</v>
+      <c r="C187" s="26" t="s">
+        <v>255</v>
       </c>
       <c r="D187" s="27" t="s">
         <v>1086</v>
       </c>
-      <c r="E187" s="27"/>
+      <c r="E187" s="26"/>
       <c r="F187" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
     </row>
     <row r="188" spans="1:6">
       <c r="A188" s="28" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
       <c r="B188" s="3" t="s">
         <v>626</v>
       </c>
       <c r="C188" s="19" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="D188" s="27" t="s">
         <v>1086</v>
       </c>
       <c r="E188" s="19"/>
       <c r="F188" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
     </row>
     <row r="189" spans="1:6">
       <c r="A189" s="28" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
       <c r="B189" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="C189" s="18" t="s">
-        <v>239</v>
+      <c r="C189" s="19" t="s">
+        <v>246</v>
       </c>
       <c r="D189" s="27" t="s">
         <v>1086</v>
       </c>
-      <c r="E189" s="18"/>
+      <c r="E189" s="19"/>
       <c r="F189" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
     </row>
     <row r="190" spans="1:6">
       <c r="A190" s="28" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
       <c r="B190" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="C190" s="19" t="s">
-        <v>256</v>
+      <c r="C190" s="27" t="s">
+        <v>249</v>
       </c>
       <c r="D190" s="27" t="s">
         <v>1086</v>
       </c>
-      <c r="E190" s="19"/>
+      <c r="E190" s="27"/>
       <c r="F190" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
     </row>
     <row r="191" spans="1:6">
       <c r="A191" s="28" t="s">
-        <v>1162</v>
+        <v>1159</v>
       </c>
       <c r="B191" s="3" t="s">
         <v>626</v>
       </c>
       <c r="C191" s="19" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D191" s="27" t="s">
         <v>1086</v>
       </c>
       <c r="E191" s="19"/>
       <c r="F191" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
     </row>
     <row r="192" spans="1:6">
       <c r="A192" s="28" t="s">
-        <v>1163</v>
+        <v>1160</v>
       </c>
       <c r="B192" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="C192" s="19" t="s">
-        <v>258</v>
+      <c r="C192" s="18" t="s">
+        <v>239</v>
       </c>
       <c r="D192" s="27" t="s">
         <v>1086</v>
       </c>
-      <c r="E192" s="19"/>
+      <c r="E192" s="18"/>
       <c r="F192" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
     </row>
     <row r="193" spans="1:6">
       <c r="A193" s="28" t="s">
-        <v>1164</v>
+        <v>1161</v>
       </c>
       <c r="B193" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="C193" s="26" t="s">
-        <v>612</v>
+      <c r="C193" s="19" t="s">
+        <v>256</v>
       </c>
       <c r="D193" s="27" t="s">
         <v>1086</v>
       </c>
-      <c r="E193" s="26"/>
+      <c r="E193" s="19"/>
       <c r="F193" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
     </row>
     <row r="194" spans="1:6">
       <c r="A194" s="28" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
       <c r="B194" s="3" t="s">
         <v>626</v>
       </c>
       <c r="C194" s="19" t="s">
-        <v>614</v>
+        <v>257</v>
       </c>
       <c r="D194" s="27" t="s">
         <v>1086</v>
       </c>
       <c r="E194" s="19"/>
       <c r="F194" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
     </row>
     <row r="195" spans="1:6">
       <c r="A195" s="28" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
       <c r="B195" s="3" t="s">
         <v>626</v>
       </c>
       <c r="C195" s="19" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D195" s="27" t="s">
         <v>1086</v>
       </c>
       <c r="E195" s="19"/>
       <c r="F195" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
     </row>
     <row r="196" spans="1:6">
       <c r="A196" s="28" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
       <c r="B196" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="C196" s="18" t="s">
-        <v>265</v>
+      <c r="C196" s="26" t="s">
+        <v>612</v>
       </c>
       <c r="D196" s="27" t="s">
-        <v>1085</v>
-      </c>
-      <c r="E196" s="18"/>
+        <v>1086</v>
+      </c>
+      <c r="E196" s="26"/>
       <c r="F196" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
     </row>
     <row r="197" spans="1:6">
       <c r="A197" s="28" t="s">
-        <v>1172</v>
+        <v>1165</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>987</v>
-      </c>
-      <c r="C197" s="18" t="s">
-        <v>265</v>
+        <v>626</v>
+      </c>
+      <c r="C197" s="19" t="s">
+        <v>614</v>
       </c>
       <c r="D197" s="27" t="s">
-        <v>991</v>
-      </c>
-      <c r="E197" s="18"/>
+        <v>1086</v>
+      </c>
+      <c r="E197" s="19"/>
+      <c r="F197" t="s">
+        <v>806</v>
+      </c>
     </row>
     <row r="198" spans="1:6">
       <c r="A198" s="28" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="B198" s="3" t="s">
         <v>626</v>
       </c>
       <c r="C198" s="19" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="D198" s="27" t="s">
         <v>1086</v>
       </c>
       <c r="E198" s="19"/>
       <c r="F198" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="199" spans="1:6">
       <c r="A199" s="28" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="B199" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="C199" s="26" t="s">
-        <v>267</v>
+      <c r="C199" s="18" t="s">
+        <v>265</v>
       </c>
       <c r="D199" s="27" t="s">
-        <v>1086</v>
-      </c>
-      <c r="E199" s="26"/>
+        <v>1085</v>
+      </c>
+      <c r="E199" s="18"/>
       <c r="F199" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="200" spans="1:6">
       <c r="A200" s="28" t="s">
-        <v>1170</v>
+        <v>1172</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>626</v>
-      </c>
-      <c r="C200" s="19" t="s">
-        <v>271</v>
+        <v>987</v>
+      </c>
+      <c r="C200" s="18" t="s">
+        <v>265</v>
       </c>
       <c r="D200" s="27" t="s">
-        <v>1086</v>
-      </c>
-      <c r="E200" s="19"/>
-      <c r="F200" t="s">
-        <v>811</v>
-      </c>
+        <v>991</v>
+      </c>
+      <c r="E200" s="18"/>
     </row>
     <row r="201" spans="1:6">
       <c r="A201" s="28" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
       <c r="B201" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="C201" s="26" t="s">
-        <v>616</v>
+      <c r="C201" s="19" t="s">
+        <v>269</v>
       </c>
       <c r="D201" s="27" t="s">
         <v>1086</v>
       </c>
-      <c r="E201" s="26"/>
+      <c r="E201" s="19"/>
       <c r="F201" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
     </row>
     <row r="202" spans="1:6">
       <c r="A202" s="28" t="s">
-        <v>1100</v>
+        <v>1169</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>1033</v>
-      </c>
-      <c r="C202" s="26"/>
-      <c r="D202" s="26" t="s">
-        <v>1087</v>
+        <v>626</v>
+      </c>
+      <c r="C202" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="D202" s="27" t="s">
+        <v>1086</v>
       </c>
       <c r="E202" s="26"/>
+      <c r="F202" t="s">
+        <v>810</v>
+      </c>
     </row>
     <row r="203" spans="1:6">
       <c r="A203" s="28" t="s">
-        <v>1173</v>
+        <v>1170</v>
       </c>
       <c r="B203" s="3" t="s">
         <v>626</v>
       </c>
       <c r="C203" s="19" t="s">
-        <v>272</v>
-      </c>
-      <c r="D203" s="26" t="s">
-        <v>1087</v>
+        <v>271</v>
+      </c>
+      <c r="D203" s="27" t="s">
+        <v>1086</v>
       </c>
       <c r="E203" s="19"/>
       <c r="F203" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="204" spans="1:6">
       <c r="A204" s="28" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="B204" s="3" t="s">
         <v>626</v>
       </c>
       <c r="C204" s="26" t="s">
-        <v>273</v>
-      </c>
-      <c r="D204" s="26" t="s">
-        <v>1087</v>
+        <v>616</v>
+      </c>
+      <c r="D204" s="27" t="s">
+        <v>1086</v>
       </c>
       <c r="E204" s="26"/>
       <c r="F204" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
     </row>
     <row r="205" spans="1:6">
       <c r="A205" s="28" t="s">
-        <v>1175</v>
+        <v>1100</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>626</v>
-      </c>
-      <c r="C205" s="26" t="s">
-        <v>274</v>
-      </c>
+        <v>1033</v>
+      </c>
+      <c r="C205" s="26"/>
       <c r="D205" s="26" t="s">
         <v>1087</v>
       </c>
       <c r="E205" s="26"/>
-      <c r="F205" t="s">
-        <v>815</v>
-      </c>
     </row>
     <row r="206" spans="1:6">
       <c r="A206" s="28" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="B206" s="3" t="s">
         <v>626</v>
       </c>
       <c r="C206" s="19" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D206" s="26" t="s">
         <v>1087</v>
       </c>
       <c r="E206" s="19"/>
       <c r="F206" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
     </row>
     <row r="207" spans="1:6">
       <c r="A207" s="28" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
       <c r="B207" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="C207" s="19" t="s">
-        <v>276</v>
+      <c r="C207" s="26" t="s">
+        <v>273</v>
       </c>
       <c r="D207" s="26" t="s">
         <v>1087</v>
       </c>
-      <c r="E207" s="19"/>
+      <c r="E207" s="26"/>
       <c r="F207" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
     </row>
     <row r="208" spans="1:6">
       <c r="A208" s="28" t="s">
-        <v>1178</v>
+        <v>1175</v>
       </c>
       <c r="B208" s="3" t="s">
         <v>626</v>
       </c>
       <c r="C208" s="26" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D208" s="26" t="s">
         <v>1087</v>
       </c>
       <c r="E208" s="26"/>
       <c r="F208" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
     </row>
     <row r="209" spans="1:6">
       <c r="A209" s="28" t="s">
-        <v>1179</v>
+        <v>1176</v>
       </c>
       <c r="B209" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="C209" s="26" t="s">
-        <v>285</v>
+      <c r="C209" s="19" t="s">
+        <v>275</v>
       </c>
       <c r="D209" s="26" t="s">
         <v>1087</v>
       </c>
-      <c r="E209" s="26"/>
+      <c r="E209" s="19"/>
       <c r="F209" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
     </row>
     <row r="210" spans="1:6">
       <c r="A210" s="28" t="s">
-        <v>1180</v>
+        <v>1177</v>
       </c>
       <c r="B210" s="3" t="s">
         <v>626</v>
       </c>
       <c r="C210" s="19" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="D210" s="26" t="s">
         <v>1087</v>
       </c>
       <c r="E210" s="19"/>
       <c r="F210" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
     </row>
     <row r="211" spans="1:6">
       <c r="A211" s="28" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
       <c r="B211" s="3" t="s">
         <v>626</v>
       </c>
       <c r="C211" s="26" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="D211" s="26" t="s">
         <v>1087</v>
       </c>
       <c r="E211" s="26"/>
       <c r="F211" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
     </row>
     <row r="212" spans="1:6">
       <c r="A212" s="28" t="s">
-        <v>1182</v>
+        <v>1179</v>
       </c>
       <c r="B212" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="C212" s="19" t="s">
-        <v>288</v>
+      <c r="C212" s="26" t="s">
+        <v>285</v>
       </c>
       <c r="D212" s="26" t="s">
         <v>1087</v>
       </c>
-      <c r="E212" s="19"/>
+      <c r="E212" s="26"/>
       <c r="F212" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
     </row>
     <row r="213" spans="1:6">
       <c r="A213" s="28" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
       <c r="B213" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="C213" s="26" t="s">
-        <v>289</v>
+      <c r="C213" s="19" t="s">
+        <v>286</v>
       </c>
       <c r="D213" s="26" t="s">
         <v>1087</v>
       </c>
-      <c r="E213" s="26"/>
+      <c r="E213" s="19"/>
       <c r="F213" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
     </row>
     <row r="214" spans="1:6">
       <c r="A214" s="28" t="s">
-        <v>1184</v>
+        <v>1181</v>
       </c>
       <c r="B214" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="C214" s="19" t="s">
-        <v>290</v>
+      <c r="C214" s="26" t="s">
+        <v>287</v>
       </c>
       <c r="D214" s="26" t="s">
         <v>1087</v>
       </c>
-      <c r="E214" s="19"/>
+      <c r="E214" s="26"/>
       <c r="F214" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
     </row>
     <row r="215" spans="1:6">
       <c r="A215" s="28" t="s">
-        <v>1185</v>
+        <v>1182</v>
       </c>
       <c r="B215" s="3" t="s">
         <v>626</v>
       </c>
       <c r="C215" s="19" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D215" s="26" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="E215" s="19"/>
       <c r="F215" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
     </row>
     <row r="216" spans="1:6">
       <c r="A216" s="28" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
       <c r="B216" s="3" t="s">
         <v>626</v>
       </c>
       <c r="C216" s="26" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="D216" s="26" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="E216" s="26"/>
       <c r="F216" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
     </row>
     <row r="217" spans="1:6">
       <c r="A217" s="28" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
       <c r="B217" s="3" t="s">
         <v>626</v>
       </c>
       <c r="C217" s="19" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D217" s="26" t="s">
         <v>1087</v>
       </c>
       <c r="E217" s="19"/>
       <c r="F217" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
     </row>
     <row r="218" spans="1:6">
       <c r="A218" s="28" t="s">
-        <v>1188</v>
+        <v>1185</v>
       </c>
       <c r="B218" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="C218" s="26" t="s">
-        <v>296</v>
+      <c r="C218" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="D218" s="26" t="s">
-        <v>1087</v>
-      </c>
-      <c r="E218" s="26"/>
+        <v>1086</v>
+      </c>
+      <c r="E218" s="19"/>
       <c r="F218" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
     </row>
     <row r="219" spans="1:6">
       <c r="A219" s="28" t="s">
-        <v>1189</v>
+        <v>1186</v>
       </c>
       <c r="B219" s="3" t="s">
         <v>626</v>
       </c>
       <c r="C219" s="26" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D219" s="26" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="E219" s="26"/>
       <c r="F219" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
     </row>
     <row r="220" spans="1:6">
       <c r="A220" s="28" t="s">
-        <v>1190</v>
+        <v>1187</v>
       </c>
       <c r="B220" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="C220" s="27" t="s">
-        <v>294</v>
+      <c r="C220" s="19" t="s">
+        <v>292</v>
       </c>
       <c r="D220" s="26" t="s">
         <v>1087</v>
       </c>
-      <c r="E220" s="27"/>
+      <c r="E220" s="19"/>
       <c r="F220" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
     </row>
     <row r="221" spans="1:6">
       <c r="A221" s="28" t="s">
-        <v>1191</v>
+        <v>1188</v>
       </c>
       <c r="B221" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="C221" s="19" t="s">
-        <v>297</v>
+      <c r="C221" s="26" t="s">
+        <v>296</v>
       </c>
       <c r="D221" s="26" t="s">
         <v>1087</v>
       </c>
-      <c r="E221" s="19"/>
+      <c r="E221" s="26"/>
       <c r="F221" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
     </row>
     <row r="222" spans="1:6">
       <c r="A222" s="28" t="s">
-        <v>1192</v>
+        <v>1189</v>
       </c>
       <c r="B222" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="C222" s="19" t="s">
-        <v>298</v>
+      <c r="C222" s="26" t="s">
+        <v>295</v>
       </c>
       <c r="D222" s="26" t="s">
         <v>1087</v>
       </c>
-      <c r="E222" s="19"/>
+      <c r="E222" s="26"/>
       <c r="F222" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
     </row>
     <row r="223" spans="1:6">
       <c r="A223" s="28" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="B223" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="C223" s="19" t="s">
-        <v>299</v>
+      <c r="C223" s="27" t="s">
+        <v>294</v>
       </c>
       <c r="D223" s="26" t="s">
         <v>1087</v>
       </c>
-      <c r="E223" s="19"/>
+      <c r="E223" s="27"/>
       <c r="F223" t="s">
-        <v>1212</v>
+        <v>830</v>
       </c>
     </row>
     <row r="224" spans="1:6">
       <c r="A224" s="28" t="s">
-        <v>1194</v>
+        <v>1191</v>
       </c>
       <c r="B224" s="3" t="s">
         <v>626</v>
       </c>
       <c r="C224" s="19" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D224" s="26" t="s">
         <v>1087</v>
       </c>
       <c r="E224" s="19"/>
       <c r="F224" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
     </row>
     <row r="225" spans="1:6">
       <c r="A225" s="28" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="B225" s="3" t="s">
         <v>626</v>
       </c>
       <c r="C225" s="19" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D225" s="26" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="E225" s="19"/>
       <c r="F225" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="226" spans="1:6">
       <c r="A226" s="28" t="s">
-        <v>1196</v>
+        <v>1193</v>
       </c>
       <c r="B226" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="C226" s="26" t="s">
-        <v>344</v>
+      <c r="C226" s="19" t="s">
+        <v>299</v>
       </c>
       <c r="D226" s="26" t="s">
         <v>1087</v>
       </c>
-      <c r="E226" s="26"/>
+      <c r="E226" s="19"/>
       <c r="F226" t="s">
-        <v>835</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="227" spans="1:6">
       <c r="A227" s="28" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
       <c r="B227" s="3" t="s">
         <v>626</v>
       </c>
       <c r="C227" s="19" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D227" s="26" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="E227" s="19"/>
       <c r="F227" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
     </row>
     <row r="228" spans="1:6">
       <c r="A228" s="28" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
       <c r="B228" s="3" t="s">
         <v>626</v>
       </c>
       <c r="C228" s="19" t="s">
-        <v>320</v>
+        <v>301</v>
       </c>
       <c r="D228" s="26" t="s">
         <v>1086</v>
       </c>
       <c r="E228" s="19"/>
       <c r="F228" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
     </row>
     <row r="229" spans="1:6">
       <c r="A229" s="28" t="s">
-        <v>1199</v>
+        <v>1196</v>
       </c>
       <c r="B229" s="3" t="s">
         <v>626</v>
       </c>
       <c r="C229" s="26" t="s">
-        <v>321</v>
+        <v>344</v>
       </c>
       <c r="D229" s="26" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="E229" s="26"/>
       <c r="F229" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
     </row>
     <row r="230" spans="1:6">
       <c r="A230" s="28" t="s">
-        <v>1200</v>
+        <v>1197</v>
       </c>
       <c r="B230" s="3" t="s">
         <v>626</v>
       </c>
       <c r="C230" s="19" t="s">
-        <v>322</v>
+        <v>302</v>
       </c>
       <c r="D230" s="26" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="E230" s="19"/>
       <c r="F230" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
     </row>
     <row r="231" spans="1:6">
       <c r="A231" s="28" t="s">
-        <v>1201</v>
+        <v>1198</v>
       </c>
       <c r="B231" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="C231" s="26" t="s">
-        <v>518</v>
+      <c r="C231" s="19" t="s">
+        <v>320</v>
       </c>
       <c r="D231" s="26" t="s">
-        <v>1087</v>
-      </c>
-      <c r="E231" s="26"/>
-      <c r="F231" s="6" t="s">
-        <v>840</v>
+        <v>1086</v>
+      </c>
+      <c r="E231" s="19"/>
+      <c r="F231" t="s">
+        <v>837</v>
       </c>
     </row>
     <row r="232" spans="1:6">
       <c r="A232" s="28" t="s">
-        <v>1202</v>
+        <v>1199</v>
       </c>
       <c r="B232" s="3" t="s">
         <v>626</v>
       </c>
       <c r="C232" s="26" t="s">
-        <v>520</v>
+        <v>321</v>
       </c>
       <c r="D232" s="26" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="E232" s="26"/>
-      <c r="F232" s="6" t="s">
-        <v>841</v>
+      <c r="F232" t="s">
+        <v>838</v>
       </c>
     </row>
     <row r="233" spans="1:6">
       <c r="A233" s="28" t="s">
-        <v>1203</v>
+        <v>1200</v>
       </c>
       <c r="B233" s="3" t="s">
         <v>626</v>
       </c>
       <c r="C233" s="19" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D233" s="26" t="s">
         <v>1087</v>
       </c>
       <c r="E233" s="19"/>
       <c r="F233" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
     </row>
     <row r="234" spans="1:6">
       <c r="A234" s="28" t="s">
-        <v>1204</v>
+        <v>1201</v>
       </c>
       <c r="B234" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="C234" s="19" t="s">
-        <v>324</v>
+      <c r="C234" s="26" t="s">
+        <v>518</v>
       </c>
       <c r="D234" s="26" t="s">
-        <v>1086</v>
-      </c>
-      <c r="E234" s="19"/>
-      <c r="F234" t="s">
-        <v>843</v>
+        <v>1087</v>
+      </c>
+      <c r="E234" s="26"/>
+      <c r="F234" s="6" t="s">
+        <v>840</v>
       </c>
     </row>
     <row r="235" spans="1:6">
       <c r="A235" s="28" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
       <c r="B235" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="C235" s="19" t="s">
-        <v>532</v>
+      <c r="C235" s="26" t="s">
+        <v>520</v>
       </c>
       <c r="D235" s="26" t="s">
-        <v>1086</v>
-      </c>
-      <c r="E235" s="19"/>
-      <c r="F235" t="s">
-        <v>844</v>
+        <v>1087</v>
+      </c>
+      <c r="E235" s="26"/>
+      <c r="F235" s="6" t="s">
+        <v>841</v>
       </c>
     </row>
     <row r="236" spans="1:6">
       <c r="A236" s="28" t="s">
-        <v>1206</v>
+        <v>1203</v>
       </c>
       <c r="B236" s="3" t="s">
         <v>626</v>
       </c>
       <c r="C236" s="19" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D236" s="26" t="s">
         <v>1087</v>
       </c>
       <c r="E236" s="19"/>
       <c r="F236" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
     </row>
     <row r="237" spans="1:6">
       <c r="A237" s="28" t="s">
-        <v>1207</v>
+        <v>1204</v>
       </c>
       <c r="B237" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="C237" s="26" t="s">
-        <v>325</v>
+      <c r="C237" s="19" t="s">
+        <v>324</v>
       </c>
       <c r="D237" s="26" t="s">
-        <v>1087</v>
-      </c>
-      <c r="E237" s="26"/>
+        <v>1086</v>
+      </c>
+      <c r="E237" s="19"/>
       <c r="F237" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
     </row>
     <row r="238" spans="1:6">
       <c r="A238" s="28" t="s">
-        <v>1208</v>
+        <v>1205</v>
       </c>
       <c r="B238" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="C238" s="26" t="s">
-        <v>327</v>
+      <c r="C238" s="19" t="s">
+        <v>532</v>
       </c>
       <c r="D238" s="26" t="s">
-        <v>1087</v>
-      </c>
-      <c r="E238" s="26"/>
-      <c r="F238" s="6" t="s">
-        <v>847</v>
+        <v>1086</v>
+      </c>
+      <c r="E238" s="19"/>
+      <c r="F238" t="s">
+        <v>844</v>
       </c>
     </row>
     <row r="239" spans="1:6">
       <c r="A239" s="28" t="s">
-        <v>1209</v>
+        <v>1206</v>
       </c>
       <c r="B239" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="C239" s="26" t="s">
-        <v>336</v>
+      <c r="C239" s="19" t="s">
+        <v>326</v>
       </c>
       <c r="D239" s="26" t="s">
         <v>1087</v>
       </c>
-      <c r="E239" s="26"/>
+      <c r="E239" s="19"/>
       <c r="F239" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
     </row>
     <row r="240" spans="1:6">
       <c r="A240" s="28" t="s">
-        <v>1210</v>
+        <v>1207</v>
       </c>
       <c r="B240" s="3" t="s">
         <v>626</v>
       </c>
       <c r="C240" s="26" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="D240" s="26" t="s">
         <v>1087</v>
       </c>
       <c r="E240" s="26"/>
       <c r="F240" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
     </row>
     <row r="241" spans="1:6">
       <c r="A241" s="28" t="s">
-        <v>1211</v>
+        <v>1322</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>626</v>
-      </c>
-      <c r="C241" s="26" t="s">
-        <v>339</v>
+        <v>627</v>
+      </c>
+      <c r="C241" s="19" t="s">
+        <v>1330</v>
       </c>
       <c r="D241" s="26" t="s">
         <v>1087</v>
       </c>
-      <c r="E241" s="26"/>
-      <c r="F241" t="s">
-        <v>850</v>
+      <c r="E241" s="33" t="s">
+        <v>1325</v>
       </c>
     </row>
     <row r="242" spans="1:6">
       <c r="A242" s="28" t="s">
-        <v>1101</v>
+        <v>1208</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>1033</v>
-      </c>
-      <c r="C242" s="26"/>
+        <v>626</v>
+      </c>
+      <c r="C242" s="26" t="s">
+        <v>327</v>
+      </c>
       <c r="D242" s="26" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="E242" s="26"/>
+      <c r="F242" s="6" t="s">
+        <v>847</v>
+      </c>
     </row>
     <row r="243" spans="1:6">
       <c r="A243" s="28" t="s">
-        <v>1213</v>
+        <v>1209</v>
       </c>
       <c r="B243" s="3" t="s">
         <v>626</v>
       </c>
       <c r="C243" s="26" t="s">
-        <v>528</v>
+        <v>336</v>
       </c>
       <c r="D243" s="26" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="E243" s="26"/>
       <c r="F243" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
     </row>
     <row r="244" spans="1:6">
       <c r="A244" s="28" t="s">
-        <v>1214</v>
+        <v>1210</v>
       </c>
       <c r="B244" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="C244" s="19" t="s">
-        <v>342</v>
+      <c r="C244" s="26" t="s">
+        <v>338</v>
       </c>
       <c r="D244" s="26" t="s">
         <v>1087</v>
       </c>
-      <c r="E244" s="19"/>
+      <c r="E244" s="26"/>
       <c r="F244" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
     </row>
     <row r="245" spans="1:6">
       <c r="A245" s="28" t="s">
-        <v>1215</v>
+        <v>1211</v>
       </c>
       <c r="B245" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="C245" s="19" t="s">
-        <v>349</v>
+      <c r="C245" s="26" t="s">
+        <v>339</v>
       </c>
       <c r="D245" s="26" t="s">
-        <v>1088</v>
-      </c>
-      <c r="E245" s="19"/>
+        <v>1087</v>
+      </c>
+      <c r="E245" s="26"/>
       <c r="F245" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
     </row>
     <row r="246" spans="1:6">
       <c r="A246" s="28" t="s">
-        <v>1216</v>
+        <v>1101</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>626</v>
-      </c>
-      <c r="C246" s="26" t="s">
-        <v>345</v>
-      </c>
+        <v>1033</v>
+      </c>
+      <c r="C246" s="26"/>
       <c r="D246" s="26" t="s">
         <v>1088</v>
       </c>
       <c r="E246" s="26"/>
-      <c r="F246" t="s">
-        <v>854</v>
-      </c>
     </row>
     <row r="247" spans="1:6">
       <c r="A247" s="28" t="s">
-        <v>1217</v>
+        <v>1326</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>626</v>
-      </c>
-      <c r="C247" s="26" t="s">
-        <v>346</v>
+        <v>627</v>
+      </c>
+      <c r="C247" s="19" t="s">
+        <v>1331</v>
       </c>
       <c r="D247" s="26" t="s">
         <v>1088</v>
       </c>
-      <c r="E247" s="26"/>
-      <c r="F247" t="s">
-        <v>855</v>
+      <c r="E247" s="33" t="s">
+        <v>1327</v>
       </c>
     </row>
     <row r="248" spans="1:6">
       <c r="A248" s="28" t="s">
-        <v>1218</v>
+        <v>1213</v>
       </c>
       <c r="B248" s="3" t="s">
         <v>626</v>
       </c>
       <c r="C248" s="26" t="s">
-        <v>347</v>
+        <v>528</v>
       </c>
       <c r="D248" s="26" t="s">
         <v>1088</v>
       </c>
       <c r="E248" s="26"/>
       <c r="F248" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
     </row>
     <row r="249" spans="1:6">
       <c r="A249" s="28" t="s">
-        <v>1219</v>
+        <v>1214</v>
       </c>
       <c r="B249" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="C249" s="27" t="s">
-        <v>348</v>
+      <c r="C249" s="19" t="s">
+        <v>342</v>
       </c>
       <c r="D249" s="26" t="s">
-        <v>1088</v>
-      </c>
-      <c r="E249" s="27"/>
+        <v>1087</v>
+      </c>
+      <c r="E249" s="19"/>
       <c r="F249" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
     </row>
     <row r="250" spans="1:6">
       <c r="A250" s="28" t="s">
-        <v>1220</v>
+        <v>1215</v>
       </c>
       <c r="B250" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="C250" s="26" t="s">
-        <v>356</v>
+      <c r="C250" s="19" t="s">
+        <v>349</v>
       </c>
       <c r="D250" s="26" t="s">
         <v>1088</v>
       </c>
-      <c r="E250" s="26"/>
+      <c r="E250" s="19"/>
       <c r="F250" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
     </row>
     <row r="251" spans="1:6">
       <c r="A251" s="28" t="s">
-        <v>1102</v>
+        <v>1216</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>1033</v>
-      </c>
-      <c r="C251" s="26"/>
+        <v>626</v>
+      </c>
+      <c r="C251" s="26" t="s">
+        <v>345</v>
+      </c>
       <c r="D251" s="26" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="E251" s="26"/>
+      <c r="F251" t="s">
+        <v>854</v>
+      </c>
     </row>
     <row r="252" spans="1:6">
       <c r="A252" s="28" t="s">
-        <v>1221</v>
+        <v>1217</v>
       </c>
       <c r="B252" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="C252" s="19" t="s">
-        <v>357</v>
+      <c r="C252" s="26" t="s">
+        <v>346</v>
       </c>
       <c r="D252" s="26" t="s">
         <v>1088</v>
       </c>
-      <c r="E252" s="19"/>
+      <c r="E252" s="26"/>
       <c r="F252" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
     </row>
     <row r="253" spans="1:6">
       <c r="A253" s="28" t="s">
-        <v>1222</v>
+        <v>1218</v>
       </c>
       <c r="B253" s="3" t="s">
         <v>626</v>
       </c>
       <c r="C253" s="26" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="D253" s="26" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="E253" s="26"/>
       <c r="F253" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
     </row>
     <row r="254" spans="1:6">
       <c r="A254" s="28" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="B254" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="C254" s="26" t="s">
-        <v>359</v>
+      <c r="C254" s="27" t="s">
+        <v>348</v>
       </c>
       <c r="D254" s="26" t="s">
-        <v>1089</v>
-      </c>
-      <c r="E254" s="26"/>
+        <v>1088</v>
+      </c>
+      <c r="E254" s="27"/>
       <c r="F254" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
     </row>
     <row r="255" spans="1:6">
       <c r="A255" s="28" t="s">
-        <v>1224</v>
+        <v>1220</v>
       </c>
       <c r="B255" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="C255" s="19" t="s">
-        <v>364</v>
+      <c r="C255" s="26" t="s">
+        <v>356</v>
       </c>
       <c r="D255" s="26" t="s">
-        <v>1089</v>
-      </c>
-      <c r="E255" s="19"/>
+        <v>1088</v>
+      </c>
+      <c r="E255" s="26"/>
       <c r="F255" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
     </row>
     <row r="256" spans="1:6">
       <c r="A256" s="28" t="s">
-        <v>1225</v>
+        <v>1102</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>626</v>
-      </c>
-      <c r="C256" s="26" t="s">
-        <v>365</v>
-      </c>
+        <v>1033</v>
+      </c>
+      <c r="C256" s="26"/>
       <c r="D256" s="26" t="s">
         <v>1089</v>
       </c>
       <c r="E256" s="26"/>
-      <c r="F256" t="s">
-        <v>863</v>
-      </c>
     </row>
     <row r="257" spans="1:6">
       <c r="A257" s="28" t="s">
-        <v>1226</v>
+        <v>1221</v>
       </c>
       <c r="B257" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="C257" s="26" t="s">
-        <v>366</v>
+      <c r="C257" s="19" t="s">
+        <v>357</v>
       </c>
       <c r="D257" s="26" t="s">
-        <v>1089</v>
-      </c>
-      <c r="E257" s="26"/>
+        <v>1088</v>
+      </c>
+      <c r="E257" s="19"/>
       <c r="F257" t="s">
-        <v>864</v>
+        <v>859</v>
       </c>
     </row>
     <row r="258" spans="1:6">
       <c r="A258" s="28" t="s">
-        <v>1103</v>
+        <v>1222</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>1033</v>
-      </c>
-      <c r="C258" s="26"/>
+        <v>626</v>
+      </c>
+      <c r="C258" s="26" t="s">
+        <v>358</v>
+      </c>
       <c r="D258" s="26" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="E258" s="26"/>
+      <c r="F258" t="s">
+        <v>860</v>
+      </c>
     </row>
     <row r="259" spans="1:6">
       <c r="A259" s="28" t="s">
-        <v>1227</v>
+        <v>1223</v>
       </c>
       <c r="B259" s="3" t="s">
         <v>626</v>
       </c>
       <c r="C259" s="26" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="D259" s="26" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="E259" s="26"/>
       <c r="F259" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
     </row>
     <row r="260" spans="1:6">
       <c r="A260" s="28" t="s">
-        <v>1228</v>
+        <v>1224</v>
       </c>
       <c r="B260" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="C260" s="26" t="s">
-        <v>368</v>
+      <c r="C260" s="19" t="s">
+        <v>364</v>
       </c>
       <c r="D260" s="26" t="s">
-        <v>1087</v>
-      </c>
-      <c r="E260" s="26"/>
+        <v>1089</v>
+      </c>
+      <c r="E260" s="19"/>
       <c r="F260" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
     </row>
     <row r="261" spans="1:6">
       <c r="A261" s="28" t="s">
-        <v>1229</v>
+        <v>1225</v>
       </c>
       <c r="B261" s="3" t="s">
         <v>626</v>
       </c>
       <c r="C261" s="26" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="D261" s="26" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="E261" s="26"/>
       <c r="F261" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
     </row>
     <row r="262" spans="1:6">
       <c r="A262" s="28" t="s">
-        <v>1230</v>
+        <v>1226</v>
       </c>
       <c r="B262" s="3" t="s">
         <v>626</v>
       </c>
       <c r="C262" s="26" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="D262" s="26" t="s">
-        <v>1087</v>
+        <v>1089</v>
       </c>
       <c r="E262" s="26"/>
       <c r="F262" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
     </row>
     <row r="263" spans="1:6">
       <c r="A263" s="28" t="s">
-        <v>1231</v>
+        <v>1103</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>626</v>
-      </c>
-      <c r="C263" s="26" t="s">
-        <v>371</v>
-      </c>
+        <v>1033</v>
+      </c>
+      <c r="C263" s="26"/>
       <c r="D263" s="26" t="s">
-        <v>1086</v>
+        <v>1090</v>
       </c>
       <c r="E263" s="26"/>
-      <c r="F263" t="s">
-        <v>869</v>
-      </c>
     </row>
     <row r="264" spans="1:6">
       <c r="A264" s="28" t="s">
-        <v>1232</v>
+        <v>1227</v>
       </c>
       <c r="B264" s="3" t="s">
         <v>626</v>
       </c>
       <c r="C264" s="26" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="D264" s="26" t="s">
-        <v>1086</v>
+        <v>1090</v>
       </c>
       <c r="E264" s="26"/>
       <c r="F264" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
     </row>
     <row r="265" spans="1:6">
       <c r="A265" s="28" t="s">
-        <v>1233</v>
+        <v>1228</v>
       </c>
       <c r="B265" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="C265" s="19" t="s">
-        <v>373</v>
+      <c r="C265" s="26" t="s">
+        <v>368</v>
       </c>
       <c r="D265" s="26" t="s">
-        <v>1088</v>
-      </c>
-      <c r="E265" s="19"/>
+        <v>1087</v>
+      </c>
+      <c r="E265" s="26"/>
       <c r="F265" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
     </row>
     <row r="266" spans="1:6">
       <c r="A266" s="28" t="s">
-        <v>1234</v>
+        <v>1229</v>
       </c>
       <c r="B266" s="3" t="s">
         <v>626</v>
       </c>
       <c r="C266" s="26" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="D266" s="26" t="s">
-        <v>1087</v>
+        <v>1090</v>
       </c>
       <c r="E266" s="26"/>
       <c r="F266" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
     </row>
     <row r="267" spans="1:6">
       <c r="A267" s="28" t="s">
-        <v>1235</v>
+        <v>1230</v>
       </c>
       <c r="B267" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="C267" s="19" t="s">
-        <v>386</v>
+      <c r="C267" s="26" t="s">
+        <v>370</v>
       </c>
       <c r="D267" s="26" t="s">
-        <v>1089</v>
-      </c>
-      <c r="E267" s="19"/>
+        <v>1087</v>
+      </c>
+      <c r="E267" s="26"/>
       <c r="F267" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
     </row>
     <row r="268" spans="1:6">
       <c r="A268" s="28" t="s">
-        <v>1236</v>
+        <v>1231</v>
       </c>
       <c r="B268" s="3" t="s">
         <v>626</v>
       </c>
       <c r="C268" s="26" t="s">
-        <v>390</v>
+        <v>371</v>
       </c>
       <c r="D268" s="26" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="E268" s="26"/>
-      <c r="F268" s="6" t="s">
-        <v>874</v>
+      <c r="F268" t="s">
+        <v>869</v>
       </c>
     </row>
     <row r="269" spans="1:6">
       <c r="A269" s="28" t="s">
-        <v>1237</v>
+        <v>1232</v>
       </c>
       <c r="B269" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="C269" s="27" t="s">
-        <v>394</v>
+      <c r="C269" s="26" t="s">
+        <v>372</v>
       </c>
       <c r="D269" s="26" t="s">
-        <v>1089</v>
-      </c>
-      <c r="E269" s="27"/>
+        <v>1086</v>
+      </c>
+      <c r="E269" s="26"/>
       <c r="F269" t="s">
-        <v>875</v>
+        <v>870</v>
       </c>
     </row>
     <row r="270" spans="1:6">
       <c r="A270" s="28" t="s">
-        <v>1238</v>
+        <v>1233</v>
       </c>
       <c r="B270" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="C270" s="26" t="s">
-        <v>395</v>
+      <c r="C270" s="19" t="s">
+        <v>373</v>
       </c>
       <c r="D270" s="26" t="s">
-        <v>1089</v>
-      </c>
-      <c r="E270" s="26"/>
+        <v>1088</v>
+      </c>
+      <c r="E270" s="19"/>
       <c r="F270" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
     </row>
     <row r="271" spans="1:6">
       <c r="A271" s="28" t="s">
-        <v>1239</v>
+        <v>1234</v>
       </c>
       <c r="B271" s="3" t="s">
         <v>626</v>
       </c>
       <c r="C271" s="26" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="D271" s="26" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="E271" s="26"/>
       <c r="F271" t="s">
-        <v>877</v>
+        <v>872</v>
       </c>
     </row>
     <row r="272" spans="1:6">
       <c r="A272" s="28" t="s">
-        <v>1240</v>
+        <v>1235</v>
       </c>
       <c r="B272" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="C272" s="26" t="s">
-        <v>392</v>
+      <c r="C272" s="19" t="s">
+        <v>386</v>
       </c>
       <c r="D272" s="26" t="s">
         <v>1089</v>
       </c>
-      <c r="E272" s="26"/>
+      <c r="E272" s="19"/>
       <c r="F272" t="s">
-        <v>878</v>
+        <v>873</v>
       </c>
     </row>
     <row r="273" spans="1:6">
       <c r="A273" s="28" t="s">
-        <v>1241</v>
+        <v>1236</v>
       </c>
       <c r="B273" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="C273" s="19" t="s">
-        <v>388</v>
+      <c r="C273" s="26" t="s">
+        <v>390</v>
       </c>
       <c r="D273" s="26" t="s">
-        <v>1090</v>
-      </c>
-      <c r="E273" s="19"/>
-      <c r="F273" t="s">
-        <v>879</v>
+        <v>1089</v>
+      </c>
+      <c r="E273" s="26"/>
+      <c r="F273" s="6" t="s">
+        <v>874</v>
       </c>
     </row>
     <row r="274" spans="1:6">
       <c r="A274" s="28" t="s">
-        <v>1242</v>
+        <v>1237</v>
       </c>
       <c r="B274" s="3" t="s">
         <v>626</v>
       </c>
       <c r="C274" s="27" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="D274" s="26" t="s">
         <v>1089</v>
       </c>
       <c r="E274" s="27"/>
       <c r="F274" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="275" spans="1:6">
       <c r="A275" s="28" t="s">
-        <v>1243</v>
+        <v>1238</v>
       </c>
       <c r="B275" s="3" t="s">
         <v>626</v>
       </c>
       <c r="C275" s="26" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="D275" s="26" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="E275" s="26"/>
       <c r="F275" t="s">
-        <v>881</v>
+        <v>876</v>
       </c>
     </row>
     <row r="276" spans="1:6">
       <c r="A276" s="28" t="s">
-        <v>1244</v>
+        <v>1239</v>
       </c>
       <c r="B276" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="C276" s="19" t="s">
-        <v>404</v>
+      <c r="C276" s="26" t="s">
+        <v>396</v>
       </c>
       <c r="D276" s="26" t="s">
-        <v>986</v>
-      </c>
-      <c r="E276" s="19"/>
+        <v>1089</v>
+      </c>
+      <c r="E276" s="26"/>
       <c r="F276" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
     </row>
     <row r="277" spans="1:6">
       <c r="A277" s="28" t="s">
-        <v>1245</v>
+        <v>1240</v>
       </c>
       <c r="B277" s="3" t="s">
         <v>626</v>
       </c>
       <c r="C277" s="26" t="s">
-        <v>405</v>
+        <v>392</v>
       </c>
       <c r="D277" s="26" t="s">
-        <v>1086</v>
+        <v>1089</v>
       </c>
       <c r="E277" s="26"/>
       <c r="F277" t="s">
-        <v>883</v>
+        <v>878</v>
       </c>
     </row>
     <row r="278" spans="1:6">
       <c r="A278" s="28" t="s">
-        <v>1104</v>
+        <v>1241</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>1033</v>
-      </c>
-      <c r="C278" s="26"/>
+        <v>626</v>
+      </c>
+      <c r="C278" s="19" t="s">
+        <v>388</v>
+      </c>
       <c r="D278" s="26" t="s">
-        <v>1091</v>
-      </c>
-      <c r="E278" s="26"/>
+        <v>1090</v>
+      </c>
+      <c r="E278" s="19"/>
+      <c r="F278" t="s">
+        <v>879</v>
+      </c>
     </row>
     <row r="279" spans="1:6">
       <c r="A279" s="28" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
       <c r="B279" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="C279" s="19" t="s">
-        <v>522</v>
+      <c r="C279" s="27" t="s">
+        <v>400</v>
       </c>
       <c r="D279" s="26" t="s">
-        <v>1091</v>
-      </c>
-      <c r="E279" s="19"/>
+        <v>1089</v>
+      </c>
+      <c r="E279" s="27"/>
       <c r="F279" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
     </row>
     <row r="280" spans="1:6">
       <c r="A280" s="28" t="s">
-        <v>1247</v>
+        <v>1243</v>
       </c>
       <c r="B280" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="C280" s="27" t="s">
-        <v>406</v>
+      <c r="C280" s="26" t="s">
+        <v>402</v>
       </c>
       <c r="D280" s="26" t="s">
-        <v>1089</v>
-      </c>
-      <c r="E280" s="27"/>
+        <v>1090</v>
+      </c>
+      <c r="E280" s="26"/>
       <c r="F280" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
     </row>
     <row r="281" spans="1:6">
       <c r="A281" s="28" t="s">
-        <v>1248</v>
+        <v>1244</v>
       </c>
       <c r="B281" s="3" t="s">
         <v>626</v>
       </c>
       <c r="C281" s="19" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D281" s="26" t="s">
-        <v>1088</v>
+        <v>986</v>
       </c>
       <c r="E281" s="19"/>
       <c r="F281" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
     </row>
     <row r="282" spans="1:6">
       <c r="A282" s="28" t="s">
-        <v>1249</v>
+        <v>1245</v>
       </c>
       <c r="B282" s="3" t="s">
         <v>626</v>
       </c>
       <c r="C282" s="26" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D282" s="26" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="E282" s="26"/>
       <c r="F282" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
     </row>
     <row r="283" spans="1:6">
       <c r="A283" s="28" t="s">
-        <v>1250</v>
+        <v>1104</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>626</v>
-      </c>
-      <c r="C283" s="18" t="s">
-        <v>516</v>
-      </c>
+        <v>1033</v>
+      </c>
+      <c r="C283" s="26"/>
       <c r="D283" s="26" t="s">
-        <v>1086</v>
-      </c>
-      <c r="E283" s="18"/>
-      <c r="F283" s="6" t="s">
-        <v>888</v>
-      </c>
+        <v>1091</v>
+      </c>
+      <c r="E283" s="26"/>
     </row>
     <row r="284" spans="1:6">
       <c r="A284" s="28" t="s">
-        <v>1251</v>
+        <v>1246</v>
       </c>
       <c r="B284" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="C284" s="26" t="s">
-        <v>409</v>
+      <c r="C284" s="19" t="s">
+        <v>522</v>
       </c>
       <c r="D284" s="26" t="s">
-        <v>1088</v>
-      </c>
-      <c r="E284" s="26"/>
+        <v>1091</v>
+      </c>
+      <c r="E284" s="19"/>
       <c r="F284" t="s">
-        <v>889</v>
+        <v>884</v>
       </c>
     </row>
     <row r="285" spans="1:6">
       <c r="A285" s="28" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
       <c r="B285" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="C285" s="26" t="s">
-        <v>410</v>
+      <c r="C285" s="27" t="s">
+        <v>406</v>
       </c>
       <c r="D285" s="26" t="s">
         <v>1089</v>
       </c>
-      <c r="E285" s="26"/>
+      <c r="E285" s="27"/>
       <c r="F285" t="s">
-        <v>890</v>
+        <v>885</v>
       </c>
     </row>
     <row r="286" spans="1:6">
       <c r="A286" s="28" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
       <c r="B286" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="C286" s="26" t="s">
-        <v>411</v>
+      <c r="C286" s="19" t="s">
+        <v>407</v>
       </c>
       <c r="D286" s="26" t="s">
-        <v>1089</v>
-      </c>
-      <c r="E286" s="26"/>
+        <v>1088</v>
+      </c>
+      <c r="E286" s="19"/>
       <c r="F286" t="s">
-        <v>891</v>
+        <v>886</v>
       </c>
     </row>
     <row r="287" spans="1:6">
       <c r="A287" s="28" t="s">
-        <v>1254</v>
+        <v>1249</v>
       </c>
       <c r="B287" s="3" t="s">
         <v>626</v>
       </c>
       <c r="C287" s="26" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="D287" s="26" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="E287" s="26"/>
       <c r="F287" t="s">
-        <v>892</v>
+        <v>887</v>
       </c>
     </row>
     <row r="288" spans="1:6">
       <c r="A288" s="28" t="s">
-        <v>1255</v>
+        <v>1250</v>
       </c>
       <c r="B288" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="C288" s="26" t="s">
-        <v>413</v>
+      <c r="C288" s="18" t="s">
+        <v>516</v>
       </c>
       <c r="D288" s="26" t="s">
-        <v>1089</v>
-      </c>
-      <c r="E288" s="26"/>
-      <c r="F288" t="s">
-        <v>893</v>
+        <v>1086</v>
+      </c>
+      <c r="E288" s="18"/>
+      <c r="F288" s="6" t="s">
+        <v>888</v>
       </c>
     </row>
     <row r="289" spans="1:6">
       <c r="A289" s="28" t="s">
-        <v>1256</v>
+        <v>1251</v>
       </c>
       <c r="B289" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="C289" s="19" t="s">
-        <v>513</v>
+      <c r="C289" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="D289" s="26" t="s">
-        <v>1090</v>
-      </c>
-      <c r="E289" s="19"/>
+        <v>1088</v>
+      </c>
+      <c r="E289" s="26"/>
       <c r="F289" t="s">
-        <v>894</v>
+        <v>889</v>
       </c>
     </row>
     <row r="290" spans="1:6">
       <c r="A290" s="28" t="s">
-        <v>1257</v>
+        <v>1252</v>
       </c>
       <c r="B290" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="C290" s="19" t="s">
-        <v>512</v>
+      <c r="C290" s="26" t="s">
+        <v>410</v>
       </c>
       <c r="D290" s="26" t="s">
-        <v>1090</v>
-      </c>
-      <c r="E290" s="19"/>
+        <v>1089</v>
+      </c>
+      <c r="E290" s="26"/>
       <c r="F290" t="s">
-        <v>895</v>
+        <v>890</v>
       </c>
     </row>
     <row r="291" spans="1:6">
       <c r="A291" s="28" t="s">
-        <v>1258</v>
+        <v>1253</v>
       </c>
       <c r="B291" s="3" t="s">
         <v>626</v>
       </c>
       <c r="C291" s="26" t="s">
-        <v>425</v>
+        <v>411</v>
       </c>
       <c r="D291" s="26" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="E291" s="26"/>
       <c r="F291" t="s">
-        <v>896</v>
+        <v>891</v>
       </c>
     </row>
     <row r="292" spans="1:6">
       <c r="A292" s="28" t="s">
-        <v>1259</v>
+        <v>1254</v>
       </c>
       <c r="B292" s="3" t="s">
         <v>626</v>
       </c>
       <c r="C292" s="26" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="D292" s="26" t="s">
         <v>1090</v>
       </c>
       <c r="E292" s="26"/>
-      <c r="F292" s="6" t="s">
-        <v>897</v>
+      <c r="F292" t="s">
+        <v>892</v>
       </c>
     </row>
     <row r="293" spans="1:6">
       <c r="A293" s="28" t="s">
-        <v>1260</v>
+        <v>1255</v>
       </c>
       <c r="B293" s="3" t="s">
         <v>626</v>
       </c>
       <c r="C293" s="26" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
       <c r="D293" s="26" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="E293" s="26"/>
-      <c r="F293" s="6" t="s">
-        <v>898</v>
+      <c r="F293" t="s">
+        <v>893</v>
       </c>
     </row>
     <row r="294" spans="1:6">
       <c r="A294" s="28" t="s">
-        <v>1261</v>
+        <v>1256</v>
       </c>
       <c r="B294" s="3" t="s">
         <v>626</v>
       </c>
       <c r="C294" s="19" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="D294" s="26" t="s">
         <v>1090</v>
       </c>
       <c r="E294" s="19"/>
       <c r="F294" t="s">
-        <v>899</v>
+        <v>894</v>
       </c>
     </row>
     <row r="295" spans="1:6">
       <c r="A295" s="28" t="s">
-        <v>1262</v>
+        <v>1257</v>
       </c>
       <c r="B295" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="C295" s="26" t="s">
-        <v>429</v>
+      <c r="C295" s="19" t="s">
+        <v>512</v>
       </c>
       <c r="D295" s="26" t="s">
-        <v>1089</v>
-      </c>
-      <c r="E295" s="26"/>
+        <v>1090</v>
+      </c>
+      <c r="E295" s="19"/>
       <c r="F295" t="s">
-        <v>900</v>
+        <v>895</v>
       </c>
     </row>
     <row r="296" spans="1:6">
       <c r="A296" s="28" t="s">
-        <v>1263</v>
+        <v>1258</v>
       </c>
       <c r="B296" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="C296" s="18" t="s">
-        <v>426</v>
+      <c r="C296" s="26" t="s">
+        <v>425</v>
       </c>
       <c r="D296" s="26" t="s">
         <v>1090</v>
       </c>
-      <c r="E296" s="18"/>
+      <c r="E296" s="26"/>
       <c r="F296" t="s">
-        <v>901</v>
+        <v>896</v>
       </c>
     </row>
     <row r="297" spans="1:6">
       <c r="A297" s="28" t="s">
-        <v>1264</v>
+        <v>1259</v>
       </c>
       <c r="B297" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="C297" s="19" t="s">
-        <v>427</v>
+      <c r="C297" s="26" t="s">
+        <v>424</v>
       </c>
       <c r="D297" s="26" t="s">
-        <v>1089</v>
-      </c>
-      <c r="E297" s="19"/>
-      <c r="F297" t="s">
-        <v>902</v>
+        <v>1090</v>
+      </c>
+      <c r="E297" s="26"/>
+      <c r="F297" s="6" t="s">
+        <v>897</v>
       </c>
     </row>
     <row r="298" spans="1:6">
       <c r="A298" s="28" t="s">
-        <v>1265</v>
+        <v>1260</v>
       </c>
       <c r="B298" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="C298" s="19" t="s">
-        <v>431</v>
+      <c r="C298" s="26" t="s">
+        <v>428</v>
       </c>
       <c r="D298" s="26" t="s">
-        <v>1089</v>
-      </c>
-      <c r="E298" s="19"/>
-      <c r="F298" t="s">
-        <v>903</v>
+        <v>1090</v>
+      </c>
+      <c r="E298" s="26"/>
+      <c r="F298" s="6" t="s">
+        <v>898</v>
       </c>
     </row>
     <row r="299" spans="1:6">
       <c r="A299" s="28" t="s">
-        <v>1266</v>
+        <v>1261</v>
       </c>
       <c r="B299" s="3" t="s">
         <v>626</v>
       </c>
       <c r="C299" s="19" t="s">
-        <v>430</v>
+        <v>510</v>
       </c>
       <c r="D299" s="26" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="E299" s="19"/>
       <c r="F299" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
     </row>
     <row r="300" spans="1:6">
       <c r="A300" s="28" t="s">
-        <v>1267</v>
+        <v>1262</v>
       </c>
       <c r="B300" s="3" t="s">
         <v>626</v>
       </c>
       <c r="C300" s="26" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="D300" s="26" t="s">
         <v>1089</v>
       </c>
       <c r="E300" s="26"/>
-      <c r="F300" s="6" t="s">
-        <v>905</v>
+      <c r="F300" t="s">
+        <v>900</v>
       </c>
     </row>
     <row r="301" spans="1:6">
       <c r="A301" s="28" t="s">
-        <v>1268</v>
+        <v>1263</v>
       </c>
       <c r="B301" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="C301" s="27" t="s">
-        <v>433</v>
+      <c r="C301" s="18" t="s">
+        <v>426</v>
       </c>
       <c r="D301" s="26" t="s">
-        <v>1089</v>
-      </c>
-      <c r="E301" s="27"/>
+        <v>1090</v>
+      </c>
+      <c r="E301" s="18"/>
       <c r="F301" t="s">
-        <v>906</v>
+        <v>901</v>
       </c>
     </row>
     <row r="302" spans="1:6">
       <c r="A302" s="28" t="s">
-        <v>1269</v>
+        <v>1264</v>
       </c>
       <c r="B302" s="3" t="s">
         <v>626</v>
       </c>
       <c r="C302" s="19" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="D302" s="26" t="s">
         <v>1089</v>
       </c>
       <c r="E302" s="19"/>
       <c r="F302" t="s">
-        <v>907</v>
+        <v>902</v>
       </c>
     </row>
     <row r="303" spans="1:6">
       <c r="A303" s="28" t="s">
-        <v>1270</v>
+        <v>1265</v>
       </c>
       <c r="B303" s="3" t="s">
         <v>626</v>
       </c>
       <c r="C303" s="19" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="D303" s="26" t="s">
         <v>1089</v>
       </c>
       <c r="E303" s="19"/>
       <c r="F303" t="s">
-        <v>908</v>
+        <v>903</v>
       </c>
     </row>
     <row r="304" spans="1:6">
       <c r="A304" s="28" t="s">
-        <v>1271</v>
+        <v>1266</v>
       </c>
       <c r="B304" s="3" t="s">
         <v>626</v>
       </c>
       <c r="C304" s="19" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="D304" s="26" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="E304" s="19"/>
       <c r="F304" t="s">
-        <v>909</v>
+        <v>904</v>
       </c>
     </row>
     <row r="305" spans="1:6">
       <c r="A305" s="28" t="s">
-        <v>1272</v>
+        <v>1267</v>
       </c>
       <c r="B305" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="C305" s="27" t="s">
-        <v>437</v>
+      <c r="C305" s="26" t="s">
+        <v>432</v>
       </c>
       <c r="D305" s="26" t="s">
         <v>1089</v>
       </c>
-      <c r="E305" s="27"/>
-      <c r="F305" t="s">
-        <v>910</v>
+      <c r="E305" s="26"/>
+      <c r="F305" s="6" t="s">
+        <v>905</v>
       </c>
     </row>
     <row r="306" spans="1:6">
       <c r="A306" s="28" t="s">
-        <v>1273</v>
+        <v>1268</v>
       </c>
       <c r="B306" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="C306" s="26" t="s">
-        <v>508</v>
+      <c r="C306" s="27" t="s">
+        <v>433</v>
       </c>
       <c r="D306" s="26" t="s">
         <v>1089</v>
       </c>
-      <c r="E306" s="26"/>
+      <c r="E306" s="27"/>
       <c r="F306" t="s">
-        <v>911</v>
+        <v>906</v>
       </c>
     </row>
     <row r="307" spans="1:6">
       <c r="A307" s="28" t="s">
-        <v>1274</v>
+        <v>1269</v>
       </c>
       <c r="B307" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="C307" s="26" t="s">
-        <v>438</v>
+      <c r="C307" s="19" t="s">
+        <v>434</v>
       </c>
       <c r="D307" s="26" t="s">
-        <v>1090</v>
-      </c>
-      <c r="E307" s="26"/>
+        <v>1089</v>
+      </c>
+      <c r="E307" s="19"/>
       <c r="F307" t="s">
-        <v>912</v>
+        <v>907</v>
       </c>
     </row>
     <row r="308" spans="1:6">
       <c r="A308" s="28" t="s">
-        <v>1275</v>
+        <v>1270</v>
       </c>
       <c r="B308" s="3" t="s">
         <v>626</v>
       </c>
       <c r="C308" s="19" t="s">
-        <v>454</v>
+        <v>435</v>
       </c>
       <c r="D308" s="26" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="E308" s="19"/>
       <c r="F308" t="s">
-        <v>913</v>
+        <v>908</v>
       </c>
     </row>
     <row r="309" spans="1:6">
       <c r="A309" s="28" t="s">
-        <v>1276</v>
+        <v>1271</v>
       </c>
       <c r="B309" s="3" t="s">
         <v>626</v>
       </c>
       <c r="C309" s="19" t="s">
-        <v>455</v>
+        <v>436</v>
       </c>
       <c r="D309" s="26" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="E309" s="19"/>
       <c r="F309" t="s">
-        <v>914</v>
+        <v>909</v>
       </c>
     </row>
     <row r="310" spans="1:6">
       <c r="A310" s="28" t="s">
-        <v>1277</v>
+        <v>1272</v>
       </c>
       <c r="B310" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="C310" s="26" t="s">
-        <v>456</v>
+      <c r="C310" s="27" t="s">
+        <v>437</v>
       </c>
       <c r="D310" s="26" t="s">
-        <v>1088</v>
-      </c>
-      <c r="E310" s="26"/>
+        <v>1089</v>
+      </c>
+      <c r="E310" s="27"/>
       <c r="F310" t="s">
-        <v>915</v>
+        <v>910</v>
       </c>
     </row>
     <row r="311" spans="1:6">
       <c r="A311" s="28" t="s">
-        <v>1278</v>
+        <v>1273</v>
       </c>
       <c r="B311" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="C311" s="19" t="s">
-        <v>457</v>
+      <c r="C311" s="26" t="s">
+        <v>508</v>
       </c>
       <c r="D311" s="26" t="s">
-        <v>1091</v>
-      </c>
-      <c r="E311" s="19"/>
+        <v>1089</v>
+      </c>
+      <c r="E311" s="26"/>
       <c r="F311" t="s">
-        <v>916</v>
+        <v>911</v>
       </c>
     </row>
     <row r="312" spans="1:6">
       <c r="A312" s="28" t="s">
-        <v>1279</v>
+        <v>1274</v>
       </c>
       <c r="B312" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="C312" s="19" t="s">
-        <v>458</v>
+      <c r="C312" s="26" t="s">
+        <v>438</v>
       </c>
       <c r="D312" s="26" t="s">
         <v>1090</v>
       </c>
-      <c r="E312" s="19"/>
+      <c r="E312" s="26"/>
       <c r="F312" t="s">
-        <v>917</v>
+        <v>912</v>
       </c>
     </row>
     <row r="313" spans="1:6">
       <c r="A313" s="28" t="s">
-        <v>1280</v>
+        <v>1275</v>
       </c>
       <c r="B313" s="3" t="s">
         <v>626</v>
       </c>
       <c r="C313" s="19" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="D313" s="26" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="E313" s="19"/>
       <c r="F313" t="s">
-        <v>918</v>
+        <v>913</v>
       </c>
     </row>
     <row r="314" spans="1:6">
       <c r="A314" s="28" t="s">
-        <v>1281</v>
+        <v>1276</v>
       </c>
       <c r="B314" s="3" t="s">
         <v>626</v>
       </c>
       <c r="C314" s="19" t="s">
-        <v>504</v>
+        <v>455</v>
       </c>
       <c r="D314" s="26" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="E314" s="19"/>
       <c r="F314" t="s">
-        <v>919</v>
+        <v>914</v>
       </c>
     </row>
     <row r="315" spans="1:6">
       <c r="A315" s="28" t="s">
-        <v>1282</v>
+        <v>1277</v>
       </c>
       <c r="B315" s="3" t="s">
         <v>626</v>
       </c>
       <c r="C315" s="26" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="D315" s="26" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="E315" s="26"/>
       <c r="F315" t="s">
-        <v>920</v>
+        <v>915</v>
       </c>
     </row>
     <row r="316" spans="1:6">
       <c r="A316" s="28" t="s">
-        <v>1283</v>
+        <v>1278</v>
       </c>
       <c r="B316" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="C316" s="26" t="s">
-        <v>461</v>
+      <c r="C316" s="19" t="s">
+        <v>457</v>
       </c>
       <c r="D316" s="26" t="s">
         <v>1091</v>
       </c>
-      <c r="E316" s="26"/>
+      <c r="E316" s="19"/>
       <c r="F316" t="s">
-        <v>921</v>
+        <v>916</v>
       </c>
     </row>
     <row r="317" spans="1:6">
       <c r="A317" s="28" t="s">
-        <v>1284</v>
+        <v>1279</v>
       </c>
       <c r="B317" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="C317" s="26" t="s">
-        <v>462</v>
+      <c r="C317" s="19" t="s">
+        <v>458</v>
       </c>
       <c r="D317" s="26" t="s">
-        <v>1091</v>
-      </c>
-      <c r="E317" s="26"/>
+        <v>1090</v>
+      </c>
+      <c r="E317" s="19"/>
       <c r="F317" t="s">
-        <v>922</v>
+        <v>917</v>
       </c>
     </row>
     <row r="318" spans="1:6">
       <c r="A318" s="28" t="s">
-        <v>1285</v>
+        <v>1280</v>
       </c>
       <c r="B318" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="C318" s="26" t="s">
-        <v>463</v>
+      <c r="C318" s="19" t="s">
+        <v>460</v>
       </c>
       <c r="D318" s="26" t="s">
         <v>1091</v>
       </c>
-      <c r="E318" s="26"/>
+      <c r="E318" s="19"/>
       <c r="F318" t="s">
-        <v>923</v>
+        <v>918</v>
       </c>
     </row>
     <row r="319" spans="1:6">
       <c r="A319" s="28" t="s">
-        <v>1286</v>
+        <v>1281</v>
       </c>
       <c r="B319" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="C319" s="26" t="s">
-        <v>464</v>
+      <c r="C319" s="19" t="s">
+        <v>504</v>
       </c>
       <c r="D319" s="26" t="s">
         <v>1091</v>
       </c>
-      <c r="E319" s="26"/>
+      <c r="E319" s="19"/>
       <c r="F319" t="s">
-        <v>924</v>
+        <v>919</v>
       </c>
     </row>
     <row r="320" spans="1:6">
       <c r="A320" s="28" t="s">
-        <v>1287</v>
+        <v>1282</v>
       </c>
       <c r="B320" s="3" t="s">
         <v>626</v>
       </c>
       <c r="C320" s="26" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="D320" s="26" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="E320" s="26"/>
       <c r="F320" t="s">
-        <v>925</v>
+        <v>920</v>
       </c>
     </row>
     <row r="321" spans="1:6">
       <c r="A321" s="28" t="s">
-        <v>1288</v>
+        <v>1283</v>
       </c>
       <c r="B321" s="3" t="s">
         <v>626</v>
       </c>
       <c r="C321" s="26" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="D321" s="26" t="s">
-        <v>1087</v>
+        <v>1091</v>
       </c>
       <c r="E321" s="26"/>
-      <c r="F321" s="19" t="s">
-        <v>926</v>
+      <c r="F321" t="s">
+        <v>921</v>
       </c>
     </row>
     <row r="322" spans="1:6">
       <c r="A322" s="28" t="s">
-        <v>1289</v>
+        <v>1284</v>
       </c>
       <c r="B322" s="3" t="s">
         <v>626</v>
       </c>
       <c r="C322" s="26" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="D322" s="26" t="s">
-        <v>1087</v>
+        <v>1091</v>
       </c>
       <c r="E322" s="26"/>
       <c r="F322" t="s">
-        <v>927</v>
+        <v>922</v>
       </c>
     </row>
     <row r="323" spans="1:6">
       <c r="A323" s="28" t="s">
-        <v>1290</v>
+        <v>1285</v>
       </c>
       <c r="B323" s="3" t="s">
         <v>626</v>
       </c>
       <c r="C323" s="26" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="D323" s="26" t="s">
-        <v>1088</v>
+        <v>1091</v>
       </c>
       <c r="E323" s="26"/>
       <c r="F323" t="s">
-        <v>928</v>
+        <v>923</v>
       </c>
     </row>
     <row r="324" spans="1:6">
       <c r="A324" s="28" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="B324" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="C324" s="27" t="s">
-        <v>484</v>
+      <c r="C324" s="26" t="s">
+        <v>464</v>
       </c>
       <c r="D324" s="26" t="s">
-        <v>1089</v>
-      </c>
-      <c r="E324" s="27"/>
+        <v>1091</v>
+      </c>
+      <c r="E324" s="26"/>
       <c r="F324" t="s">
-        <v>929</v>
+        <v>924</v>
       </c>
     </row>
     <row r="325" spans="1:6">
       <c r="A325" s="28" t="s">
-        <v>1292</v>
+        <v>1287</v>
       </c>
       <c r="B325" s="3" t="s">
         <v>626</v>
       </c>
       <c r="C325" s="26" t="s">
-        <v>485</v>
+        <v>465</v>
       </c>
       <c r="D325" s="26" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="E325" s="26"/>
       <c r="F325" t="s">
-        <v>930</v>
+        <v>925</v>
       </c>
     </row>
     <row r="326" spans="1:6">
       <c r="A326" s="28" t="s">
-        <v>1293</v>
+        <v>1288</v>
       </c>
       <c r="B326" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="C326" s="19" t="s">
-        <v>486</v>
+      <c r="C326" s="26" t="s">
+        <v>466</v>
       </c>
       <c r="D326" s="26" t="s">
         <v>1087</v>
       </c>
-      <c r="E326" s="19"/>
-      <c r="F326" t="s">
-        <v>931</v>
+      <c r="E326" s="26"/>
+      <c r="F326" s="19" t="s">
+        <v>926</v>
       </c>
     </row>
     <row r="327" spans="1:6">
       <c r="A327" s="28" t="s">
-        <v>1294</v>
+        <v>1289</v>
       </c>
       <c r="B327" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="C327" s="19" t="s">
-        <v>487</v>
+      <c r="C327" s="26" t="s">
+        <v>467</v>
       </c>
       <c r="D327" s="26" t="s">
         <v>1087</v>
       </c>
-      <c r="E327" s="19"/>
+      <c r="E327" s="26"/>
       <c r="F327" t="s">
-        <v>932</v>
+        <v>927</v>
       </c>
     </row>
     <row r="328" spans="1:6">
       <c r="A328" s="28" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B328" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="C328" s="19" t="s">
-        <v>488</v>
+      <c r="C328" s="26" t="s">
+        <v>468</v>
       </c>
       <c r="D328" s="26" t="s">
-        <v>1091</v>
-      </c>
-      <c r="E328" s="19"/>
+        <v>1088</v>
+      </c>
+      <c r="E328" s="26"/>
       <c r="F328" t="s">
-        <v>933</v>
+        <v>928</v>
       </c>
     </row>
     <row r="329" spans="1:6">
       <c r="A329" s="28" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="B329" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="C329" s="19" t="s">
-        <v>489</v>
+      <c r="C329" s="27" t="s">
+        <v>484</v>
       </c>
       <c r="D329" s="26" t="s">
-        <v>1091</v>
-      </c>
-      <c r="E329" s="19"/>
+        <v>1089</v>
+      </c>
+      <c r="E329" s="27"/>
       <c r="F329" t="s">
-        <v>934</v>
+        <v>929</v>
       </c>
     </row>
     <row r="330" spans="1:6">
       <c r="A330" s="28" t="s">
-        <v>1297</v>
+        <v>1292</v>
       </c>
       <c r="B330" s="3" t="s">
         <v>626</v>
       </c>
       <c r="C330" s="26" t="s">
-        <v>506</v>
+        <v>485</v>
       </c>
       <c r="D330" s="26" t="s">
         <v>1091</v>
       </c>
       <c r="E330" s="26"/>
       <c r="F330" t="s">
-        <v>935</v>
+        <v>930</v>
       </c>
     </row>
     <row r="331" spans="1:6">
       <c r="A331" s="28" t="s">
-        <v>1298</v>
+        <v>1293</v>
       </c>
       <c r="B331" s="3" t="s">
         <v>626</v>
       </c>
       <c r="C331" s="19" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="D331" s="26" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="E331" s="19"/>
       <c r="F331" t="s">
-        <v>936</v>
+        <v>931</v>
       </c>
     </row>
     <row r="332" spans="1:6">
       <c r="A332" s="28" t="s">
-        <v>1299</v>
+        <v>1294</v>
       </c>
       <c r="B332" s="3" t="s">
         <v>626</v>
       </c>
       <c r="C332" s="19" t="s">
-        <v>498</v>
+        <v>487</v>
       </c>
       <c r="D332" s="26" t="s">
-        <v>1091</v>
+        <v>1087</v>
       </c>
       <c r="E332" s="19"/>
       <c r="F332" t="s">
-        <v>937</v>
+        <v>932</v>
       </c>
     </row>
     <row r="333" spans="1:6">
       <c r="A333" s="28" t="s">
-        <v>1300</v>
+        <v>1295</v>
       </c>
       <c r="B333" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="C333" s="18" t="s">
-        <v>500</v>
+      <c r="C333" s="19" t="s">
+        <v>488</v>
       </c>
       <c r="D333" s="26" t="s">
-        <v>1090</v>
-      </c>
-      <c r="E333" s="18"/>
-      <c r="F333" s="6" t="s">
-        <v>938</v>
+        <v>1091</v>
+      </c>
+      <c r="E333" s="19"/>
+      <c r="F333" t="s">
+        <v>933</v>
       </c>
     </row>
     <row r="334" spans="1:6">
       <c r="A334" s="28" t="s">
-        <v>1301</v>
+        <v>1296</v>
       </c>
       <c r="B334" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="C334" s="27" t="s">
-        <v>502</v>
+      <c r="C334" s="19" t="s">
+        <v>489</v>
       </c>
       <c r="D334" s="26" t="s">
-        <v>1090</v>
-      </c>
-      <c r="E334" s="27"/>
-      <c r="F334" s="6" t="s">
-        <v>939</v>
+        <v>1091</v>
+      </c>
+      <c r="E334" s="19"/>
+      <c r="F334" t="s">
+        <v>934</v>
       </c>
     </row>
     <row r="335" spans="1:6">
       <c r="A335" s="28" t="s">
-        <v>1306</v>
+        <v>1297</v>
       </c>
       <c r="B335" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="C335" s="27" t="s">
-        <v>1309</v>
+      <c r="C335" s="26" t="s">
+        <v>506</v>
       </c>
       <c r="D335" s="26" t="s">
-        <v>1089</v>
-      </c>
-      <c r="E335" s="27"/>
-      <c r="F335" s="6" t="s">
-        <v>1310</v>
+        <v>1091</v>
+      </c>
+      <c r="E335" s="26"/>
+      <c r="F335" t="s">
+        <v>935</v>
       </c>
     </row>
     <row r="336" spans="1:6">
       <c r="A336" s="28" t="s">
-        <v>1311</v>
+        <v>1298</v>
       </c>
       <c r="B336" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="C336" s="27" t="s">
-        <v>1312</v>
+      <c r="C336" s="19" t="s">
+        <v>496</v>
       </c>
       <c r="D336" s="26" t="s">
-        <v>1091</v>
-      </c>
-      <c r="E336" s="27"/>
-      <c r="F336" s="6" t="s">
-        <v>1313</v>
+        <v>1086</v>
+      </c>
+      <c r="E336" s="19"/>
+      <c r="F336" t="s">
+        <v>936</v>
       </c>
     </row>
     <row r="337" spans="1:6">
       <c r="A337" s="28" t="s">
-        <v>1307</v>
+        <v>1299</v>
       </c>
       <c r="B337" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="C337" s="18" t="s">
-        <v>1303</v>
+      <c r="C337" s="19" t="s">
+        <v>498</v>
       </c>
       <c r="D337" s="26" t="s">
-        <v>1089</v>
-      </c>
+        <v>1091</v>
+      </c>
+      <c r="E337" s="19"/>
       <c r="F337" t="s">
-        <v>1302</v>
+        <v>937</v>
       </c>
     </row>
     <row r="338" spans="1:6">
       <c r="A338" s="28" t="s">
-        <v>1308</v>
+        <v>1300</v>
       </c>
       <c r="B338" s="3" t="s">
         <v>626</v>
       </c>
       <c r="C338" s="18" t="s">
-        <v>1304</v>
+        <v>500</v>
       </c>
       <c r="D338" s="26" t="s">
-        <v>990</v>
-      </c>
-      <c r="F338" t="s">
-        <v>1305</v>
+        <v>1090</v>
+      </c>
+      <c r="E338" s="18"/>
+      <c r="F338" s="6" t="s">
+        <v>938</v>
       </c>
     </row>
     <row r="339" spans="1:6">
       <c r="A339" s="28" t="s">
-        <v>1317</v>
+        <v>1301</v>
       </c>
       <c r="B339" s="3" t="s">
         <v>626</v>
       </c>
       <c r="C339" s="27" t="s">
-        <v>1318</v>
+        <v>502</v>
       </c>
       <c r="D339" s="26" t="s">
         <v>1090</v>
       </c>
-      <c r="F339" t="s">
-        <v>1319</v>
+      <c r="E339" s="27"/>
+      <c r="F339" s="6" t="s">
+        <v>939</v>
       </c>
     </row>
     <row r="340" spans="1:6">
       <c r="A340" s="28" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B340" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="C340" s="27" t="s">
+        <v>1309</v>
+      </c>
+      <c r="D340" s="26" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E340" s="27"/>
+      <c r="F340" s="6" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6">
+      <c r="A341" s="28" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B341" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="C341" s="27" t="s">
+        <v>1312</v>
+      </c>
+      <c r="D341" s="26" t="s">
+        <v>1091</v>
+      </c>
+      <c r="E341" s="27"/>
+      <c r="F341" s="6" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6">
+      <c r="A342" s="28" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B342" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="C342" s="18" t="s">
+        <v>1303</v>
+      </c>
+      <c r="D342" s="26" t="s">
+        <v>1089</v>
+      </c>
+      <c r="F342" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6">
+      <c r="A343" s="28" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B343" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="C343" s="18" t="s">
+        <v>1304</v>
+      </c>
+      <c r="D343" s="26" t="s">
+        <v>990</v>
+      </c>
+      <c r="F343" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6">
+      <c r="A344" s="28" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B344" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="C344" s="27" t="s">
+        <v>1318</v>
+      </c>
+      <c r="D344" s="26" t="s">
+        <v>1090</v>
+      </c>
+      <c r="F344" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6">
+      <c r="A345" s="28" t="s">
         <v>1315</v>
       </c>
-      <c r="B340" s="3" t="s">
-        <v>626</v>
-      </c>
-      <c r="C340" s="27" t="s">
+      <c r="B345" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="C345" s="27" t="s">
         <v>1314</v>
       </c>
-      <c r="D340" s="26" t="s">
+      <c r="D345" s="26" t="s">
         <v>1090</v>
       </c>
-      <c r="F340" t="s">
+      <c r="F345" t="s">
         <v>1316</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F334" xr:uid="{B8FBB380-25CE-48E1-8B68-143CBA8DEA45}"/>
+  <autoFilter ref="A1:F345" xr:uid="{B8FBB380-25CE-48E1-8B68-143CBA8DEA45}"/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/slackbuilds/sb_migr.xlsx
+++ b/slackbuilds/sb_migr.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\projects.new\sh\cvstogit\slackbuilds\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01154386-1C11-4E08-895F-187122684BA4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4CBA27A-1A03-4435-9F76-75B3504ECBF2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">List!$A$1:$G$311</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Revisions!$A$1:$F$345</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Revisions!$A$1:$F$357</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2316" uniqueCount="1336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2361" uniqueCount="1360">
   <si>
     <t>Package</t>
   </si>
@@ -1930,9 +1930,6 @@
     <t>Message</t>
   </si>
   <si>
-    <t>Initial version</t>
-  </si>
-  <si>
     <t>Branch</t>
   </si>
   <si>
@@ -2866,9 +2863,6 @@
     <t>https://github.com/gdsotirov/mysql.SlackBuild.git</t>
   </si>
   <si>
-    <t>2005-01-22 20:31:42 +0200</t>
-  </si>
-  <si>
     <t>2005-01-22 20:48:22 +0200</t>
   </si>
   <si>
@@ -3139,9 +3133,6 @@
     <t>Updates for Slackware 12</t>
   </si>
   <si>
-    <t>branch_sw</t>
-  </si>
-  <si>
     <t>SLACK-12_1</t>
   </si>
   <si>
@@ -3292,9 +3283,6 @@
     <t>2005-10-28 19:59:11 +0200</t>
   </si>
   <si>
-    <t>2005-02-07 00:00:00 +0200</t>
-  </si>
-  <si>
     <t>SLACK-12_2</t>
   </si>
   <si>
@@ -4046,6 +4034,90 @@
   </si>
   <si>
     <t>etc/slack-package.conf:slack-package.conf</t>
+  </si>
+  <si>
+    <t>2016-10-13 14:43:52 +0300</t>
+  </si>
+  <si>
+    <t>xap/libreoffice.org:xap/libreoffice</t>
+  </si>
+  <si>
+    <t>Rename libreoffice submodule</t>
+  </si>
+  <si>
+    <t>2004-06-22 11:34:56 +0300</t>
+  </si>
+  <si>
+    <t>2006-02-19 13:26:11 +0200</t>
+  </si>
+  <si>
+    <t>Add license and readme</t>
+  </si>
+  <si>
+    <t>2011-10-09 22:42:54 +0300</t>
+  </si>
+  <si>
+    <t>switch</t>
+  </si>
+  <si>
+    <t>Fix support for 64-bit</t>
+  </si>
+  <si>
+    <t>merge</t>
+  </si>
+  <si>
+    <t>2011-10-15 15:05:33 +0300</t>
+  </si>
+  <si>
+    <t>slack-package.conf-51</t>
+  </si>
+  <si>
+    <t>slack-package.conf-7</t>
+  </si>
+  <si>
+    <t>2011-10-21 10:26:20 +0300</t>
+  </si>
+  <si>
+    <t>slack-package.conf-8</t>
+  </si>
+  <si>
+    <t>Do not use -fPIC by default, as it could be applied to some static libraries</t>
+  </si>
+  <si>
+    <t>Merge support for 64-bit changes from SLACK-13_1</t>
+  </si>
+  <si>
+    <t>2011-10-21 10:57:40 +0300</t>
+  </si>
+  <si>
+    <t>2012-08-19 15:46:40 +0300</t>
+  </si>
+  <si>
+    <t>slack-package.conf-9</t>
+  </si>
+  <si>
+    <t>Allow modification of ARCH from environment</t>
+  </si>
+  <si>
+    <t>2016-07-04 18:19:03 +0300</t>
+  </si>
+  <si>
+    <t>slack-package.conf-10</t>
+  </si>
+  <si>
+    <t>2017-06-01 11:26:30 +0300</t>
+  </si>
+  <si>
+    <t>slack-package.conf-11</t>
+  </si>
+  <si>
+    <t>merge_ff</t>
+  </si>
+  <si>
+    <t>Bump config version for Slackware 14.2, set default ARCH to i586 and add flags</t>
+  </si>
+  <si>
+    <t>Gzip all regular files after linking in order to include man pages from subsections (e.g. c, m, p, pm, x, etc). See https://en.wikipedia.org/wiki/Man_page#Manual_sections</t>
   </si>
 </sst>
 </file>
@@ -4056,12 +4128,20 @@
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4152,22 +4232,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="